--- a/Data/National Accounts/PSA-21OS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-21OS_2018PSNA_Qrt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2021\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2021\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -458,7 +458,7 @@
     <definedName name="x0713t6a">#REF!</definedName>
     <definedName name="x0713t8a">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="51">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -614,13 +614,13 @@
     <t>2021 - 2021</t>
   </si>
   <si>
-    <t>As of August 2021</t>
+    <t>As of November 2021</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2021</t>
+    <t>Q1 2000 to Q3 2021</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2021</t>
+    <t>Q1 2001 to Q3 2021</t>
   </si>
 </sst>
 </file>
@@ -23641,7 +23641,7 @@
   </sheetPr>
   <dimension ref="A1:EY130"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BU1" activePane="topRight" state="frozen"/>
       <selection activeCell="CE141" sqref="CA141:CE149"/>
       <selection pane="topRight" activeCell="A3" sqref="A3"/>
@@ -23651,8 +23651,8 @@
   <cols>
     <col min="1" max="1" width="41.90625" style="1" customWidth="1"/>
     <col min="2" max="81" width="9" style="12" customWidth="1"/>
-    <col min="82" max="87" width="9" style="30" customWidth="1"/>
-    <col min="88" max="16384" width="7.81640625" style="12"/>
+    <col min="82" max="88" width="10.36328125" style="30" customWidth="1"/>
+    <col min="89" max="16384" width="7.81640625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -23665,6 +23665,7 @@
       <c r="CG1" s="19"/>
       <c r="CH1" s="19"/>
       <c r="CI1" s="19"/>
+      <c r="CJ1" s="19"/>
     </row>
     <row r="2" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -23676,6 +23677,7 @@
       <c r="CG2" s="19"/>
       <c r="CH2" s="19"/>
       <c r="CI2" s="19"/>
+      <c r="CJ2" s="19"/>
     </row>
     <row r="3" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -23687,6 +23689,7 @@
       <c r="CG3" s="19"/>
       <c r="CH3" s="19"/>
       <c r="CI3" s="19"/>
+      <c r="CJ3" s="19"/>
     </row>
     <row r="4" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -23696,6 +23699,7 @@
       <c r="CG4" s="19"/>
       <c r="CH4" s="19"/>
       <c r="CI4" s="19"/>
+      <c r="CJ4" s="19"/>
     </row>
     <row r="5" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -23707,6 +23711,7 @@
       <c r="CG5" s="19"/>
       <c r="CH5" s="19"/>
       <c r="CI5" s="19"/>
+      <c r="CJ5" s="19"/>
     </row>
     <row r="6" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -23718,6 +23723,7 @@
       <c r="CG6" s="19"/>
       <c r="CH6" s="19"/>
       <c r="CI6" s="19"/>
+      <c r="CJ6" s="19"/>
     </row>
     <row r="7" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -23729,6 +23735,7 @@
       <c r="CG7" s="19"/>
       <c r="CH7" s="19"/>
       <c r="CI7" s="19"/>
+      <c r="CJ7" s="19"/>
     </row>
     <row r="8" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -23818,6 +23825,7 @@
       <c r="CG8" s="20"/>
       <c r="CH8" s="20"/>
       <c r="CI8" s="20"/>
+      <c r="CJ8" s="20"/>
     </row>
     <row r="9" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
@@ -23951,6 +23959,7 @@
         <v>2021</v>
       </c>
       <c r="CI9" s="32"/>
+      <c r="CJ9" s="32"/>
     </row>
     <row r="10" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -24213,6 +24222,9 @@
       </c>
       <c r="CI10" s="21" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ10" s="21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24303,6 +24315,7 @@
       <c r="CG11" s="20"/>
       <c r="CH11" s="20"/>
       <c r="CI11" s="20"/>
+      <c r="CJ11" s="20"/>
     </row>
     <row r="12" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
@@ -24564,9 +24577,11 @@
         <v>34359.79005139049</v>
       </c>
       <c r="CI12" s="22">
-        <v>33088.490817554382</v>
-      </c>
-      <c r="CJ12" s="11"/>
+        <v>32934.632216273138</v>
+      </c>
+      <c r="CJ12" s="22">
+        <v>31052.287806911198</v>
+      </c>
       <c r="CK12" s="11"/>
       <c r="CL12" s="11"/>
       <c r="CM12" s="11"/>
@@ -24895,9 +24910,11 @@
         <v>32815.823343175747</v>
       </c>
       <c r="CI13" s="22">
-        <v>29537.594515599143</v>
-      </c>
-      <c r="CJ13" s="11"/>
+        <v>28765.181851902711</v>
+      </c>
+      <c r="CJ13" s="22">
+        <v>26585.621777541426</v>
+      </c>
       <c r="CK13" s="11"/>
       <c r="CL13" s="11"/>
       <c r="CM13" s="11"/>
@@ -25053,7 +25070,7 @@
       <c r="CG14" s="23"/>
       <c r="CH14" s="23"/>
       <c r="CI14" s="23"/>
-      <c r="CJ14" s="11"/>
+      <c r="CJ14" s="23"/>
       <c r="CK14" s="11"/>
       <c r="CL14" s="11"/>
       <c r="CM14" s="11"/>
@@ -25382,9 +25399,11 @@
         <v>67175.61339456623</v>
       </c>
       <c r="CI15" s="23">
-        <v>62626.085333153525</v>
-      </c>
-      <c r="CJ15" s="11"/>
+        <v>61699.814068175852</v>
+      </c>
+      <c r="CJ15" s="23">
+        <v>57637.909584452624</v>
+      </c>
       <c r="CK15" s="11"/>
       <c r="CL15" s="11"/>
       <c r="CM15" s="11"/>
@@ -25541,6 +25560,7 @@
       <c r="CG16" s="24"/>
       <c r="CH16" s="24"/>
       <c r="CI16" s="24"/>
+      <c r="CJ16" s="24"/>
     </row>
     <row r="17" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
@@ -25632,6 +25652,7 @@
       <c r="CG17" s="20"/>
       <c r="CH17" s="20"/>
       <c r="CI17" s="20"/>
+      <c r="CJ17" s="20"/>
     </row>
     <row r="18" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="17"/>
@@ -25720,7 +25741,7 @@
       <c r="CG18" s="25"/>
       <c r="CH18" s="25"/>
       <c r="CI18" s="25"/>
-      <c r="CJ18" s="11"/>
+      <c r="CJ18" s="25"/>
       <c r="CK18" s="11"/>
       <c r="CL18" s="11"/>
       <c r="CM18" s="11"/>
@@ -25876,7 +25897,7 @@
       <c r="CG19" s="25"/>
       <c r="CH19" s="25"/>
       <c r="CI19" s="25"/>
-      <c r="CJ19" s="11"/>
+      <c r="CJ19" s="25"/>
       <c r="CK19" s="11"/>
       <c r="CL19" s="11"/>
       <c r="CM19" s="11"/>
@@ -26035,6 +26056,7 @@
       <c r="CG20" s="20"/>
       <c r="CH20" s="20"/>
       <c r="CI20" s="20"/>
+      <c r="CJ20" s="20"/>
     </row>
     <row r="21" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -26126,6 +26148,7 @@
       <c r="CG21" s="20"/>
       <c r="CH21" s="20"/>
       <c r="CI21" s="20"/>
+      <c r="CJ21" s="20"/>
     </row>
     <row r="22" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -26217,6 +26240,7 @@
       <c r="CG22" s="20"/>
       <c r="CH22" s="20"/>
       <c r="CI22" s="20"/>
+      <c r="CJ22" s="20"/>
     </row>
     <row r="23" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
@@ -26306,6 +26330,7 @@
       <c r="CG23" s="20"/>
       <c r="CH23" s="20"/>
       <c r="CI23" s="20"/>
+      <c r="CJ23" s="20"/>
     </row>
     <row r="24" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -26397,6 +26422,7 @@
       <c r="CG24" s="20"/>
       <c r="CH24" s="20"/>
       <c r="CI24" s="20"/>
+      <c r="CJ24" s="20"/>
     </row>
     <row r="25" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -26488,6 +26514,7 @@
       <c r="CG25" s="20"/>
       <c r="CH25" s="20"/>
       <c r="CI25" s="20"/>
+      <c r="CJ25" s="20"/>
     </row>
     <row r="26" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -26579,6 +26606,7 @@
       <c r="CG26" s="20"/>
       <c r="CH26" s="20"/>
       <c r="CI26" s="20"/>
+      <c r="CJ26" s="20"/>
     </row>
     <row r="27" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
@@ -26668,6 +26696,7 @@
       <c r="CG27" s="20"/>
       <c r="CH27" s="20"/>
       <c r="CI27" s="20"/>
+      <c r="CJ27" s="20"/>
     </row>
     <row r="28" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
@@ -26803,6 +26832,7 @@
       <c r="CI28" s="32">
         <v>0</v>
       </c>
+      <c r="CJ28" s="32"/>
     </row>
     <row r="29" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
@@ -27065,6 +27095,9 @@
       </c>
       <c r="CI29" s="21" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ29" s="21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27155,6 +27188,7 @@
       <c r="CG30" s="20"/>
       <c r="CH30" s="20"/>
       <c r="CI30" s="20"/>
+      <c r="CJ30" s="20"/>
     </row>
     <row r="31" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
@@ -27416,9 +27450,11 @@
         <v>33570.762662069799</v>
       </c>
       <c r="CI31" s="22">
-        <v>31926.441440127182</v>
-      </c>
-      <c r="CJ31" s="11"/>
+        <v>31824.27086371804</v>
+      </c>
+      <c r="CJ31" s="22">
+        <v>29822.794924964212</v>
+      </c>
       <c r="CK31" s="11"/>
       <c r="CL31" s="11"/>
       <c r="CM31" s="11"/>
@@ -27747,9 +27783,11 @@
         <v>29508.709154032811</v>
       </c>
       <c r="CI32" s="22">
-        <v>26761.337504184201</v>
-      </c>
-      <c r="CJ32" s="11"/>
+        <v>26096.433565107174</v>
+      </c>
+      <c r="CJ32" s="22">
+        <v>24218.243446772525</v>
+      </c>
       <c r="CK32" s="11"/>
       <c r="CL32" s="11"/>
       <c r="CM32" s="11"/>
@@ -27905,7 +27943,7 @@
       <c r="CG33" s="23"/>
       <c r="CH33" s="23"/>
       <c r="CI33" s="23"/>
-      <c r="CJ33" s="11"/>
+      <c r="CJ33" s="23"/>
       <c r="CK33" s="11"/>
       <c r="CL33" s="11"/>
       <c r="CM33" s="11"/>
@@ -28234,9 +28272,11 @@
         <v>63079.47181610261</v>
       </c>
       <c r="CI34" s="23">
-        <v>58687.778944311387</v>
-      </c>
-      <c r="CJ34" s="11"/>
+        <v>57920.704428825215</v>
+      </c>
+      <c r="CJ34" s="23">
+        <v>54041.038371736737</v>
+      </c>
       <c r="CK34" s="11"/>
       <c r="CL34" s="11"/>
       <c r="CM34" s="11"/>
@@ -28393,6 +28433,7 @@
       <c r="CG35" s="24"/>
       <c r="CH35" s="24"/>
       <c r="CI35" s="24"/>
+      <c r="CJ35" s="24"/>
     </row>
     <row r="36" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
@@ -28484,6 +28525,7 @@
       <c r="CG36" s="20"/>
       <c r="CH36" s="20"/>
       <c r="CI36" s="20"/>
+      <c r="CJ36" s="20"/>
     </row>
     <row r="37" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="17"/>
@@ -28572,7 +28614,7 @@
       <c r="CG37" s="25"/>
       <c r="CH37" s="25"/>
       <c r="CI37" s="25"/>
-      <c r="CJ37" s="11"/>
+      <c r="CJ37" s="25"/>
       <c r="CK37" s="11"/>
       <c r="CL37" s="11"/>
       <c r="CM37" s="11"/>
@@ -28728,7 +28770,7 @@
       <c r="CG38" s="25"/>
       <c r="CH38" s="25"/>
       <c r="CI38" s="25"/>
-      <c r="CJ38" s="11"/>
+      <c r="CJ38" s="25"/>
       <c r="CK38" s="11"/>
       <c r="CL38" s="11"/>
       <c r="CM38" s="11"/>
@@ -28887,6 +28929,7 @@
       <c r="CG39" s="20"/>
       <c r="CH39" s="20"/>
       <c r="CI39" s="20"/>
+      <c r="CJ39" s="20"/>
     </row>
     <row r="40" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -28978,6 +29021,7 @@
       <c r="CG40" s="20"/>
       <c r="CH40" s="20"/>
       <c r="CI40" s="20"/>
+      <c r="CJ40" s="20"/>
     </row>
     <row r="41" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -29069,6 +29113,7 @@
       <c r="CG41" s="20"/>
       <c r="CH41" s="20"/>
       <c r="CI41" s="20"/>
+      <c r="CJ41" s="20"/>
     </row>
     <row r="42" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
@@ -29158,6 +29203,7 @@
       <c r="CG42" s="20"/>
       <c r="CH42" s="20"/>
       <c r="CI42" s="20"/>
+      <c r="CJ42" s="20"/>
     </row>
     <row r="43" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -29249,6 +29295,7 @@
       <c r="CG43" s="20"/>
       <c r="CH43" s="20"/>
       <c r="CI43" s="20"/>
+      <c r="CJ43" s="20"/>
     </row>
     <row r="44" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
@@ -29340,6 +29387,7 @@
       <c r="CG44" s="20"/>
       <c r="CH44" s="20"/>
       <c r="CI44" s="20"/>
+      <c r="CJ44" s="20"/>
     </row>
     <row r="45" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -29430,6 +29478,7 @@
       <c r="CG45" s="19"/>
       <c r="CH45" s="19"/>
       <c r="CI45" s="19"/>
+      <c r="CJ45" s="19"/>
     </row>
     <row r="46" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
@@ -29519,6 +29568,7 @@
       <c r="CG46" s="20"/>
       <c r="CH46" s="20"/>
       <c r="CI46" s="20"/>
+      <c r="CJ46" s="20"/>
     </row>
     <row r="47" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
@@ -29652,6 +29702,7 @@
       <c r="CG47" s="26"/>
       <c r="CH47" s="26"/>
       <c r="CI47" s="26"/>
+      <c r="CJ47" s="26"/>
     </row>
     <row r="48" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
@@ -29903,10 +29954,13 @@
       <c r="CE48" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="CF48" s="27"/>
+      <c r="CF48" s="31" t="s">
+        <v>10</v>
+      </c>
       <c r="CG48" s="27"/>
       <c r="CH48" s="27"/>
       <c r="CI48" s="27"/>
+      <c r="CJ48" s="27"/>
     </row>
     <row r="49" spans="1:151" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
@@ -29996,6 +30050,7 @@
       <c r="CG49" s="20"/>
       <c r="CH49" s="20"/>
       <c r="CI49" s="20"/>
+      <c r="CJ49" s="20"/>
     </row>
     <row r="50" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
@@ -30245,13 +30300,15 @@
         <v>-46.132896988566351</v>
       </c>
       <c r="CE50" s="29">
-        <v>60.489682167152068</v>
-      </c>
-      <c r="CF50" s="25"/>
+        <v>59.74341911893805</v>
+      </c>
+      <c r="CF50" s="29">
+        <v>34.901392753976268</v>
+      </c>
       <c r="CG50" s="25"/>
       <c r="CH50" s="25"/>
       <c r="CI50" s="25"/>
-      <c r="CJ50" s="11"/>
+      <c r="CJ50" s="25"/>
       <c r="CK50" s="11"/>
       <c r="CL50" s="11"/>
       <c r="CM50" s="11"/>
@@ -30564,13 +30621,15 @@
         <v>-24.74954127664212</v>
       </c>
       <c r="CE51" s="29">
-        <v>23.776350395540447</v>
-      </c>
-      <c r="CF51" s="25"/>
+        <v>20.539579694353137</v>
+      </c>
+      <c r="CF51" s="29">
+        <v>8.6347733025006619</v>
+      </c>
       <c r="CG51" s="25"/>
       <c r="CH51" s="25"/>
       <c r="CI51" s="25"/>
-      <c r="CJ51" s="11"/>
+      <c r="CJ51" s="25"/>
       <c r="CK51" s="11"/>
       <c r="CL51" s="11"/>
       <c r="CM51" s="11"/>
@@ -30723,7 +30782,7 @@
       <c r="CG52" s="25"/>
       <c r="CH52" s="25"/>
       <c r="CI52" s="25"/>
-      <c r="CJ52" s="11"/>
+      <c r="CJ52" s="25"/>
       <c r="CK52" s="11"/>
       <c r="CL52" s="11"/>
       <c r="CM52" s="11"/>
@@ -31036,13 +31095,15 @@
         <v>-37.44997589142416</v>
       </c>
       <c r="CE53" s="29">
-        <v>40.793239892558091</v>
-      </c>
-      <c r="CF53" s="25"/>
+        <v>38.710837141023745</v>
+      </c>
+      <c r="CF53" s="29">
+        <v>21.365997288074709</v>
+      </c>
       <c r="CG53" s="25"/>
       <c r="CH53" s="25"/>
       <c r="CI53" s="25"/>
-      <c r="CJ53" s="11"/>
+      <c r="CJ53" s="25"/>
       <c r="CK53" s="11"/>
       <c r="CL53" s="11"/>
       <c r="CM53" s="11"/>
@@ -31195,6 +31256,7 @@
       <c r="CG54" s="24"/>
       <c r="CH54" s="24"/>
       <c r="CI54" s="24"/>
+      <c r="CJ54" s="24"/>
     </row>
     <row r="55" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
@@ -31286,6 +31348,7 @@
       <c r="CG55" s="20"/>
       <c r="CH55" s="20"/>
       <c r="CI55" s="20"/>
+      <c r="CJ55" s="20"/>
     </row>
     <row r="56" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="17"/>
@@ -31374,7 +31437,7 @@
       <c r="CG56" s="25"/>
       <c r="CH56" s="25"/>
       <c r="CI56" s="25"/>
-      <c r="CJ56" s="11"/>
+      <c r="CJ56" s="25"/>
       <c r="CK56" s="11"/>
       <c r="CL56" s="11"/>
       <c r="CM56" s="11"/>
@@ -31526,7 +31589,7 @@
       <c r="CG57" s="25"/>
       <c r="CH57" s="25"/>
       <c r="CI57" s="25"/>
-      <c r="CJ57" s="11"/>
+      <c r="CJ57" s="25"/>
       <c r="CK57" s="11"/>
       <c r="CL57" s="11"/>
       <c r="CM57" s="11"/>
@@ -31681,6 +31744,7 @@
       <c r="CG58" s="20"/>
       <c r="CH58" s="20"/>
       <c r="CI58" s="20"/>
+      <c r="CJ58" s="20"/>
     </row>
     <row r="59" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -31772,6 +31836,7 @@
       <c r="CG59" s="20"/>
       <c r="CH59" s="20"/>
       <c r="CI59" s="20"/>
+      <c r="CJ59" s="20"/>
     </row>
     <row r="60" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
@@ -31863,6 +31928,7 @@
       <c r="CG60" s="20"/>
       <c r="CH60" s="20"/>
       <c r="CI60" s="20"/>
+      <c r="CJ60" s="20"/>
     </row>
     <row r="61" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
@@ -31952,6 +32018,7 @@
       <c r="CG61" s="20"/>
       <c r="CH61" s="20"/>
       <c r="CI61" s="20"/>
+      <c r="CJ61" s="20"/>
     </row>
     <row r="62" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -32043,6 +32110,7 @@
       <c r="CG62" s="20"/>
       <c r="CH62" s="20"/>
       <c r="CI62" s="20"/>
+      <c r="CJ62" s="20"/>
     </row>
     <row r="63" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -32134,6 +32202,7 @@
       <c r="CG63" s="20"/>
       <c r="CH63" s="20"/>
       <c r="CI63" s="20"/>
+      <c r="CJ63" s="20"/>
     </row>
     <row r="64" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
@@ -32225,6 +32294,7 @@
       <c r="CG64" s="20"/>
       <c r="CH64" s="20"/>
       <c r="CI64" s="20"/>
+      <c r="CJ64" s="20"/>
     </row>
     <row r="65" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
@@ -32314,6 +32384,7 @@
       <c r="CG65" s="20"/>
       <c r="CH65" s="20"/>
       <c r="CI65" s="20"/>
+      <c r="CJ65" s="20"/>
     </row>
     <row r="66" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
@@ -32443,10 +32514,11 @@
       <c r="CE66" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="CF66" s="26"/>
+      <c r="CF66" s="32"/>
       <c r="CG66" s="26"/>
       <c r="CH66" s="26"/>
       <c r="CI66" s="26"/>
+      <c r="CJ66" s="26"/>
     </row>
     <row r="67" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
@@ -32698,10 +32770,13 @@
       <c r="CE67" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="CF67" s="27"/>
+      <c r="CF67" s="31" t="s">
+        <v>10</v>
+      </c>
       <c r="CG67" s="27"/>
       <c r="CH67" s="27"/>
       <c r="CI67" s="27"/>
+      <c r="CJ67" s="27"/>
     </row>
     <row r="68" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
@@ -32791,6 +32866,7 @@
       <c r="CG68" s="20"/>
       <c r="CH68" s="20"/>
       <c r="CI68" s="20"/>
+      <c r="CJ68" s="20"/>
     </row>
     <row r="69" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="s">
@@ -33040,13 +33116,15 @@
         <v>-45.489609220833884</v>
       </c>
       <c r="CE69" s="29">
-        <v>62.616889540764959</v>
-      </c>
-      <c r="CF69" s="25"/>
+        <v>62.096485117697654</v>
+      </c>
+      <c r="CF69" s="29">
+        <v>35.202763868716772</v>
+      </c>
       <c r="CG69" s="25"/>
       <c r="CH69" s="25"/>
       <c r="CI69" s="25"/>
-      <c r="CJ69" s="11"/>
+      <c r="CJ69" s="25"/>
       <c r="CK69" s="11"/>
       <c r="CL69" s="11"/>
       <c r="CM69" s="11"/>
@@ -33359,13 +33437,15 @@
         <v>-28.670919444686604</v>
       </c>
       <c r="CE70" s="29">
-        <v>19.086277893424068</v>
-      </c>
-      <c r="CF70" s="25"/>
+        <v>16.127496956223951</v>
+      </c>
+      <c r="CF70" s="29">
+        <v>5.9395743820162892</v>
+      </c>
       <c r="CG70" s="25"/>
       <c r="CH70" s="25"/>
       <c r="CI70" s="25"/>
-      <c r="CJ70" s="11"/>
+      <c r="CJ70" s="25"/>
       <c r="CK70" s="11"/>
       <c r="CL70" s="11"/>
       <c r="CM70" s="11"/>
@@ -33517,7 +33597,7 @@
       <c r="CG71" s="25"/>
       <c r="CH71" s="25"/>
       <c r="CI71" s="25"/>
-      <c r="CJ71" s="11"/>
+      <c r="CJ71" s="25"/>
       <c r="CK71" s="11"/>
       <c r="CL71" s="11"/>
       <c r="CM71" s="11"/>
@@ -33830,13 +33910,15 @@
         <v>-38.731504558974287</v>
       </c>
       <c r="CE72" s="29">
-        <v>39.383867690692341</v>
-      </c>
-      <c r="CF72" s="25"/>
+        <v>37.562060583681529</v>
+      </c>
+      <c r="CF72" s="29">
+        <v>20.309731037595057</v>
+      </c>
       <c r="CG72" s="25"/>
       <c r="CH72" s="25"/>
       <c r="CI72" s="25"/>
-      <c r="CJ72" s="11"/>
+      <c r="CJ72" s="25"/>
       <c r="CK72" s="11"/>
       <c r="CL72" s="11"/>
       <c r="CM72" s="11"/>
@@ -33989,6 +34071,7 @@
       <c r="CG73" s="24"/>
       <c r="CH73" s="24"/>
       <c r="CI73" s="24"/>
+      <c r="CJ73" s="24"/>
     </row>
     <row r="74" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
@@ -34080,6 +34163,7 @@
       <c r="CG74" s="20"/>
       <c r="CH74" s="20"/>
       <c r="CI74" s="20"/>
+      <c r="CJ74" s="20"/>
     </row>
     <row r="75" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="17"/>
@@ -34168,7 +34252,7 @@
       <c r="CG75" s="28"/>
       <c r="CH75" s="28"/>
       <c r="CI75" s="28"/>
-      <c r="CJ75" s="11"/>
+      <c r="CJ75" s="28"/>
       <c r="CK75" s="11"/>
       <c r="CL75" s="11"/>
       <c r="CM75" s="11"/>
@@ -34320,7 +34404,7 @@
       <c r="CG76" s="25"/>
       <c r="CH76" s="25"/>
       <c r="CI76" s="25"/>
-      <c r="CJ76" s="11"/>
+      <c r="CJ76" s="25"/>
       <c r="CK76" s="11"/>
       <c r="CL76" s="11"/>
       <c r="CM76" s="11"/>
@@ -34479,6 +34563,7 @@
       <c r="CG77" s="20"/>
       <c r="CH77" s="20"/>
       <c r="CI77" s="20"/>
+      <c r="CJ77" s="20"/>
     </row>
     <row r="78" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
@@ -34570,6 +34655,7 @@
       <c r="CG78" s="20"/>
       <c r="CH78" s="20"/>
       <c r="CI78" s="20"/>
+      <c r="CJ78" s="20"/>
     </row>
     <row r="79" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
@@ -34659,6 +34745,7 @@
       <c r="CG79" s="20"/>
       <c r="CH79" s="20"/>
       <c r="CI79" s="20"/>
+      <c r="CJ79" s="20"/>
     </row>
     <row r="80" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
@@ -34750,6 +34837,7 @@
       <c r="CG80" s="20"/>
       <c r="CH80" s="20"/>
       <c r="CI80" s="20"/>
+      <c r="CJ80" s="20"/>
     </row>
     <row r="81" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
@@ -34841,6 +34929,7 @@
       <c r="CG81" s="20"/>
       <c r="CH81" s="20"/>
       <c r="CI81" s="20"/>
+      <c r="CJ81" s="20"/>
     </row>
     <row r="82" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
@@ -34932,6 +35021,7 @@
       <c r="CG82" s="20"/>
       <c r="CH82" s="20"/>
       <c r="CI82" s="20"/>
+      <c r="CJ82" s="20"/>
     </row>
     <row r="83" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
@@ -35021,6 +35111,7 @@
       <c r="CG83" s="20"/>
       <c r="CH83" s="20"/>
       <c r="CI83" s="20"/>
+      <c r="CJ83" s="20"/>
     </row>
     <row r="84" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
@@ -35156,6 +35247,7 @@
       <c r="CI84" s="32">
         <v>0</v>
       </c>
+      <c r="CJ84" s="32"/>
     </row>
     <row r="85" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
@@ -35418,6 +35510,9 @@
       </c>
       <c r="CI85" s="21" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ85" s="21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -35508,6 +35603,7 @@
       <c r="CG86" s="20"/>
       <c r="CH86" s="20"/>
       <c r="CI86" s="20"/>
+      <c r="CJ86" s="20"/>
     </row>
     <row r="87" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="9" t="s">
@@ -35769,9 +35865,11 @@
         <v>102.3503409715865</v>
       </c>
       <c r="CI87" s="29">
-        <v>103.6397710643901</v>
-      </c>
-      <c r="CJ87" s="11"/>
+        <v>103.48903941054934</v>
+      </c>
+      <c r="CJ87" s="29">
+        <v>104.12266149111933</v>
+      </c>
       <c r="CK87" s="11"/>
       <c r="CL87" s="11"/>
       <c r="CM87" s="11"/>
@@ -36100,9 +36198,11 @@
         <v>111.20724790732153</v>
       </c>
       <c r="CI88" s="29">
-        <v>110.37413399453919</v>
-      </c>
-      <c r="CJ88" s="11"/>
+        <v>110.22648661985693</v>
+      </c>
+      <c r="CJ88" s="29">
+        <v>109.77518595009579</v>
+      </c>
       <c r="CK88" s="11"/>
       <c r="CL88" s="11"/>
       <c r="CM88" s="11"/>
@@ -36258,7 +36358,7 @@
       <c r="CG89" s="25"/>
       <c r="CH89" s="25"/>
       <c r="CI89" s="25"/>
-      <c r="CJ89" s="11"/>
+      <c r="CJ89" s="25"/>
       <c r="CK89" s="11"/>
       <c r="CL89" s="11"/>
       <c r="CM89" s="11"/>
@@ -36587,9 +36687,11 @@
         <v>106.49362060355423</v>
       </c>
       <c r="CI90" s="29">
-        <v>106.7106073183979</v>
-      </c>
-      <c r="CJ90" s="11"/>
+        <v>106.52462651588523</v>
+      </c>
+      <c r="CJ90" s="29">
+        <v>106.65581439789106</v>
+      </c>
       <c r="CK90" s="11"/>
       <c r="CL90" s="11"/>
       <c r="CM90" s="11"/>
@@ -36746,6 +36848,7 @@
       <c r="CG91" s="24"/>
       <c r="CH91" s="24"/>
       <c r="CI91" s="24"/>
+      <c r="CJ91" s="24"/>
     </row>
     <row r="92" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="16" t="s">
@@ -36837,6 +36940,7 @@
       <c r="CG92" s="20"/>
       <c r="CH92" s="20"/>
       <c r="CI92" s="20"/>
+      <c r="CJ92" s="20"/>
     </row>
     <row r="93" spans="1:155" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
@@ -36925,6 +37029,7 @@
       <c r="CG93" s="20"/>
       <c r="CH93" s="20"/>
       <c r="CI93" s="20"/>
+      <c r="CJ93" s="20"/>
     </row>
     <row r="94" spans="1:155" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
@@ -37013,6 +37118,7 @@
       <c r="CG94" s="20"/>
       <c r="CH94" s="20"/>
       <c r="CI94" s="20"/>
+      <c r="CJ94" s="20"/>
     </row>
     <row r="95" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
@@ -37104,6 +37210,7 @@
       <c r="CG95" s="20"/>
       <c r="CH95" s="20"/>
       <c r="CI95" s="20"/>
+      <c r="CJ95" s="20"/>
     </row>
     <row r="96" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
@@ -37195,6 +37302,7 @@
       <c r="CG96" s="20"/>
       <c r="CH96" s="20"/>
       <c r="CI96" s="20"/>
+      <c r="CJ96" s="20"/>
     </row>
     <row r="97" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
@@ -37286,6 +37394,7 @@
       <c r="CG97" s="20"/>
       <c r="CH97" s="20"/>
       <c r="CI97" s="20"/>
+      <c r="CJ97" s="20"/>
     </row>
     <row r="98" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
@@ -37375,6 +37484,7 @@
       <c r="CG98" s="20"/>
       <c r="CH98" s="20"/>
       <c r="CI98" s="20"/>
+      <c r="CJ98" s="20"/>
     </row>
     <row r="99" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
@@ -37466,6 +37576,7 @@
       <c r="CG99" s="20"/>
       <c r="CH99" s="20"/>
       <c r="CI99" s="20"/>
+      <c r="CJ99" s="20"/>
     </row>
     <row r="100" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
@@ -37557,6 +37668,7 @@
       <c r="CG100" s="20"/>
       <c r="CH100" s="20"/>
       <c r="CI100" s="20"/>
+      <c r="CJ100" s="20"/>
     </row>
     <row r="101" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
@@ -37648,6 +37760,7 @@
       <c r="CG101" s="20"/>
       <c r="CH101" s="20"/>
       <c r="CI101" s="20"/>
+      <c r="CJ101" s="20"/>
     </row>
     <row r="102" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
@@ -37737,6 +37850,7 @@
       <c r="CG102" s="20"/>
       <c r="CH102" s="20"/>
       <c r="CI102" s="20"/>
+      <c r="CJ102" s="20"/>
     </row>
     <row r="103" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
@@ -37872,6 +37986,7 @@
       <c r="CI103" s="32">
         <v>0</v>
       </c>
+      <c r="CJ103" s="32"/>
     </row>
     <row r="104" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
@@ -38134,6 +38249,9 @@
       </c>
       <c r="CI104" s="21" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ104" s="21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -38224,6 +38342,7 @@
       <c r="CG105" s="20"/>
       <c r="CH105" s="20"/>
       <c r="CI105" s="20"/>
+      <c r="CJ105" s="20"/>
     </row>
     <row r="106" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="9" t="s">
@@ -38485,9 +38604,11 @@
         <v>51.149201793771518</v>
       </c>
       <c r="CI106" s="29">
-        <v>52.834997815259769</v>
-      </c>
-      <c r="CJ106" s="11"/>
+        <v>53.378819229311894</v>
+      </c>
+      <c r="CJ106" s="29">
+        <v>53.874764075911784</v>
+      </c>
       <c r="CK106" s="11"/>
       <c r="CL106" s="11"/>
       <c r="CM106" s="11"/>
@@ -38816,9 +38937,11 @@
         <v>48.85079820622849</v>
       </c>
       <c r="CI107" s="29">
-        <v>47.165002184740231</v>
-      </c>
-      <c r="CJ107" s="11"/>
+        <v>46.621180770688099</v>
+      </c>
+      <c r="CJ107" s="29">
+        <v>46.125235924088216</v>
+      </c>
       <c r="CK107" s="11"/>
       <c r="CL107" s="11"/>
       <c r="CM107" s="11"/>
@@ -38974,7 +39097,7 @@
       <c r="CG108" s="25"/>
       <c r="CH108" s="25"/>
       <c r="CI108" s="25"/>
-      <c r="CJ108" s="11"/>
+      <c r="CJ108" s="25"/>
       <c r="CK108" s="11"/>
       <c r="CL108" s="11"/>
       <c r="CM108" s="11"/>
@@ -39305,7 +39428,9 @@
       <c r="CI109" s="29">
         <v>100</v>
       </c>
-      <c r="CJ109" s="11"/>
+      <c r="CJ109" s="29">
+        <v>100</v>
+      </c>
       <c r="CK109" s="11"/>
       <c r="CL109" s="11"/>
       <c r="CM109" s="11"/>
@@ -39462,6 +39587,7 @@
       <c r="CG110" s="24"/>
       <c r="CH110" s="24"/>
       <c r="CI110" s="24"/>
+      <c r="CJ110" s="24"/>
     </row>
     <row r="111" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="16" t="s">
@@ -39553,6 +39679,7 @@
       <c r="CG111" s="20"/>
       <c r="CH111" s="20"/>
       <c r="CI111" s="20"/>
+      <c r="CJ111" s="20"/>
     </row>
     <row r="112" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="17"/>
@@ -39641,7 +39768,7 @@
       <c r="CG112" s="25"/>
       <c r="CH112" s="25"/>
       <c r="CI112" s="25"/>
-      <c r="CJ112" s="11"/>
+      <c r="CJ112" s="25"/>
       <c r="CK112" s="11"/>
       <c r="CL112" s="11"/>
       <c r="CM112" s="11"/>
@@ -39797,7 +39924,7 @@
       <c r="CG113" s="25"/>
       <c r="CH113" s="25"/>
       <c r="CI113" s="25"/>
-      <c r="CJ113" s="11"/>
+      <c r="CJ113" s="25"/>
       <c r="CK113" s="11"/>
       <c r="CL113" s="11"/>
       <c r="CM113" s="11"/>
@@ -39956,6 +40083,7 @@
       <c r="CG114" s="20"/>
       <c r="CH114" s="20"/>
       <c r="CI114" s="20"/>
+      <c r="CJ114" s="20"/>
     </row>
     <row r="115" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
@@ -40047,6 +40175,7 @@
       <c r="CG115" s="20"/>
       <c r="CH115" s="20"/>
       <c r="CI115" s="20"/>
+      <c r="CJ115" s="20"/>
     </row>
     <row r="116" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
@@ -40138,6 +40267,7 @@
       <c r="CG116" s="20"/>
       <c r="CH116" s="20"/>
       <c r="CI116" s="20"/>
+      <c r="CJ116" s="20"/>
     </row>
     <row r="117" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
@@ -40227,6 +40357,7 @@
       <c r="CG117" s="20"/>
       <c r="CH117" s="20"/>
       <c r="CI117" s="20"/>
+      <c r="CJ117" s="20"/>
     </row>
     <row r="118" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
@@ -40318,6 +40449,7 @@
       <c r="CG118" s="20"/>
       <c r="CH118" s="20"/>
       <c r="CI118" s="20"/>
+      <c r="CJ118" s="20"/>
     </row>
     <row r="119" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
@@ -40409,6 +40541,7 @@
       <c r="CG119" s="20"/>
       <c r="CH119" s="20"/>
       <c r="CI119" s="20"/>
+      <c r="CJ119" s="20"/>
     </row>
     <row r="120" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
@@ -40500,6 +40633,7 @@
       <c r="CG120" s="20"/>
       <c r="CH120" s="20"/>
       <c r="CI120" s="20"/>
+      <c r="CJ120" s="20"/>
     </row>
     <row r="121" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
@@ -40589,6 +40723,7 @@
       <c r="CG121" s="20"/>
       <c r="CH121" s="20"/>
       <c r="CI121" s="20"/>
+      <c r="CJ121" s="20"/>
     </row>
     <row r="122" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
@@ -40724,6 +40859,7 @@
       <c r="CI122" s="32">
         <v>0</v>
       </c>
+      <c r="CJ122" s="32"/>
     </row>
     <row r="123" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
@@ -40986,6 +41122,9 @@
       </c>
       <c r="CI123" s="21" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ123" s="21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -41076,6 +41215,7 @@
       <c r="CG124" s="20"/>
       <c r="CH124" s="20"/>
       <c r="CI124" s="20"/>
+      <c r="CJ124" s="20"/>
     </row>
     <row r="125" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="9" t="s">
@@ -41337,9 +41477,11 @@
         <v>53.219790362131768</v>
       </c>
       <c r="CI125" s="29">
-        <v>54.400493619671764</v>
-      </c>
-      <c r="CJ125" s="11"/>
+        <v>54.94455079154762</v>
+      </c>
+      <c r="CJ125" s="29">
+        <v>55.185458724570736</v>
+      </c>
       <c r="CK125" s="11"/>
       <c r="CL125" s="11"/>
       <c r="CM125" s="11"/>
@@ -41668,9 +41810,11 @@
         <v>46.780209637868239</v>
       </c>
       <c r="CI126" s="29">
-        <v>45.599506380328236</v>
-      </c>
-      <c r="CJ126" s="11"/>
+        <v>45.05544920845238</v>
+      </c>
+      <c r="CJ126" s="29">
+        <v>44.814541275429256</v>
+      </c>
       <c r="CK126" s="11"/>
       <c r="CL126" s="11"/>
       <c r="CM126" s="11"/>
@@ -41826,7 +41970,7 @@
       <c r="CG127" s="25"/>
       <c r="CH127" s="25"/>
       <c r="CI127" s="25"/>
-      <c r="CJ127" s="11"/>
+      <c r="CJ127" s="25"/>
       <c r="CK127" s="11"/>
       <c r="CL127" s="11"/>
       <c r="CM127" s="11"/>
@@ -42157,7 +42301,9 @@
       <c r="CI128" s="29">
         <v>100</v>
       </c>
-      <c r="CJ128" s="11"/>
+      <c r="CJ128" s="29">
+        <v>100</v>
+      </c>
       <c r="CK128" s="11"/>
       <c r="CL128" s="11"/>
       <c r="CM128" s="11"/>
@@ -42226,7 +42372,7 @@
       <c r="EX128" s="11"/>
       <c r="EY128" s="11"/>
     </row>
-    <row r="129" spans="1:87" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:88" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="15"/>
       <c r="B129" s="15"/>
       <c r="C129" s="15"/>
@@ -42314,8 +42460,9 @@
       <c r="CG129" s="24"/>
       <c r="CH129" s="24"/>
       <c r="CI129" s="24"/>
+      <c r="CJ129" s="24"/>
     </row>
-    <row r="130" spans="1:87" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:88" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="16" t="s">
         <v>0</v>
       </c>
@@ -42405,6 +42552,7 @@
       <c r="CG130" s="20"/>
       <c r="CH130" s="20"/>
       <c r="CI130" s="20"/>
+      <c r="CJ130" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="152">
@@ -42536,13 +42684,13 @@
     <mergeCell ref="Z9:AC9"/>
     <mergeCell ref="AD9:AG9"/>
     <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="CH9:CI9"/>
-    <mergeCell ref="CH28:CI28"/>
+    <mergeCell ref="CH9:CJ9"/>
+    <mergeCell ref="CH28:CJ28"/>
+    <mergeCell ref="CD66:CF66"/>
+    <mergeCell ref="CH84:CJ84"/>
+    <mergeCell ref="CH103:CJ103"/>
+    <mergeCell ref="CH122:CJ122"/>
     <mergeCell ref="CD47:CE47"/>
-    <mergeCell ref="CD66:CE66"/>
-    <mergeCell ref="CH84:CI84"/>
-    <mergeCell ref="CH103:CI103"/>
-    <mergeCell ref="CH122:CI122"/>
     <mergeCell ref="BZ28:CC28"/>
     <mergeCell ref="B84:E84"/>
     <mergeCell ref="BR122:BU122"/>

--- a/Data/National Accounts/PSA-21OS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-21OS_2018PSNA_Qrt.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2021\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11424" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="OS" sheetId="15" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">OS!$A$1:$CI$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">OS!$A$1:$CK$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="50">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -611,16 +611,13 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>2021 - 2021</t>
+    <t>As of January 2022</t>
   </si>
   <si>
-    <t>As of November 2021</t>
+    <t>Q1 2000 to Q4 2021</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2021</t>
-  </si>
-  <si>
-    <t>Q1 2001 to Q3 2021</t>
+    <t>Q1 2001 to Q4 2021</t>
   </si>
 </sst>
 </file>
@@ -23642,17 +23639,17 @@
   <dimension ref="A1:EY130"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BU1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="CE141" sqref="CA141:CE149"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="41.90625" style="1" customWidth="1"/>
     <col min="2" max="81" width="9" style="12" customWidth="1"/>
-    <col min="82" max="88" width="10.36328125" style="30" customWidth="1"/>
-    <col min="89" max="16384" width="7.81640625" style="12"/>
+    <col min="82" max="89" width="9" style="30" customWidth="1"/>
+    <col min="90" max="16384" width="7.81640625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -23666,6 +23663,7 @@
       <c r="CH1" s="19"/>
       <c r="CI1" s="19"/>
       <c r="CJ1" s="19"/>
+      <c r="CK1" s="19"/>
     </row>
     <row r="2" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -23678,10 +23676,11 @@
       <c r="CH2" s="19"/>
       <c r="CI2" s="19"/>
       <c r="CJ2" s="19"/>
+      <c r="CK2" s="19"/>
     </row>
     <row r="3" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="CD3" s="19"/>
       <c r="CE3" s="19"/>
@@ -23690,6 +23689,7 @@
       <c r="CH3" s="19"/>
       <c r="CI3" s="19"/>
       <c r="CJ3" s="19"/>
+      <c r="CK3" s="19"/>
     </row>
     <row r="4" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -23700,6 +23700,7 @@
       <c r="CH4" s="19"/>
       <c r="CI4" s="19"/>
       <c r="CJ4" s="19"/>
+      <c r="CK4" s="19"/>
     </row>
     <row r="5" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -23712,10 +23713,11 @@
       <c r="CH5" s="19"/>
       <c r="CI5" s="19"/>
       <c r="CJ5" s="19"/>
+      <c r="CK5" s="19"/>
     </row>
     <row r="6" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="CD6" s="19"/>
       <c r="CE6" s="19"/>
@@ -23724,6 +23726,7 @@
       <c r="CH6" s="19"/>
       <c r="CI6" s="19"/>
       <c r="CJ6" s="19"/>
+      <c r="CK6" s="19"/>
     </row>
     <row r="7" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -23736,6 +23739,7 @@
       <c r="CH7" s="19"/>
       <c r="CI7" s="19"/>
       <c r="CJ7" s="19"/>
+      <c r="CK7" s="19"/>
     </row>
     <row r="8" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -23826,6 +23830,7 @@
       <c r="CH8" s="20"/>
       <c r="CI8" s="20"/>
       <c r="CJ8" s="20"/>
+      <c r="CK8" s="20"/>
     </row>
     <row r="9" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
@@ -23960,6 +23965,7 @@
       </c>
       <c r="CI9" s="32"/>
       <c r="CJ9" s="32"/>
+      <c r="CK9" s="32"/>
     </row>
     <row r="10" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -24225,6 +24231,9 @@
       </c>
       <c r="CJ10" s="21" t="s">
         <v>10</v>
+      </c>
+      <c r="CK10" s="21" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24316,6 +24325,7 @@
       <c r="CH11" s="20"/>
       <c r="CI11" s="20"/>
       <c r="CJ11" s="20"/>
+      <c r="CK11" s="20"/>
     </row>
     <row r="12" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
@@ -24580,9 +24590,11 @@
         <v>32934.632216273138</v>
       </c>
       <c r="CJ12" s="22">
-        <v>31052.287806911198</v>
-      </c>
-      <c r="CK12" s="11"/>
+        <v>31101.235178779076</v>
+      </c>
+      <c r="CK12" s="22">
+        <v>58316.452939734831</v>
+      </c>
       <c r="CL12" s="11"/>
       <c r="CM12" s="11"/>
       <c r="CN12" s="11"/>
@@ -24913,9 +24925,11 @@
         <v>28765.181851902711</v>
       </c>
       <c r="CJ13" s="22">
-        <v>26585.621777541426</v>
-      </c>
-      <c r="CK13" s="11"/>
+        <v>26148.897222831041</v>
+      </c>
+      <c r="CK13" s="22">
+        <v>36599.992736957945</v>
+      </c>
       <c r="CL13" s="11"/>
       <c r="CM13" s="11"/>
       <c r="CN13" s="11"/>
@@ -25071,7 +25085,7 @@
       <c r="CH14" s="23"/>
       <c r="CI14" s="23"/>
       <c r="CJ14" s="23"/>
-      <c r="CK14" s="11"/>
+      <c r="CK14" s="23"/>
       <c r="CL14" s="11"/>
       <c r="CM14" s="11"/>
       <c r="CN14" s="11"/>
@@ -25402,9 +25416,11 @@
         <v>61699.814068175852</v>
       </c>
       <c r="CJ15" s="23">
-        <v>57637.909584452624</v>
-      </c>
-      <c r="CK15" s="11"/>
+        <v>57250.132401610113</v>
+      </c>
+      <c r="CK15" s="23">
+        <v>94916.445676692776</v>
+      </c>
       <c r="CL15" s="11"/>
       <c r="CM15" s="11"/>
       <c r="CN15" s="11"/>
@@ -25561,6 +25577,7 @@
       <c r="CH16" s="24"/>
       <c r="CI16" s="24"/>
       <c r="CJ16" s="24"/>
+      <c r="CK16" s="24"/>
     </row>
     <row r="17" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
@@ -25653,6 +25670,7 @@
       <c r="CH17" s="20"/>
       <c r="CI17" s="20"/>
       <c r="CJ17" s="20"/>
+      <c r="CK17" s="20"/>
     </row>
     <row r="18" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="17"/>
@@ -25742,7 +25760,7 @@
       <c r="CH18" s="25"/>
       <c r="CI18" s="25"/>
       <c r="CJ18" s="25"/>
-      <c r="CK18" s="11"/>
+      <c r="CK18" s="25"/>
       <c r="CL18" s="11"/>
       <c r="CM18" s="11"/>
       <c r="CN18" s="11"/>
@@ -25898,7 +25916,7 @@
       <c r="CH19" s="25"/>
       <c r="CI19" s="25"/>
       <c r="CJ19" s="25"/>
-      <c r="CK19" s="11"/>
+      <c r="CK19" s="25"/>
       <c r="CL19" s="11"/>
       <c r="CM19" s="11"/>
       <c r="CN19" s="11"/>
@@ -26057,6 +26075,7 @@
       <c r="CH20" s="20"/>
       <c r="CI20" s="20"/>
       <c r="CJ20" s="20"/>
+      <c r="CK20" s="20"/>
     </row>
     <row r="21" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -26149,10 +26168,11 @@
       <c r="CH21" s="20"/>
       <c r="CI21" s="20"/>
       <c r="CJ21" s="20"/>
+      <c r="CK21" s="20"/>
     </row>
     <row r="22" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -26241,6 +26261,7 @@
       <c r="CH22" s="20"/>
       <c r="CI22" s="20"/>
       <c r="CJ22" s="20"/>
+      <c r="CK22" s="20"/>
     </row>
     <row r="23" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
@@ -26331,6 +26352,7 @@
       <c r="CH23" s="20"/>
       <c r="CI23" s="20"/>
       <c r="CJ23" s="20"/>
+      <c r="CK23" s="20"/>
     </row>
     <row r="24" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -26423,10 +26445,11 @@
       <c r="CH24" s="20"/>
       <c r="CI24" s="20"/>
       <c r="CJ24" s="20"/>
+      <c r="CK24" s="20"/>
     </row>
     <row r="25" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -26515,6 +26538,7 @@
       <c r="CH25" s="20"/>
       <c r="CI25" s="20"/>
       <c r="CJ25" s="20"/>
+      <c r="CK25" s="20"/>
     </row>
     <row r="26" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -26607,6 +26631,7 @@
       <c r="CH26" s="20"/>
       <c r="CI26" s="20"/>
       <c r="CJ26" s="20"/>
+      <c r="CK26" s="20"/>
     </row>
     <row r="27" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
@@ -26697,6 +26722,7 @@
       <c r="CH27" s="20"/>
       <c r="CI27" s="20"/>
       <c r="CJ27" s="20"/>
+      <c r="CK27" s="20"/>
     </row>
     <row r="28" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
@@ -26829,10 +26855,9 @@
       <c r="CH28" s="32">
         <v>2021</v>
       </c>
-      <c r="CI28" s="32">
-        <v>0</v>
-      </c>
+      <c r="CI28" s="32"/>
       <c r="CJ28" s="32"/>
+      <c r="CK28" s="32"/>
     </row>
     <row r="29" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
@@ -27098,6 +27123,9 @@
       </c>
       <c r="CJ29" s="21" t="s">
         <v>10</v>
+      </c>
+      <c r="CK29" s="21" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27189,6 +27217,7 @@
       <c r="CH30" s="20"/>
       <c r="CI30" s="20"/>
       <c r="CJ30" s="20"/>
+      <c r="CK30" s="20"/>
     </row>
     <row r="31" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
@@ -27453,9 +27482,11 @@
         <v>31824.27086371804</v>
       </c>
       <c r="CJ31" s="22">
-        <v>29822.794924964212</v>
-      </c>
-      <c r="CK31" s="11"/>
+        <v>29870.330912766793</v>
+      </c>
+      <c r="CK31" s="22">
+        <v>55836.617808109761</v>
+      </c>
       <c r="CL31" s="11"/>
       <c r="CM31" s="11"/>
       <c r="CN31" s="11"/>
@@ -27786,9 +27817,11 @@
         <v>26096.433565107174</v>
       </c>
       <c r="CJ32" s="22">
-        <v>24218.243446772525</v>
-      </c>
-      <c r="CK32" s="11"/>
+        <v>23839.078751075409</v>
+      </c>
+      <c r="CK32" s="22">
+        <v>33349.466272474405</v>
+      </c>
       <c r="CL32" s="11"/>
       <c r="CM32" s="11"/>
       <c r="CN32" s="11"/>
@@ -27944,7 +27977,7 @@
       <c r="CH33" s="23"/>
       <c r="CI33" s="23"/>
       <c r="CJ33" s="23"/>
-      <c r="CK33" s="11"/>
+      <c r="CK33" s="23"/>
       <c r="CL33" s="11"/>
       <c r="CM33" s="11"/>
       <c r="CN33" s="11"/>
@@ -28275,9 +28308,11 @@
         <v>57920.704428825215</v>
       </c>
       <c r="CJ34" s="23">
-        <v>54041.038371736737</v>
-      </c>
-      <c r="CK34" s="11"/>
+        <v>53709.409663842205</v>
+      </c>
+      <c r="CK34" s="23">
+        <v>89186.084080584173</v>
+      </c>
       <c r="CL34" s="11"/>
       <c r="CM34" s="11"/>
       <c r="CN34" s="11"/>
@@ -28434,6 +28469,7 @@
       <c r="CH35" s="24"/>
       <c r="CI35" s="24"/>
       <c r="CJ35" s="24"/>
+      <c r="CK35" s="24"/>
     </row>
     <row r="36" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
@@ -28526,6 +28562,7 @@
       <c r="CH36" s="20"/>
       <c r="CI36" s="20"/>
       <c r="CJ36" s="20"/>
+      <c r="CK36" s="20"/>
     </row>
     <row r="37" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="17"/>
@@ -28615,7 +28652,7 @@
       <c r="CH37" s="25"/>
       <c r="CI37" s="25"/>
       <c r="CJ37" s="25"/>
-      <c r="CK37" s="11"/>
+      <c r="CK37" s="25"/>
       <c r="CL37" s="11"/>
       <c r="CM37" s="11"/>
       <c r="CN37" s="11"/>
@@ -28771,7 +28808,7 @@
       <c r="CH38" s="25"/>
       <c r="CI38" s="25"/>
       <c r="CJ38" s="25"/>
-      <c r="CK38" s="11"/>
+      <c r="CK38" s="25"/>
       <c r="CL38" s="11"/>
       <c r="CM38" s="11"/>
       <c r="CN38" s="11"/>
@@ -28930,6 +28967,7 @@
       <c r="CH39" s="20"/>
       <c r="CI39" s="20"/>
       <c r="CJ39" s="20"/>
+      <c r="CK39" s="20"/>
     </row>
     <row r="40" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -29022,10 +29060,11 @@
       <c r="CH40" s="20"/>
       <c r="CI40" s="20"/>
       <c r="CJ40" s="20"/>
+      <c r="CK40" s="20"/>
     </row>
     <row r="41" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -29114,6 +29153,7 @@
       <c r="CH41" s="20"/>
       <c r="CI41" s="20"/>
       <c r="CJ41" s="20"/>
+      <c r="CK41" s="20"/>
     </row>
     <row r="42" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
@@ -29204,6 +29244,7 @@
       <c r="CH42" s="20"/>
       <c r="CI42" s="20"/>
       <c r="CJ42" s="20"/>
+      <c r="CK42" s="20"/>
     </row>
     <row r="43" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -29296,10 +29337,11 @@
       <c r="CH43" s="20"/>
       <c r="CI43" s="20"/>
       <c r="CJ43" s="20"/>
+      <c r="CK43" s="20"/>
     </row>
     <row r="44" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -29388,6 +29430,7 @@
       <c r="CH44" s="20"/>
       <c r="CI44" s="20"/>
       <c r="CJ44" s="20"/>
+      <c r="CK44" s="20"/>
     </row>
     <row r="45" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -29479,6 +29522,7 @@
       <c r="CH45" s="19"/>
       <c r="CI45" s="19"/>
       <c r="CJ45" s="19"/>
+      <c r="CK45" s="19"/>
     </row>
     <row r="46" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
@@ -29569,6 +29613,7 @@
       <c r="CH46" s="20"/>
       <c r="CI46" s="20"/>
       <c r="CJ46" s="20"/>
+      <c r="CK46" s="20"/>
     </row>
     <row r="47" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
@@ -29695,14 +29740,13 @@
       <c r="CD47" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="CF47" s="26"/>
-      <c r="CG47" s="26"/>
+      <c r="CE47" s="32"/>
+      <c r="CF47" s="32"/>
+      <c r="CG47" s="32"/>
       <c r="CH47" s="26"/>
       <c r="CI47" s="26"/>
       <c r="CJ47" s="26"/>
+      <c r="CK47" s="26"/>
     </row>
     <row r="48" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
@@ -29957,10 +30001,13 @@
       <c r="CF48" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="CG48" s="27"/>
+      <c r="CG48" s="31" t="s">
+        <v>9</v>
+      </c>
       <c r="CH48" s="27"/>
       <c r="CI48" s="27"/>
       <c r="CJ48" s="27"/>
+      <c r="CK48" s="27"/>
     </row>
     <row r="49" spans="1:151" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
@@ -30051,6 +30098,7 @@
       <c r="CH49" s="20"/>
       <c r="CI49" s="20"/>
       <c r="CJ49" s="20"/>
+      <c r="CK49" s="20"/>
     </row>
     <row r="50" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
@@ -30303,13 +30351,15 @@
         <v>59.74341911893805</v>
       </c>
       <c r="CF50" s="29">
-        <v>34.901392753976268</v>
-      </c>
-      <c r="CG50" s="25"/>
+        <v>35.114036301456025</v>
+      </c>
+      <c r="CG50" s="29">
+        <v>49.867874695387314</v>
+      </c>
       <c r="CH50" s="25"/>
       <c r="CI50" s="25"/>
       <c r="CJ50" s="25"/>
-      <c r="CK50" s="11"/>
+      <c r="CK50" s="25"/>
       <c r="CL50" s="11"/>
       <c r="CM50" s="11"/>
       <c r="CN50" s="11"/>
@@ -30624,13 +30674,15 @@
         <v>20.539579694353137</v>
       </c>
       <c r="CF51" s="29">
-        <v>8.6347733025006619</v>
-      </c>
-      <c r="CG51" s="25"/>
+        <v>6.8502194788742088</v>
+      </c>
+      <c r="CG51" s="29">
+        <v>9.4460846366623201</v>
+      </c>
       <c r="CH51" s="25"/>
       <c r="CI51" s="25"/>
       <c r="CJ51" s="25"/>
-      <c r="CK51" s="11"/>
+      <c r="CK51" s="25"/>
       <c r="CL51" s="11"/>
       <c r="CM51" s="11"/>
       <c r="CN51" s="11"/>
@@ -30783,7 +30835,7 @@
       <c r="CH52" s="25"/>
       <c r="CI52" s="25"/>
       <c r="CJ52" s="25"/>
-      <c r="CK52" s="11"/>
+      <c r="CK52" s="25"/>
       <c r="CL52" s="11"/>
       <c r="CM52" s="11"/>
       <c r="CN52" s="11"/>
@@ -31098,13 +31150,15 @@
         <v>38.710837141023745</v>
       </c>
       <c r="CF53" s="29">
-        <v>21.365997288074709</v>
-      </c>
-      <c r="CG53" s="25"/>
+        <v>20.549469331725362</v>
+      </c>
+      <c r="CG53" s="29">
+        <v>31.185176099031139</v>
+      </c>
       <c r="CH53" s="25"/>
       <c r="CI53" s="25"/>
       <c r="CJ53" s="25"/>
-      <c r="CK53" s="11"/>
+      <c r="CK53" s="25"/>
       <c r="CL53" s="11"/>
       <c r="CM53" s="11"/>
       <c r="CN53" s="11"/>
@@ -31257,6 +31311,7 @@
       <c r="CH54" s="24"/>
       <c r="CI54" s="24"/>
       <c r="CJ54" s="24"/>
+      <c r="CK54" s="24"/>
     </row>
     <row r="55" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
@@ -31349,6 +31404,7 @@
       <c r="CH55" s="20"/>
       <c r="CI55" s="20"/>
       <c r="CJ55" s="20"/>
+      <c r="CK55" s="20"/>
     </row>
     <row r="56" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="17"/>
@@ -31438,7 +31494,7 @@
       <c r="CH56" s="25"/>
       <c r="CI56" s="25"/>
       <c r="CJ56" s="25"/>
-      <c r="CK56" s="11"/>
+      <c r="CK56" s="25"/>
       <c r="CL56" s="11"/>
       <c r="CM56" s="11"/>
       <c r="CN56" s="11"/>
@@ -31590,7 +31646,7 @@
       <c r="CH57" s="25"/>
       <c r="CI57" s="25"/>
       <c r="CJ57" s="25"/>
-      <c r="CK57" s="11"/>
+      <c r="CK57" s="25"/>
       <c r="CL57" s="11"/>
       <c r="CM57" s="11"/>
       <c r="CN57" s="11"/>
@@ -31745,6 +31801,7 @@
       <c r="CH58" s="20"/>
       <c r="CI58" s="20"/>
       <c r="CJ58" s="20"/>
+      <c r="CK58" s="20"/>
     </row>
     <row r="59" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -31837,10 +31894,11 @@
       <c r="CH59" s="20"/>
       <c r="CI59" s="20"/>
       <c r="CJ59" s="20"/>
+      <c r="CK59" s="20"/>
     </row>
     <row r="60" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -31929,6 +31987,7 @@
       <c r="CH60" s="20"/>
       <c r="CI60" s="20"/>
       <c r="CJ60" s="20"/>
+      <c r="CK60" s="20"/>
     </row>
     <row r="61" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
@@ -32019,6 +32078,7 @@
       <c r="CH61" s="20"/>
       <c r="CI61" s="20"/>
       <c r="CJ61" s="20"/>
+      <c r="CK61" s="20"/>
     </row>
     <row r="62" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -32111,10 +32171,11 @@
       <c r="CH62" s="20"/>
       <c r="CI62" s="20"/>
       <c r="CJ62" s="20"/>
+      <c r="CK62" s="20"/>
     </row>
     <row r="63" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -32203,6 +32264,7 @@
       <c r="CH63" s="20"/>
       <c r="CI63" s="20"/>
       <c r="CJ63" s="20"/>
+      <c r="CK63" s="20"/>
     </row>
     <row r="64" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
@@ -32295,6 +32357,7 @@
       <c r="CH64" s="20"/>
       <c r="CI64" s="20"/>
       <c r="CJ64" s="20"/>
+      <c r="CK64" s="20"/>
     </row>
     <row r="65" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
@@ -32385,6 +32448,7 @@
       <c r="CH65" s="20"/>
       <c r="CI65" s="20"/>
       <c r="CJ65" s="20"/>
+      <c r="CK65" s="20"/>
     </row>
     <row r="66" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
@@ -32511,14 +32575,13 @@
       <c r="CD66" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="32" t="s">
-        <v>47</v>
-      </c>
+      <c r="CE66" s="32"/>
       <c r="CF66" s="32"/>
-      <c r="CG66" s="26"/>
+      <c r="CG66" s="32"/>
       <c r="CH66" s="26"/>
       <c r="CI66" s="26"/>
       <c r="CJ66" s="26"/>
+      <c r="CK66" s="26"/>
     </row>
     <row r="67" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
@@ -32773,10 +32836,13 @@
       <c r="CF67" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="CG67" s="27"/>
+      <c r="CG67" s="31" t="s">
+        <v>9</v>
+      </c>
       <c r="CH67" s="27"/>
       <c r="CI67" s="27"/>
       <c r="CJ67" s="27"/>
+      <c r="CK67" s="27"/>
     </row>
     <row r="68" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
@@ -32867,6 +32933,7 @@
       <c r="CH68" s="20"/>
       <c r="CI68" s="20"/>
       <c r="CJ68" s="20"/>
+      <c r="CK68" s="20"/>
     </row>
     <row r="69" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="s">
@@ -33119,13 +33186,15 @@
         <v>62.096485117697654</v>
       </c>
       <c r="CF69" s="29">
-        <v>35.202763868716772</v>
-      </c>
-      <c r="CG69" s="25"/>
+        <v>35.418270059545279</v>
+      </c>
+      <c r="CG69" s="29">
+        <v>49.126972578192522</v>
+      </c>
       <c r="CH69" s="25"/>
       <c r="CI69" s="25"/>
       <c r="CJ69" s="25"/>
-      <c r="CK69" s="11"/>
+      <c r="CK69" s="25"/>
       <c r="CL69" s="11"/>
       <c r="CM69" s="11"/>
       <c r="CN69" s="11"/>
@@ -33440,13 +33509,15 @@
         <v>16.127496956223951</v>
       </c>
       <c r="CF70" s="29">
-        <v>5.9395743820162892</v>
-      </c>
-      <c r="CG70" s="25"/>
+        <v>4.2809674491426364</v>
+      </c>
+      <c r="CG70" s="29">
+        <v>7.2273692025171812</v>
+      </c>
       <c r="CH70" s="25"/>
       <c r="CI70" s="25"/>
       <c r="CJ70" s="25"/>
-      <c r="CK70" s="11"/>
+      <c r="CK70" s="25"/>
       <c r="CL70" s="11"/>
       <c r="CM70" s="11"/>
       <c r="CN70" s="11"/>
@@ -33598,7 +33669,7 @@
       <c r="CH71" s="25"/>
       <c r="CI71" s="25"/>
       <c r="CJ71" s="25"/>
-      <c r="CK71" s="11"/>
+      <c r="CK71" s="25"/>
       <c r="CL71" s="11"/>
       <c r="CM71" s="11"/>
       <c r="CN71" s="11"/>
@@ -33913,13 +33984,15 @@
         <v>37.562060583681529</v>
       </c>
       <c r="CF72" s="29">
-        <v>20.309731037595057</v>
-      </c>
-      <c r="CG72" s="25"/>
+        <v>19.571437291707255</v>
+      </c>
+      <c r="CG72" s="29">
+        <v>30.115143610202807</v>
+      </c>
       <c r="CH72" s="25"/>
       <c r="CI72" s="25"/>
       <c r="CJ72" s="25"/>
-      <c r="CK72" s="11"/>
+      <c r="CK72" s="25"/>
       <c r="CL72" s="11"/>
       <c r="CM72" s="11"/>
       <c r="CN72" s="11"/>
@@ -34072,6 +34145,7 @@
       <c r="CH73" s="24"/>
       <c r="CI73" s="24"/>
       <c r="CJ73" s="24"/>
+      <c r="CK73" s="24"/>
     </row>
     <row r="74" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
@@ -34164,6 +34238,7 @@
       <c r="CH74" s="20"/>
       <c r="CI74" s="20"/>
       <c r="CJ74" s="20"/>
+      <c r="CK74" s="20"/>
     </row>
     <row r="75" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="17"/>
@@ -34253,7 +34328,7 @@
       <c r="CH75" s="28"/>
       <c r="CI75" s="28"/>
       <c r="CJ75" s="28"/>
-      <c r="CK75" s="11"/>
+      <c r="CK75" s="28"/>
       <c r="CL75" s="11"/>
       <c r="CM75" s="11"/>
       <c r="CN75" s="11"/>
@@ -34405,7 +34480,7 @@
       <c r="CH76" s="25"/>
       <c r="CI76" s="25"/>
       <c r="CJ76" s="25"/>
-      <c r="CK76" s="11"/>
+      <c r="CK76" s="25"/>
       <c r="CL76" s="11"/>
       <c r="CM76" s="11"/>
       <c r="CN76" s="11"/>
@@ -34564,10 +34639,11 @@
       <c r="CH77" s="20"/>
       <c r="CI77" s="20"/>
       <c r="CJ77" s="20"/>
+      <c r="CK77" s="20"/>
     </row>
     <row r="78" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -34656,6 +34732,7 @@
       <c r="CH78" s="20"/>
       <c r="CI78" s="20"/>
       <c r="CJ78" s="20"/>
+      <c r="CK78" s="20"/>
     </row>
     <row r="79" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
@@ -34746,6 +34823,7 @@
       <c r="CH79" s="20"/>
       <c r="CI79" s="20"/>
       <c r="CJ79" s="20"/>
+      <c r="CK79" s="20"/>
     </row>
     <row r="80" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
@@ -34838,10 +34916,11 @@
       <c r="CH80" s="20"/>
       <c r="CI80" s="20"/>
       <c r="CJ80" s="20"/>
+      <c r="CK80" s="20"/>
     </row>
     <row r="81" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -34930,6 +35009,7 @@
       <c r="CH81" s="20"/>
       <c r="CI81" s="20"/>
       <c r="CJ81" s="20"/>
+      <c r="CK81" s="20"/>
     </row>
     <row r="82" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
@@ -35022,6 +35102,7 @@
       <c r="CH82" s="20"/>
       <c r="CI82" s="20"/>
       <c r="CJ82" s="20"/>
+      <c r="CK82" s="20"/>
     </row>
     <row r="83" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
@@ -35112,6 +35193,7 @@
       <c r="CH83" s="20"/>
       <c r="CI83" s="20"/>
       <c r="CJ83" s="20"/>
+      <c r="CK83" s="20"/>
     </row>
     <row r="84" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
@@ -35244,10 +35326,9 @@
       <c r="CH84" s="32">
         <v>2021</v>
       </c>
-      <c r="CI84" s="32">
-        <v>0</v>
-      </c>
+      <c r="CI84" s="32"/>
       <c r="CJ84" s="32"/>
+      <c r="CK84" s="32"/>
     </row>
     <row r="85" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
@@ -35513,6 +35594,9 @@
       </c>
       <c r="CJ85" s="21" t="s">
         <v>10</v>
+      </c>
+      <c r="CK85" s="21" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -35604,6 +35688,7 @@
       <c r="CH86" s="20"/>
       <c r="CI86" s="20"/>
       <c r="CJ86" s="20"/>
+      <c r="CK86" s="20"/>
     </row>
     <row r="87" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="9" t="s">
@@ -35868,9 +35953,11 @@
         <v>103.48903941054934</v>
       </c>
       <c r="CJ87" s="29">
-        <v>104.12266149111933</v>
-      </c>
-      <c r="CK87" s="11"/>
+        <v>104.12082567684639</v>
+      </c>
+      <c r="CK87" s="29">
+        <v>104.44123449623572</v>
+      </c>
       <c r="CL87" s="11"/>
       <c r="CM87" s="11"/>
       <c r="CN87" s="11"/>
@@ -36201,9 +36288,11 @@
         <v>110.22648661985693</v>
       </c>
       <c r="CJ88" s="29">
-        <v>109.77518595009579</v>
-      </c>
-      <c r="CK88" s="11"/>
+        <v>109.68921029153206</v>
+      </c>
+      <c r="CK88" s="29">
+        <v>109.74686202749344</v>
+      </c>
       <c r="CL88" s="11"/>
       <c r="CM88" s="11"/>
       <c r="CN88" s="11"/>
@@ -36359,7 +36448,7 @@
       <c r="CH89" s="25"/>
       <c r="CI89" s="25"/>
       <c r="CJ89" s="25"/>
-      <c r="CK89" s="11"/>
+      <c r="CK89" s="25"/>
       <c r="CL89" s="11"/>
       <c r="CM89" s="11"/>
       <c r="CN89" s="11"/>
@@ -36690,9 +36779,11 @@
         <v>106.52462651588523</v>
       </c>
       <c r="CJ90" s="29">
-        <v>106.65581439789106</v>
-      </c>
-      <c r="CK90" s="11"/>
+        <v>106.59236949340661</v>
+      </c>
+      <c r="CK90" s="29">
+        <v>106.42517457200043</v>
+      </c>
       <c r="CL90" s="11"/>
       <c r="CM90" s="11"/>
       <c r="CN90" s="11"/>
@@ -36849,6 +36940,7 @@
       <c r="CH91" s="24"/>
       <c r="CI91" s="24"/>
       <c r="CJ91" s="24"/>
+      <c r="CK91" s="24"/>
     </row>
     <row r="92" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="16" t="s">
@@ -36941,6 +37033,7 @@
       <c r="CH92" s="20"/>
       <c r="CI92" s="20"/>
       <c r="CJ92" s="20"/>
+      <c r="CK92" s="20"/>
     </row>
     <row r="93" spans="1:155" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
@@ -37030,6 +37123,7 @@
       <c r="CH93" s="20"/>
       <c r="CI93" s="20"/>
       <c r="CJ93" s="20"/>
+      <c r="CK93" s="20"/>
     </row>
     <row r="94" spans="1:155" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
@@ -37119,6 +37213,7 @@
       <c r="CH94" s="20"/>
       <c r="CI94" s="20"/>
       <c r="CJ94" s="20"/>
+      <c r="CK94" s="20"/>
     </row>
     <row r="95" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
@@ -37211,6 +37306,7 @@
       <c r="CH95" s="20"/>
       <c r="CI95" s="20"/>
       <c r="CJ95" s="20"/>
+      <c r="CK95" s="20"/>
     </row>
     <row r="96" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
@@ -37303,10 +37399,11 @@
       <c r="CH96" s="20"/>
       <c r="CI96" s="20"/>
       <c r="CJ96" s="20"/>
+      <c r="CK96" s="20"/>
     </row>
     <row r="97" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -37395,6 +37492,7 @@
       <c r="CH97" s="20"/>
       <c r="CI97" s="20"/>
       <c r="CJ97" s="20"/>
+      <c r="CK97" s="20"/>
     </row>
     <row r="98" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
@@ -37485,6 +37583,7 @@
       <c r="CH98" s="20"/>
       <c r="CI98" s="20"/>
       <c r="CJ98" s="20"/>
+      <c r="CK98" s="20"/>
     </row>
     <row r="99" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
@@ -37577,10 +37676,11 @@
       <c r="CH99" s="20"/>
       <c r="CI99" s="20"/>
       <c r="CJ99" s="20"/>
+      <c r="CK99" s="20"/>
     </row>
     <row r="100" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -37669,6 +37769,7 @@
       <c r="CH100" s="20"/>
       <c r="CI100" s="20"/>
       <c r="CJ100" s="20"/>
+      <c r="CK100" s="20"/>
     </row>
     <row r="101" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
@@ -37761,6 +37862,7 @@
       <c r="CH101" s="20"/>
       <c r="CI101" s="20"/>
       <c r="CJ101" s="20"/>
+      <c r="CK101" s="20"/>
     </row>
     <row r="102" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
@@ -37851,6 +37953,7 @@
       <c r="CH102" s="20"/>
       <c r="CI102" s="20"/>
       <c r="CJ102" s="20"/>
+      <c r="CK102" s="20"/>
     </row>
     <row r="103" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
@@ -37983,10 +38086,9 @@
       <c r="CH103" s="32">
         <v>2021</v>
       </c>
-      <c r="CI103" s="32">
-        <v>0</v>
-      </c>
+      <c r="CI103" s="32"/>
       <c r="CJ103" s="32"/>
+      <c r="CK103" s="32"/>
     </row>
     <row r="104" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
@@ -38252,6 +38354,9 @@
       </c>
       <c r="CJ104" s="21" t="s">
         <v>10</v>
+      </c>
+      <c r="CK104" s="21" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -38343,6 +38448,7 @@
       <c r="CH105" s="20"/>
       <c r="CI105" s="20"/>
       <c r="CJ105" s="20"/>
+      <c r="CK105" s="20"/>
     </row>
     <row r="106" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="9" t="s">
@@ -38607,9 +38713,11 @@
         <v>53.378819229311894</v>
       </c>
       <c r="CJ106" s="29">
-        <v>53.874764075911784</v>
-      </c>
-      <c r="CK106" s="11"/>
+        <v>54.325175984928165</v>
+      </c>
+      <c r="CK106" s="29">
+        <v>61.439777399981942</v>
+      </c>
       <c r="CL106" s="11"/>
       <c r="CM106" s="11"/>
       <c r="CN106" s="11"/>
@@ -38940,9 +39048,11 @@
         <v>46.621180770688099</v>
       </c>
       <c r="CJ107" s="29">
-        <v>46.125235924088216</v>
-      </c>
-      <c r="CK107" s="11"/>
+        <v>45.674824015071842</v>
+      </c>
+      <c r="CK107" s="29">
+        <v>38.560222600018051</v>
+      </c>
       <c r="CL107" s="11"/>
       <c r="CM107" s="11"/>
       <c r="CN107" s="11"/>
@@ -39098,7 +39208,7 @@
       <c r="CH108" s="25"/>
       <c r="CI108" s="25"/>
       <c r="CJ108" s="25"/>
-      <c r="CK108" s="11"/>
+      <c r="CK108" s="25"/>
       <c r="CL108" s="11"/>
       <c r="CM108" s="11"/>
       <c r="CN108" s="11"/>
@@ -39431,7 +39541,9 @@
       <c r="CJ109" s="29">
         <v>100</v>
       </c>
-      <c r="CK109" s="11"/>
+      <c r="CK109" s="29">
+        <v>100</v>
+      </c>
       <c r="CL109" s="11"/>
       <c r="CM109" s="11"/>
       <c r="CN109" s="11"/>
@@ -39588,6 +39700,7 @@
       <c r="CH110" s="24"/>
       <c r="CI110" s="24"/>
       <c r="CJ110" s="24"/>
+      <c r="CK110" s="24"/>
     </row>
     <row r="111" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="16" t="s">
@@ -39680,6 +39793,7 @@
       <c r="CH111" s="20"/>
       <c r="CI111" s="20"/>
       <c r="CJ111" s="20"/>
+      <c r="CK111" s="20"/>
     </row>
     <row r="112" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="17"/>
@@ -39769,7 +39883,7 @@
       <c r="CH112" s="25"/>
       <c r="CI112" s="25"/>
       <c r="CJ112" s="25"/>
-      <c r="CK112" s="11"/>
+      <c r="CK112" s="25"/>
       <c r="CL112" s="11"/>
       <c r="CM112" s="11"/>
       <c r="CN112" s="11"/>
@@ -39925,7 +40039,7 @@
       <c r="CH113" s="25"/>
       <c r="CI113" s="25"/>
       <c r="CJ113" s="25"/>
-      <c r="CK113" s="11"/>
+      <c r="CK113" s="25"/>
       <c r="CL113" s="11"/>
       <c r="CM113" s="11"/>
       <c r="CN113" s="11"/>
@@ -40084,6 +40198,7 @@
       <c r="CH114" s="20"/>
       <c r="CI114" s="20"/>
       <c r="CJ114" s="20"/>
+      <c r="CK114" s="20"/>
     </row>
     <row r="115" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
@@ -40176,10 +40291,11 @@
       <c r="CH115" s="20"/>
       <c r="CI115" s="20"/>
       <c r="CJ115" s="20"/>
+      <c r="CK115" s="20"/>
     </row>
     <row r="116" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -40268,6 +40384,7 @@
       <c r="CH116" s="20"/>
       <c r="CI116" s="20"/>
       <c r="CJ116" s="20"/>
+      <c r="CK116" s="20"/>
     </row>
     <row r="117" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
@@ -40358,6 +40475,7 @@
       <c r="CH117" s="20"/>
       <c r="CI117" s="20"/>
       <c r="CJ117" s="20"/>
+      <c r="CK117" s="20"/>
     </row>
     <row r="118" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
@@ -40450,10 +40568,11 @@
       <c r="CH118" s="20"/>
       <c r="CI118" s="20"/>
       <c r="CJ118" s="20"/>
+      <c r="CK118" s="20"/>
     </row>
     <row r="119" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -40542,6 +40661,7 @@
       <c r="CH119" s="20"/>
       <c r="CI119" s="20"/>
       <c r="CJ119" s="20"/>
+      <c r="CK119" s="20"/>
     </row>
     <row r="120" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
@@ -40634,6 +40754,7 @@
       <c r="CH120" s="20"/>
       <c r="CI120" s="20"/>
       <c r="CJ120" s="20"/>
+      <c r="CK120" s="20"/>
     </row>
     <row r="121" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
@@ -40724,6 +40845,7 @@
       <c r="CH121" s="20"/>
       <c r="CI121" s="20"/>
       <c r="CJ121" s="20"/>
+      <c r="CK121" s="20"/>
     </row>
     <row r="122" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
@@ -40856,10 +40978,9 @@
       <c r="CH122" s="32">
         <v>2021</v>
       </c>
-      <c r="CI122" s="32">
-        <v>0</v>
-      </c>
+      <c r="CI122" s="32"/>
       <c r="CJ122" s="32"/>
+      <c r="CK122" s="32"/>
     </row>
     <row r="123" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
@@ -41125,6 +41246,9 @@
       </c>
       <c r="CJ123" s="21" t="s">
         <v>10</v>
+      </c>
+      <c r="CK123" s="21" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -41216,6 +41340,7 @@
       <c r="CH124" s="20"/>
       <c r="CI124" s="20"/>
       <c r="CJ124" s="20"/>
+      <c r="CK124" s="20"/>
     </row>
     <row r="125" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="9" t="s">
@@ -41480,9 +41605,11 @@
         <v>54.94455079154762</v>
       </c>
       <c r="CJ125" s="29">
-        <v>55.185458724570736</v>
-      </c>
-      <c r="CK125" s="11"/>
+        <v>55.614707180212861</v>
+      </c>
+      <c r="CK125" s="29">
+        <v>62.606872343064794</v>
+      </c>
       <c r="CL125" s="11"/>
       <c r="CM125" s="11"/>
       <c r="CN125" s="11"/>
@@ -41813,9 +41940,11 @@
         <v>45.05544920845238</v>
       </c>
       <c r="CJ126" s="29">
-        <v>44.814541275429256</v>
-      </c>
-      <c r="CK126" s="11"/>
+        <v>44.385292819787132</v>
+      </c>
+      <c r="CK126" s="29">
+        <v>37.393127656935206</v>
+      </c>
       <c r="CL126" s="11"/>
       <c r="CM126" s="11"/>
       <c r="CN126" s="11"/>
@@ -41971,7 +42100,7 @@
       <c r="CH127" s="25"/>
       <c r="CI127" s="25"/>
       <c r="CJ127" s="25"/>
-      <c r="CK127" s="11"/>
+      <c r="CK127" s="25"/>
       <c r="CL127" s="11"/>
       <c r="CM127" s="11"/>
       <c r="CN127" s="11"/>
@@ -42304,7 +42433,9 @@
       <c r="CJ128" s="29">
         <v>100</v>
       </c>
-      <c r="CK128" s="11"/>
+      <c r="CK128" s="29">
+        <v>100</v>
+      </c>
       <c r="CL128" s="11"/>
       <c r="CM128" s="11"/>
       <c r="CN128" s="11"/>
@@ -42372,7 +42503,7 @@
       <c r="EX128" s="11"/>
       <c r="EY128" s="11"/>
     </row>
-    <row r="129" spans="1:88" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:89" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="15"/>
       <c r="B129" s="15"/>
       <c r="C129" s="15"/>
@@ -42461,8 +42592,9 @@
       <c r="CH129" s="24"/>
       <c r="CI129" s="24"/>
       <c r="CJ129" s="24"/>
+      <c r="CK129" s="24"/>
     </row>
-    <row r="130" spans="1:88" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:89" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="16" t="s">
         <v>0</v>
       </c>
@@ -42553,6 +42685,7 @@
       <c r="CH130" s="20"/>
       <c r="CI130" s="20"/>
       <c r="CJ130" s="20"/>
+      <c r="CK130" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="152">
@@ -42684,13 +42817,13 @@
     <mergeCell ref="Z9:AC9"/>
     <mergeCell ref="AD9:AG9"/>
     <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="CH9:CJ9"/>
-    <mergeCell ref="CH28:CJ28"/>
-    <mergeCell ref="CD66:CF66"/>
-    <mergeCell ref="CH84:CJ84"/>
-    <mergeCell ref="CH103:CJ103"/>
-    <mergeCell ref="CH122:CJ122"/>
-    <mergeCell ref="CD47:CE47"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH28:CK28"/>
+    <mergeCell ref="CD47:CG47"/>
+    <mergeCell ref="CD66:CG66"/>
+    <mergeCell ref="CH84:CK84"/>
+    <mergeCell ref="CH103:CK103"/>
+    <mergeCell ref="CH122:CK122"/>
     <mergeCell ref="BZ28:CC28"/>
     <mergeCell ref="B84:E84"/>
     <mergeCell ref="BR122:BU122"/>
@@ -42714,9 +42847,9 @@
   <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="86" man="1"/>
-    <brk id="76" max="86" man="1"/>
-    <brk id="94" max="86" man="1"/>
+    <brk id="38" max="88" man="1"/>
+    <brk id="76" max="88" man="1"/>
+    <brk id="94" max="88" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-21OS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-21OS_2018PSNA_Qrt.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\Desktop\PSA\NAP\NAP\Q1 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4654753C-87A7-4496-9E2F-CBE742582265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11424" windowHeight="9180"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OS" sheetId="15" r:id="rId1"/>
@@ -323,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">OS!$A$1:$CK$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">OS!$A$1:$CL$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="51">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -611,23 +612,26 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of January 2022</t>
+    <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2021</t>
+    <t>As of May 2022</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2021</t>
+    <t>Q1 2000 to Q1 2022</t>
+  </si>
+  <si>
+    <t>Q1 2001 to Q1 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -717,10 +721,10 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
@@ -737,34 +741,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -776,15 +782,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -23379,7 +23399,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -23431,7 +23451,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -23632,30 +23652,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:EY130"/>
+  <dimension ref="A1:EY151"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="A113" colorId="22" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BU1" activePane="topRight" state="frozen"/>
       <selection activeCell="CE141" sqref="CA141:CE149"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="CI64" sqref="CI64:CL75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.90625" style="1" customWidth="1"/>
-    <col min="2" max="81" width="9" style="12" customWidth="1"/>
-    <col min="82" max="89" width="9" style="30" customWidth="1"/>
-    <col min="90" max="16384" width="7.81640625" style="12"/>
+    <col min="1" max="1" width="41.88671875" style="1" customWidth="1"/>
+    <col min="2" max="77" width="9" style="12" customWidth="1"/>
+    <col min="78" max="90" width="9" style="28" customWidth="1"/>
+    <col min="91" max="16384" width="7.77734375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="BZ1" s="19"/>
+      <c r="CA1" s="19"/>
+      <c r="CB1" s="19"/>
+      <c r="CC1" s="19"/>
       <c r="CD1" s="19"/>
       <c r="CE1" s="19"/>
       <c r="CF1" s="19"/>
@@ -23664,11 +23688,16 @@
       <c r="CI1" s="19"/>
       <c r="CJ1" s="19"/>
       <c r="CK1" s="19"/>
+      <c r="CL1" s="19"/>
     </row>
-    <row r="2" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="BZ2" s="19"/>
+      <c r="CA2" s="19"/>
+      <c r="CB2" s="19"/>
+      <c r="CC2" s="19"/>
       <c r="CD2" s="19"/>
       <c r="CE2" s="19"/>
       <c r="CF2" s="19"/>
@@ -23677,11 +23706,16 @@
       <c r="CI2" s="19"/>
       <c r="CJ2" s="19"/>
       <c r="CK2" s="19"/>
+      <c r="CL2" s="19"/>
     </row>
-    <row r="3" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="BZ3" s="19"/>
+      <c r="CA3" s="19"/>
+      <c r="CB3" s="19"/>
+      <c r="CC3" s="19"/>
       <c r="CD3" s="19"/>
       <c r="CE3" s="19"/>
       <c r="CF3" s="19"/>
@@ -23690,9 +23724,14 @@
       <c r="CI3" s="19"/>
       <c r="CJ3" s="19"/>
       <c r="CK3" s="19"/>
+      <c r="CL3" s="19"/>
     </row>
-    <row r="4" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
+      <c r="BZ4" s="19"/>
+      <c r="CA4" s="19"/>
+      <c r="CB4" s="19"/>
+      <c r="CC4" s="19"/>
       <c r="CD4" s="19"/>
       <c r="CE4" s="19"/>
       <c r="CF4" s="19"/>
@@ -23701,11 +23740,16 @@
       <c r="CI4" s="19"/>
       <c r="CJ4" s="19"/>
       <c r="CK4" s="19"/>
+      <c r="CL4" s="19"/>
     </row>
-    <row r="5" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="BZ5" s="19"/>
+      <c r="CA5" s="19"/>
+      <c r="CB5" s="19"/>
+      <c r="CC5" s="19"/>
       <c r="CD5" s="19"/>
       <c r="CE5" s="19"/>
       <c r="CF5" s="19"/>
@@ -23714,11 +23758,16 @@
       <c r="CI5" s="19"/>
       <c r="CJ5" s="19"/>
       <c r="CK5" s="19"/>
+      <c r="CL5" s="19"/>
     </row>
-    <row r="6" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>48</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="BZ6" s="19"/>
+      <c r="CA6" s="19"/>
+      <c r="CB6" s="19"/>
+      <c r="CC6" s="19"/>
       <c r="CD6" s="19"/>
       <c r="CE6" s="19"/>
       <c r="CF6" s="19"/>
@@ -23727,11 +23776,16 @@
       <c r="CI6" s="19"/>
       <c r="CJ6" s="19"/>
       <c r="CK6" s="19"/>
+      <c r="CL6" s="19"/>
     </row>
-    <row r="7" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="BZ7" s="19"/>
+      <c r="CA7" s="19"/>
+      <c r="CB7" s="19"/>
+      <c r="CC7" s="19"/>
       <c r="CD7" s="19"/>
       <c r="CE7" s="19"/>
       <c r="CF7" s="19"/>
@@ -23740,8 +23794,9 @@
       <c r="CI7" s="19"/>
       <c r="CJ7" s="19"/>
       <c r="CK7" s="19"/>
+      <c r="CL7" s="19"/>
     </row>
-    <row r="8" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -23819,10 +23874,10 @@
       <c r="BW8" s="1"/>
       <c r="BX8" s="1"/>
       <c r="BY8" s="1"/>
-      <c r="BZ8" s="1"/>
-      <c r="CA8" s="1"/>
-      <c r="CB8" s="1"/>
-      <c r="CC8" s="1"/>
+      <c r="BZ8" s="20"/>
+      <c r="CA8" s="20"/>
+      <c r="CB8" s="20"/>
+      <c r="CC8" s="20"/>
       <c r="CD8" s="20"/>
       <c r="CE8" s="20"/>
       <c r="CF8" s="20"/>
@@ -23831,8 +23886,9 @@
       <c r="CI8" s="20"/>
       <c r="CJ8" s="20"/>
       <c r="CK8" s="20"/>
+      <c r="CL8" s="20"/>
     </row>
-    <row r="9" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="33">
         <v>2000</v>
@@ -23948,12 +24004,12 @@
       <c r="BW9" s="33"/>
       <c r="BX9" s="33"/>
       <c r="BY9" s="33"/>
-      <c r="BZ9" s="33">
+      <c r="BZ9" s="31">
         <v>2019</v>
       </c>
-      <c r="CA9" s="33"/>
-      <c r="CB9" s="33"/>
-      <c r="CC9" s="33"/>
+      <c r="CA9" s="31"/>
+      <c r="CB9" s="31"/>
+      <c r="CC9" s="31"/>
       <c r="CD9" s="32">
         <v>2020</v>
       </c>
@@ -23966,8 +24022,11 @@
       <c r="CI9" s="32"/>
       <c r="CJ9" s="32"/>
       <c r="CK9" s="32"/>
+      <c r="CL9" s="30">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="10" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -24199,16 +24258,16 @@
       <c r="BY10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BZ10" s="7" t="s">
+      <c r="BZ10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CA10" s="7" t="s">
+      <c r="CA10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="CB10" s="7" t="s">
+      <c r="CB10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="CC10" s="7" t="s">
+      <c r="CC10" s="21" t="s">
         <v>9</v>
       </c>
       <c r="CD10" s="21" t="s">
@@ -24235,8 +24294,11 @@
       <c r="CK10" s="21" t="s">
         <v>9</v>
       </c>
+      <c r="CL10" s="21" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -24314,10 +24376,10 @@
       <c r="BW11" s="1"/>
       <c r="BX11" s="1"/>
       <c r="BY11" s="1"/>
-      <c r="BZ11" s="1"/>
-      <c r="CA11" s="1"/>
-      <c r="CB11" s="1"/>
-      <c r="CC11" s="1"/>
+      <c r="BZ11" s="20"/>
+      <c r="CA11" s="20"/>
+      <c r="CB11" s="20"/>
+      <c r="CC11" s="20"/>
       <c r="CD11" s="20"/>
       <c r="CE11" s="20"/>
       <c r="CF11" s="20"/>
@@ -24326,8 +24388,9 @@
       <c r="CI11" s="20"/>
       <c r="CJ11" s="20"/>
       <c r="CK11" s="20"/>
+      <c r="CL11" s="20"/>
     </row>
-    <row r="12" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
@@ -24559,16 +24622,16 @@
       <c r="BY12" s="10">
         <v>72122.512659062471</v>
       </c>
-      <c r="BZ12" s="10">
+      <c r="BZ12" s="22">
         <v>69811.197631239105</v>
       </c>
-      <c r="CA12" s="10">
+      <c r="CA12" s="22">
         <v>80327.381658622704</v>
       </c>
-      <c r="CB12" s="10">
+      <c r="CB12" s="22">
         <v>56633.70895354321</v>
       </c>
-      <c r="CC12" s="10">
+      <c r="CC12" s="22">
         <v>81508.528887371693</v>
       </c>
       <c r="CD12" s="22">
@@ -24581,7 +24644,7 @@
         <v>23018.507943459255</v>
       </c>
       <c r="CG12" s="22">
-        <v>38911.9102798151</v>
+        <v>39353.861632009895</v>
       </c>
       <c r="CH12" s="22">
         <v>34359.79005139049</v>
@@ -24593,9 +24656,11 @@
         <v>31101.235178779076</v>
       </c>
       <c r="CK12" s="22">
-        <v>58316.452939734831</v>
-      </c>
-      <c r="CL12" s="11"/>
+        <v>58229.620492636881</v>
+      </c>
+      <c r="CL12" s="22">
+        <v>43942.898697500292</v>
+      </c>
       <c r="CM12" s="11"/>
       <c r="CN12" s="11"/>
       <c r="CO12" s="11"/>
@@ -24662,7 +24727,7 @@
       <c r="EX12" s="11"/>
       <c r="EY12" s="11"/>
     </row>
-    <row r="13" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -24894,16 +24959,16 @@
       <c r="BY13" s="10">
         <v>41467.768789153219</v>
       </c>
-      <c r="BZ13" s="10">
+      <c r="BZ13" s="22">
         <v>45898.650688319402</v>
       </c>
-      <c r="CA13" s="10">
+      <c r="CA13" s="22">
         <v>38480.576195398498</v>
       </c>
-      <c r="CB13" s="10">
+      <c r="CB13" s="22">
         <v>33603.024985848497</v>
       </c>
-      <c r="CC13" s="10">
+      <c r="CC13" s="22">
         <v>44166.037829492408</v>
       </c>
       <c r="CD13" s="22">
@@ -24916,7 +24981,7 @@
         <v>24472.478718680635</v>
       </c>
       <c r="CG13" s="22">
-        <v>33441.116562974472</v>
+        <v>33236.548627112723</v>
       </c>
       <c r="CH13" s="22">
         <v>32815.823343175747</v>
@@ -24928,9 +24993,11 @@
         <v>26148.897222831041</v>
       </c>
       <c r="CK13" s="22">
-        <v>36599.992736957945</v>
-      </c>
-      <c r="CL13" s="11"/>
+        <v>36654.966179066811</v>
+      </c>
+      <c r="CL13" s="22">
+        <v>38984.391311751024</v>
+      </c>
       <c r="CM13" s="11"/>
       <c r="CN13" s="11"/>
       <c r="CO13" s="11"/>
@@ -24997,7 +25064,7 @@
       <c r="EX13" s="11"/>
       <c r="EY13" s="11"/>
     </row>
-    <row r="14" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -25074,10 +25141,10 @@
       <c r="BW14" s="13"/>
       <c r="BX14" s="13"/>
       <c r="BY14" s="13"/>
-      <c r="BZ14" s="13"/>
-      <c r="CA14" s="13"/>
-      <c r="CB14" s="13"/>
-      <c r="CC14" s="13"/>
+      <c r="BZ14" s="23"/>
+      <c r="CA14" s="23"/>
+      <c r="CB14" s="23"/>
+      <c r="CC14" s="23"/>
       <c r="CD14" s="23"/>
       <c r="CE14" s="23"/>
       <c r="CF14" s="23"/>
@@ -25086,7 +25153,7 @@
       <c r="CI14" s="23"/>
       <c r="CJ14" s="23"/>
       <c r="CK14" s="23"/>
-      <c r="CL14" s="11"/>
+      <c r="CL14" s="23"/>
       <c r="CM14" s="11"/>
       <c r="CN14" s="11"/>
       <c r="CO14" s="11"/>
@@ -25153,7 +25220,7 @@
       <c r="EX14" s="11"/>
       <c r="EY14" s="11"/>
     </row>
-    <row r="15" spans="1:155" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:155" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>13</v>
       </c>
@@ -25385,16 +25452,16 @@
       <c r="BY15" s="13">
         <v>113590.28144821568</v>
       </c>
-      <c r="BZ15" s="13">
+      <c r="BZ15" s="23">
         <v>115709.84831955851</v>
       </c>
-      <c r="CA15" s="13">
+      <c r="CA15" s="23">
         <v>118807.9578540212</v>
       </c>
-      <c r="CB15" s="13">
+      <c r="CB15" s="23">
         <v>90236.733939391706</v>
       </c>
-      <c r="CC15" s="13">
+      <c r="CC15" s="23">
         <v>125674.56671686409</v>
       </c>
       <c r="CD15" s="23">
@@ -25407,7 +25474,7 @@
         <v>47490.986662139891</v>
       </c>
       <c r="CG15" s="23">
-        <v>72353.026842789579</v>
+        <v>72590.410259122611</v>
       </c>
       <c r="CH15" s="23">
         <v>67175.61339456623</v>
@@ -25419,9 +25486,11 @@
         <v>57250.132401610113</v>
       </c>
       <c r="CK15" s="23">
-        <v>94916.445676692776</v>
-      </c>
-      <c r="CL15" s="11"/>
+        <v>94884.586671703699</v>
+      </c>
+      <c r="CL15" s="23">
+        <v>82927.290009251315</v>
+      </c>
       <c r="CM15" s="11"/>
       <c r="CN15" s="11"/>
       <c r="CO15" s="11"/>
@@ -25488,7 +25557,7 @@
       <c r="EX15" s="11"/>
       <c r="EY15" s="11"/>
     </row>
-    <row r="16" spans="1:155" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:155" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -25566,10 +25635,10 @@
       <c r="BW16" s="15"/>
       <c r="BX16" s="15"/>
       <c r="BY16" s="15"/>
-      <c r="BZ16" s="15"/>
-      <c r="CA16" s="15"/>
-      <c r="CB16" s="15"/>
-      <c r="CC16" s="15"/>
+      <c r="BZ16" s="24"/>
+      <c r="CA16" s="24"/>
+      <c r="CB16" s="24"/>
+      <c r="CC16" s="24"/>
       <c r="CD16" s="24"/>
       <c r="CE16" s="24"/>
       <c r="CF16" s="24"/>
@@ -25578,8 +25647,9 @@
       <c r="CI16" s="24"/>
       <c r="CJ16" s="24"/>
       <c r="CK16" s="24"/>
+      <c r="CL16" s="24"/>
     </row>
-    <row r="17" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>0</v>
       </c>
@@ -25659,10 +25729,10 @@
       <c r="BW17" s="1"/>
       <c r="BX17" s="1"/>
       <c r="BY17" s="1"/>
-      <c r="BZ17" s="1"/>
-      <c r="CA17" s="1"/>
-      <c r="CB17" s="1"/>
-      <c r="CC17" s="1"/>
+      <c r="BZ17" s="20"/>
+      <c r="CA17" s="20"/>
+      <c r="CB17" s="20"/>
+      <c r="CC17" s="20"/>
       <c r="CD17" s="20"/>
       <c r="CE17" s="20"/>
       <c r="CF17" s="20"/>
@@ -25671,8 +25741,9 @@
       <c r="CI17" s="20"/>
       <c r="CJ17" s="20"/>
       <c r="CK17" s="20"/>
+      <c r="CL17" s="20"/>
     </row>
-    <row r="18" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -25749,10 +25820,10 @@
       <c r="BW18" s="17"/>
       <c r="BX18" s="17"/>
       <c r="BY18" s="17"/>
-      <c r="BZ18" s="17"/>
-      <c r="CA18" s="17"/>
-      <c r="CB18" s="17"/>
-      <c r="CC18" s="17"/>
+      <c r="BZ18" s="25"/>
+      <c r="CA18" s="25"/>
+      <c r="CB18" s="25"/>
+      <c r="CC18" s="25"/>
       <c r="CD18" s="25"/>
       <c r="CE18" s="25"/>
       <c r="CF18" s="25"/>
@@ -25761,7 +25832,7 @@
       <c r="CI18" s="25"/>
       <c r="CJ18" s="25"/>
       <c r="CK18" s="25"/>
-      <c r="CL18" s="11"/>
+      <c r="CL18" s="25"/>
       <c r="CM18" s="11"/>
       <c r="CN18" s="11"/>
       <c r="CO18" s="11"/>
@@ -25828,7 +25899,7 @@
       <c r="EX18" s="11"/>
       <c r="EY18" s="11"/>
     </row>
-    <row r="19" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -25905,10 +25976,10 @@
       <c r="BW19" s="17"/>
       <c r="BX19" s="17"/>
       <c r="BY19" s="17"/>
-      <c r="BZ19" s="17"/>
-      <c r="CA19" s="17"/>
-      <c r="CB19" s="17"/>
-      <c r="CC19" s="17"/>
+      <c r="BZ19" s="25"/>
+      <c r="CA19" s="25"/>
+      <c r="CB19" s="25"/>
+      <c r="CC19" s="25"/>
       <c r="CD19" s="25"/>
       <c r="CE19" s="25"/>
       <c r="CF19" s="25"/>
@@ -25917,7 +25988,7 @@
       <c r="CI19" s="25"/>
       <c r="CJ19" s="25"/>
       <c r="CK19" s="25"/>
-      <c r="CL19" s="11"/>
+      <c r="CL19" s="25"/>
       <c r="CM19" s="11"/>
       <c r="CN19" s="11"/>
       <c r="CO19" s="11"/>
@@ -25984,7 +26055,7 @@
       <c r="EX19" s="11"/>
       <c r="EY19" s="11"/>
     </row>
-    <row r="20" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -26064,10 +26135,10 @@
       <c r="BW20" s="1"/>
       <c r="BX20" s="1"/>
       <c r="BY20" s="1"/>
-      <c r="BZ20" s="1"/>
-      <c r="CA20" s="1"/>
-      <c r="CB20" s="1"/>
-      <c r="CC20" s="1"/>
+      <c r="BZ20" s="20"/>
+      <c r="CA20" s="20"/>
+      <c r="CB20" s="20"/>
+      <c r="CC20" s="20"/>
       <c r="CD20" s="20"/>
       <c r="CE20" s="20"/>
       <c r="CF20" s="20"/>
@@ -26076,8 +26147,9 @@
       <c r="CI20" s="20"/>
       <c r="CJ20" s="20"/>
       <c r="CK20" s="20"/>
+      <c r="CL20" s="20"/>
     </row>
-    <row r="21" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -26157,10 +26229,10 @@
       <c r="BW21" s="1"/>
       <c r="BX21" s="1"/>
       <c r="BY21" s="1"/>
-      <c r="BZ21" s="1"/>
-      <c r="CA21" s="1"/>
-      <c r="CB21" s="1"/>
-      <c r="CC21" s="1"/>
+      <c r="BZ21" s="20"/>
+      <c r="CA21" s="20"/>
+      <c r="CB21" s="20"/>
+      <c r="CC21" s="20"/>
       <c r="CD21" s="20"/>
       <c r="CE21" s="20"/>
       <c r="CF21" s="20"/>
@@ -26169,10 +26241,11 @@
       <c r="CI21" s="20"/>
       <c r="CJ21" s="20"/>
       <c r="CK21" s="20"/>
+      <c r="CL21" s="20"/>
     </row>
-    <row r="22" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -26250,10 +26323,10 @@
       <c r="BW22" s="1"/>
       <c r="BX22" s="1"/>
       <c r="BY22" s="1"/>
-      <c r="BZ22" s="1"/>
-      <c r="CA22" s="1"/>
-      <c r="CB22" s="1"/>
-      <c r="CC22" s="1"/>
+      <c r="BZ22" s="20"/>
+      <c r="CA22" s="20"/>
+      <c r="CB22" s="20"/>
+      <c r="CC22" s="20"/>
       <c r="CD22" s="20"/>
       <c r="CE22" s="20"/>
       <c r="CF22" s="20"/>
@@ -26262,8 +26335,9 @@
       <c r="CI22" s="20"/>
       <c r="CJ22" s="20"/>
       <c r="CK22" s="20"/>
+      <c r="CL22" s="20"/>
     </row>
-    <row r="23" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -26341,10 +26415,10 @@
       <c r="BW23" s="1"/>
       <c r="BX23" s="1"/>
       <c r="BY23" s="1"/>
-      <c r="BZ23" s="1"/>
-      <c r="CA23" s="1"/>
-      <c r="CB23" s="1"/>
-      <c r="CC23" s="1"/>
+      <c r="BZ23" s="20"/>
+      <c r="CA23" s="20"/>
+      <c r="CB23" s="20"/>
+      <c r="CC23" s="20"/>
       <c r="CD23" s="20"/>
       <c r="CE23" s="20"/>
       <c r="CF23" s="20"/>
@@ -26353,8 +26427,9 @@
       <c r="CI23" s="20"/>
       <c r="CJ23" s="20"/>
       <c r="CK23" s="20"/>
+      <c r="CL23" s="20"/>
     </row>
-    <row r="24" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
@@ -26434,10 +26509,10 @@
       <c r="BW24" s="1"/>
       <c r="BX24" s="1"/>
       <c r="BY24" s="1"/>
-      <c r="BZ24" s="1"/>
-      <c r="CA24" s="1"/>
-      <c r="CB24" s="1"/>
-      <c r="CC24" s="1"/>
+      <c r="BZ24" s="20"/>
+      <c r="CA24" s="20"/>
+      <c r="CB24" s="20"/>
+      <c r="CC24" s="20"/>
       <c r="CD24" s="20"/>
       <c r="CE24" s="20"/>
       <c r="CF24" s="20"/>
@@ -26446,10 +26521,11 @@
       <c r="CI24" s="20"/>
       <c r="CJ24" s="20"/>
       <c r="CK24" s="20"/>
+      <c r="CL24" s="20"/>
     </row>
-    <row r="25" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -26527,10 +26603,10 @@
       <c r="BW25" s="1"/>
       <c r="BX25" s="1"/>
       <c r="BY25" s="1"/>
-      <c r="BZ25" s="1"/>
-      <c r="CA25" s="1"/>
-      <c r="CB25" s="1"/>
-      <c r="CC25" s="1"/>
+      <c r="BZ25" s="20"/>
+      <c r="CA25" s="20"/>
+      <c r="CB25" s="20"/>
+      <c r="CC25" s="20"/>
       <c r="CD25" s="20"/>
       <c r="CE25" s="20"/>
       <c r="CF25" s="20"/>
@@ -26539,8 +26615,9 @@
       <c r="CI25" s="20"/>
       <c r="CJ25" s="20"/>
       <c r="CK25" s="20"/>
+      <c r="CL25" s="20"/>
     </row>
-    <row r="26" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -26620,10 +26697,10 @@
       <c r="BW26" s="1"/>
       <c r="BX26" s="1"/>
       <c r="BY26" s="1"/>
-      <c r="BZ26" s="1"/>
-      <c r="CA26" s="1"/>
-      <c r="CB26" s="1"/>
-      <c r="CC26" s="1"/>
+      <c r="BZ26" s="20"/>
+      <c r="CA26" s="20"/>
+      <c r="CB26" s="20"/>
+      <c r="CC26" s="20"/>
       <c r="CD26" s="20"/>
       <c r="CE26" s="20"/>
       <c r="CF26" s="20"/>
@@ -26632,8 +26709,9 @@
       <c r="CI26" s="20"/>
       <c r="CJ26" s="20"/>
       <c r="CK26" s="20"/>
+      <c r="CL26" s="20"/>
     </row>
-    <row r="27" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -26711,10 +26789,10 @@
       <c r="BW27" s="1"/>
       <c r="BX27" s="1"/>
       <c r="BY27" s="1"/>
-      <c r="BZ27" s="1"/>
-      <c r="CA27" s="1"/>
-      <c r="CB27" s="1"/>
-      <c r="CC27" s="1"/>
+      <c r="BZ27" s="20"/>
+      <c r="CA27" s="20"/>
+      <c r="CB27" s="20"/>
+      <c r="CC27" s="20"/>
       <c r="CD27" s="20"/>
       <c r="CE27" s="20"/>
       <c r="CF27" s="20"/>
@@ -26723,8 +26801,9 @@
       <c r="CI27" s="20"/>
       <c r="CJ27" s="20"/>
       <c r="CK27" s="20"/>
+      <c r="CL27" s="20"/>
     </row>
-    <row r="28" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="33">
         <v>2000</v>
@@ -26840,12 +26919,12 @@
       <c r="BW28" s="33"/>
       <c r="BX28" s="33"/>
       <c r="BY28" s="33"/>
-      <c r="BZ28" s="33">
+      <c r="BZ28" s="31">
         <v>2019</v>
       </c>
-      <c r="CA28" s="33"/>
-      <c r="CB28" s="33"/>
-      <c r="CC28" s="33"/>
+      <c r="CA28" s="35"/>
+      <c r="CB28" s="35"/>
+      <c r="CC28" s="35"/>
       <c r="CD28" s="32">
         <v>2020</v>
       </c>
@@ -26858,8 +26937,11 @@
       <c r="CI28" s="32"/>
       <c r="CJ28" s="32"/>
       <c r="CK28" s="32"/>
+      <c r="CL28" s="30">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="29" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>4</v>
       </c>
@@ -27091,16 +27173,16 @@
       <c r="BY29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BZ29" s="7" t="s">
+      <c r="BZ29" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CA29" s="7" t="s">
+      <c r="CA29" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="CB29" s="7" t="s">
+      <c r="CB29" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="CC29" s="7" t="s">
+      <c r="CC29" s="21" t="s">
         <v>9</v>
       </c>
       <c r="CD29" s="21" t="s">
@@ -27127,8 +27209,11 @@
       <c r="CK29" s="21" t="s">
         <v>9</v>
       </c>
+      <c r="CL29" s="21" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="30" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -27206,10 +27291,10 @@
       <c r="BW30" s="1"/>
       <c r="BX30" s="1"/>
       <c r="BY30" s="1"/>
-      <c r="BZ30" s="1"/>
-      <c r="CA30" s="1"/>
-      <c r="CB30" s="1"/>
-      <c r="CC30" s="1"/>
+      <c r="BZ30" s="20"/>
+      <c r="CA30" s="20"/>
+      <c r="CB30" s="20"/>
+      <c r="CC30" s="20"/>
       <c r="CD30" s="20"/>
       <c r="CE30" s="20"/>
       <c r="CF30" s="20"/>
@@ -27218,8 +27303,9 @@
       <c r="CI30" s="20"/>
       <c r="CJ30" s="20"/>
       <c r="CK30" s="20"/>
+      <c r="CL30" s="20"/>
     </row>
-    <row r="31" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>11</v>
       </c>
@@ -27451,16 +27537,16 @@
       <c r="BY31" s="10">
         <v>71217.600658035066</v>
       </c>
-      <c r="BZ31" s="10">
+      <c r="BZ31" s="22">
         <v>68489.143211841627</v>
       </c>
-      <c r="CA31" s="10">
+      <c r="CA31" s="22">
         <v>77705.220241054121</v>
       </c>
-      <c r="CB31" s="10">
+      <c r="CB31" s="22">
         <v>54279.494642159509</v>
       </c>
-      <c r="CC31" s="10">
+      <c r="CC31" s="22">
         <v>77632.074611923599</v>
       </c>
       <c r="CD31" s="22">
@@ -27473,7 +27559,7 @@
         <v>22057.829345798316</v>
       </c>
       <c r="CG31" s="22">
-        <v>37442.333095599228</v>
+        <v>37867.593372515308</v>
       </c>
       <c r="CH31" s="22">
         <v>33570.762662069799</v>
@@ -27485,9 +27571,11 @@
         <v>29870.330912766793</v>
       </c>
       <c r="CK31" s="22">
-        <v>55836.617808109761</v>
-      </c>
-      <c r="CL31" s="11"/>
+        <v>55752.301880555846</v>
+      </c>
+      <c r="CL31" s="22">
+        <v>42443.314053516326</v>
+      </c>
       <c r="CM31" s="11"/>
       <c r="CN31" s="11"/>
       <c r="CO31" s="11"/>
@@ -27554,7 +27642,7 @@
       <c r="EX31" s="11"/>
       <c r="EY31" s="11"/>
     </row>
-    <row r="32" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
@@ -27786,16 +27874,16 @@
       <c r="BY32" s="10">
         <v>40975.332004738171</v>
       </c>
-      <c r="BZ32" s="10">
+      <c r="BZ32" s="22">
         <v>45673.568240403547</v>
       </c>
-      <c r="CA32" s="10">
+      <c r="CA32" s="22">
         <v>38145.969916348404</v>
       </c>
-      <c r="CB32" s="10">
+      <c r="CB32" s="22">
         <v>33216.19543923204</v>
       </c>
-      <c r="CC32" s="10">
+      <c r="CC32" s="22">
         <v>43548.930942141553</v>
       </c>
       <c r="CD32" s="22">
@@ -27808,7 +27896,7 @@
         <v>22860.431135433821</v>
       </c>
       <c r="CG32" s="22">
-        <v>31101.636196527626</v>
+        <v>30911.379465516111</v>
       </c>
       <c r="CH32" s="22">
         <v>29508.709154032811</v>
@@ -27820,9 +27908,11 @@
         <v>23839.078751075409</v>
       </c>
       <c r="CK32" s="22">
-        <v>33349.466272474405</v>
-      </c>
-      <c r="CL32" s="11"/>
+        <v>33388.664453483907</v>
+      </c>
+      <c r="CL32" s="22">
+        <v>34677.113003577018</v>
+      </c>
       <c r="CM32" s="11"/>
       <c r="CN32" s="11"/>
       <c r="CO32" s="11"/>
@@ -27889,7 +27979,7 @@
       <c r="EX32" s="11"/>
       <c r="EY32" s="11"/>
     </row>
-    <row r="33" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
@@ -27966,10 +28056,10 @@
       <c r="BW33" s="13"/>
       <c r="BX33" s="13"/>
       <c r="BY33" s="13"/>
-      <c r="BZ33" s="13"/>
-      <c r="CA33" s="13"/>
-      <c r="CB33" s="13"/>
-      <c r="CC33" s="13"/>
+      <c r="BZ33" s="23"/>
+      <c r="CA33" s="23"/>
+      <c r="CB33" s="23"/>
+      <c r="CC33" s="23"/>
       <c r="CD33" s="23"/>
       <c r="CE33" s="23"/>
       <c r="CF33" s="23"/>
@@ -27978,7 +28068,7 @@
       <c r="CI33" s="23"/>
       <c r="CJ33" s="23"/>
       <c r="CK33" s="23"/>
-      <c r="CL33" s="11"/>
+      <c r="CL33" s="23"/>
       <c r="CM33" s="11"/>
       <c r="CN33" s="11"/>
       <c r="CO33" s="11"/>
@@ -28045,7 +28135,7 @@
       <c r="EX33" s="11"/>
       <c r="EY33" s="11"/>
     </row>
-    <row r="34" spans="1:155" ht="18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:155" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>13</v>
       </c>
@@ -28277,16 +28367,16 @@
       <c r="BY34" s="13">
         <v>112192.93266277324</v>
       </c>
-      <c r="BZ34" s="13">
+      <c r="BZ34" s="23">
         <v>114162.71145224517</v>
       </c>
-      <c r="CA34" s="13">
+      <c r="CA34" s="23">
         <v>115851.19015740253</v>
       </c>
-      <c r="CB34" s="13">
+      <c r="CB34" s="23">
         <v>87495.690081391542</v>
       </c>
-      <c r="CC34" s="13">
+      <c r="CC34" s="23">
         <v>121181.00555406515</v>
       </c>
       <c r="CD34" s="23">
@@ -28299,7 +28389,7 @@
         <v>44918.260481232137</v>
       </c>
       <c r="CG34" s="23">
-        <v>68543.969292126858</v>
+        <v>68778.972838031419</v>
       </c>
       <c r="CH34" s="23">
         <v>63079.47181610261</v>
@@ -28311,9 +28401,11 @@
         <v>53709.409663842205</v>
       </c>
       <c r="CK34" s="23">
-        <v>89186.084080584173</v>
-      </c>
-      <c r="CL34" s="11"/>
+        <v>89140.966334039753</v>
+      </c>
+      <c r="CL34" s="23">
+        <v>77120.427057093344</v>
+      </c>
       <c r="CM34" s="11"/>
       <c r="CN34" s="11"/>
       <c r="CO34" s="11"/>
@@ -28380,7 +28472,7 @@
       <c r="EX34" s="11"/>
       <c r="EY34" s="11"/>
     </row>
-    <row r="35" spans="1:155" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:155" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -28458,10 +28550,10 @@
       <c r="BW35" s="15"/>
       <c r="BX35" s="15"/>
       <c r="BY35" s="15"/>
-      <c r="BZ35" s="15"/>
-      <c r="CA35" s="15"/>
-      <c r="CB35" s="15"/>
-      <c r="CC35" s="15"/>
+      <c r="BZ35" s="24"/>
+      <c r="CA35" s="24"/>
+      <c r="CB35" s="24"/>
+      <c r="CC35" s="24"/>
       <c r="CD35" s="24"/>
       <c r="CE35" s="24"/>
       <c r="CF35" s="24"/>
@@ -28470,8 +28562,9 @@
       <c r="CI35" s="24"/>
       <c r="CJ35" s="24"/>
       <c r="CK35" s="24"/>
+      <c r="CL35" s="24"/>
     </row>
-    <row r="36" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>0</v>
       </c>
@@ -28551,10 +28644,10 @@
       <c r="BW36" s="1"/>
       <c r="BX36" s="1"/>
       <c r="BY36" s="1"/>
-      <c r="BZ36" s="1"/>
-      <c r="CA36" s="1"/>
-      <c r="CB36" s="1"/>
-      <c r="CC36" s="1"/>
+      <c r="BZ36" s="20"/>
+      <c r="CA36" s="20"/>
+      <c r="CB36" s="20"/>
+      <c r="CC36" s="20"/>
       <c r="CD36" s="20"/>
       <c r="CE36" s="20"/>
       <c r="CF36" s="20"/>
@@ -28563,8 +28656,9 @@
       <c r="CI36" s="20"/>
       <c r="CJ36" s="20"/>
       <c r="CK36" s="20"/>
+      <c r="CL36" s="20"/>
     </row>
-    <row r="37" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
@@ -28641,10 +28735,10 @@
       <c r="BW37" s="17"/>
       <c r="BX37" s="17"/>
       <c r="BY37" s="17"/>
-      <c r="BZ37" s="17"/>
-      <c r="CA37" s="17"/>
-      <c r="CB37" s="17"/>
-      <c r="CC37" s="17"/>
+      <c r="BZ37" s="25"/>
+      <c r="CA37" s="25"/>
+      <c r="CB37" s="25"/>
+      <c r="CC37" s="25"/>
       <c r="CD37" s="25"/>
       <c r="CE37" s="25"/>
       <c r="CF37" s="25"/>
@@ -28653,7 +28747,7 @@
       <c r="CI37" s="25"/>
       <c r="CJ37" s="25"/>
       <c r="CK37" s="25"/>
-      <c r="CL37" s="11"/>
+      <c r="CL37" s="25"/>
       <c r="CM37" s="11"/>
       <c r="CN37" s="11"/>
       <c r="CO37" s="11"/>
@@ -28720,7 +28814,7 @@
       <c r="EX37" s="11"/>
       <c r="EY37" s="11"/>
     </row>
-    <row r="38" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
@@ -28797,10 +28891,10 @@
       <c r="BW38" s="17"/>
       <c r="BX38" s="17"/>
       <c r="BY38" s="17"/>
-      <c r="BZ38" s="17"/>
-      <c r="CA38" s="17"/>
-      <c r="CB38" s="17"/>
-      <c r="CC38" s="17"/>
+      <c r="BZ38" s="25"/>
+      <c r="CA38" s="25"/>
+      <c r="CB38" s="25"/>
+      <c r="CC38" s="25"/>
       <c r="CD38" s="25"/>
       <c r="CE38" s="25"/>
       <c r="CF38" s="25"/>
@@ -28809,7 +28903,7 @@
       <c r="CI38" s="25"/>
       <c r="CJ38" s="25"/>
       <c r="CK38" s="25"/>
-      <c r="CL38" s="11"/>
+      <c r="CL38" s="25"/>
       <c r="CM38" s="11"/>
       <c r="CN38" s="11"/>
       <c r="CO38" s="11"/>
@@ -28876,7 +28970,7 @@
       <c r="EX38" s="11"/>
       <c r="EY38" s="11"/>
     </row>
-    <row r="39" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>2</v>
       </c>
@@ -28956,10 +29050,10 @@
       <c r="BW39" s="1"/>
       <c r="BX39" s="1"/>
       <c r="BY39" s="1"/>
-      <c r="BZ39" s="1"/>
-      <c r="CA39" s="1"/>
-      <c r="CB39" s="1"/>
-      <c r="CC39" s="1"/>
+      <c r="BZ39" s="20"/>
+      <c r="CA39" s="20"/>
+      <c r="CB39" s="20"/>
+      <c r="CC39" s="20"/>
       <c r="CD39" s="20"/>
       <c r="CE39" s="20"/>
       <c r="CF39" s="20"/>
@@ -28968,8 +29062,9 @@
       <c r="CI39" s="20"/>
       <c r="CJ39" s="20"/>
       <c r="CK39" s="20"/>
+      <c r="CL39" s="20"/>
     </row>
-    <row r="40" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
@@ -29049,10 +29144,10 @@
       <c r="BW40" s="1"/>
       <c r="BX40" s="1"/>
       <c r="BY40" s="1"/>
-      <c r="BZ40" s="1"/>
-      <c r="CA40" s="1"/>
-      <c r="CB40" s="1"/>
-      <c r="CC40" s="1"/>
+      <c r="BZ40" s="20"/>
+      <c r="CA40" s="20"/>
+      <c r="CB40" s="20"/>
+      <c r="CC40" s="20"/>
       <c r="CD40" s="20"/>
       <c r="CE40" s="20"/>
       <c r="CF40" s="20"/>
@@ -29061,10 +29156,11 @@
       <c r="CI40" s="20"/>
       <c r="CJ40" s="20"/>
       <c r="CK40" s="20"/>
+      <c r="CL40" s="20"/>
     </row>
-    <row r="41" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -29142,10 +29238,10 @@
       <c r="BW41" s="1"/>
       <c r="BX41" s="1"/>
       <c r="BY41" s="1"/>
-      <c r="BZ41" s="1"/>
-      <c r="CA41" s="1"/>
-      <c r="CB41" s="1"/>
-      <c r="CC41" s="1"/>
+      <c r="BZ41" s="20"/>
+      <c r="CA41" s="20"/>
+      <c r="CB41" s="20"/>
+      <c r="CC41" s="20"/>
       <c r="CD41" s="20"/>
       <c r="CE41" s="20"/>
       <c r="CF41" s="20"/>
@@ -29154,8 +29250,9 @@
       <c r="CI41" s="20"/>
       <c r="CJ41" s="20"/>
       <c r="CK41" s="20"/>
+      <c r="CL41" s="20"/>
     </row>
-    <row r="42" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -29233,10 +29330,10 @@
       <c r="BW42" s="1"/>
       <c r="BX42" s="1"/>
       <c r="BY42" s="1"/>
-      <c r="BZ42" s="1"/>
-      <c r="CA42" s="1"/>
-      <c r="CB42" s="1"/>
-      <c r="CC42" s="1"/>
+      <c r="BZ42" s="20"/>
+      <c r="CA42" s="20"/>
+      <c r="CB42" s="20"/>
+      <c r="CC42" s="20"/>
       <c r="CD42" s="20"/>
       <c r="CE42" s="20"/>
       <c r="CF42" s="20"/>
@@ -29245,8 +29342,9 @@
       <c r="CI42" s="20"/>
       <c r="CJ42" s="20"/>
       <c r="CK42" s="20"/>
+      <c r="CL42" s="20"/>
     </row>
-    <row r="43" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>16</v>
       </c>
@@ -29326,10 +29424,10 @@
       <c r="BW43" s="1"/>
       <c r="BX43" s="1"/>
       <c r="BY43" s="1"/>
-      <c r="BZ43" s="1"/>
-      <c r="CA43" s="1"/>
-      <c r="CB43" s="1"/>
-      <c r="CC43" s="1"/>
+      <c r="BZ43" s="20"/>
+      <c r="CA43" s="20"/>
+      <c r="CB43" s="20"/>
+      <c r="CC43" s="20"/>
       <c r="CD43" s="20"/>
       <c r="CE43" s="20"/>
       <c r="CF43" s="20"/>
@@ -29338,10 +29436,11 @@
       <c r="CI43" s="20"/>
       <c r="CJ43" s="20"/>
       <c r="CK43" s="20"/>
+      <c r="CL43" s="20"/>
     </row>
-    <row r="44" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -29419,20 +29518,23 @@
       <c r="BW44" s="1"/>
       <c r="BX44" s="1"/>
       <c r="BY44" s="1"/>
-      <c r="BZ44" s="1"/>
-      <c r="CA44" s="1"/>
-      <c r="CB44" s="1"/>
-      <c r="CC44" s="1"/>
+      <c r="BZ44" s="20"/>
+      <c r="CA44" s="20"/>
+      <c r="CB44" s="20"/>
+      <c r="CC44" s="20"/>
       <c r="CD44" s="20"/>
       <c r="CE44" s="20"/>
       <c r="CF44" s="20"/>
       <c r="CG44" s="20"/>
       <c r="CH44" s="20"/>
-      <c r="CI44" s="20"/>
-      <c r="CJ44" s="20"/>
-      <c r="CK44" s="20"/>
+      <c r="CI44" s="37"/>
+      <c r="CJ44" s="37"/>
+      <c r="CK44" s="37"/>
+      <c r="CL44" s="37"/>
+      <c r="CM44" s="38"/>
+      <c r="CN44" s="38"/>
     </row>
-    <row r="45" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>21</v>
       </c>
@@ -29512,19 +29614,23 @@
       <c r="BW45" s="1"/>
       <c r="BX45" s="1"/>
       <c r="BY45" s="1"/>
-      <c r="BZ45" s="1"/>
-      <c r="CA45" s="1"/>
-      <c r="CB45" s="1"/>
+      <c r="BZ45" s="20"/>
+      <c r="CA45" s="20"/>
+      <c r="CB45" s="20"/>
+      <c r="CC45" s="19"/>
       <c r="CD45" s="19"/>
       <c r="CE45" s="19"/>
       <c r="CF45" s="19"/>
       <c r="CG45" s="19"/>
       <c r="CH45" s="19"/>
-      <c r="CI45" s="19"/>
-      <c r="CJ45" s="19"/>
-      <c r="CK45" s="19"/>
+      <c r="CI45" s="39"/>
+      <c r="CJ45" s="39"/>
+      <c r="CK45" s="39"/>
+      <c r="CL45" s="39"/>
+      <c r="CM45" s="38"/>
+      <c r="CN45" s="38"/>
     </row>
-    <row r="46" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -29602,20 +29708,23 @@
       <c r="BW46" s="1"/>
       <c r="BX46" s="1"/>
       <c r="BY46" s="1"/>
-      <c r="BZ46" s="1"/>
-      <c r="CA46" s="1"/>
-      <c r="CB46" s="1"/>
-      <c r="CC46" s="1"/>
+      <c r="BZ46" s="20"/>
+      <c r="CA46" s="20"/>
+      <c r="CB46" s="20"/>
+      <c r="CC46" s="20"/>
       <c r="CD46" s="20"/>
       <c r="CE46" s="20"/>
       <c r="CF46" s="20"/>
       <c r="CG46" s="20"/>
       <c r="CH46" s="20"/>
-      <c r="CI46" s="20"/>
-      <c r="CJ46" s="20"/>
-      <c r="CK46" s="20"/>
+      <c r="CI46" s="37"/>
+      <c r="CJ46" s="37"/>
+      <c r="CK46" s="37"/>
+      <c r="CL46" s="37"/>
+      <c r="CM46" s="38"/>
+      <c r="CN46" s="38"/>
     </row>
-    <row r="47" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="B47" s="33" t="s">
         <v>29</v>
@@ -29731,24 +29840,29 @@
       <c r="BW47" s="33"/>
       <c r="BX47" s="33"/>
       <c r="BY47" s="33"/>
-      <c r="BZ47" s="33" t="s">
+      <c r="BZ47" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="33"/>
-      <c r="CB47" s="33"/>
-      <c r="CC47" s="33"/>
+      <c r="CA47" s="31"/>
+      <c r="CB47" s="31"/>
+      <c r="CC47" s="31"/>
       <c r="CD47" s="32" t="s">
         <v>46</v>
       </c>
       <c r="CE47" s="32"/>
       <c r="CF47" s="32"/>
       <c r="CG47" s="32"/>
-      <c r="CH47" s="26"/>
-      <c r="CI47" s="26"/>
-      <c r="CJ47" s="26"/>
-      <c r="CK47" s="26"/>
+      <c r="CH47" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="CI47" s="40"/>
+      <c r="CJ47" s="40"/>
+      <c r="CK47" s="40"/>
+      <c r="CL47" s="41"/>
+      <c r="CM47" s="38"/>
+      <c r="CN47" s="38"/>
     </row>
-    <row r="48" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>4</v>
       </c>
@@ -29980,36 +30094,41 @@
       <c r="BY48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ48" s="6" t="s">
+      <c r="BZ48" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CA48" s="6" t="s">
+      <c r="CA48" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="CB48" s="6" t="s">
+      <c r="CB48" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="CC48" s="6" t="s">
+      <c r="CC48" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="CD48" s="31" t="s">
+      <c r="CD48" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CE48" s="31" t="s">
+      <c r="CE48" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="CF48" s="31" t="s">
+      <c r="CF48" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="CG48" s="31" t="s">
+      <c r="CG48" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="CH48" s="27"/>
-      <c r="CI48" s="27"/>
-      <c r="CJ48" s="27"/>
-      <c r="CK48" s="27"/>
+      <c r="CH48" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI48" s="40"/>
+      <c r="CJ48" s="40"/>
+      <c r="CK48" s="40"/>
+      <c r="CL48" s="40"/>
+      <c r="CM48" s="38"/>
+      <c r="CN48" s="38"/>
     </row>
-    <row r="49" spans="1:151" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:151" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -30087,20 +30206,23 @@
       <c r="BW49" s="1"/>
       <c r="BX49" s="1"/>
       <c r="BY49" s="1"/>
-      <c r="BZ49" s="1"/>
-      <c r="CA49" s="1"/>
-      <c r="CB49" s="1"/>
-      <c r="CC49" s="1"/>
+      <c r="BZ49" s="20"/>
+      <c r="CA49" s="20"/>
+      <c r="CB49" s="20"/>
+      <c r="CC49" s="20"/>
       <c r="CD49" s="20"/>
       <c r="CE49" s="20"/>
       <c r="CF49" s="20"/>
       <c r="CG49" s="20"/>
       <c r="CH49" s="20"/>
-      <c r="CI49" s="20"/>
-      <c r="CJ49" s="20"/>
-      <c r="CK49" s="20"/>
+      <c r="CI49" s="37"/>
+      <c r="CJ49" s="37"/>
+      <c r="CK49" s="37"/>
+      <c r="CL49" s="37"/>
+      <c r="CM49" s="38"/>
+      <c r="CN49" s="38"/>
     </row>
-    <row r="50" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>11</v>
       </c>
@@ -30332,37 +30454,39 @@
       <c r="BY50" s="18">
         <v>13.013989505161575</v>
       </c>
-      <c r="BZ50" s="18">
+      <c r="BZ50" s="27">
         <v>-8.6303853487852251</v>
       </c>
-      <c r="CA50" s="18">
+      <c r="CA50" s="27">
         <v>-74.333524767771053</v>
       </c>
-      <c r="CB50" s="18">
+      <c r="CB50" s="27">
         <v>-59.35546449493286</v>
       </c>
-      <c r="CC50" s="18">
-        <v>-52.26032071615046</v>
-      </c>
-      <c r="CD50" s="29">
+      <c r="CC50" s="27">
+        <v>-51.718105860567086</v>
+      </c>
+      <c r="CD50" s="27">
         <v>-46.132896988566351</v>
       </c>
-      <c r="CE50" s="29">
+      <c r="CE50" s="27">
         <v>59.74341911893805</v>
       </c>
-      <c r="CF50" s="29">
+      <c r="CF50" s="27">
         <v>35.114036301456025</v>
       </c>
-      <c r="CG50" s="29">
-        <v>49.867874695387314</v>
-      </c>
-      <c r="CH50" s="25"/>
-      <c r="CI50" s="25"/>
-      <c r="CJ50" s="25"/>
-      <c r="CK50" s="25"/>
-      <c r="CL50" s="11"/>
-      <c r="CM50" s="11"/>
-      <c r="CN50" s="11"/>
+      <c r="CG50" s="27">
+        <v>47.964184651382965</v>
+      </c>
+      <c r="CH50" s="27">
+        <v>27.890474976059963</v>
+      </c>
+      <c r="CI50" s="42"/>
+      <c r="CJ50" s="42"/>
+      <c r="CK50" s="42"/>
+      <c r="CL50" s="42"/>
+      <c r="CM50" s="43"/>
+      <c r="CN50" s="43"/>
       <c r="CO50" s="11"/>
       <c r="CP50" s="11"/>
       <c r="CQ50" s="11"/>
@@ -30423,7 +30547,7 @@
       <c r="ET50" s="11"/>
       <c r="EU50" s="11"/>
     </row>
-    <row r="51" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>12</v>
       </c>
@@ -30655,37 +30779,39 @@
       <c r="BY51" s="18">
         <v>6.5069067353461776</v>
       </c>
-      <c r="BZ51" s="18">
+      <c r="BZ51" s="27">
         <v>-4.9889243521995041</v>
       </c>
-      <c r="CA51" s="18">
+      <c r="CA51" s="27">
         <v>-37.985123272153196</v>
       </c>
-      <c r="CB51" s="18">
+      <c r="CB51" s="27">
         <v>-27.171798583648581</v>
       </c>
-      <c r="CC51" s="18">
-        <v>-24.283186343141338</v>
-      </c>
-      <c r="CD51" s="29">
+      <c r="CC51" s="27">
+        <v>-24.746365622775841</v>
+      </c>
+      <c r="CD51" s="27">
         <v>-24.74954127664212</v>
       </c>
-      <c r="CE51" s="29">
+      <c r="CE51" s="27">
         <v>20.539579694353137</v>
       </c>
-      <c r="CF51" s="29">
+      <c r="CF51" s="27">
         <v>6.8502194788742088</v>
       </c>
-      <c r="CG51" s="29">
-        <v>9.4460846366623201</v>
-      </c>
-      <c r="CH51" s="25"/>
-      <c r="CI51" s="25"/>
-      <c r="CJ51" s="25"/>
-      <c r="CK51" s="25"/>
-      <c r="CL51" s="11"/>
-      <c r="CM51" s="11"/>
-      <c r="CN51" s="11"/>
+      <c r="CG51" s="27">
+        <v>10.285115913526326</v>
+      </c>
+      <c r="CH51" s="27">
+        <v>18.797541369194576</v>
+      </c>
+      <c r="CI51" s="42"/>
+      <c r="CJ51" s="42"/>
+      <c r="CK51" s="42"/>
+      <c r="CL51" s="42"/>
+      <c r="CM51" s="43"/>
+      <c r="CN51" s="43"/>
       <c r="CO51" s="11"/>
       <c r="CP51" s="11"/>
       <c r="CQ51" s="11"/>
@@ -30746,7 +30872,7 @@
       <c r="ET51" s="11"/>
       <c r="EU51" s="11"/>
     </row>
-    <row r="52" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
@@ -30824,21 +30950,21 @@
       <c r="BW52" s="17"/>
       <c r="BX52" s="17"/>
       <c r="BY52" s="17"/>
-      <c r="BZ52" s="17"/>
-      <c r="CA52" s="17"/>
-      <c r="CB52" s="17"/>
-      <c r="CC52" s="17"/>
+      <c r="BZ52" s="25"/>
+      <c r="CA52" s="25"/>
+      <c r="CB52" s="25"/>
+      <c r="CC52" s="25"/>
       <c r="CD52" s="25"/>
       <c r="CE52" s="25"/>
       <c r="CF52" s="25"/>
       <c r="CG52" s="25"/>
       <c r="CH52" s="25"/>
-      <c r="CI52" s="25"/>
-      <c r="CJ52" s="25"/>
-      <c r="CK52" s="25"/>
-      <c r="CL52" s="11"/>
-      <c r="CM52" s="11"/>
-      <c r="CN52" s="11"/>
+      <c r="CI52" s="42"/>
+      <c r="CJ52" s="42"/>
+      <c r="CK52" s="42"/>
+      <c r="CL52" s="42"/>
+      <c r="CM52" s="43"/>
+      <c r="CN52" s="43"/>
       <c r="CO52" s="11"/>
       <c r="CP52" s="11"/>
       <c r="CQ52" s="11"/>
@@ -30899,7 +31025,7 @@
       <c r="ET52" s="11"/>
       <c r="EU52" s="11"/>
     </row>
-    <row r="53" spans="1:151" ht="18" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:151" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
         <v>13</v>
       </c>
@@ -31131,37 +31257,39 @@
       <c r="BY53" s="18">
         <v>10.638485189560413</v>
       </c>
-      <c r="BZ53" s="18">
+      <c r="BZ53" s="27">
         <v>-7.185926223613464</v>
       </c>
-      <c r="CA53" s="18">
+      <c r="CA53" s="27">
         <v>-62.560681781515484</v>
       </c>
-      <c r="CB53" s="18">
+      <c r="CB53" s="27">
         <v>-47.370672021399152</v>
       </c>
-      <c r="CC53" s="18">
-        <v>-42.428266328702904</v>
-      </c>
-      <c r="CD53" s="29">
+      <c r="CC53" s="27">
+        <v>-42.239378932840353</v>
+      </c>
+      <c r="CD53" s="27">
         <v>-37.44997589142416</v>
       </c>
-      <c r="CE53" s="29">
+      <c r="CE53" s="27">
         <v>38.710837141023745</v>
       </c>
-      <c r="CF53" s="29">
+      <c r="CF53" s="27">
         <v>20.549469331725362</v>
       </c>
-      <c r="CG53" s="29">
-        <v>31.185176099031139</v>
-      </c>
-      <c r="CH53" s="25"/>
-      <c r="CI53" s="25"/>
-      <c r="CJ53" s="25"/>
-      <c r="CK53" s="25"/>
-      <c r="CL53" s="11"/>
-      <c r="CM53" s="11"/>
-      <c r="CN53" s="11"/>
+      <c r="CG53" s="27">
+        <v>30.71228876238419</v>
+      </c>
+      <c r="CH53" s="27">
+        <v>23.448504328743837</v>
+      </c>
+      <c r="CI53" s="42"/>
+      <c r="CJ53" s="42"/>
+      <c r="CK53" s="42"/>
+      <c r="CL53" s="42"/>
+      <c r="CM53" s="43"/>
+      <c r="CN53" s="43"/>
       <c r="CO53" s="11"/>
       <c r="CP53" s="11"/>
       <c r="CQ53" s="11"/>
@@ -31222,7 +31350,7 @@
       <c r="ET53" s="11"/>
       <c r="EU53" s="11"/>
     </row>
-    <row r="54" spans="1:151" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:151" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="15"/>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
@@ -31300,20 +31428,23 @@
       <c r="BW54" s="15"/>
       <c r="BX54" s="15"/>
       <c r="BY54" s="15"/>
-      <c r="BZ54" s="15"/>
-      <c r="CA54" s="15"/>
-      <c r="CB54" s="15"/>
-      <c r="CC54" s="15"/>
+      <c r="BZ54" s="24"/>
+      <c r="CA54" s="24"/>
+      <c r="CB54" s="24"/>
+      <c r="CC54" s="24"/>
       <c r="CD54" s="24"/>
       <c r="CE54" s="24"/>
       <c r="CF54" s="24"/>
       <c r="CG54" s="24"/>
       <c r="CH54" s="24"/>
-      <c r="CI54" s="24"/>
-      <c r="CJ54" s="24"/>
-      <c r="CK54" s="24"/>
+      <c r="CI54" s="44"/>
+      <c r="CJ54" s="44"/>
+      <c r="CK54" s="44"/>
+      <c r="CL54" s="44"/>
+      <c r="CM54" s="38"/>
+      <c r="CN54" s="38"/>
     </row>
-    <row r="55" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
         <v>0</v>
       </c>
@@ -31393,20 +31524,23 @@
       <c r="BW55" s="1"/>
       <c r="BX55" s="1"/>
       <c r="BY55" s="1"/>
-      <c r="BZ55" s="1"/>
-      <c r="CA55" s="1"/>
-      <c r="CB55" s="1"/>
-      <c r="CC55" s="1"/>
+      <c r="BZ55" s="20"/>
+      <c r="CA55" s="20"/>
+      <c r="CB55" s="20"/>
+      <c r="CC55" s="20"/>
       <c r="CD55" s="20"/>
       <c r="CE55" s="20"/>
       <c r="CF55" s="20"/>
       <c r="CG55" s="20"/>
       <c r="CH55" s="20"/>
-      <c r="CI55" s="20"/>
-      <c r="CJ55" s="20"/>
-      <c r="CK55" s="20"/>
+      <c r="CI55" s="37"/>
+      <c r="CJ55" s="37"/>
+      <c r="CK55" s="37"/>
+      <c r="CL55" s="37"/>
+      <c r="CM55" s="38"/>
+      <c r="CN55" s="38"/>
     </row>
-    <row r="56" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
@@ -31483,21 +31617,21 @@
       <c r="BW56" s="17"/>
       <c r="BX56" s="17"/>
       <c r="BY56" s="17"/>
-      <c r="BZ56" s="17"/>
-      <c r="CA56" s="17"/>
-      <c r="CB56" s="17"/>
-      <c r="CC56" s="17"/>
+      <c r="BZ56" s="25"/>
+      <c r="CA56" s="25"/>
+      <c r="CB56" s="25"/>
+      <c r="CC56" s="25"/>
       <c r="CD56" s="25"/>
       <c r="CE56" s="25"/>
       <c r="CF56" s="25"/>
       <c r="CG56" s="25"/>
       <c r="CH56" s="25"/>
-      <c r="CI56" s="25"/>
-      <c r="CJ56" s="25"/>
-      <c r="CK56" s="25"/>
-      <c r="CL56" s="11"/>
-      <c r="CM56" s="11"/>
-      <c r="CN56" s="11"/>
+      <c r="CI56" s="42"/>
+      <c r="CJ56" s="42"/>
+      <c r="CK56" s="42"/>
+      <c r="CL56" s="42"/>
+      <c r="CM56" s="43"/>
+      <c r="CN56" s="43"/>
       <c r="CO56" s="11"/>
       <c r="CP56" s="11"/>
       <c r="CQ56" s="11"/>
@@ -31558,7 +31692,7 @@
       <c r="ET56" s="11"/>
       <c r="EU56" s="11"/>
     </row>
-    <row r="57" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
       <c r="D57" s="17"/>
@@ -31635,21 +31769,21 @@
       <c r="BW57" s="17"/>
       <c r="BX57" s="17"/>
       <c r="BY57" s="17"/>
-      <c r="BZ57" s="17"/>
-      <c r="CA57" s="17"/>
-      <c r="CB57" s="17"/>
-      <c r="CC57" s="17"/>
+      <c r="BZ57" s="25"/>
+      <c r="CA57" s="25"/>
+      <c r="CB57" s="25"/>
+      <c r="CC57" s="25"/>
       <c r="CD57" s="25"/>
       <c r="CE57" s="25"/>
       <c r="CF57" s="25"/>
       <c r="CG57" s="25"/>
       <c r="CH57" s="25"/>
-      <c r="CI57" s="25"/>
-      <c r="CJ57" s="25"/>
-      <c r="CK57" s="25"/>
-      <c r="CL57" s="11"/>
-      <c r="CM57" s="11"/>
-      <c r="CN57" s="11"/>
+      <c r="CI57" s="42"/>
+      <c r="CJ57" s="42"/>
+      <c r="CK57" s="42"/>
+      <c r="CL57" s="42"/>
+      <c r="CM57" s="43"/>
+      <c r="CN57" s="43"/>
       <c r="CO57" s="11"/>
       <c r="CP57" s="11"/>
       <c r="CQ57" s="11"/>
@@ -31710,7 +31844,7 @@
       <c r="ET57" s="11"/>
       <c r="EU57" s="11"/>
     </row>
-    <row r="58" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>2</v>
       </c>
@@ -31790,20 +31924,23 @@
       <c r="BW58" s="1"/>
       <c r="BX58" s="1"/>
       <c r="BY58" s="1"/>
-      <c r="BZ58" s="1"/>
-      <c r="CA58" s="1"/>
-      <c r="CB58" s="1"/>
-      <c r="CC58" s="1"/>
+      <c r="BZ58" s="20"/>
+      <c r="CA58" s="20"/>
+      <c r="CB58" s="20"/>
+      <c r="CC58" s="20"/>
       <c r="CD58" s="20"/>
       <c r="CE58" s="20"/>
       <c r="CF58" s="20"/>
       <c r="CG58" s="20"/>
       <c r="CH58" s="20"/>
-      <c r="CI58" s="20"/>
-      <c r="CJ58" s="20"/>
-      <c r="CK58" s="20"/>
+      <c r="CI58" s="37"/>
+      <c r="CJ58" s="37"/>
+      <c r="CK58" s="37"/>
+      <c r="CL58" s="37"/>
+      <c r="CM58" s="38"/>
+      <c r="CN58" s="38"/>
     </row>
-    <row r="59" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>1</v>
       </c>
@@ -31883,22 +32020,25 @@
       <c r="BW59" s="1"/>
       <c r="BX59" s="1"/>
       <c r="BY59" s="1"/>
-      <c r="BZ59" s="1"/>
-      <c r="CA59" s="1"/>
-      <c r="CB59" s="1"/>
-      <c r="CC59" s="1"/>
+      <c r="BZ59" s="20"/>
+      <c r="CA59" s="20"/>
+      <c r="CB59" s="20"/>
+      <c r="CC59" s="20"/>
       <c r="CD59" s="20"/>
       <c r="CE59" s="20"/>
       <c r="CF59" s="20"/>
       <c r="CG59" s="20"/>
       <c r="CH59" s="20"/>
-      <c r="CI59" s="20"/>
-      <c r="CJ59" s="20"/>
-      <c r="CK59" s="20"/>
+      <c r="CI59" s="37"/>
+      <c r="CJ59" s="37"/>
+      <c r="CK59" s="37"/>
+      <c r="CL59" s="37"/>
+      <c r="CM59" s="38"/>
+      <c r="CN59" s="38"/>
     </row>
-    <row r="60" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -31976,20 +32116,23 @@
       <c r="BW60" s="1"/>
       <c r="BX60" s="1"/>
       <c r="BY60" s="1"/>
-      <c r="BZ60" s="1"/>
-      <c r="CA60" s="1"/>
-      <c r="CB60" s="1"/>
-      <c r="CC60" s="1"/>
+      <c r="BZ60" s="20"/>
+      <c r="CA60" s="20"/>
+      <c r="CB60" s="20"/>
+      <c r="CC60" s="20"/>
       <c r="CD60" s="20"/>
       <c r="CE60" s="20"/>
       <c r="CF60" s="20"/>
       <c r="CG60" s="20"/>
       <c r="CH60" s="20"/>
-      <c r="CI60" s="20"/>
-      <c r="CJ60" s="20"/>
-      <c r="CK60" s="20"/>
+      <c r="CI60" s="37"/>
+      <c r="CJ60" s="37"/>
+      <c r="CK60" s="37"/>
+      <c r="CL60" s="37"/>
+      <c r="CM60" s="38"/>
+      <c r="CN60" s="38"/>
     </row>
-    <row r="61" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -32067,10 +32210,10 @@
       <c r="BW61" s="1"/>
       <c r="BX61" s="1"/>
       <c r="BY61" s="1"/>
-      <c r="BZ61" s="1"/>
-      <c r="CA61" s="1"/>
-      <c r="CB61" s="1"/>
-      <c r="CC61" s="1"/>
+      <c r="BZ61" s="20"/>
+      <c r="CA61" s="20"/>
+      <c r="CB61" s="20"/>
+      <c r="CC61" s="20"/>
       <c r="CD61" s="20"/>
       <c r="CE61" s="20"/>
       <c r="CF61" s="20"/>
@@ -32079,8 +32222,9 @@
       <c r="CI61" s="20"/>
       <c r="CJ61" s="20"/>
       <c r="CK61" s="20"/>
+      <c r="CL61" s="20"/>
     </row>
-    <row r="62" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>17</v>
       </c>
@@ -32160,10 +32304,10 @@
       <c r="BW62" s="1"/>
       <c r="BX62" s="1"/>
       <c r="BY62" s="1"/>
-      <c r="BZ62" s="1"/>
-      <c r="CA62" s="1"/>
-      <c r="CB62" s="1"/>
-      <c r="CC62" s="1"/>
+      <c r="BZ62" s="20"/>
+      <c r="CA62" s="20"/>
+      <c r="CB62" s="20"/>
+      <c r="CC62" s="20"/>
       <c r="CD62" s="20"/>
       <c r="CE62" s="20"/>
       <c r="CF62" s="20"/>
@@ -32172,10 +32316,11 @@
       <c r="CI62" s="20"/>
       <c r="CJ62" s="20"/>
       <c r="CK62" s="20"/>
+      <c r="CL62" s="20"/>
     </row>
-    <row r="63" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -32253,10 +32398,10 @@
       <c r="BW63" s="1"/>
       <c r="BX63" s="1"/>
       <c r="BY63" s="1"/>
-      <c r="BZ63" s="1"/>
-      <c r="CA63" s="1"/>
-      <c r="CB63" s="1"/>
-      <c r="CC63" s="1"/>
+      <c r="BZ63" s="20"/>
+      <c r="CA63" s="20"/>
+      <c r="CB63" s="20"/>
+      <c r="CC63" s="20"/>
       <c r="CD63" s="20"/>
       <c r="CE63" s="20"/>
       <c r="CF63" s="20"/>
@@ -32265,8 +32410,9 @@
       <c r="CI63" s="20"/>
       <c r="CJ63" s="20"/>
       <c r="CK63" s="20"/>
+      <c r="CL63" s="20"/>
     </row>
-    <row r="64" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>22</v>
       </c>
@@ -32346,20 +32492,21 @@
       <c r="BW64" s="1"/>
       <c r="BX64" s="1"/>
       <c r="BY64" s="1"/>
-      <c r="BZ64" s="1"/>
-      <c r="CA64" s="1"/>
-      <c r="CB64" s="1"/>
-      <c r="CC64" s="1"/>
+      <c r="BZ64" s="20"/>
+      <c r="CA64" s="20"/>
+      <c r="CB64" s="20"/>
+      <c r="CC64" s="20"/>
       <c r="CD64" s="20"/>
       <c r="CE64" s="20"/>
       <c r="CF64" s="20"/>
       <c r="CG64" s="20"/>
       <c r="CH64" s="20"/>
-      <c r="CI64" s="20"/>
-      <c r="CJ64" s="20"/>
-      <c r="CK64" s="20"/>
+      <c r="CI64" s="37"/>
+      <c r="CJ64" s="37"/>
+      <c r="CK64" s="37"/>
+      <c r="CL64" s="37"/>
     </row>
-    <row r="65" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -32437,153 +32584,157 @@
       <c r="BW65" s="1"/>
       <c r="BX65" s="1"/>
       <c r="BY65" s="1"/>
-      <c r="BZ65" s="1"/>
-      <c r="CA65" s="1"/>
-      <c r="CB65" s="1"/>
-      <c r="CC65" s="1"/>
+      <c r="BZ65" s="20"/>
+      <c r="CA65" s="20"/>
+      <c r="CB65" s="20"/>
+      <c r="CC65" s="20"/>
       <c r="CD65" s="20"/>
       <c r="CE65" s="20"/>
       <c r="CF65" s="20"/>
       <c r="CG65" s="20"/>
       <c r="CH65" s="20"/>
-      <c r="CI65" s="20"/>
-      <c r="CJ65" s="20"/>
-      <c r="CK65" s="20"/>
+      <c r="CI65" s="37"/>
+      <c r="CJ65" s="37"/>
+      <c r="CK65" s="37"/>
+      <c r="CL65" s="37"/>
     </row>
-    <row r="66" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
       <c r="B66" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="35"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
       <c r="F66" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="35"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="36"/>
       <c r="J66" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="35"/>
-      <c r="L66" s="35"/>
-      <c r="M66" s="35"/>
+      <c r="K66" s="36"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="36"/>
       <c r="N66" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="35"/>
-      <c r="P66" s="35"/>
-      <c r="Q66" s="35"/>
+      <c r="O66" s="36"/>
+      <c r="P66" s="36"/>
+      <c r="Q66" s="36"/>
       <c r="R66" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="35"/>
-      <c r="T66" s="35"/>
-      <c r="U66" s="35"/>
+      <c r="S66" s="36"/>
+      <c r="T66" s="36"/>
+      <c r="U66" s="36"/>
       <c r="V66" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="35"/>
-      <c r="X66" s="35"/>
-      <c r="Y66" s="35"/>
+      <c r="W66" s="36"/>
+      <c r="X66" s="36"/>
+      <c r="Y66" s="36"/>
       <c r="Z66" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="35"/>
-      <c r="AB66" s="35"/>
-      <c r="AC66" s="35"/>
+      <c r="AA66" s="36"/>
+      <c r="AB66" s="36"/>
+      <c r="AC66" s="36"/>
       <c r="AD66" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="35"/>
-      <c r="AF66" s="35"/>
-      <c r="AG66" s="35"/>
+      <c r="AE66" s="36"/>
+      <c r="AF66" s="36"/>
+      <c r="AG66" s="36"/>
       <c r="AH66" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="35"/>
-      <c r="AJ66" s="35"/>
-      <c r="AK66" s="35"/>
+      <c r="AI66" s="36"/>
+      <c r="AJ66" s="36"/>
+      <c r="AK66" s="36"/>
       <c r="AL66" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="35"/>
-      <c r="AN66" s="35"/>
-      <c r="AO66" s="35"/>
+      <c r="AM66" s="36"/>
+      <c r="AN66" s="36"/>
+      <c r="AO66" s="36"/>
       <c r="AP66" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="35"/>
-      <c r="AR66" s="35"/>
-      <c r="AS66" s="35"/>
+      <c r="AQ66" s="36"/>
+      <c r="AR66" s="36"/>
+      <c r="AS66" s="36"/>
       <c r="AT66" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="35"/>
-      <c r="AV66" s="35"/>
-      <c r="AW66" s="35"/>
+      <c r="AU66" s="36"/>
+      <c r="AV66" s="36"/>
+      <c r="AW66" s="36"/>
       <c r="AX66" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="35"/>
-      <c r="AZ66" s="35"/>
-      <c r="BA66" s="35"/>
+      <c r="AY66" s="36"/>
+      <c r="AZ66" s="36"/>
+      <c r="BA66" s="36"/>
       <c r="BB66" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="35"/>
-      <c r="BD66" s="35"/>
-      <c r="BE66" s="35"/>
+      <c r="BC66" s="36"/>
+      <c r="BD66" s="36"/>
+      <c r="BE66" s="36"/>
       <c r="BF66" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="35"/>
-      <c r="BH66" s="35"/>
-      <c r="BI66" s="35"/>
+      <c r="BG66" s="36"/>
+      <c r="BH66" s="36"/>
+      <c r="BI66" s="36"/>
       <c r="BJ66" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="35"/>
-      <c r="BL66" s="35"/>
-      <c r="BM66" s="35"/>
+      <c r="BK66" s="36"/>
+      <c r="BL66" s="36"/>
+      <c r="BM66" s="36"/>
       <c r="BN66" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="35"/>
-      <c r="BP66" s="35"/>
-      <c r="BQ66" s="35"/>
+      <c r="BO66" s="36"/>
+      <c r="BP66" s="36"/>
+      <c r="BQ66" s="36"/>
       <c r="BR66" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="35"/>
-      <c r="BT66" s="35"/>
-      <c r="BU66" s="35"/>
+      <c r="BS66" s="36"/>
+      <c r="BT66" s="36"/>
+      <c r="BU66" s="36"/>
       <c r="BV66" s="33" t="s">
         <v>26</v>
       </c>
       <c r="BW66" s="33"/>
       <c r="BX66" s="33"/>
       <c r="BY66" s="33"/>
-      <c r="BZ66" s="33" t="s">
+      <c r="BZ66" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="33"/>
-      <c r="CB66" s="33"/>
-      <c r="CC66" s="33"/>
+      <c r="CA66" s="31"/>
+      <c r="CB66" s="31"/>
+      <c r="CC66" s="31"/>
       <c r="CD66" s="32" t="s">
         <v>46</v>
       </c>
       <c r="CE66" s="32"/>
       <c r="CF66" s="32"/>
       <c r="CG66" s="32"/>
-      <c r="CH66" s="26"/>
-      <c r="CI66" s="26"/>
-      <c r="CJ66" s="26"/>
-      <c r="CK66" s="26"/>
+      <c r="CH66" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="CI66" s="40"/>
+      <c r="CJ66" s="40"/>
+      <c r="CK66" s="40"/>
+      <c r="CL66" s="41"/>
     </row>
-    <row r="67" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>4</v>
       </c>
@@ -32815,36 +32966,39 @@
       <c r="BY67" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ67" s="6" t="s">
+      <c r="BZ67" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CA67" s="6" t="s">
+      <c r="CA67" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="CB67" s="6" t="s">
+      <c r="CB67" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="CC67" s="6" t="s">
+      <c r="CC67" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="CD67" s="31" t="s">
+      <c r="CD67" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CE67" s="31" t="s">
+      <c r="CE67" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="CF67" s="31" t="s">
+      <c r="CF67" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="CG67" s="31" t="s">
+      <c r="CG67" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="CH67" s="27"/>
-      <c r="CI67" s="27"/>
-      <c r="CJ67" s="27"/>
-      <c r="CK67" s="27"/>
+      <c r="CH67" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI67" s="40"/>
+      <c r="CJ67" s="40"/>
+      <c r="CK67" s="40"/>
+      <c r="CL67" s="40"/>
     </row>
-    <row r="68" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -32922,20 +33076,21 @@
       <c r="BW68" s="1"/>
       <c r="BX68" s="1"/>
       <c r="BY68" s="1"/>
-      <c r="BZ68" s="1"/>
-      <c r="CA68" s="1"/>
-      <c r="CB68" s="1"/>
-      <c r="CC68" s="1"/>
+      <c r="BZ68" s="20"/>
+      <c r="CA68" s="20"/>
+      <c r="CB68" s="20"/>
+      <c r="CC68" s="20"/>
       <c r="CD68" s="20"/>
       <c r="CE68" s="20"/>
       <c r="CF68" s="20"/>
       <c r="CG68" s="20"/>
       <c r="CH68" s="20"/>
-      <c r="CI68" s="20"/>
-      <c r="CJ68" s="20"/>
-      <c r="CK68" s="20"/>
+      <c r="CI68" s="37"/>
+      <c r="CJ68" s="37"/>
+      <c r="CK68" s="37"/>
+      <c r="CL68" s="37"/>
     </row>
-    <row r="69" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>11</v>
       </c>
@@ -33167,35 +33322,37 @@
       <c r="BY69" s="18">
         <v>9.0068661322765706</v>
       </c>
-      <c r="BZ69" s="18">
+      <c r="BZ69" s="27">
         <v>-10.079196499977257</v>
       </c>
-      <c r="CA69" s="18">
+      <c r="CA69" s="27">
         <v>-74.734106062057037</v>
       </c>
-      <c r="CB69" s="18">
+      <c r="CB69" s="27">
         <v>-59.3625005331834</v>
       </c>
-      <c r="CC69" s="18">
-        <v>-51.769505989926984</v>
-      </c>
-      <c r="CD69" s="29">
+      <c r="CC69" s="27">
+        <v>-51.2217165883917</v>
+      </c>
+      <c r="CD69" s="27">
         <v>-45.489609220833884</v>
       </c>
-      <c r="CE69" s="29">
+      <c r="CE69" s="27">
         <v>62.096485117697654</v>
       </c>
-      <c r="CF69" s="29">
+      <c r="CF69" s="27">
         <v>35.418270059545279</v>
       </c>
-      <c r="CG69" s="29">
-        <v>49.126972578192522</v>
-      </c>
-      <c r="CH69" s="25"/>
-      <c r="CI69" s="25"/>
-      <c r="CJ69" s="25"/>
-      <c r="CK69" s="25"/>
-      <c r="CL69" s="11"/>
+      <c r="CG69" s="27">
+        <v>47.229588456026477</v>
+      </c>
+      <c r="CH69" s="27">
+        <v>26.429400728126012</v>
+      </c>
+      <c r="CI69" s="42"/>
+      <c r="CJ69" s="42"/>
+      <c r="CK69" s="42"/>
+      <c r="CL69" s="42"/>
       <c r="CM69" s="11"/>
       <c r="CN69" s="11"/>
       <c r="CO69" s="11"/>
@@ -33258,7 +33415,7 @@
       <c r="ET69" s="11"/>
       <c r="EU69" s="11"/>
     </row>
-    <row r="70" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>12</v>
       </c>
@@ -33490,35 +33647,37 @@
       <c r="BY70" s="18">
         <v>6.2808495050284989</v>
       </c>
-      <c r="BZ70" s="18">
+      <c r="BZ70" s="27">
         <v>-9.4228516039327985</v>
       </c>
-      <c r="CA70" s="18">
+      <c r="CA70" s="27">
         <v>-41.088859320898116</v>
       </c>
-      <c r="CB70" s="18">
+      <c r="CB70" s="27">
         <v>-31.176852637273754</v>
       </c>
-      <c r="CC70" s="18">
-        <v>-28.582319878646871</v>
-      </c>
-      <c r="CD70" s="29">
+      <c r="CC70" s="27">
+        <v>-29.01920024952048</v>
+      </c>
+      <c r="CD70" s="27">
         <v>-28.670919444686604</v>
       </c>
-      <c r="CE70" s="29">
+      <c r="CE70" s="27">
         <v>16.127496956223951</v>
       </c>
-      <c r="CF70" s="29">
+      <c r="CF70" s="27">
         <v>4.2809674491426364</v>
       </c>
-      <c r="CG70" s="29">
-        <v>7.2273692025171812</v>
-      </c>
-      <c r="CH70" s="25"/>
-      <c r="CI70" s="25"/>
-      <c r="CJ70" s="25"/>
-      <c r="CK70" s="25"/>
-      <c r="CL70" s="11"/>
+      <c r="CG70" s="27">
+        <v>8.0141521692080602</v>
+      </c>
+      <c r="CH70" s="27">
+        <v>17.514842220192023</v>
+      </c>
+      <c r="CI70" s="42"/>
+      <c r="CJ70" s="42"/>
+      <c r="CK70" s="42"/>
+      <c r="CL70" s="42"/>
       <c r="CM70" s="11"/>
       <c r="CN70" s="11"/>
       <c r="CO70" s="11"/>
@@ -33581,7 +33740,7 @@
       <c r="ET70" s="11"/>
       <c r="EU70" s="11"/>
     </row>
-    <row r="71" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
       <c r="D71" s="17"/>
@@ -33658,19 +33817,19 @@
       <c r="BW71" s="17"/>
       <c r="BX71" s="17"/>
       <c r="BY71" s="17"/>
-      <c r="BZ71" s="17"/>
-      <c r="CA71" s="17"/>
-      <c r="CB71" s="17"/>
-      <c r="CC71" s="17"/>
+      <c r="BZ71" s="25"/>
+      <c r="CA71" s="25"/>
+      <c r="CB71" s="25"/>
+      <c r="CC71" s="25"/>
       <c r="CD71" s="25"/>
       <c r="CE71" s="25"/>
       <c r="CF71" s="25"/>
       <c r="CG71" s="25"/>
       <c r="CH71" s="25"/>
-      <c r="CI71" s="25"/>
-      <c r="CJ71" s="25"/>
-      <c r="CK71" s="25"/>
-      <c r="CL71" s="11"/>
+      <c r="CI71" s="42"/>
+      <c r="CJ71" s="42"/>
+      <c r="CK71" s="42"/>
+      <c r="CL71" s="42"/>
       <c r="CM71" s="11"/>
       <c r="CN71" s="11"/>
       <c r="CO71" s="11"/>
@@ -33733,7 +33892,7 @@
       <c r="ET71" s="11"/>
       <c r="EU71" s="11"/>
     </row>
-    <row r="72" spans="1:155" ht="18" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:155" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="14" t="s">
         <v>13</v>
       </c>
@@ -33965,35 +34124,37 @@
       <c r="BY72" s="18">
         <v>8.0112647721831536</v>
       </c>
-      <c r="BZ72" s="18">
+      <c r="BZ72" s="27">
         <v>-9.8166097672570345</v>
       </c>
-      <c r="CA72" s="18">
+      <c r="CA72" s="27">
         <v>-63.655837739801392</v>
       </c>
-      <c r="CB72" s="18">
+      <c r="CB72" s="27">
         <v>-48.662316464448018</v>
       </c>
-      <c r="CC72" s="18">
-        <v>-43.436705299869928</v>
-      </c>
-      <c r="CD72" s="29">
+      <c r="CC72" s="27">
+        <v>-43.242777592445755</v>
+      </c>
+      <c r="CD72" s="27">
         <v>-38.731504558974287</v>
       </c>
-      <c r="CE72" s="29">
+      <c r="CE72" s="27">
         <v>37.562060583681529</v>
       </c>
-      <c r="CF72" s="29">
+      <c r="CF72" s="27">
         <v>19.571437291707255</v>
       </c>
-      <c r="CG72" s="29">
-        <v>30.115143610202807</v>
-      </c>
-      <c r="CH72" s="25"/>
-      <c r="CI72" s="25"/>
-      <c r="CJ72" s="25"/>
-      <c r="CK72" s="25"/>
-      <c r="CL72" s="11"/>
+      <c r="CG72" s="27">
+        <v>29.604968867387839</v>
+      </c>
+      <c r="CH72" s="27">
+        <v>22.25915156982407</v>
+      </c>
+      <c r="CI72" s="42"/>
+      <c r="CJ72" s="42"/>
+      <c r="CK72" s="42"/>
+      <c r="CL72" s="42"/>
       <c r="CM72" s="11"/>
       <c r="CN72" s="11"/>
       <c r="CO72" s="11"/>
@@ -34056,7 +34217,7 @@
       <c r="ET72" s="11"/>
       <c r="EU72" s="11"/>
     </row>
-    <row r="73" spans="1:155" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:155" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
@@ -34134,20 +34295,21 @@
       <c r="BW73" s="15"/>
       <c r="BX73" s="15"/>
       <c r="BY73" s="15"/>
-      <c r="BZ73" s="15"/>
-      <c r="CA73" s="15"/>
-      <c r="CB73" s="15"/>
-      <c r="CC73" s="15"/>
+      <c r="BZ73" s="24"/>
+      <c r="CA73" s="24"/>
+      <c r="CB73" s="24"/>
+      <c r="CC73" s="24"/>
       <c r="CD73" s="24"/>
       <c r="CE73" s="24"/>
       <c r="CF73" s="24"/>
       <c r="CG73" s="24"/>
       <c r="CH73" s="24"/>
-      <c r="CI73" s="24"/>
-      <c r="CJ73" s="24"/>
-      <c r="CK73" s="24"/>
+      <c r="CI73" s="44"/>
+      <c r="CJ73" s="44"/>
+      <c r="CK73" s="44"/>
+      <c r="CL73" s="44"/>
     </row>
-    <row r="74" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
         <v>0</v>
       </c>
@@ -34227,20 +34389,21 @@
       <c r="BW74" s="1"/>
       <c r="BX74" s="1"/>
       <c r="BY74" s="1"/>
-      <c r="BZ74" s="1"/>
-      <c r="CA74" s="1"/>
-      <c r="CB74" s="1"/>
-      <c r="CC74" s="1"/>
+      <c r="BZ74" s="20"/>
+      <c r="CA74" s="20"/>
+      <c r="CB74" s="20"/>
+      <c r="CC74" s="20"/>
       <c r="CD74" s="20"/>
       <c r="CE74" s="20"/>
       <c r="CF74" s="20"/>
       <c r="CG74" s="20"/>
       <c r="CH74" s="20"/>
-      <c r="CI74" s="20"/>
-      <c r="CJ74" s="20"/>
-      <c r="CK74" s="20"/>
+      <c r="CI74" s="37"/>
+      <c r="CJ74" s="37"/>
+      <c r="CK74" s="37"/>
+      <c r="CL74" s="37"/>
     </row>
-    <row r="75" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
@@ -34317,19 +34480,19 @@
       <c r="BW75" s="17"/>
       <c r="BX75" s="17"/>
       <c r="BY75" s="17"/>
-      <c r="BZ75" s="17"/>
-      <c r="CA75" s="17"/>
-      <c r="CB75" s="17"/>
-      <c r="CC75" s="17"/>
-      <c r="CD75" s="28"/>
-      <c r="CE75" s="28"/>
-      <c r="CF75" s="28"/>
-      <c r="CG75" s="28"/>
-      <c r="CH75" s="28"/>
-      <c r="CI75" s="28"/>
-      <c r="CJ75" s="28"/>
-      <c r="CK75" s="28"/>
-      <c r="CL75" s="11"/>
+      <c r="BZ75" s="25"/>
+      <c r="CA75" s="25"/>
+      <c r="CB75" s="25"/>
+      <c r="CC75" s="25"/>
+      <c r="CD75" s="26"/>
+      <c r="CE75" s="26"/>
+      <c r="CF75" s="26"/>
+      <c r="CG75" s="26"/>
+      <c r="CH75" s="26"/>
+      <c r="CI75" s="45"/>
+      <c r="CJ75" s="45"/>
+      <c r="CK75" s="45"/>
+      <c r="CL75" s="45"/>
       <c r="CM75" s="11"/>
       <c r="CN75" s="11"/>
       <c r="CO75" s="11"/>
@@ -34392,7 +34555,7 @@
       <c r="ET75" s="11"/>
       <c r="EU75" s="11"/>
     </row>
-    <row r="76" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
       <c r="D76" s="17"/>
@@ -34469,10 +34632,10 @@
       <c r="BW76" s="17"/>
       <c r="BX76" s="17"/>
       <c r="BY76" s="17"/>
-      <c r="BZ76" s="17"/>
-      <c r="CA76" s="17"/>
-      <c r="CB76" s="17"/>
-      <c r="CC76" s="17"/>
+      <c r="BZ76" s="25"/>
+      <c r="CA76" s="25"/>
+      <c r="CB76" s="25"/>
+      <c r="CC76" s="25"/>
       <c r="CD76" s="25"/>
       <c r="CE76" s="25"/>
       <c r="CF76" s="25"/>
@@ -34481,7 +34644,7 @@
       <c r="CI76" s="25"/>
       <c r="CJ76" s="25"/>
       <c r="CK76" s="25"/>
-      <c r="CL76" s="11"/>
+      <c r="CL76" s="25"/>
       <c r="CM76" s="11"/>
       <c r="CN76" s="11"/>
       <c r="CO76" s="11"/>
@@ -34548,7 +34711,7 @@
       <c r="EX76" s="11"/>
       <c r="EY76" s="11"/>
     </row>
-    <row r="77" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>2</v>
       </c>
@@ -34628,10 +34791,10 @@
       <c r="BW77" s="1"/>
       <c r="BX77" s="1"/>
       <c r="BY77" s="1"/>
-      <c r="BZ77" s="1"/>
-      <c r="CA77" s="1"/>
-      <c r="CB77" s="1"/>
-      <c r="CC77" s="1"/>
+      <c r="BZ77" s="20"/>
+      <c r="CA77" s="20"/>
+      <c r="CB77" s="20"/>
+      <c r="CC77" s="20"/>
       <c r="CD77" s="20"/>
       <c r="CE77" s="20"/>
       <c r="CF77" s="20"/>
@@ -34640,10 +34803,11 @@
       <c r="CI77" s="20"/>
       <c r="CJ77" s="20"/>
       <c r="CK77" s="20"/>
+      <c r="CL77" s="20"/>
     </row>
-    <row r="78" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -34721,10 +34885,10 @@
       <c r="BW78" s="1"/>
       <c r="BX78" s="1"/>
       <c r="BY78" s="1"/>
-      <c r="BZ78" s="1"/>
-      <c r="CA78" s="1"/>
-      <c r="CB78" s="1"/>
-      <c r="CC78" s="1"/>
+      <c r="BZ78" s="20"/>
+      <c r="CA78" s="20"/>
+      <c r="CB78" s="20"/>
+      <c r="CC78" s="20"/>
       <c r="CD78" s="20"/>
       <c r="CE78" s="20"/>
       <c r="CF78" s="20"/>
@@ -34733,8 +34897,9 @@
       <c r="CI78" s="20"/>
       <c r="CJ78" s="20"/>
       <c r="CK78" s="20"/>
+      <c r="CL78" s="20"/>
     </row>
-    <row r="79" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -34812,10 +34977,10 @@
       <c r="BW79" s="1"/>
       <c r="BX79" s="1"/>
       <c r="BY79" s="1"/>
-      <c r="BZ79" s="1"/>
-      <c r="CA79" s="1"/>
-      <c r="CB79" s="1"/>
-      <c r="CC79" s="1"/>
+      <c r="BZ79" s="20"/>
+      <c r="CA79" s="20"/>
+      <c r="CB79" s="20"/>
+      <c r="CC79" s="20"/>
       <c r="CD79" s="20"/>
       <c r="CE79" s="20"/>
       <c r="CF79" s="20"/>
@@ -34824,8 +34989,9 @@
       <c r="CI79" s="20"/>
       <c r="CJ79" s="20"/>
       <c r="CK79" s="20"/>
+      <c r="CL79" s="20"/>
     </row>
-    <row r="80" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>18</v>
       </c>
@@ -34905,10 +35071,10 @@
       <c r="BW80" s="1"/>
       <c r="BX80" s="1"/>
       <c r="BY80" s="1"/>
-      <c r="BZ80" s="1"/>
-      <c r="CA80" s="1"/>
-      <c r="CB80" s="1"/>
-      <c r="CC80" s="1"/>
+      <c r="BZ80" s="20"/>
+      <c r="CA80" s="20"/>
+      <c r="CB80" s="20"/>
+      <c r="CC80" s="20"/>
       <c r="CD80" s="20"/>
       <c r="CE80" s="20"/>
       <c r="CF80" s="20"/>
@@ -34917,10 +35083,11 @@
       <c r="CI80" s="20"/>
       <c r="CJ80" s="20"/>
       <c r="CK80" s="20"/>
+      <c r="CL80" s="20"/>
     </row>
-    <row r="81" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -34998,10 +35165,10 @@
       <c r="BW81" s="1"/>
       <c r="BX81" s="1"/>
       <c r="BY81" s="1"/>
-      <c r="BZ81" s="1"/>
-      <c r="CA81" s="1"/>
-      <c r="CB81" s="1"/>
-      <c r="CC81" s="1"/>
+      <c r="BZ81" s="20"/>
+      <c r="CA81" s="20"/>
+      <c r="CB81" s="20"/>
+      <c r="CC81" s="20"/>
       <c r="CD81" s="20"/>
       <c r="CE81" s="20"/>
       <c r="CF81" s="20"/>
@@ -35010,8 +35177,9 @@
       <c r="CI81" s="20"/>
       <c r="CJ81" s="20"/>
       <c r="CK81" s="20"/>
+      <c r="CL81" s="20"/>
     </row>
-    <row r="82" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
@@ -35091,10 +35259,10 @@
       <c r="BW82" s="1"/>
       <c r="BX82" s="1"/>
       <c r="BY82" s="1"/>
-      <c r="BZ82" s="1"/>
-      <c r="CA82" s="1"/>
-      <c r="CB82" s="1"/>
-      <c r="CC82" s="1"/>
+      <c r="BZ82" s="20"/>
+      <c r="CA82" s="20"/>
+      <c r="CB82" s="20"/>
+      <c r="CC82" s="20"/>
       <c r="CD82" s="20"/>
       <c r="CE82" s="20"/>
       <c r="CF82" s="20"/>
@@ -35103,8 +35271,9 @@
       <c r="CI82" s="20"/>
       <c r="CJ82" s="20"/>
       <c r="CK82" s="20"/>
+      <c r="CL82" s="20"/>
     </row>
-    <row r="83" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -35182,10 +35351,10 @@
       <c r="BW83" s="1"/>
       <c r="BX83" s="1"/>
       <c r="BY83" s="1"/>
-      <c r="BZ83" s="1"/>
-      <c r="CA83" s="1"/>
-      <c r="CB83" s="1"/>
-      <c r="CC83" s="1"/>
+      <c r="BZ83" s="20"/>
+      <c r="CA83" s="20"/>
+      <c r="CB83" s="20"/>
+      <c r="CC83" s="20"/>
       <c r="CD83" s="20"/>
       <c r="CE83" s="20"/>
       <c r="CF83" s="20"/>
@@ -35194,8 +35363,9 @@
       <c r="CI83" s="20"/>
       <c r="CJ83" s="20"/>
       <c r="CK83" s="20"/>
+      <c r="CL83" s="20"/>
     </row>
-    <row r="84" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="B84" s="33">
         <v>2000</v>
@@ -35311,12 +35481,12 @@
       <c r="BW84" s="33"/>
       <c r="BX84" s="33"/>
       <c r="BY84" s="33"/>
-      <c r="BZ84" s="33">
+      <c r="BZ84" s="31">
         <v>2019</v>
       </c>
-      <c r="CA84" s="33"/>
-      <c r="CB84" s="33"/>
-      <c r="CC84" s="33"/>
+      <c r="CA84" s="35"/>
+      <c r="CB84" s="35"/>
+      <c r="CC84" s="35"/>
       <c r="CD84" s="32">
         <v>2020</v>
       </c>
@@ -35329,8 +35499,11 @@
       <c r="CI84" s="32"/>
       <c r="CJ84" s="32"/>
       <c r="CK84" s="32"/>
+      <c r="CL84" s="30">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="85" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>4</v>
       </c>
@@ -35562,16 +35735,16 @@
       <c r="BY85" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BZ85" s="7" t="s">
+      <c r="BZ85" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CA85" s="7" t="s">
+      <c r="CA85" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="CB85" s="7" t="s">
+      <c r="CB85" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="CC85" s="7" t="s">
+      <c r="CC85" s="21" t="s">
         <v>9</v>
       </c>
       <c r="CD85" s="21" t="s">
@@ -35598,8 +35771,11 @@
       <c r="CK85" s="21" t="s">
         <v>9</v>
       </c>
+      <c r="CL85" s="21" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="86" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -35677,10 +35853,10 @@
       <c r="BW86" s="1"/>
       <c r="BX86" s="1"/>
       <c r="BY86" s="1"/>
-      <c r="BZ86" s="1"/>
-      <c r="CA86" s="1"/>
-      <c r="CB86" s="1"/>
-      <c r="CC86" s="1"/>
+      <c r="BZ86" s="20"/>
+      <c r="CA86" s="20"/>
+      <c r="CB86" s="20"/>
+      <c r="CC86" s="20"/>
       <c r="CD86" s="20"/>
       <c r="CE86" s="20"/>
       <c r="CF86" s="20"/>
@@ -35689,8 +35865,9 @@
       <c r="CI86" s="20"/>
       <c r="CJ86" s="20"/>
       <c r="CK86" s="20"/>
+      <c r="CL86" s="20"/>
     </row>
-    <row r="87" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
         <v>11</v>
       </c>
@@ -35922,43 +36099,45 @@
       <c r="BY87" s="18">
         <v>101.27062972167866</v>
       </c>
-      <c r="BZ87" s="18">
+      <c r="BZ87" s="27">
         <v>101.93031239317489</v>
       </c>
-      <c r="CA87" s="18">
+      <c r="CA87" s="27">
         <v>103.37449840491311</v>
       </c>
-      <c r="CB87" s="18">
+      <c r="CB87" s="27">
         <v>104.33720749779265</v>
       </c>
-      <c r="CC87" s="18">
+      <c r="CC87" s="27">
         <v>104.99336684588962</v>
       </c>
-      <c r="CD87" s="29">
+      <c r="CD87" s="27">
         <v>103.57262170861247</v>
       </c>
-      <c r="CE87" s="29">
+      <c r="CE87" s="27">
         <v>105.0134623960117</v>
       </c>
-      <c r="CF87" s="29">
+      <c r="CF87" s="27">
         <v>104.3552726000391</v>
       </c>
-      <c r="CG87" s="29">
-        <v>103.92490815266156</v>
-      </c>
-      <c r="CH87" s="29">
+      <c r="CG87" s="27">
+        <v>103.92490815266157</v>
+      </c>
+      <c r="CH87" s="27">
         <v>102.3503409715865</v>
       </c>
-      <c r="CI87" s="29">
+      <c r="CI87" s="27">
         <v>103.48903941054934</v>
       </c>
-      <c r="CJ87" s="29">
+      <c r="CJ87" s="27">
         <v>104.12082567684639</v>
       </c>
-      <c r="CK87" s="29">
-        <v>104.44123449623572</v>
-      </c>
-      <c r="CL87" s="11"/>
+      <c r="CK87" s="27">
+        <v>104.44343736226078</v>
+      </c>
+      <c r="CL87" s="27">
+        <v>103.53314692178172</v>
+      </c>
       <c r="CM87" s="11"/>
       <c r="CN87" s="11"/>
       <c r="CO87" s="11"/>
@@ -36025,7 +36204,7 @@
       <c r="EX87" s="11"/>
       <c r="EY87" s="11"/>
     </row>
-    <row r="88" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>12</v>
       </c>
@@ -36257,43 +36436,45 @@
       <c r="BY88" s="18">
         <v>101.20178839394909</v>
       </c>
-      <c r="BZ88" s="18">
+      <c r="BZ88" s="27">
         <v>100.49280679523687</v>
       </c>
-      <c r="CA88" s="18">
+      <c r="CA88" s="27">
         <v>100.87717334172879</v>
       </c>
-      <c r="CB88" s="18">
+      <c r="CB88" s="27">
         <v>101.16458113730739</v>
       </c>
-      <c r="CC88" s="18">
+      <c r="CC88" s="27">
         <v>101.41704256338862</v>
       </c>
-      <c r="CD88" s="29">
+      <c r="CD88" s="27">
         <v>105.41212477491302</v>
       </c>
-      <c r="CE88" s="29">
+      <c r="CE88" s="27">
         <v>106.19189167491636</v>
       </c>
-      <c r="CF88" s="29">
+      <c r="CF88" s="27">
         <v>107.05169370470939</v>
       </c>
-      <c r="CG88" s="29">
+      <c r="CG88" s="27">
         <v>107.52204916700825</v>
       </c>
-      <c r="CH88" s="29">
+      <c r="CH88" s="27">
         <v>111.20724790732153</v>
       </c>
-      <c r="CI88" s="29">
+      <c r="CI88" s="27">
         <v>110.22648661985693</v>
       </c>
-      <c r="CJ88" s="29">
+      <c r="CJ88" s="27">
         <v>109.68921029153206</v>
       </c>
-      <c r="CK88" s="29">
-        <v>109.74686202749344</v>
-      </c>
-      <c r="CL88" s="11"/>
+      <c r="CK88" s="27">
+        <v>109.78266659971806</v>
+      </c>
+      <c r="CL88" s="27">
+        <v>112.4210983415191</v>
+      </c>
       <c r="CM88" s="11"/>
       <c r="CN88" s="11"/>
       <c r="CO88" s="11"/>
@@ -36360,7 +36541,7 @@
       <c r="EX88" s="11"/>
       <c r="EY88" s="11"/>
     </row>
-    <row r="89" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
       <c r="D89" s="17"/>
@@ -36437,10 +36618,10 @@
       <c r="BW89" s="17"/>
       <c r="BX89" s="17"/>
       <c r="BY89" s="17"/>
-      <c r="BZ89" s="17"/>
-      <c r="CA89" s="17"/>
-      <c r="CB89" s="17"/>
-      <c r="CC89" s="17"/>
+      <c r="BZ89" s="25"/>
+      <c r="CA89" s="25"/>
+      <c r="CB89" s="25"/>
+      <c r="CC89" s="25"/>
       <c r="CD89" s="25"/>
       <c r="CE89" s="25"/>
       <c r="CF89" s="25"/>
@@ -36449,7 +36630,7 @@
       <c r="CI89" s="25"/>
       <c r="CJ89" s="25"/>
       <c r="CK89" s="25"/>
-      <c r="CL89" s="11"/>
+      <c r="CL89" s="25"/>
       <c r="CM89" s="11"/>
       <c r="CN89" s="11"/>
       <c r="CO89" s="11"/>
@@ -36516,7 +36697,7 @@
       <c r="EX89" s="11"/>
       <c r="EY89" s="11"/>
     </row>
-    <row r="90" spans="1:155" ht="18" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:155" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="14" t="s">
         <v>13</v>
       </c>
@@ -36748,43 +36929,45 @@
       <c r="BY90" s="18">
         <v>101.24548735136692</v>
       </c>
-      <c r="BZ90" s="18">
+      <c r="BZ90" s="27">
         <v>101.35520333008255</v>
       </c>
-      <c r="CA90" s="18">
+      <c r="CA90" s="27">
         <v>102.55221175768796</v>
       </c>
-      <c r="CB90" s="18">
+      <c r="CB90" s="27">
         <v>103.13277586067422</v>
       </c>
-      <c r="CC90" s="18">
+      <c r="CC90" s="27">
         <v>103.70813985430591</v>
       </c>
-      <c r="CD90" s="29">
+      <c r="CD90" s="27">
         <v>104.31177287991844</v>
       </c>
-      <c r="CE90" s="29">
+      <c r="CE90" s="27">
         <v>105.64240998368544</v>
       </c>
-      <c r="CF90" s="29">
+      <c r="CF90" s="27">
         <v>105.72757304789819</v>
       </c>
-      <c r="CG90" s="29">
-        <v>105.55710092368437</v>
-      </c>
-      <c r="CH90" s="29">
+      <c r="CG90" s="27">
+        <v>105.54157362900258</v>
+      </c>
+      <c r="CH90" s="27">
         <v>106.49362060355423</v>
       </c>
-      <c r="CI90" s="29">
+      <c r="CI90" s="27">
         <v>106.52462651588523</v>
       </c>
-      <c r="CJ90" s="29">
+      <c r="CJ90" s="27">
         <v>106.59236949340661</v>
       </c>
-      <c r="CK90" s="29">
-        <v>106.42517457200043</v>
-      </c>
-      <c r="CL90" s="11"/>
+      <c r="CK90" s="27">
+        <v>106.44330050915171</v>
+      </c>
+      <c r="CL90" s="27">
+        <v>107.52960424850744</v>
+      </c>
       <c r="CM90" s="11"/>
       <c r="CN90" s="11"/>
       <c r="CO90" s="11"/>
@@ -36851,7 +37034,7 @@
       <c r="EX90" s="11"/>
       <c r="EY90" s="11"/>
     </row>
-    <row r="91" spans="1:155" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:155" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="15"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
@@ -36929,10 +37112,10 @@
       <c r="BW91" s="15"/>
       <c r="BX91" s="15"/>
       <c r="BY91" s="15"/>
-      <c r="BZ91" s="15"/>
-      <c r="CA91" s="15"/>
-      <c r="CB91" s="15"/>
-      <c r="CC91" s="15"/>
+      <c r="BZ91" s="24"/>
+      <c r="CA91" s="24"/>
+      <c r="CB91" s="24"/>
+      <c r="CC91" s="24"/>
       <c r="CD91" s="24"/>
       <c r="CE91" s="24"/>
       <c r="CF91" s="24"/>
@@ -36941,8 +37124,9 @@
       <c r="CI91" s="24"/>
       <c r="CJ91" s="24"/>
       <c r="CK91" s="24"/>
+      <c r="CL91" s="24"/>
     </row>
-    <row r="92" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="16" t="s">
         <v>0</v>
       </c>
@@ -37022,10 +37206,10 @@
       <c r="BW92" s="1"/>
       <c r="BX92" s="1"/>
       <c r="BY92" s="1"/>
-      <c r="BZ92" s="1"/>
-      <c r="CA92" s="1"/>
-      <c r="CB92" s="1"/>
-      <c r="CC92" s="1"/>
+      <c r="BZ92" s="20"/>
+      <c r="CA92" s="20"/>
+      <c r="CB92" s="20"/>
+      <c r="CC92" s="20"/>
       <c r="CD92" s="20"/>
       <c r="CE92" s="20"/>
       <c r="CF92" s="20"/>
@@ -37034,8 +37218,9 @@
       <c r="CI92" s="20"/>
       <c r="CJ92" s="20"/>
       <c r="CK92" s="20"/>
+      <c r="CL92" s="20"/>
     </row>
-    <row r="93" spans="1:155" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -37112,10 +37297,10 @@
       <c r="BW93" s="1"/>
       <c r="BX93" s="1"/>
       <c r="BY93" s="1"/>
-      <c r="BZ93" s="1"/>
-      <c r="CA93" s="1"/>
-      <c r="CB93" s="1"/>
-      <c r="CC93" s="1"/>
+      <c r="BZ93" s="20"/>
+      <c r="CA93" s="20"/>
+      <c r="CB93" s="20"/>
+      <c r="CC93" s="20"/>
       <c r="CD93" s="20"/>
       <c r="CE93" s="20"/>
       <c r="CF93" s="20"/>
@@ -37124,8 +37309,9 @@
       <c r="CI93" s="20"/>
       <c r="CJ93" s="20"/>
       <c r="CK93" s="20"/>
+      <c r="CL93" s="20"/>
     </row>
-    <row r="94" spans="1:155" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -37202,10 +37388,10 @@
       <c r="BW94" s="1"/>
       <c r="BX94" s="1"/>
       <c r="BY94" s="1"/>
-      <c r="BZ94" s="1"/>
-      <c r="CA94" s="1"/>
-      <c r="CB94" s="1"/>
-      <c r="CC94" s="1"/>
+      <c r="BZ94" s="20"/>
+      <c r="CA94" s="20"/>
+      <c r="CB94" s="20"/>
+      <c r="CC94" s="20"/>
       <c r="CD94" s="20"/>
       <c r="CE94" s="20"/>
       <c r="CF94" s="20"/>
@@ -37214,8 +37400,9 @@
       <c r="CI94" s="20"/>
       <c r="CJ94" s="20"/>
       <c r="CK94" s="20"/>
+      <c r="CL94" s="20"/>
     </row>
-    <row r="95" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>2</v>
       </c>
@@ -37295,10 +37482,10 @@
       <c r="BW95" s="1"/>
       <c r="BX95" s="1"/>
       <c r="BY95" s="1"/>
-      <c r="BZ95" s="1"/>
-      <c r="CA95" s="1"/>
-      <c r="CB95" s="1"/>
-      <c r="CC95" s="1"/>
+      <c r="BZ95" s="20"/>
+      <c r="CA95" s="20"/>
+      <c r="CB95" s="20"/>
+      <c r="CC95" s="20"/>
       <c r="CD95" s="20"/>
       <c r="CE95" s="20"/>
       <c r="CF95" s="20"/>
@@ -37307,8 +37494,9 @@
       <c r="CI95" s="20"/>
       <c r="CJ95" s="20"/>
       <c r="CK95" s="20"/>
+      <c r="CL95" s="20"/>
     </row>
-    <row r="96" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>1</v>
       </c>
@@ -37388,10 +37576,10 @@
       <c r="BW96" s="1"/>
       <c r="BX96" s="1"/>
       <c r="BY96" s="1"/>
-      <c r="BZ96" s="1"/>
-      <c r="CA96" s="1"/>
-      <c r="CB96" s="1"/>
-      <c r="CC96" s="1"/>
+      <c r="BZ96" s="20"/>
+      <c r="CA96" s="20"/>
+      <c r="CB96" s="20"/>
+      <c r="CC96" s="20"/>
       <c r="CD96" s="20"/>
       <c r="CE96" s="20"/>
       <c r="CF96" s="20"/>
@@ -37400,10 +37588,11 @@
       <c r="CI96" s="20"/>
       <c r="CJ96" s="20"/>
       <c r="CK96" s="20"/>
+      <c r="CL96" s="20"/>
     </row>
-    <row r="97" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -37481,10 +37670,10 @@
       <c r="BW97" s="1"/>
       <c r="BX97" s="1"/>
       <c r="BY97" s="1"/>
-      <c r="BZ97" s="1"/>
-      <c r="CA97" s="1"/>
-      <c r="CB97" s="1"/>
-      <c r="CC97" s="1"/>
+      <c r="BZ97" s="20"/>
+      <c r="CA97" s="20"/>
+      <c r="CB97" s="20"/>
+      <c r="CC97" s="20"/>
       <c r="CD97" s="20"/>
       <c r="CE97" s="20"/>
       <c r="CF97" s="20"/>
@@ -37493,8 +37682,9 @@
       <c r="CI97" s="20"/>
       <c r="CJ97" s="20"/>
       <c r="CK97" s="20"/>
+      <c r="CL97" s="20"/>
     </row>
-    <row r="98" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -37572,10 +37762,10 @@
       <c r="BW98" s="1"/>
       <c r="BX98" s="1"/>
       <c r="BY98" s="1"/>
-      <c r="BZ98" s="1"/>
-      <c r="CA98" s="1"/>
-      <c r="CB98" s="1"/>
-      <c r="CC98" s="1"/>
+      <c r="BZ98" s="20"/>
+      <c r="CA98" s="20"/>
+      <c r="CB98" s="20"/>
+      <c r="CC98" s="20"/>
       <c r="CD98" s="20"/>
       <c r="CE98" s="20"/>
       <c r="CF98" s="20"/>
@@ -37584,8 +37774,9 @@
       <c r="CI98" s="20"/>
       <c r="CJ98" s="20"/>
       <c r="CK98" s="20"/>
+      <c r="CL98" s="20"/>
     </row>
-    <row r="99" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>19</v>
       </c>
@@ -37665,10 +37856,10 @@
       <c r="BW99" s="1"/>
       <c r="BX99" s="1"/>
       <c r="BY99" s="1"/>
-      <c r="BZ99" s="1"/>
-      <c r="CA99" s="1"/>
-      <c r="CB99" s="1"/>
-      <c r="CC99" s="1"/>
+      <c r="BZ99" s="20"/>
+      <c r="CA99" s="20"/>
+      <c r="CB99" s="20"/>
+      <c r="CC99" s="20"/>
       <c r="CD99" s="20"/>
       <c r="CE99" s="20"/>
       <c r="CF99" s="20"/>
@@ -37677,10 +37868,11 @@
       <c r="CI99" s="20"/>
       <c r="CJ99" s="20"/>
       <c r="CK99" s="20"/>
+      <c r="CL99" s="20"/>
     </row>
-    <row r="100" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -37758,10 +37950,10 @@
       <c r="BW100" s="1"/>
       <c r="BX100" s="1"/>
       <c r="BY100" s="1"/>
-      <c r="BZ100" s="1"/>
-      <c r="CA100" s="1"/>
-      <c r="CB100" s="1"/>
-      <c r="CC100" s="1"/>
+      <c r="BZ100" s="20"/>
+      <c r="CA100" s="20"/>
+      <c r="CB100" s="20"/>
+      <c r="CC100" s="20"/>
       <c r="CD100" s="20"/>
       <c r="CE100" s="20"/>
       <c r="CF100" s="20"/>
@@ -37770,8 +37962,9 @@
       <c r="CI100" s="20"/>
       <c r="CJ100" s="20"/>
       <c r="CK100" s="20"/>
+      <c r="CL100" s="20"/>
     </row>
-    <row r="101" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>23</v>
       </c>
@@ -37851,10 +38044,10 @@
       <c r="BW101" s="1"/>
       <c r="BX101" s="1"/>
       <c r="BY101" s="1"/>
-      <c r="BZ101" s="1"/>
-      <c r="CA101" s="1"/>
-      <c r="CB101" s="1"/>
-      <c r="CC101" s="1"/>
+      <c r="BZ101" s="20"/>
+      <c r="CA101" s="20"/>
+      <c r="CB101" s="20"/>
+      <c r="CC101" s="20"/>
       <c r="CD101" s="20"/>
       <c r="CE101" s="20"/>
       <c r="CF101" s="20"/>
@@ -37863,8 +38056,9 @@
       <c r="CI101" s="20"/>
       <c r="CJ101" s="20"/>
       <c r="CK101" s="20"/>
+      <c r="CL101" s="20"/>
     </row>
-    <row r="102" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -37942,10 +38136,10 @@
       <c r="BW102" s="1"/>
       <c r="BX102" s="1"/>
       <c r="BY102" s="1"/>
-      <c r="BZ102" s="1"/>
-      <c r="CA102" s="1"/>
-      <c r="CB102" s="1"/>
-      <c r="CC102" s="1"/>
+      <c r="BZ102" s="20"/>
+      <c r="CA102" s="20"/>
+      <c r="CB102" s="20"/>
+      <c r="CC102" s="20"/>
       <c r="CD102" s="20"/>
       <c r="CE102" s="20"/>
       <c r="CF102" s="20"/>
@@ -37954,8 +38148,9 @@
       <c r="CI102" s="20"/>
       <c r="CJ102" s="20"/>
       <c r="CK102" s="20"/>
+      <c r="CL102" s="20"/>
     </row>
-    <row r="103" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="B103" s="33">
         <v>2000</v>
@@ -38071,12 +38266,12 @@
       <c r="BW103" s="33"/>
       <c r="BX103" s="33"/>
       <c r="BY103" s="33"/>
-      <c r="BZ103" s="33">
+      <c r="BZ103" s="31">
         <v>2019</v>
       </c>
-      <c r="CA103" s="33"/>
-      <c r="CB103" s="33"/>
-      <c r="CC103" s="33"/>
+      <c r="CA103" s="35"/>
+      <c r="CB103" s="35"/>
+      <c r="CC103" s="35"/>
       <c r="CD103" s="32">
         <v>2020</v>
       </c>
@@ -38089,8 +38284,11 @@
       <c r="CI103" s="32"/>
       <c r="CJ103" s="32"/>
       <c r="CK103" s="32"/>
+      <c r="CL103" s="30">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="104" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>4</v>
       </c>
@@ -38322,16 +38520,16 @@
       <c r="BY104" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BZ104" s="7" t="s">
+      <c r="BZ104" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CA104" s="7" t="s">
+      <c r="CA104" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="CB104" s="7" t="s">
+      <c r="CB104" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="CC104" s="7" t="s">
+      <c r="CC104" s="21" t="s">
         <v>9</v>
       </c>
       <c r="CD104" s="21" t="s">
@@ -38358,8 +38556,11 @@
       <c r="CK104" s="21" t="s">
         <v>9</v>
       </c>
+      <c r="CL104" s="21" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="105" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -38437,10 +38638,10 @@
       <c r="BW105" s="1"/>
       <c r="BX105" s="1"/>
       <c r="BY105" s="1"/>
-      <c r="BZ105" s="1"/>
-      <c r="CA105" s="1"/>
-      <c r="CB105" s="1"/>
-      <c r="CC105" s="1"/>
+      <c r="BZ105" s="20"/>
+      <c r="CA105" s="20"/>
+      <c r="CB105" s="20"/>
+      <c r="CC105" s="20"/>
       <c r="CD105" s="20"/>
       <c r="CE105" s="20"/>
       <c r="CF105" s="20"/>
@@ -38449,8 +38650,9 @@
       <c r="CI105" s="20"/>
       <c r="CJ105" s="20"/>
       <c r="CK105" s="20"/>
+      <c r="CL105" s="20"/>
     </row>
-    <row r="106" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>11</v>
       </c>
@@ -38682,43 +38884,45 @@
       <c r="BY106" s="18">
         <v>63.493559254840108</v>
       </c>
-      <c r="BZ106" s="18">
+      <c r="BZ106" s="27">
         <v>60.332978259931636</v>
       </c>
-      <c r="CA106" s="18">
+      <c r="CA106" s="27">
         <v>67.611112175937407</v>
       </c>
-      <c r="CB106" s="18">
+      <c r="CB106" s="27">
         <v>62.761257506928089</v>
       </c>
-      <c r="CC106" s="18">
+      <c r="CC106" s="27">
         <v>64.856821086962356</v>
       </c>
-      <c r="CD106" s="29">
+      <c r="CD106" s="27">
         <v>59.394020217789112</v>
       </c>
-      <c r="CE106" s="29">
+      <c r="CE106" s="27">
         <v>46.35070879122955</v>
       </c>
-      <c r="CF106" s="29">
+      <c r="CF106" s="27">
         <v>48.469213973627028</v>
       </c>
-      <c r="CG106" s="29">
-        <v>53.780625328037544</v>
-      </c>
-      <c r="CH106" s="29">
+      <c r="CG106" s="27">
+        <v>54.21358205791956</v>
+      </c>
+      <c r="CH106" s="27">
         <v>51.149201793771518</v>
       </c>
-      <c r="CI106" s="29">
+      <c r="CI106" s="27">
         <v>53.378819229311894</v>
       </c>
-      <c r="CJ106" s="29">
+      <c r="CJ106" s="27">
         <v>54.325175984928165</v>
       </c>
-      <c r="CK106" s="29">
-        <v>61.439777399981942</v>
-      </c>
-      <c r="CL106" s="11"/>
+      <c r="CK106" s="27">
+        <v>61.3688930259123</v>
+      </c>
+      <c r="CL106" s="27">
+        <v>52.989671666104186</v>
+      </c>
       <c r="CM106" s="11"/>
       <c r="CN106" s="11"/>
       <c r="CO106" s="11"/>
@@ -38785,7 +38989,7 @@
       <c r="EX106" s="11"/>
       <c r="EY106" s="11"/>
     </row>
-    <row r="107" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>12</v>
       </c>
@@ -39017,43 +39221,45 @@
       <c r="BY107" s="18">
         <v>36.5064407451599</v>
       </c>
-      <c r="BZ107" s="18">
+      <c r="BZ107" s="27">
         <v>39.667021740068357</v>
       </c>
-      <c r="CA107" s="18">
+      <c r="CA107" s="27">
         <v>32.3888878240626</v>
       </c>
-      <c r="CB107" s="18">
+      <c r="CB107" s="27">
         <v>37.238742493071904</v>
       </c>
-      <c r="CC107" s="18">
+      <c r="CC107" s="27">
         <v>35.143178913037644</v>
       </c>
-      <c r="CD107" s="29">
+      <c r="CD107" s="27">
         <v>40.605979782210895</v>
       </c>
-      <c r="CE107" s="29">
+      <c r="CE107" s="27">
         <v>53.649291208770457</v>
       </c>
-      <c r="CF107" s="29">
+      <c r="CF107" s="27">
         <v>51.530786026372979</v>
       </c>
-      <c r="CG107" s="29">
-        <v>46.219374671962434</v>
-      </c>
-      <c r="CH107" s="29">
+      <c r="CG107" s="27">
+        <v>45.786417942080448</v>
+      </c>
+      <c r="CH107" s="27">
         <v>48.85079820622849</v>
       </c>
-      <c r="CI107" s="29">
+      <c r="CI107" s="27">
         <v>46.621180770688099</v>
       </c>
-      <c r="CJ107" s="29">
+      <c r="CJ107" s="27">
         <v>45.674824015071842</v>
       </c>
-      <c r="CK107" s="29">
-        <v>38.560222600018051</v>
-      </c>
-      <c r="CL107" s="11"/>
+      <c r="CK107" s="27">
+        <v>38.631106974087693</v>
+      </c>
+      <c r="CL107" s="27">
+        <v>47.010328333895814</v>
+      </c>
       <c r="CM107" s="11"/>
       <c r="CN107" s="11"/>
       <c r="CO107" s="11"/>
@@ -39120,7 +39326,7 @@
       <c r="EX107" s="11"/>
       <c r="EY107" s="11"/>
     </row>
-    <row r="108" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108" s="17"/>
       <c r="C108" s="17"/>
       <c r="D108" s="17"/>
@@ -39197,10 +39403,10 @@
       <c r="BW108" s="17"/>
       <c r="BX108" s="17"/>
       <c r="BY108" s="17"/>
-      <c r="BZ108" s="17"/>
-      <c r="CA108" s="17"/>
-      <c r="CB108" s="17"/>
-      <c r="CC108" s="17"/>
+      <c r="BZ108" s="25"/>
+      <c r="CA108" s="25"/>
+      <c r="CB108" s="25"/>
+      <c r="CC108" s="25"/>
       <c r="CD108" s="25"/>
       <c r="CE108" s="25"/>
       <c r="CF108" s="25"/>
@@ -39209,7 +39415,7 @@
       <c r="CI108" s="25"/>
       <c r="CJ108" s="25"/>
       <c r="CK108" s="25"/>
-      <c r="CL108" s="11"/>
+      <c r="CL108" s="25"/>
       <c r="CM108" s="11"/>
       <c r="CN108" s="11"/>
       <c r="CO108" s="11"/>
@@ -39276,7 +39482,7 @@
       <c r="EX108" s="11"/>
       <c r="EY108" s="11"/>
     </row>
-    <row r="109" spans="1:155" ht="18" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:155" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A109" s="14" t="s">
         <v>13</v>
       </c>
@@ -39508,43 +39714,45 @@
       <c r="BY109" s="18">
         <v>100</v>
       </c>
-      <c r="BZ109" s="18">
+      <c r="BZ109" s="27">
         <v>100</v>
       </c>
-      <c r="CA109" s="18">
+      <c r="CA109" s="27">
         <v>100</v>
       </c>
-      <c r="CB109" s="18">
+      <c r="CB109" s="27">
         <v>100</v>
       </c>
-      <c r="CC109" s="18">
+      <c r="CC109" s="27">
         <v>100</v>
       </c>
-      <c r="CD109" s="29">
+      <c r="CD109" s="27">
         <v>100</v>
       </c>
-      <c r="CE109" s="29">
+      <c r="CE109" s="27">
         <v>100</v>
       </c>
-      <c r="CF109" s="29">
+      <c r="CF109" s="27">
         <v>100</v>
       </c>
-      <c r="CG109" s="29">
+      <c r="CG109" s="27">
         <v>100</v>
       </c>
-      <c r="CH109" s="29">
+      <c r="CH109" s="27">
         <v>100</v>
       </c>
-      <c r="CI109" s="29">
+      <c r="CI109" s="27">
         <v>100</v>
       </c>
-      <c r="CJ109" s="29">
+      <c r="CJ109" s="27">
         <v>100</v>
       </c>
-      <c r="CK109" s="29">
+      <c r="CK109" s="27">
         <v>100</v>
       </c>
-      <c r="CL109" s="11"/>
+      <c r="CL109" s="27">
+        <v>100</v>
+      </c>
       <c r="CM109" s="11"/>
       <c r="CN109" s="11"/>
       <c r="CO109" s="11"/>
@@ -39611,7 +39819,7 @@
       <c r="EX109" s="11"/>
       <c r="EY109" s="11"/>
     </row>
-    <row r="110" spans="1:155" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:155" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="15"/>
       <c r="B110" s="15"/>
       <c r="C110" s="15"/>
@@ -39689,10 +39897,10 @@
       <c r="BW110" s="15"/>
       <c r="BX110" s="15"/>
       <c r="BY110" s="15"/>
-      <c r="BZ110" s="15"/>
-      <c r="CA110" s="15"/>
-      <c r="CB110" s="15"/>
-      <c r="CC110" s="15"/>
+      <c r="BZ110" s="24"/>
+      <c r="CA110" s="24"/>
+      <c r="CB110" s="24"/>
+      <c r="CC110" s="24"/>
       <c r="CD110" s="24"/>
       <c r="CE110" s="24"/>
       <c r="CF110" s="24"/>
@@ -39701,8 +39909,9 @@
       <c r="CI110" s="24"/>
       <c r="CJ110" s="24"/>
       <c r="CK110" s="24"/>
+      <c r="CL110" s="24"/>
     </row>
-    <row r="111" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="16" t="s">
         <v>0</v>
       </c>
@@ -39782,10 +39991,10 @@
       <c r="BW111" s="1"/>
       <c r="BX111" s="1"/>
       <c r="BY111" s="1"/>
-      <c r="BZ111" s="1"/>
-      <c r="CA111" s="1"/>
-      <c r="CB111" s="1"/>
-      <c r="CC111" s="1"/>
+      <c r="BZ111" s="20"/>
+      <c r="CA111" s="20"/>
+      <c r="CB111" s="20"/>
+      <c r="CC111" s="20"/>
       <c r="CD111" s="20"/>
       <c r="CE111" s="20"/>
       <c r="CF111" s="20"/>
@@ -39794,8 +40003,9 @@
       <c r="CI111" s="20"/>
       <c r="CJ111" s="20"/>
       <c r="CK111" s="20"/>
+      <c r="CL111" s="20"/>
     </row>
-    <row r="112" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="17"/>
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
@@ -39872,10 +40082,10 @@
       <c r="BW112" s="17"/>
       <c r="BX112" s="17"/>
       <c r="BY112" s="17"/>
-      <c r="BZ112" s="17"/>
-      <c r="CA112" s="17"/>
-      <c r="CB112" s="17"/>
-      <c r="CC112" s="17"/>
+      <c r="BZ112" s="25"/>
+      <c r="CA112" s="25"/>
+      <c r="CB112" s="25"/>
+      <c r="CC112" s="25"/>
       <c r="CD112" s="25"/>
       <c r="CE112" s="25"/>
       <c r="CF112" s="25"/>
@@ -39884,7 +40094,7 @@
       <c r="CI112" s="25"/>
       <c r="CJ112" s="25"/>
       <c r="CK112" s="25"/>
-      <c r="CL112" s="11"/>
+      <c r="CL112" s="25"/>
       <c r="CM112" s="11"/>
       <c r="CN112" s="11"/>
       <c r="CO112" s="11"/>
@@ -39951,7 +40161,7 @@
       <c r="EX112" s="11"/>
       <c r="EY112" s="11"/>
     </row>
-    <row r="113" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="17"/>
       <c r="C113" s="17"/>
       <c r="D113" s="17"/>
@@ -40028,10 +40238,10 @@
       <c r="BW113" s="17"/>
       <c r="BX113" s="17"/>
       <c r="BY113" s="17"/>
-      <c r="BZ113" s="17"/>
-      <c r="CA113" s="17"/>
-      <c r="CB113" s="17"/>
-      <c r="CC113" s="17"/>
+      <c r="BZ113" s="25"/>
+      <c r="CA113" s="25"/>
+      <c r="CB113" s="25"/>
+      <c r="CC113" s="25"/>
       <c r="CD113" s="25"/>
       <c r="CE113" s="25"/>
       <c r="CF113" s="25"/>
@@ -40040,7 +40250,7 @@
       <c r="CI113" s="25"/>
       <c r="CJ113" s="25"/>
       <c r="CK113" s="25"/>
-      <c r="CL113" s="11"/>
+      <c r="CL113" s="25"/>
       <c r="CM113" s="11"/>
       <c r="CN113" s="11"/>
       <c r="CO113" s="11"/>
@@ -40107,7 +40317,7 @@
       <c r="EX113" s="11"/>
       <c r="EY113" s="11"/>
     </row>
-    <row r="114" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>2</v>
       </c>
@@ -40187,10 +40397,10 @@
       <c r="BW114" s="1"/>
       <c r="BX114" s="1"/>
       <c r="BY114" s="1"/>
-      <c r="BZ114" s="1"/>
-      <c r="CA114" s="1"/>
-      <c r="CB114" s="1"/>
-      <c r="CC114" s="1"/>
+      <c r="BZ114" s="20"/>
+      <c r="CA114" s="20"/>
+      <c r="CB114" s="20"/>
+      <c r="CC114" s="20"/>
       <c r="CD114" s="20"/>
       <c r="CE114" s="20"/>
       <c r="CF114" s="20"/>
@@ -40199,8 +40409,9 @@
       <c r="CI114" s="20"/>
       <c r="CJ114" s="20"/>
       <c r="CK114" s="20"/>
+      <c r="CL114" s="20"/>
     </row>
-    <row r="115" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>1</v>
       </c>
@@ -40280,10 +40491,10 @@
       <c r="BW115" s="1"/>
       <c r="BX115" s="1"/>
       <c r="BY115" s="1"/>
-      <c r="BZ115" s="1"/>
-      <c r="CA115" s="1"/>
-      <c r="CB115" s="1"/>
-      <c r="CC115" s="1"/>
+      <c r="BZ115" s="20"/>
+      <c r="CA115" s="20"/>
+      <c r="CB115" s="20"/>
+      <c r="CC115" s="20"/>
       <c r="CD115" s="20"/>
       <c r="CE115" s="20"/>
       <c r="CF115" s="20"/>
@@ -40292,10 +40503,11 @@
       <c r="CI115" s="20"/>
       <c r="CJ115" s="20"/>
       <c r="CK115" s="20"/>
+      <c r="CL115" s="20"/>
     </row>
-    <row r="116" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -40373,10 +40585,10 @@
       <c r="BW116" s="1"/>
       <c r="BX116" s="1"/>
       <c r="BY116" s="1"/>
-      <c r="BZ116" s="1"/>
-      <c r="CA116" s="1"/>
-      <c r="CB116" s="1"/>
-      <c r="CC116" s="1"/>
+      <c r="BZ116" s="20"/>
+      <c r="CA116" s="20"/>
+      <c r="CB116" s="20"/>
+      <c r="CC116" s="20"/>
       <c r="CD116" s="20"/>
       <c r="CE116" s="20"/>
       <c r="CF116" s="20"/>
@@ -40385,8 +40597,9 @@
       <c r="CI116" s="20"/>
       <c r="CJ116" s="20"/>
       <c r="CK116" s="20"/>
+      <c r="CL116" s="20"/>
     </row>
-    <row r="117" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -40464,10 +40677,10 @@
       <c r="BW117" s="1"/>
       <c r="BX117" s="1"/>
       <c r="BY117" s="1"/>
-      <c r="BZ117" s="1"/>
-      <c r="CA117" s="1"/>
-      <c r="CB117" s="1"/>
-      <c r="CC117" s="1"/>
+      <c r="BZ117" s="20"/>
+      <c r="CA117" s="20"/>
+      <c r="CB117" s="20"/>
+      <c r="CC117" s="20"/>
       <c r="CD117" s="20"/>
       <c r="CE117" s="20"/>
       <c r="CF117" s="20"/>
@@ -40476,8 +40689,9 @@
       <c r="CI117" s="20"/>
       <c r="CJ117" s="20"/>
       <c r="CK117" s="20"/>
+      <c r="CL117" s="20"/>
     </row>
-    <row r="118" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>20</v>
       </c>
@@ -40557,10 +40771,10 @@
       <c r="BW118" s="1"/>
       <c r="BX118" s="1"/>
       <c r="BY118" s="1"/>
-      <c r="BZ118" s="1"/>
-      <c r="CA118" s="1"/>
-      <c r="CB118" s="1"/>
-      <c r="CC118" s="1"/>
+      <c r="BZ118" s="20"/>
+      <c r="CA118" s="20"/>
+      <c r="CB118" s="20"/>
+      <c r="CC118" s="20"/>
       <c r="CD118" s="20"/>
       <c r="CE118" s="20"/>
       <c r="CF118" s="20"/>
@@ -40569,10 +40783,11 @@
       <c r="CI118" s="20"/>
       <c r="CJ118" s="20"/>
       <c r="CK118" s="20"/>
+      <c r="CL118" s="20"/>
     </row>
-    <row r="119" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -40650,10 +40865,10 @@
       <c r="BW119" s="1"/>
       <c r="BX119" s="1"/>
       <c r="BY119" s="1"/>
-      <c r="BZ119" s="1"/>
-      <c r="CA119" s="1"/>
-      <c r="CB119" s="1"/>
-      <c r="CC119" s="1"/>
+      <c r="BZ119" s="20"/>
+      <c r="CA119" s="20"/>
+      <c r="CB119" s="20"/>
+      <c r="CC119" s="20"/>
       <c r="CD119" s="20"/>
       <c r="CE119" s="20"/>
       <c r="CF119" s="20"/>
@@ -40662,8 +40877,9 @@
       <c r="CI119" s="20"/>
       <c r="CJ119" s="20"/>
       <c r="CK119" s="20"/>
+      <c r="CL119" s="20"/>
     </row>
-    <row r="120" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>24</v>
       </c>
@@ -40743,10 +40959,10 @@
       <c r="BW120" s="1"/>
       <c r="BX120" s="1"/>
       <c r="BY120" s="1"/>
-      <c r="BZ120" s="1"/>
-      <c r="CA120" s="1"/>
-      <c r="CB120" s="1"/>
-      <c r="CC120" s="1"/>
+      <c r="BZ120" s="20"/>
+      <c r="CA120" s="20"/>
+      <c r="CB120" s="20"/>
+      <c r="CC120" s="20"/>
       <c r="CD120" s="20"/>
       <c r="CE120" s="20"/>
       <c r="CF120" s="20"/>
@@ -40755,8 +40971,9 @@
       <c r="CI120" s="20"/>
       <c r="CJ120" s="20"/>
       <c r="CK120" s="20"/>
+      <c r="CL120" s="20"/>
     </row>
-    <row r="121" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -40834,10 +41051,10 @@
       <c r="BW121" s="1"/>
       <c r="BX121" s="1"/>
       <c r="BY121" s="1"/>
-      <c r="BZ121" s="1"/>
-      <c r="CA121" s="1"/>
-      <c r="CB121" s="1"/>
-      <c r="CC121" s="1"/>
+      <c r="BZ121" s="20"/>
+      <c r="CA121" s="20"/>
+      <c r="CB121" s="20"/>
+      <c r="CC121" s="20"/>
       <c r="CD121" s="20"/>
       <c r="CE121" s="20"/>
       <c r="CF121" s="20"/>
@@ -40846,8 +41063,9 @@
       <c r="CI121" s="20"/>
       <c r="CJ121" s="20"/>
       <c r="CK121" s="20"/>
+      <c r="CL121" s="20"/>
     </row>
-    <row r="122" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
       <c r="B122" s="33">
         <v>2000</v>
@@ -40963,12 +41181,12 @@
       <c r="BW122" s="33"/>
       <c r="BX122" s="33"/>
       <c r="BY122" s="33"/>
-      <c r="BZ122" s="33">
+      <c r="BZ122" s="31">
         <v>2019</v>
       </c>
-      <c r="CA122" s="33"/>
-      <c r="CB122" s="33"/>
-      <c r="CC122" s="33"/>
+      <c r="CA122" s="35"/>
+      <c r="CB122" s="35"/>
+      <c r="CC122" s="35"/>
       <c r="CD122" s="32">
         <v>2020</v>
       </c>
@@ -40981,8 +41199,11 @@
       <c r="CI122" s="32"/>
       <c r="CJ122" s="32"/>
       <c r="CK122" s="32"/>
+      <c r="CL122" s="30">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="123" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
         <v>4</v>
       </c>
@@ -41214,16 +41435,16 @@
       <c r="BY123" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BZ123" s="7" t="s">
+      <c r="BZ123" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CA123" s="7" t="s">
+      <c r="CA123" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="CB123" s="7" t="s">
+      <c r="CB123" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="CC123" s="7" t="s">
+      <c r="CC123" s="21" t="s">
         <v>9</v>
       </c>
       <c r="CD123" s="21" t="s">
@@ -41250,8 +41471,11 @@
       <c r="CK123" s="21" t="s">
         <v>9</v>
       </c>
+      <c r="CL123" s="21" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="124" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -41329,10 +41553,10 @@
       <c r="BW124" s="1"/>
       <c r="BX124" s="1"/>
       <c r="BY124" s="1"/>
-      <c r="BZ124" s="1"/>
-      <c r="CA124" s="1"/>
-      <c r="CB124" s="1"/>
-      <c r="CC124" s="1"/>
+      <c r="BZ124" s="20"/>
+      <c r="CA124" s="20"/>
+      <c r="CB124" s="20"/>
+      <c r="CC124" s="20"/>
       <c r="CD124" s="20"/>
       <c r="CE124" s="20"/>
       <c r="CF124" s="20"/>
@@ -41341,8 +41565,9 @@
       <c r="CI124" s="20"/>
       <c r="CJ124" s="20"/>
       <c r="CK124" s="20"/>
+      <c r="CL124" s="20"/>
     </row>
-    <row r="125" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
         <v>11</v>
       </c>
@@ -41574,43 +41799,45 @@
       <c r="BY125" s="18">
         <v>63.477795764639808</v>
       </c>
-      <c r="BZ125" s="18">
+      <c r="BZ125" s="27">
         <v>59.992568799919376</v>
       </c>
-      <c r="CA125" s="18">
+      <c r="CA125" s="27">
         <v>67.073303377789244</v>
       </c>
-      <c r="CB125" s="18">
+      <c r="CB125" s="27">
         <v>62.036763858501864</v>
       </c>
-      <c r="CC125" s="18">
+      <c r="CC125" s="27">
         <v>64.062906770721497</v>
       </c>
-      <c r="CD125" s="29">
+      <c r="CD125" s="27">
         <v>59.817888600073168</v>
       </c>
-      <c r="CE125" s="29">
+      <c r="CE125" s="27">
         <v>46.628312879468034</v>
       </c>
-      <c r="CF125" s="29">
+      <c r="CF125" s="27">
         <v>49.106597427152316</v>
       </c>
-      <c r="CG125" s="29">
-        <v>54.625277004347559</v>
-      </c>
-      <c r="CH125" s="29">
+      <c r="CG125" s="27">
+        <v>55.056933551029097</v>
+      </c>
+      <c r="CH125" s="27">
         <v>53.219790362131768</v>
       </c>
-      <c r="CI125" s="29">
+      <c r="CI125" s="27">
         <v>54.94455079154762</v>
       </c>
-      <c r="CJ125" s="29">
+      <c r="CJ125" s="27">
         <v>55.614707180212861</v>
       </c>
-      <c r="CK125" s="29">
-        <v>62.606872343064794</v>
-      </c>
-      <c r="CL125" s="11"/>
+      <c r="CK125" s="27">
+        <v>62.543972960349251</v>
+      </c>
+      <c r="CL125" s="27">
+        <v>55.035112839941789</v>
+      </c>
       <c r="CM125" s="11"/>
       <c r="CN125" s="11"/>
       <c r="CO125" s="11"/>
@@ -41677,7 +41904,7 @@
       <c r="EX125" s="11"/>
       <c r="EY125" s="11"/>
     </row>
-    <row r="126" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>12</v>
       </c>
@@ -41909,43 +42136,45 @@
       <c r="BY126" s="18">
         <v>36.522204235360192</v>
       </c>
-      <c r="BZ126" s="18">
+      <c r="BZ126" s="27">
         <v>40.007431200080617</v>
       </c>
-      <c r="CA126" s="18">
+      <c r="CA126" s="27">
         <v>32.926696622210741</v>
       </c>
-      <c r="CB126" s="18">
+      <c r="CB126" s="27">
         <v>37.963236141498143</v>
       </c>
-      <c r="CC126" s="18">
+      <c r="CC126" s="27">
         <v>35.937093229278503</v>
       </c>
-      <c r="CD126" s="29">
+      <c r="CD126" s="27">
         <v>40.182111399926832</v>
       </c>
-      <c r="CE126" s="29">
+      <c r="CE126" s="27">
         <v>53.371687120531966</v>
       </c>
-      <c r="CF126" s="29">
+      <c r="CF126" s="27">
         <v>50.893402572847677</v>
       </c>
-      <c r="CG126" s="29">
-        <v>45.374722995652434</v>
-      </c>
-      <c r="CH126" s="29">
+      <c r="CG126" s="27">
+        <v>44.943066448970903</v>
+      </c>
+      <c r="CH126" s="27">
         <v>46.780209637868239</v>
       </c>
-      <c r="CI126" s="29">
+      <c r="CI126" s="27">
         <v>45.05544920845238</v>
       </c>
-      <c r="CJ126" s="29">
+      <c r="CJ126" s="27">
         <v>44.385292819787132</v>
       </c>
-      <c r="CK126" s="29">
-        <v>37.393127656935206</v>
-      </c>
-      <c r="CL126" s="11"/>
+      <c r="CK126" s="27">
+        <v>37.456027039650756</v>
+      </c>
+      <c r="CL126" s="27">
+        <v>44.964887160058204</v>
+      </c>
       <c r="CM126" s="11"/>
       <c r="CN126" s="11"/>
       <c r="CO126" s="11"/>
@@ -42012,7 +42241,7 @@
       <c r="EX126" s="11"/>
       <c r="EY126" s="11"/>
     </row>
-    <row r="127" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="17"/>
       <c r="C127" s="17"/>
       <c r="D127" s="17"/>
@@ -42089,10 +42318,10 @@
       <c r="BW127" s="17"/>
       <c r="BX127" s="17"/>
       <c r="BY127" s="17"/>
-      <c r="BZ127" s="17"/>
-      <c r="CA127" s="17"/>
-      <c r="CB127" s="17"/>
-      <c r="CC127" s="17"/>
+      <c r="BZ127" s="25"/>
+      <c r="CA127" s="25"/>
+      <c r="CB127" s="25"/>
+      <c r="CC127" s="25"/>
       <c r="CD127" s="25"/>
       <c r="CE127" s="25"/>
       <c r="CF127" s="25"/>
@@ -42101,7 +42330,7 @@
       <c r="CI127" s="25"/>
       <c r="CJ127" s="25"/>
       <c r="CK127" s="25"/>
-      <c r="CL127" s="11"/>
+      <c r="CL127" s="25"/>
       <c r="CM127" s="11"/>
       <c r="CN127" s="11"/>
       <c r="CO127" s="11"/>
@@ -42168,7 +42397,7 @@
       <c r="EX127" s="11"/>
       <c r="EY127" s="11"/>
     </row>
-    <row r="128" spans="1:155" ht="18" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:155" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A128" s="14" t="s">
         <v>13</v>
       </c>
@@ -42400,43 +42629,45 @@
       <c r="BY128" s="18">
         <v>100</v>
       </c>
-      <c r="BZ128" s="18">
+      <c r="BZ128" s="27">
         <v>100</v>
       </c>
-      <c r="CA128" s="18">
+      <c r="CA128" s="27">
         <v>100</v>
       </c>
-      <c r="CB128" s="18">
+      <c r="CB128" s="27">
         <v>100</v>
       </c>
-      <c r="CC128" s="18">
+      <c r="CC128" s="27">
         <v>100</v>
       </c>
-      <c r="CD128" s="29">
+      <c r="CD128" s="27">
         <v>100</v>
       </c>
-      <c r="CE128" s="29">
+      <c r="CE128" s="27">
         <v>100</v>
       </c>
-      <c r="CF128" s="29">
+      <c r="CF128" s="27">
         <v>100</v>
       </c>
-      <c r="CG128" s="29">
+      <c r="CG128" s="27">
         <v>100</v>
       </c>
-      <c r="CH128" s="29">
+      <c r="CH128" s="27">
         <v>100</v>
       </c>
-      <c r="CI128" s="29">
+      <c r="CI128" s="27">
         <v>100</v>
       </c>
-      <c r="CJ128" s="29">
+      <c r="CJ128" s="27">
         <v>100</v>
       </c>
-      <c r="CK128" s="29">
+      <c r="CK128" s="27">
         <v>100</v>
       </c>
-      <c r="CL128" s="11"/>
+      <c r="CL128" s="27">
+        <v>100</v>
+      </c>
       <c r="CM128" s="11"/>
       <c r="CN128" s="11"/>
       <c r="CO128" s="11"/>
@@ -42503,7 +42734,7 @@
       <c r="EX128" s="11"/>
       <c r="EY128" s="11"/>
     </row>
-    <row r="129" spans="1:89" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:90" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="15"/>
       <c r="B129" s="15"/>
       <c r="C129" s="15"/>
@@ -42581,10 +42812,10 @@
       <c r="BW129" s="15"/>
       <c r="BX129" s="15"/>
       <c r="BY129" s="15"/>
-      <c r="BZ129" s="15"/>
-      <c r="CA129" s="15"/>
-      <c r="CB129" s="15"/>
-      <c r="CC129" s="15"/>
+      <c r="BZ129" s="24"/>
+      <c r="CA129" s="24"/>
+      <c r="CB129" s="24"/>
+      <c r="CC129" s="24"/>
       <c r="CD129" s="24"/>
       <c r="CE129" s="24"/>
       <c r="CF129" s="24"/>
@@ -42593,8 +42824,9 @@
       <c r="CI129" s="24"/>
       <c r="CJ129" s="24"/>
       <c r="CK129" s="24"/>
+      <c r="CL129" s="24"/>
     </row>
-    <row r="130" spans="1:89" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:90" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="16" t="s">
         <v>0</v>
       </c>
@@ -42674,10 +42906,10 @@
       <c r="BW130" s="1"/>
       <c r="BX130" s="1"/>
       <c r="BY130" s="1"/>
-      <c r="BZ130" s="1"/>
-      <c r="CA130" s="1"/>
-      <c r="CB130" s="1"/>
-      <c r="CC130" s="1"/>
+      <c r="BZ130" s="20"/>
+      <c r="CA130" s="20"/>
+      <c r="CB130" s="20"/>
+      <c r="CC130" s="20"/>
       <c r="CD130" s="20"/>
       <c r="CE130" s="20"/>
       <c r="CF130" s="20"/>
@@ -42686,9 +42918,360 @@
       <c r="CI130" s="20"/>
       <c r="CJ130" s="20"/>
       <c r="CK130" s="20"/>
+      <c r="CL130" s="20"/>
+    </row>
+    <row r="133" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="CD133" s="19"/>
+      <c r="CE133" s="19"/>
+      <c r="CF133" s="19"/>
+      <c r="CG133" s="19"/>
+      <c r="CH133" s="19"/>
+      <c r="CI133" s="19"/>
+      <c r="CJ133" s="19"/>
+      <c r="CK133" s="19"/>
+      <c r="CL133" s="19"/>
+    </row>
+    <row r="134" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="CD134" s="19"/>
+      <c r="CE134" s="19"/>
+      <c r="CF134" s="19"/>
+      <c r="CG134" s="19"/>
+      <c r="CH134" s="19"/>
+      <c r="CI134" s="19"/>
+      <c r="CJ134" s="19"/>
+      <c r="CK134" s="19"/>
+      <c r="CL134" s="19"/>
+    </row>
+    <row r="135" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="CD135" s="19"/>
+      <c r="CE135" s="19"/>
+      <c r="CF135" s="19"/>
+      <c r="CG135" s="19"/>
+      <c r="CH135" s="19"/>
+      <c r="CI135" s="19"/>
+      <c r="CJ135" s="19"/>
+      <c r="CK135" s="19"/>
+      <c r="CL135" s="19"/>
+    </row>
+    <row r="136" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="CD136" s="19"/>
+      <c r="CE136" s="19"/>
+      <c r="CF136" s="19"/>
+      <c r="CG136" s="19"/>
+      <c r="CH136" s="19"/>
+      <c r="CI136" s="19"/>
+      <c r="CJ136" s="19"/>
+      <c r="CK136" s="19"/>
+      <c r="CL136" s="19"/>
+    </row>
+    <row r="137" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="CD137" s="19"/>
+      <c r="CE137" s="19"/>
+      <c r="CF137" s="19"/>
+      <c r="CG137" s="19"/>
+      <c r="CH137" s="19"/>
+      <c r="CI137" s="19"/>
+      <c r="CJ137" s="19"/>
+      <c r="CK137" s="19"/>
+      <c r="CL137" s="19"/>
+    </row>
+    <row r="138" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="CD138" s="19"/>
+      <c r="CE138" s="19"/>
+      <c r="CF138" s="19"/>
+      <c r="CG138" s="19"/>
+      <c r="CH138" s="19"/>
+      <c r="CI138" s="19"/>
+      <c r="CJ138" s="19"/>
+      <c r="CK138" s="19"/>
+      <c r="CL138" s="19"/>
+    </row>
+    <row r="139" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="CC139" s="12"/>
+      <c r="CD139" s="12"/>
+      <c r="CE139" s="12"/>
+      <c r="CF139" s="12"/>
+      <c r="CG139" s="12"/>
+      <c r="CH139" s="12"/>
+      <c r="CI139" s="12"/>
+      <c r="CJ139" s="12"/>
+      <c r="CK139" s="12"/>
+      <c r="CL139" s="12"/>
+    </row>
+    <row r="140" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="CC140" s="12"/>
+      <c r="CD140" s="12"/>
+      <c r="CE140" s="12"/>
+      <c r="CF140" s="12"/>
+      <c r="CG140" s="12"/>
+      <c r="CH140" s="12"/>
+      <c r="CI140" s="12"/>
+      <c r="CJ140" s="12"/>
+      <c r="CK140" s="12"/>
+      <c r="CL140" s="12"/>
+    </row>
+    <row r="141" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="CC141" s="12"/>
+      <c r="CD141" s="12"/>
+      <c r="CE141" s="12"/>
+      <c r="CF141" s="12"/>
+      <c r="CG141" s="12"/>
+      <c r="CH141" s="12"/>
+      <c r="CI141" s="12"/>
+      <c r="CJ141" s="12"/>
+      <c r="CK141" s="12"/>
+      <c r="CL141" s="12"/>
+    </row>
+    <row r="142" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="CC142" s="12"/>
+      <c r="CD142" s="12"/>
+      <c r="CE142" s="12"/>
+      <c r="CF142" s="12"/>
+      <c r="CG142" s="12"/>
+      <c r="CH142" s="12"/>
+      <c r="CI142" s="12"/>
+      <c r="CJ142" s="12"/>
+      <c r="CK142" s="12"/>
+      <c r="CL142" s="12"/>
+    </row>
+    <row r="143" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="CC143" s="12"/>
+      <c r="CD143" s="12"/>
+      <c r="CE143" s="12"/>
+      <c r="CF143" s="12"/>
+      <c r="CG143" s="12"/>
+      <c r="CH143" s="12"/>
+      <c r="CI143" s="12"/>
+      <c r="CJ143" s="12"/>
+      <c r="CK143" s="12"/>
+      <c r="CL143" s="12"/>
+    </row>
+    <row r="144" spans="1:90" x14ac:dyDescent="0.25">
+      <c r="CC144" s="12"/>
+      <c r="CD144" s="12"/>
+      <c r="CE144" s="12"/>
+      <c r="CF144" s="12"/>
+      <c r="CG144" s="12"/>
+      <c r="CH144" s="12"/>
+      <c r="CI144" s="12"/>
+      <c r="CJ144" s="12"/>
+      <c r="CK144" s="12"/>
+      <c r="CL144" s="12"/>
+    </row>
+    <row r="145" spans="81:90" x14ac:dyDescent="0.25">
+      <c r="CC145" s="12"/>
+      <c r="CD145" s="12"/>
+      <c r="CE145" s="12"/>
+      <c r="CF145" s="12"/>
+      <c r="CG145" s="12"/>
+      <c r="CH145" s="12"/>
+      <c r="CI145" s="12"/>
+      <c r="CJ145" s="12"/>
+      <c r="CK145" s="12"/>
+      <c r="CL145" s="12"/>
+    </row>
+    <row r="146" spans="81:90" x14ac:dyDescent="0.25">
+      <c r="CC146" s="12"/>
+      <c r="CD146" s="12"/>
+      <c r="CE146" s="12"/>
+      <c r="CF146" s="12"/>
+      <c r="CG146" s="12"/>
+      <c r="CH146" s="12"/>
+      <c r="CI146" s="12"/>
+      <c r="CJ146" s="12"/>
+      <c r="CK146" s="12"/>
+      <c r="CL146" s="12"/>
+    </row>
+    <row r="147" spans="81:90" x14ac:dyDescent="0.25">
+      <c r="CC147" s="12"/>
+      <c r="CD147" s="12"/>
+      <c r="CE147" s="12"/>
+      <c r="CF147" s="12"/>
+      <c r="CG147" s="12"/>
+      <c r="CH147" s="12"/>
+      <c r="CI147" s="12"/>
+      <c r="CJ147" s="12"/>
+      <c r="CK147" s="12"/>
+      <c r="CL147" s="12"/>
+    </row>
+    <row r="148" spans="81:90" x14ac:dyDescent="0.25">
+      <c r="CC148" s="12"/>
+      <c r="CD148" s="12"/>
+      <c r="CE148" s="12"/>
+      <c r="CF148" s="12"/>
+      <c r="CG148" s="12"/>
+      <c r="CH148" s="12"/>
+      <c r="CI148" s="12"/>
+      <c r="CJ148" s="12"/>
+      <c r="CK148" s="12"/>
+      <c r="CL148" s="12"/>
+    </row>
+    <row r="149" spans="81:90" x14ac:dyDescent="0.25">
+      <c r="CC149" s="12"/>
+      <c r="CD149" s="12"/>
+      <c r="CE149" s="12"/>
+      <c r="CF149" s="12"/>
+      <c r="CG149" s="12"/>
+      <c r="CH149" s="12"/>
+      <c r="CI149" s="12"/>
+      <c r="CJ149" s="12"/>
+      <c r="CK149" s="12"/>
+      <c r="CL149" s="12"/>
+    </row>
+    <row r="150" spans="81:90" x14ac:dyDescent="0.25">
+      <c r="CC150" s="12"/>
+      <c r="CD150" s="12"/>
+      <c r="CE150" s="12"/>
+      <c r="CF150" s="12"/>
+      <c r="CG150" s="12"/>
+      <c r="CH150" s="12"/>
+      <c r="CI150" s="12"/>
+      <c r="CJ150" s="12"/>
+      <c r="CK150" s="12"/>
+      <c r="CL150" s="12"/>
+    </row>
+    <row r="151" spans="81:90" x14ac:dyDescent="0.25">
+      <c r="CC151" s="12"/>
+      <c r="CD151" s="12"/>
+      <c r="CE151" s="12"/>
+      <c r="CF151" s="12"/>
+      <c r="CG151" s="12"/>
+      <c r="CH151" s="12"/>
+      <c r="CI151" s="12"/>
+      <c r="CJ151" s="12"/>
+      <c r="CK151" s="12"/>
+      <c r="CL151" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="152">
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH28:CK28"/>
+    <mergeCell ref="CD47:CG47"/>
+    <mergeCell ref="CD66:CG66"/>
+    <mergeCell ref="CH84:CK84"/>
+    <mergeCell ref="CH103:CK103"/>
+    <mergeCell ref="CH122:CK122"/>
+    <mergeCell ref="BZ28:CC28"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="BR122:BU122"/>
+    <mergeCell ref="BV122:BY122"/>
+    <mergeCell ref="BV66:BY66"/>
+    <mergeCell ref="BR66:BU66"/>
+    <mergeCell ref="BR84:BU84"/>
+    <mergeCell ref="BR103:BU103"/>
+    <mergeCell ref="AX66:BA66"/>
+    <mergeCell ref="BB66:BE66"/>
+    <mergeCell ref="BF66:BI66"/>
+    <mergeCell ref="BJ66:BM66"/>
+    <mergeCell ref="BN66:BQ66"/>
+    <mergeCell ref="BJ28:BM28"/>
+    <mergeCell ref="BN28:BQ28"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="R47:U47"/>
+    <mergeCell ref="V47:Y47"/>
+    <mergeCell ref="Z47:AC47"/>
+    <mergeCell ref="AD47:AG47"/>
+    <mergeCell ref="AH47:AK47"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="BR47:BU47"/>
+    <mergeCell ref="BR28:BU28"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="V28:Y28"/>
+    <mergeCell ref="Z28:AC28"/>
+    <mergeCell ref="AH28:AK28"/>
+    <mergeCell ref="AL28:AO28"/>
+    <mergeCell ref="AP28:AS28"/>
+    <mergeCell ref="AT28:AW28"/>
+    <mergeCell ref="AX28:BA28"/>
+    <mergeCell ref="BB28:BE28"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="BF28:BI28"/>
+    <mergeCell ref="AL47:AO47"/>
+    <mergeCell ref="AP47:AS47"/>
+    <mergeCell ref="AT47:AW47"/>
+    <mergeCell ref="AX47:BA47"/>
+    <mergeCell ref="BJ47:BM47"/>
+    <mergeCell ref="BN47:BQ47"/>
+    <mergeCell ref="BB47:BE47"/>
+    <mergeCell ref="BF47:BI47"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="R66:U66"/>
+    <mergeCell ref="V66:Y66"/>
+    <mergeCell ref="Z66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AK66"/>
+    <mergeCell ref="Z84:AC84"/>
+    <mergeCell ref="AD84:AG84"/>
+    <mergeCell ref="AH84:AK84"/>
+    <mergeCell ref="AL66:AO66"/>
+    <mergeCell ref="AP66:AS66"/>
+    <mergeCell ref="AT66:AW66"/>
+    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="V84:Y84"/>
+    <mergeCell ref="AL122:AO122"/>
+    <mergeCell ref="AP122:AS122"/>
+    <mergeCell ref="AT122:AW122"/>
+    <mergeCell ref="AX122:BA122"/>
+    <mergeCell ref="BB122:BE122"/>
+    <mergeCell ref="BN84:BQ84"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="J103:M103"/>
+    <mergeCell ref="N103:Q103"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="V103:Y103"/>
+    <mergeCell ref="Z103:AC103"/>
+    <mergeCell ref="AD103:AG103"/>
+    <mergeCell ref="AH103:AK103"/>
+    <mergeCell ref="AL103:AO103"/>
+    <mergeCell ref="AP103:AS103"/>
+    <mergeCell ref="AT103:AW103"/>
+    <mergeCell ref="AX103:BA103"/>
+    <mergeCell ref="BB103:BE103"/>
+    <mergeCell ref="BF103:BI103"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="AX84:BA84"/>
+    <mergeCell ref="BB84:BE84"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:M122"/>
+    <mergeCell ref="N122:Q122"/>
+    <mergeCell ref="R122:U122"/>
+    <mergeCell ref="V122:Y122"/>
+    <mergeCell ref="Z122:AC122"/>
+    <mergeCell ref="AD122:AG122"/>
+    <mergeCell ref="AH122:AK122"/>
     <mergeCell ref="BZ47:CC47"/>
     <mergeCell ref="BZ66:CC66"/>
     <mergeCell ref="CD9:CG9"/>
@@ -42713,143 +43296,15 @@
     <mergeCell ref="BZ9:CC9"/>
     <mergeCell ref="BZ122:CC122"/>
     <mergeCell ref="BV28:BY28"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="N122:Q122"/>
-    <mergeCell ref="R122:U122"/>
-    <mergeCell ref="V122:Y122"/>
-    <mergeCell ref="Z122:AC122"/>
-    <mergeCell ref="AD122:AG122"/>
-    <mergeCell ref="AH122:AK122"/>
-    <mergeCell ref="AL122:AO122"/>
-    <mergeCell ref="AP122:AS122"/>
-    <mergeCell ref="AT122:AW122"/>
-    <mergeCell ref="AX122:BA122"/>
-    <mergeCell ref="BB122:BE122"/>
-    <mergeCell ref="BN84:BQ84"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="J103:M103"/>
-    <mergeCell ref="N103:Q103"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="V103:Y103"/>
-    <mergeCell ref="Z103:AC103"/>
-    <mergeCell ref="AD103:AG103"/>
-    <mergeCell ref="AH103:AK103"/>
-    <mergeCell ref="AL103:AO103"/>
-    <mergeCell ref="AP103:AS103"/>
-    <mergeCell ref="AT103:AW103"/>
-    <mergeCell ref="AX103:BA103"/>
-    <mergeCell ref="BB103:BE103"/>
-    <mergeCell ref="BF103:BI103"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="BB84:BE84"/>
-    <mergeCell ref="Z84:AC84"/>
-    <mergeCell ref="AD84:AG84"/>
-    <mergeCell ref="AH84:AK84"/>
-    <mergeCell ref="AL66:AO66"/>
-    <mergeCell ref="AP66:AS66"/>
-    <mergeCell ref="AT66:AW66"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="V84:Y84"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="N66:Q66"/>
-    <mergeCell ref="R66:U66"/>
-    <mergeCell ref="V66:Y66"/>
-    <mergeCell ref="Z66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AK66"/>
-    <mergeCell ref="BF28:BI28"/>
-    <mergeCell ref="AL47:AO47"/>
-    <mergeCell ref="AP47:AS47"/>
-    <mergeCell ref="AT47:AW47"/>
-    <mergeCell ref="AX47:BA47"/>
-    <mergeCell ref="BJ47:BM47"/>
-    <mergeCell ref="BN47:BQ47"/>
-    <mergeCell ref="BB47:BE47"/>
-    <mergeCell ref="BF47:BI47"/>
-    <mergeCell ref="BR47:BU47"/>
-    <mergeCell ref="BR28:BU28"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="V28:Y28"/>
-    <mergeCell ref="Z28:AC28"/>
-    <mergeCell ref="AH28:AK28"/>
-    <mergeCell ref="AL28:AO28"/>
-    <mergeCell ref="AP28:AS28"/>
-    <mergeCell ref="AT28:AW28"/>
-    <mergeCell ref="AX28:BA28"/>
-    <mergeCell ref="BB28:BE28"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="R47:U47"/>
-    <mergeCell ref="V47:Y47"/>
-    <mergeCell ref="Z47:AC47"/>
-    <mergeCell ref="AD47:AG47"/>
-    <mergeCell ref="AH47:AK47"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH28:CK28"/>
-    <mergeCell ref="CD47:CG47"/>
-    <mergeCell ref="CD66:CG66"/>
-    <mergeCell ref="CH84:CK84"/>
-    <mergeCell ref="CH103:CK103"/>
-    <mergeCell ref="CH122:CK122"/>
-    <mergeCell ref="BZ28:CC28"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="BR122:BU122"/>
-    <mergeCell ref="BV122:BY122"/>
-    <mergeCell ref="BV66:BY66"/>
-    <mergeCell ref="BR66:BU66"/>
-    <mergeCell ref="BR84:BU84"/>
-    <mergeCell ref="BR103:BU103"/>
-    <mergeCell ref="AX66:BA66"/>
-    <mergeCell ref="BB66:BE66"/>
-    <mergeCell ref="BF66:BI66"/>
-    <mergeCell ref="BJ66:BM66"/>
-    <mergeCell ref="BN66:BQ66"/>
-    <mergeCell ref="BJ28:BM28"/>
-    <mergeCell ref="BN28:BQ28"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="F47:I47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="88" man="1"/>
-    <brk id="76" max="88" man="1"/>
-    <brk id="94" max="88" man="1"/>
+    <brk id="38" max="89" man="1"/>
+    <brk id="76" max="89" man="1"/>
+    <brk id="94" max="89" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-21OS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-21OS_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\Desktop\PSA\NAP\NAP\Q1 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4654753C-87A7-4496-9E2F-CBE742582265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4F0D63-163B-430B-84B7-11244E0A822C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OS" sheetId="15" r:id="rId1"/>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">OS!$A$1:$CL$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">OS!$A$1:$CM$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="51">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -615,13 +615,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of May 2022</t>
+    <t>As of August 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2022</t>
+    <t>Q1 2000 to Q2 2022</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2022</t>
+    <t>Q1 2001 to Q2 2022</t>
   </si>
 </sst>
 </file>
@@ -629,9 +629,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -718,92 +718,67 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 2 2" xfId="5" xr:uid="{D2400EFB-CAD9-44B7-B15B-CA276FCC92E0}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{A9895CFE-5BF7-4C20-B7DF-AEDFDE2C06BC}"/>
     <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -23656,147 +23631,55 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:EY151"/>
+  <dimension ref="A1:EY130"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="A113" colorId="22" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BU1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A102" colorId="22" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CI1" activePane="topRight" state="frozen"/>
       <selection activeCell="CE141" sqref="CA141:CE149"/>
-      <selection pane="topRight" activeCell="CI64" sqref="CI64:CL75"/>
+      <selection pane="topRight" activeCell="CH1" sqref="CH1:CM1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.88671875" style="1" customWidth="1"/>
-    <col min="2" max="77" width="9" style="12" customWidth="1"/>
-    <col min="78" max="90" width="9" style="28" customWidth="1"/>
-    <col min="91" max="16384" width="7.77734375" style="12"/>
+    <col min="1" max="1" width="41.90625" style="1" customWidth="1"/>
+    <col min="2" max="91" width="9" style="12" customWidth="1"/>
+    <col min="92" max="16384" width="7.81640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="BZ1" s="19"/>
-      <c r="CA1" s="19"/>
-      <c r="CB1" s="19"/>
-      <c r="CC1" s="19"/>
-      <c r="CD1" s="19"/>
-      <c r="CE1" s="19"/>
-      <c r="CF1" s="19"/>
-      <c r="CG1" s="19"/>
-      <c r="CH1" s="19"/>
-      <c r="CI1" s="19"/>
-      <c r="CJ1" s="19"/>
-      <c r="CK1" s="19"/>
-      <c r="CL1" s="19"/>
     </row>
-    <row r="2" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="BZ2" s="19"/>
-      <c r="CA2" s="19"/>
-      <c r="CB2" s="19"/>
-      <c r="CC2" s="19"/>
-      <c r="CD2" s="19"/>
-      <c r="CE2" s="19"/>
-      <c r="CF2" s="19"/>
-      <c r="CG2" s="19"/>
-      <c r="CH2" s="19"/>
-      <c r="CI2" s="19"/>
-      <c r="CJ2" s="19"/>
-      <c r="CK2" s="19"/>
-      <c r="CL2" s="19"/>
     </row>
-    <row r="3" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="BZ3" s="19"/>
-      <c r="CA3" s="19"/>
-      <c r="CB3" s="19"/>
-      <c r="CC3" s="19"/>
-      <c r="CD3" s="19"/>
-      <c r="CE3" s="19"/>
-      <c r="CF3" s="19"/>
-      <c r="CG3" s="19"/>
-      <c r="CH3" s="19"/>
-      <c r="CI3" s="19"/>
-      <c r="CJ3" s="19"/>
-      <c r="CK3" s="19"/>
-      <c r="CL3" s="19"/>
     </row>
-    <row r="4" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="BZ4" s="19"/>
-      <c r="CA4" s="19"/>
-      <c r="CB4" s="19"/>
-      <c r="CC4" s="19"/>
-      <c r="CD4" s="19"/>
-      <c r="CE4" s="19"/>
-      <c r="CF4" s="19"/>
-      <c r="CG4" s="19"/>
-      <c r="CH4" s="19"/>
-      <c r="CI4" s="19"/>
-      <c r="CJ4" s="19"/>
-      <c r="CK4" s="19"/>
-      <c r="CL4" s="19"/>
     </row>
-    <row r="5" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="BZ5" s="19"/>
-      <c r="CA5" s="19"/>
-      <c r="CB5" s="19"/>
-      <c r="CC5" s="19"/>
-      <c r="CD5" s="19"/>
-      <c r="CE5" s="19"/>
-      <c r="CF5" s="19"/>
-      <c r="CG5" s="19"/>
-      <c r="CH5" s="19"/>
-      <c r="CI5" s="19"/>
-      <c r="CJ5" s="19"/>
-      <c r="CK5" s="19"/>
-      <c r="CL5" s="19"/>
     </row>
-    <row r="6" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="BZ6" s="19"/>
-      <c r="CA6" s="19"/>
-      <c r="CB6" s="19"/>
-      <c r="CC6" s="19"/>
-      <c r="CD6" s="19"/>
-      <c r="CE6" s="19"/>
-      <c r="CF6" s="19"/>
-      <c r="CG6" s="19"/>
-      <c r="CH6" s="19"/>
-      <c r="CI6" s="19"/>
-      <c r="CJ6" s="19"/>
-      <c r="CK6" s="19"/>
-      <c r="CL6" s="19"/>
     </row>
-    <row r="7" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="BZ7" s="19"/>
-      <c r="CA7" s="19"/>
-      <c r="CB7" s="19"/>
-      <c r="CC7" s="19"/>
-      <c r="CD7" s="19"/>
-      <c r="CE7" s="19"/>
-      <c r="CF7" s="19"/>
-      <c r="CG7" s="19"/>
-      <c r="CH7" s="19"/>
-      <c r="CI7" s="19"/>
-      <c r="CJ7" s="19"/>
-      <c r="CK7" s="19"/>
-      <c r="CL7" s="19"/>
     </row>
-    <row r="8" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -23874,159 +23757,161 @@
       <c r="BW8" s="1"/>
       <c r="BX8" s="1"/>
       <c r="BY8" s="1"/>
-      <c r="BZ8" s="20"/>
-      <c r="CA8" s="20"/>
-      <c r="CB8" s="20"/>
-      <c r="CC8" s="20"/>
-      <c r="CD8" s="20"/>
-      <c r="CE8" s="20"/>
-      <c r="CF8" s="20"/>
-      <c r="CG8" s="20"/>
-      <c r="CH8" s="20"/>
-      <c r="CI8" s="20"/>
-      <c r="CJ8" s="20"/>
-      <c r="CK8" s="20"/>
-      <c r="CL8" s="20"/>
+      <c r="BZ8" s="1"/>
+      <c r="CA8" s="1"/>
+      <c r="CB8" s="1"/>
+      <c r="CC8" s="1"/>
+      <c r="CD8" s="1"/>
+      <c r="CE8" s="1"/>
+      <c r="CF8" s="1"/>
+      <c r="CG8" s="1"/>
+      <c r="CH8" s="1"/>
+      <c r="CI8" s="1"/>
+      <c r="CJ8" s="1"/>
+      <c r="CK8" s="1"/>
+      <c r="CL8" s="1"/>
+      <c r="CM8" s="1"/>
     </row>
-    <row r="9" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="33">
+      <c r="B9" s="24">
         <v>2000</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33">
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24">
         <v>2001</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33">
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24">
         <v>2002</v>
       </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33">
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24">
         <v>2003</v>
       </c>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33">
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24">
         <v>2004</v>
       </c>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33">
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24">
         <v>2005</v>
       </c>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33">
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24">
         <v>2006</v>
       </c>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="33"/>
-      <c r="AD9" s="33">
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="24">
         <v>2007</v>
       </c>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="33"/>
-      <c r="AG9" s="33"/>
-      <c r="AH9" s="33">
+      <c r="AE9" s="24"/>
+      <c r="AF9" s="24"/>
+      <c r="AG9" s="24"/>
+      <c r="AH9" s="24">
         <v>2008</v>
       </c>
-      <c r="AI9" s="33"/>
-      <c r="AJ9" s="33"/>
-      <c r="AK9" s="33"/>
-      <c r="AL9" s="33">
+      <c r="AI9" s="24"/>
+      <c r="AJ9" s="24"/>
+      <c r="AK9" s="24"/>
+      <c r="AL9" s="24">
         <v>2009</v>
       </c>
-      <c r="AM9" s="33"/>
-      <c r="AN9" s="33"/>
-      <c r="AO9" s="33"/>
-      <c r="AP9" s="33">
+      <c r="AM9" s="24"/>
+      <c r="AN9" s="24"/>
+      <c r="AO9" s="24"/>
+      <c r="AP9" s="24">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="33"/>
-      <c r="AR9" s="33"/>
-      <c r="AS9" s="33"/>
-      <c r="AT9" s="33">
+      <c r="AQ9" s="24"/>
+      <c r="AR9" s="24"/>
+      <c r="AS9" s="24"/>
+      <c r="AT9" s="24">
         <v>2011</v>
       </c>
-      <c r="AU9" s="33"/>
-      <c r="AV9" s="33"/>
-      <c r="AW9" s="33"/>
-      <c r="AX9" s="33">
+      <c r="AU9" s="24"/>
+      <c r="AV9" s="24"/>
+      <c r="AW9" s="24"/>
+      <c r="AX9" s="24">
         <v>2012</v>
       </c>
-      <c r="AY9" s="33"/>
-      <c r="AZ9" s="33"/>
-      <c r="BA9" s="33"/>
-      <c r="BB9" s="33">
+      <c r="AY9" s="24"/>
+      <c r="AZ9" s="24"/>
+      <c r="BA9" s="24"/>
+      <c r="BB9" s="24">
         <v>2013</v>
       </c>
-      <c r="BC9" s="33"/>
-      <c r="BD9" s="33"/>
-      <c r="BE9" s="33"/>
-      <c r="BF9" s="33">
+      <c r="BC9" s="24"/>
+      <c r="BD9" s="24"/>
+      <c r="BE9" s="24"/>
+      <c r="BF9" s="24">
         <v>2014</v>
       </c>
-      <c r="BG9" s="33"/>
-      <c r="BH9" s="33"/>
-      <c r="BI9" s="33"/>
-      <c r="BJ9" s="33">
+      <c r="BG9" s="24"/>
+      <c r="BH9" s="24"/>
+      <c r="BI9" s="24"/>
+      <c r="BJ9" s="24">
         <v>2015</v>
       </c>
-      <c r="BK9" s="33"/>
-      <c r="BL9" s="33"/>
-      <c r="BM9" s="33"/>
-      <c r="BN9" s="33">
+      <c r="BK9" s="24"/>
+      <c r="BL9" s="24"/>
+      <c r="BM9" s="24"/>
+      <c r="BN9" s="24">
         <v>2016</v>
       </c>
-      <c r="BO9" s="33"/>
-      <c r="BP9" s="33"/>
-      <c r="BQ9" s="33"/>
-      <c r="BR9" s="33">
+      <c r="BO9" s="24"/>
+      <c r="BP9" s="24"/>
+      <c r="BQ9" s="24"/>
+      <c r="BR9" s="24">
         <v>2017</v>
       </c>
-      <c r="BS9" s="33"/>
-      <c r="BT9" s="33"/>
-      <c r="BU9" s="33"/>
-      <c r="BV9" s="33">
+      <c r="BS9" s="24"/>
+      <c r="BT9" s="24"/>
+      <c r="BU9" s="24"/>
+      <c r="BV9" s="24">
         <v>2018</v>
       </c>
-      <c r="BW9" s="33"/>
-      <c r="BX9" s="33"/>
-      <c r="BY9" s="33"/>
-      <c r="BZ9" s="31">
+      <c r="BW9" s="24"/>
+      <c r="BX9" s="24"/>
+      <c r="BY9" s="24"/>
+      <c r="BZ9" s="24">
         <v>2019</v>
       </c>
-      <c r="CA9" s="31"/>
-      <c r="CB9" s="31"/>
-      <c r="CC9" s="31"/>
-      <c r="CD9" s="32">
+      <c r="CA9" s="24"/>
+      <c r="CB9" s="24"/>
+      <c r="CC9" s="24"/>
+      <c r="CD9" s="24">
         <v>2020</v>
       </c>
-      <c r="CE9" s="32"/>
-      <c r="CF9" s="32"/>
-      <c r="CG9" s="32"/>
-      <c r="CH9" s="32">
+      <c r="CE9" s="24"/>
+      <c r="CF9" s="24"/>
+      <c r="CG9" s="24"/>
+      <c r="CH9" s="24">
         <v>2021</v>
       </c>
-      <c r="CI9" s="32"/>
-      <c r="CJ9" s="32"/>
-      <c r="CK9" s="32"/>
-      <c r="CL9" s="30">
+      <c r="CI9" s="24"/>
+      <c r="CJ9" s="24"/>
+      <c r="CK9" s="24"/>
+      <c r="CL9" s="24">
         <v>2022</v>
       </c>
+      <c r="CM9" s="24"/>
     </row>
-    <row r="10" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -24258,47 +24143,50 @@
       <c r="BY10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BZ10" s="21" t="s">
+      <c r="BZ10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CA10" s="21" t="s">
+      <c r="CA10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CB10" s="21" t="s">
+      <c r="CB10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CC10" s="21" t="s">
+      <c r="CC10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CD10" s="21" t="s">
+      <c r="CD10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CE10" s="21" t="s">
+      <c r="CE10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CF10" s="21" t="s">
+      <c r="CF10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CG10" s="21" t="s">
+      <c r="CG10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CH10" s="21" t="s">
+      <c r="CH10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CI10" s="21" t="s">
+      <c r="CI10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CJ10" s="21" t="s">
+      <c r="CJ10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CK10" s="21" t="s">
+      <c r="CK10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL10" s="21" t="s">
+      <c r="CL10" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="CM10" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="11" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -24376,21 +24264,22 @@
       <c r="BW11" s="1"/>
       <c r="BX11" s="1"/>
       <c r="BY11" s="1"/>
-      <c r="BZ11" s="20"/>
-      <c r="CA11" s="20"/>
-      <c r="CB11" s="20"/>
-      <c r="CC11" s="20"/>
-      <c r="CD11" s="20"/>
-      <c r="CE11" s="20"/>
-      <c r="CF11" s="20"/>
-      <c r="CG11" s="20"/>
-      <c r="CH11" s="20"/>
-      <c r="CI11" s="20"/>
-      <c r="CJ11" s="20"/>
-      <c r="CK11" s="20"/>
-      <c r="CL11" s="20"/>
+      <c r="BZ11" s="1"/>
+      <c r="CA11" s="1"/>
+      <c r="CB11" s="1"/>
+      <c r="CC11" s="1"/>
+      <c r="CD11" s="1"/>
+      <c r="CE11" s="1"/>
+      <c r="CF11" s="1"/>
+      <c r="CG11" s="1"/>
+      <c r="CH11" s="1"/>
+      <c r="CI11" s="1"/>
+      <c r="CJ11" s="1"/>
+      <c r="CK11" s="1"/>
+      <c r="CL11" s="1"/>
+      <c r="CM11" s="1"/>
     </row>
-    <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
@@ -24622,46 +24511,48 @@
       <c r="BY12" s="10">
         <v>72122.512659062471</v>
       </c>
-      <c r="BZ12" s="22">
+      <c r="BZ12" s="10">
         <v>69811.197631239105</v>
       </c>
-      <c r="CA12" s="22">
+      <c r="CA12" s="10">
         <v>80327.381658622704</v>
       </c>
-      <c r="CB12" s="22">
+      <c r="CB12" s="10">
         <v>56633.70895354321</v>
       </c>
-      <c r="CC12" s="22">
+      <c r="CC12" s="10">
         <v>81508.528887371693</v>
       </c>
-      <c r="CD12" s="22">
+      <c r="CD12" s="10">
         <v>63786.222259061149</v>
       </c>
-      <c r="CE12" s="22">
+      <c r="CE12" s="10">
         <v>20617.207518108418</v>
       </c>
-      <c r="CF12" s="22">
+      <c r="CF12" s="10">
         <v>23018.507943459255</v>
       </c>
-      <c r="CG12" s="22">
+      <c r="CG12" s="10">
         <v>39353.861632009895</v>
       </c>
-      <c r="CH12" s="22">
+      <c r="CH12" s="20">
         <v>34359.79005139049</v>
       </c>
-      <c r="CI12" s="22">
+      <c r="CI12" s="20">
         <v>32934.632216273138</v>
       </c>
-      <c r="CJ12" s="22">
+      <c r="CJ12" s="20">
         <v>31101.235178779076</v>
       </c>
-      <c r="CK12" s="22">
+      <c r="CK12" s="20">
         <v>58229.620492636881</v>
       </c>
-      <c r="CL12" s="22">
-        <v>43942.898697500292</v>
-      </c>
-      <c r="CM12" s="11"/>
+      <c r="CL12" s="20">
+        <v>44043.064011298673</v>
+      </c>
+      <c r="CM12" s="20">
+        <v>52064.027894592931</v>
+      </c>
       <c r="CN12" s="11"/>
       <c r="CO12" s="11"/>
       <c r="CP12" s="11"/>
@@ -24727,7 +24618,7 @@
       <c r="EX12" s="11"/>
       <c r="EY12" s="11"/>
     </row>
-    <row r="13" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -24959,46 +24850,48 @@
       <c r="BY13" s="10">
         <v>41467.768789153219</v>
       </c>
-      <c r="BZ13" s="22">
+      <c r="BZ13" s="10">
         <v>45898.650688319402</v>
       </c>
-      <c r="CA13" s="22">
+      <c r="CA13" s="10">
         <v>38480.576195398498</v>
       </c>
-      <c r="CB13" s="22">
+      <c r="CB13" s="10">
         <v>33603.024985848497</v>
       </c>
-      <c r="CC13" s="22">
+      <c r="CC13" s="10">
         <v>44166.037829492408</v>
       </c>
-      <c r="CD13" s="22">
+      <c r="CD13" s="10">
         <v>43608.801726798847</v>
       </c>
-      <c r="CE13" s="22">
+      <c r="CE13" s="10">
         <v>23863.68189174154</v>
       </c>
-      <c r="CF13" s="22">
+      <c r="CF13" s="10">
         <v>24472.478718680635</v>
       </c>
-      <c r="CG13" s="22">
+      <c r="CG13" s="10">
         <v>33236.548627112723</v>
       </c>
-      <c r="CH13" s="22">
+      <c r="CH13" s="20">
         <v>32815.823343175747</v>
       </c>
-      <c r="CI13" s="22">
+      <c r="CI13" s="20">
         <v>28765.181851902711</v>
       </c>
-      <c r="CJ13" s="22">
+      <c r="CJ13" s="20">
         <v>26148.897222831041</v>
       </c>
-      <c r="CK13" s="22">
+      <c r="CK13" s="20">
         <v>36654.966179066811</v>
       </c>
-      <c r="CL13" s="22">
-        <v>38984.391311751024</v>
-      </c>
-      <c r="CM13" s="11"/>
+      <c r="CL13" s="20">
+        <v>39176.561462143989</v>
+      </c>
+      <c r="CM13" s="20">
+        <v>34092.919635140737</v>
+      </c>
       <c r="CN13" s="11"/>
       <c r="CO13" s="11"/>
       <c r="CP13" s="11"/>
@@ -25064,7 +24957,7 @@
       <c r="EX13" s="11"/>
       <c r="EY13" s="11"/>
     </row>
-    <row r="14" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -25141,20 +25034,20 @@
       <c r="BW14" s="13"/>
       <c r="BX14" s="13"/>
       <c r="BY14" s="13"/>
-      <c r="BZ14" s="23"/>
-      <c r="CA14" s="23"/>
-      <c r="CB14" s="23"/>
-      <c r="CC14" s="23"/>
-      <c r="CD14" s="23"/>
-      <c r="CE14" s="23"/>
-      <c r="CF14" s="23"/>
-      <c r="CG14" s="23"/>
-      <c r="CH14" s="23"/>
-      <c r="CI14" s="23"/>
-      <c r="CJ14" s="23"/>
-      <c r="CK14" s="23"/>
-      <c r="CL14" s="23"/>
-      <c r="CM14" s="11"/>
+      <c r="BZ14" s="13"/>
+      <c r="CA14" s="13"/>
+      <c r="CB14" s="13"/>
+      <c r="CC14" s="13"/>
+      <c r="CD14" s="13"/>
+      <c r="CE14" s="13"/>
+      <c r="CF14" s="13"/>
+      <c r="CG14" s="13"/>
+      <c r="CH14" s="21"/>
+      <c r="CI14" s="21"/>
+      <c r="CJ14" s="21"/>
+      <c r="CK14" s="21"/>
+      <c r="CL14" s="21"/>
+      <c r="CM14" s="21"/>
       <c r="CN14" s="11"/>
       <c r="CO14" s="11"/>
       <c r="CP14" s="11"/>
@@ -25220,7 +25113,7 @@
       <c r="EX14" s="11"/>
       <c r="EY14" s="11"/>
     </row>
-    <row r="15" spans="1:155" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:155" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>13</v>
       </c>
@@ -25452,46 +25345,48 @@
       <c r="BY15" s="13">
         <v>113590.28144821568</v>
       </c>
-      <c r="BZ15" s="23">
+      <c r="BZ15" s="13">
         <v>115709.84831955851</v>
       </c>
-      <c r="CA15" s="23">
+      <c r="CA15" s="13">
         <v>118807.9578540212</v>
       </c>
-      <c r="CB15" s="23">
+      <c r="CB15" s="13">
         <v>90236.733939391706</v>
       </c>
-      <c r="CC15" s="23">
+      <c r="CC15" s="13">
         <v>125674.56671686409</v>
       </c>
-      <c r="CD15" s="23">
+      <c r="CD15" s="13">
         <v>107395.02398586</v>
       </c>
-      <c r="CE15" s="23">
+      <c r="CE15" s="13">
         <v>44480.889409849959</v>
       </c>
-      <c r="CF15" s="23">
+      <c r="CF15" s="13">
         <v>47490.986662139891</v>
       </c>
-      <c r="CG15" s="23">
+      <c r="CG15" s="13">
         <v>72590.410259122611</v>
       </c>
-      <c r="CH15" s="23">
+      <c r="CH15" s="21">
         <v>67175.61339456623</v>
       </c>
-      <c r="CI15" s="23">
+      <c r="CI15" s="21">
         <v>61699.814068175852</v>
       </c>
-      <c r="CJ15" s="23">
+      <c r="CJ15" s="21">
         <v>57250.132401610113</v>
       </c>
-      <c r="CK15" s="23">
+      <c r="CK15" s="21">
         <v>94884.586671703699</v>
       </c>
-      <c r="CL15" s="23">
-        <v>82927.290009251315</v>
-      </c>
-      <c r="CM15" s="11"/>
+      <c r="CL15" s="21">
+        <v>83219.625473442662</v>
+      </c>
+      <c r="CM15" s="21">
+        <v>86156.947529733676</v>
+      </c>
       <c r="CN15" s="11"/>
       <c r="CO15" s="11"/>
       <c r="CP15" s="11"/>
@@ -25557,7 +25452,7 @@
       <c r="EX15" s="11"/>
       <c r="EY15" s="11"/>
     </row>
-    <row r="16" spans="1:155" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:155" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -25635,21 +25530,22 @@
       <c r="BW16" s="15"/>
       <c r="BX16" s="15"/>
       <c r="BY16" s="15"/>
-      <c r="BZ16" s="24"/>
-      <c r="CA16" s="24"/>
-      <c r="CB16" s="24"/>
-      <c r="CC16" s="24"/>
-      <c r="CD16" s="24"/>
-      <c r="CE16" s="24"/>
-      <c r="CF16" s="24"/>
-      <c r="CG16" s="24"/>
-      <c r="CH16" s="24"/>
-      <c r="CI16" s="24"/>
-      <c r="CJ16" s="24"/>
-      <c r="CK16" s="24"/>
-      <c r="CL16" s="24"/>
+      <c r="BZ16" s="15"/>
+      <c r="CA16" s="15"/>
+      <c r="CB16" s="15"/>
+      <c r="CC16" s="15"/>
+      <c r="CD16" s="15"/>
+      <c r="CE16" s="15"/>
+      <c r="CF16" s="15"/>
+      <c r="CG16" s="15"/>
+      <c r="CH16" s="15"/>
+      <c r="CI16" s="15"/>
+      <c r="CJ16" s="15"/>
+      <c r="CK16" s="15"/>
+      <c r="CL16" s="15"/>
+      <c r="CM16" s="15"/>
     </row>
-    <row r="17" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>0</v>
       </c>
@@ -25729,21 +25625,22 @@
       <c r="BW17" s="1"/>
       <c r="BX17" s="1"/>
       <c r="BY17" s="1"/>
-      <c r="BZ17" s="20"/>
-      <c r="CA17" s="20"/>
-      <c r="CB17" s="20"/>
-      <c r="CC17" s="20"/>
-      <c r="CD17" s="20"/>
-      <c r="CE17" s="20"/>
-      <c r="CF17" s="20"/>
-      <c r="CG17" s="20"/>
-      <c r="CH17" s="20"/>
-      <c r="CI17" s="20"/>
-      <c r="CJ17" s="20"/>
-      <c r="CK17" s="20"/>
-      <c r="CL17" s="20"/>
+      <c r="BZ17" s="1"/>
+      <c r="CA17" s="1"/>
+      <c r="CB17" s="1"/>
+      <c r="CC17" s="1"/>
+      <c r="CD17" s="1"/>
+      <c r="CE17" s="1"/>
+      <c r="CF17" s="1"/>
+      <c r="CG17" s="1"/>
+      <c r="CH17" s="1"/>
+      <c r="CI17" s="1"/>
+      <c r="CJ17" s="1"/>
+      <c r="CK17" s="1"/>
+      <c r="CL17" s="1"/>
+      <c r="CM17" s="1"/>
     </row>
-    <row r="18" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -25820,20 +25717,20 @@
       <c r="BW18" s="17"/>
       <c r="BX18" s="17"/>
       <c r="BY18" s="17"/>
-      <c r="BZ18" s="25"/>
-      <c r="CA18" s="25"/>
-      <c r="CB18" s="25"/>
-      <c r="CC18" s="25"/>
-      <c r="CD18" s="25"/>
-      <c r="CE18" s="25"/>
-      <c r="CF18" s="25"/>
-      <c r="CG18" s="25"/>
-      <c r="CH18" s="25"/>
-      <c r="CI18" s="25"/>
-      <c r="CJ18" s="25"/>
-      <c r="CK18" s="25"/>
-      <c r="CL18" s="25"/>
-      <c r="CM18" s="11"/>
+      <c r="BZ18" s="17"/>
+      <c r="CA18" s="17"/>
+      <c r="CB18" s="17"/>
+      <c r="CC18" s="17"/>
+      <c r="CD18" s="17"/>
+      <c r="CE18" s="17"/>
+      <c r="CF18" s="17"/>
+      <c r="CG18" s="17"/>
+      <c r="CH18" s="17"/>
+      <c r="CI18" s="17"/>
+      <c r="CJ18" s="17"/>
+      <c r="CK18" s="17"/>
+      <c r="CL18" s="17"/>
+      <c r="CM18" s="17"/>
       <c r="CN18" s="11"/>
       <c r="CO18" s="11"/>
       <c r="CP18" s="11"/>
@@ -25899,7 +25796,7 @@
       <c r="EX18" s="11"/>
       <c r="EY18" s="11"/>
     </row>
-    <row r="19" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -25976,20 +25873,20 @@
       <c r="BW19" s="17"/>
       <c r="BX19" s="17"/>
       <c r="BY19" s="17"/>
-      <c r="BZ19" s="25"/>
-      <c r="CA19" s="25"/>
-      <c r="CB19" s="25"/>
-      <c r="CC19" s="25"/>
-      <c r="CD19" s="25"/>
-      <c r="CE19" s="25"/>
-      <c r="CF19" s="25"/>
-      <c r="CG19" s="25"/>
-      <c r="CH19" s="25"/>
-      <c r="CI19" s="25"/>
-      <c r="CJ19" s="25"/>
-      <c r="CK19" s="25"/>
-      <c r="CL19" s="25"/>
-      <c r="CM19" s="11"/>
+      <c r="BZ19" s="17"/>
+      <c r="CA19" s="17"/>
+      <c r="CB19" s="17"/>
+      <c r="CC19" s="17"/>
+      <c r="CD19" s="17"/>
+      <c r="CE19" s="17"/>
+      <c r="CF19" s="17"/>
+      <c r="CG19" s="17"/>
+      <c r="CH19" s="17"/>
+      <c r="CI19" s="17"/>
+      <c r="CJ19" s="17"/>
+      <c r="CK19" s="17"/>
+      <c r="CL19" s="17"/>
+      <c r="CM19" s="17"/>
       <c r="CN19" s="11"/>
       <c r="CO19" s="11"/>
       <c r="CP19" s="11"/>
@@ -26055,7 +25952,7 @@
       <c r="EX19" s="11"/>
       <c r="EY19" s="11"/>
     </row>
-    <row r="20" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -26135,21 +26032,22 @@
       <c r="BW20" s="1"/>
       <c r="BX20" s="1"/>
       <c r="BY20" s="1"/>
-      <c r="BZ20" s="20"/>
-      <c r="CA20" s="20"/>
-      <c r="CB20" s="20"/>
-      <c r="CC20" s="20"/>
-      <c r="CD20" s="20"/>
-      <c r="CE20" s="20"/>
-      <c r="CF20" s="20"/>
-      <c r="CG20" s="20"/>
-      <c r="CH20" s="20"/>
-      <c r="CI20" s="20"/>
-      <c r="CJ20" s="20"/>
-      <c r="CK20" s="20"/>
-      <c r="CL20" s="20"/>
+      <c r="BZ20" s="1"/>
+      <c r="CA20" s="1"/>
+      <c r="CB20" s="1"/>
+      <c r="CC20" s="1"/>
+      <c r="CD20" s="1"/>
+      <c r="CE20" s="1"/>
+      <c r="CF20" s="1"/>
+      <c r="CG20" s="1"/>
+      <c r="CH20" s="1"/>
+      <c r="CI20" s="1"/>
+      <c r="CJ20" s="1"/>
+      <c r="CK20" s="1"/>
+      <c r="CL20" s="1"/>
+      <c r="CM20" s="1"/>
     </row>
-    <row r="21" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -26229,21 +26127,22 @@
       <c r="BW21" s="1"/>
       <c r="BX21" s="1"/>
       <c r="BY21" s="1"/>
-      <c r="BZ21" s="20"/>
-      <c r="CA21" s="20"/>
-      <c r="CB21" s="20"/>
-      <c r="CC21" s="20"/>
-      <c r="CD21" s="20"/>
-      <c r="CE21" s="20"/>
-      <c r="CF21" s="20"/>
-      <c r="CG21" s="20"/>
-      <c r="CH21" s="20"/>
-      <c r="CI21" s="20"/>
-      <c r="CJ21" s="20"/>
-      <c r="CK21" s="20"/>
-      <c r="CL21" s="20"/>
+      <c r="BZ21" s="1"/>
+      <c r="CA21" s="1"/>
+      <c r="CB21" s="1"/>
+      <c r="CC21" s="1"/>
+      <c r="CD21" s="1"/>
+      <c r="CE21" s="1"/>
+      <c r="CF21" s="1"/>
+      <c r="CG21" s="1"/>
+      <c r="CH21" s="1"/>
+      <c r="CI21" s="1"/>
+      <c r="CJ21" s="1"/>
+      <c r="CK21" s="1"/>
+      <c r="CL21" s="1"/>
+      <c r="CM21" s="1"/>
     </row>
-    <row r="22" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
@@ -26323,21 +26222,22 @@
       <c r="BW22" s="1"/>
       <c r="BX22" s="1"/>
       <c r="BY22" s="1"/>
-      <c r="BZ22" s="20"/>
-      <c r="CA22" s="20"/>
-      <c r="CB22" s="20"/>
-      <c r="CC22" s="20"/>
-      <c r="CD22" s="20"/>
-      <c r="CE22" s="20"/>
-      <c r="CF22" s="20"/>
-      <c r="CG22" s="20"/>
-      <c r="CH22" s="20"/>
-      <c r="CI22" s="20"/>
-      <c r="CJ22" s="20"/>
-      <c r="CK22" s="20"/>
-      <c r="CL22" s="20"/>
+      <c r="BZ22" s="1"/>
+      <c r="CA22" s="1"/>
+      <c r="CB22" s="1"/>
+      <c r="CC22" s="1"/>
+      <c r="CD22" s="1"/>
+      <c r="CE22" s="1"/>
+      <c r="CF22" s="1"/>
+      <c r="CG22" s="1"/>
+      <c r="CH22" s="1"/>
+      <c r="CI22" s="1"/>
+      <c r="CJ22" s="1"/>
+      <c r="CK22" s="1"/>
+      <c r="CL22" s="1"/>
+      <c r="CM22" s="1"/>
     </row>
-    <row r="23" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -26415,21 +26315,22 @@
       <c r="BW23" s="1"/>
       <c r="BX23" s="1"/>
       <c r="BY23" s="1"/>
-      <c r="BZ23" s="20"/>
-      <c r="CA23" s="20"/>
-      <c r="CB23" s="20"/>
-      <c r="CC23" s="20"/>
-      <c r="CD23" s="20"/>
-      <c r="CE23" s="20"/>
-      <c r="CF23" s="20"/>
-      <c r="CG23" s="20"/>
-      <c r="CH23" s="20"/>
-      <c r="CI23" s="20"/>
-      <c r="CJ23" s="20"/>
-      <c r="CK23" s="20"/>
-      <c r="CL23" s="20"/>
+      <c r="BZ23" s="1"/>
+      <c r="CA23" s="1"/>
+      <c r="CB23" s="1"/>
+      <c r="CC23" s="1"/>
+      <c r="CD23" s="1"/>
+      <c r="CE23" s="1"/>
+      <c r="CF23" s="1"/>
+      <c r="CG23" s="1"/>
+      <c r="CH23" s="1"/>
+      <c r="CI23" s="1"/>
+      <c r="CJ23" s="1"/>
+      <c r="CK23" s="1"/>
+      <c r="CL23" s="1"/>
+      <c r="CM23" s="1"/>
     </row>
-    <row r="24" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
@@ -26509,21 +26410,22 @@
       <c r="BW24" s="1"/>
       <c r="BX24" s="1"/>
       <c r="BY24" s="1"/>
-      <c r="BZ24" s="20"/>
-      <c r="CA24" s="20"/>
-      <c r="CB24" s="20"/>
-      <c r="CC24" s="20"/>
-      <c r="CD24" s="20"/>
-      <c r="CE24" s="20"/>
-      <c r="CF24" s="20"/>
-      <c r="CG24" s="20"/>
-      <c r="CH24" s="20"/>
-      <c r="CI24" s="20"/>
-      <c r="CJ24" s="20"/>
-      <c r="CK24" s="20"/>
-      <c r="CL24" s="20"/>
+      <c r="BZ24" s="1"/>
+      <c r="CA24" s="1"/>
+      <c r="CB24" s="1"/>
+      <c r="CC24" s="1"/>
+      <c r="CD24" s="1"/>
+      <c r="CE24" s="1"/>
+      <c r="CF24" s="1"/>
+      <c r="CG24" s="1"/>
+      <c r="CH24" s="1"/>
+      <c r="CI24" s="1"/>
+      <c r="CJ24" s="1"/>
+      <c r="CK24" s="1"/>
+      <c r="CL24" s="1"/>
+      <c r="CM24" s="1"/>
     </row>
-    <row r="25" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
@@ -26603,21 +26505,22 @@
       <c r="BW25" s="1"/>
       <c r="BX25" s="1"/>
       <c r="BY25" s="1"/>
-      <c r="BZ25" s="20"/>
-      <c r="CA25" s="20"/>
-      <c r="CB25" s="20"/>
-      <c r="CC25" s="20"/>
-      <c r="CD25" s="20"/>
-      <c r="CE25" s="20"/>
-      <c r="CF25" s="20"/>
-      <c r="CG25" s="20"/>
-      <c r="CH25" s="20"/>
-      <c r="CI25" s="20"/>
-      <c r="CJ25" s="20"/>
-      <c r="CK25" s="20"/>
-      <c r="CL25" s="20"/>
+      <c r="BZ25" s="1"/>
+      <c r="CA25" s="1"/>
+      <c r="CB25" s="1"/>
+      <c r="CC25" s="1"/>
+      <c r="CD25" s="1"/>
+      <c r="CE25" s="1"/>
+      <c r="CF25" s="1"/>
+      <c r="CG25" s="1"/>
+      <c r="CH25" s="1"/>
+      <c r="CI25" s="1"/>
+      <c r="CJ25" s="1"/>
+      <c r="CK25" s="1"/>
+      <c r="CL25" s="1"/>
+      <c r="CM25" s="1"/>
     </row>
-    <row r="26" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -26697,21 +26600,22 @@
       <c r="BW26" s="1"/>
       <c r="BX26" s="1"/>
       <c r="BY26" s="1"/>
-      <c r="BZ26" s="20"/>
-      <c r="CA26" s="20"/>
-      <c r="CB26" s="20"/>
-      <c r="CC26" s="20"/>
-      <c r="CD26" s="20"/>
-      <c r="CE26" s="20"/>
-      <c r="CF26" s="20"/>
-      <c r="CG26" s="20"/>
-      <c r="CH26" s="20"/>
-      <c r="CI26" s="20"/>
-      <c r="CJ26" s="20"/>
-      <c r="CK26" s="20"/>
-      <c r="CL26" s="20"/>
+      <c r="BZ26" s="1"/>
+      <c r="CA26" s="1"/>
+      <c r="CB26" s="1"/>
+      <c r="CC26" s="1"/>
+      <c r="CD26" s="1"/>
+      <c r="CE26" s="1"/>
+      <c r="CF26" s="1"/>
+      <c r="CG26" s="1"/>
+      <c r="CH26" s="1"/>
+      <c r="CI26" s="1"/>
+      <c r="CJ26" s="1"/>
+      <c r="CK26" s="1"/>
+      <c r="CL26" s="1"/>
+      <c r="CM26" s="1"/>
     </row>
-    <row r="27" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -26789,159 +26693,161 @@
       <c r="BW27" s="1"/>
       <c r="BX27" s="1"/>
       <c r="BY27" s="1"/>
-      <c r="BZ27" s="20"/>
-      <c r="CA27" s="20"/>
-      <c r="CB27" s="20"/>
-      <c r="CC27" s="20"/>
-      <c r="CD27" s="20"/>
-      <c r="CE27" s="20"/>
-      <c r="CF27" s="20"/>
-      <c r="CG27" s="20"/>
-      <c r="CH27" s="20"/>
-      <c r="CI27" s="20"/>
-      <c r="CJ27" s="20"/>
-      <c r="CK27" s="20"/>
-      <c r="CL27" s="20"/>
+      <c r="BZ27" s="1"/>
+      <c r="CA27" s="1"/>
+      <c r="CB27" s="1"/>
+      <c r="CC27" s="1"/>
+      <c r="CD27" s="1"/>
+      <c r="CE27" s="1"/>
+      <c r="CF27" s="1"/>
+      <c r="CG27" s="1"/>
+      <c r="CH27" s="1"/>
+      <c r="CI27" s="1"/>
+      <c r="CJ27" s="1"/>
+      <c r="CK27" s="1"/>
+      <c r="CL27" s="1"/>
+      <c r="CM27" s="1"/>
     </row>
-    <row r="28" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
-      <c r="B28" s="33">
+      <c r="B28" s="24">
         <v>2000</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="33">
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="24">
         <v>2001</v>
       </c>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="33">
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="24">
         <v>2002</v>
       </c>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="33">
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="24">
         <v>2003</v>
       </c>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="33">
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="24">
         <v>2004</v>
       </c>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="33">
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="24">
         <v>2005</v>
       </c>
-      <c r="W28" s="34"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="33">
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="24">
         <v>2006</v>
       </c>
-      <c r="AA28" s="34"/>
-      <c r="AB28" s="34"/>
-      <c r="AC28" s="34"/>
-      <c r="AD28" s="33">
+      <c r="AA28" s="25"/>
+      <c r="AB28" s="25"/>
+      <c r="AC28" s="25"/>
+      <c r="AD28" s="24">
         <v>2007</v>
       </c>
-      <c r="AE28" s="34"/>
-      <c r="AF28" s="34"/>
-      <c r="AG28" s="34"/>
-      <c r="AH28" s="33">
+      <c r="AE28" s="25"/>
+      <c r="AF28" s="25"/>
+      <c r="AG28" s="25"/>
+      <c r="AH28" s="24">
         <v>2008</v>
       </c>
-      <c r="AI28" s="34"/>
-      <c r="AJ28" s="34"/>
-      <c r="AK28" s="34"/>
-      <c r="AL28" s="33">
+      <c r="AI28" s="25"/>
+      <c r="AJ28" s="25"/>
+      <c r="AK28" s="25"/>
+      <c r="AL28" s="24">
         <v>2009</v>
       </c>
-      <c r="AM28" s="34"/>
-      <c r="AN28" s="34"/>
-      <c r="AO28" s="34"/>
-      <c r="AP28" s="33">
+      <c r="AM28" s="25"/>
+      <c r="AN28" s="25"/>
+      <c r="AO28" s="25"/>
+      <c r="AP28" s="24">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="34"/>
-      <c r="AR28" s="34"/>
-      <c r="AS28" s="34"/>
-      <c r="AT28" s="33">
+      <c r="AQ28" s="25"/>
+      <c r="AR28" s="25"/>
+      <c r="AS28" s="25"/>
+      <c r="AT28" s="24">
         <v>2011</v>
       </c>
-      <c r="AU28" s="34"/>
-      <c r="AV28" s="34"/>
-      <c r="AW28" s="34"/>
-      <c r="AX28" s="33">
+      <c r="AU28" s="25"/>
+      <c r="AV28" s="25"/>
+      <c r="AW28" s="25"/>
+      <c r="AX28" s="24">
         <v>2012</v>
       </c>
-      <c r="AY28" s="34"/>
-      <c r="AZ28" s="34"/>
-      <c r="BA28" s="34"/>
-      <c r="BB28" s="33">
+      <c r="AY28" s="25"/>
+      <c r="AZ28" s="25"/>
+      <c r="BA28" s="25"/>
+      <c r="BB28" s="24">
         <v>2013</v>
       </c>
-      <c r="BC28" s="34"/>
-      <c r="BD28" s="34"/>
-      <c r="BE28" s="34"/>
-      <c r="BF28" s="33">
+      <c r="BC28" s="25"/>
+      <c r="BD28" s="25"/>
+      <c r="BE28" s="25"/>
+      <c r="BF28" s="24">
         <v>2014</v>
       </c>
-      <c r="BG28" s="34"/>
-      <c r="BH28" s="34"/>
-      <c r="BI28" s="34"/>
-      <c r="BJ28" s="33">
+      <c r="BG28" s="25"/>
+      <c r="BH28" s="25"/>
+      <c r="BI28" s="25"/>
+      <c r="BJ28" s="24">
         <v>2015</v>
       </c>
-      <c r="BK28" s="34"/>
-      <c r="BL28" s="34"/>
-      <c r="BM28" s="34"/>
-      <c r="BN28" s="33">
+      <c r="BK28" s="25"/>
+      <c r="BL28" s="25"/>
+      <c r="BM28" s="25"/>
+      <c r="BN28" s="24">
         <v>2016</v>
       </c>
-      <c r="BO28" s="34"/>
-      <c r="BP28" s="34"/>
-      <c r="BQ28" s="34"/>
-      <c r="BR28" s="33">
+      <c r="BO28" s="25"/>
+      <c r="BP28" s="25"/>
+      <c r="BQ28" s="25"/>
+      <c r="BR28" s="24">
         <v>2017</v>
       </c>
-      <c r="BS28" s="34"/>
-      <c r="BT28" s="34"/>
-      <c r="BU28" s="34"/>
-      <c r="BV28" s="33">
+      <c r="BS28" s="25"/>
+      <c r="BT28" s="25"/>
+      <c r="BU28" s="25"/>
+      <c r="BV28" s="24">
         <v>2018</v>
       </c>
-      <c r="BW28" s="33"/>
-      <c r="BX28" s="33"/>
-      <c r="BY28" s="33"/>
-      <c r="BZ28" s="31">
+      <c r="BW28" s="24"/>
+      <c r="BX28" s="24"/>
+      <c r="BY28" s="24"/>
+      <c r="BZ28" s="24">
         <v>2019</v>
       </c>
-      <c r="CA28" s="35"/>
-      <c r="CB28" s="35"/>
-      <c r="CC28" s="35"/>
-      <c r="CD28" s="32">
+      <c r="CA28" s="24"/>
+      <c r="CB28" s="24"/>
+      <c r="CC28" s="24"/>
+      <c r="CD28" s="24">
         <v>2020</v>
       </c>
-      <c r="CE28" s="32"/>
-      <c r="CF28" s="32"/>
-      <c r="CG28" s="32"/>
-      <c r="CH28" s="32">
+      <c r="CE28" s="24"/>
+      <c r="CF28" s="24"/>
+      <c r="CG28" s="24"/>
+      <c r="CH28" s="24">
         <v>2021</v>
       </c>
-      <c r="CI28" s="32"/>
-      <c r="CJ28" s="32"/>
-      <c r="CK28" s="32"/>
-      <c r="CL28" s="30">
+      <c r="CI28" s="24"/>
+      <c r="CJ28" s="24"/>
+      <c r="CK28" s="24"/>
+      <c r="CL28" s="24">
         <v>2022</v>
       </c>
+      <c r="CM28" s="24"/>
     </row>
-    <row r="29" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>4</v>
       </c>
@@ -27173,47 +27079,50 @@
       <c r="BY29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BZ29" s="21" t="s">
+      <c r="BZ29" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CA29" s="21" t="s">
+      <c r="CA29" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CB29" s="21" t="s">
+      <c r="CB29" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CC29" s="21" t="s">
+      <c r="CC29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CD29" s="21" t="s">
+      <c r="CD29" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CE29" s="21" t="s">
+      <c r="CE29" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CF29" s="21" t="s">
+      <c r="CF29" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CG29" s="21" t="s">
+      <c r="CG29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CH29" s="21" t="s">
+      <c r="CH29" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CI29" s="21" t="s">
+      <c r="CI29" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CJ29" s="21" t="s">
+      <c r="CJ29" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CK29" s="21" t="s">
+      <c r="CK29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL29" s="21" t="s">
+      <c r="CL29" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="CM29" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="30" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -27291,21 +27200,22 @@
       <c r="BW30" s="1"/>
       <c r="BX30" s="1"/>
       <c r="BY30" s="1"/>
-      <c r="BZ30" s="20"/>
-      <c r="CA30" s="20"/>
-      <c r="CB30" s="20"/>
-      <c r="CC30" s="20"/>
-      <c r="CD30" s="20"/>
-      <c r="CE30" s="20"/>
-      <c r="CF30" s="20"/>
-      <c r="CG30" s="20"/>
-      <c r="CH30" s="20"/>
-      <c r="CI30" s="20"/>
-      <c r="CJ30" s="20"/>
-      <c r="CK30" s="20"/>
-      <c r="CL30" s="20"/>
+      <c r="BZ30" s="1"/>
+      <c r="CA30" s="1"/>
+      <c r="CB30" s="1"/>
+      <c r="CC30" s="1"/>
+      <c r="CD30" s="1"/>
+      <c r="CE30" s="1"/>
+      <c r="CF30" s="1"/>
+      <c r="CG30" s="1"/>
+      <c r="CH30" s="1"/>
+      <c r="CI30" s="1"/>
+      <c r="CJ30" s="1"/>
+      <c r="CK30" s="1"/>
+      <c r="CL30" s="1"/>
+      <c r="CM30" s="1"/>
     </row>
-    <row r="31" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>11</v>
       </c>
@@ -27537,46 +27447,48 @@
       <c r="BY31" s="10">
         <v>71217.600658035066</v>
       </c>
-      <c r="BZ31" s="22">
+      <c r="BZ31" s="10">
         <v>68489.143211841627</v>
       </c>
-      <c r="CA31" s="22">
+      <c r="CA31" s="10">
         <v>77705.220241054121</v>
       </c>
-      <c r="CB31" s="22">
+      <c r="CB31" s="10">
         <v>54279.494642159509</v>
       </c>
-      <c r="CC31" s="22">
+      <c r="CC31" s="10">
         <v>77632.074611923599</v>
       </c>
-      <c r="CD31" s="22">
+      <c r="CD31" s="10">
         <v>61585.987886369272</v>
       </c>
-      <c r="CE31" s="22">
+      <c r="CE31" s="10">
         <v>19632.918530349722</v>
       </c>
-      <c r="CF31" s="22">
+      <c r="CF31" s="10">
         <v>22057.829345798316</v>
       </c>
-      <c r="CG31" s="22">
+      <c r="CG31" s="10">
         <v>37867.593372515308</v>
       </c>
-      <c r="CH31" s="22">
+      <c r="CH31" s="20">
         <v>33570.762662069799</v>
       </c>
-      <c r="CI31" s="22">
+      <c r="CI31" s="20">
         <v>31824.27086371804</v>
       </c>
-      <c r="CJ31" s="22">
+      <c r="CJ31" s="20">
         <v>29870.330912766793</v>
       </c>
-      <c r="CK31" s="22">
+      <c r="CK31" s="20">
         <v>55752.301880555846</v>
       </c>
-      <c r="CL31" s="22">
-        <v>42443.314053516326</v>
-      </c>
-      <c r="CM31" s="11"/>
+      <c r="CL31" s="20">
+        <v>42540.061150244728</v>
+      </c>
+      <c r="CM31" s="20">
+        <v>49894.919114976088</v>
+      </c>
       <c r="CN31" s="11"/>
       <c r="CO31" s="11"/>
       <c r="CP31" s="11"/>
@@ -27642,7 +27554,7 @@
       <c r="EX31" s="11"/>
       <c r="EY31" s="11"/>
     </row>
-    <row r="32" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
@@ -27874,46 +27786,48 @@
       <c r="BY32" s="10">
         <v>40975.332004738171</v>
       </c>
-      <c r="BZ32" s="22">
+      <c r="BZ32" s="10">
         <v>45673.568240403547</v>
       </c>
-      <c r="CA32" s="22">
+      <c r="CA32" s="10">
         <v>38145.969916348404</v>
       </c>
-      <c r="CB32" s="22">
+      <c r="CB32" s="10">
         <v>33216.19543923204</v>
       </c>
-      <c r="CC32" s="22">
+      <c r="CC32" s="10">
         <v>43548.930942141553</v>
       </c>
-      <c r="CD32" s="22">
+      <c r="CD32" s="10">
         <v>41369.815682889341</v>
       </c>
-      <c r="CE32" s="22">
+      <c r="CE32" s="10">
         <v>22472.22600082789</v>
       </c>
-      <c r="CF32" s="22">
+      <c r="CF32" s="10">
         <v>22860.431135433821</v>
       </c>
-      <c r="CG32" s="22">
+      <c r="CG32" s="10">
         <v>30911.379465516111</v>
       </c>
-      <c r="CH32" s="22">
+      <c r="CH32" s="20">
         <v>29508.709154032811</v>
       </c>
-      <c r="CI32" s="22">
+      <c r="CI32" s="20">
         <v>26096.433565107174</v>
       </c>
-      <c r="CJ32" s="22">
+      <c r="CJ32" s="20">
         <v>23839.078751075409</v>
       </c>
-      <c r="CK32" s="22">
+      <c r="CK32" s="20">
         <v>33388.664453483907</v>
       </c>
-      <c r="CL32" s="22">
-        <v>34677.113003577018</v>
-      </c>
-      <c r="CM32" s="11"/>
+      <c r="CL32" s="20">
+        <v>34848.050801933299</v>
+      </c>
+      <c r="CM32" s="20">
+        <v>30882.391488383681</v>
+      </c>
       <c r="CN32" s="11"/>
       <c r="CO32" s="11"/>
       <c r="CP32" s="11"/>
@@ -27979,7 +27893,7 @@
       <c r="EX32" s="11"/>
       <c r="EY32" s="11"/>
     </row>
-    <row r="33" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
@@ -28056,20 +27970,20 @@
       <c r="BW33" s="13"/>
       <c r="BX33" s="13"/>
       <c r="BY33" s="13"/>
-      <c r="BZ33" s="23"/>
-      <c r="CA33" s="23"/>
-      <c r="CB33" s="23"/>
-      <c r="CC33" s="23"/>
-      <c r="CD33" s="23"/>
-      <c r="CE33" s="23"/>
-      <c r="CF33" s="23"/>
-      <c r="CG33" s="23"/>
-      <c r="CH33" s="23"/>
-      <c r="CI33" s="23"/>
-      <c r="CJ33" s="23"/>
-      <c r="CK33" s="23"/>
-      <c r="CL33" s="23"/>
-      <c r="CM33" s="11"/>
+      <c r="BZ33" s="13"/>
+      <c r="CA33" s="13"/>
+      <c r="CB33" s="13"/>
+      <c r="CC33" s="13"/>
+      <c r="CD33" s="13"/>
+      <c r="CE33" s="13"/>
+      <c r="CF33" s="13"/>
+      <c r="CG33" s="13"/>
+      <c r="CH33" s="21"/>
+      <c r="CI33" s="21"/>
+      <c r="CJ33" s="21"/>
+      <c r="CK33" s="21"/>
+      <c r="CL33" s="21"/>
+      <c r="CM33" s="21"/>
       <c r="CN33" s="11"/>
       <c r="CO33" s="11"/>
       <c r="CP33" s="11"/>
@@ -28135,7 +28049,7 @@
       <c r="EX33" s="11"/>
       <c r="EY33" s="11"/>
     </row>
-    <row r="34" spans="1:155" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:155" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
         <v>13</v>
       </c>
@@ -28367,46 +28281,48 @@
       <c r="BY34" s="13">
         <v>112192.93266277324</v>
       </c>
-      <c r="BZ34" s="23">
+      <c r="BZ34" s="13">
         <v>114162.71145224517</v>
       </c>
-      <c r="CA34" s="23">
+      <c r="CA34" s="13">
         <v>115851.19015740253</v>
       </c>
-      <c r="CB34" s="23">
+      <c r="CB34" s="13">
         <v>87495.690081391542</v>
       </c>
-      <c r="CC34" s="23">
+      <c r="CC34" s="13">
         <v>121181.00555406515</v>
       </c>
-      <c r="CD34" s="23">
+      <c r="CD34" s="13">
         <v>102955.80356925861</v>
       </c>
-      <c r="CE34" s="23">
+      <c r="CE34" s="13">
         <v>42105.144531177611</v>
       </c>
-      <c r="CF34" s="23">
+      <c r="CF34" s="13">
         <v>44918.260481232137</v>
       </c>
-      <c r="CG34" s="23">
+      <c r="CG34" s="13">
         <v>68778.972838031419</v>
       </c>
-      <c r="CH34" s="23">
+      <c r="CH34" s="21">
         <v>63079.47181610261</v>
       </c>
-      <c r="CI34" s="23">
+      <c r="CI34" s="21">
         <v>57920.704428825215</v>
       </c>
-      <c r="CJ34" s="23">
+      <c r="CJ34" s="21">
         <v>53709.409663842205</v>
       </c>
-      <c r="CK34" s="23">
+      <c r="CK34" s="21">
         <v>89140.966334039753</v>
       </c>
-      <c r="CL34" s="23">
-        <v>77120.427057093344</v>
-      </c>
-      <c r="CM34" s="11"/>
+      <c r="CL34" s="21">
+        <v>77388.111952178035</v>
+      </c>
+      <c r="CM34" s="21">
+        <v>80777.310603359772</v>
+      </c>
       <c r="CN34" s="11"/>
       <c r="CO34" s="11"/>
       <c r="CP34" s="11"/>
@@ -28472,7 +28388,7 @@
       <c r="EX34" s="11"/>
       <c r="EY34" s="11"/>
     </row>
-    <row r="35" spans="1:155" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:155" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -28550,21 +28466,22 @@
       <c r="BW35" s="15"/>
       <c r="BX35" s="15"/>
       <c r="BY35" s="15"/>
-      <c r="BZ35" s="24"/>
-      <c r="CA35" s="24"/>
-      <c r="CB35" s="24"/>
-      <c r="CC35" s="24"/>
-      <c r="CD35" s="24"/>
-      <c r="CE35" s="24"/>
-      <c r="CF35" s="24"/>
-      <c r="CG35" s="24"/>
-      <c r="CH35" s="24"/>
-      <c r="CI35" s="24"/>
-      <c r="CJ35" s="24"/>
-      <c r="CK35" s="24"/>
-      <c r="CL35" s="24"/>
+      <c r="BZ35" s="15"/>
+      <c r="CA35" s="15"/>
+      <c r="CB35" s="15"/>
+      <c r="CC35" s="15"/>
+      <c r="CD35" s="15"/>
+      <c r="CE35" s="15"/>
+      <c r="CF35" s="15"/>
+      <c r="CG35" s="15"/>
+      <c r="CH35" s="15"/>
+      <c r="CI35" s="15"/>
+      <c r="CJ35" s="15"/>
+      <c r="CK35" s="15"/>
+      <c r="CL35" s="15"/>
+      <c r="CM35" s="15"/>
     </row>
-    <row r="36" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>0</v>
       </c>
@@ -28644,21 +28561,22 @@
       <c r="BW36" s="1"/>
       <c r="BX36" s="1"/>
       <c r="BY36" s="1"/>
-      <c r="BZ36" s="20"/>
-      <c r="CA36" s="20"/>
-      <c r="CB36" s="20"/>
-      <c r="CC36" s="20"/>
-      <c r="CD36" s="20"/>
-      <c r="CE36" s="20"/>
-      <c r="CF36" s="20"/>
-      <c r="CG36" s="20"/>
-      <c r="CH36" s="20"/>
-      <c r="CI36" s="20"/>
-      <c r="CJ36" s="20"/>
-      <c r="CK36" s="20"/>
-      <c r="CL36" s="20"/>
+      <c r="BZ36" s="1"/>
+      <c r="CA36" s="1"/>
+      <c r="CB36" s="1"/>
+      <c r="CC36" s="1"/>
+      <c r="CD36" s="1"/>
+      <c r="CE36" s="1"/>
+      <c r="CF36" s="1"/>
+      <c r="CG36" s="1"/>
+      <c r="CH36" s="1"/>
+      <c r="CI36" s="1"/>
+      <c r="CJ36" s="1"/>
+      <c r="CK36" s="1"/>
+      <c r="CL36" s="1"/>
+      <c r="CM36" s="1"/>
     </row>
-    <row r="37" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
@@ -28735,20 +28653,20 @@
       <c r="BW37" s="17"/>
       <c r="BX37" s="17"/>
       <c r="BY37" s="17"/>
-      <c r="BZ37" s="25"/>
-      <c r="CA37" s="25"/>
-      <c r="CB37" s="25"/>
-      <c r="CC37" s="25"/>
-      <c r="CD37" s="25"/>
-      <c r="CE37" s="25"/>
-      <c r="CF37" s="25"/>
-      <c r="CG37" s="25"/>
-      <c r="CH37" s="25"/>
-      <c r="CI37" s="25"/>
-      <c r="CJ37" s="25"/>
-      <c r="CK37" s="25"/>
-      <c r="CL37" s="25"/>
-      <c r="CM37" s="11"/>
+      <c r="BZ37" s="17"/>
+      <c r="CA37" s="17"/>
+      <c r="CB37" s="17"/>
+      <c r="CC37" s="17"/>
+      <c r="CD37" s="17"/>
+      <c r="CE37" s="17"/>
+      <c r="CF37" s="17"/>
+      <c r="CG37" s="17"/>
+      <c r="CH37" s="17"/>
+      <c r="CI37" s="17"/>
+      <c r="CJ37" s="17"/>
+      <c r="CK37" s="17"/>
+      <c r="CL37" s="17"/>
+      <c r="CM37" s="17"/>
       <c r="CN37" s="11"/>
       <c r="CO37" s="11"/>
       <c r="CP37" s="11"/>
@@ -28814,7 +28732,7 @@
       <c r="EX37" s="11"/>
       <c r="EY37" s="11"/>
     </row>
-    <row r="38" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
@@ -28891,20 +28809,20 @@
       <c r="BW38" s="17"/>
       <c r="BX38" s="17"/>
       <c r="BY38" s="17"/>
-      <c r="BZ38" s="25"/>
-      <c r="CA38" s="25"/>
-      <c r="CB38" s="25"/>
-      <c r="CC38" s="25"/>
-      <c r="CD38" s="25"/>
-      <c r="CE38" s="25"/>
-      <c r="CF38" s="25"/>
-      <c r="CG38" s="25"/>
-      <c r="CH38" s="25"/>
-      <c r="CI38" s="25"/>
-      <c r="CJ38" s="25"/>
-      <c r="CK38" s="25"/>
-      <c r="CL38" s="25"/>
-      <c r="CM38" s="11"/>
+      <c r="BZ38" s="17"/>
+      <c r="CA38" s="17"/>
+      <c r="CB38" s="17"/>
+      <c r="CC38" s="17"/>
+      <c r="CD38" s="17"/>
+      <c r="CE38" s="17"/>
+      <c r="CF38" s="17"/>
+      <c r="CG38" s="17"/>
+      <c r="CH38" s="17"/>
+      <c r="CI38" s="17"/>
+      <c r="CJ38" s="17"/>
+      <c r="CK38" s="17"/>
+      <c r="CL38" s="17"/>
+      <c r="CM38" s="17"/>
       <c r="CN38" s="11"/>
       <c r="CO38" s="11"/>
       <c r="CP38" s="11"/>
@@ -28970,7 +28888,7 @@
       <c r="EX38" s="11"/>
       <c r="EY38" s="11"/>
     </row>
-    <row r="39" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>2</v>
       </c>
@@ -29050,21 +28968,22 @@
       <c r="BW39" s="1"/>
       <c r="BX39" s="1"/>
       <c r="BY39" s="1"/>
-      <c r="BZ39" s="20"/>
-      <c r="CA39" s="20"/>
-      <c r="CB39" s="20"/>
-      <c r="CC39" s="20"/>
-      <c r="CD39" s="20"/>
-      <c r="CE39" s="20"/>
-      <c r="CF39" s="20"/>
-      <c r="CG39" s="20"/>
-      <c r="CH39" s="20"/>
-      <c r="CI39" s="20"/>
-      <c r="CJ39" s="20"/>
-      <c r="CK39" s="20"/>
-      <c r="CL39" s="20"/>
+      <c r="BZ39" s="1"/>
+      <c r="CA39" s="1"/>
+      <c r="CB39" s="1"/>
+      <c r="CC39" s="1"/>
+      <c r="CD39" s="1"/>
+      <c r="CE39" s="1"/>
+      <c r="CF39" s="1"/>
+      <c r="CG39" s="1"/>
+      <c r="CH39" s="1"/>
+      <c r="CI39" s="1"/>
+      <c r="CJ39" s="1"/>
+      <c r="CK39" s="1"/>
+      <c r="CL39" s="1"/>
+      <c r="CM39" s="1"/>
     </row>
-    <row r="40" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
@@ -29144,21 +29063,22 @@
       <c r="BW40" s="1"/>
       <c r="BX40" s="1"/>
       <c r="BY40" s="1"/>
-      <c r="BZ40" s="20"/>
-      <c r="CA40" s="20"/>
-      <c r="CB40" s="20"/>
-      <c r="CC40" s="20"/>
-      <c r="CD40" s="20"/>
-      <c r="CE40" s="20"/>
-      <c r="CF40" s="20"/>
-      <c r="CG40" s="20"/>
-      <c r="CH40" s="20"/>
-      <c r="CI40" s="20"/>
-      <c r="CJ40" s="20"/>
-      <c r="CK40" s="20"/>
-      <c r="CL40" s="20"/>
+      <c r="BZ40" s="1"/>
+      <c r="CA40" s="1"/>
+      <c r="CB40" s="1"/>
+      <c r="CC40" s="1"/>
+      <c r="CD40" s="1"/>
+      <c r="CE40" s="1"/>
+      <c r="CF40" s="1"/>
+      <c r="CG40" s="1"/>
+      <c r="CH40" s="1"/>
+      <c r="CI40" s="1"/>
+      <c r="CJ40" s="1"/>
+      <c r="CK40" s="1"/>
+      <c r="CL40" s="1"/>
+      <c r="CM40" s="1"/>
     </row>
-    <row r="41" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>48</v>
       </c>
@@ -29238,21 +29158,22 @@
       <c r="BW41" s="1"/>
       <c r="BX41" s="1"/>
       <c r="BY41" s="1"/>
-      <c r="BZ41" s="20"/>
-      <c r="CA41" s="20"/>
-      <c r="CB41" s="20"/>
-      <c r="CC41" s="20"/>
-      <c r="CD41" s="20"/>
-      <c r="CE41" s="20"/>
-      <c r="CF41" s="20"/>
-      <c r="CG41" s="20"/>
-      <c r="CH41" s="20"/>
-      <c r="CI41" s="20"/>
-      <c r="CJ41" s="20"/>
-      <c r="CK41" s="20"/>
-      <c r="CL41" s="20"/>
+      <c r="BZ41" s="1"/>
+      <c r="CA41" s="1"/>
+      <c r="CB41" s="1"/>
+      <c r="CC41" s="1"/>
+      <c r="CD41" s="1"/>
+      <c r="CE41" s="1"/>
+      <c r="CF41" s="1"/>
+      <c r="CG41" s="1"/>
+      <c r="CH41" s="1"/>
+      <c r="CI41" s="1"/>
+      <c r="CJ41" s="1"/>
+      <c r="CK41" s="1"/>
+      <c r="CL41" s="1"/>
+      <c r="CM41" s="1"/>
     </row>
-    <row r="42" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -29330,21 +29251,22 @@
       <c r="BW42" s="1"/>
       <c r="BX42" s="1"/>
       <c r="BY42" s="1"/>
-      <c r="BZ42" s="20"/>
-      <c r="CA42" s="20"/>
-      <c r="CB42" s="20"/>
-      <c r="CC42" s="20"/>
-      <c r="CD42" s="20"/>
-      <c r="CE42" s="20"/>
-      <c r="CF42" s="20"/>
-      <c r="CG42" s="20"/>
-      <c r="CH42" s="20"/>
-      <c r="CI42" s="20"/>
-      <c r="CJ42" s="20"/>
-      <c r="CK42" s="20"/>
-      <c r="CL42" s="20"/>
+      <c r="BZ42" s="1"/>
+      <c r="CA42" s="1"/>
+      <c r="CB42" s="1"/>
+      <c r="CC42" s="1"/>
+      <c r="CD42" s="1"/>
+      <c r="CE42" s="1"/>
+      <c r="CF42" s="1"/>
+      <c r="CG42" s="1"/>
+      <c r="CH42" s="1"/>
+      <c r="CI42" s="1"/>
+      <c r="CJ42" s="1"/>
+      <c r="CK42" s="1"/>
+      <c r="CL42" s="1"/>
+      <c r="CM42" s="1"/>
     </row>
-    <row r="43" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>16</v>
       </c>
@@ -29424,21 +29346,22 @@
       <c r="BW43" s="1"/>
       <c r="BX43" s="1"/>
       <c r="BY43" s="1"/>
-      <c r="BZ43" s="20"/>
-      <c r="CA43" s="20"/>
-      <c r="CB43" s="20"/>
-      <c r="CC43" s="20"/>
-      <c r="CD43" s="20"/>
-      <c r="CE43" s="20"/>
-      <c r="CF43" s="20"/>
-      <c r="CG43" s="20"/>
-      <c r="CH43" s="20"/>
-      <c r="CI43" s="20"/>
-      <c r="CJ43" s="20"/>
-      <c r="CK43" s="20"/>
-      <c r="CL43" s="20"/>
+      <c r="BZ43" s="1"/>
+      <c r="CA43" s="1"/>
+      <c r="CB43" s="1"/>
+      <c r="CC43" s="1"/>
+      <c r="CD43" s="1"/>
+      <c r="CE43" s="1"/>
+      <c r="CF43" s="1"/>
+      <c r="CG43" s="1"/>
+      <c r="CH43" s="1"/>
+      <c r="CI43" s="1"/>
+      <c r="CJ43" s="1"/>
+      <c r="CK43" s="1"/>
+      <c r="CL43" s="1"/>
+      <c r="CM43" s="1"/>
     </row>
-    <row r="44" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>50</v>
       </c>
@@ -29518,23 +29441,22 @@
       <c r="BW44" s="1"/>
       <c r="BX44" s="1"/>
       <c r="BY44" s="1"/>
-      <c r="BZ44" s="20"/>
-      <c r="CA44" s="20"/>
-      <c r="CB44" s="20"/>
-      <c r="CC44" s="20"/>
-      <c r="CD44" s="20"/>
-      <c r="CE44" s="20"/>
-      <c r="CF44" s="20"/>
-      <c r="CG44" s="20"/>
-      <c r="CH44" s="20"/>
-      <c r="CI44" s="37"/>
-      <c r="CJ44" s="37"/>
-      <c r="CK44" s="37"/>
-      <c r="CL44" s="37"/>
-      <c r="CM44" s="38"/>
-      <c r="CN44" s="38"/>
+      <c r="BZ44" s="1"/>
+      <c r="CA44" s="1"/>
+      <c r="CB44" s="1"/>
+      <c r="CC44" s="1"/>
+      <c r="CD44" s="1"/>
+      <c r="CE44" s="1"/>
+      <c r="CF44" s="1"/>
+      <c r="CG44" s="1"/>
+      <c r="CH44" s="1"/>
+      <c r="CI44" s="1"/>
+      <c r="CJ44" s="1"/>
+      <c r="CK44" s="1"/>
+      <c r="CL44" s="1"/>
+      <c r="CM44" s="1"/>
     </row>
-    <row r="45" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>21</v>
       </c>
@@ -29614,23 +29536,16 @@
       <c r="BW45" s="1"/>
       <c r="BX45" s="1"/>
       <c r="BY45" s="1"/>
-      <c r="BZ45" s="20"/>
-      <c r="CA45" s="20"/>
-      <c r="CB45" s="20"/>
-      <c r="CC45" s="19"/>
-      <c r="CD45" s="19"/>
-      <c r="CE45" s="19"/>
-      <c r="CF45" s="19"/>
-      <c r="CG45" s="19"/>
-      <c r="CH45" s="19"/>
-      <c r="CI45" s="39"/>
-      <c r="CJ45" s="39"/>
-      <c r="CK45" s="39"/>
-      <c r="CL45" s="39"/>
-      <c r="CM45" s="38"/>
-      <c r="CN45" s="38"/>
+      <c r="BZ45" s="1"/>
+      <c r="CA45" s="1"/>
+      <c r="CB45" s="1"/>
+      <c r="CC45" s="1"/>
+      <c r="CD45" s="1"/>
+      <c r="CE45" s="1"/>
+      <c r="CF45" s="1"/>
+      <c r="CG45" s="1"/>
     </row>
-    <row r="46" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -29708,161 +29623,159 @@
       <c r="BW46" s="1"/>
       <c r="BX46" s="1"/>
       <c r="BY46" s="1"/>
-      <c r="BZ46" s="20"/>
-      <c r="CA46" s="20"/>
-      <c r="CB46" s="20"/>
-      <c r="CC46" s="20"/>
-      <c r="CD46" s="20"/>
-      <c r="CE46" s="20"/>
-      <c r="CF46" s="20"/>
-      <c r="CG46" s="20"/>
-      <c r="CH46" s="20"/>
-      <c r="CI46" s="37"/>
-      <c r="CJ46" s="37"/>
-      <c r="CK46" s="37"/>
-      <c r="CL46" s="37"/>
-      <c r="CM46" s="38"/>
-      <c r="CN46" s="38"/>
+      <c r="BZ46" s="1"/>
+      <c r="CA46" s="1"/>
+      <c r="CB46" s="1"/>
+      <c r="CC46" s="1"/>
+      <c r="CD46" s="1"/>
+      <c r="CE46" s="1"/>
+      <c r="CF46" s="1"/>
+      <c r="CG46" s="1"/>
+      <c r="CH46" s="1"/>
+      <c r="CI46" s="1"/>
+      <c r="CJ46" s="1"/>
+      <c r="CK46" s="1"/>
+      <c r="CL46" s="1"/>
+      <c r="CM46" s="1"/>
     </row>
-    <row r="47" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
-      <c r="B47" s="33" t="s">
+      <c r="B47" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33" t="s">
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="33" t="s">
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="33"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="33"/>
-      <c r="N47" s="33" t="s">
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="33"/>
-      <c r="P47" s="33"/>
-      <c r="Q47" s="33"/>
-      <c r="R47" s="33" t="s">
+      <c r="O47" s="24"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="33"/>
-      <c r="T47" s="33"/>
-      <c r="U47" s="33"/>
-      <c r="V47" s="33" t="s">
+      <c r="S47" s="24"/>
+      <c r="T47" s="24"/>
+      <c r="U47" s="24"/>
+      <c r="V47" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="33"/>
-      <c r="X47" s="33"/>
-      <c r="Y47" s="33"/>
-      <c r="Z47" s="33" t="s">
+      <c r="W47" s="24"/>
+      <c r="X47" s="24"/>
+      <c r="Y47" s="24"/>
+      <c r="Z47" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="33"/>
-      <c r="AB47" s="33"/>
-      <c r="AC47" s="33"/>
-      <c r="AD47" s="33" t="s">
+      <c r="AA47" s="24"/>
+      <c r="AB47" s="24"/>
+      <c r="AC47" s="24"/>
+      <c r="AD47" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="33"/>
-      <c r="AF47" s="33"/>
-      <c r="AG47" s="33"/>
-      <c r="AH47" s="33" t="s">
+      <c r="AE47" s="24"/>
+      <c r="AF47" s="24"/>
+      <c r="AG47" s="24"/>
+      <c r="AH47" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="33"/>
-      <c r="AJ47" s="33"/>
-      <c r="AK47" s="33"/>
-      <c r="AL47" s="33" t="s">
+      <c r="AI47" s="24"/>
+      <c r="AJ47" s="24"/>
+      <c r="AK47" s="24"/>
+      <c r="AL47" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="33"/>
-      <c r="AN47" s="33"/>
-      <c r="AO47" s="33"/>
-      <c r="AP47" s="33" t="s">
+      <c r="AM47" s="24"/>
+      <c r="AN47" s="24"/>
+      <c r="AO47" s="24"/>
+      <c r="AP47" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="33"/>
-      <c r="AR47" s="33"/>
-      <c r="AS47" s="33"/>
-      <c r="AT47" s="33" t="s">
+      <c r="AQ47" s="24"/>
+      <c r="AR47" s="24"/>
+      <c r="AS47" s="24"/>
+      <c r="AT47" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="33"/>
-      <c r="AV47" s="33"/>
-      <c r="AW47" s="33"/>
-      <c r="AX47" s="33" t="s">
+      <c r="AU47" s="24"/>
+      <c r="AV47" s="24"/>
+      <c r="AW47" s="24"/>
+      <c r="AX47" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="33"/>
-      <c r="AZ47" s="33"/>
-      <c r="BA47" s="33"/>
-      <c r="BB47" s="33" t="s">
+      <c r="AY47" s="24"/>
+      <c r="AZ47" s="24"/>
+      <c r="BA47" s="24"/>
+      <c r="BB47" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="33"/>
-      <c r="BD47" s="33"/>
-      <c r="BE47" s="33"/>
-      <c r="BF47" s="33" t="s">
+      <c r="BC47" s="24"/>
+      <c r="BD47" s="24"/>
+      <c r="BE47" s="24"/>
+      <c r="BF47" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="33"/>
-      <c r="BH47" s="33"/>
-      <c r="BI47" s="33"/>
-      <c r="BJ47" s="33" t="s">
+      <c r="BG47" s="24"/>
+      <c r="BH47" s="24"/>
+      <c r="BI47" s="24"/>
+      <c r="BJ47" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="33"/>
-      <c r="BL47" s="33"/>
-      <c r="BM47" s="33"/>
-      <c r="BN47" s="33" t="s">
+      <c r="BK47" s="24"/>
+      <c r="BL47" s="24"/>
+      <c r="BM47" s="24"/>
+      <c r="BN47" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="33"/>
-      <c r="BP47" s="33"/>
-      <c r="BQ47" s="33"/>
-      <c r="BR47" s="33" t="s">
+      <c r="BO47" s="24"/>
+      <c r="BP47" s="24"/>
+      <c r="BQ47" s="24"/>
+      <c r="BR47" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="BS47" s="33"/>
-      <c r="BT47" s="33"/>
-      <c r="BU47" s="33"/>
-      <c r="BV47" s="33" t="s">
+      <c r="BS47" s="24"/>
+      <c r="BT47" s="24"/>
+      <c r="BU47" s="24"/>
+      <c r="BV47" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="BW47" s="33"/>
-      <c r="BX47" s="33"/>
-      <c r="BY47" s="33"/>
-      <c r="BZ47" s="31" t="s">
+      <c r="BW47" s="24"/>
+      <c r="BX47" s="24"/>
+      <c r="BY47" s="24"/>
+      <c r="BZ47" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="31"/>
-      <c r="CB47" s="31"/>
-      <c r="CC47" s="31"/>
-      <c r="CD47" s="32" t="s">
+      <c r="CA47" s="24"/>
+      <c r="CB47" s="24"/>
+      <c r="CC47" s="24"/>
+      <c r="CD47" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="32"/>
-      <c r="CF47" s="32"/>
-      <c r="CG47" s="32"/>
-      <c r="CH47" s="30" t="s">
+      <c r="CE47" s="24"/>
+      <c r="CF47" s="24"/>
+      <c r="CG47" s="24"/>
+      <c r="CH47" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="CI47" s="40"/>
-      <c r="CJ47" s="40"/>
-      <c r="CK47" s="40"/>
-      <c r="CL47" s="41"/>
-      <c r="CM47" s="38"/>
-      <c r="CN47" s="38"/>
+      <c r="CI47" s="24"/>
+      <c r="CJ47" s="23"/>
+      <c r="CK47" s="23"/>
+      <c r="CL47" s="19"/>
+      <c r="CM47" s="19"/>
     </row>
-    <row r="48" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>4</v>
       </c>
@@ -30094,41 +30007,42 @@
       <c r="BY48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ48" s="29" t="s">
+      <c r="BZ48" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CA48" s="29" t="s">
+      <c r="CA48" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CB48" s="29" t="s">
+      <c r="CB48" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CC48" s="29" t="s">
+      <c r="CC48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CD48" s="29" t="s">
+      <c r="CD48" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CE48" s="29" t="s">
+      <c r="CE48" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CF48" s="29" t="s">
+      <c r="CF48" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CG48" s="29" t="s">
+      <c r="CG48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CH48" s="29" t="s">
+      <c r="CH48" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CI48" s="40"/>
-      <c r="CJ48" s="40"/>
-      <c r="CK48" s="40"/>
-      <c r="CL48" s="40"/>
-      <c r="CM48" s="38"/>
-      <c r="CN48" s="38"/>
+      <c r="CI48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="CJ48" s="6"/>
+      <c r="CK48" s="6"/>
+      <c r="CL48" s="6"/>
+      <c r="CM48" s="22"/>
     </row>
-    <row r="49" spans="1:151" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:151" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -30206,23 +30120,22 @@
       <c r="BW49" s="1"/>
       <c r="BX49" s="1"/>
       <c r="BY49" s="1"/>
-      <c r="BZ49" s="20"/>
-      <c r="CA49" s="20"/>
-      <c r="CB49" s="20"/>
-      <c r="CC49" s="20"/>
-      <c r="CD49" s="20"/>
-      <c r="CE49" s="20"/>
-      <c r="CF49" s="20"/>
-      <c r="CG49" s="20"/>
-      <c r="CH49" s="20"/>
-      <c r="CI49" s="37"/>
-      <c r="CJ49" s="37"/>
-      <c r="CK49" s="37"/>
-      <c r="CL49" s="37"/>
-      <c r="CM49" s="38"/>
-      <c r="CN49" s="38"/>
+      <c r="BZ49" s="1"/>
+      <c r="CA49" s="1"/>
+      <c r="CB49" s="1"/>
+      <c r="CC49" s="1"/>
+      <c r="CD49" s="1"/>
+      <c r="CE49" s="1"/>
+      <c r="CF49" s="1"/>
+      <c r="CG49" s="1"/>
+      <c r="CH49" s="1"/>
+      <c r="CI49" s="1"/>
+      <c r="CJ49" s="1"/>
+      <c r="CK49" s="1"/>
+      <c r="CL49" s="1"/>
+      <c r="CM49" s="1"/>
     </row>
-    <row r="50" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>11</v>
       </c>
@@ -30454,39 +30367,41 @@
       <c r="BY50" s="18">
         <v>13.013989505161575</v>
       </c>
-      <c r="BZ50" s="27">
+      <c r="BZ50" s="18">
         <v>-8.6303853487852251</v>
       </c>
-      <c r="CA50" s="27">
+      <c r="CA50" s="18">
         <v>-74.333524767771053</v>
       </c>
-      <c r="CB50" s="27">
+      <c r="CB50" s="18">
         <v>-59.35546449493286</v>
       </c>
-      <c r="CC50" s="27">
+      <c r="CC50" s="18">
         <v>-51.718105860567086</v>
       </c>
-      <c r="CD50" s="27">
+      <c r="CD50" s="18">
         <v>-46.132896988566351</v>
       </c>
-      <c r="CE50" s="27">
+      <c r="CE50" s="18">
         <v>59.74341911893805</v>
       </c>
-      <c r="CF50" s="27">
+      <c r="CF50" s="18">
         <v>35.114036301456025</v>
       </c>
-      <c r="CG50" s="27">
+      <c r="CG50" s="18">
         <v>47.964184651382965</v>
       </c>
-      <c r="CH50" s="27">
-        <v>27.890474976059963</v>
-      </c>
-      <c r="CI50" s="42"/>
-      <c r="CJ50" s="42"/>
-      <c r="CK50" s="42"/>
-      <c r="CL50" s="42"/>
-      <c r="CM50" s="43"/>
-      <c r="CN50" s="43"/>
+      <c r="CH50" s="18">
+        <v>28.181993968604928</v>
+      </c>
+      <c r="CI50" s="18">
+        <v>58.082918772865099</v>
+      </c>
+      <c r="CJ50" s="18"/>
+      <c r="CK50" s="18"/>
+      <c r="CL50" s="18"/>
+      <c r="CM50" s="17"/>
+      <c r="CN50" s="11"/>
       <c r="CO50" s="11"/>
       <c r="CP50" s="11"/>
       <c r="CQ50" s="11"/>
@@ -30547,7 +30462,7 @@
       <c r="ET50" s="11"/>
       <c r="EU50" s="11"/>
     </row>
-    <row r="51" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>12</v>
       </c>
@@ -30779,39 +30694,41 @@
       <c r="BY51" s="18">
         <v>6.5069067353461776</v>
       </c>
-      <c r="BZ51" s="27">
+      <c r="BZ51" s="18">
         <v>-4.9889243521995041</v>
       </c>
-      <c r="CA51" s="27">
+      <c r="CA51" s="18">
         <v>-37.985123272153196</v>
       </c>
-      <c r="CB51" s="27">
+      <c r="CB51" s="18">
         <v>-27.171798583648581</v>
       </c>
-      <c r="CC51" s="27">
+      <c r="CC51" s="18">
         <v>-24.746365622775841</v>
       </c>
-      <c r="CD51" s="27">
+      <c r="CD51" s="18">
         <v>-24.74954127664212</v>
       </c>
-      <c r="CE51" s="27">
+      <c r="CE51" s="18">
         <v>20.539579694353137</v>
       </c>
-      <c r="CF51" s="27">
+      <c r="CF51" s="18">
         <v>6.8502194788742088</v>
       </c>
-      <c r="CG51" s="27">
+      <c r="CG51" s="18">
         <v>10.285115913526326</v>
       </c>
-      <c r="CH51" s="27">
-        <v>18.797541369194576</v>
-      </c>
-      <c r="CI51" s="42"/>
-      <c r="CJ51" s="42"/>
-      <c r="CK51" s="42"/>
-      <c r="CL51" s="42"/>
-      <c r="CM51" s="43"/>
-      <c r="CN51" s="43"/>
+      <c r="CH51" s="18">
+        <v>19.383143468472497</v>
+      </c>
+      <c r="CI51" s="18">
+        <v>18.521481319561389</v>
+      </c>
+      <c r="CJ51" s="18"/>
+      <c r="CK51" s="18"/>
+      <c r="CL51" s="18"/>
+      <c r="CM51" s="17"/>
+      <c r="CN51" s="11"/>
       <c r="CO51" s="11"/>
       <c r="CP51" s="11"/>
       <c r="CQ51" s="11"/>
@@ -30872,7 +30789,7 @@
       <c r="ET51" s="11"/>
       <c r="EU51" s="11"/>
     </row>
-    <row r="52" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
@@ -30950,21 +30867,21 @@
       <c r="BW52" s="17"/>
       <c r="BX52" s="17"/>
       <c r="BY52" s="17"/>
-      <c r="BZ52" s="25"/>
-      <c r="CA52" s="25"/>
-      <c r="CB52" s="25"/>
-      <c r="CC52" s="25"/>
-      <c r="CD52" s="25"/>
-      <c r="CE52" s="25"/>
-      <c r="CF52" s="25"/>
-      <c r="CG52" s="25"/>
-      <c r="CH52" s="25"/>
-      <c r="CI52" s="42"/>
-      <c r="CJ52" s="42"/>
-      <c r="CK52" s="42"/>
-      <c r="CL52" s="42"/>
-      <c r="CM52" s="43"/>
-      <c r="CN52" s="43"/>
+      <c r="BZ52" s="17"/>
+      <c r="CA52" s="17"/>
+      <c r="CB52" s="17"/>
+      <c r="CC52" s="17"/>
+      <c r="CD52" s="17"/>
+      <c r="CE52" s="17"/>
+      <c r="CF52" s="17"/>
+      <c r="CG52" s="17"/>
+      <c r="CH52" s="17"/>
+      <c r="CI52" s="17"/>
+      <c r="CJ52" s="17"/>
+      <c r="CK52" s="17"/>
+      <c r="CL52" s="17"/>
+      <c r="CM52" s="17"/>
+      <c r="CN52" s="11"/>
       <c r="CO52" s="11"/>
       <c r="CP52" s="11"/>
       <c r="CQ52" s="11"/>
@@ -31025,7 +30942,7 @@
       <c r="ET52" s="11"/>
       <c r="EU52" s="11"/>
     </row>
-    <row r="53" spans="1:151" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:151" ht="18" x14ac:dyDescent="0.35">
       <c r="A53" s="14" t="s">
         <v>13</v>
       </c>
@@ -31257,39 +31174,41 @@
       <c r="BY53" s="18">
         <v>10.638485189560413</v>
       </c>
-      <c r="BZ53" s="27">
+      <c r="BZ53" s="18">
         <v>-7.185926223613464</v>
       </c>
-      <c r="CA53" s="27">
+      <c r="CA53" s="18">
         <v>-62.560681781515484</v>
       </c>
-      <c r="CB53" s="27">
+      <c r="CB53" s="18">
         <v>-47.370672021399152</v>
       </c>
-      <c r="CC53" s="27">
+      <c r="CC53" s="18">
         <v>-42.239378932840353</v>
       </c>
-      <c r="CD53" s="27">
+      <c r="CD53" s="18">
         <v>-37.44997589142416</v>
       </c>
-      <c r="CE53" s="27">
+      <c r="CE53" s="18">
         <v>38.710837141023745</v>
       </c>
-      <c r="CF53" s="27">
+      <c r="CF53" s="18">
         <v>20.549469331725362</v>
       </c>
-      <c r="CG53" s="27">
+      <c r="CG53" s="18">
         <v>30.71228876238419</v>
       </c>
-      <c r="CH53" s="27">
-        <v>23.448504328743837</v>
-      </c>
-      <c r="CI53" s="42"/>
-      <c r="CJ53" s="42"/>
-      <c r="CK53" s="42"/>
-      <c r="CL53" s="42"/>
-      <c r="CM53" s="43"/>
-      <c r="CN53" s="43"/>
+      <c r="CH53" s="18">
+        <v>23.883685266317528</v>
+      </c>
+      <c r="CI53" s="18">
+        <v>39.638909502277698</v>
+      </c>
+      <c r="CJ53" s="18"/>
+      <c r="CK53" s="18"/>
+      <c r="CL53" s="18"/>
+      <c r="CM53" s="17"/>
+      <c r="CN53" s="11"/>
       <c r="CO53" s="11"/>
       <c r="CP53" s="11"/>
       <c r="CQ53" s="11"/>
@@ -31350,7 +31269,7 @@
       <c r="ET53" s="11"/>
       <c r="EU53" s="11"/>
     </row>
-    <row r="54" spans="1:151" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:151" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
@@ -31428,23 +31347,22 @@
       <c r="BW54" s="15"/>
       <c r="BX54" s="15"/>
       <c r="BY54" s="15"/>
-      <c r="BZ54" s="24"/>
-      <c r="CA54" s="24"/>
-      <c r="CB54" s="24"/>
-      <c r="CC54" s="24"/>
-      <c r="CD54" s="24"/>
-      <c r="CE54" s="24"/>
-      <c r="CF54" s="24"/>
-      <c r="CG54" s="24"/>
-      <c r="CH54" s="24"/>
-      <c r="CI54" s="44"/>
-      <c r="CJ54" s="44"/>
-      <c r="CK54" s="44"/>
-      <c r="CL54" s="44"/>
-      <c r="CM54" s="38"/>
-      <c r="CN54" s="38"/>
+      <c r="BZ54" s="15"/>
+      <c r="CA54" s="15"/>
+      <c r="CB54" s="15"/>
+      <c r="CC54" s="15"/>
+      <c r="CD54" s="15"/>
+      <c r="CE54" s="15"/>
+      <c r="CF54" s="15"/>
+      <c r="CG54" s="15"/>
+      <c r="CH54" s="15"/>
+      <c r="CI54" s="15"/>
+      <c r="CJ54" s="15"/>
+      <c r="CK54" s="15"/>
+      <c r="CL54" s="15"/>
+      <c r="CM54" s="15"/>
     </row>
-    <row r="55" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>0</v>
       </c>
@@ -31524,23 +31442,22 @@
       <c r="BW55" s="1"/>
       <c r="BX55" s="1"/>
       <c r="BY55" s="1"/>
-      <c r="BZ55" s="20"/>
-      <c r="CA55" s="20"/>
-      <c r="CB55" s="20"/>
-      <c r="CC55" s="20"/>
-      <c r="CD55" s="20"/>
-      <c r="CE55" s="20"/>
-      <c r="CF55" s="20"/>
-      <c r="CG55" s="20"/>
-      <c r="CH55" s="20"/>
-      <c r="CI55" s="37"/>
-      <c r="CJ55" s="37"/>
-      <c r="CK55" s="37"/>
-      <c r="CL55" s="37"/>
-      <c r="CM55" s="38"/>
-      <c r="CN55" s="38"/>
+      <c r="BZ55" s="1"/>
+      <c r="CA55" s="1"/>
+      <c r="CB55" s="1"/>
+      <c r="CC55" s="1"/>
+      <c r="CD55" s="1"/>
+      <c r="CE55" s="1"/>
+      <c r="CF55" s="1"/>
+      <c r="CG55" s="1"/>
+      <c r="CH55" s="1"/>
+      <c r="CI55" s="1"/>
+      <c r="CJ55" s="1"/>
+      <c r="CK55" s="1"/>
+      <c r="CL55" s="1"/>
+      <c r="CM55" s="1"/>
     </row>
-    <row r="56" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
@@ -31617,21 +31534,21 @@
       <c r="BW56" s="17"/>
       <c r="BX56" s="17"/>
       <c r="BY56" s="17"/>
-      <c r="BZ56" s="25"/>
-      <c r="CA56" s="25"/>
-      <c r="CB56" s="25"/>
-      <c r="CC56" s="25"/>
-      <c r="CD56" s="25"/>
-      <c r="CE56" s="25"/>
-      <c r="CF56" s="25"/>
-      <c r="CG56" s="25"/>
-      <c r="CH56" s="25"/>
-      <c r="CI56" s="42"/>
-      <c r="CJ56" s="42"/>
-      <c r="CK56" s="42"/>
-      <c r="CL56" s="42"/>
-      <c r="CM56" s="43"/>
-      <c r="CN56" s="43"/>
+      <c r="BZ56" s="17"/>
+      <c r="CA56" s="17"/>
+      <c r="CB56" s="17"/>
+      <c r="CC56" s="17"/>
+      <c r="CD56" s="17"/>
+      <c r="CE56" s="17"/>
+      <c r="CF56" s="17"/>
+      <c r="CG56" s="17"/>
+      <c r="CH56" s="17"/>
+      <c r="CI56" s="17"/>
+      <c r="CJ56" s="17"/>
+      <c r="CK56" s="17"/>
+      <c r="CL56" s="17"/>
+      <c r="CM56" s="17"/>
+      <c r="CN56" s="11"/>
       <c r="CO56" s="11"/>
       <c r="CP56" s="11"/>
       <c r="CQ56" s="11"/>
@@ -31692,7 +31609,7 @@
       <c r="ET56" s="11"/>
       <c r="EU56" s="11"/>
     </row>
-    <row r="57" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
       <c r="D57" s="17"/>
@@ -31769,21 +31686,21 @@
       <c r="BW57" s="17"/>
       <c r="BX57" s="17"/>
       <c r="BY57" s="17"/>
-      <c r="BZ57" s="25"/>
-      <c r="CA57" s="25"/>
-      <c r="CB57" s="25"/>
-      <c r="CC57" s="25"/>
-      <c r="CD57" s="25"/>
-      <c r="CE57" s="25"/>
-      <c r="CF57" s="25"/>
-      <c r="CG57" s="25"/>
-      <c r="CH57" s="25"/>
-      <c r="CI57" s="42"/>
-      <c r="CJ57" s="42"/>
-      <c r="CK57" s="42"/>
-      <c r="CL57" s="42"/>
-      <c r="CM57" s="43"/>
-      <c r="CN57" s="43"/>
+      <c r="BZ57" s="17"/>
+      <c r="CA57" s="17"/>
+      <c r="CB57" s="17"/>
+      <c r="CC57" s="17"/>
+      <c r="CD57" s="17"/>
+      <c r="CE57" s="17"/>
+      <c r="CF57" s="17"/>
+      <c r="CG57" s="17"/>
+      <c r="CH57" s="17"/>
+      <c r="CI57" s="17"/>
+      <c r="CJ57" s="17"/>
+      <c r="CK57" s="17"/>
+      <c r="CL57" s="17"/>
+      <c r="CM57" s="17"/>
+      <c r="CN57" s="11"/>
       <c r="CO57" s="11"/>
       <c r="CP57" s="11"/>
       <c r="CQ57" s="11"/>
@@ -31844,7 +31761,7 @@
       <c r="ET57" s="11"/>
       <c r="EU57" s="11"/>
     </row>
-    <row r="58" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>2</v>
       </c>
@@ -31924,23 +31841,22 @@
       <c r="BW58" s="1"/>
       <c r="BX58" s="1"/>
       <c r="BY58" s="1"/>
-      <c r="BZ58" s="20"/>
-      <c r="CA58" s="20"/>
-      <c r="CB58" s="20"/>
-      <c r="CC58" s="20"/>
-      <c r="CD58" s="20"/>
-      <c r="CE58" s="20"/>
-      <c r="CF58" s="20"/>
-      <c r="CG58" s="20"/>
-      <c r="CH58" s="20"/>
-      <c r="CI58" s="37"/>
-      <c r="CJ58" s="37"/>
-      <c r="CK58" s="37"/>
-      <c r="CL58" s="37"/>
-      <c r="CM58" s="38"/>
-      <c r="CN58" s="38"/>
+      <c r="BZ58" s="1"/>
+      <c r="CA58" s="1"/>
+      <c r="CB58" s="1"/>
+      <c r="CC58" s="1"/>
+      <c r="CD58" s="1"/>
+      <c r="CE58" s="1"/>
+      <c r="CF58" s="1"/>
+      <c r="CG58" s="1"/>
+      <c r="CH58" s="1"/>
+      <c r="CI58" s="1"/>
+      <c r="CJ58" s="1"/>
+      <c r="CK58" s="1"/>
+      <c r="CL58" s="1"/>
+      <c r="CM58" s="1"/>
     </row>
-    <row r="59" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>1</v>
       </c>
@@ -32020,23 +31936,22 @@
       <c r="BW59" s="1"/>
       <c r="BX59" s="1"/>
       <c r="BY59" s="1"/>
-      <c r="BZ59" s="20"/>
-      <c r="CA59" s="20"/>
-      <c r="CB59" s="20"/>
-      <c r="CC59" s="20"/>
-      <c r="CD59" s="20"/>
-      <c r="CE59" s="20"/>
-      <c r="CF59" s="20"/>
-      <c r="CG59" s="20"/>
-      <c r="CH59" s="20"/>
-      <c r="CI59" s="37"/>
-      <c r="CJ59" s="37"/>
-      <c r="CK59" s="37"/>
-      <c r="CL59" s="37"/>
-      <c r="CM59" s="38"/>
-      <c r="CN59" s="38"/>
+      <c r="BZ59" s="1"/>
+      <c r="CA59" s="1"/>
+      <c r="CB59" s="1"/>
+      <c r="CC59" s="1"/>
+      <c r="CD59" s="1"/>
+      <c r="CE59" s="1"/>
+      <c r="CF59" s="1"/>
+      <c r="CG59" s="1"/>
+      <c r="CH59" s="1"/>
+      <c r="CI59" s="1"/>
+      <c r="CJ59" s="1"/>
+      <c r="CK59" s="1"/>
+      <c r="CL59" s="1"/>
+      <c r="CM59" s="1"/>
     </row>
-    <row r="60" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>48</v>
       </c>
@@ -32116,23 +32031,22 @@
       <c r="BW60" s="1"/>
       <c r="BX60" s="1"/>
       <c r="BY60" s="1"/>
-      <c r="BZ60" s="20"/>
-      <c r="CA60" s="20"/>
-      <c r="CB60" s="20"/>
-      <c r="CC60" s="20"/>
-      <c r="CD60" s="20"/>
-      <c r="CE60" s="20"/>
-      <c r="CF60" s="20"/>
-      <c r="CG60" s="20"/>
-      <c r="CH60" s="20"/>
-      <c r="CI60" s="37"/>
-      <c r="CJ60" s="37"/>
-      <c r="CK60" s="37"/>
-      <c r="CL60" s="37"/>
-      <c r="CM60" s="38"/>
-      <c r="CN60" s="38"/>
+      <c r="BZ60" s="1"/>
+      <c r="CA60" s="1"/>
+      <c r="CB60" s="1"/>
+      <c r="CC60" s="1"/>
+      <c r="CD60" s="1"/>
+      <c r="CE60" s="1"/>
+      <c r="CF60" s="1"/>
+      <c r="CG60" s="1"/>
+      <c r="CH60" s="1"/>
+      <c r="CI60" s="1"/>
+      <c r="CJ60" s="1"/>
+      <c r="CK60" s="1"/>
+      <c r="CL60" s="1"/>
+      <c r="CM60" s="1"/>
     </row>
-    <row r="61" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -32210,21 +32124,22 @@
       <c r="BW61" s="1"/>
       <c r="BX61" s="1"/>
       <c r="BY61" s="1"/>
-      <c r="BZ61" s="20"/>
-      <c r="CA61" s="20"/>
-      <c r="CB61" s="20"/>
-      <c r="CC61" s="20"/>
-      <c r="CD61" s="20"/>
-      <c r="CE61" s="20"/>
-      <c r="CF61" s="20"/>
-      <c r="CG61" s="20"/>
-      <c r="CH61" s="20"/>
-      <c r="CI61" s="20"/>
-      <c r="CJ61" s="20"/>
-      <c r="CK61" s="20"/>
-      <c r="CL61" s="20"/>
+      <c r="BZ61" s="1"/>
+      <c r="CA61" s="1"/>
+      <c r="CB61" s="1"/>
+      <c r="CC61" s="1"/>
+      <c r="CD61" s="1"/>
+      <c r="CE61" s="1"/>
+      <c r="CF61" s="1"/>
+      <c r="CG61" s="1"/>
+      <c r="CH61" s="1"/>
+      <c r="CI61" s="1"/>
+      <c r="CJ61" s="1"/>
+      <c r="CK61" s="1"/>
+      <c r="CL61" s="1"/>
+      <c r="CM61" s="1"/>
     </row>
-    <row r="62" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>17</v>
       </c>
@@ -32304,21 +32219,22 @@
       <c r="BW62" s="1"/>
       <c r="BX62" s="1"/>
       <c r="BY62" s="1"/>
-      <c r="BZ62" s="20"/>
-      <c r="CA62" s="20"/>
-      <c r="CB62" s="20"/>
-      <c r="CC62" s="20"/>
-      <c r="CD62" s="20"/>
-      <c r="CE62" s="20"/>
-      <c r="CF62" s="20"/>
-      <c r="CG62" s="20"/>
-      <c r="CH62" s="20"/>
-      <c r="CI62" s="20"/>
-      <c r="CJ62" s="20"/>
-      <c r="CK62" s="20"/>
-      <c r="CL62" s="20"/>
+      <c r="BZ62" s="1"/>
+      <c r="CA62" s="1"/>
+      <c r="CB62" s="1"/>
+      <c r="CC62" s="1"/>
+      <c r="CD62" s="1"/>
+      <c r="CE62" s="1"/>
+      <c r="CF62" s="1"/>
+      <c r="CG62" s="1"/>
+      <c r="CH62" s="1"/>
+      <c r="CI62" s="1"/>
+      <c r="CJ62" s="1"/>
+      <c r="CK62" s="1"/>
+      <c r="CL62" s="1"/>
+      <c r="CM62" s="1"/>
     </row>
-    <row r="63" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>50</v>
       </c>
@@ -32398,21 +32314,22 @@
       <c r="BW63" s="1"/>
       <c r="BX63" s="1"/>
       <c r="BY63" s="1"/>
-      <c r="BZ63" s="20"/>
-      <c r="CA63" s="20"/>
-      <c r="CB63" s="20"/>
-      <c r="CC63" s="20"/>
-      <c r="CD63" s="20"/>
-      <c r="CE63" s="20"/>
-      <c r="CF63" s="20"/>
-      <c r="CG63" s="20"/>
-      <c r="CH63" s="20"/>
-      <c r="CI63" s="20"/>
-      <c r="CJ63" s="20"/>
-      <c r="CK63" s="20"/>
-      <c r="CL63" s="20"/>
+      <c r="BZ63" s="1"/>
+      <c r="CA63" s="1"/>
+      <c r="CB63" s="1"/>
+      <c r="CC63" s="1"/>
+      <c r="CD63" s="1"/>
+      <c r="CE63" s="1"/>
+      <c r="CF63" s="1"/>
+      <c r="CG63" s="1"/>
+      <c r="CH63" s="1"/>
+      <c r="CI63" s="1"/>
+      <c r="CJ63" s="1"/>
+      <c r="CK63" s="1"/>
+      <c r="CL63" s="1"/>
+      <c r="CM63" s="1"/>
     </row>
-    <row r="64" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>22</v>
       </c>
@@ -32492,21 +32409,22 @@
       <c r="BW64" s="1"/>
       <c r="BX64" s="1"/>
       <c r="BY64" s="1"/>
-      <c r="BZ64" s="20"/>
-      <c r="CA64" s="20"/>
-      <c r="CB64" s="20"/>
-      <c r="CC64" s="20"/>
-      <c r="CD64" s="20"/>
-      <c r="CE64" s="20"/>
-      <c r="CF64" s="20"/>
-      <c r="CG64" s="20"/>
-      <c r="CH64" s="20"/>
-      <c r="CI64" s="37"/>
-      <c r="CJ64" s="37"/>
-      <c r="CK64" s="37"/>
-      <c r="CL64" s="37"/>
+      <c r="BZ64" s="1"/>
+      <c r="CA64" s="1"/>
+      <c r="CB64" s="1"/>
+      <c r="CC64" s="1"/>
+      <c r="CD64" s="1"/>
+      <c r="CE64" s="1"/>
+      <c r="CF64" s="1"/>
+      <c r="CG64" s="1"/>
+      <c r="CH64" s="1"/>
+      <c r="CI64" s="1"/>
+      <c r="CJ64" s="1"/>
+      <c r="CK64" s="1"/>
+      <c r="CL64" s="1"/>
+      <c r="CM64" s="1"/>
     </row>
-    <row r="65" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -32584,157 +32502,159 @@
       <c r="BW65" s="1"/>
       <c r="BX65" s="1"/>
       <c r="BY65" s="1"/>
-      <c r="BZ65" s="20"/>
-      <c r="CA65" s="20"/>
-      <c r="CB65" s="20"/>
-      <c r="CC65" s="20"/>
-      <c r="CD65" s="20"/>
-      <c r="CE65" s="20"/>
-      <c r="CF65" s="20"/>
-      <c r="CG65" s="20"/>
-      <c r="CH65" s="20"/>
-      <c r="CI65" s="37"/>
-      <c r="CJ65" s="37"/>
-      <c r="CK65" s="37"/>
-      <c r="CL65" s="37"/>
+      <c r="BZ65" s="1"/>
+      <c r="CA65" s="1"/>
+      <c r="CB65" s="1"/>
+      <c r="CC65" s="1"/>
+      <c r="CD65" s="1"/>
+      <c r="CE65" s="1"/>
+      <c r="CF65" s="1"/>
+      <c r="CG65" s="1"/>
+      <c r="CH65" s="1"/>
+      <c r="CI65" s="1"/>
+      <c r="CJ65" s="1"/>
+      <c r="CK65" s="1"/>
+      <c r="CL65" s="1"/>
+      <c r="CM65" s="1"/>
     </row>
-    <row r="66" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
-      <c r="B66" s="33" t="s">
+      <c r="B66" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="33" t="s">
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="33" t="s">
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="36"/>
-      <c r="L66" s="36"/>
-      <c r="M66" s="36"/>
-      <c r="N66" s="33" t="s">
+      <c r="K66" s="26"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="26"/>
+      <c r="N66" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="36"/>
-      <c r="P66" s="36"/>
-      <c r="Q66" s="36"/>
-      <c r="R66" s="33" t="s">
+      <c r="O66" s="26"/>
+      <c r="P66" s="26"/>
+      <c r="Q66" s="26"/>
+      <c r="R66" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="36"/>
-      <c r="T66" s="36"/>
-      <c r="U66" s="36"/>
-      <c r="V66" s="33" t="s">
+      <c r="S66" s="26"/>
+      <c r="T66" s="26"/>
+      <c r="U66" s="26"/>
+      <c r="V66" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="36"/>
-      <c r="X66" s="36"/>
-      <c r="Y66" s="36"/>
-      <c r="Z66" s="33" t="s">
+      <c r="W66" s="26"/>
+      <c r="X66" s="26"/>
+      <c r="Y66" s="26"/>
+      <c r="Z66" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="36"/>
-      <c r="AB66" s="36"/>
-      <c r="AC66" s="36"/>
-      <c r="AD66" s="33" t="s">
+      <c r="AA66" s="26"/>
+      <c r="AB66" s="26"/>
+      <c r="AC66" s="26"/>
+      <c r="AD66" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="36"/>
-      <c r="AF66" s="36"/>
-      <c r="AG66" s="36"/>
-      <c r="AH66" s="33" t="s">
+      <c r="AE66" s="26"/>
+      <c r="AF66" s="26"/>
+      <c r="AG66" s="26"/>
+      <c r="AH66" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="36"/>
-      <c r="AJ66" s="36"/>
-      <c r="AK66" s="36"/>
-      <c r="AL66" s="33" t="s">
+      <c r="AI66" s="26"/>
+      <c r="AJ66" s="26"/>
+      <c r="AK66" s="26"/>
+      <c r="AL66" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="36"/>
-      <c r="AN66" s="36"/>
-      <c r="AO66" s="36"/>
-      <c r="AP66" s="33" t="s">
+      <c r="AM66" s="26"/>
+      <c r="AN66" s="26"/>
+      <c r="AO66" s="26"/>
+      <c r="AP66" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="36"/>
-      <c r="AR66" s="36"/>
-      <c r="AS66" s="36"/>
-      <c r="AT66" s="33" t="s">
+      <c r="AQ66" s="26"/>
+      <c r="AR66" s="26"/>
+      <c r="AS66" s="26"/>
+      <c r="AT66" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="36"/>
-      <c r="AV66" s="36"/>
-      <c r="AW66" s="36"/>
-      <c r="AX66" s="33" t="s">
+      <c r="AU66" s="26"/>
+      <c r="AV66" s="26"/>
+      <c r="AW66" s="26"/>
+      <c r="AX66" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="36"/>
-      <c r="AZ66" s="36"/>
-      <c r="BA66" s="36"/>
-      <c r="BB66" s="33" t="s">
+      <c r="AY66" s="26"/>
+      <c r="AZ66" s="26"/>
+      <c r="BA66" s="26"/>
+      <c r="BB66" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="36"/>
-      <c r="BD66" s="36"/>
-      <c r="BE66" s="36"/>
-      <c r="BF66" s="33" t="s">
+      <c r="BC66" s="26"/>
+      <c r="BD66" s="26"/>
+      <c r="BE66" s="26"/>
+      <c r="BF66" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="36"/>
-      <c r="BH66" s="36"/>
-      <c r="BI66" s="36"/>
-      <c r="BJ66" s="33" t="s">
+      <c r="BG66" s="26"/>
+      <c r="BH66" s="26"/>
+      <c r="BI66" s="26"/>
+      <c r="BJ66" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="36"/>
-      <c r="BL66" s="36"/>
-      <c r="BM66" s="36"/>
-      <c r="BN66" s="33" t="s">
+      <c r="BK66" s="26"/>
+      <c r="BL66" s="26"/>
+      <c r="BM66" s="26"/>
+      <c r="BN66" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="36"/>
-      <c r="BP66" s="36"/>
-      <c r="BQ66" s="36"/>
-      <c r="BR66" s="33" t="s">
+      <c r="BO66" s="26"/>
+      <c r="BP66" s="26"/>
+      <c r="BQ66" s="26"/>
+      <c r="BR66" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="36"/>
-      <c r="BT66" s="36"/>
-      <c r="BU66" s="36"/>
-      <c r="BV66" s="33" t="s">
+      <c r="BS66" s="26"/>
+      <c r="BT66" s="26"/>
+      <c r="BU66" s="26"/>
+      <c r="BV66" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="BW66" s="33"/>
-      <c r="BX66" s="33"/>
-      <c r="BY66" s="33"/>
-      <c r="BZ66" s="31" t="s">
+      <c r="BW66" s="24"/>
+      <c r="BX66" s="24"/>
+      <c r="BY66" s="24"/>
+      <c r="BZ66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="31"/>
-      <c r="CB66" s="31"/>
-      <c r="CC66" s="31"/>
-      <c r="CD66" s="32" t="s">
+      <c r="CA66" s="24"/>
+      <c r="CB66" s="24"/>
+      <c r="CC66" s="24"/>
+      <c r="CD66" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="32"/>
-      <c r="CF66" s="32"/>
-      <c r="CG66" s="32"/>
-      <c r="CH66" s="30" t="s">
+      <c r="CE66" s="24"/>
+      <c r="CF66" s="24"/>
+      <c r="CG66" s="24"/>
+      <c r="CH66" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="CI66" s="40"/>
-      <c r="CJ66" s="40"/>
-      <c r="CK66" s="40"/>
-      <c r="CL66" s="41"/>
+      <c r="CI66" s="24"/>
+      <c r="CJ66" s="23"/>
+      <c r="CK66" s="23"/>
+      <c r="CL66" s="19"/>
+      <c r="CM66" s="19"/>
     </row>
-    <row r="67" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>4</v>
       </c>
@@ -32966,39 +32886,42 @@
       <c r="BY67" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ67" s="29" t="s">
+      <c r="BZ67" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CA67" s="29" t="s">
+      <c r="CA67" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CB67" s="29" t="s">
+      <c r="CB67" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CC67" s="29" t="s">
+      <c r="CC67" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CD67" s="29" t="s">
+      <c r="CD67" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CE67" s="29" t="s">
+      <c r="CE67" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CF67" s="29" t="s">
+      <c r="CF67" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CG67" s="29" t="s">
+      <c r="CG67" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CH67" s="29" t="s">
+      <c r="CH67" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CI67" s="40"/>
-      <c r="CJ67" s="40"/>
-      <c r="CK67" s="40"/>
-      <c r="CL67" s="40"/>
+      <c r="CI67" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="CJ67" s="6"/>
+      <c r="CK67" s="6"/>
+      <c r="CL67" s="6"/>
+      <c r="CM67" s="22"/>
     </row>
-    <row r="68" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -33076,21 +32999,22 @@
       <c r="BW68" s="1"/>
       <c r="BX68" s="1"/>
       <c r="BY68" s="1"/>
-      <c r="BZ68" s="20"/>
-      <c r="CA68" s="20"/>
-      <c r="CB68" s="20"/>
-      <c r="CC68" s="20"/>
-      <c r="CD68" s="20"/>
-      <c r="CE68" s="20"/>
-      <c r="CF68" s="20"/>
-      <c r="CG68" s="20"/>
-      <c r="CH68" s="20"/>
-      <c r="CI68" s="37"/>
-      <c r="CJ68" s="37"/>
-      <c r="CK68" s="37"/>
-      <c r="CL68" s="37"/>
+      <c r="BZ68" s="1"/>
+      <c r="CA68" s="1"/>
+      <c r="CB68" s="1"/>
+      <c r="CC68" s="1"/>
+      <c r="CD68" s="1"/>
+      <c r="CE68" s="1"/>
+      <c r="CF68" s="1"/>
+      <c r="CG68" s="1"/>
+      <c r="CH68" s="1"/>
+      <c r="CI68" s="1"/>
+      <c r="CJ68" s="1"/>
+      <c r="CK68" s="1"/>
+      <c r="CL68" s="1"/>
+      <c r="CM68" s="1"/>
     </row>
-    <row r="69" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="s">
         <v>11</v>
       </c>
@@ -33322,38 +33246,40 @@
       <c r="BY69" s="18">
         <v>9.0068661322765706</v>
       </c>
-      <c r="BZ69" s="27">
+      <c r="BZ69" s="18">
         <v>-10.079196499977257</v>
       </c>
-      <c r="CA69" s="27">
+      <c r="CA69" s="18">
         <v>-74.734106062057037</v>
       </c>
-      <c r="CB69" s="27">
+      <c r="CB69" s="18">
         <v>-59.3625005331834</v>
       </c>
-      <c r="CC69" s="27">
+      <c r="CC69" s="18">
         <v>-51.2217165883917</v>
       </c>
-      <c r="CD69" s="27">
+      <c r="CD69" s="18">
         <v>-45.489609220833884</v>
       </c>
-      <c r="CE69" s="27">
+      <c r="CE69" s="18">
         <v>62.096485117697654</v>
       </c>
-      <c r="CF69" s="27">
+      <c r="CF69" s="18">
         <v>35.418270059545279</v>
       </c>
-      <c r="CG69" s="27">
+      <c r="CG69" s="18">
         <v>47.229588456026477</v>
       </c>
-      <c r="CH69" s="27">
-        <v>26.429400728126012</v>
-      </c>
-      <c r="CI69" s="42"/>
-      <c r="CJ69" s="42"/>
-      <c r="CK69" s="42"/>
-      <c r="CL69" s="42"/>
-      <c r="CM69" s="11"/>
+      <c r="CH69" s="18">
+        <v>26.717589285837008</v>
+      </c>
+      <c r="CI69" s="18">
+        <v>56.782599446323502</v>
+      </c>
+      <c r="CJ69" s="18"/>
+      <c r="CK69" s="18"/>
+      <c r="CL69" s="18"/>
+      <c r="CM69" s="17"/>
       <c r="CN69" s="11"/>
       <c r="CO69" s="11"/>
       <c r="CP69" s="11"/>
@@ -33415,7 +33341,7 @@
       <c r="ET69" s="11"/>
       <c r="EU69" s="11"/>
     </row>
-    <row r="70" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>12</v>
       </c>
@@ -33647,38 +33573,40 @@
       <c r="BY70" s="18">
         <v>6.2808495050284989</v>
       </c>
-      <c r="BZ70" s="27">
+      <c r="BZ70" s="18">
         <v>-9.4228516039327985</v>
       </c>
-      <c r="CA70" s="27">
+      <c r="CA70" s="18">
         <v>-41.088859320898116</v>
       </c>
-      <c r="CB70" s="27">
+      <c r="CB70" s="18">
         <v>-31.176852637273754</v>
       </c>
-      <c r="CC70" s="27">
+      <c r="CC70" s="18">
         <v>-29.01920024952048</v>
       </c>
-      <c r="CD70" s="27">
+      <c r="CD70" s="18">
         <v>-28.670919444686604</v>
       </c>
-      <c r="CE70" s="27">
+      <c r="CE70" s="18">
         <v>16.127496956223951</v>
       </c>
-      <c r="CF70" s="27">
+      <c r="CF70" s="18">
         <v>4.2809674491426364</v>
       </c>
-      <c r="CG70" s="27">
+      <c r="CG70" s="18">
         <v>8.0141521692080602</v>
       </c>
-      <c r="CH70" s="27">
-        <v>17.514842220192023</v>
-      </c>
-      <c r="CI70" s="42"/>
-      <c r="CJ70" s="42"/>
-      <c r="CK70" s="42"/>
-      <c r="CL70" s="42"/>
-      <c r="CM70" s="11"/>
+      <c r="CH70" s="18">
+        <v>18.094121366101106</v>
+      </c>
+      <c r="CI70" s="18">
+        <v>18.339509540015001</v>
+      </c>
+      <c r="CJ70" s="18"/>
+      <c r="CK70" s="18"/>
+      <c r="CL70" s="18"/>
+      <c r="CM70" s="17"/>
       <c r="CN70" s="11"/>
       <c r="CO70" s="11"/>
       <c r="CP70" s="11"/>
@@ -33740,7 +33668,7 @@
       <c r="ET70" s="11"/>
       <c r="EU70" s="11"/>
     </row>
-    <row r="71" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
       <c r="D71" s="17"/>
@@ -33817,20 +33745,20 @@
       <c r="BW71" s="17"/>
       <c r="BX71" s="17"/>
       <c r="BY71" s="17"/>
-      <c r="BZ71" s="25"/>
-      <c r="CA71" s="25"/>
-      <c r="CB71" s="25"/>
-      <c r="CC71" s="25"/>
-      <c r="CD71" s="25"/>
-      <c r="CE71" s="25"/>
-      <c r="CF71" s="25"/>
-      <c r="CG71" s="25"/>
-      <c r="CH71" s="25"/>
-      <c r="CI71" s="42"/>
-      <c r="CJ71" s="42"/>
-      <c r="CK71" s="42"/>
-      <c r="CL71" s="42"/>
-      <c r="CM71" s="11"/>
+      <c r="BZ71" s="17"/>
+      <c r="CA71" s="17"/>
+      <c r="CB71" s="17"/>
+      <c r="CC71" s="17"/>
+      <c r="CD71" s="17"/>
+      <c r="CE71" s="17"/>
+      <c r="CF71" s="17"/>
+      <c r="CG71" s="17"/>
+      <c r="CH71" s="17"/>
+      <c r="CI71" s="17"/>
+      <c r="CJ71" s="17"/>
+      <c r="CK71" s="17"/>
+      <c r="CL71" s="17"/>
+      <c r="CM71" s="17"/>
       <c r="CN71" s="11"/>
       <c r="CO71" s="11"/>
       <c r="CP71" s="11"/>
@@ -33892,7 +33820,7 @@
       <c r="ET71" s="11"/>
       <c r="EU71" s="11"/>
     </row>
-    <row r="72" spans="1:155" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:155" ht="18" x14ac:dyDescent="0.35">
       <c r="A72" s="14" t="s">
         <v>13</v>
       </c>
@@ -34124,38 +34052,40 @@
       <c r="BY72" s="18">
         <v>8.0112647721831536</v>
       </c>
-      <c r="BZ72" s="27">
+      <c r="BZ72" s="18">
         <v>-9.8166097672570345</v>
       </c>
-      <c r="CA72" s="27">
+      <c r="CA72" s="18">
         <v>-63.655837739801392</v>
       </c>
-      <c r="CB72" s="27">
+      <c r="CB72" s="18">
         <v>-48.662316464448018</v>
       </c>
-      <c r="CC72" s="27">
+      <c r="CC72" s="18">
         <v>-43.242777592445755</v>
       </c>
-      <c r="CD72" s="27">
+      <c r="CD72" s="18">
         <v>-38.731504558974287</v>
       </c>
-      <c r="CE72" s="27">
+      <c r="CE72" s="18">
         <v>37.562060583681529</v>
       </c>
-      <c r="CF72" s="27">
+      <c r="CF72" s="18">
         <v>19.571437291707255</v>
       </c>
-      <c r="CG72" s="27">
+      <c r="CG72" s="18">
         <v>29.604968867387839</v>
       </c>
-      <c r="CH72" s="27">
-        <v>22.25915156982407</v>
-      </c>
-      <c r="CI72" s="42"/>
-      <c r="CJ72" s="42"/>
-      <c r="CK72" s="42"/>
-      <c r="CL72" s="42"/>
-      <c r="CM72" s="11"/>
+      <c r="CH72" s="18">
+        <v>22.683512914930247</v>
+      </c>
+      <c r="CI72" s="18">
+        <v>39.461892599426989</v>
+      </c>
+      <c r="CJ72" s="18"/>
+      <c r="CK72" s="18"/>
+      <c r="CL72" s="18"/>
+      <c r="CM72" s="17"/>
       <c r="CN72" s="11"/>
       <c r="CO72" s="11"/>
       <c r="CP72" s="11"/>
@@ -34217,7 +34147,7 @@
       <c r="ET72" s="11"/>
       <c r="EU72" s="11"/>
     </row>
-    <row r="73" spans="1:155" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:155" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
@@ -34295,21 +34225,22 @@
       <c r="BW73" s="15"/>
       <c r="BX73" s="15"/>
       <c r="BY73" s="15"/>
-      <c r="BZ73" s="24"/>
-      <c r="CA73" s="24"/>
-      <c r="CB73" s="24"/>
-      <c r="CC73" s="24"/>
-      <c r="CD73" s="24"/>
-      <c r="CE73" s="24"/>
-      <c r="CF73" s="24"/>
-      <c r="CG73" s="24"/>
-      <c r="CH73" s="24"/>
-      <c r="CI73" s="44"/>
-      <c r="CJ73" s="44"/>
-      <c r="CK73" s="44"/>
-      <c r="CL73" s="44"/>
+      <c r="BZ73" s="15"/>
+      <c r="CA73" s="15"/>
+      <c r="CB73" s="15"/>
+      <c r="CC73" s="15"/>
+      <c r="CD73" s="15"/>
+      <c r="CE73" s="15"/>
+      <c r="CF73" s="15"/>
+      <c r="CG73" s="15"/>
+      <c r="CH73" s="15"/>
+      <c r="CI73" s="15"/>
+      <c r="CJ73" s="15"/>
+      <c r="CK73" s="15"/>
+      <c r="CL73" s="15"/>
+      <c r="CM73" s="15"/>
     </row>
-    <row r="74" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
         <v>0</v>
       </c>
@@ -34389,21 +34320,22 @@
       <c r="BW74" s="1"/>
       <c r="BX74" s="1"/>
       <c r="BY74" s="1"/>
-      <c r="BZ74" s="20"/>
-      <c r="CA74" s="20"/>
-      <c r="CB74" s="20"/>
-      <c r="CC74" s="20"/>
-      <c r="CD74" s="20"/>
-      <c r="CE74" s="20"/>
-      <c r="CF74" s="20"/>
-      <c r="CG74" s="20"/>
-      <c r="CH74" s="20"/>
-      <c r="CI74" s="37"/>
-      <c r="CJ74" s="37"/>
-      <c r="CK74" s="37"/>
-      <c r="CL74" s="37"/>
+      <c r="BZ74" s="1"/>
+      <c r="CA74" s="1"/>
+      <c r="CB74" s="1"/>
+      <c r="CC74" s="1"/>
+      <c r="CD74" s="1"/>
+      <c r="CE74" s="1"/>
+      <c r="CF74" s="1"/>
+      <c r="CG74" s="1"/>
+      <c r="CH74" s="1"/>
+      <c r="CI74" s="1"/>
+      <c r="CJ74" s="1"/>
+      <c r="CK74" s="1"/>
+      <c r="CL74" s="1"/>
+      <c r="CM74" s="1"/>
     </row>
-    <row r="75" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
@@ -34480,19 +34412,19 @@
       <c r="BW75" s="17"/>
       <c r="BX75" s="17"/>
       <c r="BY75" s="17"/>
-      <c r="BZ75" s="25"/>
-      <c r="CA75" s="25"/>
-      <c r="CB75" s="25"/>
-      <c r="CC75" s="25"/>
-      <c r="CD75" s="26"/>
-      <c r="CE75" s="26"/>
-      <c r="CF75" s="26"/>
-      <c r="CG75" s="26"/>
-      <c r="CH75" s="26"/>
-      <c r="CI75" s="45"/>
-      <c r="CJ75" s="45"/>
-      <c r="CK75" s="45"/>
-      <c r="CL75" s="45"/>
+      <c r="BZ75" s="17"/>
+      <c r="CA75" s="17"/>
+      <c r="CB75" s="17"/>
+      <c r="CC75" s="17"/>
+      <c r="CD75" s="17"/>
+      <c r="CE75" s="17"/>
+      <c r="CF75" s="17"/>
+      <c r="CG75" s="17"/>
+      <c r="CH75" s="11"/>
+      <c r="CI75" s="11"/>
+      <c r="CJ75" s="11"/>
+      <c r="CK75" s="11"/>
+      <c r="CL75" s="11"/>
       <c r="CM75" s="11"/>
       <c r="CN75" s="11"/>
       <c r="CO75" s="11"/>
@@ -34555,7 +34487,7 @@
       <c r="ET75" s="11"/>
       <c r="EU75" s="11"/>
     </row>
-    <row r="76" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
       <c r="D76" s="17"/>
@@ -34632,20 +34564,20 @@
       <c r="BW76" s="17"/>
       <c r="BX76" s="17"/>
       <c r="BY76" s="17"/>
-      <c r="BZ76" s="25"/>
-      <c r="CA76" s="25"/>
-      <c r="CB76" s="25"/>
-      <c r="CC76" s="25"/>
-      <c r="CD76" s="25"/>
-      <c r="CE76" s="25"/>
-      <c r="CF76" s="25"/>
-      <c r="CG76" s="25"/>
-      <c r="CH76" s="25"/>
-      <c r="CI76" s="25"/>
-      <c r="CJ76" s="25"/>
-      <c r="CK76" s="25"/>
-      <c r="CL76" s="25"/>
-      <c r="CM76" s="11"/>
+      <c r="BZ76" s="17"/>
+      <c r="CA76" s="17"/>
+      <c r="CB76" s="17"/>
+      <c r="CC76" s="17"/>
+      <c r="CD76" s="17"/>
+      <c r="CE76" s="17"/>
+      <c r="CF76" s="17"/>
+      <c r="CG76" s="17"/>
+      <c r="CH76" s="17"/>
+      <c r="CI76" s="17"/>
+      <c r="CJ76" s="17"/>
+      <c r="CK76" s="17"/>
+      <c r="CL76" s="17"/>
+      <c r="CM76" s="17"/>
       <c r="CN76" s="11"/>
       <c r="CO76" s="11"/>
       <c r="CP76" s="11"/>
@@ -34711,7 +34643,7 @@
       <c r="EX76" s="11"/>
       <c r="EY76" s="11"/>
     </row>
-    <row r="77" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>2</v>
       </c>
@@ -34791,21 +34723,22 @@
       <c r="BW77" s="1"/>
       <c r="BX77" s="1"/>
       <c r="BY77" s="1"/>
-      <c r="BZ77" s="20"/>
-      <c r="CA77" s="20"/>
-      <c r="CB77" s="20"/>
-      <c r="CC77" s="20"/>
-      <c r="CD77" s="20"/>
-      <c r="CE77" s="20"/>
-      <c r="CF77" s="20"/>
-      <c r="CG77" s="20"/>
-      <c r="CH77" s="20"/>
-      <c r="CI77" s="20"/>
-      <c r="CJ77" s="20"/>
-      <c r="CK77" s="20"/>
-      <c r="CL77" s="20"/>
+      <c r="BZ77" s="1"/>
+      <c r="CA77" s="1"/>
+      <c r="CB77" s="1"/>
+      <c r="CC77" s="1"/>
+      <c r="CD77" s="1"/>
+      <c r="CE77" s="1"/>
+      <c r="CF77" s="1"/>
+      <c r="CG77" s="1"/>
+      <c r="CH77" s="1"/>
+      <c r="CI77" s="1"/>
+      <c r="CJ77" s="1"/>
+      <c r="CK77" s="1"/>
+      <c r="CL77" s="1"/>
+      <c r="CM77" s="1"/>
     </row>
-    <row r="78" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>48</v>
       </c>
@@ -34885,21 +34818,22 @@
       <c r="BW78" s="1"/>
       <c r="BX78" s="1"/>
       <c r="BY78" s="1"/>
-      <c r="BZ78" s="20"/>
-      <c r="CA78" s="20"/>
-      <c r="CB78" s="20"/>
-      <c r="CC78" s="20"/>
-      <c r="CD78" s="20"/>
-      <c r="CE78" s="20"/>
-      <c r="CF78" s="20"/>
-      <c r="CG78" s="20"/>
-      <c r="CH78" s="20"/>
-      <c r="CI78" s="20"/>
-      <c r="CJ78" s="20"/>
-      <c r="CK78" s="20"/>
-      <c r="CL78" s="20"/>
+      <c r="BZ78" s="1"/>
+      <c r="CA78" s="1"/>
+      <c r="CB78" s="1"/>
+      <c r="CC78" s="1"/>
+      <c r="CD78" s="1"/>
+      <c r="CE78" s="1"/>
+      <c r="CF78" s="1"/>
+      <c r="CG78" s="1"/>
+      <c r="CH78" s="1"/>
+      <c r="CI78" s="1"/>
+      <c r="CJ78" s="1"/>
+      <c r="CK78" s="1"/>
+      <c r="CL78" s="1"/>
+      <c r="CM78" s="1"/>
     </row>
-    <row r="79" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -34977,21 +34911,22 @@
       <c r="BW79" s="1"/>
       <c r="BX79" s="1"/>
       <c r="BY79" s="1"/>
-      <c r="BZ79" s="20"/>
-      <c r="CA79" s="20"/>
-      <c r="CB79" s="20"/>
-      <c r="CC79" s="20"/>
-      <c r="CD79" s="20"/>
-      <c r="CE79" s="20"/>
-      <c r="CF79" s="20"/>
-      <c r="CG79" s="20"/>
-      <c r="CH79" s="20"/>
-      <c r="CI79" s="20"/>
-      <c r="CJ79" s="20"/>
-      <c r="CK79" s="20"/>
-      <c r="CL79" s="20"/>
+      <c r="BZ79" s="1"/>
+      <c r="CA79" s="1"/>
+      <c r="CB79" s="1"/>
+      <c r="CC79" s="1"/>
+      <c r="CD79" s="1"/>
+      <c r="CE79" s="1"/>
+      <c r="CF79" s="1"/>
+      <c r="CG79" s="1"/>
+      <c r="CH79" s="1"/>
+      <c r="CI79" s="1"/>
+      <c r="CJ79" s="1"/>
+      <c r="CK79" s="1"/>
+      <c r="CL79" s="1"/>
+      <c r="CM79" s="1"/>
     </row>
-    <row r="80" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>18</v>
       </c>
@@ -35071,21 +35006,22 @@
       <c r="BW80" s="1"/>
       <c r="BX80" s="1"/>
       <c r="BY80" s="1"/>
-      <c r="BZ80" s="20"/>
-      <c r="CA80" s="20"/>
-      <c r="CB80" s="20"/>
-      <c r="CC80" s="20"/>
-      <c r="CD80" s="20"/>
-      <c r="CE80" s="20"/>
-      <c r="CF80" s="20"/>
-      <c r="CG80" s="20"/>
-      <c r="CH80" s="20"/>
-      <c r="CI80" s="20"/>
-      <c r="CJ80" s="20"/>
-      <c r="CK80" s="20"/>
-      <c r="CL80" s="20"/>
+      <c r="BZ80" s="1"/>
+      <c r="CA80" s="1"/>
+      <c r="CB80" s="1"/>
+      <c r="CC80" s="1"/>
+      <c r="CD80" s="1"/>
+      <c r="CE80" s="1"/>
+      <c r="CF80" s="1"/>
+      <c r="CG80" s="1"/>
+      <c r="CH80" s="1"/>
+      <c r="CI80" s="1"/>
+      <c r="CJ80" s="1"/>
+      <c r="CK80" s="1"/>
+      <c r="CL80" s="1"/>
+      <c r="CM80" s="1"/>
     </row>
-    <row r="81" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>49</v>
       </c>
@@ -35165,21 +35101,22 @@
       <c r="BW81" s="1"/>
       <c r="BX81" s="1"/>
       <c r="BY81" s="1"/>
-      <c r="BZ81" s="20"/>
-      <c r="CA81" s="20"/>
-      <c r="CB81" s="20"/>
-      <c r="CC81" s="20"/>
-      <c r="CD81" s="20"/>
-      <c r="CE81" s="20"/>
-      <c r="CF81" s="20"/>
-      <c r="CG81" s="20"/>
-      <c r="CH81" s="20"/>
-      <c r="CI81" s="20"/>
-      <c r="CJ81" s="20"/>
-      <c r="CK81" s="20"/>
-      <c r="CL81" s="20"/>
+      <c r="BZ81" s="1"/>
+      <c r="CA81" s="1"/>
+      <c r="CB81" s="1"/>
+      <c r="CC81" s="1"/>
+      <c r="CD81" s="1"/>
+      <c r="CE81" s="1"/>
+      <c r="CF81" s="1"/>
+      <c r="CG81" s="1"/>
+      <c r="CH81" s="1"/>
+      <c r="CI81" s="1"/>
+      <c r="CJ81" s="1"/>
+      <c r="CK81" s="1"/>
+      <c r="CL81" s="1"/>
+      <c r="CM81" s="1"/>
     </row>
-    <row r="82" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
@@ -35259,21 +35196,22 @@
       <c r="BW82" s="1"/>
       <c r="BX82" s="1"/>
       <c r="BY82" s="1"/>
-      <c r="BZ82" s="20"/>
-      <c r="CA82" s="20"/>
-      <c r="CB82" s="20"/>
-      <c r="CC82" s="20"/>
-      <c r="CD82" s="20"/>
-      <c r="CE82" s="20"/>
-      <c r="CF82" s="20"/>
-      <c r="CG82" s="20"/>
-      <c r="CH82" s="20"/>
-      <c r="CI82" s="20"/>
-      <c r="CJ82" s="20"/>
-      <c r="CK82" s="20"/>
-      <c r="CL82" s="20"/>
+      <c r="BZ82" s="1"/>
+      <c r="CA82" s="1"/>
+      <c r="CB82" s="1"/>
+      <c r="CC82" s="1"/>
+      <c r="CD82" s="1"/>
+      <c r="CE82" s="1"/>
+      <c r="CF82" s="1"/>
+      <c r="CG82" s="1"/>
+      <c r="CH82" s="1"/>
+      <c r="CI82" s="1"/>
+      <c r="CJ82" s="1"/>
+      <c r="CK82" s="1"/>
+      <c r="CL82" s="1"/>
+      <c r="CM82" s="1"/>
     </row>
-    <row r="83" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -35351,159 +35289,161 @@
       <c r="BW83" s="1"/>
       <c r="BX83" s="1"/>
       <c r="BY83" s="1"/>
-      <c r="BZ83" s="20"/>
-      <c r="CA83" s="20"/>
-      <c r="CB83" s="20"/>
-      <c r="CC83" s="20"/>
-      <c r="CD83" s="20"/>
-      <c r="CE83" s="20"/>
-      <c r="CF83" s="20"/>
-      <c r="CG83" s="20"/>
-      <c r="CH83" s="20"/>
-      <c r="CI83" s="20"/>
-      <c r="CJ83" s="20"/>
-      <c r="CK83" s="20"/>
-      <c r="CL83" s="20"/>
+      <c r="BZ83" s="1"/>
+      <c r="CA83" s="1"/>
+      <c r="CB83" s="1"/>
+      <c r="CC83" s="1"/>
+      <c r="CD83" s="1"/>
+      <c r="CE83" s="1"/>
+      <c r="CF83" s="1"/>
+      <c r="CG83" s="1"/>
+      <c r="CH83" s="1"/>
+      <c r="CI83" s="1"/>
+      <c r="CJ83" s="1"/>
+      <c r="CK83" s="1"/>
+      <c r="CL83" s="1"/>
+      <c r="CM83" s="1"/>
     </row>
-    <row r="84" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
-      <c r="B84" s="33">
+      <c r="B84" s="24">
         <v>2000</v>
       </c>
-      <c r="C84" s="34"/>
-      <c r="D84" s="34"/>
-      <c r="E84" s="34"/>
-      <c r="F84" s="33">
+      <c r="C84" s="25"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="24">
         <v>2001</v>
       </c>
-      <c r="G84" s="34"/>
-      <c r="H84" s="34"/>
-      <c r="I84" s="34"/>
-      <c r="J84" s="33">
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="24">
         <v>2002</v>
       </c>
-      <c r="K84" s="34"/>
-      <c r="L84" s="34"/>
-      <c r="M84" s="34"/>
-      <c r="N84" s="33">
+      <c r="K84" s="25"/>
+      <c r="L84" s="25"/>
+      <c r="M84" s="25"/>
+      <c r="N84" s="24">
         <v>2003</v>
       </c>
-      <c r="O84" s="34"/>
-      <c r="P84" s="34"/>
-      <c r="Q84" s="34"/>
-      <c r="R84" s="33">
+      <c r="O84" s="25"/>
+      <c r="P84" s="25"/>
+      <c r="Q84" s="25"/>
+      <c r="R84" s="24">
         <v>2004</v>
       </c>
-      <c r="S84" s="34"/>
-      <c r="T84" s="34"/>
-      <c r="U84" s="34"/>
-      <c r="V84" s="33">
+      <c r="S84" s="25"/>
+      <c r="T84" s="25"/>
+      <c r="U84" s="25"/>
+      <c r="V84" s="24">
         <v>2005</v>
       </c>
-      <c r="W84" s="34"/>
-      <c r="X84" s="34"/>
-      <c r="Y84" s="34"/>
-      <c r="Z84" s="33">
+      <c r="W84" s="25"/>
+      <c r="X84" s="25"/>
+      <c r="Y84" s="25"/>
+      <c r="Z84" s="24">
         <v>2006</v>
       </c>
-      <c r="AA84" s="34"/>
-      <c r="AB84" s="34"/>
-      <c r="AC84" s="34"/>
-      <c r="AD84" s="33">
+      <c r="AA84" s="25"/>
+      <c r="AB84" s="25"/>
+      <c r="AC84" s="25"/>
+      <c r="AD84" s="24">
         <v>2007</v>
       </c>
-      <c r="AE84" s="34"/>
-      <c r="AF84" s="34"/>
-      <c r="AG84" s="34"/>
-      <c r="AH84" s="33">
+      <c r="AE84" s="25"/>
+      <c r="AF84" s="25"/>
+      <c r="AG84" s="25"/>
+      <c r="AH84" s="24">
         <v>2008</v>
       </c>
-      <c r="AI84" s="34"/>
-      <c r="AJ84" s="34"/>
-      <c r="AK84" s="34"/>
-      <c r="AL84" s="33">
+      <c r="AI84" s="25"/>
+      <c r="AJ84" s="25"/>
+      <c r="AK84" s="25"/>
+      <c r="AL84" s="24">
         <v>2009</v>
       </c>
-      <c r="AM84" s="34"/>
-      <c r="AN84" s="34"/>
-      <c r="AO84" s="34"/>
-      <c r="AP84" s="33">
+      <c r="AM84" s="25"/>
+      <c r="AN84" s="25"/>
+      <c r="AO84" s="25"/>
+      <c r="AP84" s="24">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="34"/>
-      <c r="AR84" s="34"/>
-      <c r="AS84" s="34"/>
-      <c r="AT84" s="33">
+      <c r="AQ84" s="25"/>
+      <c r="AR84" s="25"/>
+      <c r="AS84" s="25"/>
+      <c r="AT84" s="24">
         <v>2011</v>
       </c>
-      <c r="AU84" s="34"/>
-      <c r="AV84" s="34"/>
-      <c r="AW84" s="34"/>
-      <c r="AX84" s="33">
+      <c r="AU84" s="25"/>
+      <c r="AV84" s="25"/>
+      <c r="AW84" s="25"/>
+      <c r="AX84" s="24">
         <v>2012</v>
       </c>
-      <c r="AY84" s="34"/>
-      <c r="AZ84" s="34"/>
-      <c r="BA84" s="34"/>
-      <c r="BB84" s="33">
+      <c r="AY84" s="25"/>
+      <c r="AZ84" s="25"/>
+      <c r="BA84" s="25"/>
+      <c r="BB84" s="24">
         <v>2013</v>
       </c>
-      <c r="BC84" s="34"/>
-      <c r="BD84" s="34"/>
-      <c r="BE84" s="34"/>
-      <c r="BF84" s="33">
+      <c r="BC84" s="25"/>
+      <c r="BD84" s="25"/>
+      <c r="BE84" s="25"/>
+      <c r="BF84" s="24">
         <v>2014</v>
       </c>
-      <c r="BG84" s="34"/>
-      <c r="BH84" s="34"/>
-      <c r="BI84" s="34"/>
-      <c r="BJ84" s="33">
+      <c r="BG84" s="25"/>
+      <c r="BH84" s="25"/>
+      <c r="BI84" s="25"/>
+      <c r="BJ84" s="24">
         <v>2015</v>
       </c>
-      <c r="BK84" s="34"/>
-      <c r="BL84" s="34"/>
-      <c r="BM84" s="34"/>
-      <c r="BN84" s="33">
+      <c r="BK84" s="25"/>
+      <c r="BL84" s="25"/>
+      <c r="BM84" s="25"/>
+      <c r="BN84" s="24">
         <v>2016</v>
       </c>
-      <c r="BO84" s="34"/>
-      <c r="BP84" s="34"/>
-      <c r="BQ84" s="34"/>
-      <c r="BR84" s="33">
+      <c r="BO84" s="25"/>
+      <c r="BP84" s="25"/>
+      <c r="BQ84" s="25"/>
+      <c r="BR84" s="24">
         <v>2017</v>
       </c>
-      <c r="BS84" s="34"/>
-      <c r="BT84" s="34"/>
-      <c r="BU84" s="34"/>
-      <c r="BV84" s="33">
+      <c r="BS84" s="25"/>
+      <c r="BT84" s="25"/>
+      <c r="BU84" s="25"/>
+      <c r="BV84" s="24">
         <v>2018</v>
       </c>
-      <c r="BW84" s="33"/>
-      <c r="BX84" s="33"/>
-      <c r="BY84" s="33"/>
-      <c r="BZ84" s="31">
+      <c r="BW84" s="24"/>
+      <c r="BX84" s="24"/>
+      <c r="BY84" s="24"/>
+      <c r="BZ84" s="24">
         <v>2019</v>
       </c>
-      <c r="CA84" s="35"/>
-      <c r="CB84" s="35"/>
-      <c r="CC84" s="35"/>
-      <c r="CD84" s="32">
+      <c r="CA84" s="24"/>
+      <c r="CB84" s="24"/>
+      <c r="CC84" s="24"/>
+      <c r="CD84" s="24">
         <v>2020</v>
       </c>
-      <c r="CE84" s="32"/>
-      <c r="CF84" s="32"/>
-      <c r="CG84" s="32"/>
-      <c r="CH84" s="32">
+      <c r="CE84" s="24"/>
+      <c r="CF84" s="24"/>
+      <c r="CG84" s="24"/>
+      <c r="CH84" s="24">
         <v>2021</v>
       </c>
-      <c r="CI84" s="32"/>
-      <c r="CJ84" s="32"/>
-      <c r="CK84" s="32"/>
-      <c r="CL84" s="30">
+      <c r="CI84" s="24"/>
+      <c r="CJ84" s="24"/>
+      <c r="CK84" s="24"/>
+      <c r="CL84" s="24">
         <v>2022</v>
       </c>
+      <c r="CM84" s="24"/>
     </row>
-    <row r="85" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>4</v>
       </c>
@@ -35735,47 +35675,50 @@
       <c r="BY85" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BZ85" s="21" t="s">
+      <c r="BZ85" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CA85" s="21" t="s">
+      <c r="CA85" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CB85" s="21" t="s">
+      <c r="CB85" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CC85" s="21" t="s">
+      <c r="CC85" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CD85" s="21" t="s">
+      <c r="CD85" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CE85" s="21" t="s">
+      <c r="CE85" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CF85" s="21" t="s">
+      <c r="CF85" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CG85" s="21" t="s">
+      <c r="CG85" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CH85" s="21" t="s">
+      <c r="CH85" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CI85" s="21" t="s">
+      <c r="CI85" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CJ85" s="21" t="s">
+      <c r="CJ85" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CK85" s="21" t="s">
+      <c r="CK85" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL85" s="21" t="s">
+      <c r="CL85" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="CM85" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="86" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -35853,21 +35796,22 @@
       <c r="BW86" s="1"/>
       <c r="BX86" s="1"/>
       <c r="BY86" s="1"/>
-      <c r="BZ86" s="20"/>
-      <c r="CA86" s="20"/>
-      <c r="CB86" s="20"/>
-      <c r="CC86" s="20"/>
-      <c r="CD86" s="20"/>
-      <c r="CE86" s="20"/>
-      <c r="CF86" s="20"/>
-      <c r="CG86" s="20"/>
-      <c r="CH86" s="20"/>
-      <c r="CI86" s="20"/>
-      <c r="CJ86" s="20"/>
-      <c r="CK86" s="20"/>
-      <c r="CL86" s="20"/>
+      <c r="BZ86" s="1"/>
+      <c r="CA86" s="1"/>
+      <c r="CB86" s="1"/>
+      <c r="CC86" s="1"/>
+      <c r="CD86" s="1"/>
+      <c r="CE86" s="1"/>
+      <c r="CF86" s="1"/>
+      <c r="CG86" s="1"/>
+      <c r="CH86" s="1"/>
+      <c r="CI86" s="1"/>
+      <c r="CJ86" s="1"/>
+      <c r="CK86" s="1"/>
+      <c r="CL86" s="1"/>
+      <c r="CM86" s="1"/>
     </row>
-    <row r="87" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="9" t="s">
         <v>11</v>
       </c>
@@ -36099,46 +36043,48 @@
       <c r="BY87" s="18">
         <v>101.27062972167866</v>
       </c>
-      <c r="BZ87" s="27">
+      <c r="BZ87" s="18">
         <v>101.93031239317489</v>
       </c>
-      <c r="CA87" s="27">
+      <c r="CA87" s="18">
         <v>103.37449840491311</v>
       </c>
-      <c r="CB87" s="27">
+      <c r="CB87" s="18">
         <v>104.33720749779265</v>
       </c>
-      <c r="CC87" s="27">
+      <c r="CC87" s="18">
         <v>104.99336684588962</v>
       </c>
-      <c r="CD87" s="27">
+      <c r="CD87" s="18">
         <v>103.57262170861247</v>
       </c>
-      <c r="CE87" s="27">
+      <c r="CE87" s="18">
         <v>105.0134623960117</v>
       </c>
-      <c r="CF87" s="27">
+      <c r="CF87" s="18">
         <v>104.3552726000391</v>
       </c>
-      <c r="CG87" s="27">
+      <c r="CG87" s="18">
         <v>103.92490815266157</v>
       </c>
-      <c r="CH87" s="27">
+      <c r="CH87" s="18">
         <v>102.3503409715865</v>
       </c>
-      <c r="CI87" s="27">
+      <c r="CI87" s="18">
         <v>103.48903941054934</v>
       </c>
-      <c r="CJ87" s="27">
+      <c r="CJ87" s="18">
         <v>104.12082567684639</v>
       </c>
-      <c r="CK87" s="27">
+      <c r="CK87" s="18">
         <v>104.44343736226078</v>
       </c>
-      <c r="CL87" s="27">
-        <v>103.53314692178172</v>
-      </c>
-      <c r="CM87" s="11"/>
+      <c r="CL87" s="18">
+        <v>103.53314692178175</v>
+      </c>
+      <c r="CM87" s="18">
+        <v>104.34735403542479</v>
+      </c>
       <c r="CN87" s="11"/>
       <c r="CO87" s="11"/>
       <c r="CP87" s="11"/>
@@ -36204,7 +36150,7 @@
       <c r="EX87" s="11"/>
       <c r="EY87" s="11"/>
     </row>
-    <row r="88" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>12</v>
       </c>
@@ -36436,46 +36382,48 @@
       <c r="BY88" s="18">
         <v>101.20178839394909</v>
       </c>
-      <c r="BZ88" s="27">
+      <c r="BZ88" s="18">
         <v>100.49280679523687</v>
       </c>
-      <c r="CA88" s="27">
+      <c r="CA88" s="18">
         <v>100.87717334172879</v>
       </c>
-      <c r="CB88" s="27">
+      <c r="CB88" s="18">
         <v>101.16458113730739</v>
       </c>
-      <c r="CC88" s="27">
+      <c r="CC88" s="18">
         <v>101.41704256338862</v>
       </c>
-      <c r="CD88" s="27">
+      <c r="CD88" s="18">
         <v>105.41212477491302</v>
       </c>
-      <c r="CE88" s="27">
+      <c r="CE88" s="18">
         <v>106.19189167491636</v>
       </c>
-      <c r="CF88" s="27">
+      <c r="CF88" s="18">
         <v>107.05169370470939</v>
       </c>
-      <c r="CG88" s="27">
+      <c r="CG88" s="18">
         <v>107.52204916700825</v>
       </c>
-      <c r="CH88" s="27">
+      <c r="CH88" s="18">
         <v>111.20724790732153</v>
       </c>
-      <c r="CI88" s="27">
+      <c r="CI88" s="18">
         <v>110.22648661985693</v>
       </c>
-      <c r="CJ88" s="27">
+      <c r="CJ88" s="18">
         <v>109.68921029153206</v>
       </c>
-      <c r="CK88" s="27">
+      <c r="CK88" s="18">
         <v>109.78266659971806</v>
       </c>
-      <c r="CL88" s="27">
-        <v>112.4210983415191</v>
-      </c>
-      <c r="CM88" s="11"/>
+      <c r="CL88" s="18">
+        <v>112.42109834151917</v>
+      </c>
+      <c r="CM88" s="18">
+        <v>110.39598292756791</v>
+      </c>
       <c r="CN88" s="11"/>
       <c r="CO88" s="11"/>
       <c r="CP88" s="11"/>
@@ -36541,7 +36489,7 @@
       <c r="EX88" s="11"/>
       <c r="EY88" s="11"/>
     </row>
-    <row r="89" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
       <c r="D89" s="17"/>
@@ -36618,20 +36566,20 @@
       <c r="BW89" s="17"/>
       <c r="BX89" s="17"/>
       <c r="BY89" s="17"/>
-      <c r="BZ89" s="25"/>
-      <c r="CA89" s="25"/>
-      <c r="CB89" s="25"/>
-      <c r="CC89" s="25"/>
-      <c r="CD89" s="25"/>
-      <c r="CE89" s="25"/>
-      <c r="CF89" s="25"/>
-      <c r="CG89" s="25"/>
-      <c r="CH89" s="25"/>
-      <c r="CI89" s="25"/>
-      <c r="CJ89" s="25"/>
-      <c r="CK89" s="25"/>
-      <c r="CL89" s="25"/>
-      <c r="CM89" s="11"/>
+      <c r="BZ89" s="17"/>
+      <c r="CA89" s="17"/>
+      <c r="CB89" s="17"/>
+      <c r="CC89" s="17"/>
+      <c r="CD89" s="17"/>
+      <c r="CE89" s="17"/>
+      <c r="CF89" s="17"/>
+      <c r="CG89" s="17"/>
+      <c r="CH89" s="17"/>
+      <c r="CI89" s="17"/>
+      <c r="CJ89" s="17"/>
+      <c r="CK89" s="17"/>
+      <c r="CL89" s="17"/>
+      <c r="CM89" s="17"/>
       <c r="CN89" s="11"/>
       <c r="CO89" s="11"/>
       <c r="CP89" s="11"/>
@@ -36697,7 +36645,7 @@
       <c r="EX89" s="11"/>
       <c r="EY89" s="11"/>
     </row>
-    <row r="90" spans="1:155" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:155" ht="18" x14ac:dyDescent="0.35">
       <c r="A90" s="14" t="s">
         <v>13</v>
       </c>
@@ -36929,46 +36877,48 @@
       <c r="BY90" s="18">
         <v>101.24548735136692</v>
       </c>
-      <c r="BZ90" s="27">
+      <c r="BZ90" s="18">
         <v>101.35520333008255</v>
       </c>
-      <c r="CA90" s="27">
+      <c r="CA90" s="18">
         <v>102.55221175768796</v>
       </c>
-      <c r="CB90" s="27">
+      <c r="CB90" s="18">
         <v>103.13277586067422</v>
       </c>
-      <c r="CC90" s="27">
+      <c r="CC90" s="18">
         <v>103.70813985430591</v>
       </c>
-      <c r="CD90" s="27">
+      <c r="CD90" s="18">
         <v>104.31177287991844</v>
       </c>
-      <c r="CE90" s="27">
+      <c r="CE90" s="18">
         <v>105.64240998368544</v>
       </c>
-      <c r="CF90" s="27">
+      <c r="CF90" s="18">
         <v>105.72757304789819</v>
       </c>
-      <c r="CG90" s="27">
+      <c r="CG90" s="18">
         <v>105.54157362900258</v>
       </c>
-      <c r="CH90" s="27">
+      <c r="CH90" s="18">
         <v>106.49362060355423</v>
       </c>
-      <c r="CI90" s="27">
+      <c r="CI90" s="18">
         <v>106.52462651588523</v>
       </c>
-      <c r="CJ90" s="27">
+      <c r="CJ90" s="18">
         <v>106.59236949340661</v>
       </c>
-      <c r="CK90" s="27">
+      <c r="CK90" s="18">
         <v>106.44330050915171</v>
       </c>
-      <c r="CL90" s="27">
-        <v>107.52960424850744</v>
-      </c>
-      <c r="CM90" s="11"/>
+      <c r="CL90" s="18">
+        <v>107.53541257715165</v>
+      </c>
+      <c r="CM90" s="18">
+        <v>106.65983663752993</v>
+      </c>
       <c r="CN90" s="11"/>
       <c r="CO90" s="11"/>
       <c r="CP90" s="11"/>
@@ -37034,7 +36984,7 @@
       <c r="EX90" s="11"/>
       <c r="EY90" s="11"/>
     </row>
-    <row r="91" spans="1:155" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:155" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="15"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
@@ -37112,21 +37062,22 @@
       <c r="BW91" s="15"/>
       <c r="BX91" s="15"/>
       <c r="BY91" s="15"/>
-      <c r="BZ91" s="24"/>
-      <c r="CA91" s="24"/>
-      <c r="CB91" s="24"/>
-      <c r="CC91" s="24"/>
-      <c r="CD91" s="24"/>
-      <c r="CE91" s="24"/>
-      <c r="CF91" s="24"/>
-      <c r="CG91" s="24"/>
-      <c r="CH91" s="24"/>
-      <c r="CI91" s="24"/>
-      <c r="CJ91" s="24"/>
-      <c r="CK91" s="24"/>
-      <c r="CL91" s="24"/>
+      <c r="BZ91" s="15"/>
+      <c r="CA91" s="15"/>
+      <c r="CB91" s="15"/>
+      <c r="CC91" s="15"/>
+      <c r="CD91" s="15"/>
+      <c r="CE91" s="15"/>
+      <c r="CF91" s="15"/>
+      <c r="CG91" s="15"/>
+      <c r="CH91" s="15"/>
+      <c r="CI91" s="15"/>
+      <c r="CJ91" s="15"/>
+      <c r="CK91" s="15"/>
+      <c r="CL91" s="15"/>
+      <c r="CM91" s="15"/>
     </row>
-    <row r="92" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="16" t="s">
         <v>0</v>
       </c>
@@ -37206,21 +37157,22 @@
       <c r="BW92" s="1"/>
       <c r="BX92" s="1"/>
       <c r="BY92" s="1"/>
-      <c r="BZ92" s="20"/>
-      <c r="CA92" s="20"/>
-      <c r="CB92" s="20"/>
-      <c r="CC92" s="20"/>
-      <c r="CD92" s="20"/>
-      <c r="CE92" s="20"/>
-      <c r="CF92" s="20"/>
-      <c r="CG92" s="20"/>
-      <c r="CH92" s="20"/>
-      <c r="CI92" s="20"/>
-      <c r="CJ92" s="20"/>
-      <c r="CK92" s="20"/>
-      <c r="CL92" s="20"/>
+      <c r="BZ92" s="1"/>
+      <c r="CA92" s="1"/>
+      <c r="CB92" s="1"/>
+      <c r="CC92" s="1"/>
+      <c r="CD92" s="1"/>
+      <c r="CE92" s="1"/>
+      <c r="CF92" s="1"/>
+      <c r="CG92" s="1"/>
+      <c r="CH92" s="1"/>
+      <c r="CI92" s="1"/>
+      <c r="CJ92" s="1"/>
+      <c r="CK92" s="1"/>
+      <c r="CL92" s="1"/>
+      <c r="CM92" s="1"/>
     </row>
-    <row r="93" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:155" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -37297,21 +37249,22 @@
       <c r="BW93" s="1"/>
       <c r="BX93" s="1"/>
       <c r="BY93" s="1"/>
-      <c r="BZ93" s="20"/>
-      <c r="CA93" s="20"/>
-      <c r="CB93" s="20"/>
-      <c r="CC93" s="20"/>
-      <c r="CD93" s="20"/>
-      <c r="CE93" s="20"/>
-      <c r="CF93" s="20"/>
-      <c r="CG93" s="20"/>
-      <c r="CH93" s="20"/>
-      <c r="CI93" s="20"/>
-      <c r="CJ93" s="20"/>
-      <c r="CK93" s="20"/>
-      <c r="CL93" s="20"/>
+      <c r="BZ93" s="1"/>
+      <c r="CA93" s="1"/>
+      <c r="CB93" s="1"/>
+      <c r="CC93" s="1"/>
+      <c r="CD93" s="1"/>
+      <c r="CE93" s="1"/>
+      <c r="CF93" s="1"/>
+      <c r="CG93" s="1"/>
+      <c r="CH93" s="1"/>
+      <c r="CI93" s="1"/>
+      <c r="CJ93" s="1"/>
+      <c r="CK93" s="1"/>
+      <c r="CL93" s="1"/>
+      <c r="CM93" s="1"/>
     </row>
-    <row r="94" spans="1:155" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:155" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -37388,21 +37341,22 @@
       <c r="BW94" s="1"/>
       <c r="BX94" s="1"/>
       <c r="BY94" s="1"/>
-      <c r="BZ94" s="20"/>
-      <c r="CA94" s="20"/>
-      <c r="CB94" s="20"/>
-      <c r="CC94" s="20"/>
-      <c r="CD94" s="20"/>
-      <c r="CE94" s="20"/>
-      <c r="CF94" s="20"/>
-      <c r="CG94" s="20"/>
-      <c r="CH94" s="20"/>
-      <c r="CI94" s="20"/>
-      <c r="CJ94" s="20"/>
-      <c r="CK94" s="20"/>
-      <c r="CL94" s="20"/>
+      <c r="BZ94" s="1"/>
+      <c r="CA94" s="1"/>
+      <c r="CB94" s="1"/>
+      <c r="CC94" s="1"/>
+      <c r="CD94" s="1"/>
+      <c r="CE94" s="1"/>
+      <c r="CF94" s="1"/>
+      <c r="CG94" s="1"/>
+      <c r="CH94" s="1"/>
+      <c r="CI94" s="1"/>
+      <c r="CJ94" s="1"/>
+      <c r="CK94" s="1"/>
+      <c r="CL94" s="1"/>
+      <c r="CM94" s="1"/>
     </row>
-    <row r="95" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>2</v>
       </c>
@@ -37482,21 +37436,22 @@
       <c r="BW95" s="1"/>
       <c r="BX95" s="1"/>
       <c r="BY95" s="1"/>
-      <c r="BZ95" s="20"/>
-      <c r="CA95" s="20"/>
-      <c r="CB95" s="20"/>
-      <c r="CC95" s="20"/>
-      <c r="CD95" s="20"/>
-      <c r="CE95" s="20"/>
-      <c r="CF95" s="20"/>
-      <c r="CG95" s="20"/>
-      <c r="CH95" s="20"/>
-      <c r="CI95" s="20"/>
-      <c r="CJ95" s="20"/>
-      <c r="CK95" s="20"/>
-      <c r="CL95" s="20"/>
+      <c r="BZ95" s="1"/>
+      <c r="CA95" s="1"/>
+      <c r="CB95" s="1"/>
+      <c r="CC95" s="1"/>
+      <c r="CD95" s="1"/>
+      <c r="CE95" s="1"/>
+      <c r="CF95" s="1"/>
+      <c r="CG95" s="1"/>
+      <c r="CH95" s="1"/>
+      <c r="CI95" s="1"/>
+      <c r="CJ95" s="1"/>
+      <c r="CK95" s="1"/>
+      <c r="CL95" s="1"/>
+      <c r="CM95" s="1"/>
     </row>
-    <row r="96" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>1</v>
       </c>
@@ -37576,21 +37531,22 @@
       <c r="BW96" s="1"/>
       <c r="BX96" s="1"/>
       <c r="BY96" s="1"/>
-      <c r="BZ96" s="20"/>
-      <c r="CA96" s="20"/>
-      <c r="CB96" s="20"/>
-      <c r="CC96" s="20"/>
-      <c r="CD96" s="20"/>
-      <c r="CE96" s="20"/>
-      <c r="CF96" s="20"/>
-      <c r="CG96" s="20"/>
-      <c r="CH96" s="20"/>
-      <c r="CI96" s="20"/>
-      <c r="CJ96" s="20"/>
-      <c r="CK96" s="20"/>
-      <c r="CL96" s="20"/>
+      <c r="BZ96" s="1"/>
+      <c r="CA96" s="1"/>
+      <c r="CB96" s="1"/>
+      <c r="CC96" s="1"/>
+      <c r="CD96" s="1"/>
+      <c r="CE96" s="1"/>
+      <c r="CF96" s="1"/>
+      <c r="CG96" s="1"/>
+      <c r="CH96" s="1"/>
+      <c r="CI96" s="1"/>
+      <c r="CJ96" s="1"/>
+      <c r="CK96" s="1"/>
+      <c r="CL96" s="1"/>
+      <c r="CM96" s="1"/>
     </row>
-    <row r="97" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>48</v>
       </c>
@@ -37670,21 +37626,22 @@
       <c r="BW97" s="1"/>
       <c r="BX97" s="1"/>
       <c r="BY97" s="1"/>
-      <c r="BZ97" s="20"/>
-      <c r="CA97" s="20"/>
-      <c r="CB97" s="20"/>
-      <c r="CC97" s="20"/>
-      <c r="CD97" s="20"/>
-      <c r="CE97" s="20"/>
-      <c r="CF97" s="20"/>
-      <c r="CG97" s="20"/>
-      <c r="CH97" s="20"/>
-      <c r="CI97" s="20"/>
-      <c r="CJ97" s="20"/>
-      <c r="CK97" s="20"/>
-      <c r="CL97" s="20"/>
+      <c r="BZ97" s="1"/>
+      <c r="CA97" s="1"/>
+      <c r="CB97" s="1"/>
+      <c r="CC97" s="1"/>
+      <c r="CD97" s="1"/>
+      <c r="CE97" s="1"/>
+      <c r="CF97" s="1"/>
+      <c r="CG97" s="1"/>
+      <c r="CH97" s="1"/>
+      <c r="CI97" s="1"/>
+      <c r="CJ97" s="1"/>
+      <c r="CK97" s="1"/>
+      <c r="CL97" s="1"/>
+      <c r="CM97" s="1"/>
     </row>
-    <row r="98" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -37762,21 +37719,22 @@
       <c r="BW98" s="1"/>
       <c r="BX98" s="1"/>
       <c r="BY98" s="1"/>
-      <c r="BZ98" s="20"/>
-      <c r="CA98" s="20"/>
-      <c r="CB98" s="20"/>
-      <c r="CC98" s="20"/>
-      <c r="CD98" s="20"/>
-      <c r="CE98" s="20"/>
-      <c r="CF98" s="20"/>
-      <c r="CG98" s="20"/>
-      <c r="CH98" s="20"/>
-      <c r="CI98" s="20"/>
-      <c r="CJ98" s="20"/>
-      <c r="CK98" s="20"/>
-      <c r="CL98" s="20"/>
+      <c r="BZ98" s="1"/>
+      <c r="CA98" s="1"/>
+      <c r="CB98" s="1"/>
+      <c r="CC98" s="1"/>
+      <c r="CD98" s="1"/>
+      <c r="CE98" s="1"/>
+      <c r="CF98" s="1"/>
+      <c r="CG98" s="1"/>
+      <c r="CH98" s="1"/>
+      <c r="CI98" s="1"/>
+      <c r="CJ98" s="1"/>
+      <c r="CK98" s="1"/>
+      <c r="CL98" s="1"/>
+      <c r="CM98" s="1"/>
     </row>
-    <row r="99" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>19</v>
       </c>
@@ -37856,21 +37814,22 @@
       <c r="BW99" s="1"/>
       <c r="BX99" s="1"/>
       <c r="BY99" s="1"/>
-      <c r="BZ99" s="20"/>
-      <c r="CA99" s="20"/>
-      <c r="CB99" s="20"/>
-      <c r="CC99" s="20"/>
-      <c r="CD99" s="20"/>
-      <c r="CE99" s="20"/>
-      <c r="CF99" s="20"/>
-      <c r="CG99" s="20"/>
-      <c r="CH99" s="20"/>
-      <c r="CI99" s="20"/>
-      <c r="CJ99" s="20"/>
-      <c r="CK99" s="20"/>
-      <c r="CL99" s="20"/>
+      <c r="BZ99" s="1"/>
+      <c r="CA99" s="1"/>
+      <c r="CB99" s="1"/>
+      <c r="CC99" s="1"/>
+      <c r="CD99" s="1"/>
+      <c r="CE99" s="1"/>
+      <c r="CF99" s="1"/>
+      <c r="CG99" s="1"/>
+      <c r="CH99" s="1"/>
+      <c r="CI99" s="1"/>
+      <c r="CJ99" s="1"/>
+      <c r="CK99" s="1"/>
+      <c r="CL99" s="1"/>
+      <c r="CM99" s="1"/>
     </row>
-    <row r="100" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>49</v>
       </c>
@@ -37950,21 +37909,22 @@
       <c r="BW100" s="1"/>
       <c r="BX100" s="1"/>
       <c r="BY100" s="1"/>
-      <c r="BZ100" s="20"/>
-      <c r="CA100" s="20"/>
-      <c r="CB100" s="20"/>
-      <c r="CC100" s="20"/>
-      <c r="CD100" s="20"/>
-      <c r="CE100" s="20"/>
-      <c r="CF100" s="20"/>
-      <c r="CG100" s="20"/>
-      <c r="CH100" s="20"/>
-      <c r="CI100" s="20"/>
-      <c r="CJ100" s="20"/>
-      <c r="CK100" s="20"/>
-      <c r="CL100" s="20"/>
+      <c r="BZ100" s="1"/>
+      <c r="CA100" s="1"/>
+      <c r="CB100" s="1"/>
+      <c r="CC100" s="1"/>
+      <c r="CD100" s="1"/>
+      <c r="CE100" s="1"/>
+      <c r="CF100" s="1"/>
+      <c r="CG100" s="1"/>
+      <c r="CH100" s="1"/>
+      <c r="CI100" s="1"/>
+      <c r="CJ100" s="1"/>
+      <c r="CK100" s="1"/>
+      <c r="CL100" s="1"/>
+      <c r="CM100" s="1"/>
     </row>
-    <row r="101" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>23</v>
       </c>
@@ -38044,21 +38004,22 @@
       <c r="BW101" s="1"/>
       <c r="BX101" s="1"/>
       <c r="BY101" s="1"/>
-      <c r="BZ101" s="20"/>
-      <c r="CA101" s="20"/>
-      <c r="CB101" s="20"/>
-      <c r="CC101" s="20"/>
-      <c r="CD101" s="20"/>
-      <c r="CE101" s="20"/>
-      <c r="CF101" s="20"/>
-      <c r="CG101" s="20"/>
-      <c r="CH101" s="20"/>
-      <c r="CI101" s="20"/>
-      <c r="CJ101" s="20"/>
-      <c r="CK101" s="20"/>
-      <c r="CL101" s="20"/>
+      <c r="BZ101" s="1"/>
+      <c r="CA101" s="1"/>
+      <c r="CB101" s="1"/>
+      <c r="CC101" s="1"/>
+      <c r="CD101" s="1"/>
+      <c r="CE101" s="1"/>
+      <c r="CF101" s="1"/>
+      <c r="CG101" s="1"/>
+      <c r="CH101" s="1"/>
+      <c r="CI101" s="1"/>
+      <c r="CJ101" s="1"/>
+      <c r="CK101" s="1"/>
+      <c r="CL101" s="1"/>
+      <c r="CM101" s="1"/>
     </row>
-    <row r="102" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -38136,159 +38097,161 @@
       <c r="BW102" s="1"/>
       <c r="BX102" s="1"/>
       <c r="BY102" s="1"/>
-      <c r="BZ102" s="20"/>
-      <c r="CA102" s="20"/>
-      <c r="CB102" s="20"/>
-      <c r="CC102" s="20"/>
-      <c r="CD102" s="20"/>
-      <c r="CE102" s="20"/>
-      <c r="CF102" s="20"/>
-      <c r="CG102" s="20"/>
-      <c r="CH102" s="20"/>
-      <c r="CI102" s="20"/>
-      <c r="CJ102" s="20"/>
-      <c r="CK102" s="20"/>
-      <c r="CL102" s="20"/>
+      <c r="BZ102" s="1"/>
+      <c r="CA102" s="1"/>
+      <c r="CB102" s="1"/>
+      <c r="CC102" s="1"/>
+      <c r="CD102" s="1"/>
+      <c r="CE102" s="1"/>
+      <c r="CF102" s="1"/>
+      <c r="CG102" s="1"/>
+      <c r="CH102" s="1"/>
+      <c r="CI102" s="1"/>
+      <c r="CJ102" s="1"/>
+      <c r="CK102" s="1"/>
+      <c r="CL102" s="1"/>
+      <c r="CM102" s="1"/>
     </row>
-    <row r="103" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
-      <c r="B103" s="33">
+      <c r="B103" s="24">
         <v>2000</v>
       </c>
-      <c r="C103" s="34"/>
-      <c r="D103" s="34"/>
-      <c r="E103" s="34"/>
-      <c r="F103" s="33">
+      <c r="C103" s="25"/>
+      <c r="D103" s="25"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="24">
         <v>2001</v>
       </c>
-      <c r="G103" s="34"/>
-      <c r="H103" s="34"/>
-      <c r="I103" s="34"/>
-      <c r="J103" s="33">
+      <c r="G103" s="25"/>
+      <c r="H103" s="25"/>
+      <c r="I103" s="25"/>
+      <c r="J103" s="24">
         <v>2002</v>
       </c>
-      <c r="K103" s="34"/>
-      <c r="L103" s="34"/>
-      <c r="M103" s="34"/>
-      <c r="N103" s="33">
+      <c r="K103" s="25"/>
+      <c r="L103" s="25"/>
+      <c r="M103" s="25"/>
+      <c r="N103" s="24">
         <v>2003</v>
       </c>
-      <c r="O103" s="34"/>
-      <c r="P103" s="34"/>
-      <c r="Q103" s="34"/>
-      <c r="R103" s="33">
+      <c r="O103" s="25"/>
+      <c r="P103" s="25"/>
+      <c r="Q103" s="25"/>
+      <c r="R103" s="24">
         <v>2004</v>
       </c>
-      <c r="S103" s="34"/>
-      <c r="T103" s="34"/>
-      <c r="U103" s="34"/>
-      <c r="V103" s="33">
+      <c r="S103" s="25"/>
+      <c r="T103" s="25"/>
+      <c r="U103" s="25"/>
+      <c r="V103" s="24">
         <v>2005</v>
       </c>
-      <c r="W103" s="34"/>
-      <c r="X103" s="34"/>
-      <c r="Y103" s="34"/>
-      <c r="Z103" s="33">
+      <c r="W103" s="25"/>
+      <c r="X103" s="25"/>
+      <c r="Y103" s="25"/>
+      <c r="Z103" s="24">
         <v>2006</v>
       </c>
-      <c r="AA103" s="34"/>
-      <c r="AB103" s="34"/>
-      <c r="AC103" s="34"/>
-      <c r="AD103" s="33">
+      <c r="AA103" s="25"/>
+      <c r="AB103" s="25"/>
+      <c r="AC103" s="25"/>
+      <c r="AD103" s="24">
         <v>2007</v>
       </c>
-      <c r="AE103" s="34"/>
-      <c r="AF103" s="34"/>
-      <c r="AG103" s="34"/>
-      <c r="AH103" s="33">
+      <c r="AE103" s="25"/>
+      <c r="AF103" s="25"/>
+      <c r="AG103" s="25"/>
+      <c r="AH103" s="24">
         <v>2008</v>
       </c>
-      <c r="AI103" s="34"/>
-      <c r="AJ103" s="34"/>
-      <c r="AK103" s="34"/>
-      <c r="AL103" s="33">
+      <c r="AI103" s="25"/>
+      <c r="AJ103" s="25"/>
+      <c r="AK103" s="25"/>
+      <c r="AL103" s="24">
         <v>2009</v>
       </c>
-      <c r="AM103" s="34"/>
-      <c r="AN103" s="34"/>
-      <c r="AO103" s="34"/>
-      <c r="AP103" s="33">
+      <c r="AM103" s="25"/>
+      <c r="AN103" s="25"/>
+      <c r="AO103" s="25"/>
+      <c r="AP103" s="24">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="34"/>
-      <c r="AR103" s="34"/>
-      <c r="AS103" s="34"/>
-      <c r="AT103" s="33">
+      <c r="AQ103" s="25"/>
+      <c r="AR103" s="25"/>
+      <c r="AS103" s="25"/>
+      <c r="AT103" s="24">
         <v>2011</v>
       </c>
-      <c r="AU103" s="34"/>
-      <c r="AV103" s="34"/>
-      <c r="AW103" s="34"/>
-      <c r="AX103" s="33">
+      <c r="AU103" s="25"/>
+      <c r="AV103" s="25"/>
+      <c r="AW103" s="25"/>
+      <c r="AX103" s="24">
         <v>2012</v>
       </c>
-      <c r="AY103" s="34"/>
-      <c r="AZ103" s="34"/>
-      <c r="BA103" s="34"/>
-      <c r="BB103" s="33">
+      <c r="AY103" s="25"/>
+      <c r="AZ103" s="25"/>
+      <c r="BA103" s="25"/>
+      <c r="BB103" s="24">
         <v>2013</v>
       </c>
-      <c r="BC103" s="34"/>
-      <c r="BD103" s="34"/>
-      <c r="BE103" s="34"/>
-      <c r="BF103" s="33">
+      <c r="BC103" s="25"/>
+      <c r="BD103" s="25"/>
+      <c r="BE103" s="25"/>
+      <c r="BF103" s="24">
         <v>2014</v>
       </c>
-      <c r="BG103" s="34"/>
-      <c r="BH103" s="34"/>
-      <c r="BI103" s="34"/>
-      <c r="BJ103" s="33">
+      <c r="BG103" s="25"/>
+      <c r="BH103" s="25"/>
+      <c r="BI103" s="25"/>
+      <c r="BJ103" s="24">
         <v>2015</v>
       </c>
-      <c r="BK103" s="34"/>
-      <c r="BL103" s="34"/>
-      <c r="BM103" s="34"/>
-      <c r="BN103" s="33">
+      <c r="BK103" s="25"/>
+      <c r="BL103" s="25"/>
+      <c r="BM103" s="25"/>
+      <c r="BN103" s="24">
         <v>2016</v>
       </c>
-      <c r="BO103" s="34"/>
-      <c r="BP103" s="34"/>
-      <c r="BQ103" s="34"/>
-      <c r="BR103" s="33">
+      <c r="BO103" s="25"/>
+      <c r="BP103" s="25"/>
+      <c r="BQ103" s="25"/>
+      <c r="BR103" s="24">
         <v>2017</v>
       </c>
-      <c r="BS103" s="34"/>
-      <c r="BT103" s="34"/>
-      <c r="BU103" s="34"/>
-      <c r="BV103" s="33">
+      <c r="BS103" s="25"/>
+      <c r="BT103" s="25"/>
+      <c r="BU103" s="25"/>
+      <c r="BV103" s="24">
         <v>2018</v>
       </c>
-      <c r="BW103" s="33"/>
-      <c r="BX103" s="33"/>
-      <c r="BY103" s="33"/>
-      <c r="BZ103" s="31">
+      <c r="BW103" s="24"/>
+      <c r="BX103" s="24"/>
+      <c r="BY103" s="24"/>
+      <c r="BZ103" s="24">
         <v>2019</v>
       </c>
-      <c r="CA103" s="35"/>
-      <c r="CB103" s="35"/>
-      <c r="CC103" s="35"/>
-      <c r="CD103" s="32">
+      <c r="CA103" s="24"/>
+      <c r="CB103" s="24"/>
+      <c r="CC103" s="24"/>
+      <c r="CD103" s="24">
         <v>2020</v>
       </c>
-      <c r="CE103" s="32"/>
-      <c r="CF103" s="32"/>
-      <c r="CG103" s="32"/>
-      <c r="CH103" s="32">
+      <c r="CE103" s="24"/>
+      <c r="CF103" s="24"/>
+      <c r="CG103" s="24"/>
+      <c r="CH103" s="24">
         <v>2021</v>
       </c>
-      <c r="CI103" s="32"/>
-      <c r="CJ103" s="32"/>
-      <c r="CK103" s="32"/>
-      <c r="CL103" s="30">
+      <c r="CI103" s="24"/>
+      <c r="CJ103" s="24"/>
+      <c r="CK103" s="24"/>
+      <c r="CL103" s="24">
         <v>2022</v>
       </c>
+      <c r="CM103" s="24"/>
     </row>
-    <row r="104" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>4</v>
       </c>
@@ -38520,47 +38483,50 @@
       <c r="BY104" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BZ104" s="21" t="s">
+      <c r="BZ104" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CA104" s="21" t="s">
+      <c r="CA104" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CB104" s="21" t="s">
+      <c r="CB104" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CC104" s="21" t="s">
+      <c r="CC104" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CD104" s="21" t="s">
+      <c r="CD104" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CE104" s="21" t="s">
+      <c r="CE104" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CF104" s="21" t="s">
+      <c r="CF104" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CG104" s="21" t="s">
+      <c r="CG104" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CH104" s="21" t="s">
+      <c r="CH104" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CI104" s="21" t="s">
+      <c r="CI104" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CJ104" s="21" t="s">
+      <c r="CJ104" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CK104" s="21" t="s">
+      <c r="CK104" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL104" s="21" t="s">
+      <c r="CL104" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="CM104" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="105" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -38638,21 +38604,22 @@
       <c r="BW105" s="1"/>
       <c r="BX105" s="1"/>
       <c r="BY105" s="1"/>
-      <c r="BZ105" s="20"/>
-      <c r="CA105" s="20"/>
-      <c r="CB105" s="20"/>
-      <c r="CC105" s="20"/>
-      <c r="CD105" s="20"/>
-      <c r="CE105" s="20"/>
-      <c r="CF105" s="20"/>
-      <c r="CG105" s="20"/>
-      <c r="CH105" s="20"/>
-      <c r="CI105" s="20"/>
-      <c r="CJ105" s="20"/>
-      <c r="CK105" s="20"/>
-      <c r="CL105" s="20"/>
+      <c r="BZ105" s="1"/>
+      <c r="CA105" s="1"/>
+      <c r="CB105" s="1"/>
+      <c r="CC105" s="1"/>
+      <c r="CD105" s="1"/>
+      <c r="CE105" s="1"/>
+      <c r="CF105" s="1"/>
+      <c r="CG105" s="1"/>
+      <c r="CH105" s="1"/>
+      <c r="CI105" s="1"/>
+      <c r="CJ105" s="1"/>
+      <c r="CK105" s="1"/>
+      <c r="CL105" s="1"/>
+      <c r="CM105" s="1"/>
     </row>
-    <row r="106" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="9" t="s">
         <v>11</v>
       </c>
@@ -38884,46 +38851,48 @@
       <c r="BY106" s="18">
         <v>63.493559254840108</v>
       </c>
-      <c r="BZ106" s="27">
+      <c r="BZ106" s="18">
         <v>60.332978259931636</v>
       </c>
-      <c r="CA106" s="27">
+      <c r="CA106" s="18">
         <v>67.611112175937407</v>
       </c>
-      <c r="CB106" s="27">
+      <c r="CB106" s="18">
         <v>62.761257506928089</v>
       </c>
-      <c r="CC106" s="27">
+      <c r="CC106" s="18">
         <v>64.856821086962356</v>
       </c>
-      <c r="CD106" s="27">
+      <c r="CD106" s="18">
         <v>59.394020217789112</v>
       </c>
-      <c r="CE106" s="27">
+      <c r="CE106" s="18">
         <v>46.35070879122955</v>
       </c>
-      <c r="CF106" s="27">
+      <c r="CF106" s="18">
         <v>48.469213973627028</v>
       </c>
-      <c r="CG106" s="27">
+      <c r="CG106" s="18">
         <v>54.21358205791956</v>
       </c>
-      <c r="CH106" s="27">
+      <c r="CH106" s="18">
         <v>51.149201793771518</v>
       </c>
-      <c r="CI106" s="27">
+      <c r="CI106" s="18">
         <v>53.378819229311894</v>
       </c>
-      <c r="CJ106" s="27">
+      <c r="CJ106" s="18">
         <v>54.325175984928165</v>
       </c>
-      <c r="CK106" s="27">
+      <c r="CK106" s="18">
         <v>61.3688930259123</v>
       </c>
-      <c r="CL106" s="27">
-        <v>52.989671666104186</v>
-      </c>
-      <c r="CM106" s="11"/>
+      <c r="CL106" s="18">
+        <v>52.923891162372328</v>
+      </c>
+      <c r="CM106" s="18">
+        <v>60.429285608830419</v>
+      </c>
       <c r="CN106" s="11"/>
       <c r="CO106" s="11"/>
       <c r="CP106" s="11"/>
@@ -38989,7 +38958,7 @@
       <c r="EX106" s="11"/>
       <c r="EY106" s="11"/>
     </row>
-    <row r="107" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>12</v>
       </c>
@@ -39221,46 +39190,48 @@
       <c r="BY107" s="18">
         <v>36.5064407451599</v>
       </c>
-      <c r="BZ107" s="27">
+      <c r="BZ107" s="18">
         <v>39.667021740068357</v>
       </c>
-      <c r="CA107" s="27">
+      <c r="CA107" s="18">
         <v>32.3888878240626</v>
       </c>
-      <c r="CB107" s="27">
+      <c r="CB107" s="18">
         <v>37.238742493071904</v>
       </c>
-      <c r="CC107" s="27">
+      <c r="CC107" s="18">
         <v>35.143178913037644</v>
       </c>
-      <c r="CD107" s="27">
+      <c r="CD107" s="18">
         <v>40.605979782210895</v>
       </c>
-      <c r="CE107" s="27">
+      <c r="CE107" s="18">
         <v>53.649291208770457</v>
       </c>
-      <c r="CF107" s="27">
+      <c r="CF107" s="18">
         <v>51.530786026372979</v>
       </c>
-      <c r="CG107" s="27">
+      <c r="CG107" s="18">
         <v>45.786417942080448</v>
       </c>
-      <c r="CH107" s="27">
+      <c r="CH107" s="18">
         <v>48.85079820622849</v>
       </c>
-      <c r="CI107" s="27">
+      <c r="CI107" s="18">
         <v>46.621180770688099</v>
       </c>
-      <c r="CJ107" s="27">
+      <c r="CJ107" s="18">
         <v>45.674824015071842</v>
       </c>
-      <c r="CK107" s="27">
+      <c r="CK107" s="18">
         <v>38.631106974087693</v>
       </c>
-      <c r="CL107" s="27">
-        <v>47.010328333895814</v>
-      </c>
-      <c r="CM107" s="11"/>
+      <c r="CL107" s="18">
+        <v>47.076108837627672</v>
+      </c>
+      <c r="CM107" s="18">
+        <v>39.570714391169574</v>
+      </c>
       <c r="CN107" s="11"/>
       <c r="CO107" s="11"/>
       <c r="CP107" s="11"/>
@@ -39326,7 +39297,7 @@
       <c r="EX107" s="11"/>
       <c r="EY107" s="11"/>
     </row>
-    <row r="108" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="17"/>
       <c r="C108" s="17"/>
       <c r="D108" s="17"/>
@@ -39403,20 +39374,20 @@
       <c r="BW108" s="17"/>
       <c r="BX108" s="17"/>
       <c r="BY108" s="17"/>
-      <c r="BZ108" s="25"/>
-      <c r="CA108" s="25"/>
-      <c r="CB108" s="25"/>
-      <c r="CC108" s="25"/>
-      <c r="CD108" s="25"/>
-      <c r="CE108" s="25"/>
-      <c r="CF108" s="25"/>
-      <c r="CG108" s="25"/>
-      <c r="CH108" s="25"/>
-      <c r="CI108" s="25"/>
-      <c r="CJ108" s="25"/>
-      <c r="CK108" s="25"/>
-      <c r="CL108" s="25"/>
-      <c r="CM108" s="11"/>
+      <c r="BZ108" s="17"/>
+      <c r="CA108" s="17"/>
+      <c r="CB108" s="17"/>
+      <c r="CC108" s="17"/>
+      <c r="CD108" s="17"/>
+      <c r="CE108" s="17"/>
+      <c r="CF108" s="17"/>
+      <c r="CG108" s="17"/>
+      <c r="CH108" s="17"/>
+      <c r="CI108" s="17"/>
+      <c r="CJ108" s="17"/>
+      <c r="CK108" s="17"/>
+      <c r="CL108" s="17"/>
+      <c r="CM108" s="17"/>
       <c r="CN108" s="11"/>
       <c r="CO108" s="11"/>
       <c r="CP108" s="11"/>
@@ -39482,7 +39453,7 @@
       <c r="EX108" s="11"/>
       <c r="EY108" s="11"/>
     </row>
-    <row r="109" spans="1:155" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:155" ht="18" x14ac:dyDescent="0.35">
       <c r="A109" s="14" t="s">
         <v>13</v>
       </c>
@@ -39714,46 +39685,48 @@
       <c r="BY109" s="18">
         <v>100</v>
       </c>
-      <c r="BZ109" s="27">
+      <c r="BZ109" s="18">
         <v>100</v>
       </c>
-      <c r="CA109" s="27">
+      <c r="CA109" s="18">
         <v>100</v>
       </c>
-      <c r="CB109" s="27">
+      <c r="CB109" s="18">
         <v>100</v>
       </c>
-      <c r="CC109" s="27">
+      <c r="CC109" s="18">
         <v>100</v>
       </c>
-      <c r="CD109" s="27">
+      <c r="CD109" s="18">
         <v>100</v>
       </c>
-      <c r="CE109" s="27">
+      <c r="CE109" s="18">
         <v>100</v>
       </c>
-      <c r="CF109" s="27">
+      <c r="CF109" s="18">
         <v>100</v>
       </c>
-      <c r="CG109" s="27">
+      <c r="CG109" s="18">
         <v>100</v>
       </c>
-      <c r="CH109" s="27">
+      <c r="CH109" s="18">
         <v>100</v>
       </c>
-      <c r="CI109" s="27">
+      <c r="CI109" s="18">
         <v>100</v>
       </c>
-      <c r="CJ109" s="27">
+      <c r="CJ109" s="18">
         <v>100</v>
       </c>
-      <c r="CK109" s="27">
+      <c r="CK109" s="18">
         <v>100</v>
       </c>
-      <c r="CL109" s="27">
+      <c r="CL109" s="18">
         <v>100</v>
       </c>
-      <c r="CM109" s="11"/>
+      <c r="CM109" s="18">
+        <v>100</v>
+      </c>
       <c r="CN109" s="11"/>
       <c r="CO109" s="11"/>
       <c r="CP109" s="11"/>
@@ -39819,7 +39792,7 @@
       <c r="EX109" s="11"/>
       <c r="EY109" s="11"/>
     </row>
-    <row r="110" spans="1:155" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:155" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="15"/>
       <c r="B110" s="15"/>
       <c r="C110" s="15"/>
@@ -39897,21 +39870,22 @@
       <c r="BW110" s="15"/>
       <c r="BX110" s="15"/>
       <c r="BY110" s="15"/>
-      <c r="BZ110" s="24"/>
-      <c r="CA110" s="24"/>
-      <c r="CB110" s="24"/>
-      <c r="CC110" s="24"/>
-      <c r="CD110" s="24"/>
-      <c r="CE110" s="24"/>
-      <c r="CF110" s="24"/>
-      <c r="CG110" s="24"/>
-      <c r="CH110" s="24"/>
-      <c r="CI110" s="24"/>
-      <c r="CJ110" s="24"/>
-      <c r="CK110" s="24"/>
-      <c r="CL110" s="24"/>
+      <c r="BZ110" s="15"/>
+      <c r="CA110" s="15"/>
+      <c r="CB110" s="15"/>
+      <c r="CC110" s="15"/>
+      <c r="CD110" s="15"/>
+      <c r="CE110" s="15"/>
+      <c r="CF110" s="15"/>
+      <c r="CG110" s="15"/>
+      <c r="CH110" s="15"/>
+      <c r="CI110" s="15"/>
+      <c r="CJ110" s="15"/>
+      <c r="CK110" s="15"/>
+      <c r="CL110" s="15"/>
+      <c r="CM110" s="15"/>
     </row>
-    <row r="111" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="16" t="s">
         <v>0</v>
       </c>
@@ -39991,21 +39965,22 @@
       <c r="BW111" s="1"/>
       <c r="BX111" s="1"/>
       <c r="BY111" s="1"/>
-      <c r="BZ111" s="20"/>
-      <c r="CA111" s="20"/>
-      <c r="CB111" s="20"/>
-      <c r="CC111" s="20"/>
-      <c r="CD111" s="20"/>
-      <c r="CE111" s="20"/>
-      <c r="CF111" s="20"/>
-      <c r="CG111" s="20"/>
-      <c r="CH111" s="20"/>
-      <c r="CI111" s="20"/>
-      <c r="CJ111" s="20"/>
-      <c r="CK111" s="20"/>
-      <c r="CL111" s="20"/>
+      <c r="BZ111" s="1"/>
+      <c r="CA111" s="1"/>
+      <c r="CB111" s="1"/>
+      <c r="CC111" s="1"/>
+      <c r="CD111" s="1"/>
+      <c r="CE111" s="1"/>
+      <c r="CF111" s="1"/>
+      <c r="CG111" s="1"/>
+      <c r="CH111" s="1"/>
+      <c r="CI111" s="1"/>
+      <c r="CJ111" s="1"/>
+      <c r="CK111" s="1"/>
+      <c r="CL111" s="1"/>
+      <c r="CM111" s="1"/>
     </row>
-    <row r="112" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="17"/>
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
@@ -40082,20 +40057,20 @@
       <c r="BW112" s="17"/>
       <c r="BX112" s="17"/>
       <c r="BY112" s="17"/>
-      <c r="BZ112" s="25"/>
-      <c r="CA112" s="25"/>
-      <c r="CB112" s="25"/>
-      <c r="CC112" s="25"/>
-      <c r="CD112" s="25"/>
-      <c r="CE112" s="25"/>
-      <c r="CF112" s="25"/>
-      <c r="CG112" s="25"/>
-      <c r="CH112" s="25"/>
-      <c r="CI112" s="25"/>
-      <c r="CJ112" s="25"/>
-      <c r="CK112" s="25"/>
-      <c r="CL112" s="25"/>
-      <c r="CM112" s="11"/>
+      <c r="BZ112" s="17"/>
+      <c r="CA112" s="17"/>
+      <c r="CB112" s="17"/>
+      <c r="CC112" s="17"/>
+      <c r="CD112" s="17"/>
+      <c r="CE112" s="17"/>
+      <c r="CF112" s="17"/>
+      <c r="CG112" s="17"/>
+      <c r="CH112" s="17"/>
+      <c r="CI112" s="17"/>
+      <c r="CJ112" s="17"/>
+      <c r="CK112" s="17"/>
+      <c r="CL112" s="17"/>
+      <c r="CM112" s="17"/>
       <c r="CN112" s="11"/>
       <c r="CO112" s="11"/>
       <c r="CP112" s="11"/>
@@ -40161,7 +40136,7 @@
       <c r="EX112" s="11"/>
       <c r="EY112" s="11"/>
     </row>
-    <row r="113" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="17"/>
       <c r="C113" s="17"/>
       <c r="D113" s="17"/>
@@ -40238,20 +40213,20 @@
       <c r="BW113" s="17"/>
       <c r="BX113" s="17"/>
       <c r="BY113" s="17"/>
-      <c r="BZ113" s="25"/>
-      <c r="CA113" s="25"/>
-      <c r="CB113" s="25"/>
-      <c r="CC113" s="25"/>
-      <c r="CD113" s="25"/>
-      <c r="CE113" s="25"/>
-      <c r="CF113" s="25"/>
-      <c r="CG113" s="25"/>
-      <c r="CH113" s="25"/>
-      <c r="CI113" s="25"/>
-      <c r="CJ113" s="25"/>
-      <c r="CK113" s="25"/>
-      <c r="CL113" s="25"/>
-      <c r="CM113" s="11"/>
+      <c r="BZ113" s="17"/>
+      <c r="CA113" s="17"/>
+      <c r="CB113" s="17"/>
+      <c r="CC113" s="17"/>
+      <c r="CD113" s="17"/>
+      <c r="CE113" s="17"/>
+      <c r="CF113" s="17"/>
+      <c r="CG113" s="17"/>
+      <c r="CH113" s="17"/>
+      <c r="CI113" s="17"/>
+      <c r="CJ113" s="17"/>
+      <c r="CK113" s="17"/>
+      <c r="CL113" s="17"/>
+      <c r="CM113" s="17"/>
       <c r="CN113" s="11"/>
       <c r="CO113" s="11"/>
       <c r="CP113" s="11"/>
@@ -40317,7 +40292,7 @@
       <c r="EX113" s="11"/>
       <c r="EY113" s="11"/>
     </row>
-    <row r="114" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>2</v>
       </c>
@@ -40397,21 +40372,22 @@
       <c r="BW114" s="1"/>
       <c r="BX114" s="1"/>
       <c r="BY114" s="1"/>
-      <c r="BZ114" s="20"/>
-      <c r="CA114" s="20"/>
-      <c r="CB114" s="20"/>
-      <c r="CC114" s="20"/>
-      <c r="CD114" s="20"/>
-      <c r="CE114" s="20"/>
-      <c r="CF114" s="20"/>
-      <c r="CG114" s="20"/>
-      <c r="CH114" s="20"/>
-      <c r="CI114" s="20"/>
-      <c r="CJ114" s="20"/>
-      <c r="CK114" s="20"/>
-      <c r="CL114" s="20"/>
+      <c r="BZ114" s="1"/>
+      <c r="CA114" s="1"/>
+      <c r="CB114" s="1"/>
+      <c r="CC114" s="1"/>
+      <c r="CD114" s="1"/>
+      <c r="CE114" s="1"/>
+      <c r="CF114" s="1"/>
+      <c r="CG114" s="1"/>
+      <c r="CH114" s="1"/>
+      <c r="CI114" s="1"/>
+      <c r="CJ114" s="1"/>
+      <c r="CK114" s="1"/>
+      <c r="CL114" s="1"/>
+      <c r="CM114" s="1"/>
     </row>
-    <row r="115" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>1</v>
       </c>
@@ -40491,21 +40467,22 @@
       <c r="BW115" s="1"/>
       <c r="BX115" s="1"/>
       <c r="BY115" s="1"/>
-      <c r="BZ115" s="20"/>
-      <c r="CA115" s="20"/>
-      <c r="CB115" s="20"/>
-      <c r="CC115" s="20"/>
-      <c r="CD115" s="20"/>
-      <c r="CE115" s="20"/>
-      <c r="CF115" s="20"/>
-      <c r="CG115" s="20"/>
-      <c r="CH115" s="20"/>
-      <c r="CI115" s="20"/>
-      <c r="CJ115" s="20"/>
-      <c r="CK115" s="20"/>
-      <c r="CL115" s="20"/>
+      <c r="BZ115" s="1"/>
+      <c r="CA115" s="1"/>
+      <c r="CB115" s="1"/>
+      <c r="CC115" s="1"/>
+      <c r="CD115" s="1"/>
+      <c r="CE115" s="1"/>
+      <c r="CF115" s="1"/>
+      <c r="CG115" s="1"/>
+      <c r="CH115" s="1"/>
+      <c r="CI115" s="1"/>
+      <c r="CJ115" s="1"/>
+      <c r="CK115" s="1"/>
+      <c r="CL115" s="1"/>
+      <c r="CM115" s="1"/>
     </row>
-    <row r="116" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>48</v>
       </c>
@@ -40585,21 +40562,22 @@
       <c r="BW116" s="1"/>
       <c r="BX116" s="1"/>
       <c r="BY116" s="1"/>
-      <c r="BZ116" s="20"/>
-      <c r="CA116" s="20"/>
-      <c r="CB116" s="20"/>
-      <c r="CC116" s="20"/>
-      <c r="CD116" s="20"/>
-      <c r="CE116" s="20"/>
-      <c r="CF116" s="20"/>
-      <c r="CG116" s="20"/>
-      <c r="CH116" s="20"/>
-      <c r="CI116" s="20"/>
-      <c r="CJ116" s="20"/>
-      <c r="CK116" s="20"/>
-      <c r="CL116" s="20"/>
+      <c r="BZ116" s="1"/>
+      <c r="CA116" s="1"/>
+      <c r="CB116" s="1"/>
+      <c r="CC116" s="1"/>
+      <c r="CD116" s="1"/>
+      <c r="CE116" s="1"/>
+      <c r="CF116" s="1"/>
+      <c r="CG116" s="1"/>
+      <c r="CH116" s="1"/>
+      <c r="CI116" s="1"/>
+      <c r="CJ116" s="1"/>
+      <c r="CK116" s="1"/>
+      <c r="CL116" s="1"/>
+      <c r="CM116" s="1"/>
     </row>
-    <row r="117" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -40677,21 +40655,22 @@
       <c r="BW117" s="1"/>
       <c r="BX117" s="1"/>
       <c r="BY117" s="1"/>
-      <c r="BZ117" s="20"/>
-      <c r="CA117" s="20"/>
-      <c r="CB117" s="20"/>
-      <c r="CC117" s="20"/>
-      <c r="CD117" s="20"/>
-      <c r="CE117" s="20"/>
-      <c r="CF117" s="20"/>
-      <c r="CG117" s="20"/>
-      <c r="CH117" s="20"/>
-      <c r="CI117" s="20"/>
-      <c r="CJ117" s="20"/>
-      <c r="CK117" s="20"/>
-      <c r="CL117" s="20"/>
+      <c r="BZ117" s="1"/>
+      <c r="CA117" s="1"/>
+      <c r="CB117" s="1"/>
+      <c r="CC117" s="1"/>
+      <c r="CD117" s="1"/>
+      <c r="CE117" s="1"/>
+      <c r="CF117" s="1"/>
+      <c r="CG117" s="1"/>
+      <c r="CH117" s="1"/>
+      <c r="CI117" s="1"/>
+      <c r="CJ117" s="1"/>
+      <c r="CK117" s="1"/>
+      <c r="CL117" s="1"/>
+      <c r="CM117" s="1"/>
     </row>
-    <row r="118" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>20</v>
       </c>
@@ -40771,21 +40750,22 @@
       <c r="BW118" s="1"/>
       <c r="BX118" s="1"/>
       <c r="BY118" s="1"/>
-      <c r="BZ118" s="20"/>
-      <c r="CA118" s="20"/>
-      <c r="CB118" s="20"/>
-      <c r="CC118" s="20"/>
-      <c r="CD118" s="20"/>
-      <c r="CE118" s="20"/>
-      <c r="CF118" s="20"/>
-      <c r="CG118" s="20"/>
-      <c r="CH118" s="20"/>
-      <c r="CI118" s="20"/>
-      <c r="CJ118" s="20"/>
-      <c r="CK118" s="20"/>
-      <c r="CL118" s="20"/>
+      <c r="BZ118" s="1"/>
+      <c r="CA118" s="1"/>
+      <c r="CB118" s="1"/>
+      <c r="CC118" s="1"/>
+      <c r="CD118" s="1"/>
+      <c r="CE118" s="1"/>
+      <c r="CF118" s="1"/>
+      <c r="CG118" s="1"/>
+      <c r="CH118" s="1"/>
+      <c r="CI118" s="1"/>
+      <c r="CJ118" s="1"/>
+      <c r="CK118" s="1"/>
+      <c r="CL118" s="1"/>
+      <c r="CM118" s="1"/>
     </row>
-    <row r="119" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>49</v>
       </c>
@@ -40865,21 +40845,22 @@
       <c r="BW119" s="1"/>
       <c r="BX119" s="1"/>
       <c r="BY119" s="1"/>
-      <c r="BZ119" s="20"/>
-      <c r="CA119" s="20"/>
-      <c r="CB119" s="20"/>
-      <c r="CC119" s="20"/>
-      <c r="CD119" s="20"/>
-      <c r="CE119" s="20"/>
-      <c r="CF119" s="20"/>
-      <c r="CG119" s="20"/>
-      <c r="CH119" s="20"/>
-      <c r="CI119" s="20"/>
-      <c r="CJ119" s="20"/>
-      <c r="CK119" s="20"/>
-      <c r="CL119" s="20"/>
+      <c r="BZ119" s="1"/>
+      <c r="CA119" s="1"/>
+      <c r="CB119" s="1"/>
+      <c r="CC119" s="1"/>
+      <c r="CD119" s="1"/>
+      <c r="CE119" s="1"/>
+      <c r="CF119" s="1"/>
+      <c r="CG119" s="1"/>
+      <c r="CH119" s="1"/>
+      <c r="CI119" s="1"/>
+      <c r="CJ119" s="1"/>
+      <c r="CK119" s="1"/>
+      <c r="CL119" s="1"/>
+      <c r="CM119" s="1"/>
     </row>
-    <row r="120" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>24</v>
       </c>
@@ -40959,21 +40940,22 @@
       <c r="BW120" s="1"/>
       <c r="BX120" s="1"/>
       <c r="BY120" s="1"/>
-      <c r="BZ120" s="20"/>
-      <c r="CA120" s="20"/>
-      <c r="CB120" s="20"/>
-      <c r="CC120" s="20"/>
-      <c r="CD120" s="20"/>
-      <c r="CE120" s="20"/>
-      <c r="CF120" s="20"/>
-      <c r="CG120" s="20"/>
-      <c r="CH120" s="20"/>
-      <c r="CI120" s="20"/>
-      <c r="CJ120" s="20"/>
-      <c r="CK120" s="20"/>
-      <c r="CL120" s="20"/>
+      <c r="BZ120" s="1"/>
+      <c r="CA120" s="1"/>
+      <c r="CB120" s="1"/>
+      <c r="CC120" s="1"/>
+      <c r="CD120" s="1"/>
+      <c r="CE120" s="1"/>
+      <c r="CF120" s="1"/>
+      <c r="CG120" s="1"/>
+      <c r="CH120" s="1"/>
+      <c r="CI120" s="1"/>
+      <c r="CJ120" s="1"/>
+      <c r="CK120" s="1"/>
+      <c r="CL120" s="1"/>
+      <c r="CM120" s="1"/>
     </row>
-    <row r="121" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -41051,159 +41033,161 @@
       <c r="BW121" s="1"/>
       <c r="BX121" s="1"/>
       <c r="BY121" s="1"/>
-      <c r="BZ121" s="20"/>
-      <c r="CA121" s="20"/>
-      <c r="CB121" s="20"/>
-      <c r="CC121" s="20"/>
-      <c r="CD121" s="20"/>
-      <c r="CE121" s="20"/>
-      <c r="CF121" s="20"/>
-      <c r="CG121" s="20"/>
-      <c r="CH121" s="20"/>
-      <c r="CI121" s="20"/>
-      <c r="CJ121" s="20"/>
-      <c r="CK121" s="20"/>
-      <c r="CL121" s="20"/>
+      <c r="BZ121" s="1"/>
+      <c r="CA121" s="1"/>
+      <c r="CB121" s="1"/>
+      <c r="CC121" s="1"/>
+      <c r="CD121" s="1"/>
+      <c r="CE121" s="1"/>
+      <c r="CF121" s="1"/>
+      <c r="CG121" s="1"/>
+      <c r="CH121" s="1"/>
+      <c r="CI121" s="1"/>
+      <c r="CJ121" s="1"/>
+      <c r="CK121" s="1"/>
+      <c r="CL121" s="1"/>
+      <c r="CM121" s="1"/>
     </row>
-    <row r="122" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
-      <c r="B122" s="33">
+      <c r="B122" s="24">
         <v>2000</v>
       </c>
-      <c r="C122" s="34"/>
-      <c r="D122" s="34"/>
-      <c r="E122" s="34"/>
-      <c r="F122" s="33">
+      <c r="C122" s="25"/>
+      <c r="D122" s="25"/>
+      <c r="E122" s="25"/>
+      <c r="F122" s="24">
         <v>2001</v>
       </c>
-      <c r="G122" s="34"/>
-      <c r="H122" s="34"/>
-      <c r="I122" s="34"/>
-      <c r="J122" s="33">
+      <c r="G122" s="25"/>
+      <c r="H122" s="25"/>
+      <c r="I122" s="25"/>
+      <c r="J122" s="24">
         <v>2002</v>
       </c>
-      <c r="K122" s="34"/>
-      <c r="L122" s="34"/>
-      <c r="M122" s="34"/>
-      <c r="N122" s="33">
+      <c r="K122" s="25"/>
+      <c r="L122" s="25"/>
+      <c r="M122" s="25"/>
+      <c r="N122" s="24">
         <v>2003</v>
       </c>
-      <c r="O122" s="34"/>
-      <c r="P122" s="34"/>
-      <c r="Q122" s="34"/>
-      <c r="R122" s="33">
+      <c r="O122" s="25"/>
+      <c r="P122" s="25"/>
+      <c r="Q122" s="25"/>
+      <c r="R122" s="24">
         <v>2004</v>
       </c>
-      <c r="S122" s="34"/>
-      <c r="T122" s="34"/>
-      <c r="U122" s="34"/>
-      <c r="V122" s="33">
+      <c r="S122" s="25"/>
+      <c r="T122" s="25"/>
+      <c r="U122" s="25"/>
+      <c r="V122" s="24">
         <v>2005</v>
       </c>
-      <c r="W122" s="34"/>
-      <c r="X122" s="34"/>
-      <c r="Y122" s="34"/>
-      <c r="Z122" s="33">
+      <c r="W122" s="25"/>
+      <c r="X122" s="25"/>
+      <c r="Y122" s="25"/>
+      <c r="Z122" s="24">
         <v>2006</v>
       </c>
-      <c r="AA122" s="34"/>
-      <c r="AB122" s="34"/>
-      <c r="AC122" s="34"/>
-      <c r="AD122" s="33">
+      <c r="AA122" s="25"/>
+      <c r="AB122" s="25"/>
+      <c r="AC122" s="25"/>
+      <c r="AD122" s="24">
         <v>2007</v>
       </c>
-      <c r="AE122" s="34"/>
-      <c r="AF122" s="34"/>
-      <c r="AG122" s="34"/>
-      <c r="AH122" s="33">
+      <c r="AE122" s="25"/>
+      <c r="AF122" s="25"/>
+      <c r="AG122" s="25"/>
+      <c r="AH122" s="24">
         <v>2008</v>
       </c>
-      <c r="AI122" s="34"/>
-      <c r="AJ122" s="34"/>
-      <c r="AK122" s="34"/>
-      <c r="AL122" s="33">
+      <c r="AI122" s="25"/>
+      <c r="AJ122" s="25"/>
+      <c r="AK122" s="25"/>
+      <c r="AL122" s="24">
         <v>2009</v>
       </c>
-      <c r="AM122" s="34"/>
-      <c r="AN122" s="34"/>
-      <c r="AO122" s="34"/>
-      <c r="AP122" s="33">
+      <c r="AM122" s="25"/>
+      <c r="AN122" s="25"/>
+      <c r="AO122" s="25"/>
+      <c r="AP122" s="24">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="34"/>
-      <c r="AR122" s="34"/>
-      <c r="AS122" s="34"/>
-      <c r="AT122" s="33">
+      <c r="AQ122" s="25"/>
+      <c r="AR122" s="25"/>
+      <c r="AS122" s="25"/>
+      <c r="AT122" s="24">
         <v>2011</v>
       </c>
-      <c r="AU122" s="34"/>
-      <c r="AV122" s="34"/>
-      <c r="AW122" s="34"/>
-      <c r="AX122" s="33">
+      <c r="AU122" s="25"/>
+      <c r="AV122" s="25"/>
+      <c r="AW122" s="25"/>
+      <c r="AX122" s="24">
         <v>2012</v>
       </c>
-      <c r="AY122" s="34"/>
-      <c r="AZ122" s="34"/>
-      <c r="BA122" s="34"/>
-      <c r="BB122" s="33">
+      <c r="AY122" s="25"/>
+      <c r="AZ122" s="25"/>
+      <c r="BA122" s="25"/>
+      <c r="BB122" s="24">
         <v>2013</v>
       </c>
-      <c r="BC122" s="34"/>
-      <c r="BD122" s="34"/>
-      <c r="BE122" s="34"/>
-      <c r="BF122" s="33">
+      <c r="BC122" s="25"/>
+      <c r="BD122" s="25"/>
+      <c r="BE122" s="25"/>
+      <c r="BF122" s="24">
         <v>2014</v>
       </c>
-      <c r="BG122" s="34"/>
-      <c r="BH122" s="34"/>
-      <c r="BI122" s="34"/>
-      <c r="BJ122" s="33">
+      <c r="BG122" s="25"/>
+      <c r="BH122" s="25"/>
+      <c r="BI122" s="25"/>
+      <c r="BJ122" s="24">
         <v>2015</v>
       </c>
-      <c r="BK122" s="34"/>
-      <c r="BL122" s="34"/>
-      <c r="BM122" s="34"/>
-      <c r="BN122" s="33">
+      <c r="BK122" s="25"/>
+      <c r="BL122" s="25"/>
+      <c r="BM122" s="25"/>
+      <c r="BN122" s="24">
         <v>2016</v>
       </c>
-      <c r="BO122" s="34"/>
-      <c r="BP122" s="34"/>
-      <c r="BQ122" s="34"/>
-      <c r="BR122" s="33">
+      <c r="BO122" s="25"/>
+      <c r="BP122" s="25"/>
+      <c r="BQ122" s="25"/>
+      <c r="BR122" s="24">
         <v>2017</v>
       </c>
-      <c r="BS122" s="34"/>
-      <c r="BT122" s="34"/>
-      <c r="BU122" s="34"/>
-      <c r="BV122" s="33">
+      <c r="BS122" s="25"/>
+      <c r="BT122" s="25"/>
+      <c r="BU122" s="25"/>
+      <c r="BV122" s="24">
         <v>2018</v>
       </c>
-      <c r="BW122" s="33"/>
-      <c r="BX122" s="33"/>
-      <c r="BY122" s="33"/>
-      <c r="BZ122" s="31">
+      <c r="BW122" s="24"/>
+      <c r="BX122" s="24"/>
+      <c r="BY122" s="24"/>
+      <c r="BZ122" s="24">
         <v>2019</v>
       </c>
-      <c r="CA122" s="35"/>
-      <c r="CB122" s="35"/>
-      <c r="CC122" s="35"/>
-      <c r="CD122" s="32">
+      <c r="CA122" s="24"/>
+      <c r="CB122" s="24"/>
+      <c r="CC122" s="24"/>
+      <c r="CD122" s="24">
         <v>2020</v>
       </c>
-      <c r="CE122" s="32"/>
-      <c r="CF122" s="32"/>
-      <c r="CG122" s="32"/>
-      <c r="CH122" s="32">
+      <c r="CE122" s="24"/>
+      <c r="CF122" s="24"/>
+      <c r="CG122" s="24"/>
+      <c r="CH122" s="24">
         <v>2021</v>
       </c>
-      <c r="CI122" s="32"/>
-      <c r="CJ122" s="32"/>
-      <c r="CK122" s="32"/>
-      <c r="CL122" s="30">
+      <c r="CI122" s="24"/>
+      <c r="CJ122" s="24"/>
+      <c r="CK122" s="24"/>
+      <c r="CL122" s="24">
         <v>2022</v>
       </c>
+      <c r="CM122" s="24"/>
     </row>
-    <row r="123" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>4</v>
       </c>
@@ -41435,47 +41419,50 @@
       <c r="BY123" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BZ123" s="21" t="s">
+      <c r="BZ123" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CA123" s="21" t="s">
+      <c r="CA123" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CB123" s="21" t="s">
+      <c r="CB123" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CC123" s="21" t="s">
+      <c r="CC123" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CD123" s="21" t="s">
+      <c r="CD123" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CE123" s="21" t="s">
+      <c r="CE123" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CF123" s="21" t="s">
+      <c r="CF123" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CG123" s="21" t="s">
+      <c r="CG123" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CH123" s="21" t="s">
+      <c r="CH123" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CI123" s="21" t="s">
+      <c r="CI123" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CJ123" s="21" t="s">
+      <c r="CJ123" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CK123" s="21" t="s">
+      <c r="CK123" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL123" s="21" t="s">
+      <c r="CL123" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="CM123" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="124" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -41553,21 +41540,22 @@
       <c r="BW124" s="1"/>
       <c r="BX124" s="1"/>
       <c r="BY124" s="1"/>
-      <c r="BZ124" s="20"/>
-      <c r="CA124" s="20"/>
-      <c r="CB124" s="20"/>
-      <c r="CC124" s="20"/>
-      <c r="CD124" s="20"/>
-      <c r="CE124" s="20"/>
-      <c r="CF124" s="20"/>
-      <c r="CG124" s="20"/>
-      <c r="CH124" s="20"/>
-      <c r="CI124" s="20"/>
-      <c r="CJ124" s="20"/>
-      <c r="CK124" s="20"/>
-      <c r="CL124" s="20"/>
+      <c r="BZ124" s="1"/>
+      <c r="CA124" s="1"/>
+      <c r="CB124" s="1"/>
+      <c r="CC124" s="1"/>
+      <c r="CD124" s="1"/>
+      <c r="CE124" s="1"/>
+      <c r="CF124" s="1"/>
+      <c r="CG124" s="1"/>
+      <c r="CH124" s="1"/>
+      <c r="CI124" s="1"/>
+      <c r="CJ124" s="1"/>
+      <c r="CK124" s="1"/>
+      <c r="CL124" s="1"/>
+      <c r="CM124" s="1"/>
     </row>
-    <row r="125" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="9" t="s">
         <v>11</v>
       </c>
@@ -41799,46 +41787,48 @@
       <c r="BY125" s="18">
         <v>63.477795764639808</v>
       </c>
-      <c r="BZ125" s="27">
+      <c r="BZ125" s="18">
         <v>59.992568799919376</v>
       </c>
-      <c r="CA125" s="27">
+      <c r="CA125" s="18">
         <v>67.073303377789244</v>
       </c>
-      <c r="CB125" s="27">
+      <c r="CB125" s="18">
         <v>62.036763858501864</v>
       </c>
-      <c r="CC125" s="27">
+      <c r="CC125" s="18">
         <v>64.062906770721497</v>
       </c>
-      <c r="CD125" s="27">
+      <c r="CD125" s="18">
         <v>59.817888600073168</v>
       </c>
-      <c r="CE125" s="27">
+      <c r="CE125" s="18">
         <v>46.628312879468034</v>
       </c>
-      <c r="CF125" s="27">
+      <c r="CF125" s="18">
         <v>49.106597427152316</v>
       </c>
-      <c r="CG125" s="27">
+      <c r="CG125" s="18">
         <v>55.056933551029097</v>
       </c>
-      <c r="CH125" s="27">
+      <c r="CH125" s="18">
         <v>53.219790362131768</v>
       </c>
-      <c r="CI125" s="27">
+      <c r="CI125" s="18">
         <v>54.94455079154762</v>
       </c>
-      <c r="CJ125" s="27">
+      <c r="CJ125" s="18">
         <v>55.614707180212861</v>
       </c>
-      <c r="CK125" s="27">
+      <c r="CK125" s="18">
         <v>62.543972960349251</v>
       </c>
-      <c r="CL125" s="27">
-        <v>55.035112839941789</v>
-      </c>
-      <c r="CM125" s="11"/>
+      <c r="CL125" s="18">
+        <v>54.969762250476336</v>
+      </c>
+      <c r="CM125" s="18">
+        <v>61.76848268689551</v>
+      </c>
       <c r="CN125" s="11"/>
       <c r="CO125" s="11"/>
       <c r="CP125" s="11"/>
@@ -41904,7 +41894,7 @@
       <c r="EX125" s="11"/>
       <c r="EY125" s="11"/>
     </row>
-    <row r="126" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>12</v>
       </c>
@@ -42136,46 +42126,48 @@
       <c r="BY126" s="18">
         <v>36.522204235360192</v>
       </c>
-      <c r="BZ126" s="27">
+      <c r="BZ126" s="18">
         <v>40.007431200080617</v>
       </c>
-      <c r="CA126" s="27">
+      <c r="CA126" s="18">
         <v>32.926696622210741</v>
       </c>
-      <c r="CB126" s="27">
+      <c r="CB126" s="18">
         <v>37.963236141498143</v>
       </c>
-      <c r="CC126" s="27">
+      <c r="CC126" s="18">
         <v>35.937093229278503</v>
       </c>
-      <c r="CD126" s="27">
+      <c r="CD126" s="18">
         <v>40.182111399926832</v>
       </c>
-      <c r="CE126" s="27">
+      <c r="CE126" s="18">
         <v>53.371687120531966</v>
       </c>
-      <c r="CF126" s="27">
+      <c r="CF126" s="18">
         <v>50.893402572847677</v>
       </c>
-      <c r="CG126" s="27">
+      <c r="CG126" s="18">
         <v>44.943066448970903</v>
       </c>
-      <c r="CH126" s="27">
+      <c r="CH126" s="18">
         <v>46.780209637868239</v>
       </c>
-      <c r="CI126" s="27">
+      <c r="CI126" s="18">
         <v>45.05544920845238</v>
       </c>
-      <c r="CJ126" s="27">
+      <c r="CJ126" s="18">
         <v>44.385292819787132</v>
       </c>
-      <c r="CK126" s="27">
+      <c r="CK126" s="18">
         <v>37.456027039650756</v>
       </c>
-      <c r="CL126" s="27">
-        <v>44.964887160058204</v>
-      </c>
-      <c r="CM126" s="11"/>
+      <c r="CL126" s="18">
+        <v>45.030237749523657</v>
+      </c>
+      <c r="CM126" s="18">
+        <v>38.23151731310449</v>
+      </c>
       <c r="CN126" s="11"/>
       <c r="CO126" s="11"/>
       <c r="CP126" s="11"/>
@@ -42241,7 +42233,7 @@
       <c r="EX126" s="11"/>
       <c r="EY126" s="11"/>
     </row>
-    <row r="127" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="17"/>
       <c r="C127" s="17"/>
       <c r="D127" s="17"/>
@@ -42318,20 +42310,20 @@
       <c r="BW127" s="17"/>
       <c r="BX127" s="17"/>
       <c r="BY127" s="17"/>
-      <c r="BZ127" s="25"/>
-      <c r="CA127" s="25"/>
-      <c r="CB127" s="25"/>
-      <c r="CC127" s="25"/>
-      <c r="CD127" s="25"/>
-      <c r="CE127" s="25"/>
-      <c r="CF127" s="25"/>
-      <c r="CG127" s="25"/>
-      <c r="CH127" s="25"/>
-      <c r="CI127" s="25"/>
-      <c r="CJ127" s="25"/>
-      <c r="CK127" s="25"/>
-      <c r="CL127" s="25"/>
-      <c r="CM127" s="11"/>
+      <c r="BZ127" s="17"/>
+      <c r="CA127" s="17"/>
+      <c r="CB127" s="17"/>
+      <c r="CC127" s="17"/>
+      <c r="CD127" s="17"/>
+      <c r="CE127" s="17"/>
+      <c r="CF127" s="17"/>
+      <c r="CG127" s="17"/>
+      <c r="CH127" s="17"/>
+      <c r="CI127" s="17"/>
+      <c r="CJ127" s="17"/>
+      <c r="CK127" s="17"/>
+      <c r="CL127" s="17"/>
+      <c r="CM127" s="17"/>
       <c r="CN127" s="11"/>
       <c r="CO127" s="11"/>
       <c r="CP127" s="11"/>
@@ -42397,7 +42389,7 @@
       <c r="EX127" s="11"/>
       <c r="EY127" s="11"/>
     </row>
-    <row r="128" spans="1:155" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:155" ht="18" x14ac:dyDescent="0.35">
       <c r="A128" s="14" t="s">
         <v>13</v>
       </c>
@@ -42629,46 +42621,48 @@
       <c r="BY128" s="18">
         <v>100</v>
       </c>
-      <c r="BZ128" s="27">
+      <c r="BZ128" s="18">
         <v>100</v>
       </c>
-      <c r="CA128" s="27">
+      <c r="CA128" s="18">
         <v>100</v>
       </c>
-      <c r="CB128" s="27">
+      <c r="CB128" s="18">
         <v>100</v>
       </c>
-      <c r="CC128" s="27">
+      <c r="CC128" s="18">
         <v>100</v>
       </c>
-      <c r="CD128" s="27">
+      <c r="CD128" s="18">
         <v>100</v>
       </c>
-      <c r="CE128" s="27">
+      <c r="CE128" s="18">
         <v>100</v>
       </c>
-      <c r="CF128" s="27">
+      <c r="CF128" s="18">
         <v>100</v>
       </c>
-      <c r="CG128" s="27">
+      <c r="CG128" s="18">
         <v>100</v>
       </c>
-      <c r="CH128" s="27">
+      <c r="CH128" s="18">
         <v>100</v>
       </c>
-      <c r="CI128" s="27">
+      <c r="CI128" s="18">
         <v>100</v>
       </c>
-      <c r="CJ128" s="27">
+      <c r="CJ128" s="18">
         <v>100</v>
       </c>
-      <c r="CK128" s="27">
+      <c r="CK128" s="18">
         <v>100</v>
       </c>
-      <c r="CL128" s="27">
+      <c r="CL128" s="18">
         <v>100</v>
       </c>
-      <c r="CM128" s="11"/>
+      <c r="CM128" s="18">
+        <v>100</v>
+      </c>
       <c r="CN128" s="11"/>
       <c r="CO128" s="11"/>
       <c r="CP128" s="11"/>
@@ -42734,7 +42728,7 @@
       <c r="EX128" s="11"/>
       <c r="EY128" s="11"/>
     </row>
-    <row r="129" spans="1:90" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:91" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="15"/>
       <c r="B129" s="15"/>
       <c r="C129" s="15"/>
@@ -42812,21 +42806,22 @@
       <c r="BW129" s="15"/>
       <c r="BX129" s="15"/>
       <c r="BY129" s="15"/>
-      <c r="BZ129" s="24"/>
-      <c r="CA129" s="24"/>
-      <c r="CB129" s="24"/>
-      <c r="CC129" s="24"/>
-      <c r="CD129" s="24"/>
-      <c r="CE129" s="24"/>
-      <c r="CF129" s="24"/>
-      <c r="CG129" s="24"/>
-      <c r="CH129" s="24"/>
-      <c r="CI129" s="24"/>
-      <c r="CJ129" s="24"/>
-      <c r="CK129" s="24"/>
-      <c r="CL129" s="24"/>
+      <c r="BZ129" s="15"/>
+      <c r="CA129" s="15"/>
+      <c r="CB129" s="15"/>
+      <c r="CC129" s="15"/>
+      <c r="CD129" s="15"/>
+      <c r="CE129" s="15"/>
+      <c r="CF129" s="15"/>
+      <c r="CG129" s="15"/>
+      <c r="CH129" s="15"/>
+      <c r="CI129" s="15"/>
+      <c r="CJ129" s="15"/>
+      <c r="CK129" s="15"/>
+      <c r="CL129" s="15"/>
+      <c r="CM129" s="15"/>
     </row>
-    <row r="130" spans="1:90" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="16" t="s">
         <v>0</v>
       </c>
@@ -42906,246 +42901,149 @@
       <c r="BW130" s="1"/>
       <c r="BX130" s="1"/>
       <c r="BY130" s="1"/>
-      <c r="BZ130" s="20"/>
-      <c r="CA130" s="20"/>
-      <c r="CB130" s="20"/>
-      <c r="CC130" s="20"/>
-      <c r="CD130" s="20"/>
-      <c r="CE130" s="20"/>
-      <c r="CF130" s="20"/>
-      <c r="CG130" s="20"/>
-      <c r="CH130" s="20"/>
-      <c r="CI130" s="20"/>
-      <c r="CJ130" s="20"/>
-      <c r="CK130" s="20"/>
-      <c r="CL130" s="20"/>
-    </row>
-    <row r="133" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="CD133" s="19"/>
-      <c r="CE133" s="19"/>
-      <c r="CF133" s="19"/>
-      <c r="CG133" s="19"/>
-      <c r="CH133" s="19"/>
-      <c r="CI133" s="19"/>
-      <c r="CJ133" s="19"/>
-      <c r="CK133" s="19"/>
-      <c r="CL133" s="19"/>
-    </row>
-    <row r="134" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="CD134" s="19"/>
-      <c r="CE134" s="19"/>
-      <c r="CF134" s="19"/>
-      <c r="CG134" s="19"/>
-      <c r="CH134" s="19"/>
-      <c r="CI134" s="19"/>
-      <c r="CJ134" s="19"/>
-      <c r="CK134" s="19"/>
-      <c r="CL134" s="19"/>
-    </row>
-    <row r="135" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="CD135" s="19"/>
-      <c r="CE135" s="19"/>
-      <c r="CF135" s="19"/>
-      <c r="CG135" s="19"/>
-      <c r="CH135" s="19"/>
-      <c r="CI135" s="19"/>
-      <c r="CJ135" s="19"/>
-      <c r="CK135" s="19"/>
-      <c r="CL135" s="19"/>
-    </row>
-    <row r="136" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="CD136" s="19"/>
-      <c r="CE136" s="19"/>
-      <c r="CF136" s="19"/>
-      <c r="CG136" s="19"/>
-      <c r="CH136" s="19"/>
-      <c r="CI136" s="19"/>
-      <c r="CJ136" s="19"/>
-      <c r="CK136" s="19"/>
-      <c r="CL136" s="19"/>
-    </row>
-    <row r="137" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="CD137" s="19"/>
-      <c r="CE137" s="19"/>
-      <c r="CF137" s="19"/>
-      <c r="CG137" s="19"/>
-      <c r="CH137" s="19"/>
-      <c r="CI137" s="19"/>
-      <c r="CJ137" s="19"/>
-      <c r="CK137" s="19"/>
-      <c r="CL137" s="19"/>
-    </row>
-    <row r="138" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="CD138" s="19"/>
-      <c r="CE138" s="19"/>
-      <c r="CF138" s="19"/>
-      <c r="CG138" s="19"/>
-      <c r="CH138" s="19"/>
-      <c r="CI138" s="19"/>
-      <c r="CJ138" s="19"/>
-      <c r="CK138" s="19"/>
-      <c r="CL138" s="19"/>
-    </row>
-    <row r="139" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="CC139" s="12"/>
-      <c r="CD139" s="12"/>
-      <c r="CE139" s="12"/>
-      <c r="CF139" s="12"/>
-      <c r="CG139" s="12"/>
-      <c r="CH139" s="12"/>
-      <c r="CI139" s="12"/>
-      <c r="CJ139" s="12"/>
-      <c r="CK139" s="12"/>
-      <c r="CL139" s="12"/>
-    </row>
-    <row r="140" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="CC140" s="12"/>
-      <c r="CD140" s="12"/>
-      <c r="CE140" s="12"/>
-      <c r="CF140" s="12"/>
-      <c r="CG140" s="12"/>
-      <c r="CH140" s="12"/>
-      <c r="CI140" s="12"/>
-      <c r="CJ140" s="12"/>
-      <c r="CK140" s="12"/>
-      <c r="CL140" s="12"/>
-    </row>
-    <row r="141" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="CC141" s="12"/>
-      <c r="CD141" s="12"/>
-      <c r="CE141" s="12"/>
-      <c r="CF141" s="12"/>
-      <c r="CG141" s="12"/>
-      <c r="CH141" s="12"/>
-      <c r="CI141" s="12"/>
-      <c r="CJ141" s="12"/>
-      <c r="CK141" s="12"/>
-      <c r="CL141" s="12"/>
-    </row>
-    <row r="142" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="CC142" s="12"/>
-      <c r="CD142" s="12"/>
-      <c r="CE142" s="12"/>
-      <c r="CF142" s="12"/>
-      <c r="CG142" s="12"/>
-      <c r="CH142" s="12"/>
-      <c r="CI142" s="12"/>
-      <c r="CJ142" s="12"/>
-      <c r="CK142" s="12"/>
-      <c r="CL142" s="12"/>
-    </row>
-    <row r="143" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="CC143" s="12"/>
-      <c r="CD143" s="12"/>
-      <c r="CE143" s="12"/>
-      <c r="CF143" s="12"/>
-      <c r="CG143" s="12"/>
-      <c r="CH143" s="12"/>
-      <c r="CI143" s="12"/>
-      <c r="CJ143" s="12"/>
-      <c r="CK143" s="12"/>
-      <c r="CL143" s="12"/>
-    </row>
-    <row r="144" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="CC144" s="12"/>
-      <c r="CD144" s="12"/>
-      <c r="CE144" s="12"/>
-      <c r="CF144" s="12"/>
-      <c r="CG144" s="12"/>
-      <c r="CH144" s="12"/>
-      <c r="CI144" s="12"/>
-      <c r="CJ144" s="12"/>
-      <c r="CK144" s="12"/>
-      <c r="CL144" s="12"/>
-    </row>
-    <row r="145" spans="81:90" x14ac:dyDescent="0.25">
-      <c r="CC145" s="12"/>
-      <c r="CD145" s="12"/>
-      <c r="CE145" s="12"/>
-      <c r="CF145" s="12"/>
-      <c r="CG145" s="12"/>
-      <c r="CH145" s="12"/>
-      <c r="CI145" s="12"/>
-      <c r="CJ145" s="12"/>
-      <c r="CK145" s="12"/>
-      <c r="CL145" s="12"/>
-    </row>
-    <row r="146" spans="81:90" x14ac:dyDescent="0.25">
-      <c r="CC146" s="12"/>
-      <c r="CD146" s="12"/>
-      <c r="CE146" s="12"/>
-      <c r="CF146" s="12"/>
-      <c r="CG146" s="12"/>
-      <c r="CH146" s="12"/>
-      <c r="CI146" s="12"/>
-      <c r="CJ146" s="12"/>
-      <c r="CK146" s="12"/>
-      <c r="CL146" s="12"/>
-    </row>
-    <row r="147" spans="81:90" x14ac:dyDescent="0.25">
-      <c r="CC147" s="12"/>
-      <c r="CD147" s="12"/>
-      <c r="CE147" s="12"/>
-      <c r="CF147" s="12"/>
-      <c r="CG147" s="12"/>
-      <c r="CH147" s="12"/>
-      <c r="CI147" s="12"/>
-      <c r="CJ147" s="12"/>
-      <c r="CK147" s="12"/>
-      <c r="CL147" s="12"/>
-    </row>
-    <row r="148" spans="81:90" x14ac:dyDescent="0.25">
-      <c r="CC148" s="12"/>
-      <c r="CD148" s="12"/>
-      <c r="CE148" s="12"/>
-      <c r="CF148" s="12"/>
-      <c r="CG148" s="12"/>
-      <c r="CH148" s="12"/>
-      <c r="CI148" s="12"/>
-      <c r="CJ148" s="12"/>
-      <c r="CK148" s="12"/>
-      <c r="CL148" s="12"/>
-    </row>
-    <row r="149" spans="81:90" x14ac:dyDescent="0.25">
-      <c r="CC149" s="12"/>
-      <c r="CD149" s="12"/>
-      <c r="CE149" s="12"/>
-      <c r="CF149" s="12"/>
-      <c r="CG149" s="12"/>
-      <c r="CH149" s="12"/>
-      <c r="CI149" s="12"/>
-      <c r="CJ149" s="12"/>
-      <c r="CK149" s="12"/>
-      <c r="CL149" s="12"/>
-    </row>
-    <row r="150" spans="81:90" x14ac:dyDescent="0.25">
-      <c r="CC150" s="12"/>
-      <c r="CD150" s="12"/>
-      <c r="CE150" s="12"/>
-      <c r="CF150" s="12"/>
-      <c r="CG150" s="12"/>
-      <c r="CH150" s="12"/>
-      <c r="CI150" s="12"/>
-      <c r="CJ150" s="12"/>
-      <c r="CK150" s="12"/>
-      <c r="CL150" s="12"/>
-    </row>
-    <row r="151" spans="81:90" x14ac:dyDescent="0.25">
-      <c r="CC151" s="12"/>
-      <c r="CD151" s="12"/>
-      <c r="CE151" s="12"/>
-      <c r="CF151" s="12"/>
-      <c r="CG151" s="12"/>
-      <c r="CH151" s="12"/>
-      <c r="CI151" s="12"/>
-      <c r="CJ151" s="12"/>
-      <c r="CK151" s="12"/>
-      <c r="CL151" s="12"/>
+      <c r="BZ130" s="1"/>
+      <c r="CA130" s="1"/>
+      <c r="CB130" s="1"/>
+      <c r="CC130" s="1"/>
+      <c r="CD130" s="1"/>
+      <c r="CE130" s="1"/>
+      <c r="CF130" s="1"/>
+      <c r="CG130" s="1"/>
+      <c r="CH130" s="1"/>
+      <c r="CI130" s="1"/>
+      <c r="CJ130" s="1"/>
+      <c r="CK130" s="1"/>
+      <c r="CL130" s="1"/>
+      <c r="CM130" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH28:CK28"/>
+  <mergeCells count="159">
+    <mergeCell ref="BZ47:CC47"/>
+    <mergeCell ref="BZ66:CC66"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD122:CG122"/>
+    <mergeCell ref="CD103:CG103"/>
+    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="CD28:CG28"/>
+    <mergeCell ref="BF122:BI122"/>
+    <mergeCell ref="BJ122:BM122"/>
+    <mergeCell ref="BN122:BQ122"/>
+    <mergeCell ref="BJ103:BM103"/>
+    <mergeCell ref="BN103:BQ103"/>
+    <mergeCell ref="BF84:BI84"/>
+    <mergeCell ref="BJ84:BM84"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="BV47:BY47"/>
+    <mergeCell ref="BZ103:CC103"/>
+    <mergeCell ref="BV84:BY84"/>
+    <mergeCell ref="BZ84:CC84"/>
+    <mergeCell ref="BV103:BY103"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BZ122:CC122"/>
+    <mergeCell ref="BV28:BY28"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:M122"/>
+    <mergeCell ref="N122:Q122"/>
+    <mergeCell ref="R122:U122"/>
+    <mergeCell ref="V122:Y122"/>
+    <mergeCell ref="Z122:AC122"/>
+    <mergeCell ref="AD122:AG122"/>
+    <mergeCell ref="AH122:AK122"/>
+    <mergeCell ref="AL122:AO122"/>
+    <mergeCell ref="AP122:AS122"/>
+    <mergeCell ref="AT122:AW122"/>
+    <mergeCell ref="AX122:BA122"/>
+    <mergeCell ref="BB122:BE122"/>
+    <mergeCell ref="BN84:BQ84"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="J103:M103"/>
+    <mergeCell ref="N103:Q103"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="V103:Y103"/>
+    <mergeCell ref="Z103:AC103"/>
+    <mergeCell ref="AD103:AG103"/>
+    <mergeCell ref="AH103:AK103"/>
+    <mergeCell ref="AL103:AO103"/>
+    <mergeCell ref="AP103:AS103"/>
+    <mergeCell ref="AT103:AW103"/>
+    <mergeCell ref="AX103:BA103"/>
+    <mergeCell ref="BB103:BE103"/>
+    <mergeCell ref="BF103:BI103"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="AX84:BA84"/>
+    <mergeCell ref="BB84:BE84"/>
+    <mergeCell ref="Z84:AC84"/>
+    <mergeCell ref="AD84:AG84"/>
+    <mergeCell ref="AH84:AK84"/>
+    <mergeCell ref="AL66:AO66"/>
+    <mergeCell ref="AP66:AS66"/>
+    <mergeCell ref="AT66:AW66"/>
+    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="V84:Y84"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="R66:U66"/>
+    <mergeCell ref="V66:Y66"/>
+    <mergeCell ref="Z66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AK66"/>
+    <mergeCell ref="BF28:BI28"/>
+    <mergeCell ref="AL47:AO47"/>
+    <mergeCell ref="AP47:AS47"/>
+    <mergeCell ref="AT47:AW47"/>
+    <mergeCell ref="AX47:BA47"/>
+    <mergeCell ref="BJ47:BM47"/>
+    <mergeCell ref="BN47:BQ47"/>
+    <mergeCell ref="BB47:BE47"/>
+    <mergeCell ref="BF47:BI47"/>
+    <mergeCell ref="BR47:BU47"/>
+    <mergeCell ref="BR28:BU28"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="V28:Y28"/>
+    <mergeCell ref="Z28:AC28"/>
+    <mergeCell ref="AH28:AK28"/>
+    <mergeCell ref="AL28:AO28"/>
+    <mergeCell ref="AP28:AS28"/>
+    <mergeCell ref="AT28:AW28"/>
+    <mergeCell ref="AX28:BA28"/>
+    <mergeCell ref="BB28:BE28"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="R47:U47"/>
+    <mergeCell ref="V47:Y47"/>
+    <mergeCell ref="Z47:AC47"/>
+    <mergeCell ref="AD47:AG47"/>
+    <mergeCell ref="AH47:AK47"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AD28:AG28"/>
     <mergeCell ref="CD47:CG47"/>
     <mergeCell ref="CD66:CG66"/>
     <mergeCell ref="CH84:CK84"/>
@@ -43170,141 +43068,24 @@
     <mergeCell ref="F47:I47"/>
     <mergeCell ref="J47:M47"/>
     <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="R47:U47"/>
-    <mergeCell ref="V47:Y47"/>
-    <mergeCell ref="Z47:AC47"/>
-    <mergeCell ref="AD47:AG47"/>
-    <mergeCell ref="AH47:AK47"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="BR47:BU47"/>
-    <mergeCell ref="BR28:BU28"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="V28:Y28"/>
-    <mergeCell ref="Z28:AC28"/>
-    <mergeCell ref="AH28:AK28"/>
-    <mergeCell ref="AL28:AO28"/>
-    <mergeCell ref="AP28:AS28"/>
-    <mergeCell ref="AT28:AW28"/>
-    <mergeCell ref="AX28:BA28"/>
-    <mergeCell ref="BB28:BE28"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="BF28:BI28"/>
-    <mergeCell ref="AL47:AO47"/>
-    <mergeCell ref="AP47:AS47"/>
-    <mergeCell ref="AT47:AW47"/>
-    <mergeCell ref="AX47:BA47"/>
-    <mergeCell ref="BJ47:BM47"/>
-    <mergeCell ref="BN47:BQ47"/>
-    <mergeCell ref="BB47:BE47"/>
-    <mergeCell ref="BF47:BI47"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="N66:Q66"/>
-    <mergeCell ref="R66:U66"/>
-    <mergeCell ref="V66:Y66"/>
-    <mergeCell ref="Z66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AK66"/>
-    <mergeCell ref="Z84:AC84"/>
-    <mergeCell ref="AD84:AG84"/>
-    <mergeCell ref="AH84:AK84"/>
-    <mergeCell ref="AL66:AO66"/>
-    <mergeCell ref="AP66:AS66"/>
-    <mergeCell ref="AT66:AW66"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="V84:Y84"/>
-    <mergeCell ref="AL122:AO122"/>
-    <mergeCell ref="AP122:AS122"/>
-    <mergeCell ref="AT122:AW122"/>
-    <mergeCell ref="AX122:BA122"/>
-    <mergeCell ref="BB122:BE122"/>
-    <mergeCell ref="BN84:BQ84"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="J103:M103"/>
-    <mergeCell ref="N103:Q103"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="V103:Y103"/>
-    <mergeCell ref="Z103:AC103"/>
-    <mergeCell ref="AD103:AG103"/>
-    <mergeCell ref="AH103:AK103"/>
-    <mergeCell ref="AL103:AO103"/>
-    <mergeCell ref="AP103:AS103"/>
-    <mergeCell ref="AT103:AW103"/>
-    <mergeCell ref="AX103:BA103"/>
-    <mergeCell ref="BB103:BE103"/>
-    <mergeCell ref="BF103:BI103"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="BB84:BE84"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="N122:Q122"/>
-    <mergeCell ref="R122:U122"/>
-    <mergeCell ref="V122:Y122"/>
-    <mergeCell ref="Z122:AC122"/>
-    <mergeCell ref="AD122:AG122"/>
-    <mergeCell ref="AH122:AK122"/>
-    <mergeCell ref="BZ47:CC47"/>
-    <mergeCell ref="BZ66:CC66"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD122:CG122"/>
-    <mergeCell ref="CD103:CG103"/>
-    <mergeCell ref="CD84:CG84"/>
-    <mergeCell ref="CD28:CG28"/>
-    <mergeCell ref="BF122:BI122"/>
-    <mergeCell ref="BJ122:BM122"/>
-    <mergeCell ref="BN122:BQ122"/>
-    <mergeCell ref="BJ103:BM103"/>
-    <mergeCell ref="BN103:BQ103"/>
-    <mergeCell ref="BF84:BI84"/>
-    <mergeCell ref="BJ84:BM84"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="BV47:BY47"/>
-    <mergeCell ref="BZ103:CC103"/>
-    <mergeCell ref="BV84:BY84"/>
-    <mergeCell ref="BZ84:CC84"/>
-    <mergeCell ref="BV103:BY103"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BZ122:CC122"/>
-    <mergeCell ref="BV28:BY28"/>
+    <mergeCell ref="CL9:CM9"/>
+    <mergeCell ref="CL28:CM28"/>
+    <mergeCell ref="CL84:CM84"/>
+    <mergeCell ref="CL103:CM103"/>
+    <mergeCell ref="CL122:CM122"/>
+    <mergeCell ref="CH47:CI47"/>
+    <mergeCell ref="CH66:CI66"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH28:CK28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="89" man="1"/>
-    <brk id="76" max="89" man="1"/>
-    <brk id="94" max="89" man="1"/>
+    <brk id="38" max="90" man="1"/>
+    <brk id="76" max="90" man="1"/>
+    <brk id="94" max="90" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-21OS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-21OS_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4F0D63-163B-430B-84B7-11244E0A822C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65B9999-E11C-4D1B-A509-3FF101AB412C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OS" sheetId="15" r:id="rId1"/>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">OS!$A$1:$CM$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">OS!$A$1:$CN$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="51">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -615,13 +615,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of August 2022</t>
+    <t>Q1 2000 to Q3 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2022</t>
+    <t>Q1 2001 to Q3 2022</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2022</t>
+    <t>As of November 2022</t>
   </si>
 </sst>
 </file>
@@ -629,9 +629,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -721,12 +721,12 @@
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -743,25 +743,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -23633,53 +23627,53 @@
   </sheetPr>
   <dimension ref="A1:EY130"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A102" colorId="22" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CI1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CG1" activePane="topRight" state="frozen"/>
       <selection activeCell="CE141" sqref="CA141:CE149"/>
-      <selection pane="topRight" activeCell="CH1" sqref="CH1:CM1048576"/>
+      <selection pane="topRight" activeCell="CH1" sqref="CH1:CN1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.90625" style="1" customWidth="1"/>
-    <col min="2" max="91" width="9" style="12" customWidth="1"/>
-    <col min="92" max="16384" width="7.81640625" style="12"/>
+    <col min="1" max="1" width="41.88671875" style="1" customWidth="1"/>
+    <col min="2" max="92" width="9" style="12" customWidth="1"/>
+    <col min="93" max="16384" width="7.77734375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -23771,147 +23765,149 @@
       <c r="CK8" s="1"/>
       <c r="CL8" s="1"/>
       <c r="CM8" s="1"/>
+      <c r="CN8" s="1"/>
     </row>
-    <row r="9" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="24">
+      <c r="B9" s="22">
         <v>2000</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22">
         <v>2001</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24">
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22">
         <v>2002</v>
       </c>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24">
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22">
         <v>2003</v>
       </c>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24">
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22">
         <v>2004</v>
       </c>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24">
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22">
         <v>2005</v>
       </c>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24">
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22">
         <v>2006</v>
       </c>
-      <c r="AA9" s="24"/>
-      <c r="AB9" s="24"/>
-      <c r="AC9" s="24"/>
-      <c r="AD9" s="24">
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22">
         <v>2007</v>
       </c>
-      <c r="AE9" s="24"/>
-      <c r="AF9" s="24"/>
-      <c r="AG9" s="24"/>
-      <c r="AH9" s="24">
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="22">
         <v>2008</v>
       </c>
-      <c r="AI9" s="24"/>
-      <c r="AJ9" s="24"/>
-      <c r="AK9" s="24"/>
-      <c r="AL9" s="24">
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="22"/>
+      <c r="AL9" s="22">
         <v>2009</v>
       </c>
-      <c r="AM9" s="24"/>
-      <c r="AN9" s="24"/>
-      <c r="AO9" s="24"/>
-      <c r="AP9" s="24">
+      <c r="AM9" s="22"/>
+      <c r="AN9" s="22"/>
+      <c r="AO9" s="22"/>
+      <c r="AP9" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="24"/>
-      <c r="AR9" s="24"/>
-      <c r="AS9" s="24"/>
-      <c r="AT9" s="24">
+      <c r="AQ9" s="22"/>
+      <c r="AR9" s="22"/>
+      <c r="AS9" s="22"/>
+      <c r="AT9" s="22">
         <v>2011</v>
       </c>
-      <c r="AU9" s="24"/>
-      <c r="AV9" s="24"/>
-      <c r="AW9" s="24"/>
-      <c r="AX9" s="24">
+      <c r="AU9" s="22"/>
+      <c r="AV9" s="22"/>
+      <c r="AW9" s="22"/>
+      <c r="AX9" s="22">
         <v>2012</v>
       </c>
-      <c r="AY9" s="24"/>
-      <c r="AZ9" s="24"/>
-      <c r="BA9" s="24"/>
-      <c r="BB9" s="24">
+      <c r="AY9" s="22"/>
+      <c r="AZ9" s="22"/>
+      <c r="BA9" s="22"/>
+      <c r="BB9" s="22">
         <v>2013</v>
       </c>
-      <c r="BC9" s="24"/>
-      <c r="BD9" s="24"/>
-      <c r="BE9" s="24"/>
-      <c r="BF9" s="24">
+      <c r="BC9" s="22"/>
+      <c r="BD9" s="22"/>
+      <c r="BE9" s="22"/>
+      <c r="BF9" s="22">
         <v>2014</v>
       </c>
-      <c r="BG9" s="24"/>
-      <c r="BH9" s="24"/>
-      <c r="BI9" s="24"/>
-      <c r="BJ9" s="24">
+      <c r="BG9" s="22"/>
+      <c r="BH9" s="22"/>
+      <c r="BI9" s="22"/>
+      <c r="BJ9" s="22">
         <v>2015</v>
       </c>
-      <c r="BK9" s="24"/>
-      <c r="BL9" s="24"/>
-      <c r="BM9" s="24"/>
-      <c r="BN9" s="24">
+      <c r="BK9" s="22"/>
+      <c r="BL9" s="22"/>
+      <c r="BM9" s="22"/>
+      <c r="BN9" s="22">
         <v>2016</v>
       </c>
-      <c r="BO9" s="24"/>
-      <c r="BP9" s="24"/>
-      <c r="BQ9" s="24"/>
-      <c r="BR9" s="24">
+      <c r="BO9" s="22"/>
+      <c r="BP9" s="22"/>
+      <c r="BQ9" s="22"/>
+      <c r="BR9" s="22">
         <v>2017</v>
       </c>
-      <c r="BS9" s="24"/>
-      <c r="BT9" s="24"/>
-      <c r="BU9" s="24"/>
-      <c r="BV9" s="24">
+      <c r="BS9" s="22"/>
+      <c r="BT9" s="22"/>
+      <c r="BU9" s="22"/>
+      <c r="BV9" s="22">
         <v>2018</v>
       </c>
-      <c r="BW9" s="24"/>
-      <c r="BX9" s="24"/>
-      <c r="BY9" s="24"/>
-      <c r="BZ9" s="24">
+      <c r="BW9" s="22"/>
+      <c r="BX9" s="22"/>
+      <c r="BY9" s="22"/>
+      <c r="BZ9" s="22">
         <v>2019</v>
       </c>
-      <c r="CA9" s="24"/>
-      <c r="CB9" s="24"/>
-      <c r="CC9" s="24"/>
-      <c r="CD9" s="24">
+      <c r="CA9" s="22"/>
+      <c r="CB9" s="22"/>
+      <c r="CC9" s="22"/>
+      <c r="CD9" s="22">
         <v>2020</v>
       </c>
-      <c r="CE9" s="24"/>
-      <c r="CF9" s="24"/>
-      <c r="CG9" s="24"/>
-      <c r="CH9" s="24">
+      <c r="CE9" s="22"/>
+      <c r="CF9" s="22"/>
+      <c r="CG9" s="22"/>
+      <c r="CH9" s="22">
         <v>2021</v>
       </c>
-      <c r="CI9" s="24"/>
-      <c r="CJ9" s="24"/>
-      <c r="CK9" s="24"/>
-      <c r="CL9" s="24">
+      <c r="CI9" s="22"/>
+      <c r="CJ9" s="22"/>
+      <c r="CK9" s="22"/>
+      <c r="CL9" s="22">
         <v>2022</v>
       </c>
-      <c r="CM9" s="24"/>
+      <c r="CM9" s="22"/>
+      <c r="CN9" s="22"/>
     </row>
-    <row r="10" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
@@ -24185,8 +24181,11 @@
       <c r="CM10" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="CN10" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="11" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -24278,8 +24277,9 @@
       <c r="CK11" s="1"/>
       <c r="CL11" s="1"/>
       <c r="CM11" s="1"/>
+      <c r="CN11" s="1"/>
     </row>
-    <row r="12" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
@@ -24535,25 +24535,27 @@
       <c r="CG12" s="10">
         <v>39353.861632009895</v>
       </c>
-      <c r="CH12" s="20">
+      <c r="CH12" s="19">
         <v>34359.79005139049</v>
       </c>
-      <c r="CI12" s="20">
+      <c r="CI12" s="19">
         <v>32934.632216273138</v>
       </c>
-      <c r="CJ12" s="20">
+      <c r="CJ12" s="19">
         <v>31101.235178779076</v>
       </c>
-      <c r="CK12" s="20">
+      <c r="CK12" s="19">
         <v>58229.620492636881</v>
       </c>
-      <c r="CL12" s="20">
+      <c r="CL12" s="19">
         <v>44043.064011298673</v>
       </c>
-      <c r="CM12" s="20">
-        <v>52064.027894592931</v>
-      </c>
-      <c r="CN12" s="11"/>
+      <c r="CM12" s="19">
+        <v>52367.679959474917</v>
+      </c>
+      <c r="CN12" s="19">
+        <v>48237.555913436488</v>
+      </c>
       <c r="CO12" s="11"/>
       <c r="CP12" s="11"/>
       <c r="CQ12" s="11"/>
@@ -24618,7 +24620,7 @@
       <c r="EX12" s="11"/>
       <c r="EY12" s="11"/>
     </row>
-    <row r="13" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -24874,25 +24876,27 @@
       <c r="CG13" s="10">
         <v>33236.548627112723</v>
       </c>
-      <c r="CH13" s="20">
+      <c r="CH13" s="19">
         <v>32815.823343175747</v>
       </c>
-      <c r="CI13" s="20">
+      <c r="CI13" s="19">
         <v>28765.181851902711</v>
       </c>
-      <c r="CJ13" s="20">
+      <c r="CJ13" s="19">
         <v>26148.897222831041</v>
       </c>
-      <c r="CK13" s="20">
+      <c r="CK13" s="19">
         <v>36654.966179066811</v>
       </c>
-      <c r="CL13" s="20">
+      <c r="CL13" s="19">
         <v>39176.561462143989</v>
       </c>
-      <c r="CM13" s="20">
-        <v>34092.919635140737</v>
-      </c>
-      <c r="CN13" s="11"/>
+      <c r="CM13" s="19">
+        <v>34120.87210292559</v>
+      </c>
+      <c r="CN13" s="19">
+        <v>31728.755870778419</v>
+      </c>
       <c r="CO13" s="11"/>
       <c r="CP13" s="11"/>
       <c r="CQ13" s="11"/>
@@ -24957,7 +24961,7 @@
       <c r="EX13" s="11"/>
       <c r="EY13" s="11"/>
     </row>
-    <row r="14" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -25042,13 +25046,13 @@
       <c r="CE14" s="13"/>
       <c r="CF14" s="13"/>
       <c r="CG14" s="13"/>
-      <c r="CH14" s="21"/>
-      <c r="CI14" s="21"/>
-      <c r="CJ14" s="21"/>
-      <c r="CK14" s="21"/>
-      <c r="CL14" s="21"/>
-      <c r="CM14" s="21"/>
-      <c r="CN14" s="11"/>
+      <c r="CH14" s="20"/>
+      <c r="CI14" s="20"/>
+      <c r="CJ14" s="20"/>
+      <c r="CK14" s="20"/>
+      <c r="CL14" s="20"/>
+      <c r="CM14" s="20"/>
+      <c r="CN14" s="20"/>
       <c r="CO14" s="11"/>
       <c r="CP14" s="11"/>
       <c r="CQ14" s="11"/>
@@ -25113,7 +25117,7 @@
       <c r="EX14" s="11"/>
       <c r="EY14" s="11"/>
     </row>
-    <row r="15" spans="1:155" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:155" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
         <v>13</v>
       </c>
@@ -25369,25 +25373,27 @@
       <c r="CG15" s="13">
         <v>72590.410259122611</v>
       </c>
-      <c r="CH15" s="21">
+      <c r="CH15" s="20">
         <v>67175.61339456623</v>
       </c>
-      <c r="CI15" s="21">
+      <c r="CI15" s="20">
         <v>61699.814068175852</v>
       </c>
-      <c r="CJ15" s="21">
+      <c r="CJ15" s="20">
         <v>57250.132401610113</v>
       </c>
-      <c r="CK15" s="21">
+      <c r="CK15" s="20">
         <v>94884.586671703699</v>
       </c>
-      <c r="CL15" s="21">
+      <c r="CL15" s="20">
         <v>83219.625473442662</v>
       </c>
-      <c r="CM15" s="21">
-        <v>86156.947529733676</v>
-      </c>
-      <c r="CN15" s="11"/>
+      <c r="CM15" s="20">
+        <v>86488.5520624005</v>
+      </c>
+      <c r="CN15" s="20">
+        <v>79966.311784214908</v>
+      </c>
       <c r="CO15" s="11"/>
       <c r="CP15" s="11"/>
       <c r="CQ15" s="11"/>
@@ -25452,7 +25458,7 @@
       <c r="EX15" s="11"/>
       <c r="EY15" s="11"/>
     </row>
-    <row r="16" spans="1:155" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:155" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -25544,8 +25550,9 @@
       <c r="CK16" s="15"/>
       <c r="CL16" s="15"/>
       <c r="CM16" s="15"/>
+      <c r="CN16" s="15"/>
     </row>
-    <row r="17" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>0</v>
       </c>
@@ -25639,8 +25646,9 @@
       <c r="CK17" s="1"/>
       <c r="CL17" s="1"/>
       <c r="CM17" s="1"/>
+      <c r="CN17" s="1"/>
     </row>
-    <row r="18" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -25731,7 +25739,7 @@
       <c r="CK18" s="17"/>
       <c r="CL18" s="17"/>
       <c r="CM18" s="17"/>
-      <c r="CN18" s="11"/>
+      <c r="CN18" s="17"/>
       <c r="CO18" s="11"/>
       <c r="CP18" s="11"/>
       <c r="CQ18" s="11"/>
@@ -25796,7 +25804,7 @@
       <c r="EX18" s="11"/>
       <c r="EY18" s="11"/>
     </row>
-    <row r="19" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -25887,7 +25895,7 @@
       <c r="CK19" s="17"/>
       <c r="CL19" s="17"/>
       <c r="CM19" s="17"/>
-      <c r="CN19" s="11"/>
+      <c r="CN19" s="17"/>
       <c r="CO19" s="11"/>
       <c r="CP19" s="11"/>
       <c r="CQ19" s="11"/>
@@ -25952,7 +25960,7 @@
       <c r="EX19" s="11"/>
       <c r="EY19" s="11"/>
     </row>
-    <row r="20" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -26046,8 +26054,9 @@
       <c r="CK20" s="1"/>
       <c r="CL20" s="1"/>
       <c r="CM20" s="1"/>
+      <c r="CN20" s="1"/>
     </row>
-    <row r="21" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -26141,10 +26150,11 @@
       <c r="CK21" s="1"/>
       <c r="CL21" s="1"/>
       <c r="CM21" s="1"/>
+      <c r="CN21" s="1"/>
     </row>
-    <row r="22" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -26236,8 +26246,9 @@
       <c r="CK22" s="1"/>
       <c r="CL22" s="1"/>
       <c r="CM22" s="1"/>
+      <c r="CN22" s="1"/>
     </row>
-    <row r="23" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -26329,8 +26340,9 @@
       <c r="CK23" s="1"/>
       <c r="CL23" s="1"/>
       <c r="CM23" s="1"/>
+      <c r="CN23" s="1"/>
     </row>
-    <row r="24" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
@@ -26424,10 +26436,11 @@
       <c r="CK24" s="1"/>
       <c r="CL24" s="1"/>
       <c r="CM24" s="1"/>
+      <c r="CN24" s="1"/>
     </row>
-    <row r="25" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -26519,8 +26532,9 @@
       <c r="CK25" s="1"/>
       <c r="CL25" s="1"/>
       <c r="CM25" s="1"/>
+      <c r="CN25" s="1"/>
     </row>
-    <row r="26" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -26614,8 +26628,9 @@
       <c r="CK26" s="1"/>
       <c r="CL26" s="1"/>
       <c r="CM26" s="1"/>
+      <c r="CN26" s="1"/>
     </row>
-    <row r="27" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -26707,147 +26722,149 @@
       <c r="CK27" s="1"/>
       <c r="CL27" s="1"/>
       <c r="CM27" s="1"/>
+      <c r="CN27" s="1"/>
     </row>
-    <row r="28" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
-      <c r="B28" s="24">
+      <c r="B28" s="22">
         <v>2000</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="24">
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="22">
         <v>2001</v>
       </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="24">
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="22">
         <v>2002</v>
       </c>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="24">
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="22">
         <v>2003</v>
       </c>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="24">
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="22">
         <v>2004</v>
       </c>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="25"/>
-      <c r="V28" s="24">
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="22">
         <v>2005</v>
       </c>
-      <c r="W28" s="25"/>
-      <c r="X28" s="25"/>
-      <c r="Y28" s="25"/>
-      <c r="Z28" s="24">
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="22">
         <v>2006</v>
       </c>
-      <c r="AA28" s="25"/>
-      <c r="AB28" s="25"/>
-      <c r="AC28" s="25"/>
-      <c r="AD28" s="24">
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="22">
         <v>2007</v>
       </c>
-      <c r="AE28" s="25"/>
-      <c r="AF28" s="25"/>
-      <c r="AG28" s="25"/>
-      <c r="AH28" s="24">
+      <c r="AE28" s="23"/>
+      <c r="AF28" s="23"/>
+      <c r="AG28" s="23"/>
+      <c r="AH28" s="22">
         <v>2008</v>
       </c>
-      <c r="AI28" s="25"/>
-      <c r="AJ28" s="25"/>
-      <c r="AK28" s="25"/>
-      <c r="AL28" s="24">
+      <c r="AI28" s="23"/>
+      <c r="AJ28" s="23"/>
+      <c r="AK28" s="23"/>
+      <c r="AL28" s="22">
         <v>2009</v>
       </c>
-      <c r="AM28" s="25"/>
-      <c r="AN28" s="25"/>
-      <c r="AO28" s="25"/>
-      <c r="AP28" s="24">
+      <c r="AM28" s="23"/>
+      <c r="AN28" s="23"/>
+      <c r="AO28" s="23"/>
+      <c r="AP28" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="25"/>
-      <c r="AR28" s="25"/>
-      <c r="AS28" s="25"/>
-      <c r="AT28" s="24">
+      <c r="AQ28" s="23"/>
+      <c r="AR28" s="23"/>
+      <c r="AS28" s="23"/>
+      <c r="AT28" s="22">
         <v>2011</v>
       </c>
-      <c r="AU28" s="25"/>
-      <c r="AV28" s="25"/>
-      <c r="AW28" s="25"/>
-      <c r="AX28" s="24">
+      <c r="AU28" s="23"/>
+      <c r="AV28" s="23"/>
+      <c r="AW28" s="23"/>
+      <c r="AX28" s="22">
         <v>2012</v>
       </c>
-      <c r="AY28" s="25"/>
-      <c r="AZ28" s="25"/>
-      <c r="BA28" s="25"/>
-      <c r="BB28" s="24">
+      <c r="AY28" s="23"/>
+      <c r="AZ28" s="23"/>
+      <c r="BA28" s="23"/>
+      <c r="BB28" s="22">
         <v>2013</v>
       </c>
-      <c r="BC28" s="25"/>
-      <c r="BD28" s="25"/>
-      <c r="BE28" s="25"/>
-      <c r="BF28" s="24">
+      <c r="BC28" s="23"/>
+      <c r="BD28" s="23"/>
+      <c r="BE28" s="23"/>
+      <c r="BF28" s="22">
         <v>2014</v>
       </c>
-      <c r="BG28" s="25"/>
-      <c r="BH28" s="25"/>
-      <c r="BI28" s="25"/>
-      <c r="BJ28" s="24">
+      <c r="BG28" s="23"/>
+      <c r="BH28" s="23"/>
+      <c r="BI28" s="23"/>
+      <c r="BJ28" s="22">
         <v>2015</v>
       </c>
-      <c r="BK28" s="25"/>
-      <c r="BL28" s="25"/>
-      <c r="BM28" s="25"/>
-      <c r="BN28" s="24">
+      <c r="BK28" s="23"/>
+      <c r="BL28" s="23"/>
+      <c r="BM28" s="23"/>
+      <c r="BN28" s="22">
         <v>2016</v>
       </c>
-      <c r="BO28" s="25"/>
-      <c r="BP28" s="25"/>
-      <c r="BQ28" s="25"/>
-      <c r="BR28" s="24">
+      <c r="BO28" s="23"/>
+      <c r="BP28" s="23"/>
+      <c r="BQ28" s="23"/>
+      <c r="BR28" s="22">
         <v>2017</v>
       </c>
-      <c r="BS28" s="25"/>
-      <c r="BT28" s="25"/>
-      <c r="BU28" s="25"/>
-      <c r="BV28" s="24">
+      <c r="BS28" s="23"/>
+      <c r="BT28" s="23"/>
+      <c r="BU28" s="23"/>
+      <c r="BV28" s="22">
         <v>2018</v>
       </c>
-      <c r="BW28" s="24"/>
-      <c r="BX28" s="24"/>
-      <c r="BY28" s="24"/>
-      <c r="BZ28" s="24">
+      <c r="BW28" s="22"/>
+      <c r="BX28" s="22"/>
+      <c r="BY28" s="22"/>
+      <c r="BZ28" s="22">
         <v>2019</v>
       </c>
-      <c r="CA28" s="24"/>
-      <c r="CB28" s="24"/>
-      <c r="CC28" s="24"/>
-      <c r="CD28" s="24">
+      <c r="CA28" s="22"/>
+      <c r="CB28" s="22"/>
+      <c r="CC28" s="22"/>
+      <c r="CD28" s="22">
         <v>2020</v>
       </c>
-      <c r="CE28" s="24"/>
-      <c r="CF28" s="24"/>
-      <c r="CG28" s="24"/>
-      <c r="CH28" s="24">
+      <c r="CE28" s="22"/>
+      <c r="CF28" s="22"/>
+      <c r="CG28" s="22"/>
+      <c r="CH28" s="22">
         <v>2021</v>
       </c>
-      <c r="CI28" s="24"/>
-      <c r="CJ28" s="24"/>
-      <c r="CK28" s="24"/>
-      <c r="CL28" s="24">
+      <c r="CI28" s="22"/>
+      <c r="CJ28" s="22"/>
+      <c r="CK28" s="22"/>
+      <c r="CL28" s="22">
         <v>2022</v>
       </c>
-      <c r="CM28" s="24"/>
+      <c r="CM28" s="22"/>
+      <c r="CN28" s="22"/>
     </row>
-    <row r="29" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>4</v>
       </c>
@@ -27121,8 +27138,11 @@
       <c r="CM29" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="CN29" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="30" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -27214,8 +27234,9 @@
       <c r="CK30" s="1"/>
       <c r="CL30" s="1"/>
       <c r="CM30" s="1"/>
+      <c r="CN30" s="1"/>
     </row>
-    <row r="31" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>11</v>
       </c>
@@ -27471,25 +27492,27 @@
       <c r="CG31" s="10">
         <v>37867.593372515308</v>
       </c>
-      <c r="CH31" s="20">
+      <c r="CH31" s="19">
         <v>33570.762662069799</v>
       </c>
-      <c r="CI31" s="20">
+      <c r="CI31" s="19">
         <v>31824.27086371804</v>
       </c>
-      <c r="CJ31" s="20">
+      <c r="CJ31" s="19">
         <v>29870.330912766793</v>
       </c>
-      <c r="CK31" s="20">
+      <c r="CK31" s="19">
         <v>55752.301880555846</v>
       </c>
-      <c r="CL31" s="20">
+      <c r="CL31" s="19">
         <v>42540.061150244728</v>
       </c>
-      <c r="CM31" s="20">
-        <v>49894.919114976088</v>
-      </c>
-      <c r="CN31" s="11"/>
+      <c r="CM31" s="19">
+        <v>50190.521766449645</v>
+      </c>
+      <c r="CN31" s="19">
+        <v>45625.011074487033</v>
+      </c>
       <c r="CO31" s="11"/>
       <c r="CP31" s="11"/>
       <c r="CQ31" s="11"/>
@@ -27554,7 +27577,7 @@
       <c r="EX31" s="11"/>
       <c r="EY31" s="11"/>
     </row>
-    <row r="32" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
@@ -27810,25 +27833,27 @@
       <c r="CG32" s="10">
         <v>30911.379465516111</v>
       </c>
-      <c r="CH32" s="20">
+      <c r="CH32" s="19">
         <v>29508.709154032811</v>
       </c>
-      <c r="CI32" s="20">
+      <c r="CI32" s="19">
         <v>26096.433565107174</v>
       </c>
-      <c r="CJ32" s="20">
+      <c r="CJ32" s="19">
         <v>23839.078751075409</v>
       </c>
-      <c r="CK32" s="20">
+      <c r="CK32" s="19">
         <v>33388.664453483907</v>
       </c>
-      <c r="CL32" s="20">
+      <c r="CL32" s="19">
         <v>34848.050801933299</v>
       </c>
-      <c r="CM32" s="20">
-        <v>30882.391488383681</v>
-      </c>
-      <c r="CN32" s="11"/>
+      <c r="CM32" s="19">
+        <v>30903.114172869165</v>
+      </c>
+      <c r="CN32" s="19">
+        <v>28630.836838936026</v>
+      </c>
       <c r="CO32" s="11"/>
       <c r="CP32" s="11"/>
       <c r="CQ32" s="11"/>
@@ -27893,7 +27918,7 @@
       <c r="EX32" s="11"/>
       <c r="EY32" s="11"/>
     </row>
-    <row r="33" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
@@ -27978,13 +28003,13 @@
       <c r="CE33" s="13"/>
       <c r="CF33" s="13"/>
       <c r="CG33" s="13"/>
-      <c r="CH33" s="21"/>
-      <c r="CI33" s="21"/>
-      <c r="CJ33" s="21"/>
-      <c r="CK33" s="21"/>
-      <c r="CL33" s="21"/>
-      <c r="CM33" s="21"/>
-      <c r="CN33" s="11"/>
+      <c r="CH33" s="20"/>
+      <c r="CI33" s="20"/>
+      <c r="CJ33" s="20"/>
+      <c r="CK33" s="20"/>
+      <c r="CL33" s="20"/>
+      <c r="CM33" s="20"/>
+      <c r="CN33" s="20"/>
       <c r="CO33" s="11"/>
       <c r="CP33" s="11"/>
       <c r="CQ33" s="11"/>
@@ -28049,7 +28074,7 @@
       <c r="EX33" s="11"/>
       <c r="EY33" s="11"/>
     </row>
-    <row r="34" spans="1:155" ht="18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:155" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>13</v>
       </c>
@@ -28305,25 +28330,27 @@
       <c r="CG34" s="13">
         <v>68778.972838031419</v>
       </c>
-      <c r="CH34" s="21">
+      <c r="CH34" s="20">
         <v>63079.47181610261</v>
       </c>
-      <c r="CI34" s="21">
+      <c r="CI34" s="20">
         <v>57920.704428825215</v>
       </c>
-      <c r="CJ34" s="21">
+      <c r="CJ34" s="20">
         <v>53709.409663842205</v>
       </c>
-      <c r="CK34" s="21">
+      <c r="CK34" s="20">
         <v>89140.966334039753</v>
       </c>
-      <c r="CL34" s="21">
+      <c r="CL34" s="20">
         <v>77388.111952178035</v>
       </c>
-      <c r="CM34" s="21">
-        <v>80777.310603359772</v>
-      </c>
-      <c r="CN34" s="11"/>
+      <c r="CM34" s="20">
+        <v>81093.635939318803</v>
+      </c>
+      <c r="CN34" s="20">
+        <v>74255.847913423058</v>
+      </c>
       <c r="CO34" s="11"/>
       <c r="CP34" s="11"/>
       <c r="CQ34" s="11"/>
@@ -28388,7 +28415,7 @@
       <c r="EX34" s="11"/>
       <c r="EY34" s="11"/>
     </row>
-    <row r="35" spans="1:155" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:155" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -28480,8 +28507,9 @@
       <c r="CK35" s="15"/>
       <c r="CL35" s="15"/>
       <c r="CM35" s="15"/>
+      <c r="CN35" s="15"/>
     </row>
-    <row r="36" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>0</v>
       </c>
@@ -28575,8 +28603,9 @@
       <c r="CK36" s="1"/>
       <c r="CL36" s="1"/>
       <c r="CM36" s="1"/>
+      <c r="CN36" s="1"/>
     </row>
-    <row r="37" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
@@ -28667,7 +28696,7 @@
       <c r="CK37" s="17"/>
       <c r="CL37" s="17"/>
       <c r="CM37" s="17"/>
-      <c r="CN37" s="11"/>
+      <c r="CN37" s="17"/>
       <c r="CO37" s="11"/>
       <c r="CP37" s="11"/>
       <c r="CQ37" s="11"/>
@@ -28732,7 +28761,7 @@
       <c r="EX37" s="11"/>
       <c r="EY37" s="11"/>
     </row>
-    <row r="38" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
@@ -28823,7 +28852,7 @@
       <c r="CK38" s="17"/>
       <c r="CL38" s="17"/>
       <c r="CM38" s="17"/>
-      <c r="CN38" s="11"/>
+      <c r="CN38" s="17"/>
       <c r="CO38" s="11"/>
       <c r="CP38" s="11"/>
       <c r="CQ38" s="11"/>
@@ -28888,7 +28917,7 @@
       <c r="EX38" s="11"/>
       <c r="EY38" s="11"/>
     </row>
-    <row r="39" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>2</v>
       </c>
@@ -28982,8 +29011,9 @@
       <c r="CK39" s="1"/>
       <c r="CL39" s="1"/>
       <c r="CM39" s="1"/>
+      <c r="CN39" s="1"/>
     </row>
-    <row r="40" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
@@ -29077,10 +29107,11 @@
       <c r="CK40" s="1"/>
       <c r="CL40" s="1"/>
       <c r="CM40" s="1"/>
+      <c r="CN40" s="1"/>
     </row>
-    <row r="41" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -29172,8 +29203,9 @@
       <c r="CK41" s="1"/>
       <c r="CL41" s="1"/>
       <c r="CM41" s="1"/>
+      <c r="CN41" s="1"/>
     </row>
-    <row r="42" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -29265,8 +29297,9 @@
       <c r="CK42" s="1"/>
       <c r="CL42" s="1"/>
       <c r="CM42" s="1"/>
+      <c r="CN42" s="1"/>
     </row>
-    <row r="43" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>16</v>
       </c>
@@ -29360,10 +29393,11 @@
       <c r="CK43" s="1"/>
       <c r="CL43" s="1"/>
       <c r="CM43" s="1"/>
+      <c r="CN43" s="1"/>
     </row>
-    <row r="44" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -29455,8 +29489,9 @@
       <c r="CK44" s="1"/>
       <c r="CL44" s="1"/>
       <c r="CM44" s="1"/>
+      <c r="CN44" s="1"/>
     </row>
-    <row r="45" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>21</v>
       </c>
@@ -29545,7 +29580,7 @@
       <c r="CF45" s="1"/>
       <c r="CG45" s="1"/>
     </row>
-    <row r="46" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -29637,145 +29672,147 @@
       <c r="CK46" s="1"/>
       <c r="CL46" s="1"/>
       <c r="CM46" s="1"/>
+      <c r="CN46" s="1"/>
     </row>
-    <row r="47" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24" t="s">
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24" t="s">
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24" t="s">
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="24"/>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="24"/>
-      <c r="R47" s="24" t="s">
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="24"/>
-      <c r="T47" s="24"/>
-      <c r="U47" s="24"/>
-      <c r="V47" s="24" t="s">
+      <c r="S47" s="22"/>
+      <c r="T47" s="22"/>
+      <c r="U47" s="22"/>
+      <c r="V47" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="24"/>
-      <c r="X47" s="24"/>
-      <c r="Y47" s="24"/>
-      <c r="Z47" s="24" t="s">
+      <c r="W47" s="22"/>
+      <c r="X47" s="22"/>
+      <c r="Y47" s="22"/>
+      <c r="Z47" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="24"/>
-      <c r="AB47" s="24"/>
-      <c r="AC47" s="24"/>
-      <c r="AD47" s="24" t="s">
+      <c r="AA47" s="22"/>
+      <c r="AB47" s="22"/>
+      <c r="AC47" s="22"/>
+      <c r="AD47" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="24"/>
-      <c r="AF47" s="24"/>
-      <c r="AG47" s="24"/>
-      <c r="AH47" s="24" t="s">
+      <c r="AE47" s="22"/>
+      <c r="AF47" s="22"/>
+      <c r="AG47" s="22"/>
+      <c r="AH47" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="24"/>
-      <c r="AJ47" s="24"/>
-      <c r="AK47" s="24"/>
-      <c r="AL47" s="24" t="s">
+      <c r="AI47" s="22"/>
+      <c r="AJ47" s="22"/>
+      <c r="AK47" s="22"/>
+      <c r="AL47" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="24"/>
-      <c r="AN47" s="24"/>
-      <c r="AO47" s="24"/>
-      <c r="AP47" s="24" t="s">
+      <c r="AM47" s="22"/>
+      <c r="AN47" s="22"/>
+      <c r="AO47" s="22"/>
+      <c r="AP47" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="24"/>
-      <c r="AR47" s="24"/>
-      <c r="AS47" s="24"/>
-      <c r="AT47" s="24" t="s">
+      <c r="AQ47" s="22"/>
+      <c r="AR47" s="22"/>
+      <c r="AS47" s="22"/>
+      <c r="AT47" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="24"/>
-      <c r="AV47" s="24"/>
-      <c r="AW47" s="24"/>
-      <c r="AX47" s="24" t="s">
+      <c r="AU47" s="22"/>
+      <c r="AV47" s="22"/>
+      <c r="AW47" s="22"/>
+      <c r="AX47" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="24"/>
-      <c r="AZ47" s="24"/>
-      <c r="BA47" s="24"/>
-      <c r="BB47" s="24" t="s">
+      <c r="AY47" s="22"/>
+      <c r="AZ47" s="22"/>
+      <c r="BA47" s="22"/>
+      <c r="BB47" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="24"/>
-      <c r="BD47" s="24"/>
-      <c r="BE47" s="24"/>
-      <c r="BF47" s="24" t="s">
+      <c r="BC47" s="22"/>
+      <c r="BD47" s="22"/>
+      <c r="BE47" s="22"/>
+      <c r="BF47" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="24"/>
-      <c r="BH47" s="24"/>
-      <c r="BI47" s="24"/>
-      <c r="BJ47" s="24" t="s">
+      <c r="BG47" s="22"/>
+      <c r="BH47" s="22"/>
+      <c r="BI47" s="22"/>
+      <c r="BJ47" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="24"/>
-      <c r="BL47" s="24"/>
-      <c r="BM47" s="24"/>
-      <c r="BN47" s="24" t="s">
+      <c r="BK47" s="22"/>
+      <c r="BL47" s="22"/>
+      <c r="BM47" s="22"/>
+      <c r="BN47" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="24"/>
-      <c r="BP47" s="24"/>
-      <c r="BQ47" s="24"/>
-      <c r="BR47" s="24" t="s">
+      <c r="BO47" s="22"/>
+      <c r="BP47" s="22"/>
+      <c r="BQ47" s="22"/>
+      <c r="BR47" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="BS47" s="24"/>
-      <c r="BT47" s="24"/>
-      <c r="BU47" s="24"/>
-      <c r="BV47" s="24" t="s">
+      <c r="BS47" s="22"/>
+      <c r="BT47" s="22"/>
+      <c r="BU47" s="22"/>
+      <c r="BV47" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="BW47" s="24"/>
-      <c r="BX47" s="24"/>
-      <c r="BY47" s="24"/>
-      <c r="BZ47" s="24" t="s">
+      <c r="BW47" s="22"/>
+      <c r="BX47" s="22"/>
+      <c r="BY47" s="22"/>
+      <c r="BZ47" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="24"/>
-      <c r="CB47" s="24"/>
-      <c r="CC47" s="24"/>
-      <c r="CD47" s="24" t="s">
+      <c r="CA47" s="22"/>
+      <c r="CB47" s="22"/>
+      <c r="CC47" s="22"/>
+      <c r="CD47" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="24"/>
-      <c r="CF47" s="24"/>
-      <c r="CG47" s="24"/>
-      <c r="CH47" s="24" t="s">
+      <c r="CE47" s="22"/>
+      <c r="CF47" s="22"/>
+      <c r="CG47" s="22"/>
+      <c r="CH47" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="CI47" s="24"/>
-      <c r="CJ47" s="23"/>
-      <c r="CK47" s="23"/>
-      <c r="CL47" s="19"/>
-      <c r="CM47" s="19"/>
+      <c r="CI47" s="22"/>
+      <c r="CJ47" s="22"/>
+      <c r="CK47" s="21"/>
+      <c r="CL47" s="22"/>
+      <c r="CM47" s="22"/>
+      <c r="CN47" s="21"/>
     </row>
-    <row r="48" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>4</v>
       </c>
@@ -30037,12 +30074,15 @@
       <c r="CI48" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CJ48" s="6"/>
+      <c r="CJ48" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="CK48" s="6"/>
       <c r="CL48" s="6"/>
-      <c r="CM48" s="22"/>
+      <c r="CM48" s="6"/>
+      <c r="CN48" s="6"/>
     </row>
-    <row r="49" spans="1:151" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:151" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -30134,8 +30174,9 @@
       <c r="CK49" s="1"/>
       <c r="CL49" s="1"/>
       <c r="CM49" s="1"/>
+      <c r="CN49" s="1"/>
     </row>
-    <row r="50" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>11</v>
       </c>
@@ -30395,13 +30436,15 @@
         <v>28.181993968604928</v>
       </c>
       <c r="CI50" s="18">
-        <v>58.082918772865099</v>
-      </c>
-      <c r="CJ50" s="18"/>
+        <v>59.004902849954505</v>
+      </c>
+      <c r="CJ50" s="18">
+        <v>55.098521445057685</v>
+      </c>
       <c r="CK50" s="18"/>
       <c r="CL50" s="18"/>
-      <c r="CM50" s="17"/>
-      <c r="CN50" s="11"/>
+      <c r="CM50" s="18"/>
+      <c r="CN50" s="18"/>
       <c r="CO50" s="11"/>
       <c r="CP50" s="11"/>
       <c r="CQ50" s="11"/>
@@ -30462,7 +30505,7 @@
       <c r="ET50" s="11"/>
       <c r="EU50" s="11"/>
     </row>
-    <row r="51" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>12</v>
       </c>
@@ -30722,13 +30765,15 @@
         <v>19.383143468472497</v>
       </c>
       <c r="CI51" s="18">
-        <v>18.521481319561389</v>
-      </c>
-      <c r="CJ51" s="18"/>
+        <v>18.618655979985135</v>
+      </c>
+      <c r="CJ51" s="18">
+        <v>21.338791461826958</v>
+      </c>
       <c r="CK51" s="18"/>
       <c r="CL51" s="18"/>
-      <c r="CM51" s="17"/>
-      <c r="CN51" s="11"/>
+      <c r="CM51" s="18"/>
+      <c r="CN51" s="18"/>
       <c r="CO51" s="11"/>
       <c r="CP51" s="11"/>
       <c r="CQ51" s="11"/>
@@ -30789,7 +30834,7 @@
       <c r="ET51" s="11"/>
       <c r="EU51" s="11"/>
     </row>
-    <row r="52" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
@@ -30881,7 +30926,7 @@
       <c r="CK52" s="17"/>
       <c r="CL52" s="17"/>
       <c r="CM52" s="17"/>
-      <c r="CN52" s="11"/>
+      <c r="CN52" s="17"/>
       <c r="CO52" s="11"/>
       <c r="CP52" s="11"/>
       <c r="CQ52" s="11"/>
@@ -30942,7 +30987,7 @@
       <c r="ET52" s="11"/>
       <c r="EU52" s="11"/>
     </row>
-    <row r="53" spans="1:151" ht="18" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:151" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="14" t="s">
         <v>13</v>
       </c>
@@ -31202,13 +31247,15 @@
         <v>23.883685266317528</v>
       </c>
       <c r="CI53" s="18">
-        <v>39.638909502277698</v>
-      </c>
-      <c r="CJ53" s="18"/>
+        <v>40.176357690209699</v>
+      </c>
+      <c r="CJ53" s="18">
+        <v>39.67882418725361</v>
+      </c>
       <c r="CK53" s="18"/>
       <c r="CL53" s="18"/>
-      <c r="CM53" s="17"/>
-      <c r="CN53" s="11"/>
+      <c r="CM53" s="18"/>
+      <c r="CN53" s="18"/>
       <c r="CO53" s="11"/>
       <c r="CP53" s="11"/>
       <c r="CQ53" s="11"/>
@@ -31269,7 +31316,7 @@
       <c r="ET53" s="11"/>
       <c r="EU53" s="11"/>
     </row>
-    <row r="54" spans="1:151" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:151" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="15"/>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
@@ -31361,8 +31408,9 @@
       <c r="CK54" s="15"/>
       <c r="CL54" s="15"/>
       <c r="CM54" s="15"/>
+      <c r="CN54" s="15"/>
     </row>
-    <row r="55" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
         <v>0</v>
       </c>
@@ -31456,8 +31504,9 @@
       <c r="CK55" s="1"/>
       <c r="CL55" s="1"/>
       <c r="CM55" s="1"/>
+      <c r="CN55" s="1"/>
     </row>
-    <row r="56" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
@@ -31548,7 +31597,7 @@
       <c r="CK56" s="17"/>
       <c r="CL56" s="17"/>
       <c r="CM56" s="17"/>
-      <c r="CN56" s="11"/>
+      <c r="CN56" s="17"/>
       <c r="CO56" s="11"/>
       <c r="CP56" s="11"/>
       <c r="CQ56" s="11"/>
@@ -31609,7 +31658,7 @@
       <c r="ET56" s="11"/>
       <c r="EU56" s="11"/>
     </row>
-    <row r="57" spans="1:151" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
       <c r="D57" s="17"/>
@@ -31700,7 +31749,7 @@
       <c r="CK57" s="17"/>
       <c r="CL57" s="17"/>
       <c r="CM57" s="17"/>
-      <c r="CN57" s="11"/>
+      <c r="CN57" s="17"/>
       <c r="CO57" s="11"/>
       <c r="CP57" s="11"/>
       <c r="CQ57" s="11"/>
@@ -31761,7 +31810,7 @@
       <c r="ET57" s="11"/>
       <c r="EU57" s="11"/>
     </row>
-    <row r="58" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>2</v>
       </c>
@@ -31855,8 +31904,9 @@
       <c r="CK58" s="1"/>
       <c r="CL58" s="1"/>
       <c r="CM58" s="1"/>
+      <c r="CN58" s="1"/>
     </row>
-    <row r="59" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>1</v>
       </c>
@@ -31950,10 +32000,11 @@
       <c r="CK59" s="1"/>
       <c r="CL59" s="1"/>
       <c r="CM59" s="1"/>
+      <c r="CN59" s="1"/>
     </row>
-    <row r="60" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -32045,8 +32096,9 @@
       <c r="CK60" s="1"/>
       <c r="CL60" s="1"/>
       <c r="CM60" s="1"/>
+      <c r="CN60" s="1"/>
     </row>
-    <row r="61" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -32138,8 +32190,9 @@
       <c r="CK61" s="1"/>
       <c r="CL61" s="1"/>
       <c r="CM61" s="1"/>
+      <c r="CN61" s="1"/>
     </row>
-    <row r="62" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>17</v>
       </c>
@@ -32233,10 +32286,11 @@
       <c r="CK62" s="1"/>
       <c r="CL62" s="1"/>
       <c r="CM62" s="1"/>
+      <c r="CN62" s="1"/>
     </row>
-    <row r="63" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -32328,8 +32382,9 @@
       <c r="CK63" s="1"/>
       <c r="CL63" s="1"/>
       <c r="CM63" s="1"/>
+      <c r="CN63" s="1"/>
     </row>
-    <row r="64" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>22</v>
       </c>
@@ -32423,8 +32478,9 @@
       <c r="CK64" s="1"/>
       <c r="CL64" s="1"/>
       <c r="CM64" s="1"/>
+      <c r="CN64" s="1"/>
     </row>
-    <row r="65" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -32516,145 +32572,147 @@
       <c r="CK65" s="1"/>
       <c r="CL65" s="1"/>
       <c r="CM65" s="1"/>
+      <c r="CN65" s="1"/>
     </row>
-    <row r="66" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
-      <c r="B66" s="24" t="s">
+      <c r="B66" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="24" t="s">
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="24" t="s">
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="26"/>
-      <c r="L66" s="26"/>
-      <c r="M66" s="26"/>
-      <c r="N66" s="24" t="s">
+      <c r="K66" s="24"/>
+      <c r="L66" s="24"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="26"/>
-      <c r="P66" s="26"/>
-      <c r="Q66" s="26"/>
-      <c r="R66" s="24" t="s">
+      <c r="O66" s="24"/>
+      <c r="P66" s="24"/>
+      <c r="Q66" s="24"/>
+      <c r="R66" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="26"/>
-      <c r="T66" s="26"/>
-      <c r="U66" s="26"/>
-      <c r="V66" s="24" t="s">
+      <c r="S66" s="24"/>
+      <c r="T66" s="24"/>
+      <c r="U66" s="24"/>
+      <c r="V66" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="26"/>
-      <c r="X66" s="26"/>
-      <c r="Y66" s="26"/>
-      <c r="Z66" s="24" t="s">
+      <c r="W66" s="24"/>
+      <c r="X66" s="24"/>
+      <c r="Y66" s="24"/>
+      <c r="Z66" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="26"/>
-      <c r="AB66" s="26"/>
-      <c r="AC66" s="26"/>
-      <c r="AD66" s="24" t="s">
+      <c r="AA66" s="24"/>
+      <c r="AB66" s="24"/>
+      <c r="AC66" s="24"/>
+      <c r="AD66" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="26"/>
-      <c r="AF66" s="26"/>
-      <c r="AG66" s="26"/>
-      <c r="AH66" s="24" t="s">
+      <c r="AE66" s="24"/>
+      <c r="AF66" s="24"/>
+      <c r="AG66" s="24"/>
+      <c r="AH66" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="26"/>
-      <c r="AJ66" s="26"/>
-      <c r="AK66" s="26"/>
-      <c r="AL66" s="24" t="s">
+      <c r="AI66" s="24"/>
+      <c r="AJ66" s="24"/>
+      <c r="AK66" s="24"/>
+      <c r="AL66" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="26"/>
-      <c r="AN66" s="26"/>
-      <c r="AO66" s="26"/>
-      <c r="AP66" s="24" t="s">
+      <c r="AM66" s="24"/>
+      <c r="AN66" s="24"/>
+      <c r="AO66" s="24"/>
+      <c r="AP66" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="26"/>
-      <c r="AR66" s="26"/>
-      <c r="AS66" s="26"/>
-      <c r="AT66" s="24" t="s">
+      <c r="AQ66" s="24"/>
+      <c r="AR66" s="24"/>
+      <c r="AS66" s="24"/>
+      <c r="AT66" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="26"/>
-      <c r="AV66" s="26"/>
-      <c r="AW66" s="26"/>
-      <c r="AX66" s="24" t="s">
+      <c r="AU66" s="24"/>
+      <c r="AV66" s="24"/>
+      <c r="AW66" s="24"/>
+      <c r="AX66" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="26"/>
-      <c r="AZ66" s="26"/>
-      <c r="BA66" s="26"/>
-      <c r="BB66" s="24" t="s">
+      <c r="AY66" s="24"/>
+      <c r="AZ66" s="24"/>
+      <c r="BA66" s="24"/>
+      <c r="BB66" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="26"/>
-      <c r="BD66" s="26"/>
-      <c r="BE66" s="26"/>
-      <c r="BF66" s="24" t="s">
+      <c r="BC66" s="24"/>
+      <c r="BD66" s="24"/>
+      <c r="BE66" s="24"/>
+      <c r="BF66" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="26"/>
-      <c r="BH66" s="26"/>
-      <c r="BI66" s="26"/>
-      <c r="BJ66" s="24" t="s">
+      <c r="BG66" s="24"/>
+      <c r="BH66" s="24"/>
+      <c r="BI66" s="24"/>
+      <c r="BJ66" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="26"/>
-      <c r="BL66" s="26"/>
-      <c r="BM66" s="26"/>
-      <c r="BN66" s="24" t="s">
+      <c r="BK66" s="24"/>
+      <c r="BL66" s="24"/>
+      <c r="BM66" s="24"/>
+      <c r="BN66" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="26"/>
-      <c r="BP66" s="26"/>
-      <c r="BQ66" s="26"/>
-      <c r="BR66" s="24" t="s">
+      <c r="BO66" s="24"/>
+      <c r="BP66" s="24"/>
+      <c r="BQ66" s="24"/>
+      <c r="BR66" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="26"/>
-      <c r="BT66" s="26"/>
-      <c r="BU66" s="26"/>
-      <c r="BV66" s="24" t="s">
+      <c r="BS66" s="24"/>
+      <c r="BT66" s="24"/>
+      <c r="BU66" s="24"/>
+      <c r="BV66" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="BW66" s="24"/>
-      <c r="BX66" s="24"/>
-      <c r="BY66" s="24"/>
-      <c r="BZ66" s="24" t="s">
+      <c r="BW66" s="22"/>
+      <c r="BX66" s="22"/>
+      <c r="BY66" s="22"/>
+      <c r="BZ66" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="24"/>
-      <c r="CB66" s="24"/>
-      <c r="CC66" s="24"/>
-      <c r="CD66" s="24" t="s">
+      <c r="CA66" s="22"/>
+      <c r="CB66" s="22"/>
+      <c r="CC66" s="22"/>
+      <c r="CD66" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="24"/>
-      <c r="CF66" s="24"/>
-      <c r="CG66" s="24"/>
-      <c r="CH66" s="24" t="s">
+      <c r="CE66" s="22"/>
+      <c r="CF66" s="22"/>
+      <c r="CG66" s="22"/>
+      <c r="CH66" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="CI66" s="24"/>
-      <c r="CJ66" s="23"/>
-      <c r="CK66" s="23"/>
-      <c r="CL66" s="19"/>
-      <c r="CM66" s="19"/>
+      <c r="CI66" s="22"/>
+      <c r="CJ66" s="22"/>
+      <c r="CK66" s="21"/>
+      <c r="CL66" s="22"/>
+      <c r="CM66" s="22"/>
+      <c r="CN66" s="21"/>
     </row>
-    <row r="67" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>4</v>
       </c>
@@ -32916,12 +32974,15 @@
       <c r="CI67" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CJ67" s="6"/>
+      <c r="CJ67" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="CK67" s="6"/>
       <c r="CL67" s="6"/>
-      <c r="CM67" s="22"/>
+      <c r="CM67" s="6"/>
+      <c r="CN67" s="6"/>
     </row>
-    <row r="68" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -33013,8 +33074,9 @@
       <c r="CK68" s="1"/>
       <c r="CL68" s="1"/>
       <c r="CM68" s="1"/>
+      <c r="CN68" s="1"/>
     </row>
-    <row r="69" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>11</v>
       </c>
@@ -33274,13 +33336,15 @@
         <v>26.717589285837008</v>
       </c>
       <c r="CI69" s="18">
-        <v>56.782599446323502</v>
-      </c>
-      <c r="CJ69" s="18"/>
+        <v>57.711458595176964</v>
+      </c>
+      <c r="CJ69" s="18">
+        <v>52.743574243386036</v>
+      </c>
       <c r="CK69" s="18"/>
       <c r="CL69" s="18"/>
-      <c r="CM69" s="17"/>
-      <c r="CN69" s="11"/>
+      <c r="CM69" s="18"/>
+      <c r="CN69" s="18"/>
       <c r="CO69" s="11"/>
       <c r="CP69" s="11"/>
       <c r="CQ69" s="11"/>
@@ -33341,7 +33405,7 @@
       <c r="ET69" s="11"/>
       <c r="EU69" s="11"/>
     </row>
-    <row r="70" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>12</v>
       </c>
@@ -33601,13 +33665,15 @@
         <v>18.094121366101106</v>
       </c>
       <c r="CI70" s="18">
-        <v>18.339509540015001</v>
-      </c>
-      <c r="CJ70" s="18"/>
+        <v>18.418917649302372</v>
+      </c>
+      <c r="CJ70" s="18">
+        <v>20.100433149684747</v>
+      </c>
       <c r="CK70" s="18"/>
       <c r="CL70" s="18"/>
-      <c r="CM70" s="17"/>
-      <c r="CN70" s="11"/>
+      <c r="CM70" s="18"/>
+      <c r="CN70" s="18"/>
       <c r="CO70" s="11"/>
       <c r="CP70" s="11"/>
       <c r="CQ70" s="11"/>
@@ -33668,7 +33734,7 @@
       <c r="ET70" s="11"/>
       <c r="EU70" s="11"/>
     </row>
-    <row r="71" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
       <c r="D71" s="17"/>
@@ -33759,7 +33825,7 @@
       <c r="CK71" s="17"/>
       <c r="CL71" s="17"/>
       <c r="CM71" s="17"/>
-      <c r="CN71" s="11"/>
+      <c r="CN71" s="17"/>
       <c r="CO71" s="11"/>
       <c r="CP71" s="11"/>
       <c r="CQ71" s="11"/>
@@ -33820,7 +33886,7 @@
       <c r="ET71" s="11"/>
       <c r="EU71" s="11"/>
     </row>
-    <row r="72" spans="1:155" ht="18" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:155" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="14" t="s">
         <v>13</v>
       </c>
@@ -34080,13 +34146,15 @@
         <v>22.683512914930247</v>
       </c>
       <c r="CI72" s="18">
-        <v>39.461892599426989</v>
-      </c>
-      <c r="CJ72" s="18"/>
+        <v>40.008027766598076</v>
+      </c>
+      <c r="CJ72" s="18">
+        <v>38.254820483370452</v>
+      </c>
       <c r="CK72" s="18"/>
       <c r="CL72" s="18"/>
-      <c r="CM72" s="17"/>
-      <c r="CN72" s="11"/>
+      <c r="CM72" s="18"/>
+      <c r="CN72" s="18"/>
       <c r="CO72" s="11"/>
       <c r="CP72" s="11"/>
       <c r="CQ72" s="11"/>
@@ -34147,7 +34215,7 @@
       <c r="ET72" s="11"/>
       <c r="EU72" s="11"/>
     </row>
-    <row r="73" spans="1:155" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:155" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
@@ -34239,8 +34307,9 @@
       <c r="CK73" s="15"/>
       <c r="CL73" s="15"/>
       <c r="CM73" s="15"/>
+      <c r="CN73" s="15"/>
     </row>
-    <row r="74" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
         <v>0</v>
       </c>
@@ -34334,8 +34403,9 @@
       <c r="CK74" s="1"/>
       <c r="CL74" s="1"/>
       <c r="CM74" s="1"/>
+      <c r="CN74" s="1"/>
     </row>
-    <row r="75" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="17"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
@@ -34487,7 +34557,7 @@
       <c r="ET75" s="11"/>
       <c r="EU75" s="11"/>
     </row>
-    <row r="76" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
       <c r="D76" s="17"/>
@@ -34578,7 +34648,7 @@
       <c r="CK76" s="17"/>
       <c r="CL76" s="17"/>
       <c r="CM76" s="17"/>
-      <c r="CN76" s="11"/>
+      <c r="CN76" s="17"/>
       <c r="CO76" s="11"/>
       <c r="CP76" s="11"/>
       <c r="CQ76" s="11"/>
@@ -34643,7 +34713,7 @@
       <c r="EX76" s="11"/>
       <c r="EY76" s="11"/>
     </row>
-    <row r="77" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>2</v>
       </c>
@@ -34737,10 +34807,11 @@
       <c r="CK77" s="1"/>
       <c r="CL77" s="1"/>
       <c r="CM77" s="1"/>
+      <c r="CN77" s="1"/>
     </row>
-    <row r="78" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -34832,8 +34903,9 @@
       <c r="CK78" s="1"/>
       <c r="CL78" s="1"/>
       <c r="CM78" s="1"/>
+      <c r="CN78" s="1"/>
     </row>
-    <row r="79" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -34925,8 +34997,9 @@
       <c r="CK79" s="1"/>
       <c r="CL79" s="1"/>
       <c r="CM79" s="1"/>
+      <c r="CN79" s="1"/>
     </row>
-    <row r="80" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>18</v>
       </c>
@@ -35020,10 +35093,11 @@
       <c r="CK80" s="1"/>
       <c r="CL80" s="1"/>
       <c r="CM80" s="1"/>
+      <c r="CN80" s="1"/>
     </row>
-    <row r="81" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -35115,8 +35189,9 @@
       <c r="CK81" s="1"/>
       <c r="CL81" s="1"/>
       <c r="CM81" s="1"/>
+      <c r="CN81" s="1"/>
     </row>
-    <row r="82" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
@@ -35210,8 +35285,9 @@
       <c r="CK82" s="1"/>
       <c r="CL82" s="1"/>
       <c r="CM82" s="1"/>
+      <c r="CN82" s="1"/>
     </row>
-    <row r="83" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -35303,147 +35379,149 @@
       <c r="CK83" s="1"/>
       <c r="CL83" s="1"/>
       <c r="CM83" s="1"/>
+      <c r="CN83" s="1"/>
     </row>
-    <row r="84" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
-      <c r="B84" s="24">
+      <c r="B84" s="22">
         <v>2000</v>
       </c>
-      <c r="C84" s="25"/>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="24">
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="22">
         <v>2001</v>
       </c>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="24">
+      <c r="G84" s="23"/>
+      <c r="H84" s="23"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="22">
         <v>2002</v>
       </c>
-      <c r="K84" s="25"/>
-      <c r="L84" s="25"/>
-      <c r="M84" s="25"/>
-      <c r="N84" s="24">
+      <c r="K84" s="23"/>
+      <c r="L84" s="23"/>
+      <c r="M84" s="23"/>
+      <c r="N84" s="22">
         <v>2003</v>
       </c>
-      <c r="O84" s="25"/>
-      <c r="P84" s="25"/>
-      <c r="Q84" s="25"/>
-      <c r="R84" s="24">
+      <c r="O84" s="23"/>
+      <c r="P84" s="23"/>
+      <c r="Q84" s="23"/>
+      <c r="R84" s="22">
         <v>2004</v>
       </c>
-      <c r="S84" s="25"/>
-      <c r="T84" s="25"/>
-      <c r="U84" s="25"/>
-      <c r="V84" s="24">
+      <c r="S84" s="23"/>
+      <c r="T84" s="23"/>
+      <c r="U84" s="23"/>
+      <c r="V84" s="22">
         <v>2005</v>
       </c>
-      <c r="W84" s="25"/>
-      <c r="X84" s="25"/>
-      <c r="Y84" s="25"/>
-      <c r="Z84" s="24">
+      <c r="W84" s="23"/>
+      <c r="X84" s="23"/>
+      <c r="Y84" s="23"/>
+      <c r="Z84" s="22">
         <v>2006</v>
       </c>
-      <c r="AA84" s="25"/>
-      <c r="AB84" s="25"/>
-      <c r="AC84" s="25"/>
-      <c r="AD84" s="24">
+      <c r="AA84" s="23"/>
+      <c r="AB84" s="23"/>
+      <c r="AC84" s="23"/>
+      <c r="AD84" s="22">
         <v>2007</v>
       </c>
-      <c r="AE84" s="25"/>
-      <c r="AF84" s="25"/>
-      <c r="AG84" s="25"/>
-      <c r="AH84" s="24">
+      <c r="AE84" s="23"/>
+      <c r="AF84" s="23"/>
+      <c r="AG84" s="23"/>
+      <c r="AH84" s="22">
         <v>2008</v>
       </c>
-      <c r="AI84" s="25"/>
-      <c r="AJ84" s="25"/>
-      <c r="AK84" s="25"/>
-      <c r="AL84" s="24">
+      <c r="AI84" s="23"/>
+      <c r="AJ84" s="23"/>
+      <c r="AK84" s="23"/>
+      <c r="AL84" s="22">
         <v>2009</v>
       </c>
-      <c r="AM84" s="25"/>
-      <c r="AN84" s="25"/>
-      <c r="AO84" s="25"/>
-      <c r="AP84" s="24">
+      <c r="AM84" s="23"/>
+      <c r="AN84" s="23"/>
+      <c r="AO84" s="23"/>
+      <c r="AP84" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="25"/>
-      <c r="AR84" s="25"/>
-      <c r="AS84" s="25"/>
-      <c r="AT84" s="24">
+      <c r="AQ84" s="23"/>
+      <c r="AR84" s="23"/>
+      <c r="AS84" s="23"/>
+      <c r="AT84" s="22">
         <v>2011</v>
       </c>
-      <c r="AU84" s="25"/>
-      <c r="AV84" s="25"/>
-      <c r="AW84" s="25"/>
-      <c r="AX84" s="24">
+      <c r="AU84" s="23"/>
+      <c r="AV84" s="23"/>
+      <c r="AW84" s="23"/>
+      <c r="AX84" s="22">
         <v>2012</v>
       </c>
-      <c r="AY84" s="25"/>
-      <c r="AZ84" s="25"/>
-      <c r="BA84" s="25"/>
-      <c r="BB84" s="24">
+      <c r="AY84" s="23"/>
+      <c r="AZ84" s="23"/>
+      <c r="BA84" s="23"/>
+      <c r="BB84" s="22">
         <v>2013</v>
       </c>
-      <c r="BC84" s="25"/>
-      <c r="BD84" s="25"/>
-      <c r="BE84" s="25"/>
-      <c r="BF84" s="24">
+      <c r="BC84" s="23"/>
+      <c r="BD84" s="23"/>
+      <c r="BE84" s="23"/>
+      <c r="BF84" s="22">
         <v>2014</v>
       </c>
-      <c r="BG84" s="25"/>
-      <c r="BH84" s="25"/>
-      <c r="BI84" s="25"/>
-      <c r="BJ84" s="24">
+      <c r="BG84" s="23"/>
+      <c r="BH84" s="23"/>
+      <c r="BI84" s="23"/>
+      <c r="BJ84" s="22">
         <v>2015</v>
       </c>
-      <c r="BK84" s="25"/>
-      <c r="BL84" s="25"/>
-      <c r="BM84" s="25"/>
-      <c r="BN84" s="24">
+      <c r="BK84" s="23"/>
+      <c r="BL84" s="23"/>
+      <c r="BM84" s="23"/>
+      <c r="BN84" s="22">
         <v>2016</v>
       </c>
-      <c r="BO84" s="25"/>
-      <c r="BP84" s="25"/>
-      <c r="BQ84" s="25"/>
-      <c r="BR84" s="24">
+      <c r="BO84" s="23"/>
+      <c r="BP84" s="23"/>
+      <c r="BQ84" s="23"/>
+      <c r="BR84" s="22">
         <v>2017</v>
       </c>
-      <c r="BS84" s="25"/>
-      <c r="BT84" s="25"/>
-      <c r="BU84" s="25"/>
-      <c r="BV84" s="24">
+      <c r="BS84" s="23"/>
+      <c r="BT84" s="23"/>
+      <c r="BU84" s="23"/>
+      <c r="BV84" s="22">
         <v>2018</v>
       </c>
-      <c r="BW84" s="24"/>
-      <c r="BX84" s="24"/>
-      <c r="BY84" s="24"/>
-      <c r="BZ84" s="24">
+      <c r="BW84" s="22"/>
+      <c r="BX84" s="22"/>
+      <c r="BY84" s="22"/>
+      <c r="BZ84" s="22">
         <v>2019</v>
       </c>
-      <c r="CA84" s="24"/>
-      <c r="CB84" s="24"/>
-      <c r="CC84" s="24"/>
-      <c r="CD84" s="24">
+      <c r="CA84" s="22"/>
+      <c r="CB84" s="22"/>
+      <c r="CC84" s="22"/>
+      <c r="CD84" s="22">
         <v>2020</v>
       </c>
-      <c r="CE84" s="24"/>
-      <c r="CF84" s="24"/>
-      <c r="CG84" s="24"/>
-      <c r="CH84" s="24">
+      <c r="CE84" s="22"/>
+      <c r="CF84" s="22"/>
+      <c r="CG84" s="22"/>
+      <c r="CH84" s="22">
         <v>2021</v>
       </c>
-      <c r="CI84" s="24"/>
-      <c r="CJ84" s="24"/>
-      <c r="CK84" s="24"/>
-      <c r="CL84" s="24">
+      <c r="CI84" s="22"/>
+      <c r="CJ84" s="22"/>
+      <c r="CK84" s="22"/>
+      <c r="CL84" s="22">
         <v>2022</v>
       </c>
-      <c r="CM84" s="24"/>
+      <c r="CM84" s="22"/>
+      <c r="CN84" s="22"/>
     </row>
-    <row r="85" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>4</v>
       </c>
@@ -35717,8 +35795,11 @@
       <c r="CM85" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="CN85" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="86" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -35810,8 +35891,9 @@
       <c r="CK86" s="1"/>
       <c r="CL86" s="1"/>
       <c r="CM86" s="1"/>
+      <c r="CN86" s="1"/>
     </row>
-    <row r="87" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
         <v>11</v>
       </c>
@@ -36083,9 +36165,11 @@
         <v>103.53314692178175</v>
       </c>
       <c r="CM87" s="18">
-        <v>104.34735403542479</v>
-      </c>
-      <c r="CN87" s="11"/>
+        <v>104.33778752720721</v>
+      </c>
+      <c r="CN87" s="18">
+        <v>105.72612428451632</v>
+      </c>
       <c r="CO87" s="11"/>
       <c r="CP87" s="11"/>
       <c r="CQ87" s="11"/>
@@ -36150,7 +36234,7 @@
       <c r="EX87" s="11"/>
       <c r="EY87" s="11"/>
     </row>
-    <row r="88" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>12</v>
       </c>
@@ -36422,9 +36506,11 @@
         <v>112.42109834151917</v>
       </c>
       <c r="CM88" s="18">
-        <v>110.39598292756791</v>
-      </c>
-      <c r="CN88" s="11"/>
+        <v>110.41240669809712</v>
+      </c>
+      <c r="CN88" s="18">
+        <v>110.82021824674517</v>
+      </c>
       <c r="CO88" s="11"/>
       <c r="CP88" s="11"/>
       <c r="CQ88" s="11"/>
@@ -36489,7 +36575,7 @@
       <c r="EX88" s="11"/>
       <c r="EY88" s="11"/>
     </row>
-    <row r="89" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
       <c r="D89" s="17"/>
@@ -36580,7 +36666,7 @@
       <c r="CK89" s="17"/>
       <c r="CL89" s="17"/>
       <c r="CM89" s="17"/>
-      <c r="CN89" s="11"/>
+      <c r="CN89" s="17"/>
       <c r="CO89" s="11"/>
       <c r="CP89" s="11"/>
       <c r="CQ89" s="11"/>
@@ -36645,7 +36731,7 @@
       <c r="EX89" s="11"/>
       <c r="EY89" s="11"/>
     </row>
-    <row r="90" spans="1:155" ht="18" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:155" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="14" t="s">
         <v>13</v>
       </c>
@@ -36917,9 +37003,11 @@
         <v>107.53541257715165</v>
       </c>
       <c r="CM90" s="18">
-        <v>106.65983663752993</v>
-      </c>
-      <c r="CN90" s="11"/>
+        <v>106.65269975947143</v>
+      </c>
+      <c r="CN90" s="18">
+        <v>107.69025474929575</v>
+      </c>
       <c r="CO90" s="11"/>
       <c r="CP90" s="11"/>
       <c r="CQ90" s="11"/>
@@ -36984,7 +37072,7 @@
       <c r="EX90" s="11"/>
       <c r="EY90" s="11"/>
     </row>
-    <row r="91" spans="1:155" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:155" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="15"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
@@ -37076,8 +37164,9 @@
       <c r="CK91" s="15"/>
       <c r="CL91" s="15"/>
       <c r="CM91" s="15"/>
+      <c r="CN91" s="15"/>
     </row>
-    <row r="92" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="16" t="s">
         <v>0</v>
       </c>
@@ -37171,8 +37260,9 @@
       <c r="CK92" s="1"/>
       <c r="CL92" s="1"/>
       <c r="CM92" s="1"/>
+      <c r="CN92" s="1"/>
     </row>
-    <row r="93" spans="1:155" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -37263,8 +37353,9 @@
       <c r="CK93" s="1"/>
       <c r="CL93" s="1"/>
       <c r="CM93" s="1"/>
+      <c r="CN93" s="1"/>
     </row>
-    <row r="94" spans="1:155" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -37355,8 +37446,9 @@
       <c r="CK94" s="1"/>
       <c r="CL94" s="1"/>
       <c r="CM94" s="1"/>
+      <c r="CN94" s="1"/>
     </row>
-    <row r="95" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>2</v>
       </c>
@@ -37450,8 +37542,9 @@
       <c r="CK95" s="1"/>
       <c r="CL95" s="1"/>
       <c r="CM95" s="1"/>
+      <c r="CN95" s="1"/>
     </row>
-    <row r="96" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>1</v>
       </c>
@@ -37545,10 +37638,11 @@
       <c r="CK96" s="1"/>
       <c r="CL96" s="1"/>
       <c r="CM96" s="1"/>
+      <c r="CN96" s="1"/>
     </row>
-    <row r="97" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -37640,8 +37734,9 @@
       <c r="CK97" s="1"/>
       <c r="CL97" s="1"/>
       <c r="CM97" s="1"/>
+      <c r="CN97" s="1"/>
     </row>
-    <row r="98" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -37733,8 +37828,9 @@
       <c r="CK98" s="1"/>
       <c r="CL98" s="1"/>
       <c r="CM98" s="1"/>
+      <c r="CN98" s="1"/>
     </row>
-    <row r="99" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>19</v>
       </c>
@@ -37828,10 +37924,11 @@
       <c r="CK99" s="1"/>
       <c r="CL99" s="1"/>
       <c r="CM99" s="1"/>
+      <c r="CN99" s="1"/>
     </row>
-    <row r="100" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -37923,8 +38020,9 @@
       <c r="CK100" s="1"/>
       <c r="CL100" s="1"/>
       <c r="CM100" s="1"/>
+      <c r="CN100" s="1"/>
     </row>
-    <row r="101" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>23</v>
       </c>
@@ -38018,8 +38116,9 @@
       <c r="CK101" s="1"/>
       <c r="CL101" s="1"/>
       <c r="CM101" s="1"/>
+      <c r="CN101" s="1"/>
     </row>
-    <row r="102" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -38111,147 +38210,149 @@
       <c r="CK102" s="1"/>
       <c r="CL102" s="1"/>
       <c r="CM102" s="1"/>
+      <c r="CN102" s="1"/>
     </row>
-    <row r="103" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
-      <c r="B103" s="24">
+      <c r="B103" s="22">
         <v>2000</v>
       </c>
-      <c r="C103" s="25"/>
-      <c r="D103" s="25"/>
-      <c r="E103" s="25"/>
-      <c r="F103" s="24">
+      <c r="C103" s="23"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="23"/>
+      <c r="F103" s="22">
         <v>2001</v>
       </c>
-      <c r="G103" s="25"/>
-      <c r="H103" s="25"/>
-      <c r="I103" s="25"/>
-      <c r="J103" s="24">
+      <c r="G103" s="23"/>
+      <c r="H103" s="23"/>
+      <c r="I103" s="23"/>
+      <c r="J103" s="22">
         <v>2002</v>
       </c>
-      <c r="K103" s="25"/>
-      <c r="L103" s="25"/>
-      <c r="M103" s="25"/>
-      <c r="N103" s="24">
+      <c r="K103" s="23"/>
+      <c r="L103" s="23"/>
+      <c r="M103" s="23"/>
+      <c r="N103" s="22">
         <v>2003</v>
       </c>
-      <c r="O103" s="25"/>
-      <c r="P103" s="25"/>
-      <c r="Q103" s="25"/>
-      <c r="R103" s="24">
+      <c r="O103" s="23"/>
+      <c r="P103" s="23"/>
+      <c r="Q103" s="23"/>
+      <c r="R103" s="22">
         <v>2004</v>
       </c>
-      <c r="S103" s="25"/>
-      <c r="T103" s="25"/>
-      <c r="U103" s="25"/>
-      <c r="V103" s="24">
+      <c r="S103" s="23"/>
+      <c r="T103" s="23"/>
+      <c r="U103" s="23"/>
+      <c r="V103" s="22">
         <v>2005</v>
       </c>
-      <c r="W103" s="25"/>
-      <c r="X103" s="25"/>
-      <c r="Y103" s="25"/>
-      <c r="Z103" s="24">
+      <c r="W103" s="23"/>
+      <c r="X103" s="23"/>
+      <c r="Y103" s="23"/>
+      <c r="Z103" s="22">
         <v>2006</v>
       </c>
-      <c r="AA103" s="25"/>
-      <c r="AB103" s="25"/>
-      <c r="AC103" s="25"/>
-      <c r="AD103" s="24">
+      <c r="AA103" s="23"/>
+      <c r="AB103" s="23"/>
+      <c r="AC103" s="23"/>
+      <c r="AD103" s="22">
         <v>2007</v>
       </c>
-      <c r="AE103" s="25"/>
-      <c r="AF103" s="25"/>
-      <c r="AG103" s="25"/>
-      <c r="AH103" s="24">
+      <c r="AE103" s="23"/>
+      <c r="AF103" s="23"/>
+      <c r="AG103" s="23"/>
+      <c r="AH103" s="22">
         <v>2008</v>
       </c>
-      <c r="AI103" s="25"/>
-      <c r="AJ103" s="25"/>
-      <c r="AK103" s="25"/>
-      <c r="AL103" s="24">
+      <c r="AI103" s="23"/>
+      <c r="AJ103" s="23"/>
+      <c r="AK103" s="23"/>
+      <c r="AL103" s="22">
         <v>2009</v>
       </c>
-      <c r="AM103" s="25"/>
-      <c r="AN103" s="25"/>
-      <c r="AO103" s="25"/>
-      <c r="AP103" s="24">
+      <c r="AM103" s="23"/>
+      <c r="AN103" s="23"/>
+      <c r="AO103" s="23"/>
+      <c r="AP103" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="25"/>
-      <c r="AR103" s="25"/>
-      <c r="AS103" s="25"/>
-      <c r="AT103" s="24">
+      <c r="AQ103" s="23"/>
+      <c r="AR103" s="23"/>
+      <c r="AS103" s="23"/>
+      <c r="AT103" s="22">
         <v>2011</v>
       </c>
-      <c r="AU103" s="25"/>
-      <c r="AV103" s="25"/>
-      <c r="AW103" s="25"/>
-      <c r="AX103" s="24">
+      <c r="AU103" s="23"/>
+      <c r="AV103" s="23"/>
+      <c r="AW103" s="23"/>
+      <c r="AX103" s="22">
         <v>2012</v>
       </c>
-      <c r="AY103" s="25"/>
-      <c r="AZ103" s="25"/>
-      <c r="BA103" s="25"/>
-      <c r="BB103" s="24">
+      <c r="AY103" s="23"/>
+      <c r="AZ103" s="23"/>
+      <c r="BA103" s="23"/>
+      <c r="BB103" s="22">
         <v>2013</v>
       </c>
-      <c r="BC103" s="25"/>
-      <c r="BD103" s="25"/>
-      <c r="BE103" s="25"/>
-      <c r="BF103" s="24">
+      <c r="BC103" s="23"/>
+      <c r="BD103" s="23"/>
+      <c r="BE103" s="23"/>
+      <c r="BF103" s="22">
         <v>2014</v>
       </c>
-      <c r="BG103" s="25"/>
-      <c r="BH103" s="25"/>
-      <c r="BI103" s="25"/>
-      <c r="BJ103" s="24">
+      <c r="BG103" s="23"/>
+      <c r="BH103" s="23"/>
+      <c r="BI103" s="23"/>
+      <c r="BJ103" s="22">
         <v>2015</v>
       </c>
-      <c r="BK103" s="25"/>
-      <c r="BL103" s="25"/>
-      <c r="BM103" s="25"/>
-      <c r="BN103" s="24">
+      <c r="BK103" s="23"/>
+      <c r="BL103" s="23"/>
+      <c r="BM103" s="23"/>
+      <c r="BN103" s="22">
         <v>2016</v>
       </c>
-      <c r="BO103" s="25"/>
-      <c r="BP103" s="25"/>
-      <c r="BQ103" s="25"/>
-      <c r="BR103" s="24">
+      <c r="BO103" s="23"/>
+      <c r="BP103" s="23"/>
+      <c r="BQ103" s="23"/>
+      <c r="BR103" s="22">
         <v>2017</v>
       </c>
-      <c r="BS103" s="25"/>
-      <c r="BT103" s="25"/>
-      <c r="BU103" s="25"/>
-      <c r="BV103" s="24">
+      <c r="BS103" s="23"/>
+      <c r="BT103" s="23"/>
+      <c r="BU103" s="23"/>
+      <c r="BV103" s="22">
         <v>2018</v>
       </c>
-      <c r="BW103" s="24"/>
-      <c r="BX103" s="24"/>
-      <c r="BY103" s="24"/>
-      <c r="BZ103" s="24">
+      <c r="BW103" s="22"/>
+      <c r="BX103" s="22"/>
+      <c r="BY103" s="22"/>
+      <c r="BZ103" s="22">
         <v>2019</v>
       </c>
-      <c r="CA103" s="24"/>
-      <c r="CB103" s="24"/>
-      <c r="CC103" s="24"/>
-      <c r="CD103" s="24">
+      <c r="CA103" s="22"/>
+      <c r="CB103" s="22"/>
+      <c r="CC103" s="22"/>
+      <c r="CD103" s="22">
         <v>2020</v>
       </c>
-      <c r="CE103" s="24"/>
-      <c r="CF103" s="24"/>
-      <c r="CG103" s="24"/>
-      <c r="CH103" s="24">
+      <c r="CE103" s="22"/>
+      <c r="CF103" s="22"/>
+      <c r="CG103" s="22"/>
+      <c r="CH103" s="22">
         <v>2021</v>
       </c>
-      <c r="CI103" s="24"/>
-      <c r="CJ103" s="24"/>
-      <c r="CK103" s="24"/>
-      <c r="CL103" s="24">
+      <c r="CI103" s="22"/>
+      <c r="CJ103" s="22"/>
+      <c r="CK103" s="22"/>
+      <c r="CL103" s="22">
         <v>2022</v>
       </c>
-      <c r="CM103" s="24"/>
+      <c r="CM103" s="22"/>
+      <c r="CN103" s="22"/>
     </row>
-    <row r="104" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>4</v>
       </c>
@@ -38525,8 +38626,11 @@
       <c r="CM104" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="CN104" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="105" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -38618,8 +38722,9 @@
       <c r="CK105" s="1"/>
       <c r="CL105" s="1"/>
       <c r="CM105" s="1"/>
+      <c r="CN105" s="1"/>
     </row>
-    <row r="106" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>11</v>
       </c>
@@ -38891,9 +38996,11 @@
         <v>52.923891162372328</v>
       </c>
       <c r="CM106" s="18">
-        <v>60.429285608830419</v>
-      </c>
-      <c r="CN106" s="11"/>
+        <v>60.548683855514476</v>
+      </c>
+      <c r="CN106" s="18">
+        <v>60.322346794739168</v>
+      </c>
       <c r="CO106" s="11"/>
       <c r="CP106" s="11"/>
       <c r="CQ106" s="11"/>
@@ -38958,7 +39065,7 @@
       <c r="EX106" s="11"/>
       <c r="EY106" s="11"/>
     </row>
-    <row r="107" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>12</v>
       </c>
@@ -39230,9 +39337,11 @@
         <v>47.076108837627672</v>
       </c>
       <c r="CM107" s="18">
-        <v>39.570714391169574</v>
-      </c>
-      <c r="CN107" s="11"/>
+        <v>39.451316144485538</v>
+      </c>
+      <c r="CN107" s="18">
+        <v>39.677653205260839</v>
+      </c>
       <c r="CO107" s="11"/>
       <c r="CP107" s="11"/>
       <c r="CQ107" s="11"/>
@@ -39297,7 +39406,7 @@
       <c r="EX107" s="11"/>
       <c r="EY107" s="11"/>
     </row>
-    <row r="108" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108" s="17"/>
       <c r="C108" s="17"/>
       <c r="D108" s="17"/>
@@ -39388,7 +39497,7 @@
       <c r="CK108" s="17"/>
       <c r="CL108" s="17"/>
       <c r="CM108" s="17"/>
-      <c r="CN108" s="11"/>
+      <c r="CN108" s="17"/>
       <c r="CO108" s="11"/>
       <c r="CP108" s="11"/>
       <c r="CQ108" s="11"/>
@@ -39453,7 +39562,7 @@
       <c r="EX108" s="11"/>
       <c r="EY108" s="11"/>
     </row>
-    <row r="109" spans="1:155" ht="18" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:155" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A109" s="14" t="s">
         <v>13</v>
       </c>
@@ -39727,7 +39836,9 @@
       <c r="CM109" s="18">
         <v>100</v>
       </c>
-      <c r="CN109" s="11"/>
+      <c r="CN109" s="18">
+        <v>100</v>
+      </c>
       <c r="CO109" s="11"/>
       <c r="CP109" s="11"/>
       <c r="CQ109" s="11"/>
@@ -39792,7 +39903,7 @@
       <c r="EX109" s="11"/>
       <c r="EY109" s="11"/>
     </row>
-    <row r="110" spans="1:155" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:155" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="15"/>
       <c r="B110" s="15"/>
       <c r="C110" s="15"/>
@@ -39884,8 +39995,9 @@
       <c r="CK110" s="15"/>
       <c r="CL110" s="15"/>
       <c r="CM110" s="15"/>
+      <c r="CN110" s="15"/>
     </row>
-    <row r="111" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="16" t="s">
         <v>0</v>
       </c>
@@ -39979,8 +40091,9 @@
       <c r="CK111" s="1"/>
       <c r="CL111" s="1"/>
       <c r="CM111" s="1"/>
+      <c r="CN111" s="1"/>
     </row>
-    <row r="112" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="17"/>
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
@@ -40071,7 +40184,7 @@
       <c r="CK112" s="17"/>
       <c r="CL112" s="17"/>
       <c r="CM112" s="17"/>
-      <c r="CN112" s="11"/>
+      <c r="CN112" s="17"/>
       <c r="CO112" s="11"/>
       <c r="CP112" s="11"/>
       <c r="CQ112" s="11"/>
@@ -40136,7 +40249,7 @@
       <c r="EX112" s="11"/>
       <c r="EY112" s="11"/>
     </row>
-    <row r="113" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="17"/>
       <c r="C113" s="17"/>
       <c r="D113" s="17"/>
@@ -40227,7 +40340,7 @@
       <c r="CK113" s="17"/>
       <c r="CL113" s="17"/>
       <c r="CM113" s="17"/>
-      <c r="CN113" s="11"/>
+      <c r="CN113" s="17"/>
       <c r="CO113" s="11"/>
       <c r="CP113" s="11"/>
       <c r="CQ113" s="11"/>
@@ -40292,7 +40405,7 @@
       <c r="EX113" s="11"/>
       <c r="EY113" s="11"/>
     </row>
-    <row r="114" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>2</v>
       </c>
@@ -40386,8 +40499,9 @@
       <c r="CK114" s="1"/>
       <c r="CL114" s="1"/>
       <c r="CM114" s="1"/>
+      <c r="CN114" s="1"/>
     </row>
-    <row r="115" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>1</v>
       </c>
@@ -40481,10 +40595,11 @@
       <c r="CK115" s="1"/>
       <c r="CL115" s="1"/>
       <c r="CM115" s="1"/>
+      <c r="CN115" s="1"/>
     </row>
-    <row r="116" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -40576,8 +40691,9 @@
       <c r="CK116" s="1"/>
       <c r="CL116" s="1"/>
       <c r="CM116" s="1"/>
+      <c r="CN116" s="1"/>
     </row>
-    <row r="117" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -40669,8 +40785,9 @@
       <c r="CK117" s="1"/>
       <c r="CL117" s="1"/>
       <c r="CM117" s="1"/>
+      <c r="CN117" s="1"/>
     </row>
-    <row r="118" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>20</v>
       </c>
@@ -40764,10 +40881,11 @@
       <c r="CK118" s="1"/>
       <c r="CL118" s="1"/>
       <c r="CM118" s="1"/>
+      <c r="CN118" s="1"/>
     </row>
-    <row r="119" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -40859,8 +40977,9 @@
       <c r="CK119" s="1"/>
       <c r="CL119" s="1"/>
       <c r="CM119" s="1"/>
+      <c r="CN119" s="1"/>
     </row>
-    <row r="120" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>24</v>
       </c>
@@ -40954,8 +41073,9 @@
       <c r="CK120" s="1"/>
       <c r="CL120" s="1"/>
       <c r="CM120" s="1"/>
+      <c r="CN120" s="1"/>
     </row>
-    <row r="121" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -41047,147 +41167,149 @@
       <c r="CK121" s="1"/>
       <c r="CL121" s="1"/>
       <c r="CM121" s="1"/>
+      <c r="CN121" s="1"/>
     </row>
-    <row r="122" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
-      <c r="B122" s="24">
+      <c r="B122" s="22">
         <v>2000</v>
       </c>
-      <c r="C122" s="25"/>
-      <c r="D122" s="25"/>
-      <c r="E122" s="25"/>
-      <c r="F122" s="24">
+      <c r="C122" s="23"/>
+      <c r="D122" s="23"/>
+      <c r="E122" s="23"/>
+      <c r="F122" s="22">
         <v>2001</v>
       </c>
-      <c r="G122" s="25"/>
-      <c r="H122" s="25"/>
-      <c r="I122" s="25"/>
-      <c r="J122" s="24">
+      <c r="G122" s="23"/>
+      <c r="H122" s="23"/>
+      <c r="I122" s="23"/>
+      <c r="J122" s="22">
         <v>2002</v>
       </c>
-      <c r="K122" s="25"/>
-      <c r="L122" s="25"/>
-      <c r="M122" s="25"/>
-      <c r="N122" s="24">
+      <c r="K122" s="23"/>
+      <c r="L122" s="23"/>
+      <c r="M122" s="23"/>
+      <c r="N122" s="22">
         <v>2003</v>
       </c>
-      <c r="O122" s="25"/>
-      <c r="P122" s="25"/>
-      <c r="Q122" s="25"/>
-      <c r="R122" s="24">
+      <c r="O122" s="23"/>
+      <c r="P122" s="23"/>
+      <c r="Q122" s="23"/>
+      <c r="R122" s="22">
         <v>2004</v>
       </c>
-      <c r="S122" s="25"/>
-      <c r="T122" s="25"/>
-      <c r="U122" s="25"/>
-      <c r="V122" s="24">
+      <c r="S122" s="23"/>
+      <c r="T122" s="23"/>
+      <c r="U122" s="23"/>
+      <c r="V122" s="22">
         <v>2005</v>
       </c>
-      <c r="W122" s="25"/>
-      <c r="X122" s="25"/>
-      <c r="Y122" s="25"/>
-      <c r="Z122" s="24">
+      <c r="W122" s="23"/>
+      <c r="X122" s="23"/>
+      <c r="Y122" s="23"/>
+      <c r="Z122" s="22">
         <v>2006</v>
       </c>
-      <c r="AA122" s="25"/>
-      <c r="AB122" s="25"/>
-      <c r="AC122" s="25"/>
-      <c r="AD122" s="24">
+      <c r="AA122" s="23"/>
+      <c r="AB122" s="23"/>
+      <c r="AC122" s="23"/>
+      <c r="AD122" s="22">
         <v>2007</v>
       </c>
-      <c r="AE122" s="25"/>
-      <c r="AF122" s="25"/>
-      <c r="AG122" s="25"/>
-      <c r="AH122" s="24">
+      <c r="AE122" s="23"/>
+      <c r="AF122" s="23"/>
+      <c r="AG122" s="23"/>
+      <c r="AH122" s="22">
         <v>2008</v>
       </c>
-      <c r="AI122" s="25"/>
-      <c r="AJ122" s="25"/>
-      <c r="AK122" s="25"/>
-      <c r="AL122" s="24">
+      <c r="AI122" s="23"/>
+      <c r="AJ122" s="23"/>
+      <c r="AK122" s="23"/>
+      <c r="AL122" s="22">
         <v>2009</v>
       </c>
-      <c r="AM122" s="25"/>
-      <c r="AN122" s="25"/>
-      <c r="AO122" s="25"/>
-      <c r="AP122" s="24">
+      <c r="AM122" s="23"/>
+      <c r="AN122" s="23"/>
+      <c r="AO122" s="23"/>
+      <c r="AP122" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="25"/>
-      <c r="AR122" s="25"/>
-      <c r="AS122" s="25"/>
-      <c r="AT122" s="24">
+      <c r="AQ122" s="23"/>
+      <c r="AR122" s="23"/>
+      <c r="AS122" s="23"/>
+      <c r="AT122" s="22">
         <v>2011</v>
       </c>
-      <c r="AU122" s="25"/>
-      <c r="AV122" s="25"/>
-      <c r="AW122" s="25"/>
-      <c r="AX122" s="24">
+      <c r="AU122" s="23"/>
+      <c r="AV122" s="23"/>
+      <c r="AW122" s="23"/>
+      <c r="AX122" s="22">
         <v>2012</v>
       </c>
-      <c r="AY122" s="25"/>
-      <c r="AZ122" s="25"/>
-      <c r="BA122" s="25"/>
-      <c r="BB122" s="24">
+      <c r="AY122" s="23"/>
+      <c r="AZ122" s="23"/>
+      <c r="BA122" s="23"/>
+      <c r="BB122" s="22">
         <v>2013</v>
       </c>
-      <c r="BC122" s="25"/>
-      <c r="BD122" s="25"/>
-      <c r="BE122" s="25"/>
-      <c r="BF122" s="24">
+      <c r="BC122" s="23"/>
+      <c r="BD122" s="23"/>
+      <c r="BE122" s="23"/>
+      <c r="BF122" s="22">
         <v>2014</v>
       </c>
-      <c r="BG122" s="25"/>
-      <c r="BH122" s="25"/>
-      <c r="BI122" s="25"/>
-      <c r="BJ122" s="24">
+      <c r="BG122" s="23"/>
+      <c r="BH122" s="23"/>
+      <c r="BI122" s="23"/>
+      <c r="BJ122" s="22">
         <v>2015</v>
       </c>
-      <c r="BK122" s="25"/>
-      <c r="BL122" s="25"/>
-      <c r="BM122" s="25"/>
-      <c r="BN122" s="24">
+      <c r="BK122" s="23"/>
+      <c r="BL122" s="23"/>
+      <c r="BM122" s="23"/>
+      <c r="BN122" s="22">
         <v>2016</v>
       </c>
-      <c r="BO122" s="25"/>
-      <c r="BP122" s="25"/>
-      <c r="BQ122" s="25"/>
-      <c r="BR122" s="24">
+      <c r="BO122" s="23"/>
+      <c r="BP122" s="23"/>
+      <c r="BQ122" s="23"/>
+      <c r="BR122" s="22">
         <v>2017</v>
       </c>
-      <c r="BS122" s="25"/>
-      <c r="BT122" s="25"/>
-      <c r="BU122" s="25"/>
-      <c r="BV122" s="24">
+      <c r="BS122" s="23"/>
+      <c r="BT122" s="23"/>
+      <c r="BU122" s="23"/>
+      <c r="BV122" s="22">
         <v>2018</v>
       </c>
-      <c r="BW122" s="24"/>
-      <c r="BX122" s="24"/>
-      <c r="BY122" s="24"/>
-      <c r="BZ122" s="24">
+      <c r="BW122" s="22"/>
+      <c r="BX122" s="22"/>
+      <c r="BY122" s="22"/>
+      <c r="BZ122" s="22">
         <v>2019</v>
       </c>
-      <c r="CA122" s="24"/>
-      <c r="CB122" s="24"/>
-      <c r="CC122" s="24"/>
-      <c r="CD122" s="24">
+      <c r="CA122" s="22"/>
+      <c r="CB122" s="22"/>
+      <c r="CC122" s="22"/>
+      <c r="CD122" s="22">
         <v>2020</v>
       </c>
-      <c r="CE122" s="24"/>
-      <c r="CF122" s="24"/>
-      <c r="CG122" s="24"/>
-      <c r="CH122" s="24">
+      <c r="CE122" s="22"/>
+      <c r="CF122" s="22"/>
+      <c r="CG122" s="22"/>
+      <c r="CH122" s="22">
         <v>2021</v>
       </c>
-      <c r="CI122" s="24"/>
-      <c r="CJ122" s="24"/>
-      <c r="CK122" s="24"/>
-      <c r="CL122" s="24">
+      <c r="CI122" s="22"/>
+      <c r="CJ122" s="22"/>
+      <c r="CK122" s="22"/>
+      <c r="CL122" s="22">
         <v>2022</v>
       </c>
-      <c r="CM122" s="24"/>
+      <c r="CM122" s="22"/>
+      <c r="CN122" s="22"/>
     </row>
-    <row r="123" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
         <v>4</v>
       </c>
@@ -41461,8 +41583,11 @@
       <c r="CM123" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="CN123" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="124" spans="1:155" s="2" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -41554,8 +41679,9 @@
       <c r="CK124" s="1"/>
       <c r="CL124" s="1"/>
       <c r="CM124" s="1"/>
+      <c r="CN124" s="1"/>
     </row>
-    <row r="125" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
         <v>11</v>
       </c>
@@ -41827,9 +41953,11 @@
         <v>54.969762250476336</v>
       </c>
       <c r="CM125" s="18">
-        <v>61.76848268689551</v>
-      </c>
-      <c r="CN125" s="11"/>
+        <v>61.89205994414467</v>
+      </c>
+      <c r="CN125" s="18">
+        <v>61.442987126997039</v>
+      </c>
       <c r="CO125" s="11"/>
       <c r="CP125" s="11"/>
       <c r="CQ125" s="11"/>
@@ -41894,7 +42022,7 @@
       <c r="EX125" s="11"/>
       <c r="EY125" s="11"/>
     </row>
-    <row r="126" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>12</v>
       </c>
@@ -42166,9 +42294,11 @@
         <v>45.030237749523657</v>
       </c>
       <c r="CM126" s="18">
-        <v>38.23151731310449</v>
-      </c>
-      <c r="CN126" s="11"/>
+        <v>38.10794005585533</v>
+      </c>
+      <c r="CN126" s="18">
+        <v>38.557012873002954</v>
+      </c>
       <c r="CO126" s="11"/>
       <c r="CP126" s="11"/>
       <c r="CQ126" s="11"/>
@@ -42233,7 +42363,7 @@
       <c r="EX126" s="11"/>
       <c r="EY126" s="11"/>
     </row>
-    <row r="127" spans="1:155" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="17"/>
       <c r="C127" s="17"/>
       <c r="D127" s="17"/>
@@ -42324,7 +42454,7 @@
       <c r="CK127" s="17"/>
       <c r="CL127" s="17"/>
       <c r="CM127" s="17"/>
-      <c r="CN127" s="11"/>
+      <c r="CN127" s="17"/>
       <c r="CO127" s="11"/>
       <c r="CP127" s="11"/>
       <c r="CQ127" s="11"/>
@@ -42389,7 +42519,7 @@
       <c r="EX127" s="11"/>
       <c r="EY127" s="11"/>
     </row>
-    <row r="128" spans="1:155" ht="18" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:155" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A128" s="14" t="s">
         <v>13</v>
       </c>
@@ -42663,7 +42793,9 @@
       <c r="CM128" s="18">
         <v>100</v>
       </c>
-      <c r="CN128" s="11"/>
+      <c r="CN128" s="18">
+        <v>100</v>
+      </c>
       <c r="CO128" s="11"/>
       <c r="CP128" s="11"/>
       <c r="CQ128" s="11"/>
@@ -42728,7 +42860,7 @@
       <c r="EX128" s="11"/>
       <c r="EY128" s="11"/>
     </row>
-    <row r="129" spans="1:91" s="2" customFormat="1" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:92" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="15"/>
       <c r="B129" s="15"/>
       <c r="C129" s="15"/>
@@ -42820,8 +42952,9 @@
       <c r="CK129" s="15"/>
       <c r="CL129" s="15"/>
       <c r="CM129" s="15"/>
+      <c r="CN129" s="15"/>
     </row>
-    <row r="130" spans="1:91" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="16" t="s">
         <v>0</v>
       </c>
@@ -42915,9 +43048,147 @@
       <c r="CK130" s="1"/>
       <c r="CL130" s="1"/>
       <c r="CM130" s="1"/>
+      <c r="CN130" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="159">
+  <mergeCells count="161">
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH28:CK28"/>
+    <mergeCell ref="CL9:CN9"/>
+    <mergeCell ref="CL28:CN28"/>
+    <mergeCell ref="CH47:CJ47"/>
+    <mergeCell ref="CL47:CM47"/>
+    <mergeCell ref="CH66:CJ66"/>
+    <mergeCell ref="CL66:CM66"/>
+    <mergeCell ref="CL84:CN84"/>
+    <mergeCell ref="CL103:CN103"/>
+    <mergeCell ref="CL122:CN122"/>
+    <mergeCell ref="CD47:CG47"/>
+    <mergeCell ref="CD66:CG66"/>
+    <mergeCell ref="CH84:CK84"/>
+    <mergeCell ref="CH103:CK103"/>
+    <mergeCell ref="CH122:CK122"/>
+    <mergeCell ref="BZ28:CC28"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="BR122:BU122"/>
+    <mergeCell ref="BV122:BY122"/>
+    <mergeCell ref="BV66:BY66"/>
+    <mergeCell ref="BR66:BU66"/>
+    <mergeCell ref="BR84:BU84"/>
+    <mergeCell ref="BR103:BU103"/>
+    <mergeCell ref="AX66:BA66"/>
+    <mergeCell ref="BB66:BE66"/>
+    <mergeCell ref="BF66:BI66"/>
+    <mergeCell ref="BJ66:BM66"/>
+    <mergeCell ref="BN66:BQ66"/>
+    <mergeCell ref="BJ28:BM28"/>
+    <mergeCell ref="BN28:BQ28"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="R47:U47"/>
+    <mergeCell ref="V47:Y47"/>
+    <mergeCell ref="Z47:AC47"/>
+    <mergeCell ref="AD47:AG47"/>
+    <mergeCell ref="AH47:AK47"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="BR47:BU47"/>
+    <mergeCell ref="BR28:BU28"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="V28:Y28"/>
+    <mergeCell ref="Z28:AC28"/>
+    <mergeCell ref="AH28:AK28"/>
+    <mergeCell ref="AL28:AO28"/>
+    <mergeCell ref="AP28:AS28"/>
+    <mergeCell ref="AT28:AW28"/>
+    <mergeCell ref="AX28:BA28"/>
+    <mergeCell ref="BB28:BE28"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="BF28:BI28"/>
+    <mergeCell ref="AL47:AO47"/>
+    <mergeCell ref="AP47:AS47"/>
+    <mergeCell ref="AT47:AW47"/>
+    <mergeCell ref="AX47:BA47"/>
+    <mergeCell ref="BJ47:BM47"/>
+    <mergeCell ref="BN47:BQ47"/>
+    <mergeCell ref="BB47:BE47"/>
+    <mergeCell ref="BF47:BI47"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="R66:U66"/>
+    <mergeCell ref="V66:Y66"/>
+    <mergeCell ref="Z66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AK66"/>
+    <mergeCell ref="Z84:AC84"/>
+    <mergeCell ref="AD84:AG84"/>
+    <mergeCell ref="AH84:AK84"/>
+    <mergeCell ref="AL66:AO66"/>
+    <mergeCell ref="AP66:AS66"/>
+    <mergeCell ref="AT66:AW66"/>
+    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="V84:Y84"/>
+    <mergeCell ref="AL122:AO122"/>
+    <mergeCell ref="AP122:AS122"/>
+    <mergeCell ref="AT122:AW122"/>
+    <mergeCell ref="AX122:BA122"/>
+    <mergeCell ref="BB122:BE122"/>
+    <mergeCell ref="BN84:BQ84"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="J103:M103"/>
+    <mergeCell ref="N103:Q103"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="V103:Y103"/>
+    <mergeCell ref="Z103:AC103"/>
+    <mergeCell ref="AD103:AG103"/>
+    <mergeCell ref="AH103:AK103"/>
+    <mergeCell ref="AL103:AO103"/>
+    <mergeCell ref="AP103:AS103"/>
+    <mergeCell ref="AT103:AW103"/>
+    <mergeCell ref="AX103:BA103"/>
+    <mergeCell ref="BB103:BE103"/>
+    <mergeCell ref="BF103:BI103"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="AX84:BA84"/>
+    <mergeCell ref="BB84:BE84"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:M122"/>
+    <mergeCell ref="N122:Q122"/>
+    <mergeCell ref="R122:U122"/>
+    <mergeCell ref="V122:Y122"/>
+    <mergeCell ref="Z122:AC122"/>
+    <mergeCell ref="AD122:AG122"/>
+    <mergeCell ref="AH122:AK122"/>
     <mergeCell ref="BZ47:CC47"/>
     <mergeCell ref="BZ66:CC66"/>
     <mergeCell ref="CD9:CG9"/>
@@ -42942,150 +43213,15 @@
     <mergeCell ref="BZ9:CC9"/>
     <mergeCell ref="BZ122:CC122"/>
     <mergeCell ref="BV28:BY28"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="N122:Q122"/>
-    <mergeCell ref="R122:U122"/>
-    <mergeCell ref="V122:Y122"/>
-    <mergeCell ref="Z122:AC122"/>
-    <mergeCell ref="AD122:AG122"/>
-    <mergeCell ref="AH122:AK122"/>
-    <mergeCell ref="AL122:AO122"/>
-    <mergeCell ref="AP122:AS122"/>
-    <mergeCell ref="AT122:AW122"/>
-    <mergeCell ref="AX122:BA122"/>
-    <mergeCell ref="BB122:BE122"/>
-    <mergeCell ref="BN84:BQ84"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="J103:M103"/>
-    <mergeCell ref="N103:Q103"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="V103:Y103"/>
-    <mergeCell ref="Z103:AC103"/>
-    <mergeCell ref="AD103:AG103"/>
-    <mergeCell ref="AH103:AK103"/>
-    <mergeCell ref="AL103:AO103"/>
-    <mergeCell ref="AP103:AS103"/>
-    <mergeCell ref="AT103:AW103"/>
-    <mergeCell ref="AX103:BA103"/>
-    <mergeCell ref="BB103:BE103"/>
-    <mergeCell ref="BF103:BI103"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="BB84:BE84"/>
-    <mergeCell ref="Z84:AC84"/>
-    <mergeCell ref="AD84:AG84"/>
-    <mergeCell ref="AH84:AK84"/>
-    <mergeCell ref="AL66:AO66"/>
-    <mergeCell ref="AP66:AS66"/>
-    <mergeCell ref="AT66:AW66"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="V84:Y84"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="N66:Q66"/>
-    <mergeCell ref="R66:U66"/>
-    <mergeCell ref="V66:Y66"/>
-    <mergeCell ref="Z66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AK66"/>
-    <mergeCell ref="BF28:BI28"/>
-    <mergeCell ref="AL47:AO47"/>
-    <mergeCell ref="AP47:AS47"/>
-    <mergeCell ref="AT47:AW47"/>
-    <mergeCell ref="AX47:BA47"/>
-    <mergeCell ref="BJ47:BM47"/>
-    <mergeCell ref="BN47:BQ47"/>
-    <mergeCell ref="BB47:BE47"/>
-    <mergeCell ref="BF47:BI47"/>
-    <mergeCell ref="BR47:BU47"/>
-    <mergeCell ref="BR28:BU28"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="V28:Y28"/>
-    <mergeCell ref="Z28:AC28"/>
-    <mergeCell ref="AH28:AK28"/>
-    <mergeCell ref="AL28:AO28"/>
-    <mergeCell ref="AP28:AS28"/>
-    <mergeCell ref="AT28:AW28"/>
-    <mergeCell ref="AX28:BA28"/>
-    <mergeCell ref="BB28:BE28"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="R47:U47"/>
-    <mergeCell ref="V47:Y47"/>
-    <mergeCell ref="Z47:AC47"/>
-    <mergeCell ref="AD47:AG47"/>
-    <mergeCell ref="AH47:AK47"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="CD47:CG47"/>
-    <mergeCell ref="CD66:CG66"/>
-    <mergeCell ref="CH84:CK84"/>
-    <mergeCell ref="CH103:CK103"/>
-    <mergeCell ref="CH122:CK122"/>
-    <mergeCell ref="BZ28:CC28"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="BR122:BU122"/>
-    <mergeCell ref="BV122:BY122"/>
-    <mergeCell ref="BV66:BY66"/>
-    <mergeCell ref="BR66:BU66"/>
-    <mergeCell ref="BR84:BU84"/>
-    <mergeCell ref="BR103:BU103"/>
-    <mergeCell ref="AX66:BA66"/>
-    <mergeCell ref="BB66:BE66"/>
-    <mergeCell ref="BF66:BI66"/>
-    <mergeCell ref="BJ66:BM66"/>
-    <mergeCell ref="BN66:BQ66"/>
-    <mergeCell ref="BJ28:BM28"/>
-    <mergeCell ref="BN28:BQ28"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="CL9:CM9"/>
-    <mergeCell ref="CL28:CM28"/>
-    <mergeCell ref="CL84:CM84"/>
-    <mergeCell ref="CL103:CM103"/>
-    <mergeCell ref="CL122:CM122"/>
-    <mergeCell ref="CH47:CI47"/>
-    <mergeCell ref="CH66:CI66"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH28:CK28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="90" man="1"/>
-    <brk id="76" max="90" man="1"/>
-    <brk id="94" max="90" man="1"/>
+    <brk id="38" max="91" man="1"/>
+    <brk id="76" max="91" man="1"/>
+    <brk id="94" max="91" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-21OS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-21OS_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65B9999-E11C-4D1B-A509-3FF101AB412C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CC3CE9-9753-4827-888C-534D8E1C6F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3150" yWindow="3150" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OS" sheetId="15" r:id="rId1"/>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">OS!$A$1:$CN$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">OS!$A$1:$CO$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="51">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -615,13 +615,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2022</t>
+    <t>As of January 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2022</t>
+    <t>Q1 2000 to Q4 2022</t>
   </si>
   <si>
-    <t>As of November 2022</t>
+    <t>Q1 2001 to Q4 2022</t>
   </si>
 </sst>
 </file>
@@ -794,7 +794,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="G_Gross Revenue"/>
@@ -15161,7 +15161,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CAP93+"/>
@@ -15870,7 +15870,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Prod_Lev_Comp"/>
@@ -15893,7 +15893,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -15922,7 +15922,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -15985,7 +15985,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -16014,7 +16014,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -16045,7 +16045,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="RETAILQ203-90days"/>
@@ -18439,7 +18439,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -18527,7 +18527,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="notes-rev"/>
@@ -18548,7 +18548,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="t6a (2)"/>
@@ -18605,7 +18605,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet2"/>
@@ -18622,7 +18622,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -18663,7 +18663,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="AFF"/>
@@ -18676,7 +18676,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet3"/>
@@ -18723,7 +18723,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TABL1"/>
@@ -18752,7 +18752,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TAB35"/>
@@ -23169,7 +23169,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Summary"/>
@@ -23212,7 +23212,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Steps"/>
@@ -23614,7 +23614,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23627,17 +23627,17 @@
   </sheetPr>
   <dimension ref="A1:EY130"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CG1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CD1" activePane="topRight" state="frozen"/>
       <selection activeCell="CE141" sqref="CA141:CE149"/>
-      <selection pane="topRight" activeCell="CH1" sqref="CH1:CN1048576"/>
+      <selection pane="topRight" activeCell="CH1" sqref="CH1:CO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.88671875" style="1" customWidth="1"/>
-    <col min="2" max="92" width="9" style="12" customWidth="1"/>
-    <col min="93" max="16384" width="7.77734375" style="12"/>
+    <col min="2" max="93" width="9" style="12" customWidth="1"/>
+    <col min="94" max="16384" width="7.77734375" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23652,7 +23652,7 @@
     </row>
     <row r="3" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23665,7 +23665,7 @@
     </row>
     <row r="6" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23766,6 +23766,7 @@
       <c r="CL8" s="1"/>
       <c r="CM8" s="1"/>
       <c r="CN8" s="1"/>
+      <c r="CO8" s="1"/>
     </row>
     <row r="9" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
@@ -23906,6 +23907,7 @@
       </c>
       <c r="CM9" s="22"/>
       <c r="CN9" s="22"/>
+      <c r="CO9" s="22"/>
     </row>
     <row r="10" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24183,6 +24185,9 @@
       </c>
       <c r="CN10" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="CO10" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24278,6 +24283,7 @@
       <c r="CL11" s="1"/>
       <c r="CM11" s="1"/>
       <c r="CN11" s="1"/>
+      <c r="CO11" s="1"/>
     </row>
     <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
@@ -24554,9 +24560,11 @@
         <v>52367.679959474917</v>
       </c>
       <c r="CN12" s="19">
-        <v>48237.555913436488</v>
-      </c>
-      <c r="CO12" s="11"/>
+        <v>48345.946832546717</v>
+      </c>
+      <c r="CO12" s="19">
+        <v>71466.395621412157</v>
+      </c>
       <c r="CP12" s="11"/>
       <c r="CQ12" s="11"/>
       <c r="CR12" s="11"/>
@@ -24895,9 +24903,11 @@
         <v>34120.87210292559</v>
       </c>
       <c r="CN13" s="19">
-        <v>31728.755870778419</v>
-      </c>
-      <c r="CO13" s="11"/>
+        <v>32009.199458819297</v>
+      </c>
+      <c r="CO13" s="19">
+        <v>43594.291369919454</v>
+      </c>
       <c r="CP13" s="11"/>
       <c r="CQ13" s="11"/>
       <c r="CR13" s="11"/>
@@ -25053,7 +25063,7 @@
       <c r="CL14" s="20"/>
       <c r="CM14" s="20"/>
       <c r="CN14" s="20"/>
-      <c r="CO14" s="11"/>
+      <c r="CO14" s="20"/>
       <c r="CP14" s="11"/>
       <c r="CQ14" s="11"/>
       <c r="CR14" s="11"/>
@@ -25392,9 +25402,11 @@
         <v>86488.5520624005</v>
       </c>
       <c r="CN15" s="20">
-        <v>79966.311784214908</v>
-      </c>
-      <c r="CO15" s="11"/>
+        <v>80355.146291366022</v>
+      </c>
+      <c r="CO15" s="20">
+        <v>115060.6869913316</v>
+      </c>
       <c r="CP15" s="11"/>
       <c r="CQ15" s="11"/>
       <c r="CR15" s="11"/>
@@ -25551,6 +25563,7 @@
       <c r="CL16" s="15"/>
       <c r="CM16" s="15"/>
       <c r="CN16" s="15"/>
+      <c r="CO16" s="15"/>
     </row>
     <row r="17" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
@@ -25647,6 +25660,7 @@
       <c r="CL17" s="1"/>
       <c r="CM17" s="1"/>
       <c r="CN17" s="1"/>
+      <c r="CO17" s="1"/>
     </row>
     <row r="18" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="17"/>
@@ -25740,7 +25754,7 @@
       <c r="CL18" s="17"/>
       <c r="CM18" s="17"/>
       <c r="CN18" s="17"/>
-      <c r="CO18" s="11"/>
+      <c r="CO18" s="17"/>
       <c r="CP18" s="11"/>
       <c r="CQ18" s="11"/>
       <c r="CR18" s="11"/>
@@ -25896,7 +25910,7 @@
       <c r="CL19" s="17"/>
       <c r="CM19" s="17"/>
       <c r="CN19" s="17"/>
-      <c r="CO19" s="11"/>
+      <c r="CO19" s="17"/>
       <c r="CP19" s="11"/>
       <c r="CQ19" s="11"/>
       <c r="CR19" s="11"/>
@@ -26055,6 +26069,7 @@
       <c r="CL20" s="1"/>
       <c r="CM20" s="1"/>
       <c r="CN20" s="1"/>
+      <c r="CO20" s="1"/>
     </row>
     <row r="21" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -26151,10 +26166,11 @@
       <c r="CL21" s="1"/>
       <c r="CM21" s="1"/>
       <c r="CN21" s="1"/>
+      <c r="CO21" s="1"/>
     </row>
     <row r="22" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -26247,6 +26263,7 @@
       <c r="CL22" s="1"/>
       <c r="CM22" s="1"/>
       <c r="CN22" s="1"/>
+      <c r="CO22" s="1"/>
     </row>
     <row r="23" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
@@ -26341,6 +26358,7 @@
       <c r="CL23" s="1"/>
       <c r="CM23" s="1"/>
       <c r="CN23" s="1"/>
+      <c r="CO23" s="1"/>
     </row>
     <row r="24" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -26437,10 +26455,11 @@
       <c r="CL24" s="1"/>
       <c r="CM24" s="1"/>
       <c r="CN24" s="1"/>
+      <c r="CO24" s="1"/>
     </row>
     <row r="25" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -26533,6 +26552,7 @@
       <c r="CL25" s="1"/>
       <c r="CM25" s="1"/>
       <c r="CN25" s="1"/>
+      <c r="CO25" s="1"/>
     </row>
     <row r="26" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -26629,6 +26649,7 @@
       <c r="CL26" s="1"/>
       <c r="CM26" s="1"/>
       <c r="CN26" s="1"/>
+      <c r="CO26" s="1"/>
     </row>
     <row r="27" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
@@ -26723,6 +26744,7 @@
       <c r="CL27" s="1"/>
       <c r="CM27" s="1"/>
       <c r="CN27" s="1"/>
+      <c r="CO27" s="1"/>
     </row>
     <row r="28" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
@@ -26863,6 +26885,7 @@
       </c>
       <c r="CM28" s="22"/>
       <c r="CN28" s="22"/>
+      <c r="CO28" s="22"/>
     </row>
     <row r="29" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
@@ -27140,6 +27163,9 @@
       </c>
       <c r="CN29" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="CO29" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27235,6 +27261,7 @@
       <c r="CL30" s="1"/>
       <c r="CM30" s="1"/>
       <c r="CN30" s="1"/>
+      <c r="CO30" s="1"/>
     </row>
     <row r="31" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
@@ -27511,9 +27538,11 @@
         <v>50190.521766449645</v>
       </c>
       <c r="CN31" s="19">
-        <v>45625.011074487033</v>
-      </c>
-      <c r="CO31" s="11"/>
+        <v>45740.050612370644</v>
+      </c>
+      <c r="CO31" s="19">
+        <v>66697.378723214075</v>
+      </c>
       <c r="CP31" s="11"/>
       <c r="CQ31" s="11"/>
       <c r="CR31" s="11"/>
@@ -27852,9 +27881,11 @@
         <v>30903.114172869165</v>
       </c>
       <c r="CN32" s="19">
-        <v>28630.836838936026</v>
-      </c>
-      <c r="CO32" s="11"/>
+        <v>28904.695964205093</v>
+      </c>
+      <c r="CO32" s="19">
+        <v>38715.410722901914</v>
+      </c>
       <c r="CP32" s="11"/>
       <c r="CQ32" s="11"/>
       <c r="CR32" s="11"/>
@@ -28010,7 +28041,7 @@
       <c r="CL33" s="20"/>
       <c r="CM33" s="20"/>
       <c r="CN33" s="20"/>
-      <c r="CO33" s="11"/>
+      <c r="CO33" s="20"/>
       <c r="CP33" s="11"/>
       <c r="CQ33" s="11"/>
       <c r="CR33" s="11"/>
@@ -28349,9 +28380,11 @@
         <v>81093.635939318803</v>
       </c>
       <c r="CN34" s="20">
-        <v>74255.847913423058</v>
-      </c>
-      <c r="CO34" s="11"/>
+        <v>74644.746576575737</v>
+      </c>
+      <c r="CO34" s="20">
+        <v>105412.78944611599</v>
+      </c>
       <c r="CP34" s="11"/>
       <c r="CQ34" s="11"/>
       <c r="CR34" s="11"/>
@@ -28508,6 +28541,7 @@
       <c r="CL35" s="15"/>
       <c r="CM35" s="15"/>
       <c r="CN35" s="15"/>
+      <c r="CO35" s="15"/>
     </row>
     <row r="36" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
@@ -28604,6 +28638,7 @@
       <c r="CL36" s="1"/>
       <c r="CM36" s="1"/>
       <c r="CN36" s="1"/>
+      <c r="CO36" s="1"/>
     </row>
     <row r="37" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="17"/>
@@ -28697,7 +28732,7 @@
       <c r="CL37" s="17"/>
       <c r="CM37" s="17"/>
       <c r="CN37" s="17"/>
-      <c r="CO37" s="11"/>
+      <c r="CO37" s="17"/>
       <c r="CP37" s="11"/>
       <c r="CQ37" s="11"/>
       <c r="CR37" s="11"/>
@@ -28853,7 +28888,7 @@
       <c r="CL38" s="17"/>
       <c r="CM38" s="17"/>
       <c r="CN38" s="17"/>
-      <c r="CO38" s="11"/>
+      <c r="CO38" s="17"/>
       <c r="CP38" s="11"/>
       <c r="CQ38" s="11"/>
       <c r="CR38" s="11"/>
@@ -29012,6 +29047,7 @@
       <c r="CL39" s="1"/>
       <c r="CM39" s="1"/>
       <c r="CN39" s="1"/>
+      <c r="CO39" s="1"/>
     </row>
     <row r="40" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
@@ -29108,10 +29144,11 @@
       <c r="CL40" s="1"/>
       <c r="CM40" s="1"/>
       <c r="CN40" s="1"/>
+      <c r="CO40" s="1"/>
     </row>
     <row r="41" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -29204,6 +29241,7 @@
       <c r="CL41" s="1"/>
       <c r="CM41" s="1"/>
       <c r="CN41" s="1"/>
+      <c r="CO41" s="1"/>
     </row>
     <row r="42" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
@@ -29298,6 +29336,7 @@
       <c r="CL42" s="1"/>
       <c r="CM42" s="1"/>
       <c r="CN42" s="1"/>
+      <c r="CO42" s="1"/>
     </row>
     <row r="43" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -29394,10 +29433,11 @@
       <c r="CL43" s="1"/>
       <c r="CM43" s="1"/>
       <c r="CN43" s="1"/>
+      <c r="CO43" s="1"/>
     </row>
     <row r="44" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -29490,6 +29530,7 @@
       <c r="CL44" s="1"/>
       <c r="CM44" s="1"/>
       <c r="CN44" s="1"/>
+      <c r="CO44" s="1"/>
     </row>
     <row r="45" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -29673,6 +29714,7 @@
       <c r="CL46" s="1"/>
       <c r="CM46" s="1"/>
       <c r="CN46" s="1"/>
+      <c r="CO46" s="1"/>
     </row>
     <row r="47" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
@@ -29807,10 +29849,11 @@
       </c>
       <c r="CI47" s="22"/>
       <c r="CJ47" s="22"/>
-      <c r="CK47" s="21"/>
+      <c r="CK47" s="22"/>
       <c r="CL47" s="22"/>
       <c r="CM47" s="22"/>
       <c r="CN47" s="21"/>
+      <c r="CO47" s="21"/>
     </row>
     <row r="48" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
@@ -30077,10 +30120,13 @@
       <c r="CJ48" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CK48" s="6"/>
+      <c r="CK48" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="CL48" s="6"/>
       <c r="CM48" s="6"/>
       <c r="CN48" s="6"/>
+      <c r="CO48" s="6"/>
     </row>
     <row r="49" spans="1:151" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
@@ -30175,6 +30221,7 @@
       <c r="CL49" s="1"/>
       <c r="CM49" s="1"/>
       <c r="CN49" s="1"/>
+      <c r="CO49" s="1"/>
     </row>
     <row r="50" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
@@ -30439,13 +30486,15 @@
         <v>59.004902849954505</v>
       </c>
       <c r="CJ50" s="18">
-        <v>55.098521445057685</v>
-      </c>
-      <c r="CK50" s="18"/>
+        <v>55.447031459168585</v>
+      </c>
+      <c r="CK50" s="18">
+        <v>22.732030565868214</v>
+      </c>
       <c r="CL50" s="18"/>
       <c r="CM50" s="18"/>
       <c r="CN50" s="18"/>
-      <c r="CO50" s="11"/>
+      <c r="CO50" s="18"/>
       <c r="CP50" s="11"/>
       <c r="CQ50" s="11"/>
       <c r="CR50" s="11"/>
@@ -30768,13 +30817,15 @@
         <v>18.618655979985135</v>
       </c>
       <c r="CJ51" s="18">
-        <v>21.338791461826958</v>
-      </c>
-      <c r="CK51" s="18"/>
+        <v>22.411278709189801</v>
+      </c>
+      <c r="CK51" s="18">
+        <v>18.931473451517206</v>
+      </c>
       <c r="CL51" s="18"/>
       <c r="CM51" s="18"/>
       <c r="CN51" s="18"/>
-      <c r="CO51" s="11"/>
+      <c r="CO51" s="18"/>
       <c r="CP51" s="11"/>
       <c r="CQ51" s="11"/>
       <c r="CR51" s="11"/>
@@ -30927,7 +30978,7 @@
       <c r="CL52" s="17"/>
       <c r="CM52" s="17"/>
       <c r="CN52" s="17"/>
-      <c r="CO52" s="11"/>
+      <c r="CO52" s="17"/>
       <c r="CP52" s="11"/>
       <c r="CQ52" s="11"/>
       <c r="CR52" s="11"/>
@@ -31250,13 +31301,15 @@
         <v>40.176357690209699</v>
       </c>
       <c r="CJ53" s="18">
-        <v>39.67882418725361</v>
-      </c>
-      <c r="CK53" s="18"/>
+        <v>40.358009528561553</v>
+      </c>
+      <c r="CK53" s="18">
+        <v>21.263833281411948</v>
+      </c>
       <c r="CL53" s="18"/>
       <c r="CM53" s="18"/>
       <c r="CN53" s="18"/>
-      <c r="CO53" s="11"/>
+      <c r="CO53" s="18"/>
       <c r="CP53" s="11"/>
       <c r="CQ53" s="11"/>
       <c r="CR53" s="11"/>
@@ -31409,6 +31462,7 @@
       <c r="CL54" s="15"/>
       <c r="CM54" s="15"/>
       <c r="CN54" s="15"/>
+      <c r="CO54" s="15"/>
     </row>
     <row r="55" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
@@ -31505,6 +31559,7 @@
       <c r="CL55" s="1"/>
       <c r="CM55" s="1"/>
       <c r="CN55" s="1"/>
+      <c r="CO55" s="1"/>
     </row>
     <row r="56" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="17"/>
@@ -31598,7 +31653,7 @@
       <c r="CL56" s="17"/>
       <c r="CM56" s="17"/>
       <c r="CN56" s="17"/>
-      <c r="CO56" s="11"/>
+      <c r="CO56" s="17"/>
       <c r="CP56" s="11"/>
       <c r="CQ56" s="11"/>
       <c r="CR56" s="11"/>
@@ -31750,7 +31805,7 @@
       <c r="CL57" s="17"/>
       <c r="CM57" s="17"/>
       <c r="CN57" s="17"/>
-      <c r="CO57" s="11"/>
+      <c r="CO57" s="17"/>
       <c r="CP57" s="11"/>
       <c r="CQ57" s="11"/>
       <c r="CR57" s="11"/>
@@ -31905,6 +31960,7 @@
       <c r="CL58" s="1"/>
       <c r="CM58" s="1"/>
       <c r="CN58" s="1"/>
+      <c r="CO58" s="1"/>
     </row>
     <row r="59" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -32001,10 +32057,11 @@
       <c r="CL59" s="1"/>
       <c r="CM59" s="1"/>
       <c r="CN59" s="1"/>
+      <c r="CO59" s="1"/>
     </row>
     <row r="60" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -32097,6 +32154,7 @@
       <c r="CL60" s="1"/>
       <c r="CM60" s="1"/>
       <c r="CN60" s="1"/>
+      <c r="CO60" s="1"/>
     </row>
     <row r="61" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
@@ -32191,6 +32249,7 @@
       <c r="CL61" s="1"/>
       <c r="CM61" s="1"/>
       <c r="CN61" s="1"/>
+      <c r="CO61" s="1"/>
     </row>
     <row r="62" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -32287,10 +32346,11 @@
       <c r="CL62" s="1"/>
       <c r="CM62" s="1"/>
       <c r="CN62" s="1"/>
+      <c r="CO62" s="1"/>
     </row>
     <row r="63" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -32383,6 +32443,7 @@
       <c r="CL63" s="1"/>
       <c r="CM63" s="1"/>
       <c r="CN63" s="1"/>
+      <c r="CO63" s="1"/>
     </row>
     <row r="64" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
@@ -32479,6 +32540,7 @@
       <c r="CL64" s="1"/>
       <c r="CM64" s="1"/>
       <c r="CN64" s="1"/>
+      <c r="CO64" s="1"/>
     </row>
     <row r="65" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
@@ -32573,6 +32635,7 @@
       <c r="CL65" s="1"/>
       <c r="CM65" s="1"/>
       <c r="CN65" s="1"/>
+      <c r="CO65" s="1"/>
     </row>
     <row r="66" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
@@ -32707,10 +32770,11 @@
       </c>
       <c r="CI66" s="22"/>
       <c r="CJ66" s="22"/>
-      <c r="CK66" s="21"/>
+      <c r="CK66" s="22"/>
       <c r="CL66" s="22"/>
       <c r="CM66" s="22"/>
       <c r="CN66" s="21"/>
+      <c r="CO66" s="21"/>
     </row>
     <row r="67" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
@@ -32977,10 +33041,13 @@
       <c r="CJ67" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CK67" s="6"/>
+      <c r="CK67" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="CL67" s="6"/>
       <c r="CM67" s="6"/>
       <c r="CN67" s="6"/>
+      <c r="CO67" s="6"/>
     </row>
     <row r="68" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
@@ -33075,6 +33142,7 @@
       <c r="CL68" s="1"/>
       <c r="CM68" s="1"/>
       <c r="CN68" s="1"/>
+      <c r="CO68" s="1"/>
     </row>
     <row r="69" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
@@ -33339,13 +33407,15 @@
         <v>57.711458595176964</v>
       </c>
       <c r="CJ69" s="18">
-        <v>52.743574243386036</v>
-      </c>
-      <c r="CK69" s="18"/>
+        <v>53.128704017205962</v>
+      </c>
+      <c r="CK69" s="18">
+        <v>19.631614253537094</v>
+      </c>
       <c r="CL69" s="18"/>
       <c r="CM69" s="18"/>
       <c r="CN69" s="18"/>
-      <c r="CO69" s="11"/>
+      <c r="CO69" s="18"/>
       <c r="CP69" s="11"/>
       <c r="CQ69" s="11"/>
       <c r="CR69" s="11"/>
@@ -33668,13 +33738,15 @@
         <v>18.418917649302372</v>
       </c>
       <c r="CJ70" s="18">
-        <v>20.100433149684747</v>
-      </c>
-      <c r="CK70" s="18"/>
+        <v>21.249215483635965</v>
+      </c>
+      <c r="CK70" s="18">
+        <v>15.953756631503097</v>
+      </c>
       <c r="CL70" s="18"/>
       <c r="CM70" s="18"/>
       <c r="CN70" s="18"/>
-      <c r="CO70" s="11"/>
+      <c r="CO70" s="18"/>
       <c r="CP70" s="11"/>
       <c r="CQ70" s="11"/>
       <c r="CR70" s="11"/>
@@ -33826,7 +33898,7 @@
       <c r="CL71" s="17"/>
       <c r="CM71" s="17"/>
       <c r="CN71" s="17"/>
-      <c r="CO71" s="11"/>
+      <c r="CO71" s="17"/>
       <c r="CP71" s="11"/>
       <c r="CQ71" s="11"/>
       <c r="CR71" s="11"/>
@@ -34149,13 +34221,15 @@
         <v>40.008027766598076</v>
       </c>
       <c r="CJ72" s="18">
-        <v>38.254820483370452</v>
-      </c>
-      <c r="CK72" s="18"/>
+        <v>38.978899682130475</v>
+      </c>
+      <c r="CK72" s="18">
+        <v>18.254034908148185</v>
+      </c>
       <c r="CL72" s="18"/>
       <c r="CM72" s="18"/>
       <c r="CN72" s="18"/>
-      <c r="CO72" s="11"/>
+      <c r="CO72" s="18"/>
       <c r="CP72" s="11"/>
       <c r="CQ72" s="11"/>
       <c r="CR72" s="11"/>
@@ -34308,6 +34382,7 @@
       <c r="CL73" s="15"/>
       <c r="CM73" s="15"/>
       <c r="CN73" s="15"/>
+      <c r="CO73" s="15"/>
     </row>
     <row r="74" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
@@ -34404,6 +34479,7 @@
       <c r="CL74" s="1"/>
       <c r="CM74" s="1"/>
       <c r="CN74" s="1"/>
+      <c r="CO74" s="1"/>
     </row>
     <row r="75" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="17"/>
@@ -34649,7 +34725,7 @@
       <c r="CL76" s="17"/>
       <c r="CM76" s="17"/>
       <c r="CN76" s="17"/>
-      <c r="CO76" s="11"/>
+      <c r="CO76" s="17"/>
       <c r="CP76" s="11"/>
       <c r="CQ76" s="11"/>
       <c r="CR76" s="11"/>
@@ -34808,10 +34884,11 @@
       <c r="CL77" s="1"/>
       <c r="CM77" s="1"/>
       <c r="CN77" s="1"/>
+      <c r="CO77" s="1"/>
     </row>
     <row r="78" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -34904,6 +34981,7 @@
       <c r="CL78" s="1"/>
       <c r="CM78" s="1"/>
       <c r="CN78" s="1"/>
+      <c r="CO78" s="1"/>
     </row>
     <row r="79" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
@@ -34998,6 +35076,7 @@
       <c r="CL79" s="1"/>
       <c r="CM79" s="1"/>
       <c r="CN79" s="1"/>
+      <c r="CO79" s="1"/>
     </row>
     <row r="80" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
@@ -35094,10 +35173,11 @@
       <c r="CL80" s="1"/>
       <c r="CM80" s="1"/>
       <c r="CN80" s="1"/>
+      <c r="CO80" s="1"/>
     </row>
     <row r="81" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -35190,6 +35270,7 @@
       <c r="CL81" s="1"/>
       <c r="CM81" s="1"/>
       <c r="CN81" s="1"/>
+      <c r="CO81" s="1"/>
     </row>
     <row r="82" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
@@ -35286,6 +35367,7 @@
       <c r="CL82" s="1"/>
       <c r="CM82" s="1"/>
       <c r="CN82" s="1"/>
+      <c r="CO82" s="1"/>
     </row>
     <row r="83" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
@@ -35380,6 +35462,7 @@
       <c r="CL83" s="1"/>
       <c r="CM83" s="1"/>
       <c r="CN83" s="1"/>
+      <c r="CO83" s="1"/>
     </row>
     <row r="84" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
@@ -35520,6 +35603,7 @@
       </c>
       <c r="CM84" s="22"/>
       <c r="CN84" s="22"/>
+      <c r="CO84" s="22"/>
     </row>
     <row r="85" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
@@ -35797,6 +35881,9 @@
       </c>
       <c r="CN85" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="CO85" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35892,6 +35979,7 @@
       <c r="CL86" s="1"/>
       <c r="CM86" s="1"/>
       <c r="CN86" s="1"/>
+      <c r="CO86" s="1"/>
     </row>
     <row r="87" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
@@ -36168,9 +36256,11 @@
         <v>104.33778752720721</v>
       </c>
       <c r="CN87" s="18">
-        <v>105.72612428451632</v>
-      </c>
-      <c r="CO87" s="11"/>
+        <v>105.69718700632853</v>
+      </c>
+      <c r="CO87" s="18">
+        <v>107.15023137264347</v>
+      </c>
       <c r="CP87" s="11"/>
       <c r="CQ87" s="11"/>
       <c r="CR87" s="11"/>
@@ -36509,9 +36599,11 @@
         <v>110.41240669809712</v>
       </c>
       <c r="CN88" s="18">
-        <v>110.82021824674517</v>
-      </c>
-      <c r="CO88" s="11"/>
+        <v>110.74048140294832</v>
+      </c>
+      <c r="CO88" s="18">
+        <v>112.60190853181744</v>
+      </c>
       <c r="CP88" s="11"/>
       <c r="CQ88" s="11"/>
       <c r="CR88" s="11"/>
@@ -36667,7 +36759,7 @@
       <c r="CL89" s="17"/>
       <c r="CM89" s="17"/>
       <c r="CN89" s="17"/>
-      <c r="CO89" s="11"/>
+      <c r="CO89" s="17"/>
       <c r="CP89" s="11"/>
       <c r="CQ89" s="11"/>
       <c r="CR89" s="11"/>
@@ -37006,9 +37098,11 @@
         <v>106.65269975947143</v>
       </c>
       <c r="CN90" s="18">
-        <v>107.69025474929575</v>
-      </c>
-      <c r="CO90" s="11"/>
+        <v>107.65010262166564</v>
+      </c>
+      <c r="CO90" s="18">
+        <v>109.15249240240183</v>
+      </c>
       <c r="CP90" s="11"/>
       <c r="CQ90" s="11"/>
       <c r="CR90" s="11"/>
@@ -37165,6 +37259,7 @@
       <c r="CL91" s="15"/>
       <c r="CM91" s="15"/>
       <c r="CN91" s="15"/>
+      <c r="CO91" s="15"/>
     </row>
     <row r="92" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="16" t="s">
@@ -37261,6 +37356,7 @@
       <c r="CL92" s="1"/>
       <c r="CM92" s="1"/>
       <c r="CN92" s="1"/>
+      <c r="CO92" s="1"/>
     </row>
     <row r="93" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
@@ -37354,6 +37450,7 @@
       <c r="CL93" s="1"/>
       <c r="CM93" s="1"/>
       <c r="CN93" s="1"/>
+      <c r="CO93" s="1"/>
     </row>
     <row r="94" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
@@ -37447,6 +37544,7 @@
       <c r="CL94" s="1"/>
       <c r="CM94" s="1"/>
       <c r="CN94" s="1"/>
+      <c r="CO94" s="1"/>
     </row>
     <row r="95" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
@@ -37543,6 +37641,7 @@
       <c r="CL95" s="1"/>
       <c r="CM95" s="1"/>
       <c r="CN95" s="1"/>
+      <c r="CO95" s="1"/>
     </row>
     <row r="96" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
@@ -37639,10 +37738,11 @@
       <c r="CL96" s="1"/>
       <c r="CM96" s="1"/>
       <c r="CN96" s="1"/>
+      <c r="CO96" s="1"/>
     </row>
     <row r="97" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -37735,6 +37835,7 @@
       <c r="CL97" s="1"/>
       <c r="CM97" s="1"/>
       <c r="CN97" s="1"/>
+      <c r="CO97" s="1"/>
     </row>
     <row r="98" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
@@ -37829,6 +37930,7 @@
       <c r="CL98" s="1"/>
       <c r="CM98" s="1"/>
       <c r="CN98" s="1"/>
+      <c r="CO98" s="1"/>
     </row>
     <row r="99" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
@@ -37925,10 +38027,11 @@
       <c r="CL99" s="1"/>
       <c r="CM99" s="1"/>
       <c r="CN99" s="1"/>
+      <c r="CO99" s="1"/>
     </row>
     <row r="100" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -38021,6 +38124,7 @@
       <c r="CL100" s="1"/>
       <c r="CM100" s="1"/>
       <c r="CN100" s="1"/>
+      <c r="CO100" s="1"/>
     </row>
     <row r="101" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
@@ -38117,6 +38221,7 @@
       <c r="CL101" s="1"/>
       <c r="CM101" s="1"/>
       <c r="CN101" s="1"/>
+      <c r="CO101" s="1"/>
     </row>
     <row r="102" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
@@ -38211,6 +38316,7 @@
       <c r="CL102" s="1"/>
       <c r="CM102" s="1"/>
       <c r="CN102" s="1"/>
+      <c r="CO102" s="1"/>
     </row>
     <row r="103" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
@@ -38351,6 +38457,7 @@
       </c>
       <c r="CM103" s="22"/>
       <c r="CN103" s="22"/>
+      <c r="CO103" s="22"/>
     </row>
     <row r="104" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
@@ -38628,6 +38735,9 @@
       </c>
       <c r="CN104" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="CO104" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -38723,6 +38833,7 @@
       <c r="CL105" s="1"/>
       <c r="CM105" s="1"/>
       <c r="CN105" s="1"/>
+      <c r="CO105" s="1"/>
     </row>
     <row r="106" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
@@ -38999,9 +39110,11 @@
         <v>60.548683855514476</v>
       </c>
       <c r="CN106" s="18">
-        <v>60.322346794739168</v>
-      </c>
-      <c r="CO106" s="11"/>
+        <v>60.165339824341004</v>
+      </c>
+      <c r="CO106" s="18">
+        <v>62.111914581907776</v>
+      </c>
       <c r="CP106" s="11"/>
       <c r="CQ106" s="11"/>
       <c r="CR106" s="11"/>
@@ -39340,9 +39453,11 @@
         <v>39.451316144485538</v>
       </c>
       <c r="CN107" s="18">
-        <v>39.677653205260839</v>
-      </c>
-      <c r="CO107" s="11"/>
+        <v>39.834660175658982</v>
+      </c>
+      <c r="CO107" s="18">
+        <v>37.888085418092231</v>
+      </c>
       <c r="CP107" s="11"/>
       <c r="CQ107" s="11"/>
       <c r="CR107" s="11"/>
@@ -39498,7 +39613,7 @@
       <c r="CL108" s="17"/>
       <c r="CM108" s="17"/>
       <c r="CN108" s="17"/>
-      <c r="CO108" s="11"/>
+      <c r="CO108" s="17"/>
       <c r="CP108" s="11"/>
       <c r="CQ108" s="11"/>
       <c r="CR108" s="11"/>
@@ -39839,7 +39954,9 @@
       <c r="CN109" s="18">
         <v>100</v>
       </c>
-      <c r="CO109" s="11"/>
+      <c r="CO109" s="18">
+        <v>100</v>
+      </c>
       <c r="CP109" s="11"/>
       <c r="CQ109" s="11"/>
       <c r="CR109" s="11"/>
@@ -39996,6 +40113,7 @@
       <c r="CL110" s="15"/>
       <c r="CM110" s="15"/>
       <c r="CN110" s="15"/>
+      <c r="CO110" s="15"/>
     </row>
     <row r="111" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="16" t="s">
@@ -40092,6 +40210,7 @@
       <c r="CL111" s="1"/>
       <c r="CM111" s="1"/>
       <c r="CN111" s="1"/>
+      <c r="CO111" s="1"/>
     </row>
     <row r="112" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="17"/>
@@ -40185,7 +40304,7 @@
       <c r="CL112" s="17"/>
       <c r="CM112" s="17"/>
       <c r="CN112" s="17"/>
-      <c r="CO112" s="11"/>
+      <c r="CO112" s="17"/>
       <c r="CP112" s="11"/>
       <c r="CQ112" s="11"/>
       <c r="CR112" s="11"/>
@@ -40341,7 +40460,7 @@
       <c r="CL113" s="17"/>
       <c r="CM113" s="17"/>
       <c r="CN113" s="17"/>
-      <c r="CO113" s="11"/>
+      <c r="CO113" s="17"/>
       <c r="CP113" s="11"/>
       <c r="CQ113" s="11"/>
       <c r="CR113" s="11"/>
@@ -40500,6 +40619,7 @@
       <c r="CL114" s="1"/>
       <c r="CM114" s="1"/>
       <c r="CN114" s="1"/>
+      <c r="CO114" s="1"/>
     </row>
     <row r="115" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
@@ -40596,10 +40716,11 @@
       <c r="CL115" s="1"/>
       <c r="CM115" s="1"/>
       <c r="CN115" s="1"/>
+      <c r="CO115" s="1"/>
     </row>
     <row r="116" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -40692,6 +40813,7 @@
       <c r="CL116" s="1"/>
       <c r="CM116" s="1"/>
       <c r="CN116" s="1"/>
+      <c r="CO116" s="1"/>
     </row>
     <row r="117" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
@@ -40786,6 +40908,7 @@
       <c r="CL117" s="1"/>
       <c r="CM117" s="1"/>
       <c r="CN117" s="1"/>
+      <c r="CO117" s="1"/>
     </row>
     <row r="118" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
@@ -40882,10 +41005,11 @@
       <c r="CL118" s="1"/>
       <c r="CM118" s="1"/>
       <c r="CN118" s="1"/>
+      <c r="CO118" s="1"/>
     </row>
     <row r="119" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -40978,6 +41102,7 @@
       <c r="CL119" s="1"/>
       <c r="CM119" s="1"/>
       <c r="CN119" s="1"/>
+      <c r="CO119" s="1"/>
     </row>
     <row r="120" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
@@ -41074,6 +41199,7 @@
       <c r="CL120" s="1"/>
       <c r="CM120" s="1"/>
       <c r="CN120" s="1"/>
+      <c r="CO120" s="1"/>
     </row>
     <row r="121" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
@@ -41168,6 +41294,7 @@
       <c r="CL121" s="1"/>
       <c r="CM121" s="1"/>
       <c r="CN121" s="1"/>
+      <c r="CO121" s="1"/>
     </row>
     <row r="122" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
@@ -41308,6 +41435,7 @@
       </c>
       <c r="CM122" s="22"/>
       <c r="CN122" s="22"/>
+      <c r="CO122" s="22"/>
     </row>
     <row r="123" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
@@ -41585,6 +41713,9 @@
       </c>
       <c r="CN123" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="CO123" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -41680,6 +41811,7 @@
       <c r="CL124" s="1"/>
       <c r="CM124" s="1"/>
       <c r="CN124" s="1"/>
+      <c r="CO124" s="1"/>
     </row>
     <row r="125" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
@@ -41956,9 +42088,11 @@
         <v>61.89205994414467</v>
       </c>
       <c r="CN125" s="18">
-        <v>61.442987126997039</v>
-      </c>
-      <c r="CO125" s="11"/>
+        <v>61.276985601990539</v>
+      </c>
+      <c r="CO125" s="18">
+        <v>63.272567848427798</v>
+      </c>
       <c r="CP125" s="11"/>
       <c r="CQ125" s="11"/>
       <c r="CR125" s="11"/>
@@ -42297,9 +42431,11 @@
         <v>38.10794005585533</v>
       </c>
       <c r="CN126" s="18">
-        <v>38.557012873002954</v>
-      </c>
-      <c r="CO126" s="11"/>
+        <v>38.723014398009461</v>
+      </c>
+      <c r="CO126" s="18">
+        <v>36.727432151572202</v>
+      </c>
       <c r="CP126" s="11"/>
       <c r="CQ126" s="11"/>
       <c r="CR126" s="11"/>
@@ -42455,7 +42591,7 @@
       <c r="CL127" s="17"/>
       <c r="CM127" s="17"/>
       <c r="CN127" s="17"/>
-      <c r="CO127" s="11"/>
+      <c r="CO127" s="17"/>
       <c r="CP127" s="11"/>
       <c r="CQ127" s="11"/>
       <c r="CR127" s="11"/>
@@ -42796,7 +42932,9 @@
       <c r="CN128" s="18">
         <v>100</v>
       </c>
-      <c r="CO128" s="11"/>
+      <c r="CO128" s="18">
+        <v>100</v>
+      </c>
       <c r="CP128" s="11"/>
       <c r="CQ128" s="11"/>
       <c r="CR128" s="11"/>
@@ -42860,7 +42998,7 @@
       <c r="EX128" s="11"/>
       <c r="EY128" s="11"/>
     </row>
-    <row r="129" spans="1:92" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:93" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="15"/>
       <c r="B129" s="15"/>
       <c r="C129" s="15"/>
@@ -42953,8 +43091,9 @@
       <c r="CL129" s="15"/>
       <c r="CM129" s="15"/>
       <c r="CN129" s="15"/>
+      <c r="CO129" s="15"/>
     </row>
-    <row r="130" spans="1:92" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:93" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="16" t="s">
         <v>0</v>
       </c>
@@ -43049,113 +43188,63 @@
       <c r="CL130" s="1"/>
       <c r="CM130" s="1"/>
       <c r="CN130" s="1"/>
+      <c r="CO130" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="161">
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH28:CK28"/>
-    <mergeCell ref="CL9:CN9"/>
-    <mergeCell ref="CL28:CN28"/>
-    <mergeCell ref="CH47:CJ47"/>
-    <mergeCell ref="CL47:CM47"/>
-    <mergeCell ref="CH66:CJ66"/>
-    <mergeCell ref="CL66:CM66"/>
-    <mergeCell ref="CL84:CN84"/>
-    <mergeCell ref="CL103:CN103"/>
-    <mergeCell ref="CL122:CN122"/>
+    <mergeCell ref="CL103:CO103"/>
+    <mergeCell ref="CL122:CO122"/>
+    <mergeCell ref="BZ47:CC47"/>
+    <mergeCell ref="BZ66:CC66"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD122:CG122"/>
+    <mergeCell ref="CD103:CG103"/>
+    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="CD28:CG28"/>
+    <mergeCell ref="BZ103:CC103"/>
+    <mergeCell ref="BZ84:CC84"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BZ122:CC122"/>
     <mergeCell ref="CD47:CG47"/>
     <mergeCell ref="CD66:CG66"/>
     <mergeCell ref="CH84:CK84"/>
     <mergeCell ref="CH103:CK103"/>
     <mergeCell ref="CH122:CK122"/>
     <mergeCell ref="BZ28:CC28"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="BR122:BU122"/>
-    <mergeCell ref="BV122:BY122"/>
-    <mergeCell ref="BV66:BY66"/>
-    <mergeCell ref="BR66:BU66"/>
-    <mergeCell ref="BR84:BU84"/>
-    <mergeCell ref="BR103:BU103"/>
-    <mergeCell ref="AX66:BA66"/>
-    <mergeCell ref="BB66:BE66"/>
-    <mergeCell ref="BF66:BI66"/>
-    <mergeCell ref="BJ66:BM66"/>
-    <mergeCell ref="BN66:BQ66"/>
-    <mergeCell ref="BJ28:BM28"/>
-    <mergeCell ref="BN28:BQ28"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="R47:U47"/>
-    <mergeCell ref="V47:Y47"/>
-    <mergeCell ref="Z47:AC47"/>
-    <mergeCell ref="AD47:AG47"/>
-    <mergeCell ref="AH47:AK47"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="BR47:BU47"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH28:CK28"/>
+    <mergeCell ref="CL47:CM47"/>
+    <mergeCell ref="CL66:CM66"/>
+    <mergeCell ref="CL9:CO9"/>
+    <mergeCell ref="BF122:BI122"/>
+    <mergeCell ref="BJ122:BM122"/>
+    <mergeCell ref="BN122:BQ122"/>
+    <mergeCell ref="BJ103:BM103"/>
+    <mergeCell ref="BN103:BQ103"/>
+    <mergeCell ref="BF84:BI84"/>
+    <mergeCell ref="BJ84:BM84"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="BV47:BY47"/>
+    <mergeCell ref="BV84:BY84"/>
+    <mergeCell ref="BV103:BY103"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BV28:BY28"/>
+    <mergeCell ref="BF28:BI28"/>
     <mergeCell ref="BR28:BU28"/>
     <mergeCell ref="BR9:BU9"/>
     <mergeCell ref="BJ9:BM9"/>
     <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="V28:Y28"/>
-    <mergeCell ref="Z28:AC28"/>
-    <mergeCell ref="AH28:AK28"/>
-    <mergeCell ref="AL28:AO28"/>
-    <mergeCell ref="AP28:AS28"/>
-    <mergeCell ref="AT28:AW28"/>
-    <mergeCell ref="AX28:BA28"/>
-    <mergeCell ref="BB28:BE28"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="BF28:BI28"/>
-    <mergeCell ref="AL47:AO47"/>
-    <mergeCell ref="AP47:AS47"/>
-    <mergeCell ref="AT47:AW47"/>
-    <mergeCell ref="AX47:BA47"/>
-    <mergeCell ref="BJ47:BM47"/>
-    <mergeCell ref="BN47:BQ47"/>
-    <mergeCell ref="BB47:BE47"/>
-    <mergeCell ref="BF47:BI47"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="N66:Q66"/>
-    <mergeCell ref="R66:U66"/>
-    <mergeCell ref="V66:Y66"/>
-    <mergeCell ref="Z66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AK66"/>
-    <mergeCell ref="Z84:AC84"/>
-    <mergeCell ref="AD84:AG84"/>
-    <mergeCell ref="AH84:AK84"/>
-    <mergeCell ref="AL66:AO66"/>
-    <mergeCell ref="AP66:AS66"/>
-    <mergeCell ref="AT66:AW66"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="V84:Y84"/>
+    <mergeCell ref="BJ28:BM28"/>
+    <mergeCell ref="BN28:BQ28"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:M122"/>
+    <mergeCell ref="N122:Q122"/>
+    <mergeCell ref="R122:U122"/>
+    <mergeCell ref="V122:Y122"/>
+    <mergeCell ref="Z122:AC122"/>
+    <mergeCell ref="AD122:AG122"/>
+    <mergeCell ref="AH122:AK122"/>
     <mergeCell ref="AL122:AO122"/>
     <mergeCell ref="AP122:AS122"/>
     <mergeCell ref="AT122:AW122"/>
@@ -43180,48 +43269,99 @@
     <mergeCell ref="AT84:AW84"/>
     <mergeCell ref="AX84:BA84"/>
     <mergeCell ref="BB84:BE84"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="N122:Q122"/>
-    <mergeCell ref="R122:U122"/>
-    <mergeCell ref="V122:Y122"/>
-    <mergeCell ref="Z122:AC122"/>
-    <mergeCell ref="AD122:AG122"/>
-    <mergeCell ref="AH122:AK122"/>
-    <mergeCell ref="BZ47:CC47"/>
-    <mergeCell ref="BZ66:CC66"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD122:CG122"/>
-    <mergeCell ref="CD103:CG103"/>
-    <mergeCell ref="CD84:CG84"/>
-    <mergeCell ref="CD28:CG28"/>
-    <mergeCell ref="BF122:BI122"/>
-    <mergeCell ref="BJ122:BM122"/>
-    <mergeCell ref="BN122:BQ122"/>
-    <mergeCell ref="BJ103:BM103"/>
-    <mergeCell ref="BN103:BQ103"/>
-    <mergeCell ref="BF84:BI84"/>
-    <mergeCell ref="BJ84:BM84"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="BV47:BY47"/>
-    <mergeCell ref="BZ103:CC103"/>
-    <mergeCell ref="BV84:BY84"/>
-    <mergeCell ref="BZ84:CC84"/>
-    <mergeCell ref="BV103:BY103"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BZ122:CC122"/>
-    <mergeCell ref="BV28:BY28"/>
+    <mergeCell ref="Z84:AC84"/>
+    <mergeCell ref="AD84:AG84"/>
+    <mergeCell ref="AH84:AK84"/>
+    <mergeCell ref="AL66:AO66"/>
+    <mergeCell ref="AP66:AS66"/>
+    <mergeCell ref="AT66:AW66"/>
+    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="V84:Y84"/>
+    <mergeCell ref="BJ47:BM47"/>
+    <mergeCell ref="BN47:BQ47"/>
+    <mergeCell ref="BB47:BE47"/>
+    <mergeCell ref="BF47:BI47"/>
+    <mergeCell ref="BR47:BU47"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="R66:U66"/>
+    <mergeCell ref="V66:Y66"/>
+    <mergeCell ref="Z66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AK66"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="AP28:AS28"/>
+    <mergeCell ref="AT28:AW28"/>
+    <mergeCell ref="AX28:BA28"/>
+    <mergeCell ref="BB28:BE28"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="V28:Y28"/>
+    <mergeCell ref="Z28:AC28"/>
+    <mergeCell ref="AH28:AK28"/>
+    <mergeCell ref="AL28:AO28"/>
+    <mergeCell ref="AL47:AO47"/>
+    <mergeCell ref="AP47:AS47"/>
+    <mergeCell ref="AT47:AW47"/>
+    <mergeCell ref="AX47:BA47"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="CL28:CO28"/>
+    <mergeCell ref="CH47:CK47"/>
+    <mergeCell ref="CH66:CK66"/>
+    <mergeCell ref="CL84:CO84"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="BR122:BU122"/>
+    <mergeCell ref="BV122:BY122"/>
+    <mergeCell ref="BV66:BY66"/>
+    <mergeCell ref="BR66:BU66"/>
+    <mergeCell ref="BR84:BU84"/>
+    <mergeCell ref="BR103:BU103"/>
+    <mergeCell ref="AX66:BA66"/>
+    <mergeCell ref="BB66:BE66"/>
+    <mergeCell ref="BF66:BI66"/>
+    <mergeCell ref="BJ66:BM66"/>
+    <mergeCell ref="BN66:BQ66"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="R47:U47"/>
+    <mergeCell ref="V47:Y47"/>
+    <mergeCell ref="Z47:AC47"/>
+    <mergeCell ref="AD47:AG47"/>
+    <mergeCell ref="AH47:AK47"/>
+    <mergeCell ref="B47:E47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="91" man="1"/>
-    <brk id="76" max="91" man="1"/>
-    <brk id="94" max="91" man="1"/>
+    <brk id="38" max="92" man="1"/>
+    <brk id="76" max="92" man="1"/>
+    <brk id="94" max="92" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-21OS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-21OS_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CC3CE9-9753-4827-888C-534D8E1C6F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68717BC-04BF-45C0-AC94-CE5B383C31D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="3150" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OS" sheetId="15" r:id="rId1"/>
@@ -615,13 +615,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of January 2023</t>
-  </si>
-  <si>
     <t>Q1 2000 to Q4 2022</t>
   </si>
   <si>
     <t>Q1 2001 to Q4 2022</t>
+  </si>
+  <si>
+    <t>As of April 2023</t>
   </si>
 </sst>
 </file>
@@ -726,7 +726,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -754,9 +754,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23614,7 +23611,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23628,9 +23625,9 @@
   <dimension ref="A1:EY130"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CD1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="BS1" activePane="topRight" state="frozen"/>
       <selection activeCell="CE141" sqref="CA141:CE149"/>
-      <selection pane="topRight" activeCell="CH1" sqref="CH1:CO1048576"/>
+      <selection pane="topRight" activeCell="CD1" sqref="CD1:CO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -23652,7 +23649,7 @@
     </row>
     <row r="3" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23665,7 +23662,7 @@
     </row>
     <row r="6" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23770,144 +23767,144 @@
     </row>
     <row r="9" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="22">
+      <c r="B9" s="19">
         <v>2000</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19">
         <v>2001</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22">
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19">
         <v>2002</v>
       </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22">
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19">
         <v>2003</v>
       </c>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22">
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19">
         <v>2004</v>
       </c>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22">
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19">
         <v>2005</v>
       </c>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22">
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19">
         <v>2006</v>
       </c>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="22">
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19">
         <v>2007</v>
       </c>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="22"/>
-      <c r="AH9" s="22">
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19">
         <v>2008</v>
       </c>
-      <c r="AI9" s="22"/>
-      <c r="AJ9" s="22"/>
-      <c r="AK9" s="22"/>
-      <c r="AL9" s="22">
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="19">
         <v>2009</v>
       </c>
-      <c r="AM9" s="22"/>
-      <c r="AN9" s="22"/>
-      <c r="AO9" s="22"/>
-      <c r="AP9" s="22">
+      <c r="AM9" s="19"/>
+      <c r="AN9" s="19"/>
+      <c r="AO9" s="19"/>
+      <c r="AP9" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="22"/>
-      <c r="AR9" s="22"/>
-      <c r="AS9" s="22"/>
-      <c r="AT9" s="22">
+      <c r="AQ9" s="19"/>
+      <c r="AR9" s="19"/>
+      <c r="AS9" s="19"/>
+      <c r="AT9" s="19">
         <v>2011</v>
       </c>
-      <c r="AU9" s="22"/>
-      <c r="AV9" s="22"/>
-      <c r="AW9" s="22"/>
-      <c r="AX9" s="22">
+      <c r="AU9" s="19"/>
+      <c r="AV9" s="19"/>
+      <c r="AW9" s="19"/>
+      <c r="AX9" s="19">
         <v>2012</v>
       </c>
-      <c r="AY9" s="22"/>
-      <c r="AZ9" s="22"/>
-      <c r="BA9" s="22"/>
-      <c r="BB9" s="22">
+      <c r="AY9" s="19"/>
+      <c r="AZ9" s="19"/>
+      <c r="BA9" s="19"/>
+      <c r="BB9" s="19">
         <v>2013</v>
       </c>
-      <c r="BC9" s="22"/>
-      <c r="BD9" s="22"/>
-      <c r="BE9" s="22"/>
-      <c r="BF9" s="22">
+      <c r="BC9" s="19"/>
+      <c r="BD9" s="19"/>
+      <c r="BE9" s="19"/>
+      <c r="BF9" s="19">
         <v>2014</v>
       </c>
-      <c r="BG9" s="22"/>
-      <c r="BH9" s="22"/>
-      <c r="BI9" s="22"/>
-      <c r="BJ9" s="22">
+      <c r="BG9" s="19"/>
+      <c r="BH9" s="19"/>
+      <c r="BI9" s="19"/>
+      <c r="BJ9" s="19">
         <v>2015</v>
       </c>
-      <c r="BK9" s="22"/>
-      <c r="BL9" s="22"/>
-      <c r="BM9" s="22"/>
-      <c r="BN9" s="22">
+      <c r="BK9" s="19"/>
+      <c r="BL9" s="19"/>
+      <c r="BM9" s="19"/>
+      <c r="BN9" s="19">
         <v>2016</v>
       </c>
-      <c r="BO9" s="22"/>
-      <c r="BP9" s="22"/>
-      <c r="BQ9" s="22"/>
-      <c r="BR9" s="22">
+      <c r="BO9" s="19"/>
+      <c r="BP9" s="19"/>
+      <c r="BQ9" s="19"/>
+      <c r="BR9" s="19">
         <v>2017</v>
       </c>
-      <c r="BS9" s="22"/>
-      <c r="BT9" s="22"/>
-      <c r="BU9" s="22"/>
-      <c r="BV9" s="22">
+      <c r="BS9" s="19"/>
+      <c r="BT9" s="19"/>
+      <c r="BU9" s="19"/>
+      <c r="BV9" s="19">
         <v>2018</v>
       </c>
-      <c r="BW9" s="22"/>
-      <c r="BX9" s="22"/>
-      <c r="BY9" s="22"/>
-      <c r="BZ9" s="22">
+      <c r="BW9" s="19"/>
+      <c r="BX9" s="19"/>
+      <c r="BY9" s="19"/>
+      <c r="BZ9" s="19">
         <v>2019</v>
       </c>
-      <c r="CA9" s="22"/>
-      <c r="CB9" s="22"/>
-      <c r="CC9" s="22"/>
-      <c r="CD9" s="22">
+      <c r="CA9" s="19"/>
+      <c r="CB9" s="19"/>
+      <c r="CC9" s="19"/>
+      <c r="CD9" s="19">
         <v>2020</v>
       </c>
-      <c r="CE9" s="22"/>
-      <c r="CF9" s="22"/>
-      <c r="CG9" s="22"/>
-      <c r="CH9" s="22">
+      <c r="CE9" s="19"/>
+      <c r="CF9" s="19"/>
+      <c r="CG9" s="19"/>
+      <c r="CH9" s="19">
         <v>2021</v>
       </c>
-      <c r="CI9" s="22"/>
-      <c r="CJ9" s="22"/>
-      <c r="CK9" s="22"/>
-      <c r="CL9" s="22">
+      <c r="CI9" s="19"/>
+      <c r="CJ9" s="19"/>
+      <c r="CK9" s="19"/>
+      <c r="CL9" s="19">
         <v>2022</v>
       </c>
-      <c r="CM9" s="22"/>
-      <c r="CN9" s="22"/>
-      <c r="CO9" s="22"/>
+      <c r="CM9" s="19"/>
+      <c r="CN9" s="19"/>
+      <c r="CO9" s="19"/>
     </row>
     <row r="10" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24541,29 +24538,29 @@
       <c r="CG12" s="10">
         <v>39353.861632009895</v>
       </c>
-      <c r="CH12" s="19">
+      <c r="CH12" s="10">
         <v>34359.79005139049</v>
       </c>
-      <c r="CI12" s="19">
+      <c r="CI12" s="10">
         <v>32934.632216273138</v>
       </c>
-      <c r="CJ12" s="19">
+      <c r="CJ12" s="10">
         <v>31101.235178779076</v>
       </c>
-      <c r="CK12" s="19">
-        <v>58229.620492636881</v>
-      </c>
-      <c r="CL12" s="19">
-        <v>44043.064011298673</v>
-      </c>
-      <c r="CM12" s="19">
-        <v>52367.679959474917</v>
-      </c>
-      <c r="CN12" s="19">
-        <v>48345.946832546717</v>
-      </c>
-      <c r="CO12" s="19">
-        <v>71466.395621412157</v>
+      <c r="CK12" s="10">
+        <v>58285.980798410397</v>
+      </c>
+      <c r="CL12" s="10">
+        <v>44173.952257399738</v>
+      </c>
+      <c r="CM12" s="10">
+        <v>52336.697097351629</v>
+      </c>
+      <c r="CN12" s="10">
+        <v>48353.552505266598</v>
+      </c>
+      <c r="CO12" s="10">
+        <v>71982.007955611291</v>
       </c>
       <c r="CP12" s="11"/>
       <c r="CQ12" s="11"/>
@@ -24884,29 +24881,29 @@
       <c r="CG13" s="10">
         <v>33236.548627112723</v>
       </c>
-      <c r="CH13" s="19">
+      <c r="CH13" s="10">
         <v>32815.823343175747</v>
       </c>
-      <c r="CI13" s="19">
+      <c r="CI13" s="10">
         <v>28765.181851902711</v>
       </c>
-      <c r="CJ13" s="19">
+      <c r="CJ13" s="10">
         <v>26148.897222831041</v>
       </c>
-      <c r="CK13" s="19">
-        <v>36654.966179066811</v>
-      </c>
-      <c r="CL13" s="19">
-        <v>39176.561462143989</v>
-      </c>
-      <c r="CM13" s="19">
-        <v>34120.87210292559</v>
-      </c>
-      <c r="CN13" s="19">
-        <v>32009.199458819297</v>
-      </c>
-      <c r="CO13" s="19">
-        <v>43594.291369919454</v>
+      <c r="CK13" s="10">
+        <v>36649.135463693521</v>
+      </c>
+      <c r="CL13" s="10">
+        <v>39201.392208936297</v>
+      </c>
+      <c r="CM13" s="10">
+        <v>34113.964358649384</v>
+      </c>
+      <c r="CN13" s="10">
+        <v>31980.411933406729</v>
+      </c>
+      <c r="CO13" s="10">
+        <v>43437.215392067759</v>
       </c>
       <c r="CP13" s="11"/>
       <c r="CQ13" s="11"/>
@@ -25056,14 +25053,14 @@
       <c r="CE14" s="13"/>
       <c r="CF14" s="13"/>
       <c r="CG14" s="13"/>
-      <c r="CH14" s="20"/>
-      <c r="CI14" s="20"/>
-      <c r="CJ14" s="20"/>
-      <c r="CK14" s="20"/>
-      <c r="CL14" s="20"/>
-      <c r="CM14" s="20"/>
-      <c r="CN14" s="20"/>
-      <c r="CO14" s="20"/>
+      <c r="CH14" s="13"/>
+      <c r="CI14" s="13"/>
+      <c r="CJ14" s="13"/>
+      <c r="CK14" s="13"/>
+      <c r="CL14" s="13"/>
+      <c r="CM14" s="13"/>
+      <c r="CN14" s="13"/>
+      <c r="CO14" s="13"/>
       <c r="CP14" s="11"/>
       <c r="CQ14" s="11"/>
       <c r="CR14" s="11"/>
@@ -25383,29 +25380,29 @@
       <c r="CG15" s="13">
         <v>72590.410259122611</v>
       </c>
-      <c r="CH15" s="20">
+      <c r="CH15" s="13">
         <v>67175.61339456623</v>
       </c>
-      <c r="CI15" s="20">
+      <c r="CI15" s="13">
         <v>61699.814068175852</v>
       </c>
-      <c r="CJ15" s="20">
+      <c r="CJ15" s="13">
         <v>57250.132401610113</v>
       </c>
-      <c r="CK15" s="20">
-        <v>94884.586671703699</v>
-      </c>
-      <c r="CL15" s="20">
-        <v>83219.625473442662</v>
-      </c>
-      <c r="CM15" s="20">
-        <v>86488.5520624005</v>
-      </c>
-      <c r="CN15" s="20">
-        <v>80355.146291366022</v>
-      </c>
-      <c r="CO15" s="20">
-        <v>115060.6869913316</v>
+      <c r="CK15" s="13">
+        <v>94935.116262103926</v>
+      </c>
+      <c r="CL15" s="13">
+        <v>83375.344466336042</v>
+      </c>
+      <c r="CM15" s="13">
+        <v>86450.66145600102</v>
+      </c>
+      <c r="CN15" s="13">
+        <v>80333.964438673327</v>
+      </c>
+      <c r="CO15" s="13">
+        <v>115419.22334767904</v>
       </c>
       <c r="CP15" s="11"/>
       <c r="CQ15" s="11"/>
@@ -26170,7 +26167,7 @@
     </row>
     <row r="22" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -26459,7 +26456,7 @@
     </row>
     <row r="25" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -26748,144 +26745,144 @@
     </row>
     <row r="28" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
-      <c r="B28" s="22">
+      <c r="B28" s="19">
         <v>2000</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="22">
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="19">
         <v>2001</v>
       </c>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="22">
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="19">
         <v>2002</v>
       </c>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="22">
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="19">
         <v>2003</v>
       </c>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="22">
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="19">
         <v>2004</v>
       </c>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="22">
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="19">
         <v>2005</v>
       </c>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="22">
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="19">
         <v>2006</v>
       </c>
-      <c r="AA28" s="23"/>
-      <c r="AB28" s="23"/>
-      <c r="AC28" s="23"/>
-      <c r="AD28" s="22">
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="19">
         <v>2007</v>
       </c>
-      <c r="AE28" s="23"/>
-      <c r="AF28" s="23"/>
-      <c r="AG28" s="23"/>
-      <c r="AH28" s="22">
+      <c r="AE28" s="20"/>
+      <c r="AF28" s="20"/>
+      <c r="AG28" s="20"/>
+      <c r="AH28" s="19">
         <v>2008</v>
       </c>
-      <c r="AI28" s="23"/>
-      <c r="AJ28" s="23"/>
-      <c r="AK28" s="23"/>
-      <c r="AL28" s="22">
+      <c r="AI28" s="20"/>
+      <c r="AJ28" s="20"/>
+      <c r="AK28" s="20"/>
+      <c r="AL28" s="19">
         <v>2009</v>
       </c>
-      <c r="AM28" s="23"/>
-      <c r="AN28" s="23"/>
-      <c r="AO28" s="23"/>
-      <c r="AP28" s="22">
+      <c r="AM28" s="20"/>
+      <c r="AN28" s="20"/>
+      <c r="AO28" s="20"/>
+      <c r="AP28" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="23"/>
-      <c r="AR28" s="23"/>
-      <c r="AS28" s="23"/>
-      <c r="AT28" s="22">
+      <c r="AQ28" s="20"/>
+      <c r="AR28" s="20"/>
+      <c r="AS28" s="20"/>
+      <c r="AT28" s="19">
         <v>2011</v>
       </c>
-      <c r="AU28" s="23"/>
-      <c r="AV28" s="23"/>
-      <c r="AW28" s="23"/>
-      <c r="AX28" s="22">
+      <c r="AU28" s="20"/>
+      <c r="AV28" s="20"/>
+      <c r="AW28" s="20"/>
+      <c r="AX28" s="19">
         <v>2012</v>
       </c>
-      <c r="AY28" s="23"/>
-      <c r="AZ28" s="23"/>
-      <c r="BA28" s="23"/>
-      <c r="BB28" s="22">
+      <c r="AY28" s="20"/>
+      <c r="AZ28" s="20"/>
+      <c r="BA28" s="20"/>
+      <c r="BB28" s="19">
         <v>2013</v>
       </c>
-      <c r="BC28" s="23"/>
-      <c r="BD28" s="23"/>
-      <c r="BE28" s="23"/>
-      <c r="BF28" s="22">
+      <c r="BC28" s="20"/>
+      <c r="BD28" s="20"/>
+      <c r="BE28" s="20"/>
+      <c r="BF28" s="19">
         <v>2014</v>
       </c>
-      <c r="BG28" s="23"/>
-      <c r="BH28" s="23"/>
-      <c r="BI28" s="23"/>
-      <c r="BJ28" s="22">
+      <c r="BG28" s="20"/>
+      <c r="BH28" s="20"/>
+      <c r="BI28" s="20"/>
+      <c r="BJ28" s="19">
         <v>2015</v>
       </c>
-      <c r="BK28" s="23"/>
-      <c r="BL28" s="23"/>
-      <c r="BM28" s="23"/>
-      <c r="BN28" s="22">
+      <c r="BK28" s="20"/>
+      <c r="BL28" s="20"/>
+      <c r="BM28" s="20"/>
+      <c r="BN28" s="19">
         <v>2016</v>
       </c>
-      <c r="BO28" s="23"/>
-      <c r="BP28" s="23"/>
-      <c r="BQ28" s="23"/>
-      <c r="BR28" s="22">
+      <c r="BO28" s="20"/>
+      <c r="BP28" s="20"/>
+      <c r="BQ28" s="20"/>
+      <c r="BR28" s="19">
         <v>2017</v>
       </c>
-      <c r="BS28" s="23"/>
-      <c r="BT28" s="23"/>
-      <c r="BU28" s="23"/>
-      <c r="BV28" s="22">
+      <c r="BS28" s="20"/>
+      <c r="BT28" s="20"/>
+      <c r="BU28" s="20"/>
+      <c r="BV28" s="19">
         <v>2018</v>
       </c>
-      <c r="BW28" s="22"/>
-      <c r="BX28" s="22"/>
-      <c r="BY28" s="22"/>
-      <c r="BZ28" s="22">
+      <c r="BW28" s="19"/>
+      <c r="BX28" s="19"/>
+      <c r="BY28" s="19"/>
+      <c r="BZ28" s="19">
         <v>2019</v>
       </c>
-      <c r="CA28" s="22"/>
-      <c r="CB28" s="22"/>
-      <c r="CC28" s="22"/>
-      <c r="CD28" s="22">
+      <c r="CA28" s="19"/>
+      <c r="CB28" s="19"/>
+      <c r="CC28" s="19"/>
+      <c r="CD28" s="19">
         <v>2020</v>
       </c>
-      <c r="CE28" s="22"/>
-      <c r="CF28" s="22"/>
-      <c r="CG28" s="22"/>
-      <c r="CH28" s="22">
+      <c r="CE28" s="19"/>
+      <c r="CF28" s="19"/>
+      <c r="CG28" s="19"/>
+      <c r="CH28" s="19">
         <v>2021</v>
       </c>
-      <c r="CI28" s="22"/>
-      <c r="CJ28" s="22"/>
-      <c r="CK28" s="22"/>
-      <c r="CL28" s="22">
+      <c r="CI28" s="19"/>
+      <c r="CJ28" s="19"/>
+      <c r="CK28" s="19"/>
+      <c r="CL28" s="19">
         <v>2022</v>
       </c>
-      <c r="CM28" s="22"/>
-      <c r="CN28" s="22"/>
-      <c r="CO28" s="22"/>
+      <c r="CM28" s="19"/>
+      <c r="CN28" s="19"/>
+      <c r="CO28" s="19"/>
     </row>
     <row r="29" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
@@ -27519,29 +27516,29 @@
       <c r="CG31" s="10">
         <v>37867.593372515308</v>
       </c>
-      <c r="CH31" s="19">
+      <c r="CH31" s="10">
         <v>33570.762662069799</v>
       </c>
-      <c r="CI31" s="19">
+      <c r="CI31" s="10">
         <v>31824.27086371804</v>
       </c>
-      <c r="CJ31" s="19">
+      <c r="CJ31" s="10">
         <v>29870.330912766793</v>
       </c>
-      <c r="CK31" s="19">
-        <v>55752.301880555846</v>
-      </c>
-      <c r="CL31" s="19">
-        <v>42540.061150244728</v>
-      </c>
-      <c r="CM31" s="19">
-        <v>50190.521766449645</v>
-      </c>
-      <c r="CN31" s="19">
-        <v>45740.050612370644</v>
-      </c>
-      <c r="CO31" s="19">
-        <v>66697.378723214075</v>
+      <c r="CK31" s="10">
+        <v>55806.264395766862</v>
+      </c>
+      <c r="CL31" s="10">
+        <v>42666.482735980899</v>
+      </c>
+      <c r="CM31" s="10">
+        <v>50160.827000193254</v>
+      </c>
+      <c r="CN31" s="10">
+        <v>45747.247224650651</v>
+      </c>
+      <c r="CO31" s="10">
+        <v>67178.583782310918</v>
       </c>
       <c r="CP31" s="11"/>
       <c r="CQ31" s="11"/>
@@ -27862,29 +27859,29 @@
       <c r="CG32" s="10">
         <v>30911.379465516111</v>
       </c>
-      <c r="CH32" s="19">
+      <c r="CH32" s="10">
         <v>29508.709154032811</v>
       </c>
-      <c r="CI32" s="19">
+      <c r="CI32" s="10">
         <v>26096.433565107174</v>
       </c>
-      <c r="CJ32" s="19">
+      <c r="CJ32" s="10">
         <v>23839.078751075409</v>
       </c>
-      <c r="CK32" s="19">
-        <v>33388.664453483907</v>
-      </c>
-      <c r="CL32" s="19">
-        <v>34848.050801933299</v>
-      </c>
-      <c r="CM32" s="19">
-        <v>30903.114172869165</v>
-      </c>
-      <c r="CN32" s="19">
-        <v>28904.695964205093</v>
-      </c>
-      <c r="CO32" s="19">
-        <v>38715.410722901914</v>
+      <c r="CK32" s="10">
+        <v>33383.353309608567</v>
+      </c>
+      <c r="CL32" s="10">
+        <v>34870.138067721156</v>
+      </c>
+      <c r="CM32" s="10">
+        <v>30896.857861207467</v>
+      </c>
+      <c r="CN32" s="10">
+        <v>28878.700203074994</v>
+      </c>
+      <c r="CO32" s="10">
+        <v>38575.913995093506</v>
       </c>
       <c r="CP32" s="11"/>
       <c r="CQ32" s="11"/>
@@ -28034,14 +28031,14 @@
       <c r="CE33" s="13"/>
       <c r="CF33" s="13"/>
       <c r="CG33" s="13"/>
-      <c r="CH33" s="20"/>
-      <c r="CI33" s="20"/>
-      <c r="CJ33" s="20"/>
-      <c r="CK33" s="20"/>
-      <c r="CL33" s="20"/>
-      <c r="CM33" s="20"/>
-      <c r="CN33" s="20"/>
-      <c r="CO33" s="20"/>
+      <c r="CH33" s="13"/>
+      <c r="CI33" s="13"/>
+      <c r="CJ33" s="13"/>
+      <c r="CK33" s="13"/>
+      <c r="CL33" s="13"/>
+      <c r="CM33" s="13"/>
+      <c r="CN33" s="13"/>
+      <c r="CO33" s="13"/>
       <c r="CP33" s="11"/>
       <c r="CQ33" s="11"/>
       <c r="CR33" s="11"/>
@@ -28361,29 +28358,29 @@
       <c r="CG34" s="13">
         <v>68778.972838031419</v>
       </c>
-      <c r="CH34" s="20">
+      <c r="CH34" s="13">
         <v>63079.47181610261</v>
       </c>
-      <c r="CI34" s="20">
+      <c r="CI34" s="13">
         <v>57920.704428825215</v>
       </c>
-      <c r="CJ34" s="20">
+      <c r="CJ34" s="13">
         <v>53709.409663842205</v>
       </c>
-      <c r="CK34" s="20">
-        <v>89140.966334039753</v>
-      </c>
-      <c r="CL34" s="20">
-        <v>77388.111952178035</v>
-      </c>
-      <c r="CM34" s="20">
-        <v>81093.635939318803</v>
-      </c>
-      <c r="CN34" s="20">
-        <v>74644.746576575737</v>
-      </c>
-      <c r="CO34" s="20">
-        <v>105412.78944611599</v>
+      <c r="CK34" s="13">
+        <v>89189.617705375422</v>
+      </c>
+      <c r="CL34" s="13">
+        <v>77536.620803702055</v>
+      </c>
+      <c r="CM34" s="13">
+        <v>81057.684861400718</v>
+      </c>
+      <c r="CN34" s="13">
+        <v>74625.947427725652</v>
+      </c>
+      <c r="CO34" s="13">
+        <v>105754.49777740442</v>
       </c>
       <c r="CP34" s="11"/>
       <c r="CQ34" s="11"/>
@@ -29148,7 +29145,7 @@
     </row>
     <row r="41" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -29437,7 +29434,7 @@
     </row>
     <row r="44" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -29620,6 +29617,14 @@
       <c r="CE45" s="1"/>
       <c r="CF45" s="1"/>
       <c r="CG45" s="1"/>
+      <c r="CH45" s="1"/>
+      <c r="CI45" s="1"/>
+      <c r="CJ45" s="1"/>
+      <c r="CK45" s="1"/>
+      <c r="CL45" s="1"/>
+      <c r="CM45" s="1"/>
+      <c r="CN45" s="1"/>
+      <c r="CO45" s="1"/>
     </row>
     <row r="46" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
@@ -29718,142 +29723,142 @@
     </row>
     <row r="47" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22" t="s">
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22" t="s">
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22" t="s">
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="22"/>
-      <c r="R47" s="22" t="s">
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="22"/>
-      <c r="T47" s="22"/>
-      <c r="U47" s="22"/>
-      <c r="V47" s="22" t="s">
+      <c r="S47" s="19"/>
+      <c r="T47" s="19"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="22"/>
-      <c r="X47" s="22"/>
-      <c r="Y47" s="22"/>
-      <c r="Z47" s="22" t="s">
+      <c r="W47" s="19"/>
+      <c r="X47" s="19"/>
+      <c r="Y47" s="19"/>
+      <c r="Z47" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="22"/>
-      <c r="AB47" s="22"/>
-      <c r="AC47" s="22"/>
-      <c r="AD47" s="22" t="s">
+      <c r="AA47" s="19"/>
+      <c r="AB47" s="19"/>
+      <c r="AC47" s="19"/>
+      <c r="AD47" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="22"/>
-      <c r="AF47" s="22"/>
-      <c r="AG47" s="22"/>
-      <c r="AH47" s="22" t="s">
+      <c r="AE47" s="19"/>
+      <c r="AF47" s="19"/>
+      <c r="AG47" s="19"/>
+      <c r="AH47" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="22"/>
-      <c r="AJ47" s="22"/>
-      <c r="AK47" s="22"/>
-      <c r="AL47" s="22" t="s">
+      <c r="AI47" s="19"/>
+      <c r="AJ47" s="19"/>
+      <c r="AK47" s="19"/>
+      <c r="AL47" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="22"/>
-      <c r="AN47" s="22"/>
-      <c r="AO47" s="22"/>
-      <c r="AP47" s="22" t="s">
+      <c r="AM47" s="19"/>
+      <c r="AN47" s="19"/>
+      <c r="AO47" s="19"/>
+      <c r="AP47" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="22"/>
-      <c r="AR47" s="22"/>
-      <c r="AS47" s="22"/>
-      <c r="AT47" s="22" t="s">
+      <c r="AQ47" s="19"/>
+      <c r="AR47" s="19"/>
+      <c r="AS47" s="19"/>
+      <c r="AT47" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="22"/>
-      <c r="AV47" s="22"/>
-      <c r="AW47" s="22"/>
-      <c r="AX47" s="22" t="s">
+      <c r="AU47" s="19"/>
+      <c r="AV47" s="19"/>
+      <c r="AW47" s="19"/>
+      <c r="AX47" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="22"/>
-      <c r="AZ47" s="22"/>
-      <c r="BA47" s="22"/>
-      <c r="BB47" s="22" t="s">
+      <c r="AY47" s="19"/>
+      <c r="AZ47" s="19"/>
+      <c r="BA47" s="19"/>
+      <c r="BB47" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="22"/>
-      <c r="BD47" s="22"/>
-      <c r="BE47" s="22"/>
-      <c r="BF47" s="22" t="s">
+      <c r="BC47" s="19"/>
+      <c r="BD47" s="19"/>
+      <c r="BE47" s="19"/>
+      <c r="BF47" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="22"/>
-      <c r="BH47" s="22"/>
-      <c r="BI47" s="22"/>
-      <c r="BJ47" s="22" t="s">
+      <c r="BG47" s="19"/>
+      <c r="BH47" s="19"/>
+      <c r="BI47" s="19"/>
+      <c r="BJ47" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="22"/>
-      <c r="BL47" s="22"/>
-      <c r="BM47" s="22"/>
-      <c r="BN47" s="22" t="s">
+      <c r="BK47" s="19"/>
+      <c r="BL47" s="19"/>
+      <c r="BM47" s="19"/>
+      <c r="BN47" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="22"/>
-      <c r="BP47" s="22"/>
-      <c r="BQ47" s="22"/>
-      <c r="BR47" s="22" t="s">
+      <c r="BO47" s="19"/>
+      <c r="BP47" s="19"/>
+      <c r="BQ47" s="19"/>
+      <c r="BR47" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="BS47" s="22"/>
-      <c r="BT47" s="22"/>
-      <c r="BU47" s="22"/>
-      <c r="BV47" s="22" t="s">
+      <c r="BS47" s="19"/>
+      <c r="BT47" s="19"/>
+      <c r="BU47" s="19"/>
+      <c r="BV47" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="BW47" s="22"/>
-      <c r="BX47" s="22"/>
-      <c r="BY47" s="22"/>
-      <c r="BZ47" s="22" t="s">
+      <c r="BW47" s="19"/>
+      <c r="BX47" s="19"/>
+      <c r="BY47" s="19"/>
+      <c r="BZ47" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="22"/>
-      <c r="CB47" s="22"/>
-      <c r="CC47" s="22"/>
-      <c r="CD47" s="22" t="s">
+      <c r="CA47" s="19"/>
+      <c r="CB47" s="19"/>
+      <c r="CC47" s="19"/>
+      <c r="CD47" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="22"/>
-      <c r="CF47" s="22"/>
-      <c r="CG47" s="22"/>
-      <c r="CH47" s="22" t="s">
+      <c r="CE47" s="19"/>
+      <c r="CF47" s="19"/>
+      <c r="CG47" s="19"/>
+      <c r="CH47" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="CI47" s="22"/>
-      <c r="CJ47" s="22"/>
-      <c r="CK47" s="22"/>
-      <c r="CL47" s="22"/>
-      <c r="CM47" s="22"/>
-      <c r="CN47" s="21"/>
-      <c r="CO47" s="21"/>
+      <c r="CI47" s="19"/>
+      <c r="CJ47" s="19"/>
+      <c r="CK47" s="19"/>
+      <c r="CL47" s="19"/>
+      <c r="CM47" s="19"/>
+      <c r="CN47" s="19"/>
+      <c r="CO47" s="19"/>
     </row>
     <row r="48" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
@@ -30477,19 +30482,19 @@
         <v>35.114036301456025</v>
       </c>
       <c r="CG50" s="18">
-        <v>47.964184651382965</v>
+        <v>48.107398820047109</v>
       </c>
       <c r="CH50" s="18">
-        <v>28.181993968604928</v>
+        <v>28.562928327939773</v>
       </c>
       <c r="CI50" s="18">
-        <v>59.004902849954505</v>
+        <v>58.910829043634635</v>
       </c>
       <c r="CJ50" s="18">
-        <v>55.447031459168585</v>
+        <v>55.471486027214382</v>
       </c>
       <c r="CK50" s="18">
-        <v>22.732030565868214</v>
+        <v>23.497978363906014</v>
       </c>
       <c r="CL50" s="18"/>
       <c r="CM50" s="18"/>
@@ -30808,19 +30813,19 @@
         <v>6.8502194788742088</v>
       </c>
       <c r="CG51" s="18">
-        <v>10.285115913526326</v>
+        <v>10.267572830341891</v>
       </c>
       <c r="CH51" s="18">
-        <v>19.383143468472497</v>
+        <v>19.458810461595405</v>
       </c>
       <c r="CI51" s="18">
-        <v>18.618655979985135</v>
+        <v>18.594641724446006</v>
       </c>
       <c r="CJ51" s="18">
-        <v>22.411278709189801</v>
+        <v>22.301187927283195</v>
       </c>
       <c r="CK51" s="18">
-        <v>18.931473451517206</v>
+        <v>18.521800971536834</v>
       </c>
       <c r="CL51" s="18"/>
       <c r="CM51" s="18"/>
@@ -31292,19 +31297,19 @@
         <v>20.549469331725362</v>
       </c>
       <c r="CG53" s="18">
-        <v>30.71228876238419</v>
+        <v>30.781897943844712</v>
       </c>
       <c r="CH53" s="18">
-        <v>23.883685266317528</v>
+        <v>24.115494080594729</v>
       </c>
       <c r="CI53" s="18">
-        <v>40.176357690209699</v>
+        <v>40.114946473706482</v>
       </c>
       <c r="CJ53" s="18">
-        <v>40.358009528561553</v>
+        <v>40.321010744796098</v>
       </c>
       <c r="CK53" s="18">
-        <v>21.263833281411948</v>
+        <v>21.576954758259376</v>
       </c>
       <c r="CL53" s="18"/>
       <c r="CM53" s="18"/>
@@ -32061,7 +32066,7 @@
     </row>
     <row r="60" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -32350,7 +32355,7 @@
     </row>
     <row r="63" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -32639,142 +32644,142 @@
     </row>
     <row r="66" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="22" t="s">
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="22" t="s">
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="24"/>
-      <c r="L66" s="24"/>
-      <c r="M66" s="24"/>
-      <c r="N66" s="22" t="s">
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="24"/>
-      <c r="P66" s="24"/>
-      <c r="Q66" s="24"/>
-      <c r="R66" s="22" t="s">
+      <c r="O66" s="21"/>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="21"/>
+      <c r="R66" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="24"/>
-      <c r="T66" s="24"/>
-      <c r="U66" s="24"/>
-      <c r="V66" s="22" t="s">
+      <c r="S66" s="21"/>
+      <c r="T66" s="21"/>
+      <c r="U66" s="21"/>
+      <c r="V66" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="24"/>
-      <c r="X66" s="24"/>
-      <c r="Y66" s="24"/>
-      <c r="Z66" s="22" t="s">
+      <c r="W66" s="21"/>
+      <c r="X66" s="21"/>
+      <c r="Y66" s="21"/>
+      <c r="Z66" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="24"/>
-      <c r="AB66" s="24"/>
-      <c r="AC66" s="24"/>
-      <c r="AD66" s="22" t="s">
+      <c r="AA66" s="21"/>
+      <c r="AB66" s="21"/>
+      <c r="AC66" s="21"/>
+      <c r="AD66" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="24"/>
-      <c r="AF66" s="24"/>
-      <c r="AG66" s="24"/>
-      <c r="AH66" s="22" t="s">
+      <c r="AE66" s="21"/>
+      <c r="AF66" s="21"/>
+      <c r="AG66" s="21"/>
+      <c r="AH66" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="24"/>
-      <c r="AJ66" s="24"/>
-      <c r="AK66" s="24"/>
-      <c r="AL66" s="22" t="s">
+      <c r="AI66" s="21"/>
+      <c r="AJ66" s="21"/>
+      <c r="AK66" s="21"/>
+      <c r="AL66" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="24"/>
-      <c r="AN66" s="24"/>
-      <c r="AO66" s="24"/>
-      <c r="AP66" s="22" t="s">
+      <c r="AM66" s="21"/>
+      <c r="AN66" s="21"/>
+      <c r="AO66" s="21"/>
+      <c r="AP66" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="24"/>
-      <c r="AR66" s="24"/>
-      <c r="AS66" s="24"/>
-      <c r="AT66" s="22" t="s">
+      <c r="AQ66" s="21"/>
+      <c r="AR66" s="21"/>
+      <c r="AS66" s="21"/>
+      <c r="AT66" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="24"/>
-      <c r="AV66" s="24"/>
-      <c r="AW66" s="24"/>
-      <c r="AX66" s="22" t="s">
+      <c r="AU66" s="21"/>
+      <c r="AV66" s="21"/>
+      <c r="AW66" s="21"/>
+      <c r="AX66" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="24"/>
-      <c r="AZ66" s="24"/>
-      <c r="BA66" s="24"/>
-      <c r="BB66" s="22" t="s">
+      <c r="AY66" s="21"/>
+      <c r="AZ66" s="21"/>
+      <c r="BA66" s="21"/>
+      <c r="BB66" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="24"/>
-      <c r="BD66" s="24"/>
-      <c r="BE66" s="24"/>
-      <c r="BF66" s="22" t="s">
+      <c r="BC66" s="21"/>
+      <c r="BD66" s="21"/>
+      <c r="BE66" s="21"/>
+      <c r="BF66" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="24"/>
-      <c r="BH66" s="24"/>
-      <c r="BI66" s="24"/>
-      <c r="BJ66" s="22" t="s">
+      <c r="BG66" s="21"/>
+      <c r="BH66" s="21"/>
+      <c r="BI66" s="21"/>
+      <c r="BJ66" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="24"/>
-      <c r="BL66" s="24"/>
-      <c r="BM66" s="24"/>
-      <c r="BN66" s="22" t="s">
+      <c r="BK66" s="21"/>
+      <c r="BL66" s="21"/>
+      <c r="BM66" s="21"/>
+      <c r="BN66" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="24"/>
-      <c r="BP66" s="24"/>
-      <c r="BQ66" s="24"/>
-      <c r="BR66" s="22" t="s">
+      <c r="BO66" s="21"/>
+      <c r="BP66" s="21"/>
+      <c r="BQ66" s="21"/>
+      <c r="BR66" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="24"/>
-      <c r="BT66" s="24"/>
-      <c r="BU66" s="24"/>
-      <c r="BV66" s="22" t="s">
+      <c r="BS66" s="21"/>
+      <c r="BT66" s="21"/>
+      <c r="BU66" s="21"/>
+      <c r="BV66" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="BW66" s="22"/>
-      <c r="BX66" s="22"/>
-      <c r="BY66" s="22"/>
-      <c r="BZ66" s="22" t="s">
+      <c r="BW66" s="19"/>
+      <c r="BX66" s="19"/>
+      <c r="BY66" s="19"/>
+      <c r="BZ66" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="22"/>
-      <c r="CB66" s="22"/>
-      <c r="CC66" s="22"/>
-      <c r="CD66" s="22" t="s">
+      <c r="CA66" s="19"/>
+      <c r="CB66" s="19"/>
+      <c r="CC66" s="19"/>
+      <c r="CD66" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="22"/>
-      <c r="CF66" s="22"/>
-      <c r="CG66" s="22"/>
-      <c r="CH66" s="22" t="s">
+      <c r="CE66" s="19"/>
+      <c r="CF66" s="19"/>
+      <c r="CG66" s="19"/>
+      <c r="CH66" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="CI66" s="22"/>
-      <c r="CJ66" s="22"/>
-      <c r="CK66" s="22"/>
-      <c r="CL66" s="22"/>
-      <c r="CM66" s="22"/>
-      <c r="CN66" s="21"/>
-      <c r="CO66" s="21"/>
+      <c r="CI66" s="19"/>
+      <c r="CJ66" s="19"/>
+      <c r="CK66" s="19"/>
+      <c r="CL66" s="19"/>
+      <c r="CM66" s="19"/>
+      <c r="CN66" s="19"/>
+      <c r="CO66" s="19"/>
     </row>
     <row r="67" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
@@ -33398,19 +33403,19 @@
         <v>35.418270059545279</v>
       </c>
       <c r="CG69" s="18">
-        <v>47.229588456026477</v>
+        <v>47.372091610848514</v>
       </c>
       <c r="CH69" s="18">
-        <v>26.717589285837008</v>
+        <v>27.094171691809592</v>
       </c>
       <c r="CI69" s="18">
-        <v>57.711458595176964</v>
+        <v>57.618150043400391</v>
       </c>
       <c r="CJ69" s="18">
-        <v>53.128704017205962</v>
+        <v>53.15279686137643</v>
       </c>
       <c r="CK69" s="18">
-        <v>19.631614253537094</v>
+        <v>20.378212929455103</v>
       </c>
       <c r="CL69" s="18"/>
       <c r="CM69" s="18"/>
@@ -33729,19 +33734,19 @@
         <v>4.2809674491426364</v>
       </c>
       <c r="CG70" s="18">
-        <v>8.0141521692080602</v>
+        <v>7.9969703288399643</v>
       </c>
       <c r="CH70" s="18">
-        <v>18.094121366101106</v>
+        <v>18.168971355887393</v>
       </c>
       <c r="CI70" s="18">
-        <v>18.418917649302372</v>
+        <v>18.394943830634418</v>
       </c>
       <c r="CJ70" s="18">
-        <v>21.249215483635965</v>
+        <v>21.140168647549956</v>
       </c>
       <c r="CK70" s="18">
-        <v>15.953756631503097</v>
+        <v>15.554341223086141</v>
       </c>
       <c r="CL70" s="18"/>
       <c r="CM70" s="18"/>
@@ -34212,19 +34217,19 @@
         <v>19.571437291707255</v>
       </c>
       <c r="CG72" s="18">
-        <v>29.604968867387839</v>
+        <v>29.675704688712528</v>
       </c>
       <c r="CH72" s="18">
-        <v>22.683512914930247</v>
+        <v>22.918944264065459</v>
       </c>
       <c r="CI72" s="18">
-        <v>40.008027766598076</v>
+        <v>39.945958290281055</v>
       </c>
       <c r="CJ72" s="18">
-        <v>38.978899682130475</v>
+        <v>38.943898089359777</v>
       </c>
       <c r="CK72" s="18">
-        <v>18.254034908148185</v>
+        <v>18.57265508946189</v>
       </c>
       <c r="CL72" s="18"/>
       <c r="CM72" s="18"/>
@@ -34566,14 +34571,14 @@
       <c r="CE75" s="17"/>
       <c r="CF75" s="17"/>
       <c r="CG75" s="17"/>
-      <c r="CH75" s="11"/>
-      <c r="CI75" s="11"/>
-      <c r="CJ75" s="11"/>
-      <c r="CK75" s="11"/>
-      <c r="CL75" s="11"/>
-      <c r="CM75" s="11"/>
-      <c r="CN75" s="11"/>
-      <c r="CO75" s="11"/>
+      <c r="CH75" s="17"/>
+      <c r="CI75" s="17"/>
+      <c r="CJ75" s="17"/>
+      <c r="CK75" s="17"/>
+      <c r="CL75" s="17"/>
+      <c r="CM75" s="17"/>
+      <c r="CN75" s="17"/>
+      <c r="CO75" s="17"/>
       <c r="CP75" s="11"/>
       <c r="CQ75" s="11"/>
       <c r="CR75" s="11"/>
@@ -34888,7 +34893,7 @@
     </row>
     <row r="78" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -35177,7 +35182,7 @@
     </row>
     <row r="81" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -35466,144 +35471,144 @@
     </row>
     <row r="84" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
-      <c r="B84" s="22">
+      <c r="B84" s="19">
         <v>2000</v>
       </c>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="22">
+      <c r="C84" s="20"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="19">
         <v>2001</v>
       </c>
-      <c r="G84" s="23"/>
-      <c r="H84" s="23"/>
-      <c r="I84" s="23"/>
-      <c r="J84" s="22">
+      <c r="G84" s="20"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="19">
         <v>2002</v>
       </c>
-      <c r="K84" s="23"/>
-      <c r="L84" s="23"/>
-      <c r="M84" s="23"/>
-      <c r="N84" s="22">
+      <c r="K84" s="20"/>
+      <c r="L84" s="20"/>
+      <c r="M84" s="20"/>
+      <c r="N84" s="19">
         <v>2003</v>
       </c>
-      <c r="O84" s="23"/>
-      <c r="P84" s="23"/>
-      <c r="Q84" s="23"/>
-      <c r="R84" s="22">
+      <c r="O84" s="20"/>
+      <c r="P84" s="20"/>
+      <c r="Q84" s="20"/>
+      <c r="R84" s="19">
         <v>2004</v>
       </c>
-      <c r="S84" s="23"/>
-      <c r="T84" s="23"/>
-      <c r="U84" s="23"/>
-      <c r="V84" s="22">
+      <c r="S84" s="20"/>
+      <c r="T84" s="20"/>
+      <c r="U84" s="20"/>
+      <c r="V84" s="19">
         <v>2005</v>
       </c>
-      <c r="W84" s="23"/>
-      <c r="X84" s="23"/>
-      <c r="Y84" s="23"/>
-      <c r="Z84" s="22">
+      <c r="W84" s="20"/>
+      <c r="X84" s="20"/>
+      <c r="Y84" s="20"/>
+      <c r="Z84" s="19">
         <v>2006</v>
       </c>
-      <c r="AA84" s="23"/>
-      <c r="AB84" s="23"/>
-      <c r="AC84" s="23"/>
-      <c r="AD84" s="22">
+      <c r="AA84" s="20"/>
+      <c r="AB84" s="20"/>
+      <c r="AC84" s="20"/>
+      <c r="AD84" s="19">
         <v>2007</v>
       </c>
-      <c r="AE84" s="23"/>
-      <c r="AF84" s="23"/>
-      <c r="AG84" s="23"/>
-      <c r="AH84" s="22">
+      <c r="AE84" s="20"/>
+      <c r="AF84" s="20"/>
+      <c r="AG84" s="20"/>
+      <c r="AH84" s="19">
         <v>2008</v>
       </c>
-      <c r="AI84" s="23"/>
-      <c r="AJ84" s="23"/>
-      <c r="AK84" s="23"/>
-      <c r="AL84" s="22">
+      <c r="AI84" s="20"/>
+      <c r="AJ84" s="20"/>
+      <c r="AK84" s="20"/>
+      <c r="AL84" s="19">
         <v>2009</v>
       </c>
-      <c r="AM84" s="23"/>
-      <c r="AN84" s="23"/>
-      <c r="AO84" s="23"/>
-      <c r="AP84" s="22">
+      <c r="AM84" s="20"/>
+      <c r="AN84" s="20"/>
+      <c r="AO84" s="20"/>
+      <c r="AP84" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="23"/>
-      <c r="AR84" s="23"/>
-      <c r="AS84" s="23"/>
-      <c r="AT84" s="22">
+      <c r="AQ84" s="20"/>
+      <c r="AR84" s="20"/>
+      <c r="AS84" s="20"/>
+      <c r="AT84" s="19">
         <v>2011</v>
       </c>
-      <c r="AU84" s="23"/>
-      <c r="AV84" s="23"/>
-      <c r="AW84" s="23"/>
-      <c r="AX84" s="22">
+      <c r="AU84" s="20"/>
+      <c r="AV84" s="20"/>
+      <c r="AW84" s="20"/>
+      <c r="AX84" s="19">
         <v>2012</v>
       </c>
-      <c r="AY84" s="23"/>
-      <c r="AZ84" s="23"/>
-      <c r="BA84" s="23"/>
-      <c r="BB84" s="22">
+      <c r="AY84" s="20"/>
+      <c r="AZ84" s="20"/>
+      <c r="BA84" s="20"/>
+      <c r="BB84" s="19">
         <v>2013</v>
       </c>
-      <c r="BC84" s="23"/>
-      <c r="BD84" s="23"/>
-      <c r="BE84" s="23"/>
-      <c r="BF84" s="22">
+      <c r="BC84" s="20"/>
+      <c r="BD84" s="20"/>
+      <c r="BE84" s="20"/>
+      <c r="BF84" s="19">
         <v>2014</v>
       </c>
-      <c r="BG84" s="23"/>
-      <c r="BH84" s="23"/>
-      <c r="BI84" s="23"/>
-      <c r="BJ84" s="22">
+      <c r="BG84" s="20"/>
+      <c r="BH84" s="20"/>
+      <c r="BI84" s="20"/>
+      <c r="BJ84" s="19">
         <v>2015</v>
       </c>
-      <c r="BK84" s="23"/>
-      <c r="BL84" s="23"/>
-      <c r="BM84" s="23"/>
-      <c r="BN84" s="22">
+      <c r="BK84" s="20"/>
+      <c r="BL84" s="20"/>
+      <c r="BM84" s="20"/>
+      <c r="BN84" s="19">
         <v>2016</v>
       </c>
-      <c r="BO84" s="23"/>
-      <c r="BP84" s="23"/>
-      <c r="BQ84" s="23"/>
-      <c r="BR84" s="22">
+      <c r="BO84" s="20"/>
+      <c r="BP84" s="20"/>
+      <c r="BQ84" s="20"/>
+      <c r="BR84" s="19">
         <v>2017</v>
       </c>
-      <c r="BS84" s="23"/>
-      <c r="BT84" s="23"/>
-      <c r="BU84" s="23"/>
-      <c r="BV84" s="22">
+      <c r="BS84" s="20"/>
+      <c r="BT84" s="20"/>
+      <c r="BU84" s="20"/>
+      <c r="BV84" s="19">
         <v>2018</v>
       </c>
-      <c r="BW84" s="22"/>
-      <c r="BX84" s="22"/>
-      <c r="BY84" s="22"/>
-      <c r="BZ84" s="22">
+      <c r="BW84" s="19"/>
+      <c r="BX84" s="19"/>
+      <c r="BY84" s="19"/>
+      <c r="BZ84" s="19">
         <v>2019</v>
       </c>
-      <c r="CA84" s="22"/>
-      <c r="CB84" s="22"/>
-      <c r="CC84" s="22"/>
-      <c r="CD84" s="22">
+      <c r="CA84" s="19"/>
+      <c r="CB84" s="19"/>
+      <c r="CC84" s="19"/>
+      <c r="CD84" s="19">
         <v>2020</v>
       </c>
-      <c r="CE84" s="22"/>
-      <c r="CF84" s="22"/>
-      <c r="CG84" s="22"/>
-      <c r="CH84" s="22">
+      <c r="CE84" s="19"/>
+      <c r="CF84" s="19"/>
+      <c r="CG84" s="19"/>
+      <c r="CH84" s="19">
         <v>2021</v>
       </c>
-      <c r="CI84" s="22"/>
-      <c r="CJ84" s="22"/>
-      <c r="CK84" s="22"/>
-      <c r="CL84" s="22">
+      <c r="CI84" s="19"/>
+      <c r="CJ84" s="19"/>
+      <c r="CK84" s="19"/>
+      <c r="CL84" s="19">
         <v>2022</v>
       </c>
-      <c r="CM84" s="22"/>
-      <c r="CN84" s="22"/>
-      <c r="CO84" s="22"/>
+      <c r="CM84" s="19"/>
+      <c r="CN84" s="19"/>
+      <c r="CO84" s="19"/>
     </row>
     <row r="85" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
@@ -36247,16 +36252,16 @@
         <v>104.12082567684639</v>
       </c>
       <c r="CK87" s="18">
-        <v>104.44343736226078</v>
+        <v>104.44343736226077</v>
       </c>
       <c r="CL87" s="18">
-        <v>103.53314692178175</v>
+        <v>103.53314692178172</v>
       </c>
       <c r="CM87" s="18">
         <v>104.33778752720721</v>
       </c>
       <c r="CN87" s="18">
-        <v>105.69718700632853</v>
+        <v>105.69718494277302</v>
       </c>
       <c r="CO87" s="18">
         <v>107.15023137264347</v>
@@ -36590,19 +36595,19 @@
         <v>109.68921029153206</v>
       </c>
       <c r="CK88" s="18">
-        <v>109.78266659971806</v>
+        <v>109.78266659971807</v>
       </c>
       <c r="CL88" s="18">
-        <v>112.42109834151917</v>
+        <v>112.42109834151913</v>
       </c>
       <c r="CM88" s="18">
-        <v>110.41240669809712</v>
+        <v>110.41240669809713</v>
       </c>
       <c r="CN88" s="18">
-        <v>110.74048140294832</v>
+        <v>110.74048246119285</v>
       </c>
       <c r="CO88" s="18">
-        <v>112.60190853181744</v>
+        <v>112.60190853181746</v>
       </c>
       <c r="CP88" s="11"/>
       <c r="CQ88" s="11"/>
@@ -37089,19 +37094,19 @@
         <v>106.59236949340661</v>
       </c>
       <c r="CK90" s="18">
-        <v>106.44330050915171</v>
+        <v>106.44189167365634</v>
       </c>
       <c r="CL90" s="18">
-        <v>107.53541257715165</v>
+        <v>107.53027872779724</v>
       </c>
       <c r="CM90" s="18">
-        <v>106.65269975947143</v>
+        <v>106.65325761995506</v>
       </c>
       <c r="CN90" s="18">
-        <v>107.65010262166564</v>
+        <v>107.64883690954252</v>
       </c>
       <c r="CO90" s="18">
-        <v>109.15249240240183</v>
+        <v>109.13883170304233</v>
       </c>
       <c r="CP90" s="11"/>
       <c r="CQ90" s="11"/>
@@ -37742,7 +37747,7 @@
     </row>
     <row r="97" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -38031,7 +38036,7 @@
     </row>
     <row r="100" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -38320,144 +38325,144 @@
     </row>
     <row r="103" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
-      <c r="B103" s="22">
+      <c r="B103" s="19">
         <v>2000</v>
       </c>
-      <c r="C103" s="23"/>
-      <c r="D103" s="23"/>
-      <c r="E103" s="23"/>
-      <c r="F103" s="22">
+      <c r="C103" s="20"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="20"/>
+      <c r="F103" s="19">
         <v>2001</v>
       </c>
-      <c r="G103" s="23"/>
-      <c r="H103" s="23"/>
-      <c r="I103" s="23"/>
-      <c r="J103" s="22">
+      <c r="G103" s="20"/>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="19">
         <v>2002</v>
       </c>
-      <c r="K103" s="23"/>
-      <c r="L103" s="23"/>
-      <c r="M103" s="23"/>
-      <c r="N103" s="22">
+      <c r="K103" s="20"/>
+      <c r="L103" s="20"/>
+      <c r="M103" s="20"/>
+      <c r="N103" s="19">
         <v>2003</v>
       </c>
-      <c r="O103" s="23"/>
-      <c r="P103" s="23"/>
-      <c r="Q103" s="23"/>
-      <c r="R103" s="22">
+      <c r="O103" s="20"/>
+      <c r="P103" s="20"/>
+      <c r="Q103" s="20"/>
+      <c r="R103" s="19">
         <v>2004</v>
       </c>
-      <c r="S103" s="23"/>
-      <c r="T103" s="23"/>
-      <c r="U103" s="23"/>
-      <c r="V103" s="22">
+      <c r="S103" s="20"/>
+      <c r="T103" s="20"/>
+      <c r="U103" s="20"/>
+      <c r="V103" s="19">
         <v>2005</v>
       </c>
-      <c r="W103" s="23"/>
-      <c r="X103" s="23"/>
-      <c r="Y103" s="23"/>
-      <c r="Z103" s="22">
+      <c r="W103" s="20"/>
+      <c r="X103" s="20"/>
+      <c r="Y103" s="20"/>
+      <c r="Z103" s="19">
         <v>2006</v>
       </c>
-      <c r="AA103" s="23"/>
-      <c r="AB103" s="23"/>
-      <c r="AC103" s="23"/>
-      <c r="AD103" s="22">
+      <c r="AA103" s="20"/>
+      <c r="AB103" s="20"/>
+      <c r="AC103" s="20"/>
+      <c r="AD103" s="19">
         <v>2007</v>
       </c>
-      <c r="AE103" s="23"/>
-      <c r="AF103" s="23"/>
-      <c r="AG103" s="23"/>
-      <c r="AH103" s="22">
+      <c r="AE103" s="20"/>
+      <c r="AF103" s="20"/>
+      <c r="AG103" s="20"/>
+      <c r="AH103" s="19">
         <v>2008</v>
       </c>
-      <c r="AI103" s="23"/>
-      <c r="AJ103" s="23"/>
-      <c r="AK103" s="23"/>
-      <c r="AL103" s="22">
+      <c r="AI103" s="20"/>
+      <c r="AJ103" s="20"/>
+      <c r="AK103" s="20"/>
+      <c r="AL103" s="19">
         <v>2009</v>
       </c>
-      <c r="AM103" s="23"/>
-      <c r="AN103" s="23"/>
-      <c r="AO103" s="23"/>
-      <c r="AP103" s="22">
+      <c r="AM103" s="20"/>
+      <c r="AN103" s="20"/>
+      <c r="AO103" s="20"/>
+      <c r="AP103" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="23"/>
-      <c r="AR103" s="23"/>
-      <c r="AS103" s="23"/>
-      <c r="AT103" s="22">
+      <c r="AQ103" s="20"/>
+      <c r="AR103" s="20"/>
+      <c r="AS103" s="20"/>
+      <c r="AT103" s="19">
         <v>2011</v>
       </c>
-      <c r="AU103" s="23"/>
-      <c r="AV103" s="23"/>
-      <c r="AW103" s="23"/>
-      <c r="AX103" s="22">
+      <c r="AU103" s="20"/>
+      <c r="AV103" s="20"/>
+      <c r="AW103" s="20"/>
+      <c r="AX103" s="19">
         <v>2012</v>
       </c>
-      <c r="AY103" s="23"/>
-      <c r="AZ103" s="23"/>
-      <c r="BA103" s="23"/>
-      <c r="BB103" s="22">
+      <c r="AY103" s="20"/>
+      <c r="AZ103" s="20"/>
+      <c r="BA103" s="20"/>
+      <c r="BB103" s="19">
         <v>2013</v>
       </c>
-      <c r="BC103" s="23"/>
-      <c r="BD103" s="23"/>
-      <c r="BE103" s="23"/>
-      <c r="BF103" s="22">
+      <c r="BC103" s="20"/>
+      <c r="BD103" s="20"/>
+      <c r="BE103" s="20"/>
+      <c r="BF103" s="19">
         <v>2014</v>
       </c>
-      <c r="BG103" s="23"/>
-      <c r="BH103" s="23"/>
-      <c r="BI103" s="23"/>
-      <c r="BJ103" s="22">
+      <c r="BG103" s="20"/>
+      <c r="BH103" s="20"/>
+      <c r="BI103" s="20"/>
+      <c r="BJ103" s="19">
         <v>2015</v>
       </c>
-      <c r="BK103" s="23"/>
-      <c r="BL103" s="23"/>
-      <c r="BM103" s="23"/>
-      <c r="BN103" s="22">
+      <c r="BK103" s="20"/>
+      <c r="BL103" s="20"/>
+      <c r="BM103" s="20"/>
+      <c r="BN103" s="19">
         <v>2016</v>
       </c>
-      <c r="BO103" s="23"/>
-      <c r="BP103" s="23"/>
-      <c r="BQ103" s="23"/>
-      <c r="BR103" s="22">
+      <c r="BO103" s="20"/>
+      <c r="BP103" s="20"/>
+      <c r="BQ103" s="20"/>
+      <c r="BR103" s="19">
         <v>2017</v>
       </c>
-      <c r="BS103" s="23"/>
-      <c r="BT103" s="23"/>
-      <c r="BU103" s="23"/>
-      <c r="BV103" s="22">
+      <c r="BS103" s="20"/>
+      <c r="BT103" s="20"/>
+      <c r="BU103" s="20"/>
+      <c r="BV103" s="19">
         <v>2018</v>
       </c>
-      <c r="BW103" s="22"/>
-      <c r="BX103" s="22"/>
-      <c r="BY103" s="22"/>
-      <c r="BZ103" s="22">
+      <c r="BW103" s="19"/>
+      <c r="BX103" s="19"/>
+      <c r="BY103" s="19"/>
+      <c r="BZ103" s="19">
         <v>2019</v>
       </c>
-      <c r="CA103" s="22"/>
-      <c r="CB103" s="22"/>
-      <c r="CC103" s="22"/>
-      <c r="CD103" s="22">
+      <c r="CA103" s="19"/>
+      <c r="CB103" s="19"/>
+      <c r="CC103" s="19"/>
+      <c r="CD103" s="19">
         <v>2020</v>
       </c>
-      <c r="CE103" s="22"/>
-      <c r="CF103" s="22"/>
-      <c r="CG103" s="22"/>
-      <c r="CH103" s="22">
+      <c r="CE103" s="19"/>
+      <c r="CF103" s="19"/>
+      <c r="CG103" s="19"/>
+      <c r="CH103" s="19">
         <v>2021</v>
       </c>
-      <c r="CI103" s="22"/>
-      <c r="CJ103" s="22"/>
-      <c r="CK103" s="22"/>
-      <c r="CL103" s="22">
+      <c r="CI103" s="19"/>
+      <c r="CJ103" s="19"/>
+      <c r="CK103" s="19"/>
+      <c r="CL103" s="19">
         <v>2022</v>
       </c>
-      <c r="CM103" s="22"/>
-      <c r="CN103" s="22"/>
-      <c r="CO103" s="22"/>
+      <c r="CM103" s="19"/>
+      <c r="CN103" s="19"/>
+      <c r="CO103" s="19"/>
     </row>
     <row r="104" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
@@ -39101,19 +39106,19 @@
         <v>54.325175984928165</v>
       </c>
       <c r="CK106" s="18">
-        <v>61.3688930259123</v>
+        <v>61.395596374991655</v>
       </c>
       <c r="CL106" s="18">
-        <v>52.923891162372328</v>
+        <v>52.982032686216471</v>
       </c>
       <c r="CM106" s="18">
-        <v>60.548683855514476</v>
+        <v>60.539383060693339</v>
       </c>
       <c r="CN106" s="18">
-        <v>60.165339824341004</v>
+        <v>60.190671334513233</v>
       </c>
       <c r="CO106" s="18">
-        <v>62.111914581907776</v>
+        <v>62.365701195873427</v>
       </c>
       <c r="CP106" s="11"/>
       <c r="CQ106" s="11"/>
@@ -39444,19 +39449,19 @@
         <v>45.674824015071842</v>
       </c>
       <c r="CK107" s="18">
-        <v>38.631106974087693</v>
+        <v>38.604403625008331</v>
       </c>
       <c r="CL107" s="18">
-        <v>47.076108837627672</v>
+        <v>47.017967313783522</v>
       </c>
       <c r="CM107" s="18">
-        <v>39.451316144485538</v>
+        <v>39.460616939306654</v>
       </c>
       <c r="CN107" s="18">
-        <v>39.834660175658982</v>
+        <v>39.809328665486774</v>
       </c>
       <c r="CO107" s="18">
-        <v>37.888085418092231</v>
+        <v>37.63429880412658</v>
       </c>
       <c r="CP107" s="11"/>
       <c r="CQ107" s="11"/>
@@ -40720,7 +40725,7 @@
     </row>
     <row r="116" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -41009,7 +41014,7 @@
     </row>
     <row r="119" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -41298,144 +41303,144 @@
     </row>
     <row r="122" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
-      <c r="B122" s="22">
+      <c r="B122" s="19">
         <v>2000</v>
       </c>
-      <c r="C122" s="23"/>
-      <c r="D122" s="23"/>
-      <c r="E122" s="23"/>
-      <c r="F122" s="22">
+      <c r="C122" s="20"/>
+      <c r="D122" s="20"/>
+      <c r="E122" s="20"/>
+      <c r="F122" s="19">
         <v>2001</v>
       </c>
-      <c r="G122" s="23"/>
-      <c r="H122" s="23"/>
-      <c r="I122" s="23"/>
-      <c r="J122" s="22">
+      <c r="G122" s="20"/>
+      <c r="H122" s="20"/>
+      <c r="I122" s="20"/>
+      <c r="J122" s="19">
         <v>2002</v>
       </c>
-      <c r="K122" s="23"/>
-      <c r="L122" s="23"/>
-      <c r="M122" s="23"/>
-      <c r="N122" s="22">
+      <c r="K122" s="20"/>
+      <c r="L122" s="20"/>
+      <c r="M122" s="20"/>
+      <c r="N122" s="19">
         <v>2003</v>
       </c>
-      <c r="O122" s="23"/>
-      <c r="P122" s="23"/>
-      <c r="Q122" s="23"/>
-      <c r="R122" s="22">
+      <c r="O122" s="20"/>
+      <c r="P122" s="20"/>
+      <c r="Q122" s="20"/>
+      <c r="R122" s="19">
         <v>2004</v>
       </c>
-      <c r="S122" s="23"/>
-      <c r="T122" s="23"/>
-      <c r="U122" s="23"/>
-      <c r="V122" s="22">
+      <c r="S122" s="20"/>
+      <c r="T122" s="20"/>
+      <c r="U122" s="20"/>
+      <c r="V122" s="19">
         <v>2005</v>
       </c>
-      <c r="W122" s="23"/>
-      <c r="X122" s="23"/>
-      <c r="Y122" s="23"/>
-      <c r="Z122" s="22">
+      <c r="W122" s="20"/>
+      <c r="X122" s="20"/>
+      <c r="Y122" s="20"/>
+      <c r="Z122" s="19">
         <v>2006</v>
       </c>
-      <c r="AA122" s="23"/>
-      <c r="AB122" s="23"/>
-      <c r="AC122" s="23"/>
-      <c r="AD122" s="22">
+      <c r="AA122" s="20"/>
+      <c r="AB122" s="20"/>
+      <c r="AC122" s="20"/>
+      <c r="AD122" s="19">
         <v>2007</v>
       </c>
-      <c r="AE122" s="23"/>
-      <c r="AF122" s="23"/>
-      <c r="AG122" s="23"/>
-      <c r="AH122" s="22">
+      <c r="AE122" s="20"/>
+      <c r="AF122" s="20"/>
+      <c r="AG122" s="20"/>
+      <c r="AH122" s="19">
         <v>2008</v>
       </c>
-      <c r="AI122" s="23"/>
-      <c r="AJ122" s="23"/>
-      <c r="AK122" s="23"/>
-      <c r="AL122" s="22">
+      <c r="AI122" s="20"/>
+      <c r="AJ122" s="20"/>
+      <c r="AK122" s="20"/>
+      <c r="AL122" s="19">
         <v>2009</v>
       </c>
-      <c r="AM122" s="23"/>
-      <c r="AN122" s="23"/>
-      <c r="AO122" s="23"/>
-      <c r="AP122" s="22">
+      <c r="AM122" s="20"/>
+      <c r="AN122" s="20"/>
+      <c r="AO122" s="20"/>
+      <c r="AP122" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="23"/>
-      <c r="AR122" s="23"/>
-      <c r="AS122" s="23"/>
-      <c r="AT122" s="22">
+      <c r="AQ122" s="20"/>
+      <c r="AR122" s="20"/>
+      <c r="AS122" s="20"/>
+      <c r="AT122" s="19">
         <v>2011</v>
       </c>
-      <c r="AU122" s="23"/>
-      <c r="AV122" s="23"/>
-      <c r="AW122" s="23"/>
-      <c r="AX122" s="22">
+      <c r="AU122" s="20"/>
+      <c r="AV122" s="20"/>
+      <c r="AW122" s="20"/>
+      <c r="AX122" s="19">
         <v>2012</v>
       </c>
-      <c r="AY122" s="23"/>
-      <c r="AZ122" s="23"/>
-      <c r="BA122" s="23"/>
-      <c r="BB122" s="22">
+      <c r="AY122" s="20"/>
+      <c r="AZ122" s="20"/>
+      <c r="BA122" s="20"/>
+      <c r="BB122" s="19">
         <v>2013</v>
       </c>
-      <c r="BC122" s="23"/>
-      <c r="BD122" s="23"/>
-      <c r="BE122" s="23"/>
-      <c r="BF122" s="22">
+      <c r="BC122" s="20"/>
+      <c r="BD122" s="20"/>
+      <c r="BE122" s="20"/>
+      <c r="BF122" s="19">
         <v>2014</v>
       </c>
-      <c r="BG122" s="23"/>
-      <c r="BH122" s="23"/>
-      <c r="BI122" s="23"/>
-      <c r="BJ122" s="22">
+      <c r="BG122" s="20"/>
+      <c r="BH122" s="20"/>
+      <c r="BI122" s="20"/>
+      <c r="BJ122" s="19">
         <v>2015</v>
       </c>
-      <c r="BK122" s="23"/>
-      <c r="BL122" s="23"/>
-      <c r="BM122" s="23"/>
-      <c r="BN122" s="22">
+      <c r="BK122" s="20"/>
+      <c r="BL122" s="20"/>
+      <c r="BM122" s="20"/>
+      <c r="BN122" s="19">
         <v>2016</v>
       </c>
-      <c r="BO122" s="23"/>
-      <c r="BP122" s="23"/>
-      <c r="BQ122" s="23"/>
-      <c r="BR122" s="22">
+      <c r="BO122" s="20"/>
+      <c r="BP122" s="20"/>
+      <c r="BQ122" s="20"/>
+      <c r="BR122" s="19">
         <v>2017</v>
       </c>
-      <c r="BS122" s="23"/>
-      <c r="BT122" s="23"/>
-      <c r="BU122" s="23"/>
-      <c r="BV122" s="22">
+      <c r="BS122" s="20"/>
+      <c r="BT122" s="20"/>
+      <c r="BU122" s="20"/>
+      <c r="BV122" s="19">
         <v>2018</v>
       </c>
-      <c r="BW122" s="22"/>
-      <c r="BX122" s="22"/>
-      <c r="BY122" s="22"/>
-      <c r="BZ122" s="22">
+      <c r="BW122" s="19"/>
+      <c r="BX122" s="19"/>
+      <c r="BY122" s="19"/>
+      <c r="BZ122" s="19">
         <v>2019</v>
       </c>
-      <c r="CA122" s="22"/>
-      <c r="CB122" s="22"/>
-      <c r="CC122" s="22"/>
-      <c r="CD122" s="22">
+      <c r="CA122" s="19"/>
+      <c r="CB122" s="19"/>
+      <c r="CC122" s="19"/>
+      <c r="CD122" s="19">
         <v>2020</v>
       </c>
-      <c r="CE122" s="22"/>
-      <c r="CF122" s="22"/>
-      <c r="CG122" s="22"/>
-      <c r="CH122" s="22">
+      <c r="CE122" s="19"/>
+      <c r="CF122" s="19"/>
+      <c r="CG122" s="19"/>
+      <c r="CH122" s="19">
         <v>2021</v>
       </c>
-      <c r="CI122" s="22"/>
-      <c r="CJ122" s="22"/>
-      <c r="CK122" s="22"/>
-      <c r="CL122" s="22">
+      <c r="CI122" s="19"/>
+      <c r="CJ122" s="19"/>
+      <c r="CK122" s="19"/>
+      <c r="CL122" s="19">
         <v>2022</v>
       </c>
-      <c r="CM122" s="22"/>
-      <c r="CN122" s="22"/>
-      <c r="CO122" s="22"/>
+      <c r="CM122" s="19"/>
+      <c r="CN122" s="19"/>
+      <c r="CO122" s="19"/>
     </row>
     <row r="123" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
@@ -42079,19 +42084,19 @@
         <v>55.614707180212861</v>
       </c>
       <c r="CK125" s="18">
-        <v>62.543972960349251</v>
+        <v>62.570359456091083</v>
       </c>
       <c r="CL125" s="18">
-        <v>54.969762250476336</v>
+        <v>55.027524147588011</v>
       </c>
       <c r="CM125" s="18">
-        <v>61.89205994414467</v>
+        <v>61.882876479833435</v>
       </c>
       <c r="CN125" s="18">
-        <v>61.276985601990539</v>
+        <v>61.302065570365215</v>
       </c>
       <c r="CO125" s="18">
-        <v>63.272567848427798</v>
+        <v>63.523145770793242</v>
       </c>
       <c r="CP125" s="11"/>
       <c r="CQ125" s="11"/>
@@ -42422,19 +42427,19 @@
         <v>44.385292819787132</v>
       </c>
       <c r="CK126" s="18">
-        <v>37.456027039650756</v>
+        <v>37.429640543908924</v>
       </c>
       <c r="CL126" s="18">
-        <v>45.030237749523657</v>
+        <v>44.972475852411989</v>
       </c>
       <c r="CM126" s="18">
-        <v>38.10794005585533</v>
+        <v>38.117123520166565</v>
       </c>
       <c r="CN126" s="18">
-        <v>38.723014398009461</v>
+        <v>38.697934429634778</v>
       </c>
       <c r="CO126" s="18">
-        <v>36.727432151572202</v>
+        <v>36.476854229206751</v>
       </c>
       <c r="CP126" s="11"/>
       <c r="CQ126" s="11"/>
@@ -43192,6 +43197,8 @@
     </row>
   </sheetData>
   <mergeCells count="161">
+    <mergeCell ref="CL47:CO47"/>
+    <mergeCell ref="CL66:CO66"/>
     <mergeCell ref="CL103:CO103"/>
     <mergeCell ref="CL122:CO122"/>
     <mergeCell ref="BZ47:CC47"/>
@@ -43213,8 +43220,6 @@
     <mergeCell ref="BZ28:CC28"/>
     <mergeCell ref="CH9:CK9"/>
     <mergeCell ref="CH28:CK28"/>
-    <mergeCell ref="CL47:CM47"/>
-    <mergeCell ref="CL66:CM66"/>
     <mergeCell ref="CL9:CO9"/>
     <mergeCell ref="BF122:BI122"/>
     <mergeCell ref="BJ122:BM122"/>
@@ -43236,6 +43241,8 @@
     <mergeCell ref="BN9:BQ9"/>
     <mergeCell ref="BJ28:BM28"/>
     <mergeCell ref="BN28:BQ28"/>
+    <mergeCell ref="BJ47:BM47"/>
+    <mergeCell ref="BN47:BQ47"/>
     <mergeCell ref="B122:E122"/>
     <mergeCell ref="F122:I122"/>
     <mergeCell ref="J122:M122"/>
@@ -43282,9 +43289,6 @@
     <mergeCell ref="N84:Q84"/>
     <mergeCell ref="R84:U84"/>
     <mergeCell ref="V84:Y84"/>
-    <mergeCell ref="BJ47:BM47"/>
-    <mergeCell ref="BN47:BQ47"/>
-    <mergeCell ref="BB47:BE47"/>
     <mergeCell ref="BF47:BI47"/>
     <mergeCell ref="BR47:BU47"/>
     <mergeCell ref="B66:E66"/>
@@ -43297,6 +43301,12 @@
     <mergeCell ref="AD66:AG66"/>
     <mergeCell ref="AH66:AK66"/>
     <mergeCell ref="F47:I47"/>
+    <mergeCell ref="AP47:AS47"/>
+    <mergeCell ref="AT47:AW47"/>
+    <mergeCell ref="AX47:BA47"/>
+    <mergeCell ref="AH28:AK28"/>
+    <mergeCell ref="AL28:AO28"/>
+    <mergeCell ref="AL47:AO47"/>
     <mergeCell ref="AP28:AS28"/>
     <mergeCell ref="AT28:AW28"/>
     <mergeCell ref="AX28:BA28"/>
@@ -43307,18 +43317,7 @@
     <mergeCell ref="BB9:BE9"/>
     <mergeCell ref="AH9:AK9"/>
     <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="V28:Y28"/>
-    <mergeCell ref="Z28:AC28"/>
-    <mergeCell ref="AH28:AK28"/>
-    <mergeCell ref="AL28:AO28"/>
-    <mergeCell ref="AL47:AO47"/>
-    <mergeCell ref="AP47:AS47"/>
-    <mergeCell ref="AT47:AW47"/>
-    <mergeCell ref="AX47:BA47"/>
+    <mergeCell ref="BB47:BE47"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="J9:M9"/>
@@ -43329,6 +43328,12 @@
     <mergeCell ref="AD9:AG9"/>
     <mergeCell ref="AD28:AG28"/>
     <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="V28:Y28"/>
+    <mergeCell ref="Z28:AC28"/>
     <mergeCell ref="CL28:CO28"/>
     <mergeCell ref="CH47:CK47"/>
     <mergeCell ref="CH66:CK66"/>

--- a/Data/National Accounts/PSA-21OS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-21OS_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68717BC-04BF-45C0-AC94-CE5B383C31D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A619B5C-0AEA-4051-8EB3-9942448CDE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">OS!$A$1:$CO$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">OS!$A$1:$CP$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="52">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -615,13 +615,16 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2022</t>
+    <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2022</t>
+    <t>As of May 2023</t>
   </si>
   <si>
-    <t>As of April 2023</t>
+    <t>Q1 2000 to Q1 2023</t>
+  </si>
+  <si>
+    <t>Q1 2001 to Q1 2023</t>
   </si>
 </sst>
 </file>
@@ -726,7 +729,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -754,6 +757,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23627,14 +23635,14 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BS1" activePane="topRight" state="frozen"/>
       <selection activeCell="CE141" sqref="CA141:CE149"/>
-      <selection pane="topRight" activeCell="CD1" sqref="CD1:CO1048576"/>
+      <selection pane="topRight" activeCell="CD1" sqref="CD1:CP1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.88671875" style="1" customWidth="1"/>
-    <col min="2" max="93" width="9" style="12" customWidth="1"/>
-    <col min="94" max="16384" width="7.77734375" style="12"/>
+    <col min="2" max="94" width="9" style="12" customWidth="1"/>
+    <col min="95" max="16384" width="7.77734375" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23649,7 +23657,7 @@
     </row>
     <row r="3" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23662,7 +23670,7 @@
     </row>
     <row r="6" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23764,147 +23772,151 @@
       <c r="CM8" s="1"/>
       <c r="CN8" s="1"/>
       <c r="CO8" s="1"/>
+      <c r="CP8" s="1"/>
     </row>
     <row r="9" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="19">
+      <c r="B9" s="22">
         <v>2000</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22">
         <v>2001</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19">
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22">
         <v>2002</v>
       </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19">
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22">
         <v>2003</v>
       </c>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19">
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22">
         <v>2004</v>
       </c>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19">
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22">
         <v>2005</v>
       </c>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19">
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22">
         <v>2006</v>
       </c>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19">
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22">
         <v>2007</v>
       </c>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="19">
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="22">
         <v>2008</v>
       </c>
-      <c r="AI9" s="19"/>
-      <c r="AJ9" s="19"/>
-      <c r="AK9" s="19"/>
-      <c r="AL9" s="19">
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="22"/>
+      <c r="AL9" s="22">
         <v>2009</v>
       </c>
-      <c r="AM9" s="19"/>
-      <c r="AN9" s="19"/>
-      <c r="AO9" s="19"/>
-      <c r="AP9" s="19">
+      <c r="AM9" s="22"/>
+      <c r="AN9" s="22"/>
+      <c r="AO9" s="22"/>
+      <c r="AP9" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="19"/>
-      <c r="AR9" s="19"/>
-      <c r="AS9" s="19"/>
-      <c r="AT9" s="19">
+      <c r="AQ9" s="22"/>
+      <c r="AR9" s="22"/>
+      <c r="AS9" s="22"/>
+      <c r="AT9" s="22">
         <v>2011</v>
       </c>
-      <c r="AU9" s="19"/>
-      <c r="AV9" s="19"/>
-      <c r="AW9" s="19"/>
-      <c r="AX9" s="19">
+      <c r="AU9" s="22"/>
+      <c r="AV9" s="22"/>
+      <c r="AW9" s="22"/>
+      <c r="AX9" s="22">
         <v>2012</v>
       </c>
-      <c r="AY9" s="19"/>
-      <c r="AZ9" s="19"/>
-      <c r="BA9" s="19"/>
-      <c r="BB9" s="19">
+      <c r="AY9" s="22"/>
+      <c r="AZ9" s="22"/>
+      <c r="BA9" s="22"/>
+      <c r="BB9" s="22">
         <v>2013</v>
       </c>
-      <c r="BC9" s="19"/>
-      <c r="BD9" s="19"/>
-      <c r="BE9" s="19"/>
-      <c r="BF9" s="19">
+      <c r="BC9" s="22"/>
+      <c r="BD9" s="22"/>
+      <c r="BE9" s="22"/>
+      <c r="BF9" s="22">
         <v>2014</v>
       </c>
-      <c r="BG9" s="19"/>
-      <c r="BH9" s="19"/>
-      <c r="BI9" s="19"/>
-      <c r="BJ9" s="19">
+      <c r="BG9" s="22"/>
+      <c r="BH9" s="22"/>
+      <c r="BI9" s="22"/>
+      <c r="BJ9" s="22">
         <v>2015</v>
       </c>
-      <c r="BK9" s="19"/>
-      <c r="BL9" s="19"/>
-      <c r="BM9" s="19"/>
-      <c r="BN9" s="19">
+      <c r="BK9" s="22"/>
+      <c r="BL9" s="22"/>
+      <c r="BM9" s="22"/>
+      <c r="BN9" s="22">
         <v>2016</v>
       </c>
-      <c r="BO9" s="19"/>
-      <c r="BP9" s="19"/>
-      <c r="BQ9" s="19"/>
-      <c r="BR9" s="19">
+      <c r="BO9" s="22"/>
+      <c r="BP9" s="22"/>
+      <c r="BQ9" s="22"/>
+      <c r="BR9" s="22">
         <v>2017</v>
       </c>
-      <c r="BS9" s="19"/>
-      <c r="BT9" s="19"/>
-      <c r="BU9" s="19"/>
-      <c r="BV9" s="19">
+      <c r="BS9" s="22"/>
+      <c r="BT9" s="22"/>
+      <c r="BU9" s="22"/>
+      <c r="BV9" s="22">
         <v>2018</v>
       </c>
-      <c r="BW9" s="19"/>
-      <c r="BX9" s="19"/>
-      <c r="BY9" s="19"/>
-      <c r="BZ9" s="19">
+      <c r="BW9" s="22"/>
+      <c r="BX9" s="22"/>
+      <c r="BY9" s="22"/>
+      <c r="BZ9" s="22">
         <v>2019</v>
       </c>
-      <c r="CA9" s="19"/>
-      <c r="CB9" s="19"/>
-      <c r="CC9" s="19"/>
-      <c r="CD9" s="19">
+      <c r="CA9" s="22"/>
+      <c r="CB9" s="22"/>
+      <c r="CC9" s="22"/>
+      <c r="CD9" s="22">
         <v>2020</v>
       </c>
-      <c r="CE9" s="19"/>
-      <c r="CF9" s="19"/>
-      <c r="CG9" s="19"/>
-      <c r="CH9" s="19">
+      <c r="CE9" s="22"/>
+      <c r="CF9" s="22"/>
+      <c r="CG9" s="22"/>
+      <c r="CH9" s="22">
         <v>2021</v>
       </c>
-      <c r="CI9" s="19"/>
-      <c r="CJ9" s="19"/>
-      <c r="CK9" s="19"/>
-      <c r="CL9" s="19">
+      <c r="CI9" s="22"/>
+      <c r="CJ9" s="22"/>
+      <c r="CK9" s="22"/>
+      <c r="CL9" s="22">
         <v>2022</v>
       </c>
-      <c r="CM9" s="19"/>
-      <c r="CN9" s="19"/>
-      <c r="CO9" s="19"/>
+      <c r="CM9" s="22"/>
+      <c r="CN9" s="22"/>
+      <c r="CO9" s="22"/>
+      <c r="CP9" s="19">
+        <v>2023</v>
+      </c>
     </row>
     <row r="10" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24185,6 +24197,9 @@
       </c>
       <c r="CO10" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="CP10" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24281,6 +24296,7 @@
       <c r="CM11" s="1"/>
       <c r="CN11" s="1"/>
       <c r="CO11" s="1"/>
+      <c r="CP11" s="1"/>
     </row>
     <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
@@ -24526,43 +24542,45 @@
       <c r="CC12" s="10">
         <v>81508.528887371693</v>
       </c>
-      <c r="CD12" s="10">
+      <c r="CD12" s="20">
         <v>63786.222259061149</v>
       </c>
-      <c r="CE12" s="10">
+      <c r="CE12" s="20">
         <v>20617.207518108418</v>
       </c>
-      <c r="CF12" s="10">
+      <c r="CF12" s="20">
         <v>23018.507943459255</v>
       </c>
-      <c r="CG12" s="10">
+      <c r="CG12" s="20">
         <v>39353.861632009895</v>
       </c>
-      <c r="CH12" s="10">
+      <c r="CH12" s="20">
         <v>34359.79005139049</v>
       </c>
-      <c r="CI12" s="10">
+      <c r="CI12" s="20">
         <v>32934.632216273138</v>
       </c>
-      <c r="CJ12" s="10">
+      <c r="CJ12" s="20">
         <v>31101.235178779076</v>
       </c>
-      <c r="CK12" s="10">
+      <c r="CK12" s="20">
         <v>58285.980798410397</v>
       </c>
-      <c r="CL12" s="10">
+      <c r="CL12" s="20">
         <v>44173.952257399738</v>
       </c>
-      <c r="CM12" s="10">
+      <c r="CM12" s="20">
         <v>52336.697097351629</v>
       </c>
-      <c r="CN12" s="10">
+      <c r="CN12" s="20">
         <v>48353.552505266598</v>
       </c>
-      <c r="CO12" s="10">
+      <c r="CO12" s="20">
         <v>71982.007955611291</v>
       </c>
-      <c r="CP12" s="11"/>
+      <c r="CP12" s="20">
+        <v>65151.107717545892</v>
+      </c>
       <c r="CQ12" s="11"/>
       <c r="CR12" s="11"/>
       <c r="CS12" s="11"/>
@@ -24869,43 +24887,45 @@
       <c r="CC13" s="10">
         <v>44166.037829492408</v>
       </c>
-      <c r="CD13" s="10">
+      <c r="CD13" s="20">
         <v>43608.801726798847</v>
       </c>
-      <c r="CE13" s="10">
+      <c r="CE13" s="20">
         <v>23863.68189174154</v>
       </c>
-      <c r="CF13" s="10">
+      <c r="CF13" s="20">
         <v>24472.478718680635</v>
       </c>
-      <c r="CG13" s="10">
+      <c r="CG13" s="20">
         <v>33236.548627112723</v>
       </c>
-      <c r="CH13" s="10">
+      <c r="CH13" s="20">
         <v>32815.823343175747</v>
       </c>
-      <c r="CI13" s="10">
+      <c r="CI13" s="20">
         <v>28765.181851902711</v>
       </c>
-      <c r="CJ13" s="10">
+      <c r="CJ13" s="20">
         <v>26148.897222831041</v>
       </c>
-      <c r="CK13" s="10">
+      <c r="CK13" s="20">
         <v>36649.135463693521</v>
       </c>
-      <c r="CL13" s="10">
+      <c r="CL13" s="20">
         <v>39201.392208936297</v>
       </c>
-      <c r="CM13" s="10">
+      <c r="CM13" s="20">
         <v>34113.964358649384</v>
       </c>
-      <c r="CN13" s="10">
+      <c r="CN13" s="20">
         <v>31980.411933406729</v>
       </c>
-      <c r="CO13" s="10">
+      <c r="CO13" s="20">
         <v>43437.215392067759</v>
       </c>
-      <c r="CP13" s="11"/>
+      <c r="CP13" s="20">
+        <v>53685.686350422409</v>
+      </c>
       <c r="CQ13" s="11"/>
       <c r="CR13" s="11"/>
       <c r="CS13" s="11"/>
@@ -25049,19 +25069,19 @@
       <c r="CA14" s="13"/>
       <c r="CB14" s="13"/>
       <c r="CC14" s="13"/>
-      <c r="CD14" s="13"/>
-      <c r="CE14" s="13"/>
-      <c r="CF14" s="13"/>
-      <c r="CG14" s="13"/>
-      <c r="CH14" s="13"/>
-      <c r="CI14" s="13"/>
-      <c r="CJ14" s="13"/>
-      <c r="CK14" s="13"/>
-      <c r="CL14" s="13"/>
-      <c r="CM14" s="13"/>
-      <c r="CN14" s="13"/>
-      <c r="CO14" s="13"/>
-      <c r="CP14" s="11"/>
+      <c r="CD14" s="21"/>
+      <c r="CE14" s="21"/>
+      <c r="CF14" s="21"/>
+      <c r="CG14" s="21"/>
+      <c r="CH14" s="21"/>
+      <c r="CI14" s="21"/>
+      <c r="CJ14" s="21"/>
+      <c r="CK14" s="21"/>
+      <c r="CL14" s="21"/>
+      <c r="CM14" s="21"/>
+      <c r="CN14" s="21"/>
+      <c r="CO14" s="21"/>
+      <c r="CP14" s="21"/>
       <c r="CQ14" s="11"/>
       <c r="CR14" s="11"/>
       <c r="CS14" s="11"/>
@@ -25368,43 +25388,45 @@
       <c r="CC15" s="13">
         <v>125674.56671686409</v>
       </c>
-      <c r="CD15" s="13">
+      <c r="CD15" s="21">
         <v>107395.02398586</v>
       </c>
-      <c r="CE15" s="13">
+      <c r="CE15" s="21">
         <v>44480.889409849959</v>
       </c>
-      <c r="CF15" s="13">
+      <c r="CF15" s="21">
         <v>47490.986662139891</v>
       </c>
-      <c r="CG15" s="13">
+      <c r="CG15" s="21">
         <v>72590.410259122611</v>
       </c>
-      <c r="CH15" s="13">
+      <c r="CH15" s="21">
         <v>67175.61339456623</v>
       </c>
-      <c r="CI15" s="13">
+      <c r="CI15" s="21">
         <v>61699.814068175852</v>
       </c>
-      <c r="CJ15" s="13">
+      <c r="CJ15" s="21">
         <v>57250.132401610113</v>
       </c>
-      <c r="CK15" s="13">
+      <c r="CK15" s="21">
         <v>94935.116262103926</v>
       </c>
-      <c r="CL15" s="13">
+      <c r="CL15" s="21">
         <v>83375.344466336042</v>
       </c>
-      <c r="CM15" s="13">
+      <c r="CM15" s="21">
         <v>86450.66145600102</v>
       </c>
-      <c r="CN15" s="13">
+      <c r="CN15" s="21">
         <v>80333.964438673327</v>
       </c>
-      <c r="CO15" s="13">
+      <c r="CO15" s="21">
         <v>115419.22334767904</v>
       </c>
-      <c r="CP15" s="11"/>
+      <c r="CP15" s="21">
+        <v>118836.79406796829</v>
+      </c>
       <c r="CQ15" s="11"/>
       <c r="CR15" s="11"/>
       <c r="CS15" s="11"/>
@@ -25561,6 +25583,7 @@
       <c r="CM16" s="15"/>
       <c r="CN16" s="15"/>
       <c r="CO16" s="15"/>
+      <c r="CP16" s="15"/>
     </row>
     <row r="17" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
@@ -25658,6 +25681,7 @@
       <c r="CM17" s="1"/>
       <c r="CN17" s="1"/>
       <c r="CO17" s="1"/>
+      <c r="CP17" s="1"/>
     </row>
     <row r="18" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="17"/>
@@ -25752,7 +25776,7 @@
       <c r="CM18" s="17"/>
       <c r="CN18" s="17"/>
       <c r="CO18" s="17"/>
-      <c r="CP18" s="11"/>
+      <c r="CP18" s="17"/>
       <c r="CQ18" s="11"/>
       <c r="CR18" s="11"/>
       <c r="CS18" s="11"/>
@@ -25908,7 +25932,7 @@
       <c r="CM19" s="17"/>
       <c r="CN19" s="17"/>
       <c r="CO19" s="17"/>
-      <c r="CP19" s="11"/>
+      <c r="CP19" s="17"/>
       <c r="CQ19" s="11"/>
       <c r="CR19" s="11"/>
       <c r="CS19" s="11"/>
@@ -26067,6 +26091,7 @@
       <c r="CM20" s="1"/>
       <c r="CN20" s="1"/>
       <c r="CO20" s="1"/>
+      <c r="CP20" s="1"/>
     </row>
     <row r="21" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -26164,10 +26189,11 @@
       <c r="CM21" s="1"/>
       <c r="CN21" s="1"/>
       <c r="CO21" s="1"/>
+      <c r="CP21" s="1"/>
     </row>
     <row r="22" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -26261,6 +26287,7 @@
       <c r="CM22" s="1"/>
       <c r="CN22" s="1"/>
       <c r="CO22" s="1"/>
+      <c r="CP22" s="1"/>
     </row>
     <row r="23" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
@@ -26356,6 +26383,7 @@
       <c r="CM23" s="1"/>
       <c r="CN23" s="1"/>
       <c r="CO23" s="1"/>
+      <c r="CP23" s="1"/>
     </row>
     <row r="24" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -26453,10 +26481,11 @@
       <c r="CM24" s="1"/>
       <c r="CN24" s="1"/>
       <c r="CO24" s="1"/>
+      <c r="CP24" s="1"/>
     </row>
     <row r="25" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -26550,6 +26579,7 @@
       <c r="CM25" s="1"/>
       <c r="CN25" s="1"/>
       <c r="CO25" s="1"/>
+      <c r="CP25" s="1"/>
     </row>
     <row r="26" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -26647,6 +26677,7 @@
       <c r="CM26" s="1"/>
       <c r="CN26" s="1"/>
       <c r="CO26" s="1"/>
+      <c r="CP26" s="1"/>
     </row>
     <row r="27" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
@@ -26742,147 +26773,151 @@
       <c r="CM27" s="1"/>
       <c r="CN27" s="1"/>
       <c r="CO27" s="1"/>
+      <c r="CP27" s="1"/>
     </row>
     <row r="28" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
-      <c r="B28" s="19">
+      <c r="B28" s="22">
         <v>2000</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="19">
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="22">
         <v>2001</v>
       </c>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="19">
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="22">
         <v>2002</v>
       </c>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="19">
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="22">
         <v>2003</v>
       </c>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="19">
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="22">
         <v>2004</v>
       </c>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="19">
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="22">
         <v>2005</v>
       </c>
-      <c r="W28" s="20"/>
-      <c r="X28" s="20"/>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="19">
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="22">
         <v>2006</v>
       </c>
-      <c r="AA28" s="20"/>
-      <c r="AB28" s="20"/>
-      <c r="AC28" s="20"/>
-      <c r="AD28" s="19">
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="22">
         <v>2007</v>
       </c>
-      <c r="AE28" s="20"/>
-      <c r="AF28" s="20"/>
-      <c r="AG28" s="20"/>
-      <c r="AH28" s="19">
+      <c r="AE28" s="23"/>
+      <c r="AF28" s="23"/>
+      <c r="AG28" s="23"/>
+      <c r="AH28" s="22">
         <v>2008</v>
       </c>
-      <c r="AI28" s="20"/>
-      <c r="AJ28" s="20"/>
-      <c r="AK28" s="20"/>
-      <c r="AL28" s="19">
+      <c r="AI28" s="23"/>
+      <c r="AJ28" s="23"/>
+      <c r="AK28" s="23"/>
+      <c r="AL28" s="22">
         <v>2009</v>
       </c>
-      <c r="AM28" s="20"/>
-      <c r="AN28" s="20"/>
-      <c r="AO28" s="20"/>
-      <c r="AP28" s="19">
+      <c r="AM28" s="23"/>
+      <c r="AN28" s="23"/>
+      <c r="AO28" s="23"/>
+      <c r="AP28" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="20"/>
-      <c r="AR28" s="20"/>
-      <c r="AS28" s="20"/>
-      <c r="AT28" s="19">
+      <c r="AQ28" s="23"/>
+      <c r="AR28" s="23"/>
+      <c r="AS28" s="23"/>
+      <c r="AT28" s="22">
         <v>2011</v>
       </c>
-      <c r="AU28" s="20"/>
-      <c r="AV28" s="20"/>
-      <c r="AW28" s="20"/>
-      <c r="AX28" s="19">
+      <c r="AU28" s="23"/>
+      <c r="AV28" s="23"/>
+      <c r="AW28" s="23"/>
+      <c r="AX28" s="22">
         <v>2012</v>
       </c>
-      <c r="AY28" s="20"/>
-      <c r="AZ28" s="20"/>
-      <c r="BA28" s="20"/>
-      <c r="BB28" s="19">
+      <c r="AY28" s="23"/>
+      <c r="AZ28" s="23"/>
+      <c r="BA28" s="23"/>
+      <c r="BB28" s="22">
         <v>2013</v>
       </c>
-      <c r="BC28" s="20"/>
-      <c r="BD28" s="20"/>
-      <c r="BE28" s="20"/>
-      <c r="BF28" s="19">
+      <c r="BC28" s="23"/>
+      <c r="BD28" s="23"/>
+      <c r="BE28" s="23"/>
+      <c r="BF28" s="22">
         <v>2014</v>
       </c>
-      <c r="BG28" s="20"/>
-      <c r="BH28" s="20"/>
-      <c r="BI28" s="20"/>
-      <c r="BJ28" s="19">
+      <c r="BG28" s="23"/>
+      <c r="BH28" s="23"/>
+      <c r="BI28" s="23"/>
+      <c r="BJ28" s="22">
         <v>2015</v>
       </c>
-      <c r="BK28" s="20"/>
-      <c r="BL28" s="20"/>
-      <c r="BM28" s="20"/>
-      <c r="BN28" s="19">
+      <c r="BK28" s="23"/>
+      <c r="BL28" s="23"/>
+      <c r="BM28" s="23"/>
+      <c r="BN28" s="22">
         <v>2016</v>
       </c>
-      <c r="BO28" s="20"/>
-      <c r="BP28" s="20"/>
-      <c r="BQ28" s="20"/>
-      <c r="BR28" s="19">
+      <c r="BO28" s="23"/>
+      <c r="BP28" s="23"/>
+      <c r="BQ28" s="23"/>
+      <c r="BR28" s="22">
         <v>2017</v>
       </c>
-      <c r="BS28" s="20"/>
-      <c r="BT28" s="20"/>
-      <c r="BU28" s="20"/>
-      <c r="BV28" s="19">
+      <c r="BS28" s="23"/>
+      <c r="BT28" s="23"/>
+      <c r="BU28" s="23"/>
+      <c r="BV28" s="22">
         <v>2018</v>
       </c>
-      <c r="BW28" s="19"/>
-      <c r="BX28" s="19"/>
-      <c r="BY28" s="19"/>
-      <c r="BZ28" s="19">
+      <c r="BW28" s="22"/>
+      <c r="BX28" s="22"/>
+      <c r="BY28" s="22"/>
+      <c r="BZ28" s="22">
         <v>2019</v>
       </c>
-      <c r="CA28" s="19"/>
-      <c r="CB28" s="19"/>
-      <c r="CC28" s="19"/>
-      <c r="CD28" s="19">
+      <c r="CA28" s="22"/>
+      <c r="CB28" s="22"/>
+      <c r="CC28" s="22"/>
+      <c r="CD28" s="22">
         <v>2020</v>
       </c>
-      <c r="CE28" s="19"/>
-      <c r="CF28" s="19"/>
-      <c r="CG28" s="19"/>
-      <c r="CH28" s="19">
+      <c r="CE28" s="22"/>
+      <c r="CF28" s="22"/>
+      <c r="CG28" s="22"/>
+      <c r="CH28" s="22">
         <v>2021</v>
       </c>
-      <c r="CI28" s="19"/>
-      <c r="CJ28" s="19"/>
-      <c r="CK28" s="19"/>
-      <c r="CL28" s="19">
+      <c r="CI28" s="22"/>
+      <c r="CJ28" s="22"/>
+      <c r="CK28" s="22"/>
+      <c r="CL28" s="22">
         <v>2022</v>
       </c>
-      <c r="CM28" s="19"/>
-      <c r="CN28" s="19"/>
-      <c r="CO28" s="19"/>
+      <c r="CM28" s="22"/>
+      <c r="CN28" s="22"/>
+      <c r="CO28" s="22"/>
+      <c r="CP28" s="19">
+        <v>2023</v>
+      </c>
     </row>
     <row r="29" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
@@ -27163,6 +27198,9 @@
       </c>
       <c r="CO29" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="CP29" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27259,6 +27297,7 @@
       <c r="CM30" s="1"/>
       <c r="CN30" s="1"/>
       <c r="CO30" s="1"/>
+      <c r="CP30" s="1"/>
     </row>
     <row r="31" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
@@ -27504,43 +27543,45 @@
       <c r="CC31" s="10">
         <v>77632.074611923599</v>
       </c>
-      <c r="CD31" s="10">
+      <c r="CD31" s="20">
         <v>61585.987886369272</v>
       </c>
-      <c r="CE31" s="10">
+      <c r="CE31" s="20">
         <v>19632.918530349722</v>
       </c>
-      <c r="CF31" s="10">
+      <c r="CF31" s="20">
         <v>22057.829345798316</v>
       </c>
-      <c r="CG31" s="10">
+      <c r="CG31" s="20">
         <v>37867.593372515308</v>
       </c>
-      <c r="CH31" s="10">
+      <c r="CH31" s="20">
         <v>33570.762662069799</v>
       </c>
-      <c r="CI31" s="10">
+      <c r="CI31" s="20">
         <v>31824.27086371804</v>
       </c>
-      <c r="CJ31" s="10">
+      <c r="CJ31" s="20">
         <v>29870.330912766793</v>
       </c>
-      <c r="CK31" s="10">
+      <c r="CK31" s="20">
         <v>55806.264395766862</v>
       </c>
-      <c r="CL31" s="10">
+      <c r="CL31" s="20">
         <v>42666.482735980899</v>
       </c>
-      <c r="CM31" s="10">
+      <c r="CM31" s="20">
         <v>50160.827000193254</v>
       </c>
-      <c r="CN31" s="10">
+      <c r="CN31" s="20">
         <v>45747.247224650651</v>
       </c>
-      <c r="CO31" s="10">
+      <c r="CO31" s="20">
         <v>67178.583782310918</v>
       </c>
-      <c r="CP31" s="11"/>
+      <c r="CP31" s="20">
+        <v>60528.319001607997</v>
+      </c>
       <c r="CQ31" s="11"/>
       <c r="CR31" s="11"/>
       <c r="CS31" s="11"/>
@@ -27847,43 +27888,45 @@
       <c r="CC32" s="10">
         <v>43548.930942141553</v>
       </c>
-      <c r="CD32" s="10">
+      <c r="CD32" s="20">
         <v>41369.815682889341</v>
       </c>
-      <c r="CE32" s="10">
+      <c r="CE32" s="20">
         <v>22472.22600082789</v>
       </c>
-      <c r="CF32" s="10">
+      <c r="CF32" s="20">
         <v>22860.431135433821</v>
       </c>
-      <c r="CG32" s="10">
+      <c r="CG32" s="20">
         <v>30911.379465516111</v>
       </c>
-      <c r="CH32" s="10">
+      <c r="CH32" s="20">
         <v>29508.709154032811</v>
       </c>
-      <c r="CI32" s="10">
+      <c r="CI32" s="20">
         <v>26096.433565107174</v>
       </c>
-      <c r="CJ32" s="10">
+      <c r="CJ32" s="20">
         <v>23839.078751075409</v>
       </c>
-      <c r="CK32" s="10">
+      <c r="CK32" s="20">
         <v>33383.353309608567</v>
       </c>
-      <c r="CL32" s="10">
+      <c r="CL32" s="20">
         <v>34870.138067721156</v>
       </c>
-      <c r="CM32" s="10">
+      <c r="CM32" s="20">
         <v>30896.857861207467</v>
       </c>
-      <c r="CN32" s="10">
+      <c r="CN32" s="20">
         <v>28878.700203074994</v>
       </c>
-      <c r="CO32" s="10">
+      <c r="CO32" s="20">
         <v>38575.913995093506</v>
       </c>
-      <c r="CP32" s="11"/>
+      <c r="CP32" s="20">
+        <v>45273.25643013457</v>
+      </c>
       <c r="CQ32" s="11"/>
       <c r="CR32" s="11"/>
       <c r="CS32" s="11"/>
@@ -28027,19 +28070,19 @@
       <c r="CA33" s="13"/>
       <c r="CB33" s="13"/>
       <c r="CC33" s="13"/>
-      <c r="CD33" s="13"/>
-      <c r="CE33" s="13"/>
-      <c r="CF33" s="13"/>
-      <c r="CG33" s="13"/>
-      <c r="CH33" s="13"/>
-      <c r="CI33" s="13"/>
-      <c r="CJ33" s="13"/>
-      <c r="CK33" s="13"/>
-      <c r="CL33" s="13"/>
-      <c r="CM33" s="13"/>
-      <c r="CN33" s="13"/>
-      <c r="CO33" s="13"/>
-      <c r="CP33" s="11"/>
+      <c r="CD33" s="21"/>
+      <c r="CE33" s="21"/>
+      <c r="CF33" s="21"/>
+      <c r="CG33" s="21"/>
+      <c r="CH33" s="21"/>
+      <c r="CI33" s="21"/>
+      <c r="CJ33" s="21"/>
+      <c r="CK33" s="21"/>
+      <c r="CL33" s="21"/>
+      <c r="CM33" s="21"/>
+      <c r="CN33" s="21"/>
+      <c r="CO33" s="21"/>
+      <c r="CP33" s="21"/>
       <c r="CQ33" s="11"/>
       <c r="CR33" s="11"/>
       <c r="CS33" s="11"/>
@@ -28346,43 +28389,45 @@
       <c r="CC34" s="13">
         <v>121181.00555406515</v>
       </c>
-      <c r="CD34" s="13">
+      <c r="CD34" s="21">
         <v>102955.80356925861</v>
       </c>
-      <c r="CE34" s="13">
+      <c r="CE34" s="21">
         <v>42105.144531177611</v>
       </c>
-      <c r="CF34" s="13">
+      <c r="CF34" s="21">
         <v>44918.260481232137</v>
       </c>
-      <c r="CG34" s="13">
+      <c r="CG34" s="21">
         <v>68778.972838031419</v>
       </c>
-      <c r="CH34" s="13">
+      <c r="CH34" s="21">
         <v>63079.47181610261</v>
       </c>
-      <c r="CI34" s="13">
+      <c r="CI34" s="21">
         <v>57920.704428825215</v>
       </c>
-      <c r="CJ34" s="13">
+      <c r="CJ34" s="21">
         <v>53709.409663842205</v>
       </c>
-      <c r="CK34" s="13">
+      <c r="CK34" s="21">
         <v>89189.617705375422</v>
       </c>
-      <c r="CL34" s="13">
+      <c r="CL34" s="21">
         <v>77536.620803702055</v>
       </c>
-      <c r="CM34" s="13">
+      <c r="CM34" s="21">
         <v>81057.684861400718</v>
       </c>
-      <c r="CN34" s="13">
+      <c r="CN34" s="21">
         <v>74625.947427725652</v>
       </c>
-      <c r="CO34" s="13">
+      <c r="CO34" s="21">
         <v>105754.49777740442</v>
       </c>
-      <c r="CP34" s="11"/>
+      <c r="CP34" s="21">
+        <v>105801.57543174256</v>
+      </c>
       <c r="CQ34" s="11"/>
       <c r="CR34" s="11"/>
       <c r="CS34" s="11"/>
@@ -28539,6 +28584,7 @@
       <c r="CM35" s="15"/>
       <c r="CN35" s="15"/>
       <c r="CO35" s="15"/>
+      <c r="CP35" s="15"/>
     </row>
     <row r="36" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
@@ -28636,6 +28682,7 @@
       <c r="CM36" s="1"/>
       <c r="CN36" s="1"/>
       <c r="CO36" s="1"/>
+      <c r="CP36" s="1"/>
     </row>
     <row r="37" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="17"/>
@@ -28730,7 +28777,7 @@
       <c r="CM37" s="17"/>
       <c r="CN37" s="17"/>
       <c r="CO37" s="17"/>
-      <c r="CP37" s="11"/>
+      <c r="CP37" s="17"/>
       <c r="CQ37" s="11"/>
       <c r="CR37" s="11"/>
       <c r="CS37" s="11"/>
@@ -28886,7 +28933,7 @@
       <c r="CM38" s="17"/>
       <c r="CN38" s="17"/>
       <c r="CO38" s="17"/>
-      <c r="CP38" s="11"/>
+      <c r="CP38" s="17"/>
       <c r="CQ38" s="11"/>
       <c r="CR38" s="11"/>
       <c r="CS38" s="11"/>
@@ -29045,6 +29092,7 @@
       <c r="CM39" s="1"/>
       <c r="CN39" s="1"/>
       <c r="CO39" s="1"/>
+      <c r="CP39" s="1"/>
     </row>
     <row r="40" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
@@ -29142,10 +29190,11 @@
       <c r="CM40" s="1"/>
       <c r="CN40" s="1"/>
       <c r="CO40" s="1"/>
+      <c r="CP40" s="1"/>
     </row>
     <row r="41" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -29239,6 +29288,7 @@
       <c r="CM41" s="1"/>
       <c r="CN41" s="1"/>
       <c r="CO41" s="1"/>
+      <c r="CP41" s="1"/>
     </row>
     <row r="42" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
@@ -29334,6 +29384,7 @@
       <c r="CM42" s="1"/>
       <c r="CN42" s="1"/>
       <c r="CO42" s="1"/>
+      <c r="CP42" s="1"/>
     </row>
     <row r="43" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -29431,10 +29482,11 @@
       <c r="CM43" s="1"/>
       <c r="CN43" s="1"/>
       <c r="CO43" s="1"/>
+      <c r="CP43" s="1"/>
     </row>
     <row r="44" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -29528,6 +29580,7 @@
       <c r="CM44" s="1"/>
       <c r="CN44" s="1"/>
       <c r="CO44" s="1"/>
+      <c r="CP44" s="1"/>
     </row>
     <row r="45" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -29613,18 +29666,6 @@
       <c r="CA45" s="1"/>
       <c r="CB45" s="1"/>
       <c r="CC45" s="1"/>
-      <c r="CD45" s="1"/>
-      <c r="CE45" s="1"/>
-      <c r="CF45" s="1"/>
-      <c r="CG45" s="1"/>
-      <c r="CH45" s="1"/>
-      <c r="CI45" s="1"/>
-      <c r="CJ45" s="1"/>
-      <c r="CK45" s="1"/>
-      <c r="CL45" s="1"/>
-      <c r="CM45" s="1"/>
-      <c r="CN45" s="1"/>
-      <c r="CO45" s="1"/>
     </row>
     <row r="46" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
@@ -29720,145 +29761,149 @@
       <c r="CM46" s="1"/>
       <c r="CN46" s="1"/>
       <c r="CO46" s="1"/>
+      <c r="CP46" s="1"/>
     </row>
     <row r="47" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19" t="s">
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19" t="s">
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19" t="s">
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="19"/>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="19" t="s">
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="19"/>
-      <c r="T47" s="19"/>
-      <c r="U47" s="19"/>
-      <c r="V47" s="19" t="s">
+      <c r="S47" s="22"/>
+      <c r="T47" s="22"/>
+      <c r="U47" s="22"/>
+      <c r="V47" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="19"/>
-      <c r="X47" s="19"/>
-      <c r="Y47" s="19"/>
-      <c r="Z47" s="19" t="s">
+      <c r="W47" s="22"/>
+      <c r="X47" s="22"/>
+      <c r="Y47" s="22"/>
+      <c r="Z47" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="19"/>
-      <c r="AB47" s="19"/>
-      <c r="AC47" s="19"/>
-      <c r="AD47" s="19" t="s">
+      <c r="AA47" s="22"/>
+      <c r="AB47" s="22"/>
+      <c r="AC47" s="22"/>
+      <c r="AD47" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="19"/>
-      <c r="AF47" s="19"/>
-      <c r="AG47" s="19"/>
-      <c r="AH47" s="19" t="s">
+      <c r="AE47" s="22"/>
+      <c r="AF47" s="22"/>
+      <c r="AG47" s="22"/>
+      <c r="AH47" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="19"/>
-      <c r="AJ47" s="19"/>
-      <c r="AK47" s="19"/>
-      <c r="AL47" s="19" t="s">
+      <c r="AI47" s="22"/>
+      <c r="AJ47" s="22"/>
+      <c r="AK47" s="22"/>
+      <c r="AL47" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="19"/>
-      <c r="AN47" s="19"/>
-      <c r="AO47" s="19"/>
-      <c r="AP47" s="19" t="s">
+      <c r="AM47" s="22"/>
+      <c r="AN47" s="22"/>
+      <c r="AO47" s="22"/>
+      <c r="AP47" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="19"/>
-      <c r="AR47" s="19"/>
-      <c r="AS47" s="19"/>
-      <c r="AT47" s="19" t="s">
+      <c r="AQ47" s="22"/>
+      <c r="AR47" s="22"/>
+      <c r="AS47" s="22"/>
+      <c r="AT47" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="19"/>
-      <c r="AV47" s="19"/>
-      <c r="AW47" s="19"/>
-      <c r="AX47" s="19" t="s">
+      <c r="AU47" s="22"/>
+      <c r="AV47" s="22"/>
+      <c r="AW47" s="22"/>
+      <c r="AX47" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="19"/>
-      <c r="AZ47" s="19"/>
-      <c r="BA47" s="19"/>
-      <c r="BB47" s="19" t="s">
+      <c r="AY47" s="22"/>
+      <c r="AZ47" s="22"/>
+      <c r="BA47" s="22"/>
+      <c r="BB47" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="19"/>
-      <c r="BD47" s="19"/>
-      <c r="BE47" s="19"/>
-      <c r="BF47" s="19" t="s">
+      <c r="BC47" s="22"/>
+      <c r="BD47" s="22"/>
+      <c r="BE47" s="22"/>
+      <c r="BF47" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="19"/>
-      <c r="BH47" s="19"/>
-      <c r="BI47" s="19"/>
-      <c r="BJ47" s="19" t="s">
+      <c r="BG47" s="22"/>
+      <c r="BH47" s="22"/>
+      <c r="BI47" s="22"/>
+      <c r="BJ47" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="19"/>
-      <c r="BL47" s="19"/>
-      <c r="BM47" s="19"/>
-      <c r="BN47" s="19" t="s">
+      <c r="BK47" s="22"/>
+      <c r="BL47" s="22"/>
+      <c r="BM47" s="22"/>
+      <c r="BN47" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="19"/>
-      <c r="BP47" s="19"/>
-      <c r="BQ47" s="19"/>
-      <c r="BR47" s="19" t="s">
+      <c r="BO47" s="22"/>
+      <c r="BP47" s="22"/>
+      <c r="BQ47" s="22"/>
+      <c r="BR47" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="BS47" s="19"/>
-      <c r="BT47" s="19"/>
-      <c r="BU47" s="19"/>
-      <c r="BV47" s="19" t="s">
+      <c r="BS47" s="22"/>
+      <c r="BT47" s="22"/>
+      <c r="BU47" s="22"/>
+      <c r="BV47" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="BW47" s="19"/>
-      <c r="BX47" s="19"/>
-      <c r="BY47" s="19"/>
-      <c r="BZ47" s="19" t="s">
+      <c r="BW47" s="22"/>
+      <c r="BX47" s="22"/>
+      <c r="BY47" s="22"/>
+      <c r="BZ47" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="19"/>
-      <c r="CB47" s="19"/>
-      <c r="CC47" s="19"/>
-      <c r="CD47" s="19" t="s">
+      <c r="CA47" s="22"/>
+      <c r="CB47" s="22"/>
+      <c r="CC47" s="22"/>
+      <c r="CD47" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="19"/>
-      <c r="CF47" s="19"/>
-      <c r="CG47" s="19"/>
-      <c r="CH47" s="19" t="s">
+      <c r="CE47" s="22"/>
+      <c r="CF47" s="22"/>
+      <c r="CG47" s="22"/>
+      <c r="CH47" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="CI47" s="19"/>
-      <c r="CJ47" s="19"/>
-      <c r="CK47" s="19"/>
-      <c r="CL47" s="19"/>
+      <c r="CI47" s="22"/>
+      <c r="CJ47" s="22"/>
+      <c r="CK47" s="22"/>
+      <c r="CL47" s="19" t="s">
+        <v>48</v>
+      </c>
       <c r="CM47" s="19"/>
       <c r="CN47" s="19"/>
       <c r="CO47" s="19"/>
+      <c r="CP47" s="19"/>
     </row>
     <row r="48" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
@@ -30128,10 +30173,13 @@
       <c r="CK48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL48" s="6"/>
+      <c r="CL48" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="CM48" s="6"/>
       <c r="CN48" s="6"/>
       <c r="CO48" s="6"/>
+      <c r="CP48" s="6"/>
     </row>
     <row r="49" spans="1:151" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
@@ -30227,6 +30275,7 @@
       <c r="CM49" s="1"/>
       <c r="CN49" s="1"/>
       <c r="CO49" s="1"/>
+      <c r="CP49" s="1"/>
     </row>
     <row r="50" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
@@ -30496,11 +30545,13 @@
       <c r="CK50" s="18">
         <v>23.497978363906014</v>
       </c>
-      <c r="CL50" s="18"/>
+      <c r="CL50" s="18">
+        <v>47.487612921554245</v>
+      </c>
       <c r="CM50" s="18"/>
       <c r="CN50" s="18"/>
       <c r="CO50" s="18"/>
-      <c r="CP50" s="11"/>
+      <c r="CP50" s="18"/>
       <c r="CQ50" s="11"/>
       <c r="CR50" s="11"/>
       <c r="CS50" s="11"/>
@@ -30827,11 +30878,13 @@
       <c r="CK51" s="18">
         <v>18.521800971536834</v>
       </c>
-      <c r="CL51" s="18"/>
+      <c r="CL51" s="18">
+        <v>36.948417709981982</v>
+      </c>
       <c r="CM51" s="18"/>
       <c r="CN51" s="18"/>
       <c r="CO51" s="18"/>
-      <c r="CP51" s="11"/>
+      <c r="CP51" s="18"/>
       <c r="CQ51" s="11"/>
       <c r="CR51" s="11"/>
       <c r="CS51" s="11"/>
@@ -30984,7 +31037,7 @@
       <c r="CM52" s="17"/>
       <c r="CN52" s="17"/>
       <c r="CO52" s="17"/>
-      <c r="CP52" s="11"/>
+      <c r="CP52" s="17"/>
       <c r="CQ52" s="11"/>
       <c r="CR52" s="11"/>
       <c r="CS52" s="11"/>
@@ -31311,11 +31364,13 @@
       <c r="CK53" s="18">
         <v>21.576954758259376</v>
       </c>
-      <c r="CL53" s="18"/>
+      <c r="CL53" s="18">
+        <v>42.532297561841347</v>
+      </c>
       <c r="CM53" s="18"/>
       <c r="CN53" s="18"/>
       <c r="CO53" s="18"/>
-      <c r="CP53" s="11"/>
+      <c r="CP53" s="18"/>
       <c r="CQ53" s="11"/>
       <c r="CR53" s="11"/>
       <c r="CS53" s="11"/>
@@ -31468,6 +31523,7 @@
       <c r="CM54" s="15"/>
       <c r="CN54" s="15"/>
       <c r="CO54" s="15"/>
+      <c r="CP54" s="15"/>
     </row>
     <row r="55" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
@@ -31565,6 +31621,7 @@
       <c r="CM55" s="1"/>
       <c r="CN55" s="1"/>
       <c r="CO55" s="1"/>
+      <c r="CP55" s="1"/>
     </row>
     <row r="56" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="17"/>
@@ -31659,7 +31716,7 @@
       <c r="CM56" s="17"/>
       <c r="CN56" s="17"/>
       <c r="CO56" s="17"/>
-      <c r="CP56" s="11"/>
+      <c r="CP56" s="17"/>
       <c r="CQ56" s="11"/>
       <c r="CR56" s="11"/>
       <c r="CS56" s="11"/>
@@ -31811,7 +31868,7 @@
       <c r="CM57" s="17"/>
       <c r="CN57" s="17"/>
       <c r="CO57" s="17"/>
-      <c r="CP57" s="11"/>
+      <c r="CP57" s="17"/>
       <c r="CQ57" s="11"/>
       <c r="CR57" s="11"/>
       <c r="CS57" s="11"/>
@@ -31966,6 +32023,7 @@
       <c r="CM58" s="1"/>
       <c r="CN58" s="1"/>
       <c r="CO58" s="1"/>
+      <c r="CP58" s="1"/>
     </row>
     <row r="59" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -32063,10 +32121,11 @@
       <c r="CM59" s="1"/>
       <c r="CN59" s="1"/>
       <c r="CO59" s="1"/>
+      <c r="CP59" s="1"/>
     </row>
     <row r="60" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -32160,6 +32219,7 @@
       <c r="CM60" s="1"/>
       <c r="CN60" s="1"/>
       <c r="CO60" s="1"/>
+      <c r="CP60" s="1"/>
     </row>
     <row r="61" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
@@ -32255,6 +32315,7 @@
       <c r="CM61" s="1"/>
       <c r="CN61" s="1"/>
       <c r="CO61" s="1"/>
+      <c r="CP61" s="1"/>
     </row>
     <row r="62" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -32352,10 +32413,11 @@
       <c r="CM62" s="1"/>
       <c r="CN62" s="1"/>
       <c r="CO62" s="1"/>
+      <c r="CP62" s="1"/>
     </row>
     <row r="63" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -32449,6 +32511,7 @@
       <c r="CM63" s="1"/>
       <c r="CN63" s="1"/>
       <c r="CO63" s="1"/>
+      <c r="CP63" s="1"/>
     </row>
     <row r="64" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
@@ -32546,6 +32609,7 @@
       <c r="CM64" s="1"/>
       <c r="CN64" s="1"/>
       <c r="CO64" s="1"/>
+      <c r="CP64" s="1"/>
     </row>
     <row r="65" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
@@ -32641,145 +32705,149 @@
       <c r="CM65" s="1"/>
       <c r="CN65" s="1"/>
       <c r="CO65" s="1"/>
+      <c r="CP65" s="1"/>
     </row>
     <row r="66" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
-      <c r="B66" s="19" t="s">
+      <c r="B66" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="19" t="s">
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="19" t="s">
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21"/>
-      <c r="M66" s="21"/>
-      <c r="N66" s="19" t="s">
+      <c r="K66" s="24"/>
+      <c r="L66" s="24"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="21"/>
-      <c r="P66" s="21"/>
-      <c r="Q66" s="21"/>
-      <c r="R66" s="19" t="s">
+      <c r="O66" s="24"/>
+      <c r="P66" s="24"/>
+      <c r="Q66" s="24"/>
+      <c r="R66" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="21"/>
-      <c r="T66" s="21"/>
-      <c r="U66" s="21"/>
-      <c r="V66" s="19" t="s">
+      <c r="S66" s="24"/>
+      <c r="T66" s="24"/>
+      <c r="U66" s="24"/>
+      <c r="V66" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="21"/>
-      <c r="X66" s="21"/>
-      <c r="Y66" s="21"/>
-      <c r="Z66" s="19" t="s">
+      <c r="W66" s="24"/>
+      <c r="X66" s="24"/>
+      <c r="Y66" s="24"/>
+      <c r="Z66" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="21"/>
-      <c r="AB66" s="21"/>
-      <c r="AC66" s="21"/>
-      <c r="AD66" s="19" t="s">
+      <c r="AA66" s="24"/>
+      <c r="AB66" s="24"/>
+      <c r="AC66" s="24"/>
+      <c r="AD66" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="21"/>
-      <c r="AF66" s="21"/>
-      <c r="AG66" s="21"/>
-      <c r="AH66" s="19" t="s">
+      <c r="AE66" s="24"/>
+      <c r="AF66" s="24"/>
+      <c r="AG66" s="24"/>
+      <c r="AH66" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="21"/>
-      <c r="AJ66" s="21"/>
-      <c r="AK66" s="21"/>
-      <c r="AL66" s="19" t="s">
+      <c r="AI66" s="24"/>
+      <c r="AJ66" s="24"/>
+      <c r="AK66" s="24"/>
+      <c r="AL66" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="21"/>
-      <c r="AN66" s="21"/>
-      <c r="AO66" s="21"/>
-      <c r="AP66" s="19" t="s">
+      <c r="AM66" s="24"/>
+      <c r="AN66" s="24"/>
+      <c r="AO66" s="24"/>
+      <c r="AP66" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="21"/>
-      <c r="AR66" s="21"/>
-      <c r="AS66" s="21"/>
-      <c r="AT66" s="19" t="s">
+      <c r="AQ66" s="24"/>
+      <c r="AR66" s="24"/>
+      <c r="AS66" s="24"/>
+      <c r="AT66" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="21"/>
-      <c r="AV66" s="21"/>
-      <c r="AW66" s="21"/>
-      <c r="AX66" s="19" t="s">
+      <c r="AU66" s="24"/>
+      <c r="AV66" s="24"/>
+      <c r="AW66" s="24"/>
+      <c r="AX66" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="21"/>
-      <c r="AZ66" s="21"/>
-      <c r="BA66" s="21"/>
-      <c r="BB66" s="19" t="s">
+      <c r="AY66" s="24"/>
+      <c r="AZ66" s="24"/>
+      <c r="BA66" s="24"/>
+      <c r="BB66" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="21"/>
-      <c r="BD66" s="21"/>
-      <c r="BE66" s="21"/>
-      <c r="BF66" s="19" t="s">
+      <c r="BC66" s="24"/>
+      <c r="BD66" s="24"/>
+      <c r="BE66" s="24"/>
+      <c r="BF66" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="21"/>
-      <c r="BH66" s="21"/>
-      <c r="BI66" s="21"/>
-      <c r="BJ66" s="19" t="s">
+      <c r="BG66" s="24"/>
+      <c r="BH66" s="24"/>
+      <c r="BI66" s="24"/>
+      <c r="BJ66" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="21"/>
-      <c r="BL66" s="21"/>
-      <c r="BM66" s="21"/>
-      <c r="BN66" s="19" t="s">
+      <c r="BK66" s="24"/>
+      <c r="BL66" s="24"/>
+      <c r="BM66" s="24"/>
+      <c r="BN66" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="21"/>
-      <c r="BP66" s="21"/>
-      <c r="BQ66" s="21"/>
-      <c r="BR66" s="19" t="s">
+      <c r="BO66" s="24"/>
+      <c r="BP66" s="24"/>
+      <c r="BQ66" s="24"/>
+      <c r="BR66" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="21"/>
-      <c r="BT66" s="21"/>
-      <c r="BU66" s="21"/>
-      <c r="BV66" s="19" t="s">
+      <c r="BS66" s="24"/>
+      <c r="BT66" s="24"/>
+      <c r="BU66" s="24"/>
+      <c r="BV66" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="BW66" s="19"/>
-      <c r="BX66" s="19"/>
-      <c r="BY66" s="19"/>
-      <c r="BZ66" s="19" t="s">
+      <c r="BW66" s="22"/>
+      <c r="BX66" s="22"/>
+      <c r="BY66" s="22"/>
+      <c r="BZ66" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="19"/>
-      <c r="CB66" s="19"/>
-      <c r="CC66" s="19"/>
-      <c r="CD66" s="19" t="s">
+      <c r="CA66" s="22"/>
+      <c r="CB66" s="22"/>
+      <c r="CC66" s="22"/>
+      <c r="CD66" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="19"/>
-      <c r="CF66" s="19"/>
-      <c r="CG66" s="19"/>
-      <c r="CH66" s="19" t="s">
+      <c r="CE66" s="22"/>
+      <c r="CF66" s="22"/>
+      <c r="CG66" s="22"/>
+      <c r="CH66" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="CI66" s="19"/>
-      <c r="CJ66" s="19"/>
-      <c r="CK66" s="19"/>
-      <c r="CL66" s="19"/>
+      <c r="CI66" s="22"/>
+      <c r="CJ66" s="22"/>
+      <c r="CK66" s="22"/>
+      <c r="CL66" s="19" t="s">
+        <v>48</v>
+      </c>
       <c r="CM66" s="19"/>
       <c r="CN66" s="19"/>
       <c r="CO66" s="19"/>
+      <c r="CP66" s="19"/>
     </row>
     <row r="67" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
@@ -33049,10 +33117,13 @@
       <c r="CK67" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL67" s="6"/>
+      <c r="CL67" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="CM67" s="6"/>
       <c r="CN67" s="6"/>
       <c r="CO67" s="6"/>
+      <c r="CP67" s="6"/>
     </row>
     <row r="68" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
@@ -33148,6 +33219,7 @@
       <c r="CM68" s="1"/>
       <c r="CN68" s="1"/>
       <c r="CO68" s="1"/>
+      <c r="CP68" s="1"/>
     </row>
     <row r="69" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
@@ -33417,11 +33489,13 @@
       <c r="CK69" s="18">
         <v>20.378212929455103</v>
       </c>
-      <c r="CL69" s="18"/>
+      <c r="CL69" s="18">
+        <v>41.863859217446361</v>
+      </c>
       <c r="CM69" s="18"/>
       <c r="CN69" s="18"/>
       <c r="CO69" s="18"/>
-      <c r="CP69" s="11"/>
+      <c r="CP69" s="18"/>
       <c r="CQ69" s="11"/>
       <c r="CR69" s="11"/>
       <c r="CS69" s="11"/>
@@ -33748,11 +33822,13 @@
       <c r="CK70" s="18">
         <v>15.554341223086141</v>
       </c>
-      <c r="CL70" s="18"/>
+      <c r="CL70" s="18">
+        <v>29.833889221228645</v>
+      </c>
       <c r="CM70" s="18"/>
       <c r="CN70" s="18"/>
       <c r="CO70" s="18"/>
-      <c r="CP70" s="11"/>
+      <c r="CP70" s="18"/>
       <c r="CQ70" s="11"/>
       <c r="CR70" s="11"/>
       <c r="CS70" s="11"/>
@@ -33904,7 +33980,7 @@
       <c r="CM71" s="17"/>
       <c r="CN71" s="17"/>
       <c r="CO71" s="17"/>
-      <c r="CP71" s="11"/>
+      <c r="CP71" s="17"/>
       <c r="CQ71" s="11"/>
       <c r="CR71" s="11"/>
       <c r="CS71" s="11"/>
@@ -34231,11 +34307,13 @@
       <c r="CK72" s="18">
         <v>18.57265508946189</v>
       </c>
-      <c r="CL72" s="18"/>
+      <c r="CL72" s="18">
+        <v>36.453683865844937</v>
+      </c>
       <c r="CM72" s="18"/>
       <c r="CN72" s="18"/>
       <c r="CO72" s="18"/>
-      <c r="CP72" s="11"/>
+      <c r="CP72" s="18"/>
       <c r="CQ72" s="11"/>
       <c r="CR72" s="11"/>
       <c r="CS72" s="11"/>
@@ -34388,6 +34466,7 @@
       <c r="CM73" s="15"/>
       <c r="CN73" s="15"/>
       <c r="CO73" s="15"/>
+      <c r="CP73" s="15"/>
     </row>
     <row r="74" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
@@ -34485,6 +34564,7 @@
       <c r="CM74" s="1"/>
       <c r="CN74" s="1"/>
       <c r="CO74" s="1"/>
+      <c r="CP74" s="1"/>
     </row>
     <row r="75" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="17"/>
@@ -34567,18 +34647,18 @@
       <c r="CA75" s="17"/>
       <c r="CB75" s="17"/>
       <c r="CC75" s="17"/>
-      <c r="CD75" s="17"/>
-      <c r="CE75" s="17"/>
-      <c r="CF75" s="17"/>
-      <c r="CG75" s="17"/>
-      <c r="CH75" s="17"/>
-      <c r="CI75" s="17"/>
-      <c r="CJ75" s="17"/>
-      <c r="CK75" s="17"/>
-      <c r="CL75" s="17"/>
-      <c r="CM75" s="17"/>
-      <c r="CN75" s="17"/>
-      <c r="CO75" s="17"/>
+      <c r="CD75" s="11"/>
+      <c r="CE75" s="11"/>
+      <c r="CF75" s="11"/>
+      <c r="CG75" s="11"/>
+      <c r="CH75" s="11"/>
+      <c r="CI75" s="11"/>
+      <c r="CJ75" s="11"/>
+      <c r="CK75" s="11"/>
+      <c r="CL75" s="11"/>
+      <c r="CM75" s="11"/>
+      <c r="CN75" s="11"/>
+      <c r="CO75" s="11"/>
       <c r="CP75" s="11"/>
       <c r="CQ75" s="11"/>
       <c r="CR75" s="11"/>
@@ -34731,7 +34811,7 @@
       <c r="CM76" s="17"/>
       <c r="CN76" s="17"/>
       <c r="CO76" s="17"/>
-      <c r="CP76" s="11"/>
+      <c r="CP76" s="17"/>
       <c r="CQ76" s="11"/>
       <c r="CR76" s="11"/>
       <c r="CS76" s="11"/>
@@ -34890,10 +34970,11 @@
       <c r="CM77" s="1"/>
       <c r="CN77" s="1"/>
       <c r="CO77" s="1"/>
+      <c r="CP77" s="1"/>
     </row>
     <row r="78" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -34987,6 +35068,7 @@
       <c r="CM78" s="1"/>
       <c r="CN78" s="1"/>
       <c r="CO78" s="1"/>
+      <c r="CP78" s="1"/>
     </row>
     <row r="79" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
@@ -35082,6 +35164,7 @@
       <c r="CM79" s="1"/>
       <c r="CN79" s="1"/>
       <c r="CO79" s="1"/>
+      <c r="CP79" s="1"/>
     </row>
     <row r="80" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
@@ -35179,10 +35262,11 @@
       <c r="CM80" s="1"/>
       <c r="CN80" s="1"/>
       <c r="CO80" s="1"/>
+      <c r="CP80" s="1"/>
     </row>
     <row r="81" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -35276,6 +35360,7 @@
       <c r="CM81" s="1"/>
       <c r="CN81" s="1"/>
       <c r="CO81" s="1"/>
+      <c r="CP81" s="1"/>
     </row>
     <row r="82" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
@@ -35373,6 +35458,7 @@
       <c r="CM82" s="1"/>
       <c r="CN82" s="1"/>
       <c r="CO82" s="1"/>
+      <c r="CP82" s="1"/>
     </row>
     <row r="83" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
@@ -35468,147 +35554,151 @@
       <c r="CM83" s="1"/>
       <c r="CN83" s="1"/>
       <c r="CO83" s="1"/>
+      <c r="CP83" s="1"/>
     </row>
     <row r="84" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
-      <c r="B84" s="19">
+      <c r="B84" s="22">
         <v>2000</v>
       </c>
-      <c r="C84" s="20"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="19">
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="22">
         <v>2001</v>
       </c>
-      <c r="G84" s="20"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="20"/>
-      <c r="J84" s="19">
+      <c r="G84" s="23"/>
+      <c r="H84" s="23"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="22">
         <v>2002</v>
       </c>
-      <c r="K84" s="20"/>
-      <c r="L84" s="20"/>
-      <c r="M84" s="20"/>
-      <c r="N84" s="19">
+      <c r="K84" s="23"/>
+      <c r="L84" s="23"/>
+      <c r="M84" s="23"/>
+      <c r="N84" s="22">
         <v>2003</v>
       </c>
-      <c r="O84" s="20"/>
-      <c r="P84" s="20"/>
-      <c r="Q84" s="20"/>
-      <c r="R84" s="19">
+      <c r="O84" s="23"/>
+      <c r="P84" s="23"/>
+      <c r="Q84" s="23"/>
+      <c r="R84" s="22">
         <v>2004</v>
       </c>
-      <c r="S84" s="20"/>
-      <c r="T84" s="20"/>
-      <c r="U84" s="20"/>
-      <c r="V84" s="19">
+      <c r="S84" s="23"/>
+      <c r="T84" s="23"/>
+      <c r="U84" s="23"/>
+      <c r="V84" s="22">
         <v>2005</v>
       </c>
-      <c r="W84" s="20"/>
-      <c r="X84" s="20"/>
-      <c r="Y84" s="20"/>
-      <c r="Z84" s="19">
+      <c r="W84" s="23"/>
+      <c r="X84" s="23"/>
+      <c r="Y84" s="23"/>
+      <c r="Z84" s="22">
         <v>2006</v>
       </c>
-      <c r="AA84" s="20"/>
-      <c r="AB84" s="20"/>
-      <c r="AC84" s="20"/>
-      <c r="AD84" s="19">
+      <c r="AA84" s="23"/>
+      <c r="AB84" s="23"/>
+      <c r="AC84" s="23"/>
+      <c r="AD84" s="22">
         <v>2007</v>
       </c>
-      <c r="AE84" s="20"/>
-      <c r="AF84" s="20"/>
-      <c r="AG84" s="20"/>
-      <c r="AH84" s="19">
+      <c r="AE84" s="23"/>
+      <c r="AF84" s="23"/>
+      <c r="AG84" s="23"/>
+      <c r="AH84" s="22">
         <v>2008</v>
       </c>
-      <c r="AI84" s="20"/>
-      <c r="AJ84" s="20"/>
-      <c r="AK84" s="20"/>
-      <c r="AL84" s="19">
+      <c r="AI84" s="23"/>
+      <c r="AJ84" s="23"/>
+      <c r="AK84" s="23"/>
+      <c r="AL84" s="22">
         <v>2009</v>
       </c>
-      <c r="AM84" s="20"/>
-      <c r="AN84" s="20"/>
-      <c r="AO84" s="20"/>
-      <c r="AP84" s="19">
+      <c r="AM84" s="23"/>
+      <c r="AN84" s="23"/>
+      <c r="AO84" s="23"/>
+      <c r="AP84" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="20"/>
-      <c r="AR84" s="20"/>
-      <c r="AS84" s="20"/>
-      <c r="AT84" s="19">
+      <c r="AQ84" s="23"/>
+      <c r="AR84" s="23"/>
+      <c r="AS84" s="23"/>
+      <c r="AT84" s="22">
         <v>2011</v>
       </c>
-      <c r="AU84" s="20"/>
-      <c r="AV84" s="20"/>
-      <c r="AW84" s="20"/>
-      <c r="AX84" s="19">
+      <c r="AU84" s="23"/>
+      <c r="AV84" s="23"/>
+      <c r="AW84" s="23"/>
+      <c r="AX84" s="22">
         <v>2012</v>
       </c>
-      <c r="AY84" s="20"/>
-      <c r="AZ84" s="20"/>
-      <c r="BA84" s="20"/>
-      <c r="BB84" s="19">
+      <c r="AY84" s="23"/>
+      <c r="AZ84" s="23"/>
+      <c r="BA84" s="23"/>
+      <c r="BB84" s="22">
         <v>2013</v>
       </c>
-      <c r="BC84" s="20"/>
-      <c r="BD84" s="20"/>
-      <c r="BE84" s="20"/>
-      <c r="BF84" s="19">
+      <c r="BC84" s="23"/>
+      <c r="BD84" s="23"/>
+      <c r="BE84" s="23"/>
+      <c r="BF84" s="22">
         <v>2014</v>
       </c>
-      <c r="BG84" s="20"/>
-      <c r="BH84" s="20"/>
-      <c r="BI84" s="20"/>
-      <c r="BJ84" s="19">
+      <c r="BG84" s="23"/>
+      <c r="BH84" s="23"/>
+      <c r="BI84" s="23"/>
+      <c r="BJ84" s="22">
         <v>2015</v>
       </c>
-      <c r="BK84" s="20"/>
-      <c r="BL84" s="20"/>
-      <c r="BM84" s="20"/>
-      <c r="BN84" s="19">
+      <c r="BK84" s="23"/>
+      <c r="BL84" s="23"/>
+      <c r="BM84" s="23"/>
+      <c r="BN84" s="22">
         <v>2016</v>
       </c>
-      <c r="BO84" s="20"/>
-      <c r="BP84" s="20"/>
-      <c r="BQ84" s="20"/>
-      <c r="BR84" s="19">
+      <c r="BO84" s="23"/>
+      <c r="BP84" s="23"/>
+      <c r="BQ84" s="23"/>
+      <c r="BR84" s="22">
         <v>2017</v>
       </c>
-      <c r="BS84" s="20"/>
-      <c r="BT84" s="20"/>
-      <c r="BU84" s="20"/>
-      <c r="BV84" s="19">
+      <c r="BS84" s="23"/>
+      <c r="BT84" s="23"/>
+      <c r="BU84" s="23"/>
+      <c r="BV84" s="22">
         <v>2018</v>
       </c>
-      <c r="BW84" s="19"/>
-      <c r="BX84" s="19"/>
-      <c r="BY84" s="19"/>
-      <c r="BZ84" s="19">
+      <c r="BW84" s="22"/>
+      <c r="BX84" s="22"/>
+      <c r="BY84" s="22"/>
+      <c r="BZ84" s="22">
         <v>2019</v>
       </c>
-      <c r="CA84" s="19"/>
-      <c r="CB84" s="19"/>
-      <c r="CC84" s="19"/>
-      <c r="CD84" s="19">
+      <c r="CA84" s="22"/>
+      <c r="CB84" s="22"/>
+      <c r="CC84" s="22"/>
+      <c r="CD84" s="22">
         <v>2020</v>
       </c>
-      <c r="CE84" s="19"/>
-      <c r="CF84" s="19"/>
-      <c r="CG84" s="19"/>
-      <c r="CH84" s="19">
+      <c r="CE84" s="22"/>
+      <c r="CF84" s="22"/>
+      <c r="CG84" s="22"/>
+      <c r="CH84" s="22">
         <v>2021</v>
       </c>
-      <c r="CI84" s="19"/>
-      <c r="CJ84" s="19"/>
-      <c r="CK84" s="19"/>
-      <c r="CL84" s="19">
+      <c r="CI84" s="22"/>
+      <c r="CJ84" s="22"/>
+      <c r="CK84" s="22"/>
+      <c r="CL84" s="22">
         <v>2022</v>
       </c>
-      <c r="CM84" s="19"/>
-      <c r="CN84" s="19"/>
-      <c r="CO84" s="19"/>
+      <c r="CM84" s="22"/>
+      <c r="CN84" s="22"/>
+      <c r="CO84" s="22"/>
+      <c r="CP84" s="19">
+        <v>2023</v>
+      </c>
     </row>
     <row r="85" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
@@ -35889,6 +35979,9 @@
       </c>
       <c r="CO85" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="CP85" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35985,6 +36078,7 @@
       <c r="CM86" s="1"/>
       <c r="CN86" s="1"/>
       <c r="CO86" s="1"/>
+      <c r="CP86" s="1"/>
     </row>
     <row r="87" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
@@ -36266,7 +36360,9 @@
       <c r="CO87" s="18">
         <v>107.15023137264347</v>
       </c>
-      <c r="CP87" s="11"/>
+      <c r="CP87" s="18">
+        <v>107.63739815046753</v>
+      </c>
       <c r="CQ87" s="11"/>
       <c r="CR87" s="11"/>
       <c r="CS87" s="11"/>
@@ -36609,7 +36705,9 @@
       <c r="CO88" s="18">
         <v>112.60190853181746</v>
       </c>
-      <c r="CP88" s="11"/>
+      <c r="CP88" s="18">
+        <v>118.58145533063178</v>
+      </c>
       <c r="CQ88" s="11"/>
       <c r="CR88" s="11"/>
       <c r="CS88" s="11"/>
@@ -36765,7 +36863,7 @@
       <c r="CM89" s="17"/>
       <c r="CN89" s="17"/>
       <c r="CO89" s="17"/>
-      <c r="CP89" s="11"/>
+      <c r="CP89" s="17"/>
       <c r="CQ89" s="11"/>
       <c r="CR89" s="11"/>
       <c r="CS89" s="11"/>
@@ -37108,7 +37206,9 @@
       <c r="CO90" s="18">
         <v>109.13883170304233</v>
       </c>
-      <c r="CP90" s="11"/>
+      <c r="CP90" s="18">
+        <v>112.32043907005462</v>
+      </c>
       <c r="CQ90" s="11"/>
       <c r="CR90" s="11"/>
       <c r="CS90" s="11"/>
@@ -37265,6 +37365,7 @@
       <c r="CM91" s="15"/>
       <c r="CN91" s="15"/>
       <c r="CO91" s="15"/>
+      <c r="CP91" s="15"/>
     </row>
     <row r="92" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="16" t="s">
@@ -37362,6 +37463,7 @@
       <c r="CM92" s="1"/>
       <c r="CN92" s="1"/>
       <c r="CO92" s="1"/>
+      <c r="CP92" s="1"/>
     </row>
     <row r="93" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
@@ -37456,6 +37558,7 @@
       <c r="CM93" s="1"/>
       <c r="CN93" s="1"/>
       <c r="CO93" s="1"/>
+      <c r="CP93" s="1"/>
     </row>
     <row r="94" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
@@ -37550,6 +37653,7 @@
       <c r="CM94" s="1"/>
       <c r="CN94" s="1"/>
       <c r="CO94" s="1"/>
+      <c r="CP94" s="1"/>
     </row>
     <row r="95" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
@@ -37647,6 +37751,7 @@
       <c r="CM95" s="1"/>
       <c r="CN95" s="1"/>
       <c r="CO95" s="1"/>
+      <c r="CP95" s="1"/>
     </row>
     <row r="96" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
@@ -37744,10 +37849,11 @@
       <c r="CM96" s="1"/>
       <c r="CN96" s="1"/>
       <c r="CO96" s="1"/>
+      <c r="CP96" s="1"/>
     </row>
     <row r="97" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -37841,6 +37947,7 @@
       <c r="CM97" s="1"/>
       <c r="CN97" s="1"/>
       <c r="CO97" s="1"/>
+      <c r="CP97" s="1"/>
     </row>
     <row r="98" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
@@ -37936,6 +38043,7 @@
       <c r="CM98" s="1"/>
       <c r="CN98" s="1"/>
       <c r="CO98" s="1"/>
+      <c r="CP98" s="1"/>
     </row>
     <row r="99" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
@@ -38033,10 +38141,11 @@
       <c r="CM99" s="1"/>
       <c r="CN99" s="1"/>
       <c r="CO99" s="1"/>
+      <c r="CP99" s="1"/>
     </row>
     <row r="100" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -38130,6 +38239,7 @@
       <c r="CM100" s="1"/>
       <c r="CN100" s="1"/>
       <c r="CO100" s="1"/>
+      <c r="CP100" s="1"/>
     </row>
     <row r="101" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
@@ -38227,6 +38337,7 @@
       <c r="CM101" s="1"/>
       <c r="CN101" s="1"/>
       <c r="CO101" s="1"/>
+      <c r="CP101" s="1"/>
     </row>
     <row r="102" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
@@ -38322,147 +38433,151 @@
       <c r="CM102" s="1"/>
       <c r="CN102" s="1"/>
       <c r="CO102" s="1"/>
+      <c r="CP102" s="1"/>
     </row>
     <row r="103" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
-      <c r="B103" s="19">
+      <c r="B103" s="22">
         <v>2000</v>
       </c>
-      <c r="C103" s="20"/>
-      <c r="D103" s="20"/>
-      <c r="E103" s="20"/>
-      <c r="F103" s="19">
+      <c r="C103" s="23"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="23"/>
+      <c r="F103" s="22">
         <v>2001</v>
       </c>
-      <c r="G103" s="20"/>
-      <c r="H103" s="20"/>
-      <c r="I103" s="20"/>
-      <c r="J103" s="19">
+      <c r="G103" s="23"/>
+      <c r="H103" s="23"/>
+      <c r="I103" s="23"/>
+      <c r="J103" s="22">
         <v>2002</v>
       </c>
-      <c r="K103" s="20"/>
-      <c r="L103" s="20"/>
-      <c r="M103" s="20"/>
-      <c r="N103" s="19">
+      <c r="K103" s="23"/>
+      <c r="L103" s="23"/>
+      <c r="M103" s="23"/>
+      <c r="N103" s="22">
         <v>2003</v>
       </c>
-      <c r="O103" s="20"/>
-      <c r="P103" s="20"/>
-      <c r="Q103" s="20"/>
-      <c r="R103" s="19">
+      <c r="O103" s="23"/>
+      <c r="P103" s="23"/>
+      <c r="Q103" s="23"/>
+      <c r="R103" s="22">
         <v>2004</v>
       </c>
-      <c r="S103" s="20"/>
-      <c r="T103" s="20"/>
-      <c r="U103" s="20"/>
-      <c r="V103" s="19">
+      <c r="S103" s="23"/>
+      <c r="T103" s="23"/>
+      <c r="U103" s="23"/>
+      <c r="V103" s="22">
         <v>2005</v>
       </c>
-      <c r="W103" s="20"/>
-      <c r="X103" s="20"/>
-      <c r="Y103" s="20"/>
-      <c r="Z103" s="19">
+      <c r="W103" s="23"/>
+      <c r="X103" s="23"/>
+      <c r="Y103" s="23"/>
+      <c r="Z103" s="22">
         <v>2006</v>
       </c>
-      <c r="AA103" s="20"/>
-      <c r="AB103" s="20"/>
-      <c r="AC103" s="20"/>
-      <c r="AD103" s="19">
+      <c r="AA103" s="23"/>
+      <c r="AB103" s="23"/>
+      <c r="AC103" s="23"/>
+      <c r="AD103" s="22">
         <v>2007</v>
       </c>
-      <c r="AE103" s="20"/>
-      <c r="AF103" s="20"/>
-      <c r="AG103" s="20"/>
-      <c r="AH103" s="19">
+      <c r="AE103" s="23"/>
+      <c r="AF103" s="23"/>
+      <c r="AG103" s="23"/>
+      <c r="AH103" s="22">
         <v>2008</v>
       </c>
-      <c r="AI103" s="20"/>
-      <c r="AJ103" s="20"/>
-      <c r="AK103" s="20"/>
-      <c r="AL103" s="19">
+      <c r="AI103" s="23"/>
+      <c r="AJ103" s="23"/>
+      <c r="AK103" s="23"/>
+      <c r="AL103" s="22">
         <v>2009</v>
       </c>
-      <c r="AM103" s="20"/>
-      <c r="AN103" s="20"/>
-      <c r="AO103" s="20"/>
-      <c r="AP103" s="19">
+      <c r="AM103" s="23"/>
+      <c r="AN103" s="23"/>
+      <c r="AO103" s="23"/>
+      <c r="AP103" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="20"/>
-      <c r="AR103" s="20"/>
-      <c r="AS103" s="20"/>
-      <c r="AT103" s="19">
+      <c r="AQ103" s="23"/>
+      <c r="AR103" s="23"/>
+      <c r="AS103" s="23"/>
+      <c r="AT103" s="22">
         <v>2011</v>
       </c>
-      <c r="AU103" s="20"/>
-      <c r="AV103" s="20"/>
-      <c r="AW103" s="20"/>
-      <c r="AX103" s="19">
+      <c r="AU103" s="23"/>
+      <c r="AV103" s="23"/>
+      <c r="AW103" s="23"/>
+      <c r="AX103" s="22">
         <v>2012</v>
       </c>
-      <c r="AY103" s="20"/>
-      <c r="AZ103" s="20"/>
-      <c r="BA103" s="20"/>
-      <c r="BB103" s="19">
+      <c r="AY103" s="23"/>
+      <c r="AZ103" s="23"/>
+      <c r="BA103" s="23"/>
+      <c r="BB103" s="22">
         <v>2013</v>
       </c>
-      <c r="BC103" s="20"/>
-      <c r="BD103" s="20"/>
-      <c r="BE103" s="20"/>
-      <c r="BF103" s="19">
+      <c r="BC103" s="23"/>
+      <c r="BD103" s="23"/>
+      <c r="BE103" s="23"/>
+      <c r="BF103" s="22">
         <v>2014</v>
       </c>
-      <c r="BG103" s="20"/>
-      <c r="BH103" s="20"/>
-      <c r="BI103" s="20"/>
-      <c r="BJ103" s="19">
+      <c r="BG103" s="23"/>
+      <c r="BH103" s="23"/>
+      <c r="BI103" s="23"/>
+      <c r="BJ103" s="22">
         <v>2015</v>
       </c>
-      <c r="BK103" s="20"/>
-      <c r="BL103" s="20"/>
-      <c r="BM103" s="20"/>
-      <c r="BN103" s="19">
+      <c r="BK103" s="23"/>
+      <c r="BL103" s="23"/>
+      <c r="BM103" s="23"/>
+      <c r="BN103" s="22">
         <v>2016</v>
       </c>
-      <c r="BO103" s="20"/>
-      <c r="BP103" s="20"/>
-      <c r="BQ103" s="20"/>
-      <c r="BR103" s="19">
+      <c r="BO103" s="23"/>
+      <c r="BP103" s="23"/>
+      <c r="BQ103" s="23"/>
+      <c r="BR103" s="22">
         <v>2017</v>
       </c>
-      <c r="BS103" s="20"/>
-      <c r="BT103" s="20"/>
-      <c r="BU103" s="20"/>
-      <c r="BV103" s="19">
+      <c r="BS103" s="23"/>
+      <c r="BT103" s="23"/>
+      <c r="BU103" s="23"/>
+      <c r="BV103" s="22">
         <v>2018</v>
       </c>
-      <c r="BW103" s="19"/>
-      <c r="BX103" s="19"/>
-      <c r="BY103" s="19"/>
-      <c r="BZ103" s="19">
+      <c r="BW103" s="22"/>
+      <c r="BX103" s="22"/>
+      <c r="BY103" s="22"/>
+      <c r="BZ103" s="22">
         <v>2019</v>
       </c>
-      <c r="CA103" s="19"/>
-      <c r="CB103" s="19"/>
-      <c r="CC103" s="19"/>
-      <c r="CD103" s="19">
+      <c r="CA103" s="22"/>
+      <c r="CB103" s="22"/>
+      <c r="CC103" s="22"/>
+      <c r="CD103" s="22">
         <v>2020</v>
       </c>
-      <c r="CE103" s="19"/>
-      <c r="CF103" s="19"/>
-      <c r="CG103" s="19"/>
-      <c r="CH103" s="19">
+      <c r="CE103" s="22"/>
+      <c r="CF103" s="22"/>
+      <c r="CG103" s="22"/>
+      <c r="CH103" s="22">
         <v>2021</v>
       </c>
-      <c r="CI103" s="19"/>
-      <c r="CJ103" s="19"/>
-      <c r="CK103" s="19"/>
-      <c r="CL103" s="19">
+      <c r="CI103" s="22"/>
+      <c r="CJ103" s="22"/>
+      <c r="CK103" s="22"/>
+      <c r="CL103" s="22">
         <v>2022</v>
       </c>
-      <c r="CM103" s="19"/>
-      <c r="CN103" s="19"/>
-      <c r="CO103" s="19"/>
+      <c r="CM103" s="22"/>
+      <c r="CN103" s="22"/>
+      <c r="CO103" s="22"/>
+      <c r="CP103" s="19">
+        <v>2023</v>
+      </c>
     </row>
     <row r="104" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
@@ -38743,6 +38858,9 @@
       </c>
       <c r="CO104" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="CP104" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -38839,6 +38957,7 @@
       <c r="CM105" s="1"/>
       <c r="CN105" s="1"/>
       <c r="CO105" s="1"/>
+      <c r="CP105" s="1"/>
     </row>
     <row r="106" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
@@ -39120,7 +39239,9 @@
       <c r="CO106" s="18">
         <v>62.365701195873427</v>
       </c>
-      <c r="CP106" s="11"/>
+      <c r="CP106" s="18">
+        <v>54.824019975061709</v>
+      </c>
       <c r="CQ106" s="11"/>
       <c r="CR106" s="11"/>
       <c r="CS106" s="11"/>
@@ -39463,7 +39584,9 @@
       <c r="CO107" s="18">
         <v>37.63429880412658</v>
       </c>
-      <c r="CP107" s="11"/>
+      <c r="CP107" s="18">
+        <v>45.175980024938291</v>
+      </c>
       <c r="CQ107" s="11"/>
       <c r="CR107" s="11"/>
       <c r="CS107" s="11"/>
@@ -39619,7 +39742,7 @@
       <c r="CM108" s="17"/>
       <c r="CN108" s="17"/>
       <c r="CO108" s="17"/>
-      <c r="CP108" s="11"/>
+      <c r="CP108" s="17"/>
       <c r="CQ108" s="11"/>
       <c r="CR108" s="11"/>
       <c r="CS108" s="11"/>
@@ -39962,7 +40085,9 @@
       <c r="CO109" s="18">
         <v>100</v>
       </c>
-      <c r="CP109" s="11"/>
+      <c r="CP109" s="18">
+        <v>100</v>
+      </c>
       <c r="CQ109" s="11"/>
       <c r="CR109" s="11"/>
       <c r="CS109" s="11"/>
@@ -40119,6 +40244,7 @@
       <c r="CM110" s="15"/>
       <c r="CN110" s="15"/>
       <c r="CO110" s="15"/>
+      <c r="CP110" s="15"/>
     </row>
     <row r="111" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="16" t="s">
@@ -40216,6 +40342,7 @@
       <c r="CM111" s="1"/>
       <c r="CN111" s="1"/>
       <c r="CO111" s="1"/>
+      <c r="CP111" s="1"/>
     </row>
     <row r="112" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="17"/>
@@ -40310,7 +40437,7 @@
       <c r="CM112" s="17"/>
       <c r="CN112" s="17"/>
       <c r="CO112" s="17"/>
-      <c r="CP112" s="11"/>
+      <c r="CP112" s="17"/>
       <c r="CQ112" s="11"/>
       <c r="CR112" s="11"/>
       <c r="CS112" s="11"/>
@@ -40466,7 +40593,7 @@
       <c r="CM113" s="17"/>
       <c r="CN113" s="17"/>
       <c r="CO113" s="17"/>
-      <c r="CP113" s="11"/>
+      <c r="CP113" s="17"/>
       <c r="CQ113" s="11"/>
       <c r="CR113" s="11"/>
       <c r="CS113" s="11"/>
@@ -40625,6 +40752,7 @@
       <c r="CM114" s="1"/>
       <c r="CN114" s="1"/>
       <c r="CO114" s="1"/>
+      <c r="CP114" s="1"/>
     </row>
     <row r="115" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
@@ -40722,10 +40850,11 @@
       <c r="CM115" s="1"/>
       <c r="CN115" s="1"/>
       <c r="CO115" s="1"/>
+      <c r="CP115" s="1"/>
     </row>
     <row r="116" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -40819,6 +40948,7 @@
       <c r="CM116" s="1"/>
       <c r="CN116" s="1"/>
       <c r="CO116" s="1"/>
+      <c r="CP116" s="1"/>
     </row>
     <row r="117" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
@@ -40914,6 +41044,7 @@
       <c r="CM117" s="1"/>
       <c r="CN117" s="1"/>
       <c r="CO117" s="1"/>
+      <c r="CP117" s="1"/>
     </row>
     <row r="118" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
@@ -41011,10 +41142,11 @@
       <c r="CM118" s="1"/>
       <c r="CN118" s="1"/>
       <c r="CO118" s="1"/>
+      <c r="CP118" s="1"/>
     </row>
     <row r="119" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -41108,6 +41240,7 @@
       <c r="CM119" s="1"/>
       <c r="CN119" s="1"/>
       <c r="CO119" s="1"/>
+      <c r="CP119" s="1"/>
     </row>
     <row r="120" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
@@ -41205,6 +41338,7 @@
       <c r="CM120" s="1"/>
       <c r="CN120" s="1"/>
       <c r="CO120" s="1"/>
+      <c r="CP120" s="1"/>
     </row>
     <row r="121" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
@@ -41300,147 +41434,151 @@
       <c r="CM121" s="1"/>
       <c r="CN121" s="1"/>
       <c r="CO121" s="1"/>
+      <c r="CP121" s="1"/>
     </row>
     <row r="122" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
-      <c r="B122" s="19">
+      <c r="B122" s="22">
         <v>2000</v>
       </c>
-      <c r="C122" s="20"/>
-      <c r="D122" s="20"/>
-      <c r="E122" s="20"/>
-      <c r="F122" s="19">
+      <c r="C122" s="23"/>
+      <c r="D122" s="23"/>
+      <c r="E122" s="23"/>
+      <c r="F122" s="22">
         <v>2001</v>
       </c>
-      <c r="G122" s="20"/>
-      <c r="H122" s="20"/>
-      <c r="I122" s="20"/>
-      <c r="J122" s="19">
+      <c r="G122" s="23"/>
+      <c r="H122" s="23"/>
+      <c r="I122" s="23"/>
+      <c r="J122" s="22">
         <v>2002</v>
       </c>
-      <c r="K122" s="20"/>
-      <c r="L122" s="20"/>
-      <c r="M122" s="20"/>
-      <c r="N122" s="19">
+      <c r="K122" s="23"/>
+      <c r="L122" s="23"/>
+      <c r="M122" s="23"/>
+      <c r="N122" s="22">
         <v>2003</v>
       </c>
-      <c r="O122" s="20"/>
-      <c r="P122" s="20"/>
-      <c r="Q122" s="20"/>
-      <c r="R122" s="19">
+      <c r="O122" s="23"/>
+      <c r="P122" s="23"/>
+      <c r="Q122" s="23"/>
+      <c r="R122" s="22">
         <v>2004</v>
       </c>
-      <c r="S122" s="20"/>
-      <c r="T122" s="20"/>
-      <c r="U122" s="20"/>
-      <c r="V122" s="19">
+      <c r="S122" s="23"/>
+      <c r="T122" s="23"/>
+      <c r="U122" s="23"/>
+      <c r="V122" s="22">
         <v>2005</v>
       </c>
-      <c r="W122" s="20"/>
-      <c r="X122" s="20"/>
-      <c r="Y122" s="20"/>
-      <c r="Z122" s="19">
+      <c r="W122" s="23"/>
+      <c r="X122" s="23"/>
+      <c r="Y122" s="23"/>
+      <c r="Z122" s="22">
         <v>2006</v>
       </c>
-      <c r="AA122" s="20"/>
-      <c r="AB122" s="20"/>
-      <c r="AC122" s="20"/>
-      <c r="AD122" s="19">
+      <c r="AA122" s="23"/>
+      <c r="AB122" s="23"/>
+      <c r="AC122" s="23"/>
+      <c r="AD122" s="22">
         <v>2007</v>
       </c>
-      <c r="AE122" s="20"/>
-      <c r="AF122" s="20"/>
-      <c r="AG122" s="20"/>
-      <c r="AH122" s="19">
+      <c r="AE122" s="23"/>
+      <c r="AF122" s="23"/>
+      <c r="AG122" s="23"/>
+      <c r="AH122" s="22">
         <v>2008</v>
       </c>
-      <c r="AI122" s="20"/>
-      <c r="AJ122" s="20"/>
-      <c r="AK122" s="20"/>
-      <c r="AL122" s="19">
+      <c r="AI122" s="23"/>
+      <c r="AJ122" s="23"/>
+      <c r="AK122" s="23"/>
+      <c r="AL122" s="22">
         <v>2009</v>
       </c>
-      <c r="AM122" s="20"/>
-      <c r="AN122" s="20"/>
-      <c r="AO122" s="20"/>
-      <c r="AP122" s="19">
+      <c r="AM122" s="23"/>
+      <c r="AN122" s="23"/>
+      <c r="AO122" s="23"/>
+      <c r="AP122" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="20"/>
-      <c r="AR122" s="20"/>
-      <c r="AS122" s="20"/>
-      <c r="AT122" s="19">
+      <c r="AQ122" s="23"/>
+      <c r="AR122" s="23"/>
+      <c r="AS122" s="23"/>
+      <c r="AT122" s="22">
         <v>2011</v>
       </c>
-      <c r="AU122" s="20"/>
-      <c r="AV122" s="20"/>
-      <c r="AW122" s="20"/>
-      <c r="AX122" s="19">
+      <c r="AU122" s="23"/>
+      <c r="AV122" s="23"/>
+      <c r="AW122" s="23"/>
+      <c r="AX122" s="22">
         <v>2012</v>
       </c>
-      <c r="AY122" s="20"/>
-      <c r="AZ122" s="20"/>
-      <c r="BA122" s="20"/>
-      <c r="BB122" s="19">
+      <c r="AY122" s="23"/>
+      <c r="AZ122" s="23"/>
+      <c r="BA122" s="23"/>
+      <c r="BB122" s="22">
         <v>2013</v>
       </c>
-      <c r="BC122" s="20"/>
-      <c r="BD122" s="20"/>
-      <c r="BE122" s="20"/>
-      <c r="BF122" s="19">
+      <c r="BC122" s="23"/>
+      <c r="BD122" s="23"/>
+      <c r="BE122" s="23"/>
+      <c r="BF122" s="22">
         <v>2014</v>
       </c>
-      <c r="BG122" s="20"/>
-      <c r="BH122" s="20"/>
-      <c r="BI122" s="20"/>
-      <c r="BJ122" s="19">
+      <c r="BG122" s="23"/>
+      <c r="BH122" s="23"/>
+      <c r="BI122" s="23"/>
+      <c r="BJ122" s="22">
         <v>2015</v>
       </c>
-      <c r="BK122" s="20"/>
-      <c r="BL122" s="20"/>
-      <c r="BM122" s="20"/>
-      <c r="BN122" s="19">
+      <c r="BK122" s="23"/>
+      <c r="BL122" s="23"/>
+      <c r="BM122" s="23"/>
+      <c r="BN122" s="22">
         <v>2016</v>
       </c>
-      <c r="BO122" s="20"/>
-      <c r="BP122" s="20"/>
-      <c r="BQ122" s="20"/>
-      <c r="BR122" s="19">
+      <c r="BO122" s="23"/>
+      <c r="BP122" s="23"/>
+      <c r="BQ122" s="23"/>
+      <c r="BR122" s="22">
         <v>2017</v>
       </c>
-      <c r="BS122" s="20"/>
-      <c r="BT122" s="20"/>
-      <c r="BU122" s="20"/>
-      <c r="BV122" s="19">
+      <c r="BS122" s="23"/>
+      <c r="BT122" s="23"/>
+      <c r="BU122" s="23"/>
+      <c r="BV122" s="22">
         <v>2018</v>
       </c>
-      <c r="BW122" s="19"/>
-      <c r="BX122" s="19"/>
-      <c r="BY122" s="19"/>
-      <c r="BZ122" s="19">
+      <c r="BW122" s="22"/>
+      <c r="BX122" s="22"/>
+      <c r="BY122" s="22"/>
+      <c r="BZ122" s="22">
         <v>2019</v>
       </c>
-      <c r="CA122" s="19"/>
-      <c r="CB122" s="19"/>
-      <c r="CC122" s="19"/>
-      <c r="CD122" s="19">
+      <c r="CA122" s="22"/>
+      <c r="CB122" s="22"/>
+      <c r="CC122" s="22"/>
+      <c r="CD122" s="22">
         <v>2020</v>
       </c>
-      <c r="CE122" s="19"/>
-      <c r="CF122" s="19"/>
-      <c r="CG122" s="19"/>
-      <c r="CH122" s="19">
+      <c r="CE122" s="22"/>
+      <c r="CF122" s="22"/>
+      <c r="CG122" s="22"/>
+      <c r="CH122" s="22">
         <v>2021</v>
       </c>
-      <c r="CI122" s="19"/>
-      <c r="CJ122" s="19"/>
-      <c r="CK122" s="19"/>
-      <c r="CL122" s="19">
+      <c r="CI122" s="22"/>
+      <c r="CJ122" s="22"/>
+      <c r="CK122" s="22"/>
+      <c r="CL122" s="22">
         <v>2022</v>
       </c>
-      <c r="CM122" s="19"/>
-      <c r="CN122" s="19"/>
-      <c r="CO122" s="19"/>
+      <c r="CM122" s="22"/>
+      <c r="CN122" s="22"/>
+      <c r="CO122" s="22"/>
+      <c r="CP122" s="19">
+        <v>2023</v>
+      </c>
     </row>
     <row r="123" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
@@ -41721,6 +41859,9 @@
       </c>
       <c r="CO123" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="CP123" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -41817,6 +41958,7 @@
       <c r="CM124" s="1"/>
       <c r="CN124" s="1"/>
       <c r="CO124" s="1"/>
+      <c r="CP124" s="1"/>
     </row>
     <row r="125" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
@@ -42098,7 +42240,9 @@
       <c r="CO125" s="18">
         <v>63.523145770793242</v>
       </c>
-      <c r="CP125" s="11"/>
+      <c r="CP125" s="18">
+        <v>57.209279497598395</v>
+      </c>
       <c r="CQ125" s="11"/>
       <c r="CR125" s="11"/>
       <c r="CS125" s="11"/>
@@ -42441,7 +42585,9 @@
       <c r="CO126" s="18">
         <v>36.476854229206751</v>
       </c>
-      <c r="CP126" s="11"/>
+      <c r="CP126" s="18">
+        <v>42.790720502401612</v>
+      </c>
       <c r="CQ126" s="11"/>
       <c r="CR126" s="11"/>
       <c r="CS126" s="11"/>
@@ -42597,7 +42743,7 @@
       <c r="CM127" s="17"/>
       <c r="CN127" s="17"/>
       <c r="CO127" s="17"/>
-      <c r="CP127" s="11"/>
+      <c r="CP127" s="17"/>
       <c r="CQ127" s="11"/>
       <c r="CR127" s="11"/>
       <c r="CS127" s="11"/>
@@ -42940,7 +43086,9 @@
       <c r="CO128" s="18">
         <v>100</v>
       </c>
-      <c r="CP128" s="11"/>
+      <c r="CP128" s="18">
+        <v>100</v>
+      </c>
       <c r="CQ128" s="11"/>
       <c r="CR128" s="11"/>
       <c r="CS128" s="11"/>
@@ -43003,7 +43151,7 @@
       <c r="EX128" s="11"/>
       <c r="EY128" s="11"/>
     </row>
-    <row r="129" spans="1:93" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:94" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="15"/>
       <c r="B129" s="15"/>
       <c r="C129" s="15"/>
@@ -43097,8 +43245,9 @@
       <c r="CM129" s="15"/>
       <c r="CN129" s="15"/>
       <c r="CO129" s="15"/>
+      <c r="CP129" s="15"/>
     </row>
-    <row r="130" spans="1:93" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:94" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="16" t="s">
         <v>0</v>
       </c>
@@ -43194,11 +43343,10 @@
       <c r="CM130" s="1"/>
       <c r="CN130" s="1"/>
       <c r="CO130" s="1"/>
+      <c r="CP130" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="161">
-    <mergeCell ref="CL47:CO47"/>
-    <mergeCell ref="CL66:CO66"/>
+  <mergeCells count="159">
     <mergeCell ref="CL103:CO103"/>
     <mergeCell ref="CL122:CO122"/>
     <mergeCell ref="BZ47:CC47"/>
@@ -43243,6 +43391,8 @@
     <mergeCell ref="BN28:BQ28"/>
     <mergeCell ref="BJ47:BM47"/>
     <mergeCell ref="BN47:BQ47"/>
+    <mergeCell ref="BF47:BI47"/>
+    <mergeCell ref="BR47:BU47"/>
     <mergeCell ref="B122:E122"/>
     <mergeCell ref="F122:I122"/>
     <mergeCell ref="J122:M122"/>
@@ -43289,8 +43439,6 @@
     <mergeCell ref="N84:Q84"/>
     <mergeCell ref="R84:U84"/>
     <mergeCell ref="V84:Y84"/>
-    <mergeCell ref="BF47:BI47"/>
-    <mergeCell ref="BR47:BU47"/>
     <mergeCell ref="B66:E66"/>
     <mergeCell ref="F66:I66"/>
     <mergeCell ref="J66:M66"/>
@@ -43364,9 +43512,9 @@
   <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="92" man="1"/>
-    <brk id="76" max="92" man="1"/>
-    <brk id="94" max="92" man="1"/>
+    <brk id="38" max="93" man="1"/>
+    <brk id="76" max="93" man="1"/>
+    <brk id="94" max="93" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-21OS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-21OS_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A619B5C-0AEA-4051-8EB3-9942448CDE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5A22D3-7B9E-4DD4-A939-093B72274887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="1170" windowWidth="28770" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OS" sheetId="15" r:id="rId1"/>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">OS!$A$1:$CP$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">OS!$A$1:$CQ$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="52">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -618,13 +618,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of May 2023</t>
+    <t>As of August 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2023</t>
+    <t>Q1 2000 to Q2 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2023</t>
+    <t>Q1 2001 to Q2 2023</t>
   </si>
 </sst>
 </file>
@@ -729,7 +729,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -757,9 +757,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -23632,17 +23629,17 @@
   </sheetPr>
   <dimension ref="A1:EY130"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BS1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A87" colorId="22" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BZ1" activePane="topRight" state="frozen"/>
       <selection activeCell="CE141" sqref="CA141:CE149"/>
-      <selection pane="topRight" activeCell="CD1" sqref="CD1:CP1048576"/>
+      <selection pane="topRight" activeCell="CR116" sqref="CR116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.88671875" style="1" customWidth="1"/>
-    <col min="2" max="94" width="9" style="12" customWidth="1"/>
-    <col min="95" max="16384" width="7.77734375" style="12"/>
+    <col min="2" max="95" width="9" style="12" customWidth="1"/>
+    <col min="96" max="16384" width="7.77734375" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23773,150 +23770,152 @@
       <c r="CN8" s="1"/>
       <c r="CO8" s="1"/>
       <c r="CP8" s="1"/>
+      <c r="CQ8" s="1"/>
     </row>
     <row r="9" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="22">
+      <c r="B9" s="21">
         <v>2000</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21">
         <v>2001</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22">
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21">
         <v>2002</v>
       </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22">
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21">
         <v>2003</v>
       </c>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22">
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21">
         <v>2004</v>
       </c>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22">
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21">
         <v>2005</v>
       </c>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22">
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21">
         <v>2006</v>
       </c>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="22">
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21">
         <v>2007</v>
       </c>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="22"/>
-      <c r="AH9" s="22">
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21">
         <v>2008</v>
       </c>
-      <c r="AI9" s="22"/>
-      <c r="AJ9" s="22"/>
-      <c r="AK9" s="22"/>
-      <c r="AL9" s="22">
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="21"/>
+      <c r="AK9" s="21"/>
+      <c r="AL9" s="21">
         <v>2009</v>
       </c>
-      <c r="AM9" s="22"/>
-      <c r="AN9" s="22"/>
-      <c r="AO9" s="22"/>
-      <c r="AP9" s="22">
+      <c r="AM9" s="21"/>
+      <c r="AN9" s="21"/>
+      <c r="AO9" s="21"/>
+      <c r="AP9" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="22"/>
-      <c r="AR9" s="22"/>
-      <c r="AS9" s="22"/>
-      <c r="AT9" s="22">
+      <c r="AQ9" s="21"/>
+      <c r="AR9" s="21"/>
+      <c r="AS9" s="21"/>
+      <c r="AT9" s="21">
         <v>2011</v>
       </c>
-      <c r="AU9" s="22"/>
-      <c r="AV9" s="22"/>
-      <c r="AW9" s="22"/>
-      <c r="AX9" s="22">
+      <c r="AU9" s="21"/>
+      <c r="AV9" s="21"/>
+      <c r="AW9" s="21"/>
+      <c r="AX9" s="21">
         <v>2012</v>
       </c>
-      <c r="AY9" s="22"/>
-      <c r="AZ9" s="22"/>
-      <c r="BA9" s="22"/>
-      <c r="BB9" s="22">
+      <c r="AY9" s="21"/>
+      <c r="AZ9" s="21"/>
+      <c r="BA9" s="21"/>
+      <c r="BB9" s="21">
         <v>2013</v>
       </c>
-      <c r="BC9" s="22"/>
-      <c r="BD9" s="22"/>
-      <c r="BE9" s="22"/>
-      <c r="BF9" s="22">
+      <c r="BC9" s="21"/>
+      <c r="BD9" s="21"/>
+      <c r="BE9" s="21"/>
+      <c r="BF9" s="21">
         <v>2014</v>
       </c>
-      <c r="BG9" s="22"/>
-      <c r="BH9" s="22"/>
-      <c r="BI9" s="22"/>
-      <c r="BJ9" s="22">
+      <c r="BG9" s="21"/>
+      <c r="BH9" s="21"/>
+      <c r="BI9" s="21"/>
+      <c r="BJ9" s="21">
         <v>2015</v>
       </c>
-      <c r="BK9" s="22"/>
-      <c r="BL9" s="22"/>
-      <c r="BM9" s="22"/>
-      <c r="BN9" s="22">
+      <c r="BK9" s="21"/>
+      <c r="BL9" s="21"/>
+      <c r="BM9" s="21"/>
+      <c r="BN9" s="21">
         <v>2016</v>
       </c>
-      <c r="BO9" s="22"/>
-      <c r="BP9" s="22"/>
-      <c r="BQ9" s="22"/>
-      <c r="BR9" s="22">
+      <c r="BO9" s="21"/>
+      <c r="BP9" s="21"/>
+      <c r="BQ9" s="21"/>
+      <c r="BR9" s="21">
         <v>2017</v>
       </c>
-      <c r="BS9" s="22"/>
-      <c r="BT9" s="22"/>
-      <c r="BU9" s="22"/>
-      <c r="BV9" s="22">
+      <c r="BS9" s="21"/>
+      <c r="BT9" s="21"/>
+      <c r="BU9" s="21"/>
+      <c r="BV9" s="21">
         <v>2018</v>
       </c>
-      <c r="BW9" s="22"/>
-      <c r="BX9" s="22"/>
-      <c r="BY9" s="22"/>
-      <c r="BZ9" s="22">
+      <c r="BW9" s="21"/>
+      <c r="BX9" s="21"/>
+      <c r="BY9" s="21"/>
+      <c r="BZ9" s="21">
         <v>2019</v>
       </c>
-      <c r="CA9" s="22"/>
-      <c r="CB9" s="22"/>
-      <c r="CC9" s="22"/>
-      <c r="CD9" s="22">
+      <c r="CA9" s="21"/>
+      <c r="CB9" s="21"/>
+      <c r="CC9" s="21"/>
+      <c r="CD9" s="21">
         <v>2020</v>
       </c>
-      <c r="CE9" s="22"/>
-      <c r="CF9" s="22"/>
-      <c r="CG9" s="22"/>
-      <c r="CH9" s="22">
+      <c r="CE9" s="21"/>
+      <c r="CF9" s="21"/>
+      <c r="CG9" s="21"/>
+      <c r="CH9" s="21">
         <v>2021</v>
       </c>
-      <c r="CI9" s="22"/>
-      <c r="CJ9" s="22"/>
-      <c r="CK9" s="22"/>
-      <c r="CL9" s="22">
+      <c r="CI9" s="21"/>
+      <c r="CJ9" s="21"/>
+      <c r="CK9" s="21"/>
+      <c r="CL9" s="21">
         <v>2022</v>
       </c>
-      <c r="CM9" s="22"/>
-      <c r="CN9" s="22"/>
-      <c r="CO9" s="22"/>
-      <c r="CP9" s="19">
+      <c r="CM9" s="21"/>
+      <c r="CN9" s="21"/>
+      <c r="CO9" s="21"/>
+      <c r="CP9" s="21">
         <v>2023</v>
       </c>
+      <c r="CQ9" s="23"/>
     </row>
     <row r="10" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24200,6 +24199,9 @@
       </c>
       <c r="CP10" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ10" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24297,6 +24299,7 @@
       <c r="CN11" s="1"/>
       <c r="CO11" s="1"/>
       <c r="CP11" s="1"/>
+      <c r="CQ11" s="1"/>
     </row>
     <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
@@ -24542,46 +24545,48 @@
       <c r="CC12" s="10">
         <v>81508.528887371693</v>
       </c>
-      <c r="CD12" s="20">
+      <c r="CD12" s="19">
         <v>63786.222259061149</v>
       </c>
-      <c r="CE12" s="20">
+      <c r="CE12" s="19">
         <v>20617.207518108418</v>
       </c>
-      <c r="CF12" s="20">
+      <c r="CF12" s="19">
         <v>23018.507943459255</v>
       </c>
-      <c r="CG12" s="20">
+      <c r="CG12" s="19">
         <v>39353.861632009895</v>
       </c>
-      <c r="CH12" s="20">
+      <c r="CH12" s="19">
         <v>34359.79005139049</v>
       </c>
-      <c r="CI12" s="20">
+      <c r="CI12" s="19">
         <v>32934.632216273138</v>
       </c>
-      <c r="CJ12" s="20">
+      <c r="CJ12" s="19">
         <v>31101.235178779076</v>
       </c>
-      <c r="CK12" s="20">
+      <c r="CK12" s="19">
         <v>58285.980798410397</v>
       </c>
-      <c r="CL12" s="20">
+      <c r="CL12" s="19">
         <v>44173.952257399738</v>
       </c>
-      <c r="CM12" s="20">
+      <c r="CM12" s="19">
         <v>52336.697097351629</v>
       </c>
-      <c r="CN12" s="20">
+      <c r="CN12" s="19">
         <v>48353.552505266598</v>
       </c>
-      <c r="CO12" s="20">
+      <c r="CO12" s="19">
         <v>71982.007955611291</v>
       </c>
-      <c r="CP12" s="20">
-        <v>65151.107717545892</v>
-      </c>
-      <c r="CQ12" s="11"/>
+      <c r="CP12" s="19">
+        <v>65459.990480924302</v>
+      </c>
+      <c r="CQ12" s="19">
+        <v>66023.485695810785</v>
+      </c>
       <c r="CR12" s="11"/>
       <c r="CS12" s="11"/>
       <c r="CT12" s="11"/>
@@ -24887,46 +24892,48 @@
       <c r="CC13" s="10">
         <v>44166.037829492408</v>
       </c>
-      <c r="CD13" s="20">
+      <c r="CD13" s="19">
         <v>43608.801726798847</v>
       </c>
-      <c r="CE13" s="20">
+      <c r="CE13" s="19">
         <v>23863.68189174154</v>
       </c>
-      <c r="CF13" s="20">
+      <c r="CF13" s="19">
         <v>24472.478718680635</v>
       </c>
-      <c r="CG13" s="20">
+      <c r="CG13" s="19">
         <v>33236.548627112723</v>
       </c>
-      <c r="CH13" s="20">
+      <c r="CH13" s="19">
         <v>32815.823343175747</v>
       </c>
-      <c r="CI13" s="20">
+      <c r="CI13" s="19">
         <v>28765.181851902711</v>
       </c>
-      <c r="CJ13" s="20">
+      <c r="CJ13" s="19">
         <v>26148.897222831041</v>
       </c>
-      <c r="CK13" s="20">
+      <c r="CK13" s="19">
         <v>36649.135463693521</v>
       </c>
-      <c r="CL13" s="20">
+      <c r="CL13" s="19">
         <v>39201.392208936297</v>
       </c>
-      <c r="CM13" s="20">
+      <c r="CM13" s="19">
         <v>34113.964358649384</v>
       </c>
-      <c r="CN13" s="20">
+      <c r="CN13" s="19">
         <v>31980.411933406729</v>
       </c>
-      <c r="CO13" s="20">
+      <c r="CO13" s="19">
         <v>43437.215392067759</v>
       </c>
-      <c r="CP13" s="20">
-        <v>53685.686350422409</v>
-      </c>
-      <c r="CQ13" s="11"/>
+      <c r="CP13" s="19">
+        <v>53863.21400026176</v>
+      </c>
+      <c r="CQ13" s="19">
+        <v>45317.650500709322</v>
+      </c>
       <c r="CR13" s="11"/>
       <c r="CS13" s="11"/>
       <c r="CT13" s="11"/>
@@ -25069,20 +25076,20 @@
       <c r="CA14" s="13"/>
       <c r="CB14" s="13"/>
       <c r="CC14" s="13"/>
-      <c r="CD14" s="21"/>
-      <c r="CE14" s="21"/>
-      <c r="CF14" s="21"/>
-      <c r="CG14" s="21"/>
-      <c r="CH14" s="21"/>
-      <c r="CI14" s="21"/>
-      <c r="CJ14" s="21"/>
-      <c r="CK14" s="21"/>
-      <c r="CL14" s="21"/>
-      <c r="CM14" s="21"/>
-      <c r="CN14" s="21"/>
-      <c r="CO14" s="21"/>
-      <c r="CP14" s="21"/>
-      <c r="CQ14" s="11"/>
+      <c r="CD14" s="20"/>
+      <c r="CE14" s="20"/>
+      <c r="CF14" s="20"/>
+      <c r="CG14" s="20"/>
+      <c r="CH14" s="20"/>
+      <c r="CI14" s="20"/>
+      <c r="CJ14" s="20"/>
+      <c r="CK14" s="20"/>
+      <c r="CL14" s="20"/>
+      <c r="CM14" s="20"/>
+      <c r="CN14" s="20"/>
+      <c r="CO14" s="20"/>
+      <c r="CP14" s="20"/>
+      <c r="CQ14" s="20"/>
       <c r="CR14" s="11"/>
       <c r="CS14" s="11"/>
       <c r="CT14" s="11"/>
@@ -25388,46 +25395,48 @@
       <c r="CC15" s="13">
         <v>125674.56671686409</v>
       </c>
-      <c r="CD15" s="21">
+      <c r="CD15" s="20">
         <v>107395.02398586</v>
       </c>
-      <c r="CE15" s="21">
+      <c r="CE15" s="20">
         <v>44480.889409849959</v>
       </c>
-      <c r="CF15" s="21">
+      <c r="CF15" s="20">
         <v>47490.986662139891</v>
       </c>
-      <c r="CG15" s="21">
+      <c r="CG15" s="20">
         <v>72590.410259122611</v>
       </c>
-      <c r="CH15" s="21">
+      <c r="CH15" s="20">
         <v>67175.61339456623</v>
       </c>
-      <c r="CI15" s="21">
+      <c r="CI15" s="20">
         <v>61699.814068175852</v>
       </c>
-      <c r="CJ15" s="21">
+      <c r="CJ15" s="20">
         <v>57250.132401610113</v>
       </c>
-      <c r="CK15" s="21">
+      <c r="CK15" s="20">
         <v>94935.116262103926</v>
       </c>
-      <c r="CL15" s="21">
+      <c r="CL15" s="20">
         <v>83375.344466336042</v>
       </c>
-      <c r="CM15" s="21">
+      <c r="CM15" s="20">
         <v>86450.66145600102</v>
       </c>
-      <c r="CN15" s="21">
+      <c r="CN15" s="20">
         <v>80333.964438673327</v>
       </c>
-      <c r="CO15" s="21">
+      <c r="CO15" s="20">
         <v>115419.22334767904</v>
       </c>
-      <c r="CP15" s="21">
-        <v>118836.79406796829</v>
-      </c>
-      <c r="CQ15" s="11"/>
+      <c r="CP15" s="20">
+        <v>119323.20448118605</v>
+      </c>
+      <c r="CQ15" s="20">
+        <v>111341.13619652011</v>
+      </c>
       <c r="CR15" s="11"/>
       <c r="CS15" s="11"/>
       <c r="CT15" s="11"/>
@@ -25584,6 +25593,7 @@
       <c r="CN16" s="15"/>
       <c r="CO16" s="15"/>
       <c r="CP16" s="15"/>
+      <c r="CQ16" s="15"/>
     </row>
     <row r="17" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
@@ -25682,6 +25692,7 @@
       <c r="CN17" s="1"/>
       <c r="CO17" s="1"/>
       <c r="CP17" s="1"/>
+      <c r="CQ17" s="1"/>
     </row>
     <row r="18" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="17"/>
@@ -25777,7 +25788,7 @@
       <c r="CN18" s="17"/>
       <c r="CO18" s="17"/>
       <c r="CP18" s="17"/>
-      <c r="CQ18" s="11"/>
+      <c r="CQ18" s="17"/>
       <c r="CR18" s="11"/>
       <c r="CS18" s="11"/>
       <c r="CT18" s="11"/>
@@ -25933,7 +25944,7 @@
       <c r="CN19" s="17"/>
       <c r="CO19" s="17"/>
       <c r="CP19" s="17"/>
-      <c r="CQ19" s="11"/>
+      <c r="CQ19" s="17"/>
       <c r="CR19" s="11"/>
       <c r="CS19" s="11"/>
       <c r="CT19" s="11"/>
@@ -26092,6 +26103,7 @@
       <c r="CN20" s="1"/>
       <c r="CO20" s="1"/>
       <c r="CP20" s="1"/>
+      <c r="CQ20" s="1"/>
     </row>
     <row r="21" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -26190,6 +26202,7 @@
       <c r="CN21" s="1"/>
       <c r="CO21" s="1"/>
       <c r="CP21" s="1"/>
+      <c r="CQ21" s="1"/>
     </row>
     <row r="22" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -26288,6 +26301,7 @@
       <c r="CN22" s="1"/>
       <c r="CO22" s="1"/>
       <c r="CP22" s="1"/>
+      <c r="CQ22" s="1"/>
     </row>
     <row r="23" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
@@ -26384,6 +26398,7 @@
       <c r="CN23" s="1"/>
       <c r="CO23" s="1"/>
       <c r="CP23" s="1"/>
+      <c r="CQ23" s="1"/>
     </row>
     <row r="24" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -26482,6 +26497,7 @@
       <c r="CN24" s="1"/>
       <c r="CO24" s="1"/>
       <c r="CP24" s="1"/>
+      <c r="CQ24" s="1"/>
     </row>
     <row r="25" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -26580,6 +26596,7 @@
       <c r="CN25" s="1"/>
       <c r="CO25" s="1"/>
       <c r="CP25" s="1"/>
+      <c r="CQ25" s="1"/>
     </row>
     <row r="26" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -26678,6 +26695,7 @@
       <c r="CN26" s="1"/>
       <c r="CO26" s="1"/>
       <c r="CP26" s="1"/>
+      <c r="CQ26" s="1"/>
     </row>
     <row r="27" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
@@ -26774,150 +26792,152 @@
       <c r="CN27" s="1"/>
       <c r="CO27" s="1"/>
       <c r="CP27" s="1"/>
+      <c r="CQ27" s="1"/>
     </row>
     <row r="28" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
-      <c r="B28" s="22">
+      <c r="B28" s="21">
         <v>2000</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="22">
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="21">
         <v>2001</v>
       </c>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="22">
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="21">
         <v>2002</v>
       </c>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="22">
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="21">
         <v>2003</v>
       </c>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="22">
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="21">
         <v>2004</v>
       </c>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="22">
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="21">
         <v>2005</v>
       </c>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="22">
+      <c r="W28" s="22"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="21">
         <v>2006</v>
       </c>
-      <c r="AA28" s="23"/>
-      <c r="AB28" s="23"/>
-      <c r="AC28" s="23"/>
-      <c r="AD28" s="22">
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="22"/>
+      <c r="AD28" s="21">
         <v>2007</v>
       </c>
-      <c r="AE28" s="23"/>
-      <c r="AF28" s="23"/>
-      <c r="AG28" s="23"/>
-      <c r="AH28" s="22">
+      <c r="AE28" s="22"/>
+      <c r="AF28" s="22"/>
+      <c r="AG28" s="22"/>
+      <c r="AH28" s="21">
         <v>2008</v>
       </c>
-      <c r="AI28" s="23"/>
-      <c r="AJ28" s="23"/>
-      <c r="AK28" s="23"/>
-      <c r="AL28" s="22">
+      <c r="AI28" s="22"/>
+      <c r="AJ28" s="22"/>
+      <c r="AK28" s="22"/>
+      <c r="AL28" s="21">
         <v>2009</v>
       </c>
-      <c r="AM28" s="23"/>
-      <c r="AN28" s="23"/>
-      <c r="AO28" s="23"/>
-      <c r="AP28" s="22">
+      <c r="AM28" s="22"/>
+      <c r="AN28" s="22"/>
+      <c r="AO28" s="22"/>
+      <c r="AP28" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="23"/>
-      <c r="AR28" s="23"/>
-      <c r="AS28" s="23"/>
-      <c r="AT28" s="22">
+      <c r="AQ28" s="22"/>
+      <c r="AR28" s="22"/>
+      <c r="AS28" s="22"/>
+      <c r="AT28" s="21">
         <v>2011</v>
       </c>
-      <c r="AU28" s="23"/>
-      <c r="AV28" s="23"/>
-      <c r="AW28" s="23"/>
-      <c r="AX28" s="22">
+      <c r="AU28" s="22"/>
+      <c r="AV28" s="22"/>
+      <c r="AW28" s="22"/>
+      <c r="AX28" s="21">
         <v>2012</v>
       </c>
-      <c r="AY28" s="23"/>
-      <c r="AZ28" s="23"/>
-      <c r="BA28" s="23"/>
-      <c r="BB28" s="22">
+      <c r="AY28" s="22"/>
+      <c r="AZ28" s="22"/>
+      <c r="BA28" s="22"/>
+      <c r="BB28" s="21">
         <v>2013</v>
       </c>
-      <c r="BC28" s="23"/>
-      <c r="BD28" s="23"/>
-      <c r="BE28" s="23"/>
-      <c r="BF28" s="22">
+      <c r="BC28" s="22"/>
+      <c r="BD28" s="22"/>
+      <c r="BE28" s="22"/>
+      <c r="BF28" s="21">
         <v>2014</v>
       </c>
-      <c r="BG28" s="23"/>
-      <c r="BH28" s="23"/>
-      <c r="BI28" s="23"/>
-      <c r="BJ28" s="22">
+      <c r="BG28" s="22"/>
+      <c r="BH28" s="22"/>
+      <c r="BI28" s="22"/>
+      <c r="BJ28" s="21">
         <v>2015</v>
       </c>
-      <c r="BK28" s="23"/>
-      <c r="BL28" s="23"/>
-      <c r="BM28" s="23"/>
-      <c r="BN28" s="22">
+      <c r="BK28" s="22"/>
+      <c r="BL28" s="22"/>
+      <c r="BM28" s="22"/>
+      <c r="BN28" s="21">
         <v>2016</v>
       </c>
-      <c r="BO28" s="23"/>
-      <c r="BP28" s="23"/>
-      <c r="BQ28" s="23"/>
-      <c r="BR28" s="22">
+      <c r="BO28" s="22"/>
+      <c r="BP28" s="22"/>
+      <c r="BQ28" s="22"/>
+      <c r="BR28" s="21">
         <v>2017</v>
       </c>
-      <c r="BS28" s="23"/>
-      <c r="BT28" s="23"/>
-      <c r="BU28" s="23"/>
-      <c r="BV28" s="22">
+      <c r="BS28" s="22"/>
+      <c r="BT28" s="22"/>
+      <c r="BU28" s="22"/>
+      <c r="BV28" s="21">
         <v>2018</v>
       </c>
-      <c r="BW28" s="22"/>
-      <c r="BX28" s="22"/>
-      <c r="BY28" s="22"/>
-      <c r="BZ28" s="22">
+      <c r="BW28" s="21"/>
+      <c r="BX28" s="21"/>
+      <c r="BY28" s="21"/>
+      <c r="BZ28" s="21">
         <v>2019</v>
       </c>
-      <c r="CA28" s="22"/>
-      <c r="CB28" s="22"/>
-      <c r="CC28" s="22"/>
-      <c r="CD28" s="22">
+      <c r="CA28" s="21"/>
+      <c r="CB28" s="21"/>
+      <c r="CC28" s="21"/>
+      <c r="CD28" s="21">
         <v>2020</v>
       </c>
-      <c r="CE28" s="22"/>
-      <c r="CF28" s="22"/>
-      <c r="CG28" s="22"/>
-      <c r="CH28" s="22">
+      <c r="CE28" s="21"/>
+      <c r="CF28" s="21"/>
+      <c r="CG28" s="21"/>
+      <c r="CH28" s="21">
         <v>2021</v>
       </c>
-      <c r="CI28" s="22"/>
-      <c r="CJ28" s="22"/>
-      <c r="CK28" s="22"/>
-      <c r="CL28" s="22">
+      <c r="CI28" s="21"/>
+      <c r="CJ28" s="21"/>
+      <c r="CK28" s="21"/>
+      <c r="CL28" s="21">
         <v>2022</v>
       </c>
-      <c r="CM28" s="22"/>
-      <c r="CN28" s="22"/>
-      <c r="CO28" s="22"/>
-      <c r="CP28" s="19">
+      <c r="CM28" s="21"/>
+      <c r="CN28" s="21"/>
+      <c r="CO28" s="21"/>
+      <c r="CP28" s="21">
         <v>2023</v>
       </c>
+      <c r="CQ28" s="23"/>
     </row>
     <row r="29" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
@@ -27201,6 +27221,9 @@
       </c>
       <c r="CP29" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ29" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27298,6 +27321,7 @@
       <c r="CN30" s="1"/>
       <c r="CO30" s="1"/>
       <c r="CP30" s="1"/>
+      <c r="CQ30" s="1"/>
     </row>
     <row r="31" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
@@ -27543,46 +27567,48 @@
       <c r="CC31" s="10">
         <v>77632.074611923599</v>
       </c>
-      <c r="CD31" s="20">
+      <c r="CD31" s="19">
         <v>61585.987886369272</v>
       </c>
-      <c r="CE31" s="20">
+      <c r="CE31" s="19">
         <v>19632.918530349722</v>
       </c>
-      <c r="CF31" s="20">
+      <c r="CF31" s="19">
         <v>22057.829345798316</v>
       </c>
-      <c r="CG31" s="20">
+      <c r="CG31" s="19">
         <v>37867.593372515308</v>
       </c>
-      <c r="CH31" s="20">
+      <c r="CH31" s="19">
         <v>33570.762662069799</v>
       </c>
-      <c r="CI31" s="20">
+      <c r="CI31" s="19">
         <v>31824.27086371804</v>
       </c>
-      <c r="CJ31" s="20">
+      <c r="CJ31" s="19">
         <v>29870.330912766793</v>
       </c>
-      <c r="CK31" s="20">
+      <c r="CK31" s="19">
         <v>55806.264395766862</v>
       </c>
-      <c r="CL31" s="20">
+      <c r="CL31" s="19">
         <v>42666.482735980899</v>
       </c>
-      <c r="CM31" s="20">
+      <c r="CM31" s="19">
         <v>50160.827000193254</v>
       </c>
-      <c r="CN31" s="20">
+      <c r="CN31" s="19">
         <v>45747.247224650651</v>
       </c>
-      <c r="CO31" s="20">
+      <c r="CO31" s="19">
         <v>67178.583782310918</v>
       </c>
-      <c r="CP31" s="20">
-        <v>60528.319001607997</v>
-      </c>
-      <c r="CQ31" s="11"/>
+      <c r="CP31" s="19">
+        <v>60815.285027065627</v>
+      </c>
+      <c r="CQ31" s="19">
+        <v>60389.031164043161</v>
+      </c>
       <c r="CR31" s="11"/>
       <c r="CS31" s="11"/>
       <c r="CT31" s="11"/>
@@ -27888,46 +27914,48 @@
       <c r="CC32" s="10">
         <v>43548.930942141553</v>
       </c>
-      <c r="CD32" s="20">
+      <c r="CD32" s="19">
         <v>41369.815682889341</v>
       </c>
-      <c r="CE32" s="20">
+      <c r="CE32" s="19">
         <v>22472.22600082789</v>
       </c>
-      <c r="CF32" s="20">
+      <c r="CF32" s="19">
         <v>22860.431135433821</v>
       </c>
-      <c r="CG32" s="20">
+      <c r="CG32" s="19">
         <v>30911.379465516111</v>
       </c>
-      <c r="CH32" s="20">
+      <c r="CH32" s="19">
         <v>29508.709154032811</v>
       </c>
-      <c r="CI32" s="20">
+      <c r="CI32" s="19">
         <v>26096.433565107174</v>
       </c>
-      <c r="CJ32" s="20">
+      <c r="CJ32" s="19">
         <v>23839.078751075409</v>
       </c>
-      <c r="CK32" s="20">
+      <c r="CK32" s="19">
         <v>33383.353309608567</v>
       </c>
-      <c r="CL32" s="20">
+      <c r="CL32" s="19">
         <v>34870.138067721156</v>
       </c>
-      <c r="CM32" s="20">
+      <c r="CM32" s="19">
         <v>30896.857861207467</v>
       </c>
-      <c r="CN32" s="20">
+      <c r="CN32" s="19">
         <v>28878.700203074994</v>
       </c>
-      <c r="CO32" s="20">
+      <c r="CO32" s="19">
         <v>38575.913995093506</v>
       </c>
-      <c r="CP32" s="20">
-        <v>45273.25643013457</v>
-      </c>
-      <c r="CQ32" s="11"/>
+      <c r="CP32" s="19">
+        <v>45422.96588457191</v>
+      </c>
+      <c r="CQ32" s="19">
+        <v>38699.952899184369</v>
+      </c>
       <c r="CR32" s="11"/>
       <c r="CS32" s="11"/>
       <c r="CT32" s="11"/>
@@ -28070,20 +28098,20 @@
       <c r="CA33" s="13"/>
       <c r="CB33" s="13"/>
       <c r="CC33" s="13"/>
-      <c r="CD33" s="21"/>
-      <c r="CE33" s="21"/>
-      <c r="CF33" s="21"/>
-      <c r="CG33" s="21"/>
-      <c r="CH33" s="21"/>
-      <c r="CI33" s="21"/>
-      <c r="CJ33" s="21"/>
-      <c r="CK33" s="21"/>
-      <c r="CL33" s="21"/>
-      <c r="CM33" s="21"/>
-      <c r="CN33" s="21"/>
-      <c r="CO33" s="21"/>
-      <c r="CP33" s="21"/>
-      <c r="CQ33" s="11"/>
+      <c r="CD33" s="20"/>
+      <c r="CE33" s="20"/>
+      <c r="CF33" s="20"/>
+      <c r="CG33" s="20"/>
+      <c r="CH33" s="20"/>
+      <c r="CI33" s="20"/>
+      <c r="CJ33" s="20"/>
+      <c r="CK33" s="20"/>
+      <c r="CL33" s="20"/>
+      <c r="CM33" s="20"/>
+      <c r="CN33" s="20"/>
+      <c r="CO33" s="20"/>
+      <c r="CP33" s="20"/>
+      <c r="CQ33" s="20"/>
       <c r="CR33" s="11"/>
       <c r="CS33" s="11"/>
       <c r="CT33" s="11"/>
@@ -28389,46 +28417,48 @@
       <c r="CC34" s="13">
         <v>121181.00555406515</v>
       </c>
-      <c r="CD34" s="21">
+      <c r="CD34" s="20">
         <v>102955.80356925861</v>
       </c>
-      <c r="CE34" s="21">
+      <c r="CE34" s="20">
         <v>42105.144531177611</v>
       </c>
-      <c r="CF34" s="21">
+      <c r="CF34" s="20">
         <v>44918.260481232137</v>
       </c>
-      <c r="CG34" s="21">
+      <c r="CG34" s="20">
         <v>68778.972838031419</v>
       </c>
-      <c r="CH34" s="21">
+      <c r="CH34" s="20">
         <v>63079.47181610261</v>
       </c>
-      <c r="CI34" s="21">
+      <c r="CI34" s="20">
         <v>57920.704428825215</v>
       </c>
-      <c r="CJ34" s="21">
+      <c r="CJ34" s="20">
         <v>53709.409663842205</v>
       </c>
-      <c r="CK34" s="21">
+      <c r="CK34" s="20">
         <v>89189.617705375422</v>
       </c>
-      <c r="CL34" s="21">
+      <c r="CL34" s="20">
         <v>77536.620803702055</v>
       </c>
-      <c r="CM34" s="21">
+      <c r="CM34" s="20">
         <v>81057.684861400718</v>
       </c>
-      <c r="CN34" s="21">
+      <c r="CN34" s="20">
         <v>74625.947427725652</v>
       </c>
-      <c r="CO34" s="21">
+      <c r="CO34" s="20">
         <v>105754.49777740442</v>
       </c>
-      <c r="CP34" s="21">
-        <v>105801.57543174256</v>
-      </c>
-      <c r="CQ34" s="11"/>
+      <c r="CP34" s="20">
+        <v>106238.25091163753</v>
+      </c>
+      <c r="CQ34" s="20">
+        <v>99088.98406322753</v>
+      </c>
       <c r="CR34" s="11"/>
       <c r="CS34" s="11"/>
       <c r="CT34" s="11"/>
@@ -28585,6 +28615,7 @@
       <c r="CN35" s="15"/>
       <c r="CO35" s="15"/>
       <c r="CP35" s="15"/>
+      <c r="CQ35" s="15"/>
     </row>
     <row r="36" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
@@ -28683,6 +28714,7 @@
       <c r="CN36" s="1"/>
       <c r="CO36" s="1"/>
       <c r="CP36" s="1"/>
+      <c r="CQ36" s="1"/>
     </row>
     <row r="37" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="17"/>
@@ -28778,7 +28810,7 @@
       <c r="CN37" s="17"/>
       <c r="CO37" s="17"/>
       <c r="CP37" s="17"/>
-      <c r="CQ37" s="11"/>
+      <c r="CQ37" s="17"/>
       <c r="CR37" s="11"/>
       <c r="CS37" s="11"/>
       <c r="CT37" s="11"/>
@@ -28934,7 +28966,7 @@
       <c r="CN38" s="17"/>
       <c r="CO38" s="17"/>
       <c r="CP38" s="17"/>
-      <c r="CQ38" s="11"/>
+      <c r="CQ38" s="17"/>
       <c r="CR38" s="11"/>
       <c r="CS38" s="11"/>
       <c r="CT38" s="11"/>
@@ -29093,6 +29125,7 @@
       <c r="CN39" s="1"/>
       <c r="CO39" s="1"/>
       <c r="CP39" s="1"/>
+      <c r="CQ39" s="1"/>
     </row>
     <row r="40" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
@@ -29191,6 +29224,7 @@
       <c r="CN40" s="1"/>
       <c r="CO40" s="1"/>
       <c r="CP40" s="1"/>
+      <c r="CQ40" s="1"/>
     </row>
     <row r="41" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
@@ -29289,6 +29323,7 @@
       <c r="CN41" s="1"/>
       <c r="CO41" s="1"/>
       <c r="CP41" s="1"/>
+      <c r="CQ41" s="1"/>
     </row>
     <row r="42" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
@@ -29385,6 +29420,7 @@
       <c r="CN42" s="1"/>
       <c r="CO42" s="1"/>
       <c r="CP42" s="1"/>
+      <c r="CQ42" s="1"/>
     </row>
     <row r="43" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -29483,6 +29519,7 @@
       <c r="CN43" s="1"/>
       <c r="CO43" s="1"/>
       <c r="CP43" s="1"/>
+      <c r="CQ43" s="1"/>
     </row>
     <row r="44" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
@@ -29581,6 +29618,7 @@
       <c r="CN44" s="1"/>
       <c r="CO44" s="1"/>
       <c r="CP44" s="1"/>
+      <c r="CQ44" s="1"/>
     </row>
     <row r="45" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -29762,148 +29800,150 @@
       <c r="CN46" s="1"/>
       <c r="CO46" s="1"/>
       <c r="CP46" s="1"/>
+      <c r="CQ46" s="1"/>
     </row>
     <row r="47" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22" t="s">
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22" t="s">
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22" t="s">
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="22"/>
-      <c r="R47" s="22" t="s">
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="22"/>
-      <c r="T47" s="22"/>
-      <c r="U47" s="22"/>
-      <c r="V47" s="22" t="s">
+      <c r="S47" s="21"/>
+      <c r="T47" s="21"/>
+      <c r="U47" s="21"/>
+      <c r="V47" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="22"/>
-      <c r="X47" s="22"/>
-      <c r="Y47" s="22"/>
-      <c r="Z47" s="22" t="s">
+      <c r="W47" s="21"/>
+      <c r="X47" s="21"/>
+      <c r="Y47" s="21"/>
+      <c r="Z47" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="22"/>
-      <c r="AB47" s="22"/>
-      <c r="AC47" s="22"/>
-      <c r="AD47" s="22" t="s">
+      <c r="AA47" s="21"/>
+      <c r="AB47" s="21"/>
+      <c r="AC47" s="21"/>
+      <c r="AD47" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="22"/>
-      <c r="AF47" s="22"/>
-      <c r="AG47" s="22"/>
-      <c r="AH47" s="22" t="s">
+      <c r="AE47" s="21"/>
+      <c r="AF47" s="21"/>
+      <c r="AG47" s="21"/>
+      <c r="AH47" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="22"/>
-      <c r="AJ47" s="22"/>
-      <c r="AK47" s="22"/>
-      <c r="AL47" s="22" t="s">
+      <c r="AI47" s="21"/>
+      <c r="AJ47" s="21"/>
+      <c r="AK47" s="21"/>
+      <c r="AL47" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="22"/>
-      <c r="AN47" s="22"/>
-      <c r="AO47" s="22"/>
-      <c r="AP47" s="22" t="s">
+      <c r="AM47" s="21"/>
+      <c r="AN47" s="21"/>
+      <c r="AO47" s="21"/>
+      <c r="AP47" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="22"/>
-      <c r="AR47" s="22"/>
-      <c r="AS47" s="22"/>
-      <c r="AT47" s="22" t="s">
+      <c r="AQ47" s="21"/>
+      <c r="AR47" s="21"/>
+      <c r="AS47" s="21"/>
+      <c r="AT47" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="22"/>
-      <c r="AV47" s="22"/>
-      <c r="AW47" s="22"/>
-      <c r="AX47" s="22" t="s">
+      <c r="AU47" s="21"/>
+      <c r="AV47" s="21"/>
+      <c r="AW47" s="21"/>
+      <c r="AX47" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="22"/>
-      <c r="AZ47" s="22"/>
-      <c r="BA47" s="22"/>
-      <c r="BB47" s="22" t="s">
+      <c r="AY47" s="21"/>
+      <c r="AZ47" s="21"/>
+      <c r="BA47" s="21"/>
+      <c r="BB47" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="22"/>
-      <c r="BD47" s="22"/>
-      <c r="BE47" s="22"/>
-      <c r="BF47" s="22" t="s">
+      <c r="BC47" s="21"/>
+      <c r="BD47" s="21"/>
+      <c r="BE47" s="21"/>
+      <c r="BF47" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="22"/>
-      <c r="BH47" s="22"/>
-      <c r="BI47" s="22"/>
-      <c r="BJ47" s="22" t="s">
+      <c r="BG47" s="21"/>
+      <c r="BH47" s="21"/>
+      <c r="BI47" s="21"/>
+      <c r="BJ47" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="22"/>
-      <c r="BL47" s="22"/>
-      <c r="BM47" s="22"/>
-      <c r="BN47" s="22" t="s">
+      <c r="BK47" s="21"/>
+      <c r="BL47" s="21"/>
+      <c r="BM47" s="21"/>
+      <c r="BN47" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="22"/>
-      <c r="BP47" s="22"/>
-      <c r="BQ47" s="22"/>
-      <c r="BR47" s="22" t="s">
+      <c r="BO47" s="21"/>
+      <c r="BP47" s="21"/>
+      <c r="BQ47" s="21"/>
+      <c r="BR47" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="BS47" s="22"/>
-      <c r="BT47" s="22"/>
-      <c r="BU47" s="22"/>
-      <c r="BV47" s="22" t="s">
+      <c r="BS47" s="21"/>
+      <c r="BT47" s="21"/>
+      <c r="BU47" s="21"/>
+      <c r="BV47" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="BW47" s="22"/>
-      <c r="BX47" s="22"/>
-      <c r="BY47" s="22"/>
-      <c r="BZ47" s="22" t="s">
+      <c r="BW47" s="21"/>
+      <c r="BX47" s="21"/>
+      <c r="BY47" s="21"/>
+      <c r="BZ47" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="22"/>
-      <c r="CB47" s="22"/>
-      <c r="CC47" s="22"/>
-      <c r="CD47" s="22" t="s">
+      <c r="CA47" s="21"/>
+      <c r="CB47" s="21"/>
+      <c r="CC47" s="21"/>
+      <c r="CD47" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="22"/>
-      <c r="CF47" s="22"/>
-      <c r="CG47" s="22"/>
-      <c r="CH47" s="22" t="s">
+      <c r="CE47" s="21"/>
+      <c r="CF47" s="21"/>
+      <c r="CG47" s="21"/>
+      <c r="CH47" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="CI47" s="22"/>
-      <c r="CJ47" s="22"/>
-      <c r="CK47" s="22"/>
-      <c r="CL47" s="19" t="s">
+      <c r="CI47" s="21"/>
+      <c r="CJ47" s="21"/>
+      <c r="CK47" s="21"/>
+      <c r="CL47" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="CM47" s="19"/>
-      <c r="CN47" s="19"/>
-      <c r="CO47" s="19"/>
-      <c r="CP47" s="19"/>
+      <c r="CM47" s="21"/>
+      <c r="CN47" s="21"/>
+      <c r="CO47" s="21"/>
+      <c r="CP47" s="21"/>
+      <c r="CQ47" s="23"/>
     </row>
     <row r="48" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
@@ -30176,10 +30216,13 @@
       <c r="CL48" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM48" s="6"/>
+      <c r="CM48" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="CN48" s="6"/>
       <c r="CO48" s="6"/>
       <c r="CP48" s="6"/>
+      <c r="CQ48" s="6"/>
     </row>
     <row r="49" spans="1:151" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
@@ -30276,6 +30319,7 @@
       <c r="CN49" s="1"/>
       <c r="CO49" s="1"/>
       <c r="CP49" s="1"/>
+      <c r="CQ49" s="1"/>
     </row>
     <row r="50" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
@@ -30546,13 +30590,15 @@
         <v>23.497978363906014</v>
       </c>
       <c r="CL50" s="18">
-        <v>47.487612921554245</v>
-      </c>
-      <c r="CM50" s="18"/>
+        <v>48.186854776977441</v>
+      </c>
+      <c r="CM50" s="18">
+        <v>26.151418330813513</v>
+      </c>
       <c r="CN50" s="18"/>
       <c r="CO50" s="18"/>
       <c r="CP50" s="18"/>
-      <c r="CQ50" s="11"/>
+      <c r="CQ50" s="18"/>
       <c r="CR50" s="11"/>
       <c r="CS50" s="11"/>
       <c r="CT50" s="11"/>
@@ -30879,13 +30925,15 @@
         <v>18.521800971536834</v>
       </c>
       <c r="CL51" s="18">
-        <v>36.948417709981982</v>
-      </c>
-      <c r="CM51" s="18"/>
+        <v>37.401278284150266</v>
+      </c>
+      <c r="CM51" s="18">
+        <v>32.841935414695683</v>
+      </c>
       <c r="CN51" s="18"/>
       <c r="CO51" s="18"/>
       <c r="CP51" s="18"/>
-      <c r="CQ51" s="11"/>
+      <c r="CQ51" s="18"/>
       <c r="CR51" s="11"/>
       <c r="CS51" s="11"/>
       <c r="CT51" s="11"/>
@@ -31038,7 +31086,7 @@
       <c r="CN52" s="17"/>
       <c r="CO52" s="17"/>
       <c r="CP52" s="17"/>
-      <c r="CQ52" s="11"/>
+      <c r="CQ52" s="17"/>
       <c r="CR52" s="11"/>
       <c r="CS52" s="11"/>
       <c r="CT52" s="11"/>
@@ -31365,13 +31413,15 @@
         <v>21.576954758259376</v>
       </c>
       <c r="CL53" s="18">
-        <v>42.532297561841347</v>
-      </c>
-      <c r="CM53" s="18"/>
+        <v>43.115695946976814</v>
+      </c>
+      <c r="CM53" s="18">
+        <v>28.791537648543112</v>
+      </c>
       <c r="CN53" s="18"/>
       <c r="CO53" s="18"/>
       <c r="CP53" s="18"/>
-      <c r="CQ53" s="11"/>
+      <c r="CQ53" s="18"/>
       <c r="CR53" s="11"/>
       <c r="CS53" s="11"/>
       <c r="CT53" s="11"/>
@@ -31524,6 +31574,7 @@
       <c r="CN54" s="15"/>
       <c r="CO54" s="15"/>
       <c r="CP54" s="15"/>
+      <c r="CQ54" s="15"/>
     </row>
     <row r="55" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
@@ -31622,6 +31673,7 @@
       <c r="CN55" s="1"/>
       <c r="CO55" s="1"/>
       <c r="CP55" s="1"/>
+      <c r="CQ55" s="1"/>
     </row>
     <row r="56" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="17"/>
@@ -31717,7 +31769,7 @@
       <c r="CN56" s="17"/>
       <c r="CO56" s="17"/>
       <c r="CP56" s="17"/>
-      <c r="CQ56" s="11"/>
+      <c r="CQ56" s="17"/>
       <c r="CR56" s="11"/>
       <c r="CS56" s="11"/>
       <c r="CT56" s="11"/>
@@ -31869,7 +31921,7 @@
       <c r="CN57" s="17"/>
       <c r="CO57" s="17"/>
       <c r="CP57" s="17"/>
-      <c r="CQ57" s="11"/>
+      <c r="CQ57" s="17"/>
       <c r="CR57" s="11"/>
       <c r="CS57" s="11"/>
       <c r="CT57" s="11"/>
@@ -32024,6 +32076,7 @@
       <c r="CN58" s="1"/>
       <c r="CO58" s="1"/>
       <c r="CP58" s="1"/>
+      <c r="CQ58" s="1"/>
     </row>
     <row r="59" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -32122,6 +32175,7 @@
       <c r="CN59" s="1"/>
       <c r="CO59" s="1"/>
       <c r="CP59" s="1"/>
+      <c r="CQ59" s="1"/>
     </row>
     <row r="60" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
@@ -32220,6 +32274,7 @@
       <c r="CN60" s="1"/>
       <c r="CO60" s="1"/>
       <c r="CP60" s="1"/>
+      <c r="CQ60" s="1"/>
     </row>
     <row r="61" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
@@ -32316,6 +32371,7 @@
       <c r="CN61" s="1"/>
       <c r="CO61" s="1"/>
       <c r="CP61" s="1"/>
+      <c r="CQ61" s="1"/>
     </row>
     <row r="62" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -32414,6 +32470,7 @@
       <c r="CN62" s="1"/>
       <c r="CO62" s="1"/>
       <c r="CP62" s="1"/>
+      <c r="CQ62" s="1"/>
     </row>
     <row r="63" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
@@ -32512,6 +32569,7 @@
       <c r="CN63" s="1"/>
       <c r="CO63" s="1"/>
       <c r="CP63" s="1"/>
+      <c r="CQ63" s="1"/>
     </row>
     <row r="64" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
@@ -32610,6 +32668,7 @@
       <c r="CN64" s="1"/>
       <c r="CO64" s="1"/>
       <c r="CP64" s="1"/>
+      <c r="CQ64" s="1"/>
     </row>
     <row r="65" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
@@ -32706,148 +32765,150 @@
       <c r="CN65" s="1"/>
       <c r="CO65" s="1"/>
       <c r="CP65" s="1"/>
+      <c r="CQ65" s="1"/>
     </row>
     <row r="66" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="22" t="s">
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="22" t="s">
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="24"/>
-      <c r="L66" s="24"/>
-      <c r="M66" s="24"/>
-      <c r="N66" s="22" t="s">
+      <c r="K66" s="23"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="23"/>
+      <c r="N66" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="24"/>
-      <c r="P66" s="24"/>
-      <c r="Q66" s="24"/>
-      <c r="R66" s="22" t="s">
+      <c r="O66" s="23"/>
+      <c r="P66" s="23"/>
+      <c r="Q66" s="23"/>
+      <c r="R66" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="24"/>
-      <c r="T66" s="24"/>
-      <c r="U66" s="24"/>
-      <c r="V66" s="22" t="s">
+      <c r="S66" s="23"/>
+      <c r="T66" s="23"/>
+      <c r="U66" s="23"/>
+      <c r="V66" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="24"/>
-      <c r="X66" s="24"/>
-      <c r="Y66" s="24"/>
-      <c r="Z66" s="22" t="s">
+      <c r="W66" s="23"/>
+      <c r="X66" s="23"/>
+      <c r="Y66" s="23"/>
+      <c r="Z66" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="24"/>
-      <c r="AB66" s="24"/>
-      <c r="AC66" s="24"/>
-      <c r="AD66" s="22" t="s">
+      <c r="AA66" s="23"/>
+      <c r="AB66" s="23"/>
+      <c r="AC66" s="23"/>
+      <c r="AD66" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="24"/>
-      <c r="AF66" s="24"/>
-      <c r="AG66" s="24"/>
-      <c r="AH66" s="22" t="s">
+      <c r="AE66" s="23"/>
+      <c r="AF66" s="23"/>
+      <c r="AG66" s="23"/>
+      <c r="AH66" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="24"/>
-      <c r="AJ66" s="24"/>
-      <c r="AK66" s="24"/>
-      <c r="AL66" s="22" t="s">
+      <c r="AI66" s="23"/>
+      <c r="AJ66" s="23"/>
+      <c r="AK66" s="23"/>
+      <c r="AL66" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="24"/>
-      <c r="AN66" s="24"/>
-      <c r="AO66" s="24"/>
-      <c r="AP66" s="22" t="s">
+      <c r="AM66" s="23"/>
+      <c r="AN66" s="23"/>
+      <c r="AO66" s="23"/>
+      <c r="AP66" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="24"/>
-      <c r="AR66" s="24"/>
-      <c r="AS66" s="24"/>
-      <c r="AT66" s="22" t="s">
+      <c r="AQ66" s="23"/>
+      <c r="AR66" s="23"/>
+      <c r="AS66" s="23"/>
+      <c r="AT66" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="24"/>
-      <c r="AV66" s="24"/>
-      <c r="AW66" s="24"/>
-      <c r="AX66" s="22" t="s">
+      <c r="AU66" s="23"/>
+      <c r="AV66" s="23"/>
+      <c r="AW66" s="23"/>
+      <c r="AX66" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="24"/>
-      <c r="AZ66" s="24"/>
-      <c r="BA66" s="24"/>
-      <c r="BB66" s="22" t="s">
+      <c r="AY66" s="23"/>
+      <c r="AZ66" s="23"/>
+      <c r="BA66" s="23"/>
+      <c r="BB66" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="24"/>
-      <c r="BD66" s="24"/>
-      <c r="BE66" s="24"/>
-      <c r="BF66" s="22" t="s">
+      <c r="BC66" s="23"/>
+      <c r="BD66" s="23"/>
+      <c r="BE66" s="23"/>
+      <c r="BF66" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="24"/>
-      <c r="BH66" s="24"/>
-      <c r="BI66" s="24"/>
-      <c r="BJ66" s="22" t="s">
+      <c r="BG66" s="23"/>
+      <c r="BH66" s="23"/>
+      <c r="BI66" s="23"/>
+      <c r="BJ66" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="24"/>
-      <c r="BL66" s="24"/>
-      <c r="BM66" s="24"/>
-      <c r="BN66" s="22" t="s">
+      <c r="BK66" s="23"/>
+      <c r="BL66" s="23"/>
+      <c r="BM66" s="23"/>
+      <c r="BN66" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="24"/>
-      <c r="BP66" s="24"/>
-      <c r="BQ66" s="24"/>
-      <c r="BR66" s="22" t="s">
+      <c r="BO66" s="23"/>
+      <c r="BP66" s="23"/>
+      <c r="BQ66" s="23"/>
+      <c r="BR66" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="24"/>
-      <c r="BT66" s="24"/>
-      <c r="BU66" s="24"/>
-      <c r="BV66" s="22" t="s">
+      <c r="BS66" s="23"/>
+      <c r="BT66" s="23"/>
+      <c r="BU66" s="23"/>
+      <c r="BV66" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="BW66" s="22"/>
-      <c r="BX66" s="22"/>
-      <c r="BY66" s="22"/>
-      <c r="BZ66" s="22" t="s">
+      <c r="BW66" s="21"/>
+      <c r="BX66" s="21"/>
+      <c r="BY66" s="21"/>
+      <c r="BZ66" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="22"/>
-      <c r="CB66" s="22"/>
-      <c r="CC66" s="22"/>
-      <c r="CD66" s="22" t="s">
+      <c r="CA66" s="21"/>
+      <c r="CB66" s="21"/>
+      <c r="CC66" s="21"/>
+      <c r="CD66" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="22"/>
-      <c r="CF66" s="22"/>
-      <c r="CG66" s="22"/>
-      <c r="CH66" s="22" t="s">
+      <c r="CE66" s="21"/>
+      <c r="CF66" s="21"/>
+      <c r="CG66" s="21"/>
+      <c r="CH66" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="CI66" s="22"/>
-      <c r="CJ66" s="22"/>
-      <c r="CK66" s="22"/>
-      <c r="CL66" s="19" t="s">
+      <c r="CI66" s="21"/>
+      <c r="CJ66" s="21"/>
+      <c r="CK66" s="21"/>
+      <c r="CL66" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="CM66" s="19"/>
-      <c r="CN66" s="19"/>
-      <c r="CO66" s="19"/>
-      <c r="CP66" s="19"/>
+      <c r="CM66" s="21"/>
+      <c r="CN66" s="21"/>
+      <c r="CO66" s="21"/>
+      <c r="CP66" s="21"/>
+      <c r="CQ66" s="23"/>
     </row>
     <row r="67" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
@@ -33120,10 +33181,13 @@
       <c r="CL67" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM67" s="6"/>
+      <c r="CM67" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="CN67" s="6"/>
       <c r="CO67" s="6"/>
       <c r="CP67" s="6"/>
+      <c r="CQ67" s="6"/>
     </row>
     <row r="68" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
@@ -33220,6 +33284,7 @@
       <c r="CN68" s="1"/>
       <c r="CO68" s="1"/>
       <c r="CP68" s="1"/>
+      <c r="CQ68" s="1"/>
     </row>
     <row r="69" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
@@ -33490,13 +33555,15 @@
         <v>20.378212929455103</v>
       </c>
       <c r="CL69" s="18">
-        <v>41.863859217446361</v>
-      </c>
-      <c r="CM69" s="18"/>
+        <v>42.536438739019218</v>
+      </c>
+      <c r="CM69" s="18">
+        <v>20.390820438049204</v>
+      </c>
       <c r="CN69" s="18"/>
       <c r="CO69" s="18"/>
       <c r="CP69" s="18"/>
-      <c r="CQ69" s="11"/>
+      <c r="CQ69" s="18"/>
       <c r="CR69" s="11"/>
       <c r="CS69" s="11"/>
       <c r="CT69" s="11"/>
@@ -33823,13 +33890,15 @@
         <v>15.554341223086141</v>
       </c>
       <c r="CL70" s="18">
-        <v>29.833889221228645</v>
-      </c>
-      <c r="CM70" s="18"/>
+        <v>30.26322349615063</v>
+      </c>
+      <c r="CM70" s="18">
+        <v>25.255302895295628</v>
+      </c>
       <c r="CN70" s="18"/>
       <c r="CO70" s="18"/>
       <c r="CP70" s="18"/>
-      <c r="CQ70" s="11"/>
+      <c r="CQ70" s="18"/>
       <c r="CR70" s="11"/>
       <c r="CS70" s="11"/>
       <c r="CT70" s="11"/>
@@ -33981,7 +34050,7 @@
       <c r="CN71" s="17"/>
       <c r="CO71" s="17"/>
       <c r="CP71" s="17"/>
-      <c r="CQ71" s="11"/>
+      <c r="CQ71" s="17"/>
       <c r="CR71" s="11"/>
       <c r="CS71" s="11"/>
       <c r="CT71" s="11"/>
@@ -34308,13 +34377,15 @@
         <v>18.57265508946189</v>
       </c>
       <c r="CL72" s="18">
-        <v>36.453683865844937</v>
-      </c>
-      <c r="CM72" s="18"/>
+        <v>37.01686997760558</v>
+      </c>
+      <c r="CM72" s="18">
+        <v>22.245021224894643</v>
+      </c>
       <c r="CN72" s="18"/>
       <c r="CO72" s="18"/>
       <c r="CP72" s="18"/>
-      <c r="CQ72" s="11"/>
+      <c r="CQ72" s="18"/>
       <c r="CR72" s="11"/>
       <c r="CS72" s="11"/>
       <c r="CT72" s="11"/>
@@ -34467,6 +34538,7 @@
       <c r="CN73" s="15"/>
       <c r="CO73" s="15"/>
       <c r="CP73" s="15"/>
+      <c r="CQ73" s="15"/>
     </row>
     <row r="74" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
@@ -34565,6 +34637,7 @@
       <c r="CN74" s="1"/>
       <c r="CO74" s="1"/>
       <c r="CP74" s="1"/>
+      <c r="CQ74" s="1"/>
     </row>
     <row r="75" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="17"/>
@@ -34812,7 +34885,7 @@
       <c r="CN76" s="17"/>
       <c r="CO76" s="17"/>
       <c r="CP76" s="17"/>
-      <c r="CQ76" s="11"/>
+      <c r="CQ76" s="17"/>
       <c r="CR76" s="11"/>
       <c r="CS76" s="11"/>
       <c r="CT76" s="11"/>
@@ -34971,6 +35044,7 @@
       <c r="CN77" s="1"/>
       <c r="CO77" s="1"/>
       <c r="CP77" s="1"/>
+      <c r="CQ77" s="1"/>
     </row>
     <row r="78" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
@@ -35069,6 +35143,7 @@
       <c r="CN78" s="1"/>
       <c r="CO78" s="1"/>
       <c r="CP78" s="1"/>
+      <c r="CQ78" s="1"/>
     </row>
     <row r="79" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
@@ -35165,6 +35240,7 @@
       <c r="CN79" s="1"/>
       <c r="CO79" s="1"/>
       <c r="CP79" s="1"/>
+      <c r="CQ79" s="1"/>
     </row>
     <row r="80" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
@@ -35263,6 +35339,7 @@
       <c r="CN80" s="1"/>
       <c r="CO80" s="1"/>
       <c r="CP80" s="1"/>
+      <c r="CQ80" s="1"/>
     </row>
     <row r="81" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
@@ -35361,6 +35438,7 @@
       <c r="CN81" s="1"/>
       <c r="CO81" s="1"/>
       <c r="CP81" s="1"/>
+      <c r="CQ81" s="1"/>
     </row>
     <row r="82" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
@@ -35459,6 +35537,7 @@
       <c r="CN82" s="1"/>
       <c r="CO82" s="1"/>
       <c r="CP82" s="1"/>
+      <c r="CQ82" s="1"/>
     </row>
     <row r="83" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
@@ -35555,150 +35634,152 @@
       <c r="CN83" s="1"/>
       <c r="CO83" s="1"/>
       <c r="CP83" s="1"/>
+      <c r="CQ83" s="1"/>
     </row>
     <row r="84" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
-      <c r="B84" s="22">
+      <c r="B84" s="21">
         <v>2000</v>
       </c>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="22">
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="21">
         <v>2001</v>
       </c>
-      <c r="G84" s="23"/>
-      <c r="H84" s="23"/>
-      <c r="I84" s="23"/>
-      <c r="J84" s="22">
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="21">
         <v>2002</v>
       </c>
-      <c r="K84" s="23"/>
-      <c r="L84" s="23"/>
-      <c r="M84" s="23"/>
-      <c r="N84" s="22">
+      <c r="K84" s="22"/>
+      <c r="L84" s="22"/>
+      <c r="M84" s="22"/>
+      <c r="N84" s="21">
         <v>2003</v>
       </c>
-      <c r="O84" s="23"/>
-      <c r="P84" s="23"/>
-      <c r="Q84" s="23"/>
-      <c r="R84" s="22">
+      <c r="O84" s="22"/>
+      <c r="P84" s="22"/>
+      <c r="Q84" s="22"/>
+      <c r="R84" s="21">
         <v>2004</v>
       </c>
-      <c r="S84" s="23"/>
-      <c r="T84" s="23"/>
-      <c r="U84" s="23"/>
-      <c r="V84" s="22">
+      <c r="S84" s="22"/>
+      <c r="T84" s="22"/>
+      <c r="U84" s="22"/>
+      <c r="V84" s="21">
         <v>2005</v>
       </c>
-      <c r="W84" s="23"/>
-      <c r="X84" s="23"/>
-      <c r="Y84" s="23"/>
-      <c r="Z84" s="22">
+      <c r="W84" s="22"/>
+      <c r="X84" s="22"/>
+      <c r="Y84" s="22"/>
+      <c r="Z84" s="21">
         <v>2006</v>
       </c>
-      <c r="AA84" s="23"/>
-      <c r="AB84" s="23"/>
-      <c r="AC84" s="23"/>
-      <c r="AD84" s="22">
+      <c r="AA84" s="22"/>
+      <c r="AB84" s="22"/>
+      <c r="AC84" s="22"/>
+      <c r="AD84" s="21">
         <v>2007</v>
       </c>
-      <c r="AE84" s="23"/>
-      <c r="AF84" s="23"/>
-      <c r="AG84" s="23"/>
-      <c r="AH84" s="22">
+      <c r="AE84" s="22"/>
+      <c r="AF84" s="22"/>
+      <c r="AG84" s="22"/>
+      <c r="AH84" s="21">
         <v>2008</v>
       </c>
-      <c r="AI84" s="23"/>
-      <c r="AJ84" s="23"/>
-      <c r="AK84" s="23"/>
-      <c r="AL84" s="22">
+      <c r="AI84" s="22"/>
+      <c r="AJ84" s="22"/>
+      <c r="AK84" s="22"/>
+      <c r="AL84" s="21">
         <v>2009</v>
       </c>
-      <c r="AM84" s="23"/>
-      <c r="AN84" s="23"/>
-      <c r="AO84" s="23"/>
-      <c r="AP84" s="22">
+      <c r="AM84" s="22"/>
+      <c r="AN84" s="22"/>
+      <c r="AO84" s="22"/>
+      <c r="AP84" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="23"/>
-      <c r="AR84" s="23"/>
-      <c r="AS84" s="23"/>
-      <c r="AT84" s="22">
+      <c r="AQ84" s="22"/>
+      <c r="AR84" s="22"/>
+      <c r="AS84" s="22"/>
+      <c r="AT84" s="21">
         <v>2011</v>
       </c>
-      <c r="AU84" s="23"/>
-      <c r="AV84" s="23"/>
-      <c r="AW84" s="23"/>
-      <c r="AX84" s="22">
+      <c r="AU84" s="22"/>
+      <c r="AV84" s="22"/>
+      <c r="AW84" s="22"/>
+      <c r="AX84" s="21">
         <v>2012</v>
       </c>
-      <c r="AY84" s="23"/>
-      <c r="AZ84" s="23"/>
-      <c r="BA84" s="23"/>
-      <c r="BB84" s="22">
+      <c r="AY84" s="22"/>
+      <c r="AZ84" s="22"/>
+      <c r="BA84" s="22"/>
+      <c r="BB84" s="21">
         <v>2013</v>
       </c>
-      <c r="BC84" s="23"/>
-      <c r="BD84" s="23"/>
-      <c r="BE84" s="23"/>
-      <c r="BF84" s="22">
+      <c r="BC84" s="22"/>
+      <c r="BD84" s="22"/>
+      <c r="BE84" s="22"/>
+      <c r="BF84" s="21">
         <v>2014</v>
       </c>
-      <c r="BG84" s="23"/>
-      <c r="BH84" s="23"/>
-      <c r="BI84" s="23"/>
-      <c r="BJ84" s="22">
+      <c r="BG84" s="22"/>
+      <c r="BH84" s="22"/>
+      <c r="BI84" s="22"/>
+      <c r="BJ84" s="21">
         <v>2015</v>
       </c>
-      <c r="BK84" s="23"/>
-      <c r="BL84" s="23"/>
-      <c r="BM84" s="23"/>
-      <c r="BN84" s="22">
+      <c r="BK84" s="22"/>
+      <c r="BL84" s="22"/>
+      <c r="BM84" s="22"/>
+      <c r="BN84" s="21">
         <v>2016</v>
       </c>
-      <c r="BO84" s="23"/>
-      <c r="BP84" s="23"/>
-      <c r="BQ84" s="23"/>
-      <c r="BR84" s="22">
+      <c r="BO84" s="22"/>
+      <c r="BP84" s="22"/>
+      <c r="BQ84" s="22"/>
+      <c r="BR84" s="21">
         <v>2017</v>
       </c>
-      <c r="BS84" s="23"/>
-      <c r="BT84" s="23"/>
-      <c r="BU84" s="23"/>
-      <c r="BV84" s="22">
+      <c r="BS84" s="22"/>
+      <c r="BT84" s="22"/>
+      <c r="BU84" s="22"/>
+      <c r="BV84" s="21">
         <v>2018</v>
       </c>
-      <c r="BW84" s="22"/>
-      <c r="BX84" s="22"/>
-      <c r="BY84" s="22"/>
-      <c r="BZ84" s="22">
+      <c r="BW84" s="21"/>
+      <c r="BX84" s="21"/>
+      <c r="BY84" s="21"/>
+      <c r="BZ84" s="21">
         <v>2019</v>
       </c>
-      <c r="CA84" s="22"/>
-      <c r="CB84" s="22"/>
-      <c r="CC84" s="22"/>
-      <c r="CD84" s="22">
+      <c r="CA84" s="21"/>
+      <c r="CB84" s="21"/>
+      <c r="CC84" s="21"/>
+      <c r="CD84" s="21">
         <v>2020</v>
       </c>
-      <c r="CE84" s="22"/>
-      <c r="CF84" s="22"/>
-      <c r="CG84" s="22"/>
-      <c r="CH84" s="22">
+      <c r="CE84" s="21"/>
+      <c r="CF84" s="21"/>
+      <c r="CG84" s="21"/>
+      <c r="CH84" s="21">
         <v>2021</v>
       </c>
-      <c r="CI84" s="22"/>
-      <c r="CJ84" s="22"/>
-      <c r="CK84" s="22"/>
-      <c r="CL84" s="22">
+      <c r="CI84" s="21"/>
+      <c r="CJ84" s="21"/>
+      <c r="CK84" s="21"/>
+      <c r="CL84" s="21">
         <v>2022</v>
       </c>
-      <c r="CM84" s="22"/>
-      <c r="CN84" s="22"/>
-      <c r="CO84" s="22"/>
-      <c r="CP84" s="19">
+      <c r="CM84" s="21"/>
+      <c r="CN84" s="21"/>
+      <c r="CO84" s="21"/>
+      <c r="CP84" s="21">
         <v>2023</v>
       </c>
+      <c r="CQ84" s="23"/>
     </row>
     <row r="85" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
@@ -35982,6 +36063,9 @@
       </c>
       <c r="CP85" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ85" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -36079,6 +36163,7 @@
       <c r="CN86" s="1"/>
       <c r="CO86" s="1"/>
       <c r="CP86" s="1"/>
+      <c r="CQ86" s="1"/>
     </row>
     <row r="87" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
@@ -36363,7 +36448,9 @@
       <c r="CP87" s="18">
         <v>107.63739815046753</v>
       </c>
-      <c r="CQ87" s="11"/>
+      <c r="CQ87" s="18">
+        <v>109.33026151133633</v>
+      </c>
       <c r="CR87" s="11"/>
       <c r="CS87" s="11"/>
       <c r="CT87" s="11"/>
@@ -36706,9 +36793,11 @@
         <v>112.60190853181746</v>
       </c>
       <c r="CP88" s="18">
-        <v>118.58145533063178</v>
-      </c>
-      <c r="CQ88" s="11"/>
+        <v>118.5814553306318</v>
+      </c>
+      <c r="CQ88" s="18">
+        <v>117.10001461439614</v>
+      </c>
       <c r="CR88" s="11"/>
       <c r="CS88" s="11"/>
       <c r="CT88" s="11"/>
@@ -36864,7 +36953,7 @@
       <c r="CN89" s="17"/>
       <c r="CO89" s="17"/>
       <c r="CP89" s="17"/>
-      <c r="CQ89" s="11"/>
+      <c r="CQ89" s="17"/>
       <c r="CR89" s="11"/>
       <c r="CS89" s="11"/>
       <c r="CT89" s="11"/>
@@ -37207,9 +37296,11 @@
         <v>109.13883170304233</v>
       </c>
       <c r="CP90" s="18">
-        <v>112.32043907005462</v>
-      </c>
-      <c r="CQ90" s="11"/>
+        <v>112.3166123851491</v>
+      </c>
+      <c r="CQ90" s="18">
+        <v>112.3647974082312</v>
+      </c>
       <c r="CR90" s="11"/>
       <c r="CS90" s="11"/>
       <c r="CT90" s="11"/>
@@ -37366,6 +37457,7 @@
       <c r="CN91" s="15"/>
       <c r="CO91" s="15"/>
       <c r="CP91" s="15"/>
+      <c r="CQ91" s="15"/>
     </row>
     <row r="92" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="16" t="s">
@@ -37464,6 +37556,7 @@
       <c r="CN92" s="1"/>
       <c r="CO92" s="1"/>
       <c r="CP92" s="1"/>
+      <c r="CQ92" s="1"/>
     </row>
     <row r="93" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
@@ -37559,6 +37652,7 @@
       <c r="CN93" s="1"/>
       <c r="CO93" s="1"/>
       <c r="CP93" s="1"/>
+      <c r="CQ93" s="1"/>
     </row>
     <row r="94" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
@@ -37654,6 +37748,7 @@
       <c r="CN94" s="1"/>
       <c r="CO94" s="1"/>
       <c r="CP94" s="1"/>
+      <c r="CQ94" s="1"/>
     </row>
     <row r="95" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
@@ -37752,6 +37847,7 @@
       <c r="CN95" s="1"/>
       <c r="CO95" s="1"/>
       <c r="CP95" s="1"/>
+      <c r="CQ95" s="1"/>
     </row>
     <row r="96" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
@@ -37850,6 +37946,7 @@
       <c r="CN96" s="1"/>
       <c r="CO96" s="1"/>
       <c r="CP96" s="1"/>
+      <c r="CQ96" s="1"/>
     </row>
     <row r="97" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
@@ -37948,6 +38045,7 @@
       <c r="CN97" s="1"/>
       <c r="CO97" s="1"/>
       <c r="CP97" s="1"/>
+      <c r="CQ97" s="1"/>
     </row>
     <row r="98" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
@@ -38044,6 +38142,7 @@
       <c r="CN98" s="1"/>
       <c r="CO98" s="1"/>
       <c r="CP98" s="1"/>
+      <c r="CQ98" s="1"/>
     </row>
     <row r="99" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
@@ -38142,6 +38241,7 @@
       <c r="CN99" s="1"/>
       <c r="CO99" s="1"/>
       <c r="CP99" s="1"/>
+      <c r="CQ99" s="1"/>
     </row>
     <row r="100" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
@@ -38240,6 +38340,7 @@
       <c r="CN100" s="1"/>
       <c r="CO100" s="1"/>
       <c r="CP100" s="1"/>
+      <c r="CQ100" s="1"/>
     </row>
     <row r="101" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
@@ -38338,6 +38439,7 @@
       <c r="CN101" s="1"/>
       <c r="CO101" s="1"/>
       <c r="CP101" s="1"/>
+      <c r="CQ101" s="1"/>
     </row>
     <row r="102" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
@@ -38434,150 +38536,152 @@
       <c r="CN102" s="1"/>
       <c r="CO102" s="1"/>
       <c r="CP102" s="1"/>
+      <c r="CQ102" s="1"/>
     </row>
     <row r="103" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
-      <c r="B103" s="22">
+      <c r="B103" s="21">
         <v>2000</v>
       </c>
-      <c r="C103" s="23"/>
-      <c r="D103" s="23"/>
-      <c r="E103" s="23"/>
-      <c r="F103" s="22">
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="22"/>
+      <c r="F103" s="21">
         <v>2001</v>
       </c>
-      <c r="G103" s="23"/>
-      <c r="H103" s="23"/>
-      <c r="I103" s="23"/>
-      <c r="J103" s="22">
+      <c r="G103" s="22"/>
+      <c r="H103" s="22"/>
+      <c r="I103" s="22"/>
+      <c r="J103" s="21">
         <v>2002</v>
       </c>
-      <c r="K103" s="23"/>
-      <c r="L103" s="23"/>
-      <c r="M103" s="23"/>
-      <c r="N103" s="22">
+      <c r="K103" s="22"/>
+      <c r="L103" s="22"/>
+      <c r="M103" s="22"/>
+      <c r="N103" s="21">
         <v>2003</v>
       </c>
-      <c r="O103" s="23"/>
-      <c r="P103" s="23"/>
-      <c r="Q103" s="23"/>
-      <c r="R103" s="22">
+      <c r="O103" s="22"/>
+      <c r="P103" s="22"/>
+      <c r="Q103" s="22"/>
+      <c r="R103" s="21">
         <v>2004</v>
       </c>
-      <c r="S103" s="23"/>
-      <c r="T103" s="23"/>
-      <c r="U103" s="23"/>
-      <c r="V103" s="22">
+      <c r="S103" s="22"/>
+      <c r="T103" s="22"/>
+      <c r="U103" s="22"/>
+      <c r="V103" s="21">
         <v>2005</v>
       </c>
-      <c r="W103" s="23"/>
-      <c r="X103" s="23"/>
-      <c r="Y103" s="23"/>
-      <c r="Z103" s="22">
+      <c r="W103" s="22"/>
+      <c r="X103" s="22"/>
+      <c r="Y103" s="22"/>
+      <c r="Z103" s="21">
         <v>2006</v>
       </c>
-      <c r="AA103" s="23"/>
-      <c r="AB103" s="23"/>
-      <c r="AC103" s="23"/>
-      <c r="AD103" s="22">
+      <c r="AA103" s="22"/>
+      <c r="AB103" s="22"/>
+      <c r="AC103" s="22"/>
+      <c r="AD103" s="21">
         <v>2007</v>
       </c>
-      <c r="AE103" s="23"/>
-      <c r="AF103" s="23"/>
-      <c r="AG103" s="23"/>
-      <c r="AH103" s="22">
+      <c r="AE103" s="22"/>
+      <c r="AF103" s="22"/>
+      <c r="AG103" s="22"/>
+      <c r="AH103" s="21">
         <v>2008</v>
       </c>
-      <c r="AI103" s="23"/>
-      <c r="AJ103" s="23"/>
-      <c r="AK103" s="23"/>
-      <c r="AL103" s="22">
+      <c r="AI103" s="22"/>
+      <c r="AJ103" s="22"/>
+      <c r="AK103" s="22"/>
+      <c r="AL103" s="21">
         <v>2009</v>
       </c>
-      <c r="AM103" s="23"/>
-      <c r="AN103" s="23"/>
-      <c r="AO103" s="23"/>
-      <c r="AP103" s="22">
+      <c r="AM103" s="22"/>
+      <c r="AN103" s="22"/>
+      <c r="AO103" s="22"/>
+      <c r="AP103" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="23"/>
-      <c r="AR103" s="23"/>
-      <c r="AS103" s="23"/>
-      <c r="AT103" s="22">
+      <c r="AQ103" s="22"/>
+      <c r="AR103" s="22"/>
+      <c r="AS103" s="22"/>
+      <c r="AT103" s="21">
         <v>2011</v>
       </c>
-      <c r="AU103" s="23"/>
-      <c r="AV103" s="23"/>
-      <c r="AW103" s="23"/>
-      <c r="AX103" s="22">
+      <c r="AU103" s="22"/>
+      <c r="AV103" s="22"/>
+      <c r="AW103" s="22"/>
+      <c r="AX103" s="21">
         <v>2012</v>
       </c>
-      <c r="AY103" s="23"/>
-      <c r="AZ103" s="23"/>
-      <c r="BA103" s="23"/>
-      <c r="BB103" s="22">
+      <c r="AY103" s="22"/>
+      <c r="AZ103" s="22"/>
+      <c r="BA103" s="22"/>
+      <c r="BB103" s="21">
         <v>2013</v>
       </c>
-      <c r="BC103" s="23"/>
-      <c r="BD103" s="23"/>
-      <c r="BE103" s="23"/>
-      <c r="BF103" s="22">
+      <c r="BC103" s="22"/>
+      <c r="BD103" s="22"/>
+      <c r="BE103" s="22"/>
+      <c r="BF103" s="21">
         <v>2014</v>
       </c>
-      <c r="BG103" s="23"/>
-      <c r="BH103" s="23"/>
-      <c r="BI103" s="23"/>
-      <c r="BJ103" s="22">
+      <c r="BG103" s="22"/>
+      <c r="BH103" s="22"/>
+      <c r="BI103" s="22"/>
+      <c r="BJ103" s="21">
         <v>2015</v>
       </c>
-      <c r="BK103" s="23"/>
-      <c r="BL103" s="23"/>
-      <c r="BM103" s="23"/>
-      <c r="BN103" s="22">
+      <c r="BK103" s="22"/>
+      <c r="BL103" s="22"/>
+      <c r="BM103" s="22"/>
+      <c r="BN103" s="21">
         <v>2016</v>
       </c>
-      <c r="BO103" s="23"/>
-      <c r="BP103" s="23"/>
-      <c r="BQ103" s="23"/>
-      <c r="BR103" s="22">
+      <c r="BO103" s="22"/>
+      <c r="BP103" s="22"/>
+      <c r="BQ103" s="22"/>
+      <c r="BR103" s="21">
         <v>2017</v>
       </c>
-      <c r="BS103" s="23"/>
-      <c r="BT103" s="23"/>
-      <c r="BU103" s="23"/>
-      <c r="BV103" s="22">
+      <c r="BS103" s="22"/>
+      <c r="BT103" s="22"/>
+      <c r="BU103" s="22"/>
+      <c r="BV103" s="21">
         <v>2018</v>
       </c>
-      <c r="BW103" s="22"/>
-      <c r="BX103" s="22"/>
-      <c r="BY103" s="22"/>
-      <c r="BZ103" s="22">
+      <c r="BW103" s="21"/>
+      <c r="BX103" s="21"/>
+      <c r="BY103" s="21"/>
+      <c r="BZ103" s="21">
         <v>2019</v>
       </c>
-      <c r="CA103" s="22"/>
-      <c r="CB103" s="22"/>
-      <c r="CC103" s="22"/>
-      <c r="CD103" s="22">
+      <c r="CA103" s="21"/>
+      <c r="CB103" s="21"/>
+      <c r="CC103" s="21"/>
+      <c r="CD103" s="21">
         <v>2020</v>
       </c>
-      <c r="CE103" s="22"/>
-      <c r="CF103" s="22"/>
-      <c r="CG103" s="22"/>
-      <c r="CH103" s="22">
+      <c r="CE103" s="21"/>
+      <c r="CF103" s="21"/>
+      <c r="CG103" s="21"/>
+      <c r="CH103" s="21">
         <v>2021</v>
       </c>
-      <c r="CI103" s="22"/>
-      <c r="CJ103" s="22"/>
-      <c r="CK103" s="22"/>
-      <c r="CL103" s="22">
+      <c r="CI103" s="21"/>
+      <c r="CJ103" s="21"/>
+      <c r="CK103" s="21"/>
+      <c r="CL103" s="21">
         <v>2022</v>
       </c>
-      <c r="CM103" s="22"/>
-      <c r="CN103" s="22"/>
-      <c r="CO103" s="22"/>
-      <c r="CP103" s="19">
+      <c r="CM103" s="21"/>
+      <c r="CN103" s="21"/>
+      <c r="CO103" s="21"/>
+      <c r="CP103" s="21">
         <v>2023</v>
       </c>
+      <c r="CQ103" s="23"/>
     </row>
     <row r="104" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
@@ -38861,6 +38965,9 @@
       </c>
       <c r="CP104" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ104" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -38958,6 +39065,7 @@
       <c r="CN105" s="1"/>
       <c r="CO105" s="1"/>
       <c r="CP105" s="1"/>
+      <c r="CQ105" s="1"/>
     </row>
     <row r="106" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
@@ -39240,9 +39348,11 @@
         <v>62.365701195873427</v>
       </c>
       <c r="CP106" s="18">
-        <v>54.824019975061709</v>
-      </c>
-      <c r="CQ106" s="11"/>
+        <v>54.859397017992016</v>
+      </c>
+      <c r="CQ106" s="18">
+        <v>59.298376099986584</v>
+      </c>
       <c r="CR106" s="11"/>
       <c r="CS106" s="11"/>
       <c r="CT106" s="11"/>
@@ -39585,9 +39695,11 @@
         <v>37.63429880412658</v>
       </c>
       <c r="CP107" s="18">
-        <v>45.175980024938291</v>
-      </c>
-      <c r="CQ107" s="11"/>
+        <v>45.140602982007991</v>
+      </c>
+      <c r="CQ107" s="18">
+        <v>40.701623900013423</v>
+      </c>
       <c r="CR107" s="11"/>
       <c r="CS107" s="11"/>
       <c r="CT107" s="11"/>
@@ -39743,7 +39855,7 @@
       <c r="CN108" s="17"/>
       <c r="CO108" s="17"/>
       <c r="CP108" s="17"/>
-      <c r="CQ108" s="11"/>
+      <c r="CQ108" s="17"/>
       <c r="CR108" s="11"/>
       <c r="CS108" s="11"/>
       <c r="CT108" s="11"/>
@@ -40088,7 +40200,9 @@
       <c r="CP109" s="18">
         <v>100</v>
       </c>
-      <c r="CQ109" s="11"/>
+      <c r="CQ109" s="18">
+        <v>100</v>
+      </c>
       <c r="CR109" s="11"/>
       <c r="CS109" s="11"/>
       <c r="CT109" s="11"/>
@@ -40245,6 +40359,7 @@
       <c r="CN110" s="15"/>
       <c r="CO110" s="15"/>
       <c r="CP110" s="15"/>
+      <c r="CQ110" s="15"/>
     </row>
     <row r="111" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="16" t="s">
@@ -40343,6 +40458,7 @@
       <c r="CN111" s="1"/>
       <c r="CO111" s="1"/>
       <c r="CP111" s="1"/>
+      <c r="CQ111" s="1"/>
     </row>
     <row r="112" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="17"/>
@@ -40438,7 +40554,7 @@
       <c r="CN112" s="17"/>
       <c r="CO112" s="17"/>
       <c r="CP112" s="17"/>
-      <c r="CQ112" s="11"/>
+      <c r="CQ112" s="17"/>
       <c r="CR112" s="11"/>
       <c r="CS112" s="11"/>
       <c r="CT112" s="11"/>
@@ -40594,7 +40710,7 @@
       <c r="CN113" s="17"/>
       <c r="CO113" s="17"/>
       <c r="CP113" s="17"/>
-      <c r="CQ113" s="11"/>
+      <c r="CQ113" s="17"/>
       <c r="CR113" s="11"/>
       <c r="CS113" s="11"/>
       <c r="CT113" s="11"/>
@@ -40753,6 +40869,7 @@
       <c r="CN114" s="1"/>
       <c r="CO114" s="1"/>
       <c r="CP114" s="1"/>
+      <c r="CQ114" s="1"/>
     </row>
     <row r="115" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
@@ -40851,6 +40968,7 @@
       <c r="CN115" s="1"/>
       <c r="CO115" s="1"/>
       <c r="CP115" s="1"/>
+      <c r="CQ115" s="1"/>
     </row>
     <row r="116" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
@@ -40949,6 +41067,7 @@
       <c r="CN116" s="1"/>
       <c r="CO116" s="1"/>
       <c r="CP116" s="1"/>
+      <c r="CQ116" s="1"/>
     </row>
     <row r="117" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
@@ -41045,6 +41164,7 @@
       <c r="CN117" s="1"/>
       <c r="CO117" s="1"/>
       <c r="CP117" s="1"/>
+      <c r="CQ117" s="1"/>
     </row>
     <row r="118" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
@@ -41143,6 +41263,7 @@
       <c r="CN118" s="1"/>
       <c r="CO118" s="1"/>
       <c r="CP118" s="1"/>
+      <c r="CQ118" s="1"/>
     </row>
     <row r="119" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
@@ -41241,6 +41362,7 @@
       <c r="CN119" s="1"/>
       <c r="CO119" s="1"/>
       <c r="CP119" s="1"/>
+      <c r="CQ119" s="1"/>
     </row>
     <row r="120" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
@@ -41339,6 +41461,7 @@
       <c r="CN120" s="1"/>
       <c r="CO120" s="1"/>
       <c r="CP120" s="1"/>
+      <c r="CQ120" s="1"/>
     </row>
     <row r="121" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
@@ -41435,150 +41558,152 @@
       <c r="CN121" s="1"/>
       <c r="CO121" s="1"/>
       <c r="CP121" s="1"/>
+      <c r="CQ121" s="1"/>
     </row>
     <row r="122" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
-      <c r="B122" s="22">
+      <c r="B122" s="21">
         <v>2000</v>
       </c>
-      <c r="C122" s="23"/>
-      <c r="D122" s="23"/>
-      <c r="E122" s="23"/>
-      <c r="F122" s="22">
+      <c r="C122" s="22"/>
+      <c r="D122" s="22"/>
+      <c r="E122" s="22"/>
+      <c r="F122" s="21">
         <v>2001</v>
       </c>
-      <c r="G122" s="23"/>
-      <c r="H122" s="23"/>
-      <c r="I122" s="23"/>
-      <c r="J122" s="22">
+      <c r="G122" s="22"/>
+      <c r="H122" s="22"/>
+      <c r="I122" s="22"/>
+      <c r="J122" s="21">
         <v>2002</v>
       </c>
-      <c r="K122" s="23"/>
-      <c r="L122" s="23"/>
-      <c r="M122" s="23"/>
-      <c r="N122" s="22">
+      <c r="K122" s="22"/>
+      <c r="L122" s="22"/>
+      <c r="M122" s="22"/>
+      <c r="N122" s="21">
         <v>2003</v>
       </c>
-      <c r="O122" s="23"/>
-      <c r="P122" s="23"/>
-      <c r="Q122" s="23"/>
-      <c r="R122" s="22">
+      <c r="O122" s="22"/>
+      <c r="P122" s="22"/>
+      <c r="Q122" s="22"/>
+      <c r="R122" s="21">
         <v>2004</v>
       </c>
-      <c r="S122" s="23"/>
-      <c r="T122" s="23"/>
-      <c r="U122" s="23"/>
-      <c r="V122" s="22">
+      <c r="S122" s="22"/>
+      <c r="T122" s="22"/>
+      <c r="U122" s="22"/>
+      <c r="V122" s="21">
         <v>2005</v>
       </c>
-      <c r="W122" s="23"/>
-      <c r="X122" s="23"/>
-      <c r="Y122" s="23"/>
-      <c r="Z122" s="22">
+      <c r="W122" s="22"/>
+      <c r="X122" s="22"/>
+      <c r="Y122" s="22"/>
+      <c r="Z122" s="21">
         <v>2006</v>
       </c>
-      <c r="AA122" s="23"/>
-      <c r="AB122" s="23"/>
-      <c r="AC122" s="23"/>
-      <c r="AD122" s="22">
+      <c r="AA122" s="22"/>
+      <c r="AB122" s="22"/>
+      <c r="AC122" s="22"/>
+      <c r="AD122" s="21">
         <v>2007</v>
       </c>
-      <c r="AE122" s="23"/>
-      <c r="AF122" s="23"/>
-      <c r="AG122" s="23"/>
-      <c r="AH122" s="22">
+      <c r="AE122" s="22"/>
+      <c r="AF122" s="22"/>
+      <c r="AG122" s="22"/>
+      <c r="AH122" s="21">
         <v>2008</v>
       </c>
-      <c r="AI122" s="23"/>
-      <c r="AJ122" s="23"/>
-      <c r="AK122" s="23"/>
-      <c r="AL122" s="22">
+      <c r="AI122" s="22"/>
+      <c r="AJ122" s="22"/>
+      <c r="AK122" s="22"/>
+      <c r="AL122" s="21">
         <v>2009</v>
       </c>
-      <c r="AM122" s="23"/>
-      <c r="AN122" s="23"/>
-      <c r="AO122" s="23"/>
-      <c r="AP122" s="22">
+      <c r="AM122" s="22"/>
+      <c r="AN122" s="22"/>
+      <c r="AO122" s="22"/>
+      <c r="AP122" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="23"/>
-      <c r="AR122" s="23"/>
-      <c r="AS122" s="23"/>
-      <c r="AT122" s="22">
+      <c r="AQ122" s="22"/>
+      <c r="AR122" s="22"/>
+      <c r="AS122" s="22"/>
+      <c r="AT122" s="21">
         <v>2011</v>
       </c>
-      <c r="AU122" s="23"/>
-      <c r="AV122" s="23"/>
-      <c r="AW122" s="23"/>
-      <c r="AX122" s="22">
+      <c r="AU122" s="22"/>
+      <c r="AV122" s="22"/>
+      <c r="AW122" s="22"/>
+      <c r="AX122" s="21">
         <v>2012</v>
       </c>
-      <c r="AY122" s="23"/>
-      <c r="AZ122" s="23"/>
-      <c r="BA122" s="23"/>
-      <c r="BB122" s="22">
+      <c r="AY122" s="22"/>
+      <c r="AZ122" s="22"/>
+      <c r="BA122" s="22"/>
+      <c r="BB122" s="21">
         <v>2013</v>
       </c>
-      <c r="BC122" s="23"/>
-      <c r="BD122" s="23"/>
-      <c r="BE122" s="23"/>
-      <c r="BF122" s="22">
+      <c r="BC122" s="22"/>
+      <c r="BD122" s="22"/>
+      <c r="BE122" s="22"/>
+      <c r="BF122" s="21">
         <v>2014</v>
       </c>
-      <c r="BG122" s="23"/>
-      <c r="BH122" s="23"/>
-      <c r="BI122" s="23"/>
-      <c r="BJ122" s="22">
+      <c r="BG122" s="22"/>
+      <c r="BH122" s="22"/>
+      <c r="BI122" s="22"/>
+      <c r="BJ122" s="21">
         <v>2015</v>
       </c>
-      <c r="BK122" s="23"/>
-      <c r="BL122" s="23"/>
-      <c r="BM122" s="23"/>
-      <c r="BN122" s="22">
+      <c r="BK122" s="22"/>
+      <c r="BL122" s="22"/>
+      <c r="BM122" s="22"/>
+      <c r="BN122" s="21">
         <v>2016</v>
       </c>
-      <c r="BO122" s="23"/>
-      <c r="BP122" s="23"/>
-      <c r="BQ122" s="23"/>
-      <c r="BR122" s="22">
+      <c r="BO122" s="22"/>
+      <c r="BP122" s="22"/>
+      <c r="BQ122" s="22"/>
+      <c r="BR122" s="21">
         <v>2017</v>
       </c>
-      <c r="BS122" s="23"/>
-      <c r="BT122" s="23"/>
-      <c r="BU122" s="23"/>
-      <c r="BV122" s="22">
+      <c r="BS122" s="22"/>
+      <c r="BT122" s="22"/>
+      <c r="BU122" s="22"/>
+      <c r="BV122" s="21">
         <v>2018</v>
       </c>
-      <c r="BW122" s="22"/>
-      <c r="BX122" s="22"/>
-      <c r="BY122" s="22"/>
-      <c r="BZ122" s="22">
+      <c r="BW122" s="21"/>
+      <c r="BX122" s="21"/>
+      <c r="BY122" s="21"/>
+      <c r="BZ122" s="21">
         <v>2019</v>
       </c>
-      <c r="CA122" s="22"/>
-      <c r="CB122" s="22"/>
-      <c r="CC122" s="22"/>
-      <c r="CD122" s="22">
+      <c r="CA122" s="21"/>
+      <c r="CB122" s="21"/>
+      <c r="CC122" s="21"/>
+      <c r="CD122" s="21">
         <v>2020</v>
       </c>
-      <c r="CE122" s="22"/>
-      <c r="CF122" s="22"/>
-      <c r="CG122" s="22"/>
-      <c r="CH122" s="22">
+      <c r="CE122" s="21"/>
+      <c r="CF122" s="21"/>
+      <c r="CG122" s="21"/>
+      <c r="CH122" s="21">
         <v>2021</v>
       </c>
-      <c r="CI122" s="22"/>
-      <c r="CJ122" s="22"/>
-      <c r="CK122" s="22"/>
-      <c r="CL122" s="22">
+      <c r="CI122" s="21"/>
+      <c r="CJ122" s="21"/>
+      <c r="CK122" s="21"/>
+      <c r="CL122" s="21">
         <v>2022</v>
       </c>
-      <c r="CM122" s="22"/>
-      <c r="CN122" s="22"/>
-      <c r="CO122" s="22"/>
-      <c r="CP122" s="19">
+      <c r="CM122" s="21"/>
+      <c r="CN122" s="21"/>
+      <c r="CO122" s="21"/>
+      <c r="CP122" s="21">
         <v>2023</v>
       </c>
+      <c r="CQ122" s="23"/>
     </row>
     <row r="123" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
@@ -41862,6 +41987,9 @@
       </c>
       <c r="CP123" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ123" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -41959,6 +42087,7 @@
       <c r="CN124" s="1"/>
       <c r="CO124" s="1"/>
       <c r="CP124" s="1"/>
+      <c r="CQ124" s="1"/>
     </row>
     <row r="125" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
@@ -42241,9 +42370,11 @@
         <v>63.523145770793242</v>
       </c>
       <c r="CP125" s="18">
-        <v>57.209279497598395</v>
-      </c>
-      <c r="CQ125" s="11"/>
+        <v>57.244245368504856</v>
+      </c>
+      <c r="CQ125" s="18">
+        <v>60.944242929677863</v>
+      </c>
       <c r="CR125" s="11"/>
       <c r="CS125" s="11"/>
       <c r="CT125" s="11"/>
@@ -42586,9 +42717,11 @@
         <v>36.476854229206751</v>
       </c>
       <c r="CP126" s="18">
-        <v>42.790720502401612</v>
-      </c>
-      <c r="CQ126" s="11"/>
+        <v>42.755754631495158</v>
+      </c>
+      <c r="CQ126" s="18">
+        <v>39.055757070322144</v>
+      </c>
       <c r="CR126" s="11"/>
       <c r="CS126" s="11"/>
       <c r="CT126" s="11"/>
@@ -42744,7 +42877,7 @@
       <c r="CN127" s="17"/>
       <c r="CO127" s="17"/>
       <c r="CP127" s="17"/>
-      <c r="CQ127" s="11"/>
+      <c r="CQ127" s="17"/>
       <c r="CR127" s="11"/>
       <c r="CS127" s="11"/>
       <c r="CT127" s="11"/>
@@ -43089,7 +43222,9 @@
       <c r="CP128" s="18">
         <v>100</v>
       </c>
-      <c r="CQ128" s="11"/>
+      <c r="CQ128" s="18">
+        <v>100</v>
+      </c>
       <c r="CR128" s="11"/>
       <c r="CS128" s="11"/>
       <c r="CT128" s="11"/>
@@ -43151,7 +43286,7 @@
       <c r="EX128" s="11"/>
       <c r="EY128" s="11"/>
     </row>
-    <row r="129" spans="1:94" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:95" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="15"/>
       <c r="B129" s="15"/>
       <c r="C129" s="15"/>
@@ -43246,8 +43381,9 @@
       <c r="CN129" s="15"/>
       <c r="CO129" s="15"/>
       <c r="CP129" s="15"/>
+      <c r="CQ129" s="15"/>
     </row>
-    <row r="130" spans="1:94" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:95" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="16" t="s">
         <v>0</v>
       </c>
@@ -43344,31 +43480,130 @@
       <c r="CN130" s="1"/>
       <c r="CO130" s="1"/>
       <c r="CP130" s="1"/>
+      <c r="CQ130" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="159">
-    <mergeCell ref="CL103:CO103"/>
-    <mergeCell ref="CL122:CO122"/>
-    <mergeCell ref="BZ47:CC47"/>
-    <mergeCell ref="BZ66:CC66"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD122:CG122"/>
-    <mergeCell ref="CD103:CG103"/>
-    <mergeCell ref="CD84:CG84"/>
-    <mergeCell ref="CD28:CG28"/>
-    <mergeCell ref="BZ103:CC103"/>
-    <mergeCell ref="BZ84:CC84"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BZ122:CC122"/>
-    <mergeCell ref="CD47:CG47"/>
-    <mergeCell ref="CD66:CG66"/>
-    <mergeCell ref="CH84:CK84"/>
-    <mergeCell ref="CH103:CK103"/>
-    <mergeCell ref="CH122:CK122"/>
-    <mergeCell ref="BZ28:CC28"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH28:CK28"/>
-    <mergeCell ref="CL9:CO9"/>
+  <mergeCells count="168">
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="CP9:CQ9"/>
+    <mergeCell ref="CP28:CQ28"/>
+    <mergeCell ref="CP84:CQ84"/>
+    <mergeCell ref="CP103:CQ103"/>
+    <mergeCell ref="CP122:CQ122"/>
+    <mergeCell ref="CL47:CO47"/>
+    <mergeCell ref="CP47:CQ47"/>
+    <mergeCell ref="CL66:CO66"/>
+    <mergeCell ref="CP66:CQ66"/>
+    <mergeCell ref="CH66:CK66"/>
+    <mergeCell ref="CL84:CO84"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="BR122:BU122"/>
+    <mergeCell ref="BV122:BY122"/>
+    <mergeCell ref="BV66:BY66"/>
+    <mergeCell ref="BR66:BU66"/>
+    <mergeCell ref="BR84:BU84"/>
+    <mergeCell ref="BR103:BU103"/>
+    <mergeCell ref="AX66:BA66"/>
+    <mergeCell ref="BB66:BE66"/>
+    <mergeCell ref="BF66:BI66"/>
+    <mergeCell ref="BJ66:BM66"/>
+    <mergeCell ref="BN66:BQ66"/>
+    <mergeCell ref="BB28:BE28"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="BB47:BE47"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="V28:Y28"/>
+    <mergeCell ref="Z28:AC28"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="AP47:AS47"/>
+    <mergeCell ref="AT47:AW47"/>
+    <mergeCell ref="AX47:BA47"/>
+    <mergeCell ref="AH28:AK28"/>
+    <mergeCell ref="AL28:AO28"/>
+    <mergeCell ref="AL47:AO47"/>
+    <mergeCell ref="AP28:AS28"/>
+    <mergeCell ref="AT28:AW28"/>
+    <mergeCell ref="AX28:BA28"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="R47:U47"/>
+    <mergeCell ref="V47:Y47"/>
+    <mergeCell ref="Z47:AC47"/>
+    <mergeCell ref="AD47:AG47"/>
+    <mergeCell ref="AH47:AK47"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="R66:U66"/>
+    <mergeCell ref="V66:Y66"/>
+    <mergeCell ref="Z66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AK66"/>
+    <mergeCell ref="Z84:AC84"/>
+    <mergeCell ref="AD84:AG84"/>
+    <mergeCell ref="AH84:AK84"/>
+    <mergeCell ref="AL66:AO66"/>
+    <mergeCell ref="AP66:AS66"/>
+    <mergeCell ref="AT66:AW66"/>
+    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="V84:Y84"/>
+    <mergeCell ref="AL122:AO122"/>
+    <mergeCell ref="AP122:AS122"/>
+    <mergeCell ref="AT122:AW122"/>
+    <mergeCell ref="AX122:BA122"/>
+    <mergeCell ref="BB122:BE122"/>
+    <mergeCell ref="BN84:BQ84"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="J103:M103"/>
+    <mergeCell ref="N103:Q103"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="V103:Y103"/>
+    <mergeCell ref="Z103:AC103"/>
+    <mergeCell ref="AD103:AG103"/>
+    <mergeCell ref="AH103:AK103"/>
+    <mergeCell ref="AL103:AO103"/>
+    <mergeCell ref="AP103:AS103"/>
+    <mergeCell ref="AT103:AW103"/>
+    <mergeCell ref="AX103:BA103"/>
+    <mergeCell ref="BB103:BE103"/>
+    <mergeCell ref="BF103:BI103"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="AX84:BA84"/>
+    <mergeCell ref="BB84:BE84"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:M122"/>
+    <mergeCell ref="N122:Q122"/>
+    <mergeCell ref="R122:U122"/>
+    <mergeCell ref="V122:Y122"/>
+    <mergeCell ref="Z122:AC122"/>
+    <mergeCell ref="AD122:AG122"/>
+    <mergeCell ref="AH122:AK122"/>
     <mergeCell ref="BF122:BI122"/>
     <mergeCell ref="BJ122:BM122"/>
     <mergeCell ref="BN122:BQ122"/>
@@ -43393,128 +43628,39 @@
     <mergeCell ref="BN47:BQ47"/>
     <mergeCell ref="BF47:BI47"/>
     <mergeCell ref="BR47:BU47"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="N122:Q122"/>
-    <mergeCell ref="R122:U122"/>
-    <mergeCell ref="V122:Y122"/>
-    <mergeCell ref="Z122:AC122"/>
-    <mergeCell ref="AD122:AG122"/>
-    <mergeCell ref="AH122:AK122"/>
-    <mergeCell ref="AL122:AO122"/>
-    <mergeCell ref="AP122:AS122"/>
-    <mergeCell ref="AT122:AW122"/>
-    <mergeCell ref="AX122:BA122"/>
-    <mergeCell ref="BB122:BE122"/>
-    <mergeCell ref="BN84:BQ84"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="J103:M103"/>
-    <mergeCell ref="N103:Q103"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="V103:Y103"/>
-    <mergeCell ref="Z103:AC103"/>
-    <mergeCell ref="AD103:AG103"/>
-    <mergeCell ref="AH103:AK103"/>
-    <mergeCell ref="AL103:AO103"/>
-    <mergeCell ref="AP103:AS103"/>
-    <mergeCell ref="AT103:AW103"/>
-    <mergeCell ref="AX103:BA103"/>
-    <mergeCell ref="BB103:BE103"/>
-    <mergeCell ref="BF103:BI103"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="BB84:BE84"/>
-    <mergeCell ref="Z84:AC84"/>
-    <mergeCell ref="AD84:AG84"/>
-    <mergeCell ref="AH84:AK84"/>
-    <mergeCell ref="AL66:AO66"/>
-    <mergeCell ref="AP66:AS66"/>
-    <mergeCell ref="AT66:AW66"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="V84:Y84"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="N66:Q66"/>
-    <mergeCell ref="R66:U66"/>
-    <mergeCell ref="V66:Y66"/>
-    <mergeCell ref="Z66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AK66"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="AP47:AS47"/>
-    <mergeCell ref="AT47:AW47"/>
-    <mergeCell ref="AX47:BA47"/>
-    <mergeCell ref="AH28:AK28"/>
-    <mergeCell ref="AL28:AO28"/>
-    <mergeCell ref="AL47:AO47"/>
-    <mergeCell ref="AP28:AS28"/>
-    <mergeCell ref="AT28:AW28"/>
-    <mergeCell ref="AX28:BA28"/>
-    <mergeCell ref="BB28:BE28"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="BB47:BE47"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="V28:Y28"/>
-    <mergeCell ref="Z28:AC28"/>
+    <mergeCell ref="CL103:CO103"/>
+    <mergeCell ref="CL122:CO122"/>
+    <mergeCell ref="BZ47:CC47"/>
+    <mergeCell ref="BZ66:CC66"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD122:CG122"/>
+    <mergeCell ref="CD103:CG103"/>
+    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="CD28:CG28"/>
+    <mergeCell ref="BZ103:CC103"/>
+    <mergeCell ref="BZ84:CC84"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BZ122:CC122"/>
+    <mergeCell ref="CD47:CG47"/>
+    <mergeCell ref="CD66:CG66"/>
+    <mergeCell ref="CH84:CK84"/>
+    <mergeCell ref="CH103:CK103"/>
+    <mergeCell ref="CH122:CK122"/>
+    <mergeCell ref="BZ28:CC28"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH28:CK28"/>
+    <mergeCell ref="CL9:CO9"/>
     <mergeCell ref="CL28:CO28"/>
     <mergeCell ref="CH47:CK47"/>
-    <mergeCell ref="CH66:CK66"/>
-    <mergeCell ref="CL84:CO84"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="BR122:BU122"/>
-    <mergeCell ref="BV122:BY122"/>
-    <mergeCell ref="BV66:BY66"/>
-    <mergeCell ref="BR66:BU66"/>
-    <mergeCell ref="BR84:BU84"/>
-    <mergeCell ref="BR103:BU103"/>
-    <mergeCell ref="AX66:BA66"/>
-    <mergeCell ref="BB66:BE66"/>
-    <mergeCell ref="BF66:BI66"/>
-    <mergeCell ref="BJ66:BM66"/>
-    <mergeCell ref="BN66:BQ66"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="R47:U47"/>
-    <mergeCell ref="V47:Y47"/>
-    <mergeCell ref="Z47:AC47"/>
-    <mergeCell ref="AD47:AG47"/>
-    <mergeCell ref="AH47:AK47"/>
-    <mergeCell ref="B47:E47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="93" man="1"/>
-    <brk id="76" max="93" man="1"/>
-    <brk id="94" max="93" man="1"/>
+    <brk id="38" max="94" man="1"/>
+    <brk id="76" max="94" man="1"/>
+    <brk id="94" max="94" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-21OS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-21OS_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5A22D3-7B9E-4DD4-A939-093B72274887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3641B576-5CB9-4230-9FA4-DC8508A095A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="1170" windowWidth="28770" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OS" sheetId="15" r:id="rId1"/>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">OS!$A$1:$CQ$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">OS!$A$1:$CR$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="52">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -618,13 +618,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of August 2023</t>
+    <t>As of November 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2023</t>
+    <t>Q1 2000 to Q3 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2023</t>
+    <t>Q1 2001 to Q3 2023</t>
   </si>
 </sst>
 </file>
@@ -729,7 +729,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -759,13 +759,32 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -23629,51 +23648,101 @@
   </sheetPr>
   <dimension ref="A1:EY130"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A87" colorId="22" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BZ1" activePane="topRight" state="frozen"/>
       <selection activeCell="CE141" sqref="CA141:CE149"/>
-      <selection pane="topRight" activeCell="CR116" sqref="CR116"/>
+      <selection pane="topRight" activeCell="CS6" sqref="CS6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.88671875" style="1" customWidth="1"/>
-    <col min="2" max="95" width="9" style="12" customWidth="1"/>
-    <col min="96" max="16384" width="7.77734375" style="12"/>
+    <col min="2" max="89" width="9" style="12" customWidth="1"/>
+    <col min="90" max="96" width="9" style="33" customWidth="1"/>
+    <col min="97" max="16384" width="7.77734375" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CL1" s="22"/>
+      <c r="CM1" s="22"/>
+      <c r="CN1" s="22"/>
+      <c r="CO1" s="22"/>
+      <c r="CP1" s="22"/>
+      <c r="CQ1" s="22"/>
+      <c r="CR1" s="22"/>
     </row>
     <row r="2" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="CL2" s="22"/>
+      <c r="CM2" s="22"/>
+      <c r="CN2" s="22"/>
+      <c r="CO2" s="22"/>
+      <c r="CP2" s="22"/>
+      <c r="CQ2" s="22"/>
+      <c r="CR2" s="22"/>
     </row>
     <row r="3" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="CL3" s="22"/>
+      <c r="CM3" s="22"/>
+      <c r="CN3" s="22"/>
+      <c r="CO3" s="22"/>
+      <c r="CP3" s="22"/>
+      <c r="CQ3" s="22"/>
+      <c r="CR3" s="22"/>
     </row>
     <row r="4" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
+      <c r="CL4" s="22"/>
+      <c r="CM4" s="22"/>
+      <c r="CN4" s="22"/>
+      <c r="CO4" s="22"/>
+      <c r="CP4" s="22"/>
+      <c r="CQ4" s="22"/>
+      <c r="CR4" s="22"/>
     </row>
     <row r="5" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="CL5" s="22"/>
+      <c r="CM5" s="22"/>
+      <c r="CN5" s="22"/>
+      <c r="CO5" s="22"/>
+      <c r="CP5" s="22"/>
+      <c r="CQ5" s="22"/>
+      <c r="CR5" s="22"/>
     </row>
     <row r="6" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="CL6" s="22"/>
+      <c r="CM6" s="22"/>
+      <c r="CN6" s="22"/>
+      <c r="CO6" s="22"/>
+      <c r="CP6" s="22"/>
+      <c r="CQ6" s="22"/>
+      <c r="CR6" s="22"/>
     </row>
     <row r="7" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="CL7" s="22"/>
+      <c r="CM7" s="22"/>
+      <c r="CN7" s="22"/>
+      <c r="CO7" s="22"/>
+      <c r="CP7" s="22"/>
+      <c r="CQ7" s="22"/>
+      <c r="CR7" s="22"/>
     </row>
     <row r="8" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
@@ -23765,157 +23834,159 @@
       <c r="CI8" s="1"/>
       <c r="CJ8" s="1"/>
       <c r="CK8" s="1"/>
-      <c r="CL8" s="1"/>
-      <c r="CM8" s="1"/>
-      <c r="CN8" s="1"/>
-      <c r="CO8" s="1"/>
-      <c r="CP8" s="1"/>
-      <c r="CQ8" s="1"/>
+      <c r="CL8" s="23"/>
+      <c r="CM8" s="23"/>
+      <c r="CN8" s="23"/>
+      <c r="CO8" s="23"/>
+      <c r="CP8" s="23"/>
+      <c r="CQ8" s="23"/>
+      <c r="CR8" s="23"/>
     </row>
     <row r="9" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="21">
+      <c r="B9" s="35">
         <v>2000</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21">
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35">
         <v>2001</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21">
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35">
         <v>2002</v>
       </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21">
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35">
         <v>2003</v>
       </c>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21">
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35">
         <v>2004</v>
       </c>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21">
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35">
         <v>2005</v>
       </c>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21">
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35">
         <v>2006</v>
       </c>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="21">
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35">
         <v>2007</v>
       </c>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="21"/>
-      <c r="AH9" s="21">
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35">
         <v>2008</v>
       </c>
-      <c r="AI9" s="21"/>
-      <c r="AJ9" s="21"/>
-      <c r="AK9" s="21"/>
-      <c r="AL9" s="21">
+      <c r="AI9" s="35"/>
+      <c r="AJ9" s="35"/>
+      <c r="AK9" s="35"/>
+      <c r="AL9" s="35">
         <v>2009</v>
       </c>
-      <c r="AM9" s="21"/>
-      <c r="AN9" s="21"/>
-      <c r="AO9" s="21"/>
-      <c r="AP9" s="21">
+      <c r="AM9" s="35"/>
+      <c r="AN9" s="35"/>
+      <c r="AO9" s="35"/>
+      <c r="AP9" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="21"/>
-      <c r="AR9" s="21"/>
-      <c r="AS9" s="21"/>
-      <c r="AT9" s="21">
+      <c r="AQ9" s="35"/>
+      <c r="AR9" s="35"/>
+      <c r="AS9" s="35"/>
+      <c r="AT9" s="35">
         <v>2011</v>
       </c>
-      <c r="AU9" s="21"/>
-      <c r="AV9" s="21"/>
-      <c r="AW9" s="21"/>
-      <c r="AX9" s="21">
+      <c r="AU9" s="35"/>
+      <c r="AV9" s="35"/>
+      <c r="AW9" s="35"/>
+      <c r="AX9" s="35">
         <v>2012</v>
       </c>
-      <c r="AY9" s="21"/>
-      <c r="AZ9" s="21"/>
-      <c r="BA9" s="21"/>
-      <c r="BB9" s="21">
+      <c r="AY9" s="35"/>
+      <c r="AZ9" s="35"/>
+      <c r="BA9" s="35"/>
+      <c r="BB9" s="35">
         <v>2013</v>
       </c>
-      <c r="BC9" s="21"/>
-      <c r="BD9" s="21"/>
-      <c r="BE9" s="21"/>
-      <c r="BF9" s="21">
+      <c r="BC9" s="35"/>
+      <c r="BD9" s="35"/>
+      <c r="BE9" s="35"/>
+      <c r="BF9" s="35">
         <v>2014</v>
       </c>
-      <c r="BG9" s="21"/>
-      <c r="BH9" s="21"/>
-      <c r="BI9" s="21"/>
-      <c r="BJ9" s="21">
+      <c r="BG9" s="35"/>
+      <c r="BH9" s="35"/>
+      <c r="BI9" s="35"/>
+      <c r="BJ9" s="35">
         <v>2015</v>
       </c>
-      <c r="BK9" s="21"/>
-      <c r="BL9" s="21"/>
-      <c r="BM9" s="21"/>
-      <c r="BN9" s="21">
+      <c r="BK9" s="35"/>
+      <c r="BL9" s="35"/>
+      <c r="BM9" s="35"/>
+      <c r="BN9" s="35">
         <v>2016</v>
       </c>
-      <c r="BO9" s="21"/>
-      <c r="BP9" s="21"/>
-      <c r="BQ9" s="21"/>
-      <c r="BR9" s="21">
+      <c r="BO9" s="35"/>
+      <c r="BP9" s="35"/>
+      <c r="BQ9" s="35"/>
+      <c r="BR9" s="35">
         <v>2017</v>
       </c>
-      <c r="BS9" s="21"/>
-      <c r="BT9" s="21"/>
-      <c r="BU9" s="21"/>
-      <c r="BV9" s="21">
+      <c r="BS9" s="35"/>
+      <c r="BT9" s="35"/>
+      <c r="BU9" s="35"/>
+      <c r="BV9" s="35">
         <v>2018</v>
       </c>
-      <c r="BW9" s="21"/>
-      <c r="BX9" s="21"/>
-      <c r="BY9" s="21"/>
-      <c r="BZ9" s="21">
+      <c r="BW9" s="35"/>
+      <c r="BX9" s="35"/>
+      <c r="BY9" s="35"/>
+      <c r="BZ9" s="35">
         <v>2019</v>
       </c>
-      <c r="CA9" s="21"/>
-      <c r="CB9" s="21"/>
-      <c r="CC9" s="21"/>
-      <c r="CD9" s="21">
+      <c r="CA9" s="35"/>
+      <c r="CB9" s="35"/>
+      <c r="CC9" s="35"/>
+      <c r="CD9" s="35">
         <v>2020</v>
       </c>
-      <c r="CE9" s="21"/>
-      <c r="CF9" s="21"/>
-      <c r="CG9" s="21"/>
-      <c r="CH9" s="21">
+      <c r="CE9" s="35"/>
+      <c r="CF9" s="35"/>
+      <c r="CG9" s="35"/>
+      <c r="CH9" s="35">
         <v>2021</v>
       </c>
-      <c r="CI9" s="21"/>
-      <c r="CJ9" s="21"/>
-      <c r="CK9" s="21"/>
-      <c r="CL9" s="21">
+      <c r="CI9" s="35"/>
+      <c r="CJ9" s="35"/>
+      <c r="CK9" s="35"/>
+      <c r="CL9" s="34">
         <v>2022</v>
       </c>
-      <c r="CM9" s="21"/>
-      <c r="CN9" s="21"/>
-      <c r="CO9" s="21"/>
-      <c r="CP9" s="21">
+      <c r="CM9" s="34"/>
+      <c r="CN9" s="34"/>
+      <c r="CO9" s="34"/>
+      <c r="CP9" s="34">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="23"/>
+      <c r="CQ9" s="34"/>
+      <c r="CR9" s="34"/>
     </row>
     <row r="10" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24185,23 +24256,26 @@
       <c r="CK10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL10" s="7" t="s">
+      <c r="CL10" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CM10" s="7" t="s">
+      <c r="CM10" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CN10" s="7" t="s">
+      <c r="CN10" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="CO10" s="7" t="s">
+      <c r="CO10" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="7" t="s">
+      <c r="CP10" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="7" t="s">
+      <c r="CQ10" s="24" t="s">
         <v>8</v>
+      </c>
+      <c r="CR10" s="24" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24294,12 +24368,13 @@
       <c r="CI11" s="1"/>
       <c r="CJ11" s="1"/>
       <c r="CK11" s="1"/>
-      <c r="CL11" s="1"/>
-      <c r="CM11" s="1"/>
-      <c r="CN11" s="1"/>
-      <c r="CO11" s="1"/>
-      <c r="CP11" s="1"/>
-      <c r="CQ11" s="1"/>
+      <c r="CL11" s="23"/>
+      <c r="CM11" s="23"/>
+      <c r="CN11" s="23"/>
+      <c r="CO11" s="23"/>
+      <c r="CP11" s="23"/>
+      <c r="CQ11" s="23"/>
+      <c r="CR11" s="23"/>
     </row>
     <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
@@ -24569,25 +24644,27 @@
       <c r="CK12" s="19">
         <v>58285.980798410397</v>
       </c>
-      <c r="CL12" s="19">
+      <c r="CL12" s="25">
         <v>44173.952257399738</v>
       </c>
-      <c r="CM12" s="19">
+      <c r="CM12" s="25">
         <v>52336.697097351629</v>
       </c>
-      <c r="CN12" s="19">
+      <c r="CN12" s="25">
         <v>48353.552505266598</v>
       </c>
-      <c r="CO12" s="19">
+      <c r="CO12" s="25">
         <v>71982.007955611291</v>
       </c>
-      <c r="CP12" s="19">
+      <c r="CP12" s="25">
         <v>65459.990480924302</v>
       </c>
-      <c r="CQ12" s="19">
-        <v>66023.485695810785</v>
-      </c>
-      <c r="CR12" s="11"/>
+      <c r="CQ12" s="25">
+        <v>66508.350481955451</v>
+      </c>
+      <c r="CR12" s="25">
+        <v>58774.13553640453</v>
+      </c>
       <c r="CS12" s="11"/>
       <c r="CT12" s="11"/>
       <c r="CU12" s="11"/>
@@ -24916,25 +24993,27 @@
       <c r="CK13" s="19">
         <v>36649.135463693521</v>
       </c>
-      <c r="CL13" s="19">
+      <c r="CL13" s="25">
         <v>39201.392208936297</v>
       </c>
-      <c r="CM13" s="19">
+      <c r="CM13" s="25">
         <v>34113.964358649384</v>
       </c>
-      <c r="CN13" s="19">
+      <c r="CN13" s="25">
         <v>31980.411933406729</v>
       </c>
-      <c r="CO13" s="19">
+      <c r="CO13" s="25">
         <v>43437.215392067759</v>
       </c>
-      <c r="CP13" s="19">
+      <c r="CP13" s="25">
         <v>53863.21400026176</v>
       </c>
-      <c r="CQ13" s="19">
-        <v>45317.650500709322</v>
-      </c>
-      <c r="CR13" s="11"/>
+      <c r="CQ13" s="25">
+        <v>44494.612425711566</v>
+      </c>
+      <c r="CR13" s="25">
+        <v>39818.097385625006</v>
+      </c>
       <c r="CS13" s="11"/>
       <c r="CT13" s="11"/>
       <c r="CU13" s="11"/>
@@ -25084,13 +25163,13 @@
       <c r="CI14" s="20"/>
       <c r="CJ14" s="20"/>
       <c r="CK14" s="20"/>
-      <c r="CL14" s="20"/>
-      <c r="CM14" s="20"/>
-      <c r="CN14" s="20"/>
-      <c r="CO14" s="20"/>
-      <c r="CP14" s="20"/>
-      <c r="CQ14" s="20"/>
-      <c r="CR14" s="11"/>
+      <c r="CL14" s="26"/>
+      <c r="CM14" s="26"/>
+      <c r="CN14" s="26"/>
+      <c r="CO14" s="26"/>
+      <c r="CP14" s="26"/>
+      <c r="CQ14" s="26"/>
+      <c r="CR14" s="26"/>
       <c r="CS14" s="11"/>
       <c r="CT14" s="11"/>
       <c r="CU14" s="11"/>
@@ -25419,25 +25498,27 @@
       <c r="CK15" s="20">
         <v>94935.116262103926</v>
       </c>
-      <c r="CL15" s="20">
+      <c r="CL15" s="26">
         <v>83375.344466336042</v>
       </c>
-      <c r="CM15" s="20">
+      <c r="CM15" s="26">
         <v>86450.66145600102</v>
       </c>
-      <c r="CN15" s="20">
+      <c r="CN15" s="26">
         <v>80333.964438673327</v>
       </c>
-      <c r="CO15" s="20">
+      <c r="CO15" s="26">
         <v>115419.22334767904</v>
       </c>
-      <c r="CP15" s="20">
+      <c r="CP15" s="26">
         <v>119323.20448118605</v>
       </c>
-      <c r="CQ15" s="20">
-        <v>111341.13619652011</v>
-      </c>
-      <c r="CR15" s="11"/>
+      <c r="CQ15" s="26">
+        <v>111002.96290766701</v>
+      </c>
+      <c r="CR15" s="26">
+        <v>98592.232922029536</v>
+      </c>
       <c r="CS15" s="11"/>
       <c r="CT15" s="11"/>
       <c r="CU15" s="11"/>
@@ -25588,12 +25669,13 @@
       <c r="CI16" s="15"/>
       <c r="CJ16" s="15"/>
       <c r="CK16" s="15"/>
-      <c r="CL16" s="15"/>
-      <c r="CM16" s="15"/>
-      <c r="CN16" s="15"/>
-      <c r="CO16" s="15"/>
-      <c r="CP16" s="15"/>
-      <c r="CQ16" s="15"/>
+      <c r="CL16" s="27"/>
+      <c r="CM16" s="27"/>
+      <c r="CN16" s="27"/>
+      <c r="CO16" s="27"/>
+      <c r="CP16" s="27"/>
+      <c r="CQ16" s="27"/>
+      <c r="CR16" s="27"/>
     </row>
     <row r="17" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
@@ -25687,12 +25769,13 @@
       <c r="CI17" s="1"/>
       <c r="CJ17" s="1"/>
       <c r="CK17" s="1"/>
-      <c r="CL17" s="1"/>
-      <c r="CM17" s="1"/>
-      <c r="CN17" s="1"/>
-      <c r="CO17" s="1"/>
-      <c r="CP17" s="1"/>
-      <c r="CQ17" s="1"/>
+      <c r="CL17" s="23"/>
+      <c r="CM17" s="23"/>
+      <c r="CN17" s="23"/>
+      <c r="CO17" s="23"/>
+      <c r="CP17" s="23"/>
+      <c r="CQ17" s="23"/>
+      <c r="CR17" s="23"/>
     </row>
     <row r="18" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="17"/>
@@ -25783,13 +25866,13 @@
       <c r="CI18" s="17"/>
       <c r="CJ18" s="17"/>
       <c r="CK18" s="17"/>
-      <c r="CL18" s="17"/>
-      <c r="CM18" s="17"/>
-      <c r="CN18" s="17"/>
-      <c r="CO18" s="17"/>
-      <c r="CP18" s="17"/>
-      <c r="CQ18" s="17"/>
-      <c r="CR18" s="11"/>
+      <c r="CL18" s="28"/>
+      <c r="CM18" s="28"/>
+      <c r="CN18" s="28"/>
+      <c r="CO18" s="28"/>
+      <c r="CP18" s="28"/>
+      <c r="CQ18" s="28"/>
+      <c r="CR18" s="28"/>
       <c r="CS18" s="11"/>
       <c r="CT18" s="11"/>
       <c r="CU18" s="11"/>
@@ -25939,13 +26022,13 @@
       <c r="CI19" s="17"/>
       <c r="CJ19" s="17"/>
       <c r="CK19" s="17"/>
-      <c r="CL19" s="17"/>
-      <c r="CM19" s="17"/>
-      <c r="CN19" s="17"/>
-      <c r="CO19" s="17"/>
-      <c r="CP19" s="17"/>
-      <c r="CQ19" s="17"/>
-      <c r="CR19" s="11"/>
+      <c r="CL19" s="28"/>
+      <c r="CM19" s="28"/>
+      <c r="CN19" s="28"/>
+      <c r="CO19" s="28"/>
+      <c r="CP19" s="28"/>
+      <c r="CQ19" s="28"/>
+      <c r="CR19" s="28"/>
       <c r="CS19" s="11"/>
       <c r="CT19" s="11"/>
       <c r="CU19" s="11"/>
@@ -26098,12 +26181,13 @@
       <c r="CI20" s="1"/>
       <c r="CJ20" s="1"/>
       <c r="CK20" s="1"/>
-      <c r="CL20" s="1"/>
-      <c r="CM20" s="1"/>
-      <c r="CN20" s="1"/>
-      <c r="CO20" s="1"/>
-      <c r="CP20" s="1"/>
-      <c r="CQ20" s="1"/>
+      <c r="CL20" s="23"/>
+      <c r="CM20" s="23"/>
+      <c r="CN20" s="23"/>
+      <c r="CO20" s="23"/>
+      <c r="CP20" s="23"/>
+      <c r="CQ20" s="23"/>
+      <c r="CR20" s="23"/>
     </row>
     <row r="21" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -26197,12 +26281,13 @@
       <c r="CI21" s="1"/>
       <c r="CJ21" s="1"/>
       <c r="CK21" s="1"/>
-      <c r="CL21" s="1"/>
-      <c r="CM21" s="1"/>
-      <c r="CN21" s="1"/>
-      <c r="CO21" s="1"/>
-      <c r="CP21" s="1"/>
-      <c r="CQ21" s="1"/>
+      <c r="CL21" s="23"/>
+      <c r="CM21" s="23"/>
+      <c r="CN21" s="23"/>
+      <c r="CO21" s="23"/>
+      <c r="CP21" s="23"/>
+      <c r="CQ21" s="23"/>
+      <c r="CR21" s="23"/>
     </row>
     <row r="22" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -26296,12 +26381,13 @@
       <c r="CI22" s="1"/>
       <c r="CJ22" s="1"/>
       <c r="CK22" s="1"/>
-      <c r="CL22" s="1"/>
-      <c r="CM22" s="1"/>
-      <c r="CN22" s="1"/>
-      <c r="CO22" s="1"/>
-      <c r="CP22" s="1"/>
-      <c r="CQ22" s="1"/>
+      <c r="CL22" s="23"/>
+      <c r="CM22" s="23"/>
+      <c r="CN22" s="23"/>
+      <c r="CO22" s="23"/>
+      <c r="CP22" s="23"/>
+      <c r="CQ22" s="23"/>
+      <c r="CR22" s="23"/>
     </row>
     <row r="23" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
@@ -26393,12 +26479,13 @@
       <c r="CI23" s="1"/>
       <c r="CJ23" s="1"/>
       <c r="CK23" s="1"/>
-      <c r="CL23" s="1"/>
-      <c r="CM23" s="1"/>
-      <c r="CN23" s="1"/>
-      <c r="CO23" s="1"/>
-      <c r="CP23" s="1"/>
-      <c r="CQ23" s="1"/>
+      <c r="CL23" s="23"/>
+      <c r="CM23" s="23"/>
+      <c r="CN23" s="23"/>
+      <c r="CO23" s="23"/>
+      <c r="CP23" s="23"/>
+      <c r="CQ23" s="23"/>
+      <c r="CR23" s="23"/>
     </row>
     <row r="24" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -26492,12 +26579,13 @@
       <c r="CI24" s="1"/>
       <c r="CJ24" s="1"/>
       <c r="CK24" s="1"/>
-      <c r="CL24" s="1"/>
-      <c r="CM24" s="1"/>
-      <c r="CN24" s="1"/>
-      <c r="CO24" s="1"/>
-      <c r="CP24" s="1"/>
-      <c r="CQ24" s="1"/>
+      <c r="CL24" s="23"/>
+      <c r="CM24" s="23"/>
+      <c r="CN24" s="23"/>
+      <c r="CO24" s="23"/>
+      <c r="CP24" s="23"/>
+      <c r="CQ24" s="23"/>
+      <c r="CR24" s="23"/>
     </row>
     <row r="25" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -26591,12 +26679,13 @@
       <c r="CI25" s="1"/>
       <c r="CJ25" s="1"/>
       <c r="CK25" s="1"/>
-      <c r="CL25" s="1"/>
-      <c r="CM25" s="1"/>
-      <c r="CN25" s="1"/>
-      <c r="CO25" s="1"/>
-      <c r="CP25" s="1"/>
-      <c r="CQ25" s="1"/>
+      <c r="CL25" s="23"/>
+      <c r="CM25" s="23"/>
+      <c r="CN25" s="23"/>
+      <c r="CO25" s="23"/>
+      <c r="CP25" s="23"/>
+      <c r="CQ25" s="23"/>
+      <c r="CR25" s="23"/>
     </row>
     <row r="26" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -26690,12 +26779,13 @@
       <c r="CI26" s="1"/>
       <c r="CJ26" s="1"/>
       <c r="CK26" s="1"/>
-      <c r="CL26" s="1"/>
-      <c r="CM26" s="1"/>
-      <c r="CN26" s="1"/>
-      <c r="CO26" s="1"/>
-      <c r="CP26" s="1"/>
-      <c r="CQ26" s="1"/>
+      <c r="CL26" s="23"/>
+      <c r="CM26" s="23"/>
+      <c r="CN26" s="23"/>
+      <c r="CO26" s="23"/>
+      <c r="CP26" s="23"/>
+      <c r="CQ26" s="23"/>
+      <c r="CR26" s="23"/>
     </row>
     <row r="27" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
@@ -26787,157 +26877,159 @@
       <c r="CI27" s="1"/>
       <c r="CJ27" s="1"/>
       <c r="CK27" s="1"/>
-      <c r="CL27" s="1"/>
-      <c r="CM27" s="1"/>
-      <c r="CN27" s="1"/>
-      <c r="CO27" s="1"/>
-      <c r="CP27" s="1"/>
-      <c r="CQ27" s="1"/>
+      <c r="CL27" s="23"/>
+      <c r="CM27" s="23"/>
+      <c r="CN27" s="23"/>
+      <c r="CO27" s="23"/>
+      <c r="CP27" s="23"/>
+      <c r="CQ27" s="23"/>
+      <c r="CR27" s="23"/>
     </row>
     <row r="28" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
-      <c r="B28" s="21">
+      <c r="B28" s="35">
         <v>2000</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="21">
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="35">
         <v>2001</v>
       </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="21">
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="35">
         <v>2002</v>
       </c>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="21">
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="35">
         <v>2003</v>
       </c>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="21">
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="35">
         <v>2004</v>
       </c>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="21">
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="35">
         <v>2005</v>
       </c>
-      <c r="W28" s="22"/>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="21">
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="35">
         <v>2006</v>
       </c>
-      <c r="AA28" s="22"/>
-      <c r="AB28" s="22"/>
-      <c r="AC28" s="22"/>
-      <c r="AD28" s="21">
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="36"/>
+      <c r="AC28" s="36"/>
+      <c r="AD28" s="35">
         <v>2007</v>
       </c>
-      <c r="AE28" s="22"/>
-      <c r="AF28" s="22"/>
-      <c r="AG28" s="22"/>
-      <c r="AH28" s="21">
+      <c r="AE28" s="36"/>
+      <c r="AF28" s="36"/>
+      <c r="AG28" s="36"/>
+      <c r="AH28" s="35">
         <v>2008</v>
       </c>
-      <c r="AI28" s="22"/>
-      <c r="AJ28" s="22"/>
-      <c r="AK28" s="22"/>
-      <c r="AL28" s="21">
+      <c r="AI28" s="36"/>
+      <c r="AJ28" s="36"/>
+      <c r="AK28" s="36"/>
+      <c r="AL28" s="35">
         <v>2009</v>
       </c>
-      <c r="AM28" s="22"/>
-      <c r="AN28" s="22"/>
-      <c r="AO28" s="22"/>
-      <c r="AP28" s="21">
+      <c r="AM28" s="36"/>
+      <c r="AN28" s="36"/>
+      <c r="AO28" s="36"/>
+      <c r="AP28" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="22"/>
-      <c r="AR28" s="22"/>
-      <c r="AS28" s="22"/>
-      <c r="AT28" s="21">
+      <c r="AQ28" s="36"/>
+      <c r="AR28" s="36"/>
+      <c r="AS28" s="36"/>
+      <c r="AT28" s="35">
         <v>2011</v>
       </c>
-      <c r="AU28" s="22"/>
-      <c r="AV28" s="22"/>
-      <c r="AW28" s="22"/>
-      <c r="AX28" s="21">
+      <c r="AU28" s="36"/>
+      <c r="AV28" s="36"/>
+      <c r="AW28" s="36"/>
+      <c r="AX28" s="35">
         <v>2012</v>
       </c>
-      <c r="AY28" s="22"/>
-      <c r="AZ28" s="22"/>
-      <c r="BA28" s="22"/>
-      <c r="BB28" s="21">
+      <c r="AY28" s="36"/>
+      <c r="AZ28" s="36"/>
+      <c r="BA28" s="36"/>
+      <c r="BB28" s="35">
         <v>2013</v>
       </c>
-      <c r="BC28" s="22"/>
-      <c r="BD28" s="22"/>
-      <c r="BE28" s="22"/>
-      <c r="BF28" s="21">
+      <c r="BC28" s="36"/>
+      <c r="BD28" s="36"/>
+      <c r="BE28" s="36"/>
+      <c r="BF28" s="35">
         <v>2014</v>
       </c>
-      <c r="BG28" s="22"/>
-      <c r="BH28" s="22"/>
-      <c r="BI28" s="22"/>
-      <c r="BJ28" s="21">
+      <c r="BG28" s="36"/>
+      <c r="BH28" s="36"/>
+      <c r="BI28" s="36"/>
+      <c r="BJ28" s="35">
         <v>2015</v>
       </c>
-      <c r="BK28" s="22"/>
-      <c r="BL28" s="22"/>
-      <c r="BM28" s="22"/>
-      <c r="BN28" s="21">
+      <c r="BK28" s="36"/>
+      <c r="BL28" s="36"/>
+      <c r="BM28" s="36"/>
+      <c r="BN28" s="35">
         <v>2016</v>
       </c>
-      <c r="BO28" s="22"/>
-      <c r="BP28" s="22"/>
-      <c r="BQ28" s="22"/>
-      <c r="BR28" s="21">
+      <c r="BO28" s="36"/>
+      <c r="BP28" s="36"/>
+      <c r="BQ28" s="36"/>
+      <c r="BR28" s="35">
         <v>2017</v>
       </c>
-      <c r="BS28" s="22"/>
-      <c r="BT28" s="22"/>
-      <c r="BU28" s="22"/>
-      <c r="BV28" s="21">
+      <c r="BS28" s="36"/>
+      <c r="BT28" s="36"/>
+      <c r="BU28" s="36"/>
+      <c r="BV28" s="35">
         <v>2018</v>
       </c>
-      <c r="BW28" s="21"/>
-      <c r="BX28" s="21"/>
-      <c r="BY28" s="21"/>
-      <c r="BZ28" s="21">
+      <c r="BW28" s="35"/>
+      <c r="BX28" s="35"/>
+      <c r="BY28" s="35"/>
+      <c r="BZ28" s="35">
         <v>2019</v>
       </c>
-      <c r="CA28" s="21"/>
-      <c r="CB28" s="21"/>
-      <c r="CC28" s="21"/>
-      <c r="CD28" s="21">
+      <c r="CA28" s="35"/>
+      <c r="CB28" s="35"/>
+      <c r="CC28" s="35"/>
+      <c r="CD28" s="35">
         <v>2020</v>
       </c>
-      <c r="CE28" s="21"/>
-      <c r="CF28" s="21"/>
-      <c r="CG28" s="21"/>
-      <c r="CH28" s="21">
+      <c r="CE28" s="35"/>
+      <c r="CF28" s="35"/>
+      <c r="CG28" s="35"/>
+      <c r="CH28" s="35">
         <v>2021</v>
       </c>
-      <c r="CI28" s="21"/>
-      <c r="CJ28" s="21"/>
-      <c r="CK28" s="21"/>
-      <c r="CL28" s="21">
+      <c r="CI28" s="35"/>
+      <c r="CJ28" s="35"/>
+      <c r="CK28" s="35"/>
+      <c r="CL28" s="34">
         <v>2022</v>
       </c>
-      <c r="CM28" s="21"/>
-      <c r="CN28" s="21"/>
-      <c r="CO28" s="21"/>
-      <c r="CP28" s="21">
+      <c r="CM28" s="34"/>
+      <c r="CN28" s="34"/>
+      <c r="CO28" s="34"/>
+      <c r="CP28" s="34">
         <v>2023</v>
       </c>
-      <c r="CQ28" s="23"/>
+      <c r="CQ28" s="34"/>
+      <c r="CR28" s="34"/>
     </row>
     <row r="29" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
@@ -27207,23 +27299,26 @@
       <c r="CK29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL29" s="7" t="s">
+      <c r="CL29" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CM29" s="7" t="s">
+      <c r="CM29" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CN29" s="7" t="s">
+      <c r="CN29" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="CO29" s="7" t="s">
+      <c r="CO29" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="CP29" s="7" t="s">
+      <c r="CP29" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CQ29" s="7" t="s">
+      <c r="CQ29" s="24" t="s">
         <v>8</v>
+      </c>
+      <c r="CR29" s="24" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27316,12 +27411,13 @@
       <c r="CI30" s="1"/>
       <c r="CJ30" s="1"/>
       <c r="CK30" s="1"/>
-      <c r="CL30" s="1"/>
-      <c r="CM30" s="1"/>
-      <c r="CN30" s="1"/>
-      <c r="CO30" s="1"/>
-      <c r="CP30" s="1"/>
-      <c r="CQ30" s="1"/>
+      <c r="CL30" s="23"/>
+      <c r="CM30" s="23"/>
+      <c r="CN30" s="23"/>
+      <c r="CO30" s="23"/>
+      <c r="CP30" s="23"/>
+      <c r="CQ30" s="23"/>
+      <c r="CR30" s="23"/>
     </row>
     <row r="31" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
@@ -27591,25 +27687,27 @@
       <c r="CK31" s="19">
         <v>55806.264395766862</v>
       </c>
-      <c r="CL31" s="19">
+      <c r="CL31" s="25">
         <v>42666.482735980899</v>
       </c>
-      <c r="CM31" s="19">
+      <c r="CM31" s="25">
         <v>50160.827000193254</v>
       </c>
-      <c r="CN31" s="19">
+      <c r="CN31" s="25">
         <v>45747.247224650651</v>
       </c>
-      <c r="CO31" s="19">
+      <c r="CO31" s="25">
         <v>67178.583782310918</v>
       </c>
-      <c r="CP31" s="19">
+      <c r="CP31" s="25">
         <v>60815.285027065627</v>
       </c>
-      <c r="CQ31" s="19">
-        <v>60389.031164043161</v>
-      </c>
-      <c r="CR31" s="11"/>
+      <c r="CQ31" s="25">
+        <v>60832.517513972329</v>
+      </c>
+      <c r="CR31" s="25">
+        <v>52834.734690521502</v>
+      </c>
       <c r="CS31" s="11"/>
       <c r="CT31" s="11"/>
       <c r="CU31" s="11"/>
@@ -27938,25 +28036,27 @@
       <c r="CK32" s="19">
         <v>33383.353309608567</v>
       </c>
-      <c r="CL32" s="19">
+      <c r="CL32" s="25">
         <v>34870.138067721156</v>
       </c>
-      <c r="CM32" s="19">
+      <c r="CM32" s="25">
         <v>30896.857861207467</v>
       </c>
-      <c r="CN32" s="19">
+      <c r="CN32" s="25">
         <v>28878.700203074994</v>
       </c>
-      <c r="CO32" s="19">
+      <c r="CO32" s="25">
         <v>38575.913995093506</v>
       </c>
-      <c r="CP32" s="19">
+      <c r="CP32" s="25">
         <v>45422.96588457191</v>
       </c>
-      <c r="CQ32" s="19">
-        <v>38699.952899184369</v>
-      </c>
-      <c r="CR32" s="11"/>
+      <c r="CQ32" s="25">
+        <v>37997.102367774969</v>
+      </c>
+      <c r="CR32" s="25">
+        <v>33982.397437162574</v>
+      </c>
       <c r="CS32" s="11"/>
       <c r="CT32" s="11"/>
       <c r="CU32" s="11"/>
@@ -28106,13 +28206,13 @@
       <c r="CI33" s="20"/>
       <c r="CJ33" s="20"/>
       <c r="CK33" s="20"/>
-      <c r="CL33" s="20"/>
-      <c r="CM33" s="20"/>
-      <c r="CN33" s="20"/>
-      <c r="CO33" s="20"/>
-      <c r="CP33" s="20"/>
-      <c r="CQ33" s="20"/>
-      <c r="CR33" s="11"/>
+      <c r="CL33" s="26"/>
+      <c r="CM33" s="26"/>
+      <c r="CN33" s="26"/>
+      <c r="CO33" s="26"/>
+      <c r="CP33" s="26"/>
+      <c r="CQ33" s="26"/>
+      <c r="CR33" s="26"/>
       <c r="CS33" s="11"/>
       <c r="CT33" s="11"/>
       <c r="CU33" s="11"/>
@@ -28441,25 +28541,27 @@
       <c r="CK34" s="20">
         <v>89189.617705375422</v>
       </c>
-      <c r="CL34" s="20">
+      <c r="CL34" s="26">
         <v>77536.620803702055</v>
       </c>
-      <c r="CM34" s="20">
+      <c r="CM34" s="26">
         <v>81057.684861400718</v>
       </c>
-      <c r="CN34" s="20">
+      <c r="CN34" s="26">
         <v>74625.947427725652</v>
       </c>
-      <c r="CO34" s="20">
+      <c r="CO34" s="26">
         <v>105754.49777740442</v>
       </c>
-      <c r="CP34" s="20">
+      <c r="CP34" s="26">
         <v>106238.25091163753</v>
       </c>
-      <c r="CQ34" s="20">
-        <v>99088.98406322753</v>
-      </c>
-      <c r="CR34" s="11"/>
+      <c r="CQ34" s="26">
+        <v>98829.61988174729</v>
+      </c>
+      <c r="CR34" s="26">
+        <v>86817.132127684075</v>
+      </c>
       <c r="CS34" s="11"/>
       <c r="CT34" s="11"/>
       <c r="CU34" s="11"/>
@@ -28610,12 +28712,13 @@
       <c r="CI35" s="15"/>
       <c r="CJ35" s="15"/>
       <c r="CK35" s="15"/>
-      <c r="CL35" s="15"/>
-      <c r="CM35" s="15"/>
-      <c r="CN35" s="15"/>
-      <c r="CO35" s="15"/>
-      <c r="CP35" s="15"/>
-      <c r="CQ35" s="15"/>
+      <c r="CL35" s="27"/>
+      <c r="CM35" s="27"/>
+      <c r="CN35" s="27"/>
+      <c r="CO35" s="27"/>
+      <c r="CP35" s="27"/>
+      <c r="CQ35" s="27"/>
+      <c r="CR35" s="27"/>
     </row>
     <row r="36" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
@@ -28709,12 +28812,13 @@
       <c r="CI36" s="1"/>
       <c r="CJ36" s="1"/>
       <c r="CK36" s="1"/>
-      <c r="CL36" s="1"/>
-      <c r="CM36" s="1"/>
-      <c r="CN36" s="1"/>
-      <c r="CO36" s="1"/>
-      <c r="CP36" s="1"/>
-      <c r="CQ36" s="1"/>
+      <c r="CL36" s="23"/>
+      <c r="CM36" s="23"/>
+      <c r="CN36" s="23"/>
+      <c r="CO36" s="23"/>
+      <c r="CP36" s="23"/>
+      <c r="CQ36" s="23"/>
+      <c r="CR36" s="23"/>
     </row>
     <row r="37" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="17"/>
@@ -28805,13 +28909,13 @@
       <c r="CI37" s="17"/>
       <c r="CJ37" s="17"/>
       <c r="CK37" s="17"/>
-      <c r="CL37" s="17"/>
-      <c r="CM37" s="17"/>
-      <c r="CN37" s="17"/>
-      <c r="CO37" s="17"/>
-      <c r="CP37" s="17"/>
-      <c r="CQ37" s="17"/>
-      <c r="CR37" s="11"/>
+      <c r="CL37" s="28"/>
+      <c r="CM37" s="28"/>
+      <c r="CN37" s="28"/>
+      <c r="CO37" s="28"/>
+      <c r="CP37" s="28"/>
+      <c r="CQ37" s="28"/>
+      <c r="CR37" s="28"/>
       <c r="CS37" s="11"/>
       <c r="CT37" s="11"/>
       <c r="CU37" s="11"/>
@@ -28961,13 +29065,13 @@
       <c r="CI38" s="17"/>
       <c r="CJ38" s="17"/>
       <c r="CK38" s="17"/>
-      <c r="CL38" s="17"/>
-      <c r="CM38" s="17"/>
-      <c r="CN38" s="17"/>
-      <c r="CO38" s="17"/>
-      <c r="CP38" s="17"/>
-      <c r="CQ38" s="17"/>
-      <c r="CR38" s="11"/>
+      <c r="CL38" s="28"/>
+      <c r="CM38" s="28"/>
+      <c r="CN38" s="28"/>
+      <c r="CO38" s="28"/>
+      <c r="CP38" s="28"/>
+      <c r="CQ38" s="28"/>
+      <c r="CR38" s="28"/>
       <c r="CS38" s="11"/>
       <c r="CT38" s="11"/>
       <c r="CU38" s="11"/>
@@ -29120,12 +29224,13 @@
       <c r="CI39" s="1"/>
       <c r="CJ39" s="1"/>
       <c r="CK39" s="1"/>
-      <c r="CL39" s="1"/>
-      <c r="CM39" s="1"/>
-      <c r="CN39" s="1"/>
-      <c r="CO39" s="1"/>
-      <c r="CP39" s="1"/>
-      <c r="CQ39" s="1"/>
+      <c r="CL39" s="23"/>
+      <c r="CM39" s="23"/>
+      <c r="CN39" s="23"/>
+      <c r="CO39" s="23"/>
+      <c r="CP39" s="23"/>
+      <c r="CQ39" s="23"/>
+      <c r="CR39" s="23"/>
     </row>
     <row r="40" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
@@ -29219,12 +29324,13 @@
       <c r="CI40" s="1"/>
       <c r="CJ40" s="1"/>
       <c r="CK40" s="1"/>
-      <c r="CL40" s="1"/>
-      <c r="CM40" s="1"/>
-      <c r="CN40" s="1"/>
-      <c r="CO40" s="1"/>
-      <c r="CP40" s="1"/>
-      <c r="CQ40" s="1"/>
+      <c r="CL40" s="23"/>
+      <c r="CM40" s="23"/>
+      <c r="CN40" s="23"/>
+      <c r="CO40" s="23"/>
+      <c r="CP40" s="23"/>
+      <c r="CQ40" s="23"/>
+      <c r="CR40" s="23"/>
     </row>
     <row r="41" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
@@ -29318,12 +29424,13 @@
       <c r="CI41" s="1"/>
       <c r="CJ41" s="1"/>
       <c r="CK41" s="1"/>
-      <c r="CL41" s="1"/>
-      <c r="CM41" s="1"/>
-      <c r="CN41" s="1"/>
-      <c r="CO41" s="1"/>
-      <c r="CP41" s="1"/>
-      <c r="CQ41" s="1"/>
+      <c r="CL41" s="23"/>
+      <c r="CM41" s="23"/>
+      <c r="CN41" s="23"/>
+      <c r="CO41" s="23"/>
+      <c r="CP41" s="23"/>
+      <c r="CQ41" s="23"/>
+      <c r="CR41" s="23"/>
     </row>
     <row r="42" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
@@ -29415,12 +29522,13 @@
       <c r="CI42" s="1"/>
       <c r="CJ42" s="1"/>
       <c r="CK42" s="1"/>
-      <c r="CL42" s="1"/>
-      <c r="CM42" s="1"/>
-      <c r="CN42" s="1"/>
-      <c r="CO42" s="1"/>
-      <c r="CP42" s="1"/>
-      <c r="CQ42" s="1"/>
+      <c r="CL42" s="23"/>
+      <c r="CM42" s="23"/>
+      <c r="CN42" s="23"/>
+      <c r="CO42" s="23"/>
+      <c r="CP42" s="23"/>
+      <c r="CQ42" s="23"/>
+      <c r="CR42" s="23"/>
     </row>
     <row r="43" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -29514,12 +29622,13 @@
       <c r="CI43" s="1"/>
       <c r="CJ43" s="1"/>
       <c r="CK43" s="1"/>
-      <c r="CL43" s="1"/>
-      <c r="CM43" s="1"/>
-      <c r="CN43" s="1"/>
-      <c r="CO43" s="1"/>
-      <c r="CP43" s="1"/>
-      <c r="CQ43" s="1"/>
+      <c r="CL43" s="23"/>
+      <c r="CM43" s="23"/>
+      <c r="CN43" s="23"/>
+      <c r="CO43" s="23"/>
+      <c r="CP43" s="23"/>
+      <c r="CQ43" s="23"/>
+      <c r="CR43" s="23"/>
     </row>
     <row r="44" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
@@ -29613,12 +29722,13 @@
       <c r="CI44" s="1"/>
       <c r="CJ44" s="1"/>
       <c r="CK44" s="1"/>
-      <c r="CL44" s="1"/>
-      <c r="CM44" s="1"/>
-      <c r="CN44" s="1"/>
-      <c r="CO44" s="1"/>
-      <c r="CP44" s="1"/>
-      <c r="CQ44" s="1"/>
+      <c r="CL44" s="23"/>
+      <c r="CM44" s="23"/>
+      <c r="CN44" s="23"/>
+      <c r="CO44" s="23"/>
+      <c r="CP44" s="23"/>
+      <c r="CQ44" s="23"/>
+      <c r="CR44" s="23"/>
     </row>
     <row r="45" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -29704,6 +29814,13 @@
       <c r="CA45" s="1"/>
       <c r="CB45" s="1"/>
       <c r="CC45" s="1"/>
+      <c r="CL45" s="22"/>
+      <c r="CM45" s="22"/>
+      <c r="CN45" s="22"/>
+      <c r="CO45" s="22"/>
+      <c r="CP45" s="22"/>
+      <c r="CQ45" s="22"/>
+      <c r="CR45" s="22"/>
     </row>
     <row r="46" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
@@ -29795,155 +29912,157 @@
       <c r="CI46" s="1"/>
       <c r="CJ46" s="1"/>
       <c r="CK46" s="1"/>
-      <c r="CL46" s="1"/>
-      <c r="CM46" s="1"/>
-      <c r="CN46" s="1"/>
-      <c r="CO46" s="1"/>
-      <c r="CP46" s="1"/>
-      <c r="CQ46" s="1"/>
+      <c r="CL46" s="23"/>
+      <c r="CM46" s="23"/>
+      <c r="CN46" s="23"/>
+      <c r="CO46" s="23"/>
+      <c r="CP46" s="23"/>
+      <c r="CQ46" s="23"/>
+      <c r="CR46" s="23"/>
     </row>
     <row r="47" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21" t="s">
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21" t="s">
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="21" t="s">
+      <c r="K47" s="35"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="35"/>
+      <c r="N47" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="21"/>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="21"/>
-      <c r="R47" s="21" t="s">
+      <c r="O47" s="35"/>
+      <c r="P47" s="35"/>
+      <c r="Q47" s="35"/>
+      <c r="R47" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="21"/>
-      <c r="T47" s="21"/>
-      <c r="U47" s="21"/>
-      <c r="V47" s="21" t="s">
+      <c r="S47" s="35"/>
+      <c r="T47" s="35"/>
+      <c r="U47" s="35"/>
+      <c r="V47" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="21"/>
-      <c r="X47" s="21"/>
-      <c r="Y47" s="21"/>
-      <c r="Z47" s="21" t="s">
+      <c r="W47" s="35"/>
+      <c r="X47" s="35"/>
+      <c r="Y47" s="35"/>
+      <c r="Z47" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="21"/>
-      <c r="AB47" s="21"/>
-      <c r="AC47" s="21"/>
-      <c r="AD47" s="21" t="s">
+      <c r="AA47" s="35"/>
+      <c r="AB47" s="35"/>
+      <c r="AC47" s="35"/>
+      <c r="AD47" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="21"/>
-      <c r="AF47" s="21"/>
-      <c r="AG47" s="21"/>
-      <c r="AH47" s="21" t="s">
+      <c r="AE47" s="35"/>
+      <c r="AF47" s="35"/>
+      <c r="AG47" s="35"/>
+      <c r="AH47" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="21"/>
-      <c r="AJ47" s="21"/>
-      <c r="AK47" s="21"/>
-      <c r="AL47" s="21" t="s">
+      <c r="AI47" s="35"/>
+      <c r="AJ47" s="35"/>
+      <c r="AK47" s="35"/>
+      <c r="AL47" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="21"/>
-      <c r="AN47" s="21"/>
-      <c r="AO47" s="21"/>
-      <c r="AP47" s="21" t="s">
+      <c r="AM47" s="35"/>
+      <c r="AN47" s="35"/>
+      <c r="AO47" s="35"/>
+      <c r="AP47" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="21"/>
-      <c r="AR47" s="21"/>
-      <c r="AS47" s="21"/>
-      <c r="AT47" s="21" t="s">
+      <c r="AQ47" s="35"/>
+      <c r="AR47" s="35"/>
+      <c r="AS47" s="35"/>
+      <c r="AT47" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="21"/>
-      <c r="AV47" s="21"/>
-      <c r="AW47" s="21"/>
-      <c r="AX47" s="21" t="s">
+      <c r="AU47" s="35"/>
+      <c r="AV47" s="35"/>
+      <c r="AW47" s="35"/>
+      <c r="AX47" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="21"/>
-      <c r="AZ47" s="21"/>
-      <c r="BA47" s="21"/>
-      <c r="BB47" s="21" t="s">
+      <c r="AY47" s="35"/>
+      <c r="AZ47" s="35"/>
+      <c r="BA47" s="35"/>
+      <c r="BB47" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="21"/>
-      <c r="BD47" s="21"/>
-      <c r="BE47" s="21"/>
-      <c r="BF47" s="21" t="s">
+      <c r="BC47" s="35"/>
+      <c r="BD47" s="35"/>
+      <c r="BE47" s="35"/>
+      <c r="BF47" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="21"/>
-      <c r="BH47" s="21"/>
-      <c r="BI47" s="21"/>
-      <c r="BJ47" s="21" t="s">
+      <c r="BG47" s="35"/>
+      <c r="BH47" s="35"/>
+      <c r="BI47" s="35"/>
+      <c r="BJ47" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="21"/>
-      <c r="BL47" s="21"/>
-      <c r="BM47" s="21"/>
-      <c r="BN47" s="21" t="s">
+      <c r="BK47" s="35"/>
+      <c r="BL47" s="35"/>
+      <c r="BM47" s="35"/>
+      <c r="BN47" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="21"/>
-      <c r="BP47" s="21"/>
-      <c r="BQ47" s="21"/>
-      <c r="BR47" s="21" t="s">
+      <c r="BO47" s="35"/>
+      <c r="BP47" s="35"/>
+      <c r="BQ47" s="35"/>
+      <c r="BR47" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="BS47" s="21"/>
-      <c r="BT47" s="21"/>
-      <c r="BU47" s="21"/>
-      <c r="BV47" s="21" t="s">
+      <c r="BS47" s="35"/>
+      <c r="BT47" s="35"/>
+      <c r="BU47" s="35"/>
+      <c r="BV47" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="BW47" s="21"/>
-      <c r="BX47" s="21"/>
-      <c r="BY47" s="21"/>
-      <c r="BZ47" s="21" t="s">
+      <c r="BW47" s="35"/>
+      <c r="BX47" s="35"/>
+      <c r="BY47" s="35"/>
+      <c r="BZ47" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="21"/>
-      <c r="CB47" s="21"/>
-      <c r="CC47" s="21"/>
-      <c r="CD47" s="21" t="s">
+      <c r="CA47" s="35"/>
+      <c r="CB47" s="35"/>
+      <c r="CC47" s="35"/>
+      <c r="CD47" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="21"/>
-      <c r="CF47" s="21"/>
-      <c r="CG47" s="21"/>
-      <c r="CH47" s="21" t="s">
+      <c r="CE47" s="35"/>
+      <c r="CF47" s="35"/>
+      <c r="CG47" s="35"/>
+      <c r="CH47" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="CI47" s="21"/>
-      <c r="CJ47" s="21"/>
-      <c r="CK47" s="21"/>
-      <c r="CL47" s="21" t="s">
+      <c r="CI47" s="35"/>
+      <c r="CJ47" s="35"/>
+      <c r="CK47" s="35"/>
+      <c r="CL47" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="CM47" s="21"/>
-      <c r="CN47" s="21"/>
-      <c r="CO47" s="21"/>
+      <c r="CM47" s="34"/>
+      <c r="CN47" s="34"/>
+      <c r="CO47" s="29"/>
       <c r="CP47" s="21"/>
-      <c r="CQ47" s="23"/>
+      <c r="CQ47" s="21"/>
+      <c r="CR47" s="21"/>
     </row>
     <row r="48" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
@@ -30213,16 +30332,19 @@
       <c r="CK48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL48" s="6" t="s">
+      <c r="CL48" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="CM48" s="6" t="s">
+      <c r="CM48" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="CN48" s="6"/>
-      <c r="CO48" s="6"/>
-      <c r="CP48" s="6"/>
-      <c r="CQ48" s="6"/>
+      <c r="CN48" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="CO48" s="30"/>
+      <c r="CP48" s="30"/>
+      <c r="CQ48" s="30"/>
+      <c r="CR48" s="30"/>
     </row>
     <row r="49" spans="1:151" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
@@ -30314,12 +30436,13 @@
       <c r="CI49" s="1"/>
       <c r="CJ49" s="1"/>
       <c r="CK49" s="1"/>
-      <c r="CL49" s="1"/>
-      <c r="CM49" s="1"/>
-      <c r="CN49" s="1"/>
-      <c r="CO49" s="1"/>
-      <c r="CP49" s="1"/>
-      <c r="CQ49" s="1"/>
+      <c r="CL49" s="23"/>
+      <c r="CM49" s="23"/>
+      <c r="CN49" s="23"/>
+      <c r="CO49" s="23"/>
+      <c r="CP49" s="23"/>
+      <c r="CQ49" s="23"/>
+      <c r="CR49" s="23"/>
     </row>
     <row r="50" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
@@ -30589,17 +30712,19 @@
       <c r="CK50" s="18">
         <v>23.497978363906014</v>
       </c>
-      <c r="CL50" s="18">
+      <c r="CL50" s="31">
         <v>48.186854776977441</v>
       </c>
-      <c r="CM50" s="18">
-        <v>26.151418330813513</v>
-      </c>
-      <c r="CN50" s="18"/>
-      <c r="CO50" s="18"/>
-      <c r="CP50" s="18"/>
-      <c r="CQ50" s="18"/>
-      <c r="CR50" s="11"/>
+      <c r="CM50" s="31">
+        <v>27.077852005530829</v>
+      </c>
+      <c r="CN50" s="31">
+        <v>21.550811659604392</v>
+      </c>
+      <c r="CO50" s="31"/>
+      <c r="CP50" s="31"/>
+      <c r="CQ50" s="31"/>
+      <c r="CR50" s="31"/>
       <c r="CS50" s="11"/>
       <c r="CT50" s="11"/>
       <c r="CU50" s="11"/>
@@ -30924,17 +31049,19 @@
       <c r="CK51" s="18">
         <v>18.521800971536834</v>
       </c>
-      <c r="CL51" s="18">
+      <c r="CL51" s="31">
         <v>37.401278284150266</v>
       </c>
-      <c r="CM51" s="18">
-        <v>32.841935414695683</v>
-      </c>
-      <c r="CN51" s="18"/>
-      <c r="CO51" s="18"/>
-      <c r="CP51" s="18"/>
-      <c r="CQ51" s="18"/>
-      <c r="CR51" s="11"/>
+      <c r="CM51" s="31">
+        <v>30.429322015839631</v>
+      </c>
+      <c r="CN51" s="31">
+        <v>24.50776890722608</v>
+      </c>
+      <c r="CO51" s="31"/>
+      <c r="CP51" s="31"/>
+      <c r="CQ51" s="31"/>
+      <c r="CR51" s="31"/>
       <c r="CS51" s="11"/>
       <c r="CT51" s="11"/>
       <c r="CU51" s="11"/>
@@ -31081,13 +31208,13 @@
       <c r="CI52" s="17"/>
       <c r="CJ52" s="17"/>
       <c r="CK52" s="17"/>
-      <c r="CL52" s="17"/>
-      <c r="CM52" s="17"/>
-      <c r="CN52" s="17"/>
-      <c r="CO52" s="17"/>
-      <c r="CP52" s="17"/>
-      <c r="CQ52" s="17"/>
-      <c r="CR52" s="11"/>
+      <c r="CL52" s="28"/>
+      <c r="CM52" s="28"/>
+      <c r="CN52" s="28"/>
+      <c r="CO52" s="28"/>
+      <c r="CP52" s="28"/>
+      <c r="CQ52" s="28"/>
+      <c r="CR52" s="28"/>
       <c r="CS52" s="11"/>
       <c r="CT52" s="11"/>
       <c r="CU52" s="11"/>
@@ -31412,17 +31539,19 @@
       <c r="CK53" s="18">
         <v>21.576954758259376</v>
       </c>
-      <c r="CL53" s="18">
+      <c r="CL53" s="31">
         <v>43.115695946976814</v>
       </c>
-      <c r="CM53" s="18">
-        <v>28.791537648543112</v>
-      </c>
-      <c r="CN53" s="18"/>
-      <c r="CO53" s="18"/>
-      <c r="CP53" s="18"/>
-      <c r="CQ53" s="18"/>
-      <c r="CR53" s="11"/>
+      <c r="CM53" s="31">
+        <v>28.400362748134512</v>
+      </c>
+      <c r="CN53" s="31">
+        <v>22.727956488808047</v>
+      </c>
+      <c r="CO53" s="31"/>
+      <c r="CP53" s="31"/>
+      <c r="CQ53" s="31"/>
+      <c r="CR53" s="31"/>
       <c r="CS53" s="11"/>
       <c r="CT53" s="11"/>
       <c r="CU53" s="11"/>
@@ -31569,12 +31698,13 @@
       <c r="CI54" s="15"/>
       <c r="CJ54" s="15"/>
       <c r="CK54" s="15"/>
-      <c r="CL54" s="15"/>
-      <c r="CM54" s="15"/>
-      <c r="CN54" s="15"/>
-      <c r="CO54" s="15"/>
-      <c r="CP54" s="15"/>
-      <c r="CQ54" s="15"/>
+      <c r="CL54" s="27"/>
+      <c r="CM54" s="27"/>
+      <c r="CN54" s="27"/>
+      <c r="CO54" s="27"/>
+      <c r="CP54" s="27"/>
+      <c r="CQ54" s="27"/>
+      <c r="CR54" s="27"/>
     </row>
     <row r="55" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
@@ -31668,12 +31798,13 @@
       <c r="CI55" s="1"/>
       <c r="CJ55" s="1"/>
       <c r="CK55" s="1"/>
-      <c r="CL55" s="1"/>
-      <c r="CM55" s="1"/>
-      <c r="CN55" s="1"/>
-      <c r="CO55" s="1"/>
-      <c r="CP55" s="1"/>
-      <c r="CQ55" s="1"/>
+      <c r="CL55" s="23"/>
+      <c r="CM55" s="23"/>
+      <c r="CN55" s="23"/>
+      <c r="CO55" s="23"/>
+      <c r="CP55" s="23"/>
+      <c r="CQ55" s="23"/>
+      <c r="CR55" s="23"/>
     </row>
     <row r="56" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="17"/>
@@ -31764,13 +31895,13 @@
       <c r="CI56" s="17"/>
       <c r="CJ56" s="17"/>
       <c r="CK56" s="17"/>
-      <c r="CL56" s="17"/>
-      <c r="CM56" s="17"/>
-      <c r="CN56" s="17"/>
-      <c r="CO56" s="17"/>
-      <c r="CP56" s="17"/>
-      <c r="CQ56" s="17"/>
-      <c r="CR56" s="11"/>
+      <c r="CL56" s="28"/>
+      <c r="CM56" s="28"/>
+      <c r="CN56" s="28"/>
+      <c r="CO56" s="28"/>
+      <c r="CP56" s="28"/>
+      <c r="CQ56" s="28"/>
+      <c r="CR56" s="28"/>
       <c r="CS56" s="11"/>
       <c r="CT56" s="11"/>
       <c r="CU56" s="11"/>
@@ -31916,13 +32047,13 @@
       <c r="CI57" s="17"/>
       <c r="CJ57" s="17"/>
       <c r="CK57" s="17"/>
-      <c r="CL57" s="17"/>
-      <c r="CM57" s="17"/>
-      <c r="CN57" s="17"/>
-      <c r="CO57" s="17"/>
-      <c r="CP57" s="17"/>
-      <c r="CQ57" s="17"/>
-      <c r="CR57" s="11"/>
+      <c r="CL57" s="28"/>
+      <c r="CM57" s="28"/>
+      <c r="CN57" s="28"/>
+      <c r="CO57" s="28"/>
+      <c r="CP57" s="28"/>
+      <c r="CQ57" s="28"/>
+      <c r="CR57" s="28"/>
       <c r="CS57" s="11"/>
       <c r="CT57" s="11"/>
       <c r="CU57" s="11"/>
@@ -32071,12 +32202,13 @@
       <c r="CI58" s="1"/>
       <c r="CJ58" s="1"/>
       <c r="CK58" s="1"/>
-      <c r="CL58" s="1"/>
-      <c r="CM58" s="1"/>
-      <c r="CN58" s="1"/>
-      <c r="CO58" s="1"/>
-      <c r="CP58" s="1"/>
-      <c r="CQ58" s="1"/>
+      <c r="CL58" s="23"/>
+      <c r="CM58" s="23"/>
+      <c r="CN58" s="23"/>
+      <c r="CO58" s="23"/>
+      <c r="CP58" s="23"/>
+      <c r="CQ58" s="23"/>
+      <c r="CR58" s="23"/>
     </row>
     <row r="59" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -32170,12 +32302,13 @@
       <c r="CI59" s="1"/>
       <c r="CJ59" s="1"/>
       <c r="CK59" s="1"/>
-      <c r="CL59" s="1"/>
-      <c r="CM59" s="1"/>
-      <c r="CN59" s="1"/>
-      <c r="CO59" s="1"/>
-      <c r="CP59" s="1"/>
-      <c r="CQ59" s="1"/>
+      <c r="CL59" s="23"/>
+      <c r="CM59" s="23"/>
+      <c r="CN59" s="23"/>
+      <c r="CO59" s="23"/>
+      <c r="CP59" s="23"/>
+      <c r="CQ59" s="23"/>
+      <c r="CR59" s="23"/>
     </row>
     <row r="60" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
@@ -32269,12 +32402,13 @@
       <c r="CI60" s="1"/>
       <c r="CJ60" s="1"/>
       <c r="CK60" s="1"/>
-      <c r="CL60" s="1"/>
-      <c r="CM60" s="1"/>
-      <c r="CN60" s="1"/>
-      <c r="CO60" s="1"/>
-      <c r="CP60" s="1"/>
-      <c r="CQ60" s="1"/>
+      <c r="CL60" s="23"/>
+      <c r="CM60" s="23"/>
+      <c r="CN60" s="23"/>
+      <c r="CO60" s="23"/>
+      <c r="CP60" s="23"/>
+      <c r="CQ60" s="23"/>
+      <c r="CR60" s="23"/>
     </row>
     <row r="61" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
@@ -32366,12 +32500,13 @@
       <c r="CI61" s="1"/>
       <c r="CJ61" s="1"/>
       <c r="CK61" s="1"/>
-      <c r="CL61" s="1"/>
-      <c r="CM61" s="1"/>
-      <c r="CN61" s="1"/>
-      <c r="CO61" s="1"/>
-      <c r="CP61" s="1"/>
-      <c r="CQ61" s="1"/>
+      <c r="CL61" s="23"/>
+      <c r="CM61" s="23"/>
+      <c r="CN61" s="23"/>
+      <c r="CO61" s="23"/>
+      <c r="CP61" s="23"/>
+      <c r="CQ61" s="23"/>
+      <c r="CR61" s="23"/>
     </row>
     <row r="62" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -32465,12 +32600,13 @@
       <c r="CI62" s="1"/>
       <c r="CJ62" s="1"/>
       <c r="CK62" s="1"/>
-      <c r="CL62" s="1"/>
-      <c r="CM62" s="1"/>
-      <c r="CN62" s="1"/>
-      <c r="CO62" s="1"/>
-      <c r="CP62" s="1"/>
-      <c r="CQ62" s="1"/>
+      <c r="CL62" s="23"/>
+      <c r="CM62" s="23"/>
+      <c r="CN62" s="23"/>
+      <c r="CO62" s="23"/>
+      <c r="CP62" s="23"/>
+      <c r="CQ62" s="23"/>
+      <c r="CR62" s="23"/>
     </row>
     <row r="63" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
@@ -32564,12 +32700,13 @@
       <c r="CI63" s="1"/>
       <c r="CJ63" s="1"/>
       <c r="CK63" s="1"/>
-      <c r="CL63" s="1"/>
-      <c r="CM63" s="1"/>
-      <c r="CN63" s="1"/>
-      <c r="CO63" s="1"/>
-      <c r="CP63" s="1"/>
-      <c r="CQ63" s="1"/>
+      <c r="CL63" s="23"/>
+      <c r="CM63" s="23"/>
+      <c r="CN63" s="23"/>
+      <c r="CO63" s="23"/>
+      <c r="CP63" s="23"/>
+      <c r="CQ63" s="23"/>
+      <c r="CR63" s="23"/>
     </row>
     <row r="64" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
@@ -32663,12 +32800,13 @@
       <c r="CI64" s="1"/>
       <c r="CJ64" s="1"/>
       <c r="CK64" s="1"/>
-      <c r="CL64" s="1"/>
-      <c r="CM64" s="1"/>
-      <c r="CN64" s="1"/>
-      <c r="CO64" s="1"/>
-      <c r="CP64" s="1"/>
-      <c r="CQ64" s="1"/>
+      <c r="CL64" s="23"/>
+      <c r="CM64" s="23"/>
+      <c r="CN64" s="23"/>
+      <c r="CO64" s="23"/>
+      <c r="CP64" s="23"/>
+      <c r="CQ64" s="23"/>
+      <c r="CR64" s="23"/>
     </row>
     <row r="65" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
@@ -32760,155 +32898,157 @@
       <c r="CI65" s="1"/>
       <c r="CJ65" s="1"/>
       <c r="CK65" s="1"/>
-      <c r="CL65" s="1"/>
-      <c r="CM65" s="1"/>
-      <c r="CN65" s="1"/>
-      <c r="CO65" s="1"/>
-      <c r="CP65" s="1"/>
-      <c r="CQ65" s="1"/>
+      <c r="CL65" s="23"/>
+      <c r="CM65" s="23"/>
+      <c r="CN65" s="23"/>
+      <c r="CO65" s="23"/>
+      <c r="CP65" s="23"/>
+      <c r="CQ65" s="23"/>
+      <c r="CR65" s="23"/>
     </row>
     <row r="66" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
-      <c r="B66" s="21" t="s">
+      <c r="B66" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="21" t="s">
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="23"/>
-      <c r="J66" s="21" t="s">
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="23"/>
-      <c r="L66" s="23"/>
-      <c r="M66" s="23"/>
-      <c r="N66" s="21" t="s">
+      <c r="K66" s="34"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="34"/>
+      <c r="N66" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="23"/>
-      <c r="P66" s="23"/>
-      <c r="Q66" s="23"/>
-      <c r="R66" s="21" t="s">
+      <c r="O66" s="34"/>
+      <c r="P66" s="34"/>
+      <c r="Q66" s="34"/>
+      <c r="R66" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="23"/>
-      <c r="T66" s="23"/>
-      <c r="U66" s="23"/>
-      <c r="V66" s="21" t="s">
+      <c r="S66" s="34"/>
+      <c r="T66" s="34"/>
+      <c r="U66" s="34"/>
+      <c r="V66" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="23"/>
-      <c r="X66" s="23"/>
-      <c r="Y66" s="23"/>
-      <c r="Z66" s="21" t="s">
+      <c r="W66" s="34"/>
+      <c r="X66" s="34"/>
+      <c r="Y66" s="34"/>
+      <c r="Z66" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="23"/>
-      <c r="AB66" s="23"/>
-      <c r="AC66" s="23"/>
-      <c r="AD66" s="21" t="s">
+      <c r="AA66" s="34"/>
+      <c r="AB66" s="34"/>
+      <c r="AC66" s="34"/>
+      <c r="AD66" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="23"/>
-      <c r="AF66" s="23"/>
-      <c r="AG66" s="23"/>
-      <c r="AH66" s="21" t="s">
+      <c r="AE66" s="34"/>
+      <c r="AF66" s="34"/>
+      <c r="AG66" s="34"/>
+      <c r="AH66" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="23"/>
-      <c r="AJ66" s="23"/>
-      <c r="AK66" s="23"/>
-      <c r="AL66" s="21" t="s">
+      <c r="AI66" s="34"/>
+      <c r="AJ66" s="34"/>
+      <c r="AK66" s="34"/>
+      <c r="AL66" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="23"/>
-      <c r="AN66" s="23"/>
-      <c r="AO66" s="23"/>
-      <c r="AP66" s="21" t="s">
+      <c r="AM66" s="34"/>
+      <c r="AN66" s="34"/>
+      <c r="AO66" s="34"/>
+      <c r="AP66" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="23"/>
-      <c r="AR66" s="23"/>
-      <c r="AS66" s="23"/>
-      <c r="AT66" s="21" t="s">
+      <c r="AQ66" s="34"/>
+      <c r="AR66" s="34"/>
+      <c r="AS66" s="34"/>
+      <c r="AT66" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="23"/>
-      <c r="AV66" s="23"/>
-      <c r="AW66" s="23"/>
-      <c r="AX66" s="21" t="s">
+      <c r="AU66" s="34"/>
+      <c r="AV66" s="34"/>
+      <c r="AW66" s="34"/>
+      <c r="AX66" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="23"/>
-      <c r="AZ66" s="23"/>
-      <c r="BA66" s="23"/>
-      <c r="BB66" s="21" t="s">
+      <c r="AY66" s="34"/>
+      <c r="AZ66" s="34"/>
+      <c r="BA66" s="34"/>
+      <c r="BB66" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="23"/>
-      <c r="BD66" s="23"/>
-      <c r="BE66" s="23"/>
-      <c r="BF66" s="21" t="s">
+      <c r="BC66" s="34"/>
+      <c r="BD66" s="34"/>
+      <c r="BE66" s="34"/>
+      <c r="BF66" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="23"/>
-      <c r="BH66" s="23"/>
-      <c r="BI66" s="23"/>
-      <c r="BJ66" s="21" t="s">
+      <c r="BG66" s="34"/>
+      <c r="BH66" s="34"/>
+      <c r="BI66" s="34"/>
+      <c r="BJ66" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="23"/>
-      <c r="BL66" s="23"/>
-      <c r="BM66" s="23"/>
-      <c r="BN66" s="21" t="s">
+      <c r="BK66" s="34"/>
+      <c r="BL66" s="34"/>
+      <c r="BM66" s="34"/>
+      <c r="BN66" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="23"/>
-      <c r="BP66" s="23"/>
-      <c r="BQ66" s="23"/>
-      <c r="BR66" s="21" t="s">
+      <c r="BO66" s="34"/>
+      <c r="BP66" s="34"/>
+      <c r="BQ66" s="34"/>
+      <c r="BR66" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="23"/>
-      <c r="BT66" s="23"/>
-      <c r="BU66" s="23"/>
-      <c r="BV66" s="21" t="s">
+      <c r="BS66" s="34"/>
+      <c r="BT66" s="34"/>
+      <c r="BU66" s="34"/>
+      <c r="BV66" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="BW66" s="21"/>
-      <c r="BX66" s="21"/>
-      <c r="BY66" s="21"/>
-      <c r="BZ66" s="21" t="s">
+      <c r="BW66" s="35"/>
+      <c r="BX66" s="35"/>
+      <c r="BY66" s="35"/>
+      <c r="BZ66" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="21"/>
-      <c r="CB66" s="21"/>
-      <c r="CC66" s="21"/>
-      <c r="CD66" s="21" t="s">
+      <c r="CA66" s="35"/>
+      <c r="CB66" s="35"/>
+      <c r="CC66" s="35"/>
+      <c r="CD66" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="21"/>
-      <c r="CF66" s="21"/>
-      <c r="CG66" s="21"/>
-      <c r="CH66" s="21" t="s">
+      <c r="CE66" s="35"/>
+      <c r="CF66" s="35"/>
+      <c r="CG66" s="35"/>
+      <c r="CH66" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="CI66" s="21"/>
-      <c r="CJ66" s="21"/>
-      <c r="CK66" s="21"/>
-      <c r="CL66" s="21" t="s">
+      <c r="CI66" s="35"/>
+      <c r="CJ66" s="35"/>
+      <c r="CK66" s="35"/>
+      <c r="CL66" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="CM66" s="21"/>
-      <c r="CN66" s="21"/>
-      <c r="CO66" s="21"/>
+      <c r="CM66" s="34"/>
+      <c r="CN66" s="34"/>
+      <c r="CO66" s="29"/>
       <c r="CP66" s="21"/>
-      <c r="CQ66" s="23"/>
+      <c r="CQ66" s="21"/>
+      <c r="CR66" s="21"/>
     </row>
     <row r="67" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
@@ -33178,16 +33318,19 @@
       <c r="CK67" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL67" s="6" t="s">
+      <c r="CL67" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="CM67" s="6" t="s">
+      <c r="CM67" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="CN67" s="6"/>
-      <c r="CO67" s="6"/>
-      <c r="CP67" s="6"/>
-      <c r="CQ67" s="6"/>
+      <c r="CN67" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="CO67" s="30"/>
+      <c r="CP67" s="30"/>
+      <c r="CQ67" s="30"/>
+      <c r="CR67" s="30"/>
     </row>
     <row r="68" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
@@ -33279,12 +33422,13 @@
       <c r="CI68" s="1"/>
       <c r="CJ68" s="1"/>
       <c r="CK68" s="1"/>
-      <c r="CL68" s="1"/>
-      <c r="CM68" s="1"/>
-      <c r="CN68" s="1"/>
-      <c r="CO68" s="1"/>
-      <c r="CP68" s="1"/>
-      <c r="CQ68" s="1"/>
+      <c r="CL68" s="23"/>
+      <c r="CM68" s="23"/>
+      <c r="CN68" s="23"/>
+      <c r="CO68" s="23"/>
+      <c r="CP68" s="23"/>
+      <c r="CQ68" s="23"/>
+      <c r="CR68" s="23"/>
     </row>
     <row r="69" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
@@ -33554,17 +33698,19 @@
       <c r="CK69" s="18">
         <v>20.378212929455103</v>
       </c>
-      <c r="CL69" s="18">
+      <c r="CL69" s="31">
         <v>42.536438739019218</v>
       </c>
-      <c r="CM69" s="18">
-        <v>20.390820438049204</v>
-      </c>
-      <c r="CN69" s="18"/>
-      <c r="CO69" s="18"/>
-      <c r="CP69" s="18"/>
-      <c r="CQ69" s="18"/>
-      <c r="CR69" s="11"/>
+      <c r="CM69" s="31">
+        <v>21.274949302047915</v>
+      </c>
+      <c r="CN69" s="31">
+        <v>15.492708077201627</v>
+      </c>
+      <c r="CO69" s="31"/>
+      <c r="CP69" s="31"/>
+      <c r="CQ69" s="31"/>
+      <c r="CR69" s="31"/>
       <c r="CS69" s="11"/>
       <c r="CT69" s="11"/>
       <c r="CU69" s="11"/>
@@ -33889,17 +34035,19 @@
       <c r="CK70" s="18">
         <v>15.554341223086141</v>
       </c>
-      <c r="CL70" s="18">
+      <c r="CL70" s="31">
         <v>30.26322349615063</v>
       </c>
-      <c r="CM70" s="18">
-        <v>25.255302895295628</v>
-      </c>
-      <c r="CN70" s="18"/>
-      <c r="CO70" s="18"/>
-      <c r="CP70" s="18"/>
-      <c r="CQ70" s="18"/>
-      <c r="CR70" s="11"/>
+      <c r="CM70" s="31">
+        <v>22.980474385009259</v>
+      </c>
+      <c r="CN70" s="31">
+        <v>17.672877235465535</v>
+      </c>
+      <c r="CO70" s="31"/>
+      <c r="CP70" s="31"/>
+      <c r="CQ70" s="31"/>
+      <c r="CR70" s="31"/>
       <c r="CS70" s="11"/>
       <c r="CT70" s="11"/>
       <c r="CU70" s="11"/>
@@ -34045,13 +34193,13 @@
       <c r="CI71" s="17"/>
       <c r="CJ71" s="17"/>
       <c r="CK71" s="17"/>
-      <c r="CL71" s="17"/>
-      <c r="CM71" s="17"/>
-      <c r="CN71" s="17"/>
-      <c r="CO71" s="17"/>
-      <c r="CP71" s="17"/>
-      <c r="CQ71" s="17"/>
-      <c r="CR71" s="11"/>
+      <c r="CL71" s="28"/>
+      <c r="CM71" s="28"/>
+      <c r="CN71" s="28"/>
+      <c r="CO71" s="28"/>
+      <c r="CP71" s="28"/>
+      <c r="CQ71" s="28"/>
+      <c r="CR71" s="28"/>
       <c r="CS71" s="11"/>
       <c r="CT71" s="11"/>
       <c r="CU71" s="11"/>
@@ -34376,17 +34524,19 @@
       <c r="CK72" s="18">
         <v>18.57265508946189</v>
       </c>
-      <c r="CL72" s="18">
+      <c r="CL72" s="31">
         <v>37.01686997760558</v>
       </c>
-      <c r="CM72" s="18">
-        <v>22.245021224894643</v>
-      </c>
-      <c r="CN72" s="18"/>
-      <c r="CO72" s="18"/>
-      <c r="CP72" s="18"/>
-      <c r="CQ72" s="18"/>
-      <c r="CR72" s="11"/>
+      <c r="CM72" s="31">
+        <v>21.925046404587704</v>
+      </c>
+      <c r="CN72" s="31">
+        <v>16.336388508521708</v>
+      </c>
+      <c r="CO72" s="31"/>
+      <c r="CP72" s="31"/>
+      <c r="CQ72" s="31"/>
+      <c r="CR72" s="31"/>
       <c r="CS72" s="11"/>
       <c r="CT72" s="11"/>
       <c r="CU72" s="11"/>
@@ -34533,12 +34683,13 @@
       <c r="CI73" s="15"/>
       <c r="CJ73" s="15"/>
       <c r="CK73" s="15"/>
-      <c r="CL73" s="15"/>
-      <c r="CM73" s="15"/>
-      <c r="CN73" s="15"/>
-      <c r="CO73" s="15"/>
-      <c r="CP73" s="15"/>
-      <c r="CQ73" s="15"/>
+      <c r="CL73" s="27"/>
+      <c r="CM73" s="27"/>
+      <c r="CN73" s="27"/>
+      <c r="CO73" s="27"/>
+      <c r="CP73" s="27"/>
+      <c r="CQ73" s="27"/>
+      <c r="CR73" s="27"/>
     </row>
     <row r="74" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
@@ -34632,12 +34783,13 @@
       <c r="CI74" s="1"/>
       <c r="CJ74" s="1"/>
       <c r="CK74" s="1"/>
-      <c r="CL74" s="1"/>
-      <c r="CM74" s="1"/>
-      <c r="CN74" s="1"/>
-      <c r="CO74" s="1"/>
-      <c r="CP74" s="1"/>
-      <c r="CQ74" s="1"/>
+      <c r="CL74" s="23"/>
+      <c r="CM74" s="23"/>
+      <c r="CN74" s="23"/>
+      <c r="CO74" s="23"/>
+      <c r="CP74" s="23"/>
+      <c r="CQ74" s="23"/>
+      <c r="CR74" s="23"/>
     </row>
     <row r="75" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="17"/>
@@ -34728,13 +34880,13 @@
       <c r="CI75" s="11"/>
       <c r="CJ75" s="11"/>
       <c r="CK75" s="11"/>
-      <c r="CL75" s="11"/>
-      <c r="CM75" s="11"/>
-      <c r="CN75" s="11"/>
-      <c r="CO75" s="11"/>
-      <c r="CP75" s="11"/>
-      <c r="CQ75" s="11"/>
-      <c r="CR75" s="11"/>
+      <c r="CL75" s="32"/>
+      <c r="CM75" s="32"/>
+      <c r="CN75" s="32"/>
+      <c r="CO75" s="32"/>
+      <c r="CP75" s="32"/>
+      <c r="CQ75" s="32"/>
+      <c r="CR75" s="32"/>
       <c r="CS75" s="11"/>
       <c r="CT75" s="11"/>
       <c r="CU75" s="11"/>
@@ -34880,13 +35032,13 @@
       <c r="CI76" s="17"/>
       <c r="CJ76" s="17"/>
       <c r="CK76" s="17"/>
-      <c r="CL76" s="17"/>
-      <c r="CM76" s="17"/>
-      <c r="CN76" s="17"/>
-      <c r="CO76" s="17"/>
-      <c r="CP76" s="17"/>
-      <c r="CQ76" s="17"/>
-      <c r="CR76" s="11"/>
+      <c r="CL76" s="28"/>
+      <c r="CM76" s="28"/>
+      <c r="CN76" s="28"/>
+      <c r="CO76" s="28"/>
+      <c r="CP76" s="28"/>
+      <c r="CQ76" s="28"/>
+      <c r="CR76" s="28"/>
       <c r="CS76" s="11"/>
       <c r="CT76" s="11"/>
       <c r="CU76" s="11"/>
@@ -35039,12 +35191,13 @@
       <c r="CI77" s="1"/>
       <c r="CJ77" s="1"/>
       <c r="CK77" s="1"/>
-      <c r="CL77" s="1"/>
-      <c r="CM77" s="1"/>
-      <c r="CN77" s="1"/>
-      <c r="CO77" s="1"/>
-      <c r="CP77" s="1"/>
-      <c r="CQ77" s="1"/>
+      <c r="CL77" s="23"/>
+      <c r="CM77" s="23"/>
+      <c r="CN77" s="23"/>
+      <c r="CO77" s="23"/>
+      <c r="CP77" s="23"/>
+      <c r="CQ77" s="23"/>
+      <c r="CR77" s="23"/>
     </row>
     <row r="78" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
@@ -35138,12 +35291,13 @@
       <c r="CI78" s="1"/>
       <c r="CJ78" s="1"/>
       <c r="CK78" s="1"/>
-      <c r="CL78" s="1"/>
-      <c r="CM78" s="1"/>
-      <c r="CN78" s="1"/>
-      <c r="CO78" s="1"/>
-      <c r="CP78" s="1"/>
-      <c r="CQ78" s="1"/>
+      <c r="CL78" s="23"/>
+      <c r="CM78" s="23"/>
+      <c r="CN78" s="23"/>
+      <c r="CO78" s="23"/>
+      <c r="CP78" s="23"/>
+      <c r="CQ78" s="23"/>
+      <c r="CR78" s="23"/>
     </row>
     <row r="79" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
@@ -35235,12 +35389,13 @@
       <c r="CI79" s="1"/>
       <c r="CJ79" s="1"/>
       <c r="CK79" s="1"/>
-      <c r="CL79" s="1"/>
-      <c r="CM79" s="1"/>
-      <c r="CN79" s="1"/>
-      <c r="CO79" s="1"/>
-      <c r="CP79" s="1"/>
-      <c r="CQ79" s="1"/>
+      <c r="CL79" s="23"/>
+      <c r="CM79" s="23"/>
+      <c r="CN79" s="23"/>
+      <c r="CO79" s="23"/>
+      <c r="CP79" s="23"/>
+      <c r="CQ79" s="23"/>
+      <c r="CR79" s="23"/>
     </row>
     <row r="80" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
@@ -35334,12 +35489,13 @@
       <c r="CI80" s="1"/>
       <c r="CJ80" s="1"/>
       <c r="CK80" s="1"/>
-      <c r="CL80" s="1"/>
-      <c r="CM80" s="1"/>
-      <c r="CN80" s="1"/>
-      <c r="CO80" s="1"/>
-      <c r="CP80" s="1"/>
-      <c r="CQ80" s="1"/>
+      <c r="CL80" s="23"/>
+      <c r="CM80" s="23"/>
+      <c r="CN80" s="23"/>
+      <c r="CO80" s="23"/>
+      <c r="CP80" s="23"/>
+      <c r="CQ80" s="23"/>
+      <c r="CR80" s="23"/>
     </row>
     <row r="81" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
@@ -35433,12 +35589,13 @@
       <c r="CI81" s="1"/>
       <c r="CJ81" s="1"/>
       <c r="CK81" s="1"/>
-      <c r="CL81" s="1"/>
-      <c r="CM81" s="1"/>
-      <c r="CN81" s="1"/>
-      <c r="CO81" s="1"/>
-      <c r="CP81" s="1"/>
-      <c r="CQ81" s="1"/>
+      <c r="CL81" s="23"/>
+      <c r="CM81" s="23"/>
+      <c r="CN81" s="23"/>
+      <c r="CO81" s="23"/>
+      <c r="CP81" s="23"/>
+      <c r="CQ81" s="23"/>
+      <c r="CR81" s="23"/>
     </row>
     <row r="82" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
@@ -35532,12 +35689,13 @@
       <c r="CI82" s="1"/>
       <c r="CJ82" s="1"/>
       <c r="CK82" s="1"/>
-      <c r="CL82" s="1"/>
-      <c r="CM82" s="1"/>
-      <c r="CN82" s="1"/>
-      <c r="CO82" s="1"/>
-      <c r="CP82" s="1"/>
-      <c r="CQ82" s="1"/>
+      <c r="CL82" s="23"/>
+      <c r="CM82" s="23"/>
+      <c r="CN82" s="23"/>
+      <c r="CO82" s="23"/>
+      <c r="CP82" s="23"/>
+      <c r="CQ82" s="23"/>
+      <c r="CR82" s="23"/>
     </row>
     <row r="83" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
@@ -35629,157 +35787,159 @@
       <c r="CI83" s="1"/>
       <c r="CJ83" s="1"/>
       <c r="CK83" s="1"/>
-      <c r="CL83" s="1"/>
-      <c r="CM83" s="1"/>
-      <c r="CN83" s="1"/>
-      <c r="CO83" s="1"/>
-      <c r="CP83" s="1"/>
-      <c r="CQ83" s="1"/>
+      <c r="CL83" s="23"/>
+      <c r="CM83" s="23"/>
+      <c r="CN83" s="23"/>
+      <c r="CO83" s="23"/>
+      <c r="CP83" s="23"/>
+      <c r="CQ83" s="23"/>
+      <c r="CR83" s="23"/>
     </row>
     <row r="84" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
-      <c r="B84" s="21">
+      <c r="B84" s="35">
         <v>2000</v>
       </c>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="21">
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="35">
         <v>2001</v>
       </c>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="22"/>
-      <c r="J84" s="21">
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="35">
         <v>2002</v>
       </c>
-      <c r="K84" s="22"/>
-      <c r="L84" s="22"/>
-      <c r="M84" s="22"/>
-      <c r="N84" s="21">
+      <c r="K84" s="36"/>
+      <c r="L84" s="36"/>
+      <c r="M84" s="36"/>
+      <c r="N84" s="35">
         <v>2003</v>
       </c>
-      <c r="O84" s="22"/>
-      <c r="P84" s="22"/>
-      <c r="Q84" s="22"/>
-      <c r="R84" s="21">
+      <c r="O84" s="36"/>
+      <c r="P84" s="36"/>
+      <c r="Q84" s="36"/>
+      <c r="R84" s="35">
         <v>2004</v>
       </c>
-      <c r="S84" s="22"/>
-      <c r="T84" s="22"/>
-      <c r="U84" s="22"/>
-      <c r="V84" s="21">
+      <c r="S84" s="36"/>
+      <c r="T84" s="36"/>
+      <c r="U84" s="36"/>
+      <c r="V84" s="35">
         <v>2005</v>
       </c>
-      <c r="W84" s="22"/>
-      <c r="X84" s="22"/>
-      <c r="Y84" s="22"/>
-      <c r="Z84" s="21">
+      <c r="W84" s="36"/>
+      <c r="X84" s="36"/>
+      <c r="Y84" s="36"/>
+      <c r="Z84" s="35">
         <v>2006</v>
       </c>
-      <c r="AA84" s="22"/>
-      <c r="AB84" s="22"/>
-      <c r="AC84" s="22"/>
-      <c r="AD84" s="21">
+      <c r="AA84" s="36"/>
+      <c r="AB84" s="36"/>
+      <c r="AC84" s="36"/>
+      <c r="AD84" s="35">
         <v>2007</v>
       </c>
-      <c r="AE84" s="22"/>
-      <c r="AF84" s="22"/>
-      <c r="AG84" s="22"/>
-      <c r="AH84" s="21">
+      <c r="AE84" s="36"/>
+      <c r="AF84" s="36"/>
+      <c r="AG84" s="36"/>
+      <c r="AH84" s="35">
         <v>2008</v>
       </c>
-      <c r="AI84" s="22"/>
-      <c r="AJ84" s="22"/>
-      <c r="AK84" s="22"/>
-      <c r="AL84" s="21">
+      <c r="AI84" s="36"/>
+      <c r="AJ84" s="36"/>
+      <c r="AK84" s="36"/>
+      <c r="AL84" s="35">
         <v>2009</v>
       </c>
-      <c r="AM84" s="22"/>
-      <c r="AN84" s="22"/>
-      <c r="AO84" s="22"/>
-      <c r="AP84" s="21">
+      <c r="AM84" s="36"/>
+      <c r="AN84" s="36"/>
+      <c r="AO84" s="36"/>
+      <c r="AP84" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="22"/>
-      <c r="AR84" s="22"/>
-      <c r="AS84" s="22"/>
-      <c r="AT84" s="21">
+      <c r="AQ84" s="36"/>
+      <c r="AR84" s="36"/>
+      <c r="AS84" s="36"/>
+      <c r="AT84" s="35">
         <v>2011</v>
       </c>
-      <c r="AU84" s="22"/>
-      <c r="AV84" s="22"/>
-      <c r="AW84" s="22"/>
-      <c r="AX84" s="21">
+      <c r="AU84" s="36"/>
+      <c r="AV84" s="36"/>
+      <c r="AW84" s="36"/>
+      <c r="AX84" s="35">
         <v>2012</v>
       </c>
-      <c r="AY84" s="22"/>
-      <c r="AZ84" s="22"/>
-      <c r="BA84" s="22"/>
-      <c r="BB84" s="21">
+      <c r="AY84" s="36"/>
+      <c r="AZ84" s="36"/>
+      <c r="BA84" s="36"/>
+      <c r="BB84" s="35">
         <v>2013</v>
       </c>
-      <c r="BC84" s="22"/>
-      <c r="BD84" s="22"/>
-      <c r="BE84" s="22"/>
-      <c r="BF84" s="21">
+      <c r="BC84" s="36"/>
+      <c r="BD84" s="36"/>
+      <c r="BE84" s="36"/>
+      <c r="BF84" s="35">
         <v>2014</v>
       </c>
-      <c r="BG84" s="22"/>
-      <c r="BH84" s="22"/>
-      <c r="BI84" s="22"/>
-      <c r="BJ84" s="21">
+      <c r="BG84" s="36"/>
+      <c r="BH84" s="36"/>
+      <c r="BI84" s="36"/>
+      <c r="BJ84" s="35">
         <v>2015</v>
       </c>
-      <c r="BK84" s="22"/>
-      <c r="BL84" s="22"/>
-      <c r="BM84" s="22"/>
-      <c r="BN84" s="21">
+      <c r="BK84" s="36"/>
+      <c r="BL84" s="36"/>
+      <c r="BM84" s="36"/>
+      <c r="BN84" s="35">
         <v>2016</v>
       </c>
-      <c r="BO84" s="22"/>
-      <c r="BP84" s="22"/>
-      <c r="BQ84" s="22"/>
-      <c r="BR84" s="21">
+      <c r="BO84" s="36"/>
+      <c r="BP84" s="36"/>
+      <c r="BQ84" s="36"/>
+      <c r="BR84" s="35">
         <v>2017</v>
       </c>
-      <c r="BS84" s="22"/>
-      <c r="BT84" s="22"/>
-      <c r="BU84" s="22"/>
-      <c r="BV84" s="21">
+      <c r="BS84" s="36"/>
+      <c r="BT84" s="36"/>
+      <c r="BU84" s="36"/>
+      <c r="BV84" s="35">
         <v>2018</v>
       </c>
-      <c r="BW84" s="21"/>
-      <c r="BX84" s="21"/>
-      <c r="BY84" s="21"/>
-      <c r="BZ84" s="21">
+      <c r="BW84" s="35"/>
+      <c r="BX84" s="35"/>
+      <c r="BY84" s="35"/>
+      <c r="BZ84" s="35">
         <v>2019</v>
       </c>
-      <c r="CA84" s="21"/>
-      <c r="CB84" s="21"/>
-      <c r="CC84" s="21"/>
-      <c r="CD84" s="21">
+      <c r="CA84" s="35"/>
+      <c r="CB84" s="35"/>
+      <c r="CC84" s="35"/>
+      <c r="CD84" s="35">
         <v>2020</v>
       </c>
-      <c r="CE84" s="21"/>
-      <c r="CF84" s="21"/>
-      <c r="CG84" s="21"/>
-      <c r="CH84" s="21">
+      <c r="CE84" s="35"/>
+      <c r="CF84" s="35"/>
+      <c r="CG84" s="35"/>
+      <c r="CH84" s="35">
         <v>2021</v>
       </c>
-      <c r="CI84" s="21"/>
-      <c r="CJ84" s="21"/>
-      <c r="CK84" s="21"/>
-      <c r="CL84" s="21">
+      <c r="CI84" s="35"/>
+      <c r="CJ84" s="35"/>
+      <c r="CK84" s="35"/>
+      <c r="CL84" s="34">
         <v>2022</v>
       </c>
-      <c r="CM84" s="21"/>
-      <c r="CN84" s="21"/>
-      <c r="CO84" s="21"/>
-      <c r="CP84" s="21">
+      <c r="CM84" s="34"/>
+      <c r="CN84" s="34"/>
+      <c r="CO84" s="34"/>
+      <c r="CP84" s="34">
         <v>2023</v>
       </c>
-      <c r="CQ84" s="23"/>
+      <c r="CQ84" s="34"/>
+      <c r="CR84" s="34"/>
     </row>
     <row r="85" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
@@ -36049,23 +36209,26 @@
       <c r="CK85" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL85" s="7" t="s">
+      <c r="CL85" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CM85" s="7" t="s">
+      <c r="CM85" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CN85" s="7" t="s">
+      <c r="CN85" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="CO85" s="7" t="s">
+      <c r="CO85" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="CP85" s="7" t="s">
+      <c r="CP85" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CQ85" s="7" t="s">
+      <c r="CQ85" s="24" t="s">
         <v>8</v>
+      </c>
+      <c r="CR85" s="24" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -36158,12 +36321,13 @@
       <c r="CI86" s="1"/>
       <c r="CJ86" s="1"/>
       <c r="CK86" s="1"/>
-      <c r="CL86" s="1"/>
-      <c r="CM86" s="1"/>
-      <c r="CN86" s="1"/>
-      <c r="CO86" s="1"/>
-      <c r="CP86" s="1"/>
-      <c r="CQ86" s="1"/>
+      <c r="CL86" s="23"/>
+      <c r="CM86" s="23"/>
+      <c r="CN86" s="23"/>
+      <c r="CO86" s="23"/>
+      <c r="CP86" s="23"/>
+      <c r="CQ86" s="23"/>
+      <c r="CR86" s="23"/>
     </row>
     <row r="87" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
@@ -36433,25 +36597,27 @@
       <c r="CK87" s="18">
         <v>104.44343736226077</v>
       </c>
-      <c r="CL87" s="18">
+      <c r="CL87" s="31">
         <v>103.53314692178172</v>
       </c>
-      <c r="CM87" s="18">
+      <c r="CM87" s="31">
         <v>104.33778752720721</v>
       </c>
-      <c r="CN87" s="18">
+      <c r="CN87" s="31">
         <v>105.69718494277302</v>
       </c>
-      <c r="CO87" s="18">
+      <c r="CO87" s="31">
         <v>107.15023137264347</v>
       </c>
-      <c r="CP87" s="18">
+      <c r="CP87" s="31">
         <v>107.63739815046753</v>
       </c>
-      <c r="CQ87" s="18">
-        <v>109.33026151133633</v>
-      </c>
-      <c r="CR87" s="11"/>
+      <c r="CQ87" s="31">
+        <v>109.33026151133637</v>
+      </c>
+      <c r="CR87" s="31">
+        <v>111.24146999255879</v>
+      </c>
       <c r="CS87" s="11"/>
       <c r="CT87" s="11"/>
       <c r="CU87" s="11"/>
@@ -36780,25 +36946,27 @@
       <c r="CK88" s="18">
         <v>109.78266659971807</v>
       </c>
-      <c r="CL88" s="18">
+      <c r="CL88" s="31">
         <v>112.42109834151913</v>
       </c>
-      <c r="CM88" s="18">
+      <c r="CM88" s="31">
         <v>110.41240669809713</v>
       </c>
-      <c r="CN88" s="18">
+      <c r="CN88" s="31">
         <v>110.74048246119285</v>
       </c>
-      <c r="CO88" s="18">
+      <c r="CO88" s="31">
         <v>112.60190853181746</v>
       </c>
-      <c r="CP88" s="18">
+      <c r="CP88" s="31">
         <v>118.5814553306318</v>
       </c>
-      <c r="CQ88" s="18">
-        <v>117.10001461439614</v>
-      </c>
-      <c r="CR88" s="11"/>
+      <c r="CQ88" s="31">
+        <v>117.10001461439619</v>
+      </c>
+      <c r="CR88" s="31">
+        <v>117.17271407720224</v>
+      </c>
       <c r="CS88" s="11"/>
       <c r="CT88" s="11"/>
       <c r="CU88" s="11"/>
@@ -36948,13 +37116,13 @@
       <c r="CI89" s="17"/>
       <c r="CJ89" s="17"/>
       <c r="CK89" s="17"/>
-      <c r="CL89" s="17"/>
-      <c r="CM89" s="17"/>
-      <c r="CN89" s="17"/>
-      <c r="CO89" s="17"/>
-      <c r="CP89" s="17"/>
-      <c r="CQ89" s="17"/>
-      <c r="CR89" s="11"/>
+      <c r="CL89" s="28"/>
+      <c r="CM89" s="28"/>
+      <c r="CN89" s="28"/>
+      <c r="CO89" s="28"/>
+      <c r="CP89" s="28"/>
+      <c r="CQ89" s="28"/>
+      <c r="CR89" s="28"/>
       <c r="CS89" s="11"/>
       <c r="CT89" s="11"/>
       <c r="CU89" s="11"/>
@@ -37283,25 +37451,27 @@
       <c r="CK90" s="18">
         <v>106.44189167365634</v>
       </c>
-      <c r="CL90" s="18">
+      <c r="CL90" s="31">
         <v>107.53027872779724</v>
       </c>
-      <c r="CM90" s="18">
+      <c r="CM90" s="31">
         <v>106.65325761995506</v>
       </c>
-      <c r="CN90" s="18">
+      <c r="CN90" s="31">
         <v>107.64883690954252</v>
       </c>
-      <c r="CO90" s="18">
+      <c r="CO90" s="31">
         <v>109.13883170304233</v>
       </c>
-      <c r="CP90" s="18">
+      <c r="CP90" s="31">
         <v>112.3166123851491</v>
       </c>
-      <c r="CQ90" s="18">
-        <v>112.3647974082312</v>
-      </c>
-      <c r="CR90" s="11"/>
+      <c r="CQ90" s="31">
+        <v>112.31750465142485</v>
+      </c>
+      <c r="CR90" s="31">
+        <v>113.56310731046439</v>
+      </c>
       <c r="CS90" s="11"/>
       <c r="CT90" s="11"/>
       <c r="CU90" s="11"/>
@@ -37452,12 +37622,13 @@
       <c r="CI91" s="15"/>
       <c r="CJ91" s="15"/>
       <c r="CK91" s="15"/>
-      <c r="CL91" s="15"/>
-      <c r="CM91" s="15"/>
-      <c r="CN91" s="15"/>
-      <c r="CO91" s="15"/>
-      <c r="CP91" s="15"/>
-      <c r="CQ91" s="15"/>
+      <c r="CL91" s="27"/>
+      <c r="CM91" s="27"/>
+      <c r="CN91" s="27"/>
+      <c r="CO91" s="27"/>
+      <c r="CP91" s="27"/>
+      <c r="CQ91" s="27"/>
+      <c r="CR91" s="27"/>
     </row>
     <row r="92" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="16" t="s">
@@ -37551,12 +37722,13 @@
       <c r="CI92" s="1"/>
       <c r="CJ92" s="1"/>
       <c r="CK92" s="1"/>
-      <c r="CL92" s="1"/>
-      <c r="CM92" s="1"/>
-      <c r="CN92" s="1"/>
-      <c r="CO92" s="1"/>
-      <c r="CP92" s="1"/>
-      <c r="CQ92" s="1"/>
+      <c r="CL92" s="23"/>
+      <c r="CM92" s="23"/>
+      <c r="CN92" s="23"/>
+      <c r="CO92" s="23"/>
+      <c r="CP92" s="23"/>
+      <c r="CQ92" s="23"/>
+      <c r="CR92" s="23"/>
     </row>
     <row r="93" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
@@ -37647,12 +37819,13 @@
       <c r="CI93" s="1"/>
       <c r="CJ93" s="1"/>
       <c r="CK93" s="1"/>
-      <c r="CL93" s="1"/>
-      <c r="CM93" s="1"/>
-      <c r="CN93" s="1"/>
-      <c r="CO93" s="1"/>
-      <c r="CP93" s="1"/>
-      <c r="CQ93" s="1"/>
+      <c r="CL93" s="23"/>
+      <c r="CM93" s="23"/>
+      <c r="CN93" s="23"/>
+      <c r="CO93" s="23"/>
+      <c r="CP93" s="23"/>
+      <c r="CQ93" s="23"/>
+      <c r="CR93" s="23"/>
     </row>
     <row r="94" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
@@ -37743,12 +37916,13 @@
       <c r="CI94" s="1"/>
       <c r="CJ94" s="1"/>
       <c r="CK94" s="1"/>
-      <c r="CL94" s="1"/>
-      <c r="CM94" s="1"/>
-      <c r="CN94" s="1"/>
-      <c r="CO94" s="1"/>
-      <c r="CP94" s="1"/>
-      <c r="CQ94" s="1"/>
+      <c r="CL94" s="23"/>
+      <c r="CM94" s="23"/>
+      <c r="CN94" s="23"/>
+      <c r="CO94" s="23"/>
+      <c r="CP94" s="23"/>
+      <c r="CQ94" s="23"/>
+      <c r="CR94" s="23"/>
     </row>
     <row r="95" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
@@ -37842,12 +38016,13 @@
       <c r="CI95" s="1"/>
       <c r="CJ95" s="1"/>
       <c r="CK95" s="1"/>
-      <c r="CL95" s="1"/>
-      <c r="CM95" s="1"/>
-      <c r="CN95" s="1"/>
-      <c r="CO95" s="1"/>
-      <c r="CP95" s="1"/>
-      <c r="CQ95" s="1"/>
+      <c r="CL95" s="23"/>
+      <c r="CM95" s="23"/>
+      <c r="CN95" s="23"/>
+      <c r="CO95" s="23"/>
+      <c r="CP95" s="23"/>
+      <c r="CQ95" s="23"/>
+      <c r="CR95" s="23"/>
     </row>
     <row r="96" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
@@ -37941,12 +38116,13 @@
       <c r="CI96" s="1"/>
       <c r="CJ96" s="1"/>
       <c r="CK96" s="1"/>
-      <c r="CL96" s="1"/>
-      <c r="CM96" s="1"/>
-      <c r="CN96" s="1"/>
-      <c r="CO96" s="1"/>
-      <c r="CP96" s="1"/>
-      <c r="CQ96" s="1"/>
+      <c r="CL96" s="23"/>
+      <c r="CM96" s="23"/>
+      <c r="CN96" s="23"/>
+      <c r="CO96" s="23"/>
+      <c r="CP96" s="23"/>
+      <c r="CQ96" s="23"/>
+      <c r="CR96" s="23"/>
     </row>
     <row r="97" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
@@ -38040,12 +38216,13 @@
       <c r="CI97" s="1"/>
       <c r="CJ97" s="1"/>
       <c r="CK97" s="1"/>
-      <c r="CL97" s="1"/>
-      <c r="CM97" s="1"/>
-      <c r="CN97" s="1"/>
-      <c r="CO97" s="1"/>
-      <c r="CP97" s="1"/>
-      <c r="CQ97" s="1"/>
+      <c r="CL97" s="23"/>
+      <c r="CM97" s="23"/>
+      <c r="CN97" s="23"/>
+      <c r="CO97" s="23"/>
+      <c r="CP97" s="23"/>
+      <c r="CQ97" s="23"/>
+      <c r="CR97" s="23"/>
     </row>
     <row r="98" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
@@ -38137,12 +38314,13 @@
       <c r="CI98" s="1"/>
       <c r="CJ98" s="1"/>
       <c r="CK98" s="1"/>
-      <c r="CL98" s="1"/>
-      <c r="CM98" s="1"/>
-      <c r="CN98" s="1"/>
-      <c r="CO98" s="1"/>
-      <c r="CP98" s="1"/>
-      <c r="CQ98" s="1"/>
+      <c r="CL98" s="23"/>
+      <c r="CM98" s="23"/>
+      <c r="CN98" s="23"/>
+      <c r="CO98" s="23"/>
+      <c r="CP98" s="23"/>
+      <c r="CQ98" s="23"/>
+      <c r="CR98" s="23"/>
     </row>
     <row r="99" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
@@ -38236,12 +38414,13 @@
       <c r="CI99" s="1"/>
       <c r="CJ99" s="1"/>
       <c r="CK99" s="1"/>
-      <c r="CL99" s="1"/>
-      <c r="CM99" s="1"/>
-      <c r="CN99" s="1"/>
-      <c r="CO99" s="1"/>
-      <c r="CP99" s="1"/>
-      <c r="CQ99" s="1"/>
+      <c r="CL99" s="23"/>
+      <c r="CM99" s="23"/>
+      <c r="CN99" s="23"/>
+      <c r="CO99" s="23"/>
+      <c r="CP99" s="23"/>
+      <c r="CQ99" s="23"/>
+      <c r="CR99" s="23"/>
     </row>
     <row r="100" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
@@ -38335,12 +38514,13 @@
       <c r="CI100" s="1"/>
       <c r="CJ100" s="1"/>
       <c r="CK100" s="1"/>
-      <c r="CL100" s="1"/>
-      <c r="CM100" s="1"/>
-      <c r="CN100" s="1"/>
-      <c r="CO100" s="1"/>
-      <c r="CP100" s="1"/>
-      <c r="CQ100" s="1"/>
+      <c r="CL100" s="23"/>
+      <c r="CM100" s="23"/>
+      <c r="CN100" s="23"/>
+      <c r="CO100" s="23"/>
+      <c r="CP100" s="23"/>
+      <c r="CQ100" s="23"/>
+      <c r="CR100" s="23"/>
     </row>
     <row r="101" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
@@ -38434,12 +38614,13 @@
       <c r="CI101" s="1"/>
       <c r="CJ101" s="1"/>
       <c r="CK101" s="1"/>
-      <c r="CL101" s="1"/>
-      <c r="CM101" s="1"/>
-      <c r="CN101" s="1"/>
-      <c r="CO101" s="1"/>
-      <c r="CP101" s="1"/>
-      <c r="CQ101" s="1"/>
+      <c r="CL101" s="23"/>
+      <c r="CM101" s="23"/>
+      <c r="CN101" s="23"/>
+      <c r="CO101" s="23"/>
+      <c r="CP101" s="23"/>
+      <c r="CQ101" s="23"/>
+      <c r="CR101" s="23"/>
     </row>
     <row r="102" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
@@ -38531,157 +38712,159 @@
       <c r="CI102" s="1"/>
       <c r="CJ102" s="1"/>
       <c r="CK102" s="1"/>
-      <c r="CL102" s="1"/>
-      <c r="CM102" s="1"/>
-      <c r="CN102" s="1"/>
-      <c r="CO102" s="1"/>
-      <c r="CP102" s="1"/>
-      <c r="CQ102" s="1"/>
+      <c r="CL102" s="23"/>
+      <c r="CM102" s="23"/>
+      <c r="CN102" s="23"/>
+      <c r="CO102" s="23"/>
+      <c r="CP102" s="23"/>
+      <c r="CQ102" s="23"/>
+      <c r="CR102" s="23"/>
     </row>
     <row r="103" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
-      <c r="B103" s="21">
+      <c r="B103" s="35">
         <v>2000</v>
       </c>
-      <c r="C103" s="22"/>
-      <c r="D103" s="22"/>
-      <c r="E103" s="22"/>
-      <c r="F103" s="21">
+      <c r="C103" s="36"/>
+      <c r="D103" s="36"/>
+      <c r="E103" s="36"/>
+      <c r="F103" s="35">
         <v>2001</v>
       </c>
-      <c r="G103" s="22"/>
-      <c r="H103" s="22"/>
-      <c r="I103" s="22"/>
-      <c r="J103" s="21">
+      <c r="G103" s="36"/>
+      <c r="H103" s="36"/>
+      <c r="I103" s="36"/>
+      <c r="J103" s="35">
         <v>2002</v>
       </c>
-      <c r="K103" s="22"/>
-      <c r="L103" s="22"/>
-      <c r="M103" s="22"/>
-      <c r="N103" s="21">
+      <c r="K103" s="36"/>
+      <c r="L103" s="36"/>
+      <c r="M103" s="36"/>
+      <c r="N103" s="35">
         <v>2003</v>
       </c>
-      <c r="O103" s="22"/>
-      <c r="P103" s="22"/>
-      <c r="Q103" s="22"/>
-      <c r="R103" s="21">
+      <c r="O103" s="36"/>
+      <c r="P103" s="36"/>
+      <c r="Q103" s="36"/>
+      <c r="R103" s="35">
         <v>2004</v>
       </c>
-      <c r="S103" s="22"/>
-      <c r="T103" s="22"/>
-      <c r="U103" s="22"/>
-      <c r="V103" s="21">
+      <c r="S103" s="36"/>
+      <c r="T103" s="36"/>
+      <c r="U103" s="36"/>
+      <c r="V103" s="35">
         <v>2005</v>
       </c>
-      <c r="W103" s="22"/>
-      <c r="X103" s="22"/>
-      <c r="Y103" s="22"/>
-      <c r="Z103" s="21">
+      <c r="W103" s="36"/>
+      <c r="X103" s="36"/>
+      <c r="Y103" s="36"/>
+      <c r="Z103" s="35">
         <v>2006</v>
       </c>
-      <c r="AA103" s="22"/>
-      <c r="AB103" s="22"/>
-      <c r="AC103" s="22"/>
-      <c r="AD103" s="21">
+      <c r="AA103" s="36"/>
+      <c r="AB103" s="36"/>
+      <c r="AC103" s="36"/>
+      <c r="AD103" s="35">
         <v>2007</v>
       </c>
-      <c r="AE103" s="22"/>
-      <c r="AF103" s="22"/>
-      <c r="AG103" s="22"/>
-      <c r="AH103" s="21">
+      <c r="AE103" s="36"/>
+      <c r="AF103" s="36"/>
+      <c r="AG103" s="36"/>
+      <c r="AH103" s="35">
         <v>2008</v>
       </c>
-      <c r="AI103" s="22"/>
-      <c r="AJ103" s="22"/>
-      <c r="AK103" s="22"/>
-      <c r="AL103" s="21">
+      <c r="AI103" s="36"/>
+      <c r="AJ103" s="36"/>
+      <c r="AK103" s="36"/>
+      <c r="AL103" s="35">
         <v>2009</v>
       </c>
-      <c r="AM103" s="22"/>
-      <c r="AN103" s="22"/>
-      <c r="AO103" s="22"/>
-      <c r="AP103" s="21">
+      <c r="AM103" s="36"/>
+      <c r="AN103" s="36"/>
+      <c r="AO103" s="36"/>
+      <c r="AP103" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="22"/>
-      <c r="AR103" s="22"/>
-      <c r="AS103" s="22"/>
-      <c r="AT103" s="21">
+      <c r="AQ103" s="36"/>
+      <c r="AR103" s="36"/>
+      <c r="AS103" s="36"/>
+      <c r="AT103" s="35">
         <v>2011</v>
       </c>
-      <c r="AU103" s="22"/>
-      <c r="AV103" s="22"/>
-      <c r="AW103" s="22"/>
-      <c r="AX103" s="21">
+      <c r="AU103" s="36"/>
+      <c r="AV103" s="36"/>
+      <c r="AW103" s="36"/>
+      <c r="AX103" s="35">
         <v>2012</v>
       </c>
-      <c r="AY103" s="22"/>
-      <c r="AZ103" s="22"/>
-      <c r="BA103" s="22"/>
-      <c r="BB103" s="21">
+      <c r="AY103" s="36"/>
+      <c r="AZ103" s="36"/>
+      <c r="BA103" s="36"/>
+      <c r="BB103" s="35">
         <v>2013</v>
       </c>
-      <c r="BC103" s="22"/>
-      <c r="BD103" s="22"/>
-      <c r="BE103" s="22"/>
-      <c r="BF103" s="21">
+      <c r="BC103" s="36"/>
+      <c r="BD103" s="36"/>
+      <c r="BE103" s="36"/>
+      <c r="BF103" s="35">
         <v>2014</v>
       </c>
-      <c r="BG103" s="22"/>
-      <c r="BH103" s="22"/>
-      <c r="BI103" s="22"/>
-      <c r="BJ103" s="21">
+      <c r="BG103" s="36"/>
+      <c r="BH103" s="36"/>
+      <c r="BI103" s="36"/>
+      <c r="BJ103" s="35">
         <v>2015</v>
       </c>
-      <c r="BK103" s="22"/>
-      <c r="BL103" s="22"/>
-      <c r="BM103" s="22"/>
-      <c r="BN103" s="21">
+      <c r="BK103" s="36"/>
+      <c r="BL103" s="36"/>
+      <c r="BM103" s="36"/>
+      <c r="BN103" s="35">
         <v>2016</v>
       </c>
-      <c r="BO103" s="22"/>
-      <c r="BP103" s="22"/>
-      <c r="BQ103" s="22"/>
-      <c r="BR103" s="21">
+      <c r="BO103" s="36"/>
+      <c r="BP103" s="36"/>
+      <c r="BQ103" s="36"/>
+      <c r="BR103" s="35">
         <v>2017</v>
       </c>
-      <c r="BS103" s="22"/>
-      <c r="BT103" s="22"/>
-      <c r="BU103" s="22"/>
-      <c r="BV103" s="21">
+      <c r="BS103" s="36"/>
+      <c r="BT103" s="36"/>
+      <c r="BU103" s="36"/>
+      <c r="BV103" s="35">
         <v>2018</v>
       </c>
-      <c r="BW103" s="21"/>
-      <c r="BX103" s="21"/>
-      <c r="BY103" s="21"/>
-      <c r="BZ103" s="21">
+      <c r="BW103" s="35"/>
+      <c r="BX103" s="35"/>
+      <c r="BY103" s="35"/>
+      <c r="BZ103" s="35">
         <v>2019</v>
       </c>
-      <c r="CA103" s="21"/>
-      <c r="CB103" s="21"/>
-      <c r="CC103" s="21"/>
-      <c r="CD103" s="21">
+      <c r="CA103" s="35"/>
+      <c r="CB103" s="35"/>
+      <c r="CC103" s="35"/>
+      <c r="CD103" s="35">
         <v>2020</v>
       </c>
-      <c r="CE103" s="21"/>
-      <c r="CF103" s="21"/>
-      <c r="CG103" s="21"/>
-      <c r="CH103" s="21">
+      <c r="CE103" s="35"/>
+      <c r="CF103" s="35"/>
+      <c r="CG103" s="35"/>
+      <c r="CH103" s="35">
         <v>2021</v>
       </c>
-      <c r="CI103" s="21"/>
-      <c r="CJ103" s="21"/>
-      <c r="CK103" s="21"/>
-      <c r="CL103" s="21">
+      <c r="CI103" s="35"/>
+      <c r="CJ103" s="35"/>
+      <c r="CK103" s="35"/>
+      <c r="CL103" s="34">
         <v>2022</v>
       </c>
-      <c r="CM103" s="21"/>
-      <c r="CN103" s="21"/>
-      <c r="CO103" s="21"/>
-      <c r="CP103" s="21">
+      <c r="CM103" s="34"/>
+      <c r="CN103" s="34"/>
+      <c r="CO103" s="34"/>
+      <c r="CP103" s="34">
         <v>2023</v>
       </c>
-      <c r="CQ103" s="23"/>
+      <c r="CQ103" s="34"/>
+      <c r="CR103" s="34"/>
     </row>
     <row r="104" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
@@ -38951,23 +39134,26 @@
       <c r="CK104" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL104" s="7" t="s">
+      <c r="CL104" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CM104" s="7" t="s">
+      <c r="CM104" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CN104" s="7" t="s">
+      <c r="CN104" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="CO104" s="7" t="s">
+      <c r="CO104" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="CP104" s="7" t="s">
+      <c r="CP104" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CQ104" s="7" t="s">
+      <c r="CQ104" s="24" t="s">
         <v>8</v>
+      </c>
+      <c r="CR104" s="24" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -39060,12 +39246,13 @@
       <c r="CI105" s="1"/>
       <c r="CJ105" s="1"/>
       <c r="CK105" s="1"/>
-      <c r="CL105" s="1"/>
-      <c r="CM105" s="1"/>
-      <c r="CN105" s="1"/>
-      <c r="CO105" s="1"/>
-      <c r="CP105" s="1"/>
-      <c r="CQ105" s="1"/>
+      <c r="CL105" s="23"/>
+      <c r="CM105" s="23"/>
+      <c r="CN105" s="23"/>
+      <c r="CO105" s="23"/>
+      <c r="CP105" s="23"/>
+      <c r="CQ105" s="23"/>
+      <c r="CR105" s="23"/>
     </row>
     <row r="106" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
@@ -39335,25 +39522,27 @@
       <c r="CK106" s="18">
         <v>61.395596374991655</v>
       </c>
-      <c r="CL106" s="18">
+      <c r="CL106" s="31">
         <v>52.982032686216471</v>
       </c>
-      <c r="CM106" s="18">
+      <c r="CM106" s="31">
         <v>60.539383060693339</v>
       </c>
-      <c r="CN106" s="18">
+      <c r="CN106" s="31">
         <v>60.190671334513233</v>
       </c>
-      <c r="CO106" s="18">
+      <c r="CO106" s="31">
         <v>62.365701195873427</v>
       </c>
-      <c r="CP106" s="18">
+      <c r="CP106" s="31">
         <v>54.859397017992016</v>
       </c>
-      <c r="CQ106" s="18">
-        <v>59.298376099986584</v>
-      </c>
-      <c r="CR106" s="11"/>
+      <c r="CQ106" s="31">
+        <v>59.915833541558285</v>
+      </c>
+      <c r="CR106" s="31">
+        <v>59.613352689643747</v>
+      </c>
       <c r="CS106" s="11"/>
       <c r="CT106" s="11"/>
       <c r="CU106" s="11"/>
@@ -39682,25 +39871,27 @@
       <c r="CK107" s="18">
         <v>38.604403625008331</v>
       </c>
-      <c r="CL107" s="18">
+      <c r="CL107" s="31">
         <v>47.017967313783522</v>
       </c>
-      <c r="CM107" s="18">
+      <c r="CM107" s="31">
         <v>39.460616939306654</v>
       </c>
-      <c r="CN107" s="18">
+      <c r="CN107" s="31">
         <v>39.809328665486774</v>
       </c>
-      <c r="CO107" s="18">
+      <c r="CO107" s="31">
         <v>37.63429880412658</v>
       </c>
-      <c r="CP107" s="18">
+      <c r="CP107" s="31">
         <v>45.140602982007991</v>
       </c>
-      <c r="CQ107" s="18">
-        <v>40.701623900013423</v>
-      </c>
-      <c r="CR107" s="11"/>
+      <c r="CQ107" s="31">
+        <v>40.084166458441722</v>
+      </c>
+      <c r="CR107" s="31">
+        <v>40.386647310356246</v>
+      </c>
       <c r="CS107" s="11"/>
       <c r="CT107" s="11"/>
       <c r="CU107" s="11"/>
@@ -39850,13 +40041,13 @@
       <c r="CI108" s="17"/>
       <c r="CJ108" s="17"/>
       <c r="CK108" s="17"/>
-      <c r="CL108" s="17"/>
-      <c r="CM108" s="17"/>
-      <c r="CN108" s="17"/>
-      <c r="CO108" s="17"/>
-      <c r="CP108" s="17"/>
-      <c r="CQ108" s="17"/>
-      <c r="CR108" s="11"/>
+      <c r="CL108" s="28"/>
+      <c r="CM108" s="28"/>
+      <c r="CN108" s="28"/>
+      <c r="CO108" s="28"/>
+      <c r="CP108" s="28"/>
+      <c r="CQ108" s="28"/>
+      <c r="CR108" s="28"/>
       <c r="CS108" s="11"/>
       <c r="CT108" s="11"/>
       <c r="CU108" s="11"/>
@@ -40185,25 +40376,27 @@
       <c r="CK109" s="18">
         <v>100</v>
       </c>
-      <c r="CL109" s="18">
+      <c r="CL109" s="31">
         <v>100</v>
       </c>
-      <c r="CM109" s="18">
+      <c r="CM109" s="31">
         <v>100</v>
       </c>
-      <c r="CN109" s="18">
+      <c r="CN109" s="31">
         <v>100</v>
       </c>
-      <c r="CO109" s="18">
+      <c r="CO109" s="31">
         <v>100</v>
       </c>
-      <c r="CP109" s="18">
+      <c r="CP109" s="31">
         <v>100</v>
       </c>
-      <c r="CQ109" s="18">
+      <c r="CQ109" s="31">
         <v>100</v>
       </c>
-      <c r="CR109" s="11"/>
+      <c r="CR109" s="31">
+        <v>100</v>
+      </c>
       <c r="CS109" s="11"/>
       <c r="CT109" s="11"/>
       <c r="CU109" s="11"/>
@@ -40354,12 +40547,13 @@
       <c r="CI110" s="15"/>
       <c r="CJ110" s="15"/>
       <c r="CK110" s="15"/>
-      <c r="CL110" s="15"/>
-      <c r="CM110" s="15"/>
-      <c r="CN110" s="15"/>
-      <c r="CO110" s="15"/>
-      <c r="CP110" s="15"/>
-      <c r="CQ110" s="15"/>
+      <c r="CL110" s="27"/>
+      <c r="CM110" s="27"/>
+      <c r="CN110" s="27"/>
+      <c r="CO110" s="27"/>
+      <c r="CP110" s="27"/>
+      <c r="CQ110" s="27"/>
+      <c r="CR110" s="27"/>
     </row>
     <row r="111" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="16" t="s">
@@ -40453,12 +40647,13 @@
       <c r="CI111" s="1"/>
       <c r="CJ111" s="1"/>
       <c r="CK111" s="1"/>
-      <c r="CL111" s="1"/>
-      <c r="CM111" s="1"/>
-      <c r="CN111" s="1"/>
-      <c r="CO111" s="1"/>
-      <c r="CP111" s="1"/>
-      <c r="CQ111" s="1"/>
+      <c r="CL111" s="23"/>
+      <c r="CM111" s="23"/>
+      <c r="CN111" s="23"/>
+      <c r="CO111" s="23"/>
+      <c r="CP111" s="23"/>
+      <c r="CQ111" s="23"/>
+      <c r="CR111" s="23"/>
     </row>
     <row r="112" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="17"/>
@@ -40549,13 +40744,13 @@
       <c r="CI112" s="17"/>
       <c r="CJ112" s="17"/>
       <c r="CK112" s="17"/>
-      <c r="CL112" s="17"/>
-      <c r="CM112" s="17"/>
-      <c r="CN112" s="17"/>
-      <c r="CO112" s="17"/>
-      <c r="CP112" s="17"/>
-      <c r="CQ112" s="17"/>
-      <c r="CR112" s="11"/>
+      <c r="CL112" s="28"/>
+      <c r="CM112" s="28"/>
+      <c r="CN112" s="28"/>
+      <c r="CO112" s="28"/>
+      <c r="CP112" s="28"/>
+      <c r="CQ112" s="28"/>
+      <c r="CR112" s="28"/>
       <c r="CS112" s="11"/>
       <c r="CT112" s="11"/>
       <c r="CU112" s="11"/>
@@ -40705,13 +40900,13 @@
       <c r="CI113" s="17"/>
       <c r="CJ113" s="17"/>
       <c r="CK113" s="17"/>
-      <c r="CL113" s="17"/>
-      <c r="CM113" s="17"/>
-      <c r="CN113" s="17"/>
-      <c r="CO113" s="17"/>
-      <c r="CP113" s="17"/>
-      <c r="CQ113" s="17"/>
-      <c r="CR113" s="11"/>
+      <c r="CL113" s="28"/>
+      <c r="CM113" s="28"/>
+      <c r="CN113" s="28"/>
+      <c r="CO113" s="28"/>
+      <c r="CP113" s="28"/>
+      <c r="CQ113" s="28"/>
+      <c r="CR113" s="28"/>
       <c r="CS113" s="11"/>
       <c r="CT113" s="11"/>
       <c r="CU113" s="11"/>
@@ -40864,12 +41059,13 @@
       <c r="CI114" s="1"/>
       <c r="CJ114" s="1"/>
       <c r="CK114" s="1"/>
-      <c r="CL114" s="1"/>
-      <c r="CM114" s="1"/>
-      <c r="CN114" s="1"/>
-      <c r="CO114" s="1"/>
-      <c r="CP114" s="1"/>
-      <c r="CQ114" s="1"/>
+      <c r="CL114" s="23"/>
+      <c r="CM114" s="23"/>
+      <c r="CN114" s="23"/>
+      <c r="CO114" s="23"/>
+      <c r="CP114" s="23"/>
+      <c r="CQ114" s="23"/>
+      <c r="CR114" s="23"/>
     </row>
     <row r="115" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
@@ -40963,12 +41159,13 @@
       <c r="CI115" s="1"/>
       <c r="CJ115" s="1"/>
       <c r="CK115" s="1"/>
-      <c r="CL115" s="1"/>
-      <c r="CM115" s="1"/>
-      <c r="CN115" s="1"/>
-      <c r="CO115" s="1"/>
-      <c r="CP115" s="1"/>
-      <c r="CQ115" s="1"/>
+      <c r="CL115" s="23"/>
+      <c r="CM115" s="23"/>
+      <c r="CN115" s="23"/>
+      <c r="CO115" s="23"/>
+      <c r="CP115" s="23"/>
+      <c r="CQ115" s="23"/>
+      <c r="CR115" s="23"/>
     </row>
     <row r="116" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
@@ -41062,12 +41259,13 @@
       <c r="CI116" s="1"/>
       <c r="CJ116" s="1"/>
       <c r="CK116" s="1"/>
-      <c r="CL116" s="1"/>
-      <c r="CM116" s="1"/>
-      <c r="CN116" s="1"/>
-      <c r="CO116" s="1"/>
-      <c r="CP116" s="1"/>
-      <c r="CQ116" s="1"/>
+      <c r="CL116" s="23"/>
+      <c r="CM116" s="23"/>
+      <c r="CN116" s="23"/>
+      <c r="CO116" s="23"/>
+      <c r="CP116" s="23"/>
+      <c r="CQ116" s="23"/>
+      <c r="CR116" s="23"/>
     </row>
     <row r="117" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
@@ -41159,12 +41357,13 @@
       <c r="CI117" s="1"/>
       <c r="CJ117" s="1"/>
       <c r="CK117" s="1"/>
-      <c r="CL117" s="1"/>
-      <c r="CM117" s="1"/>
-      <c r="CN117" s="1"/>
-      <c r="CO117" s="1"/>
-      <c r="CP117" s="1"/>
-      <c r="CQ117" s="1"/>
+      <c r="CL117" s="23"/>
+      <c r="CM117" s="23"/>
+      <c r="CN117" s="23"/>
+      <c r="CO117" s="23"/>
+      <c r="CP117" s="23"/>
+      <c r="CQ117" s="23"/>
+      <c r="CR117" s="23"/>
     </row>
     <row r="118" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
@@ -41258,12 +41457,13 @@
       <c r="CI118" s="1"/>
       <c r="CJ118" s="1"/>
       <c r="CK118" s="1"/>
-      <c r="CL118" s="1"/>
-      <c r="CM118" s="1"/>
-      <c r="CN118" s="1"/>
-      <c r="CO118" s="1"/>
-      <c r="CP118" s="1"/>
-      <c r="CQ118" s="1"/>
+      <c r="CL118" s="23"/>
+      <c r="CM118" s="23"/>
+      <c r="CN118" s="23"/>
+      <c r="CO118" s="23"/>
+      <c r="CP118" s="23"/>
+      <c r="CQ118" s="23"/>
+      <c r="CR118" s="23"/>
     </row>
     <row r="119" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
@@ -41357,12 +41557,13 @@
       <c r="CI119" s="1"/>
       <c r="CJ119" s="1"/>
       <c r="CK119" s="1"/>
-      <c r="CL119" s="1"/>
-      <c r="CM119" s="1"/>
-      <c r="CN119" s="1"/>
-      <c r="CO119" s="1"/>
-      <c r="CP119" s="1"/>
-      <c r="CQ119" s="1"/>
+      <c r="CL119" s="23"/>
+      <c r="CM119" s="23"/>
+      <c r="CN119" s="23"/>
+      <c r="CO119" s="23"/>
+      <c r="CP119" s="23"/>
+      <c r="CQ119" s="23"/>
+      <c r="CR119" s="23"/>
     </row>
     <row r="120" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
@@ -41456,12 +41657,13 @@
       <c r="CI120" s="1"/>
       <c r="CJ120" s="1"/>
       <c r="CK120" s="1"/>
-      <c r="CL120" s="1"/>
-      <c r="CM120" s="1"/>
-      <c r="CN120" s="1"/>
-      <c r="CO120" s="1"/>
-      <c r="CP120" s="1"/>
-      <c r="CQ120" s="1"/>
+      <c r="CL120" s="23"/>
+      <c r="CM120" s="23"/>
+      <c r="CN120" s="23"/>
+      <c r="CO120" s="23"/>
+      <c r="CP120" s="23"/>
+      <c r="CQ120" s="23"/>
+      <c r="CR120" s="23"/>
     </row>
     <row r="121" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
@@ -41553,157 +41755,159 @@
       <c r="CI121" s="1"/>
       <c r="CJ121" s="1"/>
       <c r="CK121" s="1"/>
-      <c r="CL121" s="1"/>
-      <c r="CM121" s="1"/>
-      <c r="CN121" s="1"/>
-      <c r="CO121" s="1"/>
-      <c r="CP121" s="1"/>
-      <c r="CQ121" s="1"/>
+      <c r="CL121" s="23"/>
+      <c r="CM121" s="23"/>
+      <c r="CN121" s="23"/>
+      <c r="CO121" s="23"/>
+      <c r="CP121" s="23"/>
+      <c r="CQ121" s="23"/>
+      <c r="CR121" s="23"/>
     </row>
     <row r="122" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
-      <c r="B122" s="21">
+      <c r="B122" s="35">
         <v>2000</v>
       </c>
-      <c r="C122" s="22"/>
-      <c r="D122" s="22"/>
-      <c r="E122" s="22"/>
-      <c r="F122" s="21">
+      <c r="C122" s="36"/>
+      <c r="D122" s="36"/>
+      <c r="E122" s="36"/>
+      <c r="F122" s="35">
         <v>2001</v>
       </c>
-      <c r="G122" s="22"/>
-      <c r="H122" s="22"/>
-      <c r="I122" s="22"/>
-      <c r="J122" s="21">
+      <c r="G122" s="36"/>
+      <c r="H122" s="36"/>
+      <c r="I122" s="36"/>
+      <c r="J122" s="35">
         <v>2002</v>
       </c>
-      <c r="K122" s="22"/>
-      <c r="L122" s="22"/>
-      <c r="M122" s="22"/>
-      <c r="N122" s="21">
+      <c r="K122" s="36"/>
+      <c r="L122" s="36"/>
+      <c r="M122" s="36"/>
+      <c r="N122" s="35">
         <v>2003</v>
       </c>
-      <c r="O122" s="22"/>
-      <c r="P122" s="22"/>
-      <c r="Q122" s="22"/>
-      <c r="R122" s="21">
+      <c r="O122" s="36"/>
+      <c r="P122" s="36"/>
+      <c r="Q122" s="36"/>
+      <c r="R122" s="35">
         <v>2004</v>
       </c>
-      <c r="S122" s="22"/>
-      <c r="T122" s="22"/>
-      <c r="U122" s="22"/>
-      <c r="V122" s="21">
+      <c r="S122" s="36"/>
+      <c r="T122" s="36"/>
+      <c r="U122" s="36"/>
+      <c r="V122" s="35">
         <v>2005</v>
       </c>
-      <c r="W122" s="22"/>
-      <c r="X122" s="22"/>
-      <c r="Y122" s="22"/>
-      <c r="Z122" s="21">
+      <c r="W122" s="36"/>
+      <c r="X122" s="36"/>
+      <c r="Y122" s="36"/>
+      <c r="Z122" s="35">
         <v>2006</v>
       </c>
-      <c r="AA122" s="22"/>
-      <c r="AB122" s="22"/>
-      <c r="AC122" s="22"/>
-      <c r="AD122" s="21">
+      <c r="AA122" s="36"/>
+      <c r="AB122" s="36"/>
+      <c r="AC122" s="36"/>
+      <c r="AD122" s="35">
         <v>2007</v>
       </c>
-      <c r="AE122" s="22"/>
-      <c r="AF122" s="22"/>
-      <c r="AG122" s="22"/>
-      <c r="AH122" s="21">
+      <c r="AE122" s="36"/>
+      <c r="AF122" s="36"/>
+      <c r="AG122" s="36"/>
+      <c r="AH122" s="35">
         <v>2008</v>
       </c>
-      <c r="AI122" s="22"/>
-      <c r="AJ122" s="22"/>
-      <c r="AK122" s="22"/>
-      <c r="AL122" s="21">
+      <c r="AI122" s="36"/>
+      <c r="AJ122" s="36"/>
+      <c r="AK122" s="36"/>
+      <c r="AL122" s="35">
         <v>2009</v>
       </c>
-      <c r="AM122" s="22"/>
-      <c r="AN122" s="22"/>
-      <c r="AO122" s="22"/>
-      <c r="AP122" s="21">
+      <c r="AM122" s="36"/>
+      <c r="AN122" s="36"/>
+      <c r="AO122" s="36"/>
+      <c r="AP122" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="22"/>
-      <c r="AR122" s="22"/>
-      <c r="AS122" s="22"/>
-      <c r="AT122" s="21">
+      <c r="AQ122" s="36"/>
+      <c r="AR122" s="36"/>
+      <c r="AS122" s="36"/>
+      <c r="AT122" s="35">
         <v>2011</v>
       </c>
-      <c r="AU122" s="22"/>
-      <c r="AV122" s="22"/>
-      <c r="AW122" s="22"/>
-      <c r="AX122" s="21">
+      <c r="AU122" s="36"/>
+      <c r="AV122" s="36"/>
+      <c r="AW122" s="36"/>
+      <c r="AX122" s="35">
         <v>2012</v>
       </c>
-      <c r="AY122" s="22"/>
-      <c r="AZ122" s="22"/>
-      <c r="BA122" s="22"/>
-      <c r="BB122" s="21">
+      <c r="AY122" s="36"/>
+      <c r="AZ122" s="36"/>
+      <c r="BA122" s="36"/>
+      <c r="BB122" s="35">
         <v>2013</v>
       </c>
-      <c r="BC122" s="22"/>
-      <c r="BD122" s="22"/>
-      <c r="BE122" s="22"/>
-      <c r="BF122" s="21">
+      <c r="BC122" s="36"/>
+      <c r="BD122" s="36"/>
+      <c r="BE122" s="36"/>
+      <c r="BF122" s="35">
         <v>2014</v>
       </c>
-      <c r="BG122" s="22"/>
-      <c r="BH122" s="22"/>
-      <c r="BI122" s="22"/>
-      <c r="BJ122" s="21">
+      <c r="BG122" s="36"/>
+      <c r="BH122" s="36"/>
+      <c r="BI122" s="36"/>
+      <c r="BJ122" s="35">
         <v>2015</v>
       </c>
-      <c r="BK122" s="22"/>
-      <c r="BL122" s="22"/>
-      <c r="BM122" s="22"/>
-      <c r="BN122" s="21">
+      <c r="BK122" s="36"/>
+      <c r="BL122" s="36"/>
+      <c r="BM122" s="36"/>
+      <c r="BN122" s="35">
         <v>2016</v>
       </c>
-      <c r="BO122" s="22"/>
-      <c r="BP122" s="22"/>
-      <c r="BQ122" s="22"/>
-      <c r="BR122" s="21">
+      <c r="BO122" s="36"/>
+      <c r="BP122" s="36"/>
+      <c r="BQ122" s="36"/>
+      <c r="BR122" s="35">
         <v>2017</v>
       </c>
-      <c r="BS122" s="22"/>
-      <c r="BT122" s="22"/>
-      <c r="BU122" s="22"/>
-      <c r="BV122" s="21">
+      <c r="BS122" s="36"/>
+      <c r="BT122" s="36"/>
+      <c r="BU122" s="36"/>
+      <c r="BV122" s="35">
         <v>2018</v>
       </c>
-      <c r="BW122" s="21"/>
-      <c r="BX122" s="21"/>
-      <c r="BY122" s="21"/>
-      <c r="BZ122" s="21">
+      <c r="BW122" s="35"/>
+      <c r="BX122" s="35"/>
+      <c r="BY122" s="35"/>
+      <c r="BZ122" s="35">
         <v>2019</v>
       </c>
-      <c r="CA122" s="21"/>
-      <c r="CB122" s="21"/>
-      <c r="CC122" s="21"/>
-      <c r="CD122" s="21">
+      <c r="CA122" s="35"/>
+      <c r="CB122" s="35"/>
+      <c r="CC122" s="35"/>
+      <c r="CD122" s="35">
         <v>2020</v>
       </c>
-      <c r="CE122" s="21"/>
-      <c r="CF122" s="21"/>
-      <c r="CG122" s="21"/>
-      <c r="CH122" s="21">
+      <c r="CE122" s="35"/>
+      <c r="CF122" s="35"/>
+      <c r="CG122" s="35"/>
+      <c r="CH122" s="35">
         <v>2021</v>
       </c>
-      <c r="CI122" s="21"/>
-      <c r="CJ122" s="21"/>
-      <c r="CK122" s="21"/>
-      <c r="CL122" s="21">
+      <c r="CI122" s="35"/>
+      <c r="CJ122" s="35"/>
+      <c r="CK122" s="35"/>
+      <c r="CL122" s="34">
         <v>2022</v>
       </c>
-      <c r="CM122" s="21"/>
-      <c r="CN122" s="21"/>
-      <c r="CO122" s="21"/>
-      <c r="CP122" s="21">
+      <c r="CM122" s="34"/>
+      <c r="CN122" s="34"/>
+      <c r="CO122" s="34"/>
+      <c r="CP122" s="34">
         <v>2023</v>
       </c>
-      <c r="CQ122" s="23"/>
+      <c r="CQ122" s="34"/>
+      <c r="CR122" s="34"/>
     </row>
     <row r="123" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
@@ -41973,23 +42177,26 @@
       <c r="CK123" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL123" s="7" t="s">
+      <c r="CL123" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CM123" s="7" t="s">
+      <c r="CM123" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CN123" s="7" t="s">
+      <c r="CN123" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="CO123" s="7" t="s">
+      <c r="CO123" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="CP123" s="7" t="s">
+      <c r="CP123" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CQ123" s="7" t="s">
+      <c r="CQ123" s="24" t="s">
         <v>8</v>
+      </c>
+      <c r="CR123" s="24" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -42082,12 +42289,13 @@
       <c r="CI124" s="1"/>
       <c r="CJ124" s="1"/>
       <c r="CK124" s="1"/>
-      <c r="CL124" s="1"/>
-      <c r="CM124" s="1"/>
-      <c r="CN124" s="1"/>
-      <c r="CO124" s="1"/>
-      <c r="CP124" s="1"/>
-      <c r="CQ124" s="1"/>
+      <c r="CL124" s="23"/>
+      <c r="CM124" s="23"/>
+      <c r="CN124" s="23"/>
+      <c r="CO124" s="23"/>
+      <c r="CP124" s="23"/>
+      <c r="CQ124" s="23"/>
+      <c r="CR124" s="23"/>
     </row>
     <row r="125" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
@@ -42357,25 +42565,27 @@
       <c r="CK125" s="18">
         <v>62.570359456091083</v>
       </c>
-      <c r="CL125" s="18">
+      <c r="CL125" s="31">
         <v>55.027524147588011</v>
       </c>
-      <c r="CM125" s="18">
+      <c r="CM125" s="31">
         <v>61.882876479833435</v>
       </c>
-      <c r="CN125" s="18">
+      <c r="CN125" s="31">
         <v>61.302065570365215</v>
       </c>
-      <c r="CO125" s="18">
+      <c r="CO125" s="31">
         <v>63.523145770793242</v>
       </c>
-      <c r="CP125" s="18">
+      <c r="CP125" s="31">
         <v>57.244245368504856</v>
       </c>
-      <c r="CQ125" s="18">
-        <v>60.944242929677863</v>
-      </c>
-      <c r="CR125" s="11"/>
+      <c r="CQ125" s="31">
+        <v>61.552920659575875</v>
+      </c>
+      <c r="CR125" s="31">
+        <v>60.857498279044933</v>
+      </c>
       <c r="CS125" s="11"/>
       <c r="CT125" s="11"/>
       <c r="CU125" s="11"/>
@@ -42704,25 +42914,27 @@
       <c r="CK126" s="18">
         <v>37.429640543908924</v>
       </c>
-      <c r="CL126" s="18">
+      <c r="CL126" s="31">
         <v>44.972475852411989</v>
       </c>
-      <c r="CM126" s="18">
+      <c r="CM126" s="31">
         <v>38.117123520166565</v>
       </c>
-      <c r="CN126" s="18">
+      <c r="CN126" s="31">
         <v>38.697934429634778</v>
       </c>
-      <c r="CO126" s="18">
+      <c r="CO126" s="31">
         <v>36.476854229206751</v>
       </c>
-      <c r="CP126" s="18">
+      <c r="CP126" s="31">
         <v>42.755754631495158</v>
       </c>
-      <c r="CQ126" s="18">
-        <v>39.055757070322144</v>
-      </c>
-      <c r="CR126" s="11"/>
+      <c r="CQ126" s="31">
+        <v>38.447079340424139</v>
+      </c>
+      <c r="CR126" s="31">
+        <v>39.142501720955067</v>
+      </c>
       <c r="CS126" s="11"/>
       <c r="CT126" s="11"/>
       <c r="CU126" s="11"/>
@@ -42872,13 +43084,13 @@
       <c r="CI127" s="17"/>
       <c r="CJ127" s="17"/>
       <c r="CK127" s="17"/>
-      <c r="CL127" s="17"/>
-      <c r="CM127" s="17"/>
-      <c r="CN127" s="17"/>
-      <c r="CO127" s="17"/>
-      <c r="CP127" s="17"/>
-      <c r="CQ127" s="17"/>
-      <c r="CR127" s="11"/>
+      <c r="CL127" s="28"/>
+      <c r="CM127" s="28"/>
+      <c r="CN127" s="28"/>
+      <c r="CO127" s="28"/>
+      <c r="CP127" s="28"/>
+      <c r="CQ127" s="28"/>
+      <c r="CR127" s="28"/>
       <c r="CS127" s="11"/>
       <c r="CT127" s="11"/>
       <c r="CU127" s="11"/>
@@ -43207,25 +43419,27 @@
       <c r="CK128" s="18">
         <v>100</v>
       </c>
-      <c r="CL128" s="18">
+      <c r="CL128" s="31">
         <v>100</v>
       </c>
-      <c r="CM128" s="18">
+      <c r="CM128" s="31">
         <v>100</v>
       </c>
-      <c r="CN128" s="18">
+      <c r="CN128" s="31">
         <v>100</v>
       </c>
-      <c r="CO128" s="18">
+      <c r="CO128" s="31">
         <v>100</v>
       </c>
-      <c r="CP128" s="18">
+      <c r="CP128" s="31">
         <v>100</v>
       </c>
-      <c r="CQ128" s="18">
+      <c r="CQ128" s="31">
         <v>100</v>
       </c>
-      <c r="CR128" s="11"/>
+      <c r="CR128" s="31">
+        <v>100</v>
+      </c>
       <c r="CS128" s="11"/>
       <c r="CT128" s="11"/>
       <c r="CU128" s="11"/>
@@ -43286,7 +43500,7 @@
       <c r="EX128" s="11"/>
       <c r="EY128" s="11"/>
     </row>
-    <row r="129" spans="1:95" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:96" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="15"/>
       <c r="B129" s="15"/>
       <c r="C129" s="15"/>
@@ -43376,14 +43590,15 @@
       <c r="CI129" s="15"/>
       <c r="CJ129" s="15"/>
       <c r="CK129" s="15"/>
-      <c r="CL129" s="15"/>
-      <c r="CM129" s="15"/>
-      <c r="CN129" s="15"/>
-      <c r="CO129" s="15"/>
-      <c r="CP129" s="15"/>
-      <c r="CQ129" s="15"/>
+      <c r="CL129" s="27"/>
+      <c r="CM129" s="27"/>
+      <c r="CN129" s="27"/>
+      <c r="CO129" s="27"/>
+      <c r="CP129" s="27"/>
+      <c r="CQ129" s="27"/>
+      <c r="CR129" s="27"/>
     </row>
-    <row r="130" spans="1:95" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="16" t="s">
         <v>0</v>
       </c>
@@ -43475,25 +43690,17 @@
       <c r="CI130" s="1"/>
       <c r="CJ130" s="1"/>
       <c r="CK130" s="1"/>
-      <c r="CL130" s="1"/>
-      <c r="CM130" s="1"/>
-      <c r="CN130" s="1"/>
-      <c r="CO130" s="1"/>
-      <c r="CP130" s="1"/>
-      <c r="CQ130" s="1"/>
+      <c r="CL130" s="23"/>
+      <c r="CM130" s="23"/>
+      <c r="CN130" s="23"/>
+      <c r="CO130" s="23"/>
+      <c r="CP130" s="23"/>
+      <c r="CQ130" s="23"/>
+      <c r="CR130" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="168">
+  <mergeCells count="166">
     <mergeCell ref="B47:E47"/>
-    <mergeCell ref="CP9:CQ9"/>
-    <mergeCell ref="CP28:CQ28"/>
-    <mergeCell ref="CP84:CQ84"/>
-    <mergeCell ref="CP103:CQ103"/>
-    <mergeCell ref="CP122:CQ122"/>
-    <mergeCell ref="CL47:CO47"/>
-    <mergeCell ref="CP47:CQ47"/>
-    <mergeCell ref="CL66:CO66"/>
-    <mergeCell ref="CP66:CQ66"/>
     <mergeCell ref="CH66:CK66"/>
     <mergeCell ref="CL84:CO84"/>
     <mergeCell ref="B84:E84"/>
@@ -43628,8 +43835,15 @@
     <mergeCell ref="BN47:BQ47"/>
     <mergeCell ref="BF47:BI47"/>
     <mergeCell ref="BR47:BU47"/>
-    <mergeCell ref="CL103:CO103"/>
-    <mergeCell ref="CL122:CO122"/>
+    <mergeCell ref="CH84:CK84"/>
+    <mergeCell ref="CH103:CK103"/>
+    <mergeCell ref="CH122:CK122"/>
+    <mergeCell ref="BZ28:CC28"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH28:CK28"/>
+    <mergeCell ref="CL9:CO9"/>
+    <mergeCell ref="CL28:CO28"/>
+    <mergeCell ref="CH47:CK47"/>
     <mergeCell ref="BZ47:CC47"/>
     <mergeCell ref="BZ66:CC66"/>
     <mergeCell ref="CD9:CG9"/>
@@ -43643,24 +43857,24 @@
     <mergeCell ref="BZ122:CC122"/>
     <mergeCell ref="CD47:CG47"/>
     <mergeCell ref="CD66:CG66"/>
-    <mergeCell ref="CH84:CK84"/>
-    <mergeCell ref="CH103:CK103"/>
-    <mergeCell ref="CH122:CK122"/>
-    <mergeCell ref="BZ28:CC28"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH28:CK28"/>
-    <mergeCell ref="CL9:CO9"/>
-    <mergeCell ref="CL28:CO28"/>
-    <mergeCell ref="CH47:CK47"/>
+    <mergeCell ref="CP9:CR9"/>
+    <mergeCell ref="CP28:CR28"/>
+    <mergeCell ref="CL47:CN47"/>
+    <mergeCell ref="CL66:CN66"/>
+    <mergeCell ref="CP84:CR84"/>
+    <mergeCell ref="CP103:CR103"/>
+    <mergeCell ref="CP122:CR122"/>
+    <mergeCell ref="CL103:CO103"/>
+    <mergeCell ref="CL122:CO122"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="94" man="1"/>
-    <brk id="76" max="94" man="1"/>
-    <brk id="94" max="94" man="1"/>
+    <brk id="38" max="95" man="1"/>
+    <brk id="76" max="95" man="1"/>
+    <brk id="94" max="95" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-21OS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-21OS_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3641B576-5CB9-4230-9FA4-DC8508A095A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD3BBBF-D359-4C72-90AF-E30FBD1272CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OS" sheetId="15" r:id="rId1"/>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">OS!$A$1:$CR$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">OS!$A$1:$CS$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="52">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -618,13 +618,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of November 2023</t>
+    <t>Q1 2000 to Q4 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2023</t>
+    <t>Q1 2001 to Q4 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2023</t>
+    <t>As of January 2024</t>
   </si>
 </sst>
 </file>
@@ -729,7 +729,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -759,32 +759,21 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -23347,9 +23336,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -23387,7 +23376,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -23493,7 +23482,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -23635,7 +23624,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23651,98 +23640,48 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BZ1" activePane="topRight" state="frozen"/>
       <selection activeCell="CE141" sqref="CA141:CE149"/>
-      <selection pane="topRight" activeCell="CS6" sqref="CS6"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.88671875" style="1" customWidth="1"/>
-    <col min="2" max="89" width="9" style="12" customWidth="1"/>
-    <col min="90" max="96" width="9" style="33" customWidth="1"/>
-    <col min="97" max="16384" width="7.77734375" style="12"/>
+    <col min="2" max="97" width="9" style="12" customWidth="1"/>
+    <col min="98" max="16384" width="7.77734375" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CL1" s="22"/>
-      <c r="CM1" s="22"/>
-      <c r="CN1" s="22"/>
-      <c r="CO1" s="22"/>
-      <c r="CP1" s="22"/>
-      <c r="CQ1" s="22"/>
-      <c r="CR1" s="22"/>
     </row>
     <row r="2" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="CL2" s="22"/>
-      <c r="CM2" s="22"/>
-      <c r="CN2" s="22"/>
-      <c r="CO2" s="22"/>
-      <c r="CP2" s="22"/>
-      <c r="CQ2" s="22"/>
-      <c r="CR2" s="22"/>
     </row>
     <row r="3" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="CL3" s="22"/>
-      <c r="CM3" s="22"/>
-      <c r="CN3" s="22"/>
-      <c r="CO3" s="22"/>
-      <c r="CP3" s="22"/>
-      <c r="CQ3" s="22"/>
-      <c r="CR3" s="22"/>
+        <v>51</v>
+      </c>
     </row>
     <row r="4" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="CL4" s="22"/>
-      <c r="CM4" s="22"/>
-      <c r="CN4" s="22"/>
-      <c r="CO4" s="22"/>
-      <c r="CP4" s="22"/>
-      <c r="CQ4" s="22"/>
-      <c r="CR4" s="22"/>
     </row>
     <row r="5" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="CL5" s="22"/>
-      <c r="CM5" s="22"/>
-      <c r="CN5" s="22"/>
-      <c r="CO5" s="22"/>
-      <c r="CP5" s="22"/>
-      <c r="CQ5" s="22"/>
-      <c r="CR5" s="22"/>
     </row>
     <row r="6" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="CL6" s="22"/>
-      <c r="CM6" s="22"/>
-      <c r="CN6" s="22"/>
-      <c r="CO6" s="22"/>
-      <c r="CP6" s="22"/>
-      <c r="CQ6" s="22"/>
-      <c r="CR6" s="22"/>
+        <v>49</v>
+      </c>
     </row>
     <row r="7" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="CL7" s="22"/>
-      <c r="CM7" s="22"/>
-      <c r="CN7" s="22"/>
-      <c r="CO7" s="22"/>
-      <c r="CP7" s="22"/>
-      <c r="CQ7" s="22"/>
-      <c r="CR7" s="22"/>
     </row>
     <row r="8" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
@@ -23834,159 +23773,161 @@
       <c r="CI8" s="1"/>
       <c r="CJ8" s="1"/>
       <c r="CK8" s="1"/>
-      <c r="CL8" s="23"/>
-      <c r="CM8" s="23"/>
-      <c r="CN8" s="23"/>
-      <c r="CO8" s="23"/>
-      <c r="CP8" s="23"/>
-      <c r="CQ8" s="23"/>
-      <c r="CR8" s="23"/>
+      <c r="CL8" s="1"/>
+      <c r="CM8" s="1"/>
+      <c r="CN8" s="1"/>
+      <c r="CO8" s="1"/>
+      <c r="CP8" s="1"/>
+      <c r="CQ8" s="1"/>
+      <c r="CR8" s="1"/>
+      <c r="CS8" s="1"/>
     </row>
     <row r="9" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="35">
+      <c r="B9" s="25">
         <v>2000</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35">
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25">
         <v>2001</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35">
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25">
         <v>2002</v>
       </c>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35">
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25">
         <v>2003</v>
       </c>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35">
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25">
         <v>2004</v>
       </c>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35">
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25">
         <v>2005</v>
       </c>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35">
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25">
         <v>2006</v>
       </c>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="35">
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="25">
         <v>2007</v>
       </c>
-      <c r="AE9" s="35"/>
-      <c r="AF9" s="35"/>
-      <c r="AG9" s="35"/>
-      <c r="AH9" s="35">
+      <c r="AE9" s="25"/>
+      <c r="AF9" s="25"/>
+      <c r="AG9" s="25"/>
+      <c r="AH9" s="25">
         <v>2008</v>
       </c>
-      <c r="AI9" s="35"/>
-      <c r="AJ9" s="35"/>
-      <c r="AK9" s="35"/>
-      <c r="AL9" s="35">
+      <c r="AI9" s="25"/>
+      <c r="AJ9" s="25"/>
+      <c r="AK9" s="25"/>
+      <c r="AL9" s="25">
         <v>2009</v>
       </c>
-      <c r="AM9" s="35"/>
-      <c r="AN9" s="35"/>
-      <c r="AO9" s="35"/>
-      <c r="AP9" s="35">
+      <c r="AM9" s="25"/>
+      <c r="AN9" s="25"/>
+      <c r="AO9" s="25"/>
+      <c r="AP9" s="25">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="35"/>
-      <c r="AR9" s="35"/>
-      <c r="AS9" s="35"/>
-      <c r="AT9" s="35">
+      <c r="AQ9" s="25"/>
+      <c r="AR9" s="25"/>
+      <c r="AS9" s="25"/>
+      <c r="AT9" s="25">
         <v>2011</v>
       </c>
-      <c r="AU9" s="35"/>
-      <c r="AV9" s="35"/>
-      <c r="AW9" s="35"/>
-      <c r="AX9" s="35">
+      <c r="AU9" s="25"/>
+      <c r="AV9" s="25"/>
+      <c r="AW9" s="25"/>
+      <c r="AX9" s="25">
         <v>2012</v>
       </c>
-      <c r="AY9" s="35"/>
-      <c r="AZ9" s="35"/>
-      <c r="BA9" s="35"/>
-      <c r="BB9" s="35">
+      <c r="AY9" s="25"/>
+      <c r="AZ9" s="25"/>
+      <c r="BA9" s="25"/>
+      <c r="BB9" s="25">
         <v>2013</v>
       </c>
-      <c r="BC9" s="35"/>
-      <c r="BD9" s="35"/>
-      <c r="BE9" s="35"/>
-      <c r="BF9" s="35">
+      <c r="BC9" s="25"/>
+      <c r="BD9" s="25"/>
+      <c r="BE9" s="25"/>
+      <c r="BF9" s="25">
         <v>2014</v>
       </c>
-      <c r="BG9" s="35"/>
-      <c r="BH9" s="35"/>
-      <c r="BI9" s="35"/>
-      <c r="BJ9" s="35">
+      <c r="BG9" s="25"/>
+      <c r="BH9" s="25"/>
+      <c r="BI9" s="25"/>
+      <c r="BJ9" s="25">
         <v>2015</v>
       </c>
-      <c r="BK9" s="35"/>
-      <c r="BL9" s="35"/>
-      <c r="BM9" s="35"/>
-      <c r="BN9" s="35">
+      <c r="BK9" s="25"/>
+      <c r="BL9" s="25"/>
+      <c r="BM9" s="25"/>
+      <c r="BN9" s="25">
         <v>2016</v>
       </c>
-      <c r="BO9" s="35"/>
-      <c r="BP9" s="35"/>
-      <c r="BQ9" s="35"/>
-      <c r="BR9" s="35">
+      <c r="BO9" s="25"/>
+      <c r="BP9" s="25"/>
+      <c r="BQ9" s="25"/>
+      <c r="BR9" s="25">
         <v>2017</v>
       </c>
-      <c r="BS9" s="35"/>
-      <c r="BT9" s="35"/>
-      <c r="BU9" s="35"/>
-      <c r="BV9" s="35">
+      <c r="BS9" s="25"/>
+      <c r="BT9" s="25"/>
+      <c r="BU9" s="25"/>
+      <c r="BV9" s="25">
         <v>2018</v>
       </c>
-      <c r="BW9" s="35"/>
-      <c r="BX9" s="35"/>
-      <c r="BY9" s="35"/>
-      <c r="BZ9" s="35">
+      <c r="BW9" s="25"/>
+      <c r="BX9" s="25"/>
+      <c r="BY9" s="25"/>
+      <c r="BZ9" s="25">
         <v>2019</v>
       </c>
-      <c r="CA9" s="35"/>
-      <c r="CB9" s="35"/>
-      <c r="CC9" s="35"/>
-      <c r="CD9" s="35">
+      <c r="CA9" s="25"/>
+      <c r="CB9" s="25"/>
+      <c r="CC9" s="25"/>
+      <c r="CD9" s="25">
         <v>2020</v>
       </c>
-      <c r="CE9" s="35"/>
-      <c r="CF9" s="35"/>
-      <c r="CG9" s="35"/>
-      <c r="CH9" s="35">
+      <c r="CE9" s="25"/>
+      <c r="CF9" s="25"/>
+      <c r="CG9" s="25"/>
+      <c r="CH9" s="25">
         <v>2021</v>
       </c>
-      <c r="CI9" s="35"/>
-      <c r="CJ9" s="35"/>
-      <c r="CK9" s="35"/>
-      <c r="CL9" s="34">
+      <c r="CI9" s="25"/>
+      <c r="CJ9" s="25"/>
+      <c r="CK9" s="25"/>
+      <c r="CL9" s="24">
         <v>2022</v>
       </c>
-      <c r="CM9" s="34"/>
-      <c r="CN9" s="34"/>
-      <c r="CO9" s="34"/>
-      <c r="CP9" s="34">
+      <c r="CM9" s="24"/>
+      <c r="CN9" s="24"/>
+      <c r="CO9" s="24"/>
+      <c r="CP9" s="24">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="34"/>
-      <c r="CR9" s="34"/>
+      <c r="CQ9" s="24"/>
+      <c r="CR9" s="24"/>
+      <c r="CS9" s="24"/>
     </row>
     <row r="10" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24256,26 +24197,29 @@
       <c r="CK10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL10" s="24" t="s">
+      <c r="CL10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CM10" s="24" t="s">
+      <c r="CM10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CN10" s="24" t="s">
+      <c r="CN10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CO10" s="24" t="s">
+      <c r="CO10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="24" t="s">
+      <c r="CP10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="24" t="s">
+      <c r="CQ10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="24" t="s">
+      <c r="CR10" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="CS10" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24368,13 +24312,14 @@
       <c r="CI11" s="1"/>
       <c r="CJ11" s="1"/>
       <c r="CK11" s="1"/>
-      <c r="CL11" s="23"/>
-      <c r="CM11" s="23"/>
-      <c r="CN11" s="23"/>
-      <c r="CO11" s="23"/>
-      <c r="CP11" s="23"/>
-      <c r="CQ11" s="23"/>
-      <c r="CR11" s="23"/>
+      <c r="CL11" s="1"/>
+      <c r="CM11" s="1"/>
+      <c r="CN11" s="1"/>
+      <c r="CO11" s="1"/>
+      <c r="CP11" s="1"/>
+      <c r="CQ11" s="1"/>
+      <c r="CR11" s="1"/>
+      <c r="CS11" s="1"/>
     </row>
     <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
@@ -24644,28 +24589,30 @@
       <c r="CK12" s="19">
         <v>58285.980798410397</v>
       </c>
-      <c r="CL12" s="25">
+      <c r="CL12" s="21">
         <v>44173.952257399738</v>
       </c>
-      <c r="CM12" s="25">
+      <c r="CM12" s="21">
         <v>52336.697097351629</v>
       </c>
-      <c r="CN12" s="25">
+      <c r="CN12" s="21">
         <v>48353.552505266598</v>
       </c>
-      <c r="CO12" s="25">
+      <c r="CO12" s="21">
         <v>71982.007955611291</v>
       </c>
-      <c r="CP12" s="25">
+      <c r="CP12" s="21">
         <v>65459.990480924302</v>
       </c>
-      <c r="CQ12" s="25">
+      <c r="CQ12" s="21">
         <v>66508.350481955451</v>
       </c>
-      <c r="CR12" s="25">
-        <v>58774.13553640453</v>
-      </c>
-      <c r="CS12" s="11"/>
+      <c r="CR12" s="21">
+        <v>58824.201289025281</v>
+      </c>
+      <c r="CS12" s="21">
+        <v>83814.430451013468</v>
+      </c>
       <c r="CT12" s="11"/>
       <c r="CU12" s="11"/>
       <c r="CV12" s="11"/>
@@ -24993,28 +24940,30 @@
       <c r="CK13" s="19">
         <v>36649.135463693521</v>
       </c>
-      <c r="CL13" s="25">
+      <c r="CL13" s="21">
         <v>39201.392208936297</v>
       </c>
-      <c r="CM13" s="25">
+      <c r="CM13" s="21">
         <v>34113.964358649384</v>
       </c>
-      <c r="CN13" s="25">
+      <c r="CN13" s="21">
         <v>31980.411933406729</v>
       </c>
-      <c r="CO13" s="25">
+      <c r="CO13" s="21">
         <v>43437.215392067759</v>
       </c>
-      <c r="CP13" s="25">
+      <c r="CP13" s="21">
         <v>53863.21400026176</v>
       </c>
-      <c r="CQ13" s="25">
+      <c r="CQ13" s="21">
         <v>44494.612425711566</v>
       </c>
-      <c r="CR13" s="25">
-        <v>39818.097385625006</v>
-      </c>
-      <c r="CS13" s="11"/>
+      <c r="CR13" s="21">
+        <v>39357.653160878079</v>
+      </c>
+      <c r="CS13" s="21">
+        <v>53158.546696286692</v>
+      </c>
       <c r="CT13" s="11"/>
       <c r="CU13" s="11"/>
       <c r="CV13" s="11"/>
@@ -25163,14 +25112,14 @@
       <c r="CI14" s="20"/>
       <c r="CJ14" s="20"/>
       <c r="CK14" s="20"/>
-      <c r="CL14" s="26"/>
-      <c r="CM14" s="26"/>
-      <c r="CN14" s="26"/>
-      <c r="CO14" s="26"/>
-      <c r="CP14" s="26"/>
-      <c r="CQ14" s="26"/>
-      <c r="CR14" s="26"/>
-      <c r="CS14" s="11"/>
+      <c r="CL14" s="22"/>
+      <c r="CM14" s="22"/>
+      <c r="CN14" s="22"/>
+      <c r="CO14" s="22"/>
+      <c r="CP14" s="22"/>
+      <c r="CQ14" s="22"/>
+      <c r="CR14" s="22"/>
+      <c r="CS14" s="22"/>
       <c r="CT14" s="11"/>
       <c r="CU14" s="11"/>
       <c r="CV14" s="11"/>
@@ -25498,28 +25447,30 @@
       <c r="CK15" s="20">
         <v>94935.116262103926</v>
       </c>
-      <c r="CL15" s="26">
+      <c r="CL15" s="22">
         <v>83375.344466336042</v>
       </c>
-      <c r="CM15" s="26">
+      <c r="CM15" s="22">
         <v>86450.66145600102</v>
       </c>
-      <c r="CN15" s="26">
+      <c r="CN15" s="22">
         <v>80333.964438673327</v>
       </c>
-      <c r="CO15" s="26">
+      <c r="CO15" s="22">
         <v>115419.22334767904</v>
       </c>
-      <c r="CP15" s="26">
+      <c r="CP15" s="22">
         <v>119323.20448118605</v>
       </c>
-      <c r="CQ15" s="26">
+      <c r="CQ15" s="22">
         <v>111002.96290766701</v>
       </c>
-      <c r="CR15" s="26">
-        <v>98592.232922029536</v>
-      </c>
-      <c r="CS15" s="11"/>
+      <c r="CR15" s="22">
+        <v>98181.85444990336</v>
+      </c>
+      <c r="CS15" s="22">
+        <v>136972.97714730015</v>
+      </c>
       <c r="CT15" s="11"/>
       <c r="CU15" s="11"/>
       <c r="CV15" s="11"/>
@@ -25669,13 +25620,14 @@
       <c r="CI16" s="15"/>
       <c r="CJ16" s="15"/>
       <c r="CK16" s="15"/>
-      <c r="CL16" s="27"/>
-      <c r="CM16" s="27"/>
-      <c r="CN16" s="27"/>
-      <c r="CO16" s="27"/>
-      <c r="CP16" s="27"/>
-      <c r="CQ16" s="27"/>
-      <c r="CR16" s="27"/>
+      <c r="CL16" s="15"/>
+      <c r="CM16" s="15"/>
+      <c r="CN16" s="15"/>
+      <c r="CO16" s="15"/>
+      <c r="CP16" s="15"/>
+      <c r="CQ16" s="15"/>
+      <c r="CR16" s="15"/>
+      <c r="CS16" s="15"/>
     </row>
     <row r="17" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
@@ -25769,13 +25721,14 @@
       <c r="CI17" s="1"/>
       <c r="CJ17" s="1"/>
       <c r="CK17" s="1"/>
-      <c r="CL17" s="23"/>
-      <c r="CM17" s="23"/>
-      <c r="CN17" s="23"/>
-      <c r="CO17" s="23"/>
-      <c r="CP17" s="23"/>
-      <c r="CQ17" s="23"/>
-      <c r="CR17" s="23"/>
+      <c r="CL17" s="1"/>
+      <c r="CM17" s="1"/>
+      <c r="CN17" s="1"/>
+      <c r="CO17" s="1"/>
+      <c r="CP17" s="1"/>
+      <c r="CQ17" s="1"/>
+      <c r="CR17" s="1"/>
+      <c r="CS17" s="1"/>
     </row>
     <row r="18" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="17"/>
@@ -25866,14 +25819,14 @@
       <c r="CI18" s="17"/>
       <c r="CJ18" s="17"/>
       <c r="CK18" s="17"/>
-      <c r="CL18" s="28"/>
-      <c r="CM18" s="28"/>
-      <c r="CN18" s="28"/>
-      <c r="CO18" s="28"/>
-      <c r="CP18" s="28"/>
-      <c r="CQ18" s="28"/>
-      <c r="CR18" s="28"/>
-      <c r="CS18" s="11"/>
+      <c r="CL18" s="17"/>
+      <c r="CM18" s="17"/>
+      <c r="CN18" s="17"/>
+      <c r="CO18" s="17"/>
+      <c r="CP18" s="17"/>
+      <c r="CQ18" s="17"/>
+      <c r="CR18" s="17"/>
+      <c r="CS18" s="17"/>
       <c r="CT18" s="11"/>
       <c r="CU18" s="11"/>
       <c r="CV18" s="11"/>
@@ -26022,14 +25975,14 @@
       <c r="CI19" s="17"/>
       <c r="CJ19" s="17"/>
       <c r="CK19" s="17"/>
-      <c r="CL19" s="28"/>
-      <c r="CM19" s="28"/>
-      <c r="CN19" s="28"/>
-      <c r="CO19" s="28"/>
-      <c r="CP19" s="28"/>
-      <c r="CQ19" s="28"/>
-      <c r="CR19" s="28"/>
-      <c r="CS19" s="11"/>
+      <c r="CL19" s="17"/>
+      <c r="CM19" s="17"/>
+      <c r="CN19" s="17"/>
+      <c r="CO19" s="17"/>
+      <c r="CP19" s="17"/>
+      <c r="CQ19" s="17"/>
+      <c r="CR19" s="17"/>
+      <c r="CS19" s="17"/>
       <c r="CT19" s="11"/>
       <c r="CU19" s="11"/>
       <c r="CV19" s="11"/>
@@ -26181,13 +26134,14 @@
       <c r="CI20" s="1"/>
       <c r="CJ20" s="1"/>
       <c r="CK20" s="1"/>
-      <c r="CL20" s="23"/>
-      <c r="CM20" s="23"/>
-      <c r="CN20" s="23"/>
-      <c r="CO20" s="23"/>
-      <c r="CP20" s="23"/>
-      <c r="CQ20" s="23"/>
-      <c r="CR20" s="23"/>
+      <c r="CL20" s="1"/>
+      <c r="CM20" s="1"/>
+      <c r="CN20" s="1"/>
+      <c r="CO20" s="1"/>
+      <c r="CP20" s="1"/>
+      <c r="CQ20" s="1"/>
+      <c r="CR20" s="1"/>
+      <c r="CS20" s="1"/>
     </row>
     <row r="21" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -26281,17 +26235,18 @@
       <c r="CI21" s="1"/>
       <c r="CJ21" s="1"/>
       <c r="CK21" s="1"/>
-      <c r="CL21" s="23"/>
-      <c r="CM21" s="23"/>
-      <c r="CN21" s="23"/>
-      <c r="CO21" s="23"/>
-      <c r="CP21" s="23"/>
-      <c r="CQ21" s="23"/>
-      <c r="CR21" s="23"/>
+      <c r="CL21" s="1"/>
+      <c r="CM21" s="1"/>
+      <c r="CN21" s="1"/>
+      <c r="CO21" s="1"/>
+      <c r="CP21" s="1"/>
+      <c r="CQ21" s="1"/>
+      <c r="CR21" s="1"/>
+      <c r="CS21" s="1"/>
     </row>
     <row r="22" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -26381,13 +26336,14 @@
       <c r="CI22" s="1"/>
       <c r="CJ22" s="1"/>
       <c r="CK22" s="1"/>
-      <c r="CL22" s="23"/>
-      <c r="CM22" s="23"/>
-      <c r="CN22" s="23"/>
-      <c r="CO22" s="23"/>
-      <c r="CP22" s="23"/>
-      <c r="CQ22" s="23"/>
-      <c r="CR22" s="23"/>
+      <c r="CL22" s="1"/>
+      <c r="CM22" s="1"/>
+      <c r="CN22" s="1"/>
+      <c r="CO22" s="1"/>
+      <c r="CP22" s="1"/>
+      <c r="CQ22" s="1"/>
+      <c r="CR22" s="1"/>
+      <c r="CS22" s="1"/>
     </row>
     <row r="23" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
@@ -26479,13 +26435,14 @@
       <c r="CI23" s="1"/>
       <c r="CJ23" s="1"/>
       <c r="CK23" s="1"/>
-      <c r="CL23" s="23"/>
-      <c r="CM23" s="23"/>
-      <c r="CN23" s="23"/>
-      <c r="CO23" s="23"/>
-      <c r="CP23" s="23"/>
-      <c r="CQ23" s="23"/>
-      <c r="CR23" s="23"/>
+      <c r="CL23" s="1"/>
+      <c r="CM23" s="1"/>
+      <c r="CN23" s="1"/>
+      <c r="CO23" s="1"/>
+      <c r="CP23" s="1"/>
+      <c r="CQ23" s="1"/>
+      <c r="CR23" s="1"/>
+      <c r="CS23" s="1"/>
     </row>
     <row r="24" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -26579,17 +26536,18 @@
       <c r="CI24" s="1"/>
       <c r="CJ24" s="1"/>
       <c r="CK24" s="1"/>
-      <c r="CL24" s="23"/>
-      <c r="CM24" s="23"/>
-      <c r="CN24" s="23"/>
-      <c r="CO24" s="23"/>
-      <c r="CP24" s="23"/>
-      <c r="CQ24" s="23"/>
-      <c r="CR24" s="23"/>
+      <c r="CL24" s="1"/>
+      <c r="CM24" s="1"/>
+      <c r="CN24" s="1"/>
+      <c r="CO24" s="1"/>
+      <c r="CP24" s="1"/>
+      <c r="CQ24" s="1"/>
+      <c r="CR24" s="1"/>
+      <c r="CS24" s="1"/>
     </row>
     <row r="25" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -26679,13 +26637,14 @@
       <c r="CI25" s="1"/>
       <c r="CJ25" s="1"/>
       <c r="CK25" s="1"/>
-      <c r="CL25" s="23"/>
-      <c r="CM25" s="23"/>
-      <c r="CN25" s="23"/>
-      <c r="CO25" s="23"/>
-      <c r="CP25" s="23"/>
-      <c r="CQ25" s="23"/>
-      <c r="CR25" s="23"/>
+      <c r="CL25" s="1"/>
+      <c r="CM25" s="1"/>
+      <c r="CN25" s="1"/>
+      <c r="CO25" s="1"/>
+      <c r="CP25" s="1"/>
+      <c r="CQ25" s="1"/>
+      <c r="CR25" s="1"/>
+      <c r="CS25" s="1"/>
     </row>
     <row r="26" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -26779,13 +26738,14 @@
       <c r="CI26" s="1"/>
       <c r="CJ26" s="1"/>
       <c r="CK26" s="1"/>
-      <c r="CL26" s="23"/>
-      <c r="CM26" s="23"/>
-      <c r="CN26" s="23"/>
-      <c r="CO26" s="23"/>
-      <c r="CP26" s="23"/>
-      <c r="CQ26" s="23"/>
-      <c r="CR26" s="23"/>
+      <c r="CL26" s="1"/>
+      <c r="CM26" s="1"/>
+      <c r="CN26" s="1"/>
+      <c r="CO26" s="1"/>
+      <c r="CP26" s="1"/>
+      <c r="CQ26" s="1"/>
+      <c r="CR26" s="1"/>
+      <c r="CS26" s="1"/>
     </row>
     <row r="27" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
@@ -26877,159 +26837,161 @@
       <c r="CI27" s="1"/>
       <c r="CJ27" s="1"/>
       <c r="CK27" s="1"/>
-      <c r="CL27" s="23"/>
-      <c r="CM27" s="23"/>
-      <c r="CN27" s="23"/>
-      <c r="CO27" s="23"/>
-      <c r="CP27" s="23"/>
-      <c r="CQ27" s="23"/>
-      <c r="CR27" s="23"/>
+      <c r="CL27" s="1"/>
+      <c r="CM27" s="1"/>
+      <c r="CN27" s="1"/>
+      <c r="CO27" s="1"/>
+      <c r="CP27" s="1"/>
+      <c r="CQ27" s="1"/>
+      <c r="CR27" s="1"/>
+      <c r="CS27" s="1"/>
     </row>
     <row r="28" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
-      <c r="B28" s="35">
+      <c r="B28" s="25">
         <v>2000</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="35">
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="25">
         <v>2001</v>
       </c>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="35">
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="25">
         <v>2002</v>
       </c>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="35">
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="25">
         <v>2003</v>
       </c>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="35">
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="25">
         <v>2004</v>
       </c>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="35">
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="25">
         <v>2005</v>
       </c>
-      <c r="W28" s="36"/>
-      <c r="X28" s="36"/>
-      <c r="Y28" s="36"/>
-      <c r="Z28" s="35">
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="25">
         <v>2006</v>
       </c>
-      <c r="AA28" s="36"/>
-      <c r="AB28" s="36"/>
-      <c r="AC28" s="36"/>
-      <c r="AD28" s="35">
+      <c r="AA28" s="26"/>
+      <c r="AB28" s="26"/>
+      <c r="AC28" s="26"/>
+      <c r="AD28" s="25">
         <v>2007</v>
       </c>
-      <c r="AE28" s="36"/>
-      <c r="AF28" s="36"/>
-      <c r="AG28" s="36"/>
-      <c r="AH28" s="35">
+      <c r="AE28" s="26"/>
+      <c r="AF28" s="26"/>
+      <c r="AG28" s="26"/>
+      <c r="AH28" s="25">
         <v>2008</v>
       </c>
-      <c r="AI28" s="36"/>
-      <c r="AJ28" s="36"/>
-      <c r="AK28" s="36"/>
-      <c r="AL28" s="35">
+      <c r="AI28" s="26"/>
+      <c r="AJ28" s="26"/>
+      <c r="AK28" s="26"/>
+      <c r="AL28" s="25">
         <v>2009</v>
       </c>
-      <c r="AM28" s="36"/>
-      <c r="AN28" s="36"/>
-      <c r="AO28" s="36"/>
-      <c r="AP28" s="35">
+      <c r="AM28" s="26"/>
+      <c r="AN28" s="26"/>
+      <c r="AO28" s="26"/>
+      <c r="AP28" s="25">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="36"/>
-      <c r="AR28" s="36"/>
-      <c r="AS28" s="36"/>
-      <c r="AT28" s="35">
+      <c r="AQ28" s="26"/>
+      <c r="AR28" s="26"/>
+      <c r="AS28" s="26"/>
+      <c r="AT28" s="25">
         <v>2011</v>
       </c>
-      <c r="AU28" s="36"/>
-      <c r="AV28" s="36"/>
-      <c r="AW28" s="36"/>
-      <c r="AX28" s="35">
+      <c r="AU28" s="26"/>
+      <c r="AV28" s="26"/>
+      <c r="AW28" s="26"/>
+      <c r="AX28" s="25">
         <v>2012</v>
       </c>
-      <c r="AY28" s="36"/>
-      <c r="AZ28" s="36"/>
-      <c r="BA28" s="36"/>
-      <c r="BB28" s="35">
+      <c r="AY28" s="26"/>
+      <c r="AZ28" s="26"/>
+      <c r="BA28" s="26"/>
+      <c r="BB28" s="25">
         <v>2013</v>
       </c>
-      <c r="BC28" s="36"/>
-      <c r="BD28" s="36"/>
-      <c r="BE28" s="36"/>
-      <c r="BF28" s="35">
+      <c r="BC28" s="26"/>
+      <c r="BD28" s="26"/>
+      <c r="BE28" s="26"/>
+      <c r="BF28" s="25">
         <v>2014</v>
       </c>
-      <c r="BG28" s="36"/>
-      <c r="BH28" s="36"/>
-      <c r="BI28" s="36"/>
-      <c r="BJ28" s="35">
+      <c r="BG28" s="26"/>
+      <c r="BH28" s="26"/>
+      <c r="BI28" s="26"/>
+      <c r="BJ28" s="25">
         <v>2015</v>
       </c>
-      <c r="BK28" s="36"/>
-      <c r="BL28" s="36"/>
-      <c r="BM28" s="36"/>
-      <c r="BN28" s="35">
+      <c r="BK28" s="26"/>
+      <c r="BL28" s="26"/>
+      <c r="BM28" s="26"/>
+      <c r="BN28" s="25">
         <v>2016</v>
       </c>
-      <c r="BO28" s="36"/>
-      <c r="BP28" s="36"/>
-      <c r="BQ28" s="36"/>
-      <c r="BR28" s="35">
+      <c r="BO28" s="26"/>
+      <c r="BP28" s="26"/>
+      <c r="BQ28" s="26"/>
+      <c r="BR28" s="25">
         <v>2017</v>
       </c>
-      <c r="BS28" s="36"/>
-      <c r="BT28" s="36"/>
-      <c r="BU28" s="36"/>
-      <c r="BV28" s="35">
+      <c r="BS28" s="26"/>
+      <c r="BT28" s="26"/>
+      <c r="BU28" s="26"/>
+      <c r="BV28" s="25">
         <v>2018</v>
       </c>
-      <c r="BW28" s="35"/>
-      <c r="BX28" s="35"/>
-      <c r="BY28" s="35"/>
-      <c r="BZ28" s="35">
+      <c r="BW28" s="25"/>
+      <c r="BX28" s="25"/>
+      <c r="BY28" s="25"/>
+      <c r="BZ28" s="25">
         <v>2019</v>
       </c>
-      <c r="CA28" s="35"/>
-      <c r="CB28" s="35"/>
-      <c r="CC28" s="35"/>
-      <c r="CD28" s="35">
+      <c r="CA28" s="25"/>
+      <c r="CB28" s="25"/>
+      <c r="CC28" s="25"/>
+      <c r="CD28" s="25">
         <v>2020</v>
       </c>
-      <c r="CE28" s="35"/>
-      <c r="CF28" s="35"/>
-      <c r="CG28" s="35"/>
-      <c r="CH28" s="35">
+      <c r="CE28" s="25"/>
+      <c r="CF28" s="25"/>
+      <c r="CG28" s="25"/>
+      <c r="CH28" s="25">
         <v>2021</v>
       </c>
-      <c r="CI28" s="35"/>
-      <c r="CJ28" s="35"/>
-      <c r="CK28" s="35"/>
-      <c r="CL28" s="34">
+      <c r="CI28" s="25"/>
+      <c r="CJ28" s="25"/>
+      <c r="CK28" s="25"/>
+      <c r="CL28" s="24">
         <v>2022</v>
       </c>
-      <c r="CM28" s="34"/>
-      <c r="CN28" s="34"/>
-      <c r="CO28" s="34"/>
-      <c r="CP28" s="34">
+      <c r="CM28" s="24"/>
+      <c r="CN28" s="24"/>
+      <c r="CO28" s="24"/>
+      <c r="CP28" s="24">
         <v>2023</v>
       </c>
-      <c r="CQ28" s="34"/>
-      <c r="CR28" s="34"/>
+      <c r="CQ28" s="24"/>
+      <c r="CR28" s="24"/>
+      <c r="CS28" s="24"/>
     </row>
     <row r="29" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
@@ -27299,26 +27261,29 @@
       <c r="CK29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL29" s="24" t="s">
+      <c r="CL29" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CM29" s="24" t="s">
+      <c r="CM29" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CN29" s="24" t="s">
+      <c r="CN29" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CO29" s="24" t="s">
+      <c r="CO29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP29" s="24" t="s">
+      <c r="CP29" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CQ29" s="24" t="s">
+      <c r="CQ29" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CR29" s="24" t="s">
+      <c r="CR29" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="CS29" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27411,13 +27376,14 @@
       <c r="CI30" s="1"/>
       <c r="CJ30" s="1"/>
       <c r="CK30" s="1"/>
-      <c r="CL30" s="23"/>
-      <c r="CM30" s="23"/>
-      <c r="CN30" s="23"/>
-      <c r="CO30" s="23"/>
-      <c r="CP30" s="23"/>
-      <c r="CQ30" s="23"/>
-      <c r="CR30" s="23"/>
+      <c r="CL30" s="1"/>
+      <c r="CM30" s="1"/>
+      <c r="CN30" s="1"/>
+      <c r="CO30" s="1"/>
+      <c r="CP30" s="1"/>
+      <c r="CQ30" s="1"/>
+      <c r="CR30" s="1"/>
+      <c r="CS30" s="1"/>
     </row>
     <row r="31" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
@@ -27687,28 +27653,30 @@
       <c r="CK31" s="19">
         <v>55806.264395766862</v>
       </c>
-      <c r="CL31" s="25">
+      <c r="CL31" s="21">
         <v>42666.482735980899</v>
       </c>
-      <c r="CM31" s="25">
+      <c r="CM31" s="21">
         <v>50160.827000193254</v>
       </c>
-      <c r="CN31" s="25">
+      <c r="CN31" s="21">
         <v>45747.247224650651</v>
       </c>
-      <c r="CO31" s="25">
+      <c r="CO31" s="21">
         <v>67178.583782310918</v>
       </c>
-      <c r="CP31" s="25">
+      <c r="CP31" s="21">
         <v>60815.285027065627</v>
       </c>
-      <c r="CQ31" s="25">
+      <c r="CQ31" s="21">
         <v>60832.517513972329</v>
       </c>
-      <c r="CR31" s="25">
-        <v>52834.734690521502</v>
-      </c>
-      <c r="CS31" s="11"/>
+      <c r="CR31" s="21">
+        <v>52879.741065054397</v>
+      </c>
+      <c r="CS31" s="21">
+        <v>74340.955449428613</v>
+      </c>
       <c r="CT31" s="11"/>
       <c r="CU31" s="11"/>
       <c r="CV31" s="11"/>
@@ -28036,28 +28004,30 @@
       <c r="CK32" s="19">
         <v>33383.353309608567</v>
       </c>
-      <c r="CL32" s="25">
+      <c r="CL32" s="21">
         <v>34870.138067721156</v>
       </c>
-      <c r="CM32" s="25">
+      <c r="CM32" s="21">
         <v>30896.857861207467</v>
       </c>
-      <c r="CN32" s="25">
+      <c r="CN32" s="21">
         <v>28878.700203074994</v>
       </c>
-      <c r="CO32" s="25">
+      <c r="CO32" s="21">
         <v>38575.913995093506</v>
       </c>
-      <c r="CP32" s="25">
+      <c r="CP32" s="21">
         <v>45422.96588457191</v>
       </c>
-      <c r="CQ32" s="25">
+      <c r="CQ32" s="21">
         <v>37997.102367774969</v>
       </c>
-      <c r="CR32" s="25">
-        <v>33982.397437162574</v>
-      </c>
-      <c r="CS32" s="11"/>
+      <c r="CR32" s="21">
+        <v>33589.435450770805</v>
+      </c>
+      <c r="CS32" s="21">
+        <v>43977.520075576802</v>
+      </c>
       <c r="CT32" s="11"/>
       <c r="CU32" s="11"/>
       <c r="CV32" s="11"/>
@@ -28206,14 +28176,14 @@
       <c r="CI33" s="20"/>
       <c r="CJ33" s="20"/>
       <c r="CK33" s="20"/>
-      <c r="CL33" s="26"/>
-      <c r="CM33" s="26"/>
-      <c r="CN33" s="26"/>
-      <c r="CO33" s="26"/>
-      <c r="CP33" s="26"/>
-      <c r="CQ33" s="26"/>
-      <c r="CR33" s="26"/>
-      <c r="CS33" s="11"/>
+      <c r="CL33" s="22"/>
+      <c r="CM33" s="22"/>
+      <c r="CN33" s="22"/>
+      <c r="CO33" s="22"/>
+      <c r="CP33" s="22"/>
+      <c r="CQ33" s="22"/>
+      <c r="CR33" s="22"/>
+      <c r="CS33" s="22"/>
       <c r="CT33" s="11"/>
       <c r="CU33" s="11"/>
       <c r="CV33" s="11"/>
@@ -28541,28 +28511,30 @@
       <c r="CK34" s="20">
         <v>89189.617705375422</v>
       </c>
-      <c r="CL34" s="26">
+      <c r="CL34" s="22">
         <v>77536.620803702055</v>
       </c>
-      <c r="CM34" s="26">
+      <c r="CM34" s="22">
         <v>81057.684861400718</v>
       </c>
-      <c r="CN34" s="26">
+      <c r="CN34" s="22">
         <v>74625.947427725652</v>
       </c>
-      <c r="CO34" s="26">
+      <c r="CO34" s="22">
         <v>105754.49777740442</v>
       </c>
-      <c r="CP34" s="26">
+      <c r="CP34" s="22">
         <v>106238.25091163753</v>
       </c>
-      <c r="CQ34" s="26">
+      <c r="CQ34" s="22">
         <v>98829.61988174729</v>
       </c>
-      <c r="CR34" s="26">
-        <v>86817.132127684075</v>
-      </c>
-      <c r="CS34" s="11"/>
+      <c r="CR34" s="22">
+        <v>86469.176515825209</v>
+      </c>
+      <c r="CS34" s="22">
+        <v>118318.47552500541</v>
+      </c>
       <c r="CT34" s="11"/>
       <c r="CU34" s="11"/>
       <c r="CV34" s="11"/>
@@ -28712,13 +28684,14 @@
       <c r="CI35" s="15"/>
       <c r="CJ35" s="15"/>
       <c r="CK35" s="15"/>
-      <c r="CL35" s="27"/>
-      <c r="CM35" s="27"/>
-      <c r="CN35" s="27"/>
-      <c r="CO35" s="27"/>
-      <c r="CP35" s="27"/>
-      <c r="CQ35" s="27"/>
-      <c r="CR35" s="27"/>
+      <c r="CL35" s="15"/>
+      <c r="CM35" s="15"/>
+      <c r="CN35" s="15"/>
+      <c r="CO35" s="15"/>
+      <c r="CP35" s="15"/>
+      <c r="CQ35" s="15"/>
+      <c r="CR35" s="15"/>
+      <c r="CS35" s="15"/>
     </row>
     <row r="36" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
@@ -28812,13 +28785,14 @@
       <c r="CI36" s="1"/>
       <c r="CJ36" s="1"/>
       <c r="CK36" s="1"/>
-      <c r="CL36" s="23"/>
-      <c r="CM36" s="23"/>
-      <c r="CN36" s="23"/>
-      <c r="CO36" s="23"/>
-      <c r="CP36" s="23"/>
-      <c r="CQ36" s="23"/>
-      <c r="CR36" s="23"/>
+      <c r="CL36" s="1"/>
+      <c r="CM36" s="1"/>
+      <c r="CN36" s="1"/>
+      <c r="CO36" s="1"/>
+      <c r="CP36" s="1"/>
+      <c r="CQ36" s="1"/>
+      <c r="CR36" s="1"/>
+      <c r="CS36" s="1"/>
     </row>
     <row r="37" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="17"/>
@@ -28909,14 +28883,14 @@
       <c r="CI37" s="17"/>
       <c r="CJ37" s="17"/>
       <c r="CK37" s="17"/>
-      <c r="CL37" s="28"/>
-      <c r="CM37" s="28"/>
-      <c r="CN37" s="28"/>
-      <c r="CO37" s="28"/>
-      <c r="CP37" s="28"/>
-      <c r="CQ37" s="28"/>
-      <c r="CR37" s="28"/>
-      <c r="CS37" s="11"/>
+      <c r="CL37" s="17"/>
+      <c r="CM37" s="17"/>
+      <c r="CN37" s="17"/>
+      <c r="CO37" s="17"/>
+      <c r="CP37" s="17"/>
+      <c r="CQ37" s="17"/>
+      <c r="CR37" s="17"/>
+      <c r="CS37" s="17"/>
       <c r="CT37" s="11"/>
       <c r="CU37" s="11"/>
       <c r="CV37" s="11"/>
@@ -29065,14 +29039,14 @@
       <c r="CI38" s="17"/>
       <c r="CJ38" s="17"/>
       <c r="CK38" s="17"/>
-      <c r="CL38" s="28"/>
-      <c r="CM38" s="28"/>
-      <c r="CN38" s="28"/>
-      <c r="CO38" s="28"/>
-      <c r="CP38" s="28"/>
-      <c r="CQ38" s="28"/>
-      <c r="CR38" s="28"/>
-      <c r="CS38" s="11"/>
+      <c r="CL38" s="17"/>
+      <c r="CM38" s="17"/>
+      <c r="CN38" s="17"/>
+      <c r="CO38" s="17"/>
+      <c r="CP38" s="17"/>
+      <c r="CQ38" s="17"/>
+      <c r="CR38" s="17"/>
+      <c r="CS38" s="17"/>
       <c r="CT38" s="11"/>
       <c r="CU38" s="11"/>
       <c r="CV38" s="11"/>
@@ -29224,13 +29198,14 @@
       <c r="CI39" s="1"/>
       <c r="CJ39" s="1"/>
       <c r="CK39" s="1"/>
-      <c r="CL39" s="23"/>
-      <c r="CM39" s="23"/>
-      <c r="CN39" s="23"/>
-      <c r="CO39" s="23"/>
-      <c r="CP39" s="23"/>
-      <c r="CQ39" s="23"/>
-      <c r="CR39" s="23"/>
+      <c r="CL39" s="1"/>
+      <c r="CM39" s="1"/>
+      <c r="CN39" s="1"/>
+      <c r="CO39" s="1"/>
+      <c r="CP39" s="1"/>
+      <c r="CQ39" s="1"/>
+      <c r="CR39" s="1"/>
+      <c r="CS39" s="1"/>
     </row>
     <row r="40" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
@@ -29324,17 +29299,18 @@
       <c r="CI40" s="1"/>
       <c r="CJ40" s="1"/>
       <c r="CK40" s="1"/>
-      <c r="CL40" s="23"/>
-      <c r="CM40" s="23"/>
-      <c r="CN40" s="23"/>
-      <c r="CO40" s="23"/>
-      <c r="CP40" s="23"/>
-      <c r="CQ40" s="23"/>
-      <c r="CR40" s="23"/>
+      <c r="CL40" s="1"/>
+      <c r="CM40" s="1"/>
+      <c r="CN40" s="1"/>
+      <c r="CO40" s="1"/>
+      <c r="CP40" s="1"/>
+      <c r="CQ40" s="1"/>
+      <c r="CR40" s="1"/>
+      <c r="CS40" s="1"/>
     </row>
     <row r="41" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -29424,13 +29400,14 @@
       <c r="CI41" s="1"/>
       <c r="CJ41" s="1"/>
       <c r="CK41" s="1"/>
-      <c r="CL41" s="23"/>
-      <c r="CM41" s="23"/>
-      <c r="CN41" s="23"/>
-      <c r="CO41" s="23"/>
-      <c r="CP41" s="23"/>
-      <c r="CQ41" s="23"/>
-      <c r="CR41" s="23"/>
+      <c r="CL41" s="1"/>
+      <c r="CM41" s="1"/>
+      <c r="CN41" s="1"/>
+      <c r="CO41" s="1"/>
+      <c r="CP41" s="1"/>
+      <c r="CQ41" s="1"/>
+      <c r="CR41" s="1"/>
+      <c r="CS41" s="1"/>
     </row>
     <row r="42" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
@@ -29522,13 +29499,14 @@
       <c r="CI42" s="1"/>
       <c r="CJ42" s="1"/>
       <c r="CK42" s="1"/>
-      <c r="CL42" s="23"/>
-      <c r="CM42" s="23"/>
-      <c r="CN42" s="23"/>
-      <c r="CO42" s="23"/>
-      <c r="CP42" s="23"/>
-      <c r="CQ42" s="23"/>
-      <c r="CR42" s="23"/>
+      <c r="CL42" s="1"/>
+      <c r="CM42" s="1"/>
+      <c r="CN42" s="1"/>
+      <c r="CO42" s="1"/>
+      <c r="CP42" s="1"/>
+      <c r="CQ42" s="1"/>
+      <c r="CR42" s="1"/>
+      <c r="CS42" s="1"/>
     </row>
     <row r="43" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -29622,17 +29600,18 @@
       <c r="CI43" s="1"/>
       <c r="CJ43" s="1"/>
       <c r="CK43" s="1"/>
-      <c r="CL43" s="23"/>
-      <c r="CM43" s="23"/>
-      <c r="CN43" s="23"/>
-      <c r="CO43" s="23"/>
-      <c r="CP43" s="23"/>
-      <c r="CQ43" s="23"/>
-      <c r="CR43" s="23"/>
+      <c r="CL43" s="1"/>
+      <c r="CM43" s="1"/>
+      <c r="CN43" s="1"/>
+      <c r="CO43" s="1"/>
+      <c r="CP43" s="1"/>
+      <c r="CQ43" s="1"/>
+      <c r="CR43" s="1"/>
+      <c r="CS43" s="1"/>
     </row>
     <row r="44" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -29722,13 +29701,14 @@
       <c r="CI44" s="1"/>
       <c r="CJ44" s="1"/>
       <c r="CK44" s="1"/>
-      <c r="CL44" s="23"/>
-      <c r="CM44" s="23"/>
-      <c r="CN44" s="23"/>
-      <c r="CO44" s="23"/>
-      <c r="CP44" s="23"/>
-      <c r="CQ44" s="23"/>
-      <c r="CR44" s="23"/>
+      <c r="CL44" s="1"/>
+      <c r="CM44" s="1"/>
+      <c r="CN44" s="1"/>
+      <c r="CO44" s="1"/>
+      <c r="CP44" s="1"/>
+      <c r="CQ44" s="1"/>
+      <c r="CR44" s="1"/>
+      <c r="CS44" s="1"/>
     </row>
     <row r="45" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -29814,13 +29794,6 @@
       <c r="CA45" s="1"/>
       <c r="CB45" s="1"/>
       <c r="CC45" s="1"/>
-      <c r="CL45" s="22"/>
-      <c r="CM45" s="22"/>
-      <c r="CN45" s="22"/>
-      <c r="CO45" s="22"/>
-      <c r="CP45" s="22"/>
-      <c r="CQ45" s="22"/>
-      <c r="CR45" s="22"/>
     </row>
     <row r="46" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
@@ -29912,157 +29885,159 @@
       <c r="CI46" s="1"/>
       <c r="CJ46" s="1"/>
       <c r="CK46" s="1"/>
-      <c r="CL46" s="23"/>
-      <c r="CM46" s="23"/>
-      <c r="CN46" s="23"/>
-      <c r="CO46" s="23"/>
-      <c r="CP46" s="23"/>
-      <c r="CQ46" s="23"/>
-      <c r="CR46" s="23"/>
+      <c r="CL46" s="1"/>
+      <c r="CM46" s="1"/>
+      <c r="CN46" s="1"/>
+      <c r="CO46" s="1"/>
+      <c r="CP46" s="1"/>
+      <c r="CQ46" s="1"/>
+      <c r="CR46" s="1"/>
+      <c r="CS46" s="1"/>
     </row>
     <row r="47" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35" t="s">
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35" t="s">
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="35"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="35"/>
-      <c r="N47" s="35" t="s">
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="35"/>
-      <c r="P47" s="35"/>
-      <c r="Q47" s="35"/>
-      <c r="R47" s="35" t="s">
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="35"/>
-      <c r="T47" s="35"/>
-      <c r="U47" s="35"/>
-      <c r="V47" s="35" t="s">
+      <c r="S47" s="25"/>
+      <c r="T47" s="25"/>
+      <c r="U47" s="25"/>
+      <c r="V47" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="35"/>
-      <c r="X47" s="35"/>
-      <c r="Y47" s="35"/>
-      <c r="Z47" s="35" t="s">
+      <c r="W47" s="25"/>
+      <c r="X47" s="25"/>
+      <c r="Y47" s="25"/>
+      <c r="Z47" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="35"/>
-      <c r="AB47" s="35"/>
-      <c r="AC47" s="35"/>
-      <c r="AD47" s="35" t="s">
+      <c r="AA47" s="25"/>
+      <c r="AB47" s="25"/>
+      <c r="AC47" s="25"/>
+      <c r="AD47" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="35"/>
-      <c r="AF47" s="35"/>
-      <c r="AG47" s="35"/>
-      <c r="AH47" s="35" t="s">
+      <c r="AE47" s="25"/>
+      <c r="AF47" s="25"/>
+      <c r="AG47" s="25"/>
+      <c r="AH47" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="35"/>
-      <c r="AJ47" s="35"/>
-      <c r="AK47" s="35"/>
-      <c r="AL47" s="35" t="s">
+      <c r="AI47" s="25"/>
+      <c r="AJ47" s="25"/>
+      <c r="AK47" s="25"/>
+      <c r="AL47" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="35"/>
-      <c r="AN47" s="35"/>
-      <c r="AO47" s="35"/>
-      <c r="AP47" s="35" t="s">
+      <c r="AM47" s="25"/>
+      <c r="AN47" s="25"/>
+      <c r="AO47" s="25"/>
+      <c r="AP47" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="35"/>
-      <c r="AR47" s="35"/>
-      <c r="AS47" s="35"/>
-      <c r="AT47" s="35" t="s">
+      <c r="AQ47" s="25"/>
+      <c r="AR47" s="25"/>
+      <c r="AS47" s="25"/>
+      <c r="AT47" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="35"/>
-      <c r="AV47" s="35"/>
-      <c r="AW47" s="35"/>
-      <c r="AX47" s="35" t="s">
+      <c r="AU47" s="25"/>
+      <c r="AV47" s="25"/>
+      <c r="AW47" s="25"/>
+      <c r="AX47" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="35"/>
-      <c r="AZ47" s="35"/>
-      <c r="BA47" s="35"/>
-      <c r="BB47" s="35" t="s">
+      <c r="AY47" s="25"/>
+      <c r="AZ47" s="25"/>
+      <c r="BA47" s="25"/>
+      <c r="BB47" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="35"/>
-      <c r="BD47" s="35"/>
-      <c r="BE47" s="35"/>
-      <c r="BF47" s="35" t="s">
+      <c r="BC47" s="25"/>
+      <c r="BD47" s="25"/>
+      <c r="BE47" s="25"/>
+      <c r="BF47" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="35"/>
-      <c r="BH47" s="35"/>
-      <c r="BI47" s="35"/>
-      <c r="BJ47" s="35" t="s">
+      <c r="BG47" s="25"/>
+      <c r="BH47" s="25"/>
+      <c r="BI47" s="25"/>
+      <c r="BJ47" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="35"/>
-      <c r="BL47" s="35"/>
-      <c r="BM47" s="35"/>
-      <c r="BN47" s="35" t="s">
+      <c r="BK47" s="25"/>
+      <c r="BL47" s="25"/>
+      <c r="BM47" s="25"/>
+      <c r="BN47" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="35"/>
-      <c r="BP47" s="35"/>
-      <c r="BQ47" s="35"/>
-      <c r="BR47" s="35" t="s">
+      <c r="BO47" s="25"/>
+      <c r="BP47" s="25"/>
+      <c r="BQ47" s="25"/>
+      <c r="BR47" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="BS47" s="35"/>
-      <c r="BT47" s="35"/>
-      <c r="BU47" s="35"/>
-      <c r="BV47" s="35" t="s">
+      <c r="BS47" s="25"/>
+      <c r="BT47" s="25"/>
+      <c r="BU47" s="25"/>
+      <c r="BV47" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="BW47" s="35"/>
-      <c r="BX47" s="35"/>
-      <c r="BY47" s="35"/>
-      <c r="BZ47" s="35" t="s">
+      <c r="BW47" s="25"/>
+      <c r="BX47" s="25"/>
+      <c r="BY47" s="25"/>
+      <c r="BZ47" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="35"/>
-      <c r="CB47" s="35"/>
-      <c r="CC47" s="35"/>
-      <c r="CD47" s="35" t="s">
+      <c r="CA47" s="25"/>
+      <c r="CB47" s="25"/>
+      <c r="CC47" s="25"/>
+      <c r="CD47" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="35"/>
-      <c r="CF47" s="35"/>
-      <c r="CG47" s="35"/>
-      <c r="CH47" s="35" t="s">
+      <c r="CE47" s="25"/>
+      <c r="CF47" s="25"/>
+      <c r="CG47" s="25"/>
+      <c r="CH47" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="CI47" s="35"/>
-      <c r="CJ47" s="35"/>
-      <c r="CK47" s="35"/>
-      <c r="CL47" s="34" t="s">
+      <c r="CI47" s="25"/>
+      <c r="CJ47" s="25"/>
+      <c r="CK47" s="25"/>
+      <c r="CL47" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="CM47" s="34"/>
-      <c r="CN47" s="34"/>
-      <c r="CO47" s="29"/>
-      <c r="CP47" s="21"/>
-      <c r="CQ47" s="21"/>
-      <c r="CR47" s="21"/>
+      <c r="CM47" s="24"/>
+      <c r="CN47" s="24"/>
+      <c r="CO47" s="24"/>
+      <c r="CP47" s="23"/>
+      <c r="CQ47" s="23"/>
+      <c r="CR47" s="23"/>
+      <c r="CS47" s="23"/>
     </row>
     <row r="48" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
@@ -30332,19 +30307,22 @@
       <c r="CK48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL48" s="30" t="s">
+      <c r="CL48" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM48" s="30" t="s">
+      <c r="CM48" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN48" s="30" t="s">
+      <c r="CN48" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CO48" s="30"/>
-      <c r="CP48" s="30"/>
-      <c r="CQ48" s="30"/>
-      <c r="CR48" s="30"/>
+      <c r="CO48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="CP48" s="6"/>
+      <c r="CQ48" s="6"/>
+      <c r="CR48" s="6"/>
+      <c r="CS48" s="6"/>
     </row>
     <row r="49" spans="1:151" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
@@ -30436,13 +30414,14 @@
       <c r="CI49" s="1"/>
       <c r="CJ49" s="1"/>
       <c r="CK49" s="1"/>
-      <c r="CL49" s="23"/>
-      <c r="CM49" s="23"/>
-      <c r="CN49" s="23"/>
-      <c r="CO49" s="23"/>
-      <c r="CP49" s="23"/>
-      <c r="CQ49" s="23"/>
-      <c r="CR49" s="23"/>
+      <c r="CL49" s="1"/>
+      <c r="CM49" s="1"/>
+      <c r="CN49" s="1"/>
+      <c r="CO49" s="1"/>
+      <c r="CP49" s="1"/>
+      <c r="CQ49" s="1"/>
+      <c r="CR49" s="1"/>
+      <c r="CS49" s="1"/>
     </row>
     <row r="50" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
@@ -30712,20 +30691,22 @@
       <c r="CK50" s="18">
         <v>23.497978363906014</v>
       </c>
-      <c r="CL50" s="31">
+      <c r="CL50" s="18">
         <v>48.186854776977441</v>
       </c>
-      <c r="CM50" s="31">
+      <c r="CM50" s="18">
         <v>27.077852005530829</v>
       </c>
-      <c r="CN50" s="31">
-        <v>21.550811659604392</v>
-      </c>
-      <c r="CO50" s="31"/>
-      <c r="CP50" s="31"/>
-      <c r="CQ50" s="31"/>
-      <c r="CR50" s="31"/>
-      <c r="CS50" s="11"/>
+      <c r="CN50" s="18">
+        <v>21.654352661302894</v>
+      </c>
+      <c r="CO50" s="18">
+        <v>16.438027823145475</v>
+      </c>
+      <c r="CP50" s="18"/>
+      <c r="CQ50" s="18"/>
+      <c r="CR50" s="18"/>
+      <c r="CS50" s="18"/>
       <c r="CT50" s="11"/>
       <c r="CU50" s="11"/>
       <c r="CV50" s="11"/>
@@ -31049,20 +31030,22 @@
       <c r="CK51" s="18">
         <v>18.521800971536834</v>
       </c>
-      <c r="CL51" s="31">
+      <c r="CL51" s="18">
         <v>37.401278284150266</v>
       </c>
-      <c r="CM51" s="31">
+      <c r="CM51" s="18">
         <v>30.429322015839631</v>
       </c>
-      <c r="CN51" s="31">
-        <v>24.50776890722608</v>
-      </c>
-      <c r="CO51" s="31"/>
-      <c r="CP51" s="31"/>
-      <c r="CQ51" s="31"/>
-      <c r="CR51" s="31"/>
-      <c r="CS51" s="11"/>
+      <c r="CN51" s="18">
+        <v>23.0679993829757</v>
+      </c>
+      <c r="CO51" s="18">
+        <v>22.380189928091426</v>
+      </c>
+      <c r="CP51" s="18"/>
+      <c r="CQ51" s="18"/>
+      <c r="CR51" s="18"/>
+      <c r="CS51" s="18"/>
       <c r="CT51" s="11"/>
       <c r="CU51" s="11"/>
       <c r="CV51" s="11"/>
@@ -31208,14 +31191,14 @@
       <c r="CI52" s="17"/>
       <c r="CJ52" s="17"/>
       <c r="CK52" s="17"/>
-      <c r="CL52" s="28"/>
-      <c r="CM52" s="28"/>
-      <c r="CN52" s="28"/>
-      <c r="CO52" s="28"/>
-      <c r="CP52" s="28"/>
-      <c r="CQ52" s="28"/>
-      <c r="CR52" s="28"/>
-      <c r="CS52" s="11"/>
+      <c r="CL52" s="17"/>
+      <c r="CM52" s="17"/>
+      <c r="CN52" s="17"/>
+      <c r="CO52" s="17"/>
+      <c r="CP52" s="17"/>
+      <c r="CQ52" s="17"/>
+      <c r="CR52" s="17"/>
+      <c r="CS52" s="17"/>
       <c r="CT52" s="11"/>
       <c r="CU52" s="11"/>
       <c r="CV52" s="11"/>
@@ -31539,20 +31522,22 @@
       <c r="CK53" s="18">
         <v>21.576954758259376</v>
       </c>
-      <c r="CL53" s="31">
+      <c r="CL53" s="18">
         <v>43.115695946976814</v>
       </c>
-      <c r="CM53" s="31">
+      <c r="CM53" s="18">
         <v>28.400362748134512</v>
       </c>
-      <c r="CN53" s="31">
-        <v>22.727956488808047</v>
-      </c>
-      <c r="CO53" s="31"/>
-      <c r="CP53" s="31"/>
-      <c r="CQ53" s="31"/>
-      <c r="CR53" s="31"/>
-      <c r="CS53" s="11"/>
+      <c r="CN53" s="18">
+        <v>22.217115930902494</v>
+      </c>
+      <c r="CO53" s="18">
+        <v>18.674318865146404</v>
+      </c>
+      <c r="CP53" s="18"/>
+      <c r="CQ53" s="18"/>
+      <c r="CR53" s="18"/>
+      <c r="CS53" s="18"/>
       <c r="CT53" s="11"/>
       <c r="CU53" s="11"/>
       <c r="CV53" s="11"/>
@@ -31698,13 +31683,14 @@
       <c r="CI54" s="15"/>
       <c r="CJ54" s="15"/>
       <c r="CK54" s="15"/>
-      <c r="CL54" s="27"/>
-      <c r="CM54" s="27"/>
-      <c r="CN54" s="27"/>
-      <c r="CO54" s="27"/>
-      <c r="CP54" s="27"/>
-      <c r="CQ54" s="27"/>
-      <c r="CR54" s="27"/>
+      <c r="CL54" s="15"/>
+      <c r="CM54" s="15"/>
+      <c r="CN54" s="15"/>
+      <c r="CO54" s="15"/>
+      <c r="CP54" s="15"/>
+      <c r="CQ54" s="15"/>
+      <c r="CR54" s="15"/>
+      <c r="CS54" s="15"/>
     </row>
     <row r="55" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
@@ -31798,13 +31784,14 @@
       <c r="CI55" s="1"/>
       <c r="CJ55" s="1"/>
       <c r="CK55" s="1"/>
-      <c r="CL55" s="23"/>
-      <c r="CM55" s="23"/>
-      <c r="CN55" s="23"/>
-      <c r="CO55" s="23"/>
-      <c r="CP55" s="23"/>
-      <c r="CQ55" s="23"/>
-      <c r="CR55" s="23"/>
+      <c r="CL55" s="1"/>
+      <c r="CM55" s="1"/>
+      <c r="CN55" s="1"/>
+      <c r="CO55" s="1"/>
+      <c r="CP55" s="1"/>
+      <c r="CQ55" s="1"/>
+      <c r="CR55" s="1"/>
+      <c r="CS55" s="1"/>
     </row>
     <row r="56" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="17"/>
@@ -31895,14 +31882,14 @@
       <c r="CI56" s="17"/>
       <c r="CJ56" s="17"/>
       <c r="CK56" s="17"/>
-      <c r="CL56" s="28"/>
-      <c r="CM56" s="28"/>
-      <c r="CN56" s="28"/>
-      <c r="CO56" s="28"/>
-      <c r="CP56" s="28"/>
-      <c r="CQ56" s="28"/>
-      <c r="CR56" s="28"/>
-      <c r="CS56" s="11"/>
+      <c r="CL56" s="17"/>
+      <c r="CM56" s="17"/>
+      <c r="CN56" s="17"/>
+      <c r="CO56" s="17"/>
+      <c r="CP56" s="17"/>
+      <c r="CQ56" s="17"/>
+      <c r="CR56" s="17"/>
+      <c r="CS56" s="17"/>
       <c r="CT56" s="11"/>
       <c r="CU56" s="11"/>
       <c r="CV56" s="11"/>
@@ -32047,14 +32034,14 @@
       <c r="CI57" s="17"/>
       <c r="CJ57" s="17"/>
       <c r="CK57" s="17"/>
-      <c r="CL57" s="28"/>
-      <c r="CM57" s="28"/>
-      <c r="CN57" s="28"/>
-      <c r="CO57" s="28"/>
-      <c r="CP57" s="28"/>
-      <c r="CQ57" s="28"/>
-      <c r="CR57" s="28"/>
-      <c r="CS57" s="11"/>
+      <c r="CL57" s="17"/>
+      <c r="CM57" s="17"/>
+      <c r="CN57" s="17"/>
+      <c r="CO57" s="17"/>
+      <c r="CP57" s="17"/>
+      <c r="CQ57" s="17"/>
+      <c r="CR57" s="17"/>
+      <c r="CS57" s="17"/>
       <c r="CT57" s="11"/>
       <c r="CU57" s="11"/>
       <c r="CV57" s="11"/>
@@ -32202,13 +32189,14 @@
       <c r="CI58" s="1"/>
       <c r="CJ58" s="1"/>
       <c r="CK58" s="1"/>
-      <c r="CL58" s="23"/>
-      <c r="CM58" s="23"/>
-      <c r="CN58" s="23"/>
-      <c r="CO58" s="23"/>
-      <c r="CP58" s="23"/>
-      <c r="CQ58" s="23"/>
-      <c r="CR58" s="23"/>
+      <c r="CL58" s="1"/>
+      <c r="CM58" s="1"/>
+      <c r="CN58" s="1"/>
+      <c r="CO58" s="1"/>
+      <c r="CP58" s="1"/>
+      <c r="CQ58" s="1"/>
+      <c r="CR58" s="1"/>
+      <c r="CS58" s="1"/>
     </row>
     <row r="59" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -32302,17 +32290,18 @@
       <c r="CI59" s="1"/>
       <c r="CJ59" s="1"/>
       <c r="CK59" s="1"/>
-      <c r="CL59" s="23"/>
-      <c r="CM59" s="23"/>
-      <c r="CN59" s="23"/>
-      <c r="CO59" s="23"/>
-      <c r="CP59" s="23"/>
-      <c r="CQ59" s="23"/>
-      <c r="CR59" s="23"/>
+      <c r="CL59" s="1"/>
+      <c r="CM59" s="1"/>
+      <c r="CN59" s="1"/>
+      <c r="CO59" s="1"/>
+      <c r="CP59" s="1"/>
+      <c r="CQ59" s="1"/>
+      <c r="CR59" s="1"/>
+      <c r="CS59" s="1"/>
     </row>
     <row r="60" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -32402,13 +32391,14 @@
       <c r="CI60" s="1"/>
       <c r="CJ60" s="1"/>
       <c r="CK60" s="1"/>
-      <c r="CL60" s="23"/>
-      <c r="CM60" s="23"/>
-      <c r="CN60" s="23"/>
-      <c r="CO60" s="23"/>
-      <c r="CP60" s="23"/>
-      <c r="CQ60" s="23"/>
-      <c r="CR60" s="23"/>
+      <c r="CL60" s="1"/>
+      <c r="CM60" s="1"/>
+      <c r="CN60" s="1"/>
+      <c r="CO60" s="1"/>
+      <c r="CP60" s="1"/>
+      <c r="CQ60" s="1"/>
+      <c r="CR60" s="1"/>
+      <c r="CS60" s="1"/>
     </row>
     <row r="61" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
@@ -32500,13 +32490,14 @@
       <c r="CI61" s="1"/>
       <c r="CJ61" s="1"/>
       <c r="CK61" s="1"/>
-      <c r="CL61" s="23"/>
-      <c r="CM61" s="23"/>
-      <c r="CN61" s="23"/>
-      <c r="CO61" s="23"/>
-      <c r="CP61" s="23"/>
-      <c r="CQ61" s="23"/>
-      <c r="CR61" s="23"/>
+      <c r="CL61" s="1"/>
+      <c r="CM61" s="1"/>
+      <c r="CN61" s="1"/>
+      <c r="CO61" s="1"/>
+      <c r="CP61" s="1"/>
+      <c r="CQ61" s="1"/>
+      <c r="CR61" s="1"/>
+      <c r="CS61" s="1"/>
     </row>
     <row r="62" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -32600,17 +32591,18 @@
       <c r="CI62" s="1"/>
       <c r="CJ62" s="1"/>
       <c r="CK62" s="1"/>
-      <c r="CL62" s="23"/>
-      <c r="CM62" s="23"/>
-      <c r="CN62" s="23"/>
-      <c r="CO62" s="23"/>
-      <c r="CP62" s="23"/>
-      <c r="CQ62" s="23"/>
-      <c r="CR62" s="23"/>
+      <c r="CL62" s="1"/>
+      <c r="CM62" s="1"/>
+      <c r="CN62" s="1"/>
+      <c r="CO62" s="1"/>
+      <c r="CP62" s="1"/>
+      <c r="CQ62" s="1"/>
+      <c r="CR62" s="1"/>
+      <c r="CS62" s="1"/>
     </row>
     <row r="63" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -32700,13 +32692,14 @@
       <c r="CI63" s="1"/>
       <c r="CJ63" s="1"/>
       <c r="CK63" s="1"/>
-      <c r="CL63" s="23"/>
-      <c r="CM63" s="23"/>
-      <c r="CN63" s="23"/>
-      <c r="CO63" s="23"/>
-      <c r="CP63" s="23"/>
-      <c r="CQ63" s="23"/>
-      <c r="CR63" s="23"/>
+      <c r="CL63" s="1"/>
+      <c r="CM63" s="1"/>
+      <c r="CN63" s="1"/>
+      <c r="CO63" s="1"/>
+      <c r="CP63" s="1"/>
+      <c r="CQ63" s="1"/>
+      <c r="CR63" s="1"/>
+      <c r="CS63" s="1"/>
     </row>
     <row r="64" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
@@ -32800,13 +32793,14 @@
       <c r="CI64" s="1"/>
       <c r="CJ64" s="1"/>
       <c r="CK64" s="1"/>
-      <c r="CL64" s="23"/>
-      <c r="CM64" s="23"/>
-      <c r="CN64" s="23"/>
-      <c r="CO64" s="23"/>
-      <c r="CP64" s="23"/>
-      <c r="CQ64" s="23"/>
-      <c r="CR64" s="23"/>
+      <c r="CL64" s="1"/>
+      <c r="CM64" s="1"/>
+      <c r="CN64" s="1"/>
+      <c r="CO64" s="1"/>
+      <c r="CP64" s="1"/>
+      <c r="CQ64" s="1"/>
+      <c r="CR64" s="1"/>
+      <c r="CS64" s="1"/>
     </row>
     <row r="65" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
@@ -32898,157 +32892,159 @@
       <c r="CI65" s="1"/>
       <c r="CJ65" s="1"/>
       <c r="CK65" s="1"/>
-      <c r="CL65" s="23"/>
-      <c r="CM65" s="23"/>
-      <c r="CN65" s="23"/>
-      <c r="CO65" s="23"/>
-      <c r="CP65" s="23"/>
-      <c r="CQ65" s="23"/>
-      <c r="CR65" s="23"/>
+      <c r="CL65" s="1"/>
+      <c r="CM65" s="1"/>
+      <c r="CN65" s="1"/>
+      <c r="CO65" s="1"/>
+      <c r="CP65" s="1"/>
+      <c r="CQ65" s="1"/>
+      <c r="CR65" s="1"/>
+      <c r="CS65" s="1"/>
     </row>
     <row r="66" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
-      <c r="B66" s="35" t="s">
+      <c r="B66" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="35" t="s">
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="34"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="34"/>
-      <c r="J66" s="35" t="s">
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="34"/>
-      <c r="L66" s="34"/>
-      <c r="M66" s="34"/>
-      <c r="N66" s="35" t="s">
+      <c r="K66" s="27"/>
+      <c r="L66" s="27"/>
+      <c r="M66" s="27"/>
+      <c r="N66" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="34"/>
-      <c r="P66" s="34"/>
-      <c r="Q66" s="34"/>
-      <c r="R66" s="35" t="s">
+      <c r="O66" s="27"/>
+      <c r="P66" s="27"/>
+      <c r="Q66" s="27"/>
+      <c r="R66" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="34"/>
-      <c r="T66" s="34"/>
-      <c r="U66" s="34"/>
-      <c r="V66" s="35" t="s">
+      <c r="S66" s="27"/>
+      <c r="T66" s="27"/>
+      <c r="U66" s="27"/>
+      <c r="V66" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="34"/>
-      <c r="X66" s="34"/>
-      <c r="Y66" s="34"/>
-      <c r="Z66" s="35" t="s">
+      <c r="W66" s="27"/>
+      <c r="X66" s="27"/>
+      <c r="Y66" s="27"/>
+      <c r="Z66" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="34"/>
-      <c r="AB66" s="34"/>
-      <c r="AC66" s="34"/>
-      <c r="AD66" s="35" t="s">
+      <c r="AA66" s="27"/>
+      <c r="AB66" s="27"/>
+      <c r="AC66" s="27"/>
+      <c r="AD66" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="34"/>
-      <c r="AF66" s="34"/>
-      <c r="AG66" s="34"/>
-      <c r="AH66" s="35" t="s">
+      <c r="AE66" s="27"/>
+      <c r="AF66" s="27"/>
+      <c r="AG66" s="27"/>
+      <c r="AH66" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="34"/>
-      <c r="AJ66" s="34"/>
-      <c r="AK66" s="34"/>
-      <c r="AL66" s="35" t="s">
+      <c r="AI66" s="27"/>
+      <c r="AJ66" s="27"/>
+      <c r="AK66" s="27"/>
+      <c r="AL66" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="34"/>
-      <c r="AN66" s="34"/>
-      <c r="AO66" s="34"/>
-      <c r="AP66" s="35" t="s">
+      <c r="AM66" s="27"/>
+      <c r="AN66" s="27"/>
+      <c r="AO66" s="27"/>
+      <c r="AP66" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="34"/>
-      <c r="AR66" s="34"/>
-      <c r="AS66" s="34"/>
-      <c r="AT66" s="35" t="s">
+      <c r="AQ66" s="27"/>
+      <c r="AR66" s="27"/>
+      <c r="AS66" s="27"/>
+      <c r="AT66" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="34"/>
-      <c r="AV66" s="34"/>
-      <c r="AW66" s="34"/>
-      <c r="AX66" s="35" t="s">
+      <c r="AU66" s="27"/>
+      <c r="AV66" s="27"/>
+      <c r="AW66" s="27"/>
+      <c r="AX66" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="34"/>
-      <c r="AZ66" s="34"/>
-      <c r="BA66" s="34"/>
-      <c r="BB66" s="35" t="s">
+      <c r="AY66" s="27"/>
+      <c r="AZ66" s="27"/>
+      <c r="BA66" s="27"/>
+      <c r="BB66" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="34"/>
-      <c r="BD66" s="34"/>
-      <c r="BE66" s="34"/>
-      <c r="BF66" s="35" t="s">
+      <c r="BC66" s="27"/>
+      <c r="BD66" s="27"/>
+      <c r="BE66" s="27"/>
+      <c r="BF66" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="34"/>
-      <c r="BH66" s="34"/>
-      <c r="BI66" s="34"/>
-      <c r="BJ66" s="35" t="s">
+      <c r="BG66" s="27"/>
+      <c r="BH66" s="27"/>
+      <c r="BI66" s="27"/>
+      <c r="BJ66" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="34"/>
-      <c r="BL66" s="34"/>
-      <c r="BM66" s="34"/>
-      <c r="BN66" s="35" t="s">
+      <c r="BK66" s="27"/>
+      <c r="BL66" s="27"/>
+      <c r="BM66" s="27"/>
+      <c r="BN66" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="34"/>
-      <c r="BP66" s="34"/>
-      <c r="BQ66" s="34"/>
-      <c r="BR66" s="35" t="s">
+      <c r="BO66" s="27"/>
+      <c r="BP66" s="27"/>
+      <c r="BQ66" s="27"/>
+      <c r="BR66" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="34"/>
-      <c r="BT66" s="34"/>
-      <c r="BU66" s="34"/>
-      <c r="BV66" s="35" t="s">
+      <c r="BS66" s="27"/>
+      <c r="BT66" s="27"/>
+      <c r="BU66" s="27"/>
+      <c r="BV66" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="BW66" s="35"/>
-      <c r="BX66" s="35"/>
-      <c r="BY66" s="35"/>
-      <c r="BZ66" s="35" t="s">
+      <c r="BW66" s="25"/>
+      <c r="BX66" s="25"/>
+      <c r="BY66" s="25"/>
+      <c r="BZ66" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="35"/>
-      <c r="CB66" s="35"/>
-      <c r="CC66" s="35"/>
-      <c r="CD66" s="35" t="s">
+      <c r="CA66" s="25"/>
+      <c r="CB66" s="25"/>
+      <c r="CC66" s="25"/>
+      <c r="CD66" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="35"/>
-      <c r="CF66" s="35"/>
-      <c r="CG66" s="35"/>
-      <c r="CH66" s="35" t="s">
+      <c r="CE66" s="25"/>
+      <c r="CF66" s="25"/>
+      <c r="CG66" s="25"/>
+      <c r="CH66" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="CI66" s="35"/>
-      <c r="CJ66" s="35"/>
-      <c r="CK66" s="35"/>
-      <c r="CL66" s="34" t="s">
+      <c r="CI66" s="25"/>
+      <c r="CJ66" s="25"/>
+      <c r="CK66" s="25"/>
+      <c r="CL66" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="CM66" s="34"/>
-      <c r="CN66" s="34"/>
-      <c r="CO66" s="29"/>
-      <c r="CP66" s="21"/>
-      <c r="CQ66" s="21"/>
-      <c r="CR66" s="21"/>
+      <c r="CM66" s="24"/>
+      <c r="CN66" s="24"/>
+      <c r="CO66" s="24"/>
+      <c r="CP66" s="23"/>
+      <c r="CQ66" s="23"/>
+      <c r="CR66" s="23"/>
+      <c r="CS66" s="23"/>
     </row>
     <row r="67" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
@@ -33318,19 +33314,22 @@
       <c r="CK67" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL67" s="30" t="s">
+      <c r="CL67" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM67" s="30" t="s">
+      <c r="CM67" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN67" s="30" t="s">
+      <c r="CN67" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CO67" s="30"/>
-      <c r="CP67" s="30"/>
-      <c r="CQ67" s="30"/>
-      <c r="CR67" s="30"/>
+      <c r="CO67" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="CP67" s="6"/>
+      <c r="CQ67" s="6"/>
+      <c r="CR67" s="6"/>
+      <c r="CS67" s="6"/>
     </row>
     <row r="68" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
@@ -33422,13 +33421,14 @@
       <c r="CI68" s="1"/>
       <c r="CJ68" s="1"/>
       <c r="CK68" s="1"/>
-      <c r="CL68" s="23"/>
-      <c r="CM68" s="23"/>
-      <c r="CN68" s="23"/>
-      <c r="CO68" s="23"/>
-      <c r="CP68" s="23"/>
-      <c r="CQ68" s="23"/>
-      <c r="CR68" s="23"/>
+      <c r="CL68" s="1"/>
+      <c r="CM68" s="1"/>
+      <c r="CN68" s="1"/>
+      <c r="CO68" s="1"/>
+      <c r="CP68" s="1"/>
+      <c r="CQ68" s="1"/>
+      <c r="CR68" s="1"/>
+      <c r="CS68" s="1"/>
     </row>
     <row r="69" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
@@ -33698,20 +33698,22 @@
       <c r="CK69" s="18">
         <v>20.378212929455103</v>
       </c>
-      <c r="CL69" s="31">
+      <c r="CL69" s="18">
         <v>42.536438739019218</v>
       </c>
-      <c r="CM69" s="31">
+      <c r="CM69" s="18">
         <v>21.274949302047915</v>
       </c>
-      <c r="CN69" s="31">
-        <v>15.492708077201627</v>
-      </c>
-      <c r="CO69" s="31"/>
-      <c r="CP69" s="31"/>
-      <c r="CQ69" s="31"/>
-      <c r="CR69" s="31"/>
-      <c r="CS69" s="11"/>
+      <c r="CN69" s="18">
+        <v>15.59108858589515</v>
+      </c>
+      <c r="CO69" s="18">
+        <v>10.661688984583279</v>
+      </c>
+      <c r="CP69" s="18"/>
+      <c r="CQ69" s="18"/>
+      <c r="CR69" s="18"/>
+      <c r="CS69" s="18"/>
       <c r="CT69" s="11"/>
       <c r="CU69" s="11"/>
       <c r="CV69" s="11"/>
@@ -34035,20 +34037,22 @@
       <c r="CK70" s="18">
         <v>15.554341223086141</v>
       </c>
-      <c r="CL70" s="31">
+      <c r="CL70" s="18">
         <v>30.26322349615063</v>
       </c>
-      <c r="CM70" s="31">
+      <c r="CM70" s="18">
         <v>22.980474385009259</v>
       </c>
-      <c r="CN70" s="31">
-        <v>17.672877235465535</v>
-      </c>
-      <c r="CO70" s="31"/>
-      <c r="CP70" s="31"/>
-      <c r="CQ70" s="31"/>
-      <c r="CR70" s="31"/>
-      <c r="CS70" s="11"/>
+      <c r="CN70" s="18">
+        <v>16.312144295172317</v>
+      </c>
+      <c r="CO70" s="18">
+        <v>14.002535574841673</v>
+      </c>
+      <c r="CP70" s="18"/>
+      <c r="CQ70" s="18"/>
+      <c r="CR70" s="18"/>
+      <c r="CS70" s="18"/>
       <c r="CT70" s="11"/>
       <c r="CU70" s="11"/>
       <c r="CV70" s="11"/>
@@ -34193,14 +34197,14 @@
       <c r="CI71" s="17"/>
       <c r="CJ71" s="17"/>
       <c r="CK71" s="17"/>
-      <c r="CL71" s="28"/>
-      <c r="CM71" s="28"/>
-      <c r="CN71" s="28"/>
-      <c r="CO71" s="28"/>
-      <c r="CP71" s="28"/>
-      <c r="CQ71" s="28"/>
-      <c r="CR71" s="28"/>
-      <c r="CS71" s="11"/>
+      <c r="CL71" s="17"/>
+      <c r="CM71" s="17"/>
+      <c r="CN71" s="17"/>
+      <c r="CO71" s="17"/>
+      <c r="CP71" s="17"/>
+      <c r="CQ71" s="17"/>
+      <c r="CR71" s="17"/>
+      <c r="CS71" s="17"/>
       <c r="CT71" s="11"/>
       <c r="CU71" s="11"/>
       <c r="CV71" s="11"/>
@@ -34524,20 +34528,22 @@
       <c r="CK72" s="18">
         <v>18.57265508946189</v>
       </c>
-      <c r="CL72" s="31">
+      <c r="CL72" s="18">
         <v>37.01686997760558</v>
       </c>
-      <c r="CM72" s="31">
+      <c r="CM72" s="18">
         <v>21.925046404587704</v>
       </c>
-      <c r="CN72" s="31">
-        <v>16.336388508521708</v>
-      </c>
-      <c r="CO72" s="31"/>
-      <c r="CP72" s="31"/>
-      <c r="CQ72" s="31"/>
-      <c r="CR72" s="31"/>
-      <c r="CS72" s="11"/>
+      <c r="CN72" s="18">
+        <v>15.870122251472367</v>
+      </c>
+      <c r="CO72" s="18">
+        <v>11.880324725333267</v>
+      </c>
+      <c r="CP72" s="18"/>
+      <c r="CQ72" s="18"/>
+      <c r="CR72" s="18"/>
+      <c r="CS72" s="18"/>
       <c r="CT72" s="11"/>
       <c r="CU72" s="11"/>
       <c r="CV72" s="11"/>
@@ -34683,13 +34689,14 @@
       <c r="CI73" s="15"/>
       <c r="CJ73" s="15"/>
       <c r="CK73" s="15"/>
-      <c r="CL73" s="27"/>
-      <c r="CM73" s="27"/>
-      <c r="CN73" s="27"/>
-      <c r="CO73" s="27"/>
-      <c r="CP73" s="27"/>
-      <c r="CQ73" s="27"/>
-      <c r="CR73" s="27"/>
+      <c r="CL73" s="15"/>
+      <c r="CM73" s="15"/>
+      <c r="CN73" s="15"/>
+      <c r="CO73" s="15"/>
+      <c r="CP73" s="15"/>
+      <c r="CQ73" s="15"/>
+      <c r="CR73" s="15"/>
+      <c r="CS73" s="15"/>
     </row>
     <row r="74" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
@@ -34783,13 +34790,14 @@
       <c r="CI74" s="1"/>
       <c r="CJ74" s="1"/>
       <c r="CK74" s="1"/>
-      <c r="CL74" s="23"/>
-      <c r="CM74" s="23"/>
-      <c r="CN74" s="23"/>
-      <c r="CO74" s="23"/>
-      <c r="CP74" s="23"/>
-      <c r="CQ74" s="23"/>
-      <c r="CR74" s="23"/>
+      <c r="CL74" s="1"/>
+      <c r="CM74" s="1"/>
+      <c r="CN74" s="1"/>
+      <c r="CO74" s="1"/>
+      <c r="CP74" s="1"/>
+      <c r="CQ74" s="1"/>
+      <c r="CR74" s="1"/>
+      <c r="CS74" s="1"/>
     </row>
     <row r="75" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="17"/>
@@ -34880,13 +34888,13 @@
       <c r="CI75" s="11"/>
       <c r="CJ75" s="11"/>
       <c r="CK75" s="11"/>
-      <c r="CL75" s="32"/>
-      <c r="CM75" s="32"/>
-      <c r="CN75" s="32"/>
-      <c r="CO75" s="32"/>
-      <c r="CP75" s="32"/>
-      <c r="CQ75" s="32"/>
-      <c r="CR75" s="32"/>
+      <c r="CL75" s="11"/>
+      <c r="CM75" s="11"/>
+      <c r="CN75" s="11"/>
+      <c r="CO75" s="11"/>
+      <c r="CP75" s="11"/>
+      <c r="CQ75" s="11"/>
+      <c r="CR75" s="11"/>
       <c r="CS75" s="11"/>
       <c r="CT75" s="11"/>
       <c r="CU75" s="11"/>
@@ -35032,14 +35040,14 @@
       <c r="CI76" s="17"/>
       <c r="CJ76" s="17"/>
       <c r="CK76" s="17"/>
-      <c r="CL76" s="28"/>
-      <c r="CM76" s="28"/>
-      <c r="CN76" s="28"/>
-      <c r="CO76" s="28"/>
-      <c r="CP76" s="28"/>
-      <c r="CQ76" s="28"/>
-      <c r="CR76" s="28"/>
-      <c r="CS76" s="11"/>
+      <c r="CL76" s="17"/>
+      <c r="CM76" s="17"/>
+      <c r="CN76" s="17"/>
+      <c r="CO76" s="17"/>
+      <c r="CP76" s="17"/>
+      <c r="CQ76" s="17"/>
+      <c r="CR76" s="17"/>
+      <c r="CS76" s="17"/>
       <c r="CT76" s="11"/>
       <c r="CU76" s="11"/>
       <c r="CV76" s="11"/>
@@ -35191,17 +35199,18 @@
       <c r="CI77" s="1"/>
       <c r="CJ77" s="1"/>
       <c r="CK77" s="1"/>
-      <c r="CL77" s="23"/>
-      <c r="CM77" s="23"/>
-      <c r="CN77" s="23"/>
-      <c r="CO77" s="23"/>
-      <c r="CP77" s="23"/>
-      <c r="CQ77" s="23"/>
-      <c r="CR77" s="23"/>
+      <c r="CL77" s="1"/>
+      <c r="CM77" s="1"/>
+      <c r="CN77" s="1"/>
+      <c r="CO77" s="1"/>
+      <c r="CP77" s="1"/>
+      <c r="CQ77" s="1"/>
+      <c r="CR77" s="1"/>
+      <c r="CS77" s="1"/>
     </row>
     <row r="78" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -35291,13 +35300,14 @@
       <c r="CI78" s="1"/>
       <c r="CJ78" s="1"/>
       <c r="CK78" s="1"/>
-      <c r="CL78" s="23"/>
-      <c r="CM78" s="23"/>
-      <c r="CN78" s="23"/>
-      <c r="CO78" s="23"/>
-      <c r="CP78" s="23"/>
-      <c r="CQ78" s="23"/>
-      <c r="CR78" s="23"/>
+      <c r="CL78" s="1"/>
+      <c r="CM78" s="1"/>
+      <c r="CN78" s="1"/>
+      <c r="CO78" s="1"/>
+      <c r="CP78" s="1"/>
+      <c r="CQ78" s="1"/>
+      <c r="CR78" s="1"/>
+      <c r="CS78" s="1"/>
     </row>
     <row r="79" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
@@ -35389,13 +35399,14 @@
       <c r="CI79" s="1"/>
       <c r="CJ79" s="1"/>
       <c r="CK79" s="1"/>
-      <c r="CL79" s="23"/>
-      <c r="CM79" s="23"/>
-      <c r="CN79" s="23"/>
-      <c r="CO79" s="23"/>
-      <c r="CP79" s="23"/>
-      <c r="CQ79" s="23"/>
-      <c r="CR79" s="23"/>
+      <c r="CL79" s="1"/>
+      <c r="CM79" s="1"/>
+      <c r="CN79" s="1"/>
+      <c r="CO79" s="1"/>
+      <c r="CP79" s="1"/>
+      <c r="CQ79" s="1"/>
+      <c r="CR79" s="1"/>
+      <c r="CS79" s="1"/>
     </row>
     <row r="80" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
@@ -35489,17 +35500,18 @@
       <c r="CI80" s="1"/>
       <c r="CJ80" s="1"/>
       <c r="CK80" s="1"/>
-      <c r="CL80" s="23"/>
-      <c r="CM80" s="23"/>
-      <c r="CN80" s="23"/>
-      <c r="CO80" s="23"/>
-      <c r="CP80" s="23"/>
-      <c r="CQ80" s="23"/>
-      <c r="CR80" s="23"/>
+      <c r="CL80" s="1"/>
+      <c r="CM80" s="1"/>
+      <c r="CN80" s="1"/>
+      <c r="CO80" s="1"/>
+      <c r="CP80" s="1"/>
+      <c r="CQ80" s="1"/>
+      <c r="CR80" s="1"/>
+      <c r="CS80" s="1"/>
     </row>
     <row r="81" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -35589,13 +35601,14 @@
       <c r="CI81" s="1"/>
       <c r="CJ81" s="1"/>
       <c r="CK81" s="1"/>
-      <c r="CL81" s="23"/>
-      <c r="CM81" s="23"/>
-      <c r="CN81" s="23"/>
-      <c r="CO81" s="23"/>
-      <c r="CP81" s="23"/>
-      <c r="CQ81" s="23"/>
-      <c r="CR81" s="23"/>
+      <c r="CL81" s="1"/>
+      <c r="CM81" s="1"/>
+      <c r="CN81" s="1"/>
+      <c r="CO81" s="1"/>
+      <c r="CP81" s="1"/>
+      <c r="CQ81" s="1"/>
+      <c r="CR81" s="1"/>
+      <c r="CS81" s="1"/>
     </row>
     <row r="82" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
@@ -35689,13 +35702,14 @@
       <c r="CI82" s="1"/>
       <c r="CJ82" s="1"/>
       <c r="CK82" s="1"/>
-      <c r="CL82" s="23"/>
-      <c r="CM82" s="23"/>
-      <c r="CN82" s="23"/>
-      <c r="CO82" s="23"/>
-      <c r="CP82" s="23"/>
-      <c r="CQ82" s="23"/>
-      <c r="CR82" s="23"/>
+      <c r="CL82" s="1"/>
+      <c r="CM82" s="1"/>
+      <c r="CN82" s="1"/>
+      <c r="CO82" s="1"/>
+      <c r="CP82" s="1"/>
+      <c r="CQ82" s="1"/>
+      <c r="CR82" s="1"/>
+      <c r="CS82" s="1"/>
     </row>
     <row r="83" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
@@ -35787,159 +35801,161 @@
       <c r="CI83" s="1"/>
       <c r="CJ83" s="1"/>
       <c r="CK83" s="1"/>
-      <c r="CL83" s="23"/>
-      <c r="CM83" s="23"/>
-      <c r="CN83" s="23"/>
-      <c r="CO83" s="23"/>
-      <c r="CP83" s="23"/>
-      <c r="CQ83" s="23"/>
-      <c r="CR83" s="23"/>
+      <c r="CL83" s="1"/>
+      <c r="CM83" s="1"/>
+      <c r="CN83" s="1"/>
+      <c r="CO83" s="1"/>
+      <c r="CP83" s="1"/>
+      <c r="CQ83" s="1"/>
+      <c r="CR83" s="1"/>
+      <c r="CS83" s="1"/>
     </row>
     <row r="84" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
-      <c r="B84" s="35">
+      <c r="B84" s="25">
         <v>2000</v>
       </c>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
-      <c r="E84" s="36"/>
-      <c r="F84" s="35">
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="25">
         <v>2001</v>
       </c>
-      <c r="G84" s="36"/>
-      <c r="H84" s="36"/>
-      <c r="I84" s="36"/>
-      <c r="J84" s="35">
+      <c r="G84" s="26"/>
+      <c r="H84" s="26"/>
+      <c r="I84" s="26"/>
+      <c r="J84" s="25">
         <v>2002</v>
       </c>
-      <c r="K84" s="36"/>
-      <c r="L84" s="36"/>
-      <c r="M84" s="36"/>
-      <c r="N84" s="35">
+      <c r="K84" s="26"/>
+      <c r="L84" s="26"/>
+      <c r="M84" s="26"/>
+      <c r="N84" s="25">
         <v>2003</v>
       </c>
-      <c r="O84" s="36"/>
-      <c r="P84" s="36"/>
-      <c r="Q84" s="36"/>
-      <c r="R84" s="35">
+      <c r="O84" s="26"/>
+      <c r="P84" s="26"/>
+      <c r="Q84" s="26"/>
+      <c r="R84" s="25">
         <v>2004</v>
       </c>
-      <c r="S84" s="36"/>
-      <c r="T84" s="36"/>
-      <c r="U84" s="36"/>
-      <c r="V84" s="35">
+      <c r="S84" s="26"/>
+      <c r="T84" s="26"/>
+      <c r="U84" s="26"/>
+      <c r="V84" s="25">
         <v>2005</v>
       </c>
-      <c r="W84" s="36"/>
-      <c r="X84" s="36"/>
-      <c r="Y84" s="36"/>
-      <c r="Z84" s="35">
+      <c r="W84" s="26"/>
+      <c r="X84" s="26"/>
+      <c r="Y84" s="26"/>
+      <c r="Z84" s="25">
         <v>2006</v>
       </c>
-      <c r="AA84" s="36"/>
-      <c r="AB84" s="36"/>
-      <c r="AC84" s="36"/>
-      <c r="AD84" s="35">
+      <c r="AA84" s="26"/>
+      <c r="AB84" s="26"/>
+      <c r="AC84" s="26"/>
+      <c r="AD84" s="25">
         <v>2007</v>
       </c>
-      <c r="AE84" s="36"/>
-      <c r="AF84" s="36"/>
-      <c r="AG84" s="36"/>
-      <c r="AH84" s="35">
+      <c r="AE84" s="26"/>
+      <c r="AF84" s="26"/>
+      <c r="AG84" s="26"/>
+      <c r="AH84" s="25">
         <v>2008</v>
       </c>
-      <c r="AI84" s="36"/>
-      <c r="AJ84" s="36"/>
-      <c r="AK84" s="36"/>
-      <c r="AL84" s="35">
+      <c r="AI84" s="26"/>
+      <c r="AJ84" s="26"/>
+      <c r="AK84" s="26"/>
+      <c r="AL84" s="25">
         <v>2009</v>
       </c>
-      <c r="AM84" s="36"/>
-      <c r="AN84" s="36"/>
-      <c r="AO84" s="36"/>
-      <c r="AP84" s="35">
+      <c r="AM84" s="26"/>
+      <c r="AN84" s="26"/>
+      <c r="AO84" s="26"/>
+      <c r="AP84" s="25">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="36"/>
-      <c r="AR84" s="36"/>
-      <c r="AS84" s="36"/>
-      <c r="AT84" s="35">
+      <c r="AQ84" s="26"/>
+      <c r="AR84" s="26"/>
+      <c r="AS84" s="26"/>
+      <c r="AT84" s="25">
         <v>2011</v>
       </c>
-      <c r="AU84" s="36"/>
-      <c r="AV84" s="36"/>
-      <c r="AW84" s="36"/>
-      <c r="AX84" s="35">
+      <c r="AU84" s="26"/>
+      <c r="AV84" s="26"/>
+      <c r="AW84" s="26"/>
+      <c r="AX84" s="25">
         <v>2012</v>
       </c>
-      <c r="AY84" s="36"/>
-      <c r="AZ84" s="36"/>
-      <c r="BA84" s="36"/>
-      <c r="BB84" s="35">
+      <c r="AY84" s="26"/>
+      <c r="AZ84" s="26"/>
+      <c r="BA84" s="26"/>
+      <c r="BB84" s="25">
         <v>2013</v>
       </c>
-      <c r="BC84" s="36"/>
-      <c r="BD84" s="36"/>
-      <c r="BE84" s="36"/>
-      <c r="BF84" s="35">
+      <c r="BC84" s="26"/>
+      <c r="BD84" s="26"/>
+      <c r="BE84" s="26"/>
+      <c r="BF84" s="25">
         <v>2014</v>
       </c>
-      <c r="BG84" s="36"/>
-      <c r="BH84" s="36"/>
-      <c r="BI84" s="36"/>
-      <c r="BJ84" s="35">
+      <c r="BG84" s="26"/>
+      <c r="BH84" s="26"/>
+      <c r="BI84" s="26"/>
+      <c r="BJ84" s="25">
         <v>2015</v>
       </c>
-      <c r="BK84" s="36"/>
-      <c r="BL84" s="36"/>
-      <c r="BM84" s="36"/>
-      <c r="BN84" s="35">
+      <c r="BK84" s="26"/>
+      <c r="BL84" s="26"/>
+      <c r="BM84" s="26"/>
+      <c r="BN84" s="25">
         <v>2016</v>
       </c>
-      <c r="BO84" s="36"/>
-      <c r="BP84" s="36"/>
-      <c r="BQ84" s="36"/>
-      <c r="BR84" s="35">
+      <c r="BO84" s="26"/>
+      <c r="BP84" s="26"/>
+      <c r="BQ84" s="26"/>
+      <c r="BR84" s="25">
         <v>2017</v>
       </c>
-      <c r="BS84" s="36"/>
-      <c r="BT84" s="36"/>
-      <c r="BU84" s="36"/>
-      <c r="BV84" s="35">
+      <c r="BS84" s="26"/>
+      <c r="BT84" s="26"/>
+      <c r="BU84" s="26"/>
+      <c r="BV84" s="25">
         <v>2018</v>
       </c>
-      <c r="BW84" s="35"/>
-      <c r="BX84" s="35"/>
-      <c r="BY84" s="35"/>
-      <c r="BZ84" s="35">
+      <c r="BW84" s="25"/>
+      <c r="BX84" s="25"/>
+      <c r="BY84" s="25"/>
+      <c r="BZ84" s="25">
         <v>2019</v>
       </c>
-      <c r="CA84" s="35"/>
-      <c r="CB84" s="35"/>
-      <c r="CC84" s="35"/>
-      <c r="CD84" s="35">
+      <c r="CA84" s="25"/>
+      <c r="CB84" s="25"/>
+      <c r="CC84" s="25"/>
+      <c r="CD84" s="25">
         <v>2020</v>
       </c>
-      <c r="CE84" s="35"/>
-      <c r="CF84" s="35"/>
-      <c r="CG84" s="35"/>
-      <c r="CH84" s="35">
+      <c r="CE84" s="25"/>
+      <c r="CF84" s="25"/>
+      <c r="CG84" s="25"/>
+      <c r="CH84" s="25">
         <v>2021</v>
       </c>
-      <c r="CI84" s="35"/>
-      <c r="CJ84" s="35"/>
-      <c r="CK84" s="35"/>
-      <c r="CL84" s="34">
+      <c r="CI84" s="25"/>
+      <c r="CJ84" s="25"/>
+      <c r="CK84" s="25"/>
+      <c r="CL84" s="24">
         <v>2022</v>
       </c>
-      <c r="CM84" s="34"/>
-      <c r="CN84" s="34"/>
-      <c r="CO84" s="34"/>
-      <c r="CP84" s="34">
+      <c r="CM84" s="24"/>
+      <c r="CN84" s="24"/>
+      <c r="CO84" s="24"/>
+      <c r="CP84" s="24">
         <v>2023</v>
       </c>
-      <c r="CQ84" s="34"/>
-      <c r="CR84" s="34"/>
+      <c r="CQ84" s="24"/>
+      <c r="CR84" s="24"/>
+      <c r="CS84" s="24"/>
     </row>
     <row r="85" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
@@ -36209,26 +36225,29 @@
       <c r="CK85" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL85" s="24" t="s">
+      <c r="CL85" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CM85" s="24" t="s">
+      <c r="CM85" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CN85" s="24" t="s">
+      <c r="CN85" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CO85" s="24" t="s">
+      <c r="CO85" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP85" s="24" t="s">
+      <c r="CP85" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CQ85" s="24" t="s">
+      <c r="CQ85" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CR85" s="24" t="s">
+      <c r="CR85" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="CS85" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -36321,13 +36340,14 @@
       <c r="CI86" s="1"/>
       <c r="CJ86" s="1"/>
       <c r="CK86" s="1"/>
-      <c r="CL86" s="23"/>
-      <c r="CM86" s="23"/>
-      <c r="CN86" s="23"/>
-      <c r="CO86" s="23"/>
-      <c r="CP86" s="23"/>
-      <c r="CQ86" s="23"/>
-      <c r="CR86" s="23"/>
+      <c r="CL86" s="1"/>
+      <c r="CM86" s="1"/>
+      <c r="CN86" s="1"/>
+      <c r="CO86" s="1"/>
+      <c r="CP86" s="1"/>
+      <c r="CQ86" s="1"/>
+      <c r="CR86" s="1"/>
+      <c r="CS86" s="1"/>
     </row>
     <row r="87" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
@@ -36597,28 +36617,30 @@
       <c r="CK87" s="18">
         <v>104.44343736226077</v>
       </c>
-      <c r="CL87" s="31">
+      <c r="CL87" s="18">
         <v>103.53314692178172</v>
       </c>
-      <c r="CM87" s="31">
+      <c r="CM87" s="18">
         <v>104.33778752720721</v>
       </c>
-      <c r="CN87" s="31">
+      <c r="CN87" s="18">
         <v>105.69718494277302</v>
       </c>
-      <c r="CO87" s="31">
+      <c r="CO87" s="18">
         <v>107.15023137264347</v>
       </c>
-      <c r="CP87" s="31">
+      <c r="CP87" s="18">
         <v>107.63739815046753</v>
       </c>
-      <c r="CQ87" s="31">
+      <c r="CQ87" s="18">
         <v>109.33026151133637</v>
       </c>
-      <c r="CR87" s="31">
+      <c r="CR87" s="18">
         <v>111.24146999255879</v>
       </c>
-      <c r="CS87" s="11"/>
+      <c r="CS87" s="18">
+        <v>112.74327851224525</v>
+      </c>
       <c r="CT87" s="11"/>
       <c r="CU87" s="11"/>
       <c r="CV87" s="11"/>
@@ -36946,28 +36968,30 @@
       <c r="CK88" s="18">
         <v>109.78266659971807</v>
       </c>
-      <c r="CL88" s="31">
+      <c r="CL88" s="18">
         <v>112.42109834151913</v>
       </c>
-      <c r="CM88" s="31">
+      <c r="CM88" s="18">
         <v>110.41240669809713</v>
       </c>
-      <c r="CN88" s="31">
+      <c r="CN88" s="18">
         <v>110.74048246119285</v>
       </c>
-      <c r="CO88" s="31">
+      <c r="CO88" s="18">
         <v>112.60190853181746</v>
       </c>
-      <c r="CP88" s="31">
+      <c r="CP88" s="18">
         <v>118.5814553306318</v>
       </c>
-      <c r="CQ88" s="31">
+      <c r="CQ88" s="18">
         <v>117.10001461439619</v>
       </c>
-      <c r="CR88" s="31">
-        <v>117.17271407720224</v>
-      </c>
-      <c r="CS88" s="11"/>
+      <c r="CR88" s="18">
+        <v>117.17271407720222</v>
+      </c>
+      <c r="CS88" s="18">
+        <v>120.87663561958928</v>
+      </c>
       <c r="CT88" s="11"/>
       <c r="CU88" s="11"/>
       <c r="CV88" s="11"/>
@@ -37116,14 +37140,14 @@
       <c r="CI89" s="17"/>
       <c r="CJ89" s="17"/>
       <c r="CK89" s="17"/>
-      <c r="CL89" s="28"/>
-      <c r="CM89" s="28"/>
-      <c r="CN89" s="28"/>
-      <c r="CO89" s="28"/>
-      <c r="CP89" s="28"/>
-      <c r="CQ89" s="28"/>
-      <c r="CR89" s="28"/>
-      <c r="CS89" s="11"/>
+      <c r="CL89" s="17"/>
+      <c r="CM89" s="17"/>
+      <c r="CN89" s="17"/>
+      <c r="CO89" s="17"/>
+      <c r="CP89" s="17"/>
+      <c r="CQ89" s="17"/>
+      <c r="CR89" s="17"/>
+      <c r="CS89" s="17"/>
       <c r="CT89" s="11"/>
       <c r="CU89" s="11"/>
       <c r="CV89" s="11"/>
@@ -37451,28 +37475,30 @@
       <c r="CK90" s="18">
         <v>106.44189167365634</v>
       </c>
-      <c r="CL90" s="31">
+      <c r="CL90" s="18">
         <v>107.53027872779724</v>
       </c>
-      <c r="CM90" s="31">
+      <c r="CM90" s="18">
         <v>106.65325761995506</v>
       </c>
-      <c r="CN90" s="31">
+      <c r="CN90" s="18">
         <v>107.64883690954252</v>
       </c>
-      <c r="CO90" s="31">
+      <c r="CO90" s="18">
         <v>109.13883170304233</v>
       </c>
-      <c r="CP90" s="31">
+      <c r="CP90" s="18">
         <v>112.3166123851491</v>
       </c>
-      <c r="CQ90" s="31">
+      <c r="CQ90" s="18">
         <v>112.31750465142485</v>
       </c>
-      <c r="CR90" s="31">
-        <v>113.56310731046439</v>
-      </c>
-      <c r="CS90" s="11"/>
+      <c r="CR90" s="18">
+        <v>113.54549494516644</v>
+      </c>
+      <c r="CS90" s="18">
+        <v>115.76634717403225</v>
+      </c>
       <c r="CT90" s="11"/>
       <c r="CU90" s="11"/>
       <c r="CV90" s="11"/>
@@ -37622,13 +37648,14 @@
       <c r="CI91" s="15"/>
       <c r="CJ91" s="15"/>
       <c r="CK91" s="15"/>
-      <c r="CL91" s="27"/>
-      <c r="CM91" s="27"/>
-      <c r="CN91" s="27"/>
-      <c r="CO91" s="27"/>
-      <c r="CP91" s="27"/>
-      <c r="CQ91" s="27"/>
-      <c r="CR91" s="27"/>
+      <c r="CL91" s="15"/>
+      <c r="CM91" s="15"/>
+      <c r="CN91" s="15"/>
+      <c r="CO91" s="15"/>
+      <c r="CP91" s="15"/>
+      <c r="CQ91" s="15"/>
+      <c r="CR91" s="15"/>
+      <c r="CS91" s="15"/>
     </row>
     <row r="92" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="16" t="s">
@@ -37722,13 +37749,14 @@
       <c r="CI92" s="1"/>
       <c r="CJ92" s="1"/>
       <c r="CK92" s="1"/>
-      <c r="CL92" s="23"/>
-      <c r="CM92" s="23"/>
-      <c r="CN92" s="23"/>
-      <c r="CO92" s="23"/>
-      <c r="CP92" s="23"/>
-      <c r="CQ92" s="23"/>
-      <c r="CR92" s="23"/>
+      <c r="CL92" s="1"/>
+      <c r="CM92" s="1"/>
+      <c r="CN92" s="1"/>
+      <c r="CO92" s="1"/>
+      <c r="CP92" s="1"/>
+      <c r="CQ92" s="1"/>
+      <c r="CR92" s="1"/>
+      <c r="CS92" s="1"/>
     </row>
     <row r="93" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
@@ -37819,13 +37847,14 @@
       <c r="CI93" s="1"/>
       <c r="CJ93" s="1"/>
       <c r="CK93" s="1"/>
-      <c r="CL93" s="23"/>
-      <c r="CM93" s="23"/>
-      <c r="CN93" s="23"/>
-      <c r="CO93" s="23"/>
-      <c r="CP93" s="23"/>
-      <c r="CQ93" s="23"/>
-      <c r="CR93" s="23"/>
+      <c r="CL93" s="1"/>
+      <c r="CM93" s="1"/>
+      <c r="CN93" s="1"/>
+      <c r="CO93" s="1"/>
+      <c r="CP93" s="1"/>
+      <c r="CQ93" s="1"/>
+      <c r="CR93" s="1"/>
+      <c r="CS93" s="1"/>
     </row>
     <row r="94" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
@@ -37916,13 +37945,14 @@
       <c r="CI94" s="1"/>
       <c r="CJ94" s="1"/>
       <c r="CK94" s="1"/>
-      <c r="CL94" s="23"/>
-      <c r="CM94" s="23"/>
-      <c r="CN94" s="23"/>
-      <c r="CO94" s="23"/>
-      <c r="CP94" s="23"/>
-      <c r="CQ94" s="23"/>
-      <c r="CR94" s="23"/>
+      <c r="CL94" s="1"/>
+      <c r="CM94" s="1"/>
+      <c r="CN94" s="1"/>
+      <c r="CO94" s="1"/>
+      <c r="CP94" s="1"/>
+      <c r="CQ94" s="1"/>
+      <c r="CR94" s="1"/>
+      <c r="CS94" s="1"/>
     </row>
     <row r="95" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
@@ -38016,13 +38046,14 @@
       <c r="CI95" s="1"/>
       <c r="CJ95" s="1"/>
       <c r="CK95" s="1"/>
-      <c r="CL95" s="23"/>
-      <c r="CM95" s="23"/>
-      <c r="CN95" s="23"/>
-      <c r="CO95" s="23"/>
-      <c r="CP95" s="23"/>
-      <c r="CQ95" s="23"/>
-      <c r="CR95" s="23"/>
+      <c r="CL95" s="1"/>
+      <c r="CM95" s="1"/>
+      <c r="CN95" s="1"/>
+      <c r="CO95" s="1"/>
+      <c r="CP95" s="1"/>
+      <c r="CQ95" s="1"/>
+      <c r="CR95" s="1"/>
+      <c r="CS95" s="1"/>
     </row>
     <row r="96" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
@@ -38116,17 +38147,18 @@
       <c r="CI96" s="1"/>
       <c r="CJ96" s="1"/>
       <c r="CK96" s="1"/>
-      <c r="CL96" s="23"/>
-      <c r="CM96" s="23"/>
-      <c r="CN96" s="23"/>
-      <c r="CO96" s="23"/>
-      <c r="CP96" s="23"/>
-      <c r="CQ96" s="23"/>
-      <c r="CR96" s="23"/>
+      <c r="CL96" s="1"/>
+      <c r="CM96" s="1"/>
+      <c r="CN96" s="1"/>
+      <c r="CO96" s="1"/>
+      <c r="CP96" s="1"/>
+      <c r="CQ96" s="1"/>
+      <c r="CR96" s="1"/>
+      <c r="CS96" s="1"/>
     </row>
     <row r="97" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -38216,13 +38248,14 @@
       <c r="CI97" s="1"/>
       <c r="CJ97" s="1"/>
       <c r="CK97" s="1"/>
-      <c r="CL97" s="23"/>
-      <c r="CM97" s="23"/>
-      <c r="CN97" s="23"/>
-      <c r="CO97" s="23"/>
-      <c r="CP97" s="23"/>
-      <c r="CQ97" s="23"/>
-      <c r="CR97" s="23"/>
+      <c r="CL97" s="1"/>
+      <c r="CM97" s="1"/>
+      <c r="CN97" s="1"/>
+      <c r="CO97" s="1"/>
+      <c r="CP97" s="1"/>
+      <c r="CQ97" s="1"/>
+      <c r="CR97" s="1"/>
+      <c r="CS97" s="1"/>
     </row>
     <row r="98" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
@@ -38314,13 +38347,14 @@
       <c r="CI98" s="1"/>
       <c r="CJ98" s="1"/>
       <c r="CK98" s="1"/>
-      <c r="CL98" s="23"/>
-      <c r="CM98" s="23"/>
-      <c r="CN98" s="23"/>
-      <c r="CO98" s="23"/>
-      <c r="CP98" s="23"/>
-      <c r="CQ98" s="23"/>
-      <c r="CR98" s="23"/>
+      <c r="CL98" s="1"/>
+      <c r="CM98" s="1"/>
+      <c r="CN98" s="1"/>
+      <c r="CO98" s="1"/>
+      <c r="CP98" s="1"/>
+      <c r="CQ98" s="1"/>
+      <c r="CR98" s="1"/>
+      <c r="CS98" s="1"/>
     </row>
     <row r="99" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
@@ -38414,17 +38448,18 @@
       <c r="CI99" s="1"/>
       <c r="CJ99" s="1"/>
       <c r="CK99" s="1"/>
-      <c r="CL99" s="23"/>
-      <c r="CM99" s="23"/>
-      <c r="CN99" s="23"/>
-      <c r="CO99" s="23"/>
-      <c r="CP99" s="23"/>
-      <c r="CQ99" s="23"/>
-      <c r="CR99" s="23"/>
+      <c r="CL99" s="1"/>
+      <c r="CM99" s="1"/>
+      <c r="CN99" s="1"/>
+      <c r="CO99" s="1"/>
+      <c r="CP99" s="1"/>
+      <c r="CQ99" s="1"/>
+      <c r="CR99" s="1"/>
+      <c r="CS99" s="1"/>
     </row>
     <row r="100" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -38514,13 +38549,14 @@
       <c r="CI100" s="1"/>
       <c r="CJ100" s="1"/>
       <c r="CK100" s="1"/>
-      <c r="CL100" s="23"/>
-      <c r="CM100" s="23"/>
-      <c r="CN100" s="23"/>
-      <c r="CO100" s="23"/>
-      <c r="CP100" s="23"/>
-      <c r="CQ100" s="23"/>
-      <c r="CR100" s="23"/>
+      <c r="CL100" s="1"/>
+      <c r="CM100" s="1"/>
+      <c r="CN100" s="1"/>
+      <c r="CO100" s="1"/>
+      <c r="CP100" s="1"/>
+      <c r="CQ100" s="1"/>
+      <c r="CR100" s="1"/>
+      <c r="CS100" s="1"/>
     </row>
     <row r="101" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
@@ -38614,13 +38650,14 @@
       <c r="CI101" s="1"/>
       <c r="CJ101" s="1"/>
       <c r="CK101" s="1"/>
-      <c r="CL101" s="23"/>
-      <c r="CM101" s="23"/>
-      <c r="CN101" s="23"/>
-      <c r="CO101" s="23"/>
-      <c r="CP101" s="23"/>
-      <c r="CQ101" s="23"/>
-      <c r="CR101" s="23"/>
+      <c r="CL101" s="1"/>
+      <c r="CM101" s="1"/>
+      <c r="CN101" s="1"/>
+      <c r="CO101" s="1"/>
+      <c r="CP101" s="1"/>
+      <c r="CQ101" s="1"/>
+      <c r="CR101" s="1"/>
+      <c r="CS101" s="1"/>
     </row>
     <row r="102" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
@@ -38712,159 +38749,161 @@
       <c r="CI102" s="1"/>
       <c r="CJ102" s="1"/>
       <c r="CK102" s="1"/>
-      <c r="CL102" s="23"/>
-      <c r="CM102" s="23"/>
-      <c r="CN102" s="23"/>
-      <c r="CO102" s="23"/>
-      <c r="CP102" s="23"/>
-      <c r="CQ102" s="23"/>
-      <c r="CR102" s="23"/>
+      <c r="CL102" s="1"/>
+      <c r="CM102" s="1"/>
+      <c r="CN102" s="1"/>
+      <c r="CO102" s="1"/>
+      <c r="CP102" s="1"/>
+      <c r="CQ102" s="1"/>
+      <c r="CR102" s="1"/>
+      <c r="CS102" s="1"/>
     </row>
     <row r="103" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
-      <c r="B103" s="35">
+      <c r="B103" s="25">
         <v>2000</v>
       </c>
-      <c r="C103" s="36"/>
-      <c r="D103" s="36"/>
-      <c r="E103" s="36"/>
-      <c r="F103" s="35">
+      <c r="C103" s="26"/>
+      <c r="D103" s="26"/>
+      <c r="E103" s="26"/>
+      <c r="F103" s="25">
         <v>2001</v>
       </c>
-      <c r="G103" s="36"/>
-      <c r="H103" s="36"/>
-      <c r="I103" s="36"/>
-      <c r="J103" s="35">
+      <c r="G103" s="26"/>
+      <c r="H103" s="26"/>
+      <c r="I103" s="26"/>
+      <c r="J103" s="25">
         <v>2002</v>
       </c>
-      <c r="K103" s="36"/>
-      <c r="L103" s="36"/>
-      <c r="M103" s="36"/>
-      <c r="N103" s="35">
+      <c r="K103" s="26"/>
+      <c r="L103" s="26"/>
+      <c r="M103" s="26"/>
+      <c r="N103" s="25">
         <v>2003</v>
       </c>
-      <c r="O103" s="36"/>
-      <c r="P103" s="36"/>
-      <c r="Q103" s="36"/>
-      <c r="R103" s="35">
+      <c r="O103" s="26"/>
+      <c r="P103" s="26"/>
+      <c r="Q103" s="26"/>
+      <c r="R103" s="25">
         <v>2004</v>
       </c>
-      <c r="S103" s="36"/>
-      <c r="T103" s="36"/>
-      <c r="U103" s="36"/>
-      <c r="V103" s="35">
+      <c r="S103" s="26"/>
+      <c r="T103" s="26"/>
+      <c r="U103" s="26"/>
+      <c r="V103" s="25">
         <v>2005</v>
       </c>
-      <c r="W103" s="36"/>
-      <c r="X103" s="36"/>
-      <c r="Y103" s="36"/>
-      <c r="Z103" s="35">
+      <c r="W103" s="26"/>
+      <c r="X103" s="26"/>
+      <c r="Y103" s="26"/>
+      <c r="Z103" s="25">
         <v>2006</v>
       </c>
-      <c r="AA103" s="36"/>
-      <c r="AB103" s="36"/>
-      <c r="AC103" s="36"/>
-      <c r="AD103" s="35">
+      <c r="AA103" s="26"/>
+      <c r="AB103" s="26"/>
+      <c r="AC103" s="26"/>
+      <c r="AD103" s="25">
         <v>2007</v>
       </c>
-      <c r="AE103" s="36"/>
-      <c r="AF103" s="36"/>
-      <c r="AG103" s="36"/>
-      <c r="AH103" s="35">
+      <c r="AE103" s="26"/>
+      <c r="AF103" s="26"/>
+      <c r="AG103" s="26"/>
+      <c r="AH103" s="25">
         <v>2008</v>
       </c>
-      <c r="AI103" s="36"/>
-      <c r="AJ103" s="36"/>
-      <c r="AK103" s="36"/>
-      <c r="AL103" s="35">
+      <c r="AI103" s="26"/>
+      <c r="AJ103" s="26"/>
+      <c r="AK103" s="26"/>
+      <c r="AL103" s="25">
         <v>2009</v>
       </c>
-      <c r="AM103" s="36"/>
-      <c r="AN103" s="36"/>
-      <c r="AO103" s="36"/>
-      <c r="AP103" s="35">
+      <c r="AM103" s="26"/>
+      <c r="AN103" s="26"/>
+      <c r="AO103" s="26"/>
+      <c r="AP103" s="25">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="36"/>
-      <c r="AR103" s="36"/>
-      <c r="AS103" s="36"/>
-      <c r="AT103" s="35">
+      <c r="AQ103" s="26"/>
+      <c r="AR103" s="26"/>
+      <c r="AS103" s="26"/>
+      <c r="AT103" s="25">
         <v>2011</v>
       </c>
-      <c r="AU103" s="36"/>
-      <c r="AV103" s="36"/>
-      <c r="AW103" s="36"/>
-      <c r="AX103" s="35">
+      <c r="AU103" s="26"/>
+      <c r="AV103" s="26"/>
+      <c r="AW103" s="26"/>
+      <c r="AX103" s="25">
         <v>2012</v>
       </c>
-      <c r="AY103" s="36"/>
-      <c r="AZ103" s="36"/>
-      <c r="BA103" s="36"/>
-      <c r="BB103" s="35">
+      <c r="AY103" s="26"/>
+      <c r="AZ103" s="26"/>
+      <c r="BA103" s="26"/>
+      <c r="BB103" s="25">
         <v>2013</v>
       </c>
-      <c r="BC103" s="36"/>
-      <c r="BD103" s="36"/>
-      <c r="BE103" s="36"/>
-      <c r="BF103" s="35">
+      <c r="BC103" s="26"/>
+      <c r="BD103" s="26"/>
+      <c r="BE103" s="26"/>
+      <c r="BF103" s="25">
         <v>2014</v>
       </c>
-      <c r="BG103" s="36"/>
-      <c r="BH103" s="36"/>
-      <c r="BI103" s="36"/>
-      <c r="BJ103" s="35">
+      <c r="BG103" s="26"/>
+      <c r="BH103" s="26"/>
+      <c r="BI103" s="26"/>
+      <c r="BJ103" s="25">
         <v>2015</v>
       </c>
-      <c r="BK103" s="36"/>
-      <c r="BL103" s="36"/>
-      <c r="BM103" s="36"/>
-      <c r="BN103" s="35">
+      <c r="BK103" s="26"/>
+      <c r="BL103" s="26"/>
+      <c r="BM103" s="26"/>
+      <c r="BN103" s="25">
         <v>2016</v>
       </c>
-      <c r="BO103" s="36"/>
-      <c r="BP103" s="36"/>
-      <c r="BQ103" s="36"/>
-      <c r="BR103" s="35">
+      <c r="BO103" s="26"/>
+      <c r="BP103" s="26"/>
+      <c r="BQ103" s="26"/>
+      <c r="BR103" s="25">
         <v>2017</v>
       </c>
-      <c r="BS103" s="36"/>
-      <c r="BT103" s="36"/>
-      <c r="BU103" s="36"/>
-      <c r="BV103" s="35">
+      <c r="BS103" s="26"/>
+      <c r="BT103" s="26"/>
+      <c r="BU103" s="26"/>
+      <c r="BV103" s="25">
         <v>2018</v>
       </c>
-      <c r="BW103" s="35"/>
-      <c r="BX103" s="35"/>
-      <c r="BY103" s="35"/>
-      <c r="BZ103" s="35">
+      <c r="BW103" s="25"/>
+      <c r="BX103" s="25"/>
+      <c r="BY103" s="25"/>
+      <c r="BZ103" s="25">
         <v>2019</v>
       </c>
-      <c r="CA103" s="35"/>
-      <c r="CB103" s="35"/>
-      <c r="CC103" s="35"/>
-      <c r="CD103" s="35">
+      <c r="CA103" s="25"/>
+      <c r="CB103" s="25"/>
+      <c r="CC103" s="25"/>
+      <c r="CD103" s="25">
         <v>2020</v>
       </c>
-      <c r="CE103" s="35"/>
-      <c r="CF103" s="35"/>
-      <c r="CG103" s="35"/>
-      <c r="CH103" s="35">
+      <c r="CE103" s="25"/>
+      <c r="CF103" s="25"/>
+      <c r="CG103" s="25"/>
+      <c r="CH103" s="25">
         <v>2021</v>
       </c>
-      <c r="CI103" s="35"/>
-      <c r="CJ103" s="35"/>
-      <c r="CK103" s="35"/>
-      <c r="CL103" s="34">
+      <c r="CI103" s="25"/>
+      <c r="CJ103" s="25"/>
+      <c r="CK103" s="25"/>
+      <c r="CL103" s="24">
         <v>2022</v>
       </c>
-      <c r="CM103" s="34"/>
-      <c r="CN103" s="34"/>
-      <c r="CO103" s="34"/>
-      <c r="CP103" s="34">
+      <c r="CM103" s="24"/>
+      <c r="CN103" s="24"/>
+      <c r="CO103" s="24"/>
+      <c r="CP103" s="24">
         <v>2023</v>
       </c>
-      <c r="CQ103" s="34"/>
-      <c r="CR103" s="34"/>
+      <c r="CQ103" s="24"/>
+      <c r="CR103" s="24"/>
+      <c r="CS103" s="24"/>
     </row>
     <row r="104" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
@@ -39134,26 +39173,29 @@
       <c r="CK104" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL104" s="24" t="s">
+      <c r="CL104" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CM104" s="24" t="s">
+      <c r="CM104" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CN104" s="24" t="s">
+      <c r="CN104" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CO104" s="24" t="s">
+      <c r="CO104" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP104" s="24" t="s">
+      <c r="CP104" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CQ104" s="24" t="s">
+      <c r="CQ104" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CR104" s="24" t="s">
+      <c r="CR104" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="CS104" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -39246,13 +39288,14 @@
       <c r="CI105" s="1"/>
       <c r="CJ105" s="1"/>
       <c r="CK105" s="1"/>
-      <c r="CL105" s="23"/>
-      <c r="CM105" s="23"/>
-      <c r="CN105" s="23"/>
-      <c r="CO105" s="23"/>
-      <c r="CP105" s="23"/>
-      <c r="CQ105" s="23"/>
-      <c r="CR105" s="23"/>
+      <c r="CL105" s="1"/>
+      <c r="CM105" s="1"/>
+      <c r="CN105" s="1"/>
+      <c r="CO105" s="1"/>
+      <c r="CP105" s="1"/>
+      <c r="CQ105" s="1"/>
+      <c r="CR105" s="1"/>
+      <c r="CS105" s="1"/>
     </row>
     <row r="106" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
@@ -39522,28 +39565,30 @@
       <c r="CK106" s="18">
         <v>61.395596374991655</v>
       </c>
-      <c r="CL106" s="31">
+      <c r="CL106" s="18">
         <v>52.982032686216471</v>
       </c>
-      <c r="CM106" s="31">
+      <c r="CM106" s="18">
         <v>60.539383060693339</v>
       </c>
-      <c r="CN106" s="31">
+      <c r="CN106" s="18">
         <v>60.190671334513233</v>
       </c>
-      <c r="CO106" s="31">
+      <c r="CO106" s="18">
         <v>62.365701195873427</v>
       </c>
-      <c r="CP106" s="31">
+      <c r="CP106" s="18">
         <v>54.859397017992016</v>
       </c>
-      <c r="CQ106" s="31">
+      <c r="CQ106" s="18">
         <v>59.915833541558285</v>
       </c>
-      <c r="CR106" s="31">
-        <v>59.613352689643747</v>
-      </c>
-      <c r="CS106" s="11"/>
+      <c r="CR106" s="18">
+        <v>59.913516218050191</v>
+      </c>
+      <c r="CS106" s="18">
+        <v>61.19048603351871</v>
+      </c>
       <c r="CT106" s="11"/>
       <c r="CU106" s="11"/>
       <c r="CV106" s="11"/>
@@ -39871,28 +39916,30 @@
       <c r="CK107" s="18">
         <v>38.604403625008331</v>
       </c>
-      <c r="CL107" s="31">
+      <c r="CL107" s="18">
         <v>47.017967313783522</v>
       </c>
-      <c r="CM107" s="31">
+      <c r="CM107" s="18">
         <v>39.460616939306654</v>
       </c>
-      <c r="CN107" s="31">
+      <c r="CN107" s="18">
         <v>39.809328665486774</v>
       </c>
-      <c r="CO107" s="31">
+      <c r="CO107" s="18">
         <v>37.63429880412658</v>
       </c>
-      <c r="CP107" s="31">
+      <c r="CP107" s="18">
         <v>45.140602982007991</v>
       </c>
-      <c r="CQ107" s="31">
+      <c r="CQ107" s="18">
         <v>40.084166458441722</v>
       </c>
-      <c r="CR107" s="31">
-        <v>40.386647310356246</v>
-      </c>
-      <c r="CS107" s="11"/>
+      <c r="CR107" s="18">
+        <v>40.086483781949809</v>
+      </c>
+      <c r="CS107" s="18">
+        <v>38.809513966481305</v>
+      </c>
       <c r="CT107" s="11"/>
       <c r="CU107" s="11"/>
       <c r="CV107" s="11"/>
@@ -40041,14 +40088,14 @@
       <c r="CI108" s="17"/>
       <c r="CJ108" s="17"/>
       <c r="CK108" s="17"/>
-      <c r="CL108" s="28"/>
-      <c r="CM108" s="28"/>
-      <c r="CN108" s="28"/>
-      <c r="CO108" s="28"/>
-      <c r="CP108" s="28"/>
-      <c r="CQ108" s="28"/>
-      <c r="CR108" s="28"/>
-      <c r="CS108" s="11"/>
+      <c r="CL108" s="17"/>
+      <c r="CM108" s="17"/>
+      <c r="CN108" s="17"/>
+      <c r="CO108" s="17"/>
+      <c r="CP108" s="17"/>
+      <c r="CQ108" s="17"/>
+      <c r="CR108" s="17"/>
+      <c r="CS108" s="17"/>
       <c r="CT108" s="11"/>
       <c r="CU108" s="11"/>
       <c r="CV108" s="11"/>
@@ -40376,28 +40423,30 @@
       <c r="CK109" s="18">
         <v>100</v>
       </c>
-      <c r="CL109" s="31">
+      <c r="CL109" s="18">
         <v>100</v>
       </c>
-      <c r="CM109" s="31">
+      <c r="CM109" s="18">
         <v>100</v>
       </c>
-      <c r="CN109" s="31">
+      <c r="CN109" s="18">
         <v>100</v>
       </c>
-      <c r="CO109" s="31">
+      <c r="CO109" s="18">
         <v>100</v>
       </c>
-      <c r="CP109" s="31">
+      <c r="CP109" s="18">
         <v>100</v>
       </c>
-      <c r="CQ109" s="31">
+      <c r="CQ109" s="18">
         <v>100</v>
       </c>
-      <c r="CR109" s="31">
+      <c r="CR109" s="18">
         <v>100</v>
       </c>
-      <c r="CS109" s="11"/>
+      <c r="CS109" s="18">
+        <v>100</v>
+      </c>
       <c r="CT109" s="11"/>
       <c r="CU109" s="11"/>
       <c r="CV109" s="11"/>
@@ -40547,13 +40596,14 @@
       <c r="CI110" s="15"/>
       <c r="CJ110" s="15"/>
       <c r="CK110" s="15"/>
-      <c r="CL110" s="27"/>
-      <c r="CM110" s="27"/>
-      <c r="CN110" s="27"/>
-      <c r="CO110" s="27"/>
-      <c r="CP110" s="27"/>
-      <c r="CQ110" s="27"/>
-      <c r="CR110" s="27"/>
+      <c r="CL110" s="15"/>
+      <c r="CM110" s="15"/>
+      <c r="CN110" s="15"/>
+      <c r="CO110" s="15"/>
+      <c r="CP110" s="15"/>
+      <c r="CQ110" s="15"/>
+      <c r="CR110" s="15"/>
+      <c r="CS110" s="15"/>
     </row>
     <row r="111" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="16" t="s">
@@ -40647,13 +40697,14 @@
       <c r="CI111" s="1"/>
       <c r="CJ111" s="1"/>
       <c r="CK111" s="1"/>
-      <c r="CL111" s="23"/>
-      <c r="CM111" s="23"/>
-      <c r="CN111" s="23"/>
-      <c r="CO111" s="23"/>
-      <c r="CP111" s="23"/>
-      <c r="CQ111" s="23"/>
-      <c r="CR111" s="23"/>
+      <c r="CL111" s="1"/>
+      <c r="CM111" s="1"/>
+      <c r="CN111" s="1"/>
+      <c r="CO111" s="1"/>
+      <c r="CP111" s="1"/>
+      <c r="CQ111" s="1"/>
+      <c r="CR111" s="1"/>
+      <c r="CS111" s="1"/>
     </row>
     <row r="112" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="17"/>
@@ -40744,14 +40795,14 @@
       <c r="CI112" s="17"/>
       <c r="CJ112" s="17"/>
       <c r="CK112" s="17"/>
-      <c r="CL112" s="28"/>
-      <c r="CM112" s="28"/>
-      <c r="CN112" s="28"/>
-      <c r="CO112" s="28"/>
-      <c r="CP112" s="28"/>
-      <c r="CQ112" s="28"/>
-      <c r="CR112" s="28"/>
-      <c r="CS112" s="11"/>
+      <c r="CL112" s="17"/>
+      <c r="CM112" s="17"/>
+      <c r="CN112" s="17"/>
+      <c r="CO112" s="17"/>
+      <c r="CP112" s="17"/>
+      <c r="CQ112" s="17"/>
+      <c r="CR112" s="17"/>
+      <c r="CS112" s="17"/>
       <c r="CT112" s="11"/>
       <c r="CU112" s="11"/>
       <c r="CV112" s="11"/>
@@ -40900,14 +40951,14 @@
       <c r="CI113" s="17"/>
       <c r="CJ113" s="17"/>
       <c r="CK113" s="17"/>
-      <c r="CL113" s="28"/>
-      <c r="CM113" s="28"/>
-      <c r="CN113" s="28"/>
-      <c r="CO113" s="28"/>
-      <c r="CP113" s="28"/>
-      <c r="CQ113" s="28"/>
-      <c r="CR113" s="28"/>
-      <c r="CS113" s="11"/>
+      <c r="CL113" s="17"/>
+      <c r="CM113" s="17"/>
+      <c r="CN113" s="17"/>
+      <c r="CO113" s="17"/>
+      <c r="CP113" s="17"/>
+      <c r="CQ113" s="17"/>
+      <c r="CR113" s="17"/>
+      <c r="CS113" s="17"/>
       <c r="CT113" s="11"/>
       <c r="CU113" s="11"/>
       <c r="CV113" s="11"/>
@@ -41059,13 +41110,14 @@
       <c r="CI114" s="1"/>
       <c r="CJ114" s="1"/>
       <c r="CK114" s="1"/>
-      <c r="CL114" s="23"/>
-      <c r="CM114" s="23"/>
-      <c r="CN114" s="23"/>
-      <c r="CO114" s="23"/>
-      <c r="CP114" s="23"/>
-      <c r="CQ114" s="23"/>
-      <c r="CR114" s="23"/>
+      <c r="CL114" s="1"/>
+      <c r="CM114" s="1"/>
+      <c r="CN114" s="1"/>
+      <c r="CO114" s="1"/>
+      <c r="CP114" s="1"/>
+      <c r="CQ114" s="1"/>
+      <c r="CR114" s="1"/>
+      <c r="CS114" s="1"/>
     </row>
     <row r="115" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
@@ -41159,17 +41211,18 @@
       <c r="CI115" s="1"/>
       <c r="CJ115" s="1"/>
       <c r="CK115" s="1"/>
-      <c r="CL115" s="23"/>
-      <c r="CM115" s="23"/>
-      <c r="CN115" s="23"/>
-      <c r="CO115" s="23"/>
-      <c r="CP115" s="23"/>
-      <c r="CQ115" s="23"/>
-      <c r="CR115" s="23"/>
+      <c r="CL115" s="1"/>
+      <c r="CM115" s="1"/>
+      <c r="CN115" s="1"/>
+      <c r="CO115" s="1"/>
+      <c r="CP115" s="1"/>
+      <c r="CQ115" s="1"/>
+      <c r="CR115" s="1"/>
+      <c r="CS115" s="1"/>
     </row>
     <row r="116" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -41259,13 +41312,14 @@
       <c r="CI116" s="1"/>
       <c r="CJ116" s="1"/>
       <c r="CK116" s="1"/>
-      <c r="CL116" s="23"/>
-      <c r="CM116" s="23"/>
-      <c r="CN116" s="23"/>
-      <c r="CO116" s="23"/>
-      <c r="CP116" s="23"/>
-      <c r="CQ116" s="23"/>
-      <c r="CR116" s="23"/>
+      <c r="CL116" s="1"/>
+      <c r="CM116" s="1"/>
+      <c r="CN116" s="1"/>
+      <c r="CO116" s="1"/>
+      <c r="CP116" s="1"/>
+      <c r="CQ116" s="1"/>
+      <c r="CR116" s="1"/>
+      <c r="CS116" s="1"/>
     </row>
     <row r="117" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
@@ -41357,13 +41411,14 @@
       <c r="CI117" s="1"/>
       <c r="CJ117" s="1"/>
       <c r="CK117" s="1"/>
-      <c r="CL117" s="23"/>
-      <c r="CM117" s="23"/>
-      <c r="CN117" s="23"/>
-      <c r="CO117" s="23"/>
-      <c r="CP117" s="23"/>
-      <c r="CQ117" s="23"/>
-      <c r="CR117" s="23"/>
+      <c r="CL117" s="1"/>
+      <c r="CM117" s="1"/>
+      <c r="CN117" s="1"/>
+      <c r="CO117" s="1"/>
+      <c r="CP117" s="1"/>
+      <c r="CQ117" s="1"/>
+      <c r="CR117" s="1"/>
+      <c r="CS117" s="1"/>
     </row>
     <row r="118" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
@@ -41457,17 +41512,18 @@
       <c r="CI118" s="1"/>
       <c r="CJ118" s="1"/>
       <c r="CK118" s="1"/>
-      <c r="CL118" s="23"/>
-      <c r="CM118" s="23"/>
-      <c r="CN118" s="23"/>
-      <c r="CO118" s="23"/>
-      <c r="CP118" s="23"/>
-      <c r="CQ118" s="23"/>
-      <c r="CR118" s="23"/>
+      <c r="CL118" s="1"/>
+      <c r="CM118" s="1"/>
+      <c r="CN118" s="1"/>
+      <c r="CO118" s="1"/>
+      <c r="CP118" s="1"/>
+      <c r="CQ118" s="1"/>
+      <c r="CR118" s="1"/>
+      <c r="CS118" s="1"/>
     </row>
     <row r="119" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -41557,13 +41613,14 @@
       <c r="CI119" s="1"/>
       <c r="CJ119" s="1"/>
       <c r="CK119" s="1"/>
-      <c r="CL119" s="23"/>
-      <c r="CM119" s="23"/>
-      <c r="CN119" s="23"/>
-      <c r="CO119" s="23"/>
-      <c r="CP119" s="23"/>
-      <c r="CQ119" s="23"/>
-      <c r="CR119" s="23"/>
+      <c r="CL119" s="1"/>
+      <c r="CM119" s="1"/>
+      <c r="CN119" s="1"/>
+      <c r="CO119" s="1"/>
+      <c r="CP119" s="1"/>
+      <c r="CQ119" s="1"/>
+      <c r="CR119" s="1"/>
+      <c r="CS119" s="1"/>
     </row>
     <row r="120" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
@@ -41657,13 +41714,14 @@
       <c r="CI120" s="1"/>
       <c r="CJ120" s="1"/>
       <c r="CK120" s="1"/>
-      <c r="CL120" s="23"/>
-      <c r="CM120" s="23"/>
-      <c r="CN120" s="23"/>
-      <c r="CO120" s="23"/>
-      <c r="CP120" s="23"/>
-      <c r="CQ120" s="23"/>
-      <c r="CR120" s="23"/>
+      <c r="CL120" s="1"/>
+      <c r="CM120" s="1"/>
+      <c r="CN120" s="1"/>
+      <c r="CO120" s="1"/>
+      <c r="CP120" s="1"/>
+      <c r="CQ120" s="1"/>
+      <c r="CR120" s="1"/>
+      <c r="CS120" s="1"/>
     </row>
     <row r="121" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
@@ -41755,159 +41813,161 @@
       <c r="CI121" s="1"/>
       <c r="CJ121" s="1"/>
       <c r="CK121" s="1"/>
-      <c r="CL121" s="23"/>
-      <c r="CM121" s="23"/>
-      <c r="CN121" s="23"/>
-      <c r="CO121" s="23"/>
-      <c r="CP121" s="23"/>
-      <c r="CQ121" s="23"/>
-      <c r="CR121" s="23"/>
+      <c r="CL121" s="1"/>
+      <c r="CM121" s="1"/>
+      <c r="CN121" s="1"/>
+      <c r="CO121" s="1"/>
+      <c r="CP121" s="1"/>
+      <c r="CQ121" s="1"/>
+      <c r="CR121" s="1"/>
+      <c r="CS121" s="1"/>
     </row>
     <row r="122" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
-      <c r="B122" s="35">
+      <c r="B122" s="25">
         <v>2000</v>
       </c>
-      <c r="C122" s="36"/>
-      <c r="D122" s="36"/>
-      <c r="E122" s="36"/>
-      <c r="F122" s="35">
+      <c r="C122" s="26"/>
+      <c r="D122" s="26"/>
+      <c r="E122" s="26"/>
+      <c r="F122" s="25">
         <v>2001</v>
       </c>
-      <c r="G122" s="36"/>
-      <c r="H122" s="36"/>
-      <c r="I122" s="36"/>
-      <c r="J122" s="35">
+      <c r="G122" s="26"/>
+      <c r="H122" s="26"/>
+      <c r="I122" s="26"/>
+      <c r="J122" s="25">
         <v>2002</v>
       </c>
-      <c r="K122" s="36"/>
-      <c r="L122" s="36"/>
-      <c r="M122" s="36"/>
-      <c r="N122" s="35">
+      <c r="K122" s="26"/>
+      <c r="L122" s="26"/>
+      <c r="M122" s="26"/>
+      <c r="N122" s="25">
         <v>2003</v>
       </c>
-      <c r="O122" s="36"/>
-      <c r="P122" s="36"/>
-      <c r="Q122" s="36"/>
-      <c r="R122" s="35">
+      <c r="O122" s="26"/>
+      <c r="P122" s="26"/>
+      <c r="Q122" s="26"/>
+      <c r="R122" s="25">
         <v>2004</v>
       </c>
-      <c r="S122" s="36"/>
-      <c r="T122" s="36"/>
-      <c r="U122" s="36"/>
-      <c r="V122" s="35">
+      <c r="S122" s="26"/>
+      <c r="T122" s="26"/>
+      <c r="U122" s="26"/>
+      <c r="V122" s="25">
         <v>2005</v>
       </c>
-      <c r="W122" s="36"/>
-      <c r="X122" s="36"/>
-      <c r="Y122" s="36"/>
-      <c r="Z122" s="35">
+      <c r="W122" s="26"/>
+      <c r="X122" s="26"/>
+      <c r="Y122" s="26"/>
+      <c r="Z122" s="25">
         <v>2006</v>
       </c>
-      <c r="AA122" s="36"/>
-      <c r="AB122" s="36"/>
-      <c r="AC122" s="36"/>
-      <c r="AD122" s="35">
+      <c r="AA122" s="26"/>
+      <c r="AB122" s="26"/>
+      <c r="AC122" s="26"/>
+      <c r="AD122" s="25">
         <v>2007</v>
       </c>
-      <c r="AE122" s="36"/>
-      <c r="AF122" s="36"/>
-      <c r="AG122" s="36"/>
-      <c r="AH122" s="35">
+      <c r="AE122" s="26"/>
+      <c r="AF122" s="26"/>
+      <c r="AG122" s="26"/>
+      <c r="AH122" s="25">
         <v>2008</v>
       </c>
-      <c r="AI122" s="36"/>
-      <c r="AJ122" s="36"/>
-      <c r="AK122" s="36"/>
-      <c r="AL122" s="35">
+      <c r="AI122" s="26"/>
+      <c r="AJ122" s="26"/>
+      <c r="AK122" s="26"/>
+      <c r="AL122" s="25">
         <v>2009</v>
       </c>
-      <c r="AM122" s="36"/>
-      <c r="AN122" s="36"/>
-      <c r="AO122" s="36"/>
-      <c r="AP122" s="35">
+      <c r="AM122" s="26"/>
+      <c r="AN122" s="26"/>
+      <c r="AO122" s="26"/>
+      <c r="AP122" s="25">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="36"/>
-      <c r="AR122" s="36"/>
-      <c r="AS122" s="36"/>
-      <c r="AT122" s="35">
+      <c r="AQ122" s="26"/>
+      <c r="AR122" s="26"/>
+      <c r="AS122" s="26"/>
+      <c r="AT122" s="25">
         <v>2011</v>
       </c>
-      <c r="AU122" s="36"/>
-      <c r="AV122" s="36"/>
-      <c r="AW122" s="36"/>
-      <c r="AX122" s="35">
+      <c r="AU122" s="26"/>
+      <c r="AV122" s="26"/>
+      <c r="AW122" s="26"/>
+      <c r="AX122" s="25">
         <v>2012</v>
       </c>
-      <c r="AY122" s="36"/>
-      <c r="AZ122" s="36"/>
-      <c r="BA122" s="36"/>
-      <c r="BB122" s="35">
+      <c r="AY122" s="26"/>
+      <c r="AZ122" s="26"/>
+      <c r="BA122" s="26"/>
+      <c r="BB122" s="25">
         <v>2013</v>
       </c>
-      <c r="BC122" s="36"/>
-      <c r="BD122" s="36"/>
-      <c r="BE122" s="36"/>
-      <c r="BF122" s="35">
+      <c r="BC122" s="26"/>
+      <c r="BD122" s="26"/>
+      <c r="BE122" s="26"/>
+      <c r="BF122" s="25">
         <v>2014</v>
       </c>
-      <c r="BG122" s="36"/>
-      <c r="BH122" s="36"/>
-      <c r="BI122" s="36"/>
-      <c r="BJ122" s="35">
+      <c r="BG122" s="26"/>
+      <c r="BH122" s="26"/>
+      <c r="BI122" s="26"/>
+      <c r="BJ122" s="25">
         <v>2015</v>
       </c>
-      <c r="BK122" s="36"/>
-      <c r="BL122" s="36"/>
-      <c r="BM122" s="36"/>
-      <c r="BN122" s="35">
+      <c r="BK122" s="26"/>
+      <c r="BL122" s="26"/>
+      <c r="BM122" s="26"/>
+      <c r="BN122" s="25">
         <v>2016</v>
       </c>
-      <c r="BO122" s="36"/>
-      <c r="BP122" s="36"/>
-      <c r="BQ122" s="36"/>
-      <c r="BR122" s="35">
+      <c r="BO122" s="26"/>
+      <c r="BP122" s="26"/>
+      <c r="BQ122" s="26"/>
+      <c r="BR122" s="25">
         <v>2017</v>
       </c>
-      <c r="BS122" s="36"/>
-      <c r="BT122" s="36"/>
-      <c r="BU122" s="36"/>
-      <c r="BV122" s="35">
+      <c r="BS122" s="26"/>
+      <c r="BT122" s="26"/>
+      <c r="BU122" s="26"/>
+      <c r="BV122" s="25">
         <v>2018</v>
       </c>
-      <c r="BW122" s="35"/>
-      <c r="BX122" s="35"/>
-      <c r="BY122" s="35"/>
-      <c r="BZ122" s="35">
+      <c r="BW122" s="25"/>
+      <c r="BX122" s="25"/>
+      <c r="BY122" s="25"/>
+      <c r="BZ122" s="25">
         <v>2019</v>
       </c>
-      <c r="CA122" s="35"/>
-      <c r="CB122" s="35"/>
-      <c r="CC122" s="35"/>
-      <c r="CD122" s="35">
+      <c r="CA122" s="25"/>
+      <c r="CB122" s="25"/>
+      <c r="CC122" s="25"/>
+      <c r="CD122" s="25">
         <v>2020</v>
       </c>
-      <c r="CE122" s="35"/>
-      <c r="CF122" s="35"/>
-      <c r="CG122" s="35"/>
-      <c r="CH122" s="35">
+      <c r="CE122" s="25"/>
+      <c r="CF122" s="25"/>
+      <c r="CG122" s="25"/>
+      <c r="CH122" s="25">
         <v>2021</v>
       </c>
-      <c r="CI122" s="35"/>
-      <c r="CJ122" s="35"/>
-      <c r="CK122" s="35"/>
-      <c r="CL122" s="34">
+      <c r="CI122" s="25"/>
+      <c r="CJ122" s="25"/>
+      <c r="CK122" s="25"/>
+      <c r="CL122" s="24">
         <v>2022</v>
       </c>
-      <c r="CM122" s="34"/>
-      <c r="CN122" s="34"/>
-      <c r="CO122" s="34"/>
-      <c r="CP122" s="34">
+      <c r="CM122" s="24"/>
+      <c r="CN122" s="24"/>
+      <c r="CO122" s="24"/>
+      <c r="CP122" s="24">
         <v>2023</v>
       </c>
-      <c r="CQ122" s="34"/>
-      <c r="CR122" s="34"/>
+      <c r="CQ122" s="24"/>
+      <c r="CR122" s="24"/>
+      <c r="CS122" s="24"/>
     </row>
     <row r="123" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
@@ -42177,26 +42237,29 @@
       <c r="CK123" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL123" s="24" t="s">
+      <c r="CL123" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CM123" s="24" t="s">
+      <c r="CM123" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CN123" s="24" t="s">
+      <c r="CN123" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CO123" s="24" t="s">
+      <c r="CO123" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP123" s="24" t="s">
+      <c r="CP123" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CQ123" s="24" t="s">
+      <c r="CQ123" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CR123" s="24" t="s">
+      <c r="CR123" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="CS123" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -42289,13 +42352,14 @@
       <c r="CI124" s="1"/>
       <c r="CJ124" s="1"/>
       <c r="CK124" s="1"/>
-      <c r="CL124" s="23"/>
-      <c r="CM124" s="23"/>
-      <c r="CN124" s="23"/>
-      <c r="CO124" s="23"/>
-      <c r="CP124" s="23"/>
-      <c r="CQ124" s="23"/>
-      <c r="CR124" s="23"/>
+      <c r="CL124" s="1"/>
+      <c r="CM124" s="1"/>
+      <c r="CN124" s="1"/>
+      <c r="CO124" s="1"/>
+      <c r="CP124" s="1"/>
+      <c r="CQ124" s="1"/>
+      <c r="CR124" s="1"/>
+      <c r="CS124" s="1"/>
     </row>
     <row r="125" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
@@ -42565,28 +42629,30 @@
       <c r="CK125" s="18">
         <v>62.570359456091083</v>
       </c>
-      <c r="CL125" s="31">
+      <c r="CL125" s="18">
         <v>55.027524147588011</v>
       </c>
-      <c r="CM125" s="31">
+      <c r="CM125" s="18">
         <v>61.882876479833435</v>
       </c>
-      <c r="CN125" s="31">
+      <c r="CN125" s="18">
         <v>61.302065570365215</v>
       </c>
-      <c r="CO125" s="31">
+      <c r="CO125" s="18">
         <v>63.523145770793242</v>
       </c>
-      <c r="CP125" s="31">
+      <c r="CP125" s="18">
         <v>57.244245368504856</v>
       </c>
-      <c r="CQ125" s="31">
+      <c r="CQ125" s="18">
         <v>61.552920659575875</v>
       </c>
-      <c r="CR125" s="31">
-        <v>60.857498279044933</v>
-      </c>
-      <c r="CS125" s="11"/>
+      <c r="CR125" s="18">
+        <v>61.154440455873406</v>
+      </c>
+      <c r="CS125" s="18">
+        <v>62.831231656392838</v>
+      </c>
       <c r="CT125" s="11"/>
       <c r="CU125" s="11"/>
       <c r="CV125" s="11"/>
@@ -42914,28 +42980,30 @@
       <c r="CK126" s="18">
         <v>37.429640543908924</v>
       </c>
-      <c r="CL126" s="31">
+      <c r="CL126" s="18">
         <v>44.972475852411989</v>
       </c>
-      <c r="CM126" s="31">
+      <c r="CM126" s="18">
         <v>38.117123520166565</v>
       </c>
-      <c r="CN126" s="31">
+      <c r="CN126" s="18">
         <v>38.697934429634778</v>
       </c>
-      <c r="CO126" s="31">
+      <c r="CO126" s="18">
         <v>36.476854229206751</v>
       </c>
-      <c r="CP126" s="31">
+      <c r="CP126" s="18">
         <v>42.755754631495158</v>
       </c>
-      <c r="CQ126" s="31">
+      <c r="CQ126" s="18">
         <v>38.447079340424139</v>
       </c>
-      <c r="CR126" s="31">
-        <v>39.142501720955067</v>
-      </c>
-      <c r="CS126" s="11"/>
+      <c r="CR126" s="18">
+        <v>38.845559544126587</v>
+      </c>
+      <c r="CS126" s="18">
+        <v>37.168768343607162</v>
+      </c>
       <c r="CT126" s="11"/>
       <c r="CU126" s="11"/>
       <c r="CV126" s="11"/>
@@ -43084,14 +43152,14 @@
       <c r="CI127" s="17"/>
       <c r="CJ127" s="17"/>
       <c r="CK127" s="17"/>
-      <c r="CL127" s="28"/>
-      <c r="CM127" s="28"/>
-      <c r="CN127" s="28"/>
-      <c r="CO127" s="28"/>
-      <c r="CP127" s="28"/>
-      <c r="CQ127" s="28"/>
-      <c r="CR127" s="28"/>
-      <c r="CS127" s="11"/>
+      <c r="CL127" s="17"/>
+      <c r="CM127" s="17"/>
+      <c r="CN127" s="17"/>
+      <c r="CO127" s="17"/>
+      <c r="CP127" s="17"/>
+      <c r="CQ127" s="17"/>
+      <c r="CR127" s="17"/>
+      <c r="CS127" s="17"/>
       <c r="CT127" s="11"/>
       <c r="CU127" s="11"/>
       <c r="CV127" s="11"/>
@@ -43419,28 +43487,30 @@
       <c r="CK128" s="18">
         <v>100</v>
       </c>
-      <c r="CL128" s="31">
+      <c r="CL128" s="18">
         <v>100</v>
       </c>
-      <c r="CM128" s="31">
+      <c r="CM128" s="18">
         <v>100</v>
       </c>
-      <c r="CN128" s="31">
+      <c r="CN128" s="18">
         <v>100</v>
       </c>
-      <c r="CO128" s="31">
+      <c r="CO128" s="18">
         <v>100</v>
       </c>
-      <c r="CP128" s="31">
+      <c r="CP128" s="18">
         <v>100</v>
       </c>
-      <c r="CQ128" s="31">
+      <c r="CQ128" s="18">
         <v>100</v>
       </c>
-      <c r="CR128" s="31">
+      <c r="CR128" s="18">
         <v>100</v>
       </c>
-      <c r="CS128" s="11"/>
+      <c r="CS128" s="18">
+        <v>100</v>
+      </c>
       <c r="CT128" s="11"/>
       <c r="CU128" s="11"/>
       <c r="CV128" s="11"/>
@@ -43500,7 +43570,7 @@
       <c r="EX128" s="11"/>
       <c r="EY128" s="11"/>
     </row>
-    <row r="129" spans="1:96" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:97" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="15"/>
       <c r="B129" s="15"/>
       <c r="C129" s="15"/>
@@ -43590,15 +43660,16 @@
       <c r="CI129" s="15"/>
       <c r="CJ129" s="15"/>
       <c r="CK129" s="15"/>
-      <c r="CL129" s="27"/>
-      <c r="CM129" s="27"/>
-      <c r="CN129" s="27"/>
-      <c r="CO129" s="27"/>
-      <c r="CP129" s="27"/>
-      <c r="CQ129" s="27"/>
-      <c r="CR129" s="27"/>
+      <c r="CL129" s="15"/>
+      <c r="CM129" s="15"/>
+      <c r="CN129" s="15"/>
+      <c r="CO129" s="15"/>
+      <c r="CP129" s="15"/>
+      <c r="CQ129" s="15"/>
+      <c r="CR129" s="15"/>
+      <c r="CS129" s="15"/>
     </row>
-    <row r="130" spans="1:96" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:97" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="16" t="s">
         <v>0</v>
       </c>
@@ -43690,19 +43761,19 @@
       <c r="CI130" s="1"/>
       <c r="CJ130" s="1"/>
       <c r="CK130" s="1"/>
-      <c r="CL130" s="23"/>
-      <c r="CM130" s="23"/>
-      <c r="CN130" s="23"/>
-      <c r="CO130" s="23"/>
-      <c r="CP130" s="23"/>
-      <c r="CQ130" s="23"/>
-      <c r="CR130" s="23"/>
+      <c r="CL130" s="1"/>
+      <c r="CM130" s="1"/>
+      <c r="CN130" s="1"/>
+      <c r="CO130" s="1"/>
+      <c r="CP130" s="1"/>
+      <c r="CQ130" s="1"/>
+      <c r="CR130" s="1"/>
+      <c r="CS130" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="166">
+  <mergeCells count="154">
     <mergeCell ref="B47:E47"/>
     <mergeCell ref="CH66:CK66"/>
-    <mergeCell ref="CL84:CO84"/>
     <mergeCell ref="B84:E84"/>
     <mergeCell ref="BR122:BU122"/>
     <mergeCell ref="BV122:BY122"/>
@@ -43715,6 +43786,15 @@
     <mergeCell ref="BF66:BI66"/>
     <mergeCell ref="BJ66:BM66"/>
     <mergeCell ref="BN66:BQ66"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="AP47:AS47"/>
+    <mergeCell ref="AT47:AW47"/>
+    <mergeCell ref="AX47:BA47"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="R66:U66"/>
     <mergeCell ref="BB28:BE28"/>
     <mergeCell ref="AP9:AS9"/>
     <mergeCell ref="AT9:AW9"/>
@@ -43739,10 +43819,8 @@
     <mergeCell ref="R28:U28"/>
     <mergeCell ref="V28:Y28"/>
     <mergeCell ref="Z28:AC28"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="AP47:AS47"/>
-    <mergeCell ref="AT47:AW47"/>
-    <mergeCell ref="AX47:BA47"/>
+    <mergeCell ref="AL66:AO66"/>
+    <mergeCell ref="AP66:AS66"/>
     <mergeCell ref="AH28:AK28"/>
     <mergeCell ref="AL28:AO28"/>
     <mergeCell ref="AL47:AO47"/>
@@ -43756,20 +43834,6 @@
     <mergeCell ref="Z47:AC47"/>
     <mergeCell ref="AD47:AG47"/>
     <mergeCell ref="AH47:AK47"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="N66:Q66"/>
-    <mergeCell ref="R66:U66"/>
-    <mergeCell ref="V66:Y66"/>
-    <mergeCell ref="Z66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AK66"/>
-    <mergeCell ref="Z84:AC84"/>
-    <mergeCell ref="AD84:AG84"/>
-    <mergeCell ref="AH84:AK84"/>
-    <mergeCell ref="AL66:AO66"/>
-    <mergeCell ref="AP66:AS66"/>
     <mergeCell ref="AT66:AW66"/>
     <mergeCell ref="AL84:AO84"/>
     <mergeCell ref="AP84:AS84"/>
@@ -43781,6 +43845,19 @@
     <mergeCell ref="AL122:AO122"/>
     <mergeCell ref="AP122:AS122"/>
     <mergeCell ref="AT122:AW122"/>
+    <mergeCell ref="N122:Q122"/>
+    <mergeCell ref="R122:U122"/>
+    <mergeCell ref="V122:Y122"/>
+    <mergeCell ref="Z122:AC122"/>
+    <mergeCell ref="AD122:AG122"/>
+    <mergeCell ref="AH122:AK122"/>
+    <mergeCell ref="V66:Y66"/>
+    <mergeCell ref="Z66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AK66"/>
+    <mergeCell ref="Z84:AC84"/>
+    <mergeCell ref="AD84:AG84"/>
+    <mergeCell ref="AH84:AK84"/>
     <mergeCell ref="AX122:BA122"/>
     <mergeCell ref="BB122:BE122"/>
     <mergeCell ref="BN84:BQ84"/>
@@ -43805,12 +43882,6 @@
     <mergeCell ref="B122:E122"/>
     <mergeCell ref="F122:I122"/>
     <mergeCell ref="J122:M122"/>
-    <mergeCell ref="N122:Q122"/>
-    <mergeCell ref="R122:U122"/>
-    <mergeCell ref="V122:Y122"/>
-    <mergeCell ref="Z122:AC122"/>
-    <mergeCell ref="AD122:AG122"/>
-    <mergeCell ref="AH122:AK122"/>
     <mergeCell ref="BF122:BI122"/>
     <mergeCell ref="BJ122:BM122"/>
     <mergeCell ref="BN122:BQ122"/>
@@ -43841,8 +43912,6 @@
     <mergeCell ref="BZ28:CC28"/>
     <mergeCell ref="CH9:CK9"/>
     <mergeCell ref="CH28:CK28"/>
-    <mergeCell ref="CL9:CO9"/>
-    <mergeCell ref="CL28:CO28"/>
     <mergeCell ref="CH47:CK47"/>
     <mergeCell ref="BZ47:CC47"/>
     <mergeCell ref="BZ66:CC66"/>
@@ -43857,24 +43926,15 @@
     <mergeCell ref="BZ122:CC122"/>
     <mergeCell ref="CD47:CG47"/>
     <mergeCell ref="CD66:CG66"/>
-    <mergeCell ref="CP9:CR9"/>
-    <mergeCell ref="CP28:CR28"/>
-    <mergeCell ref="CL47:CN47"/>
-    <mergeCell ref="CL66:CN66"/>
-    <mergeCell ref="CP84:CR84"/>
-    <mergeCell ref="CP103:CR103"/>
-    <mergeCell ref="CP122:CR122"/>
-    <mergeCell ref="CL103:CO103"/>
-    <mergeCell ref="CL122:CO122"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="95" man="1"/>
-    <brk id="76" max="95" man="1"/>
-    <brk id="94" max="95" man="1"/>
+    <brk id="38" max="96" man="1"/>
+    <brk id="76" max="96" man="1"/>
+    <brk id="94" max="96" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-21OS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-21OS_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD3BBBF-D359-4C72-90AF-E30FBD1272CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE5DAB3-EB45-43CD-BEA7-5CA663BD9BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="255" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OS" sheetId="15" r:id="rId1"/>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">OS!$A$1:$CS$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">OS!$A$1:$CT$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -618,13 +618,16 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2023</t>
+    <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2023</t>
+    <t>Q1 2000 to Q1 2024</t>
   </si>
   <si>
-    <t>As of January 2024</t>
+    <t>Q1 2001 to Q1 2024</t>
+  </si>
+  <si>
+    <t>As of May 2024</t>
   </si>
 </sst>
 </file>
@@ -729,7 +732,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -759,14 +762,30 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23640,48 +23659,84 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BZ1" activePane="topRight" state="frozen"/>
       <selection activeCell="CE141" sqref="CA141:CE149"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.88671875" style="1" customWidth="1"/>
-    <col min="2" max="97" width="9" style="12" customWidth="1"/>
-    <col min="98" max="16384" width="7.77734375" style="12"/>
+    <col min="2" max="93" width="9" style="12" customWidth="1"/>
+    <col min="94" max="98" width="9.6640625" style="34" customWidth="1"/>
+    <col min="99" max="16384" width="7.77734375" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CP1" s="23"/>
+      <c r="CQ1" s="23"/>
+      <c r="CR1" s="23"/>
+      <c r="CS1" s="23"/>
+      <c r="CT1" s="23"/>
     </row>
     <row r="2" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="CP2" s="23"/>
+      <c r="CQ2" s="23"/>
+      <c r="CR2" s="23"/>
+      <c r="CS2" s="23"/>
+      <c r="CT2" s="23"/>
     </row>
     <row r="3" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>51</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="CP3" s="23"/>
+      <c r="CQ3" s="23"/>
+      <c r="CR3" s="23"/>
+      <c r="CS3" s="23"/>
+      <c r="CT3" s="23"/>
     </row>
     <row r="4" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
+      <c r="CP4" s="23"/>
+      <c r="CQ4" s="23"/>
+      <c r="CR4" s="23"/>
+      <c r="CS4" s="23"/>
+      <c r="CT4" s="23"/>
     </row>
     <row r="5" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="CP5" s="23"/>
+      <c r="CQ5" s="23"/>
+      <c r="CR5" s="23"/>
+      <c r="CS5" s="23"/>
+      <c r="CT5" s="23"/>
     </row>
     <row r="6" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>49</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="CP6" s="23"/>
+      <c r="CQ6" s="23"/>
+      <c r="CR6" s="23"/>
+      <c r="CS6" s="23"/>
+      <c r="CT6" s="23"/>
     </row>
     <row r="7" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="CP7" s="23"/>
+      <c r="CQ7" s="23"/>
+      <c r="CR7" s="23"/>
+      <c r="CS7" s="23"/>
+      <c r="CT7" s="23"/>
     </row>
     <row r="8" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
@@ -23777,157 +23832,161 @@
       <c r="CM8" s="1"/>
       <c r="CN8" s="1"/>
       <c r="CO8" s="1"/>
-      <c r="CP8" s="1"/>
-      <c r="CQ8" s="1"/>
-      <c r="CR8" s="1"/>
-      <c r="CS8" s="1"/>
+      <c r="CP8" s="24"/>
+      <c r="CQ8" s="24"/>
+      <c r="CR8" s="24"/>
+      <c r="CS8" s="24"/>
+      <c r="CT8" s="24"/>
     </row>
     <row r="9" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="25">
+      <c r="B9" s="35">
         <v>2000</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25">
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35">
         <v>2001</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25">
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35">
         <v>2002</v>
       </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25">
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35">
         <v>2003</v>
       </c>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25">
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35">
         <v>2004</v>
       </c>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25">
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35">
         <v>2005</v>
       </c>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25">
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35">
         <v>2006</v>
       </c>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="25">
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35">
         <v>2007</v>
       </c>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="25"/>
-      <c r="AG9" s="25"/>
-      <c r="AH9" s="25">
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35">
         <v>2008</v>
       </c>
-      <c r="AI9" s="25"/>
-      <c r="AJ9" s="25"/>
-      <c r="AK9" s="25"/>
-      <c r="AL9" s="25">
+      <c r="AI9" s="35"/>
+      <c r="AJ9" s="35"/>
+      <c r="AK9" s="35"/>
+      <c r="AL9" s="35">
         <v>2009</v>
       </c>
-      <c r="AM9" s="25"/>
-      <c r="AN9" s="25"/>
-      <c r="AO9" s="25"/>
-      <c r="AP9" s="25">
+      <c r="AM9" s="35"/>
+      <c r="AN9" s="35"/>
+      <c r="AO9" s="35"/>
+      <c r="AP9" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="25"/>
-      <c r="AR9" s="25"/>
-      <c r="AS9" s="25"/>
-      <c r="AT9" s="25">
+      <c r="AQ9" s="35"/>
+      <c r="AR9" s="35"/>
+      <c r="AS9" s="35"/>
+      <c r="AT9" s="35">
         <v>2011</v>
       </c>
-      <c r="AU9" s="25"/>
-      <c r="AV9" s="25"/>
-      <c r="AW9" s="25"/>
-      <c r="AX9" s="25">
+      <c r="AU9" s="35"/>
+      <c r="AV9" s="35"/>
+      <c r="AW9" s="35"/>
+      <c r="AX9" s="35">
         <v>2012</v>
       </c>
-      <c r="AY9" s="25"/>
-      <c r="AZ9" s="25"/>
-      <c r="BA9" s="25"/>
-      <c r="BB9" s="25">
+      <c r="AY9" s="35"/>
+      <c r="AZ9" s="35"/>
+      <c r="BA9" s="35"/>
+      <c r="BB9" s="35">
         <v>2013</v>
       </c>
-      <c r="BC9" s="25"/>
-      <c r="BD9" s="25"/>
-      <c r="BE9" s="25"/>
-      <c r="BF9" s="25">
+      <c r="BC9" s="35"/>
+      <c r="BD9" s="35"/>
+      <c r="BE9" s="35"/>
+      <c r="BF9" s="35">
         <v>2014</v>
       </c>
-      <c r="BG9" s="25"/>
-      <c r="BH9" s="25"/>
-      <c r="BI9" s="25"/>
-      <c r="BJ9" s="25">
+      <c r="BG9" s="35"/>
+      <c r="BH9" s="35"/>
+      <c r="BI9" s="35"/>
+      <c r="BJ9" s="35">
         <v>2015</v>
       </c>
-      <c r="BK9" s="25"/>
-      <c r="BL9" s="25"/>
-      <c r="BM9" s="25"/>
-      <c r="BN9" s="25">
+      <c r="BK9" s="35"/>
+      <c r="BL9" s="35"/>
+      <c r="BM9" s="35"/>
+      <c r="BN9" s="35">
         <v>2016</v>
       </c>
-      <c r="BO9" s="25"/>
-      <c r="BP9" s="25"/>
-      <c r="BQ9" s="25"/>
-      <c r="BR9" s="25">
+      <c r="BO9" s="35"/>
+      <c r="BP9" s="35"/>
+      <c r="BQ9" s="35"/>
+      <c r="BR9" s="35">
         <v>2017</v>
       </c>
-      <c r="BS9" s="25"/>
-      <c r="BT9" s="25"/>
-      <c r="BU9" s="25"/>
-      <c r="BV9" s="25">
+      <c r="BS9" s="35"/>
+      <c r="BT9" s="35"/>
+      <c r="BU9" s="35"/>
+      <c r="BV9" s="35">
         <v>2018</v>
       </c>
-      <c r="BW9" s="25"/>
-      <c r="BX9" s="25"/>
-      <c r="BY9" s="25"/>
-      <c r="BZ9" s="25">
+      <c r="BW9" s="35"/>
+      <c r="BX9" s="35"/>
+      <c r="BY9" s="35"/>
+      <c r="BZ9" s="35">
         <v>2019</v>
       </c>
-      <c r="CA9" s="25"/>
-      <c r="CB9" s="25"/>
-      <c r="CC9" s="25"/>
-      <c r="CD9" s="25">
+      <c r="CA9" s="35"/>
+      <c r="CB9" s="35"/>
+      <c r="CC9" s="35"/>
+      <c r="CD9" s="35">
         <v>2020</v>
       </c>
-      <c r="CE9" s="25"/>
-      <c r="CF9" s="25"/>
-      <c r="CG9" s="25"/>
-      <c r="CH9" s="25">
+      <c r="CE9" s="35"/>
+      <c r="CF9" s="35"/>
+      <c r="CG9" s="35"/>
+      <c r="CH9" s="21">
         <v>2021</v>
       </c>
-      <c r="CI9" s="25"/>
-      <c r="CJ9" s="25"/>
-      <c r="CK9" s="25"/>
-      <c r="CL9" s="24">
+      <c r="CI9" s="21"/>
+      <c r="CJ9" s="21"/>
+      <c r="CK9" s="21"/>
+      <c r="CL9" s="21">
         <v>2022</v>
       </c>
-      <c r="CM9" s="24"/>
-      <c r="CN9" s="24"/>
-      <c r="CO9" s="24"/>
-      <c r="CP9" s="24">
+      <c r="CM9" s="21"/>
+      <c r="CN9" s="21"/>
+      <c r="CO9" s="21"/>
+      <c r="CP9" s="25">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="24"/>
-      <c r="CR9" s="24"/>
-      <c r="CS9" s="24"/>
+      <c r="CQ9" s="25"/>
+      <c r="CR9" s="25"/>
+      <c r="CS9" s="25"/>
+      <c r="CT9" s="25">
+        <v>2024</v>
+      </c>
     </row>
     <row r="10" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24209,17 +24268,20 @@
       <c r="CO10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="7" t="s">
+      <c r="CP10" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="7" t="s">
+      <c r="CQ10" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="7" t="s">
+      <c r="CR10" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="CS10" s="7" t="s">
+      <c r="CS10" s="26" t="s">
         <v>9</v>
+      </c>
+      <c r="CT10" s="26" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24316,10 +24378,11 @@
       <c r="CM11" s="1"/>
       <c r="CN11" s="1"/>
       <c r="CO11" s="1"/>
-      <c r="CP11" s="1"/>
-      <c r="CQ11" s="1"/>
-      <c r="CR11" s="1"/>
-      <c r="CS11" s="1"/>
+      <c r="CP11" s="24"/>
+      <c r="CQ11" s="24"/>
+      <c r="CR11" s="24"/>
+      <c r="CS11" s="24"/>
+      <c r="CT11" s="24"/>
     </row>
     <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
@@ -24589,31 +24652,33 @@
       <c r="CK12" s="19">
         <v>58285.980798410397</v>
       </c>
-      <c r="CL12" s="21">
-        <v>44173.952257399738</v>
-      </c>
-      <c r="CM12" s="21">
+      <c r="CL12" s="19">
+        <v>44173.675810148183</v>
+      </c>
+      <c r="CM12" s="19">
         <v>52336.697097351629</v>
       </c>
-      <c r="CN12" s="21">
-        <v>48353.552505266598</v>
-      </c>
-      <c r="CO12" s="21">
-        <v>71982.007955611291</v>
-      </c>
-      <c r="CP12" s="21">
-        <v>65459.990480924302</v>
-      </c>
-      <c r="CQ12" s="21">
-        <v>66508.350481955451</v>
-      </c>
-      <c r="CR12" s="21">
-        <v>58824.201289025281</v>
-      </c>
-      <c r="CS12" s="21">
-        <v>83814.430451013468</v>
-      </c>
-      <c r="CT12" s="11"/>
+      <c r="CN12" s="19">
+        <v>48393.85985333407</v>
+      </c>
+      <c r="CO12" s="19">
+        <v>72267.957904806448</v>
+      </c>
+      <c r="CP12" s="27">
+        <v>65749.128528322341</v>
+      </c>
+      <c r="CQ12" s="27">
+        <v>66475.807090737624</v>
+      </c>
+      <c r="CR12" s="27">
+        <v>58888.090068404897</v>
+      </c>
+      <c r="CS12" s="27">
+        <v>84049.154344747789</v>
+      </c>
+      <c r="CT12" s="27">
+        <v>73135.649599277283</v>
+      </c>
       <c r="CU12" s="11"/>
       <c r="CV12" s="11"/>
       <c r="CW12" s="11"/>
@@ -24940,31 +25005,33 @@
       <c r="CK13" s="19">
         <v>36649.135463693521</v>
       </c>
-      <c r="CL13" s="21">
-        <v>39201.392208936297</v>
-      </c>
-      <c r="CM13" s="21">
-        <v>34113.964358649384</v>
-      </c>
-      <c r="CN13" s="21">
-        <v>31980.411933406729</v>
-      </c>
-      <c r="CO13" s="21">
-        <v>43437.215392067759</v>
-      </c>
-      <c r="CP13" s="21">
-        <v>53863.21400026176</v>
-      </c>
-      <c r="CQ13" s="21">
-        <v>44494.612425711566</v>
-      </c>
-      <c r="CR13" s="21">
-        <v>39357.653160878079</v>
-      </c>
-      <c r="CS13" s="21">
-        <v>53158.546696286692</v>
-      </c>
-      <c r="CT13" s="11"/>
+      <c r="CL13" s="19">
+        <v>39252.941872004769</v>
+      </c>
+      <c r="CM13" s="19">
+        <v>34160.428620436011</v>
+      </c>
+      <c r="CN13" s="19">
+        <v>31982.631887974203</v>
+      </c>
+      <c r="CO13" s="19">
+        <v>43550.06055180906</v>
+      </c>
+      <c r="CP13" s="27">
+        <v>53563.929716224739</v>
+      </c>
+      <c r="CQ13" s="27">
+        <v>44669.943711267093</v>
+      </c>
+      <c r="CR13" s="27">
+        <v>39262.494450357262</v>
+      </c>
+      <c r="CS13" s="27">
+        <v>53053.825725400275</v>
+      </c>
+      <c r="CT13" s="27">
+        <v>62562.048414103621</v>
+      </c>
       <c r="CU13" s="11"/>
       <c r="CV13" s="11"/>
       <c r="CW13" s="11"/>
@@ -25112,15 +25179,15 @@
       <c r="CI14" s="20"/>
       <c r="CJ14" s="20"/>
       <c r="CK14" s="20"/>
-      <c r="CL14" s="22"/>
-      <c r="CM14" s="22"/>
-      <c r="CN14" s="22"/>
-      <c r="CO14" s="22"/>
-      <c r="CP14" s="22"/>
-      <c r="CQ14" s="22"/>
-      <c r="CR14" s="22"/>
-      <c r="CS14" s="22"/>
-      <c r="CT14" s="11"/>
+      <c r="CL14" s="20"/>
+      <c r="CM14" s="20"/>
+      <c r="CN14" s="20"/>
+      <c r="CO14" s="20"/>
+      <c r="CP14" s="28"/>
+      <c r="CQ14" s="28"/>
+      <c r="CR14" s="28"/>
+      <c r="CS14" s="28"/>
+      <c r="CT14" s="28"/>
       <c r="CU14" s="11"/>
       <c r="CV14" s="11"/>
       <c r="CW14" s="11"/>
@@ -25447,31 +25514,33 @@
       <c r="CK15" s="20">
         <v>94935.116262103926</v>
       </c>
-      <c r="CL15" s="22">
-        <v>83375.344466336042</v>
-      </c>
-      <c r="CM15" s="22">
-        <v>86450.66145600102</v>
-      </c>
-      <c r="CN15" s="22">
-        <v>80333.964438673327</v>
-      </c>
-      <c r="CO15" s="22">
-        <v>115419.22334767904</v>
-      </c>
-      <c r="CP15" s="22">
-        <v>119323.20448118605</v>
-      </c>
-      <c r="CQ15" s="22">
-        <v>111002.96290766701</v>
-      </c>
-      <c r="CR15" s="22">
-        <v>98181.85444990336</v>
-      </c>
-      <c r="CS15" s="22">
-        <v>136972.97714730015</v>
-      </c>
-      <c r="CT15" s="11"/>
+      <c r="CL15" s="20">
+        <v>83426.617682152952</v>
+      </c>
+      <c r="CM15" s="20">
+        <v>86497.12571778764</v>
+      </c>
+      <c r="CN15" s="20">
+        <v>80376.491741308273</v>
+      </c>
+      <c r="CO15" s="20">
+        <v>115818.01845661551</v>
+      </c>
+      <c r="CP15" s="28">
+        <v>119313.05824454708</v>
+      </c>
+      <c r="CQ15" s="28">
+        <v>111145.75080200471</v>
+      </c>
+      <c r="CR15" s="28">
+        <v>98150.58451876216</v>
+      </c>
+      <c r="CS15" s="28">
+        <v>137102.98007014807</v>
+      </c>
+      <c r="CT15" s="28">
+        <v>135697.6980133809</v>
+      </c>
       <c r="CU15" s="11"/>
       <c r="CV15" s="11"/>
       <c r="CW15" s="11"/>
@@ -25624,10 +25693,11 @@
       <c r="CM16" s="15"/>
       <c r="CN16" s="15"/>
       <c r="CO16" s="15"/>
-      <c r="CP16" s="15"/>
-      <c r="CQ16" s="15"/>
-      <c r="CR16" s="15"/>
-      <c r="CS16" s="15"/>
+      <c r="CP16" s="29"/>
+      <c r="CQ16" s="29"/>
+      <c r="CR16" s="29"/>
+      <c r="CS16" s="29"/>
+      <c r="CT16" s="29"/>
     </row>
     <row r="17" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
@@ -25725,10 +25795,11 @@
       <c r="CM17" s="1"/>
       <c r="CN17" s="1"/>
       <c r="CO17" s="1"/>
-      <c r="CP17" s="1"/>
-      <c r="CQ17" s="1"/>
-      <c r="CR17" s="1"/>
-      <c r="CS17" s="1"/>
+      <c r="CP17" s="24"/>
+      <c r="CQ17" s="24"/>
+      <c r="CR17" s="24"/>
+      <c r="CS17" s="24"/>
+      <c r="CT17" s="24"/>
     </row>
     <row r="18" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="17"/>
@@ -25823,11 +25894,11 @@
       <c r="CM18" s="17"/>
       <c r="CN18" s="17"/>
       <c r="CO18" s="17"/>
-      <c r="CP18" s="17"/>
-      <c r="CQ18" s="17"/>
-      <c r="CR18" s="17"/>
-      <c r="CS18" s="17"/>
-      <c r="CT18" s="11"/>
+      <c r="CP18" s="30"/>
+      <c r="CQ18" s="30"/>
+      <c r="CR18" s="30"/>
+      <c r="CS18" s="30"/>
+      <c r="CT18" s="30"/>
       <c r="CU18" s="11"/>
       <c r="CV18" s="11"/>
       <c r="CW18" s="11"/>
@@ -25979,11 +26050,11 @@
       <c r="CM19" s="17"/>
       <c r="CN19" s="17"/>
       <c r="CO19" s="17"/>
-      <c r="CP19" s="17"/>
-      <c r="CQ19" s="17"/>
-      <c r="CR19" s="17"/>
-      <c r="CS19" s="17"/>
-      <c r="CT19" s="11"/>
+      <c r="CP19" s="30"/>
+      <c r="CQ19" s="30"/>
+      <c r="CR19" s="30"/>
+      <c r="CS19" s="30"/>
+      <c r="CT19" s="30"/>
       <c r="CU19" s="11"/>
       <c r="CV19" s="11"/>
       <c r="CW19" s="11"/>
@@ -26138,10 +26209,11 @@
       <c r="CM20" s="1"/>
       <c r="CN20" s="1"/>
       <c r="CO20" s="1"/>
-      <c r="CP20" s="1"/>
-      <c r="CQ20" s="1"/>
-      <c r="CR20" s="1"/>
-      <c r="CS20" s="1"/>
+      <c r="CP20" s="24"/>
+      <c r="CQ20" s="24"/>
+      <c r="CR20" s="24"/>
+      <c r="CS20" s="24"/>
+      <c r="CT20" s="24"/>
     </row>
     <row r="21" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -26239,14 +26311,15 @@
       <c r="CM21" s="1"/>
       <c r="CN21" s="1"/>
       <c r="CO21" s="1"/>
-      <c r="CP21" s="1"/>
-      <c r="CQ21" s="1"/>
-      <c r="CR21" s="1"/>
-      <c r="CS21" s="1"/>
+      <c r="CP21" s="24"/>
+      <c r="CQ21" s="24"/>
+      <c r="CR21" s="24"/>
+      <c r="CS21" s="24"/>
+      <c r="CT21" s="24"/>
     </row>
     <row r="22" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -26340,10 +26413,11 @@
       <c r="CM22" s="1"/>
       <c r="CN22" s="1"/>
       <c r="CO22" s="1"/>
-      <c r="CP22" s="1"/>
-      <c r="CQ22" s="1"/>
-      <c r="CR22" s="1"/>
-      <c r="CS22" s="1"/>
+      <c r="CP22" s="24"/>
+      <c r="CQ22" s="24"/>
+      <c r="CR22" s="24"/>
+      <c r="CS22" s="24"/>
+      <c r="CT22" s="24"/>
     </row>
     <row r="23" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
@@ -26439,10 +26513,11 @@
       <c r="CM23" s="1"/>
       <c r="CN23" s="1"/>
       <c r="CO23" s="1"/>
-      <c r="CP23" s="1"/>
-      <c r="CQ23" s="1"/>
-      <c r="CR23" s="1"/>
-      <c r="CS23" s="1"/>
+      <c r="CP23" s="24"/>
+      <c r="CQ23" s="24"/>
+      <c r="CR23" s="24"/>
+      <c r="CS23" s="24"/>
+      <c r="CT23" s="24"/>
     </row>
     <row r="24" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -26540,14 +26615,15 @@
       <c r="CM24" s="1"/>
       <c r="CN24" s="1"/>
       <c r="CO24" s="1"/>
-      <c r="CP24" s="1"/>
-      <c r="CQ24" s="1"/>
-      <c r="CR24" s="1"/>
-      <c r="CS24" s="1"/>
+      <c r="CP24" s="24"/>
+      <c r="CQ24" s="24"/>
+      <c r="CR24" s="24"/>
+      <c r="CS24" s="24"/>
+      <c r="CT24" s="24"/>
     </row>
     <row r="25" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -26641,10 +26717,11 @@
       <c r="CM25" s="1"/>
       <c r="CN25" s="1"/>
       <c r="CO25" s="1"/>
-      <c r="CP25" s="1"/>
-      <c r="CQ25" s="1"/>
-      <c r="CR25" s="1"/>
-      <c r="CS25" s="1"/>
+      <c r="CP25" s="24"/>
+      <c r="CQ25" s="24"/>
+      <c r="CR25" s="24"/>
+      <c r="CS25" s="24"/>
+      <c r="CT25" s="24"/>
     </row>
     <row r="26" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -26742,10 +26819,11 @@
       <c r="CM26" s="1"/>
       <c r="CN26" s="1"/>
       <c r="CO26" s="1"/>
-      <c r="CP26" s="1"/>
-      <c r="CQ26" s="1"/>
-      <c r="CR26" s="1"/>
-      <c r="CS26" s="1"/>
+      <c r="CP26" s="24"/>
+      <c r="CQ26" s="24"/>
+      <c r="CR26" s="24"/>
+      <c r="CS26" s="24"/>
+      <c r="CT26" s="24"/>
     </row>
     <row r="27" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
@@ -26841,157 +26919,161 @@
       <c r="CM27" s="1"/>
       <c r="CN27" s="1"/>
       <c r="CO27" s="1"/>
-      <c r="CP27" s="1"/>
-      <c r="CQ27" s="1"/>
-      <c r="CR27" s="1"/>
-      <c r="CS27" s="1"/>
+      <c r="CP27" s="24"/>
+      <c r="CQ27" s="24"/>
+      <c r="CR27" s="24"/>
+      <c r="CS27" s="24"/>
+      <c r="CT27" s="24"/>
     </row>
     <row r="28" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
-      <c r="B28" s="25">
+      <c r="B28" s="35">
         <v>2000</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="25">
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="35">
         <v>2001</v>
       </c>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="25">
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="35">
         <v>2002</v>
       </c>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="25">
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="35">
         <v>2003</v>
       </c>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="25">
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="35">
         <v>2004</v>
       </c>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="25">
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="35">
         <v>2005</v>
       </c>
-      <c r="W28" s="26"/>
-      <c r="X28" s="26"/>
-      <c r="Y28" s="26"/>
-      <c r="Z28" s="25">
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="35">
         <v>2006</v>
       </c>
-      <c r="AA28" s="26"/>
-      <c r="AB28" s="26"/>
-      <c r="AC28" s="26"/>
-      <c r="AD28" s="25">
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="36"/>
+      <c r="AC28" s="36"/>
+      <c r="AD28" s="35">
         <v>2007</v>
       </c>
-      <c r="AE28" s="26"/>
-      <c r="AF28" s="26"/>
-      <c r="AG28" s="26"/>
-      <c r="AH28" s="25">
+      <c r="AE28" s="36"/>
+      <c r="AF28" s="36"/>
+      <c r="AG28" s="36"/>
+      <c r="AH28" s="35">
         <v>2008</v>
       </c>
-      <c r="AI28" s="26"/>
-      <c r="AJ28" s="26"/>
-      <c r="AK28" s="26"/>
-      <c r="AL28" s="25">
+      <c r="AI28" s="36"/>
+      <c r="AJ28" s="36"/>
+      <c r="AK28" s="36"/>
+      <c r="AL28" s="35">
         <v>2009</v>
       </c>
-      <c r="AM28" s="26"/>
-      <c r="AN28" s="26"/>
-      <c r="AO28" s="26"/>
-      <c r="AP28" s="25">
+      <c r="AM28" s="36"/>
+      <c r="AN28" s="36"/>
+      <c r="AO28" s="36"/>
+      <c r="AP28" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="26"/>
-      <c r="AR28" s="26"/>
-      <c r="AS28" s="26"/>
-      <c r="AT28" s="25">
+      <c r="AQ28" s="36"/>
+      <c r="AR28" s="36"/>
+      <c r="AS28" s="36"/>
+      <c r="AT28" s="35">
         <v>2011</v>
       </c>
-      <c r="AU28" s="26"/>
-      <c r="AV28" s="26"/>
-      <c r="AW28" s="26"/>
-      <c r="AX28" s="25">
+      <c r="AU28" s="36"/>
+      <c r="AV28" s="36"/>
+      <c r="AW28" s="36"/>
+      <c r="AX28" s="35">
         <v>2012</v>
       </c>
-      <c r="AY28" s="26"/>
-      <c r="AZ28" s="26"/>
-      <c r="BA28" s="26"/>
-      <c r="BB28" s="25">
+      <c r="AY28" s="36"/>
+      <c r="AZ28" s="36"/>
+      <c r="BA28" s="36"/>
+      <c r="BB28" s="35">
         <v>2013</v>
       </c>
-      <c r="BC28" s="26"/>
-      <c r="BD28" s="26"/>
-      <c r="BE28" s="26"/>
-      <c r="BF28" s="25">
+      <c r="BC28" s="36"/>
+      <c r="BD28" s="36"/>
+      <c r="BE28" s="36"/>
+      <c r="BF28" s="35">
         <v>2014</v>
       </c>
-      <c r="BG28" s="26"/>
-      <c r="BH28" s="26"/>
-      <c r="BI28" s="26"/>
-      <c r="BJ28" s="25">
+      <c r="BG28" s="36"/>
+      <c r="BH28" s="36"/>
+      <c r="BI28" s="36"/>
+      <c r="BJ28" s="35">
         <v>2015</v>
       </c>
-      <c r="BK28" s="26"/>
-      <c r="BL28" s="26"/>
-      <c r="BM28" s="26"/>
-      <c r="BN28" s="25">
+      <c r="BK28" s="36"/>
+      <c r="BL28" s="36"/>
+      <c r="BM28" s="36"/>
+      <c r="BN28" s="35">
         <v>2016</v>
       </c>
-      <c r="BO28" s="26"/>
-      <c r="BP28" s="26"/>
-      <c r="BQ28" s="26"/>
-      <c r="BR28" s="25">
+      <c r="BO28" s="36"/>
+      <c r="BP28" s="36"/>
+      <c r="BQ28" s="36"/>
+      <c r="BR28" s="35">
         <v>2017</v>
       </c>
-      <c r="BS28" s="26"/>
-      <c r="BT28" s="26"/>
-      <c r="BU28" s="26"/>
-      <c r="BV28" s="25">
+      <c r="BS28" s="36"/>
+      <c r="BT28" s="36"/>
+      <c r="BU28" s="36"/>
+      <c r="BV28" s="35">
         <v>2018</v>
       </c>
-      <c r="BW28" s="25"/>
-      <c r="BX28" s="25"/>
-      <c r="BY28" s="25"/>
-      <c r="BZ28" s="25">
+      <c r="BW28" s="35"/>
+      <c r="BX28" s="35"/>
+      <c r="BY28" s="35"/>
+      <c r="BZ28" s="35">
         <v>2019</v>
       </c>
-      <c r="CA28" s="25"/>
-      <c r="CB28" s="25"/>
-      <c r="CC28" s="25"/>
-      <c r="CD28" s="25">
+      <c r="CA28" s="35"/>
+      <c r="CB28" s="35"/>
+      <c r="CC28" s="35"/>
+      <c r="CD28" s="35">
         <v>2020</v>
       </c>
-      <c r="CE28" s="25"/>
-      <c r="CF28" s="25"/>
-      <c r="CG28" s="25"/>
-      <c r="CH28" s="25">
+      <c r="CE28" s="35"/>
+      <c r="CF28" s="35"/>
+      <c r="CG28" s="35"/>
+      <c r="CH28" s="21">
         <v>2021</v>
       </c>
-      <c r="CI28" s="25"/>
-      <c r="CJ28" s="25"/>
-      <c r="CK28" s="25"/>
-      <c r="CL28" s="24">
+      <c r="CI28" s="21"/>
+      <c r="CJ28" s="21"/>
+      <c r="CK28" s="21"/>
+      <c r="CL28" s="21">
         <v>2022</v>
       </c>
-      <c r="CM28" s="24"/>
-      <c r="CN28" s="24"/>
-      <c r="CO28" s="24"/>
-      <c r="CP28" s="24">
+      <c r="CM28" s="21"/>
+      <c r="CN28" s="21"/>
+      <c r="CO28" s="21"/>
+      <c r="CP28" s="25">
         <v>2023</v>
       </c>
-      <c r="CQ28" s="24"/>
-      <c r="CR28" s="24"/>
-      <c r="CS28" s="24"/>
+      <c r="CQ28" s="25"/>
+      <c r="CR28" s="25"/>
+      <c r="CS28" s="25"/>
+      <c r="CT28" s="25">
+        <v>2024</v>
+      </c>
     </row>
     <row r="29" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
@@ -27273,17 +27355,20 @@
       <c r="CO29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP29" s="7" t="s">
+      <c r="CP29" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="CQ29" s="7" t="s">
+      <c r="CQ29" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="CR29" s="7" t="s">
+      <c r="CR29" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="CS29" s="7" t="s">
+      <c r="CS29" s="26" t="s">
         <v>9</v>
+      </c>
+      <c r="CT29" s="26" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27380,10 +27465,11 @@
       <c r="CM30" s="1"/>
       <c r="CN30" s="1"/>
       <c r="CO30" s="1"/>
-      <c r="CP30" s="1"/>
-      <c r="CQ30" s="1"/>
-      <c r="CR30" s="1"/>
-      <c r="CS30" s="1"/>
+      <c r="CP30" s="24"/>
+      <c r="CQ30" s="24"/>
+      <c r="CR30" s="24"/>
+      <c r="CS30" s="24"/>
+      <c r="CT30" s="24"/>
     </row>
     <row r="31" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
@@ -27653,31 +27739,33 @@
       <c r="CK31" s="19">
         <v>55806.264395766862</v>
       </c>
-      <c r="CL31" s="21">
-        <v>42666.482735980899</v>
-      </c>
-      <c r="CM31" s="21">
+      <c r="CL31" s="19">
+        <v>42666.215722700821</v>
+      </c>
+      <c r="CM31" s="19">
         <v>50160.827000193254</v>
       </c>
-      <c r="CN31" s="21">
-        <v>45747.247224650651</v>
-      </c>
-      <c r="CO31" s="21">
-        <v>67178.583782310918</v>
-      </c>
-      <c r="CP31" s="21">
-        <v>60815.285027065627</v>
-      </c>
-      <c r="CQ31" s="21">
-        <v>60832.517513972329</v>
-      </c>
-      <c r="CR31" s="21">
-        <v>52879.741065054397</v>
-      </c>
-      <c r="CS31" s="21">
-        <v>74340.955449428613</v>
-      </c>
-      <c r="CT31" s="11"/>
+      <c r="CN31" s="19">
+        <v>45785.381965977285</v>
+      </c>
+      <c r="CO31" s="19">
+        <v>67445.452034046815</v>
+      </c>
+      <c r="CP31" s="27">
+        <v>61083.907320400758</v>
+      </c>
+      <c r="CQ31" s="27">
+        <v>60802.751380819478</v>
+      </c>
+      <c r="CR31" s="27">
+        <v>52937.173584944583</v>
+      </c>
+      <c r="CS31" s="27">
+        <v>74549.148697692945</v>
+      </c>
+      <c r="CT31" s="27">
+        <v>65130.667805949706</v>
+      </c>
       <c r="CU31" s="11"/>
       <c r="CV31" s="11"/>
       <c r="CW31" s="11"/>
@@ -28004,31 +28092,33 @@
       <c r="CK32" s="19">
         <v>33383.353309608567</v>
       </c>
-      <c r="CL32" s="21">
-        <v>34870.138067721156</v>
-      </c>
-      <c r="CM32" s="21">
-        <v>30896.857861207467</v>
-      </c>
-      <c r="CN32" s="21">
-        <v>28878.700203074994</v>
-      </c>
-      <c r="CO32" s="21">
-        <v>38575.913995093506</v>
-      </c>
-      <c r="CP32" s="21">
-        <v>45422.96588457191</v>
-      </c>
-      <c r="CQ32" s="21">
-        <v>37997.102367774969</v>
-      </c>
-      <c r="CR32" s="21">
-        <v>33589.435450770805</v>
-      </c>
-      <c r="CS32" s="21">
-        <v>43977.520075576802</v>
-      </c>
-      <c r="CT32" s="11"/>
+      <c r="CL32" s="19">
+        <v>34915.992150121121</v>
+      </c>
+      <c r="CM32" s="19">
+        <v>30938.940325647978</v>
+      </c>
+      <c r="CN32" s="19">
+        <v>28880.704848998634</v>
+      </c>
+      <c r="CO32" s="19">
+        <v>38676.130022701458</v>
+      </c>
+      <c r="CP32" s="27">
+        <v>45170.578794868416</v>
+      </c>
+      <c r="CQ32" s="27">
+        <v>38146.830176206837</v>
+      </c>
+      <c r="CR32" s="27">
+        <v>33508.22310430411</v>
+      </c>
+      <c r="CS32" s="27">
+        <v>43890.885491192763</v>
+      </c>
+      <c r="CT32" s="27">
+        <v>50177.175647280106</v>
+      </c>
       <c r="CU32" s="11"/>
       <c r="CV32" s="11"/>
       <c r="CW32" s="11"/>
@@ -28176,15 +28266,15 @@
       <c r="CI33" s="20"/>
       <c r="CJ33" s="20"/>
       <c r="CK33" s="20"/>
-      <c r="CL33" s="22"/>
-      <c r="CM33" s="22"/>
-      <c r="CN33" s="22"/>
-      <c r="CO33" s="22"/>
-      <c r="CP33" s="22"/>
-      <c r="CQ33" s="22"/>
-      <c r="CR33" s="22"/>
-      <c r="CS33" s="22"/>
-      <c r="CT33" s="11"/>
+      <c r="CL33" s="20"/>
+      <c r="CM33" s="20"/>
+      <c r="CN33" s="20"/>
+      <c r="CO33" s="20"/>
+      <c r="CP33" s="28"/>
+      <c r="CQ33" s="28"/>
+      <c r="CR33" s="28"/>
+      <c r="CS33" s="28"/>
+      <c r="CT33" s="28"/>
       <c r="CU33" s="11"/>
       <c r="CV33" s="11"/>
       <c r="CW33" s="11"/>
@@ -28511,31 +28601,33 @@
       <c r="CK34" s="20">
         <v>89189.617705375422</v>
       </c>
-      <c r="CL34" s="22">
-        <v>77536.620803702055</v>
-      </c>
-      <c r="CM34" s="22">
-        <v>81057.684861400718</v>
-      </c>
-      <c r="CN34" s="22">
-        <v>74625.947427725652</v>
-      </c>
-      <c r="CO34" s="22">
-        <v>105754.49777740442</v>
-      </c>
-      <c r="CP34" s="22">
-        <v>106238.25091163753</v>
-      </c>
-      <c r="CQ34" s="22">
-        <v>98829.61988174729</v>
-      </c>
-      <c r="CR34" s="22">
-        <v>86469.176515825209</v>
-      </c>
-      <c r="CS34" s="22">
-        <v>118318.47552500541</v>
-      </c>
-      <c r="CT34" s="11"/>
+      <c r="CL34" s="20">
+        <v>77582.207872821949</v>
+      </c>
+      <c r="CM34" s="20">
+        <v>81099.76732584124</v>
+      </c>
+      <c r="CN34" s="20">
+        <v>74666.086814975919</v>
+      </c>
+      <c r="CO34" s="20">
+        <v>106121.58205674827</v>
+      </c>
+      <c r="CP34" s="28">
+        <v>106254.48611526917</v>
+      </c>
+      <c r="CQ34" s="28">
+        <v>98949.581557026308</v>
+      </c>
+      <c r="CR34" s="28">
+        <v>86445.396689248693</v>
+      </c>
+      <c r="CS34" s="28">
+        <v>118440.03418888571</v>
+      </c>
+      <c r="CT34" s="28">
+        <v>115307.84345322981</v>
+      </c>
       <c r="CU34" s="11"/>
       <c r="CV34" s="11"/>
       <c r="CW34" s="11"/>
@@ -28688,10 +28780,11 @@
       <c r="CM35" s="15"/>
       <c r="CN35" s="15"/>
       <c r="CO35" s="15"/>
-      <c r="CP35" s="15"/>
-      <c r="CQ35" s="15"/>
-      <c r="CR35" s="15"/>
-      <c r="CS35" s="15"/>
+      <c r="CP35" s="29"/>
+      <c r="CQ35" s="29"/>
+      <c r="CR35" s="29"/>
+      <c r="CS35" s="29"/>
+      <c r="CT35" s="29"/>
     </row>
     <row r="36" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
@@ -28789,10 +28882,11 @@
       <c r="CM36" s="1"/>
       <c r="CN36" s="1"/>
       <c r="CO36" s="1"/>
-      <c r="CP36" s="1"/>
-      <c r="CQ36" s="1"/>
-      <c r="CR36" s="1"/>
-      <c r="CS36" s="1"/>
+      <c r="CP36" s="24"/>
+      <c r="CQ36" s="24"/>
+      <c r="CR36" s="24"/>
+      <c r="CS36" s="24"/>
+      <c r="CT36" s="24"/>
     </row>
     <row r="37" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="17"/>
@@ -28887,11 +28981,11 @@
       <c r="CM37" s="17"/>
       <c r="CN37" s="17"/>
       <c r="CO37" s="17"/>
-      <c r="CP37" s="17"/>
-      <c r="CQ37" s="17"/>
-      <c r="CR37" s="17"/>
-      <c r="CS37" s="17"/>
-      <c r="CT37" s="11"/>
+      <c r="CP37" s="30"/>
+      <c r="CQ37" s="30"/>
+      <c r="CR37" s="30"/>
+      <c r="CS37" s="30"/>
+      <c r="CT37" s="30"/>
       <c r="CU37" s="11"/>
       <c r="CV37" s="11"/>
       <c r="CW37" s="11"/>
@@ -29043,11 +29137,11 @@
       <c r="CM38" s="17"/>
       <c r="CN38" s="17"/>
       <c r="CO38" s="17"/>
-      <c r="CP38" s="17"/>
-      <c r="CQ38" s="17"/>
-      <c r="CR38" s="17"/>
-      <c r="CS38" s="17"/>
-      <c r="CT38" s="11"/>
+      <c r="CP38" s="30"/>
+      <c r="CQ38" s="30"/>
+      <c r="CR38" s="30"/>
+      <c r="CS38" s="30"/>
+      <c r="CT38" s="30"/>
       <c r="CU38" s="11"/>
       <c r="CV38" s="11"/>
       <c r="CW38" s="11"/>
@@ -29202,10 +29296,11 @@
       <c r="CM39" s="1"/>
       <c r="CN39" s="1"/>
       <c r="CO39" s="1"/>
-      <c r="CP39" s="1"/>
-      <c r="CQ39" s="1"/>
-      <c r="CR39" s="1"/>
-      <c r="CS39" s="1"/>
+      <c r="CP39" s="24"/>
+      <c r="CQ39" s="24"/>
+      <c r="CR39" s="24"/>
+      <c r="CS39" s="24"/>
+      <c r="CT39" s="24"/>
     </row>
     <row r="40" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
@@ -29303,14 +29398,15 @@
       <c r="CM40" s="1"/>
       <c r="CN40" s="1"/>
       <c r="CO40" s="1"/>
-      <c r="CP40" s="1"/>
-      <c r="CQ40" s="1"/>
-      <c r="CR40" s="1"/>
-      <c r="CS40" s="1"/>
+      <c r="CP40" s="24"/>
+      <c r="CQ40" s="24"/>
+      <c r="CR40" s="24"/>
+      <c r="CS40" s="24"/>
+      <c r="CT40" s="24"/>
     </row>
     <row r="41" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -29404,10 +29500,11 @@
       <c r="CM41" s="1"/>
       <c r="CN41" s="1"/>
       <c r="CO41" s="1"/>
-      <c r="CP41" s="1"/>
-      <c r="CQ41" s="1"/>
-      <c r="CR41" s="1"/>
-      <c r="CS41" s="1"/>
+      <c r="CP41" s="24"/>
+      <c r="CQ41" s="24"/>
+      <c r="CR41" s="24"/>
+      <c r="CS41" s="24"/>
+      <c r="CT41" s="24"/>
     </row>
     <row r="42" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
@@ -29503,10 +29600,11 @@
       <c r="CM42" s="1"/>
       <c r="CN42" s="1"/>
       <c r="CO42" s="1"/>
-      <c r="CP42" s="1"/>
-      <c r="CQ42" s="1"/>
-      <c r="CR42" s="1"/>
-      <c r="CS42" s="1"/>
+      <c r="CP42" s="24"/>
+      <c r="CQ42" s="24"/>
+      <c r="CR42" s="24"/>
+      <c r="CS42" s="24"/>
+      <c r="CT42" s="24"/>
     </row>
     <row r="43" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -29604,14 +29702,15 @@
       <c r="CM43" s="1"/>
       <c r="CN43" s="1"/>
       <c r="CO43" s="1"/>
-      <c r="CP43" s="1"/>
-      <c r="CQ43" s="1"/>
-      <c r="CR43" s="1"/>
-      <c r="CS43" s="1"/>
+      <c r="CP43" s="24"/>
+      <c r="CQ43" s="24"/>
+      <c r="CR43" s="24"/>
+      <c r="CS43" s="24"/>
+      <c r="CT43" s="24"/>
     </row>
     <row r="44" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -29705,10 +29804,11 @@
       <c r="CM44" s="1"/>
       <c r="CN44" s="1"/>
       <c r="CO44" s="1"/>
-      <c r="CP44" s="1"/>
-      <c r="CQ44" s="1"/>
-      <c r="CR44" s="1"/>
-      <c r="CS44" s="1"/>
+      <c r="CP44" s="24"/>
+      <c r="CQ44" s="24"/>
+      <c r="CR44" s="24"/>
+      <c r="CS44" s="24"/>
+      <c r="CT44" s="24"/>
     </row>
     <row r="45" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -29794,6 +29894,11 @@
       <c r="CA45" s="1"/>
       <c r="CB45" s="1"/>
       <c r="CC45" s="1"/>
+      <c r="CP45" s="23"/>
+      <c r="CQ45" s="23"/>
+      <c r="CR45" s="23"/>
+      <c r="CS45" s="23"/>
+      <c r="CT45" s="23"/>
     </row>
     <row r="46" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
@@ -29889,155 +29994,159 @@
       <c r="CM46" s="1"/>
       <c r="CN46" s="1"/>
       <c r="CO46" s="1"/>
-      <c r="CP46" s="1"/>
-      <c r="CQ46" s="1"/>
-      <c r="CR46" s="1"/>
-      <c r="CS46" s="1"/>
+      <c r="CP46" s="24"/>
+      <c r="CQ46" s="24"/>
+      <c r="CR46" s="24"/>
+      <c r="CS46" s="24"/>
+      <c r="CT46" s="24"/>
     </row>
     <row r="47" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25" t="s">
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25" t="s">
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="25"/>
-      <c r="N47" s="25" t="s">
+      <c r="K47" s="35"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="35"/>
+      <c r="N47" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="25"/>
-      <c r="P47" s="25"/>
-      <c r="Q47" s="25"/>
-      <c r="R47" s="25" t="s">
+      <c r="O47" s="35"/>
+      <c r="P47" s="35"/>
+      <c r="Q47" s="35"/>
+      <c r="R47" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="25"/>
-      <c r="T47" s="25"/>
-      <c r="U47" s="25"/>
-      <c r="V47" s="25" t="s">
+      <c r="S47" s="35"/>
+      <c r="T47" s="35"/>
+      <c r="U47" s="35"/>
+      <c r="V47" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="25"/>
-      <c r="X47" s="25"/>
-      <c r="Y47" s="25"/>
-      <c r="Z47" s="25" t="s">
+      <c r="W47" s="35"/>
+      <c r="X47" s="35"/>
+      <c r="Y47" s="35"/>
+      <c r="Z47" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="25"/>
-      <c r="AB47" s="25"/>
-      <c r="AC47" s="25"/>
-      <c r="AD47" s="25" t="s">
+      <c r="AA47" s="35"/>
+      <c r="AB47" s="35"/>
+      <c r="AC47" s="35"/>
+      <c r="AD47" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="25"/>
-      <c r="AF47" s="25"/>
-      <c r="AG47" s="25"/>
-      <c r="AH47" s="25" t="s">
+      <c r="AE47" s="35"/>
+      <c r="AF47" s="35"/>
+      <c r="AG47" s="35"/>
+      <c r="AH47" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="25"/>
-      <c r="AJ47" s="25"/>
-      <c r="AK47" s="25"/>
-      <c r="AL47" s="25" t="s">
+      <c r="AI47" s="35"/>
+      <c r="AJ47" s="35"/>
+      <c r="AK47" s="35"/>
+      <c r="AL47" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="25"/>
-      <c r="AN47" s="25"/>
-      <c r="AO47" s="25"/>
-      <c r="AP47" s="25" t="s">
+      <c r="AM47" s="35"/>
+      <c r="AN47" s="35"/>
+      <c r="AO47" s="35"/>
+      <c r="AP47" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="25"/>
-      <c r="AR47" s="25"/>
-      <c r="AS47" s="25"/>
-      <c r="AT47" s="25" t="s">
+      <c r="AQ47" s="35"/>
+      <c r="AR47" s="35"/>
+      <c r="AS47" s="35"/>
+      <c r="AT47" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="25"/>
-      <c r="AV47" s="25"/>
-      <c r="AW47" s="25"/>
-      <c r="AX47" s="25" t="s">
+      <c r="AU47" s="35"/>
+      <c r="AV47" s="35"/>
+      <c r="AW47" s="35"/>
+      <c r="AX47" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="25"/>
-      <c r="AZ47" s="25"/>
-      <c r="BA47" s="25"/>
-      <c r="BB47" s="25" t="s">
+      <c r="AY47" s="35"/>
+      <c r="AZ47" s="35"/>
+      <c r="BA47" s="35"/>
+      <c r="BB47" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="25"/>
-      <c r="BD47" s="25"/>
-      <c r="BE47" s="25"/>
-      <c r="BF47" s="25" t="s">
+      <c r="BC47" s="35"/>
+      <c r="BD47" s="35"/>
+      <c r="BE47" s="35"/>
+      <c r="BF47" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="25"/>
-      <c r="BH47" s="25"/>
-      <c r="BI47" s="25"/>
-      <c r="BJ47" s="25" t="s">
+      <c r="BG47" s="35"/>
+      <c r="BH47" s="35"/>
+      <c r="BI47" s="35"/>
+      <c r="BJ47" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="25"/>
-      <c r="BL47" s="25"/>
-      <c r="BM47" s="25"/>
-      <c r="BN47" s="25" t="s">
+      <c r="BK47" s="35"/>
+      <c r="BL47" s="35"/>
+      <c r="BM47" s="35"/>
+      <c r="BN47" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="25"/>
-      <c r="BP47" s="25"/>
-      <c r="BQ47" s="25"/>
-      <c r="BR47" s="25" t="s">
+      <c r="BO47" s="35"/>
+      <c r="BP47" s="35"/>
+      <c r="BQ47" s="35"/>
+      <c r="BR47" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="BS47" s="25"/>
-      <c r="BT47" s="25"/>
-      <c r="BU47" s="25"/>
-      <c r="BV47" s="25" t="s">
+      <c r="BS47" s="35"/>
+      <c r="BT47" s="35"/>
+      <c r="BU47" s="35"/>
+      <c r="BV47" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="BW47" s="25"/>
-      <c r="BX47" s="25"/>
-      <c r="BY47" s="25"/>
-      <c r="BZ47" s="25" t="s">
+      <c r="BW47" s="35"/>
+      <c r="BX47" s="35"/>
+      <c r="BY47" s="35"/>
+      <c r="BZ47" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="25"/>
-      <c r="CB47" s="25"/>
-      <c r="CC47" s="25"/>
-      <c r="CD47" s="25" t="s">
+      <c r="CA47" s="35"/>
+      <c r="CB47" s="35"/>
+      <c r="CC47" s="35"/>
+      <c r="CD47" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="25"/>
-      <c r="CF47" s="25"/>
-      <c r="CG47" s="25"/>
-      <c r="CH47" s="25" t="s">
+      <c r="CE47" s="35"/>
+      <c r="CF47" s="35"/>
+      <c r="CG47" s="35"/>
+      <c r="CH47" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="CI47" s="25"/>
-      <c r="CJ47" s="25"/>
-      <c r="CK47" s="25"/>
-      <c r="CL47" s="24" t="s">
+      <c r="CI47" s="21"/>
+      <c r="CJ47" s="21"/>
+      <c r="CK47" s="21"/>
+      <c r="CL47" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="CM47" s="24"/>
-      <c r="CN47" s="24"/>
-      <c r="CO47" s="24"/>
-      <c r="CP47" s="23"/>
-      <c r="CQ47" s="23"/>
-      <c r="CR47" s="23"/>
-      <c r="CS47" s="23"/>
+      <c r="CM47" s="21"/>
+      <c r="CN47" s="21"/>
+      <c r="CO47" s="21"/>
+      <c r="CP47" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="CQ47" s="22"/>
+      <c r="CR47" s="22"/>
+      <c r="CS47" s="22"/>
+      <c r="CT47" s="22"/>
     </row>
     <row r="48" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
@@ -30319,10 +30428,13 @@
       <c r="CO48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP48" s="6"/>
-      <c r="CQ48" s="6"/>
-      <c r="CR48" s="6"/>
-      <c r="CS48" s="6"/>
+      <c r="CP48" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ48" s="31"/>
+      <c r="CR48" s="31"/>
+      <c r="CS48" s="31"/>
+      <c r="CT48" s="31"/>
     </row>
     <row r="49" spans="1:151" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
@@ -30418,10 +30530,11 @@
       <c r="CM49" s="1"/>
       <c r="CN49" s="1"/>
       <c r="CO49" s="1"/>
-      <c r="CP49" s="1"/>
-      <c r="CQ49" s="1"/>
-      <c r="CR49" s="1"/>
-      <c r="CS49" s="1"/>
+      <c r="CP49" s="24"/>
+      <c r="CQ49" s="24"/>
+      <c r="CR49" s="24"/>
+      <c r="CS49" s="24"/>
+      <c r="CT49" s="24"/>
     </row>
     <row r="50" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
@@ -30680,34 +30793,36 @@
         <v>48.107398820047109</v>
       </c>
       <c r="CH50" s="18">
-        <v>28.562928327939773</v>
+        <v>28.562123761756055</v>
       </c>
       <c r="CI50" s="18">
         <v>58.910829043634635</v>
       </c>
       <c r="CJ50" s="18">
-        <v>55.471486027214382</v>
+        <v>55.601086500751137</v>
       </c>
       <c r="CK50" s="18">
-        <v>23.497978363906014</v>
+        <v>23.988576523666168</v>
       </c>
       <c r="CL50" s="18">
-        <v>48.186854776977441</v>
+        <v>48.842330466004711</v>
       </c>
       <c r="CM50" s="18">
-        <v>27.077852005530829</v>
+        <v>27.015671178266757</v>
       </c>
       <c r="CN50" s="18">
-        <v>21.654352661302894</v>
+        <v>21.685044852539974</v>
       </c>
       <c r="CO50" s="18">
-        <v>16.438027823145475</v>
-      </c>
-      <c r="CP50" s="18"/>
-      <c r="CQ50" s="18"/>
-      <c r="CR50" s="18"/>
-      <c r="CS50" s="18"/>
-      <c r="CT50" s="11"/>
+        <v>16.30210231685237</v>
+      </c>
+      <c r="CP50" s="32">
+        <v>11.234401483774946</v>
+      </c>
+      <c r="CQ50" s="32"/>
+      <c r="CR50" s="32"/>
+      <c r="CS50" s="32"/>
+      <c r="CT50" s="32"/>
       <c r="CU50" s="11"/>
       <c r="CV50" s="11"/>
       <c r="CW50" s="11"/>
@@ -31019,34 +31134,36 @@
         <v>10.267572830341891</v>
       </c>
       <c r="CH51" s="18">
-        <v>19.458810461595405</v>
+        <v>19.615898286360249</v>
       </c>
       <c r="CI51" s="18">
-        <v>18.594641724446006</v>
+        <v>18.756171250057378</v>
       </c>
       <c r="CJ51" s="18">
-        <v>22.301187927283195</v>
+        <v>22.309677595312237</v>
       </c>
       <c r="CK51" s="18">
-        <v>18.521800971536834</v>
+        <v>18.82970771562114</v>
       </c>
       <c r="CL51" s="18">
-        <v>37.401278284150266</v>
+        <v>36.458382892382843</v>
       </c>
       <c r="CM51" s="18">
-        <v>30.429322015839631</v>
+        <v>30.765173375324423</v>
       </c>
       <c r="CN51" s="18">
-        <v>23.0679993829757</v>
+        <v>22.761924621720581</v>
       </c>
       <c r="CO51" s="18">
-        <v>22.380189928091426</v>
-      </c>
-      <c r="CP51" s="18"/>
-      <c r="CQ51" s="18"/>
-      <c r="CR51" s="18"/>
-      <c r="CS51" s="18"/>
-      <c r="CT51" s="11"/>
+        <v>21.822622180479215</v>
+      </c>
+      <c r="CP51" s="32">
+        <v>16.798839714617358</v>
+      </c>
+      <c r="CQ51" s="32"/>
+      <c r="CR51" s="32"/>
+      <c r="CS51" s="32"/>
+      <c r="CT51" s="32"/>
       <c r="CU51" s="11"/>
       <c r="CV51" s="11"/>
       <c r="CW51" s="11"/>
@@ -31195,11 +31312,11 @@
       <c r="CM52" s="17"/>
       <c r="CN52" s="17"/>
       <c r="CO52" s="17"/>
-      <c r="CP52" s="17"/>
-      <c r="CQ52" s="17"/>
-      <c r="CR52" s="17"/>
-      <c r="CS52" s="17"/>
-      <c r="CT52" s="11"/>
+      <c r="CP52" s="30"/>
+      <c r="CQ52" s="30"/>
+      <c r="CR52" s="30"/>
+      <c r="CS52" s="30"/>
+      <c r="CT52" s="30"/>
       <c r="CU52" s="11"/>
       <c r="CV52" s="11"/>
       <c r="CW52" s="11"/>
@@ -31511,34 +31628,36 @@
         <v>30.781897943844712</v>
       </c>
       <c r="CH53" s="18">
-        <v>24.115494080594729</v>
+        <v>24.19182120769625</v>
       </c>
       <c r="CI53" s="18">
-        <v>40.114946473706482</v>
+        <v>40.190253445839801</v>
       </c>
       <c r="CJ53" s="18">
-        <v>40.321010744796098</v>
+        <v>40.395294071053968</v>
       </c>
       <c r="CK53" s="18">
-        <v>21.576954758259376</v>
+        <v>21.997025986523795</v>
       </c>
       <c r="CL53" s="18">
-        <v>43.115695946976814</v>
+        <v>43.015576514342058</v>
       </c>
       <c r="CM53" s="18">
-        <v>28.400362748134512</v>
+        <v>28.496467229024034</v>
       </c>
       <c r="CN53" s="18">
-        <v>22.217115930902494</v>
+        <v>22.113546377042439</v>
       </c>
       <c r="CO53" s="18">
-        <v>18.674318865146404</v>
-      </c>
-      <c r="CP53" s="18"/>
-      <c r="CQ53" s="18"/>
-      <c r="CR53" s="18"/>
-      <c r="CS53" s="18"/>
-      <c r="CT53" s="11"/>
+        <v>18.37793626343705</v>
+      </c>
+      <c r="CP53" s="32">
+        <v>13.732478246640383</v>
+      </c>
+      <c r="CQ53" s="32"/>
+      <c r="CR53" s="32"/>
+      <c r="CS53" s="32"/>
+      <c r="CT53" s="32"/>
       <c r="CU53" s="11"/>
       <c r="CV53" s="11"/>
       <c r="CW53" s="11"/>
@@ -31687,10 +31806,11 @@
       <c r="CM54" s="15"/>
       <c r="CN54" s="15"/>
       <c r="CO54" s="15"/>
-      <c r="CP54" s="15"/>
-      <c r="CQ54" s="15"/>
-      <c r="CR54" s="15"/>
-      <c r="CS54" s="15"/>
+      <c r="CP54" s="29"/>
+      <c r="CQ54" s="29"/>
+      <c r="CR54" s="29"/>
+      <c r="CS54" s="29"/>
+      <c r="CT54" s="29"/>
     </row>
     <row r="55" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
@@ -31788,10 +31908,11 @@
       <c r="CM55" s="1"/>
       <c r="CN55" s="1"/>
       <c r="CO55" s="1"/>
-      <c r="CP55" s="1"/>
-      <c r="CQ55" s="1"/>
-      <c r="CR55" s="1"/>
-      <c r="CS55" s="1"/>
+      <c r="CP55" s="24"/>
+      <c r="CQ55" s="24"/>
+      <c r="CR55" s="24"/>
+      <c r="CS55" s="24"/>
+      <c r="CT55" s="24"/>
     </row>
     <row r="56" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="17"/>
@@ -31886,11 +32007,11 @@
       <c r="CM56" s="17"/>
       <c r="CN56" s="17"/>
       <c r="CO56" s="17"/>
-      <c r="CP56" s="17"/>
-      <c r="CQ56" s="17"/>
-      <c r="CR56" s="17"/>
-      <c r="CS56" s="17"/>
-      <c r="CT56" s="11"/>
+      <c r="CP56" s="30"/>
+      <c r="CQ56" s="30"/>
+      <c r="CR56" s="30"/>
+      <c r="CS56" s="30"/>
+      <c r="CT56" s="30"/>
       <c r="CU56" s="11"/>
       <c r="CV56" s="11"/>
       <c r="CW56" s="11"/>
@@ -32038,11 +32159,11 @@
       <c r="CM57" s="17"/>
       <c r="CN57" s="17"/>
       <c r="CO57" s="17"/>
-      <c r="CP57" s="17"/>
-      <c r="CQ57" s="17"/>
-      <c r="CR57" s="17"/>
-      <c r="CS57" s="17"/>
-      <c r="CT57" s="11"/>
+      <c r="CP57" s="30"/>
+      <c r="CQ57" s="30"/>
+      <c r="CR57" s="30"/>
+      <c r="CS57" s="30"/>
+      <c r="CT57" s="30"/>
       <c r="CU57" s="11"/>
       <c r="CV57" s="11"/>
       <c r="CW57" s="11"/>
@@ -32193,10 +32314,11 @@
       <c r="CM58" s="1"/>
       <c r="CN58" s="1"/>
       <c r="CO58" s="1"/>
-      <c r="CP58" s="1"/>
-      <c r="CQ58" s="1"/>
-      <c r="CR58" s="1"/>
-      <c r="CS58" s="1"/>
+      <c r="CP58" s="24"/>
+      <c r="CQ58" s="24"/>
+      <c r="CR58" s="24"/>
+      <c r="CS58" s="24"/>
+      <c r="CT58" s="24"/>
     </row>
     <row r="59" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -32294,14 +32416,15 @@
       <c r="CM59" s="1"/>
       <c r="CN59" s="1"/>
       <c r="CO59" s="1"/>
-      <c r="CP59" s="1"/>
-      <c r="CQ59" s="1"/>
-      <c r="CR59" s="1"/>
-      <c r="CS59" s="1"/>
+      <c r="CP59" s="24"/>
+      <c r="CQ59" s="24"/>
+      <c r="CR59" s="24"/>
+      <c r="CS59" s="24"/>
+      <c r="CT59" s="24"/>
     </row>
     <row r="60" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -32395,10 +32518,11 @@
       <c r="CM60" s="1"/>
       <c r="CN60" s="1"/>
       <c r="CO60" s="1"/>
-      <c r="CP60" s="1"/>
-      <c r="CQ60" s="1"/>
-      <c r="CR60" s="1"/>
-      <c r="CS60" s="1"/>
+      <c r="CP60" s="24"/>
+      <c r="CQ60" s="24"/>
+      <c r="CR60" s="24"/>
+      <c r="CS60" s="24"/>
+      <c r="CT60" s="24"/>
     </row>
     <row r="61" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
@@ -32494,10 +32618,11 @@
       <c r="CM61" s="1"/>
       <c r="CN61" s="1"/>
       <c r="CO61" s="1"/>
-      <c r="CP61" s="1"/>
-      <c r="CQ61" s="1"/>
-      <c r="CR61" s="1"/>
-      <c r="CS61" s="1"/>
+      <c r="CP61" s="24"/>
+      <c r="CQ61" s="24"/>
+      <c r="CR61" s="24"/>
+      <c r="CS61" s="24"/>
+      <c r="CT61" s="24"/>
     </row>
     <row r="62" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -32595,14 +32720,15 @@
       <c r="CM62" s="1"/>
       <c r="CN62" s="1"/>
       <c r="CO62" s="1"/>
-      <c r="CP62" s="1"/>
-      <c r="CQ62" s="1"/>
-      <c r="CR62" s="1"/>
-      <c r="CS62" s="1"/>
+      <c r="CP62" s="24"/>
+      <c r="CQ62" s="24"/>
+      <c r="CR62" s="24"/>
+      <c r="CS62" s="24"/>
+      <c r="CT62" s="24"/>
     </row>
     <row r="63" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -32696,10 +32822,11 @@
       <c r="CM63" s="1"/>
       <c r="CN63" s="1"/>
       <c r="CO63" s="1"/>
-      <c r="CP63" s="1"/>
-      <c r="CQ63" s="1"/>
-      <c r="CR63" s="1"/>
-      <c r="CS63" s="1"/>
+      <c r="CP63" s="24"/>
+      <c r="CQ63" s="24"/>
+      <c r="CR63" s="24"/>
+      <c r="CS63" s="24"/>
+      <c r="CT63" s="24"/>
     </row>
     <row r="64" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
@@ -32797,10 +32924,11 @@
       <c r="CM64" s="1"/>
       <c r="CN64" s="1"/>
       <c r="CO64" s="1"/>
-      <c r="CP64" s="1"/>
-      <c r="CQ64" s="1"/>
-      <c r="CR64" s="1"/>
-      <c r="CS64" s="1"/>
+      <c r="CP64" s="24"/>
+      <c r="CQ64" s="24"/>
+      <c r="CR64" s="24"/>
+      <c r="CS64" s="24"/>
+      <c r="CT64" s="24"/>
     </row>
     <row r="65" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
@@ -32896,155 +33024,159 @@
       <c r="CM65" s="1"/>
       <c r="CN65" s="1"/>
       <c r="CO65" s="1"/>
-      <c r="CP65" s="1"/>
-      <c r="CQ65" s="1"/>
-      <c r="CR65" s="1"/>
-      <c r="CS65" s="1"/>
+      <c r="CP65" s="24"/>
+      <c r="CQ65" s="24"/>
+      <c r="CR65" s="24"/>
+      <c r="CS65" s="24"/>
+      <c r="CT65" s="24"/>
     </row>
     <row r="66" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
-      <c r="B66" s="25" t="s">
+      <c r="B66" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="25" t="s">
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="27"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="27"/>
-      <c r="J66" s="25" t="s">
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="27"/>
-      <c r="L66" s="27"/>
-      <c r="M66" s="27"/>
-      <c r="N66" s="25" t="s">
+      <c r="K66" s="37"/>
+      <c r="L66" s="37"/>
+      <c r="M66" s="37"/>
+      <c r="N66" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="27"/>
-      <c r="P66" s="27"/>
-      <c r="Q66" s="27"/>
-      <c r="R66" s="25" t="s">
+      <c r="O66" s="37"/>
+      <c r="P66" s="37"/>
+      <c r="Q66" s="37"/>
+      <c r="R66" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="27"/>
-      <c r="T66" s="27"/>
-      <c r="U66" s="27"/>
-      <c r="V66" s="25" t="s">
+      <c r="S66" s="37"/>
+      <c r="T66" s="37"/>
+      <c r="U66" s="37"/>
+      <c r="V66" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="27"/>
-      <c r="X66" s="27"/>
-      <c r="Y66" s="27"/>
-      <c r="Z66" s="25" t="s">
+      <c r="W66" s="37"/>
+      <c r="X66" s="37"/>
+      <c r="Y66" s="37"/>
+      <c r="Z66" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="27"/>
-      <c r="AB66" s="27"/>
-      <c r="AC66" s="27"/>
-      <c r="AD66" s="25" t="s">
+      <c r="AA66" s="37"/>
+      <c r="AB66" s="37"/>
+      <c r="AC66" s="37"/>
+      <c r="AD66" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="27"/>
-      <c r="AF66" s="27"/>
-      <c r="AG66" s="27"/>
-      <c r="AH66" s="25" t="s">
+      <c r="AE66" s="37"/>
+      <c r="AF66" s="37"/>
+      <c r="AG66" s="37"/>
+      <c r="AH66" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="27"/>
-      <c r="AJ66" s="27"/>
-      <c r="AK66" s="27"/>
-      <c r="AL66" s="25" t="s">
+      <c r="AI66" s="37"/>
+      <c r="AJ66" s="37"/>
+      <c r="AK66" s="37"/>
+      <c r="AL66" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="27"/>
-      <c r="AN66" s="27"/>
-      <c r="AO66" s="27"/>
-      <c r="AP66" s="25" t="s">
+      <c r="AM66" s="37"/>
+      <c r="AN66" s="37"/>
+      <c r="AO66" s="37"/>
+      <c r="AP66" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="27"/>
-      <c r="AR66" s="27"/>
-      <c r="AS66" s="27"/>
-      <c r="AT66" s="25" t="s">
+      <c r="AQ66" s="37"/>
+      <c r="AR66" s="37"/>
+      <c r="AS66" s="37"/>
+      <c r="AT66" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="27"/>
-      <c r="AV66" s="27"/>
-      <c r="AW66" s="27"/>
-      <c r="AX66" s="25" t="s">
+      <c r="AU66" s="37"/>
+      <c r="AV66" s="37"/>
+      <c r="AW66" s="37"/>
+      <c r="AX66" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="27"/>
-      <c r="AZ66" s="27"/>
-      <c r="BA66" s="27"/>
-      <c r="BB66" s="25" t="s">
+      <c r="AY66" s="37"/>
+      <c r="AZ66" s="37"/>
+      <c r="BA66" s="37"/>
+      <c r="BB66" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="27"/>
-      <c r="BD66" s="27"/>
-      <c r="BE66" s="27"/>
-      <c r="BF66" s="25" t="s">
+      <c r="BC66" s="37"/>
+      <c r="BD66" s="37"/>
+      <c r="BE66" s="37"/>
+      <c r="BF66" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="27"/>
-      <c r="BH66" s="27"/>
-      <c r="BI66" s="27"/>
-      <c r="BJ66" s="25" t="s">
+      <c r="BG66" s="37"/>
+      <c r="BH66" s="37"/>
+      <c r="BI66" s="37"/>
+      <c r="BJ66" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="27"/>
-      <c r="BL66" s="27"/>
-      <c r="BM66" s="27"/>
-      <c r="BN66" s="25" t="s">
+      <c r="BK66" s="37"/>
+      <c r="BL66" s="37"/>
+      <c r="BM66" s="37"/>
+      <c r="BN66" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="27"/>
-      <c r="BP66" s="27"/>
-      <c r="BQ66" s="27"/>
-      <c r="BR66" s="25" t="s">
+      <c r="BO66" s="37"/>
+      <c r="BP66" s="37"/>
+      <c r="BQ66" s="37"/>
+      <c r="BR66" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="27"/>
-      <c r="BT66" s="27"/>
-      <c r="BU66" s="27"/>
-      <c r="BV66" s="25" t="s">
+      <c r="BS66" s="37"/>
+      <c r="BT66" s="37"/>
+      <c r="BU66" s="37"/>
+      <c r="BV66" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="BW66" s="25"/>
-      <c r="BX66" s="25"/>
-      <c r="BY66" s="25"/>
-      <c r="BZ66" s="25" t="s">
+      <c r="BW66" s="35"/>
+      <c r="BX66" s="35"/>
+      <c r="BY66" s="35"/>
+      <c r="BZ66" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="25"/>
-      <c r="CB66" s="25"/>
-      <c r="CC66" s="25"/>
-      <c r="CD66" s="25" t="s">
+      <c r="CA66" s="35"/>
+      <c r="CB66" s="35"/>
+      <c r="CC66" s="35"/>
+      <c r="CD66" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="25"/>
-      <c r="CF66" s="25"/>
-      <c r="CG66" s="25"/>
-      <c r="CH66" s="25" t="s">
+      <c r="CE66" s="35"/>
+      <c r="CF66" s="35"/>
+      <c r="CG66" s="35"/>
+      <c r="CH66" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="CI66" s="25"/>
-      <c r="CJ66" s="25"/>
-      <c r="CK66" s="25"/>
-      <c r="CL66" s="24" t="s">
+      <c r="CI66" s="21"/>
+      <c r="CJ66" s="21"/>
+      <c r="CK66" s="21"/>
+      <c r="CL66" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="CM66" s="24"/>
-      <c r="CN66" s="24"/>
-      <c r="CO66" s="24"/>
-      <c r="CP66" s="23"/>
-      <c r="CQ66" s="23"/>
-      <c r="CR66" s="23"/>
-      <c r="CS66" s="23"/>
+      <c r="CM66" s="21"/>
+      <c r="CN66" s="21"/>
+      <c r="CO66" s="21"/>
+      <c r="CP66" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="CQ66" s="22"/>
+      <c r="CR66" s="22"/>
+      <c r="CS66" s="22"/>
+      <c r="CT66" s="22"/>
     </row>
     <row r="67" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
@@ -33326,10 +33458,13 @@
       <c r="CO67" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP67" s="6"/>
-      <c r="CQ67" s="6"/>
-      <c r="CR67" s="6"/>
-      <c r="CS67" s="6"/>
+      <c r="CP67" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ67" s="31"/>
+      <c r="CR67" s="31"/>
+      <c r="CS67" s="31"/>
+      <c r="CT67" s="31"/>
     </row>
     <row r="68" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
@@ -33425,10 +33560,11 @@
       <c r="CM68" s="1"/>
       <c r="CN68" s="1"/>
       <c r="CO68" s="1"/>
-      <c r="CP68" s="1"/>
-      <c r="CQ68" s="1"/>
-      <c r="CR68" s="1"/>
-      <c r="CS68" s="1"/>
+      <c r="CP68" s="24"/>
+      <c r="CQ68" s="24"/>
+      <c r="CR68" s="24"/>
+      <c r="CS68" s="24"/>
+      <c r="CT68" s="24"/>
     </row>
     <row r="69" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
@@ -33687,34 +33823,36 @@
         <v>47.372091610848514</v>
       </c>
       <c r="CH69" s="18">
-        <v>27.094171691809592</v>
+        <v>27.093376317326246</v>
       </c>
       <c r="CI69" s="18">
         <v>57.618150043400391</v>
       </c>
       <c r="CJ69" s="18">
-        <v>53.15279686137643</v>
+        <v>53.280464483934765</v>
       </c>
       <c r="CK69" s="18">
-        <v>20.378212929455103</v>
+        <v>20.856417759370458</v>
       </c>
       <c r="CL69" s="18">
-        <v>42.536438739019218</v>
+        <v>43.166920913261805</v>
       </c>
       <c r="CM69" s="18">
-        <v>21.274949302047915</v>
+        <v>21.215607909704559</v>
       </c>
       <c r="CN69" s="18">
-        <v>15.59108858589515</v>
+        <v>15.620251075510822</v>
       </c>
       <c r="CO69" s="18">
-        <v>10.661688984583279</v>
-      </c>
-      <c r="CP69" s="18"/>
-      <c r="CQ69" s="18"/>
-      <c r="CR69" s="18"/>
-      <c r="CS69" s="18"/>
-      <c r="CT69" s="11"/>
+        <v>10.532506565542988</v>
+      </c>
+      <c r="CP69" s="32">
+        <v>6.6249208065925558</v>
+      </c>
+      <c r="CQ69" s="32"/>
+      <c r="CR69" s="32"/>
+      <c r="CS69" s="32"/>
+      <c r="CT69" s="32"/>
       <c r="CU69" s="11"/>
       <c r="CV69" s="11"/>
       <c r="CW69" s="11"/>
@@ -34026,34 +34164,36 @@
         <v>7.9969703288399643</v>
       </c>
       <c r="CH70" s="18">
-        <v>18.168971355887393</v>
+        <v>18.324363047745578</v>
       </c>
       <c r="CI70" s="18">
-        <v>18.394943830634418</v>
+        <v>18.556201361612821</v>
       </c>
       <c r="CJ70" s="18">
-        <v>21.140168647549956</v>
+        <v>21.148577722181443</v>
       </c>
       <c r="CK70" s="18">
-        <v>15.554341223086141</v>
+        <v>15.854538829595327</v>
       </c>
       <c r="CL70" s="18">
-        <v>30.26322349615063</v>
+        <v>29.369311920617236</v>
       </c>
       <c r="CM70" s="18">
-        <v>22.980474385009259</v>
+        <v>23.297145198549714</v>
       </c>
       <c r="CN70" s="18">
-        <v>16.312144295172317</v>
+        <v>16.022871600607516</v>
       </c>
       <c r="CO70" s="18">
-        <v>14.002535574841673</v>
-      </c>
-      <c r="CP70" s="18"/>
-      <c r="CQ70" s="18"/>
-      <c r="CR70" s="18"/>
-      <c r="CS70" s="18"/>
-      <c r="CT70" s="11"/>
+        <v>13.483136667061672</v>
+      </c>
+      <c r="CP70" s="32">
+        <v>11.083756254592132</v>
+      </c>
+      <c r="CQ70" s="32"/>
+      <c r="CR70" s="32"/>
+      <c r="CS70" s="32"/>
+      <c r="CT70" s="32"/>
       <c r="CU70" s="11"/>
       <c r="CV70" s="11"/>
       <c r="CW70" s="11"/>
@@ -34201,11 +34341,11 @@
       <c r="CM71" s="17"/>
       <c r="CN71" s="17"/>
       <c r="CO71" s="17"/>
-      <c r="CP71" s="17"/>
-      <c r="CQ71" s="17"/>
-      <c r="CR71" s="17"/>
-      <c r="CS71" s="17"/>
-      <c r="CT71" s="11"/>
+      <c r="CP71" s="30"/>
+      <c r="CQ71" s="30"/>
+      <c r="CR71" s="30"/>
+      <c r="CS71" s="30"/>
+      <c r="CT71" s="30"/>
       <c r="CU71" s="11"/>
       <c r="CV71" s="11"/>
       <c r="CW71" s="11"/>
@@ -34517,34 +34657,36 @@
         <v>29.675704688712528</v>
       </c>
       <c r="CH72" s="18">
-        <v>22.918944264065459</v>
+        <v>22.991213526643946</v>
       </c>
       <c r="CI72" s="18">
-        <v>39.945958290281055</v>
+        <v>40.018613595245881</v>
       </c>
       <c r="CJ72" s="18">
-        <v>38.943898089359777</v>
+        <v>39.01863245620811</v>
       </c>
       <c r="CK72" s="18">
-        <v>18.57265508946189</v>
+        <v>18.984232455514132</v>
       </c>
       <c r="CL72" s="18">
-        <v>37.01686997760558</v>
+        <v>36.957285734183785</v>
       </c>
       <c r="CM72" s="18">
-        <v>21.925046404587704</v>
+        <v>22.009698448909717</v>
       </c>
       <c r="CN72" s="18">
-        <v>15.870122251472367</v>
+        <v>15.775983953012229</v>
       </c>
       <c r="CO72" s="18">
-        <v>11.880324725333267</v>
-      </c>
-      <c r="CP72" s="18"/>
-      <c r="CQ72" s="18"/>
-      <c r="CR72" s="18"/>
-      <c r="CS72" s="18"/>
-      <c r="CT72" s="11"/>
+        <v>11.607867027039021</v>
+      </c>
+      <c r="CP72" s="32">
+        <v>8.5204471537692967</v>
+      </c>
+      <c r="CQ72" s="32"/>
+      <c r="CR72" s="32"/>
+      <c r="CS72" s="32"/>
+      <c r="CT72" s="32"/>
       <c r="CU72" s="11"/>
       <c r="CV72" s="11"/>
       <c r="CW72" s="11"/>
@@ -34693,10 +34835,11 @@
       <c r="CM73" s="15"/>
       <c r="CN73" s="15"/>
       <c r="CO73" s="15"/>
-      <c r="CP73" s="15"/>
-      <c r="CQ73" s="15"/>
-      <c r="CR73" s="15"/>
-      <c r="CS73" s="15"/>
+      <c r="CP73" s="29"/>
+      <c r="CQ73" s="29"/>
+      <c r="CR73" s="29"/>
+      <c r="CS73" s="29"/>
+      <c r="CT73" s="29"/>
     </row>
     <row r="74" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
@@ -34794,10 +34937,11 @@
       <c r="CM74" s="1"/>
       <c r="CN74" s="1"/>
       <c r="CO74" s="1"/>
-      <c r="CP74" s="1"/>
-      <c r="CQ74" s="1"/>
-      <c r="CR74" s="1"/>
-      <c r="CS74" s="1"/>
+      <c r="CP74" s="24"/>
+      <c r="CQ74" s="24"/>
+      <c r="CR74" s="24"/>
+      <c r="CS74" s="24"/>
+      <c r="CT74" s="24"/>
     </row>
     <row r="75" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="17"/>
@@ -34892,11 +35036,11 @@
       <c r="CM75" s="11"/>
       <c r="CN75" s="11"/>
       <c r="CO75" s="11"/>
-      <c r="CP75" s="11"/>
-      <c r="CQ75" s="11"/>
-      <c r="CR75" s="11"/>
-      <c r="CS75" s="11"/>
-      <c r="CT75" s="11"/>
+      <c r="CP75" s="33"/>
+      <c r="CQ75" s="33"/>
+      <c r="CR75" s="33"/>
+      <c r="CS75" s="33"/>
+      <c r="CT75" s="33"/>
       <c r="CU75" s="11"/>
       <c r="CV75" s="11"/>
       <c r="CW75" s="11"/>
@@ -35044,11 +35188,11 @@
       <c r="CM76" s="17"/>
       <c r="CN76" s="17"/>
       <c r="CO76" s="17"/>
-      <c r="CP76" s="17"/>
-      <c r="CQ76" s="17"/>
-      <c r="CR76" s="17"/>
-      <c r="CS76" s="17"/>
-      <c r="CT76" s="11"/>
+      <c r="CP76" s="30"/>
+      <c r="CQ76" s="30"/>
+      <c r="CR76" s="30"/>
+      <c r="CS76" s="30"/>
+      <c r="CT76" s="30"/>
       <c r="CU76" s="11"/>
       <c r="CV76" s="11"/>
       <c r="CW76" s="11"/>
@@ -35203,14 +35347,15 @@
       <c r="CM77" s="1"/>
       <c r="CN77" s="1"/>
       <c r="CO77" s="1"/>
-      <c r="CP77" s="1"/>
-      <c r="CQ77" s="1"/>
-      <c r="CR77" s="1"/>
-      <c r="CS77" s="1"/>
+      <c r="CP77" s="24"/>
+      <c r="CQ77" s="24"/>
+      <c r="CR77" s="24"/>
+      <c r="CS77" s="24"/>
+      <c r="CT77" s="24"/>
     </row>
     <row r="78" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -35304,10 +35449,11 @@
       <c r="CM78" s="1"/>
       <c r="CN78" s="1"/>
       <c r="CO78" s="1"/>
-      <c r="CP78" s="1"/>
-      <c r="CQ78" s="1"/>
-      <c r="CR78" s="1"/>
-      <c r="CS78" s="1"/>
+      <c r="CP78" s="24"/>
+      <c r="CQ78" s="24"/>
+      <c r="CR78" s="24"/>
+      <c r="CS78" s="24"/>
+      <c r="CT78" s="24"/>
     </row>
     <row r="79" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
@@ -35403,10 +35549,11 @@
       <c r="CM79" s="1"/>
       <c r="CN79" s="1"/>
       <c r="CO79" s="1"/>
-      <c r="CP79" s="1"/>
-      <c r="CQ79" s="1"/>
-      <c r="CR79" s="1"/>
-      <c r="CS79" s="1"/>
+      <c r="CP79" s="24"/>
+      <c r="CQ79" s="24"/>
+      <c r="CR79" s="24"/>
+      <c r="CS79" s="24"/>
+      <c r="CT79" s="24"/>
     </row>
     <row r="80" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
@@ -35504,14 +35651,15 @@
       <c r="CM80" s="1"/>
       <c r="CN80" s="1"/>
       <c r="CO80" s="1"/>
-      <c r="CP80" s="1"/>
-      <c r="CQ80" s="1"/>
-      <c r="CR80" s="1"/>
-      <c r="CS80" s="1"/>
+      <c r="CP80" s="24"/>
+      <c r="CQ80" s="24"/>
+      <c r="CR80" s="24"/>
+      <c r="CS80" s="24"/>
+      <c r="CT80" s="24"/>
     </row>
     <row r="81" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -35605,10 +35753,11 @@
       <c r="CM81" s="1"/>
       <c r="CN81" s="1"/>
       <c r="CO81" s="1"/>
-      <c r="CP81" s="1"/>
-      <c r="CQ81" s="1"/>
-      <c r="CR81" s="1"/>
-      <c r="CS81" s="1"/>
+      <c r="CP81" s="24"/>
+      <c r="CQ81" s="24"/>
+      <c r="CR81" s="24"/>
+      <c r="CS81" s="24"/>
+      <c r="CT81" s="24"/>
     </row>
     <row r="82" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
@@ -35706,10 +35855,11 @@
       <c r="CM82" s="1"/>
       <c r="CN82" s="1"/>
       <c r="CO82" s="1"/>
-      <c r="CP82" s="1"/>
-      <c r="CQ82" s="1"/>
-      <c r="CR82" s="1"/>
-      <c r="CS82" s="1"/>
+      <c r="CP82" s="24"/>
+      <c r="CQ82" s="24"/>
+      <c r="CR82" s="24"/>
+      <c r="CS82" s="24"/>
+      <c r="CT82" s="24"/>
     </row>
     <row r="83" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
@@ -35805,157 +35955,161 @@
       <c r="CM83" s="1"/>
       <c r="CN83" s="1"/>
       <c r="CO83" s="1"/>
-      <c r="CP83" s="1"/>
-      <c r="CQ83" s="1"/>
-      <c r="CR83" s="1"/>
-      <c r="CS83" s="1"/>
+      <c r="CP83" s="24"/>
+      <c r="CQ83" s="24"/>
+      <c r="CR83" s="24"/>
+      <c r="CS83" s="24"/>
+      <c r="CT83" s="24"/>
     </row>
     <row r="84" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
-      <c r="B84" s="25">
+      <c r="B84" s="35">
         <v>2000</v>
       </c>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="25">
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="35">
         <v>2001</v>
       </c>
-      <c r="G84" s="26"/>
-      <c r="H84" s="26"/>
-      <c r="I84" s="26"/>
-      <c r="J84" s="25">
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="35">
         <v>2002</v>
       </c>
-      <c r="K84" s="26"/>
-      <c r="L84" s="26"/>
-      <c r="M84" s="26"/>
-      <c r="N84" s="25">
+      <c r="K84" s="36"/>
+      <c r="L84" s="36"/>
+      <c r="M84" s="36"/>
+      <c r="N84" s="35">
         <v>2003</v>
       </c>
-      <c r="O84" s="26"/>
-      <c r="P84" s="26"/>
-      <c r="Q84" s="26"/>
-      <c r="R84" s="25">
+      <c r="O84" s="36"/>
+      <c r="P84" s="36"/>
+      <c r="Q84" s="36"/>
+      <c r="R84" s="35">
         <v>2004</v>
       </c>
-      <c r="S84" s="26"/>
-      <c r="T84" s="26"/>
-      <c r="U84" s="26"/>
-      <c r="V84" s="25">
+      <c r="S84" s="36"/>
+      <c r="T84" s="36"/>
+      <c r="U84" s="36"/>
+      <c r="V84" s="35">
         <v>2005</v>
       </c>
-      <c r="W84" s="26"/>
-      <c r="X84" s="26"/>
-      <c r="Y84" s="26"/>
-      <c r="Z84" s="25">
+      <c r="W84" s="36"/>
+      <c r="X84" s="36"/>
+      <c r="Y84" s="36"/>
+      <c r="Z84" s="35">
         <v>2006</v>
       </c>
-      <c r="AA84" s="26"/>
-      <c r="AB84" s="26"/>
-      <c r="AC84" s="26"/>
-      <c r="AD84" s="25">
+      <c r="AA84" s="36"/>
+      <c r="AB84" s="36"/>
+      <c r="AC84" s="36"/>
+      <c r="AD84" s="35">
         <v>2007</v>
       </c>
-      <c r="AE84" s="26"/>
-      <c r="AF84" s="26"/>
-      <c r="AG84" s="26"/>
-      <c r="AH84" s="25">
+      <c r="AE84" s="36"/>
+      <c r="AF84" s="36"/>
+      <c r="AG84" s="36"/>
+      <c r="AH84" s="35">
         <v>2008</v>
       </c>
-      <c r="AI84" s="26"/>
-      <c r="AJ84" s="26"/>
-      <c r="AK84" s="26"/>
-      <c r="AL84" s="25">
+      <c r="AI84" s="36"/>
+      <c r="AJ84" s="36"/>
+      <c r="AK84" s="36"/>
+      <c r="AL84" s="35">
         <v>2009</v>
       </c>
-      <c r="AM84" s="26"/>
-      <c r="AN84" s="26"/>
-      <c r="AO84" s="26"/>
-      <c r="AP84" s="25">
+      <c r="AM84" s="36"/>
+      <c r="AN84" s="36"/>
+      <c r="AO84" s="36"/>
+      <c r="AP84" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="26"/>
-      <c r="AR84" s="26"/>
-      <c r="AS84" s="26"/>
-      <c r="AT84" s="25">
+      <c r="AQ84" s="36"/>
+      <c r="AR84" s="36"/>
+      <c r="AS84" s="36"/>
+      <c r="AT84" s="35">
         <v>2011</v>
       </c>
-      <c r="AU84" s="26"/>
-      <c r="AV84" s="26"/>
-      <c r="AW84" s="26"/>
-      <c r="AX84" s="25">
+      <c r="AU84" s="36"/>
+      <c r="AV84" s="36"/>
+      <c r="AW84" s="36"/>
+      <c r="AX84" s="35">
         <v>2012</v>
       </c>
-      <c r="AY84" s="26"/>
-      <c r="AZ84" s="26"/>
-      <c r="BA84" s="26"/>
-      <c r="BB84" s="25">
+      <c r="AY84" s="36"/>
+      <c r="AZ84" s="36"/>
+      <c r="BA84" s="36"/>
+      <c r="BB84" s="35">
         <v>2013</v>
       </c>
-      <c r="BC84" s="26"/>
-      <c r="BD84" s="26"/>
-      <c r="BE84" s="26"/>
-      <c r="BF84" s="25">
+      <c r="BC84" s="36"/>
+      <c r="BD84" s="36"/>
+      <c r="BE84" s="36"/>
+      <c r="BF84" s="35">
         <v>2014</v>
       </c>
-      <c r="BG84" s="26"/>
-      <c r="BH84" s="26"/>
-      <c r="BI84" s="26"/>
-      <c r="BJ84" s="25">
+      <c r="BG84" s="36"/>
+      <c r="BH84" s="36"/>
+      <c r="BI84" s="36"/>
+      <c r="BJ84" s="35">
         <v>2015</v>
       </c>
-      <c r="BK84" s="26"/>
-      <c r="BL84" s="26"/>
-      <c r="BM84" s="26"/>
-      <c r="BN84" s="25">
+      <c r="BK84" s="36"/>
+      <c r="BL84" s="36"/>
+      <c r="BM84" s="36"/>
+      <c r="BN84" s="35">
         <v>2016</v>
       </c>
-      <c r="BO84" s="26"/>
-      <c r="BP84" s="26"/>
-      <c r="BQ84" s="26"/>
-      <c r="BR84" s="25">
+      <c r="BO84" s="36"/>
+      <c r="BP84" s="36"/>
+      <c r="BQ84" s="36"/>
+      <c r="BR84" s="35">
         <v>2017</v>
       </c>
-      <c r="BS84" s="26"/>
-      <c r="BT84" s="26"/>
-      <c r="BU84" s="26"/>
-      <c r="BV84" s="25">
+      <c r="BS84" s="36"/>
+      <c r="BT84" s="36"/>
+      <c r="BU84" s="36"/>
+      <c r="BV84" s="35">
         <v>2018</v>
       </c>
-      <c r="BW84" s="25"/>
-      <c r="BX84" s="25"/>
-      <c r="BY84" s="25"/>
-      <c r="BZ84" s="25">
+      <c r="BW84" s="35"/>
+      <c r="BX84" s="35"/>
+      <c r="BY84" s="35"/>
+      <c r="BZ84" s="35">
         <v>2019</v>
       </c>
-      <c r="CA84" s="25"/>
-      <c r="CB84" s="25"/>
-      <c r="CC84" s="25"/>
-      <c r="CD84" s="25">
+      <c r="CA84" s="35"/>
+      <c r="CB84" s="35"/>
+      <c r="CC84" s="35"/>
+      <c r="CD84" s="35">
         <v>2020</v>
       </c>
-      <c r="CE84" s="25"/>
-      <c r="CF84" s="25"/>
-      <c r="CG84" s="25"/>
-      <c r="CH84" s="25">
+      <c r="CE84" s="35"/>
+      <c r="CF84" s="35"/>
+      <c r="CG84" s="35"/>
+      <c r="CH84" s="21">
         <v>2021</v>
       </c>
-      <c r="CI84" s="25"/>
-      <c r="CJ84" s="25"/>
-      <c r="CK84" s="25"/>
-      <c r="CL84" s="24">
+      <c r="CI84" s="21"/>
+      <c r="CJ84" s="21"/>
+      <c r="CK84" s="21"/>
+      <c r="CL84" s="21">
         <v>2022</v>
       </c>
-      <c r="CM84" s="24"/>
-      <c r="CN84" s="24"/>
-      <c r="CO84" s="24"/>
-      <c r="CP84" s="24">
+      <c r="CM84" s="21"/>
+      <c r="CN84" s="21"/>
+      <c r="CO84" s="21"/>
+      <c r="CP84" s="25">
         <v>2023</v>
       </c>
-      <c r="CQ84" s="24"/>
-      <c r="CR84" s="24"/>
-      <c r="CS84" s="24"/>
+      <c r="CQ84" s="25"/>
+      <c r="CR84" s="25"/>
+      <c r="CS84" s="25"/>
+      <c r="CT84" s="25">
+        <v>2024</v>
+      </c>
     </row>
     <row r="85" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
@@ -36237,17 +36391,20 @@
       <c r="CO85" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP85" s="7" t="s">
+      <c r="CP85" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="CQ85" s="7" t="s">
+      <c r="CQ85" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="CR85" s="7" t="s">
+      <c r="CR85" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="CS85" s="7" t="s">
+      <c r="CS85" s="26" t="s">
         <v>9</v>
+      </c>
+      <c r="CT85" s="26" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -36344,10 +36501,11 @@
       <c r="CM86" s="1"/>
       <c r="CN86" s="1"/>
       <c r="CO86" s="1"/>
-      <c r="CP86" s="1"/>
-      <c r="CQ86" s="1"/>
-      <c r="CR86" s="1"/>
-      <c r="CS86" s="1"/>
+      <c r="CP86" s="24"/>
+      <c r="CQ86" s="24"/>
+      <c r="CR86" s="24"/>
+      <c r="CS86" s="24"/>
+      <c r="CT86" s="24"/>
     </row>
     <row r="87" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
@@ -36618,30 +36776,32 @@
         <v>104.44343736226077</v>
       </c>
       <c r="CL87" s="18">
-        <v>103.53314692178172</v>
+        <v>103.53314692178175</v>
       </c>
       <c r="CM87" s="18">
         <v>104.33778752720721</v>
       </c>
       <c r="CN87" s="18">
-        <v>105.69718494277302</v>
+        <v>105.69718494277305</v>
       </c>
       <c r="CO87" s="18">
-        <v>107.15023137264347</v>
-      </c>
-      <c r="CP87" s="18">
-        <v>107.63739815046753</v>
-      </c>
-      <c r="CQ87" s="18">
+        <v>107.1502313726435</v>
+      </c>
+      <c r="CP87" s="32">
+        <v>107.6373981504675</v>
+      </c>
+      <c r="CQ87" s="32">
         <v>109.33026151133637</v>
       </c>
-      <c r="CR87" s="18">
-        <v>111.24146999255879</v>
-      </c>
-      <c r="CS87" s="18">
-        <v>112.74327851224525</v>
-      </c>
-      <c r="CT87" s="11"/>
+      <c r="CR87" s="32">
+        <v>111.24146999255882</v>
+      </c>
+      <c r="CS87" s="32">
+        <v>112.74327851224521</v>
+      </c>
+      <c r="CT87" s="32">
+        <v>112.29064903368966</v>
+      </c>
       <c r="CU87" s="11"/>
       <c r="CV87" s="11"/>
       <c r="CW87" s="11"/>
@@ -36969,30 +37129,32 @@
         <v>109.78266659971807</v>
       </c>
       <c r="CL88" s="18">
-        <v>112.42109834151913</v>
+        <v>112.42109834151914</v>
       </c>
       <c r="CM88" s="18">
-        <v>110.41240669809713</v>
+        <v>110.41240669809709</v>
       </c>
       <c r="CN88" s="18">
-        <v>110.74048246119285</v>
+        <v>110.74048246119284</v>
       </c>
       <c r="CO88" s="18">
-        <v>112.60190853181746</v>
-      </c>
-      <c r="CP88" s="18">
-        <v>118.5814553306318</v>
-      </c>
-      <c r="CQ88" s="18">
-        <v>117.10001461439619</v>
-      </c>
-      <c r="CR88" s="18">
-        <v>117.17271407720222</v>
-      </c>
-      <c r="CS88" s="18">
-        <v>120.87663561958928</v>
-      </c>
-      <c r="CT88" s="11"/>
+        <v>112.6019085318174</v>
+      </c>
+      <c r="CP88" s="32">
+        <v>118.58145533063183</v>
+      </c>
+      <c r="CQ88" s="32">
+        <v>117.10001461439616</v>
+      </c>
+      <c r="CR88" s="32">
+        <v>117.1727140772022</v>
+      </c>
+      <c r="CS88" s="32">
+        <v>120.87663561958932</v>
+      </c>
+      <c r="CT88" s="32">
+        <v>124.68228354238755</v>
+      </c>
       <c r="CU88" s="11"/>
       <c r="CV88" s="11"/>
       <c r="CW88" s="11"/>
@@ -37144,11 +37306,11 @@
       <c r="CM89" s="17"/>
       <c r="CN89" s="17"/>
       <c r="CO89" s="17"/>
-      <c r="CP89" s="17"/>
-      <c r="CQ89" s="17"/>
-      <c r="CR89" s="17"/>
-      <c r="CS89" s="17"/>
-      <c r="CT89" s="11"/>
+      <c r="CP89" s="30"/>
+      <c r="CQ89" s="30"/>
+      <c r="CR89" s="30"/>
+      <c r="CS89" s="30"/>
+      <c r="CT89" s="30"/>
       <c r="CU89" s="11"/>
       <c r="CV89" s="11"/>
       <c r="CW89" s="11"/>
@@ -37476,30 +37638,32 @@
         <v>106.44189167365634</v>
       </c>
       <c r="CL90" s="18">
-        <v>107.53027872779724</v>
+        <v>107.53318314801193</v>
       </c>
       <c r="CM90" s="18">
-        <v>106.65325761995506</v>
+        <v>106.65520823291759</v>
       </c>
       <c r="CN90" s="18">
-        <v>107.64883690954252</v>
+        <v>107.64792313340708</v>
       </c>
       <c r="CO90" s="18">
-        <v>109.13883170304233</v>
-      </c>
-      <c r="CP90" s="18">
-        <v>112.3166123851491</v>
-      </c>
-      <c r="CQ90" s="18">
-        <v>112.31750465142485</v>
-      </c>
-      <c r="CR90" s="18">
-        <v>113.54549494516644</v>
-      </c>
-      <c r="CS90" s="18">
-        <v>115.76634717403225</v>
-      </c>
-      <c r="CT90" s="11"/>
+        <v>109.13710124928413</v>
+      </c>
+      <c r="CP90" s="32">
+        <v>112.28990192010475</v>
+      </c>
+      <c r="CQ90" s="32">
+        <v>112.32564004118557</v>
+      </c>
+      <c r="CR90" s="32">
+        <v>113.54055655686435</v>
+      </c>
+      <c r="CS90" s="32">
+        <v>115.75729524993135</v>
+      </c>
+      <c r="CT90" s="32">
+        <v>117.68297277055697</v>
+      </c>
       <c r="CU90" s="11"/>
       <c r="CV90" s="11"/>
       <c r="CW90" s="11"/>
@@ -37652,10 +37816,11 @@
       <c r="CM91" s="15"/>
       <c r="CN91" s="15"/>
       <c r="CO91" s="15"/>
-      <c r="CP91" s="15"/>
-      <c r="CQ91" s="15"/>
-      <c r="CR91" s="15"/>
-      <c r="CS91" s="15"/>
+      <c r="CP91" s="29"/>
+      <c r="CQ91" s="29"/>
+      <c r="CR91" s="29"/>
+      <c r="CS91" s="29"/>
+      <c r="CT91" s="29"/>
     </row>
     <row r="92" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="16" t="s">
@@ -37753,10 +37918,11 @@
       <c r="CM92" s="1"/>
       <c r="CN92" s="1"/>
       <c r="CO92" s="1"/>
-      <c r="CP92" s="1"/>
-      <c r="CQ92" s="1"/>
-      <c r="CR92" s="1"/>
-      <c r="CS92" s="1"/>
+      <c r="CP92" s="24"/>
+      <c r="CQ92" s="24"/>
+      <c r="CR92" s="24"/>
+      <c r="CS92" s="24"/>
+      <c r="CT92" s="24"/>
     </row>
     <row r="93" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
@@ -37851,10 +38017,11 @@
       <c r="CM93" s="1"/>
       <c r="CN93" s="1"/>
       <c r="CO93" s="1"/>
-      <c r="CP93" s="1"/>
-      <c r="CQ93" s="1"/>
-      <c r="CR93" s="1"/>
-      <c r="CS93" s="1"/>
+      <c r="CP93" s="24"/>
+      <c r="CQ93" s="24"/>
+      <c r="CR93" s="24"/>
+      <c r="CS93" s="24"/>
+      <c r="CT93" s="24"/>
     </row>
     <row r="94" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
@@ -37949,10 +38116,11 @@
       <c r="CM94" s="1"/>
       <c r="CN94" s="1"/>
       <c r="CO94" s="1"/>
-      <c r="CP94" s="1"/>
-      <c r="CQ94" s="1"/>
-      <c r="CR94" s="1"/>
-      <c r="CS94" s="1"/>
+      <c r="CP94" s="24"/>
+      <c r="CQ94" s="24"/>
+      <c r="CR94" s="24"/>
+      <c r="CS94" s="24"/>
+      <c r="CT94" s="24"/>
     </row>
     <row r="95" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
@@ -38050,10 +38218,11 @@
       <c r="CM95" s="1"/>
       <c r="CN95" s="1"/>
       <c r="CO95" s="1"/>
-      <c r="CP95" s="1"/>
-      <c r="CQ95" s="1"/>
-      <c r="CR95" s="1"/>
-      <c r="CS95" s="1"/>
+      <c r="CP95" s="24"/>
+      <c r="CQ95" s="24"/>
+      <c r="CR95" s="24"/>
+      <c r="CS95" s="24"/>
+      <c r="CT95" s="24"/>
     </row>
     <row r="96" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
@@ -38151,14 +38320,15 @@
       <c r="CM96" s="1"/>
       <c r="CN96" s="1"/>
       <c r="CO96" s="1"/>
-      <c r="CP96" s="1"/>
-      <c r="CQ96" s="1"/>
-      <c r="CR96" s="1"/>
-      <c r="CS96" s="1"/>
+      <c r="CP96" s="24"/>
+      <c r="CQ96" s="24"/>
+      <c r="CR96" s="24"/>
+      <c r="CS96" s="24"/>
+      <c r="CT96" s="24"/>
     </row>
     <row r="97" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -38252,10 +38422,11 @@
       <c r="CM97" s="1"/>
       <c r="CN97" s="1"/>
       <c r="CO97" s="1"/>
-      <c r="CP97" s="1"/>
-      <c r="CQ97" s="1"/>
-      <c r="CR97" s="1"/>
-      <c r="CS97" s="1"/>
+      <c r="CP97" s="24"/>
+      <c r="CQ97" s="24"/>
+      <c r="CR97" s="24"/>
+      <c r="CS97" s="24"/>
+      <c r="CT97" s="24"/>
     </row>
     <row r="98" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
@@ -38351,10 +38522,11 @@
       <c r="CM98" s="1"/>
       <c r="CN98" s="1"/>
       <c r="CO98" s="1"/>
-      <c r="CP98" s="1"/>
-      <c r="CQ98" s="1"/>
-      <c r="CR98" s="1"/>
-      <c r="CS98" s="1"/>
+      <c r="CP98" s="24"/>
+      <c r="CQ98" s="24"/>
+      <c r="CR98" s="24"/>
+      <c r="CS98" s="24"/>
+      <c r="CT98" s="24"/>
     </row>
     <row r="99" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
@@ -38452,14 +38624,15 @@
       <c r="CM99" s="1"/>
       <c r="CN99" s="1"/>
       <c r="CO99" s="1"/>
-      <c r="CP99" s="1"/>
-      <c r="CQ99" s="1"/>
-      <c r="CR99" s="1"/>
-      <c r="CS99" s="1"/>
+      <c r="CP99" s="24"/>
+      <c r="CQ99" s="24"/>
+      <c r="CR99" s="24"/>
+      <c r="CS99" s="24"/>
+      <c r="CT99" s="24"/>
     </row>
     <row r="100" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -38553,10 +38726,11 @@
       <c r="CM100" s="1"/>
       <c r="CN100" s="1"/>
       <c r="CO100" s="1"/>
-      <c r="CP100" s="1"/>
-      <c r="CQ100" s="1"/>
-      <c r="CR100" s="1"/>
-      <c r="CS100" s="1"/>
+      <c r="CP100" s="24"/>
+      <c r="CQ100" s="24"/>
+      <c r="CR100" s="24"/>
+      <c r="CS100" s="24"/>
+      <c r="CT100" s="24"/>
     </row>
     <row r="101" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
@@ -38654,10 +38828,11 @@
       <c r="CM101" s="1"/>
       <c r="CN101" s="1"/>
       <c r="CO101" s="1"/>
-      <c r="CP101" s="1"/>
-      <c r="CQ101" s="1"/>
-      <c r="CR101" s="1"/>
-      <c r="CS101" s="1"/>
+      <c r="CP101" s="24"/>
+      <c r="CQ101" s="24"/>
+      <c r="CR101" s="24"/>
+      <c r="CS101" s="24"/>
+      <c r="CT101" s="24"/>
     </row>
     <row r="102" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
@@ -38753,157 +38928,161 @@
       <c r="CM102" s="1"/>
       <c r="CN102" s="1"/>
       <c r="CO102" s="1"/>
-      <c r="CP102" s="1"/>
-      <c r="CQ102" s="1"/>
-      <c r="CR102" s="1"/>
-      <c r="CS102" s="1"/>
+      <c r="CP102" s="24"/>
+      <c r="CQ102" s="24"/>
+      <c r="CR102" s="24"/>
+      <c r="CS102" s="24"/>
+      <c r="CT102" s="24"/>
     </row>
     <row r="103" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
-      <c r="B103" s="25">
+      <c r="B103" s="35">
         <v>2000</v>
       </c>
-      <c r="C103" s="26"/>
-      <c r="D103" s="26"/>
-      <c r="E103" s="26"/>
-      <c r="F103" s="25">
+      <c r="C103" s="36"/>
+      <c r="D103" s="36"/>
+      <c r="E103" s="36"/>
+      <c r="F103" s="35">
         <v>2001</v>
       </c>
-      <c r="G103" s="26"/>
-      <c r="H103" s="26"/>
-      <c r="I103" s="26"/>
-      <c r="J103" s="25">
+      <c r="G103" s="36"/>
+      <c r="H103" s="36"/>
+      <c r="I103" s="36"/>
+      <c r="J103" s="35">
         <v>2002</v>
       </c>
-      <c r="K103" s="26"/>
-      <c r="L103" s="26"/>
-      <c r="M103" s="26"/>
-      <c r="N103" s="25">
+      <c r="K103" s="36"/>
+      <c r="L103" s="36"/>
+      <c r="M103" s="36"/>
+      <c r="N103" s="35">
         <v>2003</v>
       </c>
-      <c r="O103" s="26"/>
-      <c r="P103" s="26"/>
-      <c r="Q103" s="26"/>
-      <c r="R103" s="25">
+      <c r="O103" s="36"/>
+      <c r="P103" s="36"/>
+      <c r="Q103" s="36"/>
+      <c r="R103" s="35">
         <v>2004</v>
       </c>
-      <c r="S103" s="26"/>
-      <c r="T103" s="26"/>
-      <c r="U103" s="26"/>
-      <c r="V103" s="25">
+      <c r="S103" s="36"/>
+      <c r="T103" s="36"/>
+      <c r="U103" s="36"/>
+      <c r="V103" s="35">
         <v>2005</v>
       </c>
-      <c r="W103" s="26"/>
-      <c r="X103" s="26"/>
-      <c r="Y103" s="26"/>
-      <c r="Z103" s="25">
+      <c r="W103" s="36"/>
+      <c r="X103" s="36"/>
+      <c r="Y103" s="36"/>
+      <c r="Z103" s="35">
         <v>2006</v>
       </c>
-      <c r="AA103" s="26"/>
-      <c r="AB103" s="26"/>
-      <c r="AC103" s="26"/>
-      <c r="AD103" s="25">
+      <c r="AA103" s="36"/>
+      <c r="AB103" s="36"/>
+      <c r="AC103" s="36"/>
+      <c r="AD103" s="35">
         <v>2007</v>
       </c>
-      <c r="AE103" s="26"/>
-      <c r="AF103" s="26"/>
-      <c r="AG103" s="26"/>
-      <c r="AH103" s="25">
+      <c r="AE103" s="36"/>
+      <c r="AF103" s="36"/>
+      <c r="AG103" s="36"/>
+      <c r="AH103" s="35">
         <v>2008</v>
       </c>
-      <c r="AI103" s="26"/>
-      <c r="AJ103" s="26"/>
-      <c r="AK103" s="26"/>
-      <c r="AL103" s="25">
+      <c r="AI103" s="36"/>
+      <c r="AJ103" s="36"/>
+      <c r="AK103" s="36"/>
+      <c r="AL103" s="35">
         <v>2009</v>
       </c>
-      <c r="AM103" s="26"/>
-      <c r="AN103" s="26"/>
-      <c r="AO103" s="26"/>
-      <c r="AP103" s="25">
+      <c r="AM103" s="36"/>
+      <c r="AN103" s="36"/>
+      <c r="AO103" s="36"/>
+      <c r="AP103" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="26"/>
-      <c r="AR103" s="26"/>
-      <c r="AS103" s="26"/>
-      <c r="AT103" s="25">
+      <c r="AQ103" s="36"/>
+      <c r="AR103" s="36"/>
+      <c r="AS103" s="36"/>
+      <c r="AT103" s="35">
         <v>2011</v>
       </c>
-      <c r="AU103" s="26"/>
-      <c r="AV103" s="26"/>
-      <c r="AW103" s="26"/>
-      <c r="AX103" s="25">
+      <c r="AU103" s="36"/>
+      <c r="AV103" s="36"/>
+      <c r="AW103" s="36"/>
+      <c r="AX103" s="35">
         <v>2012</v>
       </c>
-      <c r="AY103" s="26"/>
-      <c r="AZ103" s="26"/>
-      <c r="BA103" s="26"/>
-      <c r="BB103" s="25">
+      <c r="AY103" s="36"/>
+      <c r="AZ103" s="36"/>
+      <c r="BA103" s="36"/>
+      <c r="BB103" s="35">
         <v>2013</v>
       </c>
-      <c r="BC103" s="26"/>
-      <c r="BD103" s="26"/>
-      <c r="BE103" s="26"/>
-      <c r="BF103" s="25">
+      <c r="BC103" s="36"/>
+      <c r="BD103" s="36"/>
+      <c r="BE103" s="36"/>
+      <c r="BF103" s="35">
         <v>2014</v>
       </c>
-      <c r="BG103" s="26"/>
-      <c r="BH103" s="26"/>
-      <c r="BI103" s="26"/>
-      <c r="BJ103" s="25">
+      <c r="BG103" s="36"/>
+      <c r="BH103" s="36"/>
+      <c r="BI103" s="36"/>
+      <c r="BJ103" s="35">
         <v>2015</v>
       </c>
-      <c r="BK103" s="26"/>
-      <c r="BL103" s="26"/>
-      <c r="BM103" s="26"/>
-      <c r="BN103" s="25">
+      <c r="BK103" s="36"/>
+      <c r="BL103" s="36"/>
+      <c r="BM103" s="36"/>
+      <c r="BN103" s="35">
         <v>2016</v>
       </c>
-      <c r="BO103" s="26"/>
-      <c r="BP103" s="26"/>
-      <c r="BQ103" s="26"/>
-      <c r="BR103" s="25">
+      <c r="BO103" s="36"/>
+      <c r="BP103" s="36"/>
+      <c r="BQ103" s="36"/>
+      <c r="BR103" s="35">
         <v>2017</v>
       </c>
-      <c r="BS103" s="26"/>
-      <c r="BT103" s="26"/>
-      <c r="BU103" s="26"/>
-      <c r="BV103" s="25">
+      <c r="BS103" s="36"/>
+      <c r="BT103" s="36"/>
+      <c r="BU103" s="36"/>
+      <c r="BV103" s="35">
         <v>2018</v>
       </c>
-      <c r="BW103" s="25"/>
-      <c r="BX103" s="25"/>
-      <c r="BY103" s="25"/>
-      <c r="BZ103" s="25">
+      <c r="BW103" s="35"/>
+      <c r="BX103" s="35"/>
+      <c r="BY103" s="35"/>
+      <c r="BZ103" s="35">
         <v>2019</v>
       </c>
-      <c r="CA103" s="25"/>
-      <c r="CB103" s="25"/>
-      <c r="CC103" s="25"/>
-      <c r="CD103" s="25">
+      <c r="CA103" s="35"/>
+      <c r="CB103" s="35"/>
+      <c r="CC103" s="35"/>
+      <c r="CD103" s="35">
         <v>2020</v>
       </c>
-      <c r="CE103" s="25"/>
-      <c r="CF103" s="25"/>
-      <c r="CG103" s="25"/>
-      <c r="CH103" s="25">
+      <c r="CE103" s="35"/>
+      <c r="CF103" s="35"/>
+      <c r="CG103" s="35"/>
+      <c r="CH103" s="21">
         <v>2021</v>
       </c>
-      <c r="CI103" s="25"/>
-      <c r="CJ103" s="25"/>
-      <c r="CK103" s="25"/>
-      <c r="CL103" s="24">
+      <c r="CI103" s="21"/>
+      <c r="CJ103" s="21"/>
+      <c r="CK103" s="21"/>
+      <c r="CL103" s="21">
         <v>2022</v>
       </c>
-      <c r="CM103" s="24"/>
-      <c r="CN103" s="24"/>
-      <c r="CO103" s="24"/>
-      <c r="CP103" s="24">
+      <c r="CM103" s="21"/>
+      <c r="CN103" s="21"/>
+      <c r="CO103" s="21"/>
+      <c r="CP103" s="25">
         <v>2023</v>
       </c>
-      <c r="CQ103" s="24"/>
-      <c r="CR103" s="24"/>
-      <c r="CS103" s="24"/>
+      <c r="CQ103" s="25"/>
+      <c r="CR103" s="25"/>
+      <c r="CS103" s="25"/>
+      <c r="CT103" s="25">
+        <v>2024</v>
+      </c>
     </row>
     <row r="104" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
@@ -39185,17 +39364,20 @@
       <c r="CO104" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP104" s="7" t="s">
+      <c r="CP104" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="CQ104" s="7" t="s">
+      <c r="CQ104" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="CR104" s="7" t="s">
+      <c r="CR104" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="CS104" s="7" t="s">
+      <c r="CS104" s="26" t="s">
         <v>9</v>
+      </c>
+      <c r="CT104" s="26" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -39292,10 +39474,11 @@
       <c r="CM105" s="1"/>
       <c r="CN105" s="1"/>
       <c r="CO105" s="1"/>
-      <c r="CP105" s="1"/>
-      <c r="CQ105" s="1"/>
-      <c r="CR105" s="1"/>
-      <c r="CS105" s="1"/>
+      <c r="CP105" s="24"/>
+      <c r="CQ105" s="24"/>
+      <c r="CR105" s="24"/>
+      <c r="CS105" s="24"/>
+      <c r="CT105" s="24"/>
     </row>
     <row r="106" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
@@ -39566,30 +39749,32 @@
         <v>61.395596374991655</v>
       </c>
       <c r="CL106" s="18">
-        <v>52.982032686216471</v>
+        <v>52.949139060683791</v>
       </c>
       <c r="CM106" s="18">
-        <v>60.539383060693339</v>
+        <v>60.506862699819038</v>
       </c>
       <c r="CN106" s="18">
-        <v>60.190671334513233</v>
+        <v>60.208972555171606</v>
       </c>
       <c r="CO106" s="18">
-        <v>62.365701195873427</v>
-      </c>
-      <c r="CP106" s="18">
-        <v>54.859397017992016</v>
-      </c>
-      <c r="CQ106" s="18">
-        <v>59.915833541558285</v>
-      </c>
-      <c r="CR106" s="18">
-        <v>59.913516218050191</v>
-      </c>
-      <c r="CS106" s="18">
-        <v>61.19048603351871</v>
-      </c>
-      <c r="CT106" s="11"/>
+        <v>62.397853864057808</v>
+      </c>
+      <c r="CP106" s="32">
+        <v>55.106397820732454</v>
+      </c>
+      <c r="CQ106" s="32">
+        <v>59.809580313293111</v>
+      </c>
+      <c r="CR106" s="32">
+        <v>59.997696760683105</v>
+      </c>
+      <c r="CS106" s="32">
+        <v>61.303666996694353</v>
+      </c>
+      <c r="CT106" s="32">
+        <v>53.896013469635648</v>
+      </c>
       <c r="CU106" s="11"/>
       <c r="CV106" s="11"/>
       <c r="CW106" s="11"/>
@@ -39917,30 +40102,32 @@
         <v>38.604403625008331</v>
       </c>
       <c r="CL107" s="18">
-        <v>47.017967313783522</v>
+        <v>47.050860939316202</v>
       </c>
       <c r="CM107" s="18">
-        <v>39.460616939306654</v>
+        <v>39.493137300180962</v>
       </c>
       <c r="CN107" s="18">
-        <v>39.809328665486774</v>
+        <v>39.791027444828394</v>
       </c>
       <c r="CO107" s="18">
-        <v>37.63429880412658</v>
-      </c>
-      <c r="CP107" s="18">
-        <v>45.140602982007991</v>
-      </c>
-      <c r="CQ107" s="18">
-        <v>40.084166458441722</v>
-      </c>
-      <c r="CR107" s="18">
-        <v>40.086483781949809</v>
-      </c>
-      <c r="CS107" s="18">
-        <v>38.809513966481305</v>
-      </c>
-      <c r="CT107" s="11"/>
+        <v>37.602146135942185</v>
+      </c>
+      <c r="CP107" s="32">
+        <v>44.893602179267539</v>
+      </c>
+      <c r="CQ107" s="32">
+        <v>40.190419686706903</v>
+      </c>
+      <c r="CR107" s="32">
+        <v>40.002303239316895</v>
+      </c>
+      <c r="CS107" s="32">
+        <v>38.696333003305647</v>
+      </c>
+      <c r="CT107" s="32">
+        <v>46.103986530364352</v>
+      </c>
       <c r="CU107" s="11"/>
       <c r="CV107" s="11"/>
       <c r="CW107" s="11"/>
@@ -40092,11 +40279,11 @@
       <c r="CM108" s="17"/>
       <c r="CN108" s="17"/>
       <c r="CO108" s="17"/>
-      <c r="CP108" s="17"/>
-      <c r="CQ108" s="17"/>
-      <c r="CR108" s="17"/>
-      <c r="CS108" s="17"/>
-      <c r="CT108" s="11"/>
+      <c r="CP108" s="30"/>
+      <c r="CQ108" s="30"/>
+      <c r="CR108" s="30"/>
+      <c r="CS108" s="30"/>
+      <c r="CT108" s="30"/>
       <c r="CU108" s="11"/>
       <c r="CV108" s="11"/>
       <c r="CW108" s="11"/>
@@ -40435,19 +40622,21 @@
       <c r="CO109" s="18">
         <v>100</v>
       </c>
-      <c r="CP109" s="18">
+      <c r="CP109" s="32">
         <v>100</v>
       </c>
-      <c r="CQ109" s="18">
+      <c r="CQ109" s="32">
         <v>100</v>
       </c>
-      <c r="CR109" s="18">
+      <c r="CR109" s="32">
         <v>100</v>
       </c>
-      <c r="CS109" s="18">
+      <c r="CS109" s="32">
         <v>100</v>
       </c>
-      <c r="CT109" s="11"/>
+      <c r="CT109" s="32">
+        <v>100</v>
+      </c>
       <c r="CU109" s="11"/>
       <c r="CV109" s="11"/>
       <c r="CW109" s="11"/>
@@ -40600,10 +40789,11 @@
       <c r="CM110" s="15"/>
       <c r="CN110" s="15"/>
       <c r="CO110" s="15"/>
-      <c r="CP110" s="15"/>
-      <c r="CQ110" s="15"/>
-      <c r="CR110" s="15"/>
-      <c r="CS110" s="15"/>
+      <c r="CP110" s="29"/>
+      <c r="CQ110" s="29"/>
+      <c r="CR110" s="29"/>
+      <c r="CS110" s="29"/>
+      <c r="CT110" s="29"/>
     </row>
     <row r="111" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="16" t="s">
@@ -40701,10 +40891,11 @@
       <c r="CM111" s="1"/>
       <c r="CN111" s="1"/>
       <c r="CO111" s="1"/>
-      <c r="CP111" s="1"/>
-      <c r="CQ111" s="1"/>
-      <c r="CR111" s="1"/>
-      <c r="CS111" s="1"/>
+      <c r="CP111" s="24"/>
+      <c r="CQ111" s="24"/>
+      <c r="CR111" s="24"/>
+      <c r="CS111" s="24"/>
+      <c r="CT111" s="24"/>
     </row>
     <row r="112" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="17"/>
@@ -40799,11 +40990,11 @@
       <c r="CM112" s="17"/>
       <c r="CN112" s="17"/>
       <c r="CO112" s="17"/>
-      <c r="CP112" s="17"/>
-      <c r="CQ112" s="17"/>
-      <c r="CR112" s="17"/>
-      <c r="CS112" s="17"/>
-      <c r="CT112" s="11"/>
+      <c r="CP112" s="30"/>
+      <c r="CQ112" s="30"/>
+      <c r="CR112" s="30"/>
+      <c r="CS112" s="30"/>
+      <c r="CT112" s="30"/>
       <c r="CU112" s="11"/>
       <c r="CV112" s="11"/>
       <c r="CW112" s="11"/>
@@ -40955,11 +41146,11 @@
       <c r="CM113" s="17"/>
       <c r="CN113" s="17"/>
       <c r="CO113" s="17"/>
-      <c r="CP113" s="17"/>
-      <c r="CQ113" s="17"/>
-      <c r="CR113" s="17"/>
-      <c r="CS113" s="17"/>
-      <c r="CT113" s="11"/>
+      <c r="CP113" s="30"/>
+      <c r="CQ113" s="30"/>
+      <c r="CR113" s="30"/>
+      <c r="CS113" s="30"/>
+      <c r="CT113" s="30"/>
       <c r="CU113" s="11"/>
       <c r="CV113" s="11"/>
       <c r="CW113" s="11"/>
@@ -41114,10 +41305,11 @@
       <c r="CM114" s="1"/>
       <c r="CN114" s="1"/>
       <c r="CO114" s="1"/>
-      <c r="CP114" s="1"/>
-      <c r="CQ114" s="1"/>
-      <c r="CR114" s="1"/>
-      <c r="CS114" s="1"/>
+      <c r="CP114" s="24"/>
+      <c r="CQ114" s="24"/>
+      <c r="CR114" s="24"/>
+      <c r="CS114" s="24"/>
+      <c r="CT114" s="24"/>
     </row>
     <row r="115" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
@@ -41215,14 +41407,15 @@
       <c r="CM115" s="1"/>
       <c r="CN115" s="1"/>
       <c r="CO115" s="1"/>
-      <c r="CP115" s="1"/>
-      <c r="CQ115" s="1"/>
-      <c r="CR115" s="1"/>
-      <c r="CS115" s="1"/>
+      <c r="CP115" s="24"/>
+      <c r="CQ115" s="24"/>
+      <c r="CR115" s="24"/>
+      <c r="CS115" s="24"/>
+      <c r="CT115" s="24"/>
     </row>
     <row r="116" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -41316,10 +41509,11 @@
       <c r="CM116" s="1"/>
       <c r="CN116" s="1"/>
       <c r="CO116" s="1"/>
-      <c r="CP116" s="1"/>
-      <c r="CQ116" s="1"/>
-      <c r="CR116" s="1"/>
-      <c r="CS116" s="1"/>
+      <c r="CP116" s="24"/>
+      <c r="CQ116" s="24"/>
+      <c r="CR116" s="24"/>
+      <c r="CS116" s="24"/>
+      <c r="CT116" s="24"/>
     </row>
     <row r="117" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
@@ -41415,10 +41609,11 @@
       <c r="CM117" s="1"/>
       <c r="CN117" s="1"/>
       <c r="CO117" s="1"/>
-      <c r="CP117" s="1"/>
-      <c r="CQ117" s="1"/>
-      <c r="CR117" s="1"/>
-      <c r="CS117" s="1"/>
+      <c r="CP117" s="24"/>
+      <c r="CQ117" s="24"/>
+      <c r="CR117" s="24"/>
+      <c r="CS117" s="24"/>
+      <c r="CT117" s="24"/>
     </row>
     <row r="118" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
@@ -41516,14 +41711,15 @@
       <c r="CM118" s="1"/>
       <c r="CN118" s="1"/>
       <c r="CO118" s="1"/>
-      <c r="CP118" s="1"/>
-      <c r="CQ118" s="1"/>
-      <c r="CR118" s="1"/>
-      <c r="CS118" s="1"/>
+      <c r="CP118" s="24"/>
+      <c r="CQ118" s="24"/>
+      <c r="CR118" s="24"/>
+      <c r="CS118" s="24"/>
+      <c r="CT118" s="24"/>
     </row>
     <row r="119" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -41617,10 +41813,11 @@
       <c r="CM119" s="1"/>
       <c r="CN119" s="1"/>
       <c r="CO119" s="1"/>
-      <c r="CP119" s="1"/>
-      <c r="CQ119" s="1"/>
-      <c r="CR119" s="1"/>
-      <c r="CS119" s="1"/>
+      <c r="CP119" s="24"/>
+      <c r="CQ119" s="24"/>
+      <c r="CR119" s="24"/>
+      <c r="CS119" s="24"/>
+      <c r="CT119" s="24"/>
     </row>
     <row r="120" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
@@ -41718,10 +41915,11 @@
       <c r="CM120" s="1"/>
       <c r="CN120" s="1"/>
       <c r="CO120" s="1"/>
-      <c r="CP120" s="1"/>
-      <c r="CQ120" s="1"/>
-      <c r="CR120" s="1"/>
-      <c r="CS120" s="1"/>
+      <c r="CP120" s="24"/>
+      <c r="CQ120" s="24"/>
+      <c r="CR120" s="24"/>
+      <c r="CS120" s="24"/>
+      <c r="CT120" s="24"/>
     </row>
     <row r="121" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
@@ -41817,157 +42015,161 @@
       <c r="CM121" s="1"/>
       <c r="CN121" s="1"/>
       <c r="CO121" s="1"/>
-      <c r="CP121" s="1"/>
-      <c r="CQ121" s="1"/>
-      <c r="CR121" s="1"/>
-      <c r="CS121" s="1"/>
+      <c r="CP121" s="24"/>
+      <c r="CQ121" s="24"/>
+      <c r="CR121" s="24"/>
+      <c r="CS121" s="24"/>
+      <c r="CT121" s="24"/>
     </row>
     <row r="122" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
-      <c r="B122" s="25">
+      <c r="B122" s="35">
         <v>2000</v>
       </c>
-      <c r="C122" s="26"/>
-      <c r="D122" s="26"/>
-      <c r="E122" s="26"/>
-      <c r="F122" s="25">
+      <c r="C122" s="36"/>
+      <c r="D122" s="36"/>
+      <c r="E122" s="36"/>
+      <c r="F122" s="35">
         <v>2001</v>
       </c>
-      <c r="G122" s="26"/>
-      <c r="H122" s="26"/>
-      <c r="I122" s="26"/>
-      <c r="J122" s="25">
+      <c r="G122" s="36"/>
+      <c r="H122" s="36"/>
+      <c r="I122" s="36"/>
+      <c r="J122" s="35">
         <v>2002</v>
       </c>
-      <c r="K122" s="26"/>
-      <c r="L122" s="26"/>
-      <c r="M122" s="26"/>
-      <c r="N122" s="25">
+      <c r="K122" s="36"/>
+      <c r="L122" s="36"/>
+      <c r="M122" s="36"/>
+      <c r="N122" s="35">
         <v>2003</v>
       </c>
-      <c r="O122" s="26"/>
-      <c r="P122" s="26"/>
-      <c r="Q122" s="26"/>
-      <c r="R122" s="25">
+      <c r="O122" s="36"/>
+      <c r="P122" s="36"/>
+      <c r="Q122" s="36"/>
+      <c r="R122" s="35">
         <v>2004</v>
       </c>
-      <c r="S122" s="26"/>
-      <c r="T122" s="26"/>
-      <c r="U122" s="26"/>
-      <c r="V122" s="25">
+      <c r="S122" s="36"/>
+      <c r="T122" s="36"/>
+      <c r="U122" s="36"/>
+      <c r="V122" s="35">
         <v>2005</v>
       </c>
-      <c r="W122" s="26"/>
-      <c r="X122" s="26"/>
-      <c r="Y122" s="26"/>
-      <c r="Z122" s="25">
+      <c r="W122" s="36"/>
+      <c r="X122" s="36"/>
+      <c r="Y122" s="36"/>
+      <c r="Z122" s="35">
         <v>2006</v>
       </c>
-      <c r="AA122" s="26"/>
-      <c r="AB122" s="26"/>
-      <c r="AC122" s="26"/>
-      <c r="AD122" s="25">
+      <c r="AA122" s="36"/>
+      <c r="AB122" s="36"/>
+      <c r="AC122" s="36"/>
+      <c r="AD122" s="35">
         <v>2007</v>
       </c>
-      <c r="AE122" s="26"/>
-      <c r="AF122" s="26"/>
-      <c r="AG122" s="26"/>
-      <c r="AH122" s="25">
+      <c r="AE122" s="36"/>
+      <c r="AF122" s="36"/>
+      <c r="AG122" s="36"/>
+      <c r="AH122" s="35">
         <v>2008</v>
       </c>
-      <c r="AI122" s="26"/>
-      <c r="AJ122" s="26"/>
-      <c r="AK122" s="26"/>
-      <c r="AL122" s="25">
+      <c r="AI122" s="36"/>
+      <c r="AJ122" s="36"/>
+      <c r="AK122" s="36"/>
+      <c r="AL122" s="35">
         <v>2009</v>
       </c>
-      <c r="AM122" s="26"/>
-      <c r="AN122" s="26"/>
-      <c r="AO122" s="26"/>
-      <c r="AP122" s="25">
+      <c r="AM122" s="36"/>
+      <c r="AN122" s="36"/>
+      <c r="AO122" s="36"/>
+      <c r="AP122" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="26"/>
-      <c r="AR122" s="26"/>
-      <c r="AS122" s="26"/>
-      <c r="AT122" s="25">
+      <c r="AQ122" s="36"/>
+      <c r="AR122" s="36"/>
+      <c r="AS122" s="36"/>
+      <c r="AT122" s="35">
         <v>2011</v>
       </c>
-      <c r="AU122" s="26"/>
-      <c r="AV122" s="26"/>
-      <c r="AW122" s="26"/>
-      <c r="AX122" s="25">
+      <c r="AU122" s="36"/>
+      <c r="AV122" s="36"/>
+      <c r="AW122" s="36"/>
+      <c r="AX122" s="35">
         <v>2012</v>
       </c>
-      <c r="AY122" s="26"/>
-      <c r="AZ122" s="26"/>
-      <c r="BA122" s="26"/>
-      <c r="BB122" s="25">
+      <c r="AY122" s="36"/>
+      <c r="AZ122" s="36"/>
+      <c r="BA122" s="36"/>
+      <c r="BB122" s="35">
         <v>2013</v>
       </c>
-      <c r="BC122" s="26"/>
-      <c r="BD122" s="26"/>
-      <c r="BE122" s="26"/>
-      <c r="BF122" s="25">
+      <c r="BC122" s="36"/>
+      <c r="BD122" s="36"/>
+      <c r="BE122" s="36"/>
+      <c r="BF122" s="35">
         <v>2014</v>
       </c>
-      <c r="BG122" s="26"/>
-      <c r="BH122" s="26"/>
-      <c r="BI122" s="26"/>
-      <c r="BJ122" s="25">
+      <c r="BG122" s="36"/>
+      <c r="BH122" s="36"/>
+      <c r="BI122" s="36"/>
+      <c r="BJ122" s="35">
         <v>2015</v>
       </c>
-      <c r="BK122" s="26"/>
-      <c r="BL122" s="26"/>
-      <c r="BM122" s="26"/>
-      <c r="BN122" s="25">
+      <c r="BK122" s="36"/>
+      <c r="BL122" s="36"/>
+      <c r="BM122" s="36"/>
+      <c r="BN122" s="35">
         <v>2016</v>
       </c>
-      <c r="BO122" s="26"/>
-      <c r="BP122" s="26"/>
-      <c r="BQ122" s="26"/>
-      <c r="BR122" s="25">
+      <c r="BO122" s="36"/>
+      <c r="BP122" s="36"/>
+      <c r="BQ122" s="36"/>
+      <c r="BR122" s="35">
         <v>2017</v>
       </c>
-      <c r="BS122" s="26"/>
-      <c r="BT122" s="26"/>
-      <c r="BU122" s="26"/>
-      <c r="BV122" s="25">
+      <c r="BS122" s="36"/>
+      <c r="BT122" s="36"/>
+      <c r="BU122" s="36"/>
+      <c r="BV122" s="35">
         <v>2018</v>
       </c>
-      <c r="BW122" s="25"/>
-      <c r="BX122" s="25"/>
-      <c r="BY122" s="25"/>
-      <c r="BZ122" s="25">
+      <c r="BW122" s="35"/>
+      <c r="BX122" s="35"/>
+      <c r="BY122" s="35"/>
+      <c r="BZ122" s="35">
         <v>2019</v>
       </c>
-      <c r="CA122" s="25"/>
-      <c r="CB122" s="25"/>
-      <c r="CC122" s="25"/>
-      <c r="CD122" s="25">
+      <c r="CA122" s="35"/>
+      <c r="CB122" s="35"/>
+      <c r="CC122" s="35"/>
+      <c r="CD122" s="35">
         <v>2020</v>
       </c>
-      <c r="CE122" s="25"/>
-      <c r="CF122" s="25"/>
-      <c r="CG122" s="25"/>
-      <c r="CH122" s="25">
+      <c r="CE122" s="35"/>
+      <c r="CF122" s="35"/>
+      <c r="CG122" s="35"/>
+      <c r="CH122" s="21">
         <v>2021</v>
       </c>
-      <c r="CI122" s="25"/>
-      <c r="CJ122" s="25"/>
-      <c r="CK122" s="25"/>
-      <c r="CL122" s="24">
+      <c r="CI122" s="21"/>
+      <c r="CJ122" s="21"/>
+      <c r="CK122" s="21"/>
+      <c r="CL122" s="21">
         <v>2022</v>
       </c>
-      <c r="CM122" s="24"/>
-      <c r="CN122" s="24"/>
-      <c r="CO122" s="24"/>
-      <c r="CP122" s="24">
+      <c r="CM122" s="21"/>
+      <c r="CN122" s="21"/>
+      <c r="CO122" s="21"/>
+      <c r="CP122" s="25">
         <v>2023</v>
       </c>
-      <c r="CQ122" s="24"/>
-      <c r="CR122" s="24"/>
-      <c r="CS122" s="24"/>
+      <c r="CQ122" s="25"/>
+      <c r="CR122" s="25"/>
+      <c r="CS122" s="25"/>
+      <c r="CT122" s="25">
+        <v>2024</v>
+      </c>
     </row>
     <row r="123" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
@@ -42249,17 +42451,20 @@
       <c r="CO123" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP123" s="7" t="s">
+      <c r="CP123" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="CQ123" s="7" t="s">
+      <c r="CQ123" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="CR123" s="7" t="s">
+      <c r="CR123" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="CS123" s="7" t="s">
+      <c r="CS123" s="26" t="s">
         <v>9</v>
+      </c>
+      <c r="CT123" s="26" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -42356,10 +42561,11 @@
       <c r="CM124" s="1"/>
       <c r="CN124" s="1"/>
       <c r="CO124" s="1"/>
-      <c r="CP124" s="1"/>
-      <c r="CQ124" s="1"/>
-      <c r="CR124" s="1"/>
-      <c r="CS124" s="1"/>
+      <c r="CP124" s="24"/>
+      <c r="CQ124" s="24"/>
+      <c r="CR124" s="24"/>
+      <c r="CS124" s="24"/>
+      <c r="CT124" s="24"/>
     </row>
     <row r="125" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
@@ -42630,30 +42836,32 @@
         <v>62.570359456091083</v>
       </c>
       <c r="CL125" s="18">
-        <v>55.027524147588011</v>
+        <v>54.994845973760107</v>
       </c>
       <c r="CM125" s="18">
-        <v>61.882876479833435</v>
+        <v>61.850765611518895</v>
       </c>
       <c r="CN125" s="18">
-        <v>61.302065570365215</v>
+        <v>61.320184194779614</v>
       </c>
       <c r="CO125" s="18">
-        <v>63.523145770793242</v>
-      </c>
-      <c r="CP125" s="18">
-        <v>57.244245368504856</v>
-      </c>
-      <c r="CQ125" s="18">
-        <v>61.552920659575875</v>
-      </c>
-      <c r="CR125" s="18">
-        <v>61.154440455873406</v>
-      </c>
-      <c r="CS125" s="18">
-        <v>62.831231656392838</v>
-      </c>
-      <c r="CT125" s="11"/>
+        <v>63.554887447852515</v>
+      </c>
+      <c r="CP125" s="32">
+        <v>57.488309015145447</v>
+      </c>
+      <c r="CQ125" s="32">
+        <v>61.448214761552912</v>
+      </c>
+      <c r="CR125" s="32">
+        <v>61.237701037154743</v>
+      </c>
+      <c r="CS125" s="32">
+        <v>62.942525479858865</v>
+      </c>
+      <c r="CT125" s="32">
+        <v>56.484160882227805</v>
+      </c>
       <c r="CU125" s="11"/>
       <c r="CV125" s="11"/>
       <c r="CW125" s="11"/>
@@ -42981,30 +43189,32 @@
         <v>37.429640543908924</v>
       </c>
       <c r="CL126" s="18">
-        <v>44.972475852411989</v>
+        <v>45.005154026239879</v>
       </c>
       <c r="CM126" s="18">
-        <v>38.117123520166565</v>
+        <v>38.149234388481091</v>
       </c>
       <c r="CN126" s="18">
-        <v>38.697934429634778</v>
+        <v>38.679815805220393</v>
       </c>
       <c r="CO126" s="18">
-        <v>36.476854229206751</v>
-      </c>
-      <c r="CP126" s="18">
-        <v>42.755754631495158</v>
-      </c>
-      <c r="CQ126" s="18">
-        <v>38.447079340424139</v>
-      </c>
-      <c r="CR126" s="18">
-        <v>38.845559544126587</v>
-      </c>
-      <c r="CS126" s="18">
-        <v>37.168768343607162</v>
-      </c>
-      <c r="CT126" s="11"/>
+        <v>36.445112552147485</v>
+      </c>
+      <c r="CP126" s="32">
+        <v>42.511690984854553</v>
+      </c>
+      <c r="CQ126" s="32">
+        <v>38.551785238447096</v>
+      </c>
+      <c r="CR126" s="32">
+        <v>38.762298962845257</v>
+      </c>
+      <c r="CS126" s="32">
+        <v>37.057474520141135</v>
+      </c>
+      <c r="CT126" s="32">
+        <v>43.515839117772195</v>
+      </c>
       <c r="CU126" s="11"/>
       <c r="CV126" s="11"/>
       <c r="CW126" s="11"/>
@@ -43156,11 +43366,11 @@
       <c r="CM127" s="17"/>
       <c r="CN127" s="17"/>
       <c r="CO127" s="17"/>
-      <c r="CP127" s="17"/>
-      <c r="CQ127" s="17"/>
-      <c r="CR127" s="17"/>
-      <c r="CS127" s="17"/>
-      <c r="CT127" s="11"/>
+      <c r="CP127" s="30"/>
+      <c r="CQ127" s="30"/>
+      <c r="CR127" s="30"/>
+      <c r="CS127" s="30"/>
+      <c r="CT127" s="30"/>
       <c r="CU127" s="11"/>
       <c r="CV127" s="11"/>
       <c r="CW127" s="11"/>
@@ -43499,19 +43709,21 @@
       <c r="CO128" s="18">
         <v>100</v>
       </c>
-      <c r="CP128" s="18">
+      <c r="CP128" s="32">
         <v>100</v>
       </c>
-      <c r="CQ128" s="18">
+      <c r="CQ128" s="32">
         <v>100</v>
       </c>
-      <c r="CR128" s="18">
+      <c r="CR128" s="32">
         <v>100</v>
       </c>
-      <c r="CS128" s="18">
+      <c r="CS128" s="32">
         <v>100</v>
       </c>
-      <c r="CT128" s="11"/>
+      <c r="CT128" s="32">
+        <v>100</v>
+      </c>
       <c r="CU128" s="11"/>
       <c r="CV128" s="11"/>
       <c r="CW128" s="11"/>
@@ -43570,7 +43782,7 @@
       <c r="EX128" s="11"/>
       <c r="EY128" s="11"/>
     </row>
-    <row r="129" spans="1:97" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:98" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="15"/>
       <c r="B129" s="15"/>
       <c r="C129" s="15"/>
@@ -43664,12 +43876,13 @@
       <c r="CM129" s="15"/>
       <c r="CN129" s="15"/>
       <c r="CO129" s="15"/>
-      <c r="CP129" s="15"/>
-      <c r="CQ129" s="15"/>
-      <c r="CR129" s="15"/>
-      <c r="CS129" s="15"/>
+      <c r="CP129" s="29"/>
+      <c r="CQ129" s="29"/>
+      <c r="CR129" s="29"/>
+      <c r="CS129" s="29"/>
+      <c r="CT129" s="29"/>
     </row>
-    <row r="130" spans="1:97" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:98" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="16" t="s">
         <v>0</v>
       </c>
@@ -43765,36 +43978,113 @@
       <c r="CM130" s="1"/>
       <c r="CN130" s="1"/>
       <c r="CO130" s="1"/>
-      <c r="CP130" s="1"/>
-      <c r="CQ130" s="1"/>
-      <c r="CR130" s="1"/>
-      <c r="CS130" s="1"/>
+      <c r="CP130" s="24"/>
+      <c r="CQ130" s="24"/>
+      <c r="CR130" s="24"/>
+      <c r="CS130" s="24"/>
+      <c r="CT130" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="154">
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="CH66:CK66"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="BR122:BU122"/>
-    <mergeCell ref="BV122:BY122"/>
-    <mergeCell ref="BV66:BY66"/>
-    <mergeCell ref="BR66:BU66"/>
-    <mergeCell ref="BR84:BU84"/>
-    <mergeCell ref="BR103:BU103"/>
-    <mergeCell ref="AX66:BA66"/>
-    <mergeCell ref="BB66:BE66"/>
-    <mergeCell ref="BF66:BI66"/>
-    <mergeCell ref="BJ66:BM66"/>
-    <mergeCell ref="BN66:BQ66"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="AP47:AS47"/>
-    <mergeCell ref="AT47:AW47"/>
-    <mergeCell ref="AX47:BA47"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="N66:Q66"/>
-    <mergeCell ref="R66:U66"/>
+  <mergeCells count="147">
+    <mergeCell ref="BZ28:CC28"/>
+    <mergeCell ref="BZ47:CC47"/>
+    <mergeCell ref="BZ66:CC66"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD122:CG122"/>
+    <mergeCell ref="CD103:CG103"/>
+    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="CD28:CG28"/>
+    <mergeCell ref="BZ103:CC103"/>
+    <mergeCell ref="BZ84:CC84"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BZ122:CC122"/>
+    <mergeCell ref="CD47:CG47"/>
+    <mergeCell ref="CD66:CG66"/>
+    <mergeCell ref="BF122:BI122"/>
+    <mergeCell ref="BJ122:BM122"/>
+    <mergeCell ref="BN122:BQ122"/>
+    <mergeCell ref="BJ103:BM103"/>
+    <mergeCell ref="BN103:BQ103"/>
+    <mergeCell ref="BF84:BI84"/>
+    <mergeCell ref="BJ84:BM84"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="BV47:BY47"/>
+    <mergeCell ref="BV84:BY84"/>
+    <mergeCell ref="BV103:BY103"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BV28:BY28"/>
+    <mergeCell ref="BF28:BI28"/>
+    <mergeCell ref="BR28:BU28"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BJ28:BM28"/>
+    <mergeCell ref="BN28:BQ28"/>
+    <mergeCell ref="BJ47:BM47"/>
+    <mergeCell ref="BN47:BQ47"/>
+    <mergeCell ref="BF47:BI47"/>
+    <mergeCell ref="BR47:BU47"/>
+    <mergeCell ref="AX122:BA122"/>
+    <mergeCell ref="BB122:BE122"/>
+    <mergeCell ref="BN84:BQ84"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="J103:M103"/>
+    <mergeCell ref="N103:Q103"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="V103:Y103"/>
+    <mergeCell ref="Z103:AC103"/>
+    <mergeCell ref="AD103:AG103"/>
+    <mergeCell ref="AH103:AK103"/>
+    <mergeCell ref="AL103:AO103"/>
+    <mergeCell ref="AP103:AS103"/>
+    <mergeCell ref="AT103:AW103"/>
+    <mergeCell ref="AX103:BA103"/>
+    <mergeCell ref="BB103:BE103"/>
+    <mergeCell ref="BF103:BI103"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="AX84:BA84"/>
+    <mergeCell ref="BB84:BE84"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:M122"/>
+    <mergeCell ref="AT122:AW122"/>
+    <mergeCell ref="N122:Q122"/>
+    <mergeCell ref="R122:U122"/>
+    <mergeCell ref="V122:Y122"/>
+    <mergeCell ref="Z122:AC122"/>
+    <mergeCell ref="AD122:AG122"/>
+    <mergeCell ref="AH122:AK122"/>
+    <mergeCell ref="V66:Y66"/>
+    <mergeCell ref="Z66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AK66"/>
+    <mergeCell ref="Z84:AC84"/>
+    <mergeCell ref="AD84:AG84"/>
+    <mergeCell ref="AH84:AK84"/>
+    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="AT66:AW66"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="V84:Y84"/>
+    <mergeCell ref="AL122:AO122"/>
+    <mergeCell ref="AP122:AS122"/>
+    <mergeCell ref="AP66:AS66"/>
+    <mergeCell ref="AH28:AK28"/>
+    <mergeCell ref="AL28:AO28"/>
+    <mergeCell ref="AL47:AO47"/>
+    <mergeCell ref="AP28:AS28"/>
+    <mergeCell ref="AT28:AW28"/>
+    <mergeCell ref="AX28:BA28"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="R47:U47"/>
+    <mergeCell ref="V47:Y47"/>
+    <mergeCell ref="Z47:AC47"/>
+    <mergeCell ref="AD47:AG47"/>
+    <mergeCell ref="AH47:AK47"/>
     <mergeCell ref="BB28:BE28"/>
     <mergeCell ref="AP9:AS9"/>
     <mergeCell ref="AT9:AW9"/>
@@ -43819,122 +44109,39 @@
     <mergeCell ref="R28:U28"/>
     <mergeCell ref="V28:Y28"/>
     <mergeCell ref="Z28:AC28"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="BR122:BU122"/>
+    <mergeCell ref="BV122:BY122"/>
+    <mergeCell ref="BV66:BY66"/>
+    <mergeCell ref="BR66:BU66"/>
+    <mergeCell ref="BR84:BU84"/>
+    <mergeCell ref="BR103:BU103"/>
+    <mergeCell ref="AX66:BA66"/>
+    <mergeCell ref="BB66:BE66"/>
+    <mergeCell ref="BF66:BI66"/>
+    <mergeCell ref="BJ66:BM66"/>
+    <mergeCell ref="BN66:BQ66"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="AP47:AS47"/>
+    <mergeCell ref="AT47:AW47"/>
+    <mergeCell ref="AX47:BA47"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="R66:U66"/>
     <mergeCell ref="AL66:AO66"/>
-    <mergeCell ref="AP66:AS66"/>
-    <mergeCell ref="AH28:AK28"/>
-    <mergeCell ref="AL28:AO28"/>
-    <mergeCell ref="AL47:AO47"/>
-    <mergeCell ref="AP28:AS28"/>
-    <mergeCell ref="AT28:AW28"/>
-    <mergeCell ref="AX28:BA28"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="R47:U47"/>
-    <mergeCell ref="V47:Y47"/>
-    <mergeCell ref="Z47:AC47"/>
-    <mergeCell ref="AD47:AG47"/>
-    <mergeCell ref="AH47:AK47"/>
-    <mergeCell ref="AT66:AW66"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="AP84:AS84"/>
     <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="V84:Y84"/>
-    <mergeCell ref="AL122:AO122"/>
-    <mergeCell ref="AP122:AS122"/>
-    <mergeCell ref="AT122:AW122"/>
-    <mergeCell ref="N122:Q122"/>
-    <mergeCell ref="R122:U122"/>
-    <mergeCell ref="V122:Y122"/>
-    <mergeCell ref="Z122:AC122"/>
-    <mergeCell ref="AD122:AG122"/>
-    <mergeCell ref="AH122:AK122"/>
-    <mergeCell ref="V66:Y66"/>
-    <mergeCell ref="Z66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AK66"/>
-    <mergeCell ref="Z84:AC84"/>
-    <mergeCell ref="AD84:AG84"/>
-    <mergeCell ref="AH84:AK84"/>
-    <mergeCell ref="AX122:BA122"/>
-    <mergeCell ref="BB122:BE122"/>
-    <mergeCell ref="BN84:BQ84"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="J103:M103"/>
-    <mergeCell ref="N103:Q103"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="V103:Y103"/>
-    <mergeCell ref="Z103:AC103"/>
-    <mergeCell ref="AD103:AG103"/>
-    <mergeCell ref="AH103:AK103"/>
-    <mergeCell ref="AL103:AO103"/>
-    <mergeCell ref="AP103:AS103"/>
-    <mergeCell ref="AT103:AW103"/>
-    <mergeCell ref="AX103:BA103"/>
-    <mergeCell ref="BB103:BE103"/>
-    <mergeCell ref="BF103:BI103"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="BB84:BE84"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="BF122:BI122"/>
-    <mergeCell ref="BJ122:BM122"/>
-    <mergeCell ref="BN122:BQ122"/>
-    <mergeCell ref="BJ103:BM103"/>
-    <mergeCell ref="BN103:BQ103"/>
-    <mergeCell ref="BF84:BI84"/>
-    <mergeCell ref="BJ84:BM84"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="BV47:BY47"/>
-    <mergeCell ref="BV84:BY84"/>
-    <mergeCell ref="BV103:BY103"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BV28:BY28"/>
-    <mergeCell ref="BF28:BI28"/>
-    <mergeCell ref="BR28:BU28"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BJ28:BM28"/>
-    <mergeCell ref="BN28:BQ28"/>
-    <mergeCell ref="BJ47:BM47"/>
-    <mergeCell ref="BN47:BQ47"/>
-    <mergeCell ref="BF47:BI47"/>
-    <mergeCell ref="BR47:BU47"/>
-    <mergeCell ref="CH84:CK84"/>
-    <mergeCell ref="CH103:CK103"/>
-    <mergeCell ref="CH122:CK122"/>
-    <mergeCell ref="BZ28:CC28"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH28:CK28"/>
-    <mergeCell ref="CH47:CK47"/>
-    <mergeCell ref="BZ47:CC47"/>
-    <mergeCell ref="BZ66:CC66"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD122:CG122"/>
-    <mergeCell ref="CD103:CG103"/>
-    <mergeCell ref="CD84:CG84"/>
-    <mergeCell ref="CD28:CG28"/>
-    <mergeCell ref="BZ103:CC103"/>
-    <mergeCell ref="BZ84:CC84"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BZ122:CC122"/>
-    <mergeCell ref="CD47:CG47"/>
-    <mergeCell ref="CD66:CG66"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="96" man="1"/>
-    <brk id="76" max="96" man="1"/>
-    <brk id="94" max="96" man="1"/>
+    <brk id="38" max="97" man="1"/>
+    <brk id="76" max="97" man="1"/>
+    <brk id="94" max="97" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-21OS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-21OS_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE5DAB3-EB45-43CD-BEA7-5CA663BD9BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7283B0-2140-46C2-8B8E-BB6F7248D458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="255" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">OS!$A$1:$CT$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">OS!$A$1:$CU$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -621,13 +621,13 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2024</t>
+    <t>As of August 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2024</t>
+    <t>Q1 2000 to Q2 2024</t>
   </si>
   <si>
-    <t>As of May 2024</t>
+    <t>Q1 2001 to Q2 2024</t>
   </si>
 </sst>
 </file>
@@ -732,7 +732,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -765,27 +765,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23666,77 +23648,42 @@
   <cols>
     <col min="1" max="1" width="41.88671875" style="1" customWidth="1"/>
     <col min="2" max="93" width="9" style="12" customWidth="1"/>
-    <col min="94" max="98" width="9.6640625" style="34" customWidth="1"/>
-    <col min="99" max="16384" width="7.77734375" style="12"/>
+    <col min="94" max="99" width="9.109375" style="12" customWidth="1"/>
+    <col min="100" max="16384" width="7.77734375" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CP1" s="23"/>
-      <c r="CQ1" s="23"/>
-      <c r="CR1" s="23"/>
-      <c r="CS1" s="23"/>
-      <c r="CT1" s="23"/>
     </row>
     <row r="2" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="CP2" s="23"/>
-      <c r="CQ2" s="23"/>
-      <c r="CR2" s="23"/>
-      <c r="CS2" s="23"/>
-      <c r="CT2" s="23"/>
     </row>
     <row r="3" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="CP3" s="23"/>
-      <c r="CQ3" s="23"/>
-      <c r="CR3" s="23"/>
-      <c r="CS3" s="23"/>
-      <c r="CT3" s="23"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="CP4" s="23"/>
-      <c r="CQ4" s="23"/>
-      <c r="CR4" s="23"/>
-      <c r="CS4" s="23"/>
-      <c r="CT4" s="23"/>
     </row>
     <row r="5" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="CP5" s="23"/>
-      <c r="CQ5" s="23"/>
-      <c r="CR5" s="23"/>
-      <c r="CS5" s="23"/>
-      <c r="CT5" s="23"/>
     </row>
     <row r="6" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="CP6" s="23"/>
-      <c r="CQ6" s="23"/>
-      <c r="CR6" s="23"/>
-      <c r="CS6" s="23"/>
-      <c r="CT6" s="23"/>
+        <v>51</v>
+      </c>
     </row>
     <row r="7" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="CP7" s="23"/>
-      <c r="CQ7" s="23"/>
-      <c r="CR7" s="23"/>
-      <c r="CS7" s="23"/>
-      <c r="CT7" s="23"/>
     </row>
     <row r="8" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
@@ -23832,140 +23779,141 @@
       <c r="CM8" s="1"/>
       <c r="CN8" s="1"/>
       <c r="CO8" s="1"/>
-      <c r="CP8" s="24"/>
-      <c r="CQ8" s="24"/>
-      <c r="CR8" s="24"/>
-      <c r="CS8" s="24"/>
-      <c r="CT8" s="24"/>
+      <c r="CP8" s="1"/>
+      <c r="CQ8" s="1"/>
+      <c r="CR8" s="1"/>
+      <c r="CS8" s="1"/>
+      <c r="CT8" s="1"/>
+      <c r="CU8" s="1"/>
     </row>
     <row r="9" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="35">
+      <c r="B9" s="23">
         <v>2000</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23">
         <v>2001</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35">
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23">
         <v>2002</v>
       </c>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35">
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23">
         <v>2003</v>
       </c>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35">
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23">
         <v>2004</v>
       </c>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35">
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23">
         <v>2005</v>
       </c>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35">
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23">
         <v>2006</v>
       </c>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="35">
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="23">
         <v>2007</v>
       </c>
-      <c r="AE9" s="35"/>
-      <c r="AF9" s="35"/>
-      <c r="AG9" s="35"/>
-      <c r="AH9" s="35">
+      <c r="AE9" s="23"/>
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="23"/>
+      <c r="AH9" s="23">
         <v>2008</v>
       </c>
-      <c r="AI9" s="35"/>
-      <c r="AJ9" s="35"/>
-      <c r="AK9" s="35"/>
-      <c r="AL9" s="35">
+      <c r="AI9" s="23"/>
+      <c r="AJ9" s="23"/>
+      <c r="AK9" s="23"/>
+      <c r="AL9" s="23">
         <v>2009</v>
       </c>
-      <c r="AM9" s="35"/>
-      <c r="AN9" s="35"/>
-      <c r="AO9" s="35"/>
-      <c r="AP9" s="35">
+      <c r="AM9" s="23"/>
+      <c r="AN9" s="23"/>
+      <c r="AO9" s="23"/>
+      <c r="AP9" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="35"/>
-      <c r="AR9" s="35"/>
-      <c r="AS9" s="35"/>
-      <c r="AT9" s="35">
+      <c r="AQ9" s="23"/>
+      <c r="AR9" s="23"/>
+      <c r="AS9" s="23"/>
+      <c r="AT9" s="23">
         <v>2011</v>
       </c>
-      <c r="AU9" s="35"/>
-      <c r="AV9" s="35"/>
-      <c r="AW9" s="35"/>
-      <c r="AX9" s="35">
+      <c r="AU9" s="23"/>
+      <c r="AV9" s="23"/>
+      <c r="AW9" s="23"/>
+      <c r="AX9" s="23">
         <v>2012</v>
       </c>
-      <c r="AY9" s="35"/>
-      <c r="AZ9" s="35"/>
-      <c r="BA9" s="35"/>
-      <c r="BB9" s="35">
+      <c r="AY9" s="23"/>
+      <c r="AZ9" s="23"/>
+      <c r="BA9" s="23"/>
+      <c r="BB9" s="23">
         <v>2013</v>
       </c>
-      <c r="BC9" s="35"/>
-      <c r="BD9" s="35"/>
-      <c r="BE9" s="35"/>
-      <c r="BF9" s="35">
+      <c r="BC9" s="23"/>
+      <c r="BD9" s="23"/>
+      <c r="BE9" s="23"/>
+      <c r="BF9" s="23">
         <v>2014</v>
       </c>
-      <c r="BG9" s="35"/>
-      <c r="BH9" s="35"/>
-      <c r="BI9" s="35"/>
-      <c r="BJ9" s="35">
+      <c r="BG9" s="23"/>
+      <c r="BH9" s="23"/>
+      <c r="BI9" s="23"/>
+      <c r="BJ9" s="23">
         <v>2015</v>
       </c>
-      <c r="BK9" s="35"/>
-      <c r="BL9" s="35"/>
-      <c r="BM9" s="35"/>
-      <c r="BN9" s="35">
+      <c r="BK9" s="23"/>
+      <c r="BL9" s="23"/>
+      <c r="BM9" s="23"/>
+      <c r="BN9" s="23">
         <v>2016</v>
       </c>
-      <c r="BO9" s="35"/>
-      <c r="BP9" s="35"/>
-      <c r="BQ9" s="35"/>
-      <c r="BR9" s="35">
+      <c r="BO9" s="23"/>
+      <c r="BP9" s="23"/>
+      <c r="BQ9" s="23"/>
+      <c r="BR9" s="23">
         <v>2017</v>
       </c>
-      <c r="BS9" s="35"/>
-      <c r="BT9" s="35"/>
-      <c r="BU9" s="35"/>
-      <c r="BV9" s="35">
+      <c r="BS9" s="23"/>
+      <c r="BT9" s="23"/>
+      <c r="BU9" s="23"/>
+      <c r="BV9" s="23">
         <v>2018</v>
       </c>
-      <c r="BW9" s="35"/>
-      <c r="BX9" s="35"/>
-      <c r="BY9" s="35"/>
-      <c r="BZ9" s="35">
+      <c r="BW9" s="23"/>
+      <c r="BX9" s="23"/>
+      <c r="BY9" s="23"/>
+      <c r="BZ9" s="23">
         <v>2019</v>
       </c>
-      <c r="CA9" s="35"/>
-      <c r="CB9" s="35"/>
-      <c r="CC9" s="35"/>
-      <c r="CD9" s="35">
+      <c r="CA9" s="23"/>
+      <c r="CB9" s="23"/>
+      <c r="CC9" s="23"/>
+      <c r="CD9" s="23">
         <v>2020</v>
       </c>
-      <c r="CE9" s="35"/>
-      <c r="CF9" s="35"/>
-      <c r="CG9" s="35"/>
+      <c r="CE9" s="23"/>
+      <c r="CF9" s="23"/>
+      <c r="CG9" s="23"/>
       <c r="CH9" s="21">
         <v>2021</v>
       </c>
@@ -23978,15 +23926,16 @@
       <c r="CM9" s="21"/>
       <c r="CN9" s="21"/>
       <c r="CO9" s="21"/>
-      <c r="CP9" s="25">
+      <c r="CP9" s="21">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="25"/>
-      <c r="CR9" s="25"/>
-      <c r="CS9" s="25"/>
-      <c r="CT9" s="25">
+      <c r="CQ9" s="21"/>
+      <c r="CR9" s="21"/>
+      <c r="CS9" s="21"/>
+      <c r="CT9" s="21">
         <v>2024</v>
       </c>
+      <c r="CU9" s="21"/>
     </row>
     <row r="10" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24268,20 +24217,23 @@
       <c r="CO10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="26" t="s">
+      <c r="CP10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="26" t="s">
+      <c r="CQ10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="26" t="s">
+      <c r="CR10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CS10" s="26" t="s">
+      <c r="CS10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CT10" s="26" t="s">
+      <c r="CT10" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="CU10" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24378,11 +24330,12 @@
       <c r="CM11" s="1"/>
       <c r="CN11" s="1"/>
       <c r="CO11" s="1"/>
-      <c r="CP11" s="24"/>
-      <c r="CQ11" s="24"/>
-      <c r="CR11" s="24"/>
-      <c r="CS11" s="24"/>
-      <c r="CT11" s="24"/>
+      <c r="CP11" s="1"/>
+      <c r="CQ11" s="1"/>
+      <c r="CR11" s="1"/>
+      <c r="CS11" s="1"/>
+      <c r="CT11" s="1"/>
+      <c r="CU11" s="1"/>
     </row>
     <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
@@ -24664,22 +24617,24 @@
       <c r="CO12" s="19">
         <v>72267.957904806448</v>
       </c>
-      <c r="CP12" s="27">
+      <c r="CP12" s="19">
         <v>65749.128528322341</v>
       </c>
-      <c r="CQ12" s="27">
+      <c r="CQ12" s="19">
         <v>66475.807090737624</v>
       </c>
-      <c r="CR12" s="27">
+      <c r="CR12" s="19">
         <v>58888.090068404897</v>
       </c>
-      <c r="CS12" s="27">
+      <c r="CS12" s="19">
         <v>84049.154344747789</v>
       </c>
-      <c r="CT12" s="27">
-        <v>73135.649599277283</v>
-      </c>
-      <c r="CU12" s="11"/>
+      <c r="CT12" s="19">
+        <v>72794.250572686855</v>
+      </c>
+      <c r="CU12" s="19">
+        <v>76716.187849275651</v>
+      </c>
       <c r="CV12" s="11"/>
       <c r="CW12" s="11"/>
       <c r="CX12" s="11"/>
@@ -25017,22 +24972,24 @@
       <c r="CO13" s="19">
         <v>43550.06055180906</v>
       </c>
-      <c r="CP13" s="27">
+      <c r="CP13" s="19">
         <v>53563.929716224739</v>
       </c>
-      <c r="CQ13" s="27">
+      <c r="CQ13" s="19">
         <v>44669.943711267093</v>
       </c>
-      <c r="CR13" s="27">
+      <c r="CR13" s="19">
         <v>39262.494450357262</v>
       </c>
-      <c r="CS13" s="27">
+      <c r="CS13" s="19">
         <v>53053.825725400275</v>
       </c>
-      <c r="CT13" s="27">
-        <v>62562.048414103621</v>
-      </c>
-      <c r="CU13" s="11"/>
+      <c r="CT13" s="19">
+        <v>63630.838798680183</v>
+      </c>
+      <c r="CU13" s="19">
+        <v>51049.415754099427</v>
+      </c>
       <c r="CV13" s="11"/>
       <c r="CW13" s="11"/>
       <c r="CX13" s="11"/>
@@ -25183,12 +25140,12 @@
       <c r="CM14" s="20"/>
       <c r="CN14" s="20"/>
       <c r="CO14" s="20"/>
-      <c r="CP14" s="28"/>
-      <c r="CQ14" s="28"/>
-      <c r="CR14" s="28"/>
-      <c r="CS14" s="28"/>
-      <c r="CT14" s="28"/>
-      <c r="CU14" s="11"/>
+      <c r="CP14" s="20"/>
+      <c r="CQ14" s="20"/>
+      <c r="CR14" s="20"/>
+      <c r="CS14" s="20"/>
+      <c r="CT14" s="20"/>
+      <c r="CU14" s="20"/>
       <c r="CV14" s="11"/>
       <c r="CW14" s="11"/>
       <c r="CX14" s="11"/>
@@ -25526,22 +25483,24 @@
       <c r="CO15" s="20">
         <v>115818.01845661551</v>
       </c>
-      <c r="CP15" s="28">
+      <c r="CP15" s="20">
         <v>119313.05824454708</v>
       </c>
-      <c r="CQ15" s="28">
+      <c r="CQ15" s="20">
         <v>111145.75080200471</v>
       </c>
-      <c r="CR15" s="28">
+      <c r="CR15" s="20">
         <v>98150.58451876216</v>
       </c>
-      <c r="CS15" s="28">
+      <c r="CS15" s="20">
         <v>137102.98007014807</v>
       </c>
-      <c r="CT15" s="28">
-        <v>135697.6980133809</v>
-      </c>
-      <c r="CU15" s="11"/>
+      <c r="CT15" s="20">
+        <v>136425.08937136704</v>
+      </c>
+      <c r="CU15" s="20">
+        <v>127765.60360337509</v>
+      </c>
       <c r="CV15" s="11"/>
       <c r="CW15" s="11"/>
       <c r="CX15" s="11"/>
@@ -25693,11 +25652,12 @@
       <c r="CM16" s="15"/>
       <c r="CN16" s="15"/>
       <c r="CO16" s="15"/>
-      <c r="CP16" s="29"/>
-      <c r="CQ16" s="29"/>
-      <c r="CR16" s="29"/>
-      <c r="CS16" s="29"/>
-      <c r="CT16" s="29"/>
+      <c r="CP16" s="15"/>
+      <c r="CQ16" s="15"/>
+      <c r="CR16" s="15"/>
+      <c r="CS16" s="15"/>
+      <c r="CT16" s="15"/>
+      <c r="CU16" s="15"/>
     </row>
     <row r="17" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
@@ -25795,11 +25755,12 @@
       <c r="CM17" s="1"/>
       <c r="CN17" s="1"/>
       <c r="CO17" s="1"/>
-      <c r="CP17" s="24"/>
-      <c r="CQ17" s="24"/>
-      <c r="CR17" s="24"/>
-      <c r="CS17" s="24"/>
-      <c r="CT17" s="24"/>
+      <c r="CP17" s="1"/>
+      <c r="CQ17" s="1"/>
+      <c r="CR17" s="1"/>
+      <c r="CS17" s="1"/>
+      <c r="CT17" s="1"/>
+      <c r="CU17" s="1"/>
     </row>
     <row r="18" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="17"/>
@@ -25894,12 +25855,12 @@
       <c r="CM18" s="17"/>
       <c r="CN18" s="17"/>
       <c r="CO18" s="17"/>
-      <c r="CP18" s="30"/>
-      <c r="CQ18" s="30"/>
-      <c r="CR18" s="30"/>
-      <c r="CS18" s="30"/>
-      <c r="CT18" s="30"/>
-      <c r="CU18" s="11"/>
+      <c r="CP18" s="17"/>
+      <c r="CQ18" s="17"/>
+      <c r="CR18" s="17"/>
+      <c r="CS18" s="17"/>
+      <c r="CT18" s="17"/>
+      <c r="CU18" s="17"/>
       <c r="CV18" s="11"/>
       <c r="CW18" s="11"/>
       <c r="CX18" s="11"/>
@@ -26050,12 +26011,12 @@
       <c r="CM19" s="17"/>
       <c r="CN19" s="17"/>
       <c r="CO19" s="17"/>
-      <c r="CP19" s="30"/>
-      <c r="CQ19" s="30"/>
-      <c r="CR19" s="30"/>
-      <c r="CS19" s="30"/>
-      <c r="CT19" s="30"/>
-      <c r="CU19" s="11"/>
+      <c r="CP19" s="17"/>
+      <c r="CQ19" s="17"/>
+      <c r="CR19" s="17"/>
+      <c r="CS19" s="17"/>
+      <c r="CT19" s="17"/>
+      <c r="CU19" s="17"/>
       <c r="CV19" s="11"/>
       <c r="CW19" s="11"/>
       <c r="CX19" s="11"/>
@@ -26209,11 +26170,12 @@
       <c r="CM20" s="1"/>
       <c r="CN20" s="1"/>
       <c r="CO20" s="1"/>
-      <c r="CP20" s="24"/>
-      <c r="CQ20" s="24"/>
-      <c r="CR20" s="24"/>
-      <c r="CS20" s="24"/>
-      <c r="CT20" s="24"/>
+      <c r="CP20" s="1"/>
+      <c r="CQ20" s="1"/>
+      <c r="CR20" s="1"/>
+      <c r="CS20" s="1"/>
+      <c r="CT20" s="1"/>
+      <c r="CU20" s="1"/>
     </row>
     <row r="21" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -26311,15 +26273,16 @@
       <c r="CM21" s="1"/>
       <c r="CN21" s="1"/>
       <c r="CO21" s="1"/>
-      <c r="CP21" s="24"/>
-      <c r="CQ21" s="24"/>
-      <c r="CR21" s="24"/>
-      <c r="CS21" s="24"/>
-      <c r="CT21" s="24"/>
+      <c r="CP21" s="1"/>
+      <c r="CQ21" s="1"/>
+      <c r="CR21" s="1"/>
+      <c r="CS21" s="1"/>
+      <c r="CT21" s="1"/>
+      <c r="CU21" s="1"/>
     </row>
     <row r="22" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -26413,11 +26376,12 @@
       <c r="CM22" s="1"/>
       <c r="CN22" s="1"/>
       <c r="CO22" s="1"/>
-      <c r="CP22" s="24"/>
-      <c r="CQ22" s="24"/>
-      <c r="CR22" s="24"/>
-      <c r="CS22" s="24"/>
-      <c r="CT22" s="24"/>
+      <c r="CP22" s="1"/>
+      <c r="CQ22" s="1"/>
+      <c r="CR22" s="1"/>
+      <c r="CS22" s="1"/>
+      <c r="CT22" s="1"/>
+      <c r="CU22" s="1"/>
     </row>
     <row r="23" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
@@ -26513,11 +26477,12 @@
       <c r="CM23" s="1"/>
       <c r="CN23" s="1"/>
       <c r="CO23" s="1"/>
-      <c r="CP23" s="24"/>
-      <c r="CQ23" s="24"/>
-      <c r="CR23" s="24"/>
-      <c r="CS23" s="24"/>
-      <c r="CT23" s="24"/>
+      <c r="CP23" s="1"/>
+      <c r="CQ23" s="1"/>
+      <c r="CR23" s="1"/>
+      <c r="CS23" s="1"/>
+      <c r="CT23" s="1"/>
+      <c r="CU23" s="1"/>
     </row>
     <row r="24" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -26615,15 +26580,16 @@
       <c r="CM24" s="1"/>
       <c r="CN24" s="1"/>
       <c r="CO24" s="1"/>
-      <c r="CP24" s="24"/>
-      <c r="CQ24" s="24"/>
-      <c r="CR24" s="24"/>
-      <c r="CS24" s="24"/>
-      <c r="CT24" s="24"/>
+      <c r="CP24" s="1"/>
+      <c r="CQ24" s="1"/>
+      <c r="CR24" s="1"/>
+      <c r="CS24" s="1"/>
+      <c r="CT24" s="1"/>
+      <c r="CU24" s="1"/>
     </row>
     <row r="25" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -26717,11 +26683,12 @@
       <c r="CM25" s="1"/>
       <c r="CN25" s="1"/>
       <c r="CO25" s="1"/>
-      <c r="CP25" s="24"/>
-      <c r="CQ25" s="24"/>
-      <c r="CR25" s="24"/>
-      <c r="CS25" s="24"/>
-      <c r="CT25" s="24"/>
+      <c r="CP25" s="1"/>
+      <c r="CQ25" s="1"/>
+      <c r="CR25" s="1"/>
+      <c r="CS25" s="1"/>
+      <c r="CT25" s="1"/>
+      <c r="CU25" s="1"/>
     </row>
     <row r="26" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -26819,11 +26786,12 @@
       <c r="CM26" s="1"/>
       <c r="CN26" s="1"/>
       <c r="CO26" s="1"/>
-      <c r="CP26" s="24"/>
-      <c r="CQ26" s="24"/>
-      <c r="CR26" s="24"/>
-      <c r="CS26" s="24"/>
-      <c r="CT26" s="24"/>
+      <c r="CP26" s="1"/>
+      <c r="CQ26" s="1"/>
+      <c r="CR26" s="1"/>
+      <c r="CS26" s="1"/>
+      <c r="CT26" s="1"/>
+      <c r="CU26" s="1"/>
     </row>
     <row r="27" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
@@ -26919,140 +26887,141 @@
       <c r="CM27" s="1"/>
       <c r="CN27" s="1"/>
       <c r="CO27" s="1"/>
-      <c r="CP27" s="24"/>
-      <c r="CQ27" s="24"/>
-      <c r="CR27" s="24"/>
-      <c r="CS27" s="24"/>
-      <c r="CT27" s="24"/>
+      <c r="CP27" s="1"/>
+      <c r="CQ27" s="1"/>
+      <c r="CR27" s="1"/>
+      <c r="CS27" s="1"/>
+      <c r="CT27" s="1"/>
+      <c r="CU27" s="1"/>
     </row>
     <row r="28" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
-      <c r="B28" s="35">
+      <c r="B28" s="23">
         <v>2000</v>
       </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="35">
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="23">
         <v>2001</v>
       </c>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="35">
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="23">
         <v>2002</v>
       </c>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="35">
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="23">
         <v>2003</v>
       </c>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="35">
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="23">
         <v>2004</v>
       </c>
-      <c r="S28" s="36"/>
-      <c r="T28" s="36"/>
-      <c r="U28" s="36"/>
-      <c r="V28" s="35">
+      <c r="S28" s="24"/>
+      <c r="T28" s="24"/>
+      <c r="U28" s="24"/>
+      <c r="V28" s="23">
         <v>2005</v>
       </c>
-      <c r="W28" s="36"/>
-      <c r="X28" s="36"/>
-      <c r="Y28" s="36"/>
-      <c r="Z28" s="35">
+      <c r="W28" s="24"/>
+      <c r="X28" s="24"/>
+      <c r="Y28" s="24"/>
+      <c r="Z28" s="23">
         <v>2006</v>
       </c>
-      <c r="AA28" s="36"/>
-      <c r="AB28" s="36"/>
-      <c r="AC28" s="36"/>
-      <c r="AD28" s="35">
+      <c r="AA28" s="24"/>
+      <c r="AB28" s="24"/>
+      <c r="AC28" s="24"/>
+      <c r="AD28" s="23">
         <v>2007</v>
       </c>
-      <c r="AE28" s="36"/>
-      <c r="AF28" s="36"/>
-      <c r="AG28" s="36"/>
-      <c r="AH28" s="35">
+      <c r="AE28" s="24"/>
+      <c r="AF28" s="24"/>
+      <c r="AG28" s="24"/>
+      <c r="AH28" s="23">
         <v>2008</v>
       </c>
-      <c r="AI28" s="36"/>
-      <c r="AJ28" s="36"/>
-      <c r="AK28" s="36"/>
-      <c r="AL28" s="35">
+      <c r="AI28" s="24"/>
+      <c r="AJ28" s="24"/>
+      <c r="AK28" s="24"/>
+      <c r="AL28" s="23">
         <v>2009</v>
       </c>
-      <c r="AM28" s="36"/>
-      <c r="AN28" s="36"/>
-      <c r="AO28" s="36"/>
-      <c r="AP28" s="35">
+      <c r="AM28" s="24"/>
+      <c r="AN28" s="24"/>
+      <c r="AO28" s="24"/>
+      <c r="AP28" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="36"/>
-      <c r="AR28" s="36"/>
-      <c r="AS28" s="36"/>
-      <c r="AT28" s="35">
+      <c r="AQ28" s="24"/>
+      <c r="AR28" s="24"/>
+      <c r="AS28" s="24"/>
+      <c r="AT28" s="23">
         <v>2011</v>
       </c>
-      <c r="AU28" s="36"/>
-      <c r="AV28" s="36"/>
-      <c r="AW28" s="36"/>
-      <c r="AX28" s="35">
+      <c r="AU28" s="24"/>
+      <c r="AV28" s="24"/>
+      <c r="AW28" s="24"/>
+      <c r="AX28" s="23">
         <v>2012</v>
       </c>
-      <c r="AY28" s="36"/>
-      <c r="AZ28" s="36"/>
-      <c r="BA28" s="36"/>
-      <c r="BB28" s="35">
+      <c r="AY28" s="24"/>
+      <c r="AZ28" s="24"/>
+      <c r="BA28" s="24"/>
+      <c r="BB28" s="23">
         <v>2013</v>
       </c>
-      <c r="BC28" s="36"/>
-      <c r="BD28" s="36"/>
-      <c r="BE28" s="36"/>
-      <c r="BF28" s="35">
+      <c r="BC28" s="24"/>
+      <c r="BD28" s="24"/>
+      <c r="BE28" s="24"/>
+      <c r="BF28" s="23">
         <v>2014</v>
       </c>
-      <c r="BG28" s="36"/>
-      <c r="BH28" s="36"/>
-      <c r="BI28" s="36"/>
-      <c r="BJ28" s="35">
+      <c r="BG28" s="24"/>
+      <c r="BH28" s="24"/>
+      <c r="BI28" s="24"/>
+      <c r="BJ28" s="23">
         <v>2015</v>
       </c>
-      <c r="BK28" s="36"/>
-      <c r="BL28" s="36"/>
-      <c r="BM28" s="36"/>
-      <c r="BN28" s="35">
+      <c r="BK28" s="24"/>
+      <c r="BL28" s="24"/>
+      <c r="BM28" s="24"/>
+      <c r="BN28" s="23">
         <v>2016</v>
       </c>
-      <c r="BO28" s="36"/>
-      <c r="BP28" s="36"/>
-      <c r="BQ28" s="36"/>
-      <c r="BR28" s="35">
+      <c r="BO28" s="24"/>
+      <c r="BP28" s="24"/>
+      <c r="BQ28" s="24"/>
+      <c r="BR28" s="23">
         <v>2017</v>
       </c>
-      <c r="BS28" s="36"/>
-      <c r="BT28" s="36"/>
-      <c r="BU28" s="36"/>
-      <c r="BV28" s="35">
+      <c r="BS28" s="24"/>
+      <c r="BT28" s="24"/>
+      <c r="BU28" s="24"/>
+      <c r="BV28" s="23">
         <v>2018</v>
       </c>
-      <c r="BW28" s="35"/>
-      <c r="BX28" s="35"/>
-      <c r="BY28" s="35"/>
-      <c r="BZ28" s="35">
+      <c r="BW28" s="23"/>
+      <c r="BX28" s="23"/>
+      <c r="BY28" s="23"/>
+      <c r="BZ28" s="23">
         <v>2019</v>
       </c>
-      <c r="CA28" s="35"/>
-      <c r="CB28" s="35"/>
-      <c r="CC28" s="35"/>
-      <c r="CD28" s="35">
+      <c r="CA28" s="23"/>
+      <c r="CB28" s="23"/>
+      <c r="CC28" s="23"/>
+      <c r="CD28" s="23">
         <v>2020</v>
       </c>
-      <c r="CE28" s="35"/>
-      <c r="CF28" s="35"/>
-      <c r="CG28" s="35"/>
+      <c r="CE28" s="23"/>
+      <c r="CF28" s="23"/>
+      <c r="CG28" s="23"/>
       <c r="CH28" s="21">
         <v>2021</v>
       </c>
@@ -27065,15 +27034,16 @@
       <c r="CM28" s="21"/>
       <c r="CN28" s="21"/>
       <c r="CO28" s="21"/>
-      <c r="CP28" s="25">
+      <c r="CP28" s="21">
         <v>2023</v>
       </c>
-      <c r="CQ28" s="25"/>
-      <c r="CR28" s="25"/>
-      <c r="CS28" s="25"/>
-      <c r="CT28" s="25">
+      <c r="CQ28" s="21"/>
+      <c r="CR28" s="21"/>
+      <c r="CS28" s="21"/>
+      <c r="CT28" s="21">
         <v>2024</v>
       </c>
+      <c r="CU28" s="21"/>
     </row>
     <row r="29" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
@@ -27355,20 +27325,23 @@
       <c r="CO29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP29" s="26" t="s">
+      <c r="CP29" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CQ29" s="26" t="s">
+      <c r="CQ29" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CR29" s="26" t="s">
+      <c r="CR29" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CS29" s="26" t="s">
+      <c r="CS29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CT29" s="26" t="s">
+      <c r="CT29" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="CU29" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27465,11 +27438,12 @@
       <c r="CM30" s="1"/>
       <c r="CN30" s="1"/>
       <c r="CO30" s="1"/>
-      <c r="CP30" s="24"/>
-      <c r="CQ30" s="24"/>
-      <c r="CR30" s="24"/>
-      <c r="CS30" s="24"/>
-      <c r="CT30" s="24"/>
+      <c r="CP30" s="1"/>
+      <c r="CQ30" s="1"/>
+      <c r="CR30" s="1"/>
+      <c r="CS30" s="1"/>
+      <c r="CT30" s="1"/>
+      <c r="CU30" s="1"/>
     </row>
     <row r="31" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
@@ -27751,22 +27725,24 @@
       <c r="CO31" s="19">
         <v>67445.452034046815</v>
       </c>
-      <c r="CP31" s="27">
+      <c r="CP31" s="19">
         <v>61083.907320400758</v>
       </c>
-      <c r="CQ31" s="27">
+      <c r="CQ31" s="19">
         <v>60802.751380819478</v>
       </c>
-      <c r="CR31" s="27">
+      <c r="CR31" s="19">
         <v>52937.173584944583</v>
       </c>
-      <c r="CS31" s="27">
+      <c r="CS31" s="19">
         <v>74549.148697692945</v>
       </c>
-      <c r="CT31" s="27">
-        <v>65130.667805949706</v>
-      </c>
-      <c r="CU31" s="11"/>
+      <c r="CT31" s="19">
+        <v>64826.636232948469</v>
+      </c>
+      <c r="CU31" s="19">
+        <v>67479.991341685629</v>
+      </c>
       <c r="CV31" s="11"/>
       <c r="CW31" s="11"/>
       <c r="CX31" s="11"/>
@@ -28104,22 +28080,24 @@
       <c r="CO32" s="19">
         <v>38676.130022701458</v>
       </c>
-      <c r="CP32" s="27">
+      <c r="CP32" s="19">
         <v>45170.578794868416</v>
       </c>
-      <c r="CQ32" s="27">
+      <c r="CQ32" s="19">
         <v>38146.830176206837</v>
       </c>
-      <c r="CR32" s="27">
+      <c r="CR32" s="19">
         <v>33508.22310430411</v>
       </c>
-      <c r="CS32" s="27">
+      <c r="CS32" s="19">
         <v>43890.885491192763</v>
       </c>
-      <c r="CT32" s="27">
-        <v>50177.175647280106</v>
-      </c>
-      <c r="CU32" s="11"/>
+      <c r="CT32" s="19">
+        <v>51031.205097335886</v>
+      </c>
+      <c r="CU32" s="19">
+        <v>41884.745369377109</v>
+      </c>
       <c r="CV32" s="11"/>
       <c r="CW32" s="11"/>
       <c r="CX32" s="11"/>
@@ -28270,12 +28248,12 @@
       <c r="CM33" s="20"/>
       <c r="CN33" s="20"/>
       <c r="CO33" s="20"/>
-      <c r="CP33" s="28"/>
-      <c r="CQ33" s="28"/>
-      <c r="CR33" s="28"/>
-      <c r="CS33" s="28"/>
-      <c r="CT33" s="28"/>
-      <c r="CU33" s="11"/>
+      <c r="CP33" s="20"/>
+      <c r="CQ33" s="20"/>
+      <c r="CR33" s="20"/>
+      <c r="CS33" s="20"/>
+      <c r="CT33" s="20"/>
+      <c r="CU33" s="20"/>
       <c r="CV33" s="11"/>
       <c r="CW33" s="11"/>
       <c r="CX33" s="11"/>
@@ -28613,22 +28591,24 @@
       <c r="CO34" s="20">
         <v>106121.58205674827</v>
       </c>
-      <c r="CP34" s="28">
+      <c r="CP34" s="20">
         <v>106254.48611526917</v>
       </c>
-      <c r="CQ34" s="28">
+      <c r="CQ34" s="20">
         <v>98949.581557026308</v>
       </c>
-      <c r="CR34" s="28">
+      <c r="CR34" s="20">
         <v>86445.396689248693</v>
       </c>
-      <c r="CS34" s="28">
+      <c r="CS34" s="20">
         <v>118440.03418888571</v>
       </c>
-      <c r="CT34" s="28">
-        <v>115307.84345322981</v>
-      </c>
-      <c r="CU34" s="11"/>
+      <c r="CT34" s="20">
+        <v>115857.84133028435</v>
+      </c>
+      <c r="CU34" s="20">
+        <v>109364.73671106274</v>
+      </c>
       <c r="CV34" s="11"/>
       <c r="CW34" s="11"/>
       <c r="CX34" s="11"/>
@@ -28780,11 +28760,12 @@
       <c r="CM35" s="15"/>
       <c r="CN35" s="15"/>
       <c r="CO35" s="15"/>
-      <c r="CP35" s="29"/>
-      <c r="CQ35" s="29"/>
-      <c r="CR35" s="29"/>
-      <c r="CS35" s="29"/>
-      <c r="CT35" s="29"/>
+      <c r="CP35" s="15"/>
+      <c r="CQ35" s="15"/>
+      <c r="CR35" s="15"/>
+      <c r="CS35" s="15"/>
+      <c r="CT35" s="15"/>
+      <c r="CU35" s="15"/>
     </row>
     <row r="36" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
@@ -28882,11 +28863,12 @@
       <c r="CM36" s="1"/>
       <c r="CN36" s="1"/>
       <c r="CO36" s="1"/>
-      <c r="CP36" s="24"/>
-      <c r="CQ36" s="24"/>
-      <c r="CR36" s="24"/>
-      <c r="CS36" s="24"/>
-      <c r="CT36" s="24"/>
+      <c r="CP36" s="1"/>
+      <c r="CQ36" s="1"/>
+      <c r="CR36" s="1"/>
+      <c r="CS36" s="1"/>
+      <c r="CT36" s="1"/>
+      <c r="CU36" s="1"/>
     </row>
     <row r="37" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="17"/>
@@ -28981,12 +28963,12 @@
       <c r="CM37" s="17"/>
       <c r="CN37" s="17"/>
       <c r="CO37" s="17"/>
-      <c r="CP37" s="30"/>
-      <c r="CQ37" s="30"/>
-      <c r="CR37" s="30"/>
-      <c r="CS37" s="30"/>
-      <c r="CT37" s="30"/>
-      <c r="CU37" s="11"/>
+      <c r="CP37" s="17"/>
+      <c r="CQ37" s="17"/>
+      <c r="CR37" s="17"/>
+      <c r="CS37" s="17"/>
+      <c r="CT37" s="17"/>
+      <c r="CU37" s="17"/>
       <c r="CV37" s="11"/>
       <c r="CW37" s="11"/>
       <c r="CX37" s="11"/>
@@ -29137,12 +29119,12 @@
       <c r="CM38" s="17"/>
       <c r="CN38" s="17"/>
       <c r="CO38" s="17"/>
-      <c r="CP38" s="30"/>
-      <c r="CQ38" s="30"/>
-      <c r="CR38" s="30"/>
-      <c r="CS38" s="30"/>
-      <c r="CT38" s="30"/>
-      <c r="CU38" s="11"/>
+      <c r="CP38" s="17"/>
+      <c r="CQ38" s="17"/>
+      <c r="CR38" s="17"/>
+      <c r="CS38" s="17"/>
+      <c r="CT38" s="17"/>
+      <c r="CU38" s="17"/>
       <c r="CV38" s="11"/>
       <c r="CW38" s="11"/>
       <c r="CX38" s="11"/>
@@ -29296,11 +29278,12 @@
       <c r="CM39" s="1"/>
       <c r="CN39" s="1"/>
       <c r="CO39" s="1"/>
-      <c r="CP39" s="24"/>
-      <c r="CQ39" s="24"/>
-      <c r="CR39" s="24"/>
-      <c r="CS39" s="24"/>
-      <c r="CT39" s="24"/>
+      <c r="CP39" s="1"/>
+      <c r="CQ39" s="1"/>
+      <c r="CR39" s="1"/>
+      <c r="CS39" s="1"/>
+      <c r="CT39" s="1"/>
+      <c r="CU39" s="1"/>
     </row>
     <row r="40" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
@@ -29398,15 +29381,16 @@
       <c r="CM40" s="1"/>
       <c r="CN40" s="1"/>
       <c r="CO40" s="1"/>
-      <c r="CP40" s="24"/>
-      <c r="CQ40" s="24"/>
-      <c r="CR40" s="24"/>
-      <c r="CS40" s="24"/>
-      <c r="CT40" s="24"/>
+      <c r="CP40" s="1"/>
+      <c r="CQ40" s="1"/>
+      <c r="CR40" s="1"/>
+      <c r="CS40" s="1"/>
+      <c r="CT40" s="1"/>
+      <c r="CU40" s="1"/>
     </row>
     <row r="41" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -29500,11 +29484,12 @@
       <c r="CM41" s="1"/>
       <c r="CN41" s="1"/>
       <c r="CO41" s="1"/>
-      <c r="CP41" s="24"/>
-      <c r="CQ41" s="24"/>
-      <c r="CR41" s="24"/>
-      <c r="CS41" s="24"/>
-      <c r="CT41" s="24"/>
+      <c r="CP41" s="1"/>
+      <c r="CQ41" s="1"/>
+      <c r="CR41" s="1"/>
+      <c r="CS41" s="1"/>
+      <c r="CT41" s="1"/>
+      <c r="CU41" s="1"/>
     </row>
     <row r="42" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
@@ -29600,11 +29585,12 @@
       <c r="CM42" s="1"/>
       <c r="CN42" s="1"/>
       <c r="CO42" s="1"/>
-      <c r="CP42" s="24"/>
-      <c r="CQ42" s="24"/>
-      <c r="CR42" s="24"/>
-      <c r="CS42" s="24"/>
-      <c r="CT42" s="24"/>
+      <c r="CP42" s="1"/>
+      <c r="CQ42" s="1"/>
+      <c r="CR42" s="1"/>
+      <c r="CS42" s="1"/>
+      <c r="CT42" s="1"/>
+      <c r="CU42" s="1"/>
     </row>
     <row r="43" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -29702,15 +29688,16 @@
       <c r="CM43" s="1"/>
       <c r="CN43" s="1"/>
       <c r="CO43" s="1"/>
-      <c r="CP43" s="24"/>
-      <c r="CQ43" s="24"/>
-      <c r="CR43" s="24"/>
-      <c r="CS43" s="24"/>
-      <c r="CT43" s="24"/>
+      <c r="CP43" s="1"/>
+      <c r="CQ43" s="1"/>
+      <c r="CR43" s="1"/>
+      <c r="CS43" s="1"/>
+      <c r="CT43" s="1"/>
+      <c r="CU43" s="1"/>
     </row>
     <row r="44" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -29804,11 +29791,12 @@
       <c r="CM44" s="1"/>
       <c r="CN44" s="1"/>
       <c r="CO44" s="1"/>
-      <c r="CP44" s="24"/>
-      <c r="CQ44" s="24"/>
-      <c r="CR44" s="24"/>
-      <c r="CS44" s="24"/>
-      <c r="CT44" s="24"/>
+      <c r="CP44" s="1"/>
+      <c r="CQ44" s="1"/>
+      <c r="CR44" s="1"/>
+      <c r="CS44" s="1"/>
+      <c r="CT44" s="1"/>
+      <c r="CU44" s="1"/>
     </row>
     <row r="45" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -29894,11 +29882,6 @@
       <c r="CA45" s="1"/>
       <c r="CB45" s="1"/>
       <c r="CC45" s="1"/>
-      <c r="CP45" s="23"/>
-      <c r="CQ45" s="23"/>
-      <c r="CR45" s="23"/>
-      <c r="CS45" s="23"/>
-      <c r="CT45" s="23"/>
     </row>
     <row r="46" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
@@ -29994,140 +29977,141 @@
       <c r="CM46" s="1"/>
       <c r="CN46" s="1"/>
       <c r="CO46" s="1"/>
-      <c r="CP46" s="24"/>
-      <c r="CQ46" s="24"/>
-      <c r="CR46" s="24"/>
-      <c r="CS46" s="24"/>
-      <c r="CT46" s="24"/>
+      <c r="CP46" s="1"/>
+      <c r="CQ46" s="1"/>
+      <c r="CR46" s="1"/>
+      <c r="CS46" s="1"/>
+      <c r="CT46" s="1"/>
+      <c r="CU46" s="1"/>
     </row>
     <row r="47" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35" t="s">
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35" t="s">
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="35"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="35"/>
-      <c r="N47" s="35" t="s">
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="35"/>
-      <c r="P47" s="35"/>
-      <c r="Q47" s="35"/>
-      <c r="R47" s="35" t="s">
+      <c r="O47" s="23"/>
+      <c r="P47" s="23"/>
+      <c r="Q47" s="23"/>
+      <c r="R47" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="35"/>
-      <c r="T47" s="35"/>
-      <c r="U47" s="35"/>
-      <c r="V47" s="35" t="s">
+      <c r="S47" s="23"/>
+      <c r="T47" s="23"/>
+      <c r="U47" s="23"/>
+      <c r="V47" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="35"/>
-      <c r="X47" s="35"/>
-      <c r="Y47" s="35"/>
-      <c r="Z47" s="35" t="s">
+      <c r="W47" s="23"/>
+      <c r="X47" s="23"/>
+      <c r="Y47" s="23"/>
+      <c r="Z47" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="35"/>
-      <c r="AB47" s="35"/>
-      <c r="AC47" s="35"/>
-      <c r="AD47" s="35" t="s">
+      <c r="AA47" s="23"/>
+      <c r="AB47" s="23"/>
+      <c r="AC47" s="23"/>
+      <c r="AD47" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="35"/>
-      <c r="AF47" s="35"/>
-      <c r="AG47" s="35"/>
-      <c r="AH47" s="35" t="s">
+      <c r="AE47" s="23"/>
+      <c r="AF47" s="23"/>
+      <c r="AG47" s="23"/>
+      <c r="AH47" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="35"/>
-      <c r="AJ47" s="35"/>
-      <c r="AK47" s="35"/>
-      <c r="AL47" s="35" t="s">
+      <c r="AI47" s="23"/>
+      <c r="AJ47" s="23"/>
+      <c r="AK47" s="23"/>
+      <c r="AL47" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="35"/>
-      <c r="AN47" s="35"/>
-      <c r="AO47" s="35"/>
-      <c r="AP47" s="35" t="s">
+      <c r="AM47" s="23"/>
+      <c r="AN47" s="23"/>
+      <c r="AO47" s="23"/>
+      <c r="AP47" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="35"/>
-      <c r="AR47" s="35"/>
-      <c r="AS47" s="35"/>
-      <c r="AT47" s="35" t="s">
+      <c r="AQ47" s="23"/>
+      <c r="AR47" s="23"/>
+      <c r="AS47" s="23"/>
+      <c r="AT47" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="35"/>
-      <c r="AV47" s="35"/>
-      <c r="AW47" s="35"/>
-      <c r="AX47" s="35" t="s">
+      <c r="AU47" s="23"/>
+      <c r="AV47" s="23"/>
+      <c r="AW47" s="23"/>
+      <c r="AX47" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="35"/>
-      <c r="AZ47" s="35"/>
-      <c r="BA47" s="35"/>
-      <c r="BB47" s="35" t="s">
+      <c r="AY47" s="23"/>
+      <c r="AZ47" s="23"/>
+      <c r="BA47" s="23"/>
+      <c r="BB47" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="35"/>
-      <c r="BD47" s="35"/>
-      <c r="BE47" s="35"/>
-      <c r="BF47" s="35" t="s">
+      <c r="BC47" s="23"/>
+      <c r="BD47" s="23"/>
+      <c r="BE47" s="23"/>
+      <c r="BF47" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="35"/>
-      <c r="BH47" s="35"/>
-      <c r="BI47" s="35"/>
-      <c r="BJ47" s="35" t="s">
+      <c r="BG47" s="23"/>
+      <c r="BH47" s="23"/>
+      <c r="BI47" s="23"/>
+      <c r="BJ47" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="35"/>
-      <c r="BL47" s="35"/>
-      <c r="BM47" s="35"/>
-      <c r="BN47" s="35" t="s">
+      <c r="BK47" s="23"/>
+      <c r="BL47" s="23"/>
+      <c r="BM47" s="23"/>
+      <c r="BN47" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="35"/>
-      <c r="BP47" s="35"/>
-      <c r="BQ47" s="35"/>
-      <c r="BR47" s="35" t="s">
+      <c r="BO47" s="23"/>
+      <c r="BP47" s="23"/>
+      <c r="BQ47" s="23"/>
+      <c r="BR47" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="BS47" s="35"/>
-      <c r="BT47" s="35"/>
-      <c r="BU47" s="35"/>
-      <c r="BV47" s="35" t="s">
+      <c r="BS47" s="23"/>
+      <c r="BT47" s="23"/>
+      <c r="BU47" s="23"/>
+      <c r="BV47" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="BW47" s="35"/>
-      <c r="BX47" s="35"/>
-      <c r="BY47" s="35"/>
-      <c r="BZ47" s="35" t="s">
+      <c r="BW47" s="23"/>
+      <c r="BX47" s="23"/>
+      <c r="BY47" s="23"/>
+      <c r="BZ47" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="35"/>
-      <c r="CB47" s="35"/>
-      <c r="CC47" s="35"/>
-      <c r="CD47" s="35" t="s">
+      <c r="CA47" s="23"/>
+      <c r="CB47" s="23"/>
+      <c r="CC47" s="23"/>
+      <c r="CD47" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="35"/>
-      <c r="CF47" s="35"/>
-      <c r="CG47" s="35"/>
+      <c r="CE47" s="23"/>
+      <c r="CF47" s="23"/>
+      <c r="CG47" s="23"/>
       <c r="CH47" s="21" t="s">
         <v>47</v>
       </c>
@@ -30140,13 +30124,14 @@
       <c r="CM47" s="21"/>
       <c r="CN47" s="21"/>
       <c r="CO47" s="21"/>
-      <c r="CP47" s="25" t="s">
+      <c r="CP47" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="CQ47" s="22"/>
+      <c r="CQ47" s="21"/>
       <c r="CR47" s="22"/>
       <c r="CS47" s="22"/>
-      <c r="CT47" s="22"/>
+      <c r="CT47" s="21"/>
+      <c r="CU47" s="22"/>
     </row>
     <row r="48" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
@@ -30428,13 +30413,16 @@
       <c r="CO48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP48" s="31" t="s">
+      <c r="CP48" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ48" s="31"/>
-      <c r="CR48" s="31"/>
-      <c r="CS48" s="31"/>
-      <c r="CT48" s="31"/>
+      <c r="CQ48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="CR48" s="6"/>
+      <c r="CS48" s="6"/>
+      <c r="CT48" s="6"/>
+      <c r="CU48" s="6"/>
     </row>
     <row r="49" spans="1:151" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
@@ -30530,11 +30518,12 @@
       <c r="CM49" s="1"/>
       <c r="CN49" s="1"/>
       <c r="CO49" s="1"/>
-      <c r="CP49" s="24"/>
-      <c r="CQ49" s="24"/>
-      <c r="CR49" s="24"/>
-      <c r="CS49" s="24"/>
-      <c r="CT49" s="24"/>
+      <c r="CP49" s="1"/>
+      <c r="CQ49" s="1"/>
+      <c r="CR49" s="1"/>
+      <c r="CS49" s="1"/>
+      <c r="CT49" s="1"/>
+      <c r="CU49" s="1"/>
     </row>
     <row r="50" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
@@ -30816,14 +30805,16 @@
       <c r="CO50" s="18">
         <v>16.30210231685237</v>
       </c>
-      <c r="CP50" s="32">
-        <v>11.234401483774946</v>
-      </c>
-      <c r="CQ50" s="32"/>
-      <c r="CR50" s="32"/>
-      <c r="CS50" s="32"/>
-      <c r="CT50" s="32"/>
-      <c r="CU50" s="11"/>
+      <c r="CP50" s="18">
+        <v>10.715156538279786</v>
+      </c>
+      <c r="CQ50" s="18">
+        <v>15.404673078372994</v>
+      </c>
+      <c r="CR50" s="18"/>
+      <c r="CS50" s="18"/>
+      <c r="CT50" s="18"/>
+      <c r="CU50" s="18"/>
       <c r="CV50" s="11"/>
       <c r="CW50" s="11"/>
       <c r="CX50" s="11"/>
@@ -31157,14 +31148,16 @@
       <c r="CO51" s="18">
         <v>21.822622180479215</v>
       </c>
-      <c r="CP51" s="32">
-        <v>16.798839714617358</v>
-      </c>
-      <c r="CQ51" s="32"/>
-      <c r="CR51" s="32"/>
-      <c r="CS51" s="32"/>
-      <c r="CT51" s="32"/>
-      <c r="CU51" s="11"/>
+      <c r="CP51" s="18">
+        <v>18.794194406177283</v>
+      </c>
+      <c r="CQ51" s="18">
+        <v>14.281352320628145</v>
+      </c>
+      <c r="CR51" s="18"/>
+      <c r="CS51" s="18"/>
+      <c r="CT51" s="18"/>
+      <c r="CU51" s="18"/>
       <c r="CV51" s="11"/>
       <c r="CW51" s="11"/>
       <c r="CX51" s="11"/>
@@ -31312,12 +31305,12 @@
       <c r="CM52" s="17"/>
       <c r="CN52" s="17"/>
       <c r="CO52" s="17"/>
-      <c r="CP52" s="30"/>
-      <c r="CQ52" s="30"/>
-      <c r="CR52" s="30"/>
-      <c r="CS52" s="30"/>
-      <c r="CT52" s="30"/>
-      <c r="CU52" s="11"/>
+      <c r="CP52" s="17"/>
+      <c r="CQ52" s="17"/>
+      <c r="CR52" s="17"/>
+      <c r="CS52" s="17"/>
+      <c r="CT52" s="17"/>
+      <c r="CU52" s="17"/>
       <c r="CV52" s="11"/>
       <c r="CW52" s="11"/>
       <c r="CX52" s="11"/>
@@ -31651,14 +31644,16 @@
       <c r="CO53" s="18">
         <v>18.37793626343705</v>
       </c>
-      <c r="CP53" s="32">
-        <v>13.732478246640383</v>
-      </c>
-      <c r="CQ53" s="32"/>
-      <c r="CR53" s="32"/>
-      <c r="CS53" s="32"/>
-      <c r="CT53" s="32"/>
-      <c r="CU53" s="11"/>
+      <c r="CP53" s="18">
+        <v>14.342127658606074</v>
+      </c>
+      <c r="CQ53" s="18">
+        <v>14.953205751407467</v>
+      </c>
+      <c r="CR53" s="18"/>
+      <c r="CS53" s="18"/>
+      <c r="CT53" s="18"/>
+      <c r="CU53" s="18"/>
       <c r="CV53" s="11"/>
       <c r="CW53" s="11"/>
       <c r="CX53" s="11"/>
@@ -31806,11 +31801,12 @@
       <c r="CM54" s="15"/>
       <c r="CN54" s="15"/>
       <c r="CO54" s="15"/>
-      <c r="CP54" s="29"/>
-      <c r="CQ54" s="29"/>
-      <c r="CR54" s="29"/>
-      <c r="CS54" s="29"/>
-      <c r="CT54" s="29"/>
+      <c r="CP54" s="15"/>
+      <c r="CQ54" s="15"/>
+      <c r="CR54" s="15"/>
+      <c r="CS54" s="15"/>
+      <c r="CT54" s="15"/>
+      <c r="CU54" s="15"/>
     </row>
     <row r="55" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
@@ -31908,11 +31904,12 @@
       <c r="CM55" s="1"/>
       <c r="CN55" s="1"/>
       <c r="CO55" s="1"/>
-      <c r="CP55" s="24"/>
-      <c r="CQ55" s="24"/>
-      <c r="CR55" s="24"/>
-      <c r="CS55" s="24"/>
-      <c r="CT55" s="24"/>
+      <c r="CP55" s="1"/>
+      <c r="CQ55" s="1"/>
+      <c r="CR55" s="1"/>
+      <c r="CS55" s="1"/>
+      <c r="CT55" s="1"/>
+      <c r="CU55" s="1"/>
     </row>
     <row r="56" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="17"/>
@@ -32007,12 +32004,12 @@
       <c r="CM56" s="17"/>
       <c r="CN56" s="17"/>
       <c r="CO56" s="17"/>
-      <c r="CP56" s="30"/>
-      <c r="CQ56" s="30"/>
-      <c r="CR56" s="30"/>
-      <c r="CS56" s="30"/>
-      <c r="CT56" s="30"/>
-      <c r="CU56" s="11"/>
+      <c r="CP56" s="17"/>
+      <c r="CQ56" s="17"/>
+      <c r="CR56" s="17"/>
+      <c r="CS56" s="17"/>
+      <c r="CT56" s="17"/>
+      <c r="CU56" s="17"/>
       <c r="CV56" s="11"/>
       <c r="CW56" s="11"/>
       <c r="CX56" s="11"/>
@@ -32159,12 +32156,12 @@
       <c r="CM57" s="17"/>
       <c r="CN57" s="17"/>
       <c r="CO57" s="17"/>
-      <c r="CP57" s="30"/>
-      <c r="CQ57" s="30"/>
-      <c r="CR57" s="30"/>
-      <c r="CS57" s="30"/>
-      <c r="CT57" s="30"/>
-      <c r="CU57" s="11"/>
+      <c r="CP57" s="17"/>
+      <c r="CQ57" s="17"/>
+      <c r="CR57" s="17"/>
+      <c r="CS57" s="17"/>
+      <c r="CT57" s="17"/>
+      <c r="CU57" s="17"/>
       <c r="CV57" s="11"/>
       <c r="CW57" s="11"/>
       <c r="CX57" s="11"/>
@@ -32314,11 +32311,12 @@
       <c r="CM58" s="1"/>
       <c r="CN58" s="1"/>
       <c r="CO58" s="1"/>
-      <c r="CP58" s="24"/>
-      <c r="CQ58" s="24"/>
-      <c r="CR58" s="24"/>
-      <c r="CS58" s="24"/>
-      <c r="CT58" s="24"/>
+      <c r="CP58" s="1"/>
+      <c r="CQ58" s="1"/>
+      <c r="CR58" s="1"/>
+      <c r="CS58" s="1"/>
+      <c r="CT58" s="1"/>
+      <c r="CU58" s="1"/>
     </row>
     <row r="59" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -32416,15 +32414,16 @@
       <c r="CM59" s="1"/>
       <c r="CN59" s="1"/>
       <c r="CO59" s="1"/>
-      <c r="CP59" s="24"/>
-      <c r="CQ59" s="24"/>
-      <c r="CR59" s="24"/>
-      <c r="CS59" s="24"/>
-      <c r="CT59" s="24"/>
+      <c r="CP59" s="1"/>
+      <c r="CQ59" s="1"/>
+      <c r="CR59" s="1"/>
+      <c r="CS59" s="1"/>
+      <c r="CT59" s="1"/>
+      <c r="CU59" s="1"/>
     </row>
     <row r="60" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -32518,11 +32517,12 @@
       <c r="CM60" s="1"/>
       <c r="CN60" s="1"/>
       <c r="CO60" s="1"/>
-      <c r="CP60" s="24"/>
-      <c r="CQ60" s="24"/>
-      <c r="CR60" s="24"/>
-      <c r="CS60" s="24"/>
-      <c r="CT60" s="24"/>
+      <c r="CP60" s="1"/>
+      <c r="CQ60" s="1"/>
+      <c r="CR60" s="1"/>
+      <c r="CS60" s="1"/>
+      <c r="CT60" s="1"/>
+      <c r="CU60" s="1"/>
     </row>
     <row r="61" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
@@ -32618,11 +32618,12 @@
       <c r="CM61" s="1"/>
       <c r="CN61" s="1"/>
       <c r="CO61" s="1"/>
-      <c r="CP61" s="24"/>
-      <c r="CQ61" s="24"/>
-      <c r="CR61" s="24"/>
-      <c r="CS61" s="24"/>
-      <c r="CT61" s="24"/>
+      <c r="CP61" s="1"/>
+      <c r="CQ61" s="1"/>
+      <c r="CR61" s="1"/>
+      <c r="CS61" s="1"/>
+      <c r="CT61" s="1"/>
+      <c r="CU61" s="1"/>
     </row>
     <row r="62" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -32720,15 +32721,16 @@
       <c r="CM62" s="1"/>
       <c r="CN62" s="1"/>
       <c r="CO62" s="1"/>
-      <c r="CP62" s="24"/>
-      <c r="CQ62" s="24"/>
-      <c r="CR62" s="24"/>
-      <c r="CS62" s="24"/>
-      <c r="CT62" s="24"/>
+      <c r="CP62" s="1"/>
+      <c r="CQ62" s="1"/>
+      <c r="CR62" s="1"/>
+      <c r="CS62" s="1"/>
+      <c r="CT62" s="1"/>
+      <c r="CU62" s="1"/>
     </row>
     <row r="63" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -32822,11 +32824,12 @@
       <c r="CM63" s="1"/>
       <c r="CN63" s="1"/>
       <c r="CO63" s="1"/>
-      <c r="CP63" s="24"/>
-      <c r="CQ63" s="24"/>
-      <c r="CR63" s="24"/>
-      <c r="CS63" s="24"/>
-      <c r="CT63" s="24"/>
+      <c r="CP63" s="1"/>
+      <c r="CQ63" s="1"/>
+      <c r="CR63" s="1"/>
+      <c r="CS63" s="1"/>
+      <c r="CT63" s="1"/>
+      <c r="CU63" s="1"/>
     </row>
     <row r="64" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
@@ -32924,11 +32927,12 @@
       <c r="CM64" s="1"/>
       <c r="CN64" s="1"/>
       <c r="CO64" s="1"/>
-      <c r="CP64" s="24"/>
-      <c r="CQ64" s="24"/>
-      <c r="CR64" s="24"/>
-      <c r="CS64" s="24"/>
-      <c r="CT64" s="24"/>
+      <c r="CP64" s="1"/>
+      <c r="CQ64" s="1"/>
+      <c r="CR64" s="1"/>
+      <c r="CS64" s="1"/>
+      <c r="CT64" s="1"/>
+      <c r="CU64" s="1"/>
     </row>
     <row r="65" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
@@ -33024,140 +33028,141 @@
       <c r="CM65" s="1"/>
       <c r="CN65" s="1"/>
       <c r="CO65" s="1"/>
-      <c r="CP65" s="24"/>
-      <c r="CQ65" s="24"/>
-      <c r="CR65" s="24"/>
-      <c r="CS65" s="24"/>
-      <c r="CT65" s="24"/>
+      <c r="CP65" s="1"/>
+      <c r="CQ65" s="1"/>
+      <c r="CR65" s="1"/>
+      <c r="CS65" s="1"/>
+      <c r="CT65" s="1"/>
+      <c r="CU65" s="1"/>
     </row>
     <row r="66" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
-      <c r="B66" s="35" t="s">
+      <c r="B66" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="37"/>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="35" t="s">
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="35" t="s">
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="37"/>
-      <c r="L66" s="37"/>
-      <c r="M66" s="37"/>
-      <c r="N66" s="35" t="s">
+      <c r="K66" s="25"/>
+      <c r="L66" s="25"/>
+      <c r="M66" s="25"/>
+      <c r="N66" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="37"/>
-      <c r="P66" s="37"/>
-      <c r="Q66" s="37"/>
-      <c r="R66" s="35" t="s">
+      <c r="O66" s="25"/>
+      <c r="P66" s="25"/>
+      <c r="Q66" s="25"/>
+      <c r="R66" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="37"/>
-      <c r="T66" s="37"/>
-      <c r="U66" s="37"/>
-      <c r="V66" s="35" t="s">
+      <c r="S66" s="25"/>
+      <c r="T66" s="25"/>
+      <c r="U66" s="25"/>
+      <c r="V66" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="37"/>
-      <c r="X66" s="37"/>
-      <c r="Y66" s="37"/>
-      <c r="Z66" s="35" t="s">
+      <c r="W66" s="25"/>
+      <c r="X66" s="25"/>
+      <c r="Y66" s="25"/>
+      <c r="Z66" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="37"/>
-      <c r="AB66" s="37"/>
-      <c r="AC66" s="37"/>
-      <c r="AD66" s="35" t="s">
+      <c r="AA66" s="25"/>
+      <c r="AB66" s="25"/>
+      <c r="AC66" s="25"/>
+      <c r="AD66" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="37"/>
-      <c r="AF66" s="37"/>
-      <c r="AG66" s="37"/>
-      <c r="AH66" s="35" t="s">
+      <c r="AE66" s="25"/>
+      <c r="AF66" s="25"/>
+      <c r="AG66" s="25"/>
+      <c r="AH66" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="37"/>
-      <c r="AJ66" s="37"/>
-      <c r="AK66" s="37"/>
-      <c r="AL66" s="35" t="s">
+      <c r="AI66" s="25"/>
+      <c r="AJ66" s="25"/>
+      <c r="AK66" s="25"/>
+      <c r="AL66" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="37"/>
-      <c r="AN66" s="37"/>
-      <c r="AO66" s="37"/>
-      <c r="AP66" s="35" t="s">
+      <c r="AM66" s="25"/>
+      <c r="AN66" s="25"/>
+      <c r="AO66" s="25"/>
+      <c r="AP66" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="37"/>
-      <c r="AR66" s="37"/>
-      <c r="AS66" s="37"/>
-      <c r="AT66" s="35" t="s">
+      <c r="AQ66" s="25"/>
+      <c r="AR66" s="25"/>
+      <c r="AS66" s="25"/>
+      <c r="AT66" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="37"/>
-      <c r="AV66" s="37"/>
-      <c r="AW66" s="37"/>
-      <c r="AX66" s="35" t="s">
+      <c r="AU66" s="25"/>
+      <c r="AV66" s="25"/>
+      <c r="AW66" s="25"/>
+      <c r="AX66" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="37"/>
-      <c r="AZ66" s="37"/>
-      <c r="BA66" s="37"/>
-      <c r="BB66" s="35" t="s">
+      <c r="AY66" s="25"/>
+      <c r="AZ66" s="25"/>
+      <c r="BA66" s="25"/>
+      <c r="BB66" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="37"/>
-      <c r="BD66" s="37"/>
-      <c r="BE66" s="37"/>
-      <c r="BF66" s="35" t="s">
+      <c r="BC66" s="25"/>
+      <c r="BD66" s="25"/>
+      <c r="BE66" s="25"/>
+      <c r="BF66" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="37"/>
-      <c r="BH66" s="37"/>
-      <c r="BI66" s="37"/>
-      <c r="BJ66" s="35" t="s">
+      <c r="BG66" s="25"/>
+      <c r="BH66" s="25"/>
+      <c r="BI66" s="25"/>
+      <c r="BJ66" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="37"/>
-      <c r="BL66" s="37"/>
-      <c r="BM66" s="37"/>
-      <c r="BN66" s="35" t="s">
+      <c r="BK66" s="25"/>
+      <c r="BL66" s="25"/>
+      <c r="BM66" s="25"/>
+      <c r="BN66" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="37"/>
-      <c r="BP66" s="37"/>
-      <c r="BQ66" s="37"/>
-      <c r="BR66" s="35" t="s">
+      <c r="BO66" s="25"/>
+      <c r="BP66" s="25"/>
+      <c r="BQ66" s="25"/>
+      <c r="BR66" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="37"/>
-      <c r="BT66" s="37"/>
-      <c r="BU66" s="37"/>
-      <c r="BV66" s="35" t="s">
+      <c r="BS66" s="25"/>
+      <c r="BT66" s="25"/>
+      <c r="BU66" s="25"/>
+      <c r="BV66" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="BW66" s="35"/>
-      <c r="BX66" s="35"/>
-      <c r="BY66" s="35"/>
-      <c r="BZ66" s="35" t="s">
+      <c r="BW66" s="23"/>
+      <c r="BX66" s="23"/>
+      <c r="BY66" s="23"/>
+      <c r="BZ66" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="35"/>
-      <c r="CB66" s="35"/>
-      <c r="CC66" s="35"/>
-      <c r="CD66" s="35" t="s">
+      <c r="CA66" s="23"/>
+      <c r="CB66" s="23"/>
+      <c r="CC66" s="23"/>
+      <c r="CD66" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="35"/>
-      <c r="CF66" s="35"/>
-      <c r="CG66" s="35"/>
+      <c r="CE66" s="23"/>
+      <c r="CF66" s="23"/>
+      <c r="CG66" s="23"/>
       <c r="CH66" s="21" t="s">
         <v>47</v>
       </c>
@@ -33170,13 +33175,14 @@
       <c r="CM66" s="21"/>
       <c r="CN66" s="21"/>
       <c r="CO66" s="21"/>
-      <c r="CP66" s="25" t="s">
+      <c r="CP66" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="CQ66" s="22"/>
+      <c r="CQ66" s="21"/>
       <c r="CR66" s="22"/>
       <c r="CS66" s="22"/>
-      <c r="CT66" s="22"/>
+      <c r="CT66" s="21"/>
+      <c r="CU66" s="22"/>
     </row>
     <row r="67" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
@@ -33458,13 +33464,16 @@
       <c r="CO67" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP67" s="31" t="s">
+      <c r="CP67" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ67" s="31"/>
-      <c r="CR67" s="31"/>
-      <c r="CS67" s="31"/>
-      <c r="CT67" s="31"/>
+      <c r="CQ67" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="CR67" s="6"/>
+      <c r="CS67" s="6"/>
+      <c r="CT67" s="6"/>
+      <c r="CU67" s="6"/>
     </row>
     <row r="68" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
@@ -33560,11 +33569,12 @@
       <c r="CM68" s="1"/>
       <c r="CN68" s="1"/>
       <c r="CO68" s="1"/>
-      <c r="CP68" s="24"/>
-      <c r="CQ68" s="24"/>
-      <c r="CR68" s="24"/>
-      <c r="CS68" s="24"/>
-      <c r="CT68" s="24"/>
+      <c r="CP68" s="1"/>
+      <c r="CQ68" s="1"/>
+      <c r="CR68" s="1"/>
+      <c r="CS68" s="1"/>
+      <c r="CT68" s="1"/>
+      <c r="CU68" s="1"/>
     </row>
     <row r="69" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
@@ -33846,14 +33856,16 @@
       <c r="CO69" s="18">
         <v>10.532506565542988</v>
       </c>
-      <c r="CP69" s="32">
-        <v>6.6249208065925558</v>
-      </c>
-      <c r="CQ69" s="32"/>
-      <c r="CR69" s="32"/>
-      <c r="CS69" s="32"/>
-      <c r="CT69" s="32"/>
-      <c r="CU69" s="11"/>
+      <c r="CP69" s="18">
+        <v>6.1271930312449427</v>
+      </c>
+      <c r="CQ69" s="18">
+        <v>10.981805607850362</v>
+      </c>
+      <c r="CR69" s="18"/>
+      <c r="CS69" s="18"/>
+      <c r="CT69" s="18"/>
+      <c r="CU69" s="18"/>
       <c r="CV69" s="11"/>
       <c r="CW69" s="11"/>
       <c r="CX69" s="11"/>
@@ -34187,14 +34199,16 @@
       <c r="CO70" s="18">
         <v>13.483136667061672</v>
       </c>
-      <c r="CP70" s="32">
-        <v>11.083756254592132</v>
-      </c>
-      <c r="CQ70" s="32"/>
-      <c r="CR70" s="32"/>
-      <c r="CS70" s="32"/>
-      <c r="CT70" s="32"/>
-      <c r="CU70" s="11"/>
+      <c r="CP70" s="18">
+        <v>12.974432603757705</v>
+      </c>
+      <c r="CQ70" s="18">
+        <v>9.7987570026243134</v>
+      </c>
+      <c r="CR70" s="18"/>
+      <c r="CS70" s="18"/>
+      <c r="CT70" s="18"/>
+      <c r="CU70" s="18"/>
       <c r="CV70" s="11"/>
       <c r="CW70" s="11"/>
       <c r="CX70" s="11"/>
@@ -34341,12 +34355,12 @@
       <c r="CM71" s="17"/>
       <c r="CN71" s="17"/>
       <c r="CO71" s="17"/>
-      <c r="CP71" s="30"/>
-      <c r="CQ71" s="30"/>
-      <c r="CR71" s="30"/>
-      <c r="CS71" s="30"/>
-      <c r="CT71" s="30"/>
-      <c r="CU71" s="11"/>
+      <c r="CP71" s="17"/>
+      <c r="CQ71" s="17"/>
+      <c r="CR71" s="17"/>
+      <c r="CS71" s="17"/>
+      <c r="CT71" s="17"/>
+      <c r="CU71" s="17"/>
       <c r="CV71" s="11"/>
       <c r="CW71" s="11"/>
       <c r="CX71" s="11"/>
@@ -34680,14 +34694,16 @@
       <c r="CO72" s="18">
         <v>11.607867027039021</v>
       </c>
-      <c r="CP72" s="32">
-        <v>8.5204471537692967</v>
-      </c>
-      <c r="CQ72" s="32"/>
-      <c r="CR72" s="32"/>
-      <c r="CS72" s="32"/>
-      <c r="CT72" s="32"/>
-      <c r="CU72" s="11"/>
+      <c r="CP72" s="18">
+        <v>9.0380703593042426</v>
+      </c>
+      <c r="CQ72" s="18">
+        <v>10.5257192502972</v>
+      </c>
+      <c r="CR72" s="18"/>
+      <c r="CS72" s="18"/>
+      <c r="CT72" s="18"/>
+      <c r="CU72" s="18"/>
       <c r="CV72" s="11"/>
       <c r="CW72" s="11"/>
       <c r="CX72" s="11"/>
@@ -34835,11 +34851,12 @@
       <c r="CM73" s="15"/>
       <c r="CN73" s="15"/>
       <c r="CO73" s="15"/>
-      <c r="CP73" s="29"/>
-      <c r="CQ73" s="29"/>
-      <c r="CR73" s="29"/>
-      <c r="CS73" s="29"/>
-      <c r="CT73" s="29"/>
+      <c r="CP73" s="15"/>
+      <c r="CQ73" s="15"/>
+      <c r="CR73" s="15"/>
+      <c r="CS73" s="15"/>
+      <c r="CT73" s="15"/>
+      <c r="CU73" s="15"/>
     </row>
     <row r="74" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
@@ -34937,11 +34954,12 @@
       <c r="CM74" s="1"/>
       <c r="CN74" s="1"/>
       <c r="CO74" s="1"/>
-      <c r="CP74" s="24"/>
-      <c r="CQ74" s="24"/>
-      <c r="CR74" s="24"/>
-      <c r="CS74" s="24"/>
-      <c r="CT74" s="24"/>
+      <c r="CP74" s="1"/>
+      <c r="CQ74" s="1"/>
+      <c r="CR74" s="1"/>
+      <c r="CS74" s="1"/>
+      <c r="CT74" s="1"/>
+      <c r="CU74" s="1"/>
     </row>
     <row r="75" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="17"/>
@@ -35036,11 +35054,11 @@
       <c r="CM75" s="11"/>
       <c r="CN75" s="11"/>
       <c r="CO75" s="11"/>
-      <c r="CP75" s="33"/>
-      <c r="CQ75" s="33"/>
-      <c r="CR75" s="33"/>
-      <c r="CS75" s="33"/>
-      <c r="CT75" s="33"/>
+      <c r="CP75" s="11"/>
+      <c r="CQ75" s="11"/>
+      <c r="CR75" s="11"/>
+      <c r="CS75" s="11"/>
+      <c r="CT75" s="11"/>
       <c r="CU75" s="11"/>
       <c r="CV75" s="11"/>
       <c r="CW75" s="11"/>
@@ -35188,12 +35206,12 @@
       <c r="CM76" s="17"/>
       <c r="CN76" s="17"/>
       <c r="CO76" s="17"/>
-      <c r="CP76" s="30"/>
-      <c r="CQ76" s="30"/>
-      <c r="CR76" s="30"/>
-      <c r="CS76" s="30"/>
-      <c r="CT76" s="30"/>
-      <c r="CU76" s="11"/>
+      <c r="CP76" s="17"/>
+      <c r="CQ76" s="17"/>
+      <c r="CR76" s="17"/>
+      <c r="CS76" s="17"/>
+      <c r="CT76" s="17"/>
+      <c r="CU76" s="17"/>
       <c r="CV76" s="11"/>
       <c r="CW76" s="11"/>
       <c r="CX76" s="11"/>
@@ -35347,15 +35365,16 @@
       <c r="CM77" s="1"/>
       <c r="CN77" s="1"/>
       <c r="CO77" s="1"/>
-      <c r="CP77" s="24"/>
-      <c r="CQ77" s="24"/>
-      <c r="CR77" s="24"/>
-      <c r="CS77" s="24"/>
-      <c r="CT77" s="24"/>
+      <c r="CP77" s="1"/>
+      <c r="CQ77" s="1"/>
+      <c r="CR77" s="1"/>
+      <c r="CS77" s="1"/>
+      <c r="CT77" s="1"/>
+      <c r="CU77" s="1"/>
     </row>
     <row r="78" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -35449,11 +35468,12 @@
       <c r="CM78" s="1"/>
       <c r="CN78" s="1"/>
       <c r="CO78" s="1"/>
-      <c r="CP78" s="24"/>
-      <c r="CQ78" s="24"/>
-      <c r="CR78" s="24"/>
-      <c r="CS78" s="24"/>
-      <c r="CT78" s="24"/>
+      <c r="CP78" s="1"/>
+      <c r="CQ78" s="1"/>
+      <c r="CR78" s="1"/>
+      <c r="CS78" s="1"/>
+      <c r="CT78" s="1"/>
+      <c r="CU78" s="1"/>
     </row>
     <row r="79" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
@@ -35549,11 +35569,12 @@
       <c r="CM79" s="1"/>
       <c r="CN79" s="1"/>
       <c r="CO79" s="1"/>
-      <c r="CP79" s="24"/>
-      <c r="CQ79" s="24"/>
-      <c r="CR79" s="24"/>
-      <c r="CS79" s="24"/>
-      <c r="CT79" s="24"/>
+      <c r="CP79" s="1"/>
+      <c r="CQ79" s="1"/>
+      <c r="CR79" s="1"/>
+      <c r="CS79" s="1"/>
+      <c r="CT79" s="1"/>
+      <c r="CU79" s="1"/>
     </row>
     <row r="80" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
@@ -35651,15 +35672,16 @@
       <c r="CM80" s="1"/>
       <c r="CN80" s="1"/>
       <c r="CO80" s="1"/>
-      <c r="CP80" s="24"/>
-      <c r="CQ80" s="24"/>
-      <c r="CR80" s="24"/>
-      <c r="CS80" s="24"/>
-      <c r="CT80" s="24"/>
+      <c r="CP80" s="1"/>
+      <c r="CQ80" s="1"/>
+      <c r="CR80" s="1"/>
+      <c r="CS80" s="1"/>
+      <c r="CT80" s="1"/>
+      <c r="CU80" s="1"/>
     </row>
     <row r="81" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -35753,11 +35775,12 @@
       <c r="CM81" s="1"/>
       <c r="CN81" s="1"/>
       <c r="CO81" s="1"/>
-      <c r="CP81" s="24"/>
-      <c r="CQ81" s="24"/>
-      <c r="CR81" s="24"/>
-      <c r="CS81" s="24"/>
-      <c r="CT81" s="24"/>
+      <c r="CP81" s="1"/>
+      <c r="CQ81" s="1"/>
+      <c r="CR81" s="1"/>
+      <c r="CS81" s="1"/>
+      <c r="CT81" s="1"/>
+      <c r="CU81" s="1"/>
     </row>
     <row r="82" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
@@ -35855,11 +35878,12 @@
       <c r="CM82" s="1"/>
       <c r="CN82" s="1"/>
       <c r="CO82" s="1"/>
-      <c r="CP82" s="24"/>
-      <c r="CQ82" s="24"/>
-      <c r="CR82" s="24"/>
-      <c r="CS82" s="24"/>
-      <c r="CT82" s="24"/>
+      <c r="CP82" s="1"/>
+      <c r="CQ82" s="1"/>
+      <c r="CR82" s="1"/>
+      <c r="CS82" s="1"/>
+      <c r="CT82" s="1"/>
+      <c r="CU82" s="1"/>
     </row>
     <row r="83" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
@@ -35955,140 +35979,141 @@
       <c r="CM83" s="1"/>
       <c r="CN83" s="1"/>
       <c r="CO83" s="1"/>
-      <c r="CP83" s="24"/>
-      <c r="CQ83" s="24"/>
-      <c r="CR83" s="24"/>
-      <c r="CS83" s="24"/>
-      <c r="CT83" s="24"/>
+      <c r="CP83" s="1"/>
+      <c r="CQ83" s="1"/>
+      <c r="CR83" s="1"/>
+      <c r="CS83" s="1"/>
+      <c r="CT83" s="1"/>
+      <c r="CU83" s="1"/>
     </row>
     <row r="84" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
-      <c r="B84" s="35">
+      <c r="B84" s="23">
         <v>2000</v>
       </c>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
-      <c r="E84" s="36"/>
-      <c r="F84" s="35">
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="23">
         <v>2001</v>
       </c>
-      <c r="G84" s="36"/>
-      <c r="H84" s="36"/>
-      <c r="I84" s="36"/>
-      <c r="J84" s="35">
+      <c r="G84" s="24"/>
+      <c r="H84" s="24"/>
+      <c r="I84" s="24"/>
+      <c r="J84" s="23">
         <v>2002</v>
       </c>
-      <c r="K84" s="36"/>
-      <c r="L84" s="36"/>
-      <c r="M84" s="36"/>
-      <c r="N84" s="35">
+      <c r="K84" s="24"/>
+      <c r="L84" s="24"/>
+      <c r="M84" s="24"/>
+      <c r="N84" s="23">
         <v>2003</v>
       </c>
-      <c r="O84" s="36"/>
-      <c r="P84" s="36"/>
-      <c r="Q84" s="36"/>
-      <c r="R84" s="35">
+      <c r="O84" s="24"/>
+      <c r="P84" s="24"/>
+      <c r="Q84" s="24"/>
+      <c r="R84" s="23">
         <v>2004</v>
       </c>
-      <c r="S84" s="36"/>
-      <c r="T84" s="36"/>
-      <c r="U84" s="36"/>
-      <c r="V84" s="35">
+      <c r="S84" s="24"/>
+      <c r="T84" s="24"/>
+      <c r="U84" s="24"/>
+      <c r="V84" s="23">
         <v>2005</v>
       </c>
-      <c r="W84" s="36"/>
-      <c r="X84" s="36"/>
-      <c r="Y84" s="36"/>
-      <c r="Z84" s="35">
+      <c r="W84" s="24"/>
+      <c r="X84" s="24"/>
+      <c r="Y84" s="24"/>
+      <c r="Z84" s="23">
         <v>2006</v>
       </c>
-      <c r="AA84" s="36"/>
-      <c r="AB84" s="36"/>
-      <c r="AC84" s="36"/>
-      <c r="AD84" s="35">
+      <c r="AA84" s="24"/>
+      <c r="AB84" s="24"/>
+      <c r="AC84" s="24"/>
+      <c r="AD84" s="23">
         <v>2007</v>
       </c>
-      <c r="AE84" s="36"/>
-      <c r="AF84" s="36"/>
-      <c r="AG84" s="36"/>
-      <c r="AH84" s="35">
+      <c r="AE84" s="24"/>
+      <c r="AF84" s="24"/>
+      <c r="AG84" s="24"/>
+      <c r="AH84" s="23">
         <v>2008</v>
       </c>
-      <c r="AI84" s="36"/>
-      <c r="AJ84" s="36"/>
-      <c r="AK84" s="36"/>
-      <c r="AL84" s="35">
+      <c r="AI84" s="24"/>
+      <c r="AJ84" s="24"/>
+      <c r="AK84" s="24"/>
+      <c r="AL84" s="23">
         <v>2009</v>
       </c>
-      <c r="AM84" s="36"/>
-      <c r="AN84" s="36"/>
-      <c r="AO84" s="36"/>
-      <c r="AP84" s="35">
+      <c r="AM84" s="24"/>
+      <c r="AN84" s="24"/>
+      <c r="AO84" s="24"/>
+      <c r="AP84" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="36"/>
-      <c r="AR84" s="36"/>
-      <c r="AS84" s="36"/>
-      <c r="AT84" s="35">
+      <c r="AQ84" s="24"/>
+      <c r="AR84" s="24"/>
+      <c r="AS84" s="24"/>
+      <c r="AT84" s="23">
         <v>2011</v>
       </c>
-      <c r="AU84" s="36"/>
-      <c r="AV84" s="36"/>
-      <c r="AW84" s="36"/>
-      <c r="AX84" s="35">
+      <c r="AU84" s="24"/>
+      <c r="AV84" s="24"/>
+      <c r="AW84" s="24"/>
+      <c r="AX84" s="23">
         <v>2012</v>
       </c>
-      <c r="AY84" s="36"/>
-      <c r="AZ84" s="36"/>
-      <c r="BA84" s="36"/>
-      <c r="BB84" s="35">
+      <c r="AY84" s="24"/>
+      <c r="AZ84" s="24"/>
+      <c r="BA84" s="24"/>
+      <c r="BB84" s="23">
         <v>2013</v>
       </c>
-      <c r="BC84" s="36"/>
-      <c r="BD84" s="36"/>
-      <c r="BE84" s="36"/>
-      <c r="BF84" s="35">
+      <c r="BC84" s="24"/>
+      <c r="BD84" s="24"/>
+      <c r="BE84" s="24"/>
+      <c r="BF84" s="23">
         <v>2014</v>
       </c>
-      <c r="BG84" s="36"/>
-      <c r="BH84" s="36"/>
-      <c r="BI84" s="36"/>
-      <c r="BJ84" s="35">
+      <c r="BG84" s="24"/>
+      <c r="BH84" s="24"/>
+      <c r="BI84" s="24"/>
+      <c r="BJ84" s="23">
         <v>2015</v>
       </c>
-      <c r="BK84" s="36"/>
-      <c r="BL84" s="36"/>
-      <c r="BM84" s="36"/>
-      <c r="BN84" s="35">
+      <c r="BK84" s="24"/>
+      <c r="BL84" s="24"/>
+      <c r="BM84" s="24"/>
+      <c r="BN84" s="23">
         <v>2016</v>
       </c>
-      <c r="BO84" s="36"/>
-      <c r="BP84" s="36"/>
-      <c r="BQ84" s="36"/>
-      <c r="BR84" s="35">
+      <c r="BO84" s="24"/>
+      <c r="BP84" s="24"/>
+      <c r="BQ84" s="24"/>
+      <c r="BR84" s="23">
         <v>2017</v>
       </c>
-      <c r="BS84" s="36"/>
-      <c r="BT84" s="36"/>
-      <c r="BU84" s="36"/>
-      <c r="BV84" s="35">
+      <c r="BS84" s="24"/>
+      <c r="BT84" s="24"/>
+      <c r="BU84" s="24"/>
+      <c r="BV84" s="23">
         <v>2018</v>
       </c>
-      <c r="BW84" s="35"/>
-      <c r="BX84" s="35"/>
-      <c r="BY84" s="35"/>
-      <c r="BZ84" s="35">
+      <c r="BW84" s="23"/>
+      <c r="BX84" s="23"/>
+      <c r="BY84" s="23"/>
+      <c r="BZ84" s="23">
         <v>2019</v>
       </c>
-      <c r="CA84" s="35"/>
-      <c r="CB84" s="35"/>
-      <c r="CC84" s="35"/>
-      <c r="CD84" s="35">
+      <c r="CA84" s="23"/>
+      <c r="CB84" s="23"/>
+      <c r="CC84" s="23"/>
+      <c r="CD84" s="23">
         <v>2020</v>
       </c>
-      <c r="CE84" s="35"/>
-      <c r="CF84" s="35"/>
-      <c r="CG84" s="35"/>
+      <c r="CE84" s="23"/>
+      <c r="CF84" s="23"/>
+      <c r="CG84" s="23"/>
       <c r="CH84" s="21">
         <v>2021</v>
       </c>
@@ -36101,15 +36126,16 @@
       <c r="CM84" s="21"/>
       <c r="CN84" s="21"/>
       <c r="CO84" s="21"/>
-      <c r="CP84" s="25">
+      <c r="CP84" s="21">
         <v>2023</v>
       </c>
-      <c r="CQ84" s="25"/>
-      <c r="CR84" s="25"/>
-      <c r="CS84" s="25"/>
-      <c r="CT84" s="25">
+      <c r="CQ84" s="21"/>
+      <c r="CR84" s="21"/>
+      <c r="CS84" s="21"/>
+      <c r="CT84" s="21">
         <v>2024</v>
       </c>
+      <c r="CU84" s="21"/>
     </row>
     <row r="85" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
@@ -36391,20 +36417,23 @@
       <c r="CO85" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP85" s="26" t="s">
+      <c r="CP85" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CQ85" s="26" t="s">
+      <c r="CQ85" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CR85" s="26" t="s">
+      <c r="CR85" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CS85" s="26" t="s">
+      <c r="CS85" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CT85" s="26" t="s">
+      <c r="CT85" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="CU85" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -36501,11 +36530,12 @@
       <c r="CM86" s="1"/>
       <c r="CN86" s="1"/>
       <c r="CO86" s="1"/>
-      <c r="CP86" s="24"/>
-      <c r="CQ86" s="24"/>
-      <c r="CR86" s="24"/>
-      <c r="CS86" s="24"/>
-      <c r="CT86" s="24"/>
+      <c r="CP86" s="1"/>
+      <c r="CQ86" s="1"/>
+      <c r="CR86" s="1"/>
+      <c r="CS86" s="1"/>
+      <c r="CT86" s="1"/>
+      <c r="CU86" s="1"/>
     </row>
     <row r="87" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
@@ -36787,22 +36817,24 @@
       <c r="CO87" s="18">
         <v>107.1502313726435</v>
       </c>
-      <c r="CP87" s="32">
+      <c r="CP87" s="18">
         <v>107.6373981504675</v>
       </c>
-      <c r="CQ87" s="32">
+      <c r="CQ87" s="18">
         <v>109.33026151133637</v>
       </c>
-      <c r="CR87" s="32">
+      <c r="CR87" s="18">
         <v>111.24146999255882</v>
       </c>
-      <c r="CS87" s="32">
+      <c r="CS87" s="18">
         <v>112.74327851224521</v>
       </c>
-      <c r="CT87" s="32">
+      <c r="CT87" s="18">
         <v>112.29064903368966</v>
       </c>
-      <c r="CU87" s="11"/>
+      <c r="CU87" s="18">
+        <v>113.68731134066459</v>
+      </c>
       <c r="CV87" s="11"/>
       <c r="CW87" s="11"/>
       <c r="CX87" s="11"/>
@@ -37140,22 +37172,24 @@
       <c r="CO88" s="18">
         <v>112.6019085318174</v>
       </c>
-      <c r="CP88" s="32">
+      <c r="CP88" s="18">
         <v>118.58145533063183</v>
       </c>
-      <c r="CQ88" s="32">
+      <c r="CQ88" s="18">
         <v>117.10001461439616</v>
       </c>
-      <c r="CR88" s="32">
+      <c r="CR88" s="18">
         <v>117.1727140772022</v>
       </c>
-      <c r="CS88" s="32">
+      <c r="CS88" s="18">
         <v>120.87663561958932</v>
       </c>
-      <c r="CT88" s="32">
-        <v>124.68228354238755</v>
-      </c>
-      <c r="CU88" s="11"/>
+      <c r="CT88" s="18">
+        <v>124.69005714701819</v>
+      </c>
+      <c r="CU88" s="18">
+        <v>121.88068783491475</v>
+      </c>
       <c r="CV88" s="11"/>
       <c r="CW88" s="11"/>
       <c r="CX88" s="11"/>
@@ -37306,12 +37340,12 @@
       <c r="CM89" s="17"/>
       <c r="CN89" s="17"/>
       <c r="CO89" s="17"/>
-      <c r="CP89" s="30"/>
-      <c r="CQ89" s="30"/>
-      <c r="CR89" s="30"/>
-      <c r="CS89" s="30"/>
-      <c r="CT89" s="30"/>
-      <c r="CU89" s="11"/>
+      <c r="CP89" s="17"/>
+      <c r="CQ89" s="17"/>
+      <c r="CR89" s="17"/>
+      <c r="CS89" s="17"/>
+      <c r="CT89" s="17"/>
+      <c r="CU89" s="17"/>
       <c r="CV89" s="11"/>
       <c r="CW89" s="11"/>
       <c r="CX89" s="11"/>
@@ -37649,22 +37683,24 @@
       <c r="CO90" s="18">
         <v>109.13710124928413</v>
       </c>
-      <c r="CP90" s="32">
+      <c r="CP90" s="18">
         <v>112.28990192010475</v>
       </c>
-      <c r="CQ90" s="32">
+      <c r="CQ90" s="18">
         <v>112.32564004118557</v>
       </c>
-      <c r="CR90" s="32">
+      <c r="CR90" s="18">
         <v>113.54055655686435</v>
       </c>
-      <c r="CS90" s="32">
+      <c r="CS90" s="18">
         <v>115.75729524993135</v>
       </c>
-      <c r="CT90" s="32">
-        <v>117.68297277055697</v>
-      </c>
-      <c r="CU90" s="11"/>
+      <c r="CT90" s="18">
+        <v>117.75214159432691</v>
+      </c>
+      <c r="CU90" s="18">
+        <v>116.82522853863462</v>
+      </c>
       <c r="CV90" s="11"/>
       <c r="CW90" s="11"/>
       <c r="CX90" s="11"/>
@@ -37816,11 +37852,12 @@
       <c r="CM91" s="15"/>
       <c r="CN91" s="15"/>
       <c r="CO91" s="15"/>
-      <c r="CP91" s="29"/>
-      <c r="CQ91" s="29"/>
-      <c r="CR91" s="29"/>
-      <c r="CS91" s="29"/>
-      <c r="CT91" s="29"/>
+      <c r="CP91" s="15"/>
+      <c r="CQ91" s="15"/>
+      <c r="CR91" s="15"/>
+      <c r="CS91" s="15"/>
+      <c r="CT91" s="15"/>
+      <c r="CU91" s="15"/>
     </row>
     <row r="92" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="16" t="s">
@@ -37918,11 +37955,12 @@
       <c r="CM92" s="1"/>
       <c r="CN92" s="1"/>
       <c r="CO92" s="1"/>
-      <c r="CP92" s="24"/>
-      <c r="CQ92" s="24"/>
-      <c r="CR92" s="24"/>
-      <c r="CS92" s="24"/>
-      <c r="CT92" s="24"/>
+      <c r="CP92" s="1"/>
+      <c r="CQ92" s="1"/>
+      <c r="CR92" s="1"/>
+      <c r="CS92" s="1"/>
+      <c r="CT92" s="1"/>
+      <c r="CU92" s="1"/>
     </row>
     <row r="93" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
@@ -38017,11 +38055,12 @@
       <c r="CM93" s="1"/>
       <c r="CN93" s="1"/>
       <c r="CO93" s="1"/>
-      <c r="CP93" s="24"/>
-      <c r="CQ93" s="24"/>
-      <c r="CR93" s="24"/>
-      <c r="CS93" s="24"/>
-      <c r="CT93" s="24"/>
+      <c r="CP93" s="1"/>
+      <c r="CQ93" s="1"/>
+      <c r="CR93" s="1"/>
+      <c r="CS93" s="1"/>
+      <c r="CT93" s="1"/>
+      <c r="CU93" s="1"/>
     </row>
     <row r="94" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
@@ -38116,11 +38155,12 @@
       <c r="CM94" s="1"/>
       <c r="CN94" s="1"/>
       <c r="CO94" s="1"/>
-      <c r="CP94" s="24"/>
-      <c r="CQ94" s="24"/>
-      <c r="CR94" s="24"/>
-      <c r="CS94" s="24"/>
-      <c r="CT94" s="24"/>
+      <c r="CP94" s="1"/>
+      <c r="CQ94" s="1"/>
+      <c r="CR94" s="1"/>
+      <c r="CS94" s="1"/>
+      <c r="CT94" s="1"/>
+      <c r="CU94" s="1"/>
     </row>
     <row r="95" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
@@ -38218,11 +38258,12 @@
       <c r="CM95" s="1"/>
       <c r="CN95" s="1"/>
       <c r="CO95" s="1"/>
-      <c r="CP95" s="24"/>
-      <c r="CQ95" s="24"/>
-      <c r="CR95" s="24"/>
-      <c r="CS95" s="24"/>
-      <c r="CT95" s="24"/>
+      <c r="CP95" s="1"/>
+      <c r="CQ95" s="1"/>
+      <c r="CR95" s="1"/>
+      <c r="CS95" s="1"/>
+      <c r="CT95" s="1"/>
+      <c r="CU95" s="1"/>
     </row>
     <row r="96" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
@@ -38320,15 +38361,16 @@
       <c r="CM96" s="1"/>
       <c r="CN96" s="1"/>
       <c r="CO96" s="1"/>
-      <c r="CP96" s="24"/>
-      <c r="CQ96" s="24"/>
-      <c r="CR96" s="24"/>
-      <c r="CS96" s="24"/>
-      <c r="CT96" s="24"/>
+      <c r="CP96" s="1"/>
+      <c r="CQ96" s="1"/>
+      <c r="CR96" s="1"/>
+      <c r="CS96" s="1"/>
+      <c r="CT96" s="1"/>
+      <c r="CU96" s="1"/>
     </row>
     <row r="97" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -38422,11 +38464,12 @@
       <c r="CM97" s="1"/>
       <c r="CN97" s="1"/>
       <c r="CO97" s="1"/>
-      <c r="CP97" s="24"/>
-      <c r="CQ97" s="24"/>
-      <c r="CR97" s="24"/>
-      <c r="CS97" s="24"/>
-      <c r="CT97" s="24"/>
+      <c r="CP97" s="1"/>
+      <c r="CQ97" s="1"/>
+      <c r="CR97" s="1"/>
+      <c r="CS97" s="1"/>
+      <c r="CT97" s="1"/>
+      <c r="CU97" s="1"/>
     </row>
     <row r="98" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
@@ -38522,11 +38565,12 @@
       <c r="CM98" s="1"/>
       <c r="CN98" s="1"/>
       <c r="CO98" s="1"/>
-      <c r="CP98" s="24"/>
-      <c r="CQ98" s="24"/>
-      <c r="CR98" s="24"/>
-      <c r="CS98" s="24"/>
-      <c r="CT98" s="24"/>
+      <c r="CP98" s="1"/>
+      <c r="CQ98" s="1"/>
+      <c r="CR98" s="1"/>
+      <c r="CS98" s="1"/>
+      <c r="CT98" s="1"/>
+      <c r="CU98" s="1"/>
     </row>
     <row r="99" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
@@ -38624,15 +38668,16 @@
       <c r="CM99" s="1"/>
       <c r="CN99" s="1"/>
       <c r="CO99" s="1"/>
-      <c r="CP99" s="24"/>
-      <c r="CQ99" s="24"/>
-      <c r="CR99" s="24"/>
-      <c r="CS99" s="24"/>
-      <c r="CT99" s="24"/>
+      <c r="CP99" s="1"/>
+      <c r="CQ99" s="1"/>
+      <c r="CR99" s="1"/>
+      <c r="CS99" s="1"/>
+      <c r="CT99" s="1"/>
+      <c r="CU99" s="1"/>
     </row>
     <row r="100" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -38726,11 +38771,12 @@
       <c r="CM100" s="1"/>
       <c r="CN100" s="1"/>
       <c r="CO100" s="1"/>
-      <c r="CP100" s="24"/>
-      <c r="CQ100" s="24"/>
-      <c r="CR100" s="24"/>
-      <c r="CS100" s="24"/>
-      <c r="CT100" s="24"/>
+      <c r="CP100" s="1"/>
+      <c r="CQ100" s="1"/>
+      <c r="CR100" s="1"/>
+      <c r="CS100" s="1"/>
+      <c r="CT100" s="1"/>
+      <c r="CU100" s="1"/>
     </row>
     <row r="101" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
@@ -38828,11 +38874,12 @@
       <c r="CM101" s="1"/>
       <c r="CN101" s="1"/>
       <c r="CO101" s="1"/>
-      <c r="CP101" s="24"/>
-      <c r="CQ101" s="24"/>
-      <c r="CR101" s="24"/>
-      <c r="CS101" s="24"/>
-      <c r="CT101" s="24"/>
+      <c r="CP101" s="1"/>
+      <c r="CQ101" s="1"/>
+      <c r="CR101" s="1"/>
+      <c r="CS101" s="1"/>
+      <c r="CT101" s="1"/>
+      <c r="CU101" s="1"/>
     </row>
     <row r="102" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
@@ -38928,140 +38975,141 @@
       <c r="CM102" s="1"/>
       <c r="CN102" s="1"/>
       <c r="CO102" s="1"/>
-      <c r="CP102" s="24"/>
-      <c r="CQ102" s="24"/>
-      <c r="CR102" s="24"/>
-      <c r="CS102" s="24"/>
-      <c r="CT102" s="24"/>
+      <c r="CP102" s="1"/>
+      <c r="CQ102" s="1"/>
+      <c r="CR102" s="1"/>
+      <c r="CS102" s="1"/>
+      <c r="CT102" s="1"/>
+      <c r="CU102" s="1"/>
     </row>
     <row r="103" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
-      <c r="B103" s="35">
+      <c r="B103" s="23">
         <v>2000</v>
       </c>
-      <c r="C103" s="36"/>
-      <c r="D103" s="36"/>
-      <c r="E103" s="36"/>
-      <c r="F103" s="35">
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="24"/>
+      <c r="F103" s="23">
         <v>2001</v>
       </c>
-      <c r="G103" s="36"/>
-      <c r="H103" s="36"/>
-      <c r="I103" s="36"/>
-      <c r="J103" s="35">
+      <c r="G103" s="24"/>
+      <c r="H103" s="24"/>
+      <c r="I103" s="24"/>
+      <c r="J103" s="23">
         <v>2002</v>
       </c>
-      <c r="K103" s="36"/>
-      <c r="L103" s="36"/>
-      <c r="M103" s="36"/>
-      <c r="N103" s="35">
+      <c r="K103" s="24"/>
+      <c r="L103" s="24"/>
+      <c r="M103" s="24"/>
+      <c r="N103" s="23">
         <v>2003</v>
       </c>
-      <c r="O103" s="36"/>
-      <c r="P103" s="36"/>
-      <c r="Q103" s="36"/>
-      <c r="R103" s="35">
+      <c r="O103" s="24"/>
+      <c r="P103" s="24"/>
+      <c r="Q103" s="24"/>
+      <c r="R103" s="23">
         <v>2004</v>
       </c>
-      <c r="S103" s="36"/>
-      <c r="T103" s="36"/>
-      <c r="U103" s="36"/>
-      <c r="V103" s="35">
+      <c r="S103" s="24"/>
+      <c r="T103" s="24"/>
+      <c r="U103" s="24"/>
+      <c r="V103" s="23">
         <v>2005</v>
       </c>
-      <c r="W103" s="36"/>
-      <c r="X103" s="36"/>
-      <c r="Y103" s="36"/>
-      <c r="Z103" s="35">
+      <c r="W103" s="24"/>
+      <c r="X103" s="24"/>
+      <c r="Y103" s="24"/>
+      <c r="Z103" s="23">
         <v>2006</v>
       </c>
-      <c r="AA103" s="36"/>
-      <c r="AB103" s="36"/>
-      <c r="AC103" s="36"/>
-      <c r="AD103" s="35">
+      <c r="AA103" s="24"/>
+      <c r="AB103" s="24"/>
+      <c r="AC103" s="24"/>
+      <c r="AD103" s="23">
         <v>2007</v>
       </c>
-      <c r="AE103" s="36"/>
-      <c r="AF103" s="36"/>
-      <c r="AG103" s="36"/>
-      <c r="AH103" s="35">
+      <c r="AE103" s="24"/>
+      <c r="AF103" s="24"/>
+      <c r="AG103" s="24"/>
+      <c r="AH103" s="23">
         <v>2008</v>
       </c>
-      <c r="AI103" s="36"/>
-      <c r="AJ103" s="36"/>
-      <c r="AK103" s="36"/>
-      <c r="AL103" s="35">
+      <c r="AI103" s="24"/>
+      <c r="AJ103" s="24"/>
+      <c r="AK103" s="24"/>
+      <c r="AL103" s="23">
         <v>2009</v>
       </c>
-      <c r="AM103" s="36"/>
-      <c r="AN103" s="36"/>
-      <c r="AO103" s="36"/>
-      <c r="AP103" s="35">
+      <c r="AM103" s="24"/>
+      <c r="AN103" s="24"/>
+      <c r="AO103" s="24"/>
+      <c r="AP103" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="36"/>
-      <c r="AR103" s="36"/>
-      <c r="AS103" s="36"/>
-      <c r="AT103" s="35">
+      <c r="AQ103" s="24"/>
+      <c r="AR103" s="24"/>
+      <c r="AS103" s="24"/>
+      <c r="AT103" s="23">
         <v>2011</v>
       </c>
-      <c r="AU103" s="36"/>
-      <c r="AV103" s="36"/>
-      <c r="AW103" s="36"/>
-      <c r="AX103" s="35">
+      <c r="AU103" s="24"/>
+      <c r="AV103" s="24"/>
+      <c r="AW103" s="24"/>
+      <c r="AX103" s="23">
         <v>2012</v>
       </c>
-      <c r="AY103" s="36"/>
-      <c r="AZ103" s="36"/>
-      <c r="BA103" s="36"/>
-      <c r="BB103" s="35">
+      <c r="AY103" s="24"/>
+      <c r="AZ103" s="24"/>
+      <c r="BA103" s="24"/>
+      <c r="BB103" s="23">
         <v>2013</v>
       </c>
-      <c r="BC103" s="36"/>
-      <c r="BD103" s="36"/>
-      <c r="BE103" s="36"/>
-      <c r="BF103" s="35">
+      <c r="BC103" s="24"/>
+      <c r="BD103" s="24"/>
+      <c r="BE103" s="24"/>
+      <c r="BF103" s="23">
         <v>2014</v>
       </c>
-      <c r="BG103" s="36"/>
-      <c r="BH103" s="36"/>
-      <c r="BI103" s="36"/>
-      <c r="BJ103" s="35">
+      <c r="BG103" s="24"/>
+      <c r="BH103" s="24"/>
+      <c r="BI103" s="24"/>
+      <c r="BJ103" s="23">
         <v>2015</v>
       </c>
-      <c r="BK103" s="36"/>
-      <c r="BL103" s="36"/>
-      <c r="BM103" s="36"/>
-      <c r="BN103" s="35">
+      <c r="BK103" s="24"/>
+      <c r="BL103" s="24"/>
+      <c r="BM103" s="24"/>
+      <c r="BN103" s="23">
         <v>2016</v>
       </c>
-      <c r="BO103" s="36"/>
-      <c r="BP103" s="36"/>
-      <c r="BQ103" s="36"/>
-      <c r="BR103" s="35">
+      <c r="BO103" s="24"/>
+      <c r="BP103" s="24"/>
+      <c r="BQ103" s="24"/>
+      <c r="BR103" s="23">
         <v>2017</v>
       </c>
-      <c r="BS103" s="36"/>
-      <c r="BT103" s="36"/>
-      <c r="BU103" s="36"/>
-      <c r="BV103" s="35">
+      <c r="BS103" s="24"/>
+      <c r="BT103" s="24"/>
+      <c r="BU103" s="24"/>
+      <c r="BV103" s="23">
         <v>2018</v>
       </c>
-      <c r="BW103" s="35"/>
-      <c r="BX103" s="35"/>
-      <c r="BY103" s="35"/>
-      <c r="BZ103" s="35">
+      <c r="BW103" s="23"/>
+      <c r="BX103" s="23"/>
+      <c r="BY103" s="23"/>
+      <c r="BZ103" s="23">
         <v>2019</v>
       </c>
-      <c r="CA103" s="35"/>
-      <c r="CB103" s="35"/>
-      <c r="CC103" s="35"/>
-      <c r="CD103" s="35">
+      <c r="CA103" s="23"/>
+      <c r="CB103" s="23"/>
+      <c r="CC103" s="23"/>
+      <c r="CD103" s="23">
         <v>2020</v>
       </c>
-      <c r="CE103" s="35"/>
-      <c r="CF103" s="35"/>
-      <c r="CG103" s="35"/>
+      <c r="CE103" s="23"/>
+      <c r="CF103" s="23"/>
+      <c r="CG103" s="23"/>
       <c r="CH103" s="21">
         <v>2021</v>
       </c>
@@ -39074,15 +39122,16 @@
       <c r="CM103" s="21"/>
       <c r="CN103" s="21"/>
       <c r="CO103" s="21"/>
-      <c r="CP103" s="25">
+      <c r="CP103" s="21">
         <v>2023</v>
       </c>
-      <c r="CQ103" s="25"/>
-      <c r="CR103" s="25"/>
-      <c r="CS103" s="25"/>
-      <c r="CT103" s="25">
+      <c r="CQ103" s="21"/>
+      <c r="CR103" s="21"/>
+      <c r="CS103" s="21"/>
+      <c r="CT103" s="21">
         <v>2024</v>
       </c>
+      <c r="CU103" s="21"/>
     </row>
     <row r="104" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
@@ -39364,20 +39413,23 @@
       <c r="CO104" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP104" s="26" t="s">
+      <c r="CP104" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CQ104" s="26" t="s">
+      <c r="CQ104" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CR104" s="26" t="s">
+      <c r="CR104" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CS104" s="26" t="s">
+      <c r="CS104" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CT104" s="26" t="s">
+      <c r="CT104" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="CU104" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -39474,11 +39526,12 @@
       <c r="CM105" s="1"/>
       <c r="CN105" s="1"/>
       <c r="CO105" s="1"/>
-      <c r="CP105" s="24"/>
-      <c r="CQ105" s="24"/>
-      <c r="CR105" s="24"/>
-      <c r="CS105" s="24"/>
-      <c r="CT105" s="24"/>
+      <c r="CP105" s="1"/>
+      <c r="CQ105" s="1"/>
+      <c r="CR105" s="1"/>
+      <c r="CS105" s="1"/>
+      <c r="CT105" s="1"/>
+      <c r="CU105" s="1"/>
     </row>
     <row r="106" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
@@ -39760,22 +39813,24 @@
       <c r="CO106" s="18">
         <v>62.397853864057808</v>
       </c>
-      <c r="CP106" s="32">
+      <c r="CP106" s="18">
         <v>55.106397820732454</v>
       </c>
-      <c r="CQ106" s="32">
+      <c r="CQ106" s="18">
         <v>59.809580313293111</v>
       </c>
-      <c r="CR106" s="32">
+      <c r="CR106" s="18">
         <v>59.997696760683105</v>
       </c>
-      <c r="CS106" s="32">
+      <c r="CS106" s="18">
         <v>61.303666996694353</v>
       </c>
-      <c r="CT106" s="32">
-        <v>53.896013469635648</v>
-      </c>
-      <c r="CU106" s="11"/>
+      <c r="CT106" s="18">
+        <v>53.358404167529137</v>
+      </c>
+      <c r="CU106" s="18">
+        <v>60.044476514529691</v>
+      </c>
       <c r="CV106" s="11"/>
       <c r="CW106" s="11"/>
       <c r="CX106" s="11"/>
@@ -40113,22 +40168,24 @@
       <c r="CO107" s="18">
         <v>37.602146135942185</v>
       </c>
-      <c r="CP107" s="32">
+      <c r="CP107" s="18">
         <v>44.893602179267539</v>
       </c>
-      <c r="CQ107" s="32">
+      <c r="CQ107" s="18">
         <v>40.190419686706903</v>
       </c>
-      <c r="CR107" s="32">
+      <c r="CR107" s="18">
         <v>40.002303239316895</v>
       </c>
-      <c r="CS107" s="32">
+      <c r="CS107" s="18">
         <v>38.696333003305647</v>
       </c>
-      <c r="CT107" s="32">
-        <v>46.103986530364352</v>
-      </c>
-      <c r="CU107" s="11"/>
+      <c r="CT107" s="18">
+        <v>46.64159583247087</v>
+      </c>
+      <c r="CU107" s="18">
+        <v>39.955523485470309</v>
+      </c>
       <c r="CV107" s="11"/>
       <c r="CW107" s="11"/>
       <c r="CX107" s="11"/>
@@ -40279,12 +40336,12 @@
       <c r="CM108" s="17"/>
       <c r="CN108" s="17"/>
       <c r="CO108" s="17"/>
-      <c r="CP108" s="30"/>
-      <c r="CQ108" s="30"/>
-      <c r="CR108" s="30"/>
-      <c r="CS108" s="30"/>
-      <c r="CT108" s="30"/>
-      <c r="CU108" s="11"/>
+      <c r="CP108" s="17"/>
+      <c r="CQ108" s="17"/>
+      <c r="CR108" s="17"/>
+      <c r="CS108" s="17"/>
+      <c r="CT108" s="17"/>
+      <c r="CU108" s="17"/>
       <c r="CV108" s="11"/>
       <c r="CW108" s="11"/>
       <c r="CX108" s="11"/>
@@ -40622,22 +40679,24 @@
       <c r="CO109" s="18">
         <v>100</v>
       </c>
-      <c r="CP109" s="32">
+      <c r="CP109" s="18">
         <v>100</v>
       </c>
-      <c r="CQ109" s="32">
+      <c r="CQ109" s="18">
         <v>100</v>
       </c>
-      <c r="CR109" s="32">
+      <c r="CR109" s="18">
         <v>100</v>
       </c>
-      <c r="CS109" s="32">
+      <c r="CS109" s="18">
         <v>100</v>
       </c>
-      <c r="CT109" s="32">
+      <c r="CT109" s="18">
         <v>100</v>
       </c>
-      <c r="CU109" s="11"/>
+      <c r="CU109" s="18">
+        <v>100</v>
+      </c>
       <c r="CV109" s="11"/>
       <c r="CW109" s="11"/>
       <c r="CX109" s="11"/>
@@ -40789,11 +40848,12 @@
       <c r="CM110" s="15"/>
       <c r="CN110" s="15"/>
       <c r="CO110" s="15"/>
-      <c r="CP110" s="29"/>
-      <c r="CQ110" s="29"/>
-      <c r="CR110" s="29"/>
-      <c r="CS110" s="29"/>
-      <c r="CT110" s="29"/>
+      <c r="CP110" s="15"/>
+      <c r="CQ110" s="15"/>
+      <c r="CR110" s="15"/>
+      <c r="CS110" s="15"/>
+      <c r="CT110" s="15"/>
+      <c r="CU110" s="15"/>
     </row>
     <row r="111" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="16" t="s">
@@ -40891,11 +40951,12 @@
       <c r="CM111" s="1"/>
       <c r="CN111" s="1"/>
       <c r="CO111" s="1"/>
-      <c r="CP111" s="24"/>
-      <c r="CQ111" s="24"/>
-      <c r="CR111" s="24"/>
-      <c r="CS111" s="24"/>
-      <c r="CT111" s="24"/>
+      <c r="CP111" s="1"/>
+      <c r="CQ111" s="1"/>
+      <c r="CR111" s="1"/>
+      <c r="CS111" s="1"/>
+      <c r="CT111" s="1"/>
+      <c r="CU111" s="1"/>
     </row>
     <row r="112" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="17"/>
@@ -40990,12 +41051,12 @@
       <c r="CM112" s="17"/>
       <c r="CN112" s="17"/>
       <c r="CO112" s="17"/>
-      <c r="CP112" s="30"/>
-      <c r="CQ112" s="30"/>
-      <c r="CR112" s="30"/>
-      <c r="CS112" s="30"/>
-      <c r="CT112" s="30"/>
-      <c r="CU112" s="11"/>
+      <c r="CP112" s="17"/>
+      <c r="CQ112" s="17"/>
+      <c r="CR112" s="17"/>
+      <c r="CS112" s="17"/>
+      <c r="CT112" s="17"/>
+      <c r="CU112" s="17"/>
       <c r="CV112" s="11"/>
       <c r="CW112" s="11"/>
       <c r="CX112" s="11"/>
@@ -41146,12 +41207,12 @@
       <c r="CM113" s="17"/>
       <c r="CN113" s="17"/>
       <c r="CO113" s="17"/>
-      <c r="CP113" s="30"/>
-      <c r="CQ113" s="30"/>
-      <c r="CR113" s="30"/>
-      <c r="CS113" s="30"/>
-      <c r="CT113" s="30"/>
-      <c r="CU113" s="11"/>
+      <c r="CP113" s="17"/>
+      <c r="CQ113" s="17"/>
+      <c r="CR113" s="17"/>
+      <c r="CS113" s="17"/>
+      <c r="CT113" s="17"/>
+      <c r="CU113" s="17"/>
       <c r="CV113" s="11"/>
       <c r="CW113" s="11"/>
       <c r="CX113" s="11"/>
@@ -41305,11 +41366,12 @@
       <c r="CM114" s="1"/>
       <c r="CN114" s="1"/>
       <c r="CO114" s="1"/>
-      <c r="CP114" s="24"/>
-      <c r="CQ114" s="24"/>
-      <c r="CR114" s="24"/>
-      <c r="CS114" s="24"/>
-      <c r="CT114" s="24"/>
+      <c r="CP114" s="1"/>
+      <c r="CQ114" s="1"/>
+      <c r="CR114" s="1"/>
+      <c r="CS114" s="1"/>
+      <c r="CT114" s="1"/>
+      <c r="CU114" s="1"/>
     </row>
     <row r="115" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
@@ -41407,15 +41469,16 @@
       <c r="CM115" s="1"/>
       <c r="CN115" s="1"/>
       <c r="CO115" s="1"/>
-      <c r="CP115" s="24"/>
-      <c r="CQ115" s="24"/>
-      <c r="CR115" s="24"/>
-      <c r="CS115" s="24"/>
-      <c r="CT115" s="24"/>
+      <c r="CP115" s="1"/>
+      <c r="CQ115" s="1"/>
+      <c r="CR115" s="1"/>
+      <c r="CS115" s="1"/>
+      <c r="CT115" s="1"/>
+      <c r="CU115" s="1"/>
     </row>
     <row r="116" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -41509,11 +41572,12 @@
       <c r="CM116" s="1"/>
       <c r="CN116" s="1"/>
       <c r="CO116" s="1"/>
-      <c r="CP116" s="24"/>
-      <c r="CQ116" s="24"/>
-      <c r="CR116" s="24"/>
-      <c r="CS116" s="24"/>
-      <c r="CT116" s="24"/>
+      <c r="CP116" s="1"/>
+      <c r="CQ116" s="1"/>
+      <c r="CR116" s="1"/>
+      <c r="CS116" s="1"/>
+      <c r="CT116" s="1"/>
+      <c r="CU116" s="1"/>
     </row>
     <row r="117" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
@@ -41609,11 +41673,12 @@
       <c r="CM117" s="1"/>
       <c r="CN117" s="1"/>
       <c r="CO117" s="1"/>
-      <c r="CP117" s="24"/>
-      <c r="CQ117" s="24"/>
-      <c r="CR117" s="24"/>
-      <c r="CS117" s="24"/>
-      <c r="CT117" s="24"/>
+      <c r="CP117" s="1"/>
+      <c r="CQ117" s="1"/>
+      <c r="CR117" s="1"/>
+      <c r="CS117" s="1"/>
+      <c r="CT117" s="1"/>
+      <c r="CU117" s="1"/>
     </row>
     <row r="118" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
@@ -41711,15 +41776,16 @@
       <c r="CM118" s="1"/>
       <c r="CN118" s="1"/>
       <c r="CO118" s="1"/>
-      <c r="CP118" s="24"/>
-      <c r="CQ118" s="24"/>
-      <c r="CR118" s="24"/>
-      <c r="CS118" s="24"/>
-      <c r="CT118" s="24"/>
+      <c r="CP118" s="1"/>
+      <c r="CQ118" s="1"/>
+      <c r="CR118" s="1"/>
+      <c r="CS118" s="1"/>
+      <c r="CT118" s="1"/>
+      <c r="CU118" s="1"/>
     </row>
     <row r="119" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -41813,11 +41879,12 @@
       <c r="CM119" s="1"/>
       <c r="CN119" s="1"/>
       <c r="CO119" s="1"/>
-      <c r="CP119" s="24"/>
-      <c r="CQ119" s="24"/>
-      <c r="CR119" s="24"/>
-      <c r="CS119" s="24"/>
-      <c r="CT119" s="24"/>
+      <c r="CP119" s="1"/>
+      <c r="CQ119" s="1"/>
+      <c r="CR119" s="1"/>
+      <c r="CS119" s="1"/>
+      <c r="CT119" s="1"/>
+      <c r="CU119" s="1"/>
     </row>
     <row r="120" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
@@ -41915,11 +41982,12 @@
       <c r="CM120" s="1"/>
       <c r="CN120" s="1"/>
       <c r="CO120" s="1"/>
-      <c r="CP120" s="24"/>
-      <c r="CQ120" s="24"/>
-      <c r="CR120" s="24"/>
-      <c r="CS120" s="24"/>
-      <c r="CT120" s="24"/>
+      <c r="CP120" s="1"/>
+      <c r="CQ120" s="1"/>
+      <c r="CR120" s="1"/>
+      <c r="CS120" s="1"/>
+      <c r="CT120" s="1"/>
+      <c r="CU120" s="1"/>
     </row>
     <row r="121" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
@@ -42015,140 +42083,141 @@
       <c r="CM121" s="1"/>
       <c r="CN121" s="1"/>
       <c r="CO121" s="1"/>
-      <c r="CP121" s="24"/>
-      <c r="CQ121" s="24"/>
-      <c r="CR121" s="24"/>
-      <c r="CS121" s="24"/>
-      <c r="CT121" s="24"/>
+      <c r="CP121" s="1"/>
+      <c r="CQ121" s="1"/>
+      <c r="CR121" s="1"/>
+      <c r="CS121" s="1"/>
+      <c r="CT121" s="1"/>
+      <c r="CU121" s="1"/>
     </row>
     <row r="122" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
-      <c r="B122" s="35">
+      <c r="B122" s="23">
         <v>2000</v>
       </c>
-      <c r="C122" s="36"/>
-      <c r="D122" s="36"/>
-      <c r="E122" s="36"/>
-      <c r="F122" s="35">
+      <c r="C122" s="24"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="24"/>
+      <c r="F122" s="23">
         <v>2001</v>
       </c>
-      <c r="G122" s="36"/>
-      <c r="H122" s="36"/>
-      <c r="I122" s="36"/>
-      <c r="J122" s="35">
+      <c r="G122" s="24"/>
+      <c r="H122" s="24"/>
+      <c r="I122" s="24"/>
+      <c r="J122" s="23">
         <v>2002</v>
       </c>
-      <c r="K122" s="36"/>
-      <c r="L122" s="36"/>
-      <c r="M122" s="36"/>
-      <c r="N122" s="35">
+      <c r="K122" s="24"/>
+      <c r="L122" s="24"/>
+      <c r="M122" s="24"/>
+      <c r="N122" s="23">
         <v>2003</v>
       </c>
-      <c r="O122" s="36"/>
-      <c r="P122" s="36"/>
-      <c r="Q122" s="36"/>
-      <c r="R122" s="35">
+      <c r="O122" s="24"/>
+      <c r="P122" s="24"/>
+      <c r="Q122" s="24"/>
+      <c r="R122" s="23">
         <v>2004</v>
       </c>
-      <c r="S122" s="36"/>
-      <c r="T122" s="36"/>
-      <c r="U122" s="36"/>
-      <c r="V122" s="35">
+      <c r="S122" s="24"/>
+      <c r="T122" s="24"/>
+      <c r="U122" s="24"/>
+      <c r="V122" s="23">
         <v>2005</v>
       </c>
-      <c r="W122" s="36"/>
-      <c r="X122" s="36"/>
-      <c r="Y122" s="36"/>
-      <c r="Z122" s="35">
+      <c r="W122" s="24"/>
+      <c r="X122" s="24"/>
+      <c r="Y122" s="24"/>
+      <c r="Z122" s="23">
         <v>2006</v>
       </c>
-      <c r="AA122" s="36"/>
-      <c r="AB122" s="36"/>
-      <c r="AC122" s="36"/>
-      <c r="AD122" s="35">
+      <c r="AA122" s="24"/>
+      <c r="AB122" s="24"/>
+      <c r="AC122" s="24"/>
+      <c r="AD122" s="23">
         <v>2007</v>
       </c>
-      <c r="AE122" s="36"/>
-      <c r="AF122" s="36"/>
-      <c r="AG122" s="36"/>
-      <c r="AH122" s="35">
+      <c r="AE122" s="24"/>
+      <c r="AF122" s="24"/>
+      <c r="AG122" s="24"/>
+      <c r="AH122" s="23">
         <v>2008</v>
       </c>
-      <c r="AI122" s="36"/>
-      <c r="AJ122" s="36"/>
-      <c r="AK122" s="36"/>
-      <c r="AL122" s="35">
+      <c r="AI122" s="24"/>
+      <c r="AJ122" s="24"/>
+      <c r="AK122" s="24"/>
+      <c r="AL122" s="23">
         <v>2009</v>
       </c>
-      <c r="AM122" s="36"/>
-      <c r="AN122" s="36"/>
-      <c r="AO122" s="36"/>
-      <c r="AP122" s="35">
+      <c r="AM122" s="24"/>
+      <c r="AN122" s="24"/>
+      <c r="AO122" s="24"/>
+      <c r="AP122" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="36"/>
-      <c r="AR122" s="36"/>
-      <c r="AS122" s="36"/>
-      <c r="AT122" s="35">
+      <c r="AQ122" s="24"/>
+      <c r="AR122" s="24"/>
+      <c r="AS122" s="24"/>
+      <c r="AT122" s="23">
         <v>2011</v>
       </c>
-      <c r="AU122" s="36"/>
-      <c r="AV122" s="36"/>
-      <c r="AW122" s="36"/>
-      <c r="AX122" s="35">
+      <c r="AU122" s="24"/>
+      <c r="AV122" s="24"/>
+      <c r="AW122" s="24"/>
+      <c r="AX122" s="23">
         <v>2012</v>
       </c>
-      <c r="AY122" s="36"/>
-      <c r="AZ122" s="36"/>
-      <c r="BA122" s="36"/>
-      <c r="BB122" s="35">
+      <c r="AY122" s="24"/>
+      <c r="AZ122" s="24"/>
+      <c r="BA122" s="24"/>
+      <c r="BB122" s="23">
         <v>2013</v>
       </c>
-      <c r="BC122" s="36"/>
-      <c r="BD122" s="36"/>
-      <c r="BE122" s="36"/>
-      <c r="BF122" s="35">
+      <c r="BC122" s="24"/>
+      <c r="BD122" s="24"/>
+      <c r="BE122" s="24"/>
+      <c r="BF122" s="23">
         <v>2014</v>
       </c>
-      <c r="BG122" s="36"/>
-      <c r="BH122" s="36"/>
-      <c r="BI122" s="36"/>
-      <c r="BJ122" s="35">
+      <c r="BG122" s="24"/>
+      <c r="BH122" s="24"/>
+      <c r="BI122" s="24"/>
+      <c r="BJ122" s="23">
         <v>2015</v>
       </c>
-      <c r="BK122" s="36"/>
-      <c r="BL122" s="36"/>
-      <c r="BM122" s="36"/>
-      <c r="BN122" s="35">
+      <c r="BK122" s="24"/>
+      <c r="BL122" s="24"/>
+      <c r="BM122" s="24"/>
+      <c r="BN122" s="23">
         <v>2016</v>
       </c>
-      <c r="BO122" s="36"/>
-      <c r="BP122" s="36"/>
-      <c r="BQ122" s="36"/>
-      <c r="BR122" s="35">
+      <c r="BO122" s="24"/>
+      <c r="BP122" s="24"/>
+      <c r="BQ122" s="24"/>
+      <c r="BR122" s="23">
         <v>2017</v>
       </c>
-      <c r="BS122" s="36"/>
-      <c r="BT122" s="36"/>
-      <c r="BU122" s="36"/>
-      <c r="BV122" s="35">
+      <c r="BS122" s="24"/>
+      <c r="BT122" s="24"/>
+      <c r="BU122" s="24"/>
+      <c r="BV122" s="23">
         <v>2018</v>
       </c>
-      <c r="BW122" s="35"/>
-      <c r="BX122" s="35"/>
-      <c r="BY122" s="35"/>
-      <c r="BZ122" s="35">
+      <c r="BW122" s="23"/>
+      <c r="BX122" s="23"/>
+      <c r="BY122" s="23"/>
+      <c r="BZ122" s="23">
         <v>2019</v>
       </c>
-      <c r="CA122" s="35"/>
-      <c r="CB122" s="35"/>
-      <c r="CC122" s="35"/>
-      <c r="CD122" s="35">
+      <c r="CA122" s="23"/>
+      <c r="CB122" s="23"/>
+      <c r="CC122" s="23"/>
+      <c r="CD122" s="23">
         <v>2020</v>
       </c>
-      <c r="CE122" s="35"/>
-      <c r="CF122" s="35"/>
-      <c r="CG122" s="35"/>
+      <c r="CE122" s="23"/>
+      <c r="CF122" s="23"/>
+      <c r="CG122" s="23"/>
       <c r="CH122" s="21">
         <v>2021</v>
       </c>
@@ -42161,15 +42230,16 @@
       <c r="CM122" s="21"/>
       <c r="CN122" s="21"/>
       <c r="CO122" s="21"/>
-      <c r="CP122" s="25">
+      <c r="CP122" s="21">
         <v>2023</v>
       </c>
-      <c r="CQ122" s="25"/>
-      <c r="CR122" s="25"/>
-      <c r="CS122" s="25"/>
-      <c r="CT122" s="25">
+      <c r="CQ122" s="21"/>
+      <c r="CR122" s="21"/>
+      <c r="CS122" s="21"/>
+      <c r="CT122" s="21">
         <v>2024</v>
       </c>
+      <c r="CU122" s="21"/>
     </row>
     <row r="123" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
@@ -42451,20 +42521,23 @@
       <c r="CO123" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP123" s="26" t="s">
+      <c r="CP123" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="CQ123" s="26" t="s">
+      <c r="CQ123" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="CR123" s="26" t="s">
+      <c r="CR123" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="CS123" s="26" t="s">
+      <c r="CS123" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CT123" s="26" t="s">
+      <c r="CT123" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="CU123" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -42561,11 +42634,12 @@
       <c r="CM124" s="1"/>
       <c r="CN124" s="1"/>
       <c r="CO124" s="1"/>
-      <c r="CP124" s="24"/>
-      <c r="CQ124" s="24"/>
-      <c r="CR124" s="24"/>
-      <c r="CS124" s="24"/>
-      <c r="CT124" s="24"/>
+      <c r="CP124" s="1"/>
+      <c r="CQ124" s="1"/>
+      <c r="CR124" s="1"/>
+      <c r="CS124" s="1"/>
+      <c r="CT124" s="1"/>
+      <c r="CU124" s="1"/>
     </row>
     <row r="125" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
@@ -42847,22 +42921,24 @@
       <c r="CO125" s="18">
         <v>63.554887447852515</v>
       </c>
-      <c r="CP125" s="32">
+      <c r="CP125" s="18">
         <v>57.488309015145447</v>
       </c>
-      <c r="CQ125" s="32">
+      <c r="CQ125" s="18">
         <v>61.448214761552912</v>
       </c>
-      <c r="CR125" s="32">
+      <c r="CR125" s="18">
         <v>61.237701037154743</v>
       </c>
-      <c r="CS125" s="32">
+      <c r="CS125" s="18">
         <v>62.942525479858865</v>
       </c>
-      <c r="CT125" s="32">
-        <v>56.484160882227805</v>
-      </c>
-      <c r="CU125" s="11"/>
+      <c r="CT125" s="18">
+        <v>55.953602698450489</v>
+      </c>
+      <c r="CU125" s="18">
+        <v>61.701781918942544</v>
+      </c>
       <c r="CV125" s="11"/>
       <c r="CW125" s="11"/>
       <c r="CX125" s="11"/>
@@ -43200,22 +43276,24 @@
       <c r="CO126" s="18">
         <v>36.445112552147485</v>
       </c>
-      <c r="CP126" s="32">
+      <c r="CP126" s="18">
         <v>42.511690984854553</v>
       </c>
-      <c r="CQ126" s="32">
+      <c r="CQ126" s="18">
         <v>38.551785238447096</v>
       </c>
-      <c r="CR126" s="32">
+      <c r="CR126" s="18">
         <v>38.762298962845257</v>
       </c>
-      <c r="CS126" s="32">
+      <c r="CS126" s="18">
         <v>37.057474520141135</v>
       </c>
-      <c r="CT126" s="32">
-        <v>43.515839117772195</v>
-      </c>
-      <c r="CU126" s="11"/>
+      <c r="CT126" s="18">
+        <v>44.046397301549511</v>
+      </c>
+      <c r="CU126" s="18">
+        <v>38.298218081057456</v>
+      </c>
       <c r="CV126" s="11"/>
       <c r="CW126" s="11"/>
       <c r="CX126" s="11"/>
@@ -43366,12 +43444,12 @@
       <c r="CM127" s="17"/>
       <c r="CN127" s="17"/>
       <c r="CO127" s="17"/>
-      <c r="CP127" s="30"/>
-      <c r="CQ127" s="30"/>
-      <c r="CR127" s="30"/>
-      <c r="CS127" s="30"/>
-      <c r="CT127" s="30"/>
-      <c r="CU127" s="11"/>
+      <c r="CP127" s="17"/>
+      <c r="CQ127" s="17"/>
+      <c r="CR127" s="17"/>
+      <c r="CS127" s="17"/>
+      <c r="CT127" s="17"/>
+      <c r="CU127" s="17"/>
       <c r="CV127" s="11"/>
       <c r="CW127" s="11"/>
       <c r="CX127" s="11"/>
@@ -43709,22 +43787,24 @@
       <c r="CO128" s="18">
         <v>100</v>
       </c>
-      <c r="CP128" s="32">
+      <c r="CP128" s="18">
         <v>100</v>
       </c>
-      <c r="CQ128" s="32">
+      <c r="CQ128" s="18">
         <v>100</v>
       </c>
-      <c r="CR128" s="32">
+      <c r="CR128" s="18">
         <v>100</v>
       </c>
-      <c r="CS128" s="32">
+      <c r="CS128" s="18">
         <v>100</v>
       </c>
-      <c r="CT128" s="32">
+      <c r="CT128" s="18">
         <v>100</v>
       </c>
-      <c r="CU128" s="11"/>
+      <c r="CU128" s="18">
+        <v>100</v>
+      </c>
       <c r="CV128" s="11"/>
       <c r="CW128" s="11"/>
       <c r="CX128" s="11"/>
@@ -43782,7 +43862,7 @@
       <c r="EX128" s="11"/>
       <c r="EY128" s="11"/>
     </row>
-    <row r="129" spans="1:98" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:99" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="15"/>
       <c r="B129" s="15"/>
       <c r="C129" s="15"/>
@@ -43876,13 +43956,14 @@
       <c r="CM129" s="15"/>
       <c r="CN129" s="15"/>
       <c r="CO129" s="15"/>
-      <c r="CP129" s="29"/>
-      <c r="CQ129" s="29"/>
-      <c r="CR129" s="29"/>
-      <c r="CS129" s="29"/>
-      <c r="CT129" s="29"/>
+      <c r="CP129" s="15"/>
+      <c r="CQ129" s="15"/>
+      <c r="CR129" s="15"/>
+      <c r="CS129" s="15"/>
+      <c r="CT129" s="15"/>
+      <c r="CU129" s="15"/>
     </row>
-    <row r="130" spans="1:98" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:99" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="16" t="s">
         <v>0</v>
       </c>
@@ -43978,28 +44059,124 @@
       <c r="CM130" s="1"/>
       <c r="CN130" s="1"/>
       <c r="CO130" s="1"/>
-      <c r="CP130" s="24"/>
-      <c r="CQ130" s="24"/>
-      <c r="CR130" s="24"/>
-      <c r="CS130" s="24"/>
-      <c r="CT130" s="24"/>
+      <c r="CP130" s="1"/>
+      <c r="CQ130" s="1"/>
+      <c r="CR130" s="1"/>
+      <c r="CS130" s="1"/>
+      <c r="CT130" s="1"/>
+      <c r="CU130" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="BZ28:CC28"/>
-    <mergeCell ref="BZ47:CC47"/>
-    <mergeCell ref="BZ66:CC66"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD122:CG122"/>
-    <mergeCell ref="CD103:CG103"/>
-    <mergeCell ref="CD84:CG84"/>
-    <mergeCell ref="CD28:CG28"/>
-    <mergeCell ref="BZ103:CC103"/>
-    <mergeCell ref="BZ84:CC84"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BZ122:CC122"/>
-    <mergeCell ref="CD47:CG47"/>
-    <mergeCell ref="CD66:CG66"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="BR122:BU122"/>
+    <mergeCell ref="BV122:BY122"/>
+    <mergeCell ref="BV66:BY66"/>
+    <mergeCell ref="BR66:BU66"/>
+    <mergeCell ref="BR84:BU84"/>
+    <mergeCell ref="BR103:BU103"/>
+    <mergeCell ref="AX66:BA66"/>
+    <mergeCell ref="BB66:BE66"/>
+    <mergeCell ref="BF66:BI66"/>
+    <mergeCell ref="BJ66:BM66"/>
+    <mergeCell ref="BN66:BQ66"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="AP47:AS47"/>
+    <mergeCell ref="AT47:AW47"/>
+    <mergeCell ref="AX47:BA47"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="R66:U66"/>
+    <mergeCell ref="AL66:AO66"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="BB28:BE28"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="BB47:BE47"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="V28:Y28"/>
+    <mergeCell ref="Z28:AC28"/>
+    <mergeCell ref="AT28:AW28"/>
+    <mergeCell ref="AX28:BA28"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="R47:U47"/>
+    <mergeCell ref="V47:Y47"/>
+    <mergeCell ref="Z47:AC47"/>
+    <mergeCell ref="AD47:AG47"/>
+    <mergeCell ref="AH47:AK47"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="V84:Y84"/>
+    <mergeCell ref="AL122:AO122"/>
+    <mergeCell ref="AP122:AS122"/>
+    <mergeCell ref="AP66:AS66"/>
+    <mergeCell ref="AH28:AK28"/>
+    <mergeCell ref="AL28:AO28"/>
+    <mergeCell ref="AL47:AO47"/>
+    <mergeCell ref="AP28:AS28"/>
+    <mergeCell ref="AT122:AW122"/>
+    <mergeCell ref="N122:Q122"/>
+    <mergeCell ref="R122:U122"/>
+    <mergeCell ref="V122:Y122"/>
+    <mergeCell ref="Z122:AC122"/>
+    <mergeCell ref="AD122:AG122"/>
+    <mergeCell ref="AH122:AK122"/>
+    <mergeCell ref="V66:Y66"/>
+    <mergeCell ref="Z66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AK66"/>
+    <mergeCell ref="Z84:AC84"/>
+    <mergeCell ref="AD84:AG84"/>
+    <mergeCell ref="AH84:AK84"/>
+    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="AT66:AW66"/>
+    <mergeCell ref="AX122:BA122"/>
+    <mergeCell ref="BB122:BE122"/>
+    <mergeCell ref="BN84:BQ84"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="J103:M103"/>
+    <mergeCell ref="N103:Q103"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="V103:Y103"/>
+    <mergeCell ref="Z103:AC103"/>
+    <mergeCell ref="AD103:AG103"/>
+    <mergeCell ref="AH103:AK103"/>
+    <mergeCell ref="AL103:AO103"/>
+    <mergeCell ref="AP103:AS103"/>
+    <mergeCell ref="AT103:AW103"/>
+    <mergeCell ref="AX103:BA103"/>
+    <mergeCell ref="BB103:BE103"/>
+    <mergeCell ref="BF103:BI103"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="AX84:BA84"/>
+    <mergeCell ref="BB84:BE84"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:M122"/>
     <mergeCell ref="BF122:BI122"/>
     <mergeCell ref="BJ122:BM122"/>
     <mergeCell ref="BN122:BQ122"/>
@@ -44024,124 +44201,29 @@
     <mergeCell ref="BN47:BQ47"/>
     <mergeCell ref="BF47:BI47"/>
     <mergeCell ref="BR47:BU47"/>
-    <mergeCell ref="AX122:BA122"/>
-    <mergeCell ref="BB122:BE122"/>
-    <mergeCell ref="BN84:BQ84"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="J103:M103"/>
-    <mergeCell ref="N103:Q103"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="V103:Y103"/>
-    <mergeCell ref="Z103:AC103"/>
-    <mergeCell ref="AD103:AG103"/>
-    <mergeCell ref="AH103:AK103"/>
-    <mergeCell ref="AL103:AO103"/>
-    <mergeCell ref="AP103:AS103"/>
-    <mergeCell ref="AT103:AW103"/>
-    <mergeCell ref="AX103:BA103"/>
-    <mergeCell ref="BB103:BE103"/>
-    <mergeCell ref="BF103:BI103"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="BB84:BE84"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="AT122:AW122"/>
-    <mergeCell ref="N122:Q122"/>
-    <mergeCell ref="R122:U122"/>
-    <mergeCell ref="V122:Y122"/>
-    <mergeCell ref="Z122:AC122"/>
-    <mergeCell ref="AD122:AG122"/>
-    <mergeCell ref="AH122:AK122"/>
-    <mergeCell ref="V66:Y66"/>
-    <mergeCell ref="Z66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AK66"/>
-    <mergeCell ref="Z84:AC84"/>
-    <mergeCell ref="AD84:AG84"/>
-    <mergeCell ref="AH84:AK84"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="AT66:AW66"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="V84:Y84"/>
-    <mergeCell ref="AL122:AO122"/>
-    <mergeCell ref="AP122:AS122"/>
-    <mergeCell ref="AP66:AS66"/>
-    <mergeCell ref="AH28:AK28"/>
-    <mergeCell ref="AL28:AO28"/>
-    <mergeCell ref="AL47:AO47"/>
-    <mergeCell ref="AP28:AS28"/>
-    <mergeCell ref="AT28:AW28"/>
-    <mergeCell ref="AX28:BA28"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="R47:U47"/>
-    <mergeCell ref="V47:Y47"/>
-    <mergeCell ref="Z47:AC47"/>
-    <mergeCell ref="AD47:AG47"/>
-    <mergeCell ref="AH47:AK47"/>
-    <mergeCell ref="BB28:BE28"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="BB47:BE47"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="V28:Y28"/>
-    <mergeCell ref="Z28:AC28"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="BR122:BU122"/>
-    <mergeCell ref="BV122:BY122"/>
-    <mergeCell ref="BV66:BY66"/>
-    <mergeCell ref="BR66:BU66"/>
-    <mergeCell ref="BR84:BU84"/>
-    <mergeCell ref="BR103:BU103"/>
-    <mergeCell ref="AX66:BA66"/>
-    <mergeCell ref="BB66:BE66"/>
-    <mergeCell ref="BF66:BI66"/>
-    <mergeCell ref="BJ66:BM66"/>
-    <mergeCell ref="BN66:BQ66"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="AP47:AS47"/>
-    <mergeCell ref="AT47:AW47"/>
-    <mergeCell ref="AX47:BA47"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="N66:Q66"/>
-    <mergeCell ref="R66:U66"/>
-    <mergeCell ref="AL66:AO66"/>
-    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="BZ28:CC28"/>
+    <mergeCell ref="BZ47:CC47"/>
+    <mergeCell ref="BZ66:CC66"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD122:CG122"/>
+    <mergeCell ref="CD103:CG103"/>
+    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="CD28:CG28"/>
+    <mergeCell ref="BZ103:CC103"/>
+    <mergeCell ref="BZ84:CC84"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BZ122:CC122"/>
+    <mergeCell ref="CD47:CG47"/>
+    <mergeCell ref="CD66:CG66"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="97" man="1"/>
-    <brk id="76" max="97" man="1"/>
-    <brk id="94" max="97" man="1"/>
+    <brk id="38" max="98" man="1"/>
+    <brk id="76" max="98" man="1"/>
+    <brk id="94" max="98" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-21OS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-21OS_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7283B0-2140-46C2-8B8E-BB6F7248D458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35E8D37-C295-43AD-8D5E-1B3A3E599D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="255" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="17235" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OS" sheetId="15" r:id="rId1"/>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">OS!$A$1:$CU$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">OS!$A$1:$CV$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -621,13 +621,13 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>As of August 2024</t>
+    <t>As of November 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2024</t>
+    <t>Q1 2000 to Q3 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2024</t>
+    <t>Q1 2001 to Q3 2024</t>
   </si>
 </sst>
 </file>
@@ -732,7 +732,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -765,7 +765,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -777,6 +777,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -23639,51 +23657,100 @@
   <dimension ref="A1:EY130"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BZ1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="CL1" activePane="topRight" state="frozen"/>
       <selection activeCell="CE141" sqref="CA141:CE149"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.88671875" style="1" customWidth="1"/>
     <col min="2" max="93" width="9" style="12" customWidth="1"/>
-    <col min="94" max="99" width="9.109375" style="12" customWidth="1"/>
-    <col min="100" max="16384" width="7.77734375" style="12"/>
+    <col min="94" max="100" width="10.109375" style="37" customWidth="1"/>
+    <col min="101" max="16384" width="7.77734375" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CP1" s="26"/>
+      <c r="CQ1" s="26"/>
+      <c r="CR1" s="26"/>
+      <c r="CS1" s="26"/>
+      <c r="CT1" s="26"/>
+      <c r="CU1" s="26"/>
+      <c r="CV1" s="26"/>
     </row>
     <row r="2" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="CP2" s="26"/>
+      <c r="CQ2" s="26"/>
+      <c r="CR2" s="26"/>
+      <c r="CS2" s="26"/>
+      <c r="CT2" s="26"/>
+      <c r="CU2" s="26"/>
+      <c r="CV2" s="26"/>
     </row>
     <row r="3" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="CP3" s="26"/>
+      <c r="CQ3" s="26"/>
+      <c r="CR3" s="26"/>
+      <c r="CS3" s="26"/>
+      <c r="CT3" s="26"/>
+      <c r="CU3" s="26"/>
+      <c r="CV3" s="26"/>
     </row>
     <row r="4" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
+      <c r="CP4" s="26"/>
+      <c r="CQ4" s="26"/>
+      <c r="CR4" s="26"/>
+      <c r="CS4" s="26"/>
+      <c r="CT4" s="26"/>
+      <c r="CU4" s="26"/>
+      <c r="CV4" s="26"/>
     </row>
     <row r="5" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="CP5" s="26"/>
+      <c r="CQ5" s="26"/>
+      <c r="CR5" s="26"/>
+      <c r="CS5" s="26"/>
+      <c r="CT5" s="26"/>
+      <c r="CU5" s="26"/>
+      <c r="CV5" s="26"/>
     </row>
     <row r="6" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="CP6" s="26"/>
+      <c r="CQ6" s="26"/>
+      <c r="CR6" s="26"/>
+      <c r="CS6" s="26"/>
+      <c r="CT6" s="26"/>
+      <c r="CU6" s="26"/>
+      <c r="CV6" s="26"/>
     </row>
     <row r="7" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="CP7" s="26"/>
+      <c r="CQ7" s="26"/>
+      <c r="CR7" s="26"/>
+      <c r="CS7" s="26"/>
+      <c r="CT7" s="26"/>
+      <c r="CU7" s="26"/>
+      <c r="CV7" s="26"/>
     </row>
     <row r="8" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
@@ -23779,12 +23846,13 @@
       <c r="CM8" s="1"/>
       <c r="CN8" s="1"/>
       <c r="CO8" s="1"/>
-      <c r="CP8" s="1"/>
-      <c r="CQ8" s="1"/>
-      <c r="CR8" s="1"/>
-      <c r="CS8" s="1"/>
-      <c r="CT8" s="1"/>
-      <c r="CU8" s="1"/>
+      <c r="CP8" s="27"/>
+      <c r="CQ8" s="27"/>
+      <c r="CR8" s="27"/>
+      <c r="CS8" s="27"/>
+      <c r="CT8" s="27"/>
+      <c r="CU8" s="27"/>
+      <c r="CV8" s="27"/>
     </row>
     <row r="9" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
@@ -23926,16 +23994,17 @@
       <c r="CM9" s="21"/>
       <c r="CN9" s="21"/>
       <c r="CO9" s="21"/>
-      <c r="CP9" s="21">
+      <c r="CP9" s="28">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="21"/>
-      <c r="CR9" s="21"/>
-      <c r="CS9" s="21"/>
-      <c r="CT9" s="21">
+      <c r="CQ9" s="28"/>
+      <c r="CR9" s="28"/>
+      <c r="CS9" s="28"/>
+      <c r="CT9" s="28">
         <v>2024</v>
       </c>
-      <c r="CU9" s="21"/>
+      <c r="CU9" s="28"/>
+      <c r="CV9" s="28"/>
     </row>
     <row r="10" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24217,23 +24286,26 @@
       <c r="CO10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="7" t="s">
+      <c r="CP10" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="7" t="s">
+      <c r="CQ10" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="7" t="s">
+      <c r="CR10" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="CS10" s="7" t="s">
+      <c r="CS10" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="CT10" s="7" t="s">
+      <c r="CT10" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CU10" s="7" t="s">
+      <c r="CU10" s="29" t="s">
         <v>8</v>
+      </c>
+      <c r="CV10" s="29" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24330,12 +24402,13 @@
       <c r="CM11" s="1"/>
       <c r="CN11" s="1"/>
       <c r="CO11" s="1"/>
-      <c r="CP11" s="1"/>
-      <c r="CQ11" s="1"/>
-      <c r="CR11" s="1"/>
-      <c r="CS11" s="1"/>
-      <c r="CT11" s="1"/>
-      <c r="CU11" s="1"/>
+      <c r="CP11" s="27"/>
+      <c r="CQ11" s="27"/>
+      <c r="CR11" s="27"/>
+      <c r="CS11" s="27"/>
+      <c r="CT11" s="27"/>
+      <c r="CU11" s="27"/>
+      <c r="CV11" s="27"/>
     </row>
     <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
@@ -24617,25 +24690,27 @@
       <c r="CO12" s="19">
         <v>72267.957904806448</v>
       </c>
-      <c r="CP12" s="19">
+      <c r="CP12" s="30">
         <v>65749.128528322341</v>
       </c>
-      <c r="CQ12" s="19">
+      <c r="CQ12" s="30">
         <v>66475.807090737624</v>
       </c>
-      <c r="CR12" s="19">
+      <c r="CR12" s="30">
         <v>58888.090068404897</v>
       </c>
-      <c r="CS12" s="19">
+      <c r="CS12" s="30">
         <v>84049.154344747789</v>
       </c>
-      <c r="CT12" s="19">
+      <c r="CT12" s="30">
         <v>72794.250572686855</v>
       </c>
-      <c r="CU12" s="19">
-        <v>76716.187849275651</v>
-      </c>
-      <c r="CV12" s="11"/>
+      <c r="CU12" s="30">
+        <v>75737.872164926506</v>
+      </c>
+      <c r="CV12" s="30">
+        <v>65672.472575176129</v>
+      </c>
       <c r="CW12" s="11"/>
       <c r="CX12" s="11"/>
       <c r="CY12" s="11"/>
@@ -24972,25 +25047,27 @@
       <c r="CO13" s="19">
         <v>43550.06055180906</v>
       </c>
-      <c r="CP13" s="19">
+      <c r="CP13" s="30">
         <v>53563.929716224739</v>
       </c>
-      <c r="CQ13" s="19">
+      <c r="CQ13" s="30">
         <v>44669.943711267093</v>
       </c>
-      <c r="CR13" s="19">
+      <c r="CR13" s="30">
         <v>39262.494450357262</v>
       </c>
-      <c r="CS13" s="19">
+      <c r="CS13" s="30">
         <v>53053.825725400275</v>
       </c>
-      <c r="CT13" s="19">
+      <c r="CT13" s="30">
         <v>63630.838798680183</v>
       </c>
-      <c r="CU13" s="19">
-        <v>51049.415754099427</v>
-      </c>
-      <c r="CV13" s="11"/>
+      <c r="CU13" s="30">
+        <v>51627.400508442821</v>
+      </c>
+      <c r="CV13" s="30">
+        <v>43354.670233842306</v>
+      </c>
       <c r="CW13" s="11"/>
       <c r="CX13" s="11"/>
       <c r="CY13" s="11"/>
@@ -25140,13 +25217,13 @@
       <c r="CM14" s="20"/>
       <c r="CN14" s="20"/>
       <c r="CO14" s="20"/>
-      <c r="CP14" s="20"/>
-      <c r="CQ14" s="20"/>
-      <c r="CR14" s="20"/>
-      <c r="CS14" s="20"/>
-      <c r="CT14" s="20"/>
-      <c r="CU14" s="20"/>
-      <c r="CV14" s="11"/>
+      <c r="CP14" s="31"/>
+      <c r="CQ14" s="31"/>
+      <c r="CR14" s="31"/>
+      <c r="CS14" s="31"/>
+      <c r="CT14" s="31"/>
+      <c r="CU14" s="31"/>
+      <c r="CV14" s="31"/>
       <c r="CW14" s="11"/>
       <c r="CX14" s="11"/>
       <c r="CY14" s="11"/>
@@ -25483,25 +25560,27 @@
       <c r="CO15" s="20">
         <v>115818.01845661551</v>
       </c>
-      <c r="CP15" s="20">
+      <c r="CP15" s="31">
         <v>119313.05824454708</v>
       </c>
-      <c r="CQ15" s="20">
+      <c r="CQ15" s="31">
         <v>111145.75080200471</v>
       </c>
-      <c r="CR15" s="20">
+      <c r="CR15" s="31">
         <v>98150.58451876216</v>
       </c>
-      <c r="CS15" s="20">
+      <c r="CS15" s="31">
         <v>137102.98007014807</v>
       </c>
-      <c r="CT15" s="20">
+      <c r="CT15" s="31">
         <v>136425.08937136704</v>
       </c>
-      <c r="CU15" s="20">
-        <v>127765.60360337509</v>
-      </c>
-      <c r="CV15" s="11"/>
+      <c r="CU15" s="31">
+        <v>127365.27267336933</v>
+      </c>
+      <c r="CV15" s="31">
+        <v>109027.14280901843</v>
+      </c>
       <c r="CW15" s="11"/>
       <c r="CX15" s="11"/>
       <c r="CY15" s="11"/>
@@ -25652,12 +25731,13 @@
       <c r="CM16" s="15"/>
       <c r="CN16" s="15"/>
       <c r="CO16" s="15"/>
-      <c r="CP16" s="15"/>
-      <c r="CQ16" s="15"/>
-      <c r="CR16" s="15"/>
-      <c r="CS16" s="15"/>
-      <c r="CT16" s="15"/>
-      <c r="CU16" s="15"/>
+      <c r="CP16" s="32"/>
+      <c r="CQ16" s="32"/>
+      <c r="CR16" s="32"/>
+      <c r="CS16" s="32"/>
+      <c r="CT16" s="32"/>
+      <c r="CU16" s="32"/>
+      <c r="CV16" s="32"/>
     </row>
     <row r="17" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
@@ -25755,12 +25835,13 @@
       <c r="CM17" s="1"/>
       <c r="CN17" s="1"/>
       <c r="CO17" s="1"/>
-      <c r="CP17" s="1"/>
-      <c r="CQ17" s="1"/>
-      <c r="CR17" s="1"/>
-      <c r="CS17" s="1"/>
-      <c r="CT17" s="1"/>
-      <c r="CU17" s="1"/>
+      <c r="CP17" s="27"/>
+      <c r="CQ17" s="27"/>
+      <c r="CR17" s="27"/>
+      <c r="CS17" s="27"/>
+      <c r="CT17" s="27"/>
+      <c r="CU17" s="27"/>
+      <c r="CV17" s="27"/>
     </row>
     <row r="18" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="17"/>
@@ -25855,13 +25936,13 @@
       <c r="CM18" s="17"/>
       <c r="CN18" s="17"/>
       <c r="CO18" s="17"/>
-      <c r="CP18" s="17"/>
-      <c r="CQ18" s="17"/>
-      <c r="CR18" s="17"/>
-      <c r="CS18" s="17"/>
-      <c r="CT18" s="17"/>
-      <c r="CU18" s="17"/>
-      <c r="CV18" s="11"/>
+      <c r="CP18" s="33"/>
+      <c r="CQ18" s="33"/>
+      <c r="CR18" s="33"/>
+      <c r="CS18" s="33"/>
+      <c r="CT18" s="33"/>
+      <c r="CU18" s="33"/>
+      <c r="CV18" s="33"/>
       <c r="CW18" s="11"/>
       <c r="CX18" s="11"/>
       <c r="CY18" s="11"/>
@@ -26011,13 +26092,13 @@
       <c r="CM19" s="17"/>
       <c r="CN19" s="17"/>
       <c r="CO19" s="17"/>
-      <c r="CP19" s="17"/>
-      <c r="CQ19" s="17"/>
-      <c r="CR19" s="17"/>
-      <c r="CS19" s="17"/>
-      <c r="CT19" s="17"/>
-      <c r="CU19" s="17"/>
-      <c r="CV19" s="11"/>
+      <c r="CP19" s="33"/>
+      <c r="CQ19" s="33"/>
+      <c r="CR19" s="33"/>
+      <c r="CS19" s="33"/>
+      <c r="CT19" s="33"/>
+      <c r="CU19" s="33"/>
+      <c r="CV19" s="33"/>
       <c r="CW19" s="11"/>
       <c r="CX19" s="11"/>
       <c r="CY19" s="11"/>
@@ -26170,12 +26251,13 @@
       <c r="CM20" s="1"/>
       <c r="CN20" s="1"/>
       <c r="CO20" s="1"/>
-      <c r="CP20" s="1"/>
-      <c r="CQ20" s="1"/>
-      <c r="CR20" s="1"/>
-      <c r="CS20" s="1"/>
-      <c r="CT20" s="1"/>
-      <c r="CU20" s="1"/>
+      <c r="CP20" s="27"/>
+      <c r="CQ20" s="27"/>
+      <c r="CR20" s="27"/>
+      <c r="CS20" s="27"/>
+      <c r="CT20" s="27"/>
+      <c r="CU20" s="27"/>
+      <c r="CV20" s="27"/>
     </row>
     <row r="21" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -26273,12 +26355,13 @@
       <c r="CM21" s="1"/>
       <c r="CN21" s="1"/>
       <c r="CO21" s="1"/>
-      <c r="CP21" s="1"/>
-      <c r="CQ21" s="1"/>
-      <c r="CR21" s="1"/>
-      <c r="CS21" s="1"/>
-      <c r="CT21" s="1"/>
-      <c r="CU21" s="1"/>
+      <c r="CP21" s="27"/>
+      <c r="CQ21" s="27"/>
+      <c r="CR21" s="27"/>
+      <c r="CS21" s="27"/>
+      <c r="CT21" s="27"/>
+      <c r="CU21" s="27"/>
+      <c r="CV21" s="27"/>
     </row>
     <row r="22" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -26376,12 +26459,13 @@
       <c r="CM22" s="1"/>
       <c r="CN22" s="1"/>
       <c r="CO22" s="1"/>
-      <c r="CP22" s="1"/>
-      <c r="CQ22" s="1"/>
-      <c r="CR22" s="1"/>
-      <c r="CS22" s="1"/>
-      <c r="CT22" s="1"/>
-      <c r="CU22" s="1"/>
+      <c r="CP22" s="27"/>
+      <c r="CQ22" s="27"/>
+      <c r="CR22" s="27"/>
+      <c r="CS22" s="27"/>
+      <c r="CT22" s="27"/>
+      <c r="CU22" s="27"/>
+      <c r="CV22" s="27"/>
     </row>
     <row r="23" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
@@ -26477,12 +26561,13 @@
       <c r="CM23" s="1"/>
       <c r="CN23" s="1"/>
       <c r="CO23" s="1"/>
-      <c r="CP23" s="1"/>
-      <c r="CQ23" s="1"/>
-      <c r="CR23" s="1"/>
-      <c r="CS23" s="1"/>
-      <c r="CT23" s="1"/>
-      <c r="CU23" s="1"/>
+      <c r="CP23" s="27"/>
+      <c r="CQ23" s="27"/>
+      <c r="CR23" s="27"/>
+      <c r="CS23" s="27"/>
+      <c r="CT23" s="27"/>
+      <c r="CU23" s="27"/>
+      <c r="CV23" s="27"/>
     </row>
     <row r="24" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -26580,12 +26665,13 @@
       <c r="CM24" s="1"/>
       <c r="CN24" s="1"/>
       <c r="CO24" s="1"/>
-      <c r="CP24" s="1"/>
-      <c r="CQ24" s="1"/>
-      <c r="CR24" s="1"/>
-      <c r="CS24" s="1"/>
-      <c r="CT24" s="1"/>
-      <c r="CU24" s="1"/>
+      <c r="CP24" s="27"/>
+      <c r="CQ24" s="27"/>
+      <c r="CR24" s="27"/>
+      <c r="CS24" s="27"/>
+      <c r="CT24" s="27"/>
+      <c r="CU24" s="27"/>
+      <c r="CV24" s="27"/>
     </row>
     <row r="25" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -26683,12 +26769,13 @@
       <c r="CM25" s="1"/>
       <c r="CN25" s="1"/>
       <c r="CO25" s="1"/>
-      <c r="CP25" s="1"/>
-      <c r="CQ25" s="1"/>
-      <c r="CR25" s="1"/>
-      <c r="CS25" s="1"/>
-      <c r="CT25" s="1"/>
-      <c r="CU25" s="1"/>
+      <c r="CP25" s="27"/>
+      <c r="CQ25" s="27"/>
+      <c r="CR25" s="27"/>
+      <c r="CS25" s="27"/>
+      <c r="CT25" s="27"/>
+      <c r="CU25" s="27"/>
+      <c r="CV25" s="27"/>
     </row>
     <row r="26" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -26786,12 +26873,13 @@
       <c r="CM26" s="1"/>
       <c r="CN26" s="1"/>
       <c r="CO26" s="1"/>
-      <c r="CP26" s="1"/>
-      <c r="CQ26" s="1"/>
-      <c r="CR26" s="1"/>
-      <c r="CS26" s="1"/>
-      <c r="CT26" s="1"/>
-      <c r="CU26" s="1"/>
+      <c r="CP26" s="27"/>
+      <c r="CQ26" s="27"/>
+      <c r="CR26" s="27"/>
+      <c r="CS26" s="27"/>
+      <c r="CT26" s="27"/>
+      <c r="CU26" s="27"/>
+      <c r="CV26" s="27"/>
     </row>
     <row r="27" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
@@ -26887,12 +26975,13 @@
       <c r="CM27" s="1"/>
       <c r="CN27" s="1"/>
       <c r="CO27" s="1"/>
-      <c r="CP27" s="1"/>
-      <c r="CQ27" s="1"/>
-      <c r="CR27" s="1"/>
-      <c r="CS27" s="1"/>
-      <c r="CT27" s="1"/>
-      <c r="CU27" s="1"/>
+      <c r="CP27" s="27"/>
+      <c r="CQ27" s="27"/>
+      <c r="CR27" s="27"/>
+      <c r="CS27" s="27"/>
+      <c r="CT27" s="27"/>
+      <c r="CU27" s="27"/>
+      <c r="CV27" s="27"/>
     </row>
     <row r="28" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
@@ -27034,16 +27123,17 @@
       <c r="CM28" s="21"/>
       <c r="CN28" s="21"/>
       <c r="CO28" s="21"/>
-      <c r="CP28" s="21">
+      <c r="CP28" s="28">
         <v>2023</v>
       </c>
-      <c r="CQ28" s="21"/>
-      <c r="CR28" s="21"/>
-      <c r="CS28" s="21"/>
-      <c r="CT28" s="21">
+      <c r="CQ28" s="28"/>
+      <c r="CR28" s="28"/>
+      <c r="CS28" s="28"/>
+      <c r="CT28" s="28">
         <v>2024</v>
       </c>
-      <c r="CU28" s="21"/>
+      <c r="CU28" s="28"/>
+      <c r="CV28" s="28"/>
     </row>
     <row r="29" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
@@ -27325,23 +27415,26 @@
       <c r="CO29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP29" s="7" t="s">
+      <c r="CP29" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CQ29" s="7" t="s">
+      <c r="CQ29" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="CR29" s="7" t="s">
+      <c r="CR29" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="CS29" s="7" t="s">
+      <c r="CS29" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="CT29" s="7" t="s">
+      <c r="CT29" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CU29" s="7" t="s">
+      <c r="CU29" s="29" t="s">
         <v>8</v>
+      </c>
+      <c r="CV29" s="29" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27438,12 +27531,13 @@
       <c r="CM30" s="1"/>
       <c r="CN30" s="1"/>
       <c r="CO30" s="1"/>
-      <c r="CP30" s="1"/>
-      <c r="CQ30" s="1"/>
-      <c r="CR30" s="1"/>
-      <c r="CS30" s="1"/>
-      <c r="CT30" s="1"/>
-      <c r="CU30" s="1"/>
+      <c r="CP30" s="27"/>
+      <c r="CQ30" s="27"/>
+      <c r="CR30" s="27"/>
+      <c r="CS30" s="27"/>
+      <c r="CT30" s="27"/>
+      <c r="CU30" s="27"/>
+      <c r="CV30" s="27"/>
     </row>
     <row r="31" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
@@ -27725,25 +27819,27 @@
       <c r="CO31" s="19">
         <v>67445.452034046815</v>
       </c>
-      <c r="CP31" s="19">
+      <c r="CP31" s="30">
         <v>61083.907320400758</v>
       </c>
-      <c r="CQ31" s="19">
+      <c r="CQ31" s="30">
         <v>60802.751380819478</v>
       </c>
-      <c r="CR31" s="19">
+      <c r="CR31" s="30">
         <v>52937.173584944583</v>
       </c>
-      <c r="CS31" s="19">
+      <c r="CS31" s="30">
         <v>74549.148697692945</v>
       </c>
-      <c r="CT31" s="19">
+      <c r="CT31" s="30">
         <v>64826.636232948469</v>
       </c>
-      <c r="CU31" s="19">
-        <v>67479.991341685629</v>
-      </c>
-      <c r="CV31" s="11"/>
+      <c r="CU31" s="30">
+        <v>66619.459350197474</v>
+      </c>
+      <c r="CV31" s="30">
+        <v>57108.049777861786</v>
+      </c>
       <c r="CW31" s="11"/>
       <c r="CX31" s="11"/>
       <c r="CY31" s="11"/>
@@ -28080,25 +28176,27 @@
       <c r="CO32" s="19">
         <v>38676.130022701458</v>
       </c>
-      <c r="CP32" s="19">
+      <c r="CP32" s="30">
         <v>45170.578794868416</v>
       </c>
-      <c r="CQ32" s="19">
+      <c r="CQ32" s="30">
         <v>38146.830176206837</v>
       </c>
-      <c r="CR32" s="19">
+      <c r="CR32" s="30">
         <v>33508.22310430411</v>
       </c>
-      <c r="CS32" s="19">
+      <c r="CS32" s="30">
         <v>43890.885491192763</v>
       </c>
-      <c r="CT32" s="19">
+      <c r="CT32" s="30">
         <v>51031.205097335886</v>
       </c>
-      <c r="CU32" s="19">
-        <v>41884.745369377109</v>
-      </c>
-      <c r="CV32" s="11"/>
+      <c r="CU32" s="30">
+        <v>42435.986242703846</v>
+      </c>
+      <c r="CV32" s="30">
+        <v>35608.311082691987</v>
+      </c>
       <c r="CW32" s="11"/>
       <c r="CX32" s="11"/>
       <c r="CY32" s="11"/>
@@ -28248,13 +28346,13 @@
       <c r="CM33" s="20"/>
       <c r="CN33" s="20"/>
       <c r="CO33" s="20"/>
-      <c r="CP33" s="20"/>
-      <c r="CQ33" s="20"/>
-      <c r="CR33" s="20"/>
-      <c r="CS33" s="20"/>
-      <c r="CT33" s="20"/>
-      <c r="CU33" s="20"/>
-      <c r="CV33" s="11"/>
+      <c r="CP33" s="31"/>
+      <c r="CQ33" s="31"/>
+      <c r="CR33" s="31"/>
+      <c r="CS33" s="31"/>
+      <c r="CT33" s="31"/>
+      <c r="CU33" s="31"/>
+      <c r="CV33" s="31"/>
       <c r="CW33" s="11"/>
       <c r="CX33" s="11"/>
       <c r="CY33" s="11"/>
@@ -28591,25 +28689,27 @@
       <c r="CO34" s="20">
         <v>106121.58205674827</v>
       </c>
-      <c r="CP34" s="20">
+      <c r="CP34" s="31">
         <v>106254.48611526917</v>
       </c>
-      <c r="CQ34" s="20">
+      <c r="CQ34" s="31">
         <v>98949.581557026308</v>
       </c>
-      <c r="CR34" s="20">
+      <c r="CR34" s="31">
         <v>86445.396689248693</v>
       </c>
-      <c r="CS34" s="20">
+      <c r="CS34" s="31">
         <v>118440.03418888571</v>
       </c>
-      <c r="CT34" s="20">
+      <c r="CT34" s="31">
         <v>115857.84133028435</v>
       </c>
-      <c r="CU34" s="20">
-        <v>109364.73671106274</v>
-      </c>
-      <c r="CV34" s="11"/>
+      <c r="CU34" s="31">
+        <v>109055.44559290132</v>
+      </c>
+      <c r="CV34" s="31">
+        <v>92716.360860553774</v>
+      </c>
       <c r="CW34" s="11"/>
       <c r="CX34" s="11"/>
       <c r="CY34" s="11"/>
@@ -28760,12 +28860,13 @@
       <c r="CM35" s="15"/>
       <c r="CN35" s="15"/>
       <c r="CO35" s="15"/>
-      <c r="CP35" s="15"/>
-      <c r="CQ35" s="15"/>
-      <c r="CR35" s="15"/>
-      <c r="CS35" s="15"/>
-      <c r="CT35" s="15"/>
-      <c r="CU35" s="15"/>
+      <c r="CP35" s="32"/>
+      <c r="CQ35" s="32"/>
+      <c r="CR35" s="32"/>
+      <c r="CS35" s="32"/>
+      <c r="CT35" s="32"/>
+      <c r="CU35" s="32"/>
+      <c r="CV35" s="32"/>
     </row>
     <row r="36" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
@@ -28863,12 +28964,13 @@
       <c r="CM36" s="1"/>
       <c r="CN36" s="1"/>
       <c r="CO36" s="1"/>
-      <c r="CP36" s="1"/>
-      <c r="CQ36" s="1"/>
-      <c r="CR36" s="1"/>
-      <c r="CS36" s="1"/>
-      <c r="CT36" s="1"/>
-      <c r="CU36" s="1"/>
+      <c r="CP36" s="27"/>
+      <c r="CQ36" s="27"/>
+      <c r="CR36" s="27"/>
+      <c r="CS36" s="27"/>
+      <c r="CT36" s="27"/>
+      <c r="CU36" s="27"/>
+      <c r="CV36" s="27"/>
     </row>
     <row r="37" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="17"/>
@@ -28963,13 +29065,13 @@
       <c r="CM37" s="17"/>
       <c r="CN37" s="17"/>
       <c r="CO37" s="17"/>
-      <c r="CP37" s="17"/>
-      <c r="CQ37" s="17"/>
-      <c r="CR37" s="17"/>
-      <c r="CS37" s="17"/>
-      <c r="CT37" s="17"/>
-      <c r="CU37" s="17"/>
-      <c r="CV37" s="11"/>
+      <c r="CP37" s="33"/>
+      <c r="CQ37" s="33"/>
+      <c r="CR37" s="33"/>
+      <c r="CS37" s="33"/>
+      <c r="CT37" s="33"/>
+      <c r="CU37" s="33"/>
+      <c r="CV37" s="33"/>
       <c r="CW37" s="11"/>
       <c r="CX37" s="11"/>
       <c r="CY37" s="11"/>
@@ -29119,13 +29221,13 @@
       <c r="CM38" s="17"/>
       <c r="CN38" s="17"/>
       <c r="CO38" s="17"/>
-      <c r="CP38" s="17"/>
-      <c r="CQ38" s="17"/>
-      <c r="CR38" s="17"/>
-      <c r="CS38" s="17"/>
-      <c r="CT38" s="17"/>
-      <c r="CU38" s="17"/>
-      <c r="CV38" s="11"/>
+      <c r="CP38" s="33"/>
+      <c r="CQ38" s="33"/>
+      <c r="CR38" s="33"/>
+      <c r="CS38" s="33"/>
+      <c r="CT38" s="33"/>
+      <c r="CU38" s="33"/>
+      <c r="CV38" s="33"/>
       <c r="CW38" s="11"/>
       <c r="CX38" s="11"/>
       <c r="CY38" s="11"/>
@@ -29278,12 +29380,13 @@
       <c r="CM39" s="1"/>
       <c r="CN39" s="1"/>
       <c r="CO39" s="1"/>
-      <c r="CP39" s="1"/>
-      <c r="CQ39" s="1"/>
-      <c r="CR39" s="1"/>
-      <c r="CS39" s="1"/>
-      <c r="CT39" s="1"/>
-      <c r="CU39" s="1"/>
+      <c r="CP39" s="27"/>
+      <c r="CQ39" s="27"/>
+      <c r="CR39" s="27"/>
+      <c r="CS39" s="27"/>
+      <c r="CT39" s="27"/>
+      <c r="CU39" s="27"/>
+      <c r="CV39" s="27"/>
     </row>
     <row r="40" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
@@ -29381,12 +29484,13 @@
       <c r="CM40" s="1"/>
       <c r="CN40" s="1"/>
       <c r="CO40" s="1"/>
-      <c r="CP40" s="1"/>
-      <c r="CQ40" s="1"/>
-      <c r="CR40" s="1"/>
-      <c r="CS40" s="1"/>
-      <c r="CT40" s="1"/>
-      <c r="CU40" s="1"/>
+      <c r="CP40" s="27"/>
+      <c r="CQ40" s="27"/>
+      <c r="CR40" s="27"/>
+      <c r="CS40" s="27"/>
+      <c r="CT40" s="27"/>
+      <c r="CU40" s="27"/>
+      <c r="CV40" s="27"/>
     </row>
     <row r="41" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
@@ -29484,12 +29588,13 @@
       <c r="CM41" s="1"/>
       <c r="CN41" s="1"/>
       <c r="CO41" s="1"/>
-      <c r="CP41" s="1"/>
-      <c r="CQ41" s="1"/>
-      <c r="CR41" s="1"/>
-      <c r="CS41" s="1"/>
-      <c r="CT41" s="1"/>
-      <c r="CU41" s="1"/>
+      <c r="CP41" s="27"/>
+      <c r="CQ41" s="27"/>
+      <c r="CR41" s="27"/>
+      <c r="CS41" s="27"/>
+      <c r="CT41" s="27"/>
+      <c r="CU41" s="27"/>
+      <c r="CV41" s="27"/>
     </row>
     <row r="42" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
@@ -29585,12 +29690,13 @@
       <c r="CM42" s="1"/>
       <c r="CN42" s="1"/>
       <c r="CO42" s="1"/>
-      <c r="CP42" s="1"/>
-      <c r="CQ42" s="1"/>
-      <c r="CR42" s="1"/>
-      <c r="CS42" s="1"/>
-      <c r="CT42" s="1"/>
-      <c r="CU42" s="1"/>
+      <c r="CP42" s="27"/>
+      <c r="CQ42" s="27"/>
+      <c r="CR42" s="27"/>
+      <c r="CS42" s="27"/>
+      <c r="CT42" s="27"/>
+      <c r="CU42" s="27"/>
+      <c r="CV42" s="27"/>
     </row>
     <row r="43" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -29688,12 +29794,13 @@
       <c r="CM43" s="1"/>
       <c r="CN43" s="1"/>
       <c r="CO43" s="1"/>
-      <c r="CP43" s="1"/>
-      <c r="CQ43" s="1"/>
-      <c r="CR43" s="1"/>
-      <c r="CS43" s="1"/>
-      <c r="CT43" s="1"/>
-      <c r="CU43" s="1"/>
+      <c r="CP43" s="27"/>
+      <c r="CQ43" s="27"/>
+      <c r="CR43" s="27"/>
+      <c r="CS43" s="27"/>
+      <c r="CT43" s="27"/>
+      <c r="CU43" s="27"/>
+      <c r="CV43" s="27"/>
     </row>
     <row r="44" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
@@ -29791,12 +29898,13 @@
       <c r="CM44" s="1"/>
       <c r="CN44" s="1"/>
       <c r="CO44" s="1"/>
-      <c r="CP44" s="1"/>
-      <c r="CQ44" s="1"/>
-      <c r="CR44" s="1"/>
-      <c r="CS44" s="1"/>
-      <c r="CT44" s="1"/>
-      <c r="CU44" s="1"/>
+      <c r="CP44" s="27"/>
+      <c r="CQ44" s="27"/>
+      <c r="CR44" s="27"/>
+      <c r="CS44" s="27"/>
+      <c r="CT44" s="27"/>
+      <c r="CU44" s="27"/>
+      <c r="CV44" s="27"/>
     </row>
     <row r="45" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -29882,6 +29990,13 @@
       <c r="CA45" s="1"/>
       <c r="CB45" s="1"/>
       <c r="CC45" s="1"/>
+      <c r="CP45" s="26"/>
+      <c r="CQ45" s="26"/>
+      <c r="CR45" s="26"/>
+      <c r="CS45" s="26"/>
+      <c r="CT45" s="26"/>
+      <c r="CU45" s="26"/>
+      <c r="CV45" s="26"/>
     </row>
     <row r="46" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
@@ -29977,12 +30092,13 @@
       <c r="CM46" s="1"/>
       <c r="CN46" s="1"/>
       <c r="CO46" s="1"/>
-      <c r="CP46" s="1"/>
-      <c r="CQ46" s="1"/>
-      <c r="CR46" s="1"/>
-      <c r="CS46" s="1"/>
-      <c r="CT46" s="1"/>
-      <c r="CU46" s="1"/>
+      <c r="CP46" s="27"/>
+      <c r="CQ46" s="27"/>
+      <c r="CR46" s="27"/>
+      <c r="CS46" s="27"/>
+      <c r="CT46" s="27"/>
+      <c r="CU46" s="27"/>
+      <c r="CV46" s="27"/>
     </row>
     <row r="47" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
@@ -30124,14 +30240,15 @@
       <c r="CM47" s="21"/>
       <c r="CN47" s="21"/>
       <c r="CO47" s="21"/>
-      <c r="CP47" s="21" t="s">
+      <c r="CP47" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="CQ47" s="21"/>
-      <c r="CR47" s="22"/>
+      <c r="CQ47" s="28"/>
+      <c r="CR47" s="28"/>
       <c r="CS47" s="22"/>
-      <c r="CT47" s="21"/>
-      <c r="CU47" s="22"/>
+      <c r="CT47" s="28"/>
+      <c r="CU47" s="28"/>
+      <c r="CV47" s="22"/>
     </row>
     <row r="48" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
@@ -30413,16 +30530,19 @@
       <c r="CO48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP48" s="6" t="s">
+      <c r="CP48" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="CQ48" s="6" t="s">
+      <c r="CQ48" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="CR48" s="6"/>
-      <c r="CS48" s="6"/>
-      <c r="CT48" s="6"/>
-      <c r="CU48" s="6"/>
+      <c r="CR48" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="CS48" s="34"/>
+      <c r="CT48" s="34"/>
+      <c r="CU48" s="34"/>
+      <c r="CV48" s="34"/>
     </row>
     <row r="49" spans="1:151" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
@@ -30518,12 +30638,13 @@
       <c r="CM49" s="1"/>
       <c r="CN49" s="1"/>
       <c r="CO49" s="1"/>
-      <c r="CP49" s="1"/>
-      <c r="CQ49" s="1"/>
-      <c r="CR49" s="1"/>
-      <c r="CS49" s="1"/>
-      <c r="CT49" s="1"/>
-      <c r="CU49" s="1"/>
+      <c r="CP49" s="27"/>
+      <c r="CQ49" s="27"/>
+      <c r="CR49" s="27"/>
+      <c r="CS49" s="27"/>
+      <c r="CT49" s="27"/>
+      <c r="CU49" s="27"/>
+      <c r="CV49" s="27"/>
     </row>
     <row r="50" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
@@ -30805,17 +30926,19 @@
       <c r="CO50" s="18">
         <v>16.30210231685237</v>
       </c>
-      <c r="CP50" s="18">
+      <c r="CP50" s="35">
         <v>10.715156538279786</v>
       </c>
-      <c r="CQ50" s="18">
-        <v>15.404673078372994</v>
-      </c>
-      <c r="CR50" s="18"/>
-      <c r="CS50" s="18"/>
-      <c r="CT50" s="18"/>
-      <c r="CU50" s="18"/>
-      <c r="CV50" s="11"/>
+      <c r="CQ50" s="35">
+        <v>13.932986269044363</v>
+      </c>
+      <c r="CR50" s="35">
+        <v>11.520805818104193</v>
+      </c>
+      <c r="CS50" s="35"/>
+      <c r="CT50" s="35"/>
+      <c r="CU50" s="35"/>
+      <c r="CV50" s="35"/>
       <c r="CW50" s="11"/>
       <c r="CX50" s="11"/>
       <c r="CY50" s="11"/>
@@ -31148,17 +31271,19 @@
       <c r="CO51" s="18">
         <v>21.822622180479215</v>
       </c>
-      <c r="CP51" s="18">
+      <c r="CP51" s="35">
         <v>18.794194406177283</v>
       </c>
-      <c r="CQ51" s="18">
-        <v>14.281352320628145</v>
-      </c>
-      <c r="CR51" s="18"/>
-      <c r="CS51" s="18"/>
-      <c r="CT51" s="18"/>
-      <c r="CU51" s="18"/>
-      <c r="CV51" s="11"/>
+      <c r="CQ51" s="35">
+        <v>15.575253110114957</v>
+      </c>
+      <c r="CR51" s="35">
+        <v>10.422607734867967</v>
+      </c>
+      <c r="CS51" s="35"/>
+      <c r="CT51" s="35"/>
+      <c r="CU51" s="35"/>
+      <c r="CV51" s="35"/>
       <c r="CW51" s="11"/>
       <c r="CX51" s="11"/>
       <c r="CY51" s="11"/>
@@ -31305,13 +31430,13 @@
       <c r="CM52" s="17"/>
       <c r="CN52" s="17"/>
       <c r="CO52" s="17"/>
-      <c r="CP52" s="17"/>
-      <c r="CQ52" s="17"/>
-      <c r="CR52" s="17"/>
-      <c r="CS52" s="17"/>
-      <c r="CT52" s="17"/>
-      <c r="CU52" s="17"/>
-      <c r="CV52" s="11"/>
+      <c r="CP52" s="33"/>
+      <c r="CQ52" s="33"/>
+      <c r="CR52" s="33"/>
+      <c r="CS52" s="33"/>
+      <c r="CT52" s="33"/>
+      <c r="CU52" s="33"/>
+      <c r="CV52" s="33"/>
       <c r="CW52" s="11"/>
       <c r="CX52" s="11"/>
       <c r="CY52" s="11"/>
@@ -31644,17 +31769,19 @@
       <c r="CO53" s="18">
         <v>18.37793626343705</v>
       </c>
-      <c r="CP53" s="18">
+      <c r="CP53" s="35">
         <v>14.342127658606074</v>
       </c>
-      <c r="CQ53" s="18">
-        <v>14.953205751407467</v>
-      </c>
-      <c r="CR53" s="18"/>
-      <c r="CS53" s="18"/>
-      <c r="CT53" s="18"/>
-      <c r="CU53" s="18"/>
-      <c r="CV53" s="11"/>
+      <c r="CQ53" s="35">
+        <v>14.593020204846255</v>
+      </c>
+      <c r="CR53" s="35">
+        <v>11.081501290679682</v>
+      </c>
+      <c r="CS53" s="35"/>
+      <c r="CT53" s="35"/>
+      <c r="CU53" s="35"/>
+      <c r="CV53" s="35"/>
       <c r="CW53" s="11"/>
       <c r="CX53" s="11"/>
       <c r="CY53" s="11"/>
@@ -31801,12 +31928,13 @@
       <c r="CM54" s="15"/>
       <c r="CN54" s="15"/>
       <c r="CO54" s="15"/>
-      <c r="CP54" s="15"/>
-      <c r="CQ54" s="15"/>
-      <c r="CR54" s="15"/>
-      <c r="CS54" s="15"/>
-      <c r="CT54" s="15"/>
-      <c r="CU54" s="15"/>
+      <c r="CP54" s="32"/>
+      <c r="CQ54" s="32"/>
+      <c r="CR54" s="32"/>
+      <c r="CS54" s="32"/>
+      <c r="CT54" s="32"/>
+      <c r="CU54" s="32"/>
+      <c r="CV54" s="32"/>
     </row>
     <row r="55" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
@@ -31904,12 +32032,13 @@
       <c r="CM55" s="1"/>
       <c r="CN55" s="1"/>
       <c r="CO55" s="1"/>
-      <c r="CP55" s="1"/>
-      <c r="CQ55" s="1"/>
-      <c r="CR55" s="1"/>
-      <c r="CS55" s="1"/>
-      <c r="CT55" s="1"/>
-      <c r="CU55" s="1"/>
+      <c r="CP55" s="27"/>
+      <c r="CQ55" s="27"/>
+      <c r="CR55" s="27"/>
+      <c r="CS55" s="27"/>
+      <c r="CT55" s="27"/>
+      <c r="CU55" s="27"/>
+      <c r="CV55" s="27"/>
     </row>
     <row r="56" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="17"/>
@@ -32004,13 +32133,13 @@
       <c r="CM56" s="17"/>
       <c r="CN56" s="17"/>
       <c r="CO56" s="17"/>
-      <c r="CP56" s="17"/>
-      <c r="CQ56" s="17"/>
-      <c r="CR56" s="17"/>
-      <c r="CS56" s="17"/>
-      <c r="CT56" s="17"/>
-      <c r="CU56" s="17"/>
-      <c r="CV56" s="11"/>
+      <c r="CP56" s="33"/>
+      <c r="CQ56" s="33"/>
+      <c r="CR56" s="33"/>
+      <c r="CS56" s="33"/>
+      <c r="CT56" s="33"/>
+      <c r="CU56" s="33"/>
+      <c r="CV56" s="33"/>
       <c r="CW56" s="11"/>
       <c r="CX56" s="11"/>
       <c r="CY56" s="11"/>
@@ -32156,13 +32285,13 @@
       <c r="CM57" s="17"/>
       <c r="CN57" s="17"/>
       <c r="CO57" s="17"/>
-      <c r="CP57" s="17"/>
-      <c r="CQ57" s="17"/>
-      <c r="CR57" s="17"/>
-      <c r="CS57" s="17"/>
-      <c r="CT57" s="17"/>
-      <c r="CU57" s="17"/>
-      <c r="CV57" s="11"/>
+      <c r="CP57" s="33"/>
+      <c r="CQ57" s="33"/>
+      <c r="CR57" s="33"/>
+      <c r="CS57" s="33"/>
+      <c r="CT57" s="33"/>
+      <c r="CU57" s="33"/>
+      <c r="CV57" s="33"/>
       <c r="CW57" s="11"/>
       <c r="CX57" s="11"/>
       <c r="CY57" s="11"/>
@@ -32311,12 +32440,13 @@
       <c r="CM58" s="1"/>
       <c r="CN58" s="1"/>
       <c r="CO58" s="1"/>
-      <c r="CP58" s="1"/>
-      <c r="CQ58" s="1"/>
-      <c r="CR58" s="1"/>
-      <c r="CS58" s="1"/>
-      <c r="CT58" s="1"/>
-      <c r="CU58" s="1"/>
+      <c r="CP58" s="27"/>
+      <c r="CQ58" s="27"/>
+      <c r="CR58" s="27"/>
+      <c r="CS58" s="27"/>
+      <c r="CT58" s="27"/>
+      <c r="CU58" s="27"/>
+      <c r="CV58" s="27"/>
     </row>
     <row r="59" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -32414,12 +32544,13 @@
       <c r="CM59" s="1"/>
       <c r="CN59" s="1"/>
       <c r="CO59" s="1"/>
-      <c r="CP59" s="1"/>
-      <c r="CQ59" s="1"/>
-      <c r="CR59" s="1"/>
-      <c r="CS59" s="1"/>
-      <c r="CT59" s="1"/>
-      <c r="CU59" s="1"/>
+      <c r="CP59" s="27"/>
+      <c r="CQ59" s="27"/>
+      <c r="CR59" s="27"/>
+      <c r="CS59" s="27"/>
+      <c r="CT59" s="27"/>
+      <c r="CU59" s="27"/>
+      <c r="CV59" s="27"/>
     </row>
     <row r="60" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
@@ -32517,12 +32648,13 @@
       <c r="CM60" s="1"/>
       <c r="CN60" s="1"/>
       <c r="CO60" s="1"/>
-      <c r="CP60" s="1"/>
-      <c r="CQ60" s="1"/>
-      <c r="CR60" s="1"/>
-      <c r="CS60" s="1"/>
-      <c r="CT60" s="1"/>
-      <c r="CU60" s="1"/>
+      <c r="CP60" s="27"/>
+      <c r="CQ60" s="27"/>
+      <c r="CR60" s="27"/>
+      <c r="CS60" s="27"/>
+      <c r="CT60" s="27"/>
+      <c r="CU60" s="27"/>
+      <c r="CV60" s="27"/>
     </row>
     <row r="61" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
@@ -32618,12 +32750,13 @@
       <c r="CM61" s="1"/>
       <c r="CN61" s="1"/>
       <c r="CO61" s="1"/>
-      <c r="CP61" s="1"/>
-      <c r="CQ61" s="1"/>
-      <c r="CR61" s="1"/>
-      <c r="CS61" s="1"/>
-      <c r="CT61" s="1"/>
-      <c r="CU61" s="1"/>
+      <c r="CP61" s="27"/>
+      <c r="CQ61" s="27"/>
+      <c r="CR61" s="27"/>
+      <c r="CS61" s="27"/>
+      <c r="CT61" s="27"/>
+      <c r="CU61" s="27"/>
+      <c r="CV61" s="27"/>
     </row>
     <row r="62" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -32721,12 +32854,13 @@
       <c r="CM62" s="1"/>
       <c r="CN62" s="1"/>
       <c r="CO62" s="1"/>
-      <c r="CP62" s="1"/>
-      <c r="CQ62" s="1"/>
-      <c r="CR62" s="1"/>
-      <c r="CS62" s="1"/>
-      <c r="CT62" s="1"/>
-      <c r="CU62" s="1"/>
+      <c r="CP62" s="27"/>
+      <c r="CQ62" s="27"/>
+      <c r="CR62" s="27"/>
+      <c r="CS62" s="27"/>
+      <c r="CT62" s="27"/>
+      <c r="CU62" s="27"/>
+      <c r="CV62" s="27"/>
     </row>
     <row r="63" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
@@ -32824,12 +32958,13 @@
       <c r="CM63" s="1"/>
       <c r="CN63" s="1"/>
       <c r="CO63" s="1"/>
-      <c r="CP63" s="1"/>
-      <c r="CQ63" s="1"/>
-      <c r="CR63" s="1"/>
-      <c r="CS63" s="1"/>
-      <c r="CT63" s="1"/>
-      <c r="CU63" s="1"/>
+      <c r="CP63" s="27"/>
+      <c r="CQ63" s="27"/>
+      <c r="CR63" s="27"/>
+      <c r="CS63" s="27"/>
+      <c r="CT63" s="27"/>
+      <c r="CU63" s="27"/>
+      <c r="CV63" s="27"/>
     </row>
     <row r="64" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
@@ -32927,12 +33062,13 @@
       <c r="CM64" s="1"/>
       <c r="CN64" s="1"/>
       <c r="CO64" s="1"/>
-      <c r="CP64" s="1"/>
-      <c r="CQ64" s="1"/>
-      <c r="CR64" s="1"/>
-      <c r="CS64" s="1"/>
-      <c r="CT64" s="1"/>
-      <c r="CU64" s="1"/>
+      <c r="CP64" s="27"/>
+      <c r="CQ64" s="27"/>
+      <c r="CR64" s="27"/>
+      <c r="CS64" s="27"/>
+      <c r="CT64" s="27"/>
+      <c r="CU64" s="27"/>
+      <c r="CV64" s="27"/>
     </row>
     <row r="65" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
@@ -33028,12 +33164,13 @@
       <c r="CM65" s="1"/>
       <c r="CN65" s="1"/>
       <c r="CO65" s="1"/>
-      <c r="CP65" s="1"/>
-      <c r="CQ65" s="1"/>
-      <c r="CR65" s="1"/>
-      <c r="CS65" s="1"/>
-      <c r="CT65" s="1"/>
-      <c r="CU65" s="1"/>
+      <c r="CP65" s="27"/>
+      <c r="CQ65" s="27"/>
+      <c r="CR65" s="27"/>
+      <c r="CS65" s="27"/>
+      <c r="CT65" s="27"/>
+      <c r="CU65" s="27"/>
+      <c r="CV65" s="27"/>
     </row>
     <row r="66" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
@@ -33175,14 +33312,15 @@
       <c r="CM66" s="21"/>
       <c r="CN66" s="21"/>
       <c r="CO66" s="21"/>
-      <c r="CP66" s="21" t="s">
+      <c r="CP66" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="CQ66" s="21"/>
-      <c r="CR66" s="22"/>
+      <c r="CQ66" s="28"/>
+      <c r="CR66" s="28"/>
       <c r="CS66" s="22"/>
-      <c r="CT66" s="21"/>
-      <c r="CU66" s="22"/>
+      <c r="CT66" s="28"/>
+      <c r="CU66" s="28"/>
+      <c r="CV66" s="22"/>
     </row>
     <row r="67" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
@@ -33464,16 +33602,19 @@
       <c r="CO67" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP67" s="6" t="s">
+      <c r="CP67" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="CQ67" s="6" t="s">
+      <c r="CQ67" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="CR67" s="6"/>
-      <c r="CS67" s="6"/>
-      <c r="CT67" s="6"/>
-      <c r="CU67" s="6"/>
+      <c r="CR67" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="CS67" s="34"/>
+      <c r="CT67" s="34"/>
+      <c r="CU67" s="34"/>
+      <c r="CV67" s="34"/>
     </row>
     <row r="68" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
@@ -33569,12 +33710,13 @@
       <c r="CM68" s="1"/>
       <c r="CN68" s="1"/>
       <c r="CO68" s="1"/>
-      <c r="CP68" s="1"/>
-      <c r="CQ68" s="1"/>
-      <c r="CR68" s="1"/>
-      <c r="CS68" s="1"/>
-      <c r="CT68" s="1"/>
-      <c r="CU68" s="1"/>
+      <c r="CP68" s="27"/>
+      <c r="CQ68" s="27"/>
+      <c r="CR68" s="27"/>
+      <c r="CS68" s="27"/>
+      <c r="CT68" s="27"/>
+      <c r="CU68" s="27"/>
+      <c r="CV68" s="27"/>
     </row>
     <row r="69" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
@@ -33856,17 +33998,19 @@
       <c r="CO69" s="18">
         <v>10.532506565542988</v>
       </c>
-      <c r="CP69" s="18">
+      <c r="CP69" s="35">
         <v>6.1271930312449427</v>
       </c>
-      <c r="CQ69" s="18">
-        <v>10.981805607850362</v>
-      </c>
-      <c r="CR69" s="18"/>
-      <c r="CS69" s="18"/>
-      <c r="CT69" s="18"/>
-      <c r="CU69" s="18"/>
-      <c r="CV69" s="11"/>
+      <c r="CQ69" s="35">
+        <v>9.5665209834779006</v>
+      </c>
+      <c r="CR69" s="35">
+        <v>7.8789174231686019</v>
+      </c>
+      <c r="CS69" s="35"/>
+      <c r="CT69" s="35"/>
+      <c r="CU69" s="35"/>
+      <c r="CV69" s="35"/>
       <c r="CW69" s="11"/>
       <c r="CX69" s="11"/>
       <c r="CY69" s="11"/>
@@ -34199,17 +34343,19 @@
       <c r="CO70" s="18">
         <v>13.483136667061672</v>
       </c>
-      <c r="CP70" s="18">
+      <c r="CP70" s="35">
         <v>12.974432603757705</v>
       </c>
-      <c r="CQ70" s="18">
-        <v>9.7987570026243134</v>
-      </c>
-      <c r="CR70" s="18"/>
-      <c r="CS70" s="18"/>
-      <c r="CT70" s="18"/>
-      <c r="CU70" s="18"/>
-      <c r="CV70" s="11"/>
+      <c r="CQ70" s="35">
+        <v>11.243807274902395</v>
+      </c>
+      <c r="CR70" s="35">
+        <v>6.2673809108013216</v>
+      </c>
+      <c r="CS70" s="35"/>
+      <c r="CT70" s="35"/>
+      <c r="CU70" s="35"/>
+      <c r="CV70" s="35"/>
       <c r="CW70" s="11"/>
       <c r="CX70" s="11"/>
       <c r="CY70" s="11"/>
@@ -34355,13 +34501,13 @@
       <c r="CM71" s="17"/>
       <c r="CN71" s="17"/>
       <c r="CO71" s="17"/>
-      <c r="CP71" s="17"/>
-      <c r="CQ71" s="17"/>
-      <c r="CR71" s="17"/>
-      <c r="CS71" s="17"/>
-      <c r="CT71" s="17"/>
-      <c r="CU71" s="17"/>
-      <c r="CV71" s="11"/>
+      <c r="CP71" s="33"/>
+      <c r="CQ71" s="33"/>
+      <c r="CR71" s="33"/>
+      <c r="CS71" s="33"/>
+      <c r="CT71" s="33"/>
+      <c r="CU71" s="33"/>
+      <c r="CV71" s="33"/>
       <c r="CW71" s="11"/>
       <c r="CX71" s="11"/>
       <c r="CY71" s="11"/>
@@ -34694,17 +34840,19 @@
       <c r="CO72" s="18">
         <v>11.607867027039021</v>
       </c>
-      <c r="CP72" s="18">
+      <c r="CP72" s="35">
         <v>9.0380703593042426</v>
       </c>
-      <c r="CQ72" s="18">
-        <v>10.5257192502972</v>
-      </c>
-      <c r="CR72" s="18"/>
-      <c r="CS72" s="18"/>
-      <c r="CT72" s="18"/>
-      <c r="CU72" s="18"/>
-      <c r="CV72" s="11"/>
+      <c r="CQ72" s="35">
+        <v>10.213144792381797</v>
+      </c>
+      <c r="CR72" s="35">
+        <v>7.2542488223493962</v>
+      </c>
+      <c r="CS72" s="35"/>
+      <c r="CT72" s="35"/>
+      <c r="CU72" s="35"/>
+      <c r="CV72" s="35"/>
       <c r="CW72" s="11"/>
       <c r="CX72" s="11"/>
       <c r="CY72" s="11"/>
@@ -34851,12 +34999,13 @@
       <c r="CM73" s="15"/>
       <c r="CN73" s="15"/>
       <c r="CO73" s="15"/>
-      <c r="CP73" s="15"/>
-      <c r="CQ73" s="15"/>
-      <c r="CR73" s="15"/>
-      <c r="CS73" s="15"/>
-      <c r="CT73" s="15"/>
-      <c r="CU73" s="15"/>
+      <c r="CP73" s="32"/>
+      <c r="CQ73" s="32"/>
+      <c r="CR73" s="32"/>
+      <c r="CS73" s="32"/>
+      <c r="CT73" s="32"/>
+      <c r="CU73" s="32"/>
+      <c r="CV73" s="32"/>
     </row>
     <row r="74" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
@@ -34954,12 +35103,13 @@
       <c r="CM74" s="1"/>
       <c r="CN74" s="1"/>
       <c r="CO74" s="1"/>
-      <c r="CP74" s="1"/>
-      <c r="CQ74" s="1"/>
-      <c r="CR74" s="1"/>
-      <c r="CS74" s="1"/>
-      <c r="CT74" s="1"/>
-      <c r="CU74" s="1"/>
+      <c r="CP74" s="27"/>
+      <c r="CQ74" s="27"/>
+      <c r="CR74" s="27"/>
+      <c r="CS74" s="27"/>
+      <c r="CT74" s="27"/>
+      <c r="CU74" s="27"/>
+      <c r="CV74" s="27"/>
     </row>
     <row r="75" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="17"/>
@@ -35054,13 +35204,13 @@
       <c r="CM75" s="11"/>
       <c r="CN75" s="11"/>
       <c r="CO75" s="11"/>
-      <c r="CP75" s="11"/>
-      <c r="CQ75" s="11"/>
-      <c r="CR75" s="11"/>
-      <c r="CS75" s="11"/>
-      <c r="CT75" s="11"/>
-      <c r="CU75" s="11"/>
-      <c r="CV75" s="11"/>
+      <c r="CP75" s="36"/>
+      <c r="CQ75" s="36"/>
+      <c r="CR75" s="36"/>
+      <c r="CS75" s="36"/>
+      <c r="CT75" s="36"/>
+      <c r="CU75" s="36"/>
+      <c r="CV75" s="36"/>
       <c r="CW75" s="11"/>
       <c r="CX75" s="11"/>
       <c r="CY75" s="11"/>
@@ -35206,13 +35356,13 @@
       <c r="CM76" s="17"/>
       <c r="CN76" s="17"/>
       <c r="CO76" s="17"/>
-      <c r="CP76" s="17"/>
-      <c r="CQ76" s="17"/>
-      <c r="CR76" s="17"/>
-      <c r="CS76" s="17"/>
-      <c r="CT76" s="17"/>
-      <c r="CU76" s="17"/>
-      <c r="CV76" s="11"/>
+      <c r="CP76" s="33"/>
+      <c r="CQ76" s="33"/>
+      <c r="CR76" s="33"/>
+      <c r="CS76" s="33"/>
+      <c r="CT76" s="33"/>
+      <c r="CU76" s="33"/>
+      <c r="CV76" s="33"/>
       <c r="CW76" s="11"/>
       <c r="CX76" s="11"/>
       <c r="CY76" s="11"/>
@@ -35365,12 +35515,13 @@
       <c r="CM77" s="1"/>
       <c r="CN77" s="1"/>
       <c r="CO77" s="1"/>
-      <c r="CP77" s="1"/>
-      <c r="CQ77" s="1"/>
-      <c r="CR77" s="1"/>
-      <c r="CS77" s="1"/>
-      <c r="CT77" s="1"/>
-      <c r="CU77" s="1"/>
+      <c r="CP77" s="27"/>
+      <c r="CQ77" s="27"/>
+      <c r="CR77" s="27"/>
+      <c r="CS77" s="27"/>
+      <c r="CT77" s="27"/>
+      <c r="CU77" s="27"/>
+      <c r="CV77" s="27"/>
     </row>
     <row r="78" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
@@ -35468,12 +35619,13 @@
       <c r="CM78" s="1"/>
       <c r="CN78" s="1"/>
       <c r="CO78" s="1"/>
-      <c r="CP78" s="1"/>
-      <c r="CQ78" s="1"/>
-      <c r="CR78" s="1"/>
-      <c r="CS78" s="1"/>
-      <c r="CT78" s="1"/>
-      <c r="CU78" s="1"/>
+      <c r="CP78" s="27"/>
+      <c r="CQ78" s="27"/>
+      <c r="CR78" s="27"/>
+      <c r="CS78" s="27"/>
+      <c r="CT78" s="27"/>
+      <c r="CU78" s="27"/>
+      <c r="CV78" s="27"/>
     </row>
     <row r="79" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
@@ -35569,12 +35721,13 @@
       <c r="CM79" s="1"/>
       <c r="CN79" s="1"/>
       <c r="CO79" s="1"/>
-      <c r="CP79" s="1"/>
-      <c r="CQ79" s="1"/>
-      <c r="CR79" s="1"/>
-      <c r="CS79" s="1"/>
-      <c r="CT79" s="1"/>
-      <c r="CU79" s="1"/>
+      <c r="CP79" s="27"/>
+      <c r="CQ79" s="27"/>
+      <c r="CR79" s="27"/>
+      <c r="CS79" s="27"/>
+      <c r="CT79" s="27"/>
+      <c r="CU79" s="27"/>
+      <c r="CV79" s="27"/>
     </row>
     <row r="80" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
@@ -35672,12 +35825,13 @@
       <c r="CM80" s="1"/>
       <c r="CN80" s="1"/>
       <c r="CO80" s="1"/>
-      <c r="CP80" s="1"/>
-      <c r="CQ80" s="1"/>
-      <c r="CR80" s="1"/>
-      <c r="CS80" s="1"/>
-      <c r="CT80" s="1"/>
-      <c r="CU80" s="1"/>
+      <c r="CP80" s="27"/>
+      <c r="CQ80" s="27"/>
+      <c r="CR80" s="27"/>
+      <c r="CS80" s="27"/>
+      <c r="CT80" s="27"/>
+      <c r="CU80" s="27"/>
+      <c r="CV80" s="27"/>
     </row>
     <row r="81" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
@@ -35775,12 +35929,13 @@
       <c r="CM81" s="1"/>
       <c r="CN81" s="1"/>
       <c r="CO81" s="1"/>
-      <c r="CP81" s="1"/>
-      <c r="CQ81" s="1"/>
-      <c r="CR81" s="1"/>
-      <c r="CS81" s="1"/>
-      <c r="CT81" s="1"/>
-      <c r="CU81" s="1"/>
+      <c r="CP81" s="27"/>
+      <c r="CQ81" s="27"/>
+      <c r="CR81" s="27"/>
+      <c r="CS81" s="27"/>
+      <c r="CT81" s="27"/>
+      <c r="CU81" s="27"/>
+      <c r="CV81" s="27"/>
     </row>
     <row r="82" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
@@ -35878,12 +36033,13 @@
       <c r="CM82" s="1"/>
       <c r="CN82" s="1"/>
       <c r="CO82" s="1"/>
-      <c r="CP82" s="1"/>
-      <c r="CQ82" s="1"/>
-      <c r="CR82" s="1"/>
-      <c r="CS82" s="1"/>
-      <c r="CT82" s="1"/>
-      <c r="CU82" s="1"/>
+      <c r="CP82" s="27"/>
+      <c r="CQ82" s="27"/>
+      <c r="CR82" s="27"/>
+      <c r="CS82" s="27"/>
+      <c r="CT82" s="27"/>
+      <c r="CU82" s="27"/>
+      <c r="CV82" s="27"/>
     </row>
     <row r="83" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
@@ -35979,12 +36135,13 @@
       <c r="CM83" s="1"/>
       <c r="CN83" s="1"/>
       <c r="CO83" s="1"/>
-      <c r="CP83" s="1"/>
-      <c r="CQ83" s="1"/>
-      <c r="CR83" s="1"/>
-      <c r="CS83" s="1"/>
-      <c r="CT83" s="1"/>
-      <c r="CU83" s="1"/>
+      <c r="CP83" s="27"/>
+      <c r="CQ83" s="27"/>
+      <c r="CR83" s="27"/>
+      <c r="CS83" s="27"/>
+      <c r="CT83" s="27"/>
+      <c r="CU83" s="27"/>
+      <c r="CV83" s="27"/>
     </row>
     <row r="84" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
@@ -36126,16 +36283,17 @@
       <c r="CM84" s="21"/>
       <c r="CN84" s="21"/>
       <c r="CO84" s="21"/>
-      <c r="CP84" s="21">
+      <c r="CP84" s="28">
         <v>2023</v>
       </c>
-      <c r="CQ84" s="21"/>
-      <c r="CR84" s="21"/>
-      <c r="CS84" s="21"/>
-      <c r="CT84" s="21">
+      <c r="CQ84" s="28"/>
+      <c r="CR84" s="28"/>
+      <c r="CS84" s="28"/>
+      <c r="CT84" s="28">
         <v>2024</v>
       </c>
-      <c r="CU84" s="21"/>
+      <c r="CU84" s="28"/>
+      <c r="CV84" s="28"/>
     </row>
     <row r="85" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
@@ -36417,23 +36575,26 @@
       <c r="CO85" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP85" s="7" t="s">
+      <c r="CP85" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CQ85" s="7" t="s">
+      <c r="CQ85" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="CR85" s="7" t="s">
+      <c r="CR85" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="CS85" s="7" t="s">
+      <c r="CS85" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="CT85" s="7" t="s">
+      <c r="CT85" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CU85" s="7" t="s">
+      <c r="CU85" s="29" t="s">
         <v>8</v>
+      </c>
+      <c r="CV85" s="29" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -36530,12 +36691,13 @@
       <c r="CM86" s="1"/>
       <c r="CN86" s="1"/>
       <c r="CO86" s="1"/>
-      <c r="CP86" s="1"/>
-      <c r="CQ86" s="1"/>
-      <c r="CR86" s="1"/>
-      <c r="CS86" s="1"/>
-      <c r="CT86" s="1"/>
-      <c r="CU86" s="1"/>
+      <c r="CP86" s="27"/>
+      <c r="CQ86" s="27"/>
+      <c r="CR86" s="27"/>
+      <c r="CS86" s="27"/>
+      <c r="CT86" s="27"/>
+      <c r="CU86" s="27"/>
+      <c r="CV86" s="27"/>
     </row>
     <row r="87" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
@@ -36817,25 +36979,27 @@
       <c r="CO87" s="18">
         <v>107.1502313726435</v>
       </c>
-      <c r="CP87" s="18">
+      <c r="CP87" s="35">
         <v>107.6373981504675</v>
       </c>
-      <c r="CQ87" s="18">
+      <c r="CQ87" s="35">
         <v>109.33026151133637</v>
       </c>
-      <c r="CR87" s="18">
+      <c r="CR87" s="35">
         <v>111.24146999255882</v>
       </c>
-      <c r="CS87" s="18">
+      <c r="CS87" s="35">
         <v>112.74327851224521</v>
       </c>
-      <c r="CT87" s="18">
+      <c r="CT87" s="35">
         <v>112.29064903368966</v>
       </c>
-      <c r="CU87" s="18">
-        <v>113.68731134066459</v>
-      </c>
-      <c r="CV87" s="11"/>
+      <c r="CU87" s="35">
+        <v>113.68731134066461</v>
+      </c>
+      <c r="CV87" s="35">
+        <v>114.99687492503794</v>
+      </c>
       <c r="CW87" s="11"/>
       <c r="CX87" s="11"/>
       <c r="CY87" s="11"/>
@@ -37172,25 +37336,27 @@
       <c r="CO88" s="18">
         <v>112.6019085318174</v>
       </c>
-      <c r="CP88" s="18">
+      <c r="CP88" s="35">
         <v>118.58145533063183</v>
       </c>
-      <c r="CQ88" s="18">
+      <c r="CQ88" s="35">
         <v>117.10001461439616</v>
       </c>
-      <c r="CR88" s="18">
+      <c r="CR88" s="35">
         <v>117.1727140772022</v>
       </c>
-      <c r="CS88" s="18">
+      <c r="CS88" s="35">
         <v>120.87663561958932</v>
       </c>
-      <c r="CT88" s="18">
+      <c r="CT88" s="35">
         <v>124.69005714701819</v>
       </c>
-      <c r="CU88" s="18">
-        <v>121.88068783491475</v>
-      </c>
-      <c r="CV88" s="11"/>
+      <c r="CU88" s="35">
+        <v>121.65948073686937</v>
+      </c>
+      <c r="CV88" s="35">
+        <v>121.75435710264722</v>
+      </c>
       <c r="CW88" s="11"/>
       <c r="CX88" s="11"/>
       <c r="CY88" s="11"/>
@@ -37340,13 +37506,13 @@
       <c r="CM89" s="17"/>
       <c r="CN89" s="17"/>
       <c r="CO89" s="17"/>
-      <c r="CP89" s="17"/>
-      <c r="CQ89" s="17"/>
-      <c r="CR89" s="17"/>
-      <c r="CS89" s="17"/>
-      <c r="CT89" s="17"/>
-      <c r="CU89" s="17"/>
-      <c r="CV89" s="11"/>
+      <c r="CP89" s="33"/>
+      <c r="CQ89" s="33"/>
+      <c r="CR89" s="33"/>
+      <c r="CS89" s="33"/>
+      <c r="CT89" s="33"/>
+      <c r="CU89" s="33"/>
+      <c r="CV89" s="33"/>
       <c r="CW89" s="11"/>
       <c r="CX89" s="11"/>
       <c r="CY89" s="11"/>
@@ -37683,25 +37849,27 @@
       <c r="CO90" s="18">
         <v>109.13710124928413</v>
       </c>
-      <c r="CP90" s="18">
+      <c r="CP90" s="35">
         <v>112.28990192010475</v>
       </c>
-      <c r="CQ90" s="18">
+      <c r="CQ90" s="35">
         <v>112.32564004118557</v>
       </c>
-      <c r="CR90" s="18">
+      <c r="CR90" s="35">
         <v>113.54055655686435</v>
       </c>
-      <c r="CS90" s="18">
+      <c r="CS90" s="35">
         <v>115.75729524993135</v>
       </c>
-      <c r="CT90" s="18">
+      <c r="CT90" s="35">
         <v>117.75214159432691</v>
       </c>
-      <c r="CU90" s="18">
-        <v>116.82522853863462</v>
-      </c>
-      <c r="CV90" s="11"/>
+      <c r="CU90" s="35">
+        <v>116.7894661114106</v>
+      </c>
+      <c r="CV90" s="35">
+        <v>117.59212915290777</v>
+      </c>
       <c r="CW90" s="11"/>
       <c r="CX90" s="11"/>
       <c r="CY90" s="11"/>
@@ -37852,12 +38020,13 @@
       <c r="CM91" s="15"/>
       <c r="CN91" s="15"/>
       <c r="CO91" s="15"/>
-      <c r="CP91" s="15"/>
-      <c r="CQ91" s="15"/>
-      <c r="CR91" s="15"/>
-      <c r="CS91" s="15"/>
-      <c r="CT91" s="15"/>
-      <c r="CU91" s="15"/>
+      <c r="CP91" s="32"/>
+      <c r="CQ91" s="32"/>
+      <c r="CR91" s="32"/>
+      <c r="CS91" s="32"/>
+      <c r="CT91" s="32"/>
+      <c r="CU91" s="32"/>
+      <c r="CV91" s="32"/>
     </row>
     <row r="92" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="16" t="s">
@@ -37955,12 +38124,13 @@
       <c r="CM92" s="1"/>
       <c r="CN92" s="1"/>
       <c r="CO92" s="1"/>
-      <c r="CP92" s="1"/>
-      <c r="CQ92" s="1"/>
-      <c r="CR92" s="1"/>
-      <c r="CS92" s="1"/>
-      <c r="CT92" s="1"/>
-      <c r="CU92" s="1"/>
+      <c r="CP92" s="27"/>
+      <c r="CQ92" s="27"/>
+      <c r="CR92" s="27"/>
+      <c r="CS92" s="27"/>
+      <c r="CT92" s="27"/>
+      <c r="CU92" s="27"/>
+      <c r="CV92" s="27"/>
     </row>
     <row r="93" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
@@ -38055,12 +38225,13 @@
       <c r="CM93" s="1"/>
       <c r="CN93" s="1"/>
       <c r="CO93" s="1"/>
-      <c r="CP93" s="1"/>
-      <c r="CQ93" s="1"/>
-      <c r="CR93" s="1"/>
-      <c r="CS93" s="1"/>
-      <c r="CT93" s="1"/>
-      <c r="CU93" s="1"/>
+      <c r="CP93" s="27"/>
+      <c r="CQ93" s="27"/>
+      <c r="CR93" s="27"/>
+      <c r="CS93" s="27"/>
+      <c r="CT93" s="27"/>
+      <c r="CU93" s="27"/>
+      <c r="CV93" s="27"/>
     </row>
     <row r="94" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
@@ -38155,12 +38326,13 @@
       <c r="CM94" s="1"/>
       <c r="CN94" s="1"/>
       <c r="CO94" s="1"/>
-      <c r="CP94" s="1"/>
-      <c r="CQ94" s="1"/>
-      <c r="CR94" s="1"/>
-      <c r="CS94" s="1"/>
-      <c r="CT94" s="1"/>
-      <c r="CU94" s="1"/>
+      <c r="CP94" s="27"/>
+      <c r="CQ94" s="27"/>
+      <c r="CR94" s="27"/>
+      <c r="CS94" s="27"/>
+      <c r="CT94" s="27"/>
+      <c r="CU94" s="27"/>
+      <c r="CV94" s="27"/>
     </row>
     <row r="95" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
@@ -38258,12 +38430,13 @@
       <c r="CM95" s="1"/>
       <c r="CN95" s="1"/>
       <c r="CO95" s="1"/>
-      <c r="CP95" s="1"/>
-      <c r="CQ95" s="1"/>
-      <c r="CR95" s="1"/>
-      <c r="CS95" s="1"/>
-      <c r="CT95" s="1"/>
-      <c r="CU95" s="1"/>
+      <c r="CP95" s="27"/>
+      <c r="CQ95" s="27"/>
+      <c r="CR95" s="27"/>
+      <c r="CS95" s="27"/>
+      <c r="CT95" s="27"/>
+      <c r="CU95" s="27"/>
+      <c r="CV95" s="27"/>
     </row>
     <row r="96" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
@@ -38361,12 +38534,13 @@
       <c r="CM96" s="1"/>
       <c r="CN96" s="1"/>
       <c r="CO96" s="1"/>
-      <c r="CP96" s="1"/>
-      <c r="CQ96" s="1"/>
-      <c r="CR96" s="1"/>
-      <c r="CS96" s="1"/>
-      <c r="CT96" s="1"/>
-      <c r="CU96" s="1"/>
+      <c r="CP96" s="27"/>
+      <c r="CQ96" s="27"/>
+      <c r="CR96" s="27"/>
+      <c r="CS96" s="27"/>
+      <c r="CT96" s="27"/>
+      <c r="CU96" s="27"/>
+      <c r="CV96" s="27"/>
     </row>
     <row r="97" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
@@ -38464,12 +38638,13 @@
       <c r="CM97" s="1"/>
       <c r="CN97" s="1"/>
       <c r="CO97" s="1"/>
-      <c r="CP97" s="1"/>
-      <c r="CQ97" s="1"/>
-      <c r="CR97" s="1"/>
-      <c r="CS97" s="1"/>
-      <c r="CT97" s="1"/>
-      <c r="CU97" s="1"/>
+      <c r="CP97" s="27"/>
+      <c r="CQ97" s="27"/>
+      <c r="CR97" s="27"/>
+      <c r="CS97" s="27"/>
+      <c r="CT97" s="27"/>
+      <c r="CU97" s="27"/>
+      <c r="CV97" s="27"/>
     </row>
     <row r="98" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
@@ -38565,12 +38740,13 @@
       <c r="CM98" s="1"/>
       <c r="CN98" s="1"/>
       <c r="CO98" s="1"/>
-      <c r="CP98" s="1"/>
-      <c r="CQ98" s="1"/>
-      <c r="CR98" s="1"/>
-      <c r="CS98" s="1"/>
-      <c r="CT98" s="1"/>
-      <c r="CU98" s="1"/>
+      <c r="CP98" s="27"/>
+      <c r="CQ98" s="27"/>
+      <c r="CR98" s="27"/>
+      <c r="CS98" s="27"/>
+      <c r="CT98" s="27"/>
+      <c r="CU98" s="27"/>
+      <c r="CV98" s="27"/>
     </row>
     <row r="99" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
@@ -38668,12 +38844,13 @@
       <c r="CM99" s="1"/>
       <c r="CN99" s="1"/>
       <c r="CO99" s="1"/>
-      <c r="CP99" s="1"/>
-      <c r="CQ99" s="1"/>
-      <c r="CR99" s="1"/>
-      <c r="CS99" s="1"/>
-      <c r="CT99" s="1"/>
-      <c r="CU99" s="1"/>
+      <c r="CP99" s="27"/>
+      <c r="CQ99" s="27"/>
+      <c r="CR99" s="27"/>
+      <c r="CS99" s="27"/>
+      <c r="CT99" s="27"/>
+      <c r="CU99" s="27"/>
+      <c r="CV99" s="27"/>
     </row>
     <row r="100" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
@@ -38771,12 +38948,13 @@
       <c r="CM100" s="1"/>
       <c r="CN100" s="1"/>
       <c r="CO100" s="1"/>
-      <c r="CP100" s="1"/>
-      <c r="CQ100" s="1"/>
-      <c r="CR100" s="1"/>
-      <c r="CS100" s="1"/>
-      <c r="CT100" s="1"/>
-      <c r="CU100" s="1"/>
+      <c r="CP100" s="27"/>
+      <c r="CQ100" s="27"/>
+      <c r="CR100" s="27"/>
+      <c r="CS100" s="27"/>
+      <c r="CT100" s="27"/>
+      <c r="CU100" s="27"/>
+      <c r="CV100" s="27"/>
     </row>
     <row r="101" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
@@ -38874,12 +39052,13 @@
       <c r="CM101" s="1"/>
       <c r="CN101" s="1"/>
       <c r="CO101" s="1"/>
-      <c r="CP101" s="1"/>
-      <c r="CQ101" s="1"/>
-      <c r="CR101" s="1"/>
-      <c r="CS101" s="1"/>
-      <c r="CT101" s="1"/>
-      <c r="CU101" s="1"/>
+      <c r="CP101" s="27"/>
+      <c r="CQ101" s="27"/>
+      <c r="CR101" s="27"/>
+      <c r="CS101" s="27"/>
+      <c r="CT101" s="27"/>
+      <c r="CU101" s="27"/>
+      <c r="CV101" s="27"/>
     </row>
     <row r="102" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
@@ -38975,12 +39154,13 @@
       <c r="CM102" s="1"/>
       <c r="CN102" s="1"/>
       <c r="CO102" s="1"/>
-      <c r="CP102" s="1"/>
-      <c r="CQ102" s="1"/>
-      <c r="CR102" s="1"/>
-      <c r="CS102" s="1"/>
-      <c r="CT102" s="1"/>
-      <c r="CU102" s="1"/>
+      <c r="CP102" s="27"/>
+      <c r="CQ102" s="27"/>
+      <c r="CR102" s="27"/>
+      <c r="CS102" s="27"/>
+      <c r="CT102" s="27"/>
+      <c r="CU102" s="27"/>
+      <c r="CV102" s="27"/>
     </row>
     <row r="103" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
@@ -39122,16 +39302,17 @@
       <c r="CM103" s="21"/>
       <c r="CN103" s="21"/>
       <c r="CO103" s="21"/>
-      <c r="CP103" s="21">
+      <c r="CP103" s="28">
         <v>2023</v>
       </c>
-      <c r="CQ103" s="21"/>
-      <c r="CR103" s="21"/>
-      <c r="CS103" s="21"/>
-      <c r="CT103" s="21">
+      <c r="CQ103" s="28"/>
+      <c r="CR103" s="28"/>
+      <c r="CS103" s="28"/>
+      <c r="CT103" s="28">
         <v>2024</v>
       </c>
-      <c r="CU103" s="21"/>
+      <c r="CU103" s="28"/>
+      <c r="CV103" s="28"/>
     </row>
     <row r="104" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
@@ -39413,23 +39594,26 @@
       <c r="CO104" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP104" s="7" t="s">
+      <c r="CP104" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CQ104" s="7" t="s">
+      <c r="CQ104" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="CR104" s="7" t="s">
+      <c r="CR104" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="CS104" s="7" t="s">
+      <c r="CS104" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="CT104" s="7" t="s">
+      <c r="CT104" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CU104" s="7" t="s">
+      <c r="CU104" s="29" t="s">
         <v>8</v>
+      </c>
+      <c r="CV104" s="29" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -39526,12 +39710,13 @@
       <c r="CM105" s="1"/>
       <c r="CN105" s="1"/>
       <c r="CO105" s="1"/>
-      <c r="CP105" s="1"/>
-      <c r="CQ105" s="1"/>
-      <c r="CR105" s="1"/>
-      <c r="CS105" s="1"/>
-      <c r="CT105" s="1"/>
-      <c r="CU105" s="1"/>
+      <c r="CP105" s="27"/>
+      <c r="CQ105" s="27"/>
+      <c r="CR105" s="27"/>
+      <c r="CS105" s="27"/>
+      <c r="CT105" s="27"/>
+      <c r="CU105" s="27"/>
+      <c r="CV105" s="27"/>
     </row>
     <row r="106" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
@@ -39813,25 +39998,27 @@
       <c r="CO106" s="18">
         <v>62.397853864057808</v>
       </c>
-      <c r="CP106" s="18">
+      <c r="CP106" s="35">
         <v>55.106397820732454</v>
       </c>
-      <c r="CQ106" s="18">
+      <c r="CQ106" s="35">
         <v>59.809580313293111</v>
       </c>
-      <c r="CR106" s="18">
+      <c r="CR106" s="35">
         <v>59.997696760683105</v>
       </c>
-      <c r="CS106" s="18">
+      <c r="CS106" s="35">
         <v>61.303666996694353</v>
       </c>
-      <c r="CT106" s="18">
+      <c r="CT106" s="35">
         <v>53.358404167529137</v>
       </c>
-      <c r="CU106" s="18">
-        <v>60.044476514529691</v>
-      </c>
-      <c r="CV106" s="11"/>
+      <c r="CU106" s="35">
+        <v>59.465088540388656</v>
+      </c>
+      <c r="CV106" s="35">
+        <v>60.234975331063957</v>
+      </c>
       <c r="CW106" s="11"/>
       <c r="CX106" s="11"/>
       <c r="CY106" s="11"/>
@@ -40168,25 +40355,27 @@
       <c r="CO107" s="18">
         <v>37.602146135942185</v>
       </c>
-      <c r="CP107" s="18">
+      <c r="CP107" s="35">
         <v>44.893602179267539</v>
       </c>
-      <c r="CQ107" s="18">
+      <c r="CQ107" s="35">
         <v>40.190419686706903</v>
       </c>
-      <c r="CR107" s="18">
+      <c r="CR107" s="35">
         <v>40.002303239316895</v>
       </c>
-      <c r="CS107" s="18">
+      <c r="CS107" s="35">
         <v>38.696333003305647</v>
       </c>
-      <c r="CT107" s="18">
+      <c r="CT107" s="35">
         <v>46.64159583247087</v>
       </c>
-      <c r="CU107" s="18">
-        <v>39.955523485470309</v>
-      </c>
-      <c r="CV107" s="11"/>
+      <c r="CU107" s="35">
+        <v>40.534911459611344</v>
+      </c>
+      <c r="CV107" s="35">
+        <v>39.765024668936036</v>
+      </c>
       <c r="CW107" s="11"/>
       <c r="CX107" s="11"/>
       <c r="CY107" s="11"/>
@@ -40336,13 +40525,13 @@
       <c r="CM108" s="17"/>
       <c r="CN108" s="17"/>
       <c r="CO108" s="17"/>
-      <c r="CP108" s="17"/>
-      <c r="CQ108" s="17"/>
-      <c r="CR108" s="17"/>
-      <c r="CS108" s="17"/>
-      <c r="CT108" s="17"/>
-      <c r="CU108" s="17"/>
-      <c r="CV108" s="11"/>
+      <c r="CP108" s="33"/>
+      <c r="CQ108" s="33"/>
+      <c r="CR108" s="33"/>
+      <c r="CS108" s="33"/>
+      <c r="CT108" s="33"/>
+      <c r="CU108" s="33"/>
+      <c r="CV108" s="33"/>
       <c r="CW108" s="11"/>
       <c r="CX108" s="11"/>
       <c r="CY108" s="11"/>
@@ -40679,25 +40868,27 @@
       <c r="CO109" s="18">
         <v>100</v>
       </c>
-      <c r="CP109" s="18">
+      <c r="CP109" s="35">
         <v>100</v>
       </c>
-      <c r="CQ109" s="18">
+      <c r="CQ109" s="35">
         <v>100</v>
       </c>
-      <c r="CR109" s="18">
+      <c r="CR109" s="35">
         <v>100</v>
       </c>
-      <c r="CS109" s="18">
+      <c r="CS109" s="35">
         <v>100</v>
       </c>
-      <c r="CT109" s="18">
+      <c r="CT109" s="35">
         <v>100</v>
       </c>
-      <c r="CU109" s="18">
+      <c r="CU109" s="35">
         <v>100</v>
       </c>
-      <c r="CV109" s="11"/>
+      <c r="CV109" s="35">
+        <v>100</v>
+      </c>
       <c r="CW109" s="11"/>
       <c r="CX109" s="11"/>
       <c r="CY109" s="11"/>
@@ -40848,12 +41039,13 @@
       <c r="CM110" s="15"/>
       <c r="CN110" s="15"/>
       <c r="CO110" s="15"/>
-      <c r="CP110" s="15"/>
-      <c r="CQ110" s="15"/>
-      <c r="CR110" s="15"/>
-      <c r="CS110" s="15"/>
-      <c r="CT110" s="15"/>
-      <c r="CU110" s="15"/>
+      <c r="CP110" s="32"/>
+      <c r="CQ110" s="32"/>
+      <c r="CR110" s="32"/>
+      <c r="CS110" s="32"/>
+      <c r="CT110" s="32"/>
+      <c r="CU110" s="32"/>
+      <c r="CV110" s="32"/>
     </row>
     <row r="111" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="16" t="s">
@@ -40951,12 +41143,13 @@
       <c r="CM111" s="1"/>
       <c r="CN111" s="1"/>
       <c r="CO111" s="1"/>
-      <c r="CP111" s="1"/>
-      <c r="CQ111" s="1"/>
-      <c r="CR111" s="1"/>
-      <c r="CS111" s="1"/>
-      <c r="CT111" s="1"/>
-      <c r="CU111" s="1"/>
+      <c r="CP111" s="27"/>
+      <c r="CQ111" s="27"/>
+      <c r="CR111" s="27"/>
+      <c r="CS111" s="27"/>
+      <c r="CT111" s="27"/>
+      <c r="CU111" s="27"/>
+      <c r="CV111" s="27"/>
     </row>
     <row r="112" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="17"/>
@@ -41051,13 +41244,13 @@
       <c r="CM112" s="17"/>
       <c r="CN112" s="17"/>
       <c r="CO112" s="17"/>
-      <c r="CP112" s="17"/>
-      <c r="CQ112" s="17"/>
-      <c r="CR112" s="17"/>
-      <c r="CS112" s="17"/>
-      <c r="CT112" s="17"/>
-      <c r="CU112" s="17"/>
-      <c r="CV112" s="11"/>
+      <c r="CP112" s="33"/>
+      <c r="CQ112" s="33"/>
+      <c r="CR112" s="33"/>
+      <c r="CS112" s="33"/>
+      <c r="CT112" s="33"/>
+      <c r="CU112" s="33"/>
+      <c r="CV112" s="33"/>
       <c r="CW112" s="11"/>
       <c r="CX112" s="11"/>
       <c r="CY112" s="11"/>
@@ -41207,13 +41400,13 @@
       <c r="CM113" s="17"/>
       <c r="CN113" s="17"/>
       <c r="CO113" s="17"/>
-      <c r="CP113" s="17"/>
-      <c r="CQ113" s="17"/>
-      <c r="CR113" s="17"/>
-      <c r="CS113" s="17"/>
-      <c r="CT113" s="17"/>
-      <c r="CU113" s="17"/>
-      <c r="CV113" s="11"/>
+      <c r="CP113" s="33"/>
+      <c r="CQ113" s="33"/>
+      <c r="CR113" s="33"/>
+      <c r="CS113" s="33"/>
+      <c r="CT113" s="33"/>
+      <c r="CU113" s="33"/>
+      <c r="CV113" s="33"/>
       <c r="CW113" s="11"/>
       <c r="CX113" s="11"/>
       <c r="CY113" s="11"/>
@@ -41366,12 +41559,13 @@
       <c r="CM114" s="1"/>
       <c r="CN114" s="1"/>
       <c r="CO114" s="1"/>
-      <c r="CP114" s="1"/>
-      <c r="CQ114" s="1"/>
-      <c r="CR114" s="1"/>
-      <c r="CS114" s="1"/>
-      <c r="CT114" s="1"/>
-      <c r="CU114" s="1"/>
+      <c r="CP114" s="27"/>
+      <c r="CQ114" s="27"/>
+      <c r="CR114" s="27"/>
+      <c r="CS114" s="27"/>
+      <c r="CT114" s="27"/>
+      <c r="CU114" s="27"/>
+      <c r="CV114" s="27"/>
     </row>
     <row r="115" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
@@ -41469,12 +41663,13 @@
       <c r="CM115" s="1"/>
       <c r="CN115" s="1"/>
       <c r="CO115" s="1"/>
-      <c r="CP115" s="1"/>
-      <c r="CQ115" s="1"/>
-      <c r="CR115" s="1"/>
-      <c r="CS115" s="1"/>
-      <c r="CT115" s="1"/>
-      <c r="CU115" s="1"/>
+      <c r="CP115" s="27"/>
+      <c r="CQ115" s="27"/>
+      <c r="CR115" s="27"/>
+      <c r="CS115" s="27"/>
+      <c r="CT115" s="27"/>
+      <c r="CU115" s="27"/>
+      <c r="CV115" s="27"/>
     </row>
     <row r="116" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
@@ -41572,12 +41767,13 @@
       <c r="CM116" s="1"/>
       <c r="CN116" s="1"/>
       <c r="CO116" s="1"/>
-      <c r="CP116" s="1"/>
-      <c r="CQ116" s="1"/>
-      <c r="CR116" s="1"/>
-      <c r="CS116" s="1"/>
-      <c r="CT116" s="1"/>
-      <c r="CU116" s="1"/>
+      <c r="CP116" s="27"/>
+      <c r="CQ116" s="27"/>
+      <c r="CR116" s="27"/>
+      <c r="CS116" s="27"/>
+      <c r="CT116" s="27"/>
+      <c r="CU116" s="27"/>
+      <c r="CV116" s="27"/>
     </row>
     <row r="117" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
@@ -41673,12 +41869,13 @@
       <c r="CM117" s="1"/>
       <c r="CN117" s="1"/>
       <c r="CO117" s="1"/>
-      <c r="CP117" s="1"/>
-      <c r="CQ117" s="1"/>
-      <c r="CR117" s="1"/>
-      <c r="CS117" s="1"/>
-      <c r="CT117" s="1"/>
-      <c r="CU117" s="1"/>
+      <c r="CP117" s="27"/>
+      <c r="CQ117" s="27"/>
+      <c r="CR117" s="27"/>
+      <c r="CS117" s="27"/>
+      <c r="CT117" s="27"/>
+      <c r="CU117" s="27"/>
+      <c r="CV117" s="27"/>
     </row>
     <row r="118" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
@@ -41776,12 +41973,13 @@
       <c r="CM118" s="1"/>
       <c r="CN118" s="1"/>
       <c r="CO118" s="1"/>
-      <c r="CP118" s="1"/>
-      <c r="CQ118" s="1"/>
-      <c r="CR118" s="1"/>
-      <c r="CS118" s="1"/>
-      <c r="CT118" s="1"/>
-      <c r="CU118" s="1"/>
+      <c r="CP118" s="27"/>
+      <c r="CQ118" s="27"/>
+      <c r="CR118" s="27"/>
+      <c r="CS118" s="27"/>
+      <c r="CT118" s="27"/>
+      <c r="CU118" s="27"/>
+      <c r="CV118" s="27"/>
     </row>
     <row r="119" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
@@ -41879,12 +42077,13 @@
       <c r="CM119" s="1"/>
       <c r="CN119" s="1"/>
       <c r="CO119" s="1"/>
-      <c r="CP119" s="1"/>
-      <c r="CQ119" s="1"/>
-      <c r="CR119" s="1"/>
-      <c r="CS119" s="1"/>
-      <c r="CT119" s="1"/>
-      <c r="CU119" s="1"/>
+      <c r="CP119" s="27"/>
+      <c r="CQ119" s="27"/>
+      <c r="CR119" s="27"/>
+      <c r="CS119" s="27"/>
+      <c r="CT119" s="27"/>
+      <c r="CU119" s="27"/>
+      <c r="CV119" s="27"/>
     </row>
     <row r="120" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
@@ -41982,12 +42181,13 @@
       <c r="CM120" s="1"/>
       <c r="CN120" s="1"/>
       <c r="CO120" s="1"/>
-      <c r="CP120" s="1"/>
-      <c r="CQ120" s="1"/>
-      <c r="CR120" s="1"/>
-      <c r="CS120" s="1"/>
-      <c r="CT120" s="1"/>
-      <c r="CU120" s="1"/>
+      <c r="CP120" s="27"/>
+      <c r="CQ120" s="27"/>
+      <c r="CR120" s="27"/>
+      <c r="CS120" s="27"/>
+      <c r="CT120" s="27"/>
+      <c r="CU120" s="27"/>
+      <c r="CV120" s="27"/>
     </row>
     <row r="121" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
@@ -42083,12 +42283,13 @@
       <c r="CM121" s="1"/>
       <c r="CN121" s="1"/>
       <c r="CO121" s="1"/>
-      <c r="CP121" s="1"/>
-      <c r="CQ121" s="1"/>
-      <c r="CR121" s="1"/>
-      <c r="CS121" s="1"/>
-      <c r="CT121" s="1"/>
-      <c r="CU121" s="1"/>
+      <c r="CP121" s="27"/>
+      <c r="CQ121" s="27"/>
+      <c r="CR121" s="27"/>
+      <c r="CS121" s="27"/>
+      <c r="CT121" s="27"/>
+      <c r="CU121" s="27"/>
+      <c r="CV121" s="27"/>
     </row>
     <row r="122" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
@@ -42230,16 +42431,17 @@
       <c r="CM122" s="21"/>
       <c r="CN122" s="21"/>
       <c r="CO122" s="21"/>
-      <c r="CP122" s="21">
+      <c r="CP122" s="28">
         <v>2023</v>
       </c>
-      <c r="CQ122" s="21"/>
-      <c r="CR122" s="21"/>
-      <c r="CS122" s="21"/>
-      <c r="CT122" s="21">
+      <c r="CQ122" s="28"/>
+      <c r="CR122" s="28"/>
+      <c r="CS122" s="28"/>
+      <c r="CT122" s="28">
         <v>2024</v>
       </c>
-      <c r="CU122" s="21"/>
+      <c r="CU122" s="28"/>
+      <c r="CV122" s="28"/>
     </row>
     <row r="123" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
@@ -42521,23 +42723,26 @@
       <c r="CO123" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP123" s="7" t="s">
+      <c r="CP123" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CQ123" s="7" t="s">
+      <c r="CQ123" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="CR123" s="7" t="s">
+      <c r="CR123" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="CS123" s="7" t="s">
+      <c r="CS123" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="CT123" s="7" t="s">
+      <c r="CT123" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CU123" s="7" t="s">
+      <c r="CU123" s="29" t="s">
         <v>8</v>
+      </c>
+      <c r="CV123" s="29" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -42634,12 +42839,13 @@
       <c r="CM124" s="1"/>
       <c r="CN124" s="1"/>
       <c r="CO124" s="1"/>
-      <c r="CP124" s="1"/>
-      <c r="CQ124" s="1"/>
-      <c r="CR124" s="1"/>
-      <c r="CS124" s="1"/>
-      <c r="CT124" s="1"/>
-      <c r="CU124" s="1"/>
+      <c r="CP124" s="27"/>
+      <c r="CQ124" s="27"/>
+      <c r="CR124" s="27"/>
+      <c r="CS124" s="27"/>
+      <c r="CT124" s="27"/>
+      <c r="CU124" s="27"/>
+      <c r="CV124" s="27"/>
     </row>
     <row r="125" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
@@ -42921,25 +43127,27 @@
       <c r="CO125" s="18">
         <v>63.554887447852515</v>
       </c>
-      <c r="CP125" s="18">
+      <c r="CP125" s="35">
         <v>57.488309015145447</v>
       </c>
-      <c r="CQ125" s="18">
+      <c r="CQ125" s="35">
         <v>61.448214761552912</v>
       </c>
-      <c r="CR125" s="18">
+      <c r="CR125" s="35">
         <v>61.237701037154743</v>
       </c>
-      <c r="CS125" s="18">
+      <c r="CS125" s="35">
         <v>62.942525479858865</v>
       </c>
-      <c r="CT125" s="18">
+      <c r="CT125" s="35">
         <v>55.953602698450489</v>
       </c>
-      <c r="CU125" s="18">
-        <v>61.701781918942544</v>
-      </c>
-      <c r="CV125" s="11"/>
+      <c r="CU125" s="35">
+        <v>61.087696252129106</v>
+      </c>
+      <c r="CV125" s="35">
+        <v>61.594360744758738</v>
+      </c>
       <c r="CW125" s="11"/>
       <c r="CX125" s="11"/>
       <c r="CY125" s="11"/>
@@ -43276,25 +43484,27 @@
       <c r="CO126" s="18">
         <v>36.445112552147485</v>
       </c>
-      <c r="CP126" s="18">
+      <c r="CP126" s="35">
         <v>42.511690984854553</v>
       </c>
-      <c r="CQ126" s="18">
+      <c r="CQ126" s="35">
         <v>38.551785238447096</v>
       </c>
-      <c r="CR126" s="18">
+      <c r="CR126" s="35">
         <v>38.762298962845257</v>
       </c>
-      <c r="CS126" s="18">
+      <c r="CS126" s="35">
         <v>37.057474520141135</v>
       </c>
-      <c r="CT126" s="18">
+      <c r="CT126" s="35">
         <v>44.046397301549511</v>
       </c>
-      <c r="CU126" s="18">
-        <v>38.298218081057456</v>
-      </c>
-      <c r="CV126" s="11"/>
+      <c r="CU126" s="35">
+        <v>38.912303747870894</v>
+      </c>
+      <c r="CV126" s="35">
+        <v>38.405639255241262</v>
+      </c>
       <c r="CW126" s="11"/>
       <c r="CX126" s="11"/>
       <c r="CY126" s="11"/>
@@ -43444,13 +43654,13 @@
       <c r="CM127" s="17"/>
       <c r="CN127" s="17"/>
       <c r="CO127" s="17"/>
-      <c r="CP127" s="17"/>
-      <c r="CQ127" s="17"/>
-      <c r="CR127" s="17"/>
-      <c r="CS127" s="17"/>
-      <c r="CT127" s="17"/>
-      <c r="CU127" s="17"/>
-      <c r="CV127" s="11"/>
+      <c r="CP127" s="33"/>
+      <c r="CQ127" s="33"/>
+      <c r="CR127" s="33"/>
+      <c r="CS127" s="33"/>
+      <c r="CT127" s="33"/>
+      <c r="CU127" s="33"/>
+      <c r="CV127" s="33"/>
       <c r="CW127" s="11"/>
       <c r="CX127" s="11"/>
       <c r="CY127" s="11"/>
@@ -43787,25 +43997,27 @@
       <c r="CO128" s="18">
         <v>100</v>
       </c>
-      <c r="CP128" s="18">
+      <c r="CP128" s="35">
         <v>100</v>
       </c>
-      <c r="CQ128" s="18">
+      <c r="CQ128" s="35">
         <v>100</v>
       </c>
-      <c r="CR128" s="18">
+      <c r="CR128" s="35">
         <v>100</v>
       </c>
-      <c r="CS128" s="18">
+      <c r="CS128" s="35">
         <v>100</v>
       </c>
-      <c r="CT128" s="18">
+      <c r="CT128" s="35">
         <v>100</v>
       </c>
-      <c r="CU128" s="18">
+      <c r="CU128" s="35">
         <v>100</v>
       </c>
-      <c r="CV128" s="11"/>
+      <c r="CV128" s="35">
+        <v>100</v>
+      </c>
       <c r="CW128" s="11"/>
       <c r="CX128" s="11"/>
       <c r="CY128" s="11"/>
@@ -43862,7 +44074,7 @@
       <c r="EX128" s="11"/>
       <c r="EY128" s="11"/>
     </row>
-    <row r="129" spans="1:99" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:100" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="15"/>
       <c r="B129" s="15"/>
       <c r="C129" s="15"/>
@@ -43956,14 +44168,15 @@
       <c r="CM129" s="15"/>
       <c r="CN129" s="15"/>
       <c r="CO129" s="15"/>
-      <c r="CP129" s="15"/>
-      <c r="CQ129" s="15"/>
-      <c r="CR129" s="15"/>
-      <c r="CS129" s="15"/>
-      <c r="CT129" s="15"/>
-      <c r="CU129" s="15"/>
+      <c r="CP129" s="32"/>
+      <c r="CQ129" s="32"/>
+      <c r="CR129" s="32"/>
+      <c r="CS129" s="32"/>
+      <c r="CT129" s="32"/>
+      <c r="CU129" s="32"/>
+      <c r="CV129" s="32"/>
     </row>
-    <row r="130" spans="1:99" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:100" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="16" t="s">
         <v>0</v>
       </c>
@@ -44059,15 +44272,139 @@
       <c r="CM130" s="1"/>
       <c r="CN130" s="1"/>
       <c r="CO130" s="1"/>
-      <c r="CP130" s="1"/>
-      <c r="CQ130" s="1"/>
-      <c r="CR130" s="1"/>
-      <c r="CS130" s="1"/>
-      <c r="CT130" s="1"/>
-      <c r="CU130" s="1"/>
+      <c r="CP130" s="27"/>
+      <c r="CQ130" s="27"/>
+      <c r="CR130" s="27"/>
+      <c r="CS130" s="27"/>
+      <c r="CT130" s="27"/>
+      <c r="CU130" s="27"/>
+      <c r="CV130" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="147">
+    <mergeCell ref="BZ28:CC28"/>
+    <mergeCell ref="BZ47:CC47"/>
+    <mergeCell ref="BZ66:CC66"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD122:CG122"/>
+    <mergeCell ref="CD103:CG103"/>
+    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="CD28:CG28"/>
+    <mergeCell ref="BZ103:CC103"/>
+    <mergeCell ref="BZ84:CC84"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BZ122:CC122"/>
+    <mergeCell ref="CD47:CG47"/>
+    <mergeCell ref="CD66:CG66"/>
+    <mergeCell ref="BF122:BI122"/>
+    <mergeCell ref="BJ122:BM122"/>
+    <mergeCell ref="BN122:BQ122"/>
+    <mergeCell ref="BJ103:BM103"/>
+    <mergeCell ref="BN103:BQ103"/>
+    <mergeCell ref="BF84:BI84"/>
+    <mergeCell ref="BJ84:BM84"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="BV47:BY47"/>
+    <mergeCell ref="BV84:BY84"/>
+    <mergeCell ref="BV103:BY103"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BV28:BY28"/>
+    <mergeCell ref="BF28:BI28"/>
+    <mergeCell ref="BR28:BU28"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BJ28:BM28"/>
+    <mergeCell ref="BN28:BQ28"/>
+    <mergeCell ref="BJ47:BM47"/>
+    <mergeCell ref="BN47:BQ47"/>
+    <mergeCell ref="BF47:BI47"/>
+    <mergeCell ref="BR47:BU47"/>
+    <mergeCell ref="AX122:BA122"/>
+    <mergeCell ref="BB122:BE122"/>
+    <mergeCell ref="BN84:BQ84"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="J103:M103"/>
+    <mergeCell ref="N103:Q103"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="V103:Y103"/>
+    <mergeCell ref="Z103:AC103"/>
+    <mergeCell ref="AD103:AG103"/>
+    <mergeCell ref="AH103:AK103"/>
+    <mergeCell ref="AL103:AO103"/>
+    <mergeCell ref="AP103:AS103"/>
+    <mergeCell ref="AT103:AW103"/>
+    <mergeCell ref="AX103:BA103"/>
+    <mergeCell ref="BB103:BE103"/>
+    <mergeCell ref="BF103:BI103"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="AX84:BA84"/>
+    <mergeCell ref="BB84:BE84"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:M122"/>
+    <mergeCell ref="AT122:AW122"/>
+    <mergeCell ref="N122:Q122"/>
+    <mergeCell ref="R122:U122"/>
+    <mergeCell ref="V122:Y122"/>
+    <mergeCell ref="Z122:AC122"/>
+    <mergeCell ref="AD122:AG122"/>
+    <mergeCell ref="AH122:AK122"/>
+    <mergeCell ref="V66:Y66"/>
+    <mergeCell ref="Z66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AK66"/>
+    <mergeCell ref="Z84:AC84"/>
+    <mergeCell ref="AD84:AG84"/>
+    <mergeCell ref="AH84:AK84"/>
+    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="AT66:AW66"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="V84:Y84"/>
+    <mergeCell ref="AL122:AO122"/>
+    <mergeCell ref="AP122:AS122"/>
+    <mergeCell ref="AP66:AS66"/>
+    <mergeCell ref="AH28:AK28"/>
+    <mergeCell ref="AL28:AO28"/>
+    <mergeCell ref="AL47:AO47"/>
+    <mergeCell ref="AP28:AS28"/>
+    <mergeCell ref="AT28:AW28"/>
+    <mergeCell ref="AX28:BA28"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="R47:U47"/>
+    <mergeCell ref="V47:Y47"/>
+    <mergeCell ref="Z47:AC47"/>
+    <mergeCell ref="AD47:AG47"/>
+    <mergeCell ref="AH47:AK47"/>
+    <mergeCell ref="BB28:BE28"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="BB47:BE47"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="V28:Y28"/>
+    <mergeCell ref="Z28:AC28"/>
     <mergeCell ref="B47:E47"/>
     <mergeCell ref="B84:E84"/>
     <mergeCell ref="BR122:BU122"/>
@@ -44092,138 +44429,15 @@
     <mergeCell ref="R66:U66"/>
     <mergeCell ref="AL66:AO66"/>
     <mergeCell ref="F84:I84"/>
-    <mergeCell ref="BB28:BE28"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="BB47:BE47"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="V28:Y28"/>
-    <mergeCell ref="Z28:AC28"/>
-    <mergeCell ref="AT28:AW28"/>
-    <mergeCell ref="AX28:BA28"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="R47:U47"/>
-    <mergeCell ref="V47:Y47"/>
-    <mergeCell ref="Z47:AC47"/>
-    <mergeCell ref="AD47:AG47"/>
-    <mergeCell ref="AH47:AK47"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="V84:Y84"/>
-    <mergeCell ref="AL122:AO122"/>
-    <mergeCell ref="AP122:AS122"/>
-    <mergeCell ref="AP66:AS66"/>
-    <mergeCell ref="AH28:AK28"/>
-    <mergeCell ref="AL28:AO28"/>
-    <mergeCell ref="AL47:AO47"/>
-    <mergeCell ref="AP28:AS28"/>
-    <mergeCell ref="AT122:AW122"/>
-    <mergeCell ref="N122:Q122"/>
-    <mergeCell ref="R122:U122"/>
-    <mergeCell ref="V122:Y122"/>
-    <mergeCell ref="Z122:AC122"/>
-    <mergeCell ref="AD122:AG122"/>
-    <mergeCell ref="AH122:AK122"/>
-    <mergeCell ref="V66:Y66"/>
-    <mergeCell ref="Z66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AK66"/>
-    <mergeCell ref="Z84:AC84"/>
-    <mergeCell ref="AD84:AG84"/>
-    <mergeCell ref="AH84:AK84"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="AT66:AW66"/>
-    <mergeCell ref="AX122:BA122"/>
-    <mergeCell ref="BB122:BE122"/>
-    <mergeCell ref="BN84:BQ84"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="J103:M103"/>
-    <mergeCell ref="N103:Q103"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="V103:Y103"/>
-    <mergeCell ref="Z103:AC103"/>
-    <mergeCell ref="AD103:AG103"/>
-    <mergeCell ref="AH103:AK103"/>
-    <mergeCell ref="AL103:AO103"/>
-    <mergeCell ref="AP103:AS103"/>
-    <mergeCell ref="AT103:AW103"/>
-    <mergeCell ref="AX103:BA103"/>
-    <mergeCell ref="BB103:BE103"/>
-    <mergeCell ref="BF103:BI103"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="BB84:BE84"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="BF122:BI122"/>
-    <mergeCell ref="BJ122:BM122"/>
-    <mergeCell ref="BN122:BQ122"/>
-    <mergeCell ref="BJ103:BM103"/>
-    <mergeCell ref="BN103:BQ103"/>
-    <mergeCell ref="BF84:BI84"/>
-    <mergeCell ref="BJ84:BM84"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="BV47:BY47"/>
-    <mergeCell ref="BV84:BY84"/>
-    <mergeCell ref="BV103:BY103"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BV28:BY28"/>
-    <mergeCell ref="BF28:BI28"/>
-    <mergeCell ref="BR28:BU28"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BJ28:BM28"/>
-    <mergeCell ref="BN28:BQ28"/>
-    <mergeCell ref="BJ47:BM47"/>
-    <mergeCell ref="BN47:BQ47"/>
-    <mergeCell ref="BF47:BI47"/>
-    <mergeCell ref="BR47:BU47"/>
-    <mergeCell ref="BZ28:CC28"/>
-    <mergeCell ref="BZ47:CC47"/>
-    <mergeCell ref="BZ66:CC66"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD122:CG122"/>
-    <mergeCell ref="CD103:CG103"/>
-    <mergeCell ref="CD84:CG84"/>
-    <mergeCell ref="CD28:CG28"/>
-    <mergeCell ref="BZ103:CC103"/>
-    <mergeCell ref="BZ84:CC84"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BZ122:CC122"/>
-    <mergeCell ref="CD47:CG47"/>
-    <mergeCell ref="CD66:CG66"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="98" man="1"/>
-    <brk id="76" max="98" man="1"/>
-    <brk id="94" max="98" man="1"/>
+    <brk id="38" max="99" man="1"/>
+    <brk id="76" max="99" man="1"/>
+    <brk id="94" max="99" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-21OS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-21OS_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35E8D37-C295-43AD-8D5E-1B3A3E599D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD012670-91D9-49EE-B210-9BF1A007CAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="17235" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OS" sheetId="15" r:id="rId1"/>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">OS!$A$1:$CV$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">OS!$A$1:$CW$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -621,13 +621,13 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>As of November 2024</t>
+    <t>Q1 2000 to Q4 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2024</t>
+    <t>Q1 2001 to Q4 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2024</t>
+    <t>As of January 2025</t>
   </si>
 </sst>
 </file>
@@ -732,7 +732,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -768,15 +768,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -795,6 +786,30 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -23654,10 +23669,10 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:EY130"/>
+  <dimension ref="A1:EY134"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CL1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="CE141" sqref="CA141:CE149"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -23666,91 +23681,98 @@
   <cols>
     <col min="1" max="1" width="41.88671875" style="1" customWidth="1"/>
     <col min="2" max="93" width="9" style="12" customWidth="1"/>
-    <col min="94" max="100" width="10.109375" style="37" customWidth="1"/>
-    <col min="101" max="16384" width="7.77734375" style="12"/>
+    <col min="94" max="101" width="10.109375" style="34" customWidth="1"/>
+    <col min="102" max="16384" width="7.77734375" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CP1" s="26"/>
-      <c r="CQ1" s="26"/>
-      <c r="CR1" s="26"/>
-      <c r="CS1" s="26"/>
-      <c r="CT1" s="26"/>
-      <c r="CU1" s="26"/>
-      <c r="CV1" s="26"/>
+      <c r="CP1" s="23"/>
+      <c r="CQ1" s="23"/>
+      <c r="CR1" s="23"/>
+      <c r="CS1" s="23"/>
+      <c r="CT1" s="23"/>
+      <c r="CU1" s="23"/>
+      <c r="CV1" s="23"/>
+      <c r="CW1" s="23"/>
     </row>
     <row r="2" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="CP2" s="26"/>
-      <c r="CQ2" s="26"/>
-      <c r="CR2" s="26"/>
-      <c r="CS2" s="26"/>
-      <c r="CT2" s="26"/>
-      <c r="CU2" s="26"/>
-      <c r="CV2" s="26"/>
+      <c r="CP2" s="23"/>
+      <c r="CQ2" s="23"/>
+      <c r="CR2" s="23"/>
+      <c r="CS2" s="23"/>
+      <c r="CT2" s="23"/>
+      <c r="CU2" s="23"/>
+      <c r="CV2" s="23"/>
+      <c r="CW2" s="23"/>
     </row>
     <row r="3" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="CP3" s="26"/>
-      <c r="CQ3" s="26"/>
-      <c r="CR3" s="26"/>
-      <c r="CS3" s="26"/>
-      <c r="CT3" s="26"/>
-      <c r="CU3" s="26"/>
-      <c r="CV3" s="26"/>
+        <v>52</v>
+      </c>
+      <c r="CP3" s="23"/>
+      <c r="CQ3" s="23"/>
+      <c r="CR3" s="23"/>
+      <c r="CS3" s="23"/>
+      <c r="CT3" s="23"/>
+      <c r="CU3" s="23"/>
+      <c r="CV3" s="23"/>
+      <c r="CW3" s="23"/>
     </row>
     <row r="4" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="CP4" s="26"/>
-      <c r="CQ4" s="26"/>
-      <c r="CR4" s="26"/>
-      <c r="CS4" s="26"/>
-      <c r="CT4" s="26"/>
-      <c r="CU4" s="26"/>
-      <c r="CV4" s="26"/>
+      <c r="CP4" s="23"/>
+      <c r="CQ4" s="23"/>
+      <c r="CR4" s="23"/>
+      <c r="CS4" s="23"/>
+      <c r="CT4" s="23"/>
+      <c r="CU4" s="23"/>
+      <c r="CV4" s="23"/>
+      <c r="CW4" s="23"/>
     </row>
     <row r="5" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="CP5" s="26"/>
-      <c r="CQ5" s="26"/>
-      <c r="CR5" s="26"/>
-      <c r="CS5" s="26"/>
-      <c r="CT5" s="26"/>
-      <c r="CU5" s="26"/>
-      <c r="CV5" s="26"/>
+      <c r="CP5" s="23"/>
+      <c r="CQ5" s="23"/>
+      <c r="CR5" s="23"/>
+      <c r="CS5" s="23"/>
+      <c r="CT5" s="23"/>
+      <c r="CU5" s="23"/>
+      <c r="CV5" s="23"/>
+      <c r="CW5" s="23"/>
     </row>
     <row r="6" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="CP6" s="26"/>
-      <c r="CQ6" s="26"/>
-      <c r="CR6" s="26"/>
-      <c r="CS6" s="26"/>
-      <c r="CT6" s="26"/>
-      <c r="CU6" s="26"/>
-      <c r="CV6" s="26"/>
+        <v>50</v>
+      </c>
+      <c r="CP6" s="23"/>
+      <c r="CQ6" s="23"/>
+      <c r="CR6" s="23"/>
+      <c r="CS6" s="23"/>
+      <c r="CT6" s="23"/>
+      <c r="CU6" s="23"/>
+      <c r="CV6" s="23"/>
+      <c r="CW6" s="23"/>
     </row>
     <row r="7" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="CP7" s="26"/>
-      <c r="CQ7" s="26"/>
-      <c r="CR7" s="26"/>
-      <c r="CS7" s="26"/>
-      <c r="CT7" s="26"/>
-      <c r="CU7" s="26"/>
-      <c r="CV7" s="26"/>
+      <c r="CP7" s="23"/>
+      <c r="CQ7" s="23"/>
+      <c r="CR7" s="23"/>
+      <c r="CS7" s="23"/>
+      <c r="CT7" s="23"/>
+      <c r="CU7" s="23"/>
+      <c r="CV7" s="23"/>
+      <c r="CW7" s="23"/>
     </row>
     <row r="8" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
@@ -23846,142 +23868,143 @@
       <c r="CM8" s="1"/>
       <c r="CN8" s="1"/>
       <c r="CO8" s="1"/>
-      <c r="CP8" s="27"/>
-      <c r="CQ8" s="27"/>
-      <c r="CR8" s="27"/>
-      <c r="CS8" s="27"/>
-      <c r="CT8" s="27"/>
-      <c r="CU8" s="27"/>
-      <c r="CV8" s="27"/>
+      <c r="CP8" s="24"/>
+      <c r="CQ8" s="24"/>
+      <c r="CR8" s="24"/>
+      <c r="CS8" s="24"/>
+      <c r="CT8" s="24"/>
+      <c r="CU8" s="24"/>
+      <c r="CV8" s="24"/>
+      <c r="CW8" s="24"/>
     </row>
     <row r="9" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="23">
+      <c r="B9" s="40">
         <v>2000</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23">
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40">
         <v>2001</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23">
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40">
         <v>2002</v>
       </c>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23">
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40">
         <v>2003</v>
       </c>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23">
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40">
         <v>2004</v>
       </c>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23">
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40">
         <v>2005</v>
       </c>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="23">
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40">
         <v>2006</v>
       </c>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23"/>
-      <c r="AC9" s="23"/>
-      <c r="AD9" s="23">
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40">
         <v>2007</v>
       </c>
-      <c r="AE9" s="23"/>
-      <c r="AF9" s="23"/>
-      <c r="AG9" s="23"/>
-      <c r="AH9" s="23">
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="40"/>
+      <c r="AG9" s="40"/>
+      <c r="AH9" s="40">
         <v>2008</v>
       </c>
-      <c r="AI9" s="23"/>
-      <c r="AJ9" s="23"/>
-      <c r="AK9" s="23"/>
-      <c r="AL9" s="23">
+      <c r="AI9" s="40"/>
+      <c r="AJ9" s="40"/>
+      <c r="AK9" s="40"/>
+      <c r="AL9" s="40">
         <v>2009</v>
       </c>
-      <c r="AM9" s="23"/>
-      <c r="AN9" s="23"/>
-      <c r="AO9" s="23"/>
-      <c r="AP9" s="23">
+      <c r="AM9" s="40"/>
+      <c r="AN9" s="40"/>
+      <c r="AO9" s="40"/>
+      <c r="AP9" s="40">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="23"/>
-      <c r="AR9" s="23"/>
-      <c r="AS9" s="23"/>
-      <c r="AT9" s="23">
+      <c r="AQ9" s="40"/>
+      <c r="AR9" s="40"/>
+      <c r="AS9" s="40"/>
+      <c r="AT9" s="40">
         <v>2011</v>
       </c>
-      <c r="AU9" s="23"/>
-      <c r="AV9" s="23"/>
-      <c r="AW9" s="23"/>
-      <c r="AX9" s="23">
+      <c r="AU9" s="40"/>
+      <c r="AV9" s="40"/>
+      <c r="AW9" s="40"/>
+      <c r="AX9" s="40">
         <v>2012</v>
       </c>
-      <c r="AY9" s="23"/>
-      <c r="AZ9" s="23"/>
-      <c r="BA9" s="23"/>
-      <c r="BB9" s="23">
+      <c r="AY9" s="40"/>
+      <c r="AZ9" s="40"/>
+      <c r="BA9" s="40"/>
+      <c r="BB9" s="40">
         <v>2013</v>
       </c>
-      <c r="BC9" s="23"/>
-      <c r="BD9" s="23"/>
-      <c r="BE9" s="23"/>
-      <c r="BF9" s="23">
+      <c r="BC9" s="40"/>
+      <c r="BD9" s="40"/>
+      <c r="BE9" s="40"/>
+      <c r="BF9" s="40">
         <v>2014</v>
       </c>
-      <c r="BG9" s="23"/>
-      <c r="BH9" s="23"/>
-      <c r="BI9" s="23"/>
-      <c r="BJ9" s="23">
+      <c r="BG9" s="40"/>
+      <c r="BH9" s="40"/>
+      <c r="BI9" s="40"/>
+      <c r="BJ9" s="40">
         <v>2015</v>
       </c>
-      <c r="BK9" s="23"/>
-      <c r="BL9" s="23"/>
-      <c r="BM9" s="23"/>
-      <c r="BN9" s="23">
+      <c r="BK9" s="40"/>
+      <c r="BL9" s="40"/>
+      <c r="BM9" s="40"/>
+      <c r="BN9" s="40">
         <v>2016</v>
       </c>
-      <c r="BO9" s="23"/>
-      <c r="BP9" s="23"/>
-      <c r="BQ9" s="23"/>
-      <c r="BR9" s="23">
+      <c r="BO9" s="40"/>
+      <c r="BP9" s="40"/>
+      <c r="BQ9" s="40"/>
+      <c r="BR9" s="40">
         <v>2017</v>
       </c>
-      <c r="BS9" s="23"/>
-      <c r="BT9" s="23"/>
-      <c r="BU9" s="23"/>
-      <c r="BV9" s="23">
+      <c r="BS9" s="40"/>
+      <c r="BT9" s="40"/>
+      <c r="BU9" s="40"/>
+      <c r="BV9" s="40">
         <v>2018</v>
       </c>
-      <c r="BW9" s="23"/>
-      <c r="BX9" s="23"/>
-      <c r="BY9" s="23"/>
-      <c r="BZ9" s="23">
+      <c r="BW9" s="40"/>
+      <c r="BX9" s="40"/>
+      <c r="BY9" s="40"/>
+      <c r="BZ9" s="40">
         <v>2019</v>
       </c>
-      <c r="CA9" s="23"/>
-      <c r="CB9" s="23"/>
-      <c r="CC9" s="23"/>
-      <c r="CD9" s="23">
+      <c r="CA9" s="40"/>
+      <c r="CB9" s="40"/>
+      <c r="CC9" s="40"/>
+      <c r="CD9" s="40">
         <v>2020</v>
       </c>
-      <c r="CE9" s="23"/>
-      <c r="CF9" s="23"/>
-      <c r="CG9" s="23"/>
+      <c r="CE9" s="40"/>
+      <c r="CF9" s="40"/>
+      <c r="CG9" s="40"/>
       <c r="CH9" s="21">
         <v>2021</v>
       </c>
@@ -23994,17 +24017,18 @@
       <c r="CM9" s="21"/>
       <c r="CN9" s="21"/>
       <c r="CO9" s="21"/>
-      <c r="CP9" s="28">
+      <c r="CP9" s="25">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="28"/>
-      <c r="CR9" s="28"/>
-      <c r="CS9" s="28"/>
-      <c r="CT9" s="28">
+      <c r="CQ9" s="25"/>
+      <c r="CR9" s="25"/>
+      <c r="CS9" s="25"/>
+      <c r="CT9" s="25">
         <v>2024</v>
       </c>
-      <c r="CU9" s="28"/>
-      <c r="CV9" s="28"/>
+      <c r="CU9" s="25"/>
+      <c r="CV9" s="25"/>
+      <c r="CW9" s="25"/>
     </row>
     <row r="10" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24286,26 +24310,29 @@
       <c r="CO10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="29" t="s">
+      <c r="CP10" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="29" t="s">
+      <c r="CQ10" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="29" t="s">
+      <c r="CR10" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="CS10" s="29" t="s">
+      <c r="CS10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="CT10" s="29" t="s">
+      <c r="CT10" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="CU10" s="29" t="s">
+      <c r="CU10" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="CV10" s="29" t="s">
+      <c r="CV10" s="26" t="s">
         <v>10</v>
+      </c>
+      <c r="CW10" s="26" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24402,13 +24429,14 @@
       <c r="CM11" s="1"/>
       <c r="CN11" s="1"/>
       <c r="CO11" s="1"/>
-      <c r="CP11" s="27"/>
-      <c r="CQ11" s="27"/>
-      <c r="CR11" s="27"/>
-      <c r="CS11" s="27"/>
-      <c r="CT11" s="27"/>
-      <c r="CU11" s="27"/>
-      <c r="CV11" s="27"/>
+      <c r="CP11" s="24"/>
+      <c r="CQ11" s="24"/>
+      <c r="CR11" s="24"/>
+      <c r="CS11" s="24"/>
+      <c r="CT11" s="24"/>
+      <c r="CU11" s="24"/>
+      <c r="CV11" s="24"/>
+      <c r="CW11" s="24"/>
     </row>
     <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
@@ -24690,28 +24718,30 @@
       <c r="CO12" s="19">
         <v>72267.957904806448</v>
       </c>
-      <c r="CP12" s="30">
+      <c r="CP12" s="27">
         <v>65749.128528322341</v>
       </c>
-      <c r="CQ12" s="30">
+      <c r="CQ12" s="27">
         <v>66475.807090737624</v>
       </c>
-      <c r="CR12" s="30">
+      <c r="CR12" s="27">
         <v>58888.090068404897</v>
       </c>
-      <c r="CS12" s="30">
+      <c r="CS12" s="27">
         <v>84049.154344747789</v>
       </c>
-      <c r="CT12" s="30">
+      <c r="CT12" s="27">
         <v>72794.250572686855</v>
       </c>
-      <c r="CU12" s="30">
+      <c r="CU12" s="27">
         <v>75737.872164926506</v>
       </c>
-      <c r="CV12" s="30">
-        <v>65672.472575176129</v>
-      </c>
-      <c r="CW12" s="11"/>
+      <c r="CV12" s="27">
+        <v>64982.99616105239</v>
+      </c>
+      <c r="CW12" s="27">
+        <v>95282.256733273156</v>
+      </c>
       <c r="CX12" s="11"/>
       <c r="CY12" s="11"/>
       <c r="CZ12" s="11"/>
@@ -25047,28 +25077,30 @@
       <c r="CO13" s="19">
         <v>43550.06055180906</v>
       </c>
-      <c r="CP13" s="30">
+      <c r="CP13" s="27">
         <v>53563.929716224739</v>
       </c>
-      <c r="CQ13" s="30">
+      <c r="CQ13" s="27">
         <v>44669.943711267093</v>
       </c>
-      <c r="CR13" s="30">
+      <c r="CR13" s="27">
         <v>39262.494450357262</v>
       </c>
-      <c r="CS13" s="30">
+      <c r="CS13" s="27">
         <v>53053.825725400275</v>
       </c>
-      <c r="CT13" s="30">
+      <c r="CT13" s="27">
         <v>63630.838798680183</v>
       </c>
-      <c r="CU13" s="30">
+      <c r="CU13" s="27">
         <v>51627.400508442821</v>
       </c>
-      <c r="CV13" s="30">
-        <v>43354.670233842306</v>
-      </c>
-      <c r="CW13" s="11"/>
+      <c r="CV13" s="27">
+        <v>43259.888662912461</v>
+      </c>
+      <c r="CW13" s="27">
+        <v>60946.594742236965</v>
+      </c>
       <c r="CX13" s="11"/>
       <c r="CY13" s="11"/>
       <c r="CZ13" s="11"/>
@@ -25217,14 +25249,14 @@
       <c r="CM14" s="20"/>
       <c r="CN14" s="20"/>
       <c r="CO14" s="20"/>
-      <c r="CP14" s="31"/>
-      <c r="CQ14" s="31"/>
-      <c r="CR14" s="31"/>
-      <c r="CS14" s="31"/>
-      <c r="CT14" s="31"/>
-      <c r="CU14" s="31"/>
-      <c r="CV14" s="31"/>
-      <c r="CW14" s="11"/>
+      <c r="CP14" s="28"/>
+      <c r="CQ14" s="28"/>
+      <c r="CR14" s="28"/>
+      <c r="CS14" s="28"/>
+      <c r="CT14" s="28"/>
+      <c r="CU14" s="28"/>
+      <c r="CV14" s="28"/>
+      <c r="CW14" s="28"/>
       <c r="CX14" s="11"/>
       <c r="CY14" s="11"/>
       <c r="CZ14" s="11"/>
@@ -25560,28 +25592,30 @@
       <c r="CO15" s="20">
         <v>115818.01845661551</v>
       </c>
-      <c r="CP15" s="31">
+      <c r="CP15" s="28">
         <v>119313.05824454708</v>
       </c>
-      <c r="CQ15" s="31">
+      <c r="CQ15" s="28">
         <v>111145.75080200471</v>
       </c>
-      <c r="CR15" s="31">
+      <c r="CR15" s="28">
         <v>98150.58451876216</v>
       </c>
-      <c r="CS15" s="31">
+      <c r="CS15" s="28">
         <v>137102.98007014807</v>
       </c>
-      <c r="CT15" s="31">
+      <c r="CT15" s="28">
         <v>136425.08937136704</v>
       </c>
-      <c r="CU15" s="31">
+      <c r="CU15" s="28">
         <v>127365.27267336933</v>
       </c>
-      <c r="CV15" s="31">
-        <v>109027.14280901843</v>
-      </c>
-      <c r="CW15" s="11"/>
+      <c r="CV15" s="28">
+        <v>108242.88482396485</v>
+      </c>
+      <c r="CW15" s="28">
+        <v>156228.85147551011</v>
+      </c>
       <c r="CX15" s="11"/>
       <c r="CY15" s="11"/>
       <c r="CZ15" s="11"/>
@@ -25731,13 +25765,14 @@
       <c r="CM16" s="15"/>
       <c r="CN16" s="15"/>
       <c r="CO16" s="15"/>
-      <c r="CP16" s="32"/>
-      <c r="CQ16" s="32"/>
-      <c r="CR16" s="32"/>
-      <c r="CS16" s="32"/>
-      <c r="CT16" s="32"/>
-      <c r="CU16" s="32"/>
-      <c r="CV16" s="32"/>
+      <c r="CP16" s="29"/>
+      <c r="CQ16" s="29"/>
+      <c r="CR16" s="29"/>
+      <c r="CS16" s="29"/>
+      <c r="CT16" s="29"/>
+      <c r="CU16" s="29"/>
+      <c r="CV16" s="29"/>
+      <c r="CW16" s="29"/>
     </row>
     <row r="17" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
@@ -25835,13 +25870,14 @@
       <c r="CM17" s="1"/>
       <c r="CN17" s="1"/>
       <c r="CO17" s="1"/>
-      <c r="CP17" s="27"/>
-      <c r="CQ17" s="27"/>
-      <c r="CR17" s="27"/>
-      <c r="CS17" s="27"/>
-      <c r="CT17" s="27"/>
-      <c r="CU17" s="27"/>
-      <c r="CV17" s="27"/>
+      <c r="CP17" s="24"/>
+      <c r="CQ17" s="24"/>
+      <c r="CR17" s="24"/>
+      <c r="CS17" s="24"/>
+      <c r="CT17" s="24"/>
+      <c r="CU17" s="24"/>
+      <c r="CV17" s="24"/>
+      <c r="CW17" s="24"/>
     </row>
     <row r="18" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="17"/>
@@ -25936,14 +25972,14 @@
       <c r="CM18" s="17"/>
       <c r="CN18" s="17"/>
       <c r="CO18" s="17"/>
-      <c r="CP18" s="33"/>
-      <c r="CQ18" s="33"/>
-      <c r="CR18" s="33"/>
-      <c r="CS18" s="33"/>
-      <c r="CT18" s="33"/>
-      <c r="CU18" s="33"/>
-      <c r="CV18" s="33"/>
-      <c r="CW18" s="11"/>
+      <c r="CP18" s="30"/>
+      <c r="CQ18" s="30"/>
+      <c r="CR18" s="30"/>
+      <c r="CS18" s="30"/>
+      <c r="CT18" s="30"/>
+      <c r="CU18" s="30"/>
+      <c r="CV18" s="30"/>
+      <c r="CW18" s="30"/>
       <c r="CX18" s="11"/>
       <c r="CY18" s="11"/>
       <c r="CZ18" s="11"/>
@@ -26092,14 +26128,14 @@
       <c r="CM19" s="17"/>
       <c r="CN19" s="17"/>
       <c r="CO19" s="17"/>
-      <c r="CP19" s="33"/>
-      <c r="CQ19" s="33"/>
-      <c r="CR19" s="33"/>
-      <c r="CS19" s="33"/>
-      <c r="CT19" s="33"/>
-      <c r="CU19" s="33"/>
-      <c r="CV19" s="33"/>
-      <c r="CW19" s="11"/>
+      <c r="CP19" s="30"/>
+      <c r="CQ19" s="30"/>
+      <c r="CR19" s="30"/>
+      <c r="CS19" s="30"/>
+      <c r="CT19" s="30"/>
+      <c r="CU19" s="30"/>
+      <c r="CV19" s="30"/>
+      <c r="CW19" s="30"/>
       <c r="CX19" s="11"/>
       <c r="CY19" s="11"/>
       <c r="CZ19" s="11"/>
@@ -26251,13 +26287,14 @@
       <c r="CM20" s="1"/>
       <c r="CN20" s="1"/>
       <c r="CO20" s="1"/>
-      <c r="CP20" s="27"/>
-      <c r="CQ20" s="27"/>
-      <c r="CR20" s="27"/>
-      <c r="CS20" s="27"/>
-      <c r="CT20" s="27"/>
-      <c r="CU20" s="27"/>
-      <c r="CV20" s="27"/>
+      <c r="CP20" s="24"/>
+      <c r="CQ20" s="24"/>
+      <c r="CR20" s="24"/>
+      <c r="CS20" s="24"/>
+      <c r="CT20" s="24"/>
+      <c r="CU20" s="24"/>
+      <c r="CV20" s="24"/>
+      <c r="CW20" s="24"/>
     </row>
     <row r="21" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -26355,17 +26392,18 @@
       <c r="CM21" s="1"/>
       <c r="CN21" s="1"/>
       <c r="CO21" s="1"/>
-      <c r="CP21" s="27"/>
-      <c r="CQ21" s="27"/>
-      <c r="CR21" s="27"/>
-      <c r="CS21" s="27"/>
-      <c r="CT21" s="27"/>
-      <c r="CU21" s="27"/>
-      <c r="CV21" s="27"/>
+      <c r="CP21" s="24"/>
+      <c r="CQ21" s="24"/>
+      <c r="CR21" s="24"/>
+      <c r="CS21" s="24"/>
+      <c r="CT21" s="24"/>
+      <c r="CU21" s="24"/>
+      <c r="CV21" s="24"/>
+      <c r="CW21" s="24"/>
     </row>
     <row r="22" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -26459,13 +26497,14 @@
       <c r="CM22" s="1"/>
       <c r="CN22" s="1"/>
       <c r="CO22" s="1"/>
-      <c r="CP22" s="27"/>
-      <c r="CQ22" s="27"/>
-      <c r="CR22" s="27"/>
-      <c r="CS22" s="27"/>
-      <c r="CT22" s="27"/>
-      <c r="CU22" s="27"/>
-      <c r="CV22" s="27"/>
+      <c r="CP22" s="24"/>
+      <c r="CQ22" s="24"/>
+      <c r="CR22" s="24"/>
+      <c r="CS22" s="24"/>
+      <c r="CT22" s="24"/>
+      <c r="CU22" s="24"/>
+      <c r="CV22" s="24"/>
+      <c r="CW22" s="24"/>
     </row>
     <row r="23" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
@@ -26561,13 +26600,14 @@
       <c r="CM23" s="1"/>
       <c r="CN23" s="1"/>
       <c r="CO23" s="1"/>
-      <c r="CP23" s="27"/>
-      <c r="CQ23" s="27"/>
-      <c r="CR23" s="27"/>
-      <c r="CS23" s="27"/>
-      <c r="CT23" s="27"/>
-      <c r="CU23" s="27"/>
-      <c r="CV23" s="27"/>
+      <c r="CP23" s="24"/>
+      <c r="CQ23" s="24"/>
+      <c r="CR23" s="24"/>
+      <c r="CS23" s="24"/>
+      <c r="CT23" s="24"/>
+      <c r="CU23" s="24"/>
+      <c r="CV23" s="24"/>
+      <c r="CW23" s="24"/>
     </row>
     <row r="24" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -26665,17 +26705,18 @@
       <c r="CM24" s="1"/>
       <c r="CN24" s="1"/>
       <c r="CO24" s="1"/>
-      <c r="CP24" s="27"/>
-      <c r="CQ24" s="27"/>
-      <c r="CR24" s="27"/>
-      <c r="CS24" s="27"/>
-      <c r="CT24" s="27"/>
-      <c r="CU24" s="27"/>
-      <c r="CV24" s="27"/>
+      <c r="CP24" s="24"/>
+      <c r="CQ24" s="24"/>
+      <c r="CR24" s="24"/>
+      <c r="CS24" s="24"/>
+      <c r="CT24" s="24"/>
+      <c r="CU24" s="24"/>
+      <c r="CV24" s="24"/>
+      <c r="CW24" s="24"/>
     </row>
     <row r="25" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -26769,13 +26810,14 @@
       <c r="CM25" s="1"/>
       <c r="CN25" s="1"/>
       <c r="CO25" s="1"/>
-      <c r="CP25" s="27"/>
-      <c r="CQ25" s="27"/>
-      <c r="CR25" s="27"/>
-      <c r="CS25" s="27"/>
-      <c r="CT25" s="27"/>
-      <c r="CU25" s="27"/>
-      <c r="CV25" s="27"/>
+      <c r="CP25" s="24"/>
+      <c r="CQ25" s="24"/>
+      <c r="CR25" s="24"/>
+      <c r="CS25" s="24"/>
+      <c r="CT25" s="24"/>
+      <c r="CU25" s="24"/>
+      <c r="CV25" s="24"/>
+      <c r="CW25" s="24"/>
     </row>
     <row r="26" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -26873,13 +26915,14 @@
       <c r="CM26" s="1"/>
       <c r="CN26" s="1"/>
       <c r="CO26" s="1"/>
-      <c r="CP26" s="27"/>
-      <c r="CQ26" s="27"/>
-      <c r="CR26" s="27"/>
-      <c r="CS26" s="27"/>
-      <c r="CT26" s="27"/>
-      <c r="CU26" s="27"/>
-      <c r="CV26" s="27"/>
+      <c r="CP26" s="24"/>
+      <c r="CQ26" s="24"/>
+      <c r="CR26" s="24"/>
+      <c r="CS26" s="24"/>
+      <c r="CT26" s="24"/>
+      <c r="CU26" s="24"/>
+      <c r="CV26" s="24"/>
+      <c r="CW26" s="24"/>
     </row>
     <row r="27" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
@@ -26975,142 +27018,143 @@
       <c r="CM27" s="1"/>
       <c r="CN27" s="1"/>
       <c r="CO27" s="1"/>
-      <c r="CP27" s="27"/>
-      <c r="CQ27" s="27"/>
-      <c r="CR27" s="27"/>
-      <c r="CS27" s="27"/>
-      <c r="CT27" s="27"/>
-      <c r="CU27" s="27"/>
-      <c r="CV27" s="27"/>
+      <c r="CP27" s="24"/>
+      <c r="CQ27" s="24"/>
+      <c r="CR27" s="24"/>
+      <c r="CS27" s="24"/>
+      <c r="CT27" s="24"/>
+      <c r="CU27" s="24"/>
+      <c r="CV27" s="24"/>
+      <c r="CW27" s="24"/>
     </row>
     <row r="28" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
-      <c r="B28" s="23">
+      <c r="B28" s="40">
         <v>2000</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="23">
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="40">
         <v>2001</v>
       </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="23">
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="40">
         <v>2002</v>
       </c>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="23">
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="40">
         <v>2003</v>
       </c>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="23">
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="40">
         <v>2004</v>
       </c>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="23">
+      <c r="S28" s="41"/>
+      <c r="T28" s="41"/>
+      <c r="U28" s="41"/>
+      <c r="V28" s="40">
         <v>2005</v>
       </c>
-      <c r="W28" s="24"/>
-      <c r="X28" s="24"/>
-      <c r="Y28" s="24"/>
-      <c r="Z28" s="23">
+      <c r="W28" s="41"/>
+      <c r="X28" s="41"/>
+      <c r="Y28" s="41"/>
+      <c r="Z28" s="40">
         <v>2006</v>
       </c>
-      <c r="AA28" s="24"/>
-      <c r="AB28" s="24"/>
-      <c r="AC28" s="24"/>
-      <c r="AD28" s="23">
+      <c r="AA28" s="41"/>
+      <c r="AB28" s="41"/>
+      <c r="AC28" s="41"/>
+      <c r="AD28" s="40">
         <v>2007</v>
       </c>
-      <c r="AE28" s="24"/>
-      <c r="AF28" s="24"/>
-      <c r="AG28" s="24"/>
-      <c r="AH28" s="23">
+      <c r="AE28" s="41"/>
+      <c r="AF28" s="41"/>
+      <c r="AG28" s="41"/>
+      <c r="AH28" s="40">
         <v>2008</v>
       </c>
-      <c r="AI28" s="24"/>
-      <c r="AJ28" s="24"/>
-      <c r="AK28" s="24"/>
-      <c r="AL28" s="23">
+      <c r="AI28" s="41"/>
+      <c r="AJ28" s="41"/>
+      <c r="AK28" s="41"/>
+      <c r="AL28" s="40">
         <v>2009</v>
       </c>
-      <c r="AM28" s="24"/>
-      <c r="AN28" s="24"/>
-      <c r="AO28" s="24"/>
-      <c r="AP28" s="23">
+      <c r="AM28" s="41"/>
+      <c r="AN28" s="41"/>
+      <c r="AO28" s="41"/>
+      <c r="AP28" s="40">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="24"/>
-      <c r="AR28" s="24"/>
-      <c r="AS28" s="24"/>
-      <c r="AT28" s="23">
+      <c r="AQ28" s="41"/>
+      <c r="AR28" s="41"/>
+      <c r="AS28" s="41"/>
+      <c r="AT28" s="40">
         <v>2011</v>
       </c>
-      <c r="AU28" s="24"/>
-      <c r="AV28" s="24"/>
-      <c r="AW28" s="24"/>
-      <c r="AX28" s="23">
+      <c r="AU28" s="41"/>
+      <c r="AV28" s="41"/>
+      <c r="AW28" s="41"/>
+      <c r="AX28" s="40">
         <v>2012</v>
       </c>
-      <c r="AY28" s="24"/>
-      <c r="AZ28" s="24"/>
-      <c r="BA28" s="24"/>
-      <c r="BB28" s="23">
+      <c r="AY28" s="41"/>
+      <c r="AZ28" s="41"/>
+      <c r="BA28" s="41"/>
+      <c r="BB28" s="40">
         <v>2013</v>
       </c>
-      <c r="BC28" s="24"/>
-      <c r="BD28" s="24"/>
-      <c r="BE28" s="24"/>
-      <c r="BF28" s="23">
+      <c r="BC28" s="41"/>
+      <c r="BD28" s="41"/>
+      <c r="BE28" s="41"/>
+      <c r="BF28" s="40">
         <v>2014</v>
       </c>
-      <c r="BG28" s="24"/>
-      <c r="BH28" s="24"/>
-      <c r="BI28" s="24"/>
-      <c r="BJ28" s="23">
+      <c r="BG28" s="41"/>
+      <c r="BH28" s="41"/>
+      <c r="BI28" s="41"/>
+      <c r="BJ28" s="40">
         <v>2015</v>
       </c>
-      <c r="BK28" s="24"/>
-      <c r="BL28" s="24"/>
-      <c r="BM28" s="24"/>
-      <c r="BN28" s="23">
+      <c r="BK28" s="41"/>
+      <c r="BL28" s="41"/>
+      <c r="BM28" s="41"/>
+      <c r="BN28" s="40">
         <v>2016</v>
       </c>
-      <c r="BO28" s="24"/>
-      <c r="BP28" s="24"/>
-      <c r="BQ28" s="24"/>
-      <c r="BR28" s="23">
+      <c r="BO28" s="41"/>
+      <c r="BP28" s="41"/>
+      <c r="BQ28" s="41"/>
+      <c r="BR28" s="40">
         <v>2017</v>
       </c>
-      <c r="BS28" s="24"/>
-      <c r="BT28" s="24"/>
-      <c r="BU28" s="24"/>
-      <c r="BV28" s="23">
+      <c r="BS28" s="41"/>
+      <c r="BT28" s="41"/>
+      <c r="BU28" s="41"/>
+      <c r="BV28" s="40">
         <v>2018</v>
       </c>
-      <c r="BW28" s="23"/>
-      <c r="BX28" s="23"/>
-      <c r="BY28" s="23"/>
-      <c r="BZ28" s="23">
+      <c r="BW28" s="40"/>
+      <c r="BX28" s="40"/>
+      <c r="BY28" s="40"/>
+      <c r="BZ28" s="40">
         <v>2019</v>
       </c>
-      <c r="CA28" s="23"/>
-      <c r="CB28" s="23"/>
-      <c r="CC28" s="23"/>
-      <c r="CD28" s="23">
+      <c r="CA28" s="40"/>
+      <c r="CB28" s="40"/>
+      <c r="CC28" s="40"/>
+      <c r="CD28" s="40">
         <v>2020</v>
       </c>
-      <c r="CE28" s="23"/>
-      <c r="CF28" s="23"/>
-      <c r="CG28" s="23"/>
+      <c r="CE28" s="40"/>
+      <c r="CF28" s="40"/>
+      <c r="CG28" s="40"/>
       <c r="CH28" s="21">
         <v>2021</v>
       </c>
@@ -27123,17 +27167,18 @@
       <c r="CM28" s="21"/>
       <c r="CN28" s="21"/>
       <c r="CO28" s="21"/>
-      <c r="CP28" s="28">
+      <c r="CP28" s="25">
         <v>2023</v>
       </c>
-      <c r="CQ28" s="28"/>
-      <c r="CR28" s="28"/>
-      <c r="CS28" s="28"/>
-      <c r="CT28" s="28">
+      <c r="CQ28" s="25"/>
+      <c r="CR28" s="25"/>
+      <c r="CS28" s="25"/>
+      <c r="CT28" s="25">
         <v>2024</v>
       </c>
-      <c r="CU28" s="28"/>
-      <c r="CV28" s="28"/>
+      <c r="CU28" s="25"/>
+      <c r="CV28" s="25"/>
+      <c r="CW28" s="25"/>
     </row>
     <row r="29" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
@@ -27415,26 +27460,29 @@
       <c r="CO29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP29" s="29" t="s">
+      <c r="CP29" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="CQ29" s="29" t="s">
+      <c r="CQ29" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="CR29" s="29" t="s">
+      <c r="CR29" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="CS29" s="29" t="s">
+      <c r="CS29" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="CT29" s="29" t="s">
+      <c r="CT29" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="CU29" s="29" t="s">
+      <c r="CU29" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="CV29" s="29" t="s">
+      <c r="CV29" s="26" t="s">
         <v>10</v>
+      </c>
+      <c r="CW29" s="26" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27531,13 +27579,14 @@
       <c r="CM30" s="1"/>
       <c r="CN30" s="1"/>
       <c r="CO30" s="1"/>
-      <c r="CP30" s="27"/>
-      <c r="CQ30" s="27"/>
-      <c r="CR30" s="27"/>
-      <c r="CS30" s="27"/>
-      <c r="CT30" s="27"/>
-      <c r="CU30" s="27"/>
-      <c r="CV30" s="27"/>
+      <c r="CP30" s="24"/>
+      <c r="CQ30" s="24"/>
+      <c r="CR30" s="24"/>
+      <c r="CS30" s="24"/>
+      <c r="CT30" s="24"/>
+      <c r="CU30" s="24"/>
+      <c r="CV30" s="24"/>
+      <c r="CW30" s="24"/>
     </row>
     <row r="31" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
@@ -27819,28 +27868,30 @@
       <c r="CO31" s="19">
         <v>67445.452034046815</v>
       </c>
-      <c r="CP31" s="30">
+      <c r="CP31" s="27">
         <v>61083.907320400758</v>
       </c>
-      <c r="CQ31" s="30">
+      <c r="CQ31" s="27">
         <v>60802.751380819478</v>
       </c>
-      <c r="CR31" s="30">
+      <c r="CR31" s="27">
         <v>52937.173584944583</v>
       </c>
-      <c r="CS31" s="30">
+      <c r="CS31" s="27">
         <v>74549.148697692945</v>
       </c>
-      <c r="CT31" s="30">
+      <c r="CT31" s="27">
         <v>64826.636232948469</v>
       </c>
-      <c r="CU31" s="30">
+      <c r="CU31" s="27">
         <v>66619.459350197474</v>
       </c>
-      <c r="CV31" s="30">
-        <v>57108.049777861786</v>
-      </c>
-      <c r="CW31" s="11"/>
+      <c r="CV31" s="27">
+        <v>56508.488777118779</v>
+      </c>
+      <c r="CW31" s="27">
+        <v>82336.097741895122</v>
+      </c>
       <c r="CX31" s="11"/>
       <c r="CY31" s="11"/>
       <c r="CZ31" s="11"/>
@@ -28176,28 +28227,30 @@
       <c r="CO32" s="19">
         <v>38676.130022701458</v>
       </c>
-      <c r="CP32" s="30">
+      <c r="CP32" s="27">
         <v>45170.578794868416</v>
       </c>
-      <c r="CQ32" s="30">
+      <c r="CQ32" s="27">
         <v>38146.830176206837</v>
       </c>
-      <c r="CR32" s="30">
+      <c r="CR32" s="27">
         <v>33508.22310430411</v>
       </c>
-      <c r="CS32" s="30">
+      <c r="CS32" s="27">
         <v>43890.885491192763</v>
       </c>
-      <c r="CT32" s="30">
+      <c r="CT32" s="27">
         <v>51031.205097335886</v>
       </c>
-      <c r="CU32" s="30">
+      <c r="CU32" s="27">
         <v>42435.986242703846</v>
       </c>
-      <c r="CV32" s="30">
-        <v>35608.311082691987</v>
-      </c>
-      <c r="CW32" s="11"/>
+      <c r="CV32" s="27">
+        <v>35530.464529036472</v>
+      </c>
+      <c r="CW32" s="27">
+        <v>48535.593796740803</v>
+      </c>
       <c r="CX32" s="11"/>
       <c r="CY32" s="11"/>
       <c r="CZ32" s="11"/>
@@ -28346,14 +28399,14 @@
       <c r="CM33" s="20"/>
       <c r="CN33" s="20"/>
       <c r="CO33" s="20"/>
-      <c r="CP33" s="31"/>
-      <c r="CQ33" s="31"/>
-      <c r="CR33" s="31"/>
-      <c r="CS33" s="31"/>
-      <c r="CT33" s="31"/>
-      <c r="CU33" s="31"/>
-      <c r="CV33" s="31"/>
-      <c r="CW33" s="11"/>
+      <c r="CP33" s="28"/>
+      <c r="CQ33" s="28"/>
+      <c r="CR33" s="28"/>
+      <c r="CS33" s="28"/>
+      <c r="CT33" s="28"/>
+      <c r="CU33" s="28"/>
+      <c r="CV33" s="28"/>
+      <c r="CW33" s="28"/>
       <c r="CX33" s="11"/>
       <c r="CY33" s="11"/>
       <c r="CZ33" s="11"/>
@@ -28689,28 +28742,30 @@
       <c r="CO34" s="20">
         <v>106121.58205674827</v>
       </c>
-      <c r="CP34" s="31">
+      <c r="CP34" s="28">
         <v>106254.48611526917</v>
       </c>
-      <c r="CQ34" s="31">
+      <c r="CQ34" s="28">
         <v>98949.581557026308</v>
       </c>
-      <c r="CR34" s="31">
+      <c r="CR34" s="28">
         <v>86445.396689248693</v>
       </c>
-      <c r="CS34" s="31">
+      <c r="CS34" s="28">
         <v>118440.03418888571</v>
       </c>
-      <c r="CT34" s="31">
+      <c r="CT34" s="28">
         <v>115857.84133028435</v>
       </c>
-      <c r="CU34" s="31">
+      <c r="CU34" s="28">
         <v>109055.44559290132</v>
       </c>
-      <c r="CV34" s="31">
-        <v>92716.360860553774</v>
-      </c>
-      <c r="CW34" s="11"/>
+      <c r="CV34" s="28">
+        <v>92038.95330615525</v>
+      </c>
+      <c r="CW34" s="28">
+        <v>130871.69153863593</v>
+      </c>
       <c r="CX34" s="11"/>
       <c r="CY34" s="11"/>
       <c r="CZ34" s="11"/>
@@ -28860,13 +28915,14 @@
       <c r="CM35" s="15"/>
       <c r="CN35" s="15"/>
       <c r="CO35" s="15"/>
-      <c r="CP35" s="32"/>
-      <c r="CQ35" s="32"/>
-      <c r="CR35" s="32"/>
-      <c r="CS35" s="32"/>
-      <c r="CT35" s="32"/>
-      <c r="CU35" s="32"/>
-      <c r="CV35" s="32"/>
+      <c r="CP35" s="29"/>
+      <c r="CQ35" s="29"/>
+      <c r="CR35" s="29"/>
+      <c r="CS35" s="29"/>
+      <c r="CT35" s="29"/>
+      <c r="CU35" s="29"/>
+      <c r="CV35" s="29"/>
+      <c r="CW35" s="29"/>
     </row>
     <row r="36" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
@@ -28964,13 +29020,14 @@
       <c r="CM36" s="1"/>
       <c r="CN36" s="1"/>
       <c r="CO36" s="1"/>
-      <c r="CP36" s="27"/>
-      <c r="CQ36" s="27"/>
-      <c r="CR36" s="27"/>
-      <c r="CS36" s="27"/>
-      <c r="CT36" s="27"/>
-      <c r="CU36" s="27"/>
-      <c r="CV36" s="27"/>
+      <c r="CP36" s="24"/>
+      <c r="CQ36" s="24"/>
+      <c r="CR36" s="24"/>
+      <c r="CS36" s="24"/>
+      <c r="CT36" s="24"/>
+      <c r="CU36" s="24"/>
+      <c r="CV36" s="24"/>
+      <c r="CW36" s="24"/>
     </row>
     <row r="37" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="17"/>
@@ -29065,14 +29122,14 @@
       <c r="CM37" s="17"/>
       <c r="CN37" s="17"/>
       <c r="CO37" s="17"/>
-      <c r="CP37" s="33"/>
-      <c r="CQ37" s="33"/>
-      <c r="CR37" s="33"/>
-      <c r="CS37" s="33"/>
-      <c r="CT37" s="33"/>
-      <c r="CU37" s="33"/>
-      <c r="CV37" s="33"/>
-      <c r="CW37" s="11"/>
+      <c r="CP37" s="30"/>
+      <c r="CQ37" s="30"/>
+      <c r="CR37" s="30"/>
+      <c r="CS37" s="30"/>
+      <c r="CT37" s="30"/>
+      <c r="CU37" s="30"/>
+      <c r="CV37" s="30"/>
+      <c r="CW37" s="30"/>
       <c r="CX37" s="11"/>
       <c r="CY37" s="11"/>
       <c r="CZ37" s="11"/>
@@ -29221,14 +29278,14 @@
       <c r="CM38" s="17"/>
       <c r="CN38" s="17"/>
       <c r="CO38" s="17"/>
-      <c r="CP38" s="33"/>
-      <c r="CQ38" s="33"/>
-      <c r="CR38" s="33"/>
-      <c r="CS38" s="33"/>
-      <c r="CT38" s="33"/>
-      <c r="CU38" s="33"/>
-      <c r="CV38" s="33"/>
-      <c r="CW38" s="11"/>
+      <c r="CP38" s="30"/>
+      <c r="CQ38" s="30"/>
+      <c r="CR38" s="30"/>
+      <c r="CS38" s="30"/>
+      <c r="CT38" s="30"/>
+      <c r="CU38" s="30"/>
+      <c r="CV38" s="30"/>
+      <c r="CW38" s="30"/>
       <c r="CX38" s="11"/>
       <c r="CY38" s="11"/>
       <c r="CZ38" s="11"/>
@@ -29380,13 +29437,14 @@
       <c r="CM39" s="1"/>
       <c r="CN39" s="1"/>
       <c r="CO39" s="1"/>
-      <c r="CP39" s="27"/>
-      <c r="CQ39" s="27"/>
-      <c r="CR39" s="27"/>
-      <c r="CS39" s="27"/>
-      <c r="CT39" s="27"/>
-      <c r="CU39" s="27"/>
-      <c r="CV39" s="27"/>
+      <c r="CP39" s="24"/>
+      <c r="CQ39" s="24"/>
+      <c r="CR39" s="24"/>
+      <c r="CS39" s="24"/>
+      <c r="CT39" s="24"/>
+      <c r="CU39" s="24"/>
+      <c r="CV39" s="24"/>
+      <c r="CW39" s="24"/>
     </row>
     <row r="40" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
@@ -29484,17 +29542,18 @@
       <c r="CM40" s="1"/>
       <c r="CN40" s="1"/>
       <c r="CO40" s="1"/>
-      <c r="CP40" s="27"/>
-      <c r="CQ40" s="27"/>
-      <c r="CR40" s="27"/>
-      <c r="CS40" s="27"/>
-      <c r="CT40" s="27"/>
-      <c r="CU40" s="27"/>
-      <c r="CV40" s="27"/>
+      <c r="CP40" s="24"/>
+      <c r="CQ40" s="24"/>
+      <c r="CR40" s="24"/>
+      <c r="CS40" s="24"/>
+      <c r="CT40" s="24"/>
+      <c r="CU40" s="24"/>
+      <c r="CV40" s="24"/>
+      <c r="CW40" s="24"/>
     </row>
     <row r="41" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -29588,13 +29647,14 @@
       <c r="CM41" s="1"/>
       <c r="CN41" s="1"/>
       <c r="CO41" s="1"/>
-      <c r="CP41" s="27"/>
-      <c r="CQ41" s="27"/>
-      <c r="CR41" s="27"/>
-      <c r="CS41" s="27"/>
-      <c r="CT41" s="27"/>
-      <c r="CU41" s="27"/>
-      <c r="CV41" s="27"/>
+      <c r="CP41" s="24"/>
+      <c r="CQ41" s="24"/>
+      <c r="CR41" s="24"/>
+      <c r="CS41" s="24"/>
+      <c r="CT41" s="24"/>
+      <c r="CU41" s="24"/>
+      <c r="CV41" s="24"/>
+      <c r="CW41" s="24"/>
     </row>
     <row r="42" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
@@ -29690,13 +29750,14 @@
       <c r="CM42" s="1"/>
       <c r="CN42" s="1"/>
       <c r="CO42" s="1"/>
-      <c r="CP42" s="27"/>
-      <c r="CQ42" s="27"/>
-      <c r="CR42" s="27"/>
-      <c r="CS42" s="27"/>
-      <c r="CT42" s="27"/>
-      <c r="CU42" s="27"/>
-      <c r="CV42" s="27"/>
+      <c r="CP42" s="24"/>
+      <c r="CQ42" s="24"/>
+      <c r="CR42" s="24"/>
+      <c r="CS42" s="24"/>
+      <c r="CT42" s="24"/>
+      <c r="CU42" s="24"/>
+      <c r="CV42" s="24"/>
+      <c r="CW42" s="24"/>
     </row>
     <row r="43" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -29794,17 +29855,18 @@
       <c r="CM43" s="1"/>
       <c r="CN43" s="1"/>
       <c r="CO43" s="1"/>
-      <c r="CP43" s="27"/>
-      <c r="CQ43" s="27"/>
-      <c r="CR43" s="27"/>
-      <c r="CS43" s="27"/>
-      <c r="CT43" s="27"/>
-      <c r="CU43" s="27"/>
-      <c r="CV43" s="27"/>
+      <c r="CP43" s="24"/>
+      <c r="CQ43" s="24"/>
+      <c r="CR43" s="24"/>
+      <c r="CS43" s="24"/>
+      <c r="CT43" s="24"/>
+      <c r="CU43" s="24"/>
+      <c r="CV43" s="24"/>
+      <c r="CW43" s="24"/>
     </row>
     <row r="44" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -29898,13 +29960,14 @@
       <c r="CM44" s="1"/>
       <c r="CN44" s="1"/>
       <c r="CO44" s="1"/>
-      <c r="CP44" s="27"/>
-      <c r="CQ44" s="27"/>
-      <c r="CR44" s="27"/>
-      <c r="CS44" s="27"/>
-      <c r="CT44" s="27"/>
-      <c r="CU44" s="27"/>
-      <c r="CV44" s="27"/>
+      <c r="CP44" s="24"/>
+      <c r="CQ44" s="24"/>
+      <c r="CR44" s="24"/>
+      <c r="CS44" s="24"/>
+      <c r="CT44" s="24"/>
+      <c r="CU44" s="24"/>
+      <c r="CV44" s="24"/>
+      <c r="CW44" s="24"/>
     </row>
     <row r="45" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -29990,13 +30053,14 @@
       <c r="CA45" s="1"/>
       <c r="CB45" s="1"/>
       <c r="CC45" s="1"/>
-      <c r="CP45" s="26"/>
-      <c r="CQ45" s="26"/>
-      <c r="CR45" s="26"/>
-      <c r="CS45" s="26"/>
-      <c r="CT45" s="26"/>
-      <c r="CU45" s="26"/>
-      <c r="CV45" s="26"/>
+      <c r="CP45" s="23"/>
+      <c r="CQ45" s="23"/>
+      <c r="CR45" s="23"/>
+      <c r="CS45" s="23"/>
+      <c r="CT45" s="35"/>
+      <c r="CU45" s="35"/>
+      <c r="CV45" s="35"/>
+      <c r="CW45" s="23"/>
     </row>
     <row r="46" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
@@ -30092,142 +30156,143 @@
       <c r="CM46" s="1"/>
       <c r="CN46" s="1"/>
       <c r="CO46" s="1"/>
-      <c r="CP46" s="27"/>
-      <c r="CQ46" s="27"/>
-      <c r="CR46" s="27"/>
-      <c r="CS46" s="27"/>
-      <c r="CT46" s="27"/>
-      <c r="CU46" s="27"/>
-      <c r="CV46" s="27"/>
+      <c r="CP46" s="24"/>
+      <c r="CQ46" s="24"/>
+      <c r="CR46" s="24"/>
+      <c r="CS46" s="24"/>
+      <c r="CT46" s="36"/>
+      <c r="CU46" s="36"/>
+      <c r="CV46" s="36"/>
+      <c r="CW46" s="24"/>
     </row>
     <row r="47" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23" t="s">
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23" t="s">
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23" t="s">
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="23"/>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="23"/>
-      <c r="R47" s="23" t="s">
+      <c r="O47" s="40"/>
+      <c r="P47" s="40"/>
+      <c r="Q47" s="40"/>
+      <c r="R47" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="23"/>
-      <c r="T47" s="23"/>
-      <c r="U47" s="23"/>
-      <c r="V47" s="23" t="s">
+      <c r="S47" s="40"/>
+      <c r="T47" s="40"/>
+      <c r="U47" s="40"/>
+      <c r="V47" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="23"/>
-      <c r="X47" s="23"/>
-      <c r="Y47" s="23"/>
-      <c r="Z47" s="23" t="s">
+      <c r="W47" s="40"/>
+      <c r="X47" s="40"/>
+      <c r="Y47" s="40"/>
+      <c r="Z47" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="23"/>
-      <c r="AB47" s="23"/>
-      <c r="AC47" s="23"/>
-      <c r="AD47" s="23" t="s">
+      <c r="AA47" s="40"/>
+      <c r="AB47" s="40"/>
+      <c r="AC47" s="40"/>
+      <c r="AD47" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="23"/>
-      <c r="AF47" s="23"/>
-      <c r="AG47" s="23"/>
-      <c r="AH47" s="23" t="s">
+      <c r="AE47" s="40"/>
+      <c r="AF47" s="40"/>
+      <c r="AG47" s="40"/>
+      <c r="AH47" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="23"/>
-      <c r="AJ47" s="23"/>
-      <c r="AK47" s="23"/>
-      <c r="AL47" s="23" t="s">
+      <c r="AI47" s="40"/>
+      <c r="AJ47" s="40"/>
+      <c r="AK47" s="40"/>
+      <c r="AL47" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="23"/>
-      <c r="AN47" s="23"/>
-      <c r="AO47" s="23"/>
-      <c r="AP47" s="23" t="s">
+      <c r="AM47" s="40"/>
+      <c r="AN47" s="40"/>
+      <c r="AO47" s="40"/>
+      <c r="AP47" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="23"/>
-      <c r="AR47" s="23"/>
-      <c r="AS47" s="23"/>
-      <c r="AT47" s="23" t="s">
+      <c r="AQ47" s="40"/>
+      <c r="AR47" s="40"/>
+      <c r="AS47" s="40"/>
+      <c r="AT47" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="23"/>
-      <c r="AV47" s="23"/>
-      <c r="AW47" s="23"/>
-      <c r="AX47" s="23" t="s">
+      <c r="AU47" s="40"/>
+      <c r="AV47" s="40"/>
+      <c r="AW47" s="40"/>
+      <c r="AX47" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="23"/>
-      <c r="AZ47" s="23"/>
-      <c r="BA47" s="23"/>
-      <c r="BB47" s="23" t="s">
+      <c r="AY47" s="40"/>
+      <c r="AZ47" s="40"/>
+      <c r="BA47" s="40"/>
+      <c r="BB47" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="23"/>
-      <c r="BD47" s="23"/>
-      <c r="BE47" s="23"/>
-      <c r="BF47" s="23" t="s">
+      <c r="BC47" s="40"/>
+      <c r="BD47" s="40"/>
+      <c r="BE47" s="40"/>
+      <c r="BF47" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="23"/>
-      <c r="BH47" s="23"/>
-      <c r="BI47" s="23"/>
-      <c r="BJ47" s="23" t="s">
+      <c r="BG47" s="40"/>
+      <c r="BH47" s="40"/>
+      <c r="BI47" s="40"/>
+      <c r="BJ47" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="23"/>
-      <c r="BL47" s="23"/>
-      <c r="BM47" s="23"/>
-      <c r="BN47" s="23" t="s">
+      <c r="BK47" s="40"/>
+      <c r="BL47" s="40"/>
+      <c r="BM47" s="40"/>
+      <c r="BN47" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="23"/>
-      <c r="BP47" s="23"/>
-      <c r="BQ47" s="23"/>
-      <c r="BR47" s="23" t="s">
+      <c r="BO47" s="40"/>
+      <c r="BP47" s="40"/>
+      <c r="BQ47" s="40"/>
+      <c r="BR47" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="BS47" s="23"/>
-      <c r="BT47" s="23"/>
-      <c r="BU47" s="23"/>
-      <c r="BV47" s="23" t="s">
+      <c r="BS47" s="40"/>
+      <c r="BT47" s="40"/>
+      <c r="BU47" s="40"/>
+      <c r="BV47" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="BW47" s="23"/>
-      <c r="BX47" s="23"/>
-      <c r="BY47" s="23"/>
-      <c r="BZ47" s="23" t="s">
+      <c r="BW47" s="40"/>
+      <c r="BX47" s="40"/>
+      <c r="BY47" s="40"/>
+      <c r="BZ47" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="23"/>
-      <c r="CB47" s="23"/>
-      <c r="CC47" s="23"/>
-      <c r="CD47" s="23" t="s">
+      <c r="CA47" s="40"/>
+      <c r="CB47" s="40"/>
+      <c r="CC47" s="40"/>
+      <c r="CD47" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="23"/>
-      <c r="CF47" s="23"/>
-      <c r="CG47" s="23"/>
+      <c r="CE47" s="40"/>
+      <c r="CF47" s="40"/>
+      <c r="CG47" s="40"/>
       <c r="CH47" s="21" t="s">
         <v>47</v>
       </c>
@@ -30240,15 +30305,16 @@
       <c r="CM47" s="21"/>
       <c r="CN47" s="21"/>
       <c r="CO47" s="21"/>
-      <c r="CP47" s="28" t="s">
+      <c r="CP47" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="CQ47" s="28"/>
-      <c r="CR47" s="28"/>
-      <c r="CS47" s="22"/>
-      <c r="CT47" s="28"/>
-      <c r="CU47" s="28"/>
+      <c r="CQ47" s="25"/>
+      <c r="CR47" s="25"/>
+      <c r="CS47" s="25"/>
+      <c r="CT47" s="22"/>
+      <c r="CU47" s="22"/>
       <c r="CV47" s="22"/>
+      <c r="CW47" s="22"/>
     </row>
     <row r="48" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
@@ -30530,19 +30596,22 @@
       <c r="CO48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP48" s="34" t="s">
+      <c r="CP48" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="CQ48" s="34" t="s">
+      <c r="CQ48" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="CR48" s="34" t="s">
+      <c r="CR48" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="CS48" s="34"/>
-      <c r="CT48" s="34"/>
-      <c r="CU48" s="34"/>
-      <c r="CV48" s="34"/>
+      <c r="CS48" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="CT48" s="31"/>
+      <c r="CU48" s="31"/>
+      <c r="CV48" s="31"/>
+      <c r="CW48" s="31"/>
     </row>
     <row r="49" spans="1:151" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
@@ -30638,13 +30707,14 @@
       <c r="CM49" s="1"/>
       <c r="CN49" s="1"/>
       <c r="CO49" s="1"/>
-      <c r="CP49" s="27"/>
-      <c r="CQ49" s="27"/>
-      <c r="CR49" s="27"/>
-      <c r="CS49" s="27"/>
-      <c r="CT49" s="27"/>
-      <c r="CU49" s="27"/>
-      <c r="CV49" s="27"/>
+      <c r="CP49" s="24"/>
+      <c r="CQ49" s="24"/>
+      <c r="CR49" s="24"/>
+      <c r="CS49" s="24"/>
+      <c r="CT49" s="36"/>
+      <c r="CU49" s="36"/>
+      <c r="CV49" s="36"/>
+      <c r="CW49" s="24"/>
     </row>
     <row r="50" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
@@ -30926,20 +30996,22 @@
       <c r="CO50" s="18">
         <v>16.30210231685237</v>
       </c>
-      <c r="CP50" s="35">
+      <c r="CP50" s="32">
         <v>10.715156538279786</v>
       </c>
-      <c r="CQ50" s="35">
+      <c r="CQ50" s="32">
         <v>13.932986269044363</v>
       </c>
-      <c r="CR50" s="35">
-        <v>11.520805818104193</v>
-      </c>
-      <c r="CS50" s="35"/>
-      <c r="CT50" s="35"/>
-      <c r="CU50" s="35"/>
-      <c r="CV50" s="35"/>
-      <c r="CW50" s="11"/>
+      <c r="CR50" s="32">
+        <v>10.349980930893835</v>
+      </c>
+      <c r="CS50" s="32">
+        <v>13.364920178078293</v>
+      </c>
+      <c r="CT50" s="37"/>
+      <c r="CU50" s="37"/>
+      <c r="CV50" s="37"/>
+      <c r="CW50" s="32"/>
       <c r="CX50" s="11"/>
       <c r="CY50" s="11"/>
       <c r="CZ50" s="11"/>
@@ -31271,20 +31343,22 @@
       <c r="CO51" s="18">
         <v>21.822622180479215</v>
       </c>
-      <c r="CP51" s="35">
+      <c r="CP51" s="32">
         <v>18.794194406177283</v>
       </c>
-      <c r="CQ51" s="35">
+      <c r="CQ51" s="32">
         <v>15.575253110114957</v>
       </c>
-      <c r="CR51" s="35">
-        <v>10.422607734867967</v>
-      </c>
-      <c r="CS51" s="35"/>
-      <c r="CT51" s="35"/>
-      <c r="CU51" s="35"/>
-      <c r="CV51" s="35"/>
-      <c r="CW51" s="11"/>
+      <c r="CR51" s="32">
+        <v>10.181202871889411</v>
+      </c>
+      <c r="CS51" s="32">
+        <v>14.876908326439334</v>
+      </c>
+      <c r="CT51" s="37"/>
+      <c r="CU51" s="37"/>
+      <c r="CV51" s="37"/>
+      <c r="CW51" s="32"/>
       <c r="CX51" s="11"/>
       <c r="CY51" s="11"/>
       <c r="CZ51" s="11"/>
@@ -31430,14 +31504,14 @@
       <c r="CM52" s="17"/>
       <c r="CN52" s="17"/>
       <c r="CO52" s="17"/>
-      <c r="CP52" s="33"/>
-      <c r="CQ52" s="33"/>
-      <c r="CR52" s="33"/>
-      <c r="CS52" s="33"/>
-      <c r="CT52" s="33"/>
-      <c r="CU52" s="33"/>
-      <c r="CV52" s="33"/>
-      <c r="CW52" s="11"/>
+      <c r="CP52" s="30"/>
+      <c r="CQ52" s="30"/>
+      <c r="CR52" s="30"/>
+      <c r="CS52" s="30"/>
+      <c r="CT52" s="38"/>
+      <c r="CU52" s="38"/>
+      <c r="CV52" s="38"/>
+      <c r="CW52" s="30"/>
       <c r="CX52" s="11"/>
       <c r="CY52" s="11"/>
       <c r="CZ52" s="11"/>
@@ -31769,20 +31843,22 @@
       <c r="CO53" s="18">
         <v>18.37793626343705</v>
       </c>
-      <c r="CP53" s="35">
+      <c r="CP53" s="32">
         <v>14.342127658606074</v>
       </c>
-      <c r="CQ53" s="35">
+      <c r="CQ53" s="32">
         <v>14.593020204846255</v>
       </c>
-      <c r="CR53" s="35">
-        <v>11.081501290679682</v>
-      </c>
-      <c r="CS53" s="35"/>
-      <c r="CT53" s="35"/>
-      <c r="CU53" s="35"/>
-      <c r="CV53" s="35"/>
-      <c r="CW53" s="11"/>
+      <c r="CR53" s="32">
+        <v>10.28246581992947</v>
+      </c>
+      <c r="CS53" s="32">
+        <v>13.950004146938582</v>
+      </c>
+      <c r="CT53" s="37"/>
+      <c r="CU53" s="37"/>
+      <c r="CV53" s="37"/>
+      <c r="CW53" s="32"/>
       <c r="CX53" s="11"/>
       <c r="CY53" s="11"/>
       <c r="CZ53" s="11"/>
@@ -31928,13 +32004,14 @@
       <c r="CM54" s="15"/>
       <c r="CN54" s="15"/>
       <c r="CO54" s="15"/>
-      <c r="CP54" s="32"/>
-      <c r="CQ54" s="32"/>
-      <c r="CR54" s="32"/>
-      <c r="CS54" s="32"/>
-      <c r="CT54" s="32"/>
-      <c r="CU54" s="32"/>
-      <c r="CV54" s="32"/>
+      <c r="CP54" s="29"/>
+      <c r="CQ54" s="29"/>
+      <c r="CR54" s="29"/>
+      <c r="CS54" s="29"/>
+      <c r="CT54" s="26"/>
+      <c r="CU54" s="26"/>
+      <c r="CV54" s="26"/>
+      <c r="CW54" s="29"/>
     </row>
     <row r="55" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
@@ -32032,13 +32109,14 @@
       <c r="CM55" s="1"/>
       <c r="CN55" s="1"/>
       <c r="CO55" s="1"/>
-      <c r="CP55" s="27"/>
-      <c r="CQ55" s="27"/>
-      <c r="CR55" s="27"/>
-      <c r="CS55" s="27"/>
-      <c r="CT55" s="27"/>
-      <c r="CU55" s="27"/>
-      <c r="CV55" s="27"/>
+      <c r="CP55" s="24"/>
+      <c r="CQ55" s="24"/>
+      <c r="CR55" s="24"/>
+      <c r="CS55" s="24"/>
+      <c r="CT55" s="36"/>
+      <c r="CU55" s="36"/>
+      <c r="CV55" s="36"/>
+      <c r="CW55" s="24"/>
     </row>
     <row r="56" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="17"/>
@@ -32133,14 +32211,14 @@
       <c r="CM56" s="17"/>
       <c r="CN56" s="17"/>
       <c r="CO56" s="17"/>
-      <c r="CP56" s="33"/>
-      <c r="CQ56" s="33"/>
-      <c r="CR56" s="33"/>
-      <c r="CS56" s="33"/>
-      <c r="CT56" s="33"/>
-      <c r="CU56" s="33"/>
-      <c r="CV56" s="33"/>
-      <c r="CW56" s="11"/>
+      <c r="CP56" s="30"/>
+      <c r="CQ56" s="30"/>
+      <c r="CR56" s="30"/>
+      <c r="CS56" s="30"/>
+      <c r="CT56" s="38"/>
+      <c r="CU56" s="38"/>
+      <c r="CV56" s="38"/>
+      <c r="CW56" s="30"/>
       <c r="CX56" s="11"/>
       <c r="CY56" s="11"/>
       <c r="CZ56" s="11"/>
@@ -32285,14 +32363,14 @@
       <c r="CM57" s="17"/>
       <c r="CN57" s="17"/>
       <c r="CO57" s="17"/>
-      <c r="CP57" s="33"/>
-      <c r="CQ57" s="33"/>
-      <c r="CR57" s="33"/>
-      <c r="CS57" s="33"/>
-      <c r="CT57" s="33"/>
-      <c r="CU57" s="33"/>
-      <c r="CV57" s="33"/>
-      <c r="CW57" s="11"/>
+      <c r="CP57" s="30"/>
+      <c r="CQ57" s="30"/>
+      <c r="CR57" s="30"/>
+      <c r="CS57" s="30"/>
+      <c r="CT57" s="38"/>
+      <c r="CU57" s="38"/>
+      <c r="CV57" s="38"/>
+      <c r="CW57" s="30"/>
       <c r="CX57" s="11"/>
       <c r="CY57" s="11"/>
       <c r="CZ57" s="11"/>
@@ -32440,13 +32518,14 @@
       <c r="CM58" s="1"/>
       <c r="CN58" s="1"/>
       <c r="CO58" s="1"/>
-      <c r="CP58" s="27"/>
-      <c r="CQ58" s="27"/>
-      <c r="CR58" s="27"/>
-      <c r="CS58" s="27"/>
-      <c r="CT58" s="27"/>
-      <c r="CU58" s="27"/>
-      <c r="CV58" s="27"/>
+      <c r="CP58" s="24"/>
+      <c r="CQ58" s="24"/>
+      <c r="CR58" s="24"/>
+      <c r="CS58" s="24"/>
+      <c r="CT58" s="36"/>
+      <c r="CU58" s="36"/>
+      <c r="CV58" s="36"/>
+      <c r="CW58" s="24"/>
     </row>
     <row r="59" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -32544,17 +32623,18 @@
       <c r="CM59" s="1"/>
       <c r="CN59" s="1"/>
       <c r="CO59" s="1"/>
-      <c r="CP59" s="27"/>
-      <c r="CQ59" s="27"/>
-      <c r="CR59" s="27"/>
-      <c r="CS59" s="27"/>
-      <c r="CT59" s="27"/>
-      <c r="CU59" s="27"/>
-      <c r="CV59" s="27"/>
+      <c r="CP59" s="24"/>
+      <c r="CQ59" s="24"/>
+      <c r="CR59" s="24"/>
+      <c r="CS59" s="24"/>
+      <c r="CT59" s="36"/>
+      <c r="CU59" s="36"/>
+      <c r="CV59" s="36"/>
+      <c r="CW59" s="24"/>
     </row>
     <row r="60" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -32648,13 +32728,14 @@
       <c r="CM60" s="1"/>
       <c r="CN60" s="1"/>
       <c r="CO60" s="1"/>
-      <c r="CP60" s="27"/>
-      <c r="CQ60" s="27"/>
-      <c r="CR60" s="27"/>
-      <c r="CS60" s="27"/>
-      <c r="CT60" s="27"/>
-      <c r="CU60" s="27"/>
-      <c r="CV60" s="27"/>
+      <c r="CP60" s="24"/>
+      <c r="CQ60" s="24"/>
+      <c r="CR60" s="24"/>
+      <c r="CS60" s="24"/>
+      <c r="CT60" s="36"/>
+      <c r="CU60" s="36"/>
+      <c r="CV60" s="36"/>
+      <c r="CW60" s="24"/>
     </row>
     <row r="61" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
@@ -32750,13 +32831,14 @@
       <c r="CM61" s="1"/>
       <c r="CN61" s="1"/>
       <c r="CO61" s="1"/>
-      <c r="CP61" s="27"/>
-      <c r="CQ61" s="27"/>
-      <c r="CR61" s="27"/>
-      <c r="CS61" s="27"/>
-      <c r="CT61" s="27"/>
-      <c r="CU61" s="27"/>
-      <c r="CV61" s="27"/>
+      <c r="CP61" s="24"/>
+      <c r="CQ61" s="24"/>
+      <c r="CR61" s="24"/>
+      <c r="CS61" s="24"/>
+      <c r="CT61" s="36"/>
+      <c r="CU61" s="36"/>
+      <c r="CV61" s="36"/>
+      <c r="CW61" s="24"/>
     </row>
     <row r="62" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -32854,17 +32936,18 @@
       <c r="CM62" s="1"/>
       <c r="CN62" s="1"/>
       <c r="CO62" s="1"/>
-      <c r="CP62" s="27"/>
-      <c r="CQ62" s="27"/>
-      <c r="CR62" s="27"/>
-      <c r="CS62" s="27"/>
-      <c r="CT62" s="27"/>
-      <c r="CU62" s="27"/>
-      <c r="CV62" s="27"/>
+      <c r="CP62" s="24"/>
+      <c r="CQ62" s="24"/>
+      <c r="CR62" s="24"/>
+      <c r="CS62" s="24"/>
+      <c r="CT62" s="36"/>
+      <c r="CU62" s="36"/>
+      <c r="CV62" s="36"/>
+      <c r="CW62" s="24"/>
     </row>
     <row r="63" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -32958,13 +33041,14 @@
       <c r="CM63" s="1"/>
       <c r="CN63" s="1"/>
       <c r="CO63" s="1"/>
-      <c r="CP63" s="27"/>
-      <c r="CQ63" s="27"/>
-      <c r="CR63" s="27"/>
-      <c r="CS63" s="27"/>
-      <c r="CT63" s="27"/>
-      <c r="CU63" s="27"/>
-      <c r="CV63" s="27"/>
+      <c r="CP63" s="24"/>
+      <c r="CQ63" s="24"/>
+      <c r="CR63" s="24"/>
+      <c r="CS63" s="24"/>
+      <c r="CT63" s="36"/>
+      <c r="CU63" s="36"/>
+      <c r="CV63" s="36"/>
+      <c r="CW63" s="24"/>
     </row>
     <row r="64" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
@@ -33062,13 +33146,14 @@
       <c r="CM64" s="1"/>
       <c r="CN64" s="1"/>
       <c r="CO64" s="1"/>
-      <c r="CP64" s="27"/>
-      <c r="CQ64" s="27"/>
-      <c r="CR64" s="27"/>
-      <c r="CS64" s="27"/>
-      <c r="CT64" s="27"/>
-      <c r="CU64" s="27"/>
-      <c r="CV64" s="27"/>
+      <c r="CP64" s="24"/>
+      <c r="CQ64" s="24"/>
+      <c r="CR64" s="24"/>
+      <c r="CS64" s="24"/>
+      <c r="CT64" s="36"/>
+      <c r="CU64" s="36"/>
+      <c r="CV64" s="36"/>
+      <c r="CW64" s="24"/>
     </row>
     <row r="65" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
@@ -33164,142 +33249,143 @@
       <c r="CM65" s="1"/>
       <c r="CN65" s="1"/>
       <c r="CO65" s="1"/>
-      <c r="CP65" s="27"/>
-      <c r="CQ65" s="27"/>
-      <c r="CR65" s="27"/>
-      <c r="CS65" s="27"/>
-      <c r="CT65" s="27"/>
-      <c r="CU65" s="27"/>
-      <c r="CV65" s="27"/>
+      <c r="CP65" s="24"/>
+      <c r="CQ65" s="24"/>
+      <c r="CR65" s="24"/>
+      <c r="CS65" s="24"/>
+      <c r="CT65" s="36"/>
+      <c r="CU65" s="36"/>
+      <c r="CV65" s="36"/>
+      <c r="CW65" s="24"/>
     </row>
     <row r="66" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
-      <c r="B66" s="23" t="s">
+      <c r="B66" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="23" t="s">
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="23" t="s">
+      <c r="G66" s="42"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="25"/>
-      <c r="L66" s="25"/>
-      <c r="M66" s="25"/>
-      <c r="N66" s="23" t="s">
+      <c r="K66" s="42"/>
+      <c r="L66" s="42"/>
+      <c r="M66" s="42"/>
+      <c r="N66" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="25"/>
-      <c r="P66" s="25"/>
-      <c r="Q66" s="25"/>
-      <c r="R66" s="23" t="s">
+      <c r="O66" s="42"/>
+      <c r="P66" s="42"/>
+      <c r="Q66" s="42"/>
+      <c r="R66" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="25"/>
-      <c r="T66" s="25"/>
-      <c r="U66" s="25"/>
-      <c r="V66" s="23" t="s">
+      <c r="S66" s="42"/>
+      <c r="T66" s="42"/>
+      <c r="U66" s="42"/>
+      <c r="V66" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="25"/>
-      <c r="X66" s="25"/>
-      <c r="Y66" s="25"/>
-      <c r="Z66" s="23" t="s">
+      <c r="W66" s="42"/>
+      <c r="X66" s="42"/>
+      <c r="Y66" s="42"/>
+      <c r="Z66" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="25"/>
-      <c r="AB66" s="25"/>
-      <c r="AC66" s="25"/>
-      <c r="AD66" s="23" t="s">
+      <c r="AA66" s="42"/>
+      <c r="AB66" s="42"/>
+      <c r="AC66" s="42"/>
+      <c r="AD66" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="25"/>
-      <c r="AF66" s="25"/>
-      <c r="AG66" s="25"/>
-      <c r="AH66" s="23" t="s">
+      <c r="AE66" s="42"/>
+      <c r="AF66" s="42"/>
+      <c r="AG66" s="42"/>
+      <c r="AH66" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="25"/>
-      <c r="AJ66" s="25"/>
-      <c r="AK66" s="25"/>
-      <c r="AL66" s="23" t="s">
+      <c r="AI66" s="42"/>
+      <c r="AJ66" s="42"/>
+      <c r="AK66" s="42"/>
+      <c r="AL66" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="25"/>
-      <c r="AN66" s="25"/>
-      <c r="AO66" s="25"/>
-      <c r="AP66" s="23" t="s">
+      <c r="AM66" s="42"/>
+      <c r="AN66" s="42"/>
+      <c r="AO66" s="42"/>
+      <c r="AP66" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="25"/>
-      <c r="AR66" s="25"/>
-      <c r="AS66" s="25"/>
-      <c r="AT66" s="23" t="s">
+      <c r="AQ66" s="42"/>
+      <c r="AR66" s="42"/>
+      <c r="AS66" s="42"/>
+      <c r="AT66" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="25"/>
-      <c r="AV66" s="25"/>
-      <c r="AW66" s="25"/>
-      <c r="AX66" s="23" t="s">
+      <c r="AU66" s="42"/>
+      <c r="AV66" s="42"/>
+      <c r="AW66" s="42"/>
+      <c r="AX66" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="25"/>
-      <c r="AZ66" s="25"/>
-      <c r="BA66" s="25"/>
-      <c r="BB66" s="23" t="s">
+      <c r="AY66" s="42"/>
+      <c r="AZ66" s="42"/>
+      <c r="BA66" s="42"/>
+      <c r="BB66" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="25"/>
-      <c r="BD66" s="25"/>
-      <c r="BE66" s="25"/>
-      <c r="BF66" s="23" t="s">
+      <c r="BC66" s="42"/>
+      <c r="BD66" s="42"/>
+      <c r="BE66" s="42"/>
+      <c r="BF66" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="25"/>
-      <c r="BH66" s="25"/>
-      <c r="BI66" s="25"/>
-      <c r="BJ66" s="23" t="s">
+      <c r="BG66" s="42"/>
+      <c r="BH66" s="42"/>
+      <c r="BI66" s="42"/>
+      <c r="BJ66" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="25"/>
-      <c r="BL66" s="25"/>
-      <c r="BM66" s="25"/>
-      <c r="BN66" s="23" t="s">
+      <c r="BK66" s="42"/>
+      <c r="BL66" s="42"/>
+      <c r="BM66" s="42"/>
+      <c r="BN66" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="25"/>
-      <c r="BP66" s="25"/>
-      <c r="BQ66" s="25"/>
-      <c r="BR66" s="23" t="s">
+      <c r="BO66" s="42"/>
+      <c r="BP66" s="42"/>
+      <c r="BQ66" s="42"/>
+      <c r="BR66" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="25"/>
-      <c r="BT66" s="25"/>
-      <c r="BU66" s="25"/>
-      <c r="BV66" s="23" t="s">
+      <c r="BS66" s="42"/>
+      <c r="BT66" s="42"/>
+      <c r="BU66" s="42"/>
+      <c r="BV66" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="BW66" s="23"/>
-      <c r="BX66" s="23"/>
-      <c r="BY66" s="23"/>
-      <c r="BZ66" s="23" t="s">
+      <c r="BW66" s="40"/>
+      <c r="BX66" s="40"/>
+      <c r="BY66" s="40"/>
+      <c r="BZ66" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="23"/>
-      <c r="CB66" s="23"/>
-      <c r="CC66" s="23"/>
-      <c r="CD66" s="23" t="s">
+      <c r="CA66" s="40"/>
+      <c r="CB66" s="40"/>
+      <c r="CC66" s="40"/>
+      <c r="CD66" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="23"/>
-      <c r="CF66" s="23"/>
-      <c r="CG66" s="23"/>
+      <c r="CE66" s="40"/>
+      <c r="CF66" s="40"/>
+      <c r="CG66" s="40"/>
       <c r="CH66" s="21" t="s">
         <v>47</v>
       </c>
@@ -33312,15 +33398,16 @@
       <c r="CM66" s="21"/>
       <c r="CN66" s="21"/>
       <c r="CO66" s="21"/>
-      <c r="CP66" s="28" t="s">
+      <c r="CP66" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="CQ66" s="28"/>
-      <c r="CR66" s="28"/>
-      <c r="CS66" s="22"/>
-      <c r="CT66" s="28"/>
-      <c r="CU66" s="28"/>
+      <c r="CQ66" s="25"/>
+      <c r="CR66" s="25"/>
+      <c r="CS66" s="25"/>
+      <c r="CT66" s="22"/>
+      <c r="CU66" s="22"/>
       <c r="CV66" s="22"/>
+      <c r="CW66" s="22"/>
     </row>
     <row r="67" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
@@ -33602,19 +33689,22 @@
       <c r="CO67" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP67" s="34" t="s">
+      <c r="CP67" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="CQ67" s="34" t="s">
+      <c r="CQ67" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="CR67" s="34" t="s">
+      <c r="CR67" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="CS67" s="34"/>
-      <c r="CT67" s="34"/>
-      <c r="CU67" s="34"/>
-      <c r="CV67" s="34"/>
+      <c r="CS67" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="CT67" s="31"/>
+      <c r="CU67" s="31"/>
+      <c r="CV67" s="31"/>
+      <c r="CW67" s="31"/>
     </row>
     <row r="68" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
@@ -33710,13 +33800,14 @@
       <c r="CM68" s="1"/>
       <c r="CN68" s="1"/>
       <c r="CO68" s="1"/>
-      <c r="CP68" s="27"/>
-      <c r="CQ68" s="27"/>
-      <c r="CR68" s="27"/>
-      <c r="CS68" s="27"/>
-      <c r="CT68" s="27"/>
-      <c r="CU68" s="27"/>
-      <c r="CV68" s="27"/>
+      <c r="CP68" s="24"/>
+      <c r="CQ68" s="24"/>
+      <c r="CR68" s="24"/>
+      <c r="CS68" s="24"/>
+      <c r="CT68" s="36"/>
+      <c r="CU68" s="36"/>
+      <c r="CV68" s="36"/>
+      <c r="CW68" s="24"/>
     </row>
     <row r="69" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
@@ -33998,20 +34089,22 @@
       <c r="CO69" s="18">
         <v>10.532506565542988</v>
       </c>
-      <c r="CP69" s="35">
+      <c r="CP69" s="32">
         <v>6.1271930312449427</v>
       </c>
-      <c r="CQ69" s="35">
+      <c r="CQ69" s="32">
         <v>9.5665209834779006</v>
       </c>
-      <c r="CR69" s="35">
-        <v>7.8789174231686019</v>
-      </c>
-      <c r="CS69" s="35"/>
-      <c r="CT69" s="35"/>
-      <c r="CU69" s="35"/>
-      <c r="CV69" s="35"/>
-      <c r="CW69" s="11"/>
+      <c r="CR69" s="32">
+        <v>6.7463276754728128</v>
+      </c>
+      <c r="CS69" s="32">
+        <v>10.44538962581494</v>
+      </c>
+      <c r="CT69" s="37"/>
+      <c r="CU69" s="37"/>
+      <c r="CV69" s="37"/>
+      <c r="CW69" s="32"/>
       <c r="CX69" s="11"/>
       <c r="CY69" s="11"/>
       <c r="CZ69" s="11"/>
@@ -34343,20 +34436,22 @@
       <c r="CO70" s="18">
         <v>13.483136667061672</v>
       </c>
-      <c r="CP70" s="35">
+      <c r="CP70" s="32">
         <v>12.974432603757705</v>
       </c>
-      <c r="CQ70" s="35">
+      <c r="CQ70" s="32">
         <v>11.243807274902395</v>
       </c>
-      <c r="CR70" s="35">
-        <v>6.2673809108013216</v>
-      </c>
-      <c r="CS70" s="35"/>
-      <c r="CT70" s="35"/>
-      <c r="CU70" s="35"/>
-      <c r="CV70" s="35"/>
-      <c r="CW70" s="11"/>
+      <c r="CR70" s="32">
+        <v>6.0350601654929505</v>
+      </c>
+      <c r="CS70" s="32">
+        <v>10.58239826690226</v>
+      </c>
+      <c r="CT70" s="37"/>
+      <c r="CU70" s="37"/>
+      <c r="CV70" s="37"/>
+      <c r="CW70" s="32"/>
       <c r="CX70" s="11"/>
       <c r="CY70" s="11"/>
       <c r="CZ70" s="11"/>
@@ -34501,14 +34596,14 @@
       <c r="CM71" s="17"/>
       <c r="CN71" s="17"/>
       <c r="CO71" s="17"/>
-      <c r="CP71" s="33"/>
-      <c r="CQ71" s="33"/>
-      <c r="CR71" s="33"/>
-      <c r="CS71" s="33"/>
-      <c r="CT71" s="33"/>
-      <c r="CU71" s="33"/>
-      <c r="CV71" s="33"/>
-      <c r="CW71" s="11"/>
+      <c r="CP71" s="30"/>
+      <c r="CQ71" s="30"/>
+      <c r="CR71" s="30"/>
+      <c r="CS71" s="30"/>
+      <c r="CT71" s="38"/>
+      <c r="CU71" s="38"/>
+      <c r="CV71" s="38"/>
+      <c r="CW71" s="30"/>
       <c r="CX71" s="11"/>
       <c r="CY71" s="11"/>
       <c r="CZ71" s="11"/>
@@ -34840,20 +34935,22 @@
       <c r="CO72" s="18">
         <v>11.607867027039021</v>
       </c>
-      <c r="CP72" s="35">
+      <c r="CP72" s="32">
         <v>9.0380703593042426</v>
       </c>
-      <c r="CQ72" s="35">
+      <c r="CQ72" s="32">
         <v>10.213144792381797</v>
       </c>
-      <c r="CR72" s="35">
-        <v>7.2542488223493962</v>
-      </c>
-      <c r="CS72" s="35"/>
-      <c r="CT72" s="35"/>
-      <c r="CU72" s="35"/>
-      <c r="CV72" s="35"/>
-      <c r="CW72" s="11"/>
+      <c r="CR72" s="32">
+        <v>6.4706240368288377</v>
+      </c>
+      <c r="CS72" s="32">
+        <v>10.496161568076275</v>
+      </c>
+      <c r="CT72" s="37"/>
+      <c r="CU72" s="37"/>
+      <c r="CV72" s="37"/>
+      <c r="CW72" s="32"/>
       <c r="CX72" s="11"/>
       <c r="CY72" s="11"/>
       <c r="CZ72" s="11"/>
@@ -34999,13 +35096,14 @@
       <c r="CM73" s="15"/>
       <c r="CN73" s="15"/>
       <c r="CO73" s="15"/>
-      <c r="CP73" s="32"/>
-      <c r="CQ73" s="32"/>
-      <c r="CR73" s="32"/>
-      <c r="CS73" s="32"/>
-      <c r="CT73" s="32"/>
-      <c r="CU73" s="32"/>
-      <c r="CV73" s="32"/>
+      <c r="CP73" s="29"/>
+      <c r="CQ73" s="29"/>
+      <c r="CR73" s="29"/>
+      <c r="CS73" s="29"/>
+      <c r="CT73" s="26"/>
+      <c r="CU73" s="26"/>
+      <c r="CV73" s="26"/>
+      <c r="CW73" s="29"/>
     </row>
     <row r="74" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
@@ -35103,13 +35201,14 @@
       <c r="CM74" s="1"/>
       <c r="CN74" s="1"/>
       <c r="CO74" s="1"/>
-      <c r="CP74" s="27"/>
-      <c r="CQ74" s="27"/>
-      <c r="CR74" s="27"/>
-      <c r="CS74" s="27"/>
-      <c r="CT74" s="27"/>
-      <c r="CU74" s="27"/>
-      <c r="CV74" s="27"/>
+      <c r="CP74" s="24"/>
+      <c r="CQ74" s="24"/>
+      <c r="CR74" s="24"/>
+      <c r="CS74" s="24"/>
+      <c r="CT74" s="36"/>
+      <c r="CU74" s="36"/>
+      <c r="CV74" s="36"/>
+      <c r="CW74" s="24"/>
     </row>
     <row r="75" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="17"/>
@@ -35204,14 +35303,14 @@
       <c r="CM75" s="11"/>
       <c r="CN75" s="11"/>
       <c r="CO75" s="11"/>
-      <c r="CP75" s="36"/>
-      <c r="CQ75" s="36"/>
-      <c r="CR75" s="36"/>
-      <c r="CS75" s="36"/>
-      <c r="CT75" s="36"/>
-      <c r="CU75" s="36"/>
-      <c r="CV75" s="36"/>
-      <c r="CW75" s="11"/>
+      <c r="CP75" s="33"/>
+      <c r="CQ75" s="33"/>
+      <c r="CR75" s="33"/>
+      <c r="CS75" s="33"/>
+      <c r="CT75" s="33"/>
+      <c r="CU75" s="33"/>
+      <c r="CV75" s="33"/>
+      <c r="CW75" s="33"/>
       <c r="CX75" s="11"/>
       <c r="CY75" s="11"/>
       <c r="CZ75" s="11"/>
@@ -35356,14 +35455,14 @@
       <c r="CM76" s="17"/>
       <c r="CN76" s="17"/>
       <c r="CO76" s="17"/>
-      <c r="CP76" s="33"/>
-      <c r="CQ76" s="33"/>
-      <c r="CR76" s="33"/>
-      <c r="CS76" s="33"/>
-      <c r="CT76" s="33"/>
-      <c r="CU76" s="33"/>
-      <c r="CV76" s="33"/>
-      <c r="CW76" s="11"/>
+      <c r="CP76" s="30"/>
+      <c r="CQ76" s="30"/>
+      <c r="CR76" s="30"/>
+      <c r="CS76" s="30"/>
+      <c r="CT76" s="30"/>
+      <c r="CU76" s="30"/>
+      <c r="CV76" s="30"/>
+      <c r="CW76" s="30"/>
       <c r="CX76" s="11"/>
       <c r="CY76" s="11"/>
       <c r="CZ76" s="11"/>
@@ -35515,17 +35614,18 @@
       <c r="CM77" s="1"/>
       <c r="CN77" s="1"/>
       <c r="CO77" s="1"/>
-      <c r="CP77" s="27"/>
-      <c r="CQ77" s="27"/>
-      <c r="CR77" s="27"/>
-      <c r="CS77" s="27"/>
-      <c r="CT77" s="27"/>
-      <c r="CU77" s="27"/>
-      <c r="CV77" s="27"/>
+      <c r="CP77" s="24"/>
+      <c r="CQ77" s="24"/>
+      <c r="CR77" s="24"/>
+      <c r="CS77" s="24"/>
+      <c r="CT77" s="24"/>
+      <c r="CU77" s="24"/>
+      <c r="CV77" s="24"/>
+      <c r="CW77" s="24"/>
     </row>
     <row r="78" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -35619,13 +35719,14 @@
       <c r="CM78" s="1"/>
       <c r="CN78" s="1"/>
       <c r="CO78" s="1"/>
-      <c r="CP78" s="27"/>
-      <c r="CQ78" s="27"/>
-      <c r="CR78" s="27"/>
-      <c r="CS78" s="27"/>
-      <c r="CT78" s="27"/>
-      <c r="CU78" s="27"/>
-      <c r="CV78" s="27"/>
+      <c r="CP78" s="24"/>
+      <c r="CQ78" s="24"/>
+      <c r="CR78" s="24"/>
+      <c r="CS78" s="24"/>
+      <c r="CT78" s="24"/>
+      <c r="CU78" s="24"/>
+      <c r="CV78" s="24"/>
+      <c r="CW78" s="24"/>
     </row>
     <row r="79" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
@@ -35721,13 +35822,14 @@
       <c r="CM79" s="1"/>
       <c r="CN79" s="1"/>
       <c r="CO79" s="1"/>
-      <c r="CP79" s="27"/>
-      <c r="CQ79" s="27"/>
-      <c r="CR79" s="27"/>
-      <c r="CS79" s="27"/>
-      <c r="CT79" s="27"/>
-      <c r="CU79" s="27"/>
-      <c r="CV79" s="27"/>
+      <c r="CP79" s="24"/>
+      <c r="CQ79" s="24"/>
+      <c r="CR79" s="24"/>
+      <c r="CS79" s="24"/>
+      <c r="CT79" s="24"/>
+      <c r="CU79" s="24"/>
+      <c r="CV79" s="24"/>
+      <c r="CW79" s="24"/>
     </row>
     <row r="80" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
@@ -35825,17 +35927,18 @@
       <c r="CM80" s="1"/>
       <c r="CN80" s="1"/>
       <c r="CO80" s="1"/>
-      <c r="CP80" s="27"/>
-      <c r="CQ80" s="27"/>
-      <c r="CR80" s="27"/>
-      <c r="CS80" s="27"/>
-      <c r="CT80" s="27"/>
-      <c r="CU80" s="27"/>
-      <c r="CV80" s="27"/>
+      <c r="CP80" s="24"/>
+      <c r="CQ80" s="24"/>
+      <c r="CR80" s="24"/>
+      <c r="CS80" s="24"/>
+      <c r="CT80" s="24"/>
+      <c r="CU80" s="24"/>
+      <c r="CV80" s="24"/>
+      <c r="CW80" s="24"/>
     </row>
     <row r="81" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -35929,13 +36032,14 @@
       <c r="CM81" s="1"/>
       <c r="CN81" s="1"/>
       <c r="CO81" s="1"/>
-      <c r="CP81" s="27"/>
-      <c r="CQ81" s="27"/>
-      <c r="CR81" s="27"/>
-      <c r="CS81" s="27"/>
-      <c r="CT81" s="27"/>
-      <c r="CU81" s="27"/>
-      <c r="CV81" s="27"/>
+      <c r="CP81" s="24"/>
+      <c r="CQ81" s="24"/>
+      <c r="CR81" s="24"/>
+      <c r="CS81" s="24"/>
+      <c r="CT81" s="24"/>
+      <c r="CU81" s="24"/>
+      <c r="CV81" s="24"/>
+      <c r="CW81" s="24"/>
     </row>
     <row r="82" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
@@ -36033,13 +36137,14 @@
       <c r="CM82" s="1"/>
       <c r="CN82" s="1"/>
       <c r="CO82" s="1"/>
-      <c r="CP82" s="27"/>
-      <c r="CQ82" s="27"/>
-      <c r="CR82" s="27"/>
-      <c r="CS82" s="27"/>
-      <c r="CT82" s="27"/>
-      <c r="CU82" s="27"/>
-      <c r="CV82" s="27"/>
+      <c r="CP82" s="24"/>
+      <c r="CQ82" s="24"/>
+      <c r="CR82" s="24"/>
+      <c r="CS82" s="24"/>
+      <c r="CT82" s="24"/>
+      <c r="CU82" s="24"/>
+      <c r="CV82" s="24"/>
+      <c r="CW82" s="24"/>
     </row>
     <row r="83" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
@@ -36135,142 +36240,143 @@
       <c r="CM83" s="1"/>
       <c r="CN83" s="1"/>
       <c r="CO83" s="1"/>
-      <c r="CP83" s="27"/>
-      <c r="CQ83" s="27"/>
-      <c r="CR83" s="27"/>
-      <c r="CS83" s="27"/>
-      <c r="CT83" s="27"/>
-      <c r="CU83" s="27"/>
-      <c r="CV83" s="27"/>
+      <c r="CP83" s="24"/>
+      <c r="CQ83" s="24"/>
+      <c r="CR83" s="24"/>
+      <c r="CS83" s="24"/>
+      <c r="CT83" s="24"/>
+      <c r="CU83" s="24"/>
+      <c r="CV83" s="24"/>
+      <c r="CW83" s="24"/>
     </row>
     <row r="84" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
-      <c r="B84" s="23">
+      <c r="B84" s="40">
         <v>2000</v>
       </c>
-      <c r="C84" s="24"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="23">
+      <c r="C84" s="41"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="41"/>
+      <c r="F84" s="40">
         <v>2001</v>
       </c>
-      <c r="G84" s="24"/>
-      <c r="H84" s="24"/>
-      <c r="I84" s="24"/>
-      <c r="J84" s="23">
+      <c r="G84" s="41"/>
+      <c r="H84" s="41"/>
+      <c r="I84" s="41"/>
+      <c r="J84" s="40">
         <v>2002</v>
       </c>
-      <c r="K84" s="24"/>
-      <c r="L84" s="24"/>
-      <c r="M84" s="24"/>
-      <c r="N84" s="23">
+      <c r="K84" s="41"/>
+      <c r="L84" s="41"/>
+      <c r="M84" s="41"/>
+      <c r="N84" s="40">
         <v>2003</v>
       </c>
-      <c r="O84" s="24"/>
-      <c r="P84" s="24"/>
-      <c r="Q84" s="24"/>
-      <c r="R84" s="23">
+      <c r="O84" s="41"/>
+      <c r="P84" s="41"/>
+      <c r="Q84" s="41"/>
+      <c r="R84" s="40">
         <v>2004</v>
       </c>
-      <c r="S84" s="24"/>
-      <c r="T84" s="24"/>
-      <c r="U84" s="24"/>
-      <c r="V84" s="23">
+      <c r="S84" s="41"/>
+      <c r="T84" s="41"/>
+      <c r="U84" s="41"/>
+      <c r="V84" s="40">
         <v>2005</v>
       </c>
-      <c r="W84" s="24"/>
-      <c r="X84" s="24"/>
-      <c r="Y84" s="24"/>
-      <c r="Z84" s="23">
+      <c r="W84" s="41"/>
+      <c r="X84" s="41"/>
+      <c r="Y84" s="41"/>
+      <c r="Z84" s="40">
         <v>2006</v>
       </c>
-      <c r="AA84" s="24"/>
-      <c r="AB84" s="24"/>
-      <c r="AC84" s="24"/>
-      <c r="AD84" s="23">
+      <c r="AA84" s="41"/>
+      <c r="AB84" s="41"/>
+      <c r="AC84" s="41"/>
+      <c r="AD84" s="40">
         <v>2007</v>
       </c>
-      <c r="AE84" s="24"/>
-      <c r="AF84" s="24"/>
-      <c r="AG84" s="24"/>
-      <c r="AH84" s="23">
+      <c r="AE84" s="41"/>
+      <c r="AF84" s="41"/>
+      <c r="AG84" s="41"/>
+      <c r="AH84" s="40">
         <v>2008</v>
       </c>
-      <c r="AI84" s="24"/>
-      <c r="AJ84" s="24"/>
-      <c r="AK84" s="24"/>
-      <c r="AL84" s="23">
+      <c r="AI84" s="41"/>
+      <c r="AJ84" s="41"/>
+      <c r="AK84" s="41"/>
+      <c r="AL84" s="40">
         <v>2009</v>
       </c>
-      <c r="AM84" s="24"/>
-      <c r="AN84" s="24"/>
-      <c r="AO84" s="24"/>
-      <c r="AP84" s="23">
+      <c r="AM84" s="41"/>
+      <c r="AN84" s="41"/>
+      <c r="AO84" s="41"/>
+      <c r="AP84" s="40">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="24"/>
-      <c r="AR84" s="24"/>
-      <c r="AS84" s="24"/>
-      <c r="AT84" s="23">
+      <c r="AQ84" s="41"/>
+      <c r="AR84" s="41"/>
+      <c r="AS84" s="41"/>
+      <c r="AT84" s="40">
         <v>2011</v>
       </c>
-      <c r="AU84" s="24"/>
-      <c r="AV84" s="24"/>
-      <c r="AW84" s="24"/>
-      <c r="AX84" s="23">
+      <c r="AU84" s="41"/>
+      <c r="AV84" s="41"/>
+      <c r="AW84" s="41"/>
+      <c r="AX84" s="40">
         <v>2012</v>
       </c>
-      <c r="AY84" s="24"/>
-      <c r="AZ84" s="24"/>
-      <c r="BA84" s="24"/>
-      <c r="BB84" s="23">
+      <c r="AY84" s="41"/>
+      <c r="AZ84" s="41"/>
+      <c r="BA84" s="41"/>
+      <c r="BB84" s="40">
         <v>2013</v>
       </c>
-      <c r="BC84" s="24"/>
-      <c r="BD84" s="24"/>
-      <c r="BE84" s="24"/>
-      <c r="BF84" s="23">
+      <c r="BC84" s="41"/>
+      <c r="BD84" s="41"/>
+      <c r="BE84" s="41"/>
+      <c r="BF84" s="40">
         <v>2014</v>
       </c>
-      <c r="BG84" s="24"/>
-      <c r="BH84" s="24"/>
-      <c r="BI84" s="24"/>
-      <c r="BJ84" s="23">
+      <c r="BG84" s="41"/>
+      <c r="BH84" s="41"/>
+      <c r="BI84" s="41"/>
+      <c r="BJ84" s="40">
         <v>2015</v>
       </c>
-      <c r="BK84" s="24"/>
-      <c r="BL84" s="24"/>
-      <c r="BM84" s="24"/>
-      <c r="BN84" s="23">
+      <c r="BK84" s="41"/>
+      <c r="BL84" s="41"/>
+      <c r="BM84" s="41"/>
+      <c r="BN84" s="40">
         <v>2016</v>
       </c>
-      <c r="BO84" s="24"/>
-      <c r="BP84" s="24"/>
-      <c r="BQ84" s="24"/>
-      <c r="BR84" s="23">
+      <c r="BO84" s="41"/>
+      <c r="BP84" s="41"/>
+      <c r="BQ84" s="41"/>
+      <c r="BR84" s="40">
         <v>2017</v>
       </c>
-      <c r="BS84" s="24"/>
-      <c r="BT84" s="24"/>
-      <c r="BU84" s="24"/>
-      <c r="BV84" s="23">
+      <c r="BS84" s="41"/>
+      <c r="BT84" s="41"/>
+      <c r="BU84" s="41"/>
+      <c r="BV84" s="40">
         <v>2018</v>
       </c>
-      <c r="BW84" s="23"/>
-      <c r="BX84" s="23"/>
-      <c r="BY84" s="23"/>
-      <c r="BZ84" s="23">
+      <c r="BW84" s="40"/>
+      <c r="BX84" s="40"/>
+      <c r="BY84" s="40"/>
+      <c r="BZ84" s="40">
         <v>2019</v>
       </c>
-      <c r="CA84" s="23"/>
-      <c r="CB84" s="23"/>
-      <c r="CC84" s="23"/>
-      <c r="CD84" s="23">
+      <c r="CA84" s="40"/>
+      <c r="CB84" s="40"/>
+      <c r="CC84" s="40"/>
+      <c r="CD84" s="40">
         <v>2020</v>
       </c>
-      <c r="CE84" s="23"/>
-      <c r="CF84" s="23"/>
-      <c r="CG84" s="23"/>
+      <c r="CE84" s="40"/>
+      <c r="CF84" s="40"/>
+      <c r="CG84" s="40"/>
       <c r="CH84" s="21">
         <v>2021</v>
       </c>
@@ -36283,17 +36389,18 @@
       <c r="CM84" s="21"/>
       <c r="CN84" s="21"/>
       <c r="CO84" s="21"/>
-      <c r="CP84" s="28">
+      <c r="CP84" s="25">
         <v>2023</v>
       </c>
-      <c r="CQ84" s="28"/>
-      <c r="CR84" s="28"/>
-      <c r="CS84" s="28"/>
-      <c r="CT84" s="28">
+      <c r="CQ84" s="25"/>
+      <c r="CR84" s="25"/>
+      <c r="CS84" s="25"/>
+      <c r="CT84" s="25">
         <v>2024</v>
       </c>
-      <c r="CU84" s="28"/>
-      <c r="CV84" s="28"/>
+      <c r="CU84" s="25"/>
+      <c r="CV84" s="25"/>
+      <c r="CW84" s="25"/>
     </row>
     <row r="85" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
@@ -36575,26 +36682,29 @@
       <c r="CO85" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP85" s="29" t="s">
+      <c r="CP85" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="CQ85" s="29" t="s">
+      <c r="CQ85" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="CR85" s="29" t="s">
+      <c r="CR85" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="CS85" s="29" t="s">
+      <c r="CS85" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="CT85" s="29" t="s">
+      <c r="CT85" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="CU85" s="29" t="s">
+      <c r="CU85" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="CV85" s="29" t="s">
+      <c r="CV85" s="26" t="s">
         <v>10</v>
+      </c>
+      <c r="CW85" s="26" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -36691,13 +36801,14 @@
       <c r="CM86" s="1"/>
       <c r="CN86" s="1"/>
       <c r="CO86" s="1"/>
-      <c r="CP86" s="27"/>
-      <c r="CQ86" s="27"/>
-      <c r="CR86" s="27"/>
-      <c r="CS86" s="27"/>
-      <c r="CT86" s="27"/>
-      <c r="CU86" s="27"/>
-      <c r="CV86" s="27"/>
+      <c r="CP86" s="24"/>
+      <c r="CQ86" s="24"/>
+      <c r="CR86" s="24"/>
+      <c r="CS86" s="24"/>
+      <c r="CT86" s="24"/>
+      <c r="CU86" s="24"/>
+      <c r="CV86" s="24"/>
+      <c r="CW86" s="24"/>
     </row>
     <row r="87" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
@@ -36979,28 +37090,30 @@
       <c r="CO87" s="18">
         <v>107.1502313726435</v>
       </c>
-      <c r="CP87" s="35">
+      <c r="CP87" s="32">
         <v>107.6373981504675</v>
       </c>
-      <c r="CQ87" s="35">
+      <c r="CQ87" s="32">
         <v>109.33026151133637</v>
       </c>
-      <c r="CR87" s="35">
+      <c r="CR87" s="32">
         <v>111.24146999255882</v>
       </c>
-      <c r="CS87" s="35">
+      <c r="CS87" s="32">
         <v>112.74327851224521</v>
       </c>
-      <c r="CT87" s="35">
+      <c r="CT87" s="32">
         <v>112.29064903368966</v>
       </c>
-      <c r="CU87" s="35">
+      <c r="CU87" s="32">
         <v>113.68731134066461</v>
       </c>
-      <c r="CV87" s="35">
-        <v>114.99687492503794</v>
-      </c>
-      <c r="CW87" s="11"/>
+      <c r="CV87" s="32">
+        <v>114.99687492503796</v>
+      </c>
+      <c r="CW87" s="32">
+        <v>115.72355181558554</v>
+      </c>
       <c r="CX87" s="11"/>
       <c r="CY87" s="11"/>
       <c r="CZ87" s="11"/>
@@ -37336,28 +37449,30 @@
       <c r="CO88" s="18">
         <v>112.6019085318174</v>
       </c>
-      <c r="CP88" s="35">
+      <c r="CP88" s="32">
         <v>118.58145533063183</v>
       </c>
-      <c r="CQ88" s="35">
+      <c r="CQ88" s="32">
         <v>117.10001461439616</v>
       </c>
-      <c r="CR88" s="35">
+      <c r="CR88" s="32">
         <v>117.1727140772022</v>
       </c>
-      <c r="CS88" s="35">
+      <c r="CS88" s="32">
         <v>120.87663561958932</v>
       </c>
-      <c r="CT88" s="35">
+      <c r="CT88" s="32">
         <v>124.69005714701819</v>
       </c>
-      <c r="CU88" s="35">
+      <c r="CU88" s="32">
         <v>121.65948073686937</v>
       </c>
-      <c r="CV88" s="35">
-        <v>121.75435710264722</v>
-      </c>
-      <c r="CW88" s="11"/>
+      <c r="CV88" s="32">
+        <v>121.75435710264719</v>
+      </c>
+      <c r="CW88" s="32">
+        <v>125.57092635452534</v>
+      </c>
       <c r="CX88" s="11"/>
       <c r="CY88" s="11"/>
       <c r="CZ88" s="11"/>
@@ -37506,14 +37621,14 @@
       <c r="CM89" s="17"/>
       <c r="CN89" s="17"/>
       <c r="CO89" s="17"/>
-      <c r="CP89" s="33"/>
-      <c r="CQ89" s="33"/>
-      <c r="CR89" s="33"/>
-      <c r="CS89" s="33"/>
-      <c r="CT89" s="33"/>
-      <c r="CU89" s="33"/>
-      <c r="CV89" s="33"/>
-      <c r="CW89" s="11"/>
+      <c r="CP89" s="30"/>
+      <c r="CQ89" s="30"/>
+      <c r="CR89" s="30"/>
+      <c r="CS89" s="30"/>
+      <c r="CT89" s="30"/>
+      <c r="CU89" s="30"/>
+      <c r="CV89" s="30"/>
+      <c r="CW89" s="30"/>
       <c r="CX89" s="11"/>
       <c r="CY89" s="11"/>
       <c r="CZ89" s="11"/>
@@ -37849,28 +37964,30 @@
       <c r="CO90" s="18">
         <v>109.13710124928413</v>
       </c>
-      <c r="CP90" s="35">
+      <c r="CP90" s="32">
         <v>112.28990192010475</v>
       </c>
-      <c r="CQ90" s="35">
+      <c r="CQ90" s="32">
         <v>112.32564004118557</v>
       </c>
-      <c r="CR90" s="35">
+      <c r="CR90" s="32">
         <v>113.54055655686435</v>
       </c>
-      <c r="CS90" s="35">
+      <c r="CS90" s="32">
         <v>115.75729524993135</v>
       </c>
-      <c r="CT90" s="35">
+      <c r="CT90" s="32">
         <v>117.75214159432691</v>
       </c>
-      <c r="CU90" s="35">
+      <c r="CU90" s="32">
         <v>116.7894661114106</v>
       </c>
-      <c r="CV90" s="35">
-        <v>117.59212915290777</v>
-      </c>
-      <c r="CW90" s="11"/>
+      <c r="CV90" s="32">
+        <v>117.60551476928403</v>
+      </c>
+      <c r="CW90" s="32">
+        <v>119.37558813426679</v>
+      </c>
       <c r="CX90" s="11"/>
       <c r="CY90" s="11"/>
       <c r="CZ90" s="11"/>
@@ -38020,13 +38137,14 @@
       <c r="CM91" s="15"/>
       <c r="CN91" s="15"/>
       <c r="CO91" s="15"/>
-      <c r="CP91" s="32"/>
-      <c r="CQ91" s="32"/>
-      <c r="CR91" s="32"/>
-      <c r="CS91" s="32"/>
-      <c r="CT91" s="32"/>
-      <c r="CU91" s="32"/>
-      <c r="CV91" s="32"/>
+      <c r="CP91" s="29"/>
+      <c r="CQ91" s="29"/>
+      <c r="CR91" s="29"/>
+      <c r="CS91" s="29"/>
+      <c r="CT91" s="29"/>
+      <c r="CU91" s="29"/>
+      <c r="CV91" s="29"/>
+      <c r="CW91" s="29"/>
     </row>
     <row r="92" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="16" t="s">
@@ -38124,13 +38242,14 @@
       <c r="CM92" s="1"/>
       <c r="CN92" s="1"/>
       <c r="CO92" s="1"/>
-      <c r="CP92" s="27"/>
-      <c r="CQ92" s="27"/>
-      <c r="CR92" s="27"/>
-      <c r="CS92" s="27"/>
-      <c r="CT92" s="27"/>
-      <c r="CU92" s="27"/>
-      <c r="CV92" s="27"/>
+      <c r="CP92" s="24"/>
+      <c r="CQ92" s="24"/>
+      <c r="CR92" s="24"/>
+      <c r="CS92" s="24"/>
+      <c r="CT92" s="24"/>
+      <c r="CU92" s="24"/>
+      <c r="CV92" s="24"/>
+      <c r="CW92" s="24"/>
     </row>
     <row r="93" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
@@ -38225,13 +38344,14 @@
       <c r="CM93" s="1"/>
       <c r="CN93" s="1"/>
       <c r="CO93" s="1"/>
-      <c r="CP93" s="27"/>
-      <c r="CQ93" s="27"/>
-      <c r="CR93" s="27"/>
-      <c r="CS93" s="27"/>
-      <c r="CT93" s="27"/>
-      <c r="CU93" s="27"/>
-      <c r="CV93" s="27"/>
+      <c r="CP93" s="24"/>
+      <c r="CQ93" s="24"/>
+      <c r="CR93" s="24"/>
+      <c r="CS93" s="24"/>
+      <c r="CT93" s="24"/>
+      <c r="CU93" s="24"/>
+      <c r="CV93" s="24"/>
+      <c r="CW93" s="24"/>
     </row>
     <row r="94" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
@@ -38326,13 +38446,14 @@
       <c r="CM94" s="1"/>
       <c r="CN94" s="1"/>
       <c r="CO94" s="1"/>
-      <c r="CP94" s="27"/>
-      <c r="CQ94" s="27"/>
-      <c r="CR94" s="27"/>
-      <c r="CS94" s="27"/>
-      <c r="CT94" s="27"/>
-      <c r="CU94" s="27"/>
-      <c r="CV94" s="27"/>
+      <c r="CP94" s="24"/>
+      <c r="CQ94" s="24"/>
+      <c r="CR94" s="24"/>
+      <c r="CS94" s="24"/>
+      <c r="CT94" s="24"/>
+      <c r="CU94" s="24"/>
+      <c r="CV94" s="24"/>
+      <c r="CW94" s="24"/>
     </row>
     <row r="95" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
@@ -38430,13 +38551,14 @@
       <c r="CM95" s="1"/>
       <c r="CN95" s="1"/>
       <c r="CO95" s="1"/>
-      <c r="CP95" s="27"/>
-      <c r="CQ95" s="27"/>
-      <c r="CR95" s="27"/>
-      <c r="CS95" s="27"/>
-      <c r="CT95" s="27"/>
-      <c r="CU95" s="27"/>
-      <c r="CV95" s="27"/>
+      <c r="CP95" s="24"/>
+      <c r="CQ95" s="24"/>
+      <c r="CR95" s="24"/>
+      <c r="CS95" s="24"/>
+      <c r="CT95" s="24"/>
+      <c r="CU95" s="24"/>
+      <c r="CV95" s="24"/>
+      <c r="CW95" s="24"/>
     </row>
     <row r="96" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
@@ -38534,17 +38656,18 @@
       <c r="CM96" s="1"/>
       <c r="CN96" s="1"/>
       <c r="CO96" s="1"/>
-      <c r="CP96" s="27"/>
-      <c r="CQ96" s="27"/>
-      <c r="CR96" s="27"/>
-      <c r="CS96" s="27"/>
-      <c r="CT96" s="27"/>
-      <c r="CU96" s="27"/>
-      <c r="CV96" s="27"/>
+      <c r="CP96" s="24"/>
+      <c r="CQ96" s="24"/>
+      <c r="CR96" s="24"/>
+      <c r="CS96" s="24"/>
+      <c r="CT96" s="24"/>
+      <c r="CU96" s="24"/>
+      <c r="CV96" s="24"/>
+      <c r="CW96" s="24"/>
     </row>
     <row r="97" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -38638,13 +38761,14 @@
       <c r="CM97" s="1"/>
       <c r="CN97" s="1"/>
       <c r="CO97" s="1"/>
-      <c r="CP97" s="27"/>
-      <c r="CQ97" s="27"/>
-      <c r="CR97" s="27"/>
-      <c r="CS97" s="27"/>
-      <c r="CT97" s="27"/>
-      <c r="CU97" s="27"/>
-      <c r="CV97" s="27"/>
+      <c r="CP97" s="24"/>
+      <c r="CQ97" s="24"/>
+      <c r="CR97" s="24"/>
+      <c r="CS97" s="24"/>
+      <c r="CT97" s="24"/>
+      <c r="CU97" s="24"/>
+      <c r="CV97" s="24"/>
+      <c r="CW97" s="24"/>
     </row>
     <row r="98" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
@@ -38740,13 +38864,14 @@
       <c r="CM98" s="1"/>
       <c r="CN98" s="1"/>
       <c r="CO98" s="1"/>
-      <c r="CP98" s="27"/>
-      <c r="CQ98" s="27"/>
-      <c r="CR98" s="27"/>
-      <c r="CS98" s="27"/>
-      <c r="CT98" s="27"/>
-      <c r="CU98" s="27"/>
-      <c r="CV98" s="27"/>
+      <c r="CP98" s="24"/>
+      <c r="CQ98" s="24"/>
+      <c r="CR98" s="24"/>
+      <c r="CS98" s="24"/>
+      <c r="CT98" s="24"/>
+      <c r="CU98" s="24"/>
+      <c r="CV98" s="24"/>
+      <c r="CW98" s="24"/>
     </row>
     <row r="99" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
@@ -38844,17 +38969,18 @@
       <c r="CM99" s="1"/>
       <c r="CN99" s="1"/>
       <c r="CO99" s="1"/>
-      <c r="CP99" s="27"/>
-      <c r="CQ99" s="27"/>
-      <c r="CR99" s="27"/>
-      <c r="CS99" s="27"/>
-      <c r="CT99" s="27"/>
-      <c r="CU99" s="27"/>
-      <c r="CV99" s="27"/>
+      <c r="CP99" s="24"/>
+      <c r="CQ99" s="24"/>
+      <c r="CR99" s="24"/>
+      <c r="CS99" s="24"/>
+      <c r="CT99" s="24"/>
+      <c r="CU99" s="24"/>
+      <c r="CV99" s="24"/>
+      <c r="CW99" s="24"/>
     </row>
     <row r="100" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -38948,13 +39074,14 @@
       <c r="CM100" s="1"/>
       <c r="CN100" s="1"/>
       <c r="CO100" s="1"/>
-      <c r="CP100" s="27"/>
-      <c r="CQ100" s="27"/>
-      <c r="CR100" s="27"/>
-      <c r="CS100" s="27"/>
-      <c r="CT100" s="27"/>
-      <c r="CU100" s="27"/>
-      <c r="CV100" s="27"/>
+      <c r="CP100" s="24"/>
+      <c r="CQ100" s="24"/>
+      <c r="CR100" s="24"/>
+      <c r="CS100" s="24"/>
+      <c r="CT100" s="24"/>
+      <c r="CU100" s="24"/>
+      <c r="CV100" s="24"/>
+      <c r="CW100" s="24"/>
     </row>
     <row r="101" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
@@ -39052,13 +39179,14 @@
       <c r="CM101" s="1"/>
       <c r="CN101" s="1"/>
       <c r="CO101" s="1"/>
-      <c r="CP101" s="27"/>
-      <c r="CQ101" s="27"/>
-      <c r="CR101" s="27"/>
-      <c r="CS101" s="27"/>
-      <c r="CT101" s="27"/>
-      <c r="CU101" s="27"/>
-      <c r="CV101" s="27"/>
+      <c r="CP101" s="24"/>
+      <c r="CQ101" s="24"/>
+      <c r="CR101" s="24"/>
+      <c r="CS101" s="24"/>
+      <c r="CT101" s="24"/>
+      <c r="CU101" s="24"/>
+      <c r="CV101" s="24"/>
+      <c r="CW101" s="24"/>
     </row>
     <row r="102" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
@@ -39154,142 +39282,143 @@
       <c r="CM102" s="1"/>
       <c r="CN102" s="1"/>
       <c r="CO102" s="1"/>
-      <c r="CP102" s="27"/>
-      <c r="CQ102" s="27"/>
-      <c r="CR102" s="27"/>
-      <c r="CS102" s="27"/>
-      <c r="CT102" s="27"/>
-      <c r="CU102" s="27"/>
-      <c r="CV102" s="27"/>
+      <c r="CP102" s="24"/>
+      <c r="CQ102" s="24"/>
+      <c r="CR102" s="24"/>
+      <c r="CS102" s="24"/>
+      <c r="CT102" s="24"/>
+      <c r="CU102" s="24"/>
+      <c r="CV102" s="24"/>
+      <c r="CW102" s="24"/>
     </row>
     <row r="103" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
-      <c r="B103" s="23">
+      <c r="B103" s="40">
         <v>2000</v>
       </c>
-      <c r="C103" s="24"/>
-      <c r="D103" s="24"/>
-      <c r="E103" s="24"/>
-      <c r="F103" s="23">
+      <c r="C103" s="41"/>
+      <c r="D103" s="41"/>
+      <c r="E103" s="41"/>
+      <c r="F103" s="40">
         <v>2001</v>
       </c>
-      <c r="G103" s="24"/>
-      <c r="H103" s="24"/>
-      <c r="I103" s="24"/>
-      <c r="J103" s="23">
+      <c r="G103" s="41"/>
+      <c r="H103" s="41"/>
+      <c r="I103" s="41"/>
+      <c r="J103" s="40">
         <v>2002</v>
       </c>
-      <c r="K103" s="24"/>
-      <c r="L103" s="24"/>
-      <c r="M103" s="24"/>
-      <c r="N103" s="23">
+      <c r="K103" s="41"/>
+      <c r="L103" s="41"/>
+      <c r="M103" s="41"/>
+      <c r="N103" s="40">
         <v>2003</v>
       </c>
-      <c r="O103" s="24"/>
-      <c r="P103" s="24"/>
-      <c r="Q103" s="24"/>
-      <c r="R103" s="23">
+      <c r="O103" s="41"/>
+      <c r="P103" s="41"/>
+      <c r="Q103" s="41"/>
+      <c r="R103" s="40">
         <v>2004</v>
       </c>
-      <c r="S103" s="24"/>
-      <c r="T103" s="24"/>
-      <c r="U103" s="24"/>
-      <c r="V103" s="23">
+      <c r="S103" s="41"/>
+      <c r="T103" s="41"/>
+      <c r="U103" s="41"/>
+      <c r="V103" s="40">
         <v>2005</v>
       </c>
-      <c r="W103" s="24"/>
-      <c r="X103" s="24"/>
-      <c r="Y103" s="24"/>
-      <c r="Z103" s="23">
+      <c r="W103" s="41"/>
+      <c r="X103" s="41"/>
+      <c r="Y103" s="41"/>
+      <c r="Z103" s="40">
         <v>2006</v>
       </c>
-      <c r="AA103" s="24"/>
-      <c r="AB103" s="24"/>
-      <c r="AC103" s="24"/>
-      <c r="AD103" s="23">
+      <c r="AA103" s="41"/>
+      <c r="AB103" s="41"/>
+      <c r="AC103" s="41"/>
+      <c r="AD103" s="40">
         <v>2007</v>
       </c>
-      <c r="AE103" s="24"/>
-      <c r="AF103" s="24"/>
-      <c r="AG103" s="24"/>
-      <c r="AH103" s="23">
+      <c r="AE103" s="41"/>
+      <c r="AF103" s="41"/>
+      <c r="AG103" s="41"/>
+      <c r="AH103" s="40">
         <v>2008</v>
       </c>
-      <c r="AI103" s="24"/>
-      <c r="AJ103" s="24"/>
-      <c r="AK103" s="24"/>
-      <c r="AL103" s="23">
+      <c r="AI103" s="41"/>
+      <c r="AJ103" s="41"/>
+      <c r="AK103" s="41"/>
+      <c r="AL103" s="40">
         <v>2009</v>
       </c>
-      <c r="AM103" s="24"/>
-      <c r="AN103" s="24"/>
-      <c r="AO103" s="24"/>
-      <c r="AP103" s="23">
+      <c r="AM103" s="41"/>
+      <c r="AN103" s="41"/>
+      <c r="AO103" s="41"/>
+      <c r="AP103" s="40">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="24"/>
-      <c r="AR103" s="24"/>
-      <c r="AS103" s="24"/>
-      <c r="AT103" s="23">
+      <c r="AQ103" s="41"/>
+      <c r="AR103" s="41"/>
+      <c r="AS103" s="41"/>
+      <c r="AT103" s="40">
         <v>2011</v>
       </c>
-      <c r="AU103" s="24"/>
-      <c r="AV103" s="24"/>
-      <c r="AW103" s="24"/>
-      <c r="AX103" s="23">
+      <c r="AU103" s="41"/>
+      <c r="AV103" s="41"/>
+      <c r="AW103" s="41"/>
+      <c r="AX103" s="40">
         <v>2012</v>
       </c>
-      <c r="AY103" s="24"/>
-      <c r="AZ103" s="24"/>
-      <c r="BA103" s="24"/>
-      <c r="BB103" s="23">
+      <c r="AY103" s="41"/>
+      <c r="AZ103" s="41"/>
+      <c r="BA103" s="41"/>
+      <c r="BB103" s="40">
         <v>2013</v>
       </c>
-      <c r="BC103" s="24"/>
-      <c r="BD103" s="24"/>
-      <c r="BE103" s="24"/>
-      <c r="BF103" s="23">
+      <c r="BC103" s="41"/>
+      <c r="BD103" s="41"/>
+      <c r="BE103" s="41"/>
+      <c r="BF103" s="40">
         <v>2014</v>
       </c>
-      <c r="BG103" s="24"/>
-      <c r="BH103" s="24"/>
-      <c r="BI103" s="24"/>
-      <c r="BJ103" s="23">
+      <c r="BG103" s="41"/>
+      <c r="BH103" s="41"/>
+      <c r="BI103" s="41"/>
+      <c r="BJ103" s="40">
         <v>2015</v>
       </c>
-      <c r="BK103" s="24"/>
-      <c r="BL103" s="24"/>
-      <c r="BM103" s="24"/>
-      <c r="BN103" s="23">
+      <c r="BK103" s="41"/>
+      <c r="BL103" s="41"/>
+      <c r="BM103" s="41"/>
+      <c r="BN103" s="40">
         <v>2016</v>
       </c>
-      <c r="BO103" s="24"/>
-      <c r="BP103" s="24"/>
-      <c r="BQ103" s="24"/>
-      <c r="BR103" s="23">
+      <c r="BO103" s="41"/>
+      <c r="BP103" s="41"/>
+      <c r="BQ103" s="41"/>
+      <c r="BR103" s="40">
         <v>2017</v>
       </c>
-      <c r="BS103" s="24"/>
-      <c r="BT103" s="24"/>
-      <c r="BU103" s="24"/>
-      <c r="BV103" s="23">
+      <c r="BS103" s="41"/>
+      <c r="BT103" s="41"/>
+      <c r="BU103" s="41"/>
+      <c r="BV103" s="40">
         <v>2018</v>
       </c>
-      <c r="BW103" s="23"/>
-      <c r="BX103" s="23"/>
-      <c r="BY103" s="23"/>
-      <c r="BZ103" s="23">
+      <c r="BW103" s="40"/>
+      <c r="BX103" s="40"/>
+      <c r="BY103" s="40"/>
+      <c r="BZ103" s="40">
         <v>2019</v>
       </c>
-      <c r="CA103" s="23"/>
-      <c r="CB103" s="23"/>
-      <c r="CC103" s="23"/>
-      <c r="CD103" s="23">
+      <c r="CA103" s="40"/>
+      <c r="CB103" s="40"/>
+      <c r="CC103" s="40"/>
+      <c r="CD103" s="40">
         <v>2020</v>
       </c>
-      <c r="CE103" s="23"/>
-      <c r="CF103" s="23"/>
-      <c r="CG103" s="23"/>
+      <c r="CE103" s="40"/>
+      <c r="CF103" s="40"/>
+      <c r="CG103" s="40"/>
       <c r="CH103" s="21">
         <v>2021</v>
       </c>
@@ -39302,17 +39431,18 @@
       <c r="CM103" s="21"/>
       <c r="CN103" s="21"/>
       <c r="CO103" s="21"/>
-      <c r="CP103" s="28">
+      <c r="CP103" s="25">
         <v>2023</v>
       </c>
-      <c r="CQ103" s="28"/>
-      <c r="CR103" s="28"/>
-      <c r="CS103" s="28"/>
-      <c r="CT103" s="28">
+      <c r="CQ103" s="25"/>
+      <c r="CR103" s="25"/>
+      <c r="CS103" s="25"/>
+      <c r="CT103" s="25">
         <v>2024</v>
       </c>
-      <c r="CU103" s="28"/>
-      <c r="CV103" s="28"/>
+      <c r="CU103" s="25"/>
+      <c r="CV103" s="25"/>
+      <c r="CW103" s="25"/>
     </row>
     <row r="104" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
@@ -39594,26 +39724,29 @@
       <c r="CO104" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP104" s="29" t="s">
+      <c r="CP104" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="CQ104" s="29" t="s">
+      <c r="CQ104" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="CR104" s="29" t="s">
+      <c r="CR104" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="CS104" s="29" t="s">
+      <c r="CS104" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="CT104" s="29" t="s">
+      <c r="CT104" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="CU104" s="29" t="s">
+      <c r="CU104" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="CV104" s="29" t="s">
+      <c r="CV104" s="26" t="s">
         <v>10</v>
+      </c>
+      <c r="CW104" s="26" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -39710,13 +39843,14 @@
       <c r="CM105" s="1"/>
       <c r="CN105" s="1"/>
       <c r="CO105" s="1"/>
-      <c r="CP105" s="27"/>
-      <c r="CQ105" s="27"/>
-      <c r="CR105" s="27"/>
-      <c r="CS105" s="27"/>
-      <c r="CT105" s="27"/>
-      <c r="CU105" s="27"/>
-      <c r="CV105" s="27"/>
+      <c r="CP105" s="24"/>
+      <c r="CQ105" s="24"/>
+      <c r="CR105" s="24"/>
+      <c r="CS105" s="24"/>
+      <c r="CT105" s="24"/>
+      <c r="CU105" s="24"/>
+      <c r="CV105" s="24"/>
+      <c r="CW105" s="24"/>
     </row>
     <row r="106" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
@@ -39998,28 +40132,30 @@
       <c r="CO106" s="18">
         <v>62.397853864057808</v>
       </c>
-      <c r="CP106" s="35">
+      <c r="CP106" s="32">
         <v>55.106397820732454</v>
       </c>
-      <c r="CQ106" s="35">
+      <c r="CQ106" s="32">
         <v>59.809580313293111</v>
       </c>
-      <c r="CR106" s="35">
+      <c r="CR106" s="32">
         <v>59.997696760683105</v>
       </c>
-      <c r="CS106" s="35">
+      <c r="CS106" s="32">
         <v>61.303666996694353</v>
       </c>
-      <c r="CT106" s="35">
+      <c r="CT106" s="32">
         <v>53.358404167529137</v>
       </c>
-      <c r="CU106" s="35">
+      <c r="CU106" s="32">
         <v>59.465088540388656</v>
       </c>
-      <c r="CV106" s="35">
-        <v>60.234975331063957</v>
-      </c>
-      <c r="CW106" s="11"/>
+      <c r="CV106" s="32">
+        <v>60.034427451498615</v>
+      </c>
+      <c r="CW106" s="32">
+        <v>60.988899190754964</v>
+      </c>
       <c r="CX106" s="11"/>
       <c r="CY106" s="11"/>
       <c r="CZ106" s="11"/>
@@ -40355,28 +40491,30 @@
       <c r="CO107" s="18">
         <v>37.602146135942185</v>
       </c>
-      <c r="CP107" s="35">
+      <c r="CP107" s="32">
         <v>44.893602179267539</v>
       </c>
-      <c r="CQ107" s="35">
+      <c r="CQ107" s="32">
         <v>40.190419686706903</v>
       </c>
-      <c r="CR107" s="35">
+      <c r="CR107" s="32">
         <v>40.002303239316895</v>
       </c>
-      <c r="CS107" s="35">
+      <c r="CS107" s="32">
         <v>38.696333003305647</v>
       </c>
-      <c r="CT107" s="35">
+      <c r="CT107" s="32">
         <v>46.64159583247087</v>
       </c>
-      <c r="CU107" s="35">
+      <c r="CU107" s="32">
         <v>40.534911459611344</v>
       </c>
-      <c r="CV107" s="35">
-        <v>39.765024668936036</v>
-      </c>
-      <c r="CW107" s="11"/>
+      <c r="CV107" s="32">
+        <v>39.965572548501378</v>
+      </c>
+      <c r="CW107" s="32">
+        <v>39.01110080924505</v>
+      </c>
       <c r="CX107" s="11"/>
       <c r="CY107" s="11"/>
       <c r="CZ107" s="11"/>
@@ -40525,14 +40663,14 @@
       <c r="CM108" s="17"/>
       <c r="CN108" s="17"/>
       <c r="CO108" s="17"/>
-      <c r="CP108" s="33"/>
-      <c r="CQ108" s="33"/>
-      <c r="CR108" s="33"/>
-      <c r="CS108" s="33"/>
-      <c r="CT108" s="33"/>
-      <c r="CU108" s="33"/>
-      <c r="CV108" s="33"/>
-      <c r="CW108" s="11"/>
+      <c r="CP108" s="30"/>
+      <c r="CQ108" s="30"/>
+      <c r="CR108" s="30"/>
+      <c r="CS108" s="30"/>
+      <c r="CT108" s="30"/>
+      <c r="CU108" s="30"/>
+      <c r="CV108" s="30"/>
+      <c r="CW108" s="30"/>
       <c r="CX108" s="11"/>
       <c r="CY108" s="11"/>
       <c r="CZ108" s="11"/>
@@ -40868,28 +41006,30 @@
       <c r="CO109" s="18">
         <v>100</v>
       </c>
-      <c r="CP109" s="35">
+      <c r="CP109" s="32">
         <v>100</v>
       </c>
-      <c r="CQ109" s="35">
+      <c r="CQ109" s="32">
         <v>100</v>
       </c>
-      <c r="CR109" s="35">
+      <c r="CR109" s="32">
         <v>100</v>
       </c>
-      <c r="CS109" s="35">
+      <c r="CS109" s="32">
         <v>100</v>
       </c>
-      <c r="CT109" s="35">
+      <c r="CT109" s="32">
         <v>100</v>
       </c>
-      <c r="CU109" s="35">
+      <c r="CU109" s="32">
         <v>100</v>
       </c>
-      <c r="CV109" s="35">
+      <c r="CV109" s="32">
         <v>100</v>
       </c>
-      <c r="CW109" s="11"/>
+      <c r="CW109" s="32">
+        <v>100</v>
+      </c>
       <c r="CX109" s="11"/>
       <c r="CY109" s="11"/>
       <c r="CZ109" s="11"/>
@@ -41039,13 +41179,14 @@
       <c r="CM110" s="15"/>
       <c r="CN110" s="15"/>
       <c r="CO110" s="15"/>
-      <c r="CP110" s="32"/>
-      <c r="CQ110" s="32"/>
-      <c r="CR110" s="32"/>
-      <c r="CS110" s="32"/>
-      <c r="CT110" s="32"/>
-      <c r="CU110" s="32"/>
-      <c r="CV110" s="32"/>
+      <c r="CP110" s="29"/>
+      <c r="CQ110" s="29"/>
+      <c r="CR110" s="29"/>
+      <c r="CS110" s="29"/>
+      <c r="CT110" s="29"/>
+      <c r="CU110" s="29"/>
+      <c r="CV110" s="29"/>
+      <c r="CW110" s="29"/>
     </row>
     <row r="111" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="16" t="s">
@@ -41143,13 +41284,14 @@
       <c r="CM111" s="1"/>
       <c r="CN111" s="1"/>
       <c r="CO111" s="1"/>
-      <c r="CP111" s="27"/>
-      <c r="CQ111" s="27"/>
-      <c r="CR111" s="27"/>
-      <c r="CS111" s="27"/>
-      <c r="CT111" s="27"/>
-      <c r="CU111" s="27"/>
-      <c r="CV111" s="27"/>
+      <c r="CP111" s="24"/>
+      <c r="CQ111" s="24"/>
+      <c r="CR111" s="24"/>
+      <c r="CS111" s="24"/>
+      <c r="CT111" s="24"/>
+      <c r="CU111" s="24"/>
+      <c r="CV111" s="24"/>
+      <c r="CW111" s="24"/>
     </row>
     <row r="112" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="17"/>
@@ -41244,14 +41386,14 @@
       <c r="CM112" s="17"/>
       <c r="CN112" s="17"/>
       <c r="CO112" s="17"/>
-      <c r="CP112" s="33"/>
-      <c r="CQ112" s="33"/>
-      <c r="CR112" s="33"/>
-      <c r="CS112" s="33"/>
-      <c r="CT112" s="33"/>
-      <c r="CU112" s="33"/>
-      <c r="CV112" s="33"/>
-      <c r="CW112" s="11"/>
+      <c r="CP112" s="30"/>
+      <c r="CQ112" s="30"/>
+      <c r="CR112" s="30"/>
+      <c r="CS112" s="30"/>
+      <c r="CT112" s="30"/>
+      <c r="CU112" s="30"/>
+      <c r="CV112" s="30"/>
+      <c r="CW112" s="30"/>
       <c r="CX112" s="11"/>
       <c r="CY112" s="11"/>
       <c r="CZ112" s="11"/>
@@ -41400,14 +41542,14 @@
       <c r="CM113" s="17"/>
       <c r="CN113" s="17"/>
       <c r="CO113" s="17"/>
-      <c r="CP113" s="33"/>
-      <c r="CQ113" s="33"/>
-      <c r="CR113" s="33"/>
-      <c r="CS113" s="33"/>
-      <c r="CT113" s="33"/>
-      <c r="CU113" s="33"/>
-      <c r="CV113" s="33"/>
-      <c r="CW113" s="11"/>
+      <c r="CP113" s="30"/>
+      <c r="CQ113" s="30"/>
+      <c r="CR113" s="30"/>
+      <c r="CS113" s="30"/>
+      <c r="CT113" s="30"/>
+      <c r="CU113" s="30"/>
+      <c r="CV113" s="30"/>
+      <c r="CW113" s="30"/>
       <c r="CX113" s="11"/>
       <c r="CY113" s="11"/>
       <c r="CZ113" s="11"/>
@@ -41559,13 +41701,14 @@
       <c r="CM114" s="1"/>
       <c r="CN114" s="1"/>
       <c r="CO114" s="1"/>
-      <c r="CP114" s="27"/>
-      <c r="CQ114" s="27"/>
-      <c r="CR114" s="27"/>
-      <c r="CS114" s="27"/>
-      <c r="CT114" s="27"/>
-      <c r="CU114" s="27"/>
-      <c r="CV114" s="27"/>
+      <c r="CP114" s="24"/>
+      <c r="CQ114" s="24"/>
+      <c r="CR114" s="24"/>
+      <c r="CS114" s="24"/>
+      <c r="CT114" s="24"/>
+      <c r="CU114" s="24"/>
+      <c r="CV114" s="24"/>
+      <c r="CW114" s="24"/>
     </row>
     <row r="115" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
@@ -41663,17 +41806,18 @@
       <c r="CM115" s="1"/>
       <c r="CN115" s="1"/>
       <c r="CO115" s="1"/>
-      <c r="CP115" s="27"/>
-      <c r="CQ115" s="27"/>
-      <c r="CR115" s="27"/>
-      <c r="CS115" s="27"/>
-      <c r="CT115" s="27"/>
-      <c r="CU115" s="27"/>
-      <c r="CV115" s="27"/>
+      <c r="CP115" s="24"/>
+      <c r="CQ115" s="24"/>
+      <c r="CR115" s="24"/>
+      <c r="CS115" s="24"/>
+      <c r="CT115" s="24"/>
+      <c r="CU115" s="24"/>
+      <c r="CV115" s="24"/>
+      <c r="CW115" s="24"/>
     </row>
     <row r="116" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -41767,13 +41911,14 @@
       <c r="CM116" s="1"/>
       <c r="CN116" s="1"/>
       <c r="CO116" s="1"/>
-      <c r="CP116" s="27"/>
-      <c r="CQ116" s="27"/>
-      <c r="CR116" s="27"/>
-      <c r="CS116" s="27"/>
-      <c r="CT116" s="27"/>
-      <c r="CU116" s="27"/>
-      <c r="CV116" s="27"/>
+      <c r="CP116" s="24"/>
+      <c r="CQ116" s="24"/>
+      <c r="CR116" s="24"/>
+      <c r="CS116" s="24"/>
+      <c r="CT116" s="24"/>
+      <c r="CU116" s="24"/>
+      <c r="CV116" s="24"/>
+      <c r="CW116" s="24"/>
     </row>
     <row r="117" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
@@ -41869,13 +42014,14 @@
       <c r="CM117" s="1"/>
       <c r="CN117" s="1"/>
       <c r="CO117" s="1"/>
-      <c r="CP117" s="27"/>
-      <c r="CQ117" s="27"/>
-      <c r="CR117" s="27"/>
-      <c r="CS117" s="27"/>
-      <c r="CT117" s="27"/>
-      <c r="CU117" s="27"/>
-      <c r="CV117" s="27"/>
+      <c r="CP117" s="24"/>
+      <c r="CQ117" s="24"/>
+      <c r="CR117" s="24"/>
+      <c r="CS117" s="24"/>
+      <c r="CT117" s="24"/>
+      <c r="CU117" s="24"/>
+      <c r="CV117" s="24"/>
+      <c r="CW117" s="24"/>
     </row>
     <row r="118" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
@@ -41973,17 +42119,18 @@
       <c r="CM118" s="1"/>
       <c r="CN118" s="1"/>
       <c r="CO118" s="1"/>
-      <c r="CP118" s="27"/>
-      <c r="CQ118" s="27"/>
-      <c r="CR118" s="27"/>
-      <c r="CS118" s="27"/>
-      <c r="CT118" s="27"/>
-      <c r="CU118" s="27"/>
-      <c r="CV118" s="27"/>
+      <c r="CP118" s="24"/>
+      <c r="CQ118" s="24"/>
+      <c r="CR118" s="24"/>
+      <c r="CS118" s="24"/>
+      <c r="CT118" s="24"/>
+      <c r="CU118" s="24"/>
+      <c r="CV118" s="24"/>
+      <c r="CW118" s="24"/>
     </row>
     <row r="119" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -42077,13 +42224,14 @@
       <c r="CM119" s="1"/>
       <c r="CN119" s="1"/>
       <c r="CO119" s="1"/>
-      <c r="CP119" s="27"/>
-      <c r="CQ119" s="27"/>
-      <c r="CR119" s="27"/>
-      <c r="CS119" s="27"/>
-      <c r="CT119" s="27"/>
-      <c r="CU119" s="27"/>
-      <c r="CV119" s="27"/>
+      <c r="CP119" s="24"/>
+      <c r="CQ119" s="24"/>
+      <c r="CR119" s="24"/>
+      <c r="CS119" s="24"/>
+      <c r="CT119" s="24"/>
+      <c r="CU119" s="24"/>
+      <c r="CV119" s="24"/>
+      <c r="CW119" s="24"/>
     </row>
     <row r="120" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
@@ -42181,13 +42329,14 @@
       <c r="CM120" s="1"/>
       <c r="CN120" s="1"/>
       <c r="CO120" s="1"/>
-      <c r="CP120" s="27"/>
-      <c r="CQ120" s="27"/>
-      <c r="CR120" s="27"/>
-      <c r="CS120" s="27"/>
-      <c r="CT120" s="27"/>
-      <c r="CU120" s="27"/>
-      <c r="CV120" s="27"/>
+      <c r="CP120" s="24"/>
+      <c r="CQ120" s="24"/>
+      <c r="CR120" s="24"/>
+      <c r="CS120" s="24"/>
+      <c r="CT120" s="24"/>
+      <c r="CU120" s="24"/>
+      <c r="CV120" s="24"/>
+      <c r="CW120" s="24"/>
     </row>
     <row r="121" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
@@ -42283,142 +42432,143 @@
       <c r="CM121" s="1"/>
       <c r="CN121" s="1"/>
       <c r="CO121" s="1"/>
-      <c r="CP121" s="27"/>
-      <c r="CQ121" s="27"/>
-      <c r="CR121" s="27"/>
-      <c r="CS121" s="27"/>
-      <c r="CT121" s="27"/>
-      <c r="CU121" s="27"/>
-      <c r="CV121" s="27"/>
+      <c r="CP121" s="24"/>
+      <c r="CQ121" s="24"/>
+      <c r="CR121" s="24"/>
+      <c r="CS121" s="24"/>
+      <c r="CT121" s="24"/>
+      <c r="CU121" s="24"/>
+      <c r="CV121" s="24"/>
+      <c r="CW121" s="24"/>
     </row>
     <row r="122" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
-      <c r="B122" s="23">
+      <c r="B122" s="40">
         <v>2000</v>
       </c>
-      <c r="C122" s="24"/>
-      <c r="D122" s="24"/>
-      <c r="E122" s="24"/>
-      <c r="F122" s="23">
+      <c r="C122" s="41"/>
+      <c r="D122" s="41"/>
+      <c r="E122" s="41"/>
+      <c r="F122" s="40">
         <v>2001</v>
       </c>
-      <c r="G122" s="24"/>
-      <c r="H122" s="24"/>
-      <c r="I122" s="24"/>
-      <c r="J122" s="23">
+      <c r="G122" s="41"/>
+      <c r="H122" s="41"/>
+      <c r="I122" s="41"/>
+      <c r="J122" s="40">
         <v>2002</v>
       </c>
-      <c r="K122" s="24"/>
-      <c r="L122" s="24"/>
-      <c r="M122" s="24"/>
-      <c r="N122" s="23">
+      <c r="K122" s="41"/>
+      <c r="L122" s="41"/>
+      <c r="M122" s="41"/>
+      <c r="N122" s="40">
         <v>2003</v>
       </c>
-      <c r="O122" s="24"/>
-      <c r="P122" s="24"/>
-      <c r="Q122" s="24"/>
-      <c r="R122" s="23">
+      <c r="O122" s="41"/>
+      <c r="P122" s="41"/>
+      <c r="Q122" s="41"/>
+      <c r="R122" s="40">
         <v>2004</v>
       </c>
-      <c r="S122" s="24"/>
-      <c r="T122" s="24"/>
-      <c r="U122" s="24"/>
-      <c r="V122" s="23">
+      <c r="S122" s="41"/>
+      <c r="T122" s="41"/>
+      <c r="U122" s="41"/>
+      <c r="V122" s="40">
         <v>2005</v>
       </c>
-      <c r="W122" s="24"/>
-      <c r="X122" s="24"/>
-      <c r="Y122" s="24"/>
-      <c r="Z122" s="23">
+      <c r="W122" s="41"/>
+      <c r="X122" s="41"/>
+      <c r="Y122" s="41"/>
+      <c r="Z122" s="40">
         <v>2006</v>
       </c>
-      <c r="AA122" s="24"/>
-      <c r="AB122" s="24"/>
-      <c r="AC122" s="24"/>
-      <c r="AD122" s="23">
+      <c r="AA122" s="41"/>
+      <c r="AB122" s="41"/>
+      <c r="AC122" s="41"/>
+      <c r="AD122" s="40">
         <v>2007</v>
       </c>
-      <c r="AE122" s="24"/>
-      <c r="AF122" s="24"/>
-      <c r="AG122" s="24"/>
-      <c r="AH122" s="23">
+      <c r="AE122" s="41"/>
+      <c r="AF122" s="41"/>
+      <c r="AG122" s="41"/>
+      <c r="AH122" s="40">
         <v>2008</v>
       </c>
-      <c r="AI122" s="24"/>
-      <c r="AJ122" s="24"/>
-      <c r="AK122" s="24"/>
-      <c r="AL122" s="23">
+      <c r="AI122" s="41"/>
+      <c r="AJ122" s="41"/>
+      <c r="AK122" s="41"/>
+      <c r="AL122" s="40">
         <v>2009</v>
       </c>
-      <c r="AM122" s="24"/>
-      <c r="AN122" s="24"/>
-      <c r="AO122" s="24"/>
-      <c r="AP122" s="23">
+      <c r="AM122" s="41"/>
+      <c r="AN122" s="41"/>
+      <c r="AO122" s="41"/>
+      <c r="AP122" s="40">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="24"/>
-      <c r="AR122" s="24"/>
-      <c r="AS122" s="24"/>
-      <c r="AT122" s="23">
+      <c r="AQ122" s="41"/>
+      <c r="AR122" s="41"/>
+      <c r="AS122" s="41"/>
+      <c r="AT122" s="40">
         <v>2011</v>
       </c>
-      <c r="AU122" s="24"/>
-      <c r="AV122" s="24"/>
-      <c r="AW122" s="24"/>
-      <c r="AX122" s="23">
+      <c r="AU122" s="41"/>
+      <c r="AV122" s="41"/>
+      <c r="AW122" s="41"/>
+      <c r="AX122" s="40">
         <v>2012</v>
       </c>
-      <c r="AY122" s="24"/>
-      <c r="AZ122" s="24"/>
-      <c r="BA122" s="24"/>
-      <c r="BB122" s="23">
+      <c r="AY122" s="41"/>
+      <c r="AZ122" s="41"/>
+      <c r="BA122" s="41"/>
+      <c r="BB122" s="40">
         <v>2013</v>
       </c>
-      <c r="BC122" s="24"/>
-      <c r="BD122" s="24"/>
-      <c r="BE122" s="24"/>
-      <c r="BF122" s="23">
+      <c r="BC122" s="41"/>
+      <c r="BD122" s="41"/>
+      <c r="BE122" s="41"/>
+      <c r="BF122" s="40">
         <v>2014</v>
       </c>
-      <c r="BG122" s="24"/>
-      <c r="BH122" s="24"/>
-      <c r="BI122" s="24"/>
-      <c r="BJ122" s="23">
+      <c r="BG122" s="41"/>
+      <c r="BH122" s="41"/>
+      <c r="BI122" s="41"/>
+      <c r="BJ122" s="40">
         <v>2015</v>
       </c>
-      <c r="BK122" s="24"/>
-      <c r="BL122" s="24"/>
-      <c r="BM122" s="24"/>
-      <c r="BN122" s="23">
+      <c r="BK122" s="41"/>
+      <c r="BL122" s="41"/>
+      <c r="BM122" s="41"/>
+      <c r="BN122" s="40">
         <v>2016</v>
       </c>
-      <c r="BO122" s="24"/>
-      <c r="BP122" s="24"/>
-      <c r="BQ122" s="24"/>
-      <c r="BR122" s="23">
+      <c r="BO122" s="41"/>
+      <c r="BP122" s="41"/>
+      <c r="BQ122" s="41"/>
+      <c r="BR122" s="40">
         <v>2017</v>
       </c>
-      <c r="BS122" s="24"/>
-      <c r="BT122" s="24"/>
-      <c r="BU122" s="24"/>
-      <c r="BV122" s="23">
+      <c r="BS122" s="41"/>
+      <c r="BT122" s="41"/>
+      <c r="BU122" s="41"/>
+      <c r="BV122" s="40">
         <v>2018</v>
       </c>
-      <c r="BW122" s="23"/>
-      <c r="BX122" s="23"/>
-      <c r="BY122" s="23"/>
-      <c r="BZ122" s="23">
+      <c r="BW122" s="40"/>
+      <c r="BX122" s="40"/>
+      <c r="BY122" s="40"/>
+      <c r="BZ122" s="40">
         <v>2019</v>
       </c>
-      <c r="CA122" s="23"/>
-      <c r="CB122" s="23"/>
-      <c r="CC122" s="23"/>
-      <c r="CD122" s="23">
+      <c r="CA122" s="40"/>
+      <c r="CB122" s="40"/>
+      <c r="CC122" s="40"/>
+      <c r="CD122" s="40">
         <v>2020</v>
       </c>
-      <c r="CE122" s="23"/>
-      <c r="CF122" s="23"/>
-      <c r="CG122" s="23"/>
+      <c r="CE122" s="40"/>
+      <c r="CF122" s="40"/>
+      <c r="CG122" s="40"/>
       <c r="CH122" s="21">
         <v>2021</v>
       </c>
@@ -42431,17 +42581,18 @@
       <c r="CM122" s="21"/>
       <c r="CN122" s="21"/>
       <c r="CO122" s="21"/>
-      <c r="CP122" s="28">
+      <c r="CP122" s="25">
         <v>2023</v>
       </c>
-      <c r="CQ122" s="28"/>
-      <c r="CR122" s="28"/>
-      <c r="CS122" s="28"/>
-      <c r="CT122" s="28">
+      <c r="CQ122" s="25"/>
+      <c r="CR122" s="25"/>
+      <c r="CS122" s="25"/>
+      <c r="CT122" s="25">
         <v>2024</v>
       </c>
-      <c r="CU122" s="28"/>
-      <c r="CV122" s="28"/>
+      <c r="CU122" s="25"/>
+      <c r="CV122" s="25"/>
+      <c r="CW122" s="25"/>
     </row>
     <row r="123" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
@@ -42723,26 +42874,29 @@
       <c r="CO123" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CP123" s="29" t="s">
+      <c r="CP123" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="CQ123" s="29" t="s">
+      <c r="CQ123" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="CR123" s="29" t="s">
+      <c r="CR123" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="CS123" s="29" t="s">
+      <c r="CS123" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="CT123" s="29" t="s">
+      <c r="CT123" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="CU123" s="29" t="s">
+      <c r="CU123" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="CV123" s="29" t="s">
+      <c r="CV123" s="26" t="s">
         <v>10</v>
+      </c>
+      <c r="CW123" s="26" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -42839,13 +42993,14 @@
       <c r="CM124" s="1"/>
       <c r="CN124" s="1"/>
       <c r="CO124" s="1"/>
-      <c r="CP124" s="27"/>
-      <c r="CQ124" s="27"/>
-      <c r="CR124" s="27"/>
-      <c r="CS124" s="27"/>
-      <c r="CT124" s="27"/>
-      <c r="CU124" s="27"/>
-      <c r="CV124" s="27"/>
+      <c r="CP124" s="24"/>
+      <c r="CQ124" s="24"/>
+      <c r="CR124" s="24"/>
+      <c r="CS124" s="24"/>
+      <c r="CT124" s="24"/>
+      <c r="CU124" s="24"/>
+      <c r="CV124" s="24"/>
+      <c r="CW124" s="24"/>
     </row>
     <row r="125" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
@@ -43127,28 +43282,30 @@
       <c r="CO125" s="18">
         <v>63.554887447852515</v>
       </c>
-      <c r="CP125" s="35">
+      <c r="CP125" s="32">
         <v>57.488309015145447</v>
       </c>
-      <c r="CQ125" s="35">
+      <c r="CQ125" s="32">
         <v>61.448214761552912</v>
       </c>
-      <c r="CR125" s="35">
+      <c r="CR125" s="32">
         <v>61.237701037154743</v>
       </c>
-      <c r="CS125" s="35">
+      <c r="CS125" s="32">
         <v>62.942525479858865</v>
       </c>
-      <c r="CT125" s="35">
+      <c r="CT125" s="32">
         <v>55.953602698450489</v>
       </c>
-      <c r="CU125" s="35">
+      <c r="CU125" s="32">
         <v>61.087696252129106</v>
       </c>
-      <c r="CV125" s="35">
-        <v>61.594360744758738</v>
-      </c>
-      <c r="CW125" s="11"/>
+      <c r="CV125" s="32">
+        <v>61.396274889340454</v>
+      </c>
+      <c r="CW125" s="32">
+        <v>62.913603984088383</v>
+      </c>
       <c r="CX125" s="11"/>
       <c r="CY125" s="11"/>
       <c r="CZ125" s="11"/>
@@ -43484,28 +43641,30 @@
       <c r="CO126" s="18">
         <v>36.445112552147485</v>
       </c>
-      <c r="CP126" s="35">
+      <c r="CP126" s="32">
         <v>42.511690984854553</v>
       </c>
-      <c r="CQ126" s="35">
+      <c r="CQ126" s="32">
         <v>38.551785238447096</v>
       </c>
-      <c r="CR126" s="35">
+      <c r="CR126" s="32">
         <v>38.762298962845257</v>
       </c>
-      <c r="CS126" s="35">
+      <c r="CS126" s="32">
         <v>37.057474520141135</v>
       </c>
-      <c r="CT126" s="35">
+      <c r="CT126" s="32">
         <v>44.046397301549511</v>
       </c>
-      <c r="CU126" s="35">
+      <c r="CU126" s="32">
         <v>38.912303747870894</v>
       </c>
-      <c r="CV126" s="35">
-        <v>38.405639255241262</v>
-      </c>
-      <c r="CW126" s="11"/>
+      <c r="CV126" s="32">
+        <v>38.603725110659546</v>
+      </c>
+      <c r="CW126" s="32">
+        <v>37.086396015911603</v>
+      </c>
       <c r="CX126" s="11"/>
       <c r="CY126" s="11"/>
       <c r="CZ126" s="11"/>
@@ -43654,14 +43813,14 @@
       <c r="CM127" s="17"/>
       <c r="CN127" s="17"/>
       <c r="CO127" s="17"/>
-      <c r="CP127" s="33"/>
-      <c r="CQ127" s="33"/>
-      <c r="CR127" s="33"/>
-      <c r="CS127" s="33"/>
-      <c r="CT127" s="33"/>
-      <c r="CU127" s="33"/>
-      <c r="CV127" s="33"/>
-      <c r="CW127" s="11"/>
+      <c r="CP127" s="30"/>
+      <c r="CQ127" s="30"/>
+      <c r="CR127" s="30"/>
+      <c r="CS127" s="30"/>
+      <c r="CT127" s="30"/>
+      <c r="CU127" s="30"/>
+      <c r="CV127" s="30"/>
+      <c r="CW127" s="30"/>
       <c r="CX127" s="11"/>
       <c r="CY127" s="11"/>
       <c r="CZ127" s="11"/>
@@ -43997,28 +44156,30 @@
       <c r="CO128" s="18">
         <v>100</v>
       </c>
-      <c r="CP128" s="35">
+      <c r="CP128" s="32">
         <v>100</v>
       </c>
-      <c r="CQ128" s="35">
+      <c r="CQ128" s="32">
         <v>100</v>
       </c>
-      <c r="CR128" s="35">
+      <c r="CR128" s="32">
         <v>100</v>
       </c>
-      <c r="CS128" s="35">
+      <c r="CS128" s="32">
         <v>100</v>
       </c>
-      <c r="CT128" s="35">
+      <c r="CT128" s="32">
         <v>100</v>
       </c>
-      <c r="CU128" s="35">
+      <c r="CU128" s="32">
         <v>100</v>
       </c>
-      <c r="CV128" s="35">
+      <c r="CV128" s="32">
         <v>100</v>
       </c>
-      <c r="CW128" s="11"/>
+      <c r="CW128" s="32">
+        <v>100</v>
+      </c>
       <c r="CX128" s="11"/>
       <c r="CY128" s="11"/>
       <c r="CZ128" s="11"/>
@@ -44074,7 +44235,7 @@
       <c r="EX128" s="11"/>
       <c r="EY128" s="11"/>
     </row>
-    <row r="129" spans="1:100" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:101" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="15"/>
       <c r="B129" s="15"/>
       <c r="C129" s="15"/>
@@ -44168,15 +44329,16 @@
       <c r="CM129" s="15"/>
       <c r="CN129" s="15"/>
       <c r="CO129" s="15"/>
-      <c r="CP129" s="32"/>
-      <c r="CQ129" s="32"/>
-      <c r="CR129" s="32"/>
-      <c r="CS129" s="32"/>
-      <c r="CT129" s="32"/>
-      <c r="CU129" s="32"/>
-      <c r="CV129" s="32"/>
+      <c r="CP129" s="29"/>
+      <c r="CQ129" s="29"/>
+      <c r="CR129" s="29"/>
+      <c r="CS129" s="29"/>
+      <c r="CT129" s="29"/>
+      <c r="CU129" s="29"/>
+      <c r="CV129" s="29"/>
+      <c r="CW129" s="29"/>
     </row>
-    <row r="130" spans="1:100" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:101" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="16" t="s">
         <v>0</v>
       </c>
@@ -44272,30 +44434,146 @@
       <c r="CM130" s="1"/>
       <c r="CN130" s="1"/>
       <c r="CO130" s="1"/>
-      <c r="CP130" s="27"/>
-      <c r="CQ130" s="27"/>
-      <c r="CR130" s="27"/>
-      <c r="CS130" s="27"/>
-      <c r="CT130" s="27"/>
-      <c r="CU130" s="27"/>
-      <c r="CV130" s="27"/>
+      <c r="CP130" s="24"/>
+      <c r="CQ130" s="24"/>
+      <c r="CR130" s="24"/>
+      <c r="CS130" s="24"/>
+      <c r="CT130" s="24"/>
+      <c r="CU130" s="24"/>
+      <c r="CV130" s="24"/>
+      <c r="CW130" s="24"/>
+    </row>
+    <row r="131" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CT131" s="39"/>
+      <c r="CU131" s="39"/>
+      <c r="CV131" s="39"/>
+    </row>
+    <row r="132" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CT132" s="39"/>
+      <c r="CU132" s="39"/>
+      <c r="CV132" s="39"/>
+    </row>
+    <row r="133" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CT133" s="39"/>
+      <c r="CU133" s="39"/>
+      <c r="CV133" s="39"/>
+    </row>
+    <row r="134" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="CT134" s="39"/>
+      <c r="CU134" s="39"/>
+      <c r="CV134" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="BZ28:CC28"/>
-    <mergeCell ref="BZ47:CC47"/>
-    <mergeCell ref="BZ66:CC66"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD122:CG122"/>
-    <mergeCell ref="CD103:CG103"/>
-    <mergeCell ref="CD84:CG84"/>
-    <mergeCell ref="CD28:CG28"/>
-    <mergeCell ref="BZ103:CC103"/>
-    <mergeCell ref="BZ84:CC84"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BZ122:CC122"/>
-    <mergeCell ref="CD47:CG47"/>
-    <mergeCell ref="CD66:CG66"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="BR122:BU122"/>
+    <mergeCell ref="BV122:BY122"/>
+    <mergeCell ref="BV66:BY66"/>
+    <mergeCell ref="BR66:BU66"/>
+    <mergeCell ref="BR84:BU84"/>
+    <mergeCell ref="BR103:BU103"/>
+    <mergeCell ref="AX66:BA66"/>
+    <mergeCell ref="BB66:BE66"/>
+    <mergeCell ref="BF66:BI66"/>
+    <mergeCell ref="BJ66:BM66"/>
+    <mergeCell ref="BN66:BQ66"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="AP47:AS47"/>
+    <mergeCell ref="AT47:AW47"/>
+    <mergeCell ref="AX47:BA47"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="R66:U66"/>
+    <mergeCell ref="AL66:AO66"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="BB28:BE28"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="BB47:BE47"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="V28:Y28"/>
+    <mergeCell ref="Z28:AC28"/>
+    <mergeCell ref="AT28:AW28"/>
+    <mergeCell ref="AX28:BA28"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="R47:U47"/>
+    <mergeCell ref="V47:Y47"/>
+    <mergeCell ref="Z47:AC47"/>
+    <mergeCell ref="AD47:AG47"/>
+    <mergeCell ref="AH47:AK47"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="V84:Y84"/>
+    <mergeCell ref="AL122:AO122"/>
+    <mergeCell ref="AP122:AS122"/>
+    <mergeCell ref="AP66:AS66"/>
+    <mergeCell ref="AH28:AK28"/>
+    <mergeCell ref="AL28:AO28"/>
+    <mergeCell ref="AL47:AO47"/>
+    <mergeCell ref="AP28:AS28"/>
+    <mergeCell ref="AT122:AW122"/>
+    <mergeCell ref="N122:Q122"/>
+    <mergeCell ref="R122:U122"/>
+    <mergeCell ref="V122:Y122"/>
+    <mergeCell ref="Z122:AC122"/>
+    <mergeCell ref="AD122:AG122"/>
+    <mergeCell ref="AH122:AK122"/>
+    <mergeCell ref="V66:Y66"/>
+    <mergeCell ref="Z66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AK66"/>
+    <mergeCell ref="Z84:AC84"/>
+    <mergeCell ref="AD84:AG84"/>
+    <mergeCell ref="AH84:AK84"/>
+    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="AT66:AW66"/>
+    <mergeCell ref="AX122:BA122"/>
+    <mergeCell ref="BB122:BE122"/>
+    <mergeCell ref="BN84:BQ84"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="J103:M103"/>
+    <mergeCell ref="N103:Q103"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="V103:Y103"/>
+    <mergeCell ref="Z103:AC103"/>
+    <mergeCell ref="AD103:AG103"/>
+    <mergeCell ref="AH103:AK103"/>
+    <mergeCell ref="AL103:AO103"/>
+    <mergeCell ref="AP103:AS103"/>
+    <mergeCell ref="AT103:AW103"/>
+    <mergeCell ref="AX103:BA103"/>
+    <mergeCell ref="BB103:BE103"/>
+    <mergeCell ref="BF103:BI103"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="AX84:BA84"/>
+    <mergeCell ref="BB84:BE84"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:M122"/>
     <mergeCell ref="BF122:BI122"/>
     <mergeCell ref="BJ122:BM122"/>
     <mergeCell ref="BN122:BQ122"/>
@@ -44320,124 +44598,29 @@
     <mergeCell ref="BN47:BQ47"/>
     <mergeCell ref="BF47:BI47"/>
     <mergeCell ref="BR47:BU47"/>
-    <mergeCell ref="AX122:BA122"/>
-    <mergeCell ref="BB122:BE122"/>
-    <mergeCell ref="BN84:BQ84"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="J103:M103"/>
-    <mergeCell ref="N103:Q103"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="V103:Y103"/>
-    <mergeCell ref="Z103:AC103"/>
-    <mergeCell ref="AD103:AG103"/>
-    <mergeCell ref="AH103:AK103"/>
-    <mergeCell ref="AL103:AO103"/>
-    <mergeCell ref="AP103:AS103"/>
-    <mergeCell ref="AT103:AW103"/>
-    <mergeCell ref="AX103:BA103"/>
-    <mergeCell ref="BB103:BE103"/>
-    <mergeCell ref="BF103:BI103"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="BB84:BE84"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="AT122:AW122"/>
-    <mergeCell ref="N122:Q122"/>
-    <mergeCell ref="R122:U122"/>
-    <mergeCell ref="V122:Y122"/>
-    <mergeCell ref="Z122:AC122"/>
-    <mergeCell ref="AD122:AG122"/>
-    <mergeCell ref="AH122:AK122"/>
-    <mergeCell ref="V66:Y66"/>
-    <mergeCell ref="Z66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AK66"/>
-    <mergeCell ref="Z84:AC84"/>
-    <mergeCell ref="AD84:AG84"/>
-    <mergeCell ref="AH84:AK84"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="AT66:AW66"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="V84:Y84"/>
-    <mergeCell ref="AL122:AO122"/>
-    <mergeCell ref="AP122:AS122"/>
-    <mergeCell ref="AP66:AS66"/>
-    <mergeCell ref="AH28:AK28"/>
-    <mergeCell ref="AL28:AO28"/>
-    <mergeCell ref="AL47:AO47"/>
-    <mergeCell ref="AP28:AS28"/>
-    <mergeCell ref="AT28:AW28"/>
-    <mergeCell ref="AX28:BA28"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="R47:U47"/>
-    <mergeCell ref="V47:Y47"/>
-    <mergeCell ref="Z47:AC47"/>
-    <mergeCell ref="AD47:AG47"/>
-    <mergeCell ref="AH47:AK47"/>
-    <mergeCell ref="BB28:BE28"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="BB47:BE47"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="V28:Y28"/>
-    <mergeCell ref="Z28:AC28"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="BR122:BU122"/>
-    <mergeCell ref="BV122:BY122"/>
-    <mergeCell ref="BV66:BY66"/>
-    <mergeCell ref="BR66:BU66"/>
-    <mergeCell ref="BR84:BU84"/>
-    <mergeCell ref="BR103:BU103"/>
-    <mergeCell ref="AX66:BA66"/>
-    <mergeCell ref="BB66:BE66"/>
-    <mergeCell ref="BF66:BI66"/>
-    <mergeCell ref="BJ66:BM66"/>
-    <mergeCell ref="BN66:BQ66"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="AP47:AS47"/>
-    <mergeCell ref="AT47:AW47"/>
-    <mergeCell ref="AX47:BA47"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="N66:Q66"/>
-    <mergeCell ref="R66:U66"/>
-    <mergeCell ref="AL66:AO66"/>
-    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="BZ28:CC28"/>
+    <mergeCell ref="BZ47:CC47"/>
+    <mergeCell ref="BZ66:CC66"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD122:CG122"/>
+    <mergeCell ref="CD103:CG103"/>
+    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="CD28:CG28"/>
+    <mergeCell ref="BZ103:CC103"/>
+    <mergeCell ref="BZ84:CC84"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BZ122:CC122"/>
+    <mergeCell ref="CD47:CG47"/>
+    <mergeCell ref="CD66:CG66"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="99" man="1"/>
-    <brk id="76" max="99" man="1"/>
-    <brk id="94" max="99" man="1"/>
+    <brk id="38" max="100" man="1"/>
+    <brk id="76" max="100" man="1"/>
+    <brk id="94" max="100" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-21OS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-21OS_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2025\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD012670-91D9-49EE-B210-9BF1A007CAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098D9226-2923-48FC-978E-24CD96D85AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">OS!$A$1:$CW$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">OS!$A$1:$CX$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="54">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -621,13 +621,16 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2024</t>
+    <t>2024 - 2025</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2024</t>
+    <t>Q1 2000 to Q1 2025</t>
   </si>
   <si>
-    <t>As of January 2025</t>
+    <t>Q1 2001 to Q1 2025</t>
+  </si>
+  <si>
+    <t>As of May 2025</t>
   </si>
 </sst>
 </file>
@@ -732,7 +735,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -796,9 +799,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -23669,26 +23669,30 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:EY134"/>
+  <dimension ref="A1:EY130"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="CI1" activePane="topRight" state="frozen"/>
       <selection activeCell="CE141" sqref="CA141:CE149"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="CX1" sqref="CX1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.88671875" style="1" customWidth="1"/>
-    <col min="2" max="93" width="9" style="12" customWidth="1"/>
-    <col min="94" max="101" width="10.109375" style="34" customWidth="1"/>
-    <col min="102" max="16384" width="7.77734375" style="12"/>
+    <col min="2" max="89" width="9" style="12" customWidth="1"/>
+    <col min="90" max="102" width="10.109375" style="34" customWidth="1"/>
+    <col min="103" max="16384" width="7.77734375" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CL1" s="23"/>
+      <c r="CM1" s="23"/>
+      <c r="CN1" s="23"/>
+      <c r="CO1" s="23"/>
       <c r="CP1" s="23"/>
       <c r="CQ1" s="23"/>
       <c r="CR1" s="23"/>
@@ -23697,11 +23701,16 @@
       <c r="CU1" s="23"/>
       <c r="CV1" s="23"/>
       <c r="CW1" s="23"/>
+      <c r="CX1" s="23"/>
     </row>
     <row r="2" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="CL2" s="23"/>
+      <c r="CM2" s="23"/>
+      <c r="CN2" s="23"/>
+      <c r="CO2" s="23"/>
       <c r="CP2" s="23"/>
       <c r="CQ2" s="23"/>
       <c r="CR2" s="23"/>
@@ -23710,11 +23719,16 @@
       <c r="CU2" s="23"/>
       <c r="CV2" s="23"/>
       <c r="CW2" s="23"/>
+      <c r="CX2" s="23"/>
     </row>
     <row r="3" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>52</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="CL3" s="23"/>
+      <c r="CM3" s="23"/>
+      <c r="CN3" s="23"/>
+      <c r="CO3" s="23"/>
       <c r="CP3" s="23"/>
       <c r="CQ3" s="23"/>
       <c r="CR3" s="23"/>
@@ -23723,9 +23737,14 @@
       <c r="CU3" s="23"/>
       <c r="CV3" s="23"/>
       <c r="CW3" s="23"/>
+      <c r="CX3" s="23"/>
     </row>
     <row r="4" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
+      <c r="CL4" s="23"/>
+      <c r="CM4" s="23"/>
+      <c r="CN4" s="23"/>
+      <c r="CO4" s="23"/>
       <c r="CP4" s="23"/>
       <c r="CQ4" s="23"/>
       <c r="CR4" s="23"/>
@@ -23734,11 +23753,16 @@
       <c r="CU4" s="23"/>
       <c r="CV4" s="23"/>
       <c r="CW4" s="23"/>
+      <c r="CX4" s="23"/>
     </row>
     <row r="5" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="CL5" s="23"/>
+      <c r="CM5" s="23"/>
+      <c r="CN5" s="23"/>
+      <c r="CO5" s="23"/>
       <c r="CP5" s="23"/>
       <c r="CQ5" s="23"/>
       <c r="CR5" s="23"/>
@@ -23747,11 +23771,16 @@
       <c r="CU5" s="23"/>
       <c r="CV5" s="23"/>
       <c r="CW5" s="23"/>
+      <c r="CX5" s="23"/>
     </row>
     <row r="6" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>50</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="CL6" s="23"/>
+      <c r="CM6" s="23"/>
+      <c r="CN6" s="23"/>
+      <c r="CO6" s="23"/>
       <c r="CP6" s="23"/>
       <c r="CQ6" s="23"/>
       <c r="CR6" s="23"/>
@@ -23760,11 +23789,16 @@
       <c r="CU6" s="23"/>
       <c r="CV6" s="23"/>
       <c r="CW6" s="23"/>
+      <c r="CX6" s="23"/>
     </row>
     <row r="7" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="CL7" s="23"/>
+      <c r="CM7" s="23"/>
+      <c r="CN7" s="23"/>
+      <c r="CO7" s="23"/>
       <c r="CP7" s="23"/>
       <c r="CQ7" s="23"/>
       <c r="CR7" s="23"/>
@@ -23773,6 +23807,7 @@
       <c r="CU7" s="23"/>
       <c r="CV7" s="23"/>
       <c r="CW7" s="23"/>
+      <c r="CX7" s="23"/>
     </row>
     <row r="8" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
@@ -23864,10 +23899,10 @@
       <c r="CI8" s="1"/>
       <c r="CJ8" s="1"/>
       <c r="CK8" s="1"/>
-      <c r="CL8" s="1"/>
-      <c r="CM8" s="1"/>
-      <c r="CN8" s="1"/>
-      <c r="CO8" s="1"/>
+      <c r="CL8" s="24"/>
+      <c r="CM8" s="24"/>
+      <c r="CN8" s="24"/>
+      <c r="CO8" s="24"/>
       <c r="CP8" s="24"/>
       <c r="CQ8" s="24"/>
       <c r="CR8" s="24"/>
@@ -23876,147 +23911,148 @@
       <c r="CU8" s="24"/>
       <c r="CV8" s="24"/>
       <c r="CW8" s="24"/>
+      <c r="CX8" s="24"/>
     </row>
     <row r="9" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="40">
+      <c r="B9" s="39">
         <v>2000</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40">
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39">
         <v>2001</v>
       </c>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40">
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39">
         <v>2002</v>
       </c>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40">
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39">
         <v>2003</v>
       </c>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40">
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39">
         <v>2004</v>
       </c>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40">
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
+      <c r="V9" s="39">
         <v>2005</v>
       </c>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40">
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="39">
         <v>2006</v>
       </c>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="40">
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="39">
         <v>2007</v>
       </c>
-      <c r="AE9" s="40"/>
-      <c r="AF9" s="40"/>
-      <c r="AG9" s="40"/>
-      <c r="AH9" s="40">
+      <c r="AE9" s="39"/>
+      <c r="AF9" s="39"/>
+      <c r="AG9" s="39"/>
+      <c r="AH9" s="39">
         <v>2008</v>
       </c>
-      <c r="AI9" s="40"/>
-      <c r="AJ9" s="40"/>
-      <c r="AK9" s="40"/>
-      <c r="AL9" s="40">
+      <c r="AI9" s="39"/>
+      <c r="AJ9" s="39"/>
+      <c r="AK9" s="39"/>
+      <c r="AL9" s="39">
         <v>2009</v>
       </c>
-      <c r="AM9" s="40"/>
-      <c r="AN9" s="40"/>
-      <c r="AO9" s="40"/>
-      <c r="AP9" s="40">
+      <c r="AM9" s="39"/>
+      <c r="AN9" s="39"/>
+      <c r="AO9" s="39"/>
+      <c r="AP9" s="39">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="40"/>
-      <c r="AR9" s="40"/>
-      <c r="AS9" s="40"/>
-      <c r="AT9" s="40">
+      <c r="AQ9" s="39"/>
+      <c r="AR9" s="39"/>
+      <c r="AS9" s="39"/>
+      <c r="AT9" s="39">
         <v>2011</v>
       </c>
-      <c r="AU9" s="40"/>
-      <c r="AV9" s="40"/>
-      <c r="AW9" s="40"/>
-      <c r="AX9" s="40">
+      <c r="AU9" s="39"/>
+      <c r="AV9" s="39"/>
+      <c r="AW9" s="39"/>
+      <c r="AX9" s="39">
         <v>2012</v>
       </c>
-      <c r="AY9" s="40"/>
-      <c r="AZ9" s="40"/>
-      <c r="BA9" s="40"/>
-      <c r="BB9" s="40">
+      <c r="AY9" s="39"/>
+      <c r="AZ9" s="39"/>
+      <c r="BA9" s="39"/>
+      <c r="BB9" s="39">
         <v>2013</v>
       </c>
-      <c r="BC9" s="40"/>
-      <c r="BD9" s="40"/>
-      <c r="BE9" s="40"/>
-      <c r="BF9" s="40">
+      <c r="BC9" s="39"/>
+      <c r="BD9" s="39"/>
+      <c r="BE9" s="39"/>
+      <c r="BF9" s="39">
         <v>2014</v>
       </c>
-      <c r="BG9" s="40"/>
-      <c r="BH9" s="40"/>
-      <c r="BI9" s="40"/>
-      <c r="BJ9" s="40">
+      <c r="BG9" s="39"/>
+      <c r="BH9" s="39"/>
+      <c r="BI9" s="39"/>
+      <c r="BJ9" s="39">
         <v>2015</v>
       </c>
-      <c r="BK9" s="40"/>
-      <c r="BL9" s="40"/>
-      <c r="BM9" s="40"/>
-      <c r="BN9" s="40">
+      <c r="BK9" s="39"/>
+      <c r="BL9" s="39"/>
+      <c r="BM9" s="39"/>
+      <c r="BN9" s="39">
         <v>2016</v>
       </c>
-      <c r="BO9" s="40"/>
-      <c r="BP9" s="40"/>
-      <c r="BQ9" s="40"/>
-      <c r="BR9" s="40">
+      <c r="BO9" s="39"/>
+      <c r="BP9" s="39"/>
+      <c r="BQ9" s="39"/>
+      <c r="BR9" s="39">
         <v>2017</v>
       </c>
-      <c r="BS9" s="40"/>
-      <c r="BT9" s="40"/>
-      <c r="BU9" s="40"/>
-      <c r="BV9" s="40">
+      <c r="BS9" s="39"/>
+      <c r="BT9" s="39"/>
+      <c r="BU9" s="39"/>
+      <c r="BV9" s="39">
         <v>2018</v>
       </c>
-      <c r="BW9" s="40"/>
-      <c r="BX9" s="40"/>
-      <c r="BY9" s="40"/>
-      <c r="BZ9" s="40">
+      <c r="BW9" s="39"/>
+      <c r="BX9" s="39"/>
+      <c r="BY9" s="39"/>
+      <c r="BZ9" s="39">
         <v>2019</v>
       </c>
-      <c r="CA9" s="40"/>
-      <c r="CB9" s="40"/>
-      <c r="CC9" s="40"/>
-      <c r="CD9" s="40">
+      <c r="CA9" s="39"/>
+      <c r="CB9" s="39"/>
+      <c r="CC9" s="39"/>
+      <c r="CD9" s="39">
         <v>2020</v>
       </c>
-      <c r="CE9" s="40"/>
-      <c r="CF9" s="40"/>
-      <c r="CG9" s="40"/>
+      <c r="CE9" s="39"/>
+      <c r="CF9" s="39"/>
+      <c r="CG9" s="39"/>
       <c r="CH9" s="21">
         <v>2021</v>
       </c>
       <c r="CI9" s="21"/>
       <c r="CJ9" s="21"/>
       <c r="CK9" s="21"/>
-      <c r="CL9" s="21">
+      <c r="CL9" s="25">
         <v>2022</v>
       </c>
-      <c r="CM9" s="21"/>
-      <c r="CN9" s="21"/>
-      <c r="CO9" s="21"/>
+      <c r="CM9" s="25"/>
+      <c r="CN9" s="25"/>
+      <c r="CO9" s="25"/>
       <c r="CP9" s="25">
         <v>2023</v>
       </c>
@@ -24029,6 +24065,9 @@
       <c r="CU9" s="25"/>
       <c r="CV9" s="25"/>
       <c r="CW9" s="25"/>
+      <c r="CX9" s="25">
+        <v>2025</v>
+      </c>
     </row>
     <row r="10" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24298,16 +24337,16 @@
       <c r="CK10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL10" s="7" t="s">
+      <c r="CL10" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="CM10" s="7" t="s">
+      <c r="CM10" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="CN10" s="7" t="s">
+      <c r="CN10" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="CO10" s="7" t="s">
+      <c r="CO10" s="26" t="s">
         <v>9</v>
       </c>
       <c r="CP10" s="26" t="s">
@@ -24333,6 +24372,9 @@
       </c>
       <c r="CW10" s="26" t="s">
         <v>9</v>
+      </c>
+      <c r="CX10" s="26" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24425,10 +24467,10 @@
       <c r="CI11" s="1"/>
       <c r="CJ11" s="1"/>
       <c r="CK11" s="1"/>
-      <c r="CL11" s="1"/>
-      <c r="CM11" s="1"/>
-      <c r="CN11" s="1"/>
-      <c r="CO11" s="1"/>
+      <c r="CL11" s="24"/>
+      <c r="CM11" s="24"/>
+      <c r="CN11" s="24"/>
+      <c r="CO11" s="24"/>
       <c r="CP11" s="24"/>
       <c r="CQ11" s="24"/>
       <c r="CR11" s="24"/>
@@ -24437,6 +24479,7 @@
       <c r="CU11" s="24"/>
       <c r="CV11" s="24"/>
       <c r="CW11" s="24"/>
+      <c r="CX11" s="24"/>
     </row>
     <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
@@ -24706,43 +24749,45 @@
       <c r="CK12" s="19">
         <v>58285.980798410397</v>
       </c>
-      <c r="CL12" s="19">
+      <c r="CL12" s="27">
         <v>44173.675810148183</v>
       </c>
-      <c r="CM12" s="19">
+      <c r="CM12" s="27">
         <v>52336.697097351629</v>
       </c>
-      <c r="CN12" s="19">
+      <c r="CN12" s="27">
         <v>48393.85985333407</v>
       </c>
-      <c r="CO12" s="19">
+      <c r="CO12" s="27">
         <v>72267.957904806448</v>
       </c>
       <c r="CP12" s="27">
         <v>65749.128528322341</v>
       </c>
       <c r="CQ12" s="27">
-        <v>66475.807090737624</v>
+        <v>66510.070080741629</v>
       </c>
       <c r="CR12" s="27">
-        <v>58888.090068404897</v>
+        <v>58891.271350227245</v>
       </c>
       <c r="CS12" s="27">
-        <v>84049.154344747789</v>
+        <v>84003.445414672708</v>
       </c>
       <c r="CT12" s="27">
-        <v>72794.250572686855</v>
+        <v>72750.098324433609</v>
       </c>
       <c r="CU12" s="27">
-        <v>75737.872164926506</v>
+        <v>76123.892626366651</v>
       </c>
       <c r="CV12" s="27">
-        <v>64982.99616105239</v>
+        <v>64857.718869335586</v>
       </c>
       <c r="CW12" s="27">
-        <v>95282.256733273156</v>
-      </c>
-      <c r="CX12" s="11"/>
+        <v>96262.725847254798</v>
+      </c>
+      <c r="CX12" s="27">
+        <v>81521.424747279088</v>
+      </c>
       <c r="CY12" s="11"/>
       <c r="CZ12" s="11"/>
       <c r="DA12" s="11"/>
@@ -25065,43 +25110,45 @@
       <c r="CK13" s="19">
         <v>36649.135463693521</v>
       </c>
-      <c r="CL13" s="19">
+      <c r="CL13" s="27">
         <v>39252.941872004769</v>
       </c>
-      <c r="CM13" s="19">
+      <c r="CM13" s="27">
         <v>34160.428620436011</v>
       </c>
-      <c r="CN13" s="19">
+      <c r="CN13" s="27">
         <v>31982.631887974203</v>
       </c>
-      <c r="CO13" s="19">
+      <c r="CO13" s="27">
         <v>43550.06055180906</v>
       </c>
       <c r="CP13" s="27">
         <v>53563.929716224739</v>
       </c>
       <c r="CQ13" s="27">
-        <v>44669.943711267093</v>
+        <v>44275.294885702322</v>
       </c>
       <c r="CR13" s="27">
-        <v>39262.494450357262</v>
+        <v>38974.44305383983</v>
       </c>
       <c r="CS13" s="27">
-        <v>53053.825725400275</v>
+        <v>52534.47595100246</v>
       </c>
       <c r="CT13" s="27">
-        <v>63630.838798680183</v>
+        <v>63655.184374300108</v>
       </c>
       <c r="CU13" s="27">
-        <v>51627.400508442821</v>
+        <v>51296.819119411579</v>
       </c>
       <c r="CV13" s="27">
-        <v>43259.888662912461</v>
+        <v>42623.6871291563</v>
       </c>
       <c r="CW13" s="27">
-        <v>60946.594742236965</v>
-      </c>
-      <c r="CX13" s="11"/>
+        <v>59898.361376499568</v>
+      </c>
+      <c r="CX13" s="27">
+        <v>69188.363671401661</v>
+      </c>
       <c r="CY13" s="11"/>
       <c r="CZ13" s="11"/>
       <c r="DA13" s="11"/>
@@ -25245,10 +25292,10 @@
       <c r="CI14" s="20"/>
       <c r="CJ14" s="20"/>
       <c r="CK14" s="20"/>
-      <c r="CL14" s="20"/>
-      <c r="CM14" s="20"/>
-      <c r="CN14" s="20"/>
-      <c r="CO14" s="20"/>
+      <c r="CL14" s="28"/>
+      <c r="CM14" s="28"/>
+      <c r="CN14" s="28"/>
+      <c r="CO14" s="28"/>
       <c r="CP14" s="28"/>
       <c r="CQ14" s="28"/>
       <c r="CR14" s="28"/>
@@ -25257,7 +25304,7 @@
       <c r="CU14" s="28"/>
       <c r="CV14" s="28"/>
       <c r="CW14" s="28"/>
-      <c r="CX14" s="11"/>
+      <c r="CX14" s="28"/>
       <c r="CY14" s="11"/>
       <c r="CZ14" s="11"/>
       <c r="DA14" s="11"/>
@@ -25580,43 +25627,45 @@
       <c r="CK15" s="20">
         <v>94935.116262103926</v>
       </c>
-      <c r="CL15" s="20">
+      <c r="CL15" s="28">
         <v>83426.617682152952</v>
       </c>
-      <c r="CM15" s="20">
+      <c r="CM15" s="28">
         <v>86497.12571778764</v>
       </c>
-      <c r="CN15" s="20">
+      <c r="CN15" s="28">
         <v>80376.491741308273</v>
       </c>
-      <c r="CO15" s="20">
+      <c r="CO15" s="28">
         <v>115818.01845661551</v>
       </c>
       <c r="CP15" s="28">
         <v>119313.05824454708</v>
       </c>
       <c r="CQ15" s="28">
-        <v>111145.75080200471</v>
+        <v>110785.36496644394</v>
       </c>
       <c r="CR15" s="28">
-        <v>98150.58451876216</v>
+        <v>97865.714404067083</v>
       </c>
       <c r="CS15" s="28">
-        <v>137102.98007014807</v>
+        <v>136537.92136567517</v>
       </c>
       <c r="CT15" s="28">
-        <v>136425.08937136704</v>
+        <v>136405.28269873373</v>
       </c>
       <c r="CU15" s="28">
-        <v>127365.27267336933</v>
+        <v>127420.71174577823</v>
       </c>
       <c r="CV15" s="28">
-        <v>108242.88482396485</v>
+        <v>107481.40599849189</v>
       </c>
       <c r="CW15" s="28">
-        <v>156228.85147551011</v>
-      </c>
-      <c r="CX15" s="11"/>
+        <v>156161.08722375438</v>
+      </c>
+      <c r="CX15" s="28">
+        <v>150709.78841868075</v>
+      </c>
       <c r="CY15" s="11"/>
       <c r="CZ15" s="11"/>
       <c r="DA15" s="11"/>
@@ -25761,10 +25810,10 @@
       <c r="CI16" s="15"/>
       <c r="CJ16" s="15"/>
       <c r="CK16" s="15"/>
-      <c r="CL16" s="15"/>
-      <c r="CM16" s="15"/>
-      <c r="CN16" s="15"/>
-      <c r="CO16" s="15"/>
+      <c r="CL16" s="29"/>
+      <c r="CM16" s="29"/>
+      <c r="CN16" s="29"/>
+      <c r="CO16" s="29"/>
       <c r="CP16" s="29"/>
       <c r="CQ16" s="29"/>
       <c r="CR16" s="29"/>
@@ -25773,6 +25822,7 @@
       <c r="CU16" s="29"/>
       <c r="CV16" s="29"/>
       <c r="CW16" s="29"/>
+      <c r="CX16" s="29"/>
     </row>
     <row r="17" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
@@ -25866,10 +25916,10 @@
       <c r="CI17" s="1"/>
       <c r="CJ17" s="1"/>
       <c r="CK17" s="1"/>
-      <c r="CL17" s="1"/>
-      <c r="CM17" s="1"/>
-      <c r="CN17" s="1"/>
-      <c r="CO17" s="1"/>
+      <c r="CL17" s="24"/>
+      <c r="CM17" s="24"/>
+      <c r="CN17" s="24"/>
+      <c r="CO17" s="24"/>
       <c r="CP17" s="24"/>
       <c r="CQ17" s="24"/>
       <c r="CR17" s="24"/>
@@ -25878,6 +25928,7 @@
       <c r="CU17" s="24"/>
       <c r="CV17" s="24"/>
       <c r="CW17" s="24"/>
+      <c r="CX17" s="24"/>
     </row>
     <row r="18" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="17"/>
@@ -25968,10 +26019,10 @@
       <c r="CI18" s="17"/>
       <c r="CJ18" s="17"/>
       <c r="CK18" s="17"/>
-      <c r="CL18" s="17"/>
-      <c r="CM18" s="17"/>
-      <c r="CN18" s="17"/>
-      <c r="CO18" s="17"/>
+      <c r="CL18" s="30"/>
+      <c r="CM18" s="30"/>
+      <c r="CN18" s="30"/>
+      <c r="CO18" s="30"/>
       <c r="CP18" s="30"/>
       <c r="CQ18" s="30"/>
       <c r="CR18" s="30"/>
@@ -25980,7 +26031,7 @@
       <c r="CU18" s="30"/>
       <c r="CV18" s="30"/>
       <c r="CW18" s="30"/>
-      <c r="CX18" s="11"/>
+      <c r="CX18" s="30"/>
       <c r="CY18" s="11"/>
       <c r="CZ18" s="11"/>
       <c r="DA18" s="11"/>
@@ -26124,10 +26175,10 @@
       <c r="CI19" s="17"/>
       <c r="CJ19" s="17"/>
       <c r="CK19" s="17"/>
-      <c r="CL19" s="17"/>
-      <c r="CM19" s="17"/>
-      <c r="CN19" s="17"/>
-      <c r="CO19" s="17"/>
+      <c r="CL19" s="30"/>
+      <c r="CM19" s="30"/>
+      <c r="CN19" s="30"/>
+      <c r="CO19" s="30"/>
       <c r="CP19" s="30"/>
       <c r="CQ19" s="30"/>
       <c r="CR19" s="30"/>
@@ -26136,7 +26187,7 @@
       <c r="CU19" s="30"/>
       <c r="CV19" s="30"/>
       <c r="CW19" s="30"/>
-      <c r="CX19" s="11"/>
+      <c r="CX19" s="30"/>
       <c r="CY19" s="11"/>
       <c r="CZ19" s="11"/>
       <c r="DA19" s="11"/>
@@ -26283,10 +26334,10 @@
       <c r="CI20" s="1"/>
       <c r="CJ20" s="1"/>
       <c r="CK20" s="1"/>
-      <c r="CL20" s="1"/>
-      <c r="CM20" s="1"/>
-      <c r="CN20" s="1"/>
-      <c r="CO20" s="1"/>
+      <c r="CL20" s="24"/>
+      <c r="CM20" s="24"/>
+      <c r="CN20" s="24"/>
+      <c r="CO20" s="24"/>
       <c r="CP20" s="24"/>
       <c r="CQ20" s="24"/>
       <c r="CR20" s="24"/>
@@ -26295,6 +26346,7 @@
       <c r="CU20" s="24"/>
       <c r="CV20" s="24"/>
       <c r="CW20" s="24"/>
+      <c r="CX20" s="24"/>
     </row>
     <row r="21" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -26388,10 +26440,10 @@
       <c r="CI21" s="1"/>
       <c r="CJ21" s="1"/>
       <c r="CK21" s="1"/>
-      <c r="CL21" s="1"/>
-      <c r="CM21" s="1"/>
-      <c r="CN21" s="1"/>
-      <c r="CO21" s="1"/>
+      <c r="CL21" s="24"/>
+      <c r="CM21" s="24"/>
+      <c r="CN21" s="24"/>
+      <c r="CO21" s="24"/>
       <c r="CP21" s="24"/>
       <c r="CQ21" s="24"/>
       <c r="CR21" s="24"/>
@@ -26400,10 +26452,11 @@
       <c r="CU21" s="24"/>
       <c r="CV21" s="24"/>
       <c r="CW21" s="24"/>
+      <c r="CX21" s="24"/>
     </row>
     <row r="22" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -26493,10 +26546,10 @@
       <c r="CI22" s="1"/>
       <c r="CJ22" s="1"/>
       <c r="CK22" s="1"/>
-      <c r="CL22" s="1"/>
-      <c r="CM22" s="1"/>
-      <c r="CN22" s="1"/>
-      <c r="CO22" s="1"/>
+      <c r="CL22" s="24"/>
+      <c r="CM22" s="24"/>
+      <c r="CN22" s="24"/>
+      <c r="CO22" s="24"/>
       <c r="CP22" s="24"/>
       <c r="CQ22" s="24"/>
       <c r="CR22" s="24"/>
@@ -26505,6 +26558,7 @@
       <c r="CU22" s="24"/>
       <c r="CV22" s="24"/>
       <c r="CW22" s="24"/>
+      <c r="CX22" s="24"/>
     </row>
     <row r="23" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
@@ -26596,10 +26650,10 @@
       <c r="CI23" s="1"/>
       <c r="CJ23" s="1"/>
       <c r="CK23" s="1"/>
-      <c r="CL23" s="1"/>
-      <c r="CM23" s="1"/>
-      <c r="CN23" s="1"/>
-      <c r="CO23" s="1"/>
+      <c r="CL23" s="24"/>
+      <c r="CM23" s="24"/>
+      <c r="CN23" s="24"/>
+      <c r="CO23" s="24"/>
       <c r="CP23" s="24"/>
       <c r="CQ23" s="24"/>
       <c r="CR23" s="24"/>
@@ -26608,6 +26662,7 @@
       <c r="CU23" s="24"/>
       <c r="CV23" s="24"/>
       <c r="CW23" s="24"/>
+      <c r="CX23" s="24"/>
     </row>
     <row r="24" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -26701,10 +26756,10 @@
       <c r="CI24" s="1"/>
       <c r="CJ24" s="1"/>
       <c r="CK24" s="1"/>
-      <c r="CL24" s="1"/>
-      <c r="CM24" s="1"/>
-      <c r="CN24" s="1"/>
-      <c r="CO24" s="1"/>
+      <c r="CL24" s="24"/>
+      <c r="CM24" s="24"/>
+      <c r="CN24" s="24"/>
+      <c r="CO24" s="24"/>
       <c r="CP24" s="24"/>
       <c r="CQ24" s="24"/>
       <c r="CR24" s="24"/>
@@ -26713,10 +26768,11 @@
       <c r="CU24" s="24"/>
       <c r="CV24" s="24"/>
       <c r="CW24" s="24"/>
+      <c r="CX24" s="24"/>
     </row>
     <row r="25" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -26806,10 +26862,10 @@
       <c r="CI25" s="1"/>
       <c r="CJ25" s="1"/>
       <c r="CK25" s="1"/>
-      <c r="CL25" s="1"/>
-      <c r="CM25" s="1"/>
-      <c r="CN25" s="1"/>
-      <c r="CO25" s="1"/>
+      <c r="CL25" s="24"/>
+      <c r="CM25" s="24"/>
+      <c r="CN25" s="24"/>
+      <c r="CO25" s="24"/>
       <c r="CP25" s="24"/>
       <c r="CQ25" s="24"/>
       <c r="CR25" s="24"/>
@@ -26818,6 +26874,7 @@
       <c r="CU25" s="24"/>
       <c r="CV25" s="24"/>
       <c r="CW25" s="24"/>
+      <c r="CX25" s="24"/>
     </row>
     <row r="26" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -26911,10 +26968,10 @@
       <c r="CI26" s="1"/>
       <c r="CJ26" s="1"/>
       <c r="CK26" s="1"/>
-      <c r="CL26" s="1"/>
-      <c r="CM26" s="1"/>
-      <c r="CN26" s="1"/>
-      <c r="CO26" s="1"/>
+      <c r="CL26" s="24"/>
+      <c r="CM26" s="24"/>
+      <c r="CN26" s="24"/>
+      <c r="CO26" s="24"/>
       <c r="CP26" s="24"/>
       <c r="CQ26" s="24"/>
       <c r="CR26" s="24"/>
@@ -26923,6 +26980,7 @@
       <c r="CU26" s="24"/>
       <c r="CV26" s="24"/>
       <c r="CW26" s="24"/>
+      <c r="CX26" s="24"/>
     </row>
     <row r="27" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
@@ -27014,10 +27072,10 @@
       <c r="CI27" s="1"/>
       <c r="CJ27" s="1"/>
       <c r="CK27" s="1"/>
-      <c r="CL27" s="1"/>
-      <c r="CM27" s="1"/>
-      <c r="CN27" s="1"/>
-      <c r="CO27" s="1"/>
+      <c r="CL27" s="24"/>
+      <c r="CM27" s="24"/>
+      <c r="CN27" s="24"/>
+      <c r="CO27" s="24"/>
       <c r="CP27" s="24"/>
       <c r="CQ27" s="24"/>
       <c r="CR27" s="24"/>
@@ -27026,147 +27084,148 @@
       <c r="CU27" s="24"/>
       <c r="CV27" s="24"/>
       <c r="CW27" s="24"/>
+      <c r="CX27" s="24"/>
     </row>
     <row r="28" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
-      <c r="B28" s="40">
+      <c r="B28" s="39">
         <v>2000</v>
       </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="40">
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="39">
         <v>2001</v>
       </c>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="40">
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="39">
         <v>2002</v>
       </c>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="40">
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="39">
         <v>2003</v>
       </c>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="40">
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="39">
         <v>2004</v>
       </c>
-      <c r="S28" s="41"/>
-      <c r="T28" s="41"/>
-      <c r="U28" s="41"/>
-      <c r="V28" s="40">
+      <c r="S28" s="40"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="39">
         <v>2005</v>
       </c>
-      <c r="W28" s="41"/>
-      <c r="X28" s="41"/>
-      <c r="Y28" s="41"/>
-      <c r="Z28" s="40">
+      <c r="W28" s="40"/>
+      <c r="X28" s="40"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="39">
         <v>2006</v>
       </c>
-      <c r="AA28" s="41"/>
-      <c r="AB28" s="41"/>
-      <c r="AC28" s="41"/>
-      <c r="AD28" s="40">
+      <c r="AA28" s="40"/>
+      <c r="AB28" s="40"/>
+      <c r="AC28" s="40"/>
+      <c r="AD28" s="39">
         <v>2007</v>
       </c>
-      <c r="AE28" s="41"/>
-      <c r="AF28" s="41"/>
-      <c r="AG28" s="41"/>
-      <c r="AH28" s="40">
+      <c r="AE28" s="40"/>
+      <c r="AF28" s="40"/>
+      <c r="AG28" s="40"/>
+      <c r="AH28" s="39">
         <v>2008</v>
       </c>
-      <c r="AI28" s="41"/>
-      <c r="AJ28" s="41"/>
-      <c r="AK28" s="41"/>
-      <c r="AL28" s="40">
+      <c r="AI28" s="40"/>
+      <c r="AJ28" s="40"/>
+      <c r="AK28" s="40"/>
+      <c r="AL28" s="39">
         <v>2009</v>
       </c>
-      <c r="AM28" s="41"/>
-      <c r="AN28" s="41"/>
-      <c r="AO28" s="41"/>
-      <c r="AP28" s="40">
+      <c r="AM28" s="40"/>
+      <c r="AN28" s="40"/>
+      <c r="AO28" s="40"/>
+      <c r="AP28" s="39">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="41"/>
-      <c r="AR28" s="41"/>
-      <c r="AS28" s="41"/>
-      <c r="AT28" s="40">
+      <c r="AQ28" s="40"/>
+      <c r="AR28" s="40"/>
+      <c r="AS28" s="40"/>
+      <c r="AT28" s="39">
         <v>2011</v>
       </c>
-      <c r="AU28" s="41"/>
-      <c r="AV28" s="41"/>
-      <c r="AW28" s="41"/>
-      <c r="AX28" s="40">
+      <c r="AU28" s="40"/>
+      <c r="AV28" s="40"/>
+      <c r="AW28" s="40"/>
+      <c r="AX28" s="39">
         <v>2012</v>
       </c>
-      <c r="AY28" s="41"/>
-      <c r="AZ28" s="41"/>
-      <c r="BA28" s="41"/>
-      <c r="BB28" s="40">
+      <c r="AY28" s="40"/>
+      <c r="AZ28" s="40"/>
+      <c r="BA28" s="40"/>
+      <c r="BB28" s="39">
         <v>2013</v>
       </c>
-      <c r="BC28" s="41"/>
-      <c r="BD28" s="41"/>
-      <c r="BE28" s="41"/>
-      <c r="BF28" s="40">
+      <c r="BC28" s="40"/>
+      <c r="BD28" s="40"/>
+      <c r="BE28" s="40"/>
+      <c r="BF28" s="39">
         <v>2014</v>
       </c>
-      <c r="BG28" s="41"/>
-      <c r="BH28" s="41"/>
-      <c r="BI28" s="41"/>
-      <c r="BJ28" s="40">
+      <c r="BG28" s="40"/>
+      <c r="BH28" s="40"/>
+      <c r="BI28" s="40"/>
+      <c r="BJ28" s="39">
         <v>2015</v>
       </c>
-      <c r="BK28" s="41"/>
-      <c r="BL28" s="41"/>
-      <c r="BM28" s="41"/>
-      <c r="BN28" s="40">
+      <c r="BK28" s="40"/>
+      <c r="BL28" s="40"/>
+      <c r="BM28" s="40"/>
+      <c r="BN28" s="39">
         <v>2016</v>
       </c>
-      <c r="BO28" s="41"/>
-      <c r="BP28" s="41"/>
-      <c r="BQ28" s="41"/>
-      <c r="BR28" s="40">
+      <c r="BO28" s="40"/>
+      <c r="BP28" s="40"/>
+      <c r="BQ28" s="40"/>
+      <c r="BR28" s="39">
         <v>2017</v>
       </c>
-      <c r="BS28" s="41"/>
-      <c r="BT28" s="41"/>
-      <c r="BU28" s="41"/>
-      <c r="BV28" s="40">
+      <c r="BS28" s="40"/>
+      <c r="BT28" s="40"/>
+      <c r="BU28" s="40"/>
+      <c r="BV28" s="39">
         <v>2018</v>
       </c>
-      <c r="BW28" s="40"/>
-      <c r="BX28" s="40"/>
-      <c r="BY28" s="40"/>
-      <c r="BZ28" s="40">
+      <c r="BW28" s="39"/>
+      <c r="BX28" s="39"/>
+      <c r="BY28" s="39"/>
+      <c r="BZ28" s="39">
         <v>2019</v>
       </c>
-      <c r="CA28" s="40"/>
-      <c r="CB28" s="40"/>
-      <c r="CC28" s="40"/>
-      <c r="CD28" s="40">
+      <c r="CA28" s="39"/>
+      <c r="CB28" s="39"/>
+      <c r="CC28" s="39"/>
+      <c r="CD28" s="39">
         <v>2020</v>
       </c>
-      <c r="CE28" s="40"/>
-      <c r="CF28" s="40"/>
-      <c r="CG28" s="40"/>
+      <c r="CE28" s="39"/>
+      <c r="CF28" s="39"/>
+      <c r="CG28" s="39"/>
       <c r="CH28" s="21">
         <v>2021</v>
       </c>
       <c r="CI28" s="21"/>
       <c r="CJ28" s="21"/>
       <c r="CK28" s="21"/>
-      <c r="CL28" s="21">
+      <c r="CL28" s="25">
         <v>2022</v>
       </c>
-      <c r="CM28" s="21"/>
-      <c r="CN28" s="21"/>
-      <c r="CO28" s="21"/>
+      <c r="CM28" s="25"/>
+      <c r="CN28" s="25"/>
+      <c r="CO28" s="25"/>
       <c r="CP28" s="25">
         <v>2023</v>
       </c>
@@ -27179,6 +27238,9 @@
       <c r="CU28" s="25"/>
       <c r="CV28" s="25"/>
       <c r="CW28" s="25"/>
+      <c r="CX28" s="25">
+        <v>2025</v>
+      </c>
     </row>
     <row r="29" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
@@ -27448,16 +27510,16 @@
       <c r="CK29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL29" s="7" t="s">
+      <c r="CL29" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="CM29" s="7" t="s">
+      <c r="CM29" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="CN29" s="7" t="s">
+      <c r="CN29" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="CO29" s="7" t="s">
+      <c r="CO29" s="26" t="s">
         <v>9</v>
       </c>
       <c r="CP29" s="26" t="s">
@@ -27483,6 +27545,9 @@
       </c>
       <c r="CW29" s="26" t="s">
         <v>9</v>
+      </c>
+      <c r="CX29" s="26" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27575,10 +27640,10 @@
       <c r="CI30" s="1"/>
       <c r="CJ30" s="1"/>
       <c r="CK30" s="1"/>
-      <c r="CL30" s="1"/>
-      <c r="CM30" s="1"/>
-      <c r="CN30" s="1"/>
-      <c r="CO30" s="1"/>
+      <c r="CL30" s="24"/>
+      <c r="CM30" s="24"/>
+      <c r="CN30" s="24"/>
+      <c r="CO30" s="24"/>
       <c r="CP30" s="24"/>
       <c r="CQ30" s="24"/>
       <c r="CR30" s="24"/>
@@ -27587,6 +27652,7 @@
       <c r="CU30" s="24"/>
       <c r="CV30" s="24"/>
       <c r="CW30" s="24"/>
+      <c r="CX30" s="24"/>
     </row>
     <row r="31" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
@@ -27856,43 +27922,45 @@
       <c r="CK31" s="19">
         <v>55806.264395766862</v>
       </c>
-      <c r="CL31" s="19">
+      <c r="CL31" s="27">
         <v>42666.215722700821</v>
       </c>
-      <c r="CM31" s="19">
+      <c r="CM31" s="27">
         <v>50160.827000193254</v>
       </c>
-      <c r="CN31" s="19">
+      <c r="CN31" s="27">
         <v>45785.381965977285</v>
       </c>
-      <c r="CO31" s="19">
+      <c r="CO31" s="27">
         <v>67445.452034046815</v>
       </c>
       <c r="CP31" s="27">
         <v>61083.907320400758</v>
       </c>
       <c r="CQ31" s="27">
-        <v>60802.751380819478</v>
+        <v>60834.090361930808</v>
       </c>
       <c r="CR31" s="27">
-        <v>52937.173584944583</v>
+        <v>52940.033383383561</v>
       </c>
       <c r="CS31" s="27">
-        <v>74549.148697692945</v>
+        <v>74508.606209769699</v>
       </c>
       <c r="CT31" s="27">
-        <v>64826.636232948469</v>
+        <v>64787.31662028865</v>
       </c>
       <c r="CU31" s="27">
-        <v>66619.459350197474</v>
+        <v>66959.005124381059</v>
       </c>
       <c r="CV31" s="27">
-        <v>56508.488777118779</v>
+        <v>56399.549041322942</v>
       </c>
       <c r="CW31" s="27">
-        <v>82336.097741895122</v>
-      </c>
-      <c r="CX31" s="11"/>
+        <v>83183.348883602303</v>
+      </c>
+      <c r="CX31" s="27">
+        <v>70850.127118311517</v>
+      </c>
       <c r="CY31" s="11"/>
       <c r="CZ31" s="11"/>
       <c r="DA31" s="11"/>
@@ -28215,43 +28283,45 @@
       <c r="CK32" s="19">
         <v>33383.353309608567</v>
       </c>
-      <c r="CL32" s="19">
+      <c r="CL32" s="27">
         <v>34915.992150121121</v>
       </c>
-      <c r="CM32" s="19">
+      <c r="CM32" s="27">
         <v>30938.940325647978</v>
       </c>
-      <c r="CN32" s="19">
+      <c r="CN32" s="27">
         <v>28880.704848998634</v>
       </c>
-      <c r="CO32" s="19">
+      <c r="CO32" s="27">
         <v>38676.130022701458</v>
       </c>
       <c r="CP32" s="27">
         <v>45170.578794868416</v>
       </c>
       <c r="CQ32" s="27">
-        <v>38146.830176206837</v>
+        <v>37809.811579869063</v>
       </c>
       <c r="CR32" s="27">
-        <v>33508.22310430411</v>
+        <v>33262.38822816762</v>
       </c>
       <c r="CS32" s="27">
-        <v>43890.885491192763</v>
+        <v>43461.232753311924</v>
       </c>
       <c r="CT32" s="27">
-        <v>51031.205097335886</v>
+        <v>51050.658714114266</v>
       </c>
       <c r="CU32" s="27">
-        <v>42435.986242703846</v>
+        <v>42087.733529115139</v>
       </c>
       <c r="CV32" s="27">
-        <v>35530.464529036472</v>
+        <v>35007.935767934476</v>
       </c>
       <c r="CW32" s="27">
-        <v>48535.593796740803</v>
-      </c>
-      <c r="CX32" s="11"/>
+        <v>47700.819859676805</v>
+      </c>
+      <c r="CX32" s="27">
+        <v>53814.467676678614</v>
+      </c>
       <c r="CY32" s="11"/>
       <c r="CZ32" s="11"/>
       <c r="DA32" s="11"/>
@@ -28395,10 +28465,10 @@
       <c r="CI33" s="20"/>
       <c r="CJ33" s="20"/>
       <c r="CK33" s="20"/>
-      <c r="CL33" s="20"/>
-      <c r="CM33" s="20"/>
-      <c r="CN33" s="20"/>
-      <c r="CO33" s="20"/>
+      <c r="CL33" s="28"/>
+      <c r="CM33" s="28"/>
+      <c r="CN33" s="28"/>
+      <c r="CO33" s="28"/>
       <c r="CP33" s="28"/>
       <c r="CQ33" s="28"/>
       <c r="CR33" s="28"/>
@@ -28407,7 +28477,7 @@
       <c r="CU33" s="28"/>
       <c r="CV33" s="28"/>
       <c r="CW33" s="28"/>
-      <c r="CX33" s="11"/>
+      <c r="CX33" s="28"/>
       <c r="CY33" s="11"/>
       <c r="CZ33" s="11"/>
       <c r="DA33" s="11"/>
@@ -28730,43 +28800,45 @@
       <c r="CK34" s="20">
         <v>89189.617705375422</v>
       </c>
-      <c r="CL34" s="20">
+      <c r="CL34" s="28">
         <v>77582.207872821949</v>
       </c>
-      <c r="CM34" s="20">
+      <c r="CM34" s="28">
         <v>81099.76732584124</v>
       </c>
-      <c r="CN34" s="20">
+      <c r="CN34" s="28">
         <v>74666.086814975919</v>
       </c>
-      <c r="CO34" s="20">
+      <c r="CO34" s="28">
         <v>106121.58205674827</v>
       </c>
       <c r="CP34" s="28">
         <v>106254.48611526917</v>
       </c>
       <c r="CQ34" s="28">
-        <v>98949.581557026308</v>
+        <v>98643.901941799879</v>
       </c>
       <c r="CR34" s="28">
-        <v>86445.396689248693</v>
+        <v>86202.421611551181</v>
       </c>
       <c r="CS34" s="28">
-        <v>118440.03418888571</v>
+        <v>117969.83896308162</v>
       </c>
       <c r="CT34" s="28">
-        <v>115857.84133028435</v>
+        <v>115837.97533440292</v>
       </c>
       <c r="CU34" s="28">
-        <v>109055.44559290132</v>
+        <v>109046.7386534962</v>
       </c>
       <c r="CV34" s="28">
-        <v>92038.95330615525</v>
+        <v>91407.48480925741</v>
       </c>
       <c r="CW34" s="28">
-        <v>130871.69153863593</v>
-      </c>
-      <c r="CX34" s="11"/>
+        <v>130884.16874327911</v>
+      </c>
+      <c r="CX34" s="28">
+        <v>124664.59479499013</v>
+      </c>
       <c r="CY34" s="11"/>
       <c r="CZ34" s="11"/>
       <c r="DA34" s="11"/>
@@ -28911,10 +28983,10 @@
       <c r="CI35" s="15"/>
       <c r="CJ35" s="15"/>
       <c r="CK35" s="15"/>
-      <c r="CL35" s="15"/>
-      <c r="CM35" s="15"/>
-      <c r="CN35" s="15"/>
-      <c r="CO35" s="15"/>
+      <c r="CL35" s="29"/>
+      <c r="CM35" s="29"/>
+      <c r="CN35" s="29"/>
+      <c r="CO35" s="29"/>
       <c r="CP35" s="29"/>
       <c r="CQ35" s="29"/>
       <c r="CR35" s="29"/>
@@ -28923,6 +28995,7 @@
       <c r="CU35" s="29"/>
       <c r="CV35" s="29"/>
       <c r="CW35" s="29"/>
+      <c r="CX35" s="29"/>
     </row>
     <row r="36" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
@@ -29016,10 +29089,10 @@
       <c r="CI36" s="1"/>
       <c r="CJ36" s="1"/>
       <c r="CK36" s="1"/>
-      <c r="CL36" s="1"/>
-      <c r="CM36" s="1"/>
-      <c r="CN36" s="1"/>
-      <c r="CO36" s="1"/>
+      <c r="CL36" s="24"/>
+      <c r="CM36" s="24"/>
+      <c r="CN36" s="24"/>
+      <c r="CO36" s="24"/>
       <c r="CP36" s="24"/>
       <c r="CQ36" s="24"/>
       <c r="CR36" s="24"/>
@@ -29028,6 +29101,7 @@
       <c r="CU36" s="24"/>
       <c r="CV36" s="24"/>
       <c r="CW36" s="24"/>
+      <c r="CX36" s="24"/>
     </row>
     <row r="37" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="17"/>
@@ -29118,10 +29192,10 @@
       <c r="CI37" s="17"/>
       <c r="CJ37" s="17"/>
       <c r="CK37" s="17"/>
-      <c r="CL37" s="17"/>
-      <c r="CM37" s="17"/>
-      <c r="CN37" s="17"/>
-      <c r="CO37" s="17"/>
+      <c r="CL37" s="30"/>
+      <c r="CM37" s="30"/>
+      <c r="CN37" s="30"/>
+      <c r="CO37" s="30"/>
       <c r="CP37" s="30"/>
       <c r="CQ37" s="30"/>
       <c r="CR37" s="30"/>
@@ -29130,7 +29204,7 @@
       <c r="CU37" s="30"/>
       <c r="CV37" s="30"/>
       <c r="CW37" s="30"/>
-      <c r="CX37" s="11"/>
+      <c r="CX37" s="30"/>
       <c r="CY37" s="11"/>
       <c r="CZ37" s="11"/>
       <c r="DA37" s="11"/>
@@ -29274,10 +29348,10 @@
       <c r="CI38" s="17"/>
       <c r="CJ38" s="17"/>
       <c r="CK38" s="17"/>
-      <c r="CL38" s="17"/>
-      <c r="CM38" s="17"/>
-      <c r="CN38" s="17"/>
-      <c r="CO38" s="17"/>
+      <c r="CL38" s="30"/>
+      <c r="CM38" s="30"/>
+      <c r="CN38" s="30"/>
+      <c r="CO38" s="30"/>
       <c r="CP38" s="30"/>
       <c r="CQ38" s="30"/>
       <c r="CR38" s="30"/>
@@ -29286,7 +29360,7 @@
       <c r="CU38" s="30"/>
       <c r="CV38" s="30"/>
       <c r="CW38" s="30"/>
-      <c r="CX38" s="11"/>
+      <c r="CX38" s="30"/>
       <c r="CY38" s="11"/>
       <c r="CZ38" s="11"/>
       <c r="DA38" s="11"/>
@@ -29433,10 +29507,10 @@
       <c r="CI39" s="1"/>
       <c r="CJ39" s="1"/>
       <c r="CK39" s="1"/>
-      <c r="CL39" s="1"/>
-      <c r="CM39" s="1"/>
-      <c r="CN39" s="1"/>
-      <c r="CO39" s="1"/>
+      <c r="CL39" s="24"/>
+      <c r="CM39" s="24"/>
+      <c r="CN39" s="24"/>
+      <c r="CO39" s="24"/>
       <c r="CP39" s="24"/>
       <c r="CQ39" s="24"/>
       <c r="CR39" s="24"/>
@@ -29445,6 +29519,7 @@
       <c r="CU39" s="24"/>
       <c r="CV39" s="24"/>
       <c r="CW39" s="24"/>
+      <c r="CX39" s="24"/>
     </row>
     <row r="40" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
@@ -29538,10 +29613,10 @@
       <c r="CI40" s="1"/>
       <c r="CJ40" s="1"/>
       <c r="CK40" s="1"/>
-      <c r="CL40" s="1"/>
-      <c r="CM40" s="1"/>
-      <c r="CN40" s="1"/>
-      <c r="CO40" s="1"/>
+      <c r="CL40" s="24"/>
+      <c r="CM40" s="24"/>
+      <c r="CN40" s="24"/>
+      <c r="CO40" s="24"/>
       <c r="CP40" s="24"/>
       <c r="CQ40" s="24"/>
       <c r="CR40" s="24"/>
@@ -29550,10 +29625,11 @@
       <c r="CU40" s="24"/>
       <c r="CV40" s="24"/>
       <c r="CW40" s="24"/>
+      <c r="CX40" s="24"/>
     </row>
     <row r="41" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -29643,10 +29719,10 @@
       <c r="CI41" s="1"/>
       <c r="CJ41" s="1"/>
       <c r="CK41" s="1"/>
-      <c r="CL41" s="1"/>
-      <c r="CM41" s="1"/>
-      <c r="CN41" s="1"/>
-      <c r="CO41" s="1"/>
+      <c r="CL41" s="24"/>
+      <c r="CM41" s="24"/>
+      <c r="CN41" s="24"/>
+      <c r="CO41" s="24"/>
       <c r="CP41" s="24"/>
       <c r="CQ41" s="24"/>
       <c r="CR41" s="24"/>
@@ -29655,6 +29731,7 @@
       <c r="CU41" s="24"/>
       <c r="CV41" s="24"/>
       <c r="CW41" s="24"/>
+      <c r="CX41" s="24"/>
     </row>
     <row r="42" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
@@ -29746,10 +29823,10 @@
       <c r="CI42" s="1"/>
       <c r="CJ42" s="1"/>
       <c r="CK42" s="1"/>
-      <c r="CL42" s="1"/>
-      <c r="CM42" s="1"/>
-      <c r="CN42" s="1"/>
-      <c r="CO42" s="1"/>
+      <c r="CL42" s="24"/>
+      <c r="CM42" s="24"/>
+      <c r="CN42" s="24"/>
+      <c r="CO42" s="24"/>
       <c r="CP42" s="24"/>
       <c r="CQ42" s="24"/>
       <c r="CR42" s="24"/>
@@ -29758,6 +29835,7 @@
       <c r="CU42" s="24"/>
       <c r="CV42" s="24"/>
       <c r="CW42" s="24"/>
+      <c r="CX42" s="24"/>
     </row>
     <row r="43" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -29851,10 +29929,10 @@
       <c r="CI43" s="1"/>
       <c r="CJ43" s="1"/>
       <c r="CK43" s="1"/>
-      <c r="CL43" s="1"/>
-      <c r="CM43" s="1"/>
-      <c r="CN43" s="1"/>
-      <c r="CO43" s="1"/>
+      <c r="CL43" s="24"/>
+      <c r="CM43" s="24"/>
+      <c r="CN43" s="24"/>
+      <c r="CO43" s="24"/>
       <c r="CP43" s="24"/>
       <c r="CQ43" s="24"/>
       <c r="CR43" s="24"/>
@@ -29863,10 +29941,11 @@
       <c r="CU43" s="24"/>
       <c r="CV43" s="24"/>
       <c r="CW43" s="24"/>
+      <c r="CX43" s="24"/>
     </row>
     <row r="44" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -29956,10 +30035,10 @@
       <c r="CI44" s="1"/>
       <c r="CJ44" s="1"/>
       <c r="CK44" s="1"/>
-      <c r="CL44" s="1"/>
-      <c r="CM44" s="1"/>
-      <c r="CN44" s="1"/>
-      <c r="CO44" s="1"/>
+      <c r="CL44" s="24"/>
+      <c r="CM44" s="24"/>
+      <c r="CN44" s="24"/>
+      <c r="CO44" s="24"/>
       <c r="CP44" s="24"/>
       <c r="CQ44" s="24"/>
       <c r="CR44" s="24"/>
@@ -29968,6 +30047,7 @@
       <c r="CU44" s="24"/>
       <c r="CV44" s="24"/>
       <c r="CW44" s="24"/>
+      <c r="CX44" s="24"/>
     </row>
     <row r="45" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -30053,14 +30133,19 @@
       <c r="CA45" s="1"/>
       <c r="CB45" s="1"/>
       <c r="CC45" s="1"/>
+      <c r="CL45" s="23"/>
+      <c r="CM45" s="23"/>
+      <c r="CN45" s="23"/>
+      <c r="CO45" s="23"/>
       <c r="CP45" s="23"/>
       <c r="CQ45" s="23"/>
       <c r="CR45" s="23"/>
       <c r="CS45" s="23"/>
-      <c r="CT45" s="35"/>
+      <c r="CT45" s="23"/>
       <c r="CU45" s="35"/>
       <c r="CV45" s="35"/>
       <c r="CW45" s="23"/>
+      <c r="CX45" s="35"/>
     </row>
     <row r="46" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
@@ -30152,169 +30237,173 @@
       <c r="CI46" s="1"/>
       <c r="CJ46" s="1"/>
       <c r="CK46" s="1"/>
-      <c r="CL46" s="1"/>
-      <c r="CM46" s="1"/>
-      <c r="CN46" s="1"/>
-      <c r="CO46" s="1"/>
+      <c r="CL46" s="24"/>
+      <c r="CM46" s="24"/>
+      <c r="CN46" s="24"/>
+      <c r="CO46" s="24"/>
       <c r="CP46" s="24"/>
       <c r="CQ46" s="24"/>
       <c r="CR46" s="24"/>
       <c r="CS46" s="24"/>
-      <c r="CT46" s="36"/>
+      <c r="CT46" s="24"/>
       <c r="CU46" s="36"/>
       <c r="CV46" s="36"/>
       <c r="CW46" s="24"/>
+      <c r="CX46" s="36"/>
     </row>
     <row r="47" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
-      <c r="B47" s="40" t="s">
+      <c r="B47" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40" t="s">
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="40" t="s">
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="40"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="40"/>
-      <c r="N47" s="40" t="s">
+      <c r="K47" s="39"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="40"/>
-      <c r="P47" s="40"/>
-      <c r="Q47" s="40"/>
-      <c r="R47" s="40" t="s">
+      <c r="O47" s="39"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="39"/>
+      <c r="R47" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="40"/>
-      <c r="T47" s="40"/>
-      <c r="U47" s="40"/>
-      <c r="V47" s="40" t="s">
+      <c r="S47" s="39"/>
+      <c r="T47" s="39"/>
+      <c r="U47" s="39"/>
+      <c r="V47" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="40"/>
-      <c r="X47" s="40"/>
-      <c r="Y47" s="40"/>
-      <c r="Z47" s="40" t="s">
+      <c r="W47" s="39"/>
+      <c r="X47" s="39"/>
+      <c r="Y47" s="39"/>
+      <c r="Z47" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="40"/>
-      <c r="AB47" s="40"/>
-      <c r="AC47" s="40"/>
-      <c r="AD47" s="40" t="s">
+      <c r="AA47" s="39"/>
+      <c r="AB47" s="39"/>
+      <c r="AC47" s="39"/>
+      <c r="AD47" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="40"/>
-      <c r="AF47" s="40"/>
-      <c r="AG47" s="40"/>
-      <c r="AH47" s="40" t="s">
+      <c r="AE47" s="39"/>
+      <c r="AF47" s="39"/>
+      <c r="AG47" s="39"/>
+      <c r="AH47" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="40"/>
-      <c r="AJ47" s="40"/>
-      <c r="AK47" s="40"/>
-      <c r="AL47" s="40" t="s">
+      <c r="AI47" s="39"/>
+      <c r="AJ47" s="39"/>
+      <c r="AK47" s="39"/>
+      <c r="AL47" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="40"/>
-      <c r="AN47" s="40"/>
-      <c r="AO47" s="40"/>
-      <c r="AP47" s="40" t="s">
+      <c r="AM47" s="39"/>
+      <c r="AN47" s="39"/>
+      <c r="AO47" s="39"/>
+      <c r="AP47" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="40"/>
-      <c r="AR47" s="40"/>
-      <c r="AS47" s="40"/>
-      <c r="AT47" s="40" t="s">
+      <c r="AQ47" s="39"/>
+      <c r="AR47" s="39"/>
+      <c r="AS47" s="39"/>
+      <c r="AT47" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="40"/>
-      <c r="AV47" s="40"/>
-      <c r="AW47" s="40"/>
-      <c r="AX47" s="40" t="s">
+      <c r="AU47" s="39"/>
+      <c r="AV47" s="39"/>
+      <c r="AW47" s="39"/>
+      <c r="AX47" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="40"/>
-      <c r="AZ47" s="40"/>
-      <c r="BA47" s="40"/>
-      <c r="BB47" s="40" t="s">
+      <c r="AY47" s="39"/>
+      <c r="AZ47" s="39"/>
+      <c r="BA47" s="39"/>
+      <c r="BB47" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="40"/>
-      <c r="BD47" s="40"/>
-      <c r="BE47" s="40"/>
-      <c r="BF47" s="40" t="s">
+      <c r="BC47" s="39"/>
+      <c r="BD47" s="39"/>
+      <c r="BE47" s="39"/>
+      <c r="BF47" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="40"/>
-      <c r="BH47" s="40"/>
-      <c r="BI47" s="40"/>
-      <c r="BJ47" s="40" t="s">
+      <c r="BG47" s="39"/>
+      <c r="BH47" s="39"/>
+      <c r="BI47" s="39"/>
+      <c r="BJ47" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="40"/>
-      <c r="BL47" s="40"/>
-      <c r="BM47" s="40"/>
-      <c r="BN47" s="40" t="s">
+      <c r="BK47" s="39"/>
+      <c r="BL47" s="39"/>
+      <c r="BM47" s="39"/>
+      <c r="BN47" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="40"/>
-      <c r="BP47" s="40"/>
-      <c r="BQ47" s="40"/>
-      <c r="BR47" s="40" t="s">
+      <c r="BO47" s="39"/>
+      <c r="BP47" s="39"/>
+      <c r="BQ47" s="39"/>
+      <c r="BR47" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="BS47" s="40"/>
-      <c r="BT47" s="40"/>
-      <c r="BU47" s="40"/>
-      <c r="BV47" s="40" t="s">
+      <c r="BS47" s="39"/>
+      <c r="BT47" s="39"/>
+      <c r="BU47" s="39"/>
+      <c r="BV47" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="BW47" s="40"/>
-      <c r="BX47" s="40"/>
-      <c r="BY47" s="40"/>
-      <c r="BZ47" s="40" t="s">
+      <c r="BW47" s="39"/>
+      <c r="BX47" s="39"/>
+      <c r="BY47" s="39"/>
+      <c r="BZ47" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="40"/>
-      <c r="CB47" s="40"/>
-      <c r="CC47" s="40"/>
-      <c r="CD47" s="40" t="s">
+      <c r="CA47" s="39"/>
+      <c r="CB47" s="39"/>
+      <c r="CC47" s="39"/>
+      <c r="CD47" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="40"/>
-      <c r="CF47" s="40"/>
-      <c r="CG47" s="40"/>
+      <c r="CE47" s="39"/>
+      <c r="CF47" s="39"/>
+      <c r="CG47" s="39"/>
       <c r="CH47" s="21" t="s">
         <v>47</v>
       </c>
       <c r="CI47" s="21"/>
       <c r="CJ47" s="21"/>
       <c r="CK47" s="21"/>
-      <c r="CL47" s="21" t="s">
+      <c r="CL47" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="CM47" s="21"/>
-      <c r="CN47" s="21"/>
-      <c r="CO47" s="21"/>
+      <c r="CM47" s="25"/>
+      <c r="CN47" s="25"/>
+      <c r="CO47" s="25"/>
       <c r="CP47" s="25" t="s">
         <v>49</v>
       </c>
       <c r="CQ47" s="25"/>
       <c r="CR47" s="25"/>
       <c r="CS47" s="25"/>
-      <c r="CT47" s="22"/>
+      <c r="CT47" s="25" t="s">
+        <v>50</v>
+      </c>
       <c r="CU47" s="22"/>
       <c r="CV47" s="22"/>
       <c r="CW47" s="22"/>
+      <c r="CX47" s="22"/>
     </row>
     <row r="48" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
@@ -30584,16 +30673,16 @@
       <c r="CK48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL48" s="6" t="s">
+      <c r="CL48" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="CM48" s="6" t="s">
+      <c r="CM48" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="CN48" s="6" t="s">
+      <c r="CN48" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="CO48" s="6" t="s">
+      <c r="CO48" s="31" t="s">
         <v>9</v>
       </c>
       <c r="CP48" s="31" t="s">
@@ -30608,10 +30697,13 @@
       <c r="CS48" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="CT48" s="31"/>
+      <c r="CT48" s="31" t="s">
+        <v>7</v>
+      </c>
       <c r="CU48" s="31"/>
       <c r="CV48" s="31"/>
       <c r="CW48" s="31"/>
+      <c r="CX48" s="31"/>
     </row>
     <row r="49" spans="1:151" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
@@ -30703,18 +30795,19 @@
       <c r="CI49" s="1"/>
       <c r="CJ49" s="1"/>
       <c r="CK49" s="1"/>
-      <c r="CL49" s="1"/>
-      <c r="CM49" s="1"/>
-      <c r="CN49" s="1"/>
-      <c r="CO49" s="1"/>
+      <c r="CL49" s="24"/>
+      <c r="CM49" s="24"/>
+      <c r="CN49" s="24"/>
+      <c r="CO49" s="24"/>
       <c r="CP49" s="24"/>
       <c r="CQ49" s="24"/>
       <c r="CR49" s="24"/>
       <c r="CS49" s="24"/>
-      <c r="CT49" s="36"/>
+      <c r="CT49" s="24"/>
       <c r="CU49" s="36"/>
       <c r="CV49" s="36"/>
       <c r="CW49" s="24"/>
+      <c r="CX49" s="36"/>
     </row>
     <row r="50" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
@@ -30984,35 +31077,37 @@
       <c r="CK50" s="18">
         <v>23.988576523666168</v>
       </c>
-      <c r="CL50" s="18">
+      <c r="CL50" s="32">
         <v>48.842330466004711</v>
       </c>
-      <c r="CM50" s="18">
-        <v>27.015671178266757</v>
-      </c>
-      <c r="CN50" s="18">
-        <v>21.685044852539974</v>
-      </c>
-      <c r="CO50" s="18">
-        <v>16.30210231685237</v>
+      <c r="CM50" s="32">
+        <v>27.081137651896654</v>
+      </c>
+      <c r="CN50" s="32">
+        <v>21.691618582827218</v>
+      </c>
+      <c r="CO50" s="32">
+        <v>16.238853082474819</v>
       </c>
       <c r="CP50" s="32">
-        <v>10.715156538279786</v>
+        <v>10.648003939847655</v>
       </c>
       <c r="CQ50" s="32">
-        <v>13.932986269044363</v>
+        <v>14.454687138284569</v>
       </c>
       <c r="CR50" s="32">
-        <v>10.349980930893835</v>
+        <v>10.131293453703492</v>
       </c>
       <c r="CS50" s="32">
-        <v>13.364920178078293</v>
-      </c>
-      <c r="CT50" s="37"/>
+        <v>14.593782876482805</v>
+      </c>
+      <c r="CT50" s="32">
+        <v>12.05678978429583</v>
+      </c>
       <c r="CU50" s="37"/>
       <c r="CV50" s="37"/>
       <c r="CW50" s="32"/>
-      <c r="CX50" s="11"/>
+      <c r="CX50" s="37"/>
       <c r="CY50" s="11"/>
       <c r="CZ50" s="11"/>
       <c r="DA50" s="11"/>
@@ -31331,35 +31426,37 @@
       <c r="CK51" s="18">
         <v>18.82970771562114</v>
       </c>
-      <c r="CL51" s="18">
+      <c r="CL51" s="32">
         <v>36.458382892382843</v>
       </c>
-      <c r="CM51" s="18">
-        <v>30.765173375324423</v>
-      </c>
-      <c r="CN51" s="18">
-        <v>22.761924621720581</v>
-      </c>
-      <c r="CO51" s="18">
-        <v>21.822622180479215</v>
+      <c r="CM51" s="32">
+        <v>29.609892714329789</v>
+      </c>
+      <c r="CN51" s="32">
+        <v>21.861275176964483</v>
+      </c>
+      <c r="CO51" s="32">
+        <v>20.630087043174484</v>
       </c>
       <c r="CP51" s="32">
-        <v>18.794194406177283</v>
+        <v>18.839645842897681</v>
       </c>
       <c r="CQ51" s="32">
-        <v>15.575253110114957</v>
+        <v>15.858785925278383</v>
       </c>
       <c r="CR51" s="32">
-        <v>10.181202871889411</v>
+        <v>9.3631718361577612</v>
       </c>
       <c r="CS51" s="32">
-        <v>14.876908326439334</v>
-      </c>
-      <c r="CT51" s="37"/>
+        <v>14.017243519027801</v>
+      </c>
+      <c r="CT51" s="32">
+        <v>8.6924252148352821</v>
+      </c>
       <c r="CU51" s="37"/>
       <c r="CV51" s="37"/>
       <c r="CW51" s="32"/>
-      <c r="CX51" s="11"/>
+      <c r="CX51" s="37"/>
       <c r="CY51" s="11"/>
       <c r="CZ51" s="11"/>
       <c r="DA51" s="11"/>
@@ -31500,19 +31597,19 @@
       <c r="CI52" s="17"/>
       <c r="CJ52" s="17"/>
       <c r="CK52" s="17"/>
-      <c r="CL52" s="17"/>
-      <c r="CM52" s="17"/>
-      <c r="CN52" s="17"/>
-      <c r="CO52" s="17"/>
+      <c r="CL52" s="30"/>
+      <c r="CM52" s="30"/>
+      <c r="CN52" s="30"/>
+      <c r="CO52" s="30"/>
       <c r="CP52" s="30"/>
       <c r="CQ52" s="30"/>
       <c r="CR52" s="30"/>
       <c r="CS52" s="30"/>
-      <c r="CT52" s="38"/>
+      <c r="CT52" s="30"/>
       <c r="CU52" s="38"/>
       <c r="CV52" s="38"/>
       <c r="CW52" s="30"/>
-      <c r="CX52" s="11"/>
+      <c r="CX52" s="38"/>
       <c r="CY52" s="11"/>
       <c r="CZ52" s="11"/>
       <c r="DA52" s="11"/>
@@ -31831,35 +31928,37 @@
       <c r="CK53" s="18">
         <v>21.997025986523795</v>
       </c>
-      <c r="CL53" s="18">
+      <c r="CL53" s="32">
         <v>43.015576514342058</v>
       </c>
-      <c r="CM53" s="18">
-        <v>28.496467229024034</v>
-      </c>
-      <c r="CN53" s="18">
-        <v>22.113546377042439</v>
-      </c>
-      <c r="CO53" s="18">
-        <v>18.37793626343705</v>
+      <c r="CM53" s="32">
+        <v>28.079822360688638</v>
+      </c>
+      <c r="CN53" s="32">
+        <v>21.759126684762336</v>
+      </c>
+      <c r="CO53" s="32">
+        <v>17.890051293548211</v>
       </c>
       <c r="CP53" s="32">
-        <v>14.342127658606074</v>
+        <v>14.325527067753143</v>
       </c>
       <c r="CQ53" s="32">
-        <v>14.593020204846255</v>
+        <v>15.015834252451128</v>
       </c>
       <c r="CR53" s="32">
-        <v>10.28246581992947</v>
+        <v>9.825393553786995</v>
       </c>
       <c r="CS53" s="32">
-        <v>13.950004146938582</v>
-      </c>
-      <c r="CT53" s="37"/>
+        <v>14.371952979659426</v>
+      </c>
+      <c r="CT53" s="32">
+        <v>10.486768134589127</v>
+      </c>
       <c r="CU53" s="37"/>
       <c r="CV53" s="37"/>
       <c r="CW53" s="32"/>
-      <c r="CX53" s="11"/>
+      <c r="CX53" s="37"/>
       <c r="CY53" s="11"/>
       <c r="CZ53" s="11"/>
       <c r="DA53" s="11"/>
@@ -32000,18 +32099,19 @@
       <c r="CI54" s="15"/>
       <c r="CJ54" s="15"/>
       <c r="CK54" s="15"/>
-      <c r="CL54" s="15"/>
-      <c r="CM54" s="15"/>
-      <c r="CN54" s="15"/>
-      <c r="CO54" s="15"/>
+      <c r="CL54" s="29"/>
+      <c r="CM54" s="29"/>
+      <c r="CN54" s="29"/>
+      <c r="CO54" s="29"/>
       <c r="CP54" s="29"/>
       <c r="CQ54" s="29"/>
       <c r="CR54" s="29"/>
       <c r="CS54" s="29"/>
-      <c r="CT54" s="26"/>
+      <c r="CT54" s="29"/>
       <c r="CU54" s="26"/>
       <c r="CV54" s="26"/>
       <c r="CW54" s="29"/>
+      <c r="CX54" s="26"/>
     </row>
     <row r="55" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
@@ -32105,18 +32205,19 @@
       <c r="CI55" s="1"/>
       <c r="CJ55" s="1"/>
       <c r="CK55" s="1"/>
-      <c r="CL55" s="1"/>
-      <c r="CM55" s="1"/>
-      <c r="CN55" s="1"/>
-      <c r="CO55" s="1"/>
+      <c r="CL55" s="24"/>
+      <c r="CM55" s="24"/>
+      <c r="CN55" s="24"/>
+      <c r="CO55" s="24"/>
       <c r="CP55" s="24"/>
       <c r="CQ55" s="24"/>
       <c r="CR55" s="24"/>
       <c r="CS55" s="24"/>
-      <c r="CT55" s="36"/>
+      <c r="CT55" s="24"/>
       <c r="CU55" s="36"/>
       <c r="CV55" s="36"/>
       <c r="CW55" s="24"/>
+      <c r="CX55" s="36"/>
     </row>
     <row r="56" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="17"/>
@@ -32207,19 +32308,19 @@
       <c r="CI56" s="17"/>
       <c r="CJ56" s="17"/>
       <c r="CK56" s="17"/>
-      <c r="CL56" s="17"/>
-      <c r="CM56" s="17"/>
-      <c r="CN56" s="17"/>
-      <c r="CO56" s="17"/>
+      <c r="CL56" s="30"/>
+      <c r="CM56" s="30"/>
+      <c r="CN56" s="30"/>
+      <c r="CO56" s="30"/>
       <c r="CP56" s="30"/>
       <c r="CQ56" s="30"/>
       <c r="CR56" s="30"/>
       <c r="CS56" s="30"/>
-      <c r="CT56" s="38"/>
+      <c r="CT56" s="30"/>
       <c r="CU56" s="38"/>
       <c r="CV56" s="38"/>
       <c r="CW56" s="30"/>
-      <c r="CX56" s="11"/>
+      <c r="CX56" s="38"/>
       <c r="CY56" s="11"/>
       <c r="CZ56" s="11"/>
       <c r="DA56" s="11"/>
@@ -32359,19 +32460,19 @@
       <c r="CI57" s="17"/>
       <c r="CJ57" s="17"/>
       <c r="CK57" s="17"/>
-      <c r="CL57" s="17"/>
-      <c r="CM57" s="17"/>
-      <c r="CN57" s="17"/>
-      <c r="CO57" s="17"/>
+      <c r="CL57" s="30"/>
+      <c r="CM57" s="30"/>
+      <c r="CN57" s="30"/>
+      <c r="CO57" s="30"/>
       <c r="CP57" s="30"/>
       <c r="CQ57" s="30"/>
       <c r="CR57" s="30"/>
       <c r="CS57" s="30"/>
-      <c r="CT57" s="38"/>
+      <c r="CT57" s="30"/>
       <c r="CU57" s="38"/>
       <c r="CV57" s="38"/>
       <c r="CW57" s="30"/>
-      <c r="CX57" s="11"/>
+      <c r="CX57" s="38"/>
       <c r="CY57" s="11"/>
       <c r="CZ57" s="11"/>
       <c r="DA57" s="11"/>
@@ -32514,18 +32615,19 @@
       <c r="CI58" s="1"/>
       <c r="CJ58" s="1"/>
       <c r="CK58" s="1"/>
-      <c r="CL58" s="1"/>
-      <c r="CM58" s="1"/>
-      <c r="CN58" s="1"/>
-      <c r="CO58" s="1"/>
+      <c r="CL58" s="24"/>
+      <c r="CM58" s="24"/>
+      <c r="CN58" s="24"/>
+      <c r="CO58" s="24"/>
       <c r="CP58" s="24"/>
       <c r="CQ58" s="24"/>
       <c r="CR58" s="24"/>
       <c r="CS58" s="24"/>
-      <c r="CT58" s="36"/>
+      <c r="CT58" s="24"/>
       <c r="CU58" s="36"/>
       <c r="CV58" s="36"/>
       <c r="CW58" s="24"/>
+      <c r="CX58" s="36"/>
     </row>
     <row r="59" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -32619,22 +32721,23 @@
       <c r="CI59" s="1"/>
       <c r="CJ59" s="1"/>
       <c r="CK59" s="1"/>
-      <c r="CL59" s="1"/>
-      <c r="CM59" s="1"/>
-      <c r="CN59" s="1"/>
-      <c r="CO59" s="1"/>
+      <c r="CL59" s="24"/>
+      <c r="CM59" s="24"/>
+      <c r="CN59" s="24"/>
+      <c r="CO59" s="24"/>
       <c r="CP59" s="24"/>
       <c r="CQ59" s="24"/>
       <c r="CR59" s="24"/>
       <c r="CS59" s="24"/>
-      <c r="CT59" s="36"/>
+      <c r="CT59" s="24"/>
       <c r="CU59" s="36"/>
       <c r="CV59" s="36"/>
       <c r="CW59" s="24"/>
+      <c r="CX59" s="36"/>
     </row>
     <row r="60" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -32724,18 +32827,19 @@
       <c r="CI60" s="1"/>
       <c r="CJ60" s="1"/>
       <c r="CK60" s="1"/>
-      <c r="CL60" s="1"/>
-      <c r="CM60" s="1"/>
-      <c r="CN60" s="1"/>
-      <c r="CO60" s="1"/>
+      <c r="CL60" s="24"/>
+      <c r="CM60" s="24"/>
+      <c r="CN60" s="24"/>
+      <c r="CO60" s="24"/>
       <c r="CP60" s="24"/>
       <c r="CQ60" s="24"/>
       <c r="CR60" s="24"/>
       <c r="CS60" s="24"/>
-      <c r="CT60" s="36"/>
+      <c r="CT60" s="24"/>
       <c r="CU60" s="36"/>
       <c r="CV60" s="36"/>
       <c r="CW60" s="24"/>
+      <c r="CX60" s="36"/>
     </row>
     <row r="61" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
@@ -32827,18 +32931,19 @@
       <c r="CI61" s="1"/>
       <c r="CJ61" s="1"/>
       <c r="CK61" s="1"/>
-      <c r="CL61" s="1"/>
-      <c r="CM61" s="1"/>
-      <c r="CN61" s="1"/>
-      <c r="CO61" s="1"/>
+      <c r="CL61" s="24"/>
+      <c r="CM61" s="24"/>
+      <c r="CN61" s="24"/>
+      <c r="CO61" s="24"/>
       <c r="CP61" s="24"/>
       <c r="CQ61" s="24"/>
       <c r="CR61" s="24"/>
       <c r="CS61" s="24"/>
-      <c r="CT61" s="36"/>
+      <c r="CT61" s="24"/>
       <c r="CU61" s="36"/>
       <c r="CV61" s="36"/>
       <c r="CW61" s="24"/>
+      <c r="CX61" s="36"/>
     </row>
     <row r="62" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -32932,22 +33037,23 @@
       <c r="CI62" s="1"/>
       <c r="CJ62" s="1"/>
       <c r="CK62" s="1"/>
-      <c r="CL62" s="1"/>
-      <c r="CM62" s="1"/>
-      <c r="CN62" s="1"/>
-      <c r="CO62" s="1"/>
+      <c r="CL62" s="24"/>
+      <c r="CM62" s="24"/>
+      <c r="CN62" s="24"/>
+      <c r="CO62" s="24"/>
       <c r="CP62" s="24"/>
       <c r="CQ62" s="24"/>
       <c r="CR62" s="24"/>
       <c r="CS62" s="24"/>
-      <c r="CT62" s="36"/>
+      <c r="CT62" s="24"/>
       <c r="CU62" s="36"/>
       <c r="CV62" s="36"/>
       <c r="CW62" s="24"/>
+      <c r="CX62" s="36"/>
     </row>
     <row r="63" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -33037,18 +33143,19 @@
       <c r="CI63" s="1"/>
       <c r="CJ63" s="1"/>
       <c r="CK63" s="1"/>
-      <c r="CL63" s="1"/>
-      <c r="CM63" s="1"/>
-      <c r="CN63" s="1"/>
-      <c r="CO63" s="1"/>
+      <c r="CL63" s="24"/>
+      <c r="CM63" s="24"/>
+      <c r="CN63" s="24"/>
+      <c r="CO63" s="24"/>
       <c r="CP63" s="24"/>
       <c r="CQ63" s="24"/>
       <c r="CR63" s="24"/>
       <c r="CS63" s="24"/>
-      <c r="CT63" s="36"/>
+      <c r="CT63" s="24"/>
       <c r="CU63" s="36"/>
       <c r="CV63" s="36"/>
       <c r="CW63" s="24"/>
+      <c r="CX63" s="36"/>
     </row>
     <row r="64" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
@@ -33142,18 +33249,19 @@
       <c r="CI64" s="1"/>
       <c r="CJ64" s="1"/>
       <c r="CK64" s="1"/>
-      <c r="CL64" s="1"/>
-      <c r="CM64" s="1"/>
-      <c r="CN64" s="1"/>
-      <c r="CO64" s="1"/>
+      <c r="CL64" s="24"/>
+      <c r="CM64" s="24"/>
+      <c r="CN64" s="24"/>
+      <c r="CO64" s="24"/>
       <c r="CP64" s="24"/>
       <c r="CQ64" s="24"/>
       <c r="CR64" s="24"/>
       <c r="CS64" s="24"/>
-      <c r="CT64" s="36"/>
+      <c r="CT64" s="24"/>
       <c r="CU64" s="36"/>
       <c r="CV64" s="36"/>
       <c r="CW64" s="24"/>
+      <c r="CX64" s="36"/>
     </row>
     <row r="65" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
@@ -33245,169 +33353,173 @@
       <c r="CI65" s="1"/>
       <c r="CJ65" s="1"/>
       <c r="CK65" s="1"/>
-      <c r="CL65" s="1"/>
-      <c r="CM65" s="1"/>
-      <c r="CN65" s="1"/>
-      <c r="CO65" s="1"/>
+      <c r="CL65" s="24"/>
+      <c r="CM65" s="24"/>
+      <c r="CN65" s="24"/>
+      <c r="CO65" s="24"/>
       <c r="CP65" s="24"/>
       <c r="CQ65" s="24"/>
       <c r="CR65" s="24"/>
       <c r="CS65" s="24"/>
-      <c r="CT65" s="36"/>
+      <c r="CT65" s="24"/>
       <c r="CU65" s="36"/>
       <c r="CV65" s="36"/>
       <c r="CW65" s="24"/>
+      <c r="CX65" s="36"/>
     </row>
     <row r="66" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
-      <c r="B66" s="40" t="s">
+      <c r="B66" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="42"/>
-      <c r="D66" s="42"/>
-      <c r="E66" s="42"/>
-      <c r="F66" s="40" t="s">
+      <c r="C66" s="41"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="42"/>
-      <c r="H66" s="42"/>
-      <c r="I66" s="42"/>
-      <c r="J66" s="40" t="s">
+      <c r="G66" s="41"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="41"/>
+      <c r="J66" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="42"/>
-      <c r="L66" s="42"/>
-      <c r="M66" s="42"/>
-      <c r="N66" s="40" t="s">
+      <c r="K66" s="41"/>
+      <c r="L66" s="41"/>
+      <c r="M66" s="41"/>
+      <c r="N66" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="42"/>
-      <c r="P66" s="42"/>
-      <c r="Q66" s="42"/>
-      <c r="R66" s="40" t="s">
+      <c r="O66" s="41"/>
+      <c r="P66" s="41"/>
+      <c r="Q66" s="41"/>
+      <c r="R66" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="42"/>
-      <c r="T66" s="42"/>
-      <c r="U66" s="42"/>
-      <c r="V66" s="40" t="s">
+      <c r="S66" s="41"/>
+      <c r="T66" s="41"/>
+      <c r="U66" s="41"/>
+      <c r="V66" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="42"/>
-      <c r="X66" s="42"/>
-      <c r="Y66" s="42"/>
-      <c r="Z66" s="40" t="s">
+      <c r="W66" s="41"/>
+      <c r="X66" s="41"/>
+      <c r="Y66" s="41"/>
+      <c r="Z66" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="42"/>
-      <c r="AB66" s="42"/>
-      <c r="AC66" s="42"/>
-      <c r="AD66" s="40" t="s">
+      <c r="AA66" s="41"/>
+      <c r="AB66" s="41"/>
+      <c r="AC66" s="41"/>
+      <c r="AD66" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="42"/>
-      <c r="AF66" s="42"/>
-      <c r="AG66" s="42"/>
-      <c r="AH66" s="40" t="s">
+      <c r="AE66" s="41"/>
+      <c r="AF66" s="41"/>
+      <c r="AG66" s="41"/>
+      <c r="AH66" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="42"/>
-      <c r="AJ66" s="42"/>
-      <c r="AK66" s="42"/>
-      <c r="AL66" s="40" t="s">
+      <c r="AI66" s="41"/>
+      <c r="AJ66" s="41"/>
+      <c r="AK66" s="41"/>
+      <c r="AL66" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="42"/>
-      <c r="AN66" s="42"/>
-      <c r="AO66" s="42"/>
-      <c r="AP66" s="40" t="s">
+      <c r="AM66" s="41"/>
+      <c r="AN66" s="41"/>
+      <c r="AO66" s="41"/>
+      <c r="AP66" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="42"/>
-      <c r="AR66" s="42"/>
-      <c r="AS66" s="42"/>
-      <c r="AT66" s="40" t="s">
+      <c r="AQ66" s="41"/>
+      <c r="AR66" s="41"/>
+      <c r="AS66" s="41"/>
+      <c r="AT66" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="42"/>
-      <c r="AV66" s="42"/>
-      <c r="AW66" s="42"/>
-      <c r="AX66" s="40" t="s">
+      <c r="AU66" s="41"/>
+      <c r="AV66" s="41"/>
+      <c r="AW66" s="41"/>
+      <c r="AX66" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="42"/>
-      <c r="AZ66" s="42"/>
-      <c r="BA66" s="42"/>
-      <c r="BB66" s="40" t="s">
+      <c r="AY66" s="41"/>
+      <c r="AZ66" s="41"/>
+      <c r="BA66" s="41"/>
+      <c r="BB66" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="42"/>
-      <c r="BD66" s="42"/>
-      <c r="BE66" s="42"/>
-      <c r="BF66" s="40" t="s">
+      <c r="BC66" s="41"/>
+      <c r="BD66" s="41"/>
+      <c r="BE66" s="41"/>
+      <c r="BF66" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="42"/>
-      <c r="BH66" s="42"/>
-      <c r="BI66" s="42"/>
-      <c r="BJ66" s="40" t="s">
+      <c r="BG66" s="41"/>
+      <c r="BH66" s="41"/>
+      <c r="BI66" s="41"/>
+      <c r="BJ66" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="42"/>
-      <c r="BL66" s="42"/>
-      <c r="BM66" s="42"/>
-      <c r="BN66" s="40" t="s">
+      <c r="BK66" s="41"/>
+      <c r="BL66" s="41"/>
+      <c r="BM66" s="41"/>
+      <c r="BN66" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="42"/>
-      <c r="BP66" s="42"/>
-      <c r="BQ66" s="42"/>
-      <c r="BR66" s="40" t="s">
+      <c r="BO66" s="41"/>
+      <c r="BP66" s="41"/>
+      <c r="BQ66" s="41"/>
+      <c r="BR66" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="42"/>
-      <c r="BT66" s="42"/>
-      <c r="BU66" s="42"/>
-      <c r="BV66" s="40" t="s">
+      <c r="BS66" s="41"/>
+      <c r="BT66" s="41"/>
+      <c r="BU66" s="41"/>
+      <c r="BV66" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="BW66" s="40"/>
-      <c r="BX66" s="40"/>
-      <c r="BY66" s="40"/>
-      <c r="BZ66" s="40" t="s">
+      <c r="BW66" s="39"/>
+      <c r="BX66" s="39"/>
+      <c r="BY66" s="39"/>
+      <c r="BZ66" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="40"/>
-      <c r="CB66" s="40"/>
-      <c r="CC66" s="40"/>
-      <c r="CD66" s="40" t="s">
+      <c r="CA66" s="39"/>
+      <c r="CB66" s="39"/>
+      <c r="CC66" s="39"/>
+      <c r="CD66" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="40"/>
-      <c r="CF66" s="40"/>
-      <c r="CG66" s="40"/>
+      <c r="CE66" s="39"/>
+      <c r="CF66" s="39"/>
+      <c r="CG66" s="39"/>
       <c r="CH66" s="21" t="s">
         <v>47</v>
       </c>
       <c r="CI66" s="21"/>
       <c r="CJ66" s="21"/>
       <c r="CK66" s="21"/>
-      <c r="CL66" s="21" t="s">
+      <c r="CL66" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="CM66" s="21"/>
-      <c r="CN66" s="21"/>
-      <c r="CO66" s="21"/>
+      <c r="CM66" s="25"/>
+      <c r="CN66" s="25"/>
+      <c r="CO66" s="25"/>
       <c r="CP66" s="25" t="s">
         <v>49</v>
       </c>
       <c r="CQ66" s="25"/>
       <c r="CR66" s="25"/>
       <c r="CS66" s="25"/>
-      <c r="CT66" s="22"/>
+      <c r="CT66" s="25" t="s">
+        <v>50</v>
+      </c>
       <c r="CU66" s="22"/>
       <c r="CV66" s="22"/>
       <c r="CW66" s="22"/>
+      <c r="CX66" s="22"/>
     </row>
     <row r="67" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
@@ -33677,16 +33789,16 @@
       <c r="CK67" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL67" s="6" t="s">
+      <c r="CL67" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="CM67" s="6" t="s">
+      <c r="CM67" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="CN67" s="6" t="s">
+      <c r="CN67" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="CO67" s="6" t="s">
+      <c r="CO67" s="31" t="s">
         <v>9</v>
       </c>
       <c r="CP67" s="31" t="s">
@@ -33701,10 +33813,13 @@
       <c r="CS67" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="CT67" s="31"/>
+      <c r="CT67" s="31" t="s">
+        <v>7</v>
+      </c>
       <c r="CU67" s="31"/>
       <c r="CV67" s="31"/>
       <c r="CW67" s="31"/>
+      <c r="CX67" s="31"/>
     </row>
     <row r="68" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
@@ -33796,18 +33911,19 @@
       <c r="CI68" s="1"/>
       <c r="CJ68" s="1"/>
       <c r="CK68" s="1"/>
-      <c r="CL68" s="1"/>
-      <c r="CM68" s="1"/>
-      <c r="CN68" s="1"/>
-      <c r="CO68" s="1"/>
+      <c r="CL68" s="24"/>
+      <c r="CM68" s="24"/>
+      <c r="CN68" s="24"/>
+      <c r="CO68" s="24"/>
       <c r="CP68" s="24"/>
       <c r="CQ68" s="24"/>
       <c r="CR68" s="24"/>
       <c r="CS68" s="24"/>
-      <c r="CT68" s="36"/>
+      <c r="CT68" s="24"/>
       <c r="CU68" s="36"/>
       <c r="CV68" s="36"/>
       <c r="CW68" s="24"/>
+      <c r="CX68" s="36"/>
     </row>
     <row r="69" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
@@ -34077,35 +34193,37 @@
       <c r="CK69" s="18">
         <v>20.856417759370458</v>
       </c>
-      <c r="CL69" s="18">
+      <c r="CL69" s="32">
         <v>43.166920913261805</v>
       </c>
-      <c r="CM69" s="18">
-        <v>21.215607909704559</v>
-      </c>
-      <c r="CN69" s="18">
-        <v>15.620251075510822</v>
-      </c>
-      <c r="CO69" s="18">
-        <v>10.532506565542988</v>
+      <c r="CM69" s="32">
+        <v>21.278084912149524</v>
+      </c>
+      <c r="CN69" s="32">
+        <v>15.626497170478643</v>
+      </c>
+      <c r="CO69" s="32">
+        <v>10.472395043267511</v>
       </c>
       <c r="CP69" s="32">
-        <v>6.1271930312449427</v>
+        <v>6.0628231924696081</v>
       </c>
       <c r="CQ69" s="32">
-        <v>9.5665209834779006</v>
+        <v>10.068227742060799</v>
       </c>
       <c r="CR69" s="32">
-        <v>6.7463276754728128</v>
+        <v>6.5347817839216447</v>
       </c>
       <c r="CS69" s="32">
-        <v>10.44538962581494</v>
-      </c>
-      <c r="CT69" s="37"/>
+        <v>11.642604948762482</v>
+      </c>
+      <c r="CT69" s="32">
+        <v>9.358020696483436</v>
+      </c>
       <c r="CU69" s="37"/>
       <c r="CV69" s="37"/>
       <c r="CW69" s="32"/>
-      <c r="CX69" s="11"/>
+      <c r="CX69" s="37"/>
       <c r="CY69" s="11"/>
       <c r="CZ69" s="11"/>
       <c r="DA69" s="11"/>
@@ -34424,35 +34542,37 @@
       <c r="CK70" s="18">
         <v>15.854538829595327</v>
       </c>
-      <c r="CL70" s="18">
+      <c r="CL70" s="32">
         <v>29.369311920617236</v>
       </c>
-      <c r="CM70" s="18">
-        <v>23.297145198549714</v>
-      </c>
-      <c r="CN70" s="18">
-        <v>16.022871600607516</v>
-      </c>
-      <c r="CO70" s="18">
-        <v>13.483136667061672</v>
+      <c r="CM70" s="32">
+        <v>22.20784287342002</v>
+      </c>
+      <c r="CN70" s="32">
+        <v>15.171663579813611</v>
+      </c>
+      <c r="CO70" s="32">
+        <v>12.372237676835269</v>
       </c>
       <c r="CP70" s="32">
-        <v>12.974432603757705</v>
+        <v>13.017499611746956</v>
       </c>
       <c r="CQ70" s="32">
-        <v>11.243807274902395</v>
+        <v>11.314317026440193</v>
       </c>
       <c r="CR70" s="32">
-        <v>6.0350601654929505</v>
+        <v>5.2478118161361351</v>
       </c>
       <c r="CS70" s="32">
-        <v>10.58239826690226</v>
-      </c>
-      <c r="CT70" s="37"/>
+        <v>9.7548708073445169</v>
+      </c>
+      <c r="CT70" s="32">
+        <v>5.41385563316976</v>
+      </c>
       <c r="CU70" s="37"/>
       <c r="CV70" s="37"/>
       <c r="CW70" s="32"/>
-      <c r="CX70" s="11"/>
+      <c r="CX70" s="37"/>
       <c r="CY70" s="11"/>
       <c r="CZ70" s="11"/>
       <c r="DA70" s="11"/>
@@ -34592,19 +34712,19 @@
       <c r="CI71" s="17"/>
       <c r="CJ71" s="17"/>
       <c r="CK71" s="17"/>
-      <c r="CL71" s="17"/>
-      <c r="CM71" s="17"/>
-      <c r="CN71" s="17"/>
-      <c r="CO71" s="17"/>
+      <c r="CL71" s="30"/>
+      <c r="CM71" s="30"/>
+      <c r="CN71" s="30"/>
+      <c r="CO71" s="30"/>
       <c r="CP71" s="30"/>
       <c r="CQ71" s="30"/>
       <c r="CR71" s="30"/>
       <c r="CS71" s="30"/>
-      <c r="CT71" s="38"/>
+      <c r="CT71" s="30"/>
       <c r="CU71" s="38"/>
       <c r="CV71" s="38"/>
       <c r="CW71" s="30"/>
-      <c r="CX71" s="11"/>
+      <c r="CX71" s="38"/>
       <c r="CY71" s="11"/>
       <c r="CZ71" s="11"/>
       <c r="DA71" s="11"/>
@@ -34923,35 +35043,37 @@
       <c r="CK72" s="18">
         <v>18.984232455514132</v>
       </c>
-      <c r="CL72" s="18">
+      <c r="CL72" s="32">
         <v>36.957285734183785</v>
       </c>
-      <c r="CM72" s="18">
-        <v>22.009698448909717</v>
-      </c>
-      <c r="CN72" s="18">
-        <v>15.775983953012229</v>
-      </c>
-      <c r="CO72" s="18">
-        <v>11.607867027039021</v>
+      <c r="CM72" s="32">
+        <v>21.63278045604018</v>
+      </c>
+      <c r="CN72" s="32">
+        <v>15.450568375389139</v>
+      </c>
+      <c r="CO72" s="32">
+        <v>11.164794829384974</v>
       </c>
       <c r="CP72" s="32">
-        <v>9.0380703593042426</v>
+        <v>9.0193737408293231</v>
       </c>
       <c r="CQ72" s="32">
-        <v>10.213144792381797</v>
+        <v>10.545848761978235</v>
       </c>
       <c r="CR72" s="32">
-        <v>6.4706240368288377</v>
+        <v>6.0381867474228272</v>
       </c>
       <c r="CS72" s="32">
-        <v>10.496161568076275</v>
-      </c>
-      <c r="CT72" s="37"/>
+        <v>10.947145383693368</v>
+      </c>
+      <c r="CT72" s="32">
+        <v>7.6197977693466896</v>
+      </c>
       <c r="CU72" s="37"/>
       <c r="CV72" s="37"/>
       <c r="CW72" s="32"/>
-      <c r="CX72" s="11"/>
+      <c r="CX72" s="37"/>
       <c r="CY72" s="11"/>
       <c r="CZ72" s="11"/>
       <c r="DA72" s="11"/>
@@ -35092,18 +35214,19 @@
       <c r="CI73" s="15"/>
       <c r="CJ73" s="15"/>
       <c r="CK73" s="15"/>
-      <c r="CL73" s="15"/>
-      <c r="CM73" s="15"/>
-      <c r="CN73" s="15"/>
-      <c r="CO73" s="15"/>
+      <c r="CL73" s="29"/>
+      <c r="CM73" s="29"/>
+      <c r="CN73" s="29"/>
+      <c r="CO73" s="29"/>
       <c r="CP73" s="29"/>
       <c r="CQ73" s="29"/>
       <c r="CR73" s="29"/>
       <c r="CS73" s="29"/>
-      <c r="CT73" s="26"/>
+      <c r="CT73" s="29"/>
       <c r="CU73" s="26"/>
       <c r="CV73" s="26"/>
       <c r="CW73" s="29"/>
+      <c r="CX73" s="26"/>
     </row>
     <row r="74" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
@@ -35197,18 +35320,19 @@
       <c r="CI74" s="1"/>
       <c r="CJ74" s="1"/>
       <c r="CK74" s="1"/>
-      <c r="CL74" s="1"/>
-      <c r="CM74" s="1"/>
-      <c r="CN74" s="1"/>
-      <c r="CO74" s="1"/>
+      <c r="CL74" s="24"/>
+      <c r="CM74" s="24"/>
+      <c r="CN74" s="24"/>
+      <c r="CO74" s="24"/>
       <c r="CP74" s="24"/>
       <c r="CQ74" s="24"/>
       <c r="CR74" s="24"/>
       <c r="CS74" s="24"/>
-      <c r="CT74" s="36"/>
+      <c r="CT74" s="24"/>
       <c r="CU74" s="36"/>
       <c r="CV74" s="36"/>
       <c r="CW74" s="24"/>
+      <c r="CX74" s="36"/>
     </row>
     <row r="75" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="17"/>
@@ -35299,10 +35423,10 @@
       <c r="CI75" s="11"/>
       <c r="CJ75" s="11"/>
       <c r="CK75" s="11"/>
-      <c r="CL75" s="11"/>
-      <c r="CM75" s="11"/>
-      <c r="CN75" s="11"/>
-      <c r="CO75" s="11"/>
+      <c r="CL75" s="33"/>
+      <c r="CM75" s="33"/>
+      <c r="CN75" s="33"/>
+      <c r="CO75" s="33"/>
       <c r="CP75" s="33"/>
       <c r="CQ75" s="33"/>
       <c r="CR75" s="33"/>
@@ -35311,7 +35435,7 @@
       <c r="CU75" s="33"/>
       <c r="CV75" s="33"/>
       <c r="CW75" s="33"/>
-      <c r="CX75" s="11"/>
+      <c r="CX75" s="33"/>
       <c r="CY75" s="11"/>
       <c r="CZ75" s="11"/>
       <c r="DA75" s="11"/>
@@ -35451,10 +35575,10 @@
       <c r="CI76" s="17"/>
       <c r="CJ76" s="17"/>
       <c r="CK76" s="17"/>
-      <c r="CL76" s="17"/>
-      <c r="CM76" s="17"/>
-      <c r="CN76" s="17"/>
-      <c r="CO76" s="17"/>
+      <c r="CL76" s="30"/>
+      <c r="CM76" s="30"/>
+      <c r="CN76" s="30"/>
+      <c r="CO76" s="30"/>
       <c r="CP76" s="30"/>
       <c r="CQ76" s="30"/>
       <c r="CR76" s="30"/>
@@ -35463,7 +35587,7 @@
       <c r="CU76" s="30"/>
       <c r="CV76" s="30"/>
       <c r="CW76" s="30"/>
-      <c r="CX76" s="11"/>
+      <c r="CX76" s="30"/>
       <c r="CY76" s="11"/>
       <c r="CZ76" s="11"/>
       <c r="DA76" s="11"/>
@@ -35610,10 +35734,10 @@
       <c r="CI77" s="1"/>
       <c r="CJ77" s="1"/>
       <c r="CK77" s="1"/>
-      <c r="CL77" s="1"/>
-      <c r="CM77" s="1"/>
-      <c r="CN77" s="1"/>
-      <c r="CO77" s="1"/>
+      <c r="CL77" s="24"/>
+      <c r="CM77" s="24"/>
+      <c r="CN77" s="24"/>
+      <c r="CO77" s="24"/>
       <c r="CP77" s="24"/>
       <c r="CQ77" s="24"/>
       <c r="CR77" s="24"/>
@@ -35622,10 +35746,11 @@
       <c r="CU77" s="24"/>
       <c r="CV77" s="24"/>
       <c r="CW77" s="24"/>
+      <c r="CX77" s="24"/>
     </row>
     <row r="78" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -35715,10 +35840,10 @@
       <c r="CI78" s="1"/>
       <c r="CJ78" s="1"/>
       <c r="CK78" s="1"/>
-      <c r="CL78" s="1"/>
-      <c r="CM78" s="1"/>
-      <c r="CN78" s="1"/>
-      <c r="CO78" s="1"/>
+      <c r="CL78" s="24"/>
+      <c r="CM78" s="24"/>
+      <c r="CN78" s="24"/>
+      <c r="CO78" s="24"/>
       <c r="CP78" s="24"/>
       <c r="CQ78" s="24"/>
       <c r="CR78" s="24"/>
@@ -35727,6 +35852,7 @@
       <c r="CU78" s="24"/>
       <c r="CV78" s="24"/>
       <c r="CW78" s="24"/>
+      <c r="CX78" s="24"/>
     </row>
     <row r="79" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
@@ -35818,10 +35944,10 @@
       <c r="CI79" s="1"/>
       <c r="CJ79" s="1"/>
       <c r="CK79" s="1"/>
-      <c r="CL79" s="1"/>
-      <c r="CM79" s="1"/>
-      <c r="CN79" s="1"/>
-      <c r="CO79" s="1"/>
+      <c r="CL79" s="24"/>
+      <c r="CM79" s="24"/>
+      <c r="CN79" s="24"/>
+      <c r="CO79" s="24"/>
       <c r="CP79" s="24"/>
       <c r="CQ79" s="24"/>
       <c r="CR79" s="24"/>
@@ -35830,6 +35956,7 @@
       <c r="CU79" s="24"/>
       <c r="CV79" s="24"/>
       <c r="CW79" s="24"/>
+      <c r="CX79" s="24"/>
     </row>
     <row r="80" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
@@ -35923,10 +36050,10 @@
       <c r="CI80" s="1"/>
       <c r="CJ80" s="1"/>
       <c r="CK80" s="1"/>
-      <c r="CL80" s="1"/>
-      <c r="CM80" s="1"/>
-      <c r="CN80" s="1"/>
-      <c r="CO80" s="1"/>
+      <c r="CL80" s="24"/>
+      <c r="CM80" s="24"/>
+      <c r="CN80" s="24"/>
+      <c r="CO80" s="24"/>
       <c r="CP80" s="24"/>
       <c r="CQ80" s="24"/>
       <c r="CR80" s="24"/>
@@ -35935,10 +36062,11 @@
       <c r="CU80" s="24"/>
       <c r="CV80" s="24"/>
       <c r="CW80" s="24"/>
+      <c r="CX80" s="24"/>
     </row>
     <row r="81" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -36028,10 +36156,10 @@
       <c r="CI81" s="1"/>
       <c r="CJ81" s="1"/>
       <c r="CK81" s="1"/>
-      <c r="CL81" s="1"/>
-      <c r="CM81" s="1"/>
-      <c r="CN81" s="1"/>
-      <c r="CO81" s="1"/>
+      <c r="CL81" s="24"/>
+      <c r="CM81" s="24"/>
+      <c r="CN81" s="24"/>
+      <c r="CO81" s="24"/>
       <c r="CP81" s="24"/>
       <c r="CQ81" s="24"/>
       <c r="CR81" s="24"/>
@@ -36040,6 +36168,7 @@
       <c r="CU81" s="24"/>
       <c r="CV81" s="24"/>
       <c r="CW81" s="24"/>
+      <c r="CX81" s="24"/>
     </row>
     <row r="82" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
@@ -36133,10 +36262,10 @@
       <c r="CI82" s="1"/>
       <c r="CJ82" s="1"/>
       <c r="CK82" s="1"/>
-      <c r="CL82" s="1"/>
-      <c r="CM82" s="1"/>
-      <c r="CN82" s="1"/>
-      <c r="CO82" s="1"/>
+      <c r="CL82" s="24"/>
+      <c r="CM82" s="24"/>
+      <c r="CN82" s="24"/>
+      <c r="CO82" s="24"/>
       <c r="CP82" s="24"/>
       <c r="CQ82" s="24"/>
       <c r="CR82" s="24"/>
@@ -36145,6 +36274,7 @@
       <c r="CU82" s="24"/>
       <c r="CV82" s="24"/>
       <c r="CW82" s="24"/>
+      <c r="CX82" s="24"/>
     </row>
     <row r="83" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
@@ -36236,10 +36366,10 @@
       <c r="CI83" s="1"/>
       <c r="CJ83" s="1"/>
       <c r="CK83" s="1"/>
-      <c r="CL83" s="1"/>
-      <c r="CM83" s="1"/>
-      <c r="CN83" s="1"/>
-      <c r="CO83" s="1"/>
+      <c r="CL83" s="24"/>
+      <c r="CM83" s="24"/>
+      <c r="CN83" s="24"/>
+      <c r="CO83" s="24"/>
       <c r="CP83" s="24"/>
       <c r="CQ83" s="24"/>
       <c r="CR83" s="24"/>
@@ -36248,147 +36378,148 @@
       <c r="CU83" s="24"/>
       <c r="CV83" s="24"/>
       <c r="CW83" s="24"/>
+      <c r="CX83" s="24"/>
     </row>
     <row r="84" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
-      <c r="B84" s="40">
+      <c r="B84" s="39">
         <v>2000</v>
       </c>
-      <c r="C84" s="41"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="41"/>
-      <c r="F84" s="40">
+      <c r="C84" s="40"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="40"/>
+      <c r="F84" s="39">
         <v>2001</v>
       </c>
-      <c r="G84" s="41"/>
-      <c r="H84" s="41"/>
-      <c r="I84" s="41"/>
-      <c r="J84" s="40">
+      <c r="G84" s="40"/>
+      <c r="H84" s="40"/>
+      <c r="I84" s="40"/>
+      <c r="J84" s="39">
         <v>2002</v>
       </c>
-      <c r="K84" s="41"/>
-      <c r="L84" s="41"/>
-      <c r="M84" s="41"/>
-      <c r="N84" s="40">
+      <c r="K84" s="40"/>
+      <c r="L84" s="40"/>
+      <c r="M84" s="40"/>
+      <c r="N84" s="39">
         <v>2003</v>
       </c>
-      <c r="O84" s="41"/>
-      <c r="P84" s="41"/>
-      <c r="Q84" s="41"/>
-      <c r="R84" s="40">
+      <c r="O84" s="40"/>
+      <c r="P84" s="40"/>
+      <c r="Q84" s="40"/>
+      <c r="R84" s="39">
         <v>2004</v>
       </c>
-      <c r="S84" s="41"/>
-      <c r="T84" s="41"/>
-      <c r="U84" s="41"/>
-      <c r="V84" s="40">
+      <c r="S84" s="40"/>
+      <c r="T84" s="40"/>
+      <c r="U84" s="40"/>
+      <c r="V84" s="39">
         <v>2005</v>
       </c>
-      <c r="W84" s="41"/>
-      <c r="X84" s="41"/>
-      <c r="Y84" s="41"/>
-      <c r="Z84" s="40">
+      <c r="W84" s="40"/>
+      <c r="X84" s="40"/>
+      <c r="Y84" s="40"/>
+      <c r="Z84" s="39">
         <v>2006</v>
       </c>
-      <c r="AA84" s="41"/>
-      <c r="AB84" s="41"/>
-      <c r="AC84" s="41"/>
-      <c r="AD84" s="40">
+      <c r="AA84" s="40"/>
+      <c r="AB84" s="40"/>
+      <c r="AC84" s="40"/>
+      <c r="AD84" s="39">
         <v>2007</v>
       </c>
-      <c r="AE84" s="41"/>
-      <c r="AF84" s="41"/>
-      <c r="AG84" s="41"/>
-      <c r="AH84" s="40">
+      <c r="AE84" s="40"/>
+      <c r="AF84" s="40"/>
+      <c r="AG84" s="40"/>
+      <c r="AH84" s="39">
         <v>2008</v>
       </c>
-      <c r="AI84" s="41"/>
-      <c r="AJ84" s="41"/>
-      <c r="AK84" s="41"/>
-      <c r="AL84" s="40">
+      <c r="AI84" s="40"/>
+      <c r="AJ84" s="40"/>
+      <c r="AK84" s="40"/>
+      <c r="AL84" s="39">
         <v>2009</v>
       </c>
-      <c r="AM84" s="41"/>
-      <c r="AN84" s="41"/>
-      <c r="AO84" s="41"/>
-      <c r="AP84" s="40">
+      <c r="AM84" s="40"/>
+      <c r="AN84" s="40"/>
+      <c r="AO84" s="40"/>
+      <c r="AP84" s="39">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="41"/>
-      <c r="AR84" s="41"/>
-      <c r="AS84" s="41"/>
-      <c r="AT84" s="40">
+      <c r="AQ84" s="40"/>
+      <c r="AR84" s="40"/>
+      <c r="AS84" s="40"/>
+      <c r="AT84" s="39">
         <v>2011</v>
       </c>
-      <c r="AU84" s="41"/>
-      <c r="AV84" s="41"/>
-      <c r="AW84" s="41"/>
-      <c r="AX84" s="40">
+      <c r="AU84" s="40"/>
+      <c r="AV84" s="40"/>
+      <c r="AW84" s="40"/>
+      <c r="AX84" s="39">
         <v>2012</v>
       </c>
-      <c r="AY84" s="41"/>
-      <c r="AZ84" s="41"/>
-      <c r="BA84" s="41"/>
-      <c r="BB84" s="40">
+      <c r="AY84" s="40"/>
+      <c r="AZ84" s="40"/>
+      <c r="BA84" s="40"/>
+      <c r="BB84" s="39">
         <v>2013</v>
       </c>
-      <c r="BC84" s="41"/>
-      <c r="BD84" s="41"/>
-      <c r="BE84" s="41"/>
-      <c r="BF84" s="40">
+      <c r="BC84" s="40"/>
+      <c r="BD84" s="40"/>
+      <c r="BE84" s="40"/>
+      <c r="BF84" s="39">
         <v>2014</v>
       </c>
-      <c r="BG84" s="41"/>
-      <c r="BH84" s="41"/>
-      <c r="BI84" s="41"/>
-      <c r="BJ84" s="40">
+      <c r="BG84" s="40"/>
+      <c r="BH84" s="40"/>
+      <c r="BI84" s="40"/>
+      <c r="BJ84" s="39">
         <v>2015</v>
       </c>
-      <c r="BK84" s="41"/>
-      <c r="BL84" s="41"/>
-      <c r="BM84" s="41"/>
-      <c r="BN84" s="40">
+      <c r="BK84" s="40"/>
+      <c r="BL84" s="40"/>
+      <c r="BM84" s="40"/>
+      <c r="BN84" s="39">
         <v>2016</v>
       </c>
-      <c r="BO84" s="41"/>
-      <c r="BP84" s="41"/>
-      <c r="BQ84" s="41"/>
-      <c r="BR84" s="40">
+      <c r="BO84" s="40"/>
+      <c r="BP84" s="40"/>
+      <c r="BQ84" s="40"/>
+      <c r="BR84" s="39">
         <v>2017</v>
       </c>
-      <c r="BS84" s="41"/>
-      <c r="BT84" s="41"/>
-      <c r="BU84" s="41"/>
-      <c r="BV84" s="40">
+      <c r="BS84" s="40"/>
+      <c r="BT84" s="40"/>
+      <c r="BU84" s="40"/>
+      <c r="BV84" s="39">
         <v>2018</v>
       </c>
-      <c r="BW84" s="40"/>
-      <c r="BX84" s="40"/>
-      <c r="BY84" s="40"/>
-      <c r="BZ84" s="40">
+      <c r="BW84" s="39"/>
+      <c r="BX84" s="39"/>
+      <c r="BY84" s="39"/>
+      <c r="BZ84" s="39">
         <v>2019</v>
       </c>
-      <c r="CA84" s="40"/>
-      <c r="CB84" s="40"/>
-      <c r="CC84" s="40"/>
-      <c r="CD84" s="40">
+      <c r="CA84" s="39"/>
+      <c r="CB84" s="39"/>
+      <c r="CC84" s="39"/>
+      <c r="CD84" s="39">
         <v>2020</v>
       </c>
-      <c r="CE84" s="40"/>
-      <c r="CF84" s="40"/>
-      <c r="CG84" s="40"/>
+      <c r="CE84" s="39"/>
+      <c r="CF84" s="39"/>
+      <c r="CG84" s="39"/>
       <c r="CH84" s="21">
         <v>2021</v>
       </c>
       <c r="CI84" s="21"/>
       <c r="CJ84" s="21"/>
       <c r="CK84" s="21"/>
-      <c r="CL84" s="21">
+      <c r="CL84" s="25">
         <v>2022</v>
       </c>
-      <c r="CM84" s="21"/>
-      <c r="CN84" s="21"/>
-      <c r="CO84" s="21"/>
+      <c r="CM84" s="25"/>
+      <c r="CN84" s="25"/>
+      <c r="CO84" s="25"/>
       <c r="CP84" s="25">
         <v>2023</v>
       </c>
@@ -36401,6 +36532,9 @@
       <c r="CU84" s="25"/>
       <c r="CV84" s="25"/>
       <c r="CW84" s="25"/>
+      <c r="CX84" s="25">
+        <v>2025</v>
+      </c>
     </row>
     <row r="85" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
@@ -36670,16 +36804,16 @@
       <c r="CK85" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL85" s="7" t="s">
+      <c r="CL85" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="CM85" s="7" t="s">
+      <c r="CM85" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="CN85" s="7" t="s">
+      <c r="CN85" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="CO85" s="7" t="s">
+      <c r="CO85" s="26" t="s">
         <v>9</v>
       </c>
       <c r="CP85" s="26" t="s">
@@ -36705,6 +36839,9 @@
       </c>
       <c r="CW85" s="26" t="s">
         <v>9</v>
+      </c>
+      <c r="CX85" s="26" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -36797,10 +36934,10 @@
       <c r="CI86" s="1"/>
       <c r="CJ86" s="1"/>
       <c r="CK86" s="1"/>
-      <c r="CL86" s="1"/>
-      <c r="CM86" s="1"/>
-      <c r="CN86" s="1"/>
-      <c r="CO86" s="1"/>
+      <c r="CL86" s="24"/>
+      <c r="CM86" s="24"/>
+      <c r="CN86" s="24"/>
+      <c r="CO86" s="24"/>
       <c r="CP86" s="24"/>
       <c r="CQ86" s="24"/>
       <c r="CR86" s="24"/>
@@ -36809,6 +36946,7 @@
       <c r="CU86" s="24"/>
       <c r="CV86" s="24"/>
       <c r="CW86" s="24"/>
+      <c r="CX86" s="24"/>
     </row>
     <row r="87" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
@@ -37078,16 +37216,16 @@
       <c r="CK87" s="18">
         <v>104.44343736226077</v>
       </c>
-      <c r="CL87" s="18">
+      <c r="CL87" s="32">
         <v>103.53314692178175</v>
       </c>
-      <c r="CM87" s="18">
+      <c r="CM87" s="32">
         <v>104.33778752720721</v>
       </c>
-      <c r="CN87" s="18">
+      <c r="CN87" s="32">
         <v>105.69718494277305</v>
       </c>
-      <c r="CO87" s="18">
+      <c r="CO87" s="32">
         <v>107.1502313726435</v>
       </c>
       <c r="CP87" s="32">
@@ -37100,13 +37238,13 @@
         <v>111.24146999255882</v>
       </c>
       <c r="CS87" s="32">
-        <v>112.74327851224521</v>
+        <v>112.74327851224524</v>
       </c>
       <c r="CT87" s="32">
-        <v>112.29064903368966</v>
+        <v>112.29064903368963</v>
       </c>
       <c r="CU87" s="32">
-        <v>113.68731134066461</v>
+        <v>113.68731134066459</v>
       </c>
       <c r="CV87" s="32">
         <v>114.99687492503796</v>
@@ -37114,7 +37252,9 @@
       <c r="CW87" s="32">
         <v>115.72355181558554</v>
       </c>
-      <c r="CX87" s="11"/>
+      <c r="CX87" s="32">
+        <v>115.06179037780375</v>
+      </c>
       <c r="CY87" s="11"/>
       <c r="CZ87" s="11"/>
       <c r="DA87" s="11"/>
@@ -37437,16 +37577,16 @@
       <c r="CK88" s="18">
         <v>109.78266659971807</v>
       </c>
-      <c r="CL88" s="18">
+      <c r="CL88" s="32">
         <v>112.42109834151914</v>
       </c>
-      <c r="CM88" s="18">
+      <c r="CM88" s="32">
         <v>110.41240669809709</v>
       </c>
-      <c r="CN88" s="18">
+      <c r="CN88" s="32">
         <v>110.74048246119284</v>
       </c>
-      <c r="CO88" s="18">
+      <c r="CO88" s="32">
         <v>112.6019085318174</v>
       </c>
       <c r="CP88" s="32">
@@ -37456,24 +37596,26 @@
         <v>117.10001461439616</v>
       </c>
       <c r="CR88" s="32">
-        <v>117.1727140772022</v>
+        <v>117.17271407720227</v>
       </c>
       <c r="CS88" s="32">
         <v>120.87663561958932</v>
       </c>
       <c r="CT88" s="32">
-        <v>124.69005714701819</v>
+        <v>124.69023118932057</v>
       </c>
       <c r="CU88" s="32">
-        <v>121.65948073686937</v>
+        <v>121.88068783491477</v>
       </c>
       <c r="CV88" s="32">
         <v>121.75435710264719</v>
       </c>
       <c r="CW88" s="32">
-        <v>125.57092635452534</v>
-      </c>
-      <c r="CX88" s="11"/>
+        <v>125.57092635452535</v>
+      </c>
+      <c r="CX88" s="32">
+        <v>128.56833238059804</v>
+      </c>
       <c r="CY88" s="11"/>
       <c r="CZ88" s="11"/>
       <c r="DA88" s="11"/>
@@ -37617,10 +37759,10 @@
       <c r="CI89" s="17"/>
       <c r="CJ89" s="17"/>
       <c r="CK89" s="17"/>
-      <c r="CL89" s="17"/>
-      <c r="CM89" s="17"/>
-      <c r="CN89" s="17"/>
-      <c r="CO89" s="17"/>
+      <c r="CL89" s="30"/>
+      <c r="CM89" s="30"/>
+      <c r="CN89" s="30"/>
+      <c r="CO89" s="30"/>
       <c r="CP89" s="30"/>
       <c r="CQ89" s="30"/>
       <c r="CR89" s="30"/>
@@ -37629,7 +37771,7 @@
       <c r="CU89" s="30"/>
       <c r="CV89" s="30"/>
       <c r="CW89" s="30"/>
-      <c r="CX89" s="11"/>
+      <c r="CX89" s="30"/>
       <c r="CY89" s="11"/>
       <c r="CZ89" s="11"/>
       <c r="DA89" s="11"/>
@@ -37952,43 +38094,45 @@
       <c r="CK90" s="18">
         <v>106.44189167365634</v>
       </c>
-      <c r="CL90" s="18">
+      <c r="CL90" s="32">
         <v>107.53318314801193</v>
       </c>
-      <c r="CM90" s="18">
+      <c r="CM90" s="32">
         <v>106.65520823291759</v>
       </c>
-      <c r="CN90" s="18">
+      <c r="CN90" s="32">
         <v>107.64792313340708</v>
       </c>
-      <c r="CO90" s="18">
+      <c r="CO90" s="32">
         <v>109.13710124928413</v>
       </c>
       <c r="CP90" s="32">
         <v>112.28990192010475</v>
       </c>
       <c r="CQ90" s="32">
-        <v>112.32564004118557</v>
+        <v>112.30837668182221</v>
       </c>
       <c r="CR90" s="32">
-        <v>113.54055655686435</v>
+        <v>113.53012197856054</v>
       </c>
       <c r="CS90" s="32">
-        <v>115.75729524993135</v>
+        <v>115.73968614842678</v>
       </c>
       <c r="CT90" s="32">
-        <v>117.75214159432691</v>
+        <v>117.75523726563486</v>
       </c>
       <c r="CU90" s="32">
-        <v>116.7894661114106</v>
+        <v>116.8496310106684</v>
       </c>
       <c r="CV90" s="32">
-        <v>117.60551476928403</v>
+        <v>117.58490699396924</v>
       </c>
       <c r="CW90" s="32">
-        <v>119.37558813426679</v>
-      </c>
-      <c r="CX90" s="11"/>
+        <v>119.31243382845966</v>
+      </c>
+      <c r="CX90" s="32">
+        <v>120.89221375685833</v>
+      </c>
       <c r="CY90" s="11"/>
       <c r="CZ90" s="11"/>
       <c r="DA90" s="11"/>
@@ -38133,10 +38277,10 @@
       <c r="CI91" s="15"/>
       <c r="CJ91" s="15"/>
       <c r="CK91" s="15"/>
-      <c r="CL91" s="15"/>
-      <c r="CM91" s="15"/>
-      <c r="CN91" s="15"/>
-      <c r="CO91" s="15"/>
+      <c r="CL91" s="29"/>
+      <c r="CM91" s="29"/>
+      <c r="CN91" s="29"/>
+      <c r="CO91" s="29"/>
       <c r="CP91" s="29"/>
       <c r="CQ91" s="29"/>
       <c r="CR91" s="29"/>
@@ -38145,6 +38289,7 @@
       <c r="CU91" s="29"/>
       <c r="CV91" s="29"/>
       <c r="CW91" s="29"/>
+      <c r="CX91" s="29"/>
     </row>
     <row r="92" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="16" t="s">
@@ -38238,10 +38383,10 @@
       <c r="CI92" s="1"/>
       <c r="CJ92" s="1"/>
       <c r="CK92" s="1"/>
-      <c r="CL92" s="1"/>
-      <c r="CM92" s="1"/>
-      <c r="CN92" s="1"/>
-      <c r="CO92" s="1"/>
+      <c r="CL92" s="24"/>
+      <c r="CM92" s="24"/>
+      <c r="CN92" s="24"/>
+      <c r="CO92" s="24"/>
       <c r="CP92" s="24"/>
       <c r="CQ92" s="24"/>
       <c r="CR92" s="24"/>
@@ -38250,6 +38395,7 @@
       <c r="CU92" s="24"/>
       <c r="CV92" s="24"/>
       <c r="CW92" s="24"/>
+      <c r="CX92" s="24"/>
     </row>
     <row r="93" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
@@ -38340,10 +38486,10 @@
       <c r="CI93" s="1"/>
       <c r="CJ93" s="1"/>
       <c r="CK93" s="1"/>
-      <c r="CL93" s="1"/>
-      <c r="CM93" s="1"/>
-      <c r="CN93" s="1"/>
-      <c r="CO93" s="1"/>
+      <c r="CL93" s="24"/>
+      <c r="CM93" s="24"/>
+      <c r="CN93" s="24"/>
+      <c r="CO93" s="24"/>
       <c r="CP93" s="24"/>
       <c r="CQ93" s="24"/>
       <c r="CR93" s="24"/>
@@ -38352,6 +38498,7 @@
       <c r="CU93" s="24"/>
       <c r="CV93" s="24"/>
       <c r="CW93" s="24"/>
+      <c r="CX93" s="24"/>
     </row>
     <row r="94" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
@@ -38442,10 +38589,10 @@
       <c r="CI94" s="1"/>
       <c r="CJ94" s="1"/>
       <c r="CK94" s="1"/>
-      <c r="CL94" s="1"/>
-      <c r="CM94" s="1"/>
-      <c r="CN94" s="1"/>
-      <c r="CO94" s="1"/>
+      <c r="CL94" s="24"/>
+      <c r="CM94" s="24"/>
+      <c r="CN94" s="24"/>
+      <c r="CO94" s="24"/>
       <c r="CP94" s="24"/>
       <c r="CQ94" s="24"/>
       <c r="CR94" s="24"/>
@@ -38454,6 +38601,7 @@
       <c r="CU94" s="24"/>
       <c r="CV94" s="24"/>
       <c r="CW94" s="24"/>
+      <c r="CX94" s="24"/>
     </row>
     <row r="95" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
@@ -38547,10 +38695,10 @@
       <c r="CI95" s="1"/>
       <c r="CJ95" s="1"/>
       <c r="CK95" s="1"/>
-      <c r="CL95" s="1"/>
-      <c r="CM95" s="1"/>
-      <c r="CN95" s="1"/>
-      <c r="CO95" s="1"/>
+      <c r="CL95" s="24"/>
+      <c r="CM95" s="24"/>
+      <c r="CN95" s="24"/>
+      <c r="CO95" s="24"/>
       <c r="CP95" s="24"/>
       <c r="CQ95" s="24"/>
       <c r="CR95" s="24"/>
@@ -38559,6 +38707,7 @@
       <c r="CU95" s="24"/>
       <c r="CV95" s="24"/>
       <c r="CW95" s="24"/>
+      <c r="CX95" s="24"/>
     </row>
     <row r="96" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
@@ -38652,10 +38801,10 @@
       <c r="CI96" s="1"/>
       <c r="CJ96" s="1"/>
       <c r="CK96" s="1"/>
-      <c r="CL96" s="1"/>
-      <c r="CM96" s="1"/>
-      <c r="CN96" s="1"/>
-      <c r="CO96" s="1"/>
+      <c r="CL96" s="24"/>
+      <c r="CM96" s="24"/>
+      <c r="CN96" s="24"/>
+      <c r="CO96" s="24"/>
       <c r="CP96" s="24"/>
       <c r="CQ96" s="24"/>
       <c r="CR96" s="24"/>
@@ -38664,10 +38813,11 @@
       <c r="CU96" s="24"/>
       <c r="CV96" s="24"/>
       <c r="CW96" s="24"/>
+      <c r="CX96" s="24"/>
     </row>
     <row r="97" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -38757,10 +38907,10 @@
       <c r="CI97" s="1"/>
       <c r="CJ97" s="1"/>
       <c r="CK97" s="1"/>
-      <c r="CL97" s="1"/>
-      <c r="CM97" s="1"/>
-      <c r="CN97" s="1"/>
-      <c r="CO97" s="1"/>
+      <c r="CL97" s="24"/>
+      <c r="CM97" s="24"/>
+      <c r="CN97" s="24"/>
+      <c r="CO97" s="24"/>
       <c r="CP97" s="24"/>
       <c r="CQ97" s="24"/>
       <c r="CR97" s="24"/>
@@ -38769,6 +38919,7 @@
       <c r="CU97" s="24"/>
       <c r="CV97" s="24"/>
       <c r="CW97" s="24"/>
+      <c r="CX97" s="24"/>
     </row>
     <row r="98" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
@@ -38860,10 +39011,10 @@
       <c r="CI98" s="1"/>
       <c r="CJ98" s="1"/>
       <c r="CK98" s="1"/>
-      <c r="CL98" s="1"/>
-      <c r="CM98" s="1"/>
-      <c r="CN98" s="1"/>
-      <c r="CO98" s="1"/>
+      <c r="CL98" s="24"/>
+      <c r="CM98" s="24"/>
+      <c r="CN98" s="24"/>
+      <c r="CO98" s="24"/>
       <c r="CP98" s="24"/>
       <c r="CQ98" s="24"/>
       <c r="CR98" s="24"/>
@@ -38872,6 +39023,7 @@
       <c r="CU98" s="24"/>
       <c r="CV98" s="24"/>
       <c r="CW98" s="24"/>
+      <c r="CX98" s="24"/>
     </row>
     <row r="99" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
@@ -38965,10 +39117,10 @@
       <c r="CI99" s="1"/>
       <c r="CJ99" s="1"/>
       <c r="CK99" s="1"/>
-      <c r="CL99" s="1"/>
-      <c r="CM99" s="1"/>
-      <c r="CN99" s="1"/>
-      <c r="CO99" s="1"/>
+      <c r="CL99" s="24"/>
+      <c r="CM99" s="24"/>
+      <c r="CN99" s="24"/>
+      <c r="CO99" s="24"/>
       <c r="CP99" s="24"/>
       <c r="CQ99" s="24"/>
       <c r="CR99" s="24"/>
@@ -38977,10 +39129,11 @@
       <c r="CU99" s="24"/>
       <c r="CV99" s="24"/>
       <c r="CW99" s="24"/>
+      <c r="CX99" s="24"/>
     </row>
     <row r="100" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -39070,10 +39223,10 @@
       <c r="CI100" s="1"/>
       <c r="CJ100" s="1"/>
       <c r="CK100" s="1"/>
-      <c r="CL100" s="1"/>
-      <c r="CM100" s="1"/>
-      <c r="CN100" s="1"/>
-      <c r="CO100" s="1"/>
+      <c r="CL100" s="24"/>
+      <c r="CM100" s="24"/>
+      <c r="CN100" s="24"/>
+      <c r="CO100" s="24"/>
       <c r="CP100" s="24"/>
       <c r="CQ100" s="24"/>
       <c r="CR100" s="24"/>
@@ -39082,6 +39235,7 @@
       <c r="CU100" s="24"/>
       <c r="CV100" s="24"/>
       <c r="CW100" s="24"/>
+      <c r="CX100" s="24"/>
     </row>
     <row r="101" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
@@ -39175,10 +39329,10 @@
       <c r="CI101" s="1"/>
       <c r="CJ101" s="1"/>
       <c r="CK101" s="1"/>
-      <c r="CL101" s="1"/>
-      <c r="CM101" s="1"/>
-      <c r="CN101" s="1"/>
-      <c r="CO101" s="1"/>
+      <c r="CL101" s="24"/>
+      <c r="CM101" s="24"/>
+      <c r="CN101" s="24"/>
+      <c r="CO101" s="24"/>
       <c r="CP101" s="24"/>
       <c r="CQ101" s="24"/>
       <c r="CR101" s="24"/>
@@ -39187,6 +39341,7 @@
       <c r="CU101" s="24"/>
       <c r="CV101" s="24"/>
       <c r="CW101" s="24"/>
+      <c r="CX101" s="24"/>
     </row>
     <row r="102" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
@@ -39278,10 +39433,10 @@
       <c r="CI102" s="1"/>
       <c r="CJ102" s="1"/>
       <c r="CK102" s="1"/>
-      <c r="CL102" s="1"/>
-      <c r="CM102" s="1"/>
-      <c r="CN102" s="1"/>
-      <c r="CO102" s="1"/>
+      <c r="CL102" s="24"/>
+      <c r="CM102" s="24"/>
+      <c r="CN102" s="24"/>
+      <c r="CO102" s="24"/>
       <c r="CP102" s="24"/>
       <c r="CQ102" s="24"/>
       <c r="CR102" s="24"/>
@@ -39290,147 +39445,148 @@
       <c r="CU102" s="24"/>
       <c r="CV102" s="24"/>
       <c r="CW102" s="24"/>
+      <c r="CX102" s="24"/>
     </row>
     <row r="103" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
-      <c r="B103" s="40">
+      <c r="B103" s="39">
         <v>2000</v>
       </c>
-      <c r="C103" s="41"/>
-      <c r="D103" s="41"/>
-      <c r="E103" s="41"/>
-      <c r="F103" s="40">
+      <c r="C103" s="40"/>
+      <c r="D103" s="40"/>
+      <c r="E103" s="40"/>
+      <c r="F103" s="39">
         <v>2001</v>
       </c>
-      <c r="G103" s="41"/>
-      <c r="H103" s="41"/>
-      <c r="I103" s="41"/>
-      <c r="J103" s="40">
+      <c r="G103" s="40"/>
+      <c r="H103" s="40"/>
+      <c r="I103" s="40"/>
+      <c r="J103" s="39">
         <v>2002</v>
       </c>
-      <c r="K103" s="41"/>
-      <c r="L103" s="41"/>
-      <c r="M103" s="41"/>
-      <c r="N103" s="40">
+      <c r="K103" s="40"/>
+      <c r="L103" s="40"/>
+      <c r="M103" s="40"/>
+      <c r="N103" s="39">
         <v>2003</v>
       </c>
-      <c r="O103" s="41"/>
-      <c r="P103" s="41"/>
-      <c r="Q103" s="41"/>
-      <c r="R103" s="40">
+      <c r="O103" s="40"/>
+      <c r="P103" s="40"/>
+      <c r="Q103" s="40"/>
+      <c r="R103" s="39">
         <v>2004</v>
       </c>
-      <c r="S103" s="41"/>
-      <c r="T103" s="41"/>
-      <c r="U103" s="41"/>
-      <c r="V103" s="40">
+      <c r="S103" s="40"/>
+      <c r="T103" s="40"/>
+      <c r="U103" s="40"/>
+      <c r="V103" s="39">
         <v>2005</v>
       </c>
-      <c r="W103" s="41"/>
-      <c r="X103" s="41"/>
-      <c r="Y103" s="41"/>
-      <c r="Z103" s="40">
+      <c r="W103" s="40"/>
+      <c r="X103" s="40"/>
+      <c r="Y103" s="40"/>
+      <c r="Z103" s="39">
         <v>2006</v>
       </c>
-      <c r="AA103" s="41"/>
-      <c r="AB103" s="41"/>
-      <c r="AC103" s="41"/>
-      <c r="AD103" s="40">
+      <c r="AA103" s="40"/>
+      <c r="AB103" s="40"/>
+      <c r="AC103" s="40"/>
+      <c r="AD103" s="39">
         <v>2007</v>
       </c>
-      <c r="AE103" s="41"/>
-      <c r="AF103" s="41"/>
-      <c r="AG103" s="41"/>
-      <c r="AH103" s="40">
+      <c r="AE103" s="40"/>
+      <c r="AF103" s="40"/>
+      <c r="AG103" s="40"/>
+      <c r="AH103" s="39">
         <v>2008</v>
       </c>
-      <c r="AI103" s="41"/>
-      <c r="AJ103" s="41"/>
-      <c r="AK103" s="41"/>
-      <c r="AL103" s="40">
+      <c r="AI103" s="40"/>
+      <c r="AJ103" s="40"/>
+      <c r="AK103" s="40"/>
+      <c r="AL103" s="39">
         <v>2009</v>
       </c>
-      <c r="AM103" s="41"/>
-      <c r="AN103" s="41"/>
-      <c r="AO103" s="41"/>
-      <c r="AP103" s="40">
+      <c r="AM103" s="40"/>
+      <c r="AN103" s="40"/>
+      <c r="AO103" s="40"/>
+      <c r="AP103" s="39">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="41"/>
-      <c r="AR103" s="41"/>
-      <c r="AS103" s="41"/>
-      <c r="AT103" s="40">
+      <c r="AQ103" s="40"/>
+      <c r="AR103" s="40"/>
+      <c r="AS103" s="40"/>
+      <c r="AT103" s="39">
         <v>2011</v>
       </c>
-      <c r="AU103" s="41"/>
-      <c r="AV103" s="41"/>
-      <c r="AW103" s="41"/>
-      <c r="AX103" s="40">
+      <c r="AU103" s="40"/>
+      <c r="AV103" s="40"/>
+      <c r="AW103" s="40"/>
+      <c r="AX103" s="39">
         <v>2012</v>
       </c>
-      <c r="AY103" s="41"/>
-      <c r="AZ103" s="41"/>
-      <c r="BA103" s="41"/>
-      <c r="BB103" s="40">
+      <c r="AY103" s="40"/>
+      <c r="AZ103" s="40"/>
+      <c r="BA103" s="40"/>
+      <c r="BB103" s="39">
         <v>2013</v>
       </c>
-      <c r="BC103" s="41"/>
-      <c r="BD103" s="41"/>
-      <c r="BE103" s="41"/>
-      <c r="BF103" s="40">
+      <c r="BC103" s="40"/>
+      <c r="BD103" s="40"/>
+      <c r="BE103" s="40"/>
+      <c r="BF103" s="39">
         <v>2014</v>
       </c>
-      <c r="BG103" s="41"/>
-      <c r="BH103" s="41"/>
-      <c r="BI103" s="41"/>
-      <c r="BJ103" s="40">
+      <c r="BG103" s="40"/>
+      <c r="BH103" s="40"/>
+      <c r="BI103" s="40"/>
+      <c r="BJ103" s="39">
         <v>2015</v>
       </c>
-      <c r="BK103" s="41"/>
-      <c r="BL103" s="41"/>
-      <c r="BM103" s="41"/>
-      <c r="BN103" s="40">
+      <c r="BK103" s="40"/>
+      <c r="BL103" s="40"/>
+      <c r="BM103" s="40"/>
+      <c r="BN103" s="39">
         <v>2016</v>
       </c>
-      <c r="BO103" s="41"/>
-      <c r="BP103" s="41"/>
-      <c r="BQ103" s="41"/>
-      <c r="BR103" s="40">
+      <c r="BO103" s="40"/>
+      <c r="BP103" s="40"/>
+      <c r="BQ103" s="40"/>
+      <c r="BR103" s="39">
         <v>2017</v>
       </c>
-      <c r="BS103" s="41"/>
-      <c r="BT103" s="41"/>
-      <c r="BU103" s="41"/>
-      <c r="BV103" s="40">
+      <c r="BS103" s="40"/>
+      <c r="BT103" s="40"/>
+      <c r="BU103" s="40"/>
+      <c r="BV103" s="39">
         <v>2018</v>
       </c>
-      <c r="BW103" s="40"/>
-      <c r="BX103" s="40"/>
-      <c r="BY103" s="40"/>
-      <c r="BZ103" s="40">
+      <c r="BW103" s="39"/>
+      <c r="BX103" s="39"/>
+      <c r="BY103" s="39"/>
+      <c r="BZ103" s="39">
         <v>2019</v>
       </c>
-      <c r="CA103" s="40"/>
-      <c r="CB103" s="40"/>
-      <c r="CC103" s="40"/>
-      <c r="CD103" s="40">
+      <c r="CA103" s="39"/>
+      <c r="CB103" s="39"/>
+      <c r="CC103" s="39"/>
+      <c r="CD103" s="39">
         <v>2020</v>
       </c>
-      <c r="CE103" s="40"/>
-      <c r="CF103" s="40"/>
-      <c r="CG103" s="40"/>
+      <c r="CE103" s="39"/>
+      <c r="CF103" s="39"/>
+      <c r="CG103" s="39"/>
       <c r="CH103" s="21">
         <v>2021</v>
       </c>
       <c r="CI103" s="21"/>
       <c r="CJ103" s="21"/>
       <c r="CK103" s="21"/>
-      <c r="CL103" s="21">
+      <c r="CL103" s="25">
         <v>2022</v>
       </c>
-      <c r="CM103" s="21"/>
-      <c r="CN103" s="21"/>
-      <c r="CO103" s="21"/>
+      <c r="CM103" s="25"/>
+      <c r="CN103" s="25"/>
+      <c r="CO103" s="25"/>
       <c r="CP103" s="25">
         <v>2023</v>
       </c>
@@ -39443,6 +39599,9 @@
       <c r="CU103" s="25"/>
       <c r="CV103" s="25"/>
       <c r="CW103" s="25"/>
+      <c r="CX103" s="25">
+        <v>2025</v>
+      </c>
     </row>
     <row r="104" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
@@ -39712,16 +39871,16 @@
       <c r="CK104" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL104" s="7" t="s">
+      <c r="CL104" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="CM104" s="7" t="s">
+      <c r="CM104" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="CN104" s="7" t="s">
+      <c r="CN104" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="CO104" s="7" t="s">
+      <c r="CO104" s="26" t="s">
         <v>9</v>
       </c>
       <c r="CP104" s="26" t="s">
@@ -39747,6 +39906,9 @@
       </c>
       <c r="CW104" s="26" t="s">
         <v>9</v>
+      </c>
+      <c r="CX104" s="26" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -39839,10 +40001,10 @@
       <c r="CI105" s="1"/>
       <c r="CJ105" s="1"/>
       <c r="CK105" s="1"/>
-      <c r="CL105" s="1"/>
-      <c r="CM105" s="1"/>
-      <c r="CN105" s="1"/>
-      <c r="CO105" s="1"/>
+      <c r="CL105" s="24"/>
+      <c r="CM105" s="24"/>
+      <c r="CN105" s="24"/>
+      <c r="CO105" s="24"/>
       <c r="CP105" s="24"/>
       <c r="CQ105" s="24"/>
       <c r="CR105" s="24"/>
@@ -39851,6 +40013,7 @@
       <c r="CU105" s="24"/>
       <c r="CV105" s="24"/>
       <c r="CW105" s="24"/>
+      <c r="CX105" s="24"/>
     </row>
     <row r="106" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
@@ -40120,43 +40283,45 @@
       <c r="CK106" s="18">
         <v>61.395596374991655</v>
       </c>
-      <c r="CL106" s="18">
+      <c r="CL106" s="32">
         <v>52.949139060683791</v>
       </c>
-      <c r="CM106" s="18">
+      <c r="CM106" s="32">
         <v>60.506862699819038</v>
       </c>
-      <c r="CN106" s="18">
+      <c r="CN106" s="32">
         <v>60.208972555171606</v>
       </c>
-      <c r="CO106" s="18">
+      <c r="CO106" s="32">
         <v>62.397853864057808</v>
       </c>
       <c r="CP106" s="32">
         <v>55.106397820732454</v>
       </c>
       <c r="CQ106" s="32">
-        <v>59.809580313293111</v>
+        <v>60.035068802532741</v>
       </c>
       <c r="CR106" s="32">
-        <v>59.997696760683105</v>
+        <v>60.175590306404438</v>
       </c>
       <c r="CS106" s="32">
-        <v>61.303666996694353</v>
+        <v>61.523893563382373</v>
       </c>
       <c r="CT106" s="32">
-        <v>53.358404167529137</v>
+        <v>53.333783622669742</v>
       </c>
       <c r="CU106" s="32">
-        <v>59.465088540388656</v>
+        <v>59.742165605105271</v>
       </c>
       <c r="CV106" s="32">
-        <v>60.034427451498615</v>
+        <v>60.343199148553786</v>
       </c>
       <c r="CW106" s="32">
-        <v>60.988899190754964</v>
-      </c>
-      <c r="CX106" s="11"/>
+        <v>61.643222110336225</v>
+      </c>
+      <c r="CX106" s="32">
+        <v>54.091658944412899</v>
+      </c>
       <c r="CY106" s="11"/>
       <c r="CZ106" s="11"/>
       <c r="DA106" s="11"/>
@@ -40479,43 +40644,45 @@
       <c r="CK107" s="18">
         <v>38.604403625008331</v>
       </c>
-      <c r="CL107" s="18">
+      <c r="CL107" s="32">
         <v>47.050860939316202</v>
       </c>
-      <c r="CM107" s="18">
+      <c r="CM107" s="32">
         <v>39.493137300180962</v>
       </c>
-      <c r="CN107" s="18">
+      <c r="CN107" s="32">
         <v>39.791027444828394</v>
       </c>
-      <c r="CO107" s="18">
+      <c r="CO107" s="32">
         <v>37.602146135942185</v>
       </c>
       <c r="CP107" s="32">
         <v>44.893602179267539</v>
       </c>
       <c r="CQ107" s="32">
-        <v>40.190419686706903</v>
+        <v>39.964931197467266</v>
       </c>
       <c r="CR107" s="32">
-        <v>40.002303239316895</v>
+        <v>39.824409693595555</v>
       </c>
       <c r="CS107" s="32">
-        <v>38.696333003305647</v>
+        <v>38.476106436617627</v>
       </c>
       <c r="CT107" s="32">
-        <v>46.64159583247087</v>
+        <v>46.666216377330251</v>
       </c>
       <c r="CU107" s="32">
-        <v>40.534911459611344</v>
+        <v>40.257834394894729</v>
       </c>
       <c r="CV107" s="32">
-        <v>39.965572548501378</v>
+        <v>39.656800851446221</v>
       </c>
       <c r="CW107" s="32">
-        <v>39.01110080924505</v>
-      </c>
-      <c r="CX107" s="11"/>
+        <v>38.356777889663768</v>
+      </c>
+      <c r="CX107" s="32">
+        <v>45.908341055587101</v>
+      </c>
       <c r="CY107" s="11"/>
       <c r="CZ107" s="11"/>
       <c r="DA107" s="11"/>
@@ -40659,10 +40826,10 @@
       <c r="CI108" s="17"/>
       <c r="CJ108" s="17"/>
       <c r="CK108" s="17"/>
-      <c r="CL108" s="17"/>
-      <c r="CM108" s="17"/>
-      <c r="CN108" s="17"/>
-      <c r="CO108" s="17"/>
+      <c r="CL108" s="30"/>
+      <c r="CM108" s="30"/>
+      <c r="CN108" s="30"/>
+      <c r="CO108" s="30"/>
       <c r="CP108" s="30"/>
       <c r="CQ108" s="30"/>
       <c r="CR108" s="30"/>
@@ -40671,7 +40838,7 @@
       <c r="CU108" s="30"/>
       <c r="CV108" s="30"/>
       <c r="CW108" s="30"/>
-      <c r="CX108" s="11"/>
+      <c r="CX108" s="30"/>
       <c r="CY108" s="11"/>
       <c r="CZ108" s="11"/>
       <c r="DA108" s="11"/>
@@ -40994,16 +41161,16 @@
       <c r="CK109" s="18">
         <v>100</v>
       </c>
-      <c r="CL109" s="18">
+      <c r="CL109" s="32">
         <v>100</v>
       </c>
-      <c r="CM109" s="18">
+      <c r="CM109" s="32">
         <v>100</v>
       </c>
-      <c r="CN109" s="18">
+      <c r="CN109" s="32">
         <v>100</v>
       </c>
-      <c r="CO109" s="18">
+      <c r="CO109" s="32">
         <v>100</v>
       </c>
       <c r="CP109" s="32">
@@ -41030,7 +41197,9 @@
       <c r="CW109" s="32">
         <v>100</v>
       </c>
-      <c r="CX109" s="11"/>
+      <c r="CX109" s="32">
+        <v>100</v>
+      </c>
       <c r="CY109" s="11"/>
       <c r="CZ109" s="11"/>
       <c r="DA109" s="11"/>
@@ -41175,10 +41344,10 @@
       <c r="CI110" s="15"/>
       <c r="CJ110" s="15"/>
       <c r="CK110" s="15"/>
-      <c r="CL110" s="15"/>
-      <c r="CM110" s="15"/>
-      <c r="CN110" s="15"/>
-      <c r="CO110" s="15"/>
+      <c r="CL110" s="29"/>
+      <c r="CM110" s="29"/>
+      <c r="CN110" s="29"/>
+      <c r="CO110" s="29"/>
       <c r="CP110" s="29"/>
       <c r="CQ110" s="29"/>
       <c r="CR110" s="29"/>
@@ -41187,6 +41356,7 @@
       <c r="CU110" s="29"/>
       <c r="CV110" s="29"/>
       <c r="CW110" s="29"/>
+      <c r="CX110" s="29"/>
     </row>
     <row r="111" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="16" t="s">
@@ -41280,10 +41450,10 @@
       <c r="CI111" s="1"/>
       <c r="CJ111" s="1"/>
       <c r="CK111" s="1"/>
-      <c r="CL111" s="1"/>
-      <c r="CM111" s="1"/>
-      <c r="CN111" s="1"/>
-      <c r="CO111" s="1"/>
+      <c r="CL111" s="24"/>
+      <c r="CM111" s="24"/>
+      <c r="CN111" s="24"/>
+      <c r="CO111" s="24"/>
       <c r="CP111" s="24"/>
       <c r="CQ111" s="24"/>
       <c r="CR111" s="24"/>
@@ -41292,6 +41462,7 @@
       <c r="CU111" s="24"/>
       <c r="CV111" s="24"/>
       <c r="CW111" s="24"/>
+      <c r="CX111" s="24"/>
     </row>
     <row r="112" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="17"/>
@@ -41382,10 +41553,10 @@
       <c r="CI112" s="17"/>
       <c r="CJ112" s="17"/>
       <c r="CK112" s="17"/>
-      <c r="CL112" s="17"/>
-      <c r="CM112" s="17"/>
-      <c r="CN112" s="17"/>
-      <c r="CO112" s="17"/>
+      <c r="CL112" s="30"/>
+      <c r="CM112" s="30"/>
+      <c r="CN112" s="30"/>
+      <c r="CO112" s="30"/>
       <c r="CP112" s="30"/>
       <c r="CQ112" s="30"/>
       <c r="CR112" s="30"/>
@@ -41394,7 +41565,7 @@
       <c r="CU112" s="30"/>
       <c r="CV112" s="30"/>
       <c r="CW112" s="30"/>
-      <c r="CX112" s="11"/>
+      <c r="CX112" s="30"/>
       <c r="CY112" s="11"/>
       <c r="CZ112" s="11"/>
       <c r="DA112" s="11"/>
@@ -41538,10 +41709,10 @@
       <c r="CI113" s="17"/>
       <c r="CJ113" s="17"/>
       <c r="CK113" s="17"/>
-      <c r="CL113" s="17"/>
-      <c r="CM113" s="17"/>
-      <c r="CN113" s="17"/>
-      <c r="CO113" s="17"/>
+      <c r="CL113" s="30"/>
+      <c r="CM113" s="30"/>
+      <c r="CN113" s="30"/>
+      <c r="CO113" s="30"/>
       <c r="CP113" s="30"/>
       <c r="CQ113" s="30"/>
       <c r="CR113" s="30"/>
@@ -41550,7 +41721,7 @@
       <c r="CU113" s="30"/>
       <c r="CV113" s="30"/>
       <c r="CW113" s="30"/>
-      <c r="CX113" s="11"/>
+      <c r="CX113" s="30"/>
       <c r="CY113" s="11"/>
       <c r="CZ113" s="11"/>
       <c r="DA113" s="11"/>
@@ -41697,10 +41868,10 @@
       <c r="CI114" s="1"/>
       <c r="CJ114" s="1"/>
       <c r="CK114" s="1"/>
-      <c r="CL114" s="1"/>
-      <c r="CM114" s="1"/>
-      <c r="CN114" s="1"/>
-      <c r="CO114" s="1"/>
+      <c r="CL114" s="24"/>
+      <c r="CM114" s="24"/>
+      <c r="CN114" s="24"/>
+      <c r="CO114" s="24"/>
       <c r="CP114" s="24"/>
       <c r="CQ114" s="24"/>
       <c r="CR114" s="24"/>
@@ -41709,6 +41880,7 @@
       <c r="CU114" s="24"/>
       <c r="CV114" s="24"/>
       <c r="CW114" s="24"/>
+      <c r="CX114" s="24"/>
     </row>
     <row r="115" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
@@ -41802,10 +41974,10 @@
       <c r="CI115" s="1"/>
       <c r="CJ115" s="1"/>
       <c r="CK115" s="1"/>
-      <c r="CL115" s="1"/>
-      <c r="CM115" s="1"/>
-      <c r="CN115" s="1"/>
-      <c r="CO115" s="1"/>
+      <c r="CL115" s="24"/>
+      <c r="CM115" s="24"/>
+      <c r="CN115" s="24"/>
+      <c r="CO115" s="24"/>
       <c r="CP115" s="24"/>
       <c r="CQ115" s="24"/>
       <c r="CR115" s="24"/>
@@ -41814,10 +41986,11 @@
       <c r="CU115" s="24"/>
       <c r="CV115" s="24"/>
       <c r="CW115" s="24"/>
+      <c r="CX115" s="24"/>
     </row>
     <row r="116" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -41907,10 +42080,10 @@
       <c r="CI116" s="1"/>
       <c r="CJ116" s="1"/>
       <c r="CK116" s="1"/>
-      <c r="CL116" s="1"/>
-      <c r="CM116" s="1"/>
-      <c r="CN116" s="1"/>
-      <c r="CO116" s="1"/>
+      <c r="CL116" s="24"/>
+      <c r="CM116" s="24"/>
+      <c r="CN116" s="24"/>
+      <c r="CO116" s="24"/>
       <c r="CP116" s="24"/>
       <c r="CQ116" s="24"/>
       <c r="CR116" s="24"/>
@@ -41919,6 +42092,7 @@
       <c r="CU116" s="24"/>
       <c r="CV116" s="24"/>
       <c r="CW116" s="24"/>
+      <c r="CX116" s="24"/>
     </row>
     <row r="117" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
@@ -42010,10 +42184,10 @@
       <c r="CI117" s="1"/>
       <c r="CJ117" s="1"/>
       <c r="CK117" s="1"/>
-      <c r="CL117" s="1"/>
-      <c r="CM117" s="1"/>
-      <c r="CN117" s="1"/>
-      <c r="CO117" s="1"/>
+      <c r="CL117" s="24"/>
+      <c r="CM117" s="24"/>
+      <c r="CN117" s="24"/>
+      <c r="CO117" s="24"/>
       <c r="CP117" s="24"/>
       <c r="CQ117" s="24"/>
       <c r="CR117" s="24"/>
@@ -42022,6 +42196,7 @@
       <c r="CU117" s="24"/>
       <c r="CV117" s="24"/>
       <c r="CW117" s="24"/>
+      <c r="CX117" s="24"/>
     </row>
     <row r="118" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
@@ -42115,10 +42290,10 @@
       <c r="CI118" s="1"/>
       <c r="CJ118" s="1"/>
       <c r="CK118" s="1"/>
-      <c r="CL118" s="1"/>
-      <c r="CM118" s="1"/>
-      <c r="CN118" s="1"/>
-      <c r="CO118" s="1"/>
+      <c r="CL118" s="24"/>
+      <c r="CM118" s="24"/>
+      <c r="CN118" s="24"/>
+      <c r="CO118" s="24"/>
       <c r="CP118" s="24"/>
       <c r="CQ118" s="24"/>
       <c r="CR118" s="24"/>
@@ -42127,10 +42302,11 @@
       <c r="CU118" s="24"/>
       <c r="CV118" s="24"/>
       <c r="CW118" s="24"/>
+      <c r="CX118" s="24"/>
     </row>
     <row r="119" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -42220,10 +42396,10 @@
       <c r="CI119" s="1"/>
       <c r="CJ119" s="1"/>
       <c r="CK119" s="1"/>
-      <c r="CL119" s="1"/>
-      <c r="CM119" s="1"/>
-      <c r="CN119" s="1"/>
-      <c r="CO119" s="1"/>
+      <c r="CL119" s="24"/>
+      <c r="CM119" s="24"/>
+      <c r="CN119" s="24"/>
+      <c r="CO119" s="24"/>
       <c r="CP119" s="24"/>
       <c r="CQ119" s="24"/>
       <c r="CR119" s="24"/>
@@ -42232,6 +42408,7 @@
       <c r="CU119" s="24"/>
       <c r="CV119" s="24"/>
       <c r="CW119" s="24"/>
+      <c r="CX119" s="24"/>
     </row>
     <row r="120" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
@@ -42325,10 +42502,10 @@
       <c r="CI120" s="1"/>
       <c r="CJ120" s="1"/>
       <c r="CK120" s="1"/>
-      <c r="CL120" s="1"/>
-      <c r="CM120" s="1"/>
-      <c r="CN120" s="1"/>
-      <c r="CO120" s="1"/>
+      <c r="CL120" s="24"/>
+      <c r="CM120" s="24"/>
+      <c r="CN120" s="24"/>
+      <c r="CO120" s="24"/>
       <c r="CP120" s="24"/>
       <c r="CQ120" s="24"/>
       <c r="CR120" s="24"/>
@@ -42337,6 +42514,7 @@
       <c r="CU120" s="24"/>
       <c r="CV120" s="24"/>
       <c r="CW120" s="24"/>
+      <c r="CX120" s="24"/>
     </row>
     <row r="121" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
@@ -42428,10 +42606,10 @@
       <c r="CI121" s="1"/>
       <c r="CJ121" s="1"/>
       <c r="CK121" s="1"/>
-      <c r="CL121" s="1"/>
-      <c r="CM121" s="1"/>
-      <c r="CN121" s="1"/>
-      <c r="CO121" s="1"/>
+      <c r="CL121" s="24"/>
+      <c r="CM121" s="24"/>
+      <c r="CN121" s="24"/>
+      <c r="CO121" s="24"/>
       <c r="CP121" s="24"/>
       <c r="CQ121" s="24"/>
       <c r="CR121" s="24"/>
@@ -42440,147 +42618,148 @@
       <c r="CU121" s="24"/>
       <c r="CV121" s="24"/>
       <c r="CW121" s="24"/>
+      <c r="CX121" s="24"/>
     </row>
     <row r="122" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
-      <c r="B122" s="40">
+      <c r="B122" s="39">
         <v>2000</v>
       </c>
-      <c r="C122" s="41"/>
-      <c r="D122" s="41"/>
-      <c r="E122" s="41"/>
-      <c r="F122" s="40">
+      <c r="C122" s="40"/>
+      <c r="D122" s="40"/>
+      <c r="E122" s="40"/>
+      <c r="F122" s="39">
         <v>2001</v>
       </c>
-      <c r="G122" s="41"/>
-      <c r="H122" s="41"/>
-      <c r="I122" s="41"/>
-      <c r="J122" s="40">
+      <c r="G122" s="40"/>
+      <c r="H122" s="40"/>
+      <c r="I122" s="40"/>
+      <c r="J122" s="39">
         <v>2002</v>
       </c>
-      <c r="K122" s="41"/>
-      <c r="L122" s="41"/>
-      <c r="M122" s="41"/>
-      <c r="N122" s="40">
+      <c r="K122" s="40"/>
+      <c r="L122" s="40"/>
+      <c r="M122" s="40"/>
+      <c r="N122" s="39">
         <v>2003</v>
       </c>
-      <c r="O122" s="41"/>
-      <c r="P122" s="41"/>
-      <c r="Q122" s="41"/>
-      <c r="R122" s="40">
+      <c r="O122" s="40"/>
+      <c r="P122" s="40"/>
+      <c r="Q122" s="40"/>
+      <c r="R122" s="39">
         <v>2004</v>
       </c>
-      <c r="S122" s="41"/>
-      <c r="T122" s="41"/>
-      <c r="U122" s="41"/>
-      <c r="V122" s="40">
+      <c r="S122" s="40"/>
+      <c r="T122" s="40"/>
+      <c r="U122" s="40"/>
+      <c r="V122" s="39">
         <v>2005</v>
       </c>
-      <c r="W122" s="41"/>
-      <c r="X122" s="41"/>
-      <c r="Y122" s="41"/>
-      <c r="Z122" s="40">
+      <c r="W122" s="40"/>
+      <c r="X122" s="40"/>
+      <c r="Y122" s="40"/>
+      <c r="Z122" s="39">
         <v>2006</v>
       </c>
-      <c r="AA122" s="41"/>
-      <c r="AB122" s="41"/>
-      <c r="AC122" s="41"/>
-      <c r="AD122" s="40">
+      <c r="AA122" s="40"/>
+      <c r="AB122" s="40"/>
+      <c r="AC122" s="40"/>
+      <c r="AD122" s="39">
         <v>2007</v>
       </c>
-      <c r="AE122" s="41"/>
-      <c r="AF122" s="41"/>
-      <c r="AG122" s="41"/>
-      <c r="AH122" s="40">
+      <c r="AE122" s="40"/>
+      <c r="AF122" s="40"/>
+      <c r="AG122" s="40"/>
+      <c r="AH122" s="39">
         <v>2008</v>
       </c>
-      <c r="AI122" s="41"/>
-      <c r="AJ122" s="41"/>
-      <c r="AK122" s="41"/>
-      <c r="AL122" s="40">
+      <c r="AI122" s="40"/>
+      <c r="AJ122" s="40"/>
+      <c r="AK122" s="40"/>
+      <c r="AL122" s="39">
         <v>2009</v>
       </c>
-      <c r="AM122" s="41"/>
-      <c r="AN122" s="41"/>
-      <c r="AO122" s="41"/>
-      <c r="AP122" s="40">
+      <c r="AM122" s="40"/>
+      <c r="AN122" s="40"/>
+      <c r="AO122" s="40"/>
+      <c r="AP122" s="39">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="41"/>
-      <c r="AR122" s="41"/>
-      <c r="AS122" s="41"/>
-      <c r="AT122" s="40">
+      <c r="AQ122" s="40"/>
+      <c r="AR122" s="40"/>
+      <c r="AS122" s="40"/>
+      <c r="AT122" s="39">
         <v>2011</v>
       </c>
-      <c r="AU122" s="41"/>
-      <c r="AV122" s="41"/>
-      <c r="AW122" s="41"/>
-      <c r="AX122" s="40">
+      <c r="AU122" s="40"/>
+      <c r="AV122" s="40"/>
+      <c r="AW122" s="40"/>
+      <c r="AX122" s="39">
         <v>2012</v>
       </c>
-      <c r="AY122" s="41"/>
-      <c r="AZ122" s="41"/>
-      <c r="BA122" s="41"/>
-      <c r="BB122" s="40">
+      <c r="AY122" s="40"/>
+      <c r="AZ122" s="40"/>
+      <c r="BA122" s="40"/>
+      <c r="BB122" s="39">
         <v>2013</v>
       </c>
-      <c r="BC122" s="41"/>
-      <c r="BD122" s="41"/>
-      <c r="BE122" s="41"/>
-      <c r="BF122" s="40">
+      <c r="BC122" s="40"/>
+      <c r="BD122" s="40"/>
+      <c r="BE122" s="40"/>
+      <c r="BF122" s="39">
         <v>2014</v>
       </c>
-      <c r="BG122" s="41"/>
-      <c r="BH122" s="41"/>
-      <c r="BI122" s="41"/>
-      <c r="BJ122" s="40">
+      <c r="BG122" s="40"/>
+      <c r="BH122" s="40"/>
+      <c r="BI122" s="40"/>
+      <c r="BJ122" s="39">
         <v>2015</v>
       </c>
-      <c r="BK122" s="41"/>
-      <c r="BL122" s="41"/>
-      <c r="BM122" s="41"/>
-      <c r="BN122" s="40">
+      <c r="BK122" s="40"/>
+      <c r="BL122" s="40"/>
+      <c r="BM122" s="40"/>
+      <c r="BN122" s="39">
         <v>2016</v>
       </c>
-      <c r="BO122" s="41"/>
-      <c r="BP122" s="41"/>
-      <c r="BQ122" s="41"/>
-      <c r="BR122" s="40">
+      <c r="BO122" s="40"/>
+      <c r="BP122" s="40"/>
+      <c r="BQ122" s="40"/>
+      <c r="BR122" s="39">
         <v>2017</v>
       </c>
-      <c r="BS122" s="41"/>
-      <c r="BT122" s="41"/>
-      <c r="BU122" s="41"/>
-      <c r="BV122" s="40">
+      <c r="BS122" s="40"/>
+      <c r="BT122" s="40"/>
+      <c r="BU122" s="40"/>
+      <c r="BV122" s="39">
         <v>2018</v>
       </c>
-      <c r="BW122" s="40"/>
-      <c r="BX122" s="40"/>
-      <c r="BY122" s="40"/>
-      <c r="BZ122" s="40">
+      <c r="BW122" s="39"/>
+      <c r="BX122" s="39"/>
+      <c r="BY122" s="39"/>
+      <c r="BZ122" s="39">
         <v>2019</v>
       </c>
-      <c r="CA122" s="40"/>
-      <c r="CB122" s="40"/>
-      <c r="CC122" s="40"/>
-      <c r="CD122" s="40">
+      <c r="CA122" s="39"/>
+      <c r="CB122" s="39"/>
+      <c r="CC122" s="39"/>
+      <c r="CD122" s="39">
         <v>2020</v>
       </c>
-      <c r="CE122" s="40"/>
-      <c r="CF122" s="40"/>
-      <c r="CG122" s="40"/>
+      <c r="CE122" s="39"/>
+      <c r="CF122" s="39"/>
+      <c r="CG122" s="39"/>
       <c r="CH122" s="21">
         <v>2021</v>
       </c>
       <c r="CI122" s="21"/>
       <c r="CJ122" s="21"/>
       <c r="CK122" s="21"/>
-      <c r="CL122" s="21">
+      <c r="CL122" s="25">
         <v>2022</v>
       </c>
-      <c r="CM122" s="21"/>
-      <c r="CN122" s="21"/>
-      <c r="CO122" s="21"/>
+      <c r="CM122" s="25"/>
+      <c r="CN122" s="25"/>
+      <c r="CO122" s="25"/>
       <c r="CP122" s="25">
         <v>2023</v>
       </c>
@@ -42593,6 +42772,9 @@
       <c r="CU122" s="25"/>
       <c r="CV122" s="25"/>
       <c r="CW122" s="25"/>
+      <c r="CX122" s="25">
+        <v>2025</v>
+      </c>
     </row>
     <row r="123" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
@@ -42862,16 +43044,16 @@
       <c r="CK123" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="CL123" s="7" t="s">
+      <c r="CL123" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="CM123" s="7" t="s">
+      <c r="CM123" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="CN123" s="7" t="s">
+      <c r="CN123" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="CO123" s="7" t="s">
+      <c r="CO123" s="26" t="s">
         <v>9</v>
       </c>
       <c r="CP123" s="26" t="s">
@@ -42897,6 +43079,9 @@
       </c>
       <c r="CW123" s="26" t="s">
         <v>9</v>
+      </c>
+      <c r="CX123" s="26" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -42989,10 +43174,10 @@
       <c r="CI124" s="1"/>
       <c r="CJ124" s="1"/>
       <c r="CK124" s="1"/>
-      <c r="CL124" s="1"/>
-      <c r="CM124" s="1"/>
-      <c r="CN124" s="1"/>
-      <c r="CO124" s="1"/>
+      <c r="CL124" s="24"/>
+      <c r="CM124" s="24"/>
+      <c r="CN124" s="24"/>
+      <c r="CO124" s="24"/>
       <c r="CP124" s="24"/>
       <c r="CQ124" s="24"/>
       <c r="CR124" s="24"/>
@@ -43001,6 +43186,7 @@
       <c r="CU124" s="24"/>
       <c r="CV124" s="24"/>
       <c r="CW124" s="24"/>
+      <c r="CX124" s="24"/>
     </row>
     <row r="125" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
@@ -43270,43 +43456,45 @@
       <c r="CK125" s="18">
         <v>62.570359456091083</v>
       </c>
-      <c r="CL125" s="18">
+      <c r="CL125" s="32">
         <v>54.994845973760107</v>
       </c>
-      <c r="CM125" s="18">
+      <c r="CM125" s="32">
         <v>61.850765611518895</v>
       </c>
-      <c r="CN125" s="18">
+      <c r="CN125" s="32">
         <v>61.320184194779614</v>
       </c>
-      <c r="CO125" s="18">
+      <c r="CO125" s="32">
         <v>63.554887447852515</v>
       </c>
       <c r="CP125" s="32">
         <v>57.488309015145447</v>
       </c>
       <c r="CQ125" s="32">
-        <v>61.448214761552912</v>
+        <v>61.670401478869984</v>
       </c>
       <c r="CR125" s="32">
-        <v>61.237701037154743</v>
+        <v>61.413626663464363</v>
       </c>
       <c r="CS125" s="32">
-        <v>62.942525479858865</v>
+        <v>63.159030193375941</v>
       </c>
       <c r="CT125" s="32">
-        <v>55.953602698450489</v>
+        <v>55.929255007487477</v>
       </c>
       <c r="CU125" s="32">
-        <v>61.087696252129106</v>
+        <v>61.403950224635409</v>
       </c>
       <c r="CV125" s="32">
-        <v>61.396274889340454</v>
+        <v>61.701237222546354</v>
       </c>
       <c r="CW125" s="32">
-        <v>62.913603984088383</v>
-      </c>
-      <c r="CX125" s="11"/>
+        <v>63.554935392347645</v>
+      </c>
+      <c r="CX125" s="32">
+        <v>56.832597286201391</v>
+      </c>
       <c r="CY125" s="11"/>
       <c r="CZ125" s="11"/>
       <c r="DA125" s="11"/>
@@ -43629,43 +43817,45 @@
       <c r="CK126" s="18">
         <v>37.429640543908924</v>
       </c>
-      <c r="CL126" s="18">
+      <c r="CL126" s="32">
         <v>45.005154026239879</v>
       </c>
-      <c r="CM126" s="18">
+      <c r="CM126" s="32">
         <v>38.149234388481091</v>
       </c>
-      <c r="CN126" s="18">
+      <c r="CN126" s="32">
         <v>38.679815805220393</v>
       </c>
-      <c r="CO126" s="18">
+      <c r="CO126" s="32">
         <v>36.445112552147485</v>
       </c>
       <c r="CP126" s="32">
         <v>42.511690984854553</v>
       </c>
       <c r="CQ126" s="32">
-        <v>38.551785238447096</v>
+        <v>38.329598521130009</v>
       </c>
       <c r="CR126" s="32">
-        <v>38.762298962845257</v>
+        <v>38.586373336535637</v>
       </c>
       <c r="CS126" s="32">
-        <v>37.057474520141135</v>
+        <v>36.840969806624059</v>
       </c>
       <c r="CT126" s="32">
-        <v>44.046397301549511</v>
+        <v>44.070744992512523</v>
       </c>
       <c r="CU126" s="32">
-        <v>38.912303747870894</v>
+        <v>38.596049775364598</v>
       </c>
       <c r="CV126" s="32">
-        <v>38.603725110659546</v>
+        <v>38.298762777453646</v>
       </c>
       <c r="CW126" s="32">
-        <v>37.086396015911603</v>
-      </c>
-      <c r="CX126" s="11"/>
+        <v>36.445064607652363</v>
+      </c>
+      <c r="CX126" s="32">
+        <v>43.167402713798616</v>
+      </c>
       <c r="CY126" s="11"/>
       <c r="CZ126" s="11"/>
       <c r="DA126" s="11"/>
@@ -43809,10 +43999,10 @@
       <c r="CI127" s="17"/>
       <c r="CJ127" s="17"/>
       <c r="CK127" s="17"/>
-      <c r="CL127" s="17"/>
-      <c r="CM127" s="17"/>
-      <c r="CN127" s="17"/>
-      <c r="CO127" s="17"/>
+      <c r="CL127" s="30"/>
+      <c r="CM127" s="30"/>
+      <c r="CN127" s="30"/>
+      <c r="CO127" s="30"/>
       <c r="CP127" s="30"/>
       <c r="CQ127" s="30"/>
       <c r="CR127" s="30"/>
@@ -43821,7 +44011,7 @@
       <c r="CU127" s="30"/>
       <c r="CV127" s="30"/>
       <c r="CW127" s="30"/>
-      <c r="CX127" s="11"/>
+      <c r="CX127" s="30"/>
       <c r="CY127" s="11"/>
       <c r="CZ127" s="11"/>
       <c r="DA127" s="11"/>
@@ -44144,16 +44334,16 @@
       <c r="CK128" s="18">
         <v>100</v>
       </c>
-      <c r="CL128" s="18">
+      <c r="CL128" s="32">
         <v>100</v>
       </c>
-      <c r="CM128" s="18">
+      <c r="CM128" s="32">
         <v>100</v>
       </c>
-      <c r="CN128" s="18">
+      <c r="CN128" s="32">
         <v>100</v>
       </c>
-      <c r="CO128" s="18">
+      <c r="CO128" s="32">
         <v>100</v>
       </c>
       <c r="CP128" s="32">
@@ -44180,7 +44370,9 @@
       <c r="CW128" s="32">
         <v>100</v>
       </c>
-      <c r="CX128" s="11"/>
+      <c r="CX128" s="32">
+        <v>100</v>
+      </c>
       <c r="CY128" s="11"/>
       <c r="CZ128" s="11"/>
       <c r="DA128" s="11"/>
@@ -44235,7 +44427,7 @@
       <c r="EX128" s="11"/>
       <c r="EY128" s="11"/>
     </row>
-    <row r="129" spans="1:101" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:102" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="15"/>
       <c r="B129" s="15"/>
       <c r="C129" s="15"/>
@@ -44325,10 +44517,10 @@
       <c r="CI129" s="15"/>
       <c r="CJ129" s="15"/>
       <c r="CK129" s="15"/>
-      <c r="CL129" s="15"/>
-      <c r="CM129" s="15"/>
-      <c r="CN129" s="15"/>
-      <c r="CO129" s="15"/>
+      <c r="CL129" s="29"/>
+      <c r="CM129" s="29"/>
+      <c r="CN129" s="29"/>
+      <c r="CO129" s="29"/>
       <c r="CP129" s="29"/>
       <c r="CQ129" s="29"/>
       <c r="CR129" s="29"/>
@@ -44337,8 +44529,9 @@
       <c r="CU129" s="29"/>
       <c r="CV129" s="29"/>
       <c r="CW129" s="29"/>
+      <c r="CX129" s="29"/>
     </row>
-    <row r="130" spans="1:101" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:102" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="16" t="s">
         <v>0</v>
       </c>
@@ -44430,10 +44623,10 @@
       <c r="CI130" s="1"/>
       <c r="CJ130" s="1"/>
       <c r="CK130" s="1"/>
-      <c r="CL130" s="1"/>
-      <c r="CM130" s="1"/>
-      <c r="CN130" s="1"/>
-      <c r="CO130" s="1"/>
+      <c r="CL130" s="24"/>
+      <c r="CM130" s="24"/>
+      <c r="CN130" s="24"/>
+      <c r="CO130" s="24"/>
       <c r="CP130" s="24"/>
       <c r="CQ130" s="24"/>
       <c r="CR130" s="24"/>
@@ -44442,29 +44635,133 @@
       <c r="CU130" s="24"/>
       <c r="CV130" s="24"/>
       <c r="CW130" s="24"/>
-    </row>
-    <row r="131" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="CT131" s="39"/>
-      <c r="CU131" s="39"/>
-      <c r="CV131" s="39"/>
-    </row>
-    <row r="132" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="CT132" s="39"/>
-      <c r="CU132" s="39"/>
-      <c r="CV132" s="39"/>
-    </row>
-    <row r="133" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="CT133" s="39"/>
-      <c r="CU133" s="39"/>
-      <c r="CV133" s="39"/>
-    </row>
-    <row r="134" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="CT134" s="39"/>
-      <c r="CU134" s="39"/>
-      <c r="CV134" s="39"/>
+      <c r="CX130" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="147">
+    <mergeCell ref="BZ28:CC28"/>
+    <mergeCell ref="BZ47:CC47"/>
+    <mergeCell ref="BZ66:CC66"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD122:CG122"/>
+    <mergeCell ref="CD103:CG103"/>
+    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="CD28:CG28"/>
+    <mergeCell ref="BZ103:CC103"/>
+    <mergeCell ref="BZ84:CC84"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BZ122:CC122"/>
+    <mergeCell ref="CD47:CG47"/>
+    <mergeCell ref="CD66:CG66"/>
+    <mergeCell ref="BF122:BI122"/>
+    <mergeCell ref="BJ122:BM122"/>
+    <mergeCell ref="BN122:BQ122"/>
+    <mergeCell ref="BJ103:BM103"/>
+    <mergeCell ref="BN103:BQ103"/>
+    <mergeCell ref="BF84:BI84"/>
+    <mergeCell ref="BJ84:BM84"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="BV47:BY47"/>
+    <mergeCell ref="BV84:BY84"/>
+    <mergeCell ref="BV103:BY103"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BV28:BY28"/>
+    <mergeCell ref="BF28:BI28"/>
+    <mergeCell ref="BR28:BU28"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BJ28:BM28"/>
+    <mergeCell ref="BN28:BQ28"/>
+    <mergeCell ref="BJ47:BM47"/>
+    <mergeCell ref="BN47:BQ47"/>
+    <mergeCell ref="BF47:BI47"/>
+    <mergeCell ref="BR47:BU47"/>
+    <mergeCell ref="AX122:BA122"/>
+    <mergeCell ref="BB122:BE122"/>
+    <mergeCell ref="BN84:BQ84"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="J103:M103"/>
+    <mergeCell ref="N103:Q103"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="V103:Y103"/>
+    <mergeCell ref="Z103:AC103"/>
+    <mergeCell ref="AD103:AG103"/>
+    <mergeCell ref="AH103:AK103"/>
+    <mergeCell ref="AL103:AO103"/>
+    <mergeCell ref="AP103:AS103"/>
+    <mergeCell ref="AT103:AW103"/>
+    <mergeCell ref="AX103:BA103"/>
+    <mergeCell ref="BB103:BE103"/>
+    <mergeCell ref="BF103:BI103"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="AX84:BA84"/>
+    <mergeCell ref="BB84:BE84"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:M122"/>
+    <mergeCell ref="AT122:AW122"/>
+    <mergeCell ref="N122:Q122"/>
+    <mergeCell ref="R122:U122"/>
+    <mergeCell ref="V122:Y122"/>
+    <mergeCell ref="Z122:AC122"/>
+    <mergeCell ref="AD122:AG122"/>
+    <mergeCell ref="AH122:AK122"/>
+    <mergeCell ref="V66:Y66"/>
+    <mergeCell ref="Z66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AK66"/>
+    <mergeCell ref="Z84:AC84"/>
+    <mergeCell ref="AD84:AG84"/>
+    <mergeCell ref="AH84:AK84"/>
+    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="AT66:AW66"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="V84:Y84"/>
+    <mergeCell ref="AL122:AO122"/>
+    <mergeCell ref="AP122:AS122"/>
+    <mergeCell ref="AP66:AS66"/>
+    <mergeCell ref="AH28:AK28"/>
+    <mergeCell ref="AL28:AO28"/>
+    <mergeCell ref="AL47:AO47"/>
+    <mergeCell ref="AP28:AS28"/>
+    <mergeCell ref="AT28:AW28"/>
+    <mergeCell ref="AX28:BA28"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="R47:U47"/>
+    <mergeCell ref="V47:Y47"/>
+    <mergeCell ref="Z47:AC47"/>
+    <mergeCell ref="AD47:AG47"/>
+    <mergeCell ref="AH47:AK47"/>
+    <mergeCell ref="BB28:BE28"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="BB47:BE47"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="V28:Y28"/>
+    <mergeCell ref="Z28:AC28"/>
     <mergeCell ref="B47:E47"/>
     <mergeCell ref="B84:E84"/>
     <mergeCell ref="BR122:BU122"/>
@@ -44489,138 +44786,15 @@
     <mergeCell ref="R66:U66"/>
     <mergeCell ref="AL66:AO66"/>
     <mergeCell ref="F84:I84"/>
-    <mergeCell ref="BB28:BE28"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="BB47:BE47"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="V28:Y28"/>
-    <mergeCell ref="Z28:AC28"/>
-    <mergeCell ref="AT28:AW28"/>
-    <mergeCell ref="AX28:BA28"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="R47:U47"/>
-    <mergeCell ref="V47:Y47"/>
-    <mergeCell ref="Z47:AC47"/>
-    <mergeCell ref="AD47:AG47"/>
-    <mergeCell ref="AH47:AK47"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="V84:Y84"/>
-    <mergeCell ref="AL122:AO122"/>
-    <mergeCell ref="AP122:AS122"/>
-    <mergeCell ref="AP66:AS66"/>
-    <mergeCell ref="AH28:AK28"/>
-    <mergeCell ref="AL28:AO28"/>
-    <mergeCell ref="AL47:AO47"/>
-    <mergeCell ref="AP28:AS28"/>
-    <mergeCell ref="AT122:AW122"/>
-    <mergeCell ref="N122:Q122"/>
-    <mergeCell ref="R122:U122"/>
-    <mergeCell ref="V122:Y122"/>
-    <mergeCell ref="Z122:AC122"/>
-    <mergeCell ref="AD122:AG122"/>
-    <mergeCell ref="AH122:AK122"/>
-    <mergeCell ref="V66:Y66"/>
-    <mergeCell ref="Z66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AK66"/>
-    <mergeCell ref="Z84:AC84"/>
-    <mergeCell ref="AD84:AG84"/>
-    <mergeCell ref="AH84:AK84"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="AT66:AW66"/>
-    <mergeCell ref="AX122:BA122"/>
-    <mergeCell ref="BB122:BE122"/>
-    <mergeCell ref="BN84:BQ84"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="J103:M103"/>
-    <mergeCell ref="N103:Q103"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="V103:Y103"/>
-    <mergeCell ref="Z103:AC103"/>
-    <mergeCell ref="AD103:AG103"/>
-    <mergeCell ref="AH103:AK103"/>
-    <mergeCell ref="AL103:AO103"/>
-    <mergeCell ref="AP103:AS103"/>
-    <mergeCell ref="AT103:AW103"/>
-    <mergeCell ref="AX103:BA103"/>
-    <mergeCell ref="BB103:BE103"/>
-    <mergeCell ref="BF103:BI103"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="BB84:BE84"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="BF122:BI122"/>
-    <mergeCell ref="BJ122:BM122"/>
-    <mergeCell ref="BN122:BQ122"/>
-    <mergeCell ref="BJ103:BM103"/>
-    <mergeCell ref="BN103:BQ103"/>
-    <mergeCell ref="BF84:BI84"/>
-    <mergeCell ref="BJ84:BM84"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="BV47:BY47"/>
-    <mergeCell ref="BV84:BY84"/>
-    <mergeCell ref="BV103:BY103"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BV28:BY28"/>
-    <mergeCell ref="BF28:BI28"/>
-    <mergeCell ref="BR28:BU28"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BJ28:BM28"/>
-    <mergeCell ref="BN28:BQ28"/>
-    <mergeCell ref="BJ47:BM47"/>
-    <mergeCell ref="BN47:BQ47"/>
-    <mergeCell ref="BF47:BI47"/>
-    <mergeCell ref="BR47:BU47"/>
-    <mergeCell ref="BZ28:CC28"/>
-    <mergeCell ref="BZ47:CC47"/>
-    <mergeCell ref="BZ66:CC66"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD122:CG122"/>
-    <mergeCell ref="CD103:CG103"/>
-    <mergeCell ref="CD84:CG84"/>
-    <mergeCell ref="CD28:CG28"/>
-    <mergeCell ref="BZ103:CC103"/>
-    <mergeCell ref="BZ84:CC84"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BZ122:CC122"/>
-    <mergeCell ref="CD47:CG47"/>
-    <mergeCell ref="CD66:CG66"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="100" man="1"/>
-    <brk id="76" max="100" man="1"/>
-    <brk id="94" max="100" man="1"/>
+    <brk id="38" max="101" man="1"/>
+    <brk id="76" max="101" man="1"/>
+    <brk id="94" max="101" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-21OS_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-21OS_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2025\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2025\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098D9226-2923-48FC-978E-24CD96D85AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FC52D7-CB01-4D29-8744-55AAA85ED74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -324,7 +324,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">OS!$A$1:$CX$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">OS!$A$1:$CY$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[10]CAP93+'!$A$1:$IV$1,'[10]CAP93+'!$A$1:$A$65536</definedName>
@@ -469,7 +469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="54">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -624,13 +624,13 @@
     <t>2024 - 2025</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2025</t>
+    <t>As of August 2025</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2025</t>
+    <t>Q1 2000 to Q2 2025</t>
   </si>
   <si>
-    <t>As of May 2025</t>
+    <t>Q1 2001 to Q2 2025</t>
   </si>
 </sst>
 </file>
@@ -638,9 +638,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -730,10 +730,10 @@
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -752,19 +752,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -779,14 +779,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyAlignment="1">
@@ -795,7 +795,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
@@ -23672,17 +23672,17 @@
   <dimension ref="A1:EY130"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CI1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="CO1" activePane="topRight" state="frozen"/>
       <selection activeCell="CE141" sqref="CA141:CE149"/>
-      <selection pane="topRight" activeCell="CX1" sqref="CX1"/>
+      <selection pane="topRight" activeCell="CY1" sqref="CY1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.88671875" style="1" customWidth="1"/>
     <col min="2" max="89" width="9" style="12" customWidth="1"/>
-    <col min="90" max="102" width="10.109375" style="34" customWidth="1"/>
-    <col min="103" max="16384" width="7.77734375" style="12"/>
+    <col min="90" max="103" width="10.109375" style="34" customWidth="1"/>
+    <col min="104" max="16384" width="7.77734375" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -23702,6 +23702,7 @@
       <c r="CV1" s="23"/>
       <c r="CW1" s="23"/>
       <c r="CX1" s="23"/>
+      <c r="CY1" s="23"/>
     </row>
     <row r="2" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -23720,10 +23721,11 @@
       <c r="CV2" s="23"/>
       <c r="CW2" s="23"/>
       <c r="CX2" s="23"/>
+      <c r="CY2" s="23"/>
     </row>
     <row r="3" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="CL3" s="23"/>
       <c r="CM3" s="23"/>
@@ -23738,6 +23740,7 @@
       <c r="CV3" s="23"/>
       <c r="CW3" s="23"/>
       <c r="CX3" s="23"/>
+      <c r="CY3" s="23"/>
     </row>
     <row r="4" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
@@ -23754,6 +23757,7 @@
       <c r="CV4" s="23"/>
       <c r="CW4" s="23"/>
       <c r="CX4" s="23"/>
+      <c r="CY4" s="23"/>
     </row>
     <row r="5" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -23772,10 +23776,11 @@
       <c r="CV5" s="23"/>
       <c r="CW5" s="23"/>
       <c r="CX5" s="23"/>
+      <c r="CY5" s="23"/>
     </row>
     <row r="6" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CL6" s="23"/>
       <c r="CM6" s="23"/>
@@ -23790,6 +23795,7 @@
       <c r="CV6" s="23"/>
       <c r="CW6" s="23"/>
       <c r="CX6" s="23"/>
+      <c r="CY6" s="23"/>
     </row>
     <row r="7" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -23808,6 +23814,7 @@
       <c r="CV7" s="23"/>
       <c r="CW7" s="23"/>
       <c r="CX7" s="23"/>
+      <c r="CY7" s="23"/>
     </row>
     <row r="8" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
@@ -23912,6 +23919,7 @@
       <c r="CV8" s="24"/>
       <c r="CW8" s="24"/>
       <c r="CX8" s="24"/>
+      <c r="CY8" s="24"/>
     </row>
     <row r="9" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
@@ -24068,6 +24076,7 @@
       <c r="CX9" s="25">
         <v>2025</v>
       </c>
+      <c r="CY9" s="25"/>
     </row>
     <row r="10" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
@@ -24375,6 +24384,9 @@
       </c>
       <c r="CX10" s="26" t="s">
         <v>7</v>
+      </c>
+      <c r="CY10" s="26" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24480,6 +24492,7 @@
       <c r="CV11" s="24"/>
       <c r="CW11" s="24"/>
       <c r="CX11" s="24"/>
+      <c r="CY11" s="24"/>
     </row>
     <row r="12" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
@@ -24786,9 +24799,11 @@
         <v>96262.725847254798</v>
       </c>
       <c r="CX12" s="27">
-        <v>81521.424747279088</v>
-      </c>
-      <c r="CY12" s="11"/>
+        <v>81138.383399648039</v>
+      </c>
+      <c r="CY12" s="27">
+        <v>84389.252019720676</v>
+      </c>
       <c r="CZ12" s="11"/>
       <c r="DA12" s="11"/>
       <c r="DB12" s="11"/>
@@ -25147,9 +25162,11 @@
         <v>59898.361376499568</v>
       </c>
       <c r="CX13" s="27">
-        <v>69188.363671401661</v>
-      </c>
-      <c r="CY13" s="11"/>
+        <v>69131.144472028624</v>
+      </c>
+      <c r="CY13" s="27">
+        <v>55378.313135302698</v>
+      </c>
       <c r="CZ13" s="11"/>
       <c r="DA13" s="11"/>
       <c r="DB13" s="11"/>
@@ -25305,7 +25322,7 @@
       <c r="CV14" s="28"/>
       <c r="CW14" s="28"/>
       <c r="CX14" s="28"/>
-      <c r="CY14" s="11"/>
+      <c r="CY14" s="28"/>
       <c r="CZ14" s="11"/>
       <c r="DA14" s="11"/>
       <c r="DB14" s="11"/>
@@ -25664,9 +25681,11 @@
         <v>156161.08722375438</v>
       </c>
       <c r="CX15" s="28">
-        <v>150709.78841868075</v>
-      </c>
-      <c r="CY15" s="11"/>
+        <v>150269.52787167666</v>
+      </c>
+      <c r="CY15" s="28">
+        <v>139767.56515502336</v>
+      </c>
       <c r="CZ15" s="11"/>
       <c r="DA15" s="11"/>
       <c r="DB15" s="11"/>
@@ -25823,6 +25842,7 @@
       <c r="CV16" s="29"/>
       <c r="CW16" s="29"/>
       <c r="CX16" s="29"/>
+      <c r="CY16" s="29"/>
     </row>
     <row r="17" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
@@ -25929,6 +25949,7 @@
       <c r="CV17" s="24"/>
       <c r="CW17" s="24"/>
       <c r="CX17" s="24"/>
+      <c r="CY17" s="24"/>
     </row>
     <row r="18" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="17"/>
@@ -26032,7 +26053,7 @@
       <c r="CV18" s="30"/>
       <c r="CW18" s="30"/>
       <c r="CX18" s="30"/>
-      <c r="CY18" s="11"/>
+      <c r="CY18" s="30"/>
       <c r="CZ18" s="11"/>
       <c r="DA18" s="11"/>
       <c r="DB18" s="11"/>
@@ -26188,7 +26209,7 @@
       <c r="CV19" s="30"/>
       <c r="CW19" s="30"/>
       <c r="CX19" s="30"/>
-      <c r="CY19" s="11"/>
+      <c r="CY19" s="30"/>
       <c r="CZ19" s="11"/>
       <c r="DA19" s="11"/>
       <c r="DB19" s="11"/>
@@ -26347,6 +26368,7 @@
       <c r="CV20" s="24"/>
       <c r="CW20" s="24"/>
       <c r="CX20" s="24"/>
+      <c r="CY20" s="24"/>
     </row>
     <row r="21" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -26453,10 +26475,11 @@
       <c r="CV21" s="24"/>
       <c r="CW21" s="24"/>
       <c r="CX21" s="24"/>
+      <c r="CY21" s="24"/>
     </row>
     <row r="22" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -26559,6 +26582,7 @@
       <c r="CV22" s="24"/>
       <c r="CW22" s="24"/>
       <c r="CX22" s="24"/>
+      <c r="CY22" s="24"/>
     </row>
     <row r="23" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
@@ -26663,6 +26687,7 @@
       <c r="CV23" s="24"/>
       <c r="CW23" s="24"/>
       <c r="CX23" s="24"/>
+      <c r="CY23" s="24"/>
     </row>
     <row r="24" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -26769,10 +26794,11 @@
       <c r="CV24" s="24"/>
       <c r="CW24" s="24"/>
       <c r="CX24" s="24"/>
+      <c r="CY24" s="24"/>
     </row>
     <row r="25" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -26875,6 +26901,7 @@
       <c r="CV25" s="24"/>
       <c r="CW25" s="24"/>
       <c r="CX25" s="24"/>
+      <c r="CY25" s="24"/>
     </row>
     <row r="26" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
@@ -26981,6 +27008,7 @@
       <c r="CV26" s="24"/>
       <c r="CW26" s="24"/>
       <c r="CX26" s="24"/>
+      <c r="CY26" s="24"/>
     </row>
     <row r="27" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
@@ -27085,6 +27113,7 @@
       <c r="CV27" s="24"/>
       <c r="CW27" s="24"/>
       <c r="CX27" s="24"/>
+      <c r="CY27" s="24"/>
     </row>
     <row r="28" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
@@ -27241,6 +27270,7 @@
       <c r="CX28" s="25">
         <v>2025</v>
       </c>
+      <c r="CY28" s="25"/>
     </row>
     <row r="29" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
@@ -27548,6 +27578,9 @@
       </c>
       <c r="CX29" s="26" t="s">
         <v>7</v>
+      </c>
+      <c r="CY29" s="26" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27653,6 +27686,7 @@
       <c r="CV30" s="24"/>
       <c r="CW30" s="24"/>
       <c r="CX30" s="24"/>
+      <c r="CY30" s="24"/>
     </row>
     <row r="31" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
@@ -27959,9 +27993,11 @@
         <v>83183.348883602303</v>
       </c>
       <c r="CX31" s="27">
-        <v>70850.127118311517</v>
-      </c>
-      <c r="CY31" s="11"/>
+        <v>70517.226555602247</v>
+      </c>
+      <c r="CY31" s="27">
+        <v>72861.143813184186</v>
+      </c>
       <c r="CZ31" s="11"/>
       <c r="DA31" s="11"/>
       <c r="DB31" s="11"/>
@@ -28320,9 +28356,11 @@
         <v>47700.819859676805</v>
       </c>
       <c r="CX32" s="27">
-        <v>53814.467676678614</v>
-      </c>
-      <c r="CY32" s="11"/>
+        <v>53701.582169576934</v>
+      </c>
+      <c r="CY32" s="27">
+        <v>44251.274373860353</v>
+      </c>
       <c r="CZ32" s="11"/>
       <c r="DA32" s="11"/>
       <c r="DB32" s="11"/>
@@ -28478,7 +28516,7 @@
       <c r="CV33" s="28"/>
       <c r="CW33" s="28"/>
       <c r="CX33" s="28"/>
-      <c r="CY33" s="11"/>
+      <c r="CY33" s="28"/>
       <c r="CZ33" s="11"/>
       <c r="DA33" s="11"/>
       <c r="DB33" s="11"/>
@@ -28837,9 +28875,11 @@
         <v>130884.16874327911</v>
       </c>
       <c r="CX34" s="28">
-        <v>124664.59479499013</v>
-      </c>
-      <c r="CY34" s="11"/>
+        <v>124218.80872517917</v>
+      </c>
+      <c r="CY34" s="28">
+        <v>117112.41818704453</v>
+      </c>
       <c r="CZ34" s="11"/>
       <c r="DA34" s="11"/>
       <c r="DB34" s="11"/>
@@ -28996,6 +29036,7 @@
       <c r="CV35" s="29"/>
       <c r="CW35" s="29"/>
       <c r="CX35" s="29"/>
+      <c r="CY35" s="29"/>
     </row>
     <row r="36" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
@@ -29102,6 +29143,7 @@
       <c r="CV36" s="24"/>
       <c r="CW36" s="24"/>
       <c r="CX36" s="24"/>
+      <c r="CY36" s="24"/>
     </row>
     <row r="37" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="17"/>
@@ -29205,7 +29247,7 @@
       <c r="CV37" s="30"/>
       <c r="CW37" s="30"/>
       <c r="CX37" s="30"/>
-      <c r="CY37" s="11"/>
+      <c r="CY37" s="30"/>
       <c r="CZ37" s="11"/>
       <c r="DA37" s="11"/>
       <c r="DB37" s="11"/>
@@ -29361,7 +29403,7 @@
       <c r="CV38" s="30"/>
       <c r="CW38" s="30"/>
       <c r="CX38" s="30"/>
-      <c r="CY38" s="11"/>
+      <c r="CY38" s="30"/>
       <c r="CZ38" s="11"/>
       <c r="DA38" s="11"/>
       <c r="DB38" s="11"/>
@@ -29520,6 +29562,7 @@
       <c r="CV39" s="24"/>
       <c r="CW39" s="24"/>
       <c r="CX39" s="24"/>
+      <c r="CY39" s="24"/>
     </row>
     <row r="40" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
@@ -29626,10 +29669,11 @@
       <c r="CV40" s="24"/>
       <c r="CW40" s="24"/>
       <c r="CX40" s="24"/>
+      <c r="CY40" s="24"/>
     </row>
     <row r="41" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -29732,6 +29776,7 @@
       <c r="CV41" s="24"/>
       <c r="CW41" s="24"/>
       <c r="CX41" s="24"/>
+      <c r="CY41" s="24"/>
     </row>
     <row r="42" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
@@ -29836,6 +29881,7 @@
       <c r="CV42" s="24"/>
       <c r="CW42" s="24"/>
       <c r="CX42" s="24"/>
+      <c r="CY42" s="24"/>
     </row>
     <row r="43" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -29942,10 +29988,11 @@
       <c r="CV43" s="24"/>
       <c r="CW43" s="24"/>
       <c r="CX43" s="24"/>
+      <c r="CY43" s="24"/>
     </row>
     <row r="44" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -30048,6 +30095,7 @@
       <c r="CV44" s="24"/>
       <c r="CW44" s="24"/>
       <c r="CX44" s="24"/>
+      <c r="CY44" s="24"/>
     </row>
     <row r="45" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
@@ -30142,10 +30190,11 @@
       <c r="CR45" s="23"/>
       <c r="CS45" s="23"/>
       <c r="CT45" s="23"/>
-      <c r="CU45" s="35"/>
+      <c r="CU45" s="23"/>
       <c r="CV45" s="35"/>
       <c r="CW45" s="23"/>
       <c r="CX45" s="35"/>
+      <c r="CY45" s="35"/>
     </row>
     <row r="46" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
@@ -30246,10 +30295,11 @@
       <c r="CR46" s="24"/>
       <c r="CS46" s="24"/>
       <c r="CT46" s="24"/>
-      <c r="CU46" s="36"/>
+      <c r="CU46" s="24"/>
       <c r="CV46" s="36"/>
       <c r="CW46" s="24"/>
       <c r="CX46" s="36"/>
+      <c r="CY46" s="36"/>
     </row>
     <row r="47" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
@@ -30400,10 +30450,11 @@
       <c r="CT47" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="CU47" s="22"/>
+      <c r="CU47" s="25"/>
       <c r="CV47" s="22"/>
       <c r="CW47" s="22"/>
       <c r="CX47" s="22"/>
+      <c r="CY47" s="22"/>
     </row>
     <row r="48" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
@@ -30700,10 +30751,13 @@
       <c r="CT48" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="CU48" s="31"/>
+      <c r="CU48" s="31" t="s">
+        <v>8</v>
+      </c>
       <c r="CV48" s="31"/>
       <c r="CW48" s="31"/>
       <c r="CX48" s="31"/>
+      <c r="CY48" s="31"/>
     </row>
     <row r="49" spans="1:151" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
@@ -30804,10 +30858,11 @@
       <c r="CR49" s="24"/>
       <c r="CS49" s="24"/>
       <c r="CT49" s="24"/>
-      <c r="CU49" s="36"/>
+      <c r="CU49" s="24"/>
       <c r="CV49" s="36"/>
       <c r="CW49" s="24"/>
       <c r="CX49" s="36"/>
+      <c r="CY49" s="36"/>
     </row>
     <row r="50" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
@@ -31102,13 +31157,15 @@
         <v>14.593782876482805</v>
       </c>
       <c r="CT50" s="32">
-        <v>12.05678978429583</v>
-      </c>
-      <c r="CU50" s="37"/>
+        <v>11.530273179572006</v>
+      </c>
+      <c r="CU50" s="32">
+        <v>10.857772912273788</v>
+      </c>
       <c r="CV50" s="37"/>
       <c r="CW50" s="32"/>
       <c r="CX50" s="37"/>
-      <c r="CY50" s="11"/>
+      <c r="CY50" s="37"/>
       <c r="CZ50" s="11"/>
       <c r="DA50" s="11"/>
       <c r="DB50" s="11"/>
@@ -31451,13 +31508,15 @@
         <v>14.017243519027801</v>
       </c>
       <c r="CT51" s="32">
-        <v>8.6924252148352821</v>
-      </c>
-      <c r="CU51" s="37"/>
+        <v>8.6025359152668699</v>
+      </c>
+      <c r="CU51" s="32">
+        <v>7.9566220400333094</v>
+      </c>
       <c r="CV51" s="37"/>
       <c r="CW51" s="32"/>
       <c r="CX51" s="37"/>
-      <c r="CY51" s="11"/>
+      <c r="CY51" s="37"/>
       <c r="CZ51" s="11"/>
       <c r="DA51" s="11"/>
       <c r="DB51" s="11"/>
@@ -31606,11 +31665,11 @@
       <c r="CR52" s="30"/>
       <c r="CS52" s="30"/>
       <c r="CT52" s="30"/>
-      <c r="CU52" s="38"/>
+      <c r="CU52" s="30"/>
       <c r="CV52" s="38"/>
       <c r="CW52" s="30"/>
       <c r="CX52" s="38"/>
-      <c r="CY52" s="11"/>
+      <c r="CY52" s="38"/>
       <c r="CZ52" s="11"/>
       <c r="DA52" s="11"/>
       <c r="DB52" s="11"/>
@@ -31953,13 +32012,15 @@
         <v>14.371952979659426</v>
       </c>
       <c r="CT53" s="32">
-        <v>10.486768134589127</v>
-      </c>
-      <c r="CU53" s="37"/>
+        <v>10.164008972851633</v>
+      </c>
+      <c r="CU53" s="32">
+        <v>9.6898323985811601</v>
+      </c>
       <c r="CV53" s="37"/>
       <c r="CW53" s="32"/>
       <c r="CX53" s="37"/>
-      <c r="CY53" s="11"/>
+      <c r="CY53" s="37"/>
       <c r="CZ53" s="11"/>
       <c r="DA53" s="11"/>
       <c r="DB53" s="11"/>
@@ -32108,10 +32169,11 @@
       <c r="CR54" s="29"/>
       <c r="CS54" s="29"/>
       <c r="CT54" s="29"/>
-      <c r="CU54" s="26"/>
+      <c r="CU54" s="29"/>
       <c r="CV54" s="26"/>
       <c r="CW54" s="29"/>
       <c r="CX54" s="26"/>
+      <c r="CY54" s="26"/>
     </row>
     <row r="55" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
@@ -32214,10 +32276,11 @@
       <c r="CR55" s="24"/>
       <c r="CS55" s="24"/>
       <c r="CT55" s="24"/>
-      <c r="CU55" s="36"/>
+      <c r="CU55" s="24"/>
       <c r="CV55" s="36"/>
       <c r="CW55" s="24"/>
       <c r="CX55" s="36"/>
+      <c r="CY55" s="36"/>
     </row>
     <row r="56" spans="1:151" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="17"/>
@@ -32317,11 +32380,11 @@
       <c r="CR56" s="30"/>
       <c r="CS56" s="30"/>
       <c r="CT56" s="30"/>
-      <c r="CU56" s="38"/>
+      <c r="CU56" s="30"/>
       <c r="CV56" s="38"/>
       <c r="CW56" s="30"/>
       <c r="CX56" s="38"/>
-      <c r="CY56" s="11"/>
+      <c r="CY56" s="38"/>
       <c r="CZ56" s="11"/>
       <c r="DA56" s="11"/>
       <c r="DB56" s="11"/>
@@ -32469,11 +32532,11 @@
       <c r="CR57" s="30"/>
       <c r="CS57" s="30"/>
       <c r="CT57" s="30"/>
-      <c r="CU57" s="38"/>
+      <c r="CU57" s="30"/>
       <c r="CV57" s="38"/>
       <c r="CW57" s="30"/>
       <c r="CX57" s="38"/>
-      <c r="CY57" s="11"/>
+      <c r="CY57" s="38"/>
       <c r="CZ57" s="11"/>
       <c r="DA57" s="11"/>
       <c r="DB57" s="11"/>
@@ -32624,10 +32687,11 @@
       <c r="CR58" s="24"/>
       <c r="CS58" s="24"/>
       <c r="CT58" s="24"/>
-      <c r="CU58" s="36"/>
+      <c r="CU58" s="24"/>
       <c r="CV58" s="36"/>
       <c r="CW58" s="24"/>
       <c r="CX58" s="36"/>
+      <c r="CY58" s="36"/>
     </row>
     <row r="59" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
@@ -32730,14 +32794,15 @@
       <c r="CR59" s="24"/>
       <c r="CS59" s="24"/>
       <c r="CT59" s="24"/>
-      <c r="CU59" s="36"/>
+      <c r="CU59" s="24"/>
       <c r="CV59" s="36"/>
       <c r="CW59" s="24"/>
       <c r="CX59" s="36"/>
+      <c r="CY59" s="36"/>
     </row>
     <row r="60" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -32836,10 +32901,11 @@
       <c r="CR60" s="24"/>
       <c r="CS60" s="24"/>
       <c r="CT60" s="24"/>
-      <c r="CU60" s="36"/>
+      <c r="CU60" s="24"/>
       <c r="CV60" s="36"/>
       <c r="CW60" s="24"/>
       <c r="CX60" s="36"/>
+      <c r="CY60" s="36"/>
     </row>
     <row r="61" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
@@ -32940,10 +33006,11 @@
       <c r="CR61" s="24"/>
       <c r="CS61" s="24"/>
       <c r="CT61" s="24"/>
-      <c r="CU61" s="36"/>
+      <c r="CU61" s="24"/>
       <c r="CV61" s="36"/>
       <c r="CW61" s="24"/>
       <c r="CX61" s="36"/>
+      <c r="CY61" s="36"/>
     </row>
     <row r="62" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
@@ -33046,14 +33113,15 @@
       <c r="CR62" s="24"/>
       <c r="CS62" s="24"/>
       <c r="CT62" s="24"/>
-      <c r="CU62" s="36"/>
+      <c r="CU62" s="24"/>
       <c r="CV62" s="36"/>
       <c r="CW62" s="24"/>
       <c r="CX62" s="36"/>
+      <c r="CY62" s="36"/>
     </row>
     <row r="63" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -33152,10 +33220,11 @@
       <c r="CR63" s="24"/>
       <c r="CS63" s="24"/>
       <c r="CT63" s="24"/>
-      <c r="CU63" s="36"/>
+      <c r="CU63" s="24"/>
       <c r="CV63" s="36"/>
       <c r="CW63" s="24"/>
       <c r="CX63" s="36"/>
+      <c r="CY63" s="36"/>
     </row>
     <row r="64" spans="1:151" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
@@ -33258,10 +33327,11 @@
       <c r="CR64" s="24"/>
       <c r="CS64" s="24"/>
       <c r="CT64" s="24"/>
-      <c r="CU64" s="36"/>
+      <c r="CU64" s="24"/>
       <c r="CV64" s="36"/>
       <c r="CW64" s="24"/>
       <c r="CX64" s="36"/>
+      <c r="CY64" s="36"/>
     </row>
     <row r="65" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
@@ -33362,10 +33432,11 @@
       <c r="CR65" s="24"/>
       <c r="CS65" s="24"/>
       <c r="CT65" s="24"/>
-      <c r="CU65" s="36"/>
+      <c r="CU65" s="24"/>
       <c r="CV65" s="36"/>
       <c r="CW65" s="24"/>
       <c r="CX65" s="36"/>
+      <c r="CY65" s="36"/>
     </row>
     <row r="66" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
@@ -33516,10 +33587,11 @@
       <c r="CT66" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="CU66" s="22"/>
+      <c r="CU66" s="25"/>
       <c r="CV66" s="22"/>
       <c r="CW66" s="22"/>
       <c r="CX66" s="22"/>
+      <c r="CY66" s="22"/>
     </row>
     <row r="67" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
@@ -33816,10 +33888,13 @@
       <c r="CT67" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="CU67" s="31"/>
+      <c r="CU67" s="31" t="s">
+        <v>8</v>
+      </c>
       <c r="CV67" s="31"/>
       <c r="CW67" s="31"/>
       <c r="CX67" s="31"/>
+      <c r="CY67" s="31"/>
     </row>
     <row r="68" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
@@ -33920,10 +33995,11 @@
       <c r="CR68" s="24"/>
       <c r="CS68" s="24"/>
       <c r="CT68" s="24"/>
-      <c r="CU68" s="36"/>
+      <c r="CU68" s="24"/>
       <c r="CV68" s="36"/>
       <c r="CW68" s="24"/>
       <c r="CX68" s="36"/>
+      <c r="CY68" s="36"/>
     </row>
     <row r="69" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
@@ -34218,13 +34294,15 @@
         <v>11.642604948762482</v>
       </c>
       <c r="CT69" s="32">
-        <v>9.358020696483436</v>
-      </c>
-      <c r="CU69" s="37"/>
+        <v>8.844184686481114</v>
+      </c>
+      <c r="CU69" s="32">
+        <v>8.8145555296699598</v>
+      </c>
       <c r="CV69" s="37"/>
       <c r="CW69" s="32"/>
       <c r="CX69" s="37"/>
-      <c r="CY69" s="11"/>
+      <c r="CY69" s="37"/>
       <c r="CZ69" s="11"/>
       <c r="DA69" s="11"/>
       <c r="DB69" s="11"/>
@@ -34567,13 +34645,15 @@
         <v>9.7548708073445169</v>
       </c>
       <c r="CT70" s="32">
-        <v>5.41385563316976</v>
-      </c>
-      <c r="CU70" s="37"/>
+        <v>5.1927311463461052</v>
+      </c>
+      <c r="CU70" s="32">
+        <v>5.1405496645442668</v>
+      </c>
       <c r="CV70" s="37"/>
       <c r="CW70" s="32"/>
       <c r="CX70" s="37"/>
-      <c r="CY70" s="11"/>
+      <c r="CY70" s="37"/>
       <c r="CZ70" s="11"/>
       <c r="DA70" s="11"/>
       <c r="DB70" s="11"/>
@@ -34721,11 +34801,11 @@
       <c r="CR71" s="30"/>
       <c r="CS71" s="30"/>
       <c r="CT71" s="30"/>
-      <c r="CU71" s="38"/>
+      <c r="CU71" s="30"/>
       <c r="CV71" s="38"/>
       <c r="CW71" s="30"/>
       <c r="CX71" s="38"/>
-      <c r="CY71" s="11"/>
+      <c r="CY71" s="38"/>
       <c r="CZ71" s="11"/>
       <c r="DA71" s="11"/>
       <c r="DB71" s="11"/>
@@ -35068,13 +35148,15 @@
         <v>10.947145383693368</v>
       </c>
       <c r="CT72" s="32">
-        <v>7.6197977693466896</v>
-      </c>
-      <c r="CU72" s="37"/>
+        <v>7.2349619082881418</v>
+      </c>
+      <c r="CU72" s="32">
+        <v>7.396534397216243</v>
+      </c>
       <c r="CV72" s="37"/>
       <c r="CW72" s="32"/>
       <c r="CX72" s="37"/>
-      <c r="CY72" s="11"/>
+      <c r="CY72" s="37"/>
       <c r="CZ72" s="11"/>
       <c r="DA72" s="11"/>
       <c r="DB72" s="11"/>
@@ -35223,10 +35305,11 @@
       <c r="CR73" s="29"/>
       <c r="CS73" s="29"/>
       <c r="CT73" s="29"/>
-      <c r="CU73" s="26"/>
+      <c r="CU73" s="29"/>
       <c r="CV73" s="26"/>
       <c r="CW73" s="29"/>
       <c r="CX73" s="26"/>
+      <c r="CY73" s="26"/>
     </row>
     <row r="74" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="16" t="s">
@@ -35329,10 +35412,11 @@
       <c r="CR74" s="24"/>
       <c r="CS74" s="24"/>
       <c r="CT74" s="24"/>
-      <c r="CU74" s="36"/>
+      <c r="CU74" s="24"/>
       <c r="CV74" s="36"/>
       <c r="CW74" s="24"/>
       <c r="CX74" s="36"/>
+      <c r="CY74" s="36"/>
     </row>
     <row r="75" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="17"/>
@@ -35436,7 +35520,7 @@
       <c r="CV75" s="33"/>
       <c r="CW75" s="33"/>
       <c r="CX75" s="33"/>
-      <c r="CY75" s="11"/>
+      <c r="CY75" s="33"/>
       <c r="CZ75" s="11"/>
       <c r="DA75" s="11"/>
       <c r="DB75" s="11"/>
@@ -35588,7 +35672,7 @@
       <c r="CV76" s="30"/>
       <c r="CW76" s="30"/>
       <c r="CX76" s="30"/>
-      <c r="CY76" s="11"/>
+      <c r="CY76" s="30"/>
       <c r="CZ76" s="11"/>
       <c r="DA76" s="11"/>
       <c r="DB76" s="11"/>
@@ -35747,10 +35831,11 @@
       <c r="CV77" s="24"/>
       <c r="CW77" s="24"/>
       <c r="CX77" s="24"/>
+      <c r="CY77" s="24"/>
     </row>
     <row r="78" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -35853,6 +35938,7 @@
       <c r="CV78" s="24"/>
       <c r="CW78" s="24"/>
       <c r="CX78" s="24"/>
+      <c r="CY78" s="24"/>
     </row>
     <row r="79" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
@@ -35957,6 +36043,7 @@
       <c r="CV79" s="24"/>
       <c r="CW79" s="24"/>
       <c r="CX79" s="24"/>
+      <c r="CY79" s="24"/>
     </row>
     <row r="80" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
@@ -36063,10 +36150,11 @@
       <c r="CV80" s="24"/>
       <c r="CW80" s="24"/>
       <c r="CX80" s="24"/>
+      <c r="CY80" s="24"/>
     </row>
     <row r="81" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -36169,6 +36257,7 @@
       <c r="CV81" s="24"/>
       <c r="CW81" s="24"/>
       <c r="CX81" s="24"/>
+      <c r="CY81" s="24"/>
     </row>
     <row r="82" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
@@ -36275,6 +36364,7 @@
       <c r="CV82" s="24"/>
       <c r="CW82" s="24"/>
       <c r="CX82" s="24"/>
+      <c r="CY82" s="24"/>
     </row>
     <row r="83" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
@@ -36379,6 +36469,7 @@
       <c r="CV83" s="24"/>
       <c r="CW83" s="24"/>
       <c r="CX83" s="24"/>
+      <c r="CY83" s="24"/>
     </row>
     <row r="84" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
@@ -36535,6 +36626,7 @@
       <c r="CX84" s="25">
         <v>2025</v>
       </c>
+      <c r="CY84" s="25"/>
     </row>
     <row r="85" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
@@ -36842,6 +36934,9 @@
       </c>
       <c r="CX85" s="26" t="s">
         <v>7</v>
+      </c>
+      <c r="CY85" s="26" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -36947,6 +37042,7 @@
       <c r="CV86" s="24"/>
       <c r="CW86" s="24"/>
       <c r="CX86" s="24"/>
+      <c r="CY86" s="24"/>
     </row>
     <row r="87" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
@@ -37253,9 +37349,11 @@
         <v>115.72355181558554</v>
       </c>
       <c r="CX87" s="32">
-        <v>115.06179037780375</v>
-      </c>
-      <c r="CY87" s="11"/>
+        <v>115.06179037780377</v>
+      </c>
+      <c r="CY87" s="32">
+        <v>115.82202474901374</v>
+      </c>
       <c r="CZ87" s="11"/>
       <c r="DA87" s="11"/>
       <c r="DB87" s="11"/>
@@ -37614,9 +37712,11 @@
         <v>125.57092635452535</v>
       </c>
       <c r="CX88" s="32">
-        <v>128.56833238059804</v>
-      </c>
-      <c r="CY88" s="11"/>
+        <v>128.73204415789607</v>
+      </c>
+      <c r="CY88" s="32">
+        <v>125.14512614356524</v>
+      </c>
       <c r="CZ88" s="11"/>
       <c r="DA88" s="11"/>
       <c r="DB88" s="11"/>
@@ -37772,7 +37872,7 @@
       <c r="CV89" s="30"/>
       <c r="CW89" s="30"/>
       <c r="CX89" s="30"/>
-      <c r="CY89" s="11"/>
+      <c r="CY89" s="30"/>
       <c r="CZ89" s="11"/>
       <c r="DA89" s="11"/>
       <c r="DB89" s="11"/>
@@ -38131,9 +38231,11 @@
         <v>119.31243382845966</v>
       </c>
       <c r="CX90" s="32">
-        <v>120.89221375685833</v>
-      </c>
-      <c r="CY90" s="11"/>
+        <v>120.97163820346395</v>
+      </c>
+      <c r="CY90" s="32">
+        <v>119.34478624785585</v>
+      </c>
       <c r="CZ90" s="11"/>
       <c r="DA90" s="11"/>
       <c r="DB90" s="11"/>
@@ -38290,6 +38392,7 @@
       <c r="CV91" s="29"/>
       <c r="CW91" s="29"/>
       <c r="CX91" s="29"/>
+      <c r="CY91" s="29"/>
     </row>
     <row r="92" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="16" t="s">
@@ -38396,6 +38499,7 @@
       <c r="CV92" s="24"/>
       <c r="CW92" s="24"/>
       <c r="CX92" s="24"/>
+      <c r="CY92" s="24"/>
     </row>
     <row r="93" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
@@ -38499,6 +38603,7 @@
       <c r="CV93" s="24"/>
       <c r="CW93" s="24"/>
       <c r="CX93" s="24"/>
+      <c r="CY93" s="24"/>
     </row>
     <row r="94" spans="1:155" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
@@ -38602,6 +38707,7 @@
       <c r="CV94" s="24"/>
       <c r="CW94" s="24"/>
       <c r="CX94" s="24"/>
+      <c r="CY94" s="24"/>
     </row>
     <row r="95" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
@@ -38708,6 +38814,7 @@
       <c r="CV95" s="24"/>
       <c r="CW95" s="24"/>
       <c r="CX95" s="24"/>
+      <c r="CY95" s="24"/>
     </row>
     <row r="96" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
@@ -38814,10 +38921,11 @@
       <c r="CV96" s="24"/>
       <c r="CW96" s="24"/>
       <c r="CX96" s="24"/>
+      <c r="CY96" s="24"/>
     </row>
     <row r="97" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -38920,6 +39028,7 @@
       <c r="CV97" s="24"/>
       <c r="CW97" s="24"/>
       <c r="CX97" s="24"/>
+      <c r="CY97" s="24"/>
     </row>
     <row r="98" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
@@ -39024,6 +39133,7 @@
       <c r="CV98" s="24"/>
       <c r="CW98" s="24"/>
       <c r="CX98" s="24"/>
+      <c r="CY98" s="24"/>
     </row>
     <row r="99" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
@@ -39130,10 +39240,11 @@
       <c r="CV99" s="24"/>
       <c r="CW99" s="24"/>
       <c r="CX99" s="24"/>
+      <c r="CY99" s="24"/>
     </row>
     <row r="100" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -39236,6 +39347,7 @@
       <c r="CV100" s="24"/>
       <c r="CW100" s="24"/>
       <c r="CX100" s="24"/>
+      <c r="CY100" s="24"/>
     </row>
     <row r="101" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
@@ -39342,6 +39454,7 @@
       <c r="CV101" s="24"/>
       <c r="CW101" s="24"/>
       <c r="CX101" s="24"/>
+      <c r="CY101" s="24"/>
     </row>
     <row r="102" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
@@ -39446,6 +39559,7 @@
       <c r="CV102" s="24"/>
       <c r="CW102" s="24"/>
       <c r="CX102" s="24"/>
+      <c r="CY102" s="24"/>
     </row>
     <row r="103" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
@@ -39602,6 +39716,7 @@
       <c r="CX103" s="25">
         <v>2025</v>
       </c>
+      <c r="CY103" s="25"/>
     </row>
     <row r="104" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
@@ -39909,6 +40024,9 @@
       </c>
       <c r="CX104" s="26" t="s">
         <v>7</v>
+      </c>
+      <c r="CY104" s="26" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -40014,6 +40132,7 @@
       <c r="CV105" s="24"/>
       <c r="CW105" s="24"/>
       <c r="CX105" s="24"/>
+      <c r="CY105" s="24"/>
     </row>
     <row r="106" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
@@ -40320,9 +40439,11 @@
         <v>61.643222110336225</v>
       </c>
       <c r="CX106" s="32">
-        <v>54.091658944412899</v>
-      </c>
-      <c r="CY106" s="11"/>
+        <v>53.995234129527923</v>
+      </c>
+      <c r="CY106" s="32">
+        <v>60.378280129671168</v>
+      </c>
       <c r="CZ106" s="11"/>
       <c r="DA106" s="11"/>
       <c r="DB106" s="11"/>
@@ -40681,9 +40802,11 @@
         <v>38.356777889663768</v>
       </c>
       <c r="CX107" s="32">
-        <v>45.908341055587101</v>
-      </c>
-      <c r="CY107" s="11"/>
+        <v>46.00476587047207</v>
+      </c>
+      <c r="CY107" s="32">
+        <v>39.621719870328839</v>
+      </c>
       <c r="CZ107" s="11"/>
       <c r="DA107" s="11"/>
       <c r="DB107" s="11"/>
@@ -40839,7 +40962,7 @@
       <c r="CV108" s="30"/>
       <c r="CW108" s="30"/>
       <c r="CX108" s="30"/>
-      <c r="CY108" s="11"/>
+      <c r="CY108" s="30"/>
       <c r="CZ108" s="11"/>
       <c r="DA108" s="11"/>
       <c r="DB108" s="11"/>
@@ -41200,7 +41323,9 @@
       <c r="CX109" s="32">
         <v>100</v>
       </c>
-      <c r="CY109" s="11"/>
+      <c r="CY109" s="32">
+        <v>100</v>
+      </c>
       <c r="CZ109" s="11"/>
       <c r="DA109" s="11"/>
       <c r="DB109" s="11"/>
@@ -41357,6 +41482,7 @@
       <c r="CV110" s="29"/>
       <c r="CW110" s="29"/>
       <c r="CX110" s="29"/>
+      <c r="CY110" s="29"/>
     </row>
     <row r="111" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="16" t="s">
@@ -41463,6 +41589,7 @@
       <c r="CV111" s="24"/>
       <c r="CW111" s="24"/>
       <c r="CX111" s="24"/>
+      <c r="CY111" s="24"/>
     </row>
     <row r="112" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="17"/>
@@ -41566,7 +41693,7 @@
       <c r="CV112" s="30"/>
       <c r="CW112" s="30"/>
       <c r="CX112" s="30"/>
-      <c r="CY112" s="11"/>
+      <c r="CY112" s="30"/>
       <c r="CZ112" s="11"/>
       <c r="DA112" s="11"/>
       <c r="DB112" s="11"/>
@@ -41722,7 +41849,7 @@
       <c r="CV113" s="30"/>
       <c r="CW113" s="30"/>
       <c r="CX113" s="30"/>
-      <c r="CY113" s="11"/>
+      <c r="CY113" s="30"/>
       <c r="CZ113" s="11"/>
       <c r="DA113" s="11"/>
       <c r="DB113" s="11"/>
@@ -41881,6 +42008,7 @@
       <c r="CV114" s="24"/>
       <c r="CW114" s="24"/>
       <c r="CX114" s="24"/>
+      <c r="CY114" s="24"/>
     </row>
     <row r="115" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
@@ -41987,10 +42115,11 @@
       <c r="CV115" s="24"/>
       <c r="CW115" s="24"/>
       <c r="CX115" s="24"/>
+      <c r="CY115" s="24"/>
     </row>
     <row r="116" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -42093,6 +42222,7 @@
       <c r="CV116" s="24"/>
       <c r="CW116" s="24"/>
       <c r="CX116" s="24"/>
+      <c r="CY116" s="24"/>
     </row>
     <row r="117" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
@@ -42197,6 +42327,7 @@
       <c r="CV117" s="24"/>
       <c r="CW117" s="24"/>
       <c r="CX117" s="24"/>
+      <c r="CY117" s="24"/>
     </row>
     <row r="118" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
@@ -42303,10 +42434,11 @@
       <c r="CV118" s="24"/>
       <c r="CW118" s="24"/>
       <c r="CX118" s="24"/>
+      <c r="CY118" s="24"/>
     </row>
     <row r="119" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -42409,6 +42541,7 @@
       <c r="CV119" s="24"/>
       <c r="CW119" s="24"/>
       <c r="CX119" s="24"/>
+      <c r="CY119" s="24"/>
     </row>
     <row r="120" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
@@ -42515,6 +42648,7 @@
       <c r="CV120" s="24"/>
       <c r="CW120" s="24"/>
       <c r="CX120" s="24"/>
+      <c r="CY120" s="24"/>
     </row>
     <row r="121" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
@@ -42619,6 +42753,7 @@
       <c r="CV121" s="24"/>
       <c r="CW121" s="24"/>
       <c r="CX121" s="24"/>
+      <c r="CY121" s="24"/>
     </row>
     <row r="122" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
@@ -42775,6 +42910,7 @@
       <c r="CX122" s="25">
         <v>2025</v>
       </c>
+      <c r="CY122" s="25"/>
     </row>
     <row r="123" spans="1:155" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
@@ -43082,6 +43218,9 @@
       </c>
       <c r="CX123" s="26" t="s">
         <v>7</v>
+      </c>
+      <c r="CY123" s="26" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:155" s="2" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -43187,6 +43326,7 @@
       <c r="CV124" s="24"/>
       <c r="CW124" s="24"/>
       <c r="CX124" s="24"/>
+      <c r="CY124" s="24"/>
     </row>
     <row r="125" spans="1:155" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
@@ -43493,9 +43633,11 @@
         <v>63.554935392347645</v>
       </c>
       <c r="CX125" s="32">
-        <v>56.832597286201391</v>
-      </c>
-      <c r="CY125" s="11"/>
+        <v>56.768558062421981</v>
+      </c>
+      <c r="CY125" s="32">
+        <v>62.214703565265793</v>
+      </c>
       <c r="CZ125" s="11"/>
       <c r="DA125" s="11"/>
       <c r="DB125" s="11"/>
@@ -43854,9 +43996,11 @@
         <v>36.445064607652363</v>
       </c>
       <c r="CX126" s="32">
-        <v>43.167402713798616</v>
-      </c>
-      <c r="CY126" s="11"/>
+        <v>43.231441937578019</v>
+      </c>
+      <c r="CY126" s="32">
+        <v>37.785296434734207</v>
+      </c>
       <c r="CZ126" s="11"/>
       <c r="DA126" s="11"/>
       <c r="DB126" s="11"/>
@@ -44012,7 +44156,7 @@
       <c r="CV127" s="30"/>
       <c r="CW127" s="30"/>
       <c r="CX127" s="30"/>
-      <c r="CY127" s="11"/>
+      <c r="CY127" s="30"/>
       <c r="CZ127" s="11"/>
       <c r="DA127" s="11"/>
       <c r="DB127" s="11"/>
@@ -44373,7 +44517,9 @@
       <c r="CX128" s="32">
         <v>100</v>
       </c>
-      <c r="CY128" s="11"/>
+      <c r="CY128" s="32">
+        <v>100</v>
+      </c>
       <c r="CZ128" s="11"/>
       <c r="DA128" s="11"/>
       <c r="DB128" s="11"/>
@@ -44427,7 +44573,7 @@
       <c r="EX128" s="11"/>
       <c r="EY128" s="11"/>
     </row>
-    <row r="129" spans="1:102" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:103" s="2" customFormat="1" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="15"/>
       <c r="B129" s="15"/>
       <c r="C129" s="15"/>
@@ -44530,8 +44676,9 @@
       <c r="CV129" s="29"/>
       <c r="CW129" s="29"/>
       <c r="CX129" s="29"/>
+      <c r="CY129" s="29"/>
     </row>
-    <row r="130" spans="1:102" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:103" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="16" t="s">
         <v>0</v>
       </c>
@@ -44636,6 +44783,7 @@
       <c r="CV130" s="24"/>
       <c r="CW130" s="24"/>
       <c r="CX130" s="24"/>
+      <c r="CY130" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="147">
@@ -44792,9 +44940,9 @@
   <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="101" man="1"/>
-    <brk id="76" max="101" man="1"/>
-    <brk id="94" max="101" man="1"/>
+    <brk id="38" max="102" man="1"/>
+    <brk id="76" max="102" man="1"/>
+    <brk id="94" max="102" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>